--- a/Astronomy Utilities/Astronomy Utlities.xlsx
+++ b/Astronomy Utilities/Astronomy Utlities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/Astronomy Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{025ADDB9-D62C-D942-843E-776EA780618F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED43031-195B-F647-BBA0-DBC1F31F13B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1100" windowWidth="33260" windowHeight="14260" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="ASTRO_SPECTRAL_DISTRIBUTION">_xlfn.LAMBDA(_xlop.type,_xlop.count,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.count, IF(_xlfn.ISOMITTED(_xlpm.count), 1, _xlpm.count), _xlpm.spectral_classes, {"O";"B";"A";"F";"G";"K";"M"}, _xlpm.base_frequencies, {3000000;800;160;33;13;8;1.31531603010874}, _xlpm.class_string, "OBAFGKM", _xlpm.type, IF(OR(_xlfn.ISOMITTED(_xlpm.type), ISERROR(SEARCH(_xlpm.type, _xlpm.class_string))), "$", UPPER(_xlpm.type)), _xlpm.base_freq, _xlfn.XLOOKUP(_xlpm.type, _xlpm.spectral_classes, _xlpm.base_frequencies), _xlpm.scaling_factors, _xlpm.base_freq / _xlpm.base_frequencies, _xlpm.scaled_distribution, IF(_xlpm.type &lt;&gt; "$", _xlpm.count * _xlpm.scaling_factors, _xlfn.BYROW(_xlpm.base_frequencies, _xlfn.LAMBDA(_xlpm.x, 1 / _xlpm.x))), _xlpm.result, _xlfn.HSTACK(_xlpm.spectral_classes, ROUND(_xlpm.scaled_distribution, _xlpm.precision)), _xlpm.result))</definedName>
     <definedName name="AXIS_PERIOD">_xlfn.LAMBDA(_xlpm.input, SQRT(POWER(_xlpm.input, 3)))</definedName>
     <definedName name="CROSSING_ORBIT_PARAMETER">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2, ABS(_xlpm.mass1 - _xlpm.mass2) / ABS(_xlpm.mass1 + _xlpm.mass2))</definedName>
     <definedName name="CUBIC_VOLUME_PER_STARS">_xlfn.LAMBDA(_xlpm.stars,_xlop.prec,_xlop.mode, _xlfn.LET(_xlpm.mode, IF((_xlfn.ISOMITTED(_xlpm.mode)) + (_xlpm.mode &lt; 0) + (_xlpm.mode &gt; 2), 0, _xlpm.mode), _xlpm.prec, IF((_xlfn.ISOMITTED(_xlpm.prec)) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.volume, ROUND(_xlpm.stars * 250, _xlpm.prec), _xlpm.side, ROUND(POWER(_xlpm.volume, 1 / 3), _xlpm.prec), _xlpm.radius, ROUND(POWER((_xlpm.volume * 3) / (4 * PI()), 1 / 3), _xlpm.prec), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlpm.volume, 1, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , _xlpm.volume, _xlpm.side), "; ")), 2, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , _xlpm.volume, _xlpm.side, _xlpm.radius), "; "))), _xlpm.output))</definedName>
@@ -28,13 +29,11 @@
     <definedName name="ORB_AXIS">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2,_xlpm.period, _xlfn.LET(_xlpm.mass2, IF((_xlfn.ISOMITTED(_xlpm.mass2)) + (_xlpm.mass2 = 1), 0, _xlpm.mass2 * 0.000003003), _xlpm.axis, POWER((POWER(_xlpm.period, 2) * (_xlpm.mass1 + _xlpm.mass2)), 1 / 3), _xlpm.axis))</definedName>
     <definedName name="ORB_PERIOD">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2,_xlpm.axis, _xlfn.LET(_xlpm.mass2, IF((_xlfn.ISOMITTED(_xlpm.mass2)) + (_xlpm.mass2 = 1), 0, (_xlpm.mass2 * 0.00000300273)), _xlpm.period, SQRT(POWER(_xlpm.axis, 3) / (_xlpm.mass1 + _xlpm.mass2)), _xlpm.period))</definedName>
     <definedName name="ORB_SUM_MASSES">_xlfn.LAMBDA(_xlpm.axis,_xlpm.period, POWER(_xlpm.axis, 3) / POWER(_xlpm.period, 2))</definedName>
-    <definedName name="ORBIT_HAB_INDEX">_xlfn.LAMBDA(_xlpm.d,_xlpm.n,_xlop.prec, _xlfn.LET(_xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec), 3, _xlpm.prec), _xlpm.case, IF(_xlpm.d &lt; _xlpm.n, 0, 1), _xlpm.index, _xlfn.SWITCH(_xlpm.case, 0, ((2 * _xlpm.d) / _xlpm.n) - 1, 1, (_xlpm.d / (-3.85 * _xlpm.n)) + (4.85 / 3.85)), _xlpm.output, IF(_xlpm.index &lt;= 0, "U/I", ROUND(_xlpm.index, _xlpm.prec)), _xlpm.output))</definedName>
     <definedName name="PERIOD_AXIS">_xlfn.LAMBDA(_xlpm.input, POWER(POWER(_xlpm.input, 2), (1 / 3)))</definedName>
     <definedName name="PLANET_ASTROMETRICS">_xlfn.LAMBDA(_xlpm.first,_xlpm.second,_xlop.mode,_xlop.prec, _xlfn.LET(_xlpm.prec, IF((_xlfn.ISOMITTED(_xlpm.prec)) + (_xlpm.prec &lt; 0), 5, _xlpm.prec), _xlpm.mode, IF((_xlfn.ISOMITTED(_xlpm.mode) + (_xlpm.mode &lt; 0) + (_xlpm.mode &gt; 9)), 0, _xlpm.mode), _xlpm.labels, _xlfn.SWITCH(_xlpm.mode, 0, "M&gt;;R:;d&gt;;g:;v:", 1, "M&gt;;R&gt;;d:;g:;v:", 2, "M&gt;;R:;d:;g&gt;;v:", 3, "M:;R&gt;;d&gt;;g:;v:", 4, "M:;R&gt;;d:;g&gt;;v:", 5, "M:;R:;d&gt;;g&gt;;v:", 6, "M:;R:;d&gt;;g:;v&gt;", 7, "M:;R:;d:;g&gt;;v&gt;", 8, "M&gt;;R:;d:;g:;v&gt;", 9, "M:;R&gt;;d:;g:;v&gt;"), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlfn.LET(_xlpm.mass, _xlpm.first, _xlpm.density, _xlpm.second, _xlpm.radius, POWER(_xlpm.mass / _xlpm.density, 3 ^ -1), _xlpm.gravity, POWER(_xlpm.mass * _xlpm.density ^ 2, 3 ^ -1), _xlpm.escape, POWER(_xlpm.mass * SQRT(_xlpm.density), 3 ^ -1), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 1, _xlfn.LET(_xlpm.mass, _xlpm.first, _xlpm.radius, _xlpm.second, _xlpm.density, _xlpm.mass / _xlpm.radius ^ 3, _xlpm.gravity, _xlpm.mass / _xlpm.radius ^ 2, _xlpm.escape, SQRT(_xlpm.mass / _xlpm.radius), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 2, _xlfn.LET(_xlpm.mass, _xlpm.first, _xlpm.gravity, _xlpm.second, _xlpm.radius, SQRT(_xlpm.mass / _xlpm.gravity), _xlpm.density, SQRT(_xlpm.gravity ^ 3 / _xlpm.mass), _xlpm.escape, POWER(_xlpm.mass * _xlpm.gravity, 4 ^ -1), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 3, _xlfn.LET(_xlpm.radius, _xlpm.first, _xlpm.density, _xlpm.second, _xlpm.gravity, _xlpm.radius * _xlpm.density, _xlpm.mass, _xlpm.density * _xlpm.radius ^ 3, _xlpm.escape, _xlpm.radius * SQRT(_xlpm.density), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 4, _xlfn.LET(_xlpm.radius, _xlpm.first, _xlpm.gravity, _xlpm.second, _xlpm.density, _xlpm.gravity / _xlpm.radius, _xlpm.mass, _xlpm.gravity * _xlpm.radius ^ 2, _xlpm.escape, SQRT(_xlpm.gravity * _xlpm.radius), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 5, _xlfn.LET(_xlpm.density, _xlpm.first, _xlpm.gravity, _xlpm.second, _xlpm.radius, _xlpm.gravity / _xlpm.density, _xlpm.mass, _xlpm.gravity ^ 3 / _xlpm.density ^ 2, _xlpm.escape, _xlpm.gravity / SQRT(_xlpm.density), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 6, _xlfn.LET(_xlpm.density, _xlpm.first, _xlpm.escape, _xlpm.second, _xlpm.mass, _xlpm.escape ^ 3 / SQRT(_xlpm.density), _xlpm.radius, _xlpm.escape / SQRT(_xlpm.density), _xlpm.gravity, _xlpm.escape * SQRT(_xlpm.density), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 7, _xlfn.LET(_xlpm.gravity, _xlpm.first, _xlpm.escape, _xlpm.second, _xlpm.mass, _xlpm.escape ^ 4 / _xlpm.gravity, _xlpm.radius, _xlpm.escape ^ 2 / _xlpm.gravity, _xlpm.density, (_xlpm.gravity / _xlpm.escape) ^ 2, _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 8, _xlfn.LET(_xlpm.mass, _xlpm.first, _xlpm.escape, _xlpm.second, _xlpm.gravity, _xlpm.escape ^ 4 / _xlpm.mass, _xlpm.radius, _xlpm.mass / _xlpm.escape ^ 2, _xlpm.density, _xlpm.escape ^ 6 / _xlpm.mass ^ 2, _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 9, _xlfn.LET(_xlpm.radius, _xlpm.first, _xlpm.escape, _xlpm.second, _xlpm.gravity, _xlpm.escape ^ 2 / _xlpm.radius, _xlpm.mass, _xlpm.radius * _xlpm.escape ^ 2, _xlpm.density, (_xlpm.escape / _xlpm.radius) ^ 2, _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), ), _xlpm.label_list, TRANSPOSE(_xlfn.TEXTSPLIT(_xlpm.labels, ";")), _xlpm.value_list, TRANSPOSE(_xlfn.TEXTSPLIT(_xlpm.output, ";")), CHOOSE({1,2}, _xlpm.label_list, ROUND(VALUE(_xlpm.value_list), _xlpm.prec))))</definedName>
     <definedName name="SMALLANGLE">_xlfn.LAMBDA(_xlpm.diameter,_xlpm.distance, 0.532904294 * (_xlpm.diameter / _xlpm.distance))</definedName>
     <definedName name="SPEC_LIST">_xlfn.LAMBDA(_xlop.null, _xlfn.LET(_xlpm.classifications, {"O: 25000 - 55000";"B: 10000 - 25000";"A: 7500 - 10000";"F: 6000 - 7500";"G: 5000 - 6000";"K: 3500 - 5000";"M: 2400 - 3500";"L: 1300 - 2400";"T: 600 - 1300";"Y: 300 - 600"}, _xlpm.classifications))</definedName>
     <definedName name="SPECTRAL_CLASS_DATA">_xlfn.LAMBDA(_xlop.null, _xlfn.LET(_xlpm.headers, {"Type";"Min";"Max";"Span";"q"}, _xlpm.types, _xlfn.VSTACK(INDEX(_xlpm.headers, 1), {"O";"B";"A";"F";"G";"K";"M";"L";"T";"Y"}), _xlpm.min, _xlfn.VSTACK(INDEX(_xlpm.headers, 2), {25000;10000;7500;6000;5000;3500;2400;1300;600;300}), _xlpm.max, _xlfn.VSTACK(INDEX(_xlpm.headers, 3), {55000;25000;10000;7500;6000;5000;3500;2400;1300;600}), _xlpm.q_vals, _xlfn.VSTACK(INDEX(_xlpm.headers, 5), {3000;1500;250;150;100;150;110;110;70;30}), _xlpm.ranges, {30000;15000;2500;1500;1000;1500;1100;1100;700;300}, _xlpm.span, _xlfn.VSTACK(INDEX(_xlpm.headers, 4), _xlpm.ranges), CHOOSE({1,2,3,4,5}, _xlpm.types, _xlpm.min, _xlpm.max, _xlpm.span, _xlpm.q_vals)))</definedName>
-    <definedName name="SPECTRAL_CLASS_FREQ">_xlfn.LAMBDA(_xlop.type,_xlop.count,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.allclasses, "OBAFGKM", _xlpm.type, IF(OR(_xlfn.ISOMITTED(_xlpm.type), ISERROR(SEARCH(_xlpm.type, _xlpm.allclasses))), "$", UPPER(_xlpm.type)), _xlpm.count, IF(_xlfn.ISOMITTED(_xlpm.count), 1, _xlpm.count), _xlpm.classifications, {"O";"B";"A";"F";"G";"K";"M"}, _xlpm.table, {3000000;800;160;33;13;8;1.31531603010874}, _xlpm.freq, _xlfn.XLOOKUP(_xlpm.type, _xlpm.classifications, _xlpm.table), _xlpm.factors, _xlfn.BYROW(_xlpm.table, _xlfn.LAMBDA(_xlpm.x, _xlpm.freq / _xlpm.x)), _xlpm.values, IF(_xlpm.type &lt;&gt; "$", _xlfn.BYROW(_xlpm.factors, _xlfn.LAMBDA(_xlpm.x, _xlpm.count * _xlpm.x)), _xlfn.BYROW(_xlpm.table, _xlfn.LAMBDA(_xlpm.x, 1 / _xlpm.x))), CHOOSE({1,2}, _xlpm.classifications, ROUND(_xlpm.values, _xlpm.precision))))</definedName>
     <definedName name="SPECTRAL_DISTRIBUTION">_xlfn.LAMBDA(_xlpm.total,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.classifications, {"Total";"O";"B";"A";"F";"G";"K";"M"}, _xlpm.table, {3000000;800;160;33;13;8;1.31531603010874}, _xlpm.factors, _xlfn.BYROW(_xlpm.table, _xlfn.LAMBDA(_xlpm.x, 1 / _xlpm.x)), _xlpm.values, _xlfn.BYROW(_xlpm.factors, _xlfn.LAMBDA(_xlpm.x, ROUND(_xlpm.x * _xlpm.total, _xlpm.precision))), _xlpm.results, _xlfn.VSTACK(_xlpm.total, _xlpm.values), CHOOSE({1,2}, _xlpm.classifications, _xlpm.results)))</definedName>
     <definedName name="SPHERICAL_TO_CARTESIAN">_xlfn.LAMBDA(_xlpm.phi,_xlpm.theta,_xlpm.r,_xlop.prec, _xlfn.LET(_xlpm.prec, IF((_xlfn.ISOMITTED(_xlpm.prec)) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.z_mod, SIGN(_xlpm.theta), _xlpm.y_mod, SIGN(_xlpm.phi), _xlpm.x_mod, IF(ABS(_xlpm.phi) &lt; 90, 1, -1), _xlpm.ang_x, RADIANS(MOD(_xlpm.phi, 90)), _xlpm.ang_z, RADIANS(ABS(_xlpm.theta)), _xlpm.d, COS(_xlpm.ang_z) * _xlpm.r, _xlpm.x, ROUND(COS(_xlpm.ang_x) * _xlpm.d * _xlpm.x_mod, _xlpm.prec), _xlpm.y, ROUND(SIN(_xlpm.ang_x) * _xlpm.d * _xlpm.y_mod, _xlpm.prec), _xlpm.z, ROUND(SIN(_xlpm.ang_z) * _xlpm.r * _xlpm.z_mod, _xlpm.prec), _xlpm.result, _xlfn.TEXTJOIN("|", , _xlpm.x, _xlpm.y, _xlpm.z), _xlfn.TOROW(_xlfn.TEXTSPLIT(_xlpm.result, "|"))))</definedName>
     <definedName name="STAR_CLASS_STATS">_xlfn.LAMBDA(_xlpm.in,_xlop.precision, _xlfn.LET(_xlpm.input, SUBSTITUTE(_xlpm.in, " ", ""), _xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.class, LEFT(_xlpm.input, 1), _xlpm.sub, RIGHT(_xlpm.input, LEN(_xlpm.input) - 1), _xlpm.thresholds, {55000,25000,10000,7500,6000,5000,3500,2400,1300,600}, _xlpm.classifications, {"O","B","A","F","G","K","M","L","T","Y"}, _xlpm.q_vals, {3000,1500,250,150,100,150,110,110,70,30}, _xlpm.max_temp, _xlfn.XLOOKUP(_xlpm.class, _xlpm.classifications, _xlpm.thresholds), _xlpm.q_factor, _xlfn.XLOOKUP(_xlpm.class, _xlpm.classifications, _xlpm.q_vals), _xlpm.k_temp, _xlpm.max_temp - (_xlpm.sub * _xlpm.q_factor), _xlpm.temp, _xlpm.k_temp / 5800, _xlpm.kelvin, "K: " &amp; ROUND(_xlpm.k_temp, _xlpm.precision), _xlpm.solar, "T: " &amp; ROUND(_xlpm.temp, _xlpm.precision), _xlpm.radius, "R: " &amp; ROUND(_xlpm.temp ^ 1.8, _xlpm.precision), _xlpm.luminosity, "L: " &amp; ROUND(_xlpm.temp ^ 7.5778, _xlpm.precision), _xlpm.mass, "M: " &amp; ROUND(_xlpm.temp ^ 2, _xlpm.precision), _xlpm.lifetime, "V: " &amp; ROUND(_xlpm.temp ^ -5, _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , "-&gt; " &amp; _xlpm.input, _xlpm.kelvin, _xlpm.solar, _xlpm.mass, _xlpm.radius, _xlpm.luminosity, _xlpm.lifetime), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
@@ -68,6 +67,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,27 +489,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6503EE-3967-F142-A914-D59AF539BB00}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:4">
+      <c r="B4" t="e" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">ASTRO_HAB_INDEX(2.5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B4)</f>
+        <v>=ASTRO_HAB_INDEX(2.5)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="e" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">ASTRO_HAB_INDEX(2.5,2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B5)</f>
+        <v>=ASTRO_HAB_INDEX(2.5,2)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="e" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">ASTRO_HAB_INDEX(2.5,2,5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B6)</f>
+        <v>=ASTRO_HAB_INDEX(2.5,2,5)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B10)</f>
+        <v>=ASTRO_SPECTRAL_DISTRIBUTION("G",,6)</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10:C16">ASTRO_SPECTRAL_DISTRIBUTION("G",,6)</f>
+        <v>O</v>
+      </c>
+      <c r="C10">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="str">
+        <v>B</v>
+      </c>
+      <c r="C11">
+        <v>1.6250000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="str">
+        <v>A</v>
+      </c>
+      <c r="C12">
+        <v>8.1250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="str">
+        <v>F</v>
+      </c>
+      <c r="C13">
+        <v>0.39393899999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="str">
+        <v>G</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="str">
+        <v>K</v>
+      </c>
+      <c r="C15">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="str">
+        <v>M</v>
+      </c>
+      <c r="C16">
+        <v>9.8835560000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B19)</f>
+        <v>=ASTRO_SPECTRAL_DISTRIBUTION("G",100,6)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="str" cm="1">
+        <f t="array" ref="B19:C25">ASTRO_SPECTRAL_DISTRIBUTION("G",100,6)</f>
+        <v>O</v>
+      </c>
+      <c r="C19">
+        <v>4.3300000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="str">
+        <v>B</v>
+      </c>
+      <c r="C20">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="str">
+        <v>A</v>
+      </c>
+      <c r="C21">
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="str">
+        <v>F</v>
+      </c>
+      <c r="C22">
+        <v>39.393939000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="str">
+        <v>G</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="str">
+        <v>K</v>
+      </c>
+      <c r="C24">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="str">
+        <v>M</v>
+      </c>
+      <c r="C25">
+        <v>988.35562700000003</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgBPAFIAQgBJAFQAXwBIAEEAQgBfAEkATgBEAEUAWAAgAD0AIABMAEEATQBCAEQAQQAoAGQALAAgAG4ALAAgAFsAcAByAGUAYwBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABjAGEAcwBlACwAIABpAGYAKABkADwAbgAsACAAMAAsACAAMQApACwAXABuACAAIAAgACAAaQBuAGQAZQB4ACwAIABzAHcAaQB0AGMAaAAoAGMAYQBzAGUALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgACgAKAAyACoAZAApAC8AbgApAC0AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAKABkAC8AKAAtADMALgA4ADUAKgBuACkAKQArACgANAAuADgANQAvADMALgA4ADUAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAaQBmACgAaQBuAGQAZQB4ADwAPQAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAVQAvAEkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAByAG8AdQBuAGQAKABpAG4AZABlAHgALABwAHIAZQBjACkAXABuACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgApAFwAbgApADsAXABuAFwAbgBcAG4AUwBQAEUAQwBUAFIAQQBMAF8AQwBMAEEAUwBTAF8ARgBSAEUAUQAgAD0AIABMAEEATQBCAEQAQQAoAFsAdAB5AHAAZQBdACwAIABbAGMAbwB1AG4AdABdACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQBsAGwAYwBsAGEAcwBzAGUAcwAsACAAXAAiAE8AQgBBAEYARwBLAE0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAB0AHkAcABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAHQAeQBwAGUAKQAsACAASQBTAEUAUgBSAE8AUgAoAFMARQBBAFIAQwBIACgAdAB5AHAAZQAsACAAYQBsAGwAYwBsAGEAcwBzAGUAcwApACkAKQAsACAAXAAiACQAXAAiACwAIABVAFAAUABFAFIAKAB0AHkAcABlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAHUAbgB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGMAbwB1AG4AdAApACwAIAAxACwAIABjAG8AdQBuAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXAAiAE8AXAAiADsAIABcACIAQgBcACIAOwAgAFwAIgBBAFwAIgA7ACAAXAAiAEYAXAAiADsAIABcACIARwBcACIAOwAgAFwAIgBLAFwAIgA7ACAAXAAiAE0AXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHQAYQBiAGwAZQAsACAAewAzADAAMAAwADAAMAAwADsAIAA4ADAAMAA7ACAAMQA2ADAAOwAgADMAMwA7ACAAMQAzADsAIAA4ADsAIAAxAC4AMwAxADUAMwAxADYAMAAzADAAMQAwADgANwA0AH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGYAcgBlAHEALAAgAFgATABPAE8ASwBVAFAAKAB0AHkAcABlACwAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAdABhAGIAbABlACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAYQBjAHQAbwByAHMALAAgAEIAWQBSAE8AVwAoAHQAYQBiAGwAZQAsACAATABBAE0AQgBEAEEAKAB4ACwAIABmAHIAZQBxACAALwAgAHgAKQApACwAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbAB1AGUAcwAsACAASQBGACgAdAB5AHAAZQAgADwAPgAgAFwAIgAkAFwAIgAsACAAQgBZAFIATwBXACgAZgBhAGMAdABvAHIAcwAsACAATABBAE0AQgBEAEEAKAB4ACwAIABjAG8AdQBuAHQAIAAqACAAeAApACkALAAgAEIAWQBSAE8AVwAoAHQAYQBiAGwAZQAsACAATABBAE0AQgBEAEEAKAB4ACwAIAAxACAALwAgAHgAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEMASABPAE8AUwBFACgAewAxACwAIAAyAH0ALAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAByAG8AdQBuAGQAKAB2AGEAbAB1AGUAcwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQApAFwAbgAgACAAIAAgACAAIAAgACAALwAqAHQAeQBwAGUAJgBcACIAIABcACIAJgBjAG8AdQBuAHQAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AIAA9ACAATABBAE0AQgBEAEEAKAB0AG8AdABhAGwALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAAzACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAewBcACIAVABvAHQAYQBsAFwAIgA7ACAAXAAiAE8AXAAiADsAIABcACIAQgBcACIAOwAgAFwAIgBBAFwAIgA7ACAAXAAiAEYAXAAiADsAIABcACIARwBcACIAOwAgAFwAIgBLAFwAIgA7ACAAXAAiAE0AXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHQAYQBiAGwAZQAsACAAewAzADAAMAAwADAAMAAwADsAIAA4ADAAMAA7ACAAMQA2ADAAOwAgADMAMwA7ACAAMQAzADsAIAA4ADsAIAAxAC4AMwAxADUAMwAxADYAMAAzADAAMQAwADgANwA0AH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGYAYQBjAHQAbwByAHMALAAgAEIAWQBSAE8AVwAoAHQAYQBiAGwAZQAsACAATABBAE0AQgBEAEEAKAB4ACwAMQAvAHgAKQApACwAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbAB1AGUAcwAsACAAYgB5AHIAbwB3ACgAZgBhAGMAdABvAHIAcwAsAGwAYQBtAGIAZABhACgAeAAsAHIAbwB1AG4AZAAoAHgAKgB0AG8AdABhAGwALABwAHIAZQBjAGkAcwBpAG8AbgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAcwAsACAAdgBzAHQAYQBjAGsAKAB0AG8AdABhAGwALAAgAHYAYQBsAHUAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEMASABPAE8AUwBFACgAewAxACwAIAAyAH0ALAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAByAGUAcwB1AGwAdABzACkAXABuACAAIAAgACAAIAAgACAAIAAvACoAdAB5AHAAZQAmAFwAIgAgAFwAIgAmAGMAbwB1AG4AdAAqAC8AXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABTAFQAQQBSAF8AUwBDAEEATABFAF8AVABFAE0AUABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABzAHQAYQByACAAYQB0AHQAcgBpAGIAdQB0AGUAcwAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIABmAHIAbwBtACAAcwBvAGwAYQByACAAdABlAG0AcABcAG4AKgAvAFwAbgBTAFQAQQBSAF8AUwBDAEEATABFAF8AVABFAE0AUAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQBtAHAALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AF8AdABlAG0AcAAsACAAXAAiAFQALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAxAC4AOAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADcALgA1ADcANwA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAAMgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAALQA1ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABfAHQAZQBtAHAALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIAXwBTAEMAQQBMAEUAXwBLAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABrAGUAbAB2AGkAbgAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwB0AGUAbQBwACwAIABcACIASwAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAawBlAGwAdgBpAG4ALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAALAAgAGsAZQBsAHYAaQBuACAALwAgADUAOAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADEALgA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAANwAuADUANwA3ADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAtADUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAXwB0AGUAbQBwACwAIABzAG8AbABhAHIALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIAXwBDAEwAQQBTAFMAXwBTAFQAQQBUAFMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAG4AcAB1AHQALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABpAG4ALAAgAFwAIgAgAFwAIgAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMALAAgAEwARQBGAFQAKABpAG4AcAB1AHQALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGIALAAgAFIASQBHAEgAVAAoAGkAbgBwAHUAdAAsACAATABFAE4AKABpAG4AcAB1AHQAKQAgAC0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAaAByAGUAcwBoAG8AbABkAHMALAAgAHsANQA1ADAAMAAwACwAIAAyADUAMAAwADAALAAgADEAMAAwADAAMAAsACAANwA1ADAAMAAsACAANgAwADAAMAAsACAANQAwADAAMAAsACAAMwA1ADAAMAAsACAAMgA0ADAAMAAsACAAMQAzADAAMAAsACAANgAwADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiACwAIABcACIATABcACIALAAgAFwAIgBUAFwAIgAsACAAXAAiAFkAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbABzACwAIAB7ADMAMAAwADAALAAgADEANQAwADAALAAgADIANQAwACwAIAAxADUAMAAsACAAMQAwADAALAAgADEANQAwACwAIAAxADEAMAAsACAAMQAxADAALAAgADcAMAAsACAAMwAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQB4AF8AdABlAG0AcAAsACAAWABMAE8ATwBLAFUAUAAoAGMAbABhAHMAcwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHQAaAByAGUAcwBoAG8AbABkAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAGYAYQBjAHQAbwByACwAIABYAEwATwBPAEsAVQBQACgAYwBsAGEAcwBzACwAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAcQBfAHYAYQBsAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBfAHQAZQBtAHAALAAgAG0AYQB4AF8AdABlAG0AcAAgAC0AIAAoAHMAdQBiACAAKgAgAHEAXwBmAGEAYwB0AG8AcgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwACwAIABrAF8AdABlAG0AcAAgAC8AIAA1ADgAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABrAF8AdABlAG0AcAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBvAGwAYQByACwAIABcACIAVAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABcACIAUgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAAMQAuADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFwAIgBMADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAA3AC4ANQA3ADcAOAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADIALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgAC0ANQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAXAAiAC0APgAgAFwAIgAgACYAIABpAG4AcAB1AHQALAAgAGsAZQBsAHYAaQBuACwAIABzAG8AbABhAHIALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFQAQQBSAF8ATQBBAFMAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAF8AbQBhAHMAcwAsACAAXAAiAE0ALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAG0AYQBzAHMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbQBhAHMAcwApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAG8AbABhAHIALAAgAFMAUQBSAFQAKABtAGEAcwBzACkAIAAqACAANQA4ADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAcwBvAGwAYQByACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABtAGEAcwBzACAAXgAgADAALgA5ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAG0AYQBzAHMAIABeACAAMwAuADcAOAA4ADkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbQBhAHMAcwApACAAXgAgAC0ANQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAawBlAGwAdgBpAG4ALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAcwBfAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFQAQQBSAF8AUgBBAEQAUwAgAD0AIABMAEEATQBCAEQAQQAoAHIAYQBkAGkAdQBzACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBvAGwAYQByACwAIABcACIAUgAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAcgBhAGQAaQB1AHMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAgAF4AIAAoADEAIAAvACAAMQAuADgAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAKAByAGEAZABpAHUAcwAgAF4AIAAoADEAIAAvACAAMQAuADgAKQApACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFwAIgBMADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAcgBhAGQAaQB1AHMAIABeACAANAAuADIAMgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAgAF4AIAAxAC4AMQAxADQAMgA3ADAAMAAxADcANwA3ADcANwA4ADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAgAF4AIAAoADEAIAAvACAALQAwAC4AMwA2ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAZQBsAHYAaQBuACwAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHMAbwBsAGEAcgAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AUwBUAEEAUgBfAEwAVQBNAFMAIAA9ACAATABBAE0AQgBEAEEAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABcACIAVAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADcALgA2ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANwAuADUANwA3ADgAKQApACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAXwBsAHUAbQAsACAAXAAiAEwALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABcACIAUgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADQALgAyADIAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAAzAC4ANwA4ADgAOQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAALQAxAC4ANQAyACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAZQBsAHYAaQBuACwAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABzAF8AbAB1AG0ALAAgAGwAaQBmAGUAdABpAG0AZQApACwAXABuACAAIAAgACAAIAAgACAAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAaQBzAHQALAAgAFwAIgB8AFwAIgApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUwBUAEEAUgBMAFUATQBTACAAPQAgAEwAQQBNAEIARABBACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBiAGUAbABzACwAIABUAFIAQQBOAFMAUABPAFMARQAoAHsAXAAiAEsAOgBcACIALAAgAFwAIgBUADoAXAAiACwAIABcACIATQA6AFwAIgAsACAAXAAiAFIAOgBcACIALAAgAFwAIgBMAH0AXAAiACwAIABcACIAVgA6AFwAIgB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADcALgA1ADcANwA4ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAEsALAAgAFIATwBVAE4ARAAoACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANwAuADUANwA3ADgAKQApACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAEwALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADQALgAyADIAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAAMwAuADcAOAA4ADkAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVgAsACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAALQAxAC4ANQAyACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAdAB0AHIAaQBiAHMALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgAsAFwAIgAsACAALAAgAEsALAAgAFQALAAgAE0ALAAgAFIALAAgAEwALAAgAFYAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFQAUgBBAE4AUwBQAE8AUwBFACgAVABFAFgAVABTAFAATABJAFQAKABhAHQAdAByAGkAYgBzACwAIABcACIALABcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABsAGEAYgBlAGwAcwAsACAAdgBhAGwAdQBlAHMAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AUwBUAEEAUgBfAEwASQBGAEUAIAA9ACAATABBAE0AQgBEAEEAKABsAGkAZgBlAHQAaQBtAGUALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAG8AbABhAHIALAAgAFwAIgBWAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUAIABeACAAKAAxACAALwAgAC0ANQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAoAGwAaQBmAGUAdABpAG0AZQAgAF4AIAAoADEAIAAvACAALQA1ACkAKQAgACoAIAA1ADgAMAAwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUAIABeACAAKAAtADAALgAzADYAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUAIABeACAAKAAxACAALwAgAC0AMgAuADUAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUAIABeACAALQAxAC4ANQAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAcwBvAGwAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACAAPQAgAEwAQQBNAEIARABBACgAdABlAG0AcAAsACAAWwBtAG8AZABlAF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAALAAgAGkAZgBzACgAdABlAG0AcAA8ADYAMAAwACwANgAwADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAbQBwAD4ANQA1ADAAMAAwACwANQA1ADAAMAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAdABlAG0AcAApACwAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwAsACAASQBGACgATwBSACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjACkALAAgAHAAcgBlAGMAIAA8ACAAMAApACwAIAAzACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAaAByAGUAcwBoAG8AbABkAHMALAAgAHsANQA1ADAAMAAwACwAIAAyADUAMAAwADAALAAgADEAMAAwADAAMAAsACAANwA1ADAAMAAsACAANgAwADAAMAAsACAANQAwADAAMAAsACAAMwA1ADAAMAAsACAAMgA0ADAAMAAsACAAMQAzADAAMAAsACAANgAwADAALAAgADMAMAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB7AFwAIgBPAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQQBcACIALAAgAFwAIgBGAFwAIgAsACAAXAAiAEcAXAAiACwAIABcACIASwBcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAEwAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBZAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwAcwAsACAAewAzADAAMAAwACwAIAAxADUAMAAwACwAIAAyADUAMAAsACAAMQA1ADAALAAgADEAMAAwACwAIAAxADUAMAAsACAAMQAxADAALAAgADEAMQAwACwAIAA3ADAALAAgADMAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABpAG4AZABlAHgALAAgAE0AQQBUAEMASAAoAFQAUgBVAEUALAAgAHQAZQBtAHAAIAA+ACAAdABoAHIAZQBzAGgAbwBsAGQAcwAsACAAMAApACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgAHMAXwB0AHkAcABlACwAIABJAE4ARABFAFgAKABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAaQBuAGQAZQB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwBtAGEAeAAsACAASQBOAEQARQBYACgAdABoAHIAZQBzAGgAbwBsAGQAcwAsACAAaQBuAGQAZQB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbAAsACAASQBOAEQARQBYACgAcQBfAHYAYQBsAHMALAAgAGkAbgBkAGUAeAApACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAXwBuAHUAbQAsACAAKABrAF8AbQBhAHgAIAAtACAAdABlAG0AcAApACAALwAgAHEAXwB2AGEAbAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBfAGMAbABhAHMAcwAsACAASQBGACgAYwBsAGEAcwBzAF8AbgB1AG0AIAA9ACAAMQAwACwAIAA5AC4AOQA5ADkALAAgAGMAbABhAHMAcwBfAG4AdQBtACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABTAFcASQBUAEMASAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsACAAcwBfAHQAeQBwAGUAIAAmACAAXAAiACAAXAAiACAAJgAgAEYASQBYAEUARAAoAHMAXwBjAGwAYQBzAHMALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACwAIAB0AGUAbQBwACAAJgAgAFwAIgAgAD0AIABcACIAIAAmACAAcwBfAHQAeQBwAGUAIAAmACAARgBJAFgARQBEACgAcwBfAGMAbABhAHMAcwAsACAAcAByAGUAYwApACwAIAApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBUAEUATQBQAF8ARgBSAE8ATQBfAFQAWQBQAEUAIAA9ACAATABBAE0AQgBEAEEAKABpAG4ALAAgAFsAbQBvAGQAZQBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALAAgAEkARgAoAE8AUgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBvAGQAZQApACwAIABtAG8AZABlACAAPgAgADEAKQAsACAAMAAsACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAIAAgACAAIABpAG4AcAB1AHQALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABpAG4ALAAgAFwAIgAgAFwAIgAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMALAAgAEwARQBGAFQAKABpAG4AcAB1AHQALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGIALAAgAFIASQBHAEgAVAAoAGkAbgBwAHUAdAAsACAATABFAE4AKABpAG4AcAB1AHQAKQAgAC0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAaAByAGUAcwBoAG8AbABkAHMALAAgAHsANQA1ADAAMAAwACwAIAAyADUAMAAwADAALAAgADEAMAAwADAAMAAsACAANwA1ADAAMAAsACAANgAwADAAMAAsACAANQAwADAAMAAsACAAMwA1ADAAMAAsACAAMgA0ADAAMAAsACAAMQAzADAAMAAsACAANgAwADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiACwAIABcACIATABcACIALAAgAFwAIgBUAFwAIgAsACAAXAAiAFkAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbABzACwAIAB7ADMAMAAwADAALAAgADEANQAwADAALAAgADIANQAwACwAIAAxADUAMAAsACAAMQAwADAALAAgADEANQAwACwAIAAxADEAMAAsACAAMQAxADAALAAgADcAMAAsACAAMwAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQB4AF8AdABlAG0AcAAsACAAWABMAE8ATwBLAFUAUAAoAGMAbABhAHMAcwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHQAaAByAGUAcwBoAG8AbABkAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAGYAYQBjAHQAbwByACwAIABYAEwATwBPAEsAVQBQACgAYwBsAGEAcwBzACwAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAcQBfAHYAYQBsAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBfAHQAZQBtAHAALAAgAG0AYQB4AF8AdABlAG0AcAAgAC0AIAAoAHMAdQBiACAAKgAgAHEAXwBmAGEAYwB0AG8AcgApACwAXABuACAAIAAgACAAIAAgACAAIABTAFcASQBUAEMASAAoAG0AbwBkAGUALAAgADAALAAgAGsAXwB0AGUAbQBwACwAIAAxACwAIABpAG4AcAB1AHQAIAAmACAAXAAiACAAPQAgAFwAIgAgACYAIABrAF8AdABlAG0AcAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAUABFAEMAVABSAEEATABfAEMATABBAFMAUwBfAEQAQQBUAEEAIAA9ACAATABBAE0AQgBEAEEAKABbAG4AdQBsAGwAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABoAGUAYQBkAGUAcgBzACwAIAB7AFwAIgBUAHkAcABlAFwAIgA7ACAAXAAiAE0AaQBuAFwAIgA7ACAAXAAiAE0AYQB4AFwAIgA7ACAAXAAiAFMAcABhAG4AXAAiADsAIABcACIAcQBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAdAB5AHAAZQBzACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADEAKQAsACAAewBcACIATwBcACIAOwAgAFwAIgBCAFwAIgA7ACAAXAAiAEEAXAAiADsAIABcACIARgBcACIAOwAgAFwAIgBHAFwAIgA7ACAAXAAiAEsAXAAiADsAIABcACIATQBcACIAOwAgAFwAIgBMAFwAIgA7ACAAXAAiAFQAXAAiADsAIABcACIAWQBcACIAfQApACwAXABuACAAIAAgACAAIAAgACAAIABtAGkAbgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAyACkALAAgAHsAMgA1ADAAMAAwADsAIAAxADAAMAAwADAAOwAgADcANQAwADAAOwAgADYAMAAwADAAOwAgADUAMAAwADAAOwAgADMANQAwADAAOwAgADIANAAwADAAOwAgADEAMwAwADAAOwAgADYAMAAwADsAIAAzADAAMAB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQB4ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADMAKQAsACAAewA1ADUAMAAwADAAOwAgADIANQAwADAAMAA7ACAAMQAwADAAMAAwADsAIAA3ADUAMAAwADsAIAA2ADAAMAAwADsAIAA1ADAAMAAwADsAIAAzADUAMAAwADsAIAAyADQAMAAwADsAIAAxADMAMAAwADsAIAA2ADAAMAB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbABzACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADUAKQAsACAAewAzADAAMAAwADsAIAAxADUAMAAwADsAIAAyADUAMAA7ACAAMQA1ADAAOwAgADEAMAAwADsAIAAxADUAMAA7ACAAMQAxADAAOwAgADEAMQAwADsAIAA3ADAAOwAgADMAMAB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBuAGcAZQBzACwAIAB7ADMAMAAwADAAMAA7ACAAMQA1ADAAMAAwADsAIAAyADUAMAAwADsAIAAxADUAMAAwADsAIAAxADAAMAAwADsAIAAxADUAMAAwADsAIAAxADEAMAAwADsAIAAxADEAMAAwADsAIAA3ADAAMAA7ACAAMwAwADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBwAGEAbgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAA0ACkALAAgAHIAYQBuAGcAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEMASABPAE8AUwBFACgAewAxACwAIAAyACwAIAAzACwAIAA0ACwAIAA1AH0ALAAgAHQAeQBwAGUAcwAsACAAbQBpAG4ALAAgAG0AYQB4ACwAIABzAHAAYQBuACwAIABxAF8AdgBhAGwAcwApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAUABFAEMAXwBMAEkAUwBUACAAPQAgAEwAQQBNAEIARABBACgAWwBuAHUAbABsAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBPADoAIAAyADUAMAAwADAAIAAtACAANQA1ADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAQgA6ACAAMQAwADAAMAAwACAALQAgADIANQAwADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEEAOgAgADcANQAwADAAIAAtACAAMQAwADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARgA6ACAANgAwADAAMAAgAC0AIAA3ADUAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARwA6ACAANQAwADAAMAAgAC0AIAA2ADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASwA6ACAAMwA1ADAAMAAgAC0AIAA1ADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQA6ACAAMgA0ADAAMAAgAC0AIAAzADUAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATAA6ACAAMQAzADAAMAAgAC0AIAAyADQAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVAA6ACAANgAwADAAIAAtACAAMQAzADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFkAOgAgADMAMAAwACAALQAgADYAMAAwAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTAF8AVABBAEIATABFACAAPQAgAEwAQQBNAEIARABBACgAWwBuAHUAbABsAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMALAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgAGgAZQBhAGQAZQByAHMALAAgAHsAXAAiAFoAbwBuAGUAXAAiADsAIABcACIASQBuAG4AZQByAFwAIgA7ACAAXAAiAE8AdQB0AGUAcgBcACIAOwAgAFwAIgBBAHYAZQByAGEAZwBlAFwAIgA7ACAAXAAiAFMAcABhAG4AXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBiAGUAbABzACwAIAB7AFwAIgBaADAAIAAoAEkAZwBuAGkAbwAtACkAXAAiADsAIABcACIAWgAxACAAKABDAGEAbABvAHIAbwAtACkAXAAiADsAIABcACIAWgAyACAAKABIAGUAbABpAG8ALQApAFwAIgA7ACAAXAAiAFoAMwAgACgAUwBvAGwAYQByAGEALQApAFwAIgA7ACAAXAAiAFoANAAgACgAUwB1AHIAeQBhAC0AKQBcACIAOwAgAFwAIgBaADUAIAAoAEYAcgBpAG8ALQApAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABpAG4AbgBlAHIALAAgAHsAMAA7ACAAMAAuADUAOwAgADAALgA3ADUAOwAgADAALgA5ADUAOwAgADEALgAzADgANQA7ACAAMQAuADcANwB9ACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABlAHIALAAgAHsAMAAuADUAOwAgADAALgA3ADUAOwAgADAALgA5ADUAOwAgADEALgAzADgANQA7ACAAMQAuADcANwA7ACAANAAuADgANQB9ACwAXABuACAAIAAgACAAIAAgACAAIABhAHYAZQByAGEAZwBlACwAIAB7ADAALgAyADUAOwAgADAALgA2ADIANQA7ACAAMAAuADgANQA7ACAAMQAuADEANgA3ADUAOwAgADEALgA1ADcANwA1ADsAIAAzAC4AMwAxAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHMAcABhAG4ALAAgAHsAMAAuADUAOwAgADAALgAyADUAOwAgADAALgAyADsAIAAwAC4ANAAzADUAOwAgADAALgAzADgANQA7ACAAMwAuADAAOAB9ACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABfADEALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMQApACwAIABsAGEAYgBlAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABfADIALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMgApACwAIABSAE8AVQBOAEQAKABpAG4AbgBlAHIALAAgAGQAZQBjACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAXwAzACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADMAKQAsACAAUgBPAFUATgBEACgAbwB1AHQAZQByACwAIABkAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwBsAF8ANAAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAA0ACkALAAgAFIATwBVAE4ARAAoAGEAdgBlAHIAYQBnAGUALAAgAGQAZQBjACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAXwA1ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADUAKQAsACAAUgBPAFUATgBEACgAcwBwAGEAbgAsACAAZABlAGMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgAsACAAMwAsACAANAAsACAANQB9ACwAIABjAG8AbABfADEALAAgAGMAbwBsAF8AMgAsACAAYwBvAGwAXwAzACwAIABjAG8AbABfADQALAAgAGMAbwBsAF8ANQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEgAQQBCAFoATwBOAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGwAdQBtACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbAAsACAAUgBPAFUATgBEACgAUwBRAFIAVAAoAGwAdQBtACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAE4ALAAgAFwAIgBOAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbAB1AG0AKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAwACwAIABcACIAMAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADAALgA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMQAsACAAXAAiADEAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAwAC4ANwA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMgAsACAAXAAiADIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAwAC4AOQA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMwAsACAAXAAiADMAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAxAC4AMwA4ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQA0ACwAIABcACIANAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADEALgA3ADcAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQA1ACwAIABcACIANQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADQALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAWgBvAG4AZQAwACwAIABaAG8AbgBlADEALAAgAFoAbwBuAGUAMgAsACAATgAsACAAWgBvAG4AZQAzACwAIABaAG8AbgBlADQALAAgAFoAbwBuAGUANQApACwAXABuACAAIAAgACAAIAAgACAAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAaQBzAHQALAAgAFwAIgB8AFwAIgApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ASABBAEIAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABsAHUAbQAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBiAGUAbABzACwAIAB7AFwAIgAwADoAIABcACIALAAgAFwAIgAxADoAIABcACIALAAgAFwAIgAyADoAIABcACIALAAgAFwAIgBOAC0APgAgAFwAIgAsACAAXAAiADMAOgAgAFwAIgAsACAAXAAiADQAOgAgAFwAIgAsACAAXAAiADUAOgAgAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAAzACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABuAHUAYwBsAGUAYQBsACwAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbAB1AG0AKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADAALAAgAFIATwBVAE4ARAAoADAALgA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwAxACwAIABSAE8AVQBOAEQAKAAwAC4ANwA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwAyACwAIABSAE8AVQBOAEQAKAAwAC4AOQA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwBOACwAIABuAHUAYwBsAGUAYQBsACwAXABuACAAIAAgACAAIAAgACAAIABaAF8AMwAsACAAUgBPAFUATgBEACgAMQAuADMAOAA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwA0ACwAIABSAE8AVQBOAEQAKAAxAC4ANwA3ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwA1ACwAIABSAE8AVQBOAEQAKAA0AC4AOAA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMAAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAAMQApACwAIABaAF8AMAApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADEALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADIAKQAsACAAWgBfADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAyACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAAzACkALAAgAFoAXwAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUATgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAANAApACwAIABaAF8ATgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADMALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADUAKQAsACAAWgBfADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQA0ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAA2ACkALAAgAFoAXwA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUANQAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAANwApACwAIABaAF8ANQApACwAXABuACAAIAAgACAAIAAgACAAIABUAFIAQQBOAFMAUABPAFMARQAoAEMASABPAE8AUwBFACgAewAxACwAIAAyACwAIAAzACwAIAA0ACwAIAA1ACwAIAA2ACwAIAA3AH0ALAAgAFoAbwBuAGUAMAAsACAAWgBvAG4AZQAxACwAIABaAG8AbgBlADIALAAgAFoAbwBuAGUATgAsACAAWgBvAG4AZQAzACwAIABaAG8AbgBlADQALAAgAFoAbwBuAGUANQApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUwBUAEEAUgBTAF8AUABFAFIAXwBDAFUAQgBJAEMAXwBWAE8ATAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBwAHIAZQBjAF0ALAAgAFsAbQBvAGQAZQBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAG0AbwBkAGUAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPAAwACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA+ADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAcAByAGUAYwAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAcAByAGUAYwApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAcAByAGUAYwA8ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwApACwAXABuACAAIAAgACAAdgBvAGwAdQBtAGUALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAAaQBuAHAAdQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIAAoADQALwAzACkAKgBwAGkAKAApACoAaQBuAHAAdQB0AF4AMwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAByAGEAZABpAHUAcwAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIAByAG8AdQBuAGQAKABwAG8AdwBlAHIAKAAoAHYAbwBsAHUAbQBlACoAMwApAC8AKAA0ACoAcABpACgAKQApACwAMQAvADMAKQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABpAG4AcAB1AHQAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAcwB0AGEAcgBzACwAIAByAG8AdQBuAGQAKAB2AG8AbAB1AG0AZQAvADIANQAwACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIAB0AG8AYwBvAGwAKAB0AGUAeAB0AHMAcABsAGkAdAAoAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7ACAAXAAiACwALAAgAHMAdABhAHIAcwAsACAAcgBhAGQAaQB1AHMAKQAsAFwAIgA7ACAAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAdABvAGMAbwBsACgAdABlAHgAdABzAHAAbABpAHQAKAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwAgAFwAIgAsACwAIAByAG8AdQBuAGQAKABzAHQAYQByAHMALAAwACkALAAgAHIAbwB1AG4AZAAoAHYAbwBsAHUAbQBlACwAMAApACkALABcACIAOwAgAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAEMAVQBCAEkAQwBfAFYATwBMAFUATQBFAF8AUABFAFIAXwBTAFQAQQBSAFMAIAA9ACAATABBAE0AQgBEAEEAKABzAHQAYQByAHMALAAgAFsAcAByAGUAYwBdACwAIABbAG0AbwBkAGUAXQAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABtAG8AZABlACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlADwAMAApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPgAyACkALABcAG4AIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAHAAcgBlAGMAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAHAAcgBlAGMAPAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHYAbwBsAHUAbQBlACwAIAByAG8AdQBuAGQAKABzAHQAYQByAHMAKgAyADUAMAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAcwBpAGQAZQAsACAAcgBvAHUAbgBkACgAcABvAHcAZQByACgAdgBvAGwAdQBtAGUALAAxAC8AMwApACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAByAGEAZABpAHUAcwAsACAAcgBvAHUAbgBkACgAcABvAHcAZQByACgAKAB2AG8AbAB1AG0AZQAqADMAKQAvACgANAAqAHAAaQAoACkAKQAsADEALwAzACkALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAHYAbwBsAHUAbQBlACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIAB0AG8AYwBvAGwAKAB0AGUAeAB0AHMAcABsAGkAdAAoAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7ACAAXAAiACwALAAgAHYAbwBsAHUAbQBlACwAIABzAGkAZABlACkALABcACIAOwAgAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgADIALAAgAHQAbwBjAG8AbAAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAdABlAHgAdABqAG8AaQBuACgAXAAiADsAIABcACIALAAsACAAdgBvAGwAdQBtAGUALAAgAHMAaQBkAGUALAAgAHIAYQBkAGkAdQBzACkALABcACIAOwAgAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUABMAEEATgBFAFQAXwBBAFMAVABSAE8ATQBFAFQAUgBJAEMAUwAgAD0AIABMAEEATQBCAEQAQQAoAGYAaQByAHMAdAAsACAAcwBlAGMAbwBuAGQALAAgAFsAbQBvAGQAZQBdACwAIABbAHAAcgBlAGMAXQAsAFwAbgBcAG4ALwAqACAATQBPAEQARQBTAFwAbgBcAG4AIAAgACAAIAAwADoAIABtACwAIABkAFwAbgAgACAAIAAgADEAOgAgAG0ALAAgAHIAXABuACAAIAAgACAAMgA6ACAAbQAsACAAZwBcAG4AIAAgACAAIAAzADoAIAByACwAIABkAFwAbgAgACAAIAAgADQAOgAgAHIALAAgAGcAXABuACAAIAAgACAANQA6ACAAZAAsACAAZwBcAG4AIAAgACAAIAA2ADoAIABkACwAIAB2AFwAbgAgACAAIAAgADcAOgAgAGcALAAgAHYAXABuACAAIAAgACAAOAA6ACAAbQAsACAAdgBcAG4AIAAgACAAIAA5ADoAIAByACwAIAB2AFwAbgBcAG4AKgAvAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAHAAcgBlAGMAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAHAAcgBlAGMAPAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbQBvAGQAZQAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAbQBvAGQAZQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPAAwACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA+ADkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlAFwAbgAgACAAIAAgACAAIAAgACAAKQAsACAAXABuACAAIAAgACAAbABhAGIAZQBsAHMALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsACAAXABuACAAIAAgACAAIAAgACAAIAAwACwAIABcACIATQA+ADsAUgA6ADsAZAA+ADsAZwA6ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAXAAiAE0APgA7AFIAPgA7AGQAOgA7AGcAOgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIALAAgAFwAIgBNAD4AOwBSADoAOwBkADoAOwBnAD4AOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAIABcACIATQA6ADsAUgA+ADsAZAA+ADsAZwA6ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANAAsACAAXAAiAE0AOgA7AFIAPgA7AGQAOgA7AGcAPgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADUALAAgAFwAIgBNADoAOwBSADoAOwBkAD4AOwBnAD4AOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA2ACwAIABcACIATQA6ADsAUgA6ADsAZAA+ADsAZwA6ADsAdgA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANwAsACAAXAAiAE0AOgA7AFIAOgA7AGQAOgA7AGcAPgA7AHYAPgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADgALAAgAFwAIgBNAD4AOwBSADoAOwBkADoAOwBnADoAOwB2AD4AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA5ACwAIABcACIATQA6ADsAUgA+ADsAZAA6ADsAZwA6ADsAdgA+AFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAHAAbwB3AGUAcgAoAG0AYQBzAHMALwBkAGUAbgBzAGkAdAB5ACwAMwBeAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAHAAbwB3AGUAcgAoAG0AYQBzAHMAKgBkAGUAbgBzAGkAdAB5AF4AMgAsADMAXgAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcABvAHcAZQByACgAbQBhAHMAcwAqAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALAAzAF4ALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABtAGEAcwBzAC8AcgBhAGQAaQB1AHMAXgAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAG0AYQBzAHMALwByAGEAZABpAHUAcwBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAcQByAHQAKABtAGEAcwBzAC8AcgBhAGQAaQB1AHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAyACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAHMAcQByAHQAKABtAGEAcwBzAC8AZwByAGEAdgBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAHMAcQByAHQAKABnAHIAYQB2AGkAdAB5AF4AMwAvAG0AYQBzAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcABvAHcAZQByACgAbQBhAHMAcwAqAGcAcgBhAHYAaQB0AHkALAA0AF4ALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIAByAGEAZABpAHUAcwAqAGQAZQBuAHMAaQB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZABlAG4AcwBpAHQAeQAqAHIAYQBkAGkAdQBzAF4AMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcgBhAGQAaQB1AHMAKgBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADQALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAvAHIAYQBkAGkAdQBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGcAcgBhAHYAaQB0AHkAKgByAGEAZABpAHUAcwBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAcQByAHQAKABnAHIAYQB2AGkAdAB5ACoAcgBhAGQAaQB1AHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA1ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGcAcgBhAHYAaQB0AHkALwBkAGUAbgBzAGkAdAB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGcAcgBhAHYAaQB0AHkAXgAzAC8AZABlAG4AcwBpAHQAeQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAGcAcgBhAHYAaQB0AHkALwBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZQBzAGMAYQBwAGUAXgAzAC8AcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZQBzAGMAYQBwAGUALwBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACoAcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGUAcwBjAGEAcABlAF4ANAAvAGcAcgBhAHYAaQB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGUAcwBjAGEAcABlAF4AMgAvAGcAcgBhAHYAaQB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAKABnAHIAYQB2AGkAdAB5AC8AZQBzAGMAYQBwAGUAKQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQBeADQALwBtAGEAcwBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABtAGEAcwBzAC8AZQBzAGMAYQBwAGUAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAGUAcwBjAGEAcABlAF4ANgAvAG0AYQBzAHMAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlAF4AMgAvAHIAYQBkAGkAdQBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACoAZQBzAGMAYQBwAGUAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgACgAZQBzAGMAYQBwAGUALwByAGEAZABpAHUAcwApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABsAGEAYgBlAGwAXwBsAGkAcwB0ACwAIAB0AHIAYQBuAHMAcABvAHMAZQAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAbABhAGIAZQBsAHMALABcACIAOwBcACIAKQApACwAXABuACAAIAAgACAAdgBhAGwAdQBlAF8AbABpAHMAdAAsACAAdAByAGEAbgBzAHAAbwBzAGUAKAB0AGUAeAB0AHMAcABsAGkAdAAoAG8AdQB0AHAAdQB0ACwAIABcACIAOwBcACIAKQApACwAXABuACAAIAAgACAALwAvAHYAYQBsAHUAZQBfAGwAaQBzAHQAXABuACAAIAAgACAAYwBoAG8AbwBzAGUAKAB7ADEALAAyAH0ALAAgAGwAYQBiAGUAbABfAGwAaQBzAHQALAAgAHIAbwB1AG4AZAAoAHYAYQBsAHUAZQAoAHYAYQBsAHUAZQBfAGwAaQBzAHQAKQAsAHAAcgBlAGMAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFkATgBPAEQASQBDACAAPQAgAEwAQQBNAEIARABBACgAcAAsACAAcQAsAFwAbgBcAG4AIAAgACAAIAAoAHAAIAAqACAAcQApACAALwAgAEEAQgBTACgAcAAgAC0AIABxACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuAFMATQBBAEwATABBAE4ARwBMAEUAIAA9ACAATABBAE0AQgBEAEEAKABkAGkAYQBtAGUAdABlAHIALAAgAGQAaQBzAHQAYQBuAGMAZQAsAFwAbgBcAG4AIAAgACAAIAAwAC4ANQAzADIAOQAwADQAMgA5ADQAIAAqACAAKABkAGkAYQBtAGUAdABlAHIAIAAvACAAZABpAHMAdABhAG4AYwBlACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuAE8AUgBCAF8AQQBYAEkAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABwAGUAcgBpAG8AZAAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAGEAcwBzADIALAAgAEkARgAoACgASQBTAE8ATQBJAFQAVABFAEQAKABtAGEAcwBzADIAKQApACsAKABtAGEAcwBzADIAIAA9ACAAMQApACwAIAAwACwAIABtAGEAcwBzADIAKgAzAC4AMAAwADMARQAtADYAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMALAAgAFAATwBXAEUAUgAoACgAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQAgACoAIAAoAG0AYQBzAHMAMQAgACsAIABtAGEAcwBzADIAKQApACwAIAAxACAALwAgADMAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ATwBSAEIAXwBQAEUAUgBJAE8ARAAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABhAHgAaQBzACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AYQBzAHMAMgAsACAASQBGACgAKABJAFMATwBNAEkAVABUAEUARAAoAG0AYQBzAHMAMgApACkAKwAoAG0AYQBzAHMAMgAgAD0AIAAxACkALAAgADAALAAgACgAbQBhAHMAcwAyACAAKgAgADMALgAwADAAMgA3ADMAZQAtADYAKQApACwAXABuACAAIAAgACAAcABlAHIAaQBvAGQALAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAKABtAGEAcwBzADEAIAArACAAbQBhAHMAcwAyACkAKQAsAFwAbgAgACAAIAAgAHAAZQByAGkAbwBkAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEMAUgBPAFMAUwBJAE4ARwBfAE8AUgBCAEkAVABfAFAAQQBSAEEATQBFAFQARQBSACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALABcAG4AXABuAEEAQgBTACgAbQBhAHMAcwAxACAALQAgAG0AYQBzAHMAMgApAC8AQQBCAFMAKABtAGEAcwBzADEAIAArAG0AYQBzAHMAMgApAFwAbgBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBQAEUAUgBJAE8ARABfAEEAWABJAFMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AXABuACAAIAAgACAAUABPAFcARQBSACgAUABPAFcARQBSACgAaQBuAHAAdQB0ACwAIAAyACkALAAgACgAMQAgAC8AIAAzACkAKQBcAG4AXABuACkAOwBcAG4AXABuAE8AUgBCAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGEAeABpAHMALAAgAHAAZQByAGkAbwBkACwAXABuAFwAbgBQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQBcAG4AKQA7AFwAbgBcAG4AUwBQAEgARQBSAEkAQwBBAEwAXwBUAE8AXwBDAEEAUgBUAEUAUwBJAEEATgAgAD0AIABMAEEATQBCAEQAQQAoAHAAaABpACwAIAB0AGgAZQB0AGEALAAgAHIALAAgAFsAcAByAGUAYwBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACkALAAgACAAIAAgAFwAbgAgACAAIAAgAHoAXwBtAG8AZAAsACAAcwBpAGcAbgAoAHQAaABlAHQAYQApACwAXABuACAAIAAgACAAeQBfAG0AbwBkACwAIABzAGkAZwBuACgAcABoAGkAKQAsAFwAbgAgACAAIAAgAHgAXwBtAG8AZAAsACAAaQBmACgAYQBiAHMAKABwAGgAaQApADwAOQAwACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgAC8ALwB4AF8AbQBvAGQAXABuACAAIAAgACAALwAvAHQAZQB4AHQAagBvAGkAbgAoAFwAIgAsAFwAIgAsACwAeABfAG0AbwBkACwAIAB5AF8AbQBvAGQALAAgAHoAXwBtAG8AZAApAFwAbgAgACAAIAAgAGEAbgBnAF8AeAAsACAAcgBhAGQAaQBhAG4AcwAoAG0AbwBkACgAcABoAGkALAA5ADAAKQApACwAXABuACAAIAAgACAAYQBuAGcAXwB6ACwAIAByAGEAZABpAGEAbgBzACgAYQBiAHMAKAB0AGgAZQB0AGEAKQApACwAXABuACAAIAAgACAAZAAsACAAYwBvAHMAKABhAG4AZwBfAHoAKQAqAHIALABcAG4AIAAgACAAIAB4ACwAIAByAG8AdQBuAGQAKABjAG8AcwAoAGEAbgBnAF8AeAApACoAZAAqAHgAXwBtAG8AZAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAeQAsACAAcgBvAHUAbgBkACgAcwBpAG4AKABhAG4AZwBfAHgAKQAqAGQAKgB5AF8AbQBvAGQALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHoALAAgAHIAbwB1AG4AZAAoAHMAaQBuACgAYQBuAGcAXwB6ACkAKgByACoAegBfAG0AbwBkACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAdABlAHgAdABqAG8AaQBuACgAXAAiAHwAXAAiACwALAB4ACwAIAB5ACwAIAB6ACkALABcAG4AIAAgACAAIAAvAC8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAdABvAHIAbwB3ACgAdABlAHgAdABzAHAAbABpAHQAKAByAGUAcwB1AGwAdAAsAFwAIgB8AFwAIgApACkAXABuACkAXABuAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQARQBDAF8ARABNAFMAIAA9ACAATABBAE0AQgBEAEEAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAARABlAGcALAAgAFQAUgBVAE4AQwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4ALAAgAEEAQgBTACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACAALQAgAEQAZQBnACkALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAF8AcABhAHIAdAAsACAAVABSAFUATgBDACgATQBpAG4AdQB0AGUAcwApACAALwAgADEAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAcgBhAGMATQBpAG4ALAAgAEEAQgBTACgATQBpAG4AdQB0AGUAcwAgAC0AIABJAG4AdABNAGkAbgApACwAXABuACAAIAAgACAAIAAgACAAIABTAGUAYwBvAG4AZABzACwAIABGAHIAYQBjAE0AaQBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBlAGMAXwBwAGEAcgB0ACwAIABTAGUAYwBvAG4AZABzACAALwAgADEAMAAwADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEQAZQBnACAAKwAgAE0AaQBuAF8AcABhAHIAdAAgACsAIABzAGUAYwBfAHAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgAEYASQBYAEUARAAoAG8AdQB0AHAAdQB0ACwAIAA3ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARABFAEcAXwBEAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAGQAZQBjAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAUAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAUAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgAEQAZQBnACwAIABUAFIAVQBOAEMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAKQAsAFwAbgAgACAAIAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAsACAAQQBCAFMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAIAAtACAARABlAGcAKQAsAFwAbgAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIABGAHIAYQBjAE0AaQBuACwAIABBAEIAUwAoAE0AaQBuAHUAdABlAHMAIAAtACAASQBuAHQATQBpAG4AKQAsAFwAbgAgACAAIAAgAFMAZQBjAG8AbgBkAHMALAAgAEYAcgBhAGMATQBpAG4AIAAqACAANgAwACwAXABuACAAIAAgACAARABlAGcAIAAmACAAXAAiALAAIABcACIAIAAmACAASQBuAHQATQBpAG4AIAAmACAAQwBIAEEAUgAoADMAOQApACAAJgAgAEMASABBAFIAKAAzADIAKQAgACYAIABGAEkAWABFAEQAKABTAGUAYwBvAG4AZABzACwAIABkAGUAYwBwAHIAZQBjACkAIAAmACAAQwBIAEEAUgAoADMANAApAFwAbgApAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQATQBTAF8ARABFAEMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGcAcgBlAGUAcwAsACAAVABSAFUATgBDACgAaQBuAHAAdQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AaQBuAHUAdABlAHMALAAgAFQAUgBVAE4AQwAoACgAaQBuAHAAdQB0ACAALQAgAGQAZQBnAHIAZQBlAHMAKQAgACoAIAAxADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAHQAaQBvAG4AYQBsAF8AcwBlAGMAbwBuAGQAcwAsACAAKAAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACAALQAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACkAIAAvACAAMAAuADYALABcAG4AIAAgACAAIAAgACAAIAAgAC8AKgAgACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAGQAZQBnAHIAZQBlAHMAIAArACAAKAAoAG0AaQBuAHUAdABlAHMAIAArACAAZgByAGEAYwB0AGkAbwBuAGEAbABfAHMAZQBjAG8AbgBkAHMAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AQQBYAEkAUwBfAFAARQBSAEkATwBEACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAXABuAFwAbgAgACAAIAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABpAG4AcAB1AHQALAAgADMAKQApAFwAbgAgACAAIAAgAFwAbgApADsAXABuAFwAbgAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBPAFIAQgBJAFQAXwBIAEEAQgBfAEkATgBEAEUAWAAiACwAIgBTAFAARQBDAFQAUgBBAEwAXwBDAEwAQQBTAFMAXwBGAFIARQBRACIALAAiAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACIALAAiAFMAVABBAFIAXwBTAEMAQQBMAEUAXwBUAEUATQBQACIALAAiAFMAVABBAFIAXwBTAEMAQQBMAEUAXwBLAFQARQBNAFAAIgAsACIAUwBUAEEAUgBfAEMATABBAFMAUwBfAFMAVABBAFQAUwAiACwAIgBTAFQAQQBSAF8ATQBBAFMAUwAiACwAIgBTAFQAQQBSAF8AUgBBAEQAUwAiACwAIgBTAFQAQQBSAF8ATABVAE0AUwAiACwAIgBTAFQAQQBSAEwAVQBNAFMAIgAsACIAUwBUAEEAUgBfAEwASQBGAEUAIgAsACIAVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACIALAAiAFQARQBNAFAAXwBGAFIATwBNAF8AVABZAFAARQAiACwAIgBTAFAARQBDAFQAUgBBAEwAXwBDAEwAQQBTAFMAXwBEAEEAVABBACIALAAiAFMAUABFAEMAXwBMAEkAUwBUACIALAAiAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTAF8AVABBAEIATABFACIALAAiAEgAQQBCAFoATwBOAEUAUwAiACwAIgBIAEEAQgBfAFoATwBOAEUAUwAiACwAIgBTAFQAQQBSAFMAXwBQAEUAUgBfAEMAVQBCAEkAQwBfAFYATwBMACIALAAiAEMAVQBCAEkAQwBfAFYATwBMAFUATQBFAF8AUABFAFIAXwBTAFQAQQBSAFMAIgAsACIAUABMAEEATgBFAFQAXwBBAFMAVABSAE8ATQBFAFQAUgBJAEMAUwAiACwAIgBTAFkATgBPAEQASQBDACIALAAiAFMATQBBAEwATABBAE4ARwBMAEUAIgAsACIATwBSAEIAXwBBAFgASQBTACIALAAiAE8AUgBCAF8AUABFAFIASQBPAEQAIgAsACIAQwBSAE8AUwBTAEkATgBHAF8ATwBSAEIASQBUAF8AUABBAFIAQQBNAEUAVABFAFIAIgAsACIAUABFAFIASQBPAEQAXwBBAFgASQBTACIALAAiAE8AUgBCAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAiACwAIgBTAFAASABFAFIASQBDAEEATABfAFQATwBfAEMAQQBSAFQARQBTAEkAQQBOACIALAAiAEQARQBHAF8ARABFAEMAXwBEAE0AUwAiACwAIgBEAEUARwBfAEQATQBTACIALAAiAEQARQBHAF8ARABNAFMAXwBEAEUAQwAiACwAIgBBAFgASQBTAF8AUABFAFIASQBPAEQAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBNAEQAWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAcgBlAGwAYQB0AGkAdgBlACAAbwByACAAcwBjAGEAbABlAGQAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAG8AZgAgAHMAdABlAGwAbABhAHIAIABzAHAAZQBjAHQAcgBhAGwAIABjAGwAYQBzAHMAZQBzAFwAbgAgACAAIABiAGEAcwBlAGQAIABvAG4AIABhAG4AIABpAG4AcAB1AHQAIAB0AHkAcABlACAAKABvAHAAdABpAG8AbgBhAGwAKQAgAGEAbgBkACAAdABvAHQAYQBsACAAYwBvAHUAbgB0ACAAKABvAHAAdABpAG8AbgBhAGwAKQAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAMgAtAGMAbwBsAHUAbQBuACAAYQByAHIAYQB5ADoAIABzAHAAZQBjAHQAcgBhAGwAIABjAGwAYQBzAHMAIAArACAAcwBjAGEAbABlAGQAIABjAG8AdQBuAHQAIABvAHIAIAByAGUAbABhAHQAaQB2AGUAIABmAHIAZQBxAHUAZQBuAGMAeQBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAHQAeQBwAGUAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABBACAAcwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzACAAbABlAHQAdABlAHIAIAAoAFwAIgBPAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQQBcACIALAAgAGUAdABjAC4AKQAgAHQAbwAgAHUAcwBlACAAYQBzACAAYgBhAHMAZQBsAGkAbgBlAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAGkAbgB2AGEAbABpAGQALAAgAHIAZQB0AHUAcgBuAHMAIABpAG4AdgBlAHIAcwBlAC0AdwBlAGkAZwBoAHQAZQBkACAAZABpAHMAdAByAGkAYgB1AHQAaQBvAG4ALgBcAG4AIAAgACAALQAgAGMAbwB1AG4AdAAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAFQAbwB0AGEAbAAgAG4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzACAAdABvACAAcwBjAGEAbABlACAAYgB5ACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADEAKQAuAFwAbgAgACAAIAAtACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABEAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIAByAG8AdQBuAGQAIABvAHUAdABwAHUAdAAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAdQBzAGUAcwAgAGEAIABjAGEAbgBvAG4AaQBjAGEAbAAgAGIAYQBzAGUAIABmAHIAZQBxAHUAZQBuAGMAeQAgAHQAYQBiAGwAZQAgAGYAbwByACAATwATIE0AIABjAGwAYQBzAHMAZQBzAC4AXABuACAAIAAgAC0AIABJAGYAIABhACAAYAB0AHkAcABlAGAAIABpAHMAIABnAGkAdgBlAG4ALAAgAG8AdQB0AHAAdQB0ACAAaQBzACAAcwBjAGEAbABlAGQAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIABpAHQAcwAgAGEAYgB1AG4AZABhAG4AYwBlAC4AXABuACAAIAAgAC0AIABJAGYAIABgAHQAeQBwAGUAYAAgAGkAcwAgAG8AbQBpAHQAdABlAGQAIABvAHIAIABpAG4AdgBhAGwAaQBkACwAIABvAHUAdABwAHUAdAAgAHMAaABvAHcAcwAgAHIAZQBsAGEAdABpAHYAZQAgAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAgACgAMQAvAHgAKQAuAFwAbgAgACAAIAAtACAATwB1AHQAcAB1AHQAIABpAHMAIABpAG4AIABkAGUAcwBjAGUAbgBkAGkAbgBnACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAbwByAGQAZQByACAAKABPACAAkiEgAE0AKQAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AKABcACIARwBcACIALAAgADEAMAAwACkAXABuACAAIAAgACAAIACSISAAewBcACIATwBcACIALAAgADAAOwAgAFwAIgBCAFwAIgAsACAAMAAuADAAMAAxADsAIABcACIAQQBcACIALAAgADAALgAwADAANgA7ACAAXAAiAEYAXAAiACwAIAAwAC4AMAAzADsAIAAuAC4ALgAgAFwAIgBNAFwAIgAsACAANwA2AC4AMAAyADcAfQBcAG4AXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoACkAXABuACAAIAAgACAAIACSISAAewBcACIATwBcACIALAAgADAALgAwADAAMAAwADAAMAAzADsAIABcACIAQgBcACIALAAgADAALgAwADAAMQAyADUAOwAgAC4ALgAuACwAIABcACIATQBcACIALAAgADAALgA3ADYAMAAyADcANAB9AFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAgAD0AIABMAEEATQBCAEQAQQAoAFsAdAB5AHAAZQBdACwAIABbAGMAbwB1AG4AdABdACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABPAHAAdABpAG8AbgBhAGwAIABkAGUAZgBhAHUAbAB0AHMAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwB1AG4AdAAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABjAG8AdQBuAHQAKQAsACAAMQAsACAAYwBvAHUAbgB0ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEQAZQBmAGkAbgBlACAAcwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzAGUAcwAgAGEAbgBkACAAYgBhAHMAZQAgAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAgACgAZABlAHMAYwBlAG4AZABpAG4AZwAgAHQAZQBtAHAAKQAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAcwBwAGUAYwB0AHIAYQBsAF8AYwBsAGEAcwBzAGUAcwAsACAAewBcACIATwBcACIAOwAgAFwAIgBCAFwAIgA7ACAAXAAiAEEAXAAiADsAIABcACIARgBcACIAOwAgAFwAIgBHAFwAIgA7ACAAXAAiAEsAXAAiADsAIABcACIATQBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYgBhAHMAZQBfAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAsACAAewAzADAAMAAwADAAMAAwADsAIAA4ADAAMAA7ACAAMQA2ADAAOwAgADMAMwA7ACAAMQAzADsAIAA4ADsAIAAxAC4AMwAxADUAMwAxADYAMAAzADAAMQAwADgANwA0AH0ALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAE4AbwByAG0AYQBsAGkAegBlACAAYQBuAGQAIAB2AGEAbABpAGQAYQB0AGUAIABpAG4AcAB1AHQAIAB0AHkAcABlACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAXwBzAHQAcgBpAG4AZwAsACAAXAAiAE8AQgBBAEYARwBLAE0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAB0AHkAcABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAHQAeQBwAGUAKQAsACAASQBTAEUAUgBSAE8AUgAoAFMARQBBAFIAQwBIACgAdAB5AHAAZQAsACAAYwBsAGEAcwBzAF8AcwB0AHIAaQBuAGcAKQApACkALAAgAFwAIgAkAFwAIgAsACAAVQBQAFAARQBSACgAdAB5AHAAZQApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEcAZQB0ACAAdABoAGUAIABiAGEAcwBlACAAZgByAGUAcQB1AGUAbgBjAHkAIABmAG8AcgAgAHQAaABlACAAZwBpAHYAZQBuACAAYwBsAGEAcwBzACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIABiAGEAcwBlAF8AZgByAGUAcQAsACAAWABMAE8ATwBLAFUAUAAoAHQAeQBwAGUALAAgAHMAcABlAGMAdAByAGEAbABfAGMAbABhAHMAcwBlAHMALAAgAGIAYQBzAGUAXwBmAHIAZQBxAHUAZQBuAGMAaQBlAHMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAAQwBvAG0AcAB1AHQAZQAgAGUAaQB0AGgAZQByACAAcwBjAGEAbABlAGQAIAB2AGEAbAB1AGUAcwAgAG8AcgAgAGkAbgB2AGUAcgBzAGUAIABmAHIAZQBxAHUAZQBuAGMAaQBlAHMAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAHMAYwBhAGwAaQBuAGcAXwBmAGEAYwB0AG8AcgBzACwAIABiAGEAcwBlAF8AZgByAGUAcQAgAC8AIABiAGEAcwBlAF8AZgByAGUAcQB1AGUAbgBjAGkAZQBzACwAXABuACAAIAAgACAAIAAgACAAIABzAGMAYQBsAGUAZABfAGQAaQBzAHQAcgBpAGIAdQB0AGkAbwBuACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdAB5AHAAZQAgADwAPgAgAFwAIgAkAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABjAG8AdQBuAHQAIAAqACAAcwBjAGEAbABpAG4AZwBfAGYAYQBjAHQAbwByAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBZAFIATwBXACgAYgBhAHMAZQBfAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAsACAATABBAE0AQgBEAEEAKAB4ACwAIAAxACAALwAgAHgAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAATwB1AHQAcAB1AHQAIAB0AGEAYgBsAGUAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABIAFMAVABBAEMASwAoAHMAcABlAGMAdAByAGEAbABfAGMAbABhAHMAcwBlAHMALAAgAFIATwBVAE4ARAAoAHMAYwBhAGwAZQBkAF8AZABpAHMAdAByAGkAYgB1AHQAaQBvAG4ALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACAAPQAgAEwAQQBNAEIARABBACgAdABvAHQAYQBsACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXAAiAFQAbwB0AGEAbABcACIAOwAgAFwAIgBPAFwAIgA7ACAAXAAiAEIAXAAiADsAIABcACIAQQBcACIAOwAgAFwAIgBGAFwAIgA7ACAAXAAiAEcAXAAiADsAIABcACIASwBcACIAOwAgAFwAIgBNAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAB0AGEAYgBsAGUALAAgAHsAMwAwADAAMAAwADAAMAA7ACAAOAAwADAAOwAgADEANgAwADsAIAAzADMAOwAgADEAMwA7ACAAOAA7ACAAMQAuADMAMQA1ADMAMQA2ADAAMwAwADEAMAA4ADcANAB9ACwAXABuACAAIAAgACAAIAAgACAAIABmAGEAYwB0AG8AcgBzACwAIABCAFkAUgBPAFcAKAB0AGEAYgBsAGUALAAgAEwAQQBNAEIARABBACgAeAAsADEALwB4ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAGIAeQByAG8AdwAoAGYAYQBjAHQAbwByAHMALABsAGEAbQBiAGQAYQAoAHgALAByAG8AdQBuAGQAKAB4ACoAdABvAHQAYQBsACwAcAByAGUAYwBpAHMAaQBvAG4AKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AHMALAAgAHYAcwB0AGEAYwBrACgAdABvAHQAYQBsACwAIAB2AGEAbAB1AGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAcgBlAHMAdQBsAHQAcwApAFwAbgAgACAAIAAgACAAIAAgACAALwAqAHQAeQBwAGUAJgBcACIAIABcACIAJgBjAG8AdQBuAHQAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAUwBUAEEAUgBfAFMAQwBBAEwARQBfAFQARQBNAFAAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAcwB0AGEAcgAgAGEAdAB0AHIAaQBiAHUAdABlAHMAIABjAGEAbABjAHUAbABhAHQAZQBkACAAZgByAG8AbQAgAHMAbwBsAGEAcgAgAHQAZQBtAHAAXABuACoALwBcAG4AUwBUAEEAUgBfAFMAQwBBAEwARQBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKAB0AGUAbQBwACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABfAHQAZQBtAHAALAAgAFwAIgBUAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABcACIAUgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAAMQAuADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFwAIgBMADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAA3AC4ANQA3ADcAOAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADIALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgAC0ANQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAawBlAGwAdgBpAG4ALAAgAHQAXwB0AGUAbQBwACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFQAQQBSAF8AUwBDAEEATABFAF8ASwBUAEUATQBQACAAPQAgAEwAQQBNAEIARABBACgAawBlAGwAdgBpAG4ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABrAF8AdABlAG0AcAAsACAAXAAiAEsALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGsAZQBsAHYAaQBuACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwACwAIABrAGUAbAB2AGkAbgAgAC8AIAA1ADgAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABzAG8AbABhAHIALAAgAFwAIgBUADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAxAC4AOAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADcALgA1ADcANwA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAAMgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAALQA1ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAF8AdABlAG0AcAAsACAAcwBvAGwAYQByACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFQAQQBSAF8AQwBMAEEAUwBTAF8AUwBUAEEAVABTACAAPQAgAEwAQQBNAEIARABBACgAaQBuACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHAAdQB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAaQBuACwAIABcACIAIABcACIALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzACwAIABMAEUARgBUACgAaQBuAHAAdQB0ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdQBiACwAIABSAEkARwBIAFQAKABpAG4AcAB1AHQALAAgAEwARQBOACgAaQBuAHAAdQB0ACkAIAAtACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGgAcgBlAHMAaABvAGwAZABzACwAIAB7ADUANQAwADAAMAAsACAAMgA1ADAAMAAwACwAIAAxADAAMAAwADAALAAgADcANQAwADAALAAgADYAMAAwADAALAAgADUAMAAwADAALAAgADMANQAwADAALAAgADIANAAwADAALAAgADEAMwAwADAALAAgADYAMAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB7AFwAIgBPAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQQBcACIALAAgAFwAIgBGAFwAIgAsACAAXAAiAEcAXAAiACwAIABcACIASwBcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAEwAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBZAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwAcwAsACAAewAzADAAMAAwACwAIAAxADUAMAAwACwAIAAyADUAMAAsACAAMQA1ADAALAAgADEAMAAwACwAIAAxADUAMAAsACAAMQAxADAALAAgADEAMQAwACwAIAA3ADAALAAgADMAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAeABfAHQAZQBtAHAALAAgAFgATABPAE8ASwBVAFAAKABjAGwAYQBzAHMALAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB0AGgAcgBlAHMAaABvAGwAZABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwBmAGEAYwB0AG8AcgAsACAAWABMAE8ATwBLAFUAUAAoAGMAbABhAHMAcwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHEAXwB2AGEAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwB0AGUAbQBwACwAIABtAGEAeABfAHQAZQBtAHAAIAAtACAAKABzAHUAYgAgACoAIABxAF8AZgBhAGMAdABvAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcAAsACAAawBfAHQAZQBtAHAAIAAvACAANQA4ADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAawBfAHQAZQBtAHAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADEALgA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAANwAuADUANwA3ADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAtADUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAFwAIgAtAD4AIABcACIAIAAmACAAaQBuAHAAdQB0ACwAIABrAGUAbAB2AGkAbgAsACAAcwBvAGwAYQByACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AUwBUAEEAUgBfAE0AQQBTAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAGEAcwBzACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBfAG0AYQBzAHMALAAgAFwAIgBNAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABtAGEAcwBzACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAFwAIgBUADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAUwBRAFIAVAAoAG0AYQBzAHMAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBvAGwAYQByACwAIABTAFEAUgBUACgAbQBhAHMAcwApACAAKgAgADUAOAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHMAbwBsAGEAcgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbQBhAHMAcwAgAF4AIAAwAC4AOQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABtAGEAcwBzACAAXgAgADMALgA3ADgAOAA5ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAUwBRAFIAVAAoAG0AYQBzAHMAKQAgAF4AIAAtADUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAZQBsAHYAaQBuACwAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAHMAXwBtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AUwBUAEEAUgBfAFIAQQBEAFMAIAA9ACAATABBAE0AQgBEAEEAKAByAGEAZABpAHUAcwAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFIALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHIAYQBkAGkAdQBzACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAFwAIgBUADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAcgBhAGQAaQB1AHMAIABeACAAKAAxACAALwAgADEALgA4ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoACgAcgBhAGQAaQB1AHMAIABeACAAKAAxACAALwAgADEALgA4ACkAKQAgACoAIAA1ADgAMAAwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHIAYQBkAGkAdQBzACAAXgAgADQALgAyADIALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAcgBhAGQAaQB1AHMAIABeACAAMQAuADEAMQA0ADIANwAwADAAMQA3ADcANwA3ADcAOAAwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAcgBhAGQAaQB1AHMAIABeACAAKAAxACAALwAgAC0AMAAuADMANgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABtAGEAcwBzACwAIABzAG8AbABhAHIALAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAGwAaQBmAGUAdABpAG0AZQApACwAXABuACAAIAAgACAAIAAgACAAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAaQBzAHQALAAgAFwAIgB8AFwAIgApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFMAVABBAFIAXwBMAFUATQBTACAAPQAgAEwAQQBNAEIARABBACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAA3AC4ANgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADcALgA1ADcANwA4ACkAKQAgACoAIAA1ADgAMAAwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAF8AbAB1AG0ALAAgAFwAIgBMAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAA0AC4AMgAyACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAAMwAuADcAOAA4ADkAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgAC0AMQAuADUAMgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAcwBfAGwAdQBtACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIATABVAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAYgBlAGwAcwAsACAAVABSAEEATgBTAFAATwBTAEUAKAB7AFwAIgBLADoAXAAiACwAIABcACIAVAA6AFwAIgAsACAAXAAiAE0AOgBcACIALAAgAFwAIgBSADoAXAAiACwAIABcACIATAB9AFwAIgAsACAAXAAiAFYAOgBcACIAfQApACwAXABuACAAIAAgACAAIAAgACAAIABUACwAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAA3AC4ANQA3ADcAOAApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABLACwAIABSAE8AVQBOAEQAKAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADcALgA1ADcANwA4ACkAKQAgACoAIAA1ADgAMAAwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABMACwAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAA0AC4AMgAyACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADMALgA3ADgAOAA5ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFYALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgAC0AMQAuADUAMgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABhAHQAdAByAGkAYgBzACwAIABUAEUAWABUAEoATwBJAE4AKABcACIALABcACIALAAgACwAIABLACwAIABUACwAIABNACwAIABSACwAIABMACwAIABWACkALABcAG4AIAAgACAAIAAgACAAIAAgAHYAYQBsAHUAZQBzACwAIABUAFIAQQBOAFMAUABPAFMARQAoAFQARQBYAFQAUwBQAEwASQBUACgAYQB0AHQAcgBpAGIAcwAsACAAXAAiACwAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIAfQAsACAAbABhAGIAZQBsAHMALAAgAHYAYQBsAHUAZQBzACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFMAVABBAFIAXwBMAEkARgBFACAAPQAgAEwAQQBNAEIARABBACgAbABpAGYAZQB0AGkAbQBlACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBvAGwAYQByACwAIABcACIAVgAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAbABpAGYAZQB0AGkAbQBlACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAFwAIgBUADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbABpAGYAZQB0AGkAbQBlACAAXgAgACgAMQAgAC8AIAAtADUAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAKABsAGkAZgBlAHQAaQBtAGUAIABeACAAKAAxACAALwAgAC0ANQApACkAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbABpAGYAZQB0AGkAbQBlACAAXgAgACgALQAwAC4AMwA2ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbABpAGYAZQB0AGkAbQBlACAAXgAgACgAMQAgAC8AIAAtADIALgA1ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFwAIgBMADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbABpAGYAZQB0AGkAbQBlACAAXgAgAC0AMQAuADUAMgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAawBlAGwAdgBpAG4ALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAHMAbwBsAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAaQBzAHQALAAgAFwAIgB8AFwAIgApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQBtAHAALAAgAFsAbQBvAGQAZQBdACwAIABbAHAAcgBlAGMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwACwAIABpAGYAcwAoAHQAZQBtAHAAPAA2ADAAMAAsADYAMAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAG0AcAA+ADUANQAwADAAMAAsADUANQAwADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAHQAZQBtAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgATwBSACgASQBTAE8ATQBJAFQAVABFAEQAKABtAG8AZABlACkALAAgAG0AbwBkAGUAIAA+ACAAMQApACwAIAAwACwAIABtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMALAAgAEkARgAoAE8AUgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIABwAHIAZQBjACAAPAAgADAAKQAsACAAMwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGgAcgBlAHMAaABvAGwAZABzACwAIAB7ADUANQAwADAAMAAsACAAMgA1ADAAMAAwACwAIAAxADAAMAAwADAALAAgADcANQAwADAALAAgADYAMAAwADAALAAgADUAMAAwADAALAAgADMANQAwADAALAAgADIANAAwADAALAAgADEAMwAwADAALAAgADYAMAAwACwAIAAzADAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAewBcACIATwBcACIALAAgAFwAIgBCAFwAIgAsACAAXAAiAEEAXAAiACwAIABcACIARgBcACIALAAgAFwAIgBHAFwAIgAsACAAXAAiAEsAXAAiACwAIABcACIATQBcACIALAAgAFwAIgBMAFwAIgAsACAAXAAiAFQAXAAiACwAIABcACIAWQBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAHYAYQBsAHMALAAgAHsAMwAwADAAMAAsACAAMQA1ADAAMAAsACAAMgA1ADAALAAgADEANQAwACwAIAAxADAAMAAsACAAMQA1ADAALAAgADEAMQAwACwAIAAxADEAMAAsACAANwAwACwAIAAzADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAGQAZQB4ACwAIABNAEEAVABDAEgAKABUAFIAVQBFACwAIAB0AGUAbQBwACAAPgAgAHQAaAByAGUAcwBoAG8AbABkAHMALAAgADAAKQAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIABzAF8AdAB5AHAAZQAsACAASQBOAEQARQBYACgAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAGkAbgBkAGUAeAApACwAXABuACAAIAAgACAAIAAgACAAIABrAF8AbQBhAHgALAAgAEkATgBEAEUAWAAoAHQAaAByAGUAcwBoAG8AbABkAHMALAAgAGkAbgBkAGUAeAApACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwALAAgAEkATgBEAEUAWAAoAHEAXwB2AGEAbABzACwAIABpAG4AZABlAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAF8AbgB1AG0ALAAgACgAawBfAG0AYQB4ACAALQAgAHQAZQBtAHAAKQAgAC8AIABxAF8AdgBhAGwALABcAG4AIAAgACAAIAAgACAAIAAgAHMAXwBjAGwAYQBzAHMALAAgAEkARgAoAGMAbABhAHMAcwBfAG4AdQBtACAAPQAgADEAMAAsACAAOQAuADkAOQA5ACwAIABjAGwAYQBzAHMAXwBuAHUAbQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBXAEkAVABDAEgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALAAgAHMAXwB0AHkAcABlACAAJgAgAFwAIgAgAFwAIgAgACYAIABGAEkAWABFAEQAKABzAF8AYwBsAGEAcwBzACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAsACAAdABlAG0AcAAgACYAIABcACIAIAA9ACAAXAAiACAAJgAgAHMAXwB0AHkAcABlACAAJgAgAEYASQBYAEUARAAoAHMAXwBjAGwAYQBzAHMALAAgAHAAcgBlAGMAKQAsACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AVABFAE0AUABfAEYAUgBPAE0AXwBUAFkAUABFACAAPQAgAEwAQQBNAEIARABBACgAaQBuACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHAAdQB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAaQBuACwAIABcACIAIABcACIALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzACwAIABMAEUARgBUACgAaQBuAHAAdQB0ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdQBiACwAIABSAEkARwBIAFQAKABpAG4AcAB1AHQALAAgAEwARQBOACgAaQBuAHAAdQB0ACkAIAAtACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGgAcgBlAHMAaABvAGwAZABzACwAIAB7ADUANQAwADAAMAAsACAAMgA1ADAAMAAwACwAIAAxADAAMAAwADAALAAgADcANQAwADAALAAgADYAMAAwADAALAAgADUAMAAwADAALAAgADMANQAwADAALAAgADIANAAwADAALAAgADEAMwAwADAALAAgADYAMAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB7AFwAIgBPAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQQBcACIALAAgAFwAIgBGAFwAIgAsACAAXAAiAEcAXAAiACwAIABcACIASwBcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAEwAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBZAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwAcwAsACAAewAzADAAMAAwACwAIAAxADUAMAAwACwAIAAyADUAMAAsACAAMQA1ADAALAAgADEAMAAwACwAIAAxADUAMAAsACAAMQAxADAALAAgADEAMQAwACwAIAA3ADAALAAgADMAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAeABfAHQAZQBtAHAALAAgAFgATABPAE8ASwBVAFAAKABjAGwAYQBzAHMALAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB0AGgAcgBlAHMAaABvAGwAZABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwBmAGEAYwB0AG8AcgAsACAAWABMAE8ATwBLAFUAUAAoAGMAbABhAHMAcwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHEAXwB2AGEAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwB0AGUAbQBwACwAIABtAGEAeABfAHQAZQBtAHAAIAAtACAAKABzAHUAYgAgACoAIABxAF8AZgBhAGMAdABvAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABtAG8AZABlACwAIAAwACwAIABrAF8AdABlAG0AcAAsACAAMQAsACAAaQBuAHAAdQB0ACAAJgAgAFwAIgAgAD0AIABcACIAIAAmACAAawBfAHQAZQBtAHAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFAARQBDAFQAUgBBAEwAXwBDAEwAQQBTAFMAXwBEAEEAVABBACAAPQAgAEwAQQBNAEIARABBACgAWwBuAHUAbABsAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAewBcACIAVAB5AHAAZQBcACIAOwAgAFwAIgBNAGkAbgBcACIAOwAgAFwAIgBNAGEAeABcACIAOwAgAFwAIgBTAHAAYQBuAFwAIgA7ACAAXAAiAHEAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHQAeQBwAGUAcwAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAxACkALAAgAHsAXAAiAE8AXAAiADsAIABcACIAQgBcACIAOwAgAFwAIgBBAFwAIgA7ACAAXAAiAEYAXAAiADsAIABcACIARwBcACIAOwAgAFwAIgBLAFwAIgA7ACAAXAAiAE0AXAAiADsAIABcACIATABcACIAOwAgAFwAIgBUAFwAIgA7ACAAXAAiAFkAXAAiAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBpAG4ALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMgApACwAIAB7ADIANQAwADAAMAA7ACAAMQAwADAAMAAwADsAIAA3ADUAMAAwADsAIAA2ADAAMAAwADsAIAA1ADAAMAAwADsAIAAzADUAMAAwADsAIAAyADQAMAAwADsAIAAxADMAMAAwADsAIAA2ADAAMAA7ACAAMwAwADAAfQApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAeAAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAzACkALAAgAHsANQA1ADAAMAAwADsAIAAyADUAMAAwADAAOwAgADEAMAAwADAAMAA7ACAANwA1ADAAMAA7ACAANgAwADAAMAA7ACAANQAwADAAMAA7ACAAMwA1ADAAMAA7ACAAMgA0ADAAMAA7ACAAMQAzADAAMAA7ACAANgAwADAAfQApACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwAcwAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAA1ACkALAAgAHsAMwAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMgA1ADAAOwAgADEANQAwADsAIAAxADAAMAA7ACAAMQA1ADAAOwAgADEAMQAwADsAIAAxADEAMAA7ACAANwAwADsAIAAzADAAfQApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAbgBnAGUAcwAsACAAewAzADAAMAAwADAAOwAgADEANQAwADAAMAA7ACAAMgA1ADAAMAA7ACAAMQA1ADAAMAA7ACAAMQAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMQAxADAAMAA7ACAAMQAxADAAMAA7ACAANwAwADAAOwAgADMAMAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHMAcABhAG4ALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAANAApACwAIAByAGEAbgBnAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgAsACAAMwAsACAANAAsACAANQB9ACwAIAB0AHkAcABlAHMALAAgAG0AaQBuACwAIABtAGEAeAAsACAAcwBwAGEAbgAsACAAcQBfAHYAYQBsAHMAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFAARQBDAF8ATABJAFMAVAAgAD0AIABMAEEATQBCAEQAQQAoAFsAbgB1AGwAbABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATwA6ACAAMgA1ADAAMAAwACAALQAgADUANQAwADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEIAOgAgADEAMAAwADAAMAAgAC0AIAAyADUAMAAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBBADoAIAA3ADUAMAAwACAALQAgADEAMAAwADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEYAOgAgADYAMAAwADAAIAAtACAANwA1ADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEcAOgAgADUAMAAwADAAIAAtACAANgAwADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEsAOgAgADMANQAwADAAIAAtACAANQAwADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AOgAgADIANAAwADAAIAAtACAAMwA1ADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEwAOgAgADEAMwAwADAAIAAtACAAMgA0ADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAOgAgADYAMAAwACAALQAgADEAMwAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBZADoAIAAzADAAMAAgAC0AIAA2ADAAMABcACIAXABuACAAIAAgACAAIAAgACAAIAB9ACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwBfAFQAQQBCAEwARQAgAD0AIABMAEEATQBCAEQAQQAoAFsAbgB1AGwAbABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjACwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABoAGUAYQBkAGUAcgBzACwAIAB7AFwAIgBaAG8AbgBlAFwAIgA7ACAAXAAiAEkAbgBuAGUAcgBcACIAOwAgAFwAIgBPAHUAdABlAHIAXAAiADsAIABcACIAQQB2AGUAcgBhAGcAZQBcACIAOwAgAFwAIgBTAHAAYQBuAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAYgBlAGwAcwAsACAAewBcACIAWgAwACAAKABJAGcAbgBpAG8ALQApAFwAIgA7ACAAXAAiAFoAMQAgACgAQwBhAGwAbwByAG8ALQApAFwAIgA7ACAAXAAiAFoAMgAgACgASABlAGwAaQBvAC0AKQBcACIAOwAgAFwAIgBaADMAIAAoAFMAbwBsAGEAcgBhAC0AKQBcACIAOwAgAFwAIgBaADQAIAAoAFMAdQByAHkAYQAtACkAXAAiADsAIABcACIAWgA1ACAAKABGAHIAaQBvAC0AKQBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAG4AZQByACwAIAB7ADAAOwAgADAALgA1ADsAIAAwAC4ANwA1ADsAIAAwAC4AOQA1ADsAIAAxAC4AMwA4ADUAOwAgADEALgA3ADcAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAZQByACwAIAB7ADAALgA1ADsAIAAwAC4ANwA1ADsAIAAwAC4AOQA1ADsAIAAxAC4AMwA4ADUAOwAgADEALgA3ADcAOwAgADQALgA4ADUAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQB2AGUAcgBhAGcAZQAsACAAewAwAC4AMgA1ADsAIAAwAC4ANgAyADUAOwAgADAALgA4ADUAOwAgADEALgAxADYANwA1ADsAIAAxAC4ANQA3ADcANQA7ACAAMwAuADMAMQB9ACwAXABuACAAIAAgACAAIAAgACAAIABzAHAAYQBuACwAIAB7ADAALgA1ADsAIAAwAC4AMgA1ADsAIAAwAC4AMgA7ACAAMAAuADQAMwA1ADsAIAAwAC4AMwA4ADUAOwAgADMALgAwADgAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAXwAxACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADEAKQAsACAAbABhAGIAZQBsAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAXwAyACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADIAKQAsACAAUgBPAFUATgBEACgAaQBuAG4AZQByACwAIABkAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwBsAF8AMwAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAzACkALAAgAFIATwBVAE4ARAAoAG8AdQB0AGUAcgAsACAAZABlAGMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABfADQALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAANAApACwAIABSAE8AVQBOAEQAKABhAHYAZQByAGEAZwBlACwAIABkAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwBsAF8ANQAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAA1ACkALAAgAFIATwBVAE4ARAAoAHMAcABhAG4ALAAgAGQAZQBjACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIALAAgADMALAAgADQALAAgADUAfQAsACAAYwBvAGwAXwAxACwAIABjAG8AbABfADIALAAgAGMAbwBsAF8AMwAsACAAYwBvAGwAXwA0ACwAIABjAG8AbABfADUAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBIAEEAQgBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABsAHUAbQAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AdQBjAGwAZQBhAGwALAAgAFIATwBVAE4ARAAoAFMAUQBSAFQAKABsAHUAbQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABOACwAIABcACIATgAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAUwBRAFIAVAAoAGwAdQBtACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMAAsACAAXAAiADAAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAwAC4ANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADEALAAgAFwAIgAxADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAMAAuADcANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADIALAAgAFwAIgAyADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAMAAuADkANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADMALAAgAFwAIgAzADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAMQAuADMAOAA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUANAAsACAAXAAiADQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAxAC4ANwA3ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUANQAsACAAXAAiADUAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAA0AC4AOAA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAFoAbwBuAGUAMAAsACAAWgBvAG4AZQAxACwAIABaAG8AbgBlADIALAAgAE4ALAAgAFoAbwBuAGUAMwAsACAAWgBvAG4AZQA0ACwAIABaAG8AbgBlADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEgAQQBCAF8AWgBPAE4ARQBTACAAPQAgAEwAQQBNAEIARABBACgAbAB1AG0ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABsAGEAYgBlAGwAcwAsACAAewBcACIAMAA6ACAAXAAiACwAIABcACIAMQA6ACAAXAAiACwAIABcACIAMgA6ACAAXAAiACwAIABcACIATgAtAD4AIABcACIALAAgAFwAIgAzADoAIABcACIALAAgAFwAIgA0ADoAIABcACIALAAgAFwAIgA1ADoAIABcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbAAsACAAUgBPAFUATgBEACgAUwBRAFIAVAAoAGwAdQBtACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwAwACwAIABSAE8AVQBOAEQAKAAwAC4ANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAF8AMQAsACAAUgBPAFUATgBEACgAMAAuADcANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAF8AMgAsACAAUgBPAFUATgBEACgAMAAuADkANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAF8ATgAsACAAbgB1AGMAbABlAGEAbAAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADMALAAgAFIATwBVAE4ARAAoADEALgAzADgANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAF8ANAAsACAAUgBPAFUATgBEACgAMQAuADcANwAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAF8ANQAsACAAUgBPAFUATgBEACgANAAuADgANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADAALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADEAKQAsACAAWgBfADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAxACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAAyACkALAAgAFoAXwAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAAMwApACwAIABaAF8AMgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlAE4ALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADQAKQAsACAAWgBfAE4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAzACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAA1ACkALAAgAFoAXwAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUANAAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAANgApACwAIABaAF8ANAApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADUALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADcAKQAsACAAWgBfADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABSAEEATgBTAFAATwBTAEUAKABDAEgATwBPAFMARQAoAHsAMQAsACAAMgAsACAAMwAsACAANAAsACAANQAsACAANgAsACAANwB9ACwAIABaAG8AbgBlADAALAAgAFoAbwBuAGUAMQAsACAAWgBvAG4AZQAyACwAIABaAG8AbgBlAE4ALAAgAFoAbwBuAGUAMwAsACAAWgBvAG4AZQA0ACwAIABaAG8AbgBlADUAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIAUwBfAFAARQBSAF8AQwBVAEIASQBDAF8AVgBPAEwAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALAAgAFsAcAByAGUAYwBdACwAIABbAG0AbwBkAGUAXQAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABtAG8AZABlACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlADwAMAApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPgAxACkALABcAG4AIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAHAAcgBlAGMAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAHAAcgBlAGMAPAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHYAbwBsAHUAbQBlACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAGkAbgBwAHUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAKAA0AC8AMwApACoAcABpACgAKQAqAGkAbgBwAHUAdABeADMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAAcgBvAHUAbgBkACgAcABvAHcAZQByACgAKAB2AG8AbAB1AG0AZQAqADMAKQAvACgANAAqAHAAaQAoACkAKQAsADEALwAzACkALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAaQBuAHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAHMAdABhAHIAcwAsACAAcgBvAHUAbgBkACgAdgBvAGwAdQBtAGUALwAyADUAMAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAAdABvAGMAbwBsACgAdABlAHgAdABzAHAAbABpAHQAKAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwAgAFwAIgAsACwAIABzAHQAYQByAHMALAAgAHIAYQBkAGkAdQBzACkALABcACIAOwAgAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgADEALAAgAHQAbwBjAG8AbAAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAdABlAHgAdABqAG8AaQBuACgAXAAiADsAIABcACIALAAsACAAcgBvAHUAbgBkACgAcwB0AGEAcgBzACwAMAApACwAIAByAG8AdQBuAGQAKAB2AG8AbAB1AG0AZQAsADAAKQApACwAXAAiADsAIABcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBDAFUAQgBJAEMAXwBWAE8ATABVAE0ARQBfAFAARQBSAF8AUwBUAEEAUgBTACAAPQAgAEwAQQBNAEIARABBACgAcwB0AGEAcgBzACwAIABbAHAAcgBlAGMAXQAsACAAWwBtAG8AZABlAF0ALABcAG4AXABuAEwARQBUACgAXABuACAAIAAgACAAbQBvAGQAZQAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAbQBvAGQAZQApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA8ADAAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlAD4AMgApACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACkALABcAG4AIAAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAB2AG8AbAB1AG0AZQAsACAAcgBvAHUAbgBkACgAcwB0AGEAcgBzACoAMgA1ADAALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHMAaQBkAGUALAAgAHIAbwB1AG4AZAAoAHAAbwB3AGUAcgAoAHYAbwBsAHUAbQBlACwAMQAvADMAKQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAHIAbwB1AG4AZAAoAHAAbwB3AGUAcgAoACgAdgBvAGwAdQBtAGUAKgAzACkALwAoADQAKgBwAGkAKAApACkALAAxAC8AMwApACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIAB2AG8AbAB1AG0AZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAdABvAGMAbwBsACgAdABlAHgAdABzAHAAbABpAHQAKAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwAgAFwAIgAsACwAIAB2AG8AbAB1AG0AZQAsACAAcwBpAGQAZQApACwAXAAiADsAIABcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAyACwAIAB0AG8AYwBvAGwAKAB0AGUAeAB0AHMAcABsAGkAdAAoAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7ACAAXAAiACwALAAgAHYAbwBsAHUAbQBlACwAIABzAGkAZABlACwAIAByAGEAZABpAHUAcwApACwAXAAiADsAIABcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFAATABBAE4ARQBUAF8AQQBTAFQAUgBPAE0ARQBUAFIASQBDAFMAIAA9ACAATABBAE0AQgBEAEEAKABmAGkAcgBzAHQALAAgAHMAZQBjAG8AbgBkACwAIABbAG0AbwBkAGUAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AXABuAC8AKgAgAE0ATwBEAEUAUwBcAG4AXABuACAAIAAgACAAMAA6ACAAbQAsACAAZABcAG4AIAAgACAAIAAxADoAIABtACwAIAByAFwAbgAgACAAIAAgADIAOgAgAG0ALAAgAGcAXABuACAAIAAgACAAMwA6ACAAcgAsACAAZABcAG4AIAAgACAAIAA0ADoAIAByACwAIABnAFwAbgAgACAAIAAgADUAOgAgAGQALAAgAGcAXABuACAAIAAgACAANgA6ACAAZAAsACAAdgBcAG4AIAAgACAAIAA3ADoAIABnACwAIAB2AFwAbgAgACAAIAAgADgAOgAgAG0ALAAgAHYAXABuACAAIAAgACAAOQA6ACAAcgAsACAAdgBcAG4AXABuACoALwBcAG4ATABFAFQAKABcAG4AIAAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAA1ACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAG0AbwBkAGUAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlADwAMAApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPgA5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQBcAG4AIAAgACAAIAAgACAAIAAgACkALAAgAFwAbgAgACAAIAAgAGwAYQBiAGUAbABzACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALAAgAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAAXAAiAE0APgA7AFIAOgA7AGQAPgA7AGcAOgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEALAAgAFwAIgBNAD4AOwBSAD4AOwBkADoAOwBnADoAOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyACwAIABcACIATQA+ADsAUgA6ADsAZAA6ADsAZwA+ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAsACAAXAAiAE0AOgA7AFIAPgA7AGQAPgA7AGcAOgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADQALAAgAFwAIgBNADoAOwBSAD4AOwBkADoAOwBnAD4AOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA1ACwAIABcACIATQA6ADsAUgA6ADsAZAA+ADsAZwA+ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANgAsACAAXAAiAE0AOgA7AFIAOgA7AGQAPgA7AGcAOgA7AHYAPgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADcALAAgAFwAIgBNADoAOwBSADoAOwBkADoAOwBnAD4AOwB2AD4AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA4ACwAIABcACIATQA+ADsAUgA6ADsAZAA6ADsAZwA6ADsAdgA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAOQAsACAAXAAiAE0AOgA7AFIAPgA7AGQAOgA7AGcAOgA7AHYAPgBcACIAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABwAG8AdwBlAHIAKABtAGEAcwBzAC8AZABlAG4AcwBpAHQAeQAsADMAXgAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABwAG8AdwBlAHIAKABtAGEAcwBzACoAZABlAG4AcwBpAHQAeQBeADIALAAzAF4ALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHAAbwB3AGUAcgAoAG0AYQBzAHMAKgBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAMwBeAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADEALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAbQBhAHMAcwAvAHIAYQBkAGkAdQBzAF4AMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABtAGEAcwBzAC8AcgBhAGQAaQB1AHMAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAHEAcgB0ACgAbQBhAHMAcwAvAHIAYQBkAGkAdQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABzAHEAcgB0ACgAbQBhAHMAcwAvAGcAcgBhAHYAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABzAHEAcgB0ACgAZwByAGEAdgBpAHQAeQBeADMALwBtAGEAcwBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHAAbwB3AGUAcgAoAG0AYQBzAHMAKgBnAHIAYQB2AGkAdAB5ACwANABeAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcgBhAGQAaQB1AHMAKgBkAGUAbgBzAGkAdAB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGQAZQBuAHMAaQB0AHkAKgByAGEAZABpAHUAcwBeADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHIAYQBkAGkAdQBzACoAcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA0ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALwByAGEAZABpAHUAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABnAHIAYQB2AGkAdAB5ACoAcgBhAGQAaQB1AHMAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAHEAcgB0ACgAZwByAGEAdgBpAHQAeQAqAHIAYQBkAGkAdQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABnAHIAYQB2AGkAdAB5AC8AZABlAG4AcwBpAHQAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABnAHIAYQB2AGkAdAB5AF4AMwAvAGQAZQBuAHMAaQB0AHkAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABnAHIAYQB2AGkAdAB5AC8AcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA2ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGUAcwBjAGEAcABlAF4AMwAvAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGUAcwBjAGEAcABlAC8AcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQAqAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANwAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABlAHMAYwBhAHAAZQBeADQALwBnAHIAYQB2AGkAdAB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABlAHMAYwBhAHAAZQBeADIALwBnAHIAYQB2AGkAdAB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgACgAZwByAGEAdgBpAHQAeQAvAGUAcwBjAGEAcABlACkAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADgALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAXgA0AC8AbQBhAHMAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAbQBhAHMAcwAvAGUAcwBjAGEAcABlAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABlAHMAYwBhAHAAZQBeADYALwBtAGEAcwBzAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA5ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQBeADIALwByAGEAZABpAHUAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAqAGUAcwBjAGEAcABlAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIAAoAGUAcwBjAGEAcABlAC8AcgBhAGQAaQB1AHMAKQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbABhAGIAZQBsAF8AbABpAHMAdAAsACAAdAByAGEAbgBzAHAAbwBzAGUAKAB0AGUAeAB0AHMAcABsAGkAdAAoAGwAYQBiAGUAbABzACwAXAAiADsAXAAiACkAKQAsAFwAbgAgACAAIAAgAHYAYQBsAHUAZQBfAGwAaQBzAHQALAAgAHQAcgBhAG4AcwBwAG8AcwBlACgAdABlAHgAdABzAHAAbABpAHQAKABvAHUAdABwAHUAdAAsACAAXAAiADsAXAAiACkAKQAsAFwAbgAgACAAIAAgAC8ALwB2AGEAbAB1AGUAXwBsAGkAcwB0AFwAbgAgACAAIAAgAGMAaABvAG8AcwBlACgAewAxACwAMgB9ACwAIABsAGEAYgBlAGwAXwBsAGkAcwB0ACwAIAByAG8AdQBuAGQAKAB2AGEAbAB1AGUAKAB2AGEAbAB1AGUAXwBsAGkAcwB0ACkALABwAHIAZQBjACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AUwBZAE4ATwBEAEkAQwAgAD0AIABMAEEATQBCAEQAQQAoAHAALAAgAHEALABcAG4AXABuACAAIAAgACAAKABwACAAKgAgAHEAKQAgAC8AIABBAEIAUwAoAHAAIAAtACAAcQApAFwAbgAgACAAIAAgAFwAbgApADsAXABuAFwAbgBTAE0AQQBMAEwAQQBOAEcATABFACAAPQAgAEwAQQBNAEIARABBACgAZABpAGEAbQBlAHQAZQByACwAIABkAGkAcwB0AGEAbgBjAGUALABcAG4AXABuACAAIAAgACAAMAAuADUAMwAyADkAMAA0ADIAOQA0ACAAKgAgACgAZABpAGEAbQBlAHQAZQByACAALwAgAGQAaQBzAHQAYQBuAGMAZQApAFwAbgAgACAAIAAgAFwAbgApADsAXABuAFwAbgBPAFIAQgBfAEEAWABJAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAGEAcwBzADEALAAgAG0AYQBzAHMAMgAsACAAcABlAHIAaQBvAGQALABcAG4AXABuAEwARQBUACgAXABuACAAIAAgACAAbQBhAHMAcwAyACwAIABJAEYAKAAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBhAHMAcwAyACkAKQArACgAbQBhAHMAcwAyACAAPQAgADEAKQAsACAAMAAsACAAbQBhAHMAcwAyACoAMwAuADAAMAAzAEUALQA2ACkALABcAG4AIAAgACAAIABhAHgAaQBzACwAIABQAE8AVwBFAFIAKAAoAFAATwBXAEUAUgAoAHAAZQByAGkAbwBkACwAIAAyACkAIAAqACAAKABtAGEAcwBzADEAIAArACAAbQBhAHMAcwAyACkAKQAsACAAMQAgAC8AIAAzACkALABcAG4AIAAgACAAIABhAHgAaQBzAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAE8AUgBCAF8AUABFAFIASQBPAEQAIAA9ACAATABBAE0AQgBEAEEAKABtAGEAcwBzADEALAAgAG0AYQBzAHMAMgAsACAAYQB4AGkAcwAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAGEAcwBzADIALAAgAEkARgAoACgASQBTAE8ATQBJAFQAVABFAEQAKABtAGEAcwBzADIAKQApACsAKABtAGEAcwBzADIAIAA9ACAAMQApACwAIAAwACwAIAAoAG0AYQBzAHMAMgAgACoAIAAzAC4AMAAwADIANwAzAGUALQA2ACkAKQAsAFwAbgAgACAAIAAgAHAAZQByAGkAbwBkACwAIABTAFEAUgBUACgAUABPAFcARQBSACgAYQB4AGkAcwAsACAAMwApACAALwAgACgAbQBhAHMAcwAxACAAKwAgAG0AYQBzAHMAMgApACkALABcAG4AIAAgACAAIABwAGUAcgBpAG8AZABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBDAFIATwBTAFMASQBOAEcAXwBPAFIAQgBJAFQAXwBQAEEAUgBBAE0ARQBUAEUAUgAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAXABuAFwAbgBBAEIAUwAoAG0AYQBzAHMAMQAgAC0AIABtAGEAcwBzADIAKQAvAEEAQgBTACgAbQBhAHMAcwAxACAAKwBtAGEAcwBzADIAKQBcAG4AXABuACkAOwBcAG4AXABuAFwAbgBcAG4AUABFAFIASQBPAEQAXwBBAFgASQBTACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAXABuAFwAbgAgACAAIAAgAFAATwBXAEUAUgAoAFAATwBXAEUAUgAoAGkAbgBwAHUAdAAsACAAMgApACwAIAAoADEAIAAvACAAMwApACkAXABuAFwAbgApADsAXABuAFwAbgBPAFIAQgBfAFMAVQBNAF8ATQBBAFMAUwBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABhAHgAaQBzACwAIABwAGUAcgBpAG8AZAAsAFwAbgBcAG4AUABPAFcARQBSACgAYQB4AGkAcwAsACAAMwApACAALwAgAFAATwBXAEUAUgAoAHAAZQByAGkAbwBkACwAIAAyACkAXABuACkAOwBcAG4AXABuAFMAUABIAEUAUgBJAEMAQQBMAF8AVABPAF8AQwBBAFIAVABFAFMASQBBAE4AIAA9ACAATABBAE0AQgBEAEEAKABwAGgAaQAsACAAdABoAGUAdABhACwAIAByACwAIABbAHAAcgBlAGMAXQAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAcAByAGUAYwAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAcAByAGUAYwApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAcAByAGUAYwA8ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwApACwAIAAgACAAIABcAG4AIAAgACAAIAB6AF8AbQBvAGQALAAgAHMAaQBnAG4AKAB0AGgAZQB0AGEAKQAsAFwAbgAgACAAIAAgAHkAXwBtAG8AZAAsACAAcwBpAGcAbgAoAHAAaABpACkALABcAG4AIAAgACAAIAB4AF8AbQBvAGQALAAgAGkAZgAoAGEAYgBzACgAcABoAGkAKQA8ADkAMAAsACAAMQAsACAALQAxACkALABcAG4AIAAgACAAIAAvAC8AeABfAG0AbwBkAFwAbgAgACAAIAAgAC8ALwB0AGUAeAB0AGoAbwBpAG4AKABcACIALABcACIALAAsAHgAXwBtAG8AZAAsACAAeQBfAG0AbwBkACwAIAB6AF8AbQBvAGQAKQBcAG4AIAAgACAAIABhAG4AZwBfAHgALAAgAHIAYQBkAGkAYQBuAHMAKABtAG8AZAAoAHAAaABpACwAOQAwACkAKQAsAFwAbgAgACAAIAAgAGEAbgBnAF8AegAsACAAcgBhAGQAaQBhAG4AcwAoAGEAYgBzACgAdABoAGUAdABhACkAKQAsAFwAbgAgACAAIAAgAGQALAAgAGMAbwBzACgAYQBuAGcAXwB6ACkAKgByACwAXABuACAAIAAgACAAeAAsACAAcgBvAHUAbgBkACgAYwBvAHMAKABhAG4AZwBfAHgAKQAqAGQAKgB4AF8AbQBvAGQALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHkALAAgAHIAbwB1AG4AZAAoAHMAaQBuACgAYQBuAGcAXwB4ACkAKgBkACoAeQBfAG0AbwBkACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAB6ACwAIAByAG8AdQBuAGQAKABzAGkAbgAoAGEAbgBnAF8AegApACoAcgAqAHoAXwBtAG8AZAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgB8AFwAIgAsACwAeAAsACAAeQAsACAAegApACwAXABuACAAIAAgACAALwAvAHIAZQBzAHUAbAB0AFwAbgAgACAAIAAgAHQAbwByAG8AdwAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAcgBlAHMAdQBsAHQALABcACIAfABcACIAKQApAFwAbgApAFwAbgBcAG4AKQA7AFwAbgBcAG4ARABFAEcAXwBEAEUAQwBfAEQATQBTACAAPQAgAEwAQQBNAEIARABBACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAEQAZQBnACwAIABUAFIAVQBOAEMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAARgByAGEAYwBQAG8AcgB0AGkAbwBuACwAIABBAEIAUwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAgAC0AIABEAGUAZwApACwAXABuACAAIAAgACAAIAAgACAAIABNAGkAbgB1AHQAZQBzACwAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4AIAAqACAANgAwACwAXABuACAAIAAgACAAIAAgACAAIABNAGkAbgBfAHAAYQByAHQALAAgAFQAUgBVAE4AQwAoAE0AaQBuAHUAdABlAHMAKQAgAC8AIAAxADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAASQBuAHQATQBpAG4ALAAgAEkATgBUACgATQBpAG4AdQB0AGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABGAHIAYQBjAE0AaQBuACwAIABBAEIAUwAoAE0AaQBuAHUAdABlAHMAIAAtACAASQBuAHQATQBpAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUwBlAGMAbwBuAGQAcwAsACAARgByAGEAYwBNAGkAbgAgACoAIAA2ADAALABcAG4AIAAgACAAIAAgACAAIAAgAHMAZQBjAF8AcABhAHIAdAAsACAAUwBlAGMAbwBuAGQAcwAgAC8AIAAxADAAMAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABEAGUAZwAgACsAIABNAGkAbgBfAHAAYQByAHQAIAArACAAcwBlAGMAXwBwAGEAcgB0ACwAXABuACAAIAAgACAAIAAgACAAIABGAEkAWABFAEQAKABvAHUAdABwAHUAdAAsACAANwApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEQARQBHAF8ARABNAFMAIAA9ACAATABBAE0AQgBEAEEAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABkAGUAYwBwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAFAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAFAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIABEAGUAZwAsACAAVABSAFUATgBDACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACkALABcAG4AIAAgACAAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4ALAAgAEEAQgBTACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACAALQAgAEQAZQBnACkALABcAG4AIAAgACAAIABNAGkAbgB1AHQAZQBzACwAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4AIAAqACAANgAwACwAXABuACAAIAAgACAASQBuAHQATQBpAG4ALAAgAEkATgBUACgATQBpAG4AdQB0AGUAcwApACwAXABuACAAIAAgACAARgByAGEAYwBNAGkAbgAsACAAQQBCAFMAKABNAGkAbgB1AHQAZQBzACAALQAgAEkAbgB0AE0AaQBuACkALABcAG4AIAAgACAAIABTAGUAYwBvAG4AZABzACwAIABGAHIAYQBjAE0AaQBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgAEQAZQBnACAAJgAgAFwAIgCwACAAXAAiACAAJgAgAEkAbgB0AE0AaQBuACAAJgAgAEMASABBAFIAKAAzADkAKQAgACYAIABDAEgAQQBSACgAMwAyACkAIAAmACAARgBJAFgARQBEACgAUwBlAGMAbwBuAGQAcwAsACAAZABlAGMAcAByAGUAYwApACAAJgAgAEMASABBAFIAKAAzADQAKQBcAG4AKQBcAG4AKQA7AFwAbgBcAG4ARABFAEcAXwBEAE0AUwBfAEQARQBDACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBnAHIAZQBlAHMALAAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAApACwAXABuACAAIAAgACAAIAAgACAAIABtAGkAbgB1AHQAZQBzACwAIABUAFIAVQBOAEMAKAAoAGkAbgBwAHUAdAAgAC0AIABkAGUAZwByAGUAZQBzACkAIAAqACAAMQAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgByAGEAYwB0AGkAbwBuAGEAbABfAHMAZQBjAG8AbgBkAHMALAAgACgAKABpAG4AcAB1AHQAIAAqACAAMQAwADAAKQAgAC0AIABUAFIAVQBOAEMAKABpAG4AcAB1AHQAIAAqACAAMQAwADAAKQApACAALwAgADAALgA2ACwAXABuACAAIAAgACAAIAAgACAAIAAvACoAIAAgACoALwBcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABkAGUAZwByAGUAZQBzACAAKwAgACgAKABtAGkAbgB1AHQAZQBzACAAKwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAXwBzAGUAYwBvAG4AZABzACkAIAAvACAANgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEEAWABJAFMAXwBQAEUAUgBJAE8ARAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFwAbgBcAG4AIAAgACAAIABTAFEAUgBUACgAUABPAFcARQBSACgAaQBuAHAAdQB0ACwAIAAzACkAKQBcAG4AIAAgACAAIABcAG4AKQA7AFwAbgBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AIgAsACIAUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AIgAsACIAUwBUAEEAUgBfAFMAQwBBAEwARQBfAFQARQBNAFAAIgAsACIAUwBUAEEAUgBfAFMAQwBBAEwARQBfAEsAVABFAE0AUAAiACwAIgBTAFQAQQBSAF8AQwBMAEEAUwBTAF8AUwBUAEEAVABTACIALAAiAFMAVABBAFIAXwBNAEEAUwBTACIALAAiAFMAVABBAFIAXwBSAEEARABTACIALAAiAFMAVABBAFIAXwBMAFUATQBTACIALAAiAFMAVABBAFIATABVAE0AUwAiACwAIgBTAFQAQQBSAF8ATABJAEYARQAiACwAIgBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAIgAsACIAVABFAE0AUABfAEYAUgBPAE0AXwBUAFkAUABFACIALAAiAFMAUABFAEMAVABSAEEATABfAEMATABBAFMAUwBfAEQAQQBUAEEAIgAsACIAUwBQAEUAQwBfAEwASQBTAFQAIgAsACIASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAXwBUAEEAQgBMAEUAIgAsACIASABBAEIAWgBPAE4ARQBTACIALAAiAEgAQQBCAF8AWgBPAE4ARQBTACIALAAiAFMAVABBAFIAUwBfAFAARQBSAF8AQwBVAEIASQBDAF8AVgBPAEwAIgAsACIAQwBVAEIASQBDAF8AVgBPAEwAVQBNAEUAXwBQAEUAUgBfAFMAVABBAFIAUwAiACwAIgBQAEwAQQBOAEUAVABfAEEAUwBUAFIATwBNAEUAVABSAEkAQwBTACIALAAiAFMAWQBOAE8ARABJAEMAIgAsACIAUwBNAEEATABMAEEATgBHAEwARQAiACwAIgBPAFIAQgBfAEEAWABJAFMAIgAsACIATwBSAEIAXwBQAEUAUgBJAE8ARAAiACwAIgBDAFIATwBTAFMASQBOAEcAXwBPAFIAQgBJAFQAXwBQAEEAUgBBAE0ARQBUAEUAUgAiACwAIgBQAEUAUgBJAE8ARABfAEEAWABJAFMAIgAsACIATwBSAEIAXwBTAFUATQBfAE0AQQBTAFMARQBTACIALAAiAFMAUABIAEUAUgBJAEMAQQBMAF8AVABPAF8AQwBBAFIAVABFAFMASQBBAE4AIgAsACIARABFAEcAXwBEAEUAQwBfAEQATQBTACIALAAiAEQARQBHAF8ARABNAFMAIgAsACIARABFAEcAXwBEAE0AUwBfAEQARQBDACIALAAiAEEAWABJAFMAXwBQAEUAUgBJAE8ARAAiAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Astronomy Utilities/Astronomy Utlities.xlsx
+++ b/Astronomy Utilities/Astronomy Utlities.xlsx
@@ -8,21 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/Astronomy Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED43031-195B-F647-BBA0-DBC1F31F13B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4EB8ED-5706-DD47-8040-18B9C4D4A9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1100" windowWidth="33260" windowHeight="14260" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
+    <workbookView xWindow="4680" yWindow="1100" windowWidth="33260" windowHeight="19560" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ASTRO_SPECTRAL_DISTRIBUTION">_xlfn.LAMBDA(_xlop.type,_xlop.count,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.count, IF(_xlfn.ISOMITTED(_xlpm.count), 1, _xlpm.count), _xlpm.spectral_classes, {"O";"B";"A";"F";"G";"K";"M"}, _xlpm.base_frequencies, {3000000;800;160;33;13;8;1.31531603010874}, _xlpm.class_string, "OBAFGKM", _xlpm.type, IF(OR(_xlfn.ISOMITTED(_xlpm.type), ISERROR(SEARCH(_xlpm.type, _xlpm.class_string))), "$", UPPER(_xlpm.type)), _xlpm.base_freq, _xlfn.XLOOKUP(_xlpm.type, _xlpm.spectral_classes, _xlpm.base_frequencies), _xlpm.scaling_factors, _xlpm.base_freq / _xlpm.base_frequencies, _xlpm.scaled_distribution, IF(_xlpm.type &lt;&gt; "$", _xlpm.count * _xlpm.scaling_factors, _xlfn.BYROW(_xlpm.base_frequencies, _xlfn.LAMBDA(_xlpm.x, 1 / _xlpm.x))), _xlpm.result, _xlfn.HSTACK(_xlpm.spectral_classes, ROUND(_xlpm.scaled_distribution, _xlpm.precision)), _xlpm.result))</definedName>
+    <definedName name="ASTRO_HAB_INDEX">_xlfn.LAMBDA(_xlpm.orbital_dist,_xlop.nucleal_radius,_xlop.prec, _xlfn.LET(_xlpm.rounding_precision, IF(_xlfn.ISOMITTED(_xlpm.prec), 3, _xlpm.prec), _xlpm.nucleal_radius, IF(_xlfn.ISOMITTED(_xlpm.nucleal_radius), 1, _xlpm.nucleal_radius), _xlpm.is_inner_orbit, IF(_xlpm.orbital_dist &lt; _xlpm.nucleal_radius, TRUE, FALSE), _xlpm.habitability_index, IF(_xlpm.is_inner_orbit, (2 * _xlpm.orbital_dist / _xlpm.nucleal_radius) - 1, (_xlpm.orbital_dist / (-3.85 * _xlpm.nucleal_radius)) + (4.85 / 3.85)), _xlpm.final_result, IF(_xlpm.habitability_index &lt;= 0, "U/I", ROUND(_xlpm.habitability_index, _xlpm.rounding_precision)), _xlpm.final_result))</definedName>
+    <definedName name="ASTRO_SPECTRAL_DISTRIBUTION">_xlfn.LAMBDA(_xlop.anchor_class,_xlop.anchor_count,_xlop.decimal_places, _xlfn.LET(_xlpm.anchor_class, IF(_xlfn.ISOMITTED(_xlpm.anchor_class), "$", UPPER(_xlpm.anchor_class)), _xlpm.anchor_count, IF(_xlfn.ISOMITTED(_xlpm.anchor_count), 1, _xlpm.anchor_count), _xlpm.decimal_places, IF(_xlfn.ISOMITTED(_xlpm.decimal_places), 3, _xlpm.decimal_places), _xlpm.arr_classes, {"O";"B";"A";"F";"G";"K";"M"}, _xlpm.arr_base_pct, {0.00003;0.13;0.6;3;7.6;12.1;76.27}, _xlpm.arr_base_frac, _xlfn.BYROW(_xlpm.arr_base_pct, _xlfn.LAMBDA(_xlpm.x, _xlpm.x / 100)), _xlpm.anchor_freq, _xlfn.XLOOKUP(_xlpm.anchor_class, _xlpm.arr_classes, _xlpm.arr_base_frac, 1), _xlpm.scaling_factor, _xlpm.anchor_count / _xlpm.anchor_freq, _xlpm.scaled, IF(_xlpm.anchor_class = "$", _xlpm.arr_base_frac, _xlfn.BYROW(_xlpm.arr_base_frac, _xlfn.LAMBDA(_xlpm.x, _xlpm.x * _xlpm.scaling_factor))), _xlpm.output, _xlfn.HSTACK(_xlpm.arr_classes, ROUND(_xlpm.scaled, _xlpm.decimal_places)), _xlpm.output))</definedName>
     <definedName name="AXIS_PERIOD">_xlfn.LAMBDA(_xlpm.input, SQRT(POWER(_xlpm.input, 3)))</definedName>
     <definedName name="CROSSING_ORBIT_PARAMETER">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2, ABS(_xlpm.mass1 - _xlpm.mass2) / ABS(_xlpm.mass1 + _xlpm.mass2))</definedName>
     <definedName name="CUBIC_VOLUME_PER_STARS">_xlfn.LAMBDA(_xlpm.stars,_xlop.prec,_xlop.mode, _xlfn.LET(_xlpm.mode, IF((_xlfn.ISOMITTED(_xlpm.mode)) + (_xlpm.mode &lt; 0) + (_xlpm.mode &gt; 2), 0, _xlpm.mode), _xlpm.prec, IF((_xlfn.ISOMITTED(_xlpm.prec)) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.volume, ROUND(_xlpm.stars * 250, _xlpm.prec), _xlpm.side, ROUND(POWER(_xlpm.volume, 1 / 3), _xlpm.prec), _xlpm.radius, ROUND(POWER((_xlpm.volume * 3) / (4 * PI()), 1 / 3), _xlpm.prec), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlpm.volume, 1, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , _xlpm.volume, _xlpm.side), "; ")), 2, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , _xlpm.volume, _xlpm.side, _xlpm.radius), "; "))), _xlpm.output))</definedName>
     <definedName name="DEG_DEC_DMS">_xlfn.LAMBDA(_xlpm.DecimalDegrees, _xlfn.LET(_xlpm.Deg, TRUNC(_xlpm.DecimalDegrees), _xlpm.FracPortion, ABS(_xlpm.DecimalDegrees - _xlpm.Deg), _xlpm.Minutes, _xlpm.FracPortion * 60, _xlpm.Min_part, TRUNC(_xlpm.Minutes) / 100, _xlpm.IntMin, INT(_xlpm.Minutes), _xlpm.FracMin, ABS(_xlpm.Minutes - _xlpm.IntMin), _xlpm.Seconds, _xlpm.FracMin * 60, _xlpm.sec_part, _xlpm.Seconds / 10000, _xlpm.output, _xlpm.Deg + _xlpm.Min_part + _xlpm.sec_part, FIXED(_xlpm.output, 7)))</definedName>
     <definedName name="DEG_DMS">_xlfn.LAMBDA(_xlpm.DecimalDegrees,_xlop.precision, _xlfn.LET(_xlpm.decprec, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.Deg, TRUNC(_xlpm.DecimalDegrees), _xlpm.FracPortion, ABS(_xlpm.DecimalDegrees - _xlpm.Deg), _xlpm.Minutes, _xlpm.FracPortion * 60, _xlpm.IntMin, INT(_xlpm.Minutes), _xlpm.FracMin, ABS(_xlpm.Minutes - _xlpm.IntMin), _xlpm.Seconds, _xlpm.FracMin * 60, _xlpm.Deg &amp; "° " &amp; _xlpm.IntMin &amp; CHAR(39) &amp; CHAR(32) &amp; FIXED(_xlpm.Seconds, _xlpm.decprec) &amp; CHAR(34)))</definedName>
     <definedName name="DEG_DMS_DEC">_xlfn.LAMBDA(_xlpm.input, _xlfn.LET(_xlpm.degrees, TRUNC(_xlpm.input), _xlpm.minutes, TRUNC((_xlpm.input - _xlpm.degrees) * 100), _xlpm.fractional_seconds, ((_xlpm.input * 100) - TRUNC(_xlpm.input * 100)) / 0.6, _xlpm.result, _xlpm.degrees + ((_xlpm.minutes + _xlpm.fractional_seconds) / 60), _xlpm.result))</definedName>
+    <definedName name="General.FORMTEXT">_xlfn.LAMBDA(_xlpm.input,_xlop.mode, _xlfn.LET(_xlpm.recpt, _xlfn.FORMULATEXT(_xlpm.input), _xlpm.mode, IF(OR(_xlfn.ISOMITTED(_xlpm.mode), _xlpm.mode &gt; 3), 2, _xlpm.mode), _xlpm.checkval, ISNUMBER(SEARCH("(", _xlpm.recpt)), _xlpm.cell_name, SUBSTITUTE(CELL("address", _xlpm.input), "$", ""), _xlpm.list, IF(NOT(_xlpm.checkval), _xlpm.recpt, _xlfn.TEXTSPLIT(_xlpm.recpt, ")")), _xlpm.result, IF(_xlpm.checkval, _xlfn.BYCOL(_xlpm.list, _xlfn.LAMBDA(_xlpm.x, _xlfn.TEXTBEFORE(_xlpm.x, "(", , , , ""))), _xlpm.list), _xlpm.collected, _xlfn.TEXTJOIN("", , INDEX(_xlpm.result, _xlfn.SEQUENCE(COUNTA(_xlpm.result)))), _xlpm.parenthetical, _xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(_xlfn.CONCAT(_xlpm.cell_name, ":= ", SUBSTITUTE(_xlpm.collected, "=", "")), "("), " "), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlpm.collected, 1, _xlfn.CONCAT(_xlpm.cell_name, ":= ", SUBSTITUTE(_xlpm.collected, "=", "")), 2, _xlfn.CONCAT(_xlpm.cell_name, ":= ", SUBSTITUTE(_xlpm.recpt, "=", "")), 3, _xlfn.FORMULATEXT(_xlpm.input)), _xlpm.output))</definedName>
+    <definedName name="General.FRAC">_xlfn.LAMBDA(_xlpm.input,_xlop.mode, _xlfn.LET(_xlpm.mode, IF(OR(_xlfn.ISOMITTED(_xlpm.mode), _xlpm.mode &gt; 1), 0, _xlpm.mode), _xlpm.frac_part, _xlpm.input - TRUNC(_xlpm.input), IF(_xlpm.mode = 1, _xlpm.frac_part, ABS(_xlpm.frac_part))))</definedName>
+    <definedName name="General.RECIP">_xlfn.LAMBDA(_xlpm.input, 1 / _xlpm.input)</definedName>
+    <definedName name="General.ROOT">_xlfn.LAMBDA(_xlpm.n,_xlop.x, _xlfn.LET(_xlpm.root_result, IF(_xlfn.ISOMITTED(_xlpm.x), SQRT(_xlpm.n), _xlpm.n ^ (1 / _xlpm.x)), _xlpm.root_result))</definedName>
     <definedName name="HAB_ZONES">_xlfn.LAMBDA(_xlpm.lum,_xlop.precision, _xlfn.LET(_xlpm.labels, {"0: ","1: ","2: ","N-&gt; ","3: ","4: ","5: "}, _xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.nucleal, ROUND(SQRT(_xlpm.lum), _xlpm.precision), _xlpm.Z_0, ROUND(0.5 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_1, ROUND(0.75 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_2, ROUND(0.95 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_N, _xlpm.nucleal, _xlpm.Z_3, ROUND(1.385 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_4, ROUND(1.77 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_5, ROUND(4.85 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone0, _xlfn.VSTACK(INDEX(_xlpm.labels, 1), _xlpm.Z_0), _xlpm.Zone1, _xlfn.VSTACK(INDEX(_xlpm.labels, 2), _xlpm.Z_1), _xlpm.Zone2, _xlfn.VSTACK(INDEX(_xlpm.labels, 3), _xlpm.Z_2), _xlpm.ZoneN, _xlfn.VSTACK(INDEX(_xlpm.labels, 4), _xlpm.Z_N), _xlpm.Zone3, _xlfn.VSTACK(INDEX(_xlpm.labels, 5), _xlpm.Z_3), _xlpm.Zone4, _xlfn.VSTACK(INDEX(_xlpm.labels, 6), _xlpm.Z_4), _xlpm.Zone5, _xlfn.VSTACK(INDEX(_xlpm.labels, 7), _xlpm.Z_5), TRANSPOSE(CHOOSE({1,2,3,4,5,6,7}, _xlpm.Zone0, _xlpm.Zone1, _xlpm.Zone2, _xlpm.ZoneN, _xlpm.Zone3, _xlpm.Zone4, _xlpm.Zone5))))</definedName>
     <definedName name="HABITABLE_ZONES_TABLE">_xlfn.LAMBDA(_xlop.null, _xlfn.LET(_xlpm.dec, 3, _xlpm.headers, {"Zone";"Inner";"Outer";"Average";"Span"}, _xlpm.labels, {"Z0 (Ignio-)";"Z1 (Caloro-)";"Z2 (Helio-)";"Z3 (Solara-)";"Z4 (Surya-)";"Z5 (Frio-)"}, _xlpm.inner, {0;0.5;0.75;0.95;1.385;1.77}, _xlpm.outer, {0.5;0.75;0.95;1.385;1.77;4.85}, _xlpm.average, {0.25;0.625;0.85;1.1675;1.5775;3.31}, _xlpm.span, {0.5;0.25;0.2;0.435;0.385;3.08}, _xlpm.col_1, _xlfn.VSTACK(INDEX(_xlpm.headers, 1), _xlpm.labels), _xlpm.col_2, _xlfn.VSTACK(INDEX(_xlpm.headers, 2), ROUND(_xlpm.inner, _xlpm.dec)), _xlpm.col_3, _xlfn.VSTACK(INDEX(_xlpm.headers, 3), ROUND(_xlpm.outer, _xlpm.dec)), _xlpm.col_4, _xlfn.VSTACK(INDEX(_xlpm.headers, 4), ROUND(_xlpm.average, _xlpm.dec)), _xlpm.col_5, _xlfn.VSTACK(INDEX(_xlpm.headers, 5), ROUND(_xlpm.span, _xlpm.dec)), CHOOSE({1,2,3,4,5}, _xlpm.col_1, _xlpm.col_2, _xlpm.col_3, _xlpm.col_4, _xlpm.col_5)))</definedName>
     <definedName name="HABZONES">_xlfn.LAMBDA(_xlpm.lum,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.nucleal, ROUND(SQRT(_xlpm.lum), _xlpm.precision), _xlpm.N, "N-&gt; " &amp; ROUND(SQRT(_xlpm.lum), _xlpm.precision), _xlpm.Zone0, "0: " &amp; ROUND(0.5 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone1, "1: " &amp; ROUND(0.75 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone2, "2: " &amp; ROUND(0.95 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone3, "3: " &amp; ROUND(1.385 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone4, "4: " &amp; ROUND(1.77 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone5, "5: " &amp; ROUND(4.85 * _xlpm.nucleal, _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , _xlpm.Zone0, _xlpm.Zone1, _xlpm.Zone2, _xlpm.N, _xlpm.Zone3, _xlpm.Zone4, _xlpm.Zone5), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
@@ -489,58 +494,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6503EE-3967-F142-A914-D59AF539BB00}">
-  <dimension ref="B4:D25"/>
+  <dimension ref="B4:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4">
-      <c r="B4" t="e" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">ASTRO_HAB_INDEX(2.5)</f>
-        <v>#NAME?</v>
+    <row r="4" spans="2:6">
+      <c r="B4" cm="1">
+        <f t="array" ref="B4">ASTRO_HAB_INDEX(2.5)</f>
+        <v>0.61</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B4)</f>
         <v>=ASTRO_HAB_INDEX(2.5)</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="e" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">ASTRO_HAB_INDEX(2.5,2)</f>
-        <v>#NAME?</v>
+    <row r="5" spans="2:6">
+      <c r="B5" cm="1">
+        <f t="array" ref="B5">ASTRO_HAB_INDEX(2.5,2)</f>
+        <v>0.93500000000000005</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B5)</f>
         <v>=ASTRO_HAB_INDEX(2.5,2)</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="e" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">ASTRO_HAB_INDEX(2.5,2,5)</f>
-        <v>#NAME?</v>
+    <row r="6" spans="2:6">
+      <c r="B6" cm="1">
+        <f t="array" ref="B6">ASTRO_HAB_INDEX(2.5,2,5)</f>
+        <v>0.93506</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B6)</f>
         <v>=ASTRO_HAB_INDEX(2.5,2,5)</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:6">
       <c r="B9" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B10)</f>
         <v>=ASTRO_SPECTRAL_DISTRIBUTION("G",,6)</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9">
+        <v>1.3153160301087401</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">General.RECIP(E9)</f>
+        <v>0.76027355944056108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10:C16">ASTRO_SPECTRAL_DISTRIBUTION("G",,6)</f>
         <v>O</v>
@@ -549,31 +561,31 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:6">
       <c r="B11" t="str">
         <v>B</v>
       </c>
       <c r="C11">
-        <v>1.6250000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>1.7104999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" t="str">
         <v>A</v>
       </c>
       <c r="C12">
-        <v>8.1250000000000003E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>7.8947000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" t="str">
         <v>F</v>
       </c>
       <c r="C13">
-        <v>0.39393899999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>0.394737</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" t="str">
         <v>G</v>
       </c>
@@ -581,35 +593,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:6">
       <c r="B15" t="str">
         <v>K</v>
       </c>
       <c r="C15">
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
+        <v>1.5921050000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" t="str">
         <v>M</v>
       </c>
       <c r="C16">
-        <v>9.8835560000000005</v>
+        <v>10.035526000000001</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
-        <v>=ASTRO_SPECTRAL_DISTRIBUTION("G",100,6)</v>
+        <v>=ASTRO_SPECTRAL_DISTRIBUTION("O",1,8)</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="str" cm="1">
-        <f t="array" ref="B19:C25">ASTRO_SPECTRAL_DISTRIBUTION("G",100,6)</f>
+        <f t="array" ref="B19:C25">ASTRO_SPECTRAL_DISTRIBUTION("O",1,8)</f>
         <v>O</v>
       </c>
       <c r="C19">
-        <v>4.3300000000000001E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -617,7 +629,7 @@
         <v>B</v>
       </c>
       <c r="C20">
-        <v>1.625</v>
+        <v>4333.3333333299997</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -625,7 +637,7 @@
         <v>A</v>
       </c>
       <c r="C21">
-        <v>8.125</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -633,7 +645,7 @@
         <v>F</v>
       </c>
       <c r="C22">
-        <v>39.393939000000003</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -641,7 +653,7 @@
         <v>G</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>253333.33333333</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -649,7 +661,7 @@
         <v>K</v>
       </c>
       <c r="C24">
-        <v>162.5</v>
+        <v>403333.33333333</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -657,7 +669,70 @@
         <v>M</v>
       </c>
       <c r="C25">
-        <v>988.35562700000003</v>
+        <v>2542333.3333333302</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B29)</f>
+        <v>=ASTRO_SPECTRAL_DISTRIBUTION(,100,8)</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="str" cm="1">
+        <f t="array" ref="B29:C35">ASTRO_SPECTRAL_DISTRIBUTION(,100,8)</f>
+        <v>O</v>
+      </c>
+      <c r="C29">
+        <v>2.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="str">
+        <v>B</v>
+      </c>
+      <c r="C30">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="str">
+        <v>A</v>
+      </c>
+      <c r="C31">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="str">
+        <v>F</v>
+      </c>
+      <c r="C32">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="str">
+        <v>G</v>
+      </c>
+      <c r="C33">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="str">
+        <v>K</v>
+      </c>
+      <c r="C34">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="str">
+        <v>M</v>
+      </c>
+      <c r="C35">
+        <v>0.76270000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +741,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAcgBlAGwAYQB0AGkAdgBlACAAbwByACAAcwBjAGEAbABlAGQAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAG8AZgAgAHMAdABlAGwAbABhAHIAIABzAHAAZQBjAHQAcgBhAGwAIABjAGwAYQBzAHMAZQBzAFwAbgAgACAAIABiAGEAcwBlAGQAIABvAG4AIABhAG4AIABpAG4AcAB1AHQAIAB0AHkAcABlACAAKABvAHAAdABpAG8AbgBhAGwAKQAgAGEAbgBkACAAdABvAHQAYQBsACAAYwBvAHUAbgB0ACAAKABvAHAAdABpAG8AbgBhAGwAKQAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAMgAtAGMAbwBsAHUAbQBuACAAYQByAHIAYQB5ADoAIABzAHAAZQBjAHQAcgBhAGwAIABjAGwAYQBzAHMAIAArACAAcwBjAGEAbABlAGQAIABjAG8AdQBuAHQAIABvAHIAIAByAGUAbABhAHQAaQB2AGUAIABmAHIAZQBxAHUAZQBuAGMAeQBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAHQAeQBwAGUAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABBACAAcwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzACAAbABlAHQAdABlAHIAIAAoAFwAIgBPAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQQBcACIALAAgAGUAdABjAC4AKQAgAHQAbwAgAHUAcwBlACAAYQBzACAAYgBhAHMAZQBsAGkAbgBlAC4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAGkAbgB2AGEAbABpAGQALAAgAHIAZQB0AHUAcgBuAHMAIABpAG4AdgBlAHIAcwBlAC0AdwBlAGkAZwBoAHQAZQBkACAAZABpAHMAdAByAGkAYgB1AHQAaQBvAG4ALgBcAG4AIAAgACAALQAgAGMAbwB1AG4AdAAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAFQAbwB0AGEAbAAgAG4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzACAAdABvACAAcwBjAGEAbABlACAAYgB5ACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADEAKQAuAFwAbgAgACAAIAAtACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABEAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIAByAG8AdQBuAGQAIABvAHUAdABwAHUAdAAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAdQBzAGUAcwAgAGEAIABjAGEAbgBvAG4AaQBjAGEAbAAgAGIAYQBzAGUAIABmAHIAZQBxAHUAZQBuAGMAeQAgAHQAYQBiAGwAZQAgAGYAbwByACAATwATIE0AIABjAGwAYQBzAHMAZQBzAC4AXABuACAAIAAgAC0AIABJAGYAIABhACAAYAB0AHkAcABlAGAAIABpAHMAIABnAGkAdgBlAG4ALAAgAG8AdQB0AHAAdQB0ACAAaQBzACAAcwBjAGEAbABlAGQAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIABpAHQAcwAgAGEAYgB1AG4AZABhAG4AYwBlAC4AXABuACAAIAAgAC0AIABJAGYAIABgAHQAeQBwAGUAYAAgAGkAcwAgAG8AbQBpAHQAdABlAGQAIABvAHIAIABpAG4AdgBhAGwAaQBkACwAIABvAHUAdABwAHUAdAAgAHMAaABvAHcAcwAgAHIAZQBsAGEAdABpAHYAZQAgAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAgACgAMQAvAHgAKQAuAFwAbgAgACAAIAAtACAATwB1AHQAcAB1AHQAIABpAHMAIABpAG4AIABkAGUAcwBjAGUAbgBkAGkAbgBnACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAbwByAGQAZQByACAAKABPACAAkiEgAE0AKQAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AKABcACIARwBcACIALAAgADEAMAAwACkAXABuACAAIAAgACAAIACSISAAewBcACIATwBcACIALAAgADAAOwAgAFwAIgBCAFwAIgAsACAAMAAuADAAMAAxADsAIABcACIAQQBcACIALAAgADAALgAwADAANgA7ACAAXAAiAEYAXAAiACwAIAAwAC4AMAAzADsAIAAuAC4ALgAgAFwAIgBNAFwAIgAsACAANwA2AC4AMAAyADcAfQBcAG4AXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoACkAXABuACAAIAAgACAAIACSISAAewBcACIATwBcACIALAAgADAALgAwADAAMAAwADAAMAAzADsAIABcACIAQgBcACIALAAgADAALgAwADAAMQAyADUAOwAgAC4ALgAuACwAIABcACIATQBcACIALAAgADAALgA3ADYAMAAyADcANAB9AFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAgAD0AIABMAEEATQBCAEQAQQAoAFsAdAB5AHAAZQBdACwAIABbAGMAbwB1AG4AdABdACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABPAHAAdABpAG8AbgBhAGwAIABkAGUAZgBhAHUAbAB0AHMAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwB1AG4AdAAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABjAG8AdQBuAHQAKQAsACAAMQAsACAAYwBvAHUAbgB0ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEQAZQBmAGkAbgBlACAAcwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzAGUAcwAgAGEAbgBkACAAYgBhAHMAZQAgAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAgACgAZABlAHMAYwBlAG4AZABpAG4AZwAgAHQAZQBtAHAAKQAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAcwBwAGUAYwB0AHIAYQBsAF8AYwBsAGEAcwBzAGUAcwAsACAAewBcACIATwBcACIAOwAgAFwAIgBCAFwAIgA7ACAAXAAiAEEAXAAiADsAIABcACIARgBcACIAOwAgAFwAIgBHAFwAIgA7ACAAXAAiAEsAXAAiADsAIABcACIATQBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYgBhAHMAZQBfAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAsACAAewAzADAAMAAwADAAMAAwADsAIAA4ADAAMAA7ACAAMQA2ADAAOwAgADMAMwA7ACAAMQAzADsAIAA4ADsAIAAxAC4AMwAxADUAMwAxADYAMAAzADAAMQAwADgANwA0AH0ALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAE4AbwByAG0AYQBsAGkAegBlACAAYQBuAGQAIAB2AGEAbABpAGQAYQB0AGUAIABpAG4AcAB1AHQAIAB0AHkAcABlACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAXwBzAHQAcgBpAG4AZwAsACAAXAAiAE8AQgBBAEYARwBLAE0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAB0AHkAcABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAHQAeQBwAGUAKQAsACAASQBTAEUAUgBSAE8AUgAoAFMARQBBAFIAQwBIACgAdAB5AHAAZQAsACAAYwBsAGEAcwBzAF8AcwB0AHIAaQBuAGcAKQApACkALAAgAFwAIgAkAFwAIgAsACAAVQBQAFAARQBSACgAdAB5AHAAZQApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEcAZQB0ACAAdABoAGUAIABiAGEAcwBlACAAZgByAGUAcQB1AGUAbgBjAHkAIABmAG8AcgAgAHQAaABlACAAZwBpAHYAZQBuACAAYwBsAGEAcwBzACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIABiAGEAcwBlAF8AZgByAGUAcQAsACAAWABMAE8ATwBLAFUAUAAoAHQAeQBwAGUALAAgAHMAcABlAGMAdAByAGEAbABfAGMAbABhAHMAcwBlAHMALAAgAGIAYQBzAGUAXwBmAHIAZQBxAHUAZQBuAGMAaQBlAHMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAAQwBvAG0AcAB1AHQAZQAgAGUAaQB0AGgAZQByACAAcwBjAGEAbABlAGQAIAB2AGEAbAB1AGUAcwAgAG8AcgAgAGkAbgB2AGUAcgBzAGUAIABmAHIAZQBxAHUAZQBuAGMAaQBlAHMAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAHMAYwBhAGwAaQBuAGcAXwBmAGEAYwB0AG8AcgBzACwAIABiAGEAcwBlAF8AZgByAGUAcQAgAC8AIABiAGEAcwBlAF8AZgByAGUAcQB1AGUAbgBjAGkAZQBzACwAXABuACAAIAAgACAAIAAgACAAIABzAGMAYQBsAGUAZABfAGQAaQBzAHQAcgBpAGIAdQB0AGkAbwBuACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdAB5AHAAZQAgADwAPgAgAFwAIgAkAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABjAG8AdQBuAHQAIAAqACAAcwBjAGEAbABpAG4AZwBfAGYAYQBjAHQAbwByAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBZAFIATwBXACgAYgBhAHMAZQBfAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAsACAATABBAE0AQgBEAEEAKAB4ACwAIAAxACAALwAgAHgAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAATwB1AHQAcAB1AHQAIAB0AGEAYgBsAGUAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABIAFMAVABBAEMASwAoAHMAcABlAGMAdAByAGEAbABfAGMAbABhAHMAcwBlAHMALAAgAFIATwBVAE4ARAAoAHMAYwBhAGwAZQBkAF8AZABpAHMAdAByAGkAYgB1AHQAaQBvAG4ALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACAAPQAgAEwAQQBNAEIARABBACgAdABvAHQAYQBsACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXAAiAFQAbwB0AGEAbABcACIAOwAgAFwAIgBPAFwAIgA7ACAAXAAiAEIAXAAiADsAIABcACIAQQBcACIAOwAgAFwAIgBGAFwAIgA7ACAAXAAiAEcAXAAiADsAIABcACIASwBcACIAOwAgAFwAIgBNAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAB0AGEAYgBsAGUALAAgAHsAMwAwADAAMAAwADAAMAA7ACAAOAAwADAAOwAgADEANgAwADsAIAAzADMAOwAgADEAMwA7ACAAOAA7ACAAMQAuADMAMQA1ADMAMQA2ADAAMwAwADEAMAA4ADcANAB9ACwAXABuACAAIAAgACAAIAAgACAAIABmAGEAYwB0AG8AcgBzACwAIABCAFkAUgBPAFcAKAB0AGEAYgBsAGUALAAgAEwAQQBNAEIARABBACgAeAAsADEALwB4ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAGIAeQByAG8AdwAoAGYAYQBjAHQAbwByAHMALABsAGEAbQBiAGQAYQAoAHgALAByAG8AdQBuAGQAKAB4ACoAdABvAHQAYQBsACwAcAByAGUAYwBpAHMAaQBvAG4AKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AHMALAAgAHYAcwB0AGEAYwBrACgAdABvAHQAYQBsACwAIAB2AGEAbAB1AGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAcgBlAHMAdQBsAHQAcwApAFwAbgAgACAAIAAgACAAIAAgACAALwAqAHQAeQBwAGUAJgBcACIAIABcACIAJgBjAG8AdQBuAHQAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAUwBUAEEAUgBfAFMAQwBBAEwARQBfAFQARQBNAFAAXABuAFwAbgBSAGUAdAB1AHIAbgBzACAAcwB0AGEAcgAgAGEAdAB0AHIAaQBiAHUAdABlAHMAIABjAGEAbABjAHUAbABhAHQAZQBkACAAZgByAG8AbQAgAHMAbwBsAGEAcgAgAHQAZQBtAHAAXABuACoALwBcAG4AUwBUAEEAUgBfAFMAQwBBAEwARQBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKAB0AGUAbQBwACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABfAHQAZQBtAHAALAAgAFwAIgBUAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABcACIAUgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAAMQAuADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFwAIgBMADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAA3AC4ANQA3ADcAOAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADIALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgAC0ANQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAawBlAGwAdgBpAG4ALAAgAHQAXwB0AGUAbQBwACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFQAQQBSAF8AUwBDAEEATABFAF8ASwBUAEUATQBQACAAPQAgAEwAQQBNAEIARABBACgAawBlAGwAdgBpAG4ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABrAF8AdABlAG0AcAAsACAAXAAiAEsALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGsAZQBsAHYAaQBuACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwACwAIABrAGUAbAB2AGkAbgAgAC8AIAA1ADgAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABzAG8AbABhAHIALAAgAFwAIgBUADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAxAC4AOAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADcALgA1ADcANwA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAAMgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAALQA1ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAF8AdABlAG0AcAAsACAAcwBvAGwAYQByACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFQAQQBSAF8AQwBMAEEAUwBTAF8AUwBUAEEAVABTACAAPQAgAEwAQQBNAEIARABBACgAaQBuACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHAAdQB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAaQBuACwAIABcACIAIABcACIALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzACwAIABMAEUARgBUACgAaQBuAHAAdQB0ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdQBiACwAIABSAEkARwBIAFQAKABpAG4AcAB1AHQALAAgAEwARQBOACgAaQBuAHAAdQB0ACkAIAAtACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGgAcgBlAHMAaABvAGwAZABzACwAIAB7ADUANQAwADAAMAAsACAAMgA1ADAAMAAwACwAIAAxADAAMAAwADAALAAgADcANQAwADAALAAgADYAMAAwADAALAAgADUAMAAwADAALAAgADMANQAwADAALAAgADIANAAwADAALAAgADEAMwAwADAALAAgADYAMAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB7AFwAIgBPAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQQBcACIALAAgAFwAIgBGAFwAIgAsACAAXAAiAEcAXAAiACwAIABcACIASwBcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAEwAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBZAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwAcwAsACAAewAzADAAMAAwACwAIAAxADUAMAAwACwAIAAyADUAMAAsACAAMQA1ADAALAAgADEAMAAwACwAIAAxADUAMAAsACAAMQAxADAALAAgADEAMQAwACwAIAA3ADAALAAgADMAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAeABfAHQAZQBtAHAALAAgAFgATABPAE8ASwBVAFAAKABjAGwAYQBzAHMALAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB0AGgAcgBlAHMAaABvAGwAZABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwBmAGEAYwB0AG8AcgAsACAAWABMAE8ATwBLAFUAUAAoAGMAbABhAHMAcwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHEAXwB2AGEAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwB0AGUAbQBwACwAIABtAGEAeABfAHQAZQBtAHAAIAAtACAAKABzAHUAYgAgACoAIABxAF8AZgBhAGMAdABvAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcAAsACAAawBfAHQAZQBtAHAAIAAvACAANQA4ADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAawBfAHQAZQBtAHAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADEALgA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAANwAuADUANwA3ADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAtADUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAFwAIgAtAD4AIABcACIAIAAmACAAaQBuAHAAdQB0ACwAIABrAGUAbAB2AGkAbgAsACAAcwBvAGwAYQByACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AUwBUAEEAUgBfAE0AQQBTAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAGEAcwBzACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBfAG0AYQBzAHMALAAgAFwAIgBNAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABtAGEAcwBzACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAFwAIgBUADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAUwBRAFIAVAAoAG0AYQBzAHMAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBvAGwAYQByACwAIABTAFEAUgBUACgAbQBhAHMAcwApACAAKgAgADUAOAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHMAbwBsAGEAcgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbQBhAHMAcwAgAF4AIAAwAC4AOQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABtAGEAcwBzACAAXgAgADMALgA3ADgAOAA5ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAUwBRAFIAVAAoAG0AYQBzAHMAKQAgAF4AIAAtADUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAZQBsAHYAaQBuACwAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAHMAXwBtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AUwBUAEEAUgBfAFIAQQBEAFMAIAA9ACAATABBAE0AQgBEAEEAKAByAGEAZABpAHUAcwAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFIALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHIAYQBkAGkAdQBzACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAFwAIgBUADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAcgBhAGQAaQB1AHMAIABeACAAKAAxACAALwAgADEALgA4ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoACgAcgBhAGQAaQB1AHMAIABeACAAKAAxACAALwAgADEALgA4ACkAKQAgACoAIAA1ADgAMAAwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHIAYQBkAGkAdQBzACAAXgAgADQALgAyADIALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAcgBhAGQAaQB1AHMAIABeACAAMQAuADEAMQA0ADIANwAwADAAMQA3ADcANwA3ADcAOAAwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAcgBhAGQAaQB1AHMAIABeACAAKAAxACAALwAgAC0AMAAuADMANgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABtAGEAcwBzACwAIABzAG8AbABhAHIALAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAGwAaQBmAGUAdABpAG0AZQApACwAXABuACAAIAAgACAAIAAgACAAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAaQBzAHQALAAgAFwAIgB8AFwAIgApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFMAVABBAFIAXwBMAFUATQBTACAAPQAgAEwAQQBNAEIARABBACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAA3AC4ANgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADcALgA1ADcANwA4ACkAKQAgACoAIAA1ADgAMAAwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAF8AbAB1AG0ALAAgAFwAIgBMAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAA0AC4AMgAyACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAAMwAuADcAOAA4ADkAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgAC0AMQAuADUAMgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAcwBfAGwAdQBtACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIATABVAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAYgBlAGwAcwAsACAAVABSAEEATgBTAFAATwBTAEUAKAB7AFwAIgBLADoAXAAiACwAIABcACIAVAA6AFwAIgAsACAAXAAiAE0AOgBcACIALAAgAFwAIgBSADoAXAAiACwAIABcACIATAB9AFwAIgAsACAAXAAiAFYAOgBcACIAfQApACwAXABuACAAIAAgACAAIAAgACAAIABUACwAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAA3AC4ANQA3ADcAOAApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABLACwAIABSAE8AVQBOAEQAKAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADcALgA1ADcANwA4ACkAKQAgACoAIAA1ADgAMAAwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABMACwAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAA0AC4AMgAyACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADMALgA3ADgAOAA5ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFYALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgAC0AMQAuADUAMgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABhAHQAdAByAGkAYgBzACwAIABUAEUAWABUAEoATwBJAE4AKABcACIALABcACIALAAgACwAIABLACwAIABUACwAIABNACwAIABSACwAIABMACwAIABWACkALABcAG4AIAAgACAAIAAgACAAIAAgAHYAYQBsAHUAZQBzACwAIABUAFIAQQBOAFMAUABPAFMARQAoAFQARQBYAFQAUwBQAEwASQBUACgAYQB0AHQAcgBpAGIAcwAsACAAXAAiACwAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIAfQAsACAAbABhAGIAZQBsAHMALAAgAHYAYQBsAHUAZQBzACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFMAVABBAFIAXwBMAEkARgBFACAAPQAgAEwAQQBNAEIARABBACgAbABpAGYAZQB0AGkAbQBlACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBvAGwAYQByACwAIABcACIAVgAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAbABpAGYAZQB0AGkAbQBlACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAFwAIgBUADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbABpAGYAZQB0AGkAbQBlACAAXgAgACgAMQAgAC8AIAAtADUAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAKABsAGkAZgBlAHQAaQBtAGUAIABeACAAKAAxACAALwAgAC0ANQApACkAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbABpAGYAZQB0AGkAbQBlACAAXgAgACgALQAwAC4AMwA2ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbABpAGYAZQB0AGkAbQBlACAAXgAgACgAMQAgAC8AIAAtADIALgA1ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFwAIgBMADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbABpAGYAZQB0AGkAbQBlACAAXgAgAC0AMQAuADUAMgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAawBlAGwAdgBpAG4ALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAHMAbwBsAGEAcgApACwAXABuACAAIAAgACAAIAAgACAAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAaQBzAHQALAAgAFwAIgB8AFwAIgApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQBtAHAALAAgAFsAbQBvAGQAZQBdACwAIABbAHAAcgBlAGMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwACwAIABpAGYAcwAoAHQAZQBtAHAAPAA2ADAAMAAsADYAMAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAG0AcAA+ADUANQAwADAAMAAsADUANQAwADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAUgBVAEUALAAgAHQAZQBtAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgATwBSACgASQBTAE8ATQBJAFQAVABFAEQAKABtAG8AZABlACkALAAgAG0AbwBkAGUAIAA+ACAAMQApACwAIAAwACwAIABtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMALAAgAEkARgAoAE8AUgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIABwAHIAZQBjACAAPAAgADAAKQAsACAAMwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGgAcgBlAHMAaABvAGwAZABzACwAIAB7ADUANQAwADAAMAAsACAAMgA1ADAAMAAwACwAIAAxADAAMAAwADAALAAgADcANQAwADAALAAgADYAMAAwADAALAAgADUAMAAwADAALAAgADMANQAwADAALAAgADIANAAwADAALAAgADEAMwAwADAALAAgADYAMAAwACwAIAAzADAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAewBcACIATwBcACIALAAgAFwAIgBCAFwAIgAsACAAXAAiAEEAXAAiACwAIABcACIARgBcACIALAAgAFwAIgBHAFwAIgAsACAAXAAiAEsAXAAiACwAIABcACIATQBcACIALAAgAFwAIgBMAFwAIgAsACAAXAAiAFQAXAAiACwAIABcACIAWQBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAHYAYQBsAHMALAAgAHsAMwAwADAAMAAsACAAMQA1ADAAMAAsACAAMgA1ADAALAAgADEANQAwACwAIAAxADAAMAAsACAAMQA1ADAALAAgADEAMQAwACwAIAAxADEAMAAsACAANwAwACwAIAAzADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAGQAZQB4ACwAIABNAEEAVABDAEgAKABUAFIAVQBFACwAIAB0AGUAbQBwACAAPgAgAHQAaAByAGUAcwBoAG8AbABkAHMALAAgADAAKQAgAC0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIABzAF8AdAB5AHAAZQAsACAASQBOAEQARQBYACgAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAGkAbgBkAGUAeAApACwAXABuACAAIAAgACAAIAAgACAAIABrAF8AbQBhAHgALAAgAEkATgBEAEUAWAAoAHQAaAByAGUAcwBoAG8AbABkAHMALAAgAGkAbgBkAGUAeAApACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwALAAgAEkATgBEAEUAWAAoAHEAXwB2AGEAbABzACwAIABpAG4AZABlAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAF8AbgB1AG0ALAAgACgAawBfAG0AYQB4ACAALQAgAHQAZQBtAHAAKQAgAC8AIABxAF8AdgBhAGwALABcAG4AIAAgACAAIAAgACAAIAAgAHMAXwBjAGwAYQBzAHMALAAgAEkARgAoAGMAbABhAHMAcwBfAG4AdQBtACAAPQAgADEAMAAsACAAOQAuADkAOQA5ACwAIABjAGwAYQBzAHMAXwBuAHUAbQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBXAEkAVABDAEgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALAAgAHMAXwB0AHkAcABlACAAJgAgAFwAIgAgAFwAIgAgACYAIABGAEkAWABFAEQAKABzAF8AYwBsAGEAcwBzACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAsACAAdABlAG0AcAAgACYAIABcACIAIAA9ACAAXAAiACAAJgAgAHMAXwB0AHkAcABlACAAJgAgAEYASQBYAEUARAAoAHMAXwBjAGwAYQBzAHMALAAgAHAAcgBlAGMAKQAsACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AVABFAE0AUABfAEYAUgBPAE0AXwBUAFkAUABFACAAPQAgAEwAQQBNAEIARABBACgAaQBuACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHAAdQB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAaQBuACwAIABcACIAIABcACIALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzACwAIABMAEUARgBUACgAaQBuAHAAdQB0ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdQBiACwAIABSAEkARwBIAFQAKABpAG4AcAB1AHQALAAgAEwARQBOACgAaQBuAHAAdQB0ACkAIAAtACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGgAcgBlAHMAaABvAGwAZABzACwAIAB7ADUANQAwADAAMAAsACAAMgA1ADAAMAAwACwAIAAxADAAMAAwADAALAAgADcANQAwADAALAAgADYAMAAwADAALAAgADUAMAAwADAALAAgADMANQAwADAALAAgADIANAAwADAALAAgADEAMwAwADAALAAgADYAMAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB7AFwAIgBPAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQQBcACIALAAgAFwAIgBGAFwAIgAsACAAXAAiAEcAXAAiACwAIABcACIASwBcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAEwAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBZAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwAcwAsACAAewAzADAAMAAwACwAIAAxADUAMAAwACwAIAAyADUAMAAsACAAMQA1ADAALAAgADEAMAAwACwAIAAxADUAMAAsACAAMQAxADAALAAgADEAMQAwACwAIAA3ADAALAAgADMAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAeABfAHQAZQBtAHAALAAgAFgATABPAE8ASwBVAFAAKABjAGwAYQBzAHMALAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB0AGgAcgBlAHMAaABvAGwAZABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwBmAGEAYwB0AG8AcgAsACAAWABMAE8ATwBLAFUAUAAoAGMAbABhAHMAcwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHEAXwB2AGEAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwB0AGUAbQBwACwAIABtAGEAeABfAHQAZQBtAHAAIAAtACAAKABzAHUAYgAgACoAIABxAF8AZgBhAGMAdABvAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABtAG8AZABlACwAIAAwACwAIABrAF8AdABlAG0AcAAsACAAMQAsACAAaQBuAHAAdQB0ACAAJgAgAFwAIgAgAD0AIABcACIAIAAmACAAawBfAHQAZQBtAHAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFAARQBDAFQAUgBBAEwAXwBDAEwAQQBTAFMAXwBEAEEAVABBACAAPQAgAEwAQQBNAEIARABBACgAWwBuAHUAbABsAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAewBcACIAVAB5AHAAZQBcACIAOwAgAFwAIgBNAGkAbgBcACIAOwAgAFwAIgBNAGEAeABcACIAOwAgAFwAIgBTAHAAYQBuAFwAIgA7ACAAXAAiAHEAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHQAeQBwAGUAcwAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAxACkALAAgAHsAXAAiAE8AXAAiADsAIABcACIAQgBcACIAOwAgAFwAIgBBAFwAIgA7ACAAXAAiAEYAXAAiADsAIABcACIARwBcACIAOwAgAFwAIgBLAFwAIgA7ACAAXAAiAE0AXAAiADsAIABcACIATABcACIAOwAgAFwAIgBUAFwAIgA7ACAAXAAiAFkAXAAiAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBpAG4ALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMgApACwAIAB7ADIANQAwADAAMAA7ACAAMQAwADAAMAAwADsAIAA3ADUAMAAwADsAIAA2ADAAMAAwADsAIAA1ADAAMAAwADsAIAAzADUAMAAwADsAIAAyADQAMAAwADsAIAAxADMAMAAwADsAIAA2ADAAMAA7ACAAMwAwADAAfQApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAeAAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAzACkALAAgAHsANQA1ADAAMAAwADsAIAAyADUAMAAwADAAOwAgADEAMAAwADAAMAA7ACAANwA1ADAAMAA7ACAANgAwADAAMAA7ACAANQAwADAAMAA7ACAAMwA1ADAAMAA7ACAAMgA0ADAAMAA7ACAAMQAzADAAMAA7ACAANgAwADAAfQApACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwAcwAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAA1ACkALAAgAHsAMwAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMgA1ADAAOwAgADEANQAwADsAIAAxADAAMAA7ACAAMQA1ADAAOwAgADEAMQAwADsAIAAxADEAMAA7ACAANwAwADsAIAAzADAAfQApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAbgBnAGUAcwAsACAAewAzADAAMAAwADAAOwAgADEANQAwADAAMAA7ACAAMgA1ADAAMAA7ACAAMQA1ADAAMAA7ACAAMQAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMQAxADAAMAA7ACAAMQAxADAAMAA7ACAANwAwADAAOwAgADMAMAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHMAcABhAG4ALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAANAApACwAIAByAGEAbgBnAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgAsACAAMwAsACAANAAsACAANQB9ACwAIAB0AHkAcABlAHMALAAgAG0AaQBuACwAIABtAGEAeAAsACAAcwBwAGEAbgAsACAAcQBfAHYAYQBsAHMAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFAARQBDAF8ATABJAFMAVAAgAD0AIABMAEEATQBCAEQAQQAoAFsAbgB1AGwAbABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATwA6ACAAMgA1ADAAMAAwACAALQAgADUANQAwADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEIAOgAgADEAMAAwADAAMAAgAC0AIAAyADUAMAAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBBADoAIAA3ADUAMAAwACAALQAgADEAMAAwADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEYAOgAgADYAMAAwADAAIAAtACAANwA1ADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEcAOgAgADUAMAAwADAAIAAtACAANgAwADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEsAOgAgADMANQAwADAAIAAtACAANQAwADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AOgAgADIANAAwADAAIAAtACAAMwA1ADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEwAOgAgADEAMwAwADAAIAAtACAAMgA0ADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFQAOgAgADYAMAAwACAALQAgADEAMwAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBZADoAIAAzADAAMAAgAC0AIAA2ADAAMABcACIAXABuACAAIAAgACAAIAAgACAAIAB9ACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwBfAFQAQQBCAEwARQAgAD0AIABMAEEATQBCAEQAQQAoAFsAbgB1AGwAbABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjACwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABoAGUAYQBkAGUAcgBzACwAIAB7AFwAIgBaAG8AbgBlAFwAIgA7ACAAXAAiAEkAbgBuAGUAcgBcACIAOwAgAFwAIgBPAHUAdABlAHIAXAAiADsAIABcACIAQQB2AGUAcgBhAGcAZQBcACIAOwAgAFwAIgBTAHAAYQBuAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAYgBlAGwAcwAsACAAewBcACIAWgAwACAAKABJAGcAbgBpAG8ALQApAFwAIgA7ACAAXAAiAFoAMQAgACgAQwBhAGwAbwByAG8ALQApAFwAIgA7ACAAXAAiAFoAMgAgACgASABlAGwAaQBvAC0AKQBcACIAOwAgAFwAIgBaADMAIAAoAFMAbwBsAGEAcgBhAC0AKQBcACIAOwAgAFwAIgBaADQAIAAoAFMAdQByAHkAYQAtACkAXAAiADsAIABcACIAWgA1ACAAKABGAHIAaQBvAC0AKQBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAG4AZQByACwAIAB7ADAAOwAgADAALgA1ADsAIAAwAC4ANwA1ADsAIAAwAC4AOQA1ADsAIAAxAC4AMwA4ADUAOwAgADEALgA3ADcAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAZQByACwAIAB7ADAALgA1ADsAIAAwAC4ANwA1ADsAIAAwAC4AOQA1ADsAIAAxAC4AMwA4ADUAOwAgADEALgA3ADcAOwAgADQALgA4ADUAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQB2AGUAcgBhAGcAZQAsACAAewAwAC4AMgA1ADsAIAAwAC4ANgAyADUAOwAgADAALgA4ADUAOwAgADEALgAxADYANwA1ADsAIAAxAC4ANQA3ADcANQA7ACAAMwAuADMAMQB9ACwAXABuACAAIAAgACAAIAAgACAAIABzAHAAYQBuACwAIAB7ADAALgA1ADsAIAAwAC4AMgA1ADsAIAAwAC4AMgA7ACAAMAAuADQAMwA1ADsAIAAwAC4AMwA4ADUAOwAgADMALgAwADgAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAXwAxACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADEAKQAsACAAbABhAGIAZQBsAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAXwAyACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADIAKQAsACAAUgBPAFUATgBEACgAaQBuAG4AZQByACwAIABkAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwBsAF8AMwAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAzACkALAAgAFIATwBVAE4ARAAoAG8AdQB0AGUAcgAsACAAZABlAGMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABfADQALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAANAApACwAIABSAE8AVQBOAEQAKABhAHYAZQByAGEAZwBlACwAIABkAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwBsAF8ANQAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAA1ACkALAAgAFIATwBVAE4ARAAoAHMAcABhAG4ALAAgAGQAZQBjACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIALAAgADMALAAgADQALAAgADUAfQAsACAAYwBvAGwAXwAxACwAIABjAG8AbABfADIALAAgAGMAbwBsAF8AMwAsACAAYwBvAGwAXwA0ACwAIABjAG8AbABfADUAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBIAEEAQgBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABsAHUAbQAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AdQBjAGwAZQBhAGwALAAgAFIATwBVAE4ARAAoAFMAUQBSAFQAKABsAHUAbQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABOACwAIABcACIATgAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAUwBRAFIAVAAoAGwAdQBtACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMAAsACAAXAAiADAAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAwAC4ANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADEALAAgAFwAIgAxADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAMAAuADcANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADIALAAgAFwAIgAyADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAMAAuADkANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADMALAAgAFwAIgAzADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAMQAuADMAOAA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUANAAsACAAXAAiADQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAxAC4ANwA3ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUANQAsACAAXAAiADUAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAA0AC4AOAA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAFoAbwBuAGUAMAAsACAAWgBvAG4AZQAxACwAIABaAG8AbgBlADIALAAgAE4ALAAgAFoAbwBuAGUAMwAsACAAWgBvAG4AZQA0ACwAIABaAG8AbgBlADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEgAQQBCAF8AWgBPAE4ARQBTACAAPQAgAEwAQQBNAEIARABBACgAbAB1AG0ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABsAGEAYgBlAGwAcwAsACAAewBcACIAMAA6ACAAXAAiACwAIABcACIAMQA6ACAAXAAiACwAIABcACIAMgA6ACAAXAAiACwAIABcACIATgAtAD4AIABcACIALAAgAFwAIgAzADoAIABcACIALAAgAFwAIgA0ADoAIABcACIALAAgAFwAIgA1ADoAIABcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbAAsACAAUgBPAFUATgBEACgAUwBRAFIAVAAoAGwAdQBtACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwAwACwAIABSAE8AVQBOAEQAKAAwAC4ANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAF8AMQAsACAAUgBPAFUATgBEACgAMAAuADcANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAF8AMgAsACAAUgBPAFUATgBEACgAMAAuADkANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAF8ATgAsACAAbgB1AGMAbABlAGEAbAAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADMALAAgAFIATwBVAE4ARAAoADEALgAzADgANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAF8ANAAsACAAUgBPAFUATgBEACgAMQAuADcANwAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAF8ANQAsACAAUgBPAFUATgBEACgANAAuADgANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADAALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADEAKQAsACAAWgBfADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAxACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAAyACkALAAgAFoAXwAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAAMwApACwAIABaAF8AMgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlAE4ALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADQAKQAsACAAWgBfAE4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAzACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAA1ACkALAAgAFoAXwAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUANAAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAANgApACwAIABaAF8ANAApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADUALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADcAKQAsACAAWgBfADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABSAEEATgBTAFAATwBTAEUAKABDAEgATwBPAFMARQAoAHsAMQAsACAAMgAsACAAMwAsACAANAAsACAANQAsACAANgAsACAANwB9ACwAIABaAG8AbgBlADAALAAgAFoAbwBuAGUAMQAsACAAWgBvAG4AZQAyACwAIABaAG8AbgBlAE4ALAAgAFoAbwBuAGUAMwAsACAAWgBvAG4AZQA0ACwAIABaAG8AbgBlADUAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIAUwBfAFAARQBSAF8AQwBVAEIASQBDAF8AVgBPAEwAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALAAgAFsAcAByAGUAYwBdACwAIABbAG0AbwBkAGUAXQAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABtAG8AZABlACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlADwAMAApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPgAxACkALABcAG4AIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAHAAcgBlAGMAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAHAAcgBlAGMAPAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHYAbwBsAHUAbQBlACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAGkAbgBwAHUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAKAA0AC8AMwApACoAcABpACgAKQAqAGkAbgBwAHUAdABeADMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAAcgBvAHUAbgBkACgAcABvAHcAZQByACgAKAB2AG8AbAB1AG0AZQAqADMAKQAvACgANAAqAHAAaQAoACkAKQAsADEALwAzACkALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAaQBuAHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAHMAdABhAHIAcwAsACAAcgBvAHUAbgBkACgAdgBvAGwAdQBtAGUALwAyADUAMAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAAdABvAGMAbwBsACgAdABlAHgAdABzAHAAbABpAHQAKAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwAgAFwAIgAsACwAIABzAHQAYQByAHMALAAgAHIAYQBkAGkAdQBzACkALABcACIAOwAgAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgADEALAAgAHQAbwBjAG8AbAAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAdABlAHgAdABqAG8AaQBuACgAXAAiADsAIABcACIALAAsACAAcgBvAHUAbgBkACgAcwB0AGEAcgBzACwAMAApACwAIAByAG8AdQBuAGQAKAB2AG8AbAB1AG0AZQAsADAAKQApACwAXAAiADsAIABcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBDAFUAQgBJAEMAXwBWAE8ATABVAE0ARQBfAFAARQBSAF8AUwBUAEEAUgBTACAAPQAgAEwAQQBNAEIARABBACgAcwB0AGEAcgBzACwAIABbAHAAcgBlAGMAXQAsACAAWwBtAG8AZABlAF0ALABcAG4AXABuAEwARQBUACgAXABuACAAIAAgACAAbQBvAGQAZQAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAbQBvAGQAZQApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA8ADAAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlAD4AMgApACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACkALABcAG4AIAAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAB2AG8AbAB1AG0AZQAsACAAcgBvAHUAbgBkACgAcwB0AGEAcgBzACoAMgA1ADAALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHMAaQBkAGUALAAgAHIAbwB1AG4AZAAoAHAAbwB3AGUAcgAoAHYAbwBsAHUAbQBlACwAMQAvADMAKQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAHIAbwB1AG4AZAAoAHAAbwB3AGUAcgAoACgAdgBvAGwAdQBtAGUAKgAzACkALwAoADQAKgBwAGkAKAApACkALAAxAC8AMwApACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIAB2AG8AbAB1AG0AZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAdABvAGMAbwBsACgAdABlAHgAdABzAHAAbABpAHQAKAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwAgAFwAIgAsACwAIAB2AG8AbAB1AG0AZQAsACAAcwBpAGQAZQApACwAXAAiADsAIABcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAyACwAIAB0AG8AYwBvAGwAKAB0AGUAeAB0AHMAcABsAGkAdAAoAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7ACAAXAAiACwALAAgAHYAbwBsAHUAbQBlACwAIABzAGkAZABlACwAIAByAGEAZABpAHUAcwApACwAXAAiADsAIABcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFAATABBAE4ARQBUAF8AQQBTAFQAUgBPAE0ARQBUAFIASQBDAFMAIAA9ACAATABBAE0AQgBEAEEAKABmAGkAcgBzAHQALAAgAHMAZQBjAG8AbgBkACwAIABbAG0AbwBkAGUAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AXABuAC8AKgAgAE0ATwBEAEUAUwBcAG4AXABuACAAIAAgACAAMAA6ACAAbQAsACAAZABcAG4AIAAgACAAIAAxADoAIABtACwAIAByAFwAbgAgACAAIAAgADIAOgAgAG0ALAAgAGcAXABuACAAIAAgACAAMwA6ACAAcgAsACAAZABcAG4AIAAgACAAIAA0ADoAIAByACwAIABnAFwAbgAgACAAIAAgADUAOgAgAGQALAAgAGcAXABuACAAIAAgACAANgA6ACAAZAAsACAAdgBcAG4AIAAgACAAIAA3ADoAIABnACwAIAB2AFwAbgAgACAAIAAgADgAOgAgAG0ALAAgAHYAXABuACAAIAAgACAAOQA6ACAAcgAsACAAdgBcAG4AXABuACoALwBcAG4ATABFAFQAKABcAG4AIAAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAA1ACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAG0AbwBkAGUAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlADwAMAApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPgA5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQBcAG4AIAAgACAAIAAgACAAIAAgACkALAAgAFwAbgAgACAAIAAgAGwAYQBiAGUAbABzACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALAAgAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAAXAAiAE0APgA7AFIAOgA7AGQAPgA7AGcAOgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEALAAgAFwAIgBNAD4AOwBSAD4AOwBkADoAOwBnADoAOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyACwAIABcACIATQA+ADsAUgA6ADsAZAA6ADsAZwA+ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAsACAAXAAiAE0AOgA7AFIAPgA7AGQAPgA7AGcAOgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADQALAAgAFwAIgBNADoAOwBSAD4AOwBkADoAOwBnAD4AOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA1ACwAIABcACIATQA6ADsAUgA6ADsAZAA+ADsAZwA+ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANgAsACAAXAAiAE0AOgA7AFIAOgA7AGQAPgA7AGcAOgA7AHYAPgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADcALAAgAFwAIgBNADoAOwBSADoAOwBkADoAOwBnAD4AOwB2AD4AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA4ACwAIABcACIATQA+ADsAUgA6ADsAZAA6ADsAZwA6ADsAdgA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAOQAsACAAXAAiAE0AOgA7AFIAPgA7AGQAOgA7AGcAOgA7AHYAPgBcACIAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABwAG8AdwBlAHIAKABtAGEAcwBzAC8AZABlAG4AcwBpAHQAeQAsADMAXgAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABwAG8AdwBlAHIAKABtAGEAcwBzACoAZABlAG4AcwBpAHQAeQBeADIALAAzAF4ALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHAAbwB3AGUAcgAoAG0AYQBzAHMAKgBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAMwBeAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADEALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAbQBhAHMAcwAvAHIAYQBkAGkAdQBzAF4AMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABtAGEAcwBzAC8AcgBhAGQAaQB1AHMAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAHEAcgB0ACgAbQBhAHMAcwAvAHIAYQBkAGkAdQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABzAHEAcgB0ACgAbQBhAHMAcwAvAGcAcgBhAHYAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABzAHEAcgB0ACgAZwByAGEAdgBpAHQAeQBeADMALwBtAGEAcwBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHAAbwB3AGUAcgAoAG0AYQBzAHMAKgBnAHIAYQB2AGkAdAB5ACwANABeAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcgBhAGQAaQB1AHMAKgBkAGUAbgBzAGkAdAB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGQAZQBuAHMAaQB0AHkAKgByAGEAZABpAHUAcwBeADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHIAYQBkAGkAdQBzACoAcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA0ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALwByAGEAZABpAHUAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABnAHIAYQB2AGkAdAB5ACoAcgBhAGQAaQB1AHMAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAHEAcgB0ACgAZwByAGEAdgBpAHQAeQAqAHIAYQBkAGkAdQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABnAHIAYQB2AGkAdAB5AC8AZABlAG4AcwBpAHQAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABnAHIAYQB2AGkAdAB5AF4AMwAvAGQAZQBuAHMAaQB0AHkAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABnAHIAYQB2AGkAdAB5AC8AcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA2ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGUAcwBjAGEAcABlAF4AMwAvAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGUAcwBjAGEAcABlAC8AcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQAqAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANwAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABlAHMAYwBhAHAAZQBeADQALwBnAHIAYQB2AGkAdAB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABlAHMAYwBhAHAAZQBeADIALwBnAHIAYQB2AGkAdAB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgACgAZwByAGEAdgBpAHQAeQAvAGUAcwBjAGEAcABlACkAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADgALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAXgA0AC8AbQBhAHMAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAbQBhAHMAcwAvAGUAcwBjAGEAcABlAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABlAHMAYwBhAHAAZQBeADYALwBtAGEAcwBzAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA5ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQBeADIALwByAGEAZABpAHUAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAqAGUAcwBjAGEAcABlAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIAAoAGUAcwBjAGEAcABlAC8AcgBhAGQAaQB1AHMAKQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbABhAGIAZQBsAF8AbABpAHMAdAAsACAAdAByAGEAbgBzAHAAbwBzAGUAKAB0AGUAeAB0AHMAcABsAGkAdAAoAGwAYQBiAGUAbABzACwAXAAiADsAXAAiACkAKQAsAFwAbgAgACAAIAAgAHYAYQBsAHUAZQBfAGwAaQBzAHQALAAgAHQAcgBhAG4AcwBwAG8AcwBlACgAdABlAHgAdABzAHAAbABpAHQAKABvAHUAdABwAHUAdAAsACAAXAAiADsAXAAiACkAKQAsAFwAbgAgACAAIAAgAC8ALwB2AGEAbAB1AGUAXwBsAGkAcwB0AFwAbgAgACAAIAAgAGMAaABvAG8AcwBlACgAewAxACwAMgB9ACwAIABsAGEAYgBlAGwAXwBsAGkAcwB0ACwAIAByAG8AdQBuAGQAKAB2AGEAbAB1AGUAKAB2AGEAbAB1AGUAXwBsAGkAcwB0ACkALABwAHIAZQBjACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AUwBZAE4ATwBEAEkAQwAgAD0AIABMAEEATQBCAEQAQQAoAHAALAAgAHEALABcAG4AXABuACAAIAAgACAAKABwACAAKgAgAHEAKQAgAC8AIABBAEIAUwAoAHAAIAAtACAAcQApAFwAbgAgACAAIAAgAFwAbgApADsAXABuAFwAbgBTAE0AQQBMAEwAQQBOAEcATABFACAAPQAgAEwAQQBNAEIARABBACgAZABpAGEAbQBlAHQAZQByACwAIABkAGkAcwB0AGEAbgBjAGUALABcAG4AXABuACAAIAAgACAAMAAuADUAMwAyADkAMAA0ADIAOQA0ACAAKgAgACgAZABpAGEAbQBlAHQAZQByACAALwAgAGQAaQBzAHQAYQBuAGMAZQApAFwAbgAgACAAIAAgAFwAbgApADsAXABuAFwAbgBPAFIAQgBfAEEAWABJAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAGEAcwBzADEALAAgAG0AYQBzAHMAMgAsACAAcABlAHIAaQBvAGQALABcAG4AXABuAEwARQBUACgAXABuACAAIAAgACAAbQBhAHMAcwAyACwAIABJAEYAKAAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBhAHMAcwAyACkAKQArACgAbQBhAHMAcwAyACAAPQAgADEAKQAsACAAMAAsACAAbQBhAHMAcwAyACoAMwAuADAAMAAzAEUALQA2ACkALABcAG4AIAAgACAAIABhAHgAaQBzACwAIABQAE8AVwBFAFIAKAAoAFAATwBXAEUAUgAoAHAAZQByAGkAbwBkACwAIAAyACkAIAAqACAAKABtAGEAcwBzADEAIAArACAAbQBhAHMAcwAyACkAKQAsACAAMQAgAC8AIAAzACkALABcAG4AIAAgACAAIABhAHgAaQBzAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAE8AUgBCAF8AUABFAFIASQBPAEQAIAA9ACAATABBAE0AQgBEAEEAKABtAGEAcwBzADEALAAgAG0AYQBzAHMAMgAsACAAYQB4AGkAcwAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAGEAcwBzADIALAAgAEkARgAoACgASQBTAE8ATQBJAFQAVABFAEQAKABtAGEAcwBzADIAKQApACsAKABtAGEAcwBzADIAIAA9ACAAMQApACwAIAAwACwAIAAoAG0AYQBzAHMAMgAgACoAIAAzAC4AMAAwADIANwAzAGUALQA2ACkAKQAsAFwAbgAgACAAIAAgAHAAZQByAGkAbwBkACwAIABTAFEAUgBUACgAUABPAFcARQBSACgAYQB4AGkAcwAsACAAMwApACAALwAgACgAbQBhAHMAcwAxACAAKwAgAG0AYQBzAHMAMgApACkALABcAG4AIAAgACAAIABwAGUAcgBpAG8AZABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBDAFIATwBTAFMASQBOAEcAXwBPAFIAQgBJAFQAXwBQAEEAUgBBAE0ARQBUAEUAUgAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAXABuAFwAbgBBAEIAUwAoAG0AYQBzAHMAMQAgAC0AIABtAGEAcwBzADIAKQAvAEEAQgBTACgAbQBhAHMAcwAxACAAKwBtAGEAcwBzADIAKQBcAG4AXABuACkAOwBcAG4AXABuAFwAbgBcAG4AUABFAFIASQBPAEQAXwBBAFgASQBTACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAXABuAFwAbgAgACAAIAAgAFAATwBXAEUAUgAoAFAATwBXAEUAUgAoAGkAbgBwAHUAdAAsACAAMgApACwAIAAoADEAIAAvACAAMwApACkAXABuAFwAbgApADsAXABuAFwAbgBPAFIAQgBfAFMAVQBNAF8ATQBBAFMAUwBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABhAHgAaQBzACwAIABwAGUAcgBpAG8AZAAsAFwAbgBcAG4AUABPAFcARQBSACgAYQB4AGkAcwAsACAAMwApACAALwAgAFAATwBXAEUAUgAoAHAAZQByAGkAbwBkACwAIAAyACkAXABuACkAOwBcAG4AXABuAFMAUABIAEUAUgBJAEMAQQBMAF8AVABPAF8AQwBBAFIAVABFAFMASQBBAE4AIAA9ACAATABBAE0AQgBEAEEAKABwAGgAaQAsACAAdABoAGUAdABhACwAIAByACwAIABbAHAAcgBlAGMAXQAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAcAByAGUAYwAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAcAByAGUAYwApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAcAByAGUAYwA8ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwApACwAIAAgACAAIABcAG4AIAAgACAAIAB6AF8AbQBvAGQALAAgAHMAaQBnAG4AKAB0AGgAZQB0AGEAKQAsAFwAbgAgACAAIAAgAHkAXwBtAG8AZAAsACAAcwBpAGcAbgAoAHAAaABpACkALABcAG4AIAAgACAAIAB4AF8AbQBvAGQALAAgAGkAZgAoAGEAYgBzACgAcABoAGkAKQA8ADkAMAAsACAAMQAsACAALQAxACkALABcAG4AIAAgACAAIAAvAC8AeABfAG0AbwBkAFwAbgAgACAAIAAgAC8ALwB0AGUAeAB0AGoAbwBpAG4AKABcACIALABcACIALAAsAHgAXwBtAG8AZAAsACAAeQBfAG0AbwBkACwAIAB6AF8AbQBvAGQAKQBcAG4AIAAgACAAIABhAG4AZwBfAHgALAAgAHIAYQBkAGkAYQBuAHMAKABtAG8AZAAoAHAAaABpACwAOQAwACkAKQAsAFwAbgAgACAAIAAgAGEAbgBnAF8AegAsACAAcgBhAGQAaQBhAG4AcwAoAGEAYgBzACgAdABoAGUAdABhACkAKQAsAFwAbgAgACAAIAAgAGQALAAgAGMAbwBzACgAYQBuAGcAXwB6ACkAKgByACwAXABuACAAIAAgACAAeAAsACAAcgBvAHUAbgBkACgAYwBvAHMAKABhAG4AZwBfAHgAKQAqAGQAKgB4AF8AbQBvAGQALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHkALAAgAHIAbwB1AG4AZAAoAHMAaQBuACgAYQBuAGcAXwB4ACkAKgBkACoAeQBfAG0AbwBkACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAB6ACwAIAByAG8AdQBuAGQAKABzAGkAbgAoAGEAbgBnAF8AegApACoAcgAqAHoAXwBtAG8AZAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgB8AFwAIgAsACwAeAAsACAAeQAsACAAegApACwAXABuACAAIAAgACAALwAvAHIAZQBzAHUAbAB0AFwAbgAgACAAIAAgAHQAbwByAG8AdwAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAcgBlAHMAdQBsAHQALABcACIAfABcACIAKQApAFwAbgApAFwAbgBcAG4AKQA7AFwAbgBcAG4ARABFAEcAXwBEAEUAQwBfAEQATQBTACAAPQAgAEwAQQBNAEIARABBACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAEQAZQBnACwAIABUAFIAVQBOAEMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAARgByAGEAYwBQAG8AcgB0AGkAbwBuACwAIABBAEIAUwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAgAC0AIABEAGUAZwApACwAXABuACAAIAAgACAAIAAgACAAIABNAGkAbgB1AHQAZQBzACwAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4AIAAqACAANgAwACwAXABuACAAIAAgACAAIAAgACAAIABNAGkAbgBfAHAAYQByAHQALAAgAFQAUgBVAE4AQwAoAE0AaQBuAHUAdABlAHMAKQAgAC8AIAAxADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAASQBuAHQATQBpAG4ALAAgAEkATgBUACgATQBpAG4AdQB0AGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABGAHIAYQBjAE0AaQBuACwAIABBAEIAUwAoAE0AaQBuAHUAdABlAHMAIAAtACAASQBuAHQATQBpAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUwBlAGMAbwBuAGQAcwAsACAARgByAGEAYwBNAGkAbgAgACoAIAA2ADAALABcAG4AIAAgACAAIAAgACAAIAAgAHMAZQBjAF8AcABhAHIAdAAsACAAUwBlAGMAbwBuAGQAcwAgAC8AIAAxADAAMAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABEAGUAZwAgACsAIABNAGkAbgBfAHAAYQByAHQAIAArACAAcwBlAGMAXwBwAGEAcgB0ACwAXABuACAAIAAgACAAIAAgACAAIABGAEkAWABFAEQAKABvAHUAdABwAHUAdAAsACAANwApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEQARQBHAF8ARABNAFMAIAA9ACAATABBAE0AQgBEAEEAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABkAGUAYwBwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAFAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAFAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIABEAGUAZwAsACAAVABSAFUATgBDACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACkALABcAG4AIAAgACAAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4ALAAgAEEAQgBTACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACAALQAgAEQAZQBnACkALABcAG4AIAAgACAAIABNAGkAbgB1AHQAZQBzACwAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4AIAAqACAANgAwACwAXABuACAAIAAgACAASQBuAHQATQBpAG4ALAAgAEkATgBUACgATQBpAG4AdQB0AGUAcwApACwAXABuACAAIAAgACAARgByAGEAYwBNAGkAbgAsACAAQQBCAFMAKABNAGkAbgB1AHQAZQBzACAALQAgAEkAbgB0AE0AaQBuACkALABcAG4AIAAgACAAIABTAGUAYwBvAG4AZABzACwAIABGAHIAYQBjAE0AaQBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgAEQAZQBnACAAJgAgAFwAIgCwACAAXAAiACAAJgAgAEkAbgB0AE0AaQBuACAAJgAgAEMASABBAFIAKAAzADkAKQAgACYAIABDAEgAQQBSACgAMwAyACkAIAAmACAARgBJAFgARQBEACgAUwBlAGMAbwBuAGQAcwAsACAAZABlAGMAcAByAGUAYwApACAAJgAgAEMASABBAFIAKAAzADQAKQBcAG4AKQBcAG4AKQA7AFwAbgBcAG4ARABFAEcAXwBEAE0AUwBfAEQARQBDACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBnAHIAZQBlAHMALAAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAApACwAXABuACAAIAAgACAAIAAgACAAIABtAGkAbgB1AHQAZQBzACwAIABUAFIAVQBOAEMAKAAoAGkAbgBwAHUAdAAgAC0AIABkAGUAZwByAGUAZQBzACkAIAAqACAAMQAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgByAGEAYwB0AGkAbwBuAGEAbABfAHMAZQBjAG8AbgBkAHMALAAgACgAKABpAG4AcAB1AHQAIAAqACAAMQAwADAAKQAgAC0AIABUAFIAVQBOAEMAKABpAG4AcAB1AHQAIAAqACAAMQAwADAAKQApACAALwAgADAALgA2ACwAXABuACAAIAAgACAAIAAgACAAIAAvACoAIAAgACoALwBcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABkAGUAZwByAGUAZQBzACAAKwAgACgAKABtAGkAbgB1AHQAZQBzACAAKwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAXwBzAGUAYwBvAG4AZABzACkAIAAvACAANgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEEAWABJAFMAXwBQAEUAUgBJAE8ARAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFwAbgBcAG4AIAAgACAAIABTAFEAUgBUACgAUABPAFcARQBSACgAaQBuAHAAdQB0ACwAIAAzACkAKQBcAG4AIAAgACAAIABcAG4AKQA7AFwAbgBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AIgAsACIAUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AIgAsACIAUwBUAEEAUgBfAFMAQwBBAEwARQBfAFQARQBNAFAAIgAsACIAUwBUAEEAUgBfAFMAQwBBAEwARQBfAEsAVABFAE0AUAAiACwAIgBTAFQAQQBSAF8AQwBMAEEAUwBTAF8AUwBUAEEAVABTACIALAAiAFMAVABBAFIAXwBNAEEAUwBTACIALAAiAFMAVABBAFIAXwBSAEEARABTACIALAAiAFMAVABBAFIAXwBMAFUATQBTACIALAAiAFMAVABBAFIATABVAE0AUwAiACwAIgBTAFQAQQBSAF8ATABJAEYARQAiACwAIgBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAIgAsACIAVABFAE0AUABfAEYAUgBPAE0AXwBUAFkAUABFACIALAAiAFMAUABFAEMAVABSAEEATABfAEMATABBAFMAUwBfAEQAQQBUAEEAIgAsACIAUwBQAEUAQwBfAEwASQBTAFQAIgAsACIASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAXwBUAEEAQgBMAEUAIgAsACIASABBAEIAWgBPAE4ARQBTACIALAAiAEgAQQBCAF8AWgBPAE4ARQBTACIALAAiAFMAVABBAFIAUwBfAFAARQBSAF8AQwBVAEIASQBDAF8AVgBPAEwAIgAsACIAQwBVAEIASQBDAF8AVgBPAEwAVQBNAEUAXwBQAEUAUgBfAFMAVABBAFIAUwAiACwAIgBQAEwAQQBOAEUAVABfAEEAUwBUAFIATwBNAEUAVABSAEkAQwBTACIALAAiAFMAWQBOAE8ARABJAEMAIgAsACIAUwBNAEEATABMAEEATgBHAEwARQAiACwAIgBPAFIAQgBfAEEAWABJAFMAIgAsACIATwBSAEIAXwBQAEUAUgBJAE8ARAAiACwAIgBDAFIATwBTAFMASQBOAEcAXwBPAFIAQgBJAFQAXwBQAEEAUgBBAE0ARQBUAEUAUgAiACwAIgBQAEUAUgBJAE8ARABfAEEAWABJAFMAIgAsACIATwBSAEIAXwBTAFUATQBfAE0AQQBTAFMARQBTACIALAAiAFMAUABIAEUAUgBJAEMAQQBMAF8AVABPAF8AQwBBAFIAVABFAFMASQBBAE4AIgAsACIARABFAEcAXwBEAEUAQwBfAEQATQBTACIALAAiAEQARQBHAF8ARABNAFMAIgAsACIARABFAEcAXwBEAE0AUwBfAEQARQBDACIALAAiAEEAWABJAFMAXwBQAEUAUgBJAE8ARAAiAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQAgAG4AbwByAG0AYQBsAGkAegBlAGQAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQAgAGkAbgBkAGUAeAAgAGIAYQBzAGUAZAAgAG8AbgAgAGEAIABwAGwAYQBuAGUAdAAnAHMAIABvAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIABhACAAcwB0AGEAcgAnAHMAIABuAHUAYwBsAGUAYQBsACAAKABoAGEAYgBpAHQAYQBiAGwAZQAgAHoAbwBuAGUAIABhAG4AYwBoAG8AcgApACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAHMAYwBhAGwAYQByACAAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAIABpAG4AZABlAHgAIAAoAG4AdQBtAGIAZQByACkALAAgAG8AcgAgAFwAIgBVAC8ASQBcACIAIABpAGYAIAB1AG4AaQBuAGgAYQBiAGkAdABhAGIAbABlAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABPAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlACAAKABpAG4AIABBAFUAKQBcAG4AIAAgACAALQAgAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBjAGwAZQBhAGwAIAB6AG8AbgBlACAAcgBhAGQAaQB1AHMAIAAoAGkAbgAgAEEAVQApADsAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAxAC4AMABcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAHQAaABlACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABJAG4AZABlAHgAIABIIiAAMQAuADAAIABpAG4AZABpAGMAYQB0AGUAcwAgAGkAZABlAGEAbAAgAGEAbABpAGcAbgBtAGUAbgB0ACAAdwBpAHQAaAAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAuAFwAbgAgACAAIAAtACAAVgBhAGwAdQBlAHMAIAA8ACAAMQAgAGEAcgBlACAAaQBuAHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGgAbwB0ACkALgBcAG4AIAAgACAALQAgAFYAYQBsAHUAZQBzACAAPgAgADEAIABhAHIAZQAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGMAbwBsAGQAKQAuAFwAbgAgACAAIAAtACAASQBmACAAdABoAGUAIABvAHIAYgBpAHQAIABpAHMAIAB0AG8AbwAgAGQAZQBlAHAAIABpAG4AcwBpAGQAZQAgAHQAaABlACAAaQBuAG4AZQByACAAYgBvAHUAbgBkAGEAcgB5ACwAIAByAGUAdAB1AHIAbgBzACAAXAAiAFUALwBJAFwAIgAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGEAIABwAGkAZQBjAGUAdwBpAHMAZQAgAGYAdQBuAGMAdABpAG8AbgAgAGYAbwByACAAcwBtAG8AbwB0AGgAIABmAGEAbABsAG8AZgBmACAAYQBjAHIAbwBzAHMAIABiAG8AdQBuAGQAYQByAHkALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAxAC4AMAApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAMQAuADAAMAAwACAAIAAoAGEAcwBzAHUAbQBlAHMAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAIAA9ACAAMQApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAoADAALgA3ADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgAJIhIAAwAC4ANQAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACgAMgAuADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgACAAkiEgADEALgA2ADIAOABcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAwAC4AMgA1ACwAIAAxAC4AMAApACAAIAAgACAAIAAgACAAIACSISAAXAAiAFUALwBJAFwAIgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAIAA9ACAATABBAE0AQgBEAEEAKABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAsACAAWwBuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIAAzACAAZABlAGMAaQBtAGEAbABzACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwApACwAIAAxACwAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAsACAALwAqACAARABlAGYAYQB1AGwAdAAgAHQAbwAgADEAIABBAFUAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAKgAvAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsACAASQBGACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAA8ACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABUAFIAVQBFACwAIABGAEEATABTAEUAKQAsACAAIAAvACoAIABEAGUAdABlAHIAbQBpAG4AZQAgAHAAbwBzAGkAdABpAG8AbgAgACoALwBcAG4AXABuACAAIAAgACAAIAAgACAAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAqACAAUABpAGUAYwBlAHcAaQBzAGUAIABmAHUAbgBjAHQAaQBvAG4AIAAqAC8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAMgAgACoAIABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAgAC8AIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAgAC0AIAAxACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEkAbgBzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAvACAAKAAtADMALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACkAKQAgACsAIAAoADQALgA4ADUAIAAvACAAMwAuADgANQApACAAIAAvACoAIABPAHUAdABzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEgAYQBuAGQAbABlACAAaQBuAHYAYQBsAGkAZAAvAHYAYQBsAGkAZAAgAGMAYQBzAGUAcwAgACoALwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAXwBpAG4AZABlAHgAIAA8AD0AIAAwACwAIABcACIAVQAvAEkAXAAiACwAIABSAE8AVQBOAEQAKABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4AKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AIAA9ACAATABBAE0AQgBEAEEAKABbAGEAbgBjAGgAbwByAF8AYwBsAGEAcwBzAF0ALAAgAFsAYQBuAGMAaABvAHIAXwBjAG8AdQBuAHQAXQAsACAAWwBkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEQAZQBmAGEAdQBsAHQAIABwAGEAcgBhAG0AZQB0AGUAcgBzACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwApACwAIABcACIAJABcACIALAAgAFUAUABQAEUAUgAoAGEAbgBjAGgAbwByAF8AYwBsAGEAcwBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBjAG8AdQBuAHQALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAYQBuAGMAaABvAHIAXwBjAG8AdQBuAHQAKQAsACAAMQAsACAAYQBuAGMAaABvAHIAXwBjAG8AdQBuAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGQAZQBjAGkAbQBhAGwAXwBwAGwAYQBjAGUAcwApACwAIAAzACwAIABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAAUwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzACAAYQByAHIAYQB5ACAAYQBuAGQAIABiAGEAcwBlACAAZgByAGUAcQB1AGUAbgBjAGkAZQBzACAAKABlAG0AcABpAHIAaQBjAGEAbAApACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIABhAHIAcgBfAGMAbABhAHMAcwBlAHMALAAgAHsAXAAiAE8AXAAiADsAIABcACIAQgBcACIAOwAgAFwAIgBBAFwAIgA7ACAAXAAiAEYAXAAiADsAIABcACIARwBcACIAOwAgAFwAIgBLAFwAIgA7ACAAXAAiAE0AXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGEAcgByAF8AYgBhAHMAZQBfAHAAYwB0ACwAIAB7ADAALgAwADAAMAAwADMAOwAgADAALgAxADMAOwAgADAALgA2ADsAIAAzAC4AMAA7ACAANwAuADYAOwAgADEAMgAuADEAOwAgADcANgAuADIANwB9ACwAXABuACAAIAAgACAAIAAgACAAIABhAHIAcgBfAGIAYQBzAGUAXwBmAHIAYQBjACwAIABCAFkAUgBPAFcAKABhAHIAcgBfAGIAYQBzAGUAXwBwAGMAdAAsACAATABBAE0AQgBEAEEAKAB4ACwAIAB4ACAALwAgADEAMAAwACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAATABvAG8AawB1AHAAIABzAGMAYQBsAGkAbgBnACAAZgBhAGMAdABvAHIAIABmAG8AcgAgAGEAIABzAHAAZQBjAGkAZgBpAGMAIABhAG4AYwBoAG8AcgAgAHQAeQBwAGUAXABuACAAIAAgACAAIAAgACAAIABhAG4AYwBoAG8AcgBfAGYAcgBlAHEALAAgAFgATABPAE8ASwBVAFAAKABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwAsACAAYQByAHIAXwBjAGwAYQBzAHMAZQBzACwAIABhAHIAcgBfAGIAYQBzAGUAXwBmAHIAYQBjACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAYwBhAGwAaQBuAGcAXwBmAGEAYwB0AG8AcgAsACAAYQBuAGMAaABvAHIAXwBjAG8AdQBuAHQAIAAvACAAYQBuAGMAaABvAHIAXwBmAHIAZQBxACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABTAGMAYQBsAGUAZAAgAGQAaQBzAHQAcgBpAGIAdQB0AGkAbwBuACAAFCAgAG4AbwByAG0AYQBsAGkAegBlACAAbwByACAAYQBwAHAAbAB5ACAAdQBzAGUAcgAtAGQAZQBmAGkAbgBlAGQAIABzAGMAYQBsAGUAXABuACAAIAAgACAAIAAgACAAIABzAGMAYQBsAGUAZAAsACAASQBGACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMAIAA9ACAAXAAiACQAXAAiACwAIABhAHIAcgBfAGIAYQBzAGUAXwBmAHIAYQBjACwAIABCAFkAUgBPAFcAKABhAHIAcgBfAGIAYQBzAGUAXwBmAHIAYQBjACwAIABMAEEATQBCAEQAQQAoAHgALAAgAHgAIAAqACAAcwBjAGEAbABpAG4AZwBfAGYAYQBjAHQAbwByACkAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABGAGkAbgBhAGwAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABIAFMAVABBAEMASwAoAGEAcgByAF8AYwBsAGEAcwBzAGUAcwAsACAAUgBPAFUATgBEACgAcwBjAGEAbABlAGQALAAgAGQAZQBjAGkAbQBhAGwAXwBwAGwAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AIAA9ACAATABBAE0AQgBEAEEAKAB0AG8AdABhAGwALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAAzACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAewBcACIAVABvAHQAYQBsAFwAIgA7ACAAXAAiAE8AXAAiADsAIABcACIAQgBcACIAOwAgAFwAIgBBAFwAIgA7ACAAXAAiAEYAXAAiADsAIABcACIARwBcACIAOwAgAFwAIgBLAFwAIgA7ACAAXAAiAE0AXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHQAYQBiAGwAZQAsACAAewAzADAAMAAwADAAMAAwADsAIAA4ADAAMAA7ACAAMQA2ADAAOwAgADMAMwA7ACAAMQAzADsAIAA4ADsAIAAxAC4AMwAxADUAMwAxADYAMAAzADAAMQAwADgANwA0AH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGYAYQBjAHQAbwByAHMALAAgAEIAWQBSAE8AVwAoAHQAYQBiAGwAZQAsACAATABBAE0AQgBEAEEAKAB4ACwAMQAvAHgAKQApACwAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbAB1AGUAcwAsACAAYgB5AHIAbwB3ACgAZgBhAGMAdABvAHIAcwAsAGwAYQBtAGIAZABhACgAeAAsAHIAbwB1AG4AZAAoAHgAKgB0AG8AdABhAGwALABwAHIAZQBjAGkAcwBpAG8AbgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAcwAsACAAdgBzAHQAYQBjAGsAKAB0AG8AdABhAGwALAAgAHYAYQBsAHUAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEMASABPAE8AUwBFACgAewAxACwAIAAyAH0ALAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAByAGUAcwB1AGwAdABzACkAXABuACAAIAAgACAAIAAgACAAIAAvACoAdAB5AHAAZQAmAFwAIgAgAFwAIgAmAGMAbwB1AG4AdAAqAC8AXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABTAFQAQQBSAF8AUwBDAEEATABFAF8AVABFAE0AUABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABzAHQAYQByACAAYQB0AHQAcgBpAGIAdQB0AGUAcwAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIABmAHIAbwBtACAAcwBvAGwAYQByACAAdABlAG0AcABcAG4AKgAvAFwAbgBTAFQAQQBSAF8AUwBDAEEATABFAF8AVABFAE0AUAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQBtAHAALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AF8AdABlAG0AcAAsACAAXAAiAFQALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAxAC4AOAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADcALgA1ADcANwA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAAMgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAALQA1ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABfAHQAZQBtAHAALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIAXwBTAEMAQQBMAEUAXwBLAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABrAGUAbAB2AGkAbgAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwB0AGUAbQBwACwAIABcACIASwAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAawBlAGwAdgBpAG4ALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAALAAgAGsAZQBsAHYAaQBuACAALwAgADUAOAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADEALgA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAANwAuADUANwA3ADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAtADUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAXwB0AGUAbQBwACwAIABzAG8AbABhAHIALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIAXwBDAEwAQQBTAFMAXwBTAFQAQQBUAFMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAG4AcAB1AHQALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABpAG4ALAAgAFwAIgAgAFwAIgAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMALAAgAEwARQBGAFQAKABpAG4AcAB1AHQALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGIALAAgAFIASQBHAEgAVAAoAGkAbgBwAHUAdAAsACAATABFAE4AKABpAG4AcAB1AHQAKQAgAC0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAaAByAGUAcwBoAG8AbABkAHMALAAgAHsANQA1ADAAMAAwACwAIAAyADUAMAAwADAALAAgADEAMAAwADAAMAAsACAANwA1ADAAMAAsACAANgAwADAAMAAsACAANQAwADAAMAAsACAAMwA1ADAAMAAsACAAMgA0ADAAMAAsACAAMQAzADAAMAAsACAANgAwADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiACwAIABcACIATABcACIALAAgAFwAIgBUAFwAIgAsACAAXAAiAFkAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbABzACwAIAB7ADMAMAAwADAALAAgADEANQAwADAALAAgADIANQAwACwAIAAxADUAMAAsACAAMQAwADAALAAgADEANQAwACwAIAAxADEAMAAsACAAMQAxADAALAAgADcAMAAsACAAMwAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQB4AF8AdABlAG0AcAAsACAAWABMAE8ATwBLAFUAUAAoAGMAbABhAHMAcwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHQAaAByAGUAcwBoAG8AbABkAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAGYAYQBjAHQAbwByACwAIABYAEwATwBPAEsAVQBQACgAYwBsAGEAcwBzACwAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAcQBfAHYAYQBsAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBfAHQAZQBtAHAALAAgAG0AYQB4AF8AdABlAG0AcAAgAC0AIAAoAHMAdQBiACAAKgAgAHEAXwBmAGEAYwB0AG8AcgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwACwAIABrAF8AdABlAG0AcAAgAC8AIAA1ADgAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABrAF8AdABlAG0AcAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBvAGwAYQByACwAIABcACIAVAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABcACIAUgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAAMQAuADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFwAIgBMADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAA3AC4ANQA3ADcAOAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADIALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgAC0ANQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAXAAiAC0APgAgAFwAIgAgACYAIABpAG4AcAB1AHQALAAgAGsAZQBsAHYAaQBuACwAIABzAG8AbABhAHIALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFQAQQBSAF8ATQBBAFMAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAF8AbQBhAHMAcwAsACAAXAAiAE0ALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAG0AYQBzAHMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbQBhAHMAcwApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAG8AbABhAHIALAAgAFMAUQBSAFQAKABtAGEAcwBzACkAIAAqACAANQA4ADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAcwBvAGwAYQByACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABtAGEAcwBzACAAXgAgADAALgA5ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAG0AYQBzAHMAIABeACAAMwAuADcAOAA4ADkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbQBhAHMAcwApACAAXgAgAC0ANQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAawBlAGwAdgBpAG4ALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAcwBfAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFQAQQBSAF8AUgBBAEQAUwAgAD0AIABMAEEATQBCAEQAQQAoAHIAYQBkAGkAdQBzACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBvAGwAYQByACwAIABcACIAUgAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAcgBhAGQAaQB1AHMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAgAF4AIAAoADEAIAAvACAAMQAuADgAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAKAByAGEAZABpAHUAcwAgAF4AIAAoADEAIAAvACAAMQAuADgAKQApACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFwAIgBMADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAcgBhAGQAaQB1AHMAIABeACAANAAuADIAMgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAgAF4AIAAxAC4AMQAxADQAMgA3ADAAMAAxADcANwA3ADcANwA4ADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAgAF4AIAAoADEAIAAvACAALQAwAC4AMwA2ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAZQBsAHYAaQBuACwAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHMAbwBsAGEAcgAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AUwBUAEEAUgBfAEwAVQBNAFMAIAA9ACAATABBAE0AQgBEAEEAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABcACIAVAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADcALgA2ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANwAuADUANwA3ADgAKQApACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAXwBsAHUAbQAsACAAXAAiAEwALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABcACIAUgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADQALgAyADIAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAAzAC4ANwA4ADgAOQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAALQAxAC4ANQAyACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAZQBsAHYAaQBuACwAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABzAF8AbAB1AG0ALAAgAGwAaQBmAGUAdABpAG0AZQApACwAXABuACAAIAAgACAAIAAgACAAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAaQBzAHQALAAgAFwAIgB8AFwAIgApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUwBUAEEAUgBMAFUATQBTACAAPQAgAEwAQQBNAEIARABBACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBiAGUAbABzACwAIABUAFIAQQBOAFMAUABPAFMARQAoAHsAXAAiAEsAOgBcACIALAAgAFwAIgBUADoAXAAiACwAIABcACIATQA6AFwAIgAsACAAXAAiAFIAOgBcACIALAAgAFwAIgBMAH0AXAAiACwAIABcACIAVgA6AFwAIgB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADcALgA1ADcANwA4ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAEsALAAgAFIATwBVAE4ARAAoACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANwAuADUANwA3ADgAKQApACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAEwALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADQALgAyADIAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAAMwAuADcAOAA4ADkAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVgAsACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAALQAxAC4ANQAyACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAdAB0AHIAaQBiAHMALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgAsAFwAIgAsACAALAAgAEsALAAgAFQALAAgAE0ALAAgAFIALAAgAEwALAAgAFYAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFQAUgBBAE4AUwBQAE8AUwBFACgAVABFAFgAVABTAFAATABJAFQAKABhAHQAdAByAGkAYgBzACwAIABcACIALABcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABsAGEAYgBlAGwAcwAsACAAdgBhAGwAdQBlAHMAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AUwBUAEEAUgBfAEwASQBGAEUAIAA9ACAATABBAE0AQgBEAEEAKABsAGkAZgBlAHQAaQBtAGUALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAG8AbABhAHIALAAgAFwAIgBWAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUAIABeACAAKAAxACAALwAgAC0ANQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAoAGwAaQBmAGUAdABpAG0AZQAgAF4AIAAoADEAIAAvACAALQA1ACkAKQAgACoAIAA1ADgAMAAwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUAIABeACAAKAAtADAALgAzADYAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUAIABeACAAKAAxACAALwAgAC0AMgAuADUAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUAIABeACAALQAxAC4ANQAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAcwBvAGwAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACAAPQAgAEwAQQBNAEIARABBACgAdABlAG0AcAAsACAAWwBtAG8AZABlAF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAALAAgAGkAZgBzACgAdABlAG0AcAA8ADYAMAAwACwANgAwADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAbQBwAD4ANQA1ADAAMAAwACwANQA1ADAAMAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAdABlAG0AcAApACwAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwAsACAASQBGACgATwBSACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjACkALAAgAHAAcgBlAGMAIAA8ACAAMAApACwAIAAzACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAaAByAGUAcwBoAG8AbABkAHMALAAgAHsANQA1ADAAMAAwACwAIAAyADUAMAAwADAALAAgADEAMAAwADAAMAAsACAANwA1ADAAMAAsACAANgAwADAAMAAsACAANQAwADAAMAAsACAAMwA1ADAAMAAsACAAMgA0ADAAMAAsACAAMQAzADAAMAAsACAANgAwADAALAAgADMAMAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB7AFwAIgBPAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQQBcACIALAAgAFwAIgBGAFwAIgAsACAAXAAiAEcAXAAiACwAIABcACIASwBcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAEwAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBZAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwAcwAsACAAewAzADAAMAAwACwAIAAxADUAMAAwACwAIAAyADUAMAAsACAAMQA1ADAALAAgADEAMAAwACwAIAAxADUAMAAsACAAMQAxADAALAAgADEAMQAwACwAIAA3ADAALAAgADMAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABpAG4AZABlAHgALAAgAE0AQQBUAEMASAAoAFQAUgBVAEUALAAgAHQAZQBtAHAAIAA+ACAAdABoAHIAZQBzAGgAbwBsAGQAcwAsACAAMAApACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgAHMAXwB0AHkAcABlACwAIABJAE4ARABFAFgAKABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAaQBuAGQAZQB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwBtAGEAeAAsACAASQBOAEQARQBYACgAdABoAHIAZQBzAGgAbwBsAGQAcwAsACAAaQBuAGQAZQB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbAAsACAASQBOAEQARQBYACgAcQBfAHYAYQBsAHMALAAgAGkAbgBkAGUAeAApACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAXwBuAHUAbQAsACAAKABrAF8AbQBhAHgAIAAtACAAdABlAG0AcAApACAALwAgAHEAXwB2AGEAbAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBfAGMAbABhAHMAcwAsACAASQBGACgAYwBsAGEAcwBzAF8AbgB1AG0AIAA9ACAAMQAwACwAIAA5AC4AOQA5ADkALAAgAGMAbABhAHMAcwBfAG4AdQBtACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABTAFcASQBUAEMASAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsACAAcwBfAHQAeQBwAGUAIAAmACAAXAAiACAAXAAiACAAJgAgAEYASQBYAEUARAAoAHMAXwBjAGwAYQBzAHMALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACwAIAB0AGUAbQBwACAAJgAgAFwAIgAgAD0AIABcACIAIAAmACAAcwBfAHQAeQBwAGUAIAAmACAARgBJAFgARQBEACgAcwBfAGMAbABhAHMAcwAsACAAcAByAGUAYwApACwAIAApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBUAEUATQBQAF8ARgBSAE8ATQBfAFQAWQBQAEUAIAA9ACAATABBAE0AQgBEAEEAKABpAG4ALAAgAFsAbQBvAGQAZQBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALAAgAEkARgAoAE8AUgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBvAGQAZQApACwAIABtAG8AZABlACAAPgAgADEAKQAsACAAMAAsACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAIAAgACAAIABpAG4AcAB1AHQALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABpAG4ALAAgAFwAIgAgAFwAIgAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMALAAgAEwARQBGAFQAKABpAG4AcAB1AHQALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGIALAAgAFIASQBHAEgAVAAoAGkAbgBwAHUAdAAsACAATABFAE4AKABpAG4AcAB1AHQAKQAgAC0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAaAByAGUAcwBoAG8AbABkAHMALAAgAHsANQA1ADAAMAAwACwAIAAyADUAMAAwADAALAAgADEAMAAwADAAMAAsACAANwA1ADAAMAAsACAANgAwADAAMAAsACAANQAwADAAMAAsACAAMwA1ADAAMAAsACAAMgA0ADAAMAAsACAAMQAzADAAMAAsACAANgAwADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiACwAIABcACIATABcACIALAAgAFwAIgBUAFwAIgAsACAAXAAiAFkAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbABzACwAIAB7ADMAMAAwADAALAAgADEANQAwADAALAAgADIANQAwACwAIAAxADUAMAAsACAAMQAwADAALAAgADEANQAwACwAIAAxADEAMAAsACAAMQAxADAALAAgADcAMAAsACAAMwAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQB4AF8AdABlAG0AcAAsACAAWABMAE8ATwBLAFUAUAAoAGMAbABhAHMAcwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHQAaAByAGUAcwBoAG8AbABkAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAGYAYQBjAHQAbwByACwAIABYAEwATwBPAEsAVQBQACgAYwBsAGEAcwBzACwAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAcQBfAHYAYQBsAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBfAHQAZQBtAHAALAAgAG0AYQB4AF8AdABlAG0AcAAgAC0AIAAoAHMAdQBiACAAKgAgAHEAXwBmAGEAYwB0AG8AcgApACwAXABuACAAIAAgACAAIAAgACAAIABTAFcASQBUAEMASAAoAG0AbwBkAGUALAAgADAALAAgAGsAXwB0AGUAbQBwACwAIAAxACwAIABpAG4AcAB1AHQAIAAmACAAXAAiACAAPQAgAFwAIgAgACYAIABrAF8AdABlAG0AcAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAUABFAEMAVABSAEEATABfAEMATABBAFMAUwBfAEQAQQBUAEEAIAA9ACAATABBAE0AQgBEAEEAKABbAG4AdQBsAGwAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABoAGUAYQBkAGUAcgBzACwAIAB7AFwAIgBUAHkAcABlAFwAIgA7ACAAXAAiAE0AaQBuAFwAIgA7ACAAXAAiAE0AYQB4AFwAIgA7ACAAXAAiAFMAcABhAG4AXAAiADsAIABcACIAcQBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAdAB5AHAAZQBzACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADEAKQAsACAAewBcACIATwBcACIAOwAgAFwAIgBCAFwAIgA7ACAAXAAiAEEAXAAiADsAIABcACIARgBcACIAOwAgAFwAIgBHAFwAIgA7ACAAXAAiAEsAXAAiADsAIABcACIATQBcACIAOwAgAFwAIgBMAFwAIgA7ACAAXAAiAFQAXAAiADsAIABcACIAWQBcACIAfQApACwAXABuACAAIAAgACAAIAAgACAAIABtAGkAbgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAyACkALAAgAHsAMgA1ADAAMAAwADsAIAAxADAAMAAwADAAOwAgADcANQAwADAAOwAgADYAMAAwADAAOwAgADUAMAAwADAAOwAgADMANQAwADAAOwAgADIANAAwADAAOwAgADEAMwAwADAAOwAgADYAMAAwADsAIAAzADAAMAB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQB4ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADMAKQAsACAAewA1ADUAMAAwADAAOwAgADIANQAwADAAMAA7ACAAMQAwADAAMAAwADsAIAA3ADUAMAAwADsAIAA2ADAAMAAwADsAIAA1ADAAMAAwADsAIAAzADUAMAAwADsAIAAyADQAMAAwADsAIAAxADMAMAAwADsAIAA2ADAAMAB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbABzACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADUAKQAsACAAewAzADAAMAAwADsAIAAxADUAMAAwADsAIAAyADUAMAA7ACAAMQA1ADAAOwAgADEAMAAwADsAIAAxADUAMAA7ACAAMQAxADAAOwAgADEAMQAwADsAIAA3ADAAOwAgADMAMAB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBuAGcAZQBzACwAIAB7ADMAMAAwADAAMAA7ACAAMQA1ADAAMAAwADsAIAAyADUAMAAwADsAIAAxADUAMAAwADsAIAAxADAAMAAwADsAIAAxADUAMAAwADsAIAAxADEAMAAwADsAIAAxADEAMAAwADsAIAA3ADAAMAA7ACAAMwAwADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBwAGEAbgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAA0ACkALAAgAHIAYQBuAGcAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEMASABPAE8AUwBFACgAewAxACwAIAAyACwAIAAzACwAIAA0ACwAIAA1AH0ALAAgAHQAeQBwAGUAcwAsACAAbQBpAG4ALAAgAG0AYQB4ACwAIABzAHAAYQBuACwAIABxAF8AdgBhAGwAcwApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAUABFAEMAXwBMAEkAUwBUACAAPQAgAEwAQQBNAEIARABBACgAWwBuAHUAbABsAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBPADoAIAAyADUAMAAwADAAIAAtACAANQA1ADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAQgA6ACAAMQAwADAAMAAwACAALQAgADIANQAwADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEEAOgAgADcANQAwADAAIAAtACAAMQAwADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARgA6ACAANgAwADAAMAAgAC0AIAA3ADUAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARwA6ACAANQAwADAAMAAgAC0AIAA2ADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASwA6ACAAMwA1ADAAMAAgAC0AIAA1ADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQA6ACAAMgA0ADAAMAAgAC0AIAAzADUAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATAA6ACAAMQAzADAAMAAgAC0AIAAyADQAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVAA6ACAANgAwADAAIAAtACAAMQAzADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFkAOgAgADMAMAAwACAALQAgADYAMAAwAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTAF8AVABBAEIATABFACAAPQAgAEwAQQBNAEIARABBACgAWwBuAHUAbABsAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMALAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgAGgAZQBhAGQAZQByAHMALAAgAHsAXAAiAFoAbwBuAGUAXAAiADsAIABcACIASQBuAG4AZQByAFwAIgA7ACAAXAAiAE8AdQB0AGUAcgBcACIAOwAgAFwAIgBBAHYAZQByAGEAZwBlAFwAIgA7ACAAXAAiAFMAcABhAG4AXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBiAGUAbABzACwAIAB7AFwAIgBaADAAIAAoAEkAZwBuAGkAbwAtACkAXAAiADsAIABcACIAWgAxACAAKABDAGEAbABvAHIAbwAtACkAXAAiADsAIABcACIAWgAyACAAKABIAGUAbABpAG8ALQApAFwAIgA7ACAAXAAiAFoAMwAgACgAUwBvAGwAYQByAGEALQApAFwAIgA7ACAAXAAiAFoANAAgACgAUwB1AHIAeQBhAC0AKQBcACIAOwAgAFwAIgBaADUAIAAoAEYAcgBpAG8ALQApAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABpAG4AbgBlAHIALAAgAHsAMAA7ACAAMAAuADUAOwAgADAALgA3ADUAOwAgADAALgA5ADUAOwAgADEALgAzADgANQA7ACAAMQAuADcANwB9ACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABlAHIALAAgAHsAMAAuADUAOwAgADAALgA3ADUAOwAgADAALgA5ADUAOwAgADEALgAzADgANQA7ACAAMQAuADcANwA7ACAANAAuADgANQB9ACwAXABuACAAIAAgACAAIAAgACAAIABhAHYAZQByAGEAZwBlACwAIAB7ADAALgAyADUAOwAgADAALgA2ADIANQA7ACAAMAAuADgANQA7ACAAMQAuADEANgA3ADUAOwAgADEALgA1ADcANwA1ADsAIAAzAC4AMwAxAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHMAcABhAG4ALAAgAHsAMAAuADUAOwAgADAALgAyADUAOwAgADAALgAyADsAIAAwAC4ANAAzADUAOwAgADAALgAzADgANQA7ACAAMwAuADAAOAB9ACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABfADEALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMQApACwAIABsAGEAYgBlAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABfADIALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMgApACwAIABSAE8AVQBOAEQAKABpAG4AbgBlAHIALAAgAGQAZQBjACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAXwAzACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADMAKQAsACAAUgBPAFUATgBEACgAbwB1AHQAZQByACwAIABkAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwBsAF8ANAAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAA0ACkALAAgAFIATwBVAE4ARAAoAGEAdgBlAHIAYQBnAGUALAAgAGQAZQBjACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAXwA1ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADUAKQAsACAAUgBPAFUATgBEACgAcwBwAGEAbgAsACAAZABlAGMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgAsACAAMwAsACAANAAsACAANQB9ACwAIABjAG8AbABfADEALAAgAGMAbwBsAF8AMgAsACAAYwBvAGwAXwAzACwAIABjAG8AbABfADQALAAgAGMAbwBsAF8ANQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEgAQQBCAFoATwBOAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGwAdQBtACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbAAsACAAUgBPAFUATgBEACgAUwBRAFIAVAAoAGwAdQBtACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAE4ALAAgAFwAIgBOAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbAB1AG0AKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAwACwAIABcACIAMAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADAALgA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMQAsACAAXAAiADEAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAwAC4ANwA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMgAsACAAXAAiADIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAwAC4AOQA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMwAsACAAXAAiADMAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAxAC4AMwA4ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQA0ACwAIABcACIANAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADEALgA3ADcAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQA1ACwAIABcACIANQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADQALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAWgBvAG4AZQAwACwAIABaAG8AbgBlADEALAAgAFoAbwBuAGUAMgAsACAATgAsACAAWgBvAG4AZQAzACwAIABaAG8AbgBlADQALAAgAFoAbwBuAGUANQApACwAXABuACAAIAAgACAAIAAgACAAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAaQBzAHQALAAgAFwAIgB8AFwAIgApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ASABBAEIAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABsAHUAbQAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBiAGUAbABzACwAIAB7AFwAIgAwADoAIABcACIALAAgAFwAIgAxADoAIABcACIALAAgAFwAIgAyADoAIABcACIALAAgAFwAIgBOAC0APgAgAFwAIgAsACAAXAAiADMAOgAgAFwAIgAsACAAXAAiADQAOgAgAFwAIgAsACAAXAAiADUAOgAgAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAAzACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABuAHUAYwBsAGUAYQBsACwAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbAB1AG0AKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADAALAAgAFIATwBVAE4ARAAoADAALgA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwAxACwAIABSAE8AVQBOAEQAKAAwAC4ANwA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwAyACwAIABSAE8AVQBOAEQAKAAwAC4AOQA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwBOACwAIABuAHUAYwBsAGUAYQBsACwAXABuACAAIAAgACAAIAAgACAAIABaAF8AMwAsACAAUgBPAFUATgBEACgAMQAuADMAOAA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwA0ACwAIABSAE8AVQBOAEQAKAAxAC4ANwA3ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwA1ACwAIABSAE8AVQBOAEQAKAA0AC4AOAA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMAAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAAMQApACwAIABaAF8AMAApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADEALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADIAKQAsACAAWgBfADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAyACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAAzACkALAAgAFoAXwAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUATgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAANAApACwAIABaAF8ATgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADMALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADUAKQAsACAAWgBfADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQA0ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAA2ACkALAAgAFoAXwA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUANQAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAANwApACwAIABaAF8ANQApACwAXABuACAAIAAgACAAIAAgACAAIABUAFIAQQBOAFMAUABPAFMARQAoAEMASABPAE8AUwBFACgAewAxACwAIAAyACwAIAAzACwAIAA0ACwAIAA1ACwAIAA2ACwAIAA3AH0ALAAgAFoAbwBuAGUAMAAsACAAWgBvAG4AZQAxACwAIABaAG8AbgBlADIALAAgAFoAbwBuAGUATgAsACAAWgBvAG4AZQAzACwAIABaAG8AbgBlADQALAAgAFoAbwBuAGUANQApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUwBUAEEAUgBTAF8AUABFAFIAXwBDAFUAQgBJAEMAXwBWAE8ATAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBwAHIAZQBjAF0ALAAgAFsAbQBvAGQAZQBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAG0AbwBkAGUAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPAAwACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA+ADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAcAByAGUAYwAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAcAByAGUAYwApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAcAByAGUAYwA8ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwApACwAXABuACAAIAAgACAAdgBvAGwAdQBtAGUALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAAaQBuAHAAdQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIAAoADQALwAzACkAKgBwAGkAKAApACoAaQBuAHAAdQB0AF4AMwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAByAGEAZABpAHUAcwAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIAByAG8AdQBuAGQAKABwAG8AdwBlAHIAKAAoAHYAbwBsAHUAbQBlACoAMwApAC8AKAA0ACoAcABpACgAKQApACwAMQAvADMAKQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABpAG4AcAB1AHQAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAcwB0AGEAcgBzACwAIAByAG8AdQBuAGQAKAB2AG8AbAB1AG0AZQAvADIANQAwACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIAB0AG8AYwBvAGwAKAB0AGUAeAB0AHMAcABsAGkAdAAoAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7ACAAXAAiACwALAAgAHMAdABhAHIAcwAsACAAcgBhAGQAaQB1AHMAKQAsAFwAIgA7ACAAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAdABvAGMAbwBsACgAdABlAHgAdABzAHAAbABpAHQAKAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwAgAFwAIgAsACwAIAByAG8AdQBuAGQAKABzAHQAYQByAHMALAAwACkALAAgAHIAbwB1AG4AZAAoAHYAbwBsAHUAbQBlACwAMAApACkALABcACIAOwAgAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAEMAVQBCAEkAQwBfAFYATwBMAFUATQBFAF8AUABFAFIAXwBTAFQAQQBSAFMAIAA9ACAATABBAE0AQgBEAEEAKABzAHQAYQByAHMALAAgAFsAcAByAGUAYwBdACwAIABbAG0AbwBkAGUAXQAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABtAG8AZABlACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlADwAMAApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPgAyACkALABcAG4AIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAHAAcgBlAGMAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAHAAcgBlAGMAPAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHYAbwBsAHUAbQBlACwAIAByAG8AdQBuAGQAKABzAHQAYQByAHMAKgAyADUAMAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAcwBpAGQAZQAsACAAcgBvAHUAbgBkACgAcABvAHcAZQByACgAdgBvAGwAdQBtAGUALAAxAC8AMwApACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAByAGEAZABpAHUAcwAsACAAcgBvAHUAbgBkACgAcABvAHcAZQByACgAKAB2AG8AbAB1AG0AZQAqADMAKQAvACgANAAqAHAAaQAoACkAKQAsADEALwAzACkALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAHYAbwBsAHUAbQBlACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIAB0AG8AYwBvAGwAKAB0AGUAeAB0AHMAcABsAGkAdAAoAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7ACAAXAAiACwALAAgAHYAbwBsAHUAbQBlACwAIABzAGkAZABlACkALABcACIAOwAgAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgADIALAAgAHQAbwBjAG8AbAAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAdABlAHgAdABqAG8AaQBuACgAXAAiADsAIABcACIALAAsACAAdgBvAGwAdQBtAGUALAAgAHMAaQBkAGUALAAgAHIAYQBkAGkAdQBzACkALABcACIAOwAgAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUABMAEEATgBFAFQAXwBBAFMAVABSAE8ATQBFAFQAUgBJAEMAUwAgAD0AIABMAEEATQBCAEQAQQAoAGYAaQByAHMAdAAsACAAcwBlAGMAbwBuAGQALAAgAFsAbQBvAGQAZQBdACwAIABbAHAAcgBlAGMAXQAsAFwAbgBcAG4ALwAqACAATQBPAEQARQBTAFwAbgBcAG4AIAAgACAAIAAwADoAIABtACwAIABkAFwAbgAgACAAIAAgADEAOgAgAG0ALAAgAHIAXABuACAAIAAgACAAMgA6ACAAbQAsACAAZwBcAG4AIAAgACAAIAAzADoAIAByACwAIABkAFwAbgAgACAAIAAgADQAOgAgAHIALAAgAGcAXABuACAAIAAgACAANQA6ACAAZAAsACAAZwBcAG4AIAAgACAAIAA2ADoAIABkACwAIAB2AFwAbgAgACAAIAAgADcAOgAgAGcALAAgAHYAXABuACAAIAAgACAAOAA6ACAAbQAsACAAdgBcAG4AIAAgACAAIAA5ADoAIAByACwAIAB2AFwAbgBcAG4AKgAvAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAHAAcgBlAGMAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAHAAcgBlAGMAPAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbQBvAGQAZQAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAbQBvAGQAZQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPAAwACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA+ADkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlAFwAbgAgACAAIAAgACAAIAAgACAAKQAsACAAXABuACAAIAAgACAAbABhAGIAZQBsAHMALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsACAAXABuACAAIAAgACAAIAAgACAAIAAwACwAIABcACIATQA+ADsAUgA6ADsAZAA+ADsAZwA6ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAXAAiAE0APgA7AFIAPgA7AGQAOgA7AGcAOgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIALAAgAFwAIgBNAD4AOwBSADoAOwBkADoAOwBnAD4AOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAIABcACIATQA6ADsAUgA+ADsAZAA+ADsAZwA6ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANAAsACAAXAAiAE0AOgA7AFIAPgA7AGQAOgA7AGcAPgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADUALAAgAFwAIgBNADoAOwBSADoAOwBkAD4AOwBnAD4AOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA2ACwAIABcACIATQA6ADsAUgA6ADsAZAA+ADsAZwA6ADsAdgA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANwAsACAAXAAiAE0AOgA7AFIAOgA7AGQAOgA7AGcAPgA7AHYAPgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADgALAAgAFwAIgBNAD4AOwBSADoAOwBkADoAOwBnADoAOwB2AD4AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA5ACwAIABcACIATQA6ADsAUgA+ADsAZAA6ADsAZwA6ADsAdgA+AFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAHAAbwB3AGUAcgAoAG0AYQBzAHMALwBkAGUAbgBzAGkAdAB5ACwAMwBeAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAHAAbwB3AGUAcgAoAG0AYQBzAHMAKgBkAGUAbgBzAGkAdAB5AF4AMgAsADMAXgAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcABvAHcAZQByACgAbQBhAHMAcwAqAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALAAzAF4ALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABtAGEAcwBzAC8AcgBhAGQAaQB1AHMAXgAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAG0AYQBzAHMALwByAGEAZABpAHUAcwBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAcQByAHQAKABtAGEAcwBzAC8AcgBhAGQAaQB1AHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAyACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAHMAcQByAHQAKABtAGEAcwBzAC8AZwByAGEAdgBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAHMAcQByAHQAKABnAHIAYQB2AGkAdAB5AF4AMwAvAG0AYQBzAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcABvAHcAZQByACgAbQBhAHMAcwAqAGcAcgBhAHYAaQB0AHkALAA0AF4ALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIAByAGEAZABpAHUAcwAqAGQAZQBuAHMAaQB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZABlAG4AcwBpAHQAeQAqAHIAYQBkAGkAdQBzAF4AMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcgBhAGQAaQB1AHMAKgBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADQALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAvAHIAYQBkAGkAdQBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGcAcgBhAHYAaQB0AHkAKgByAGEAZABpAHUAcwBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAcQByAHQAKABnAHIAYQB2AGkAdAB5ACoAcgBhAGQAaQB1AHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA1ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGcAcgBhAHYAaQB0AHkALwBkAGUAbgBzAGkAdAB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGcAcgBhAHYAaQB0AHkAXgAzAC8AZABlAG4AcwBpAHQAeQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAGcAcgBhAHYAaQB0AHkALwBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZQBzAGMAYQBwAGUAXgAzAC8AcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZQBzAGMAYQBwAGUALwBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACoAcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGUAcwBjAGEAcABlAF4ANAAvAGcAcgBhAHYAaQB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGUAcwBjAGEAcABlAF4AMgAvAGcAcgBhAHYAaQB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAKABnAHIAYQB2AGkAdAB5AC8AZQBzAGMAYQBwAGUAKQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQBeADQALwBtAGEAcwBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABtAGEAcwBzAC8AZQBzAGMAYQBwAGUAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAGUAcwBjAGEAcABlAF4ANgAvAG0AYQBzAHMAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlAF4AMgAvAHIAYQBkAGkAdQBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACoAZQBzAGMAYQBwAGUAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgACgAZQBzAGMAYQBwAGUALwByAGEAZABpAHUAcwApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABsAGEAYgBlAGwAXwBsAGkAcwB0ACwAIAB0AHIAYQBuAHMAcABvAHMAZQAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAbABhAGIAZQBsAHMALABcACIAOwBcACIAKQApACwAXABuACAAIAAgACAAdgBhAGwAdQBlAF8AbABpAHMAdAAsACAAdAByAGEAbgBzAHAAbwBzAGUAKAB0AGUAeAB0AHMAcABsAGkAdAAoAG8AdQB0AHAAdQB0ACwAIABcACIAOwBcACIAKQApACwAXABuACAAIAAgACAALwAvAHYAYQBsAHUAZQBfAGwAaQBzAHQAXABuACAAIAAgACAAYwBoAG8AbwBzAGUAKAB7ADEALAAyAH0ALAAgAGwAYQBiAGUAbABfAGwAaQBzAHQALAAgAHIAbwB1AG4AZAAoAHYAYQBsAHUAZQAoAHYAYQBsAHUAZQBfAGwAaQBzAHQAKQAsAHAAcgBlAGMAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFkATgBPAEQASQBDACAAPQAgAEwAQQBNAEIARABBACgAcAAsACAAcQAsAFwAbgBcAG4AIAAgACAAIAAoAHAAIAAqACAAcQApACAALwAgAEEAQgBTACgAcAAgAC0AIABxACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuAFMATQBBAEwATABBAE4ARwBMAEUAIAA9ACAATABBAE0AQgBEAEEAKABkAGkAYQBtAGUAdABlAHIALAAgAGQAaQBzAHQAYQBuAGMAZQAsAFwAbgBcAG4AIAAgACAAIAAwAC4ANQAzADIAOQAwADQAMgA5ADQAIAAqACAAKABkAGkAYQBtAGUAdABlAHIAIAAvACAAZABpAHMAdABhAG4AYwBlACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuAE8AUgBCAF8AQQBYAEkAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABwAGUAcgBpAG8AZAAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAGEAcwBzADIALAAgAEkARgAoACgASQBTAE8ATQBJAFQAVABFAEQAKABtAGEAcwBzADIAKQApACsAKABtAGEAcwBzADIAIAA9ACAAMQApACwAIAAwACwAIABtAGEAcwBzADIAKgAzAC4AMAAwADMARQAtADYAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMALAAgAFAATwBXAEUAUgAoACgAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQAgACoAIAAoAG0AYQBzAHMAMQAgACsAIABtAGEAcwBzADIAKQApACwAIAAxACAALwAgADMAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ATwBSAEIAXwBQAEUAUgBJAE8ARAAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABhAHgAaQBzACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AYQBzAHMAMgAsACAASQBGACgAKABJAFMATwBNAEkAVABUAEUARAAoAG0AYQBzAHMAMgApACkAKwAoAG0AYQBzAHMAMgAgAD0AIAAxACkALAAgADAALAAgACgAbQBhAHMAcwAyACAAKgAgADMALgAwADAAMgA3ADMAZQAtADYAKQApACwAXABuACAAIAAgACAAcABlAHIAaQBvAGQALAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAKABtAGEAcwBzADEAIAArACAAbQBhAHMAcwAyACkAKQAsAFwAbgAgACAAIAAgAHAAZQByAGkAbwBkAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEMAUgBPAFMAUwBJAE4ARwBfAE8AUgBCAEkAVABfAFAAQQBSAEEATQBFAFQARQBSACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALABcAG4AXABuAEEAQgBTACgAbQBhAHMAcwAxACAALQAgAG0AYQBzAHMAMgApAC8AQQBCAFMAKABtAGEAcwBzADEAIAArAG0AYQBzAHMAMgApAFwAbgBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBQAEUAUgBJAE8ARABfAEEAWABJAFMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AXABuACAAIAAgACAAUABPAFcARQBSACgAUABPAFcARQBSACgAaQBuAHAAdQB0ACwAIAAyACkALAAgACgAMQAgAC8AIAAzACkAKQBcAG4AXABuACkAOwBcAG4AXABuAE8AUgBCAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGEAeABpAHMALAAgAHAAZQByAGkAbwBkACwAXABuAFwAbgBQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQBcAG4AKQA7AFwAbgBcAG4AUwBQAEgARQBSAEkAQwBBAEwAXwBUAE8AXwBDAEEAUgBUAEUAUwBJAEEATgAgAD0AIABMAEEATQBCAEQAQQAoAHAAaABpACwAIAB0AGgAZQB0AGEALAAgAHIALAAgAFsAcAByAGUAYwBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACkALAAgACAAIAAgAFwAbgAgACAAIAAgAHoAXwBtAG8AZAAsACAAcwBpAGcAbgAoAHQAaABlAHQAYQApACwAXABuACAAIAAgACAAeQBfAG0AbwBkACwAIABzAGkAZwBuACgAcABoAGkAKQAsAFwAbgAgACAAIAAgAHgAXwBtAG8AZAAsACAAaQBmACgAYQBiAHMAKABwAGgAaQApADwAOQAwACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgAC8ALwB4AF8AbQBvAGQAXABuACAAIAAgACAALwAvAHQAZQB4AHQAagBvAGkAbgAoAFwAIgAsAFwAIgAsACwAeABfAG0AbwBkACwAIAB5AF8AbQBvAGQALAAgAHoAXwBtAG8AZAApAFwAbgAgACAAIAAgAGEAbgBnAF8AeAAsACAAcgBhAGQAaQBhAG4AcwAoAG0AbwBkACgAcABoAGkALAA5ADAAKQApACwAXABuACAAIAAgACAAYQBuAGcAXwB6ACwAIAByAGEAZABpAGEAbgBzACgAYQBiAHMAKAB0AGgAZQB0AGEAKQApACwAXABuACAAIAAgACAAZAAsACAAYwBvAHMAKABhAG4AZwBfAHoAKQAqAHIALABcAG4AIAAgACAAIAB4ACwAIAByAG8AdQBuAGQAKABjAG8AcwAoAGEAbgBnAF8AeAApACoAZAAqAHgAXwBtAG8AZAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAeQAsACAAcgBvAHUAbgBkACgAcwBpAG4AKABhAG4AZwBfAHgAKQAqAGQAKgB5AF8AbQBvAGQALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHoALAAgAHIAbwB1AG4AZAAoAHMAaQBuACgAYQBuAGcAXwB6ACkAKgByACoAegBfAG0AbwBkACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAdABlAHgAdABqAG8AaQBuACgAXAAiAHwAXAAiACwALAB4ACwAIAB5ACwAIAB6ACkALABcAG4AIAAgACAAIAAvAC8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAdABvAHIAbwB3ACgAdABlAHgAdABzAHAAbABpAHQAKAByAGUAcwB1AGwAdAAsAFwAIgB8AFwAIgApACkAXABuACkAXABuAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQARQBDAF8ARABNAFMAIAA9ACAATABBAE0AQgBEAEEAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAARABlAGcALAAgAFQAUgBVAE4AQwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4ALAAgAEEAQgBTACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACAALQAgAEQAZQBnACkALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAF8AcABhAHIAdAAsACAAVABSAFUATgBDACgATQBpAG4AdQB0AGUAcwApACAALwAgADEAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAcgBhAGMATQBpAG4ALAAgAEEAQgBTACgATQBpAG4AdQB0AGUAcwAgAC0AIABJAG4AdABNAGkAbgApACwAXABuACAAIAAgACAAIAAgACAAIABTAGUAYwBvAG4AZABzACwAIABGAHIAYQBjAE0AaQBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBlAGMAXwBwAGEAcgB0ACwAIABTAGUAYwBvAG4AZABzACAALwAgADEAMAAwADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEQAZQBnACAAKwAgAE0AaQBuAF8AcABhAHIAdAAgACsAIABzAGUAYwBfAHAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgAEYASQBYAEUARAAoAG8AdQB0AHAAdQB0ACwAIAA3ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARABFAEcAXwBEAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAGQAZQBjAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAUAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAUAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgAEQAZQBnACwAIABUAFIAVQBOAEMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAKQAsAFwAbgAgACAAIAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAsACAAQQBCAFMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAIAAtACAARABlAGcAKQAsAFwAbgAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIABGAHIAYQBjAE0AaQBuACwAIABBAEIAUwAoAE0AaQBuAHUAdABlAHMAIAAtACAASQBuAHQATQBpAG4AKQAsAFwAbgAgACAAIAAgAFMAZQBjAG8AbgBkAHMALAAgAEYAcgBhAGMATQBpAG4AIAAqACAANgAwACwAXABuACAAIAAgACAARABlAGcAIAAmACAAXAAiALAAIABcACIAIAAmACAASQBuAHQATQBpAG4AIAAmACAAQwBIAEEAUgAoADMAOQApACAAJgAgAEMASABBAFIAKAAzADIAKQAgACYAIABGAEkAWABFAEQAKABTAGUAYwBvAG4AZABzACwAIABkAGUAYwBwAHIAZQBjACkAIAAmACAAQwBIAEEAUgAoADMANAApAFwAbgApAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQATQBTAF8ARABFAEMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGcAcgBlAGUAcwAsACAAVABSAFUATgBDACgAaQBuAHAAdQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AaQBuAHUAdABlAHMALAAgAFQAUgBVAE4AQwAoACgAaQBuAHAAdQB0ACAALQAgAGQAZQBnAHIAZQBlAHMAKQAgACoAIAAxADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAHQAaQBvAG4AYQBsAF8AcwBlAGMAbwBuAGQAcwAsACAAKAAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACAALQAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACkAIAAvACAAMAAuADYALABcAG4AIAAgACAAIAAgACAAIAAgAC8AKgAgACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAGQAZQBnAHIAZQBlAHMAIAArACAAKAAoAG0AaQBuAHUAdABlAHMAIAArACAAZgByAGEAYwB0AGkAbwBuAGEAbABfAHMAZQBjAG8AbgBkAHMAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AQQBYAEkAUwBfAFAARQBSAEkATwBEACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAXABuAFwAbgAgACAAIAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABpAG4AcAB1AHQALAAgADMAKQApAFwAbgAgACAAIAAgAFwAbgApADsAXABuAFwAbgAiAH0ALAB7ACIAcABhAHQAaAAiADoAIgAvAHAAcgBvAGoAZQBjAHQAcwAvAEcAZQBuAGUAcgBhAGwAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABSAEUAQwBJAFAAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAcgBlAGMAaQBwAHIAbwBjAGEAbAAgACgAbQB1AGwAdABpAHAAbABpAGMAYQB0AGkAdgBlACAAaQBuAHYAZQByAHMAZQApACAAbwBmACAAYQAgAG4AdQBtAGIAZQByAC4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgAgAEEAIABzAGkAbgBnAGwAZQAgAGQAZQBjAGkAbQBhAGwAIAB2AGEAbAB1AGUAOgAgADEAIAAvACAAaQBuAHAAdQB0AFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQBuAHkAIABuAG8AbgB6AGUAcgBvACAAbgB1AG0AYgBlAHIAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFIAZQB0AHUAcgBuAHMAIAAjAEQASQBWAC8AMAAhACAAaQBmACAAaQBuAHAAdQB0ACAAaQBzACAAegBlAHIAbwBcAG4AIAAgACAALQAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIABmAGwAaQBwAHAAaQBuAGcAIABmAHIAYQBjAHQAaQBvAG4AcwAgAG8AcgAgAGMAbwBuAHYAZQByAHQAaQBuAGcAIAByAGEAdABlAHMAIAAoAGUALgBnAC4ALAAgAEgAegAgAJQhIABzAGUAYwBvAG4AZABzACkAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAFIARQBDAEkAUAAoADQAKQAgAJIhIAAwAC4AMgA1AFwAbgAqAC8AXABuAFwAbgBSAEUAQwBJAFAAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALAAgADEAIAAvACAAaQBuAHAAdQB0ACkAOwBcAG4AXABuAC8AKgAgAEYAUgBBAEMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAcwBjAGEAbABhAHIAIABkAGUAYwBpAG0AYQBsACAAYgBlAHQAdwBlAGUAbgAgADAAIABhAG4AZAAgADEAIAAoAG8AcgAgAC0AMQAgAGEAbgBkACAAMAAgAGkAZgAgAHMAaQBnAG4AZQBkACAAbQBvAGQAZQAgAGkAcwAgAHMAZQBsAGUAYwB0AGUAZAApAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABpAG4AcAB1AHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABUAGgAZQAgAG4AdQBtAGIAZQByACAAZgByAG8AbQAgAHcAaABpAGMAaAAgAHQAbwAgAGUAeAB0AHIAYQBjAHQAIAB0AGgAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0AC4AXABuACAAIAAgAC0AIABtAG8AZABlACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATwB1AHQAcAB1AHQAIABtAG8AZABlACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAtACAAMAA6ACAAQQBsAHcAYQB5AHMAIAByAGUAdAB1AHIAbgAgAHAAbwBzAGkAdABpAHYAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0ACAAKABkAGUAZgBhAHUAbAB0ACkAXABuACAAIAAgACAAIAAgACAALQAgADEAOgAgAFAAcgBlAHMAZQByAHYAZQAgAHQAaABlACAAcwBpAGcAbgAgAG8AZgAgAHQAaABlACAAaQBuAHAAdQB0ACAAKABlAC4AZwAuACwAIAAtADMALgAyADUAIACSISAALQAwAC4AMgA1ACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEMAbwBtAHAAbABlAG0AZQBuAHQAcwAgAEUAeABjAGUAbAAZIHMAIABRAFUATwBUAEkARQBOAFQAIABhAG4AZAAgAFQAUgBVAE4AQwAgAGYAdQBuAGMAdABpAG8AbgBzAC4AXABuACAAIAAgAC0AIABVAHMAZQBmAHUAbAAgAGYAbwByACAAaQBzAG8AbABhAHQAaQBuAGcAIABuAG8AbgAtAGkAbgB0AGUAZwBlAHIAIABwAGEAcgB0AHMAIABvAGYAIAB2AGEAbAB1AGUAcwAuAFwAbgAgACAAIAAtACAAQwBhAG4AIABkAGkAcwB0AGkAbgBnAHUAaQBzAGgAIAB3AGgAZQB0AGgAZQByACAAYQAgAG4AdQBtAGIAZQByACAAaQBzACAAagB1AHMAdAAgAHUAbgBkAGUAcgAgAG8AcgAgAGoAdQBzAHQAIABvAHYAZQByACAAYQBuACAAaQBuAHQAZQBnAGUAcgAgAGIAYQBzAGUAZAAgAG8AbgAgAHMAaQBnAG4ALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAARgBSAEEAQwAoAC0AMwAuADIANQApACAAkiEgADAALgAyADUAIAAgAFwAbgAgACAAIABGAFIAQQBDACgALQAzAC4AMgA1ACwAIAAxACkAIACSISAALQAwAC4AMgA1AFwAbgAqAC8AXABuAFwAbgBGAFIAQQBDACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABEAGUAZgBhAHUAbAB0ACAAbQBvAGQAZQAgAHQAbwAgADAAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAbwByACAAaQBuAHYAYQBsAGkAZABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALAAgAEkARgAoAE8AUgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBvAGQAZQApACwAIABtAG8AZABlACAAPgAgADEAKQAsACAAMAAsACAAbQBvAGQAZQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0ACAAYgB5ACAAcwB1AGIAdAByAGEAYwB0AGkAbgBnACAAaQBuAHQAZQBnAGUAcgAgAHAAbwByAHQAaQBvAG4AXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAF8AcABhAHIAdAAsACAAaQBuAHAAdQB0ACAALQAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAUgBlAHQAdQByAG4AIABzAGkAZwBuAGUAZAAgAG8AcgAgAGEAYgBzAG8AbAB1AHQAZQAgAHYAYQBsAHUAZQAgAGQAZQBwAGUAbgBkAGkAbgBnACAAbwBuACAAbQBvAGQAZQBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAG0AbwBkAGUAIAA9ACAAMQAsACAAZgByAGEAYwBfAHAAYQByAHQALAAgAEEAQgBTACgAZgByAGEAYwBfAHAAYQByAHQAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAFIATwBPAFQAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAQwBhAGwAYwB1AGwAYQB0AGUAcwAgAHQAaABlACAAeAAtAHQAaAAgAHIAbwBvAHQAIABvAGYAIABhACAAbgB1AG0AYgBlAHIAIAAoAG8AcgAgAHMAcQB1AGEAcgBlACAAcgBvAG8AdAAgAGkAZgAgAG4AbwAgAHIAbwBvAHQAIABpAHMAIABzAHAAZQBjAGkAZgBpAGUAZAApAC4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgAgAEEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAcgBvAG8AdAAgAHIAZQBzAHUAbAB0AC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABuACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAVABoAGUAIABuAHUAbQBiAGUAcgAgAHQAbwAgAHQAYQBrAGUAIAB0AGgAZQAgAHIAbwBvAHQAIABvAGYALgBcAG4AIAAgACAALQAgAHgAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABUAGgAZQAgAHIAbwBvAHQAIABkAGUAZwByAGUAZQAuACAARABlAGYAYQB1AGwAdABzACAAdABvACAAMgAgACgAcwBxAHUAYQByAGUAIAByAG8AbwB0ACkAIABpAGYAIABvAG0AaQB0AHQAZQBkAC4AXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFMAdQBwAHAAbwByAHQAcwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIAByAG8AbwB0AHMAIAAoAGUALgBnAC4ALAAgAGMAdQBiAGUAIAByAG8AbwB0ACwAIAAxAC4ANQB0AGgAIAByAG8AbwB0ACkALgBcAG4AIAAgACAALQAgAEkAZgAgAHgAIABpAHMAIABvAG0AaQB0AHQAZQBkACwAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIABTAFEAUgBUACgAbgApAC4AXABuACAAIAAgAC0AIABOAGUAZwBhAHQAaQB2AGUAIABiAGEAcwBlAHMAIAB3AGkAdABoACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAGUAeABwAG8AbgBlAG4AdABzACAAdwBpAGwAbAAgAHIAZQB0AHUAcgBuACAAZQByAHIAbwByAHMAIAAoAEUAeABjAGUAbAAgAGwAaQBtAGkAdABhAHQAaQBvAG4AKQAuAFwAbgAgACAAIAAtACAATgBvACAAaQBuAHQAZQByAG4AYQBsACAAdgBhAGwAaQBkAGEAdABpAG8AbgAgAGYAbwByACAAYwBvAG0AcABsAGUAeAAgAHIAbwBvAHQAIABoAGEAbgBkAGwAaQBuAGcAIABpAHMAIABwAGUAcgBmAG8AcgBtAGUAZAAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABSAE8ATwBUACgAMQA2ACkAIACSISAANABcAG4AIAAgACAAUgBPAE8AVAAoADIANwAsACAAMwApACAAkiEgADMAXABuACAAIAAgAFIATwBPAFQAKAA4ADEALAAgADAALgA1ACkAIACSISAAOQBcAG4AKgAvAFwAbgBcAG4AUgBPAE8AVAAgAD0AIABMAEEATQBCAEQAQQAoAG4ALAAgAFsAeABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIABzAHEAdQBhAHIAZQAgAHIAbwBvAHQAIABpAGYAIAByAG8AbwB0ACAAZABlAGcAcgBlAGUAIABpAHMAIABuAG8AdAAgAHAAcgBvAHYAaQBkAGUAZABcAG4AIAAgACAAIAAgACAAIAAgAHIAbwBvAHQAXwByAGUAcwB1AGwAdAAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKAB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBRAFIAVAAoAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABuACAAXgAgACgAMQAgAC8AIAB4ACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAByAG8AbwB0AF8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARgBPAFIATQBUAEUAWABUACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAByAGUAYwBwAHQALAAgAEYATwBSAE0AVQBMAEEAVABFAFgAVAAoAGkAbgBwAHUAdAApACwAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAbQBvAGQAZQAgAD4AIAAzACkALAAgADIALAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBoAGUAYwBrAHYAYQBsACwAIABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAoAFwAIgAsACAAcgBlAGMAcAB0ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBlAGwAbABfAG4AYQBtAGUALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABDAEUATABMACgAXAAiAGEAZABkAHIAZQBzAHMAXAAiACwAIABpAG4AcAB1AHQAKQAsAFwAIgAkAFwAIgAsAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgAYwBoAGUAYwBrAHYAYQBsACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBlAGMAcAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQARQBYAFQAUwBQAEwASQBUACgAcgBlAGMAcAB0ACwAIABcACIAKQBcACIAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBoAGUAYwBrAHYAYQBsACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIAWQBDAE8ATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAHgALAAgAFQARQBYAFQAQgBFAEYATwBSAEUAKAB4ACwAIABcACIAKABcACIALAAgACwAIAAsACAALAAgAFwAIgBcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAaQBzAHQAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABsAGUAYwB0AGUAZAAsACAAVABFAFgAVABKAE8ASQBOACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAcgBlAHMAdQBsAHQALAAgAFMARQBRAFUARQBOAEMARQAoAEMATwBVAE4AVABBACgAcgBlAHMAdQBsAHQAKQApACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGEAcgBlAG4AdABoAGUAdABpAGMAYQBsACwAIABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABDAE8ATgBDAEEAVAAoAGMAZQBsAGwAXwBuAGEAbQBlACwAIABcACIAOgA9ACAAXAAiACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAYwBvAGwAbABlAGMAdABlAGQALAAgAFwAIgA9AFwAIgAsACAAXAAiAFwAIgApACkALAAgAFwAIgAoAFwAIgApACwAIABcACIAIABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFMAVwBJAFQAQwBIACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsACAAYwBvAGwAbABlAGMAdABlAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAsACAAQwBPAE4AQwBBAFQAKABjAGUAbABsAF8AbgBhAG0AZQAsACAAXAAiADoAPQAgAFwAIgAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAGMAbwBsAGwAZQBjAHQAZQBkACwAIABcACIAPQBcACIALAAgAFwAIgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIALAAgAEMATwBOAEMAQQBUACgAYwBlAGwAbABfAG4AYQBtAGUALAAgAFwAIgA6AD0AIABcACIALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKAByAGUAYwBwAHQALAAgAFwAIgA9AFwAIgAsACAAXAAiAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAsACAARgBPAFIATQBVAEwAQQBUAEUAWABUACgAaQBuAHAAdQB0ACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACIALAAiAEEAUwBUAFIATwBfAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACIALAAiAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACIALAAiAFMAVABBAFIAXwBTAEMAQQBMAEUAXwBUAEUATQBQACIALAAiAFMAVABBAFIAXwBTAEMAQQBMAEUAXwBLAFQARQBNAFAAIgAsACIAUwBUAEEAUgBfAEMATABBAFMAUwBfAFMAVABBAFQAUwAiACwAIgBTAFQAQQBSAF8ATQBBAFMAUwAiACwAIgBTAFQAQQBSAF8AUgBBAEQAUwAiACwAIgBTAFQAQQBSAF8ATABVAE0AUwAiACwAIgBTAFQAQQBSAEwAVQBNAFMAIgAsACIAUwBUAEEAUgBfAEwASQBGAEUAIgAsACIAVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACIALAAiAFQARQBNAFAAXwBGAFIATwBNAF8AVABZAFAARQAiACwAIgBTAFAARQBDAFQAUgBBAEwAXwBDAEwAQQBTAFMAXwBEAEEAVABBACIALAAiAFMAUABFAEMAXwBMAEkAUwBUACIALAAiAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTAF8AVABBAEIATABFACIALAAiAEgAQQBCAFoATwBOAEUAUwAiACwAIgBIAEEAQgBfAFoATwBOAEUAUwAiACwAIgBTAFQAQQBSAFMAXwBQAEUAUgBfAEMAVQBCAEkAQwBfAFYATwBMACIALAAiAEMAVQBCAEkAQwBfAFYATwBMAFUATQBFAF8AUABFAFIAXwBTAFQAQQBSAFMAIgAsACIAUABMAEEATgBFAFQAXwBBAFMAVABSAE8ATQBFAFQAUgBJAEMAUwAiACwAIgBTAFkATgBPAEQASQBDACIALAAiAFMATQBBAEwATABBAE4ARwBMAEUAIgAsACIATwBSAEIAXwBBAFgASQBTACIALAAiAE8AUgBCAF8AUABFAFIASQBPAEQAIgAsACIAQwBSAE8AUwBTAEkATgBHAF8ATwBSAEIASQBUAF8AUABBAFIAQQBNAEUAVABFAFIAIgAsACIAUABFAFIASQBPAEQAXwBBAFgASQBTACIALAAiAE8AUgBCAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAiACwAIgBTAFAASABFAFIASQBDAEEATABfAFQATwBfAEMAQQBSAFQARQBTAEkAQQBOACIALAAiAEQARQBHAF8ARABFAEMAXwBEAE0AUwAiACwAIgBEAEUARwBfAEQATQBTACIALAAiAEQARQBHAF8ARABNAFMAXwBEAEUAQwAiACwAIgBBAFgASQBTAF8AUABFAFIASQBPAEQAIgAsACIARwBlAG4AZQByAGEAbAAuAFIARQBDAEkAUAAiACwAIgBHAGUAbgBlAHIAYQBsAC4ARgBSAEEAQwAiACwAIgBHAGUAbgBlAHIAYQBsAC4AUgBPAE8AVAAiACwAIgBHAGUAbgBlAHIAYQBsAC4ARgBPAFIATQBUAEUAWABUACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIATQBEAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Astronomy Utilities/Astronomy Utlities.xlsx
+++ b/Astronomy Utilities/Astronomy Utlities.xlsx
@@ -8,26 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/Astronomy Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4EB8ED-5706-DD47-8040-18B9C4D4A9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BD5A33-014B-5749-93FB-BFD953FDE969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1100" windowWidth="33260" windowHeight="19560" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
+    <workbookView xWindow="3280" yWindow="1100" windowWidth="33260" windowHeight="19560" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="ASTRO_CALC_TEMP">_xlfn.LAMBDA(_xlpm.subclass, _xlfn.LET(_xlpm.arrTypes, {"O3";"O4";"O5";"O6";"O7";"O8";"O9";"B0";"B1";"B2";"B3";"B4";"B5";"B6";"B7";"B8";"B9";"A0";"A1";"A2";"A3";"A4";"A5";"A6";"A7";"A8";"A9";"F0";"F1";"F2";"F3";"F4";"F5";"F6";"F7";"F8";"F9";"G0";"G1";"G2";"G3";"G4";"G5";"G6";"G7";"G8";"G9";"K0";"K1";"K2";"K3";"K4";"K5";"K6";"K7";"K8";"K9";"M0";"M1";"M2";"M3";"M4";"M5";"M6";"M7";"M8";"M9"}, _xlpm.arrTHigh, {44900;42900;41400;39500;37100;35100;33300;31400;26000;20600;17000;16400;15700;14500;14000;12300;10700;9700;9300;8800;8600;8250;8100;7910;7760;7590;7400;7220;7020;6820;6750;6670;6550;6350;6280;6180;6050;5930;5860;5770;5720;5680;5660;5600;5550;5480;5380;5270;5170;5100;4830;4600;4440;4300;4100;3990;3930;3850;3660;3560;3430;3210;3060;2810;2680;2570;2380}, _xlpm.arrSpan, {2000;1500;1900;2400;2000;1800;1900;5400;5400;3600;600;700;1200;500;1700;1600;1000;400;500;200;350;150;190;150;170;190;180;200;200;70;80;120;200;70;100;130;120;70;90;50;40;20;60;50;70;100;110;100;70;270;230;160;140;200;110;60;80;190;100;130;220;150;250;130;110;190;280}, _xlpm.mtxStars, _xlfn.HSTACK(_xlpm.arrTypes, _xlpm.arrTHigh, _xlpm.arrSpan), _xlpm.no_space, SUBSTITUTE(_xlpm.subclass, " ", ""), _xlpm.dot_pos, FIND(".", _xlpm.no_space &amp; ".0"), _xlpm.base, LEFT(_xlpm.no_space, _xlpm.dot_pos - 1), _xlpm.f, VALUE("0." &amp; MID(_xlpm.no_space, _xlpm.dot_pos + 1, LEN(_xlpm.no_space))), _xlpm.T_high, _xlfn.XLOOKUP(_xlpm.base, INDEX(_xlpm.mtxStars, , 1), INDEX(_xlpm.mtxStars, , 2)), _xlpm.span, _xlfn.XLOOKUP(_xlpm.base, INDEX(_xlpm.mtxStars, , 1), INDEX(_xlpm.mtxStars, , 3)), _xlpm.result, _xlpm.T_high - (_xlpm.f * _xlpm.span), _xlpm.result))</definedName>
+    <definedName name="ASTRO_DISPLAY_SPECTRAL">_xlfn.LAMBDA(_xlop.type, _xlfn.LET(_xlpm.Types, {"O";"B";"A";"F";"G";"K";"M"}, _xlpm.Headers, TRANSPOSE(_xlfn.VSTACK(" ", _xlpm.Types)), _xlpm.FindCol, _xlfn.MAKEARRAY(COUNTA(_xlpm.Types), 2, _xlfn.LAMBDA(_xlpm.r,_xlpm.c, IF(_xlpm.c = 1, INDEX(_xlpm.Types, _xlpm.r), _xlpm.r))), _xlpm.arrTypes, {"O";"O";"O";"O3";"O4";"O5";"O6";"O7";"O8";"O9";"B0";"B1";"B2";"B3";"B4";"B5";"B6";"B7";"B8";"B9";"A0";"A1";"A2";"A3";"A4";"A5";"A6";"A7";"A8";"A9";"F0";"F1";"F2";"F3";"F4";"F5";"F6";"F7";"F8";"F9";"G0";"G1";"G2";"G3";"G4";"G5";"G6";"G7";"G8";"G9";"K0";"K1";"K2";"K3";"K4";"K5";"K6";"K7";"K8";"K9";"M0";"M1";"M2";"M3";"M4";"M5";"M6";"M7";"M8";"M9"}, _xlpm.arrTHigh, {"";"";"";44900;42900;41400;39500;37100;35100;33300;31400;26000;20600;17000;16400;15700;14500;14000;12300;10700;9700;9300;8800;8600;8250;8100;7910;7760;7590;7400;7220;7020;6820;6750;6670;6550;6350;6280;6180;6050;5930;5860;5770;5720;5680;5660;5600;5550;5480;5380;5270;5170;5100;4830;4600;4440;4300;4100;3990;3930;3850;3660;3560;3430;3210;3060;2810;2680;2570;2380}, _xlpm.arrSpan, {"";"";"";2000;1500;1900;2400;2000;1800;1900;5400;5400;3600;600;700;1200;500;1700;1600;1000;400;500;200;350;150;190;150;170;190;180;200;200;70;80;120;200;70;100;130;120;70;90;50;40;20;60;50;70;100;110;100;70;270;230;160;140;200;110;60;80;190;100;130;220;150;250;130;110;190;280}, _xlpm.formattedData, _xlfn.BYROW(_xlfn.HSTACK(_xlpm.arrTypes, _xlpm.arrTHigh, _xlpm.arrSpan), _xlfn.LAMBDA(_xlpm.row, _xlfn.TEXTJOIN("; ", TRUE, TEXT(INDEX(_xlpm.row, 2), "0"), TEXT(INDEX(_xlpm.row, 3), "0")))), _xlpm.Numbers, _xlfn.SEQUENCE(10, 1, 0, 1), _xlpm.O_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "O"), _xlpm.B_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "B"), _xlpm.A_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "A"), _xlpm.F_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "F"), _xlpm.G_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "G"), _xlpm.K_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "K"), _xlpm.M_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "M"), _xlpm.fullTable, _xlfn.VSTACK(_xlpm.Headers, _xlfn.HSTACK(_xlpm.Numbers, _xlpm.O_Stars, _xlpm.B_Stars, _xlpm.A_Stars, _xlpm.F_Stars, _xlpm.G_Stars, _xlpm.K_Stars, _xlpm.M_Stars)), _xlpm.temps, _xlfn._xlws.FILTER(_xlpm.arrTHigh, LEFT(_xlpm.arrTypes, 1) = _xlpm.type), _xlpm.spans, _xlfn._xlws.FILTER(_xlpm.arrSpan, LEFT(_xlpm.arrTypes, 1) = _xlpm.type), _xlpm.typeHead, _xlfn.HSTACK(_xlpm.type, "span"), _xlpm.slimTable, _xlfn.VSTACK(_xlpm.typeHead, _xlfn.HSTACK(_xlpm.temps, _xlpm.spans)), _xlpm.result, IF(ISBLANK(_xlpm.type), _xlpm.fullTable, _xlpm.slimTable), _xlpm.result))</definedName>
     <definedName name="ASTRO_HAB_INDEX">_xlfn.LAMBDA(_xlpm.orbital_dist,_xlop.nucleal_radius,_xlop.prec, _xlfn.LET(_xlpm.rounding_precision, IF(_xlfn.ISOMITTED(_xlpm.prec), 3, _xlpm.prec), _xlpm.nucleal_radius, IF(_xlfn.ISOMITTED(_xlpm.nucleal_radius), 1, _xlpm.nucleal_radius), _xlpm.is_inner_orbit, IF(_xlpm.orbital_dist &lt; _xlpm.nucleal_radius, TRUE, FALSE), _xlpm.habitability_index, IF(_xlpm.is_inner_orbit, (2 * _xlpm.orbital_dist / _xlpm.nucleal_radius) - 1, (_xlpm.orbital_dist / (-3.85 * _xlpm.nucleal_radius)) + (4.85 / 3.85)), _xlpm.final_result, IF(_xlpm.habitability_index &lt;= 0, "U/I", ROUND(_xlpm.habitability_index, _xlpm.rounding_precision)), _xlpm.final_result))</definedName>
     <definedName name="ASTRO_SPECTRAL_DISTRIBUTION">_xlfn.LAMBDA(_xlop.anchor_class,_xlop.anchor_count,_xlop.decimal_places, _xlfn.LET(_xlpm.anchor_class, IF(_xlfn.ISOMITTED(_xlpm.anchor_class), "$", UPPER(_xlpm.anchor_class)), _xlpm.anchor_count, IF(_xlfn.ISOMITTED(_xlpm.anchor_count), 1, _xlpm.anchor_count), _xlpm.decimal_places, IF(_xlfn.ISOMITTED(_xlpm.decimal_places), 3, _xlpm.decimal_places), _xlpm.arr_classes, {"O";"B";"A";"F";"G";"K";"M"}, _xlpm.arr_base_pct, {0.00003;0.13;0.6;3;7.6;12.1;76.27}, _xlpm.arr_base_frac, _xlfn.BYROW(_xlpm.arr_base_pct, _xlfn.LAMBDA(_xlpm.x, _xlpm.x / 100)), _xlpm.anchor_freq, _xlfn.XLOOKUP(_xlpm.anchor_class, _xlpm.arr_classes, _xlpm.arr_base_frac, 1), _xlpm.scaling_factor, _xlpm.anchor_count / _xlpm.anchor_freq, _xlpm.scaled, IF(_xlpm.anchor_class = "$", _xlpm.arr_base_frac, _xlfn.BYROW(_xlpm.arr_base_frac, _xlfn.LAMBDA(_xlpm.x, _xlpm.x * _xlpm.scaling_factor))), _xlpm.output, _xlfn.HSTACK(_xlpm.arr_classes, ROUND(_xlpm.scaled, _xlpm.decimal_places)), _xlpm.output))</definedName>
+    <definedName name="ASTRO_TYPE_FROM_TEMP">_xlfn.LAMBDA(_xlpm.temp,_xlop.decimals, _xlfn.LET(_xlpm.arrTypes, {"O3";"O4";"O5";"O6";"O7";"O8";"O9";"B0";"B1";"B2";"B3";"B4";"B5";"B6";"B7";"B8";"B9";"A0";"A1";"A2";"A3";"A4";"A5";"A6";"A7";"A8";"A9";"F0";"F1";"F2";"F3";"F4";"F5";"F6";"F7";"F8";"F9";"G0";"G1";"G2";"G3";"G4";"G5";"G6";"G7";"G8";"G9";"K0";"K1";"K2";"K3";"K4";"K5";"K6";"K7";"K8";"K9";"M0";"M1";"M2";"M3";"M4";"M5";"M6";"M7";"M8";"M9"}, _xlpm.arrTHigh, {44900;42900;41400;39500;37100;35100;33300;31400;26000;20600;17000;16400;15700;14500;14000;12300;10700;9700;9300;8800;8600;8250;8100;7910;7760;7590;7400;7220;7020;6820;6750;6670;6550;6350;6280;6180;6050;5930;5860;5770;5720;5680;5660;5600;5550;5480;5380;5270;5170;5100;4830;4600;4440;4300;4100;3990;3930;3850;3660;3560;3430;3210;3060;2810;2680;2570;2380}, _xlpm.arrSpan, {2000;1500;1900;2400;2000;1800;1900;5400;5400;3600;600;700;1200;500;1700;1600;1000;400;500;200;350;150;190;150;170;190;180;200;200;70;80;120;200;70;100;130;120;70;90;50;40;20;60;50;70;100;110;100;70;270;230;160;140;200;110;60;80;190;100;130;220;150;250;130;110;190;280}, _xlpm.temp_in_range, _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.arrTHigh)), _xlfn.LAMBDA(_xlpm.i, AND(INDEX(_xlpm.arrTHigh, _xlpm.i) &gt;= _xlpm.temp, _xlpm.temp &gt; INDEX(_xlpm.arrTHigh, _xlpm.i) - INDEX(_xlpm.arrSpan, _xlpm.i)))), _xlpm.idx, _xlfn.XMATCH(TRUE, _xlpm.temp_in_range), _xlpm.full_type, INDEX(_xlpm.arrTypes, _xlpm.idx), _xlpm.T_high, INDEX(_xlpm.arrTHigh, _xlpm.idx), _xlpm.span, INDEX(_xlpm.arrSpan, _xlpm.idx), _xlpm.f, (_xlpm.T_high - _xlpm.temp) / _xlpm.span, _xlpm.dec, IF(_xlfn.ISOMITTED(_xlpm.decimals), 3, _xlpm.decimals), _xlpm.format_string, "." &amp; REPT("0", _xlpm.dec), _xlpm.subclass, _xlpm.full_type &amp; TEXT(_xlpm.f, _xlpm.format_string), _xlpm.subclass))</definedName>
     <definedName name="AXIS_PERIOD">_xlfn.LAMBDA(_xlpm.input, SQRT(POWER(_xlpm.input, 3)))</definedName>
     <definedName name="CROSSING_ORBIT_PARAMETER">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2, ABS(_xlpm.mass1 - _xlpm.mass2) / ABS(_xlpm.mass1 + _xlpm.mass2))</definedName>
     <definedName name="CUBIC_VOLUME_PER_STARS">_xlfn.LAMBDA(_xlpm.stars,_xlop.prec,_xlop.mode, _xlfn.LET(_xlpm.mode, IF((_xlfn.ISOMITTED(_xlpm.mode)) + (_xlpm.mode &lt; 0) + (_xlpm.mode &gt; 2), 0, _xlpm.mode), _xlpm.prec, IF((_xlfn.ISOMITTED(_xlpm.prec)) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.volume, ROUND(_xlpm.stars * 250, _xlpm.prec), _xlpm.side, ROUND(POWER(_xlpm.volume, 1 / 3), _xlpm.prec), _xlpm.radius, ROUND(POWER((_xlpm.volume * 3) / (4 * PI()), 1 / 3), _xlpm.prec), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlpm.volume, 1, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , _xlpm.volume, _xlpm.side), "; ")), 2, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , _xlpm.volume, _xlpm.side, _xlpm.radius), "; "))), _xlpm.output))</definedName>
     <definedName name="DEG_DEC_DMS">_xlfn.LAMBDA(_xlpm.DecimalDegrees, _xlfn.LET(_xlpm.Deg, TRUNC(_xlpm.DecimalDegrees), _xlpm.FracPortion, ABS(_xlpm.DecimalDegrees - _xlpm.Deg), _xlpm.Minutes, _xlpm.FracPortion * 60, _xlpm.Min_part, TRUNC(_xlpm.Minutes) / 100, _xlpm.IntMin, INT(_xlpm.Minutes), _xlpm.FracMin, ABS(_xlpm.Minutes - _xlpm.IntMin), _xlpm.Seconds, _xlpm.FracMin * 60, _xlpm.sec_part, _xlpm.Seconds / 10000, _xlpm.output, _xlpm.Deg + _xlpm.Min_part + _xlpm.sec_part, FIXED(_xlpm.output, 7)))</definedName>
     <definedName name="DEG_DMS">_xlfn.LAMBDA(_xlpm.DecimalDegrees,_xlop.precision, _xlfn.LET(_xlpm.decprec, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.Deg, TRUNC(_xlpm.DecimalDegrees), _xlpm.FracPortion, ABS(_xlpm.DecimalDegrees - _xlpm.Deg), _xlpm.Minutes, _xlpm.FracPortion * 60, _xlpm.IntMin, INT(_xlpm.Minutes), _xlpm.FracMin, ABS(_xlpm.Minutes - _xlpm.IntMin), _xlpm.Seconds, _xlpm.FracMin * 60, _xlpm.Deg &amp; "° " &amp; _xlpm.IntMin &amp; CHAR(39) &amp; CHAR(32) &amp; FIXED(_xlpm.Seconds, _xlpm.decprec) &amp; CHAR(34)))</definedName>
     <definedName name="DEG_DMS_DEC">_xlfn.LAMBDA(_xlpm.input, _xlfn.LET(_xlpm.degrees, TRUNC(_xlpm.input), _xlpm.minutes, TRUNC((_xlpm.input - _xlpm.degrees) * 100), _xlpm.fractional_seconds, ((_xlpm.input * 100) - TRUNC(_xlpm.input * 100)) / 0.6, _xlpm.result, _xlpm.degrees + ((_xlpm.minutes + _xlpm.fractional_seconds) / 60), _xlpm.result))</definedName>
-    <definedName name="General.FORMTEXT">_xlfn.LAMBDA(_xlpm.input,_xlop.mode, _xlfn.LET(_xlpm.recpt, _xlfn.FORMULATEXT(_xlpm.input), _xlpm.mode, IF(OR(_xlfn.ISOMITTED(_xlpm.mode), _xlpm.mode &gt; 3), 2, _xlpm.mode), _xlpm.checkval, ISNUMBER(SEARCH("(", _xlpm.recpt)), _xlpm.cell_name, SUBSTITUTE(CELL("address", _xlpm.input), "$", ""), _xlpm.list, IF(NOT(_xlpm.checkval), _xlpm.recpt, _xlfn.TEXTSPLIT(_xlpm.recpt, ")")), _xlpm.result, IF(_xlpm.checkval, _xlfn.BYCOL(_xlpm.list, _xlfn.LAMBDA(_xlpm.x, _xlfn.TEXTBEFORE(_xlpm.x, "(", , , , ""))), _xlpm.list), _xlpm.collected, _xlfn.TEXTJOIN("", , INDEX(_xlpm.result, _xlfn.SEQUENCE(COUNTA(_xlpm.result)))), _xlpm.parenthetical, _xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(_xlfn.CONCAT(_xlpm.cell_name, ":= ", SUBSTITUTE(_xlpm.collected, "=", "")), "("), " "), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlpm.collected, 1, _xlfn.CONCAT(_xlpm.cell_name, ":= ", SUBSTITUTE(_xlpm.collected, "=", "")), 2, _xlfn.CONCAT(_xlpm.cell_name, ":= ", SUBSTITUTE(_xlpm.recpt, "=", "")), 3, _xlfn.FORMULATEXT(_xlpm.input)), _xlpm.output))</definedName>
+    <definedName name="General.FORMULA_TEXT">_xlfn.LAMBDA(_xlpm.formula_cell, _xlfn.LET(_xlpm.raw, _xlfn.FORMULATEXT(_xlpm.formula_cell), _xlpm.clean, _xlfn.TEXTAFTER(_xlpm.raw, "="), _xlpm.label, SUBSTITUTE(CELL("address", _xlpm.formula_cell), "$", "") &amp; ":= ", _xlpm.label &amp; _xlpm.clean))</definedName>
     <definedName name="General.FRAC">_xlfn.LAMBDA(_xlpm.input,_xlop.mode, _xlfn.LET(_xlpm.mode, IF(OR(_xlfn.ISOMITTED(_xlpm.mode), _xlpm.mode &gt; 1), 0, _xlpm.mode), _xlpm.frac_part, _xlpm.input - TRUNC(_xlpm.input), IF(_xlpm.mode = 1, _xlpm.frac_part, ABS(_xlpm.frac_part))))</definedName>
     <definedName name="General.RECIP">_xlfn.LAMBDA(_xlpm.input, 1 / _xlpm.input)</definedName>
-    <definedName name="General.ROOT">_xlfn.LAMBDA(_xlpm.n,_xlop.x, _xlfn.LET(_xlpm.root_result, IF(_xlfn.ISOMITTED(_xlpm.x), SQRT(_xlpm.n), _xlpm.n ^ (1 / _xlpm.x)), _xlpm.root_result))</definedName>
+    <definedName name="General.ROOT">_xlfn.LAMBDA(_xlpm.n,_xlop.x, _xlfn.LET(_xlpm.root_degree, IF(_xlfn.ISOMITTED(_xlpm.x), 2, _xlpm.x), IF(_xlpm.n &lt; 0, SQRT(-1), _xlpm.n ^ (1 / _xlpm.root_degree))))</definedName>
+    <definedName name="General.ROUND_FIX">_xlfn.LAMBDA(_xlpm.number,_xlpm.places,_xlop.as_text,_xlop.use_round, _xlfn.LET(_xlpm.n, N(_xlpm.number), _xlpm.raw_p, N(_xlpm.places), _xlpm.round_flag, IF(ISBLANK(_xlpm.use_round), FALSE, _xlpm.use_round), _xlpm.return_text, IF(ISBLANK(_xlpm.as_text), FALSE, _xlpm.as_text), _xlpm.max_places, IF(_xlpm.return_text, _xlpm.raw_p, MIN(_xlpm.raw_p, 9)), _xlpm.pwr_10, 10 ^ _xlpm.max_places, _xlpm.result, IF(_xlpm.round_flag, ROUND(_xlpm.n, _xlpm.max_places), TRUNC(_xlpm.n * _xlpm.pwr_10) / _xlpm.pwr_10), _xlpm.final, IF(_xlpm.return_text, TEXT(_xlpm.result, "0." &amp; REPT("0", _xlpm.max_places)), _xlpm.result), _xlpm.final))</definedName>
     <definedName name="HAB_ZONES">_xlfn.LAMBDA(_xlpm.lum,_xlop.precision, _xlfn.LET(_xlpm.labels, {"0: ","1: ","2: ","N-&gt; ","3: ","4: ","5: "}, _xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.nucleal, ROUND(SQRT(_xlpm.lum), _xlpm.precision), _xlpm.Z_0, ROUND(0.5 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_1, ROUND(0.75 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_2, ROUND(0.95 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_N, _xlpm.nucleal, _xlpm.Z_3, ROUND(1.385 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_4, ROUND(1.77 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_5, ROUND(4.85 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone0, _xlfn.VSTACK(INDEX(_xlpm.labels, 1), _xlpm.Z_0), _xlpm.Zone1, _xlfn.VSTACK(INDEX(_xlpm.labels, 2), _xlpm.Z_1), _xlpm.Zone2, _xlfn.VSTACK(INDEX(_xlpm.labels, 3), _xlpm.Z_2), _xlpm.ZoneN, _xlfn.VSTACK(INDEX(_xlpm.labels, 4), _xlpm.Z_N), _xlpm.Zone3, _xlfn.VSTACK(INDEX(_xlpm.labels, 5), _xlpm.Z_3), _xlpm.Zone4, _xlfn.VSTACK(INDEX(_xlpm.labels, 6), _xlpm.Z_4), _xlpm.Zone5, _xlfn.VSTACK(INDEX(_xlpm.labels, 7), _xlpm.Z_5), TRANSPOSE(CHOOSE({1,2,3,4,5,6,7}, _xlpm.Zone0, _xlpm.Zone1, _xlpm.Zone2, _xlpm.ZoneN, _xlpm.Zone3, _xlpm.Zone4, _xlpm.Zone5))))</definedName>
     <definedName name="HABITABLE_ZONES_TABLE">_xlfn.LAMBDA(_xlop.null, _xlfn.LET(_xlpm.dec, 3, _xlpm.headers, {"Zone";"Inner";"Outer";"Average";"Span"}, _xlpm.labels, {"Z0 (Ignio-)";"Z1 (Caloro-)";"Z2 (Helio-)";"Z3 (Solara-)";"Z4 (Surya-)";"Z5 (Frio-)"}, _xlpm.inner, {0;0.5;0.75;0.95;1.385;1.77}, _xlpm.outer, {0.5;0.75;0.95;1.385;1.77;4.85}, _xlpm.average, {0.25;0.625;0.85;1.1675;1.5775;3.31}, _xlpm.span, {0.5;0.25;0.2;0.435;0.385;3.08}, _xlpm.col_1, _xlfn.VSTACK(INDEX(_xlpm.headers, 1), _xlpm.labels), _xlpm.col_2, _xlfn.VSTACK(INDEX(_xlpm.headers, 2), ROUND(_xlpm.inner, _xlpm.dec)), _xlpm.col_3, _xlfn.VSTACK(INDEX(_xlpm.headers, 3), ROUND(_xlpm.outer, _xlpm.dec)), _xlpm.col_4, _xlfn.VSTACK(INDEX(_xlpm.headers, 4), ROUND(_xlpm.average, _xlpm.dec)), _xlpm.col_5, _xlfn.VSTACK(INDEX(_xlpm.headers, 5), ROUND(_xlpm.span, _xlpm.dec)), CHOOSE({1,2,3,4,5}, _xlpm.col_1, _xlpm.col_2, _xlpm.col_3, _xlpm.col_4, _xlpm.col_5)))</definedName>
     <definedName name="HABZONES">_xlfn.LAMBDA(_xlpm.lum,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.nucleal, ROUND(SQRT(_xlpm.lum), _xlpm.precision), _xlpm.N, "N-&gt; " &amp; ROUND(SQRT(_xlpm.lum), _xlpm.precision), _xlpm.Zone0, "0: " &amp; ROUND(0.5 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone1, "1: " &amp; ROUND(0.75 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone2, "2: " &amp; ROUND(0.95 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone3, "3: " &amp; ROUND(1.385 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone4, "4: " &amp; ROUND(1.77 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone5, "5: " &amp; ROUND(4.85 * _xlpm.nucleal, _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , _xlpm.Zone0, _xlpm.Zone1, _xlpm.Zone2, _xlpm.N, _xlpm.Zone3, _xlpm.Zone4, _xlpm.Zone5), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
@@ -39,7 +44,6 @@
     <definedName name="SMALLANGLE">_xlfn.LAMBDA(_xlpm.diameter,_xlpm.distance, 0.532904294 * (_xlpm.diameter / _xlpm.distance))</definedName>
     <definedName name="SPEC_LIST">_xlfn.LAMBDA(_xlop.null, _xlfn.LET(_xlpm.classifications, {"O: 25000 - 55000";"B: 10000 - 25000";"A: 7500 - 10000";"F: 6000 - 7500";"G: 5000 - 6000";"K: 3500 - 5000";"M: 2400 - 3500";"L: 1300 - 2400";"T: 600 - 1300";"Y: 300 - 600"}, _xlpm.classifications))</definedName>
     <definedName name="SPECTRAL_CLASS_DATA">_xlfn.LAMBDA(_xlop.null, _xlfn.LET(_xlpm.headers, {"Type";"Min";"Max";"Span";"q"}, _xlpm.types, _xlfn.VSTACK(INDEX(_xlpm.headers, 1), {"O";"B";"A";"F";"G";"K";"M";"L";"T";"Y"}), _xlpm.min, _xlfn.VSTACK(INDEX(_xlpm.headers, 2), {25000;10000;7500;6000;5000;3500;2400;1300;600;300}), _xlpm.max, _xlfn.VSTACK(INDEX(_xlpm.headers, 3), {55000;25000;10000;7500;6000;5000;3500;2400;1300;600}), _xlpm.q_vals, _xlfn.VSTACK(INDEX(_xlpm.headers, 5), {3000;1500;250;150;100;150;110;110;70;30}), _xlpm.ranges, {30000;15000;2500;1500;1000;1500;1100;1100;700;300}, _xlpm.span, _xlfn.VSTACK(INDEX(_xlpm.headers, 4), _xlpm.ranges), CHOOSE({1,2,3,4,5}, _xlpm.types, _xlpm.min, _xlpm.max, _xlpm.span, _xlpm.q_vals)))</definedName>
-    <definedName name="SPECTRAL_DISTRIBUTION">_xlfn.LAMBDA(_xlpm.total,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.classifications, {"Total";"O";"B";"A";"F";"G";"K";"M"}, _xlpm.table, {3000000;800;160;33;13;8;1.31531603010874}, _xlpm.factors, _xlfn.BYROW(_xlpm.table, _xlfn.LAMBDA(_xlpm.x, 1 / _xlpm.x)), _xlpm.values, _xlfn.BYROW(_xlpm.factors, _xlfn.LAMBDA(_xlpm.x, ROUND(_xlpm.x * _xlpm.total, _xlpm.precision))), _xlpm.results, _xlfn.VSTACK(_xlpm.total, _xlpm.values), CHOOSE({1,2}, _xlpm.classifications, _xlpm.results)))</definedName>
     <definedName name="SPHERICAL_TO_CARTESIAN">_xlfn.LAMBDA(_xlpm.phi,_xlpm.theta,_xlpm.r,_xlop.prec, _xlfn.LET(_xlpm.prec, IF((_xlfn.ISOMITTED(_xlpm.prec)) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.z_mod, SIGN(_xlpm.theta), _xlpm.y_mod, SIGN(_xlpm.phi), _xlpm.x_mod, IF(ABS(_xlpm.phi) &lt; 90, 1, -1), _xlpm.ang_x, RADIANS(MOD(_xlpm.phi, 90)), _xlpm.ang_z, RADIANS(ABS(_xlpm.theta)), _xlpm.d, COS(_xlpm.ang_z) * _xlpm.r, _xlpm.x, ROUND(COS(_xlpm.ang_x) * _xlpm.d * _xlpm.x_mod, _xlpm.prec), _xlpm.y, ROUND(SIN(_xlpm.ang_x) * _xlpm.d * _xlpm.y_mod, _xlpm.prec), _xlpm.z, ROUND(SIN(_xlpm.ang_z) * _xlpm.r * _xlpm.z_mod, _xlpm.prec), _xlpm.result, _xlfn.TEXTJOIN("|", , _xlpm.x, _xlpm.y, _xlpm.z), _xlfn.TOROW(_xlfn.TEXTSPLIT(_xlpm.result, "|"))))</definedName>
     <definedName name="STAR_CLASS_STATS">_xlfn.LAMBDA(_xlpm.in,_xlop.precision, _xlfn.LET(_xlpm.input, SUBSTITUTE(_xlpm.in, " ", ""), _xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.class, LEFT(_xlpm.input, 1), _xlpm.sub, RIGHT(_xlpm.input, LEN(_xlpm.input) - 1), _xlpm.thresholds, {55000,25000,10000,7500,6000,5000,3500,2400,1300,600}, _xlpm.classifications, {"O","B","A","F","G","K","M","L","T","Y"}, _xlpm.q_vals, {3000,1500,250,150,100,150,110,110,70,30}, _xlpm.max_temp, _xlfn.XLOOKUP(_xlpm.class, _xlpm.classifications, _xlpm.thresholds), _xlpm.q_factor, _xlfn.XLOOKUP(_xlpm.class, _xlpm.classifications, _xlpm.q_vals), _xlpm.k_temp, _xlpm.max_temp - (_xlpm.sub * _xlpm.q_factor), _xlpm.temp, _xlpm.k_temp / 5800, _xlpm.kelvin, "K: " &amp; ROUND(_xlpm.k_temp, _xlpm.precision), _xlpm.solar, "T: " &amp; ROUND(_xlpm.temp, _xlpm.precision), _xlpm.radius, "R: " &amp; ROUND(_xlpm.temp ^ 1.8, _xlpm.precision), _xlpm.luminosity, "L: " &amp; ROUND(_xlpm.temp ^ 7.5778, _xlpm.precision), _xlpm.mass, "M: " &amp; ROUND(_xlpm.temp ^ 2, _xlpm.precision), _xlpm.lifetime, "V: " &amp; ROUND(_xlpm.temp ^ -5, _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , "-&gt; " &amp; _xlpm.input, _xlpm.kelvin, _xlpm.solar, _xlpm.mass, _xlpm.radius, _xlpm.luminosity, _xlpm.lifetime), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
     <definedName name="STAR_LIFE">_xlfn.LAMBDA(_xlpm.lifetime,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.solar, "V-&gt; " &amp; ROUND(_xlpm.lifetime, _xlpm.precision), _xlpm.temperature, "T: " &amp; ROUND(_xlpm.lifetime ^ (1 / -5), _xlpm.precision), _xlpm.kelvin, "K: " &amp; ROUND((_xlpm.lifetime ^ (1 / -5)) * 5800, _xlpm.precision), _xlpm.radius, "R: " &amp; ROUND(_xlpm.lifetime ^ (-0.36), _xlpm.precision), _xlpm.mass, "M: " &amp; ROUND(_xlpm.lifetime ^ (1 / -2.5), _xlpm.precision), _xlpm.luminosity, "L: " &amp; ROUND(_xlpm.lifetime ^ -1.52, _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , _xlpm.kelvin, _xlpm.temperature, _xlpm.mass, _xlpm.radius, _xlpm.luminosity, _xlpm.solar), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
@@ -96,14 +100,234 @@
 </metadata>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Spectral</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <r>
+      <t>Mass (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>☉</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radius (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>☉</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Luminosity (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>☉</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Effective</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>(K)</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>(B − V)</t>
+  </si>
+  <si>
+    <t>G0V</t>
+  </si>
+  <si>
+    <t>G1V</t>
+  </si>
+  <si>
+    <t>G2V</t>
+  </si>
+  <si>
+    <t>G3V</t>
+  </si>
+  <si>
+    <t>G4V</t>
+  </si>
+  <si>
+    <t>G5V</t>
+  </si>
+  <si>
+    <t>G6V</t>
+  </si>
+  <si>
+    <t>G7V</t>
+  </si>
+  <si>
+    <t>G8V</t>
+  </si>
+  <si>
+    <t>G9V</t>
+  </si>
+  <si>
+    <t>Temperature Interval</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="IBMPlexMono"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="IBMPlexMono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="IBMPlexMono"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="IBMPlexMono"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,13 +347,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,65 +733,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6503EE-3967-F142-A914-D59AF539BB00}">
-  <dimension ref="B4:F35"/>
+  <dimension ref="A4:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6">
-      <c r="B4" cm="1">
-        <f t="array" ref="B4">ASTRO_HAB_INDEX(2.5)</f>
+    <row r="4" spans="1:3">
+      <c r="A4" cm="1">
+        <f t="array" ref="A4">ASTRO_HAB_INDEX(2.5)</f>
         <v>0.61</v>
       </c>
-      <c r="D4" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B4)</f>
+      <c r="B4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(A4)</f>
         <v>=ASTRO_HAB_INDEX(2.5)</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" cm="1">
-        <f t="array" ref="B5">ASTRO_HAB_INDEX(2.5,2)</f>
+    <row r="5" spans="1:3">
+      <c r="A5" cm="1">
+        <f t="array" ref="A5">ASTRO_HAB_INDEX(2.5,2)</f>
         <v>0.93500000000000005</v>
       </c>
-      <c r="D5" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B5)</f>
+      <c r="B5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(A5)</f>
         <v>=ASTRO_HAB_INDEX(2.5,2)</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" cm="1">
-        <f t="array" ref="B6">ASTRO_HAB_INDEX(2.5,2,5)</f>
+    <row r="6" spans="1:3">
+      <c r="A6" cm="1">
+        <f t="array" ref="A6">ASTRO_HAB_INDEX(2.5,2,5)</f>
         <v>0.93506</v>
       </c>
-      <c r="D6" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B6)</f>
+      <c r="B6" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(A6)</f>
         <v>=ASTRO_HAB_INDEX(2.5,2,5)</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B10)</f>
-        <v>=ASTRO_SPECTRAL_DISTRIBUTION("G",,6)</v>
-      </c>
-      <c r="E9">
-        <v>1.3153160301087401</v>
-      </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">General.RECIP(E9)</f>
-        <v>0.76027355944056108</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+    <row r="9" spans="1:3">
+      <c r="B9" t="str" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">General.FORMULA_TEXT(B10)</f>
+        <v>B10:= ASTRO_SPECTRAL_DISTRIBUTION("G",,6)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10:C16">ASTRO_SPECTRAL_DISTRIBUTION("G",,6)</f>
         <v>O</v>
@@ -561,7 +804,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="1:3">
       <c r="B11" t="str">
         <v>B</v>
       </c>
@@ -569,7 +812,7 @@
         <v>1.7104999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:3">
       <c r="B12" t="str">
         <v>A</v>
       </c>
@@ -577,7 +820,7 @@
         <v>7.8947000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="1:3">
       <c r="B13" t="str">
         <v>F</v>
       </c>
@@ -585,7 +828,7 @@
         <v>0.394737</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:3">
       <c r="B14" t="str">
         <v>G</v>
       </c>
@@ -593,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="1:3">
       <c r="B15" t="str">
         <v>K</v>
       </c>
@@ -601,7 +844,7 @@
         <v>1.5921050000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="1:3">
       <c r="B16" t="str">
         <v>M</v>
       </c>
@@ -610,9 +853,9 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B19)</f>
-        <v>=ASTRO_SPECTRAL_DISTRIBUTION("O",1,8)</v>
+      <c r="B18" t="str" cm="1">
+        <f t="array" aca="1" ref="B18" ca="1">General.FORMULA_TEXT(B19)</f>
+        <v>B19:= ASTRO_SPECTRAL_DISTRIBUTION("O",1,8)</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -673,9 +916,9 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B29)</f>
-        <v>=ASTRO_SPECTRAL_DISTRIBUTION(,100,8)</v>
+      <c r="B28" t="str" cm="1">
+        <f t="array" aca="1" ref="B28" ca="1">General.FORMULA_TEXT(B29)</f>
+        <v>B29:= ASTRO_SPECTRAL_DISTRIBUTION(,100,8)</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -711,7 +954,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:12">
       <c r="B33" t="str">
         <v>G</v>
       </c>
@@ -719,7 +962,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:12">
       <c r="B34" t="str">
         <v>K</v>
       </c>
@@ -727,12 +970,497 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:12">
       <c r="B35" t="str">
         <v>M</v>
       </c>
       <c r="C35">
         <v>0.76270000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="C38" s="8" t="str" cm="1">
+        <f t="array" ref="C38:J48">ASTRO_DISPLAY_SPECTRAL()</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D38" s="8" t="str">
+        <v>O</v>
+      </c>
+      <c r="E38" s="8" t="str">
+        <v>B</v>
+      </c>
+      <c r="F38" s="8" t="str">
+        <v>A</v>
+      </c>
+      <c r="G38" s="8" t="str">
+        <v>F</v>
+      </c>
+      <c r="H38" s="8" t="str">
+        <v>G</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <v>K</v>
+      </c>
+      <c r="J38" t="str">
+        <v>M</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8">
+        <v>0</v>
+      </c>
+      <c r="D39" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E39" s="8" t="str">
+        <v>31400; 5400</v>
+      </c>
+      <c r="F39" s="8" t="str">
+        <v>9700; 400</v>
+      </c>
+      <c r="G39" s="8" t="str">
+        <v>7220; 200</v>
+      </c>
+      <c r="H39" s="8" t="str">
+        <v>5930; 70</v>
+      </c>
+      <c r="I39" s="8" t="str">
+        <v>5270; 100</v>
+      </c>
+      <c r="J39" t="str">
+        <v>3850; 190</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E40" s="8" t="str">
+        <v>26000; 5400</v>
+      </c>
+      <c r="F40" s="8" t="str">
+        <v>9300; 500</v>
+      </c>
+      <c r="G40" s="8" t="str">
+        <v>7020; 200</v>
+      </c>
+      <c r="H40" s="8" t="str">
+        <v>5860; 90</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <v>5170; 70</v>
+      </c>
+      <c r="J40" t="str">
+        <v>3660; 100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8">
+        <v>2</v>
+      </c>
+      <c r="D41" s="8" t="str">
+        <v/>
+      </c>
+      <c r="E41" s="8" t="str">
+        <v>20600; 3600</v>
+      </c>
+      <c r="F41" s="8" t="str">
+        <v>8800; 200</v>
+      </c>
+      <c r="G41" s="8" t="str">
+        <v>6820; 70</v>
+      </c>
+      <c r="H41" s="8" t="str">
+        <v>5770; 50</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <v>5100; 270</v>
+      </c>
+      <c r="J41" t="str">
+        <v>3560; 130</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8">
+        <v>3</v>
+      </c>
+      <c r="D42" s="8" t="str">
+        <v>44900; 2000</v>
+      </c>
+      <c r="E42" s="8" t="str">
+        <v>17000; 600</v>
+      </c>
+      <c r="F42" s="9" t="str">
+        <v>8600; 350</v>
+      </c>
+      <c r="G42" s="9" t="str">
+        <v>6750; 80</v>
+      </c>
+      <c r="H42" s="9" t="str">
+        <v>5720; 40</v>
+      </c>
+      <c r="I42" s="9" t="str">
+        <v>4830; 230</v>
+      </c>
+      <c r="J42" s="7" t="str">
+        <v>3430; 220</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8" t="str">
+        <v>42900; 1500</v>
+      </c>
+      <c r="E43" s="9" t="str">
+        <v>16400; 700</v>
+      </c>
+      <c r="F43" s="8" t="str">
+        <v>8250; 150</v>
+      </c>
+      <c r="G43" s="8" t="str">
+        <v>6670; 120</v>
+      </c>
+      <c r="H43" s="8" t="str">
+        <v>5680; 20</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <v>4600; 160</v>
+      </c>
+      <c r="J43" t="str">
+        <v>3210; 150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8">
+        <v>5</v>
+      </c>
+      <c r="D44" s="8" t="str">
+        <v>41400; 1900</v>
+      </c>
+      <c r="E44" s="9" t="str">
+        <v>15700; 1200</v>
+      </c>
+      <c r="F44" s="8" t="str">
+        <v>8100; 190</v>
+      </c>
+      <c r="G44" s="8" t="str">
+        <v>6550; 200</v>
+      </c>
+      <c r="H44" s="8" t="str">
+        <v>5660; 60</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <v>4440; 140</v>
+      </c>
+      <c r="J44" t="str">
+        <v>3060; 250</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8">
+        <v>6</v>
+      </c>
+      <c r="D45" s="8" t="str">
+        <v>39500; 2400</v>
+      </c>
+      <c r="E45" s="9" t="str">
+        <v>14500; 500</v>
+      </c>
+      <c r="F45" s="8" t="str">
+        <v>7910; 150</v>
+      </c>
+      <c r="G45" s="8" t="str">
+        <v>6350; 70</v>
+      </c>
+      <c r="H45" s="8" t="str">
+        <v>5600; 50</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <v>4300; 200</v>
+      </c>
+      <c r="J45" t="str">
+        <v>2810; 130</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8">
+        <v>7</v>
+      </c>
+      <c r="D46" s="8" t="str">
+        <v>37100; 2000</v>
+      </c>
+      <c r="E46" s="9" t="str">
+        <v>14000; 1700</v>
+      </c>
+      <c r="F46" s="8" t="str">
+        <v>7760; 170</v>
+      </c>
+      <c r="G46" s="8" t="str">
+        <v>6280; 100</v>
+      </c>
+      <c r="H46" s="8" t="str">
+        <v>5550; 70</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <v>4100; 110</v>
+      </c>
+      <c r="J46" t="str">
+        <v>2680; 110</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8">
+        <v>8</v>
+      </c>
+      <c r="D47" s="8" t="str">
+        <v>35100; 1800</v>
+      </c>
+      <c r="E47" s="9" t="str">
+        <v>12300; 1600</v>
+      </c>
+      <c r="F47" s="8" t="str">
+        <v>7590; 190</v>
+      </c>
+      <c r="G47" s="8" t="str">
+        <v>6180; 130</v>
+      </c>
+      <c r="H47" s="8" t="str">
+        <v>5480; 100</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <v>3990; 60</v>
+      </c>
+      <c r="J47" t="str">
+        <v>2570; 190</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8" t="str">
+        <v>33300; 1900</v>
+      </c>
+      <c r="E48" s="9" t="str">
+        <v>10700; 1000</v>
+      </c>
+      <c r="F48" s="8" t="str">
+        <v>7400; 180</v>
+      </c>
+      <c r="G48" s="8" t="str">
+        <v>6050; 120</v>
+      </c>
+      <c r="H48" s="8" t="str">
+        <v>5380; 110</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <v>3930; 80</v>
+      </c>
+      <c r="J48" t="str">
+        <v>2380; 280</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" t="str" cm="1">
+        <f t="array" ref="C51:D61">ASTRO_DISPLAY_SPECTRAL("F")</f>
+        <v>F</v>
+      </c>
+      <c r="D51" t="str">
+        <v>span</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52">
+        <v>7220</v>
+      </c>
+      <c r="D52">
+        <v>200</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53">
+        <v>7020</v>
+      </c>
+      <c r="D53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54">
+        <v>6820</v>
+      </c>
+      <c r="D54">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55">
+        <v>6750</v>
+      </c>
+      <c r="D55">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56">
+        <v>6670</v>
+      </c>
+      <c r="D56">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57">
+        <v>6550</v>
+      </c>
+      <c r="D57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58">
+        <v>6350</v>
+      </c>
+      <c r="D58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59">
+        <v>6280</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60">
+        <v>6180</v>
+      </c>
+      <c r="D60">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61">
+        <v>6050</v>
+      </c>
+      <c r="D61">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="7:8">
+      <c r="G94" t="str" cm="1">
+        <f t="array" ref="G94:H104">ASTRO_DISPLAY_SPECTRAL("F")</f>
+        <v>F</v>
+      </c>
+      <c r="H94" t="str">
+        <v>span</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
+      <c r="G95">
+        <v>7220</v>
+      </c>
+      <c r="H95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8">
+      <c r="G96">
+        <v>7020</v>
+      </c>
+      <c r="H96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8">
+      <c r="G97">
+        <v>6820</v>
+      </c>
+      <c r="H97">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8">
+      <c r="G98">
+        <v>6750</v>
+      </c>
+      <c r="H98">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8">
+      <c r="G99">
+        <v>6670</v>
+      </c>
+      <c r="H99">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8">
+      <c r="G100">
+        <v>6550</v>
+      </c>
+      <c r="H100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8">
+      <c r="G101">
+        <v>6350</v>
+      </c>
+      <c r="H101">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8">
+      <c r="G102">
+        <v>6280</v>
+      </c>
+      <c r="H102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8">
+      <c r="G103">
+        <v>6180</v>
+      </c>
+      <c r="H103">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8">
+      <c r="G104">
+        <v>6050</v>
+      </c>
+      <c r="H104">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -740,8 +1468,354 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA255D3-CEF9-FC41-A66A-F270D65F44DC}">
+  <dimension ref="B2:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5930</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="4">
+        <f>F5-F6</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5860</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6:H14" si="0">F6-F7</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.012</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5770</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.002</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5720</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5680</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5660</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5600</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5550</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5480</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5380</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="F15" s="5">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18">
+        <f>8-7.3</f>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19">
+        <f>8-7.3</f>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="D19" s="4">
+        <f>F12-F13</f>
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <f>D19*C19</f>
+        <v>49.000000000000014</v>
+      </c>
+      <c r="F19" s="4">
+        <f>E19+F13</f>
+        <v>5529</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" tooltip="Spectral type" display="https://en.wikipedia.org/wiki/Spectral_type" xr:uid="{3C029055-B17C-1748-BE16-917DCBEEC72A}"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="Spectral type" display="https://en.wikipedia.org/wiki/Spectral_type" xr:uid="{25A52C30-8BFF-A642-A63E-360E33AFF438}"/>
+    <hyperlink ref="F2" r:id="rId3" tooltip="Effective temperature" display="https://en.wikipedia.org/wiki/Effective_temperature" xr:uid="{0E62F260-B9DB-3B42-AF47-426C6C599B40}"/>
+    <hyperlink ref="F3" r:id="rId4" tooltip="Effective temperature" display="https://en.wikipedia.org/wiki/Effective_temperature" xr:uid="{90A1DD7B-1A16-DD4C-A140-0FA2453666A9}"/>
+    <hyperlink ref="G2" r:id="rId5" tooltip="Color index" display="https://en.wikipedia.org/wiki/Color_index" xr:uid="{05AA38E1-9CAA-9A4D-AECB-12E02AE0C0DE}"/>
+    <hyperlink ref="G3" r:id="rId6" tooltip="Color index" display="https://en.wikipedia.org/wiki/Color_index" xr:uid="{B81297A7-1646-BB41-91DE-A80136B19813}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQAgAG4AbwByAG0AYQBsAGkAegBlAGQAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQAgAGkAbgBkAGUAeAAgAGIAYQBzAGUAZAAgAG8AbgAgAGEAIABwAGwAYQBuAGUAdAAnAHMAIABvAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIABhACAAcwB0AGEAcgAnAHMAIABuAHUAYwBsAGUAYQBsACAAKABoAGEAYgBpAHQAYQBiAGwAZQAgAHoAbwBuAGUAIABhAG4AYwBoAG8AcgApACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAHMAYwBhAGwAYQByACAAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAIABpAG4AZABlAHgAIAAoAG4AdQBtAGIAZQByACkALAAgAG8AcgAgAFwAIgBVAC8ASQBcACIAIABpAGYAIAB1AG4AaQBuAGgAYQBiAGkAdABhAGIAbABlAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABPAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlACAAKABpAG4AIABBAFUAKQBcAG4AIAAgACAALQAgAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBjAGwAZQBhAGwAIAB6AG8AbgBlACAAcgBhAGQAaQB1AHMAIAAoAGkAbgAgAEEAVQApADsAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAxAC4AMABcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAHQAaABlACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABJAG4AZABlAHgAIABIIiAAMQAuADAAIABpAG4AZABpAGMAYQB0AGUAcwAgAGkAZABlAGEAbAAgAGEAbABpAGcAbgBtAGUAbgB0ACAAdwBpAHQAaAAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAuAFwAbgAgACAAIAAtACAAVgBhAGwAdQBlAHMAIAA8ACAAMQAgAGEAcgBlACAAaQBuAHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGgAbwB0ACkALgBcAG4AIAAgACAALQAgAFYAYQBsAHUAZQBzACAAPgAgADEAIABhAHIAZQAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGMAbwBsAGQAKQAuAFwAbgAgACAAIAAtACAASQBmACAAdABoAGUAIABvAHIAYgBpAHQAIABpAHMAIAB0AG8AbwAgAGQAZQBlAHAAIABpAG4AcwBpAGQAZQAgAHQAaABlACAAaQBuAG4AZQByACAAYgBvAHUAbgBkAGEAcgB5ACwAIAByAGUAdAB1AHIAbgBzACAAXAAiAFUALwBJAFwAIgAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGEAIABwAGkAZQBjAGUAdwBpAHMAZQAgAGYAdQBuAGMAdABpAG8AbgAgAGYAbwByACAAcwBtAG8AbwB0AGgAIABmAGEAbABsAG8AZgBmACAAYQBjAHIAbwBzAHMAIABiAG8AdQBuAGQAYQByAHkALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAxAC4AMAApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAMQAuADAAMAAwACAAIAAoAGEAcwBzAHUAbQBlAHMAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAIAA9ACAAMQApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAoADAALgA3ADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgAJIhIAAwAC4ANQAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACgAMgAuADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgACAAkiEgADEALgA2ADIAOABcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAwAC4AMgA1ACwAIAAxAC4AMAApACAAIAAgACAAIAAgACAAIACSISAAXAAiAFUALwBJAFwAIgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAIAA9ACAATABBAE0AQgBEAEEAKABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAsACAAWwBuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIAAzACAAZABlAGMAaQBtAGEAbABzACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwApACwAIAAxACwAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAsACAALwAqACAARABlAGYAYQB1AGwAdAAgAHQAbwAgADEAIABBAFUAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAKgAvAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsACAASQBGACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAA8ACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABUAFIAVQBFACwAIABGAEEATABTAEUAKQAsACAAIAAvACoAIABEAGUAdABlAHIAbQBpAG4AZQAgAHAAbwBzAGkAdABpAG8AbgAgACoALwBcAG4AXABuACAAIAAgACAAIAAgACAAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAqACAAUABpAGUAYwBlAHcAaQBzAGUAIABmAHUAbgBjAHQAaQBvAG4AIAAqAC8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAMgAgACoAIABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAgAC8AIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAgAC0AIAAxACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEkAbgBzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAvACAAKAAtADMALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACkAKQAgACsAIAAoADQALgA4ADUAIAAvACAAMwAuADgANQApACAAIAAvACoAIABPAHUAdABzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEgAYQBuAGQAbABlACAAaQBuAHYAYQBsAGkAZAAvAHYAYQBsAGkAZAAgAGMAYQBzAGUAcwAgACoALwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAXwBpAG4AZABlAHgAIAA8AD0AIAAwACwAIABcACIAVQAvAEkAXAAiACwAIABSAE8AVQBOAEQAKABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4AKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AIAA9ACAATABBAE0AQgBEAEEAKABbAGEAbgBjAGgAbwByAF8AYwBsAGEAcwBzAF0ALAAgAFsAYQBuAGMAaABvAHIAXwBjAG8AdQBuAHQAXQAsACAAWwBkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEQAZQBmAGEAdQBsAHQAIABwAGEAcgBhAG0AZQB0AGUAcgBzACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwApACwAIABcACIAJABcACIALAAgAFUAUABQAEUAUgAoAGEAbgBjAGgAbwByAF8AYwBsAGEAcwBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBjAG8AdQBuAHQALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAYQBuAGMAaABvAHIAXwBjAG8AdQBuAHQAKQAsACAAMQAsACAAYQBuAGMAaABvAHIAXwBjAG8AdQBuAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGQAZQBjAGkAbQBhAGwAXwBwAGwAYQBjAGUAcwApACwAIAAzACwAIABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAAUwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzACAAYQByAHIAYQB5ACAAYQBuAGQAIABiAGEAcwBlACAAZgByAGUAcQB1AGUAbgBjAGkAZQBzACAAKABlAG0AcABpAHIAaQBjAGEAbAApACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIABhAHIAcgBfAGMAbABhAHMAcwBlAHMALAAgAHsAXAAiAE8AXAAiADsAIABcACIAQgBcACIAOwAgAFwAIgBBAFwAIgA7ACAAXAAiAEYAXAAiADsAIABcACIARwBcACIAOwAgAFwAIgBLAFwAIgA7ACAAXAAiAE0AXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGEAcgByAF8AYgBhAHMAZQBfAHAAYwB0ACwAIAB7ADAALgAwADAAMAAwADMAOwAgADAALgAxADMAOwAgADAALgA2ADsAIAAzAC4AMAA7ACAANwAuADYAOwAgADEAMgAuADEAOwAgADcANgAuADIANwB9ACwAXABuACAAIAAgACAAIAAgACAAIABhAHIAcgBfAGIAYQBzAGUAXwBmAHIAYQBjACwAIABCAFkAUgBPAFcAKABhAHIAcgBfAGIAYQBzAGUAXwBwAGMAdAAsACAATABBAE0AQgBEAEEAKAB4ACwAIAB4ACAALwAgADEAMAAwACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAATABvAG8AawB1AHAAIABzAGMAYQBsAGkAbgBnACAAZgBhAGMAdABvAHIAIABmAG8AcgAgAGEAIABzAHAAZQBjAGkAZgBpAGMAIABhAG4AYwBoAG8AcgAgAHQAeQBwAGUAXABuACAAIAAgACAAIAAgACAAIABhAG4AYwBoAG8AcgBfAGYAcgBlAHEALAAgAFgATABPAE8ASwBVAFAAKABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwAsACAAYQByAHIAXwBjAGwAYQBzAHMAZQBzACwAIABhAHIAcgBfAGIAYQBzAGUAXwBmAHIAYQBjACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAYwBhAGwAaQBuAGcAXwBmAGEAYwB0AG8AcgAsACAAYQBuAGMAaABvAHIAXwBjAG8AdQBuAHQAIAAvACAAYQBuAGMAaABvAHIAXwBmAHIAZQBxACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABTAGMAYQBsAGUAZAAgAGQAaQBzAHQAcgBpAGIAdQB0AGkAbwBuACAAFCAgAG4AbwByAG0AYQBsAGkAegBlACAAbwByACAAYQBwAHAAbAB5ACAAdQBzAGUAcgAtAGQAZQBmAGkAbgBlAGQAIABzAGMAYQBsAGUAXABuACAAIAAgACAAIAAgACAAIABzAGMAYQBsAGUAZAAsACAASQBGACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMAIAA9ACAAXAAiACQAXAAiACwAIABhAHIAcgBfAGIAYQBzAGUAXwBmAHIAYQBjACwAIABCAFkAUgBPAFcAKABhAHIAcgBfAGIAYQBzAGUAXwBmAHIAYQBjACwAIABMAEEATQBCAEQAQQAoAHgALAAgAHgAIAAqACAAcwBjAGEAbABpAG4AZwBfAGYAYQBjAHQAbwByACkAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABGAGkAbgBhAGwAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABIAFMAVABBAEMASwAoAGEAcgByAF8AYwBsAGEAcwBzAGUAcwAsACAAUgBPAFUATgBEACgAcwBjAGEAbABlAGQALAAgAGQAZQBjAGkAbQBhAGwAXwBwAGwAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AIAA9ACAATABBAE0AQgBEAEEAKAB0AG8AdABhAGwALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAAzACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAewBcACIAVABvAHQAYQBsAFwAIgA7ACAAXAAiAE8AXAAiADsAIABcACIAQgBcACIAOwAgAFwAIgBBAFwAIgA7ACAAXAAiAEYAXAAiADsAIABcACIARwBcACIAOwAgAFwAIgBLAFwAIgA7ACAAXAAiAE0AXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHQAYQBiAGwAZQAsACAAewAzADAAMAAwADAAMAAwADsAIAA4ADAAMAA7ACAAMQA2ADAAOwAgADMAMwA7ACAAMQAzADsAIAA4ADsAIAAxAC4AMwAxADUAMwAxADYAMAAzADAAMQAwADgANwA0AH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGYAYQBjAHQAbwByAHMALAAgAEIAWQBSAE8AVwAoAHQAYQBiAGwAZQAsACAATABBAE0AQgBEAEEAKAB4ACwAMQAvAHgAKQApACwAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbAB1AGUAcwAsACAAYgB5AHIAbwB3ACgAZgBhAGMAdABvAHIAcwAsAGwAYQBtAGIAZABhACgAeAAsAHIAbwB1AG4AZAAoAHgAKgB0AG8AdABhAGwALABwAHIAZQBjAGkAcwBpAG8AbgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAcwAsACAAdgBzAHQAYQBjAGsAKAB0AG8AdABhAGwALAAgAHYAYQBsAHUAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEMASABPAE8AUwBFACgAewAxACwAIAAyAH0ALAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAByAGUAcwB1AGwAdABzACkAXABuACAAIAAgACAAIAAgACAAIAAvACoAdAB5AHAAZQAmAFwAIgAgAFwAIgAmAGMAbwB1AG4AdAAqAC8AXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABTAFQAQQBSAF8AUwBDAEEATABFAF8AVABFAE0AUABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABzAHQAYQByACAAYQB0AHQAcgBpAGIAdQB0AGUAcwAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIABmAHIAbwBtACAAcwBvAGwAYQByACAAdABlAG0AcABcAG4AKgAvAFwAbgBTAFQAQQBSAF8AUwBDAEEATABFAF8AVABFAE0AUAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQBtAHAALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AF8AdABlAG0AcAAsACAAXAAiAFQALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAxAC4AOAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADcALgA1ADcANwA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAAMgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAALQA1ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABfAHQAZQBtAHAALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIAXwBTAEMAQQBMAEUAXwBLAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABrAGUAbAB2AGkAbgAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwB0AGUAbQBwACwAIABcACIASwAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAawBlAGwAdgBpAG4ALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAALAAgAGsAZQBsAHYAaQBuACAALwAgADUAOAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADEALgA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAANwAuADUANwA3ADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAtADUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAXwB0AGUAbQBwACwAIABzAG8AbABhAHIALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIAXwBDAEwAQQBTAFMAXwBTAFQAQQBUAFMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAG4AcAB1AHQALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABpAG4ALAAgAFwAIgAgAFwAIgAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMALAAgAEwARQBGAFQAKABpAG4AcAB1AHQALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGIALAAgAFIASQBHAEgAVAAoAGkAbgBwAHUAdAAsACAATABFAE4AKABpAG4AcAB1AHQAKQAgAC0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAaAByAGUAcwBoAG8AbABkAHMALAAgAHsANQA1ADAAMAAwACwAIAAyADUAMAAwADAALAAgADEAMAAwADAAMAAsACAANwA1ADAAMAAsACAANgAwADAAMAAsACAANQAwADAAMAAsACAAMwA1ADAAMAAsACAAMgA0ADAAMAAsACAAMQAzADAAMAAsACAANgAwADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiACwAIABcACIATABcACIALAAgAFwAIgBUAFwAIgAsACAAXAAiAFkAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbABzACwAIAB7ADMAMAAwADAALAAgADEANQAwADAALAAgADIANQAwACwAIAAxADUAMAAsACAAMQAwADAALAAgADEANQAwACwAIAAxADEAMAAsACAAMQAxADAALAAgADcAMAAsACAAMwAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQB4AF8AdABlAG0AcAAsACAAWABMAE8ATwBLAFUAUAAoAGMAbABhAHMAcwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHQAaAByAGUAcwBoAG8AbABkAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAGYAYQBjAHQAbwByACwAIABYAEwATwBPAEsAVQBQACgAYwBsAGEAcwBzACwAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAcQBfAHYAYQBsAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBfAHQAZQBtAHAALAAgAG0AYQB4AF8AdABlAG0AcAAgAC0AIAAoAHMAdQBiACAAKgAgAHEAXwBmAGEAYwB0AG8AcgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwACwAIABrAF8AdABlAG0AcAAgAC8AIAA1ADgAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABrAF8AdABlAG0AcAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBvAGwAYQByACwAIABcACIAVAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABcACIAUgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAAMQAuADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFwAIgBMADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAA3AC4ANQA3ADcAOAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADIALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgAC0ANQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAXAAiAC0APgAgAFwAIgAgACYAIABpAG4AcAB1AHQALAAgAGsAZQBsAHYAaQBuACwAIABzAG8AbABhAHIALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFQAQQBSAF8ATQBBAFMAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAF8AbQBhAHMAcwAsACAAXAAiAE0ALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAG0AYQBzAHMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbQBhAHMAcwApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAG8AbABhAHIALAAgAFMAUQBSAFQAKABtAGEAcwBzACkAIAAqACAANQA4ADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAcwBvAGwAYQByACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABtAGEAcwBzACAAXgAgADAALgA5ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAG0AYQBzAHMAIABeACAAMwAuADcAOAA4ADkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbQBhAHMAcwApACAAXgAgAC0ANQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAawBlAGwAdgBpAG4ALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAcwBfAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFQAQQBSAF8AUgBBAEQAUwAgAD0AIABMAEEATQBCAEQAQQAoAHIAYQBkAGkAdQBzACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBvAGwAYQByACwAIABcACIAUgAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAcgBhAGQAaQB1AHMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAgAF4AIAAoADEAIAAvACAAMQAuADgAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAKAByAGEAZABpAHUAcwAgAF4AIAAoADEAIAAvACAAMQAuADgAKQApACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFwAIgBMADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAcgBhAGQAaQB1AHMAIABeACAANAAuADIAMgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAgAF4AIAAxAC4AMQAxADQAMgA3ADAAMAAxADcANwA3ADcANwA4ADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAgAF4AIAAoADEAIAAvACAALQAwAC4AMwA2ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAZQBsAHYAaQBuACwAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHMAbwBsAGEAcgAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AUwBUAEEAUgBfAEwAVQBNAFMAIAA9ACAATABBAE0AQgBEAEEAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABcACIAVAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADcALgA2ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANwAuADUANwA3ADgAKQApACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAXwBsAHUAbQAsACAAXAAiAEwALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABcACIAUgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADQALgAyADIAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAAzAC4ANwA4ADgAOQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAALQAxAC4ANQAyACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAZQBsAHYAaQBuACwAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABzAF8AbAB1AG0ALAAgAGwAaQBmAGUAdABpAG0AZQApACwAXABuACAAIAAgACAAIAAgACAAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAaQBzAHQALAAgAFwAIgB8AFwAIgApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUwBUAEEAUgBMAFUATQBTACAAPQAgAEwAQQBNAEIARABBACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBiAGUAbABzACwAIABUAFIAQQBOAFMAUABPAFMARQAoAHsAXAAiAEsAOgBcACIALAAgAFwAIgBUADoAXAAiACwAIABcACIATQA6AFwAIgAsACAAXAAiAFIAOgBcACIALAAgAFwAIgBMAH0AXAAiACwAIABcACIAVgA6AFwAIgB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADcALgA1ADcANwA4ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAEsALAAgAFIATwBVAE4ARAAoACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANwAuADUANwA3ADgAKQApACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAEwALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADQALgAyADIAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAAMwAuADcAOAA4ADkAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVgAsACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAALQAxAC4ANQAyACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAdAB0AHIAaQBiAHMALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgAsAFwAIgAsACAALAAgAEsALAAgAFQALAAgAE0ALAAgAFIALAAgAEwALAAgAFYAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFQAUgBBAE4AUwBQAE8AUwBFACgAVABFAFgAVABTAFAATABJAFQAKABhAHQAdAByAGkAYgBzACwAIABcACIALABcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABsAGEAYgBlAGwAcwAsACAAdgBhAGwAdQBlAHMAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AUwBUAEEAUgBfAEwASQBGAEUAIAA9ACAATABBAE0AQgBEAEEAKABsAGkAZgBlAHQAaQBtAGUALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAG8AbABhAHIALAAgAFwAIgBWAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUAIABeACAAKAAxACAALwAgAC0ANQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAoAGwAaQBmAGUAdABpAG0AZQAgAF4AIAAoADEAIAAvACAALQA1ACkAKQAgACoAIAA1ADgAMAAwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUAIABeACAAKAAtADAALgAzADYAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAXAAiAE0AOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUAIABeACAAKAAxACAALwAgAC0AMgAuADUAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAGkAZgBlAHQAaQBtAGUAIABeACAALQAxAC4ANQAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAcwBvAGwAYQByACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACAAPQAgAEwAQQBNAEIARABBACgAdABlAG0AcAAsACAAWwBtAG8AZABlAF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAALAAgAGkAZgBzACgAdABlAG0AcAA8ADYAMAAwACwANgAwADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAbQBwAD4ANQA1ADAAMAAwACwANQA1ADAAMAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsACAAdABlAG0AcAApACwAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwAsACAASQBGACgATwBSACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjACkALAAgAHAAcgBlAGMAIAA8ACAAMAApACwAIAAzACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAaAByAGUAcwBoAG8AbABkAHMALAAgAHsANQA1ADAAMAAwACwAIAAyADUAMAAwADAALAAgADEAMAAwADAAMAAsACAANwA1ADAAMAAsACAANgAwADAAMAAsACAANQAwADAAMAAsACAAMwA1ADAAMAAsACAAMgA0ADAAMAAsACAAMQAzADAAMAAsACAANgAwADAALAAgADMAMAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB7AFwAIgBPAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQQBcACIALAAgAFwAIgBGAFwAIgAsACAAXAAiAEcAXAAiACwAIABcACIASwBcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAEwAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBZAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwAcwAsACAAewAzADAAMAAwACwAIAAxADUAMAAwACwAIAAyADUAMAAsACAAMQA1ADAALAAgADEAMAAwACwAIAAxADUAMAAsACAAMQAxADAALAAgADEAMQAwACwAIAA3ADAALAAgADMAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABpAG4AZABlAHgALAAgAE0AQQBUAEMASAAoAFQAUgBVAEUALAAgAHQAZQBtAHAAIAA+ACAAdABoAHIAZQBzAGgAbwBsAGQAcwAsACAAMAApACAALQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgAHMAXwB0AHkAcABlACwAIABJAE4ARABFAFgAKABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAaQBuAGQAZQB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwBtAGEAeAAsACAASQBOAEQARQBYACgAdABoAHIAZQBzAGgAbwBsAGQAcwAsACAAaQBuAGQAZQB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbAAsACAASQBOAEQARQBYACgAcQBfAHYAYQBsAHMALAAgAGkAbgBkAGUAeAApACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAXwBuAHUAbQAsACAAKABrAF8AbQBhAHgAIAAtACAAdABlAG0AcAApACAALwAgAHEAXwB2AGEAbAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBfAGMAbABhAHMAcwAsACAASQBGACgAYwBsAGEAcwBzAF8AbgB1AG0AIAA9ACAAMQAwACwAIAA5AC4AOQA5ADkALAAgAGMAbABhAHMAcwBfAG4AdQBtACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABTAFcASQBUAEMASAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsACAAcwBfAHQAeQBwAGUAIAAmACAAXAAiACAAXAAiACAAJgAgAEYASQBYAEUARAAoAHMAXwBjAGwAYQBzAHMALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACwAIAB0AGUAbQBwACAAJgAgAFwAIgAgAD0AIABcACIAIAAmACAAcwBfAHQAeQBwAGUAIAAmACAARgBJAFgARQBEACgAcwBfAGMAbABhAHMAcwAsACAAcAByAGUAYwApACwAIAApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBUAEUATQBQAF8ARgBSAE8ATQBfAFQAWQBQAEUAIAA9ACAATABBAE0AQgBEAEEAKABpAG4ALAAgAFsAbQBvAGQAZQBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALAAgAEkARgAoAE8AUgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBvAGQAZQApACwAIABtAG8AZABlACAAPgAgADEAKQAsACAAMAAsACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAIAAgACAAIABpAG4AcAB1AHQALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABpAG4ALAAgAFwAIgAgAFwAIgAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMALAAgAEwARQBGAFQAKABpAG4AcAB1AHQALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGIALAAgAFIASQBHAEgAVAAoAGkAbgBwAHUAdAAsACAATABFAE4AKABpAG4AcAB1AHQAKQAgAC0AIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAaAByAGUAcwBoAG8AbABkAHMALAAgAHsANQA1ADAAMAAwACwAIAAyADUAMAAwADAALAAgADEAMAAwADAAMAAsACAANwA1ADAAMAAsACAANgAwADAAMAAsACAANQAwADAAMAAsACAAMwA1ADAAMAAsACAAMgA0ADAAMAAsACAAMQAzADAAMAAsACAANgAwADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiACwAIABcACIATABcACIALAAgAFwAIgBUAFwAIgAsACAAXAAiAFkAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbABzACwAIAB7ADMAMAAwADAALAAgADEANQAwADAALAAgADIANQAwACwAIAAxADUAMAAsACAAMQAwADAALAAgADEANQAwACwAIAAxADEAMAAsACAAMQAxADAALAAgADcAMAAsACAAMwAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQB4AF8AdABlAG0AcAAsACAAWABMAE8ATwBLAFUAUAAoAGMAbABhAHMAcwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHQAaAByAGUAcwBoAG8AbABkAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAGYAYQBjAHQAbwByACwAIABYAEwATwBPAEsAVQBQACgAYwBsAGEAcwBzACwAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAcQBfAHYAYQBsAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBfAHQAZQBtAHAALAAgAG0AYQB4AF8AdABlAG0AcAAgAC0AIAAoAHMAdQBiACAAKgAgAHEAXwBmAGEAYwB0AG8AcgApACwAXABuACAAIAAgACAAIAAgACAAIABTAFcASQBUAEMASAAoAG0AbwBkAGUALAAgADAALAAgAGsAXwB0AGUAbQBwACwAIAAxACwAIABpAG4AcAB1AHQAIAAmACAAXAAiACAAPQAgAFwAIgAgACYAIABrAF8AdABlAG0AcAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAUABFAEMAVABSAEEATABfAEMATABBAFMAUwBfAEQAQQBUAEEAIAA9ACAATABBAE0AQgBEAEEAKABbAG4AdQBsAGwAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABoAGUAYQBkAGUAcgBzACwAIAB7AFwAIgBUAHkAcABlAFwAIgA7ACAAXAAiAE0AaQBuAFwAIgA7ACAAXAAiAE0AYQB4AFwAIgA7ACAAXAAiAFMAcABhAG4AXAAiADsAIABcACIAcQBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAdAB5AHAAZQBzACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADEAKQAsACAAewBcACIATwBcACIAOwAgAFwAIgBCAFwAIgA7ACAAXAAiAEEAXAAiADsAIABcACIARgBcACIAOwAgAFwAIgBHAFwAIgA7ACAAXAAiAEsAXAAiADsAIABcACIATQBcACIAOwAgAFwAIgBMAFwAIgA7ACAAXAAiAFQAXAAiADsAIABcACIAWQBcACIAfQApACwAXABuACAAIAAgACAAIAAgACAAIABtAGkAbgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAyACkALAAgAHsAMgA1ADAAMAAwADsAIAAxADAAMAAwADAAOwAgADcANQAwADAAOwAgADYAMAAwADAAOwAgADUAMAAwADAAOwAgADMANQAwADAAOwAgADIANAAwADAAOwAgADEAMwAwADAAOwAgADYAMAAwADsAIAAzADAAMAB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQB4ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADMAKQAsACAAewA1ADUAMAAwADAAOwAgADIANQAwADAAMAA7ACAAMQAwADAAMAAwADsAIAA3ADUAMAAwADsAIAA2ADAAMAAwADsAIAA1ADAAMAAwADsAIAAzADUAMAAwADsAIAAyADQAMAAwADsAIAAxADMAMAAwADsAIAA2ADAAMAB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbABzACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADUAKQAsACAAewAzADAAMAAwADsAIAAxADUAMAAwADsAIAAyADUAMAA7ACAAMQA1ADAAOwAgADEAMAAwADsAIAAxADUAMAA7ACAAMQAxADAAOwAgADEAMQAwADsAIAA3ADAAOwAgADMAMAB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBuAGcAZQBzACwAIAB7ADMAMAAwADAAMAA7ACAAMQA1ADAAMAAwADsAIAAyADUAMAAwADsAIAAxADUAMAAwADsAIAAxADAAMAAwADsAIAAxADUAMAAwADsAIAAxADEAMAAwADsAIAAxADEAMAAwADsAIAA3ADAAMAA7ACAAMwAwADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBwAGEAbgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAA0ACkALAAgAHIAYQBuAGcAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEMASABPAE8AUwBFACgAewAxACwAIAAyACwAIAAzACwAIAA0ACwAIAA1AH0ALAAgAHQAeQBwAGUAcwAsACAAbQBpAG4ALAAgAG0AYQB4ACwAIABzAHAAYQBuACwAIABxAF8AdgBhAGwAcwApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAUABFAEMAXwBMAEkAUwBUACAAPQAgAEwAQQBNAEIARABBACgAWwBuAHUAbABsAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBPADoAIAAyADUAMAAwADAAIAAtACAANQA1ADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAQgA6ACAAMQAwADAAMAAwACAALQAgADIANQAwADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEEAOgAgADcANQAwADAAIAAtACAAMQAwADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARgA6ACAANgAwADAAMAAgAC0AIAA3ADUAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARwA6ACAANQAwADAAMAAgAC0AIAA2ADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASwA6ACAAMwA1ADAAMAAgAC0AIAA1ADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQA6ACAAMgA0ADAAMAAgAC0AIAAzADUAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATAA6ACAAMQAzADAAMAAgAC0AIAAyADQAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAVAA6ACAANgAwADAAIAAtACAAMQAzADAAMABcACIAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFkAOgAgADMAMAAwACAALQAgADYAMAAwAFwAIgBcAG4AIAAgACAAIAAgACAAIAAgAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTAF8AVABBAEIATABFACAAPQAgAEwAQQBNAEIARABBACgAWwBuAHUAbABsAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMALAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgAGgAZQBhAGQAZQByAHMALAAgAHsAXAAiAFoAbwBuAGUAXAAiADsAIABcACIASQBuAG4AZQByAFwAIgA7ACAAXAAiAE8AdQB0AGUAcgBcACIAOwAgAFwAIgBBAHYAZQByAGEAZwBlAFwAIgA7ACAAXAAiAFMAcABhAG4AXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBiAGUAbABzACwAIAB7AFwAIgBaADAAIAAoAEkAZwBuAGkAbwAtACkAXAAiADsAIABcACIAWgAxACAAKABDAGEAbABvAHIAbwAtACkAXAAiADsAIABcACIAWgAyACAAKABIAGUAbABpAG8ALQApAFwAIgA7ACAAXAAiAFoAMwAgACgAUwBvAGwAYQByAGEALQApAFwAIgA7ACAAXAAiAFoANAAgACgAUwB1AHIAeQBhAC0AKQBcACIAOwAgAFwAIgBaADUAIAAoAEYAcgBpAG8ALQApAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABpAG4AbgBlAHIALAAgAHsAMAA7ACAAMAAuADUAOwAgADAALgA3ADUAOwAgADAALgA5ADUAOwAgADEALgAzADgANQA7ACAAMQAuADcANwB9ACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABlAHIALAAgAHsAMAAuADUAOwAgADAALgA3ADUAOwAgADAALgA5ADUAOwAgADEALgAzADgANQA7ACAAMQAuADcANwA7ACAANAAuADgANQB9ACwAXABuACAAIAAgACAAIAAgACAAIABhAHYAZQByAGEAZwBlACwAIAB7ADAALgAyADUAOwAgADAALgA2ADIANQA7ACAAMAAuADgANQA7ACAAMQAuADEANgA3ADUAOwAgADEALgA1ADcANwA1ADsAIAAzAC4AMwAxAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHMAcABhAG4ALAAgAHsAMAAuADUAOwAgADAALgAyADUAOwAgADAALgAyADsAIAAwAC4ANAAzADUAOwAgADAALgAzADgANQA7ACAAMwAuADAAOAB9ACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABfADEALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMQApACwAIABsAGEAYgBlAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABfADIALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMgApACwAIABSAE8AVQBOAEQAKABpAG4AbgBlAHIALAAgAGQAZQBjACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAXwAzACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADMAKQAsACAAUgBPAFUATgBEACgAbwB1AHQAZQByACwAIABkAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwBsAF8ANAAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAA0ACkALAAgAFIATwBVAE4ARAAoAGEAdgBlAHIAYQBnAGUALAAgAGQAZQBjACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAXwA1ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADUAKQAsACAAUgBPAFUATgBEACgAcwBwAGEAbgAsACAAZABlAGMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgAsACAAMwAsACAANAAsACAANQB9ACwAIABjAG8AbABfADEALAAgAGMAbwBsAF8AMgAsACAAYwBvAGwAXwAzACwAIABjAG8AbABfADQALAAgAGMAbwBsAF8ANQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEgAQQBCAFoATwBOAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGwAdQBtACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbAAsACAAUgBPAFUATgBEACgAUwBRAFIAVAAoAGwAdQBtACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAE4ALAAgAFwAIgBOAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbAB1AG0AKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAwACwAIABcACIAMAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADAALgA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMQAsACAAXAAiADEAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAwAC4ANwA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMgAsACAAXAAiADIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAwAC4AOQA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMwAsACAAXAAiADMAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAxAC4AMwA4ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQA0ACwAIABcACIANAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADEALgA3ADcAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQA1ACwAIABcACIANQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADQALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAWgBvAG4AZQAwACwAIABaAG8AbgBlADEALAAgAFoAbwBuAGUAMgAsACAATgAsACAAWgBvAG4AZQAzACwAIABaAG8AbgBlADQALAAgAFoAbwBuAGUANQApACwAXABuACAAIAAgACAAIAAgACAAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAaQBzAHQALAAgAFwAIgB8AFwAIgApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ASABBAEIAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABsAHUAbQAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBiAGUAbABzACwAIAB7AFwAIgAwADoAIABcACIALAAgAFwAIgAxADoAIABcACIALAAgAFwAIgAyADoAIABcACIALAAgAFwAIgBOAC0APgAgAFwAIgAsACAAXAAiADMAOgAgAFwAIgAsACAAXAAiADQAOgAgAFwAIgAsACAAXAAiADUAOgAgAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAAzACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABuAHUAYwBsAGUAYQBsACwAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbAB1AG0AKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADAALAAgAFIATwBVAE4ARAAoADAALgA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwAxACwAIABSAE8AVQBOAEQAKAAwAC4ANwA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwAyACwAIABSAE8AVQBOAEQAKAAwAC4AOQA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwBOACwAIABuAHUAYwBsAGUAYQBsACwAXABuACAAIAAgACAAIAAgACAAIABaAF8AMwAsACAAUgBPAFUATgBEACgAMQAuADMAOAA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwA0ACwAIABSAE8AVQBOAEQAKAAxAC4ANwA3ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwA1ACwAIABSAE8AVQBOAEQAKAA0AC4AOAA1ACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMAAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAAMQApACwAIABaAF8AMAApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADEALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADIAKQAsACAAWgBfADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAyACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAAzACkALAAgAFoAXwAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUATgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAANAApACwAIABaAF8ATgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADMALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADUAKQAsACAAWgBfADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQA0ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAA2ACkALAAgAFoAXwA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUANQAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAANwApACwAIABaAF8ANQApACwAXABuACAAIAAgACAAIAAgACAAIABUAFIAQQBOAFMAUABPAFMARQAoAEMASABPAE8AUwBFACgAewAxACwAIAAyACwAIAAzACwAIAA0ACwAIAA1ACwAIAA2ACwAIAA3AH0ALAAgAFoAbwBuAGUAMAAsACAAWgBvAG4AZQAxACwAIABaAG8AbgBlADIALAAgAFoAbwBuAGUATgAsACAAWgBvAG4AZQAzACwAIABaAG8AbgBlADQALAAgAFoAbwBuAGUANQApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUwBUAEEAUgBTAF8AUABFAFIAXwBDAFUAQgBJAEMAXwBWAE8ATAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBwAHIAZQBjAF0ALAAgAFsAbQBvAGQAZQBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAG0AbwBkAGUAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPAAwACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA+ADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAcAByAGUAYwAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAcAByAGUAYwApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAcAByAGUAYwA8ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwApACwAXABuACAAIAAgACAAdgBvAGwAdQBtAGUALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAAaQBuAHAAdQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIAAoADQALwAzACkAKgBwAGkAKAApACoAaQBuAHAAdQB0AF4AMwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAByAGEAZABpAHUAcwAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIAByAG8AdQBuAGQAKABwAG8AdwBlAHIAKAAoAHYAbwBsAHUAbQBlACoAMwApAC8AKAA0ACoAcABpACgAKQApACwAMQAvADMAKQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABpAG4AcAB1AHQAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAcwB0AGEAcgBzACwAIAByAG8AdQBuAGQAKAB2AG8AbAB1AG0AZQAvADIANQAwACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIAB0AG8AYwBvAGwAKAB0AGUAeAB0AHMAcABsAGkAdAAoAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7ACAAXAAiACwALAAgAHMAdABhAHIAcwAsACAAcgBhAGQAaQB1AHMAKQAsAFwAIgA7ACAAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAdABvAGMAbwBsACgAdABlAHgAdABzAHAAbABpAHQAKAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwAgAFwAIgAsACwAIAByAG8AdQBuAGQAKABzAHQAYQByAHMALAAwACkALAAgAHIAbwB1AG4AZAAoAHYAbwBsAHUAbQBlACwAMAApACkALABcACIAOwAgAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAEMAVQBCAEkAQwBfAFYATwBMAFUATQBFAF8AUABFAFIAXwBTAFQAQQBSAFMAIAA9ACAATABBAE0AQgBEAEEAKABzAHQAYQByAHMALAAgAFsAcAByAGUAYwBdACwAIABbAG0AbwBkAGUAXQAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABtAG8AZABlACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlADwAMAApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPgAyACkALABcAG4AIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAHAAcgBlAGMAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAHAAcgBlAGMAPAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHYAbwBsAHUAbQBlACwAIAByAG8AdQBuAGQAKABzAHQAYQByAHMAKgAyADUAMAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAcwBpAGQAZQAsACAAcgBvAHUAbgBkACgAcABvAHcAZQByACgAdgBvAGwAdQBtAGUALAAxAC8AMwApACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAByAGEAZABpAHUAcwAsACAAcgBvAHUAbgBkACgAcABvAHcAZQByACgAKAB2AG8AbAB1AG0AZQAqADMAKQAvACgANAAqAHAAaQAoACkAKQAsADEALwAzACkALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAHYAbwBsAHUAbQBlACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIAB0AG8AYwBvAGwAKAB0AGUAeAB0AHMAcABsAGkAdAAoAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7ACAAXAAiACwALAAgAHYAbwBsAHUAbQBlACwAIABzAGkAZABlACkALABcACIAOwAgAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgADIALAAgAHQAbwBjAG8AbAAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAdABlAHgAdABqAG8AaQBuACgAXAAiADsAIABcACIALAAsACAAdgBvAGwAdQBtAGUALAAgAHMAaQBkAGUALAAgAHIAYQBkAGkAdQBzACkALABcACIAOwAgAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUABMAEEATgBFAFQAXwBBAFMAVABSAE8ATQBFAFQAUgBJAEMAUwAgAD0AIABMAEEATQBCAEQAQQAoAGYAaQByAHMAdAAsACAAcwBlAGMAbwBuAGQALAAgAFsAbQBvAGQAZQBdACwAIABbAHAAcgBlAGMAXQAsAFwAbgBcAG4ALwAqACAATQBPAEQARQBTAFwAbgBcAG4AIAAgACAAIAAwADoAIABtACwAIABkAFwAbgAgACAAIAAgADEAOgAgAG0ALAAgAHIAXABuACAAIAAgACAAMgA6ACAAbQAsACAAZwBcAG4AIAAgACAAIAAzADoAIAByACwAIABkAFwAbgAgACAAIAAgADQAOgAgAHIALAAgAGcAXABuACAAIAAgACAANQA6ACAAZAAsACAAZwBcAG4AIAAgACAAIAA2ADoAIABkACwAIAB2AFwAbgAgACAAIAAgADcAOgAgAGcALAAgAHYAXABuACAAIAAgACAAOAA6ACAAbQAsACAAdgBcAG4AIAAgACAAIAA5ADoAIAByACwAIAB2AFwAbgBcAG4AKgAvAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAHAAcgBlAGMAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAHAAcgBlAGMAPAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAbQBvAGQAZQAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAbQBvAGQAZQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPAAwACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA+ADkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlAFwAbgAgACAAIAAgACAAIAAgACAAKQAsACAAXABuACAAIAAgACAAbABhAGIAZQBsAHMALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsACAAXABuACAAIAAgACAAIAAgACAAIAAwACwAIABcACIATQA+ADsAUgA6ADsAZAA+ADsAZwA6ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAAXAAiAE0APgA7AFIAPgA7AGQAOgA7AGcAOgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIALAAgAFwAIgBNAD4AOwBSADoAOwBkADoAOwBnAD4AOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAIABcACIATQA6ADsAUgA+ADsAZAA+ADsAZwA6ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANAAsACAAXAAiAE0AOgA7AFIAPgA7AGQAOgA7AGcAPgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADUALAAgAFwAIgBNADoAOwBSADoAOwBkAD4AOwBnAD4AOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA2ACwAIABcACIATQA6ADsAUgA6ADsAZAA+ADsAZwA6ADsAdgA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANwAsACAAXAAiAE0AOgA7AFIAOgA7AGQAOgA7AGcAPgA7AHYAPgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADgALAAgAFwAIgBNAD4AOwBSADoAOwBkADoAOwBnADoAOwB2AD4AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA5ACwAIABcACIATQA6ADsAUgA+ADsAZAA6ADsAZwA6ADsAdgA+AFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAHAAbwB3AGUAcgAoAG0AYQBzAHMALwBkAGUAbgBzAGkAdAB5ACwAMwBeAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAHAAbwB3AGUAcgAoAG0AYQBzAHMAKgBkAGUAbgBzAGkAdAB5AF4AMgAsADMAXgAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcABvAHcAZQByACgAbQBhAHMAcwAqAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALAAzAF4ALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABtAGEAcwBzAC8AcgBhAGQAaQB1AHMAXgAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAG0AYQBzAHMALwByAGEAZABpAHUAcwBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAcQByAHQAKABtAGEAcwBzAC8AcgBhAGQAaQB1AHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAyACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAHMAcQByAHQAKABtAGEAcwBzAC8AZwByAGEAdgBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAHMAcQByAHQAKABnAHIAYQB2AGkAdAB5AF4AMwAvAG0AYQBzAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcABvAHcAZQByACgAbQBhAHMAcwAqAGcAcgBhAHYAaQB0AHkALAA0AF4ALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIAByAGEAZABpAHUAcwAqAGQAZQBuAHMAaQB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZABlAG4AcwBpAHQAeQAqAHIAYQBkAGkAdQBzAF4AMwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcgBhAGQAaQB1AHMAKgBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADQALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAvAHIAYQBkAGkAdQBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGcAcgBhAHYAaQB0AHkAKgByAGEAZABpAHUAcwBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAcQByAHQAKABnAHIAYQB2AGkAdAB5ACoAcgBhAGQAaQB1AHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA1ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGcAcgBhAHYAaQB0AHkALwBkAGUAbgBzAGkAdAB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGcAcgBhAHYAaQB0AHkAXgAzAC8AZABlAG4AcwBpAHQAeQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAGcAcgBhAHYAaQB0AHkALwBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZQBzAGMAYQBwAGUAXgAzAC8AcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZQBzAGMAYQBwAGUALwBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACoAcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGUAcwBjAGEAcABlAF4ANAAvAGcAcgBhAHYAaQB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGUAcwBjAGEAcABlAF4AMgAvAGcAcgBhAHYAaQB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAKABnAHIAYQB2AGkAdAB5AC8AZQBzAGMAYQBwAGUAKQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQBeADQALwBtAGEAcwBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABtAGEAcwBzAC8AZQBzAGMAYQBwAGUAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAGUAcwBjAGEAcABlAF4ANgAvAG0AYQBzAHMAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlAF4AMgAvAHIAYQBkAGkAdQBzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACoAZQBzAGMAYQBwAGUAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgACgAZQBzAGMAYQBwAGUALwByAGEAZABpAHUAcwApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABsAGEAYgBlAGwAXwBsAGkAcwB0ACwAIAB0AHIAYQBuAHMAcABvAHMAZQAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAbABhAGIAZQBsAHMALABcACIAOwBcACIAKQApACwAXABuACAAIAAgACAAdgBhAGwAdQBlAF8AbABpAHMAdAAsACAAdAByAGEAbgBzAHAAbwBzAGUAKAB0AGUAeAB0AHMAcABsAGkAdAAoAG8AdQB0AHAAdQB0ACwAIABcACIAOwBcACIAKQApACwAXABuACAAIAAgACAALwAvAHYAYQBsAHUAZQBfAGwAaQBzAHQAXABuACAAIAAgACAAYwBoAG8AbwBzAGUAKAB7ADEALAAyAH0ALAAgAGwAYQBiAGUAbABfAGwAaQBzAHQALAAgAHIAbwB1AG4AZAAoAHYAYQBsAHUAZQAoAHYAYQBsAHUAZQBfAGwAaQBzAHQAKQAsAHAAcgBlAGMAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFkATgBPAEQASQBDACAAPQAgAEwAQQBNAEIARABBACgAcAAsACAAcQAsAFwAbgBcAG4AIAAgACAAIAAoAHAAIAAqACAAcQApACAALwAgAEEAQgBTACgAcAAgAC0AIABxACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuAFMATQBBAEwATABBAE4ARwBMAEUAIAA9ACAATABBAE0AQgBEAEEAKABkAGkAYQBtAGUAdABlAHIALAAgAGQAaQBzAHQAYQBuAGMAZQAsAFwAbgBcAG4AIAAgACAAIAAwAC4ANQAzADIAOQAwADQAMgA5ADQAIAAqACAAKABkAGkAYQBtAGUAdABlAHIAIAAvACAAZABpAHMAdABhAG4AYwBlACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuAE8AUgBCAF8AQQBYAEkAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABwAGUAcgBpAG8AZAAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAGEAcwBzADIALAAgAEkARgAoACgASQBTAE8ATQBJAFQAVABFAEQAKABtAGEAcwBzADIAKQApACsAKABtAGEAcwBzADIAIAA9ACAAMQApACwAIAAwACwAIABtAGEAcwBzADIAKgAzAC4AMAAwADMARQAtADYAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMALAAgAFAATwBXAEUAUgAoACgAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQAgACoAIAAoAG0AYQBzAHMAMQAgACsAIABtAGEAcwBzADIAKQApACwAIAAxACAALwAgADMAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ATwBSAEIAXwBQAEUAUgBJAE8ARAAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABhAHgAaQBzACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AYQBzAHMAMgAsACAASQBGACgAKABJAFMATwBNAEkAVABUAEUARAAoAG0AYQBzAHMAMgApACkAKwAoAG0AYQBzAHMAMgAgAD0AIAAxACkALAAgADAALAAgACgAbQBhAHMAcwAyACAAKgAgADMALgAwADAAMgA3ADMAZQAtADYAKQApACwAXABuACAAIAAgACAAcABlAHIAaQBvAGQALAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAKABtAGEAcwBzADEAIAArACAAbQBhAHMAcwAyACkAKQAsAFwAbgAgACAAIAAgAHAAZQByAGkAbwBkAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEMAUgBPAFMAUwBJAE4ARwBfAE8AUgBCAEkAVABfAFAAQQBSAEEATQBFAFQARQBSACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALABcAG4AXABuAEEAQgBTACgAbQBhAHMAcwAxACAALQAgAG0AYQBzAHMAMgApAC8AQQBCAFMAKABtAGEAcwBzADEAIAArAG0AYQBzAHMAMgApAFwAbgBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBQAEUAUgBJAE8ARABfAEEAWABJAFMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AXABuACAAIAAgACAAUABPAFcARQBSACgAUABPAFcARQBSACgAaQBuAHAAdQB0ACwAIAAyACkALAAgACgAMQAgAC8AIAAzACkAKQBcAG4AXABuACkAOwBcAG4AXABuAE8AUgBCAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGEAeABpAHMALAAgAHAAZQByAGkAbwBkACwAXABuAFwAbgBQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQBcAG4AKQA7AFwAbgBcAG4AUwBQAEgARQBSAEkAQwBBAEwAXwBUAE8AXwBDAEEAUgBUAEUAUwBJAEEATgAgAD0AIABMAEEATQBCAEQAQQAoAHAAaABpACwAIAB0AGgAZQB0AGEALAAgAHIALAAgAFsAcAByAGUAYwBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACkALAAgACAAIAAgAFwAbgAgACAAIAAgAHoAXwBtAG8AZAAsACAAcwBpAGcAbgAoAHQAaABlAHQAYQApACwAXABuACAAIAAgACAAeQBfAG0AbwBkACwAIABzAGkAZwBuACgAcABoAGkAKQAsAFwAbgAgACAAIAAgAHgAXwBtAG8AZAAsACAAaQBmACgAYQBiAHMAKABwAGgAaQApADwAOQAwACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgAC8ALwB4AF8AbQBvAGQAXABuACAAIAAgACAALwAvAHQAZQB4AHQAagBvAGkAbgAoAFwAIgAsAFwAIgAsACwAeABfAG0AbwBkACwAIAB5AF8AbQBvAGQALAAgAHoAXwBtAG8AZAApAFwAbgAgACAAIAAgAGEAbgBnAF8AeAAsACAAcgBhAGQAaQBhAG4AcwAoAG0AbwBkACgAcABoAGkALAA5ADAAKQApACwAXABuACAAIAAgACAAYQBuAGcAXwB6ACwAIAByAGEAZABpAGEAbgBzACgAYQBiAHMAKAB0AGgAZQB0AGEAKQApACwAXABuACAAIAAgACAAZAAsACAAYwBvAHMAKABhAG4AZwBfAHoAKQAqAHIALABcAG4AIAAgACAAIAB4ACwAIAByAG8AdQBuAGQAKABjAG8AcwAoAGEAbgBnAF8AeAApACoAZAAqAHgAXwBtAG8AZAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAeQAsACAAcgBvAHUAbgBkACgAcwBpAG4AKABhAG4AZwBfAHgAKQAqAGQAKgB5AF8AbQBvAGQALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHoALAAgAHIAbwB1AG4AZAAoAHMAaQBuACgAYQBuAGcAXwB6ACkAKgByACoAegBfAG0AbwBkACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAdABlAHgAdABqAG8AaQBuACgAXAAiAHwAXAAiACwALAB4ACwAIAB5ACwAIAB6ACkALABcAG4AIAAgACAAIAAvAC8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAdABvAHIAbwB3ACgAdABlAHgAdABzAHAAbABpAHQAKAByAGUAcwB1AGwAdAAsAFwAIgB8AFwAIgApACkAXABuACkAXABuAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQARQBDAF8ARABNAFMAIAA9ACAATABBAE0AQgBEAEEAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAARABlAGcALAAgAFQAUgBVAE4AQwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4ALAAgAEEAQgBTACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACAALQAgAEQAZQBnACkALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAF8AcABhAHIAdAAsACAAVABSAFUATgBDACgATQBpAG4AdQB0AGUAcwApACAALwAgADEAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAcgBhAGMATQBpAG4ALAAgAEEAQgBTACgATQBpAG4AdQB0AGUAcwAgAC0AIABJAG4AdABNAGkAbgApACwAXABuACAAIAAgACAAIAAgACAAIABTAGUAYwBvAG4AZABzACwAIABGAHIAYQBjAE0AaQBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBlAGMAXwBwAGEAcgB0ACwAIABTAGUAYwBvAG4AZABzACAALwAgADEAMAAwADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEQAZQBnACAAKwAgAE0AaQBuAF8AcABhAHIAdAAgACsAIABzAGUAYwBfAHAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgAEYASQBYAEUARAAoAG8AdQB0AHAAdQB0ACwAIAA3ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARABFAEcAXwBEAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAGQAZQBjAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAUAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAUAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgAEQAZQBnACwAIABUAFIAVQBOAEMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAKQAsAFwAbgAgACAAIAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAsACAAQQBCAFMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAIAAtACAARABlAGcAKQAsAFwAbgAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIABGAHIAYQBjAE0AaQBuACwAIABBAEIAUwAoAE0AaQBuAHUAdABlAHMAIAAtACAASQBuAHQATQBpAG4AKQAsAFwAbgAgACAAIAAgAFMAZQBjAG8AbgBkAHMALAAgAEYAcgBhAGMATQBpAG4AIAAqACAANgAwACwAXABuACAAIAAgACAARABlAGcAIAAmACAAXAAiALAAIABcACIAIAAmACAASQBuAHQATQBpAG4AIAAmACAAQwBIAEEAUgAoADMAOQApACAAJgAgAEMASABBAFIAKAAzADIAKQAgACYAIABGAEkAWABFAEQAKABTAGUAYwBvAG4AZABzACwAIABkAGUAYwBwAHIAZQBjACkAIAAmACAAQwBIAEEAUgAoADMANAApAFwAbgApAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQATQBTAF8ARABFAEMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGcAcgBlAGUAcwAsACAAVABSAFUATgBDACgAaQBuAHAAdQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AaQBuAHUAdABlAHMALAAgAFQAUgBVAE4AQwAoACgAaQBuAHAAdQB0ACAALQAgAGQAZQBnAHIAZQBlAHMAKQAgACoAIAAxADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAHQAaQBvAG4AYQBsAF8AcwBlAGMAbwBuAGQAcwAsACAAKAAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACAALQAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACkAIAAvACAAMAAuADYALABcAG4AIAAgACAAIAAgACAAIAAgAC8AKgAgACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAGQAZQBnAHIAZQBlAHMAIAArACAAKAAoAG0AaQBuAHUAdABlAHMAIAArACAAZgByAGEAYwB0AGkAbwBuAGEAbABfAHMAZQBjAG8AbgBkAHMAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AQQBYAEkAUwBfAFAARQBSAEkATwBEACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAXABuAFwAbgAgACAAIAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABpAG4AcAB1AHQALAAgADMAKQApAFwAbgAgACAAIAAgAFwAbgApADsAXABuAFwAbgAiAH0ALAB7ACIAcABhAHQAaAAiADoAIgAvAHAAcgBvAGoAZQBjAHQAcwAvAEcAZQBuAGUAcgBhAGwAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABSAEUAQwBJAFAAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAcgBlAGMAaQBwAHIAbwBjAGEAbAAgACgAbQB1AGwAdABpAHAAbABpAGMAYQB0AGkAdgBlACAAaQBuAHYAZQByAHMAZQApACAAbwBmACAAYQAgAG4AdQBtAGIAZQByAC4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgAgAEEAIABzAGkAbgBnAGwAZQAgAGQAZQBjAGkAbQBhAGwAIAB2AGEAbAB1AGUAOgAgADEAIAAvACAAaQBuAHAAdQB0AFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQBuAHkAIABuAG8AbgB6AGUAcgBvACAAbgB1AG0AYgBlAHIAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFIAZQB0AHUAcgBuAHMAIAAjAEQASQBWAC8AMAAhACAAaQBmACAAaQBuAHAAdQB0ACAAaQBzACAAegBlAHIAbwBcAG4AIAAgACAALQAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIABmAGwAaQBwAHAAaQBuAGcAIABmAHIAYQBjAHQAaQBvAG4AcwAgAG8AcgAgAGMAbwBuAHYAZQByAHQAaQBuAGcAIAByAGEAdABlAHMAIAAoAGUALgBnAC4ALAAgAEgAegAgAJQhIABzAGUAYwBvAG4AZABzACkAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAFIARQBDAEkAUAAoADQAKQAgAJIhIAAwAC4AMgA1AFwAbgAqAC8AXABuAFwAbgBSAEUAQwBJAFAAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALAAgADEAIAAvACAAaQBuAHAAdQB0ACkAOwBcAG4AXABuAC8AKgAgAEYAUgBBAEMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAcwBjAGEAbABhAHIAIABkAGUAYwBpAG0AYQBsACAAYgBlAHQAdwBlAGUAbgAgADAAIABhAG4AZAAgADEAIAAoAG8AcgAgAC0AMQAgAGEAbgBkACAAMAAgAGkAZgAgAHMAaQBnAG4AZQBkACAAbQBvAGQAZQAgAGkAcwAgAHMAZQBsAGUAYwB0AGUAZAApAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABpAG4AcAB1AHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABUAGgAZQAgAG4AdQBtAGIAZQByACAAZgByAG8AbQAgAHcAaABpAGMAaAAgAHQAbwAgAGUAeAB0AHIAYQBjAHQAIAB0AGgAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0AC4AXABuACAAIAAgAC0AIABtAG8AZABlACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATwB1AHQAcAB1AHQAIABtAG8AZABlACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAtACAAMAA6ACAAQQBsAHcAYQB5AHMAIAByAGUAdAB1AHIAbgAgAHAAbwBzAGkAdABpAHYAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0ACAAKABkAGUAZgBhAHUAbAB0ACkAXABuACAAIAAgACAAIAAgACAALQAgADEAOgAgAFAAcgBlAHMAZQByAHYAZQAgAHQAaABlACAAcwBpAGcAbgAgAG8AZgAgAHQAaABlACAAaQBuAHAAdQB0ACAAKABlAC4AZwAuACwAIAAtADMALgAyADUAIACSISAALQAwAC4AMgA1ACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEMAbwBtAHAAbABlAG0AZQBuAHQAcwAgAEUAeABjAGUAbAAZIHMAIABRAFUATwBUAEkARQBOAFQAIABhAG4AZAAgAFQAUgBVAE4AQwAgAGYAdQBuAGMAdABpAG8AbgBzAC4AXABuACAAIAAgAC0AIABVAHMAZQBmAHUAbAAgAGYAbwByACAAaQBzAG8AbABhAHQAaQBuAGcAIABuAG8AbgAtAGkAbgB0AGUAZwBlAHIAIABwAGEAcgB0AHMAIABvAGYAIAB2AGEAbAB1AGUAcwAuAFwAbgAgACAAIAAtACAAQwBhAG4AIABkAGkAcwB0AGkAbgBnAHUAaQBzAGgAIAB3AGgAZQB0AGgAZQByACAAYQAgAG4AdQBtAGIAZQByACAAaQBzACAAagB1AHMAdAAgAHUAbgBkAGUAcgAgAG8AcgAgAGoAdQBzAHQAIABvAHYAZQByACAAYQBuACAAaQBuAHQAZQBnAGUAcgAgAGIAYQBzAGUAZAAgAG8AbgAgAHMAaQBnAG4ALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAARgBSAEEAQwAoAC0AMwAuADIANQApACAAkiEgADAALgAyADUAIAAgAFwAbgAgACAAIABGAFIAQQBDACgALQAzAC4AMgA1ACwAIAAxACkAIACSISAALQAwAC4AMgA1AFwAbgAqAC8AXABuAFwAbgBGAFIAQQBDACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABEAGUAZgBhAHUAbAB0ACAAbQBvAGQAZQAgAHQAbwAgADAAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAbwByACAAaQBuAHYAYQBsAGkAZABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALAAgAEkARgAoAE8AUgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBvAGQAZQApACwAIABtAG8AZABlACAAPgAgADEAKQAsACAAMAAsACAAbQBvAGQAZQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0ACAAYgB5ACAAcwB1AGIAdAByAGEAYwB0AGkAbgBnACAAaQBuAHQAZQBnAGUAcgAgAHAAbwByAHQAaQBvAG4AXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAF8AcABhAHIAdAAsACAAaQBuAHAAdQB0ACAALQAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAUgBlAHQAdQByAG4AIABzAGkAZwBuAGUAZAAgAG8AcgAgAGEAYgBzAG8AbAB1AHQAZQAgAHYAYQBsAHUAZQAgAGQAZQBwAGUAbgBkAGkAbgBnACAAbwBuACAAbQBvAGQAZQBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAG0AbwBkAGUAIAA9ACAAMQAsACAAZgByAGEAYwBfAHAAYQByAHQALAAgAEEAQgBTACgAZgByAGEAYwBfAHAAYQByAHQAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAFIATwBPAFQAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAQwBhAGwAYwB1AGwAYQB0AGUAcwAgAHQAaABlACAAeAAtAHQAaAAgAHIAbwBvAHQAIABvAGYAIABhACAAbgB1AG0AYgBlAHIAIAAoAG8AcgAgAHMAcQB1AGEAcgBlACAAcgBvAG8AdAAgAGkAZgAgAG4AbwAgAHIAbwBvAHQAIABpAHMAIABzAHAAZQBjAGkAZgBpAGUAZAApAC4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgAgAEEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAcgBvAG8AdAAgAHIAZQBzAHUAbAB0AC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABuACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAVABoAGUAIABuAHUAbQBiAGUAcgAgAHQAbwAgAHQAYQBrAGUAIAB0AGgAZQAgAHIAbwBvAHQAIABvAGYALgBcAG4AIAAgACAALQAgAHgAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABUAGgAZQAgAHIAbwBvAHQAIABkAGUAZwByAGUAZQAuACAARABlAGYAYQB1AGwAdABzACAAdABvACAAMgAgACgAcwBxAHUAYQByAGUAIAByAG8AbwB0ACkAIABpAGYAIABvAG0AaQB0AHQAZQBkAC4AXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFMAdQBwAHAAbwByAHQAcwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIAByAG8AbwB0AHMAIAAoAGUALgBnAC4ALAAgAGMAdQBiAGUAIAByAG8AbwB0ACwAIAAxAC4ANQB0AGgAIAByAG8AbwB0ACkALgBcAG4AIAAgACAALQAgAEkAZgAgAHgAIABpAHMAIABvAG0AaQB0AHQAZQBkACwAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIABTAFEAUgBUACgAbgApAC4AXABuACAAIAAgAC0AIABOAGUAZwBhAHQAaQB2AGUAIABiAGEAcwBlAHMAIAB3AGkAdABoACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAGUAeABwAG8AbgBlAG4AdABzACAAdwBpAGwAbAAgAHIAZQB0AHUAcgBuACAAZQByAHIAbwByAHMAIAAoAEUAeABjAGUAbAAgAGwAaQBtAGkAdABhAHQAaQBvAG4AKQAuAFwAbgAgACAAIAAtACAATgBvACAAaQBuAHQAZQByAG4AYQBsACAAdgBhAGwAaQBkAGEAdABpAG8AbgAgAGYAbwByACAAYwBvAG0AcABsAGUAeAAgAHIAbwBvAHQAIABoAGEAbgBkAGwAaQBuAGcAIABpAHMAIABwAGUAcgBmAG8AcgBtAGUAZAAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABSAE8ATwBUACgAMQA2ACkAIACSISAANABcAG4AIAAgACAAUgBPAE8AVAAoADIANwAsACAAMwApACAAkiEgADMAXABuACAAIAAgAFIATwBPAFQAKAA4ADEALAAgADAALgA1ACkAIACSISAAOQBcAG4AKgAvAFwAbgBcAG4AUgBPAE8AVAAgAD0AIABMAEEATQBCAEQAQQAoAG4ALAAgAFsAeABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIABzAHEAdQBhAHIAZQAgAHIAbwBvAHQAIABpAGYAIAByAG8AbwB0ACAAZABlAGcAcgBlAGUAIABpAHMAIABuAG8AdAAgAHAAcgBvAHYAaQBkAGUAZABcAG4AIAAgACAAIAAgACAAIAAgAHIAbwBvAHQAXwByAGUAcwB1AGwAdAAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKAB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBRAFIAVAAoAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABuACAAXgAgACgAMQAgAC8AIAB4ACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAByAG8AbwB0AF8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARgBPAFIATQBUAEUAWABUACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAByAGUAYwBwAHQALAAgAEYATwBSAE0AVQBMAEEAVABFAFgAVAAoAGkAbgBwAHUAdAApACwAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAbQBvAGQAZQAgAD4AIAAzACkALAAgADIALAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBoAGUAYwBrAHYAYQBsACwAIABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAoAFwAIgAsACAAcgBlAGMAcAB0ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBlAGwAbABfAG4AYQBtAGUALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABDAEUATABMACgAXAAiAGEAZABkAHIAZQBzAHMAXAAiACwAIABpAG4AcAB1AHQAKQAsAFwAIgAkAFwAIgAsAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4ATwBUACgAYwBoAGUAYwBrAHYAYQBsACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBlAGMAcAB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQARQBYAFQAUwBQAEwASQBUACgAcgBlAGMAcAB0ACwAIABcACIAKQBcACIAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBoAGUAYwBrAHYAYQBsACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIAWQBDAE8ATAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAHgALAAgAFQARQBYAFQAQgBFAEYATwBSAEUAKAB4ACwAIABcACIAKABcACIALAAgACwAIAAsACAALAAgAFwAIgBcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAaQBzAHQAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABsAGUAYwB0AGUAZAAsACAAVABFAFgAVABKAE8ASQBOACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAcgBlAHMAdQBsAHQALAAgAFMARQBRAFUARQBOAEMARQAoAEMATwBVAE4AVABBACgAcgBlAHMAdQBsAHQAKQApACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGEAcgBlAG4AdABoAGUAdABpAGMAYQBsACwAIABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABDAE8ATgBDAEEAVAAoAGMAZQBsAGwAXwBuAGEAbQBlACwAIABcACIAOgA9ACAAXAAiACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAYwBvAGwAbABlAGMAdABlAGQALAAgAFwAIgA9AFwAIgAsACAAXAAiAFwAIgApACkALAAgAFwAIgAoAFwAIgApACwAIABcACIAIABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFMAVwBJAFQAQwBIACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsACAAYwBvAGwAbABlAGMAdABlAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAsACAAQwBPAE4AQwBBAFQAKABjAGUAbABsAF8AbgBhAG0AZQAsACAAXAAiADoAPQAgAFwAIgAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAGMAbwBsAGwAZQBjAHQAZQBkACwAIABcACIAPQBcACIALAAgAFwAIgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIALAAgAEMATwBOAEMAQQBUACgAYwBlAGwAbABfAG4AYQBtAGUALAAgAFwAIgA6AD0AIABcACIALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKAByAGUAYwBwAHQALAAgAFwAIgA9AFwAIgAsACAAXAAiAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMwAsACAARgBPAFIATQBVAEwAQQBUAEUAWABUACgAaQBuAHAAdQB0ACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACIALAAiAEEAUwBUAFIATwBfAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACIALAAiAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACIALAAiAFMAVABBAFIAXwBTAEMAQQBMAEUAXwBUAEUATQBQACIALAAiAFMAVABBAFIAXwBTAEMAQQBMAEUAXwBLAFQARQBNAFAAIgAsACIAUwBUAEEAUgBfAEMATABBAFMAUwBfAFMAVABBAFQAUwAiACwAIgBTAFQAQQBSAF8ATQBBAFMAUwAiACwAIgBTAFQAQQBSAF8AUgBBAEQAUwAiACwAIgBTAFQAQQBSAF8ATABVAE0AUwAiACwAIgBTAFQAQQBSAEwAVQBNAFMAIgAsACIAUwBUAEEAUgBfAEwASQBGAEUAIgAsACIAVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACIALAAiAFQARQBNAFAAXwBGAFIATwBNAF8AVABZAFAARQAiACwAIgBTAFAARQBDAFQAUgBBAEwAXwBDAEwAQQBTAFMAXwBEAEEAVABBACIALAAiAFMAUABFAEMAXwBMAEkAUwBUACIALAAiAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTAF8AVABBAEIATABFACIALAAiAEgAQQBCAFoATwBOAEUAUwAiACwAIgBIAEEAQgBfAFoATwBOAEUAUwAiACwAIgBTAFQAQQBSAFMAXwBQAEUAUgBfAEMAVQBCAEkAQwBfAFYATwBMACIALAAiAEMAVQBCAEkAQwBfAFYATwBMAFUATQBFAF8AUABFAFIAXwBTAFQAQQBSAFMAIgAsACIAUABMAEEATgBFAFQAXwBBAFMAVABSAE8ATQBFAFQAUgBJAEMAUwAiACwAIgBTAFkATgBPAEQASQBDACIALAAiAFMATQBBAEwATABBAE4ARwBMAEUAIgAsACIATwBSAEIAXwBBAFgASQBTACIALAAiAE8AUgBCAF8AUABFAFIASQBPAEQAIgAsACIAQwBSAE8AUwBTAEkATgBHAF8ATwBSAEIASQBUAF8AUABBAFIAQQBNAEUAVABFAFIAIgAsACIAUABFAFIASQBPAEQAXwBBAFgASQBTACIALAAiAE8AUgBCAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAiACwAIgBTAFAASABFAFIASQBDAEEATABfAFQATwBfAEMAQQBSAFQARQBTAEkAQQBOACIALAAiAEQARQBHAF8ARABFAEMAXwBEAE0AUwAiACwAIgBEAEUARwBfAEQATQBTACIALAAiAEQARQBHAF8ARABNAFMAXwBEAEUAQwAiACwAIgBBAFgASQBTAF8AUABFAFIASQBPAEQAIgAsACIARwBlAG4AZQByAGEAbAAuAFIARQBDAEkAUAAiACwAIgBHAGUAbgBlAHIAYQBsAC4ARgBSAEEAQwAiACwAIgBHAGUAbgBlAHIAYQBsAC4AUgBPAE8AVAAiACwAIgBHAGUAbgBlAHIAYQBsAC4ARgBPAFIATQBUAEUAWABUACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIATQBEAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQAgAG4AbwByAG0AYQBsAGkAegBlAGQAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQAgAGkAbgBkAGUAeAAgAGIAYQBzAGUAZAAgAG8AbgAgAGEAIABwAGwAYQBuAGUAdAAnAHMAIABvAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIABhACAAcwB0AGEAcgAnAHMAIABuAHUAYwBsAGUAYQBsACAAKABoAGEAYgBpAHQAYQBiAGwAZQAgAHoAbwBuAGUAIABhAG4AYwBoAG8AcgApACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAHMAYwBhAGwAYQByACAAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAIABpAG4AZABlAHgAIAAoAG4AdQBtAGIAZQByACkALAAgAG8AcgAgAFwAIgBVAC8ASQBcACIAIABpAGYAIAB1AG4AaQBuAGgAYQBiAGkAdABhAGIAbABlAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABPAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlACAAKABpAG4AIABBAFUAKQBcAG4AIAAgACAALQAgAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBjAGwAZQBhAGwAIAB6AG8AbgBlACAAcgBhAGQAaQB1AHMAIAAoAGkAbgAgAEEAVQApADsAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAxAC4AMABcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAHQAaABlACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABJAG4AZABlAHgAIABIIiAAMQAuADAAIABpAG4AZABpAGMAYQB0AGUAcwAgAGkAZABlAGEAbAAgAGEAbABpAGcAbgBtAGUAbgB0ACAAdwBpAHQAaAAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAuAFwAbgAgACAAIAAtACAAVgBhAGwAdQBlAHMAIAA8ACAAMQAgAGEAcgBlACAAaQBuAHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGgAbwB0ACkALgBcAG4AIAAgACAALQAgAFYAYQBsAHUAZQBzACAAPgAgADEAIABhAHIAZQAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGMAbwBsAGQAKQAuAFwAbgAgACAAIAAtACAASQBmACAAdABoAGUAIABvAHIAYgBpAHQAIABpAHMAIAB0AG8AbwAgAGQAZQBlAHAAIABpAG4AcwBpAGQAZQAgAHQAaABlACAAaQBuAG4AZQByACAAYgBvAHUAbgBkAGEAcgB5ACwAIAByAGUAdAB1AHIAbgBzACAAXAAiAFUALwBJAFwAIgAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGEAIABwAGkAZQBjAGUAdwBpAHMAZQAgAGYAdQBuAGMAdABpAG8AbgAgAGYAbwByACAAcwBtAG8AbwB0AGgAIABmAGEAbABsAG8AZgBmACAAYQBjAHIAbwBzAHMAIABiAG8AdQBuAGQAYQByAHkALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAxAC4AMAApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAMQAuADAAMAAwACAAIAAoAGEAcwBzAHUAbQBlAHMAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAIAA9ACAAMQApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAoADAALgA3ADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgAJIhIAAwAC4ANQAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACgAMgAuADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgACAAkiEgADEALgA2ADIAOABcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAwAC4AMgA1ACwAIAAxAC4AMAApACAAIAAgACAAIAAgACAAIACSISAAXAAiAFUALwBJAFwAIgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAIAA9ACAATABBAE0AQgBEAEEAKABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAsACAAWwBuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIAAzACAAZABlAGMAaQBtAGEAbABzACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwApACwAIAAxACwAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAsACAALwAqACAARABlAGYAYQB1AGwAdAAgAHQAbwAgADEAIABBAFUAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAKgAvAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsACAASQBGACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAA8ACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABUAFIAVQBFACwAIABGAEEATABTAEUAKQAsACAAIAAvACoAIABEAGUAdABlAHIAbQBpAG4AZQAgAHAAbwBzAGkAdABpAG8AbgAgACoALwBcAG4AXABuACAAIAAgACAAIAAgACAAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAqACAAUABpAGUAYwBlAHcAaQBzAGUAIABmAHUAbgBjAHQAaQBvAG4AIAAqAC8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAMgAgACoAIABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAgAC8AIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAgAC0AIAAxACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEkAbgBzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAvACAAKAAtADMALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACkAKQAgACsAIAAoADQALgA4ADUAIAAvACAAMwAuADgANQApACAAIAAvACoAIABPAHUAdABzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEgAYQBuAGQAbABlACAAaQBuAHYAYQBsAGkAZAAvAHYAYQBsAGkAZAAgAGMAYQBzAGUAcwAgACoALwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAXwBpAG4AZABlAHgAIAA8AD0AIAAwACwAIABcACIAVQAvAEkAXAAiACwAIABSAE8AVQBOAEQAKABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4AKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AXABuACAAIAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABEAGkAcwB0AHIAaQBiAHUAdABlAHMAIABhACAAdABvAHQAYQBsACAAcwB0AGUAbABsAGEAcgAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABhAGMAcgBvAHMAcwAgAHQAaABlACAAcwBlAHYAZQBuACAAcAByAGkAbQBhAHIAeQAgAHMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACgATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApACAAYgBhAHMAZQBkACAAbwBuACAAaQBuAHYAZQByAHMAZQAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABmAGEAYwB0AG8AcgBzAC4AIABSAGUAdAB1AHIAbgBzACAAYQAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AXABuACAAIAAgAGEAcgByAGEAeQAgAG8AZgAgAGMAbABhAHMAcwAgAGwAYQBiAGUAbABzACAAYQBuAGQAIABjAGEAbABjAHUAbABhAHQAZQBkACAAcwB0AGEAcgAgAGMAbwB1AG4AdABzAC4AXABuAFwAbgAgACAAIABTAHkAbgB0AGEAeAA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AKAB0AG8AdABhAGwALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQApAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAgACAAdABvAHQAYQBsACAAIAAgACAAIAAgADoAIABUAG8AdABhAGwAIABuAHUAbQBiAGUAcgAgAG8AZgAgAHMAdABhAHIAcwAgAHQAbwAgAGIAZQAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAuAFwAbgAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4AIAAgADoAIABPAHAAdABpAG8AbgBhAGwAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAC4AIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAGUAYQBjAGgAIABjAG8AdQBuAHQALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIAB2AGUAcgB0AGkAYwBhAGwAIABhAHIAcgBhAHkAIAB3AGkAdABoACAAdAB3AG8AIABjAG8AbAB1AG0AbgBzADoAXABuACAAIAAgACAAIAAgACAALQAgAEMAbwBsAHUAbQBuACAAMQA6ACAAUwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzACAAbABhAGIAZQBsAHMAIAAoAFQAbwB0AGEAbAAsACAATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApAFwAbgAgACAAIAAgACAAIAAgAC0AIABDAG8AbAB1AG0AbgAgADIAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzACAAaQBuACAAZQBhAGMAaAAgAGMAbABhAHMAcwAgACgAcgBvAHUAbgBkAGUAZAAgAHQAbwAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABwAHIAZQBjAGkAcwBpAG8AbgApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADEAMAAwADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAB7ADEAMAAwADAALAAgADAALgAzADMAMwAsACAAMQAuADIANQAsACAALgAuAC4AfQBcAG4AXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADUAMAAwADAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAByAG8AdQBuAGQAZQBkACAAaQBuAHQAZQBnAGUAcgBzAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAAVABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAGkAcwAgAGIAYQBzAGUAZAAgAG8AbgAgAGkAbgB2AGUAcgBzAGUAIAB3AGUAaQBnAGgAdABpAG4AZwAgAGYAYQBjAHQAbwByAHMAOgBcAG4AIAAgACAAIAAgACAAIAAgACAATwA6ACAAMQAvADMAMAAwADAAMAAwADAAXABuACAAIAAgACAAIAAgACAAIAAgAEIAOgAgADEALwA4ADAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAQQA6ACAAMQAvADEANgAwAFwAbgAgACAAIAAgACAAIAAgACAAIABGADoAIAAxAC8AMwAzAFwAbgAgACAAIAAgACAAIAAgACAAIABHADoAIAAxAC8AMQAzAFwAbgAgACAAIAAgACAAIAAgACAAIABLADoAIAAxAC8AOABcAG4AIAAgACAAIAAgACAAIAAgACAATQA6ACAAMQAvADEALgAzADEANQAzAC4ALgAuAFwAbgAgACAAIAAgACAALQAgAFQAaABlAHMAZQAgAHYAYQBsAHUAZQBzACAAYQBwAHAAcgBvAHgAaQBtAGEAdABlACAAcgBlAGwAYQB0AGkAdgBlACAAZgByAGUAcQB1AGUAbgBjAHkAIABhAG4AZAAgAGEAYgB1AG4AZABhAG4AYwBlACAAbwBmACAAcwB0AGEAcgAgAHQAeQBwAGUAcwAuAFwAbgAgACAAIAAgACAALQAgAFwAIgBUAG8AdABhAGwAXAAiACAAaQBzACAAaQBuAGMAbAB1AGQAZQBkACAAYQBzACAAdABoAGUAIABmAGkAcgBzAHQAIAByAG8AdwAgAG8AZgAgAHQAaABlACAAbwB1AHQAcAB1AHQAIABmAG8AcgAgAGUAYQBzAHkAIABzAHUAbQBtAGEAdABpAG8AbgAvAGEAdQBkAGkAdAAuAFwAbgAgACAAIAAgACAALQAgAEkAbgB0AGUAbgBkAGUAZAAgAGYAbwByACAAdQBzAGUAIABpAG4AIABtAG8AZABlAGwAaQBuAGcAIABzAHQAYQByACAAcwB5AHMAdABlAG0AIABwAG8AcAB1AGwAYQB0AGkAbwBuAHMALAAgAGcAYQBsAGEAeAB5ACAAcwBlAGUAZABpAG4AZwAsACAAbwByACAAdABlAGEAYwBoAGkAbgBnACAAdABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAG8AZgAgAHMAdABlAGwAbABhAHIAIAB0AHkAcABlAHMALgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACAAPQAgAEwAQQBNAEIARABBACgAWwBhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwBdACwAIABbAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0AF0ALAAgAFsAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABEAGUAZgBhAHUAbAB0ACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMAKQAsACAAXAAiACQAXAAiACwAIABVAFAAUABFAFIAKABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALAAgADEALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjAGkAbQBhAGwAXwBwAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAFMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwAgAGEAcgByAGEAeQAgAGEAbgBkACAAYgBhAHMAZQAgAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAgACgAZQBtAHAAaQByAGkAYwBhAGwAKQAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBjAGwAYQBzAHMAZQBzACwAIAB7AFwAIgBPAFwAIgA7ACAAXAAiAEIAXAAiADsAIABcACIAQQBcACIAOwAgAFwAIgBGAFwAIgA7ACAAXAAiAEcAXAAiADsAIABcACIASwBcACIAOwAgAFwAIgBNAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABhAHIAcgBfAGIAYQBzAGUAXwBwAGMAdAAsACAAewAwAC4AMAAwADAAMAAzADsAIAAwAC4AMQAzADsAIAAwAC4ANgA7ACAAMwAuADAAOwAgADcALgA2ADsAIAAxADIALgAxADsAIAA3ADYALgAyADcAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AcABjAHQALAAgAEwAQQBNAEIARABBACgAeAAsACAAeAAgAC8AIAAxADAAMAApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEwAbwBvAGsAdQBwACAAcwBjAGEAbABpAG4AZwAgAGYAYQBjAHQAbwByACAAZgBvAHIAIABhACAAcwBwAGUAYwBpAGYAaQBjACAAYQBuAGMAaABvAHIAIAB0AHkAcABlAFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBmAHIAZQBxACwAIABYAEwATwBPAEsAVQBQACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAGEAcgByAF8AYwBsAGEAcwBzAGUAcwAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIABzAGMAYQBsAGkAbgBnAF8AZgBhAGMAdABvAHIALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACAALwAgAGEAbgBjAGgAbwByAF8AZgByAGUAcQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAAUwBjAGEAbABlAGQAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgABQgIABuAG8AcgBtAGEAbABpAHoAZQAgAG8AcgAgAGEAcABwAGwAeQAgAHUAcwBlAHIALQBkAGUAZgBpAG4AZQBkACAAcwBjAGEAbABlAFwAbgAgACAAIAAgACAAIAAgACAAcwBjAGEAbABlAGQALAAgAEkARgAoAGEAbgBjAGgAbwByAF8AYwBsAGEAcwBzACAAPQAgAFwAIgAkAFwAIgAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAATABBAE0AQgBEAEEAKAB4ACwAIAB4ACAAKgAgAHMAYwBhAGwAaQBuAGcAXwBmAGEAYwB0AG8AcgApACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAARgBpAG4AYQBsACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAASABTAFQAQQBDAEsAKABhAHIAcgBfAGMAbABhAHMAcwBlAHMALAAgAFIATwBVAE4ARAAoAHMAYwBhAGwAZQBkACwAIABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFQAQQBSAF8AQwBMAEEAUwBTAF8AUwBUAEEAVABTACAAPQAgAEwAQQBNAEIARABBACgAaQBuACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHAAdQB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAaQBuACwAIABcACIAIABcACIALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzACwAIABMAEUARgBUACgAaQBuAHAAdQB0ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdQBiACwAIABSAEkARwBIAFQAKABpAG4AcAB1AHQALAAgAEwARQBOACgAaQBuAHAAdQB0ACkAIAAtACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGgAcgBlAHMAaABvAGwAZABzACwAIAB7ADUANQAwADAAMAAsACAAMgA1ADAAMAAwACwAIAAxADAAMAAwADAALAAgADcANQAwADAALAAgADYAMAAwADAALAAgADUAMAAwADAALAAgADMANQAwADAALAAgADIANAAwADAALAAgADEAMwAwADAALAAgADYAMAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB7AFwAIgBPAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQQBcACIALAAgAFwAIgBGAFwAIgAsACAAXAAiAEcAXAAiACwAIABcACIASwBcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAEwAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBZAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwAcwAsACAAewAzADAAMAAwACwAIAAxADUAMAAwACwAIAAyADUAMAAsACAAMQA1ADAALAAgADEAMAAwACwAIAAxADUAMAAsACAAMQAxADAALAAgADEAMQAwACwAIAA3ADAALAAgADMAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAeABfAHQAZQBtAHAALAAgAFgATABPAE8ASwBVAFAAKABjAGwAYQBzAHMALAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB0AGgAcgBlAHMAaABvAGwAZABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwBmAGEAYwB0AG8AcgAsACAAWABMAE8ATwBLAFUAUAAoAGMAbABhAHMAcwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHEAXwB2AGEAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwB0AGUAbQBwACwAIABtAGEAeABfAHQAZQBtAHAAIAAtACAAKABzAHUAYgAgACoAIABxAF8AZgBhAGMAdABvAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcAAsACAAawBfAHQAZQBtAHAAIAAvACAANQA4ADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAawBfAHQAZQBtAHAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADEALgA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAANwAuADUANwA3ADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAtADUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAFwAIgAtAD4AIABcACIAIAAmACAAaQBuAHAAdQB0ACwAIABrAGUAbAB2AGkAbgAsACAAcwBvAGwAYQByACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABzAHUAYgBjAGwAYQBzAHMALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAGEAcgBkAGMAbwBkAGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAgAGEAcgByAGEAeQBzACAALQAtAC0AXABuAFwAbgAgACAAIAAgAGEAcgByAFQAeQBwAGUAcwAsACAAewBcAG4AIAAgACAAIAAgACAAXAAiAE8AMwBcACIAOwAgAFwAIgBPADQAXAAiADsAIABcACIATwA1AFwAIgA7ACAAXAAiAE8ANgBcACIAOwAgAFwAIgBPADcAXAAiADsAIABcACIATwA4AFwAIgA7ACAAXAAiAE8AOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEIAMABcACIAOwAgAFwAIgBCADEAXAAiADsAIABcACIAQgAyAFwAIgA7ACAAXAAiAEIAMwBcACIAOwAgAFwAIgBCADQAXAAiADsAIABcACIAQgA1AFwAIgA7ACAAXAAiAEIANgBcACIAOwAgAFwAIgBCADcAXAAiADsAIABcACIAQgA4AFwAIgA7ACAAXAAiAEIAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEEAMABcACIAOwAgAFwAIgBBADEAXAAiADsAIABcACIAQQAyAFwAIgA7ACAAXAAiAEEAMwBcACIAOwAgAFwAIgBBADQAXAAiADsAIABcACIAQQA1AFwAIgA7ACAAXAAiAEEANgBcACIAOwAgAFwAIgBBADcAXAAiADsAIABcACIAQQA4AFwAIgA7ACAAXAAiAEEAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEYAMABcACIAOwAgAFwAIgBGADEAXAAiADsAIABcACIARgAyAFwAIgA7ACAAXAAiAEYAMwBcACIAOwAgAFwAIgBGADQAXAAiADsAIABcACIARgA1AFwAIgA7ACAAXAAiAEYANgBcACIAOwAgAFwAIgBGADcAXAAiADsAIABcACIARgA4AFwAIgA7ACAAXAAiAEYAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEcAMABcACIAOwAgAFwAIgBHADEAXAAiADsAIABcACIARwAyAFwAIgA7ACAAXAAiAEcAMwBcACIAOwAgAFwAIgBHADQAXAAiADsAIABcACIARwA1AFwAIgA7ACAAXAAiAEcANgBcACIAOwAgAFwAIgBHADcAXAAiADsAIABcACIARwA4AFwAIgA7ACAAXAAiAEcAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEsAMABcACIAOwAgAFwAIgBLADEAXAAiADsAIABcACIASwAyAFwAIgA7ACAAXAAiAEsAMwBcACIAOwAgAFwAIgBLADQAXAAiADsAIABcACIASwA1AFwAIgA7ACAAXAAiAEsANgBcACIAOwAgAFwAIgBLADcAXAAiADsAIABcACIASwA4AFwAIgA7ACAAXAAiAEsAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAE0AMABcACIAOwAgAFwAIgBNADEAXAAiADsAIABcACIATQAyAFwAIgA7ACAAXAAiAE0AMwBcACIAOwAgAFwAIgBNADQAXAAiADsAIABcACIATQA1AFwAIgA7ACAAXAAiAE0ANgBcACIAOwAgAFwAIgBNADcAXAAiADsAIABcACIATQA4AFwAIgA7ACAAXAAiAE0AOQBcACIAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABIAGkAZwBoACAAZQBmAGYAZQBjAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAcwAgACgASwApACAAZgBvAHIAIABlAGEAYwBoACAAcwB1AGIAYwBsAGEAcwBzAFwAbgAgACAAIAAgAGEAcgByAFQASABpAGcAaAAsACAAewBcAG4AIAAgACAAIAAgACAANAA0ADkAMAAwADsAIAA0ADIAOQAwADAAOwAgADQAMQA0ADAAMAA7ACAAMwA5ADUAMAAwADsAIAAzADcAMQAwADAAOwAgADMANQAxADAAMAA7ACAAMwAzADMAMAAwADsAXABuACAAIAAgACAAIAAgADMAMQA0ADAAMAA7ACAAMgA2ADAAMAAwADsAIAAyADAANgAwADAAOwAgADEANwAwADAAMAA7ACAAMQA2ADQAMAAwADsAIAAxADUANwAwADAAOwAgADEANAA1ADAAMAA7ACAAMQA0ADAAMAAwADsAIAAxADIAMwAwADAAOwAgADEAMAA3ADAAMAA7AFwAbgAgACAAIAAgACAAIAA5ADcAMAAwADsAIAA5ADMAMAAwADsAIAA4ADgAMAAwADsAIAA4ADYAMAAwADsAIAA4ADIANQAwADsAIAA4ADEAMAAwADsAIAA3ADkAMQAwADsAIAA3ADcANgAwADsAIAA3ADUAOQAwADsAIAA3ADQAMAAwADsAXABuACAAIAAgACAAIAAgADcAMgAyADAAOwAgADcAMAAyADAAOwAgADYAOAAyADAAOwAgADYANwA1ADAAOwAgADYANgA3ADAAOwAgADYANQA1ADAAOwAgADYAMwA1ADAAOwAgADYAMgA4ADAAOwAgADYAMQA4ADAAOwBcAG4AIAAgACAAIAAgACAANgAwADUAMAA7ACAANQA5ADMAMAA7ACAANQA4ADYAMAA7ACAANQA3ADcAMAA7ACAANQA3ADIAMAA7ACAANQA2ADgAMAA7ACAANQA2ADYAMAA7ACAANQA2ADAAMAA7ACAANQA1ADUAMAA7ACAANQA0ADgAMAA7AFwAbgAgACAAIAAgACAAIAA1ADMAOAAwADsAIAA1ADIANwAwADsAIAA1ADEANwAwADsAIAA1ADEAMAAwADsAIAA0ADgAMwAwADsAIAA0ADYAMAAwADsAIAA0ADQANAAwADsAIAA0ADMAMAAwADsAIAA0ADEAMAAwADsAIAAzADkAOQAwADsAXABuACAAIAAgACAAIAAgADMAOQAzADAAOwAgADMAOAA1ADAAOwAgADMANgA2ADAAOwAgADMANQA2ADAAOwAgADMANAAzADAAOwAgADMAMgAxADAAOwAgADMAMAA2ADAAOwAgADIAOAAxADAAOwAgADIANgA4ADAAOwAgADIANQA3ADAAOwAgADIAMwA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABUAGUAbQBwAGUAcgBhAHQAdQByAGUAIABzAHAAYQBuACAAdABvACAAdABoAGUAIABuAGUAeAB0ACAAcwB1AGIAYwBsAGEAcwBzACAAKABLACkAXABuACAAIAAgACAAYQByAHIAUwBwAGEAbgAsACAAewBcAG4AIAAgACAAIAAgACAAMgAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMQA5ADAAMAA7ACAAMgA0ADAAMAA7ACAAMgAwADAAMAA7ACAAMQA4ADAAMAA7ACAAMQA5ADAAMAA7AFwAbgAgACAAIAAgACAAIAA1ADQAMAAwADsAIAA1ADQAMAAwADsAIAAzADYAMAAwADsAIAA2ADAAMAA7ACAANwAwADAAOwAgADEAMgAwADAAOwAgADUAMAAwADsAIAAxADcAMAAwADsAIAAxADYAMAAwADsAIAAxADAAMAAwADsAXABuACAAIAAgACAAIAAgADQAMAAwADsAIAA1ADAAMAA7ACAAMgAwADAAOwAgADMANQAwADsAIAAxADUAMAA7ACAAMQA5ADAAOwAgADEANQAwADsAIAAxADcAMAA7ACAAMQA5ADAAOwAgADEAOAAwADsAXABuACAAIAAgACAAIAAgADIAMAAwADsAIAAyADAAMAA7ACAANwAwADsAIAA4ADAAOwAgADEAMgAwADsAIAAyADAAMAA7ACAANwAwADsAIAAxADAAMAA7ACAAMQAzADAAOwBcAG4AIAAgACAAIAAgACAAMQAyADAAOwAgADcAMAA7ACAAOQAwADsAIAA1ADAAOwAgADQAMAA7ACAAMgAwADsAIAA2ADAAOwAgADUAMAA7ACAANwAwADsAIAAxADAAMAA7AFwAbgAgACAAIAAgACAAIAAxADEAMAA7ACAAMQAwADAAOwAgADcAMAA7ACAAMgA3ADAAOwAgADIAMwAwADsAIAAxADYAMAA7ACAAMQA0ADAAOwAgADIAMAAwADsAIAAxADEAMAA7ACAANgAwADsAXABuACAAIAAgACAAIAAgADgAMAA7ACAAMQA5ADAAOwAgADEAMAAwADsAIAAxADMAMAA7ACAAMgAyADAAOwAgADEANQAwADsAIAAyADUAMAA7ACAAMQAzADAAOwAgADEAMQAwADsAIAAxADkAMAA7ACAAMgA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABCAHUAbgBkAGwAZQAgAGkAbgB0AG8AIABhACAAcwBpAG4AZwBsAGUAIABtAGEAdAByAGkAeAAgAGYAbwByACAAYwBsAGUAYQBuACAAbABvAG8AawB1AHAAXABuACAAIAAgACAAbQB0AHgAUwB0AGEAcgBzACwAIABIAFMAVABBAEMASwAoAGEAcgByAFQAeQBwAGUAcwAsACAAYQByAHIAVABIAGkAZwBoACwAIABhAHIAcgBTAHAAYQBuACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AcAB1AHQAIABuAG8AcgBtAGEAbABpAHoAYQB0AGkAbwBuACAAYQBuAGQAIABwAGEAcgBzAGkAbgBnACAALQAtAC0AXABuAFwAbgAgACAAIAAgAG4AbwBfAHMAcABhAGMAZQAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAHMAdQBiAGMAbABhAHMAcwAsACAAXAAiACAAXAAiACwAIABcACIAXAAiACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABUAHIAaQBtACAAdwBoAGkAdABlAHMAcABhAGMAZQBcAG4AIAAgACAAIABkAG8AdABfAHAAbwBzACwAIABGAEkATgBEACgAXAAiAC4AXAAiACwAIABuAG8AXwBzAHAAYQBjAGUAIAAmACAAXAAiAC4AMABcACIAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARQBuAHMAdQByAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGkAcwAgAGQAZQB0AGUAYwB0AGUAZAAgAGUAdgBlAG4AIABmAG8AcgAgAHcAaABvAGwAZQAgAHMAdQBiAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACAAYgBhAHMAZQAsACAATABFAEYAVAAoAG4AbwBfAHMAcABhAGMAZQAsACAAZABvAHQAXwBwAG8AcwAgAC0AIAAxACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABFAHgAdAByAGEAYwB0ACAAcgBvAG8AdAAgAHMAdQBiAGMAbABhAHMAcwAsACAAZQAuAGcALgAsACAAXAAiAEcANwBcACIAIABmAHIAbwBtACAAXAAiAEcANwAuADMAXAAiAFwAbgAgACAAIAAgAGYALAAgAFYAQQBMAFUARQAoAFwAIgAwAC4AXAAiACAAJgAgAE0ASQBEACgAbgBvAF8AcwBwAGEAYwBlACwAIABkAG8AdABfAHAAbwBzACAAKwAgADEALAAgAEwARQBOACgAbgBvAF8AcwBwAGEAYwBlACkAKQApACwAIAAvAC8AIABDAG8AbgB2AGUAcgB0ACAAZABlAGMAaQBtAGEAbAAgAHMAdAByAGkAbgBnACAAdABvACAAbgB1AG0AZQByAGkAYwAgACgAZQAuAGcALgAsACAAMAAuADMAKQBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABMAG8AbwBrAHUAcAAgAGgAaQBnAGgAIAB0AGUAbQBwACAAYQBuAGQAIABzAHAAYQBuACAAZgByAG8AbQAgAG0AYQB0AHIAaQB4ACAALQAtAC0AXABuAFwAbgAgACAAIAAgAFQAXwBoAGkAZwBoACwAIABYAEwATwBPAEsAVQBQACgAYgBhAHMAZQAsACAASQBOAEQARQBYACgAbQB0AHgAUwB0AGEAcgBzACwALAAxACkALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMgApACkALAAgAC8ALwAgAGUALgBnAC4AIAA1ADUANQAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AIAAgACAAIABzAHAAYQBuACwAIAAgACAAWABMAE8ATwBLAFUAUAAoAGIAYQBzAGUALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMQApACwAIABJAE4ARABFAFgAKABtAHQAeABTAHQAYQByAHMALAAsADMAKQApACwAIAAvAC8AIABlAC4AZwAuACAANwAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AdABlAHIAcABvAGwAYQB0AGkAbwBuADoAIABUACAAPQAgAFQAXwBoAGkAZwBoACAALQAgAGYAIAAqACAAcwBwAGEAbgAgAC0ALQAtAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAVABfAGgAaQBnAGgAIAAtACAAKABmACAAKgAgAHMAcABhAG4AKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKAB0AGUAbQBwACwAIABbAGQAZQBjAGkAbQBhAGwAcwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAASABhAHIAZABjAG8AZABlAGQAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIABkAGEAdABhACAALQAtAC0AXABuACAAIAAgACAAYQByAHIAVAB5AHAAZQBzACwAIAB7AFwAbgAgACAAIAAgACAAIABcACIATwAzAFwAIgA7ACAAXAAiAE8ANABcACIAOwAgAFwAIgBPADUAXAAiADsAIABcACIATwA2AFwAIgA7ACAAXAAiAE8ANwBcACIAOwAgAFwAIgBPADgAXAAiADsAIABcACIATwA5AFwAIgA7AFwAbgAgACAAIAAgACAAIABcACIAQgAwAFwAIgA7ACAAXAAiAEIAMQBcACIAOwAgAFwAIgBCADIAXAAiADsAIABcACIAQgAzAFwAIgA7ACAAXAAiAEIANABcACIAOwAgAFwAIgBCADUAXAAiADsAIABcACIAQgA2AFwAIgA7ACAAXAAiAEIANwBcACIAOwAgAFwAIgBCADgAXAAiADsAIABcACIAQgA5AFwAIgA7AFwAbgAgACAAIAAgACAAIABcACIAQQAwAFwAIgA7ACAAXAAiAEEAMQBcACIAOwAgAFwAIgBBADIAXAAiADsAIABcACIAQQAzAFwAIgA7ACAAXAAiAEEANABcACIAOwAgAFwAIgBBADUAXAAiADsAIABcACIAQQA2AFwAIgA7ACAAXAAiAEEANwBcACIAOwAgAFwAIgBBADgAXAAiADsAIABcACIAQQA5AFwAIgA7AFwAbgAgACAAIAAgACAAIABcACIARgAwAFwAIgA7ACAAXAAiAEYAMQBcACIAOwAgAFwAIgBGADIAXAAiADsAIABcACIARgAzAFwAIgA7ACAAXAAiAEYANABcACIAOwAgAFwAIgBGADUAXAAiADsAIABcACIARgA2AFwAIgA7ACAAXAAiAEYANwBcACIAOwAgAFwAIgBGADgAXAAiADsAIABcACIARgA5AFwAIgA7AFwAbgAgACAAIAAgACAAIABcACIARwAwAFwAIgA7ACAAXAAiAEcAMQBcACIAOwAgAFwAIgBHADIAXAAiADsAIABcACIARwAzAFwAIgA7ACAAXAAiAEcANABcACIAOwAgAFwAIgBHADUAXAAiADsAIABcACIARwA2AFwAIgA7ACAAXAAiAEcANwBcACIAOwAgAFwAIgBHADgAXAAiADsAIABcACIARwA5AFwAIgA7AFwAbgAgACAAIAAgACAAIABcACIASwAwAFwAIgA7ACAAXAAiAEsAMQBcACIAOwAgAFwAIgBLADIAXAAiADsAIABcACIASwAzAFwAIgA7ACAAXAAiAEsANABcACIAOwAgAFwAIgBLADUAXAAiADsAIABcACIASwA2AFwAIgA7ACAAXAAiAEsANwBcACIAOwAgAFwAIgBLADgAXAAiADsAIABcACIASwA5AFwAIgA7AFwAbgAgACAAIAAgACAAIABcACIATQAwAFwAIgA7ACAAXAAiAE0AMQBcACIAOwAgAFwAIgBNADIAXAAiADsAIABcACIATQAzAFwAIgA7ACAAXAAiAE0ANABcACIAOwAgAFwAIgBNADUAXAAiADsAIABcACIATQA2AFwAIgA7ACAAXAAiAE0ANwBcACIAOwAgAFwAIgBNADgAXAAiADsAIABcACIATQA5AFwAIgBcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAGEAcgByAFQASABpAGcAaAAsACAAewBcAG4AIAAgACAAIAAgACAANAA0ADkAMAAwADsAIAA0ADIAOQAwADAAOwAgADQAMQA0ADAAMAA7ACAAMwA5ADUAMAAwADsAIAAzADcAMQAwADAAOwAgADMANQAxADAAMAA7ACAAMwAzADMAMAAwADsAXABuACAAIAAgACAAIAAgADMAMQA0ADAAMAA7ACAAMgA2ADAAMAAwADsAIAAyADAANgAwADAAOwAgADEANwAwADAAMAA7ACAAMQA2ADQAMAAwADsAIAAxADUANwAwADAAOwAgADEANAA1ADAAMAA7ACAAMQA0ADAAMAAwADsAIAAxADIAMwAwADAAOwAgADEAMAA3ADAAMAA7AFwAbgAgACAAIAAgACAAIAA5ADcAMAAwADsAIAA5ADMAMAAwADsAIAA4ADgAMAAwADsAIAA4ADYAMAAwADsAIAA4ADIANQAwADsAIAA4ADEAMAAwADsAIAA3ADkAMQAwADsAIAA3ADcANgAwADsAIAA3ADUAOQAwADsAIAA3ADQAMAAwADsAXABuACAAIAAgACAAIAAgADcAMgAyADAAOwAgADcAMAAyADAAOwAgADYAOAAyADAAOwAgADYANwA1ADAAOwAgADYANgA3ADAAOwAgADYANQA1ADAAOwAgADYAMwA1ADAAOwAgADYAMgA4ADAAOwAgADYAMQA4ADAAOwBcAG4AIAAgACAAIAAgACAANgAwADUAMAA7ACAANQA5ADMAMAA7ACAANQA4ADYAMAA7ACAANQA3ADcAMAA7ACAANQA3ADIAMAA7ACAANQA2ADgAMAA7ACAANQA2ADYAMAA7ACAANQA2ADAAMAA7ACAANQA1ADUAMAA7ACAANQA0ADgAMAA7AFwAbgAgACAAIAAgACAAIAA1ADMAOAAwADsAIAA1ADIANwAwADsAIAA1ADEANwAwADsAIAA1ADEAMAAwADsAIAA0ADgAMwAwADsAIAA0ADYAMAAwADsAIAA0ADQANAAwADsAIAA0ADMAMAAwADsAIAA0ADEAMAAwADsAIAAzADkAOQAwADsAXABuACAAIAAgACAAIAAgADMAOQAzADAAOwAgADMAOAA1ADAAOwAgADMANgA2ADAAOwAgADMANQA2ADAAOwAgADMANAAzADAAOwAgADMAMgAxADAAOwAgADMAMAA2ADAAOwAgADIAOAAxADAAOwAgADIANgA4ADAAOwAgADIANQA3ADAAOwAgADIAMwA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIABhAHIAcgBTAHAAYQBuACwAIAB7AFwAbgAgACAAIAAgACAAIAAyADAAMAAwADsAIAAxADUAMAAwADsAIAAxADkAMAAwADsAIAAyADQAMAAwADsAIAAyADAAMAAwADsAIAAxADgAMAAwADsAIAAxADkAMAAwADsAXABuACAAIAAgACAAIAAgADUANAAwADAAOwAgADUANAAwADAAOwAgADMANgAwADAAOwAgADYAMAAwADsAIAA3ADAAMAA7ACAAMQAyADAAMAA7ACAANQAwADAAOwAgADEANwAwADAAOwAgADEANgAwADAAOwAgADEAMAAwADAAOwBcAG4AIAAgACAAIAAgACAANAAwADAAOwAgADUAMAAwADsAIAAyADAAMAA7ACAAMwA1ADAAOwAgADEANQAwADsAIAAxADkAMAA7ACAAMQA1ADAAOwAgADEANwAwADsAIAAxADkAMAA7ACAAMQA4ADAAOwBcAG4AIAAgACAAIAAgACAAMgAwADAAOwAgADIAMAAwADsAIAA3ADAAOwAgADgAMAA7ACAAMQAyADAAOwAgADIAMAAwADsAIAA3ADAAOwAgADEAMAAwADsAIAAxADMAMAA7AFwAbgAgACAAIAAgACAAIAAxADIAMAA7ACAANwAwADsAIAA5ADAAOwAgADUAMAA7ACAANAAwADsAIAAyADAAOwAgADYAMAA7ACAANQAwADsAIAA3ADAAOwAgADEAMAAwADsAXABuACAAIAAgACAAIAAgADEAMQAwADsAIAAxADAAMAA7ACAANwAwADsAIAAyADcAMAA7ACAAMgAzADAAOwAgADEANgAwADsAIAAxADQAMAA7ACAAMgAwADAAOwAgADEAMQAwADsAIAA2ADAAOwBcAG4AIAAgACAAIAAgACAAOAAwADsAIAAxADkAMAA7ACAAMQAwADAAOwAgADEAMwAwADsAIAAyADIAMAA7ACAAMQA1ADAAOwAgADIANQAwADsAIAAxADMAMAA7ACAAMQAxADAAOwAgADEAOQAwADsAIAAyADgAMABcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAARABlAHQAZQByAG0AaQBuAGUAIABtAGEAdABjAGgAIABpAG4AZABlAHgAIAAtAC0ALQBcAG4AIAAgACAAIAB0AGUAbQBwAF8AaQBuAF8AcgBhAG4AZwBlACwAXABuACAAIAAgACAAIAAgAE0AQQBQACgAUwBFAFEAVQBFAE4AQwBFACgAUgBPAFcAUwAoAGEAcgByAFQASABpAGcAaAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAaQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgAEEATgBEACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAGEAcgByAFQASABpAGcAaAAsACAAaQApACAAPgA9ACAAdABlAG0AcAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAbQBwACAAPgAgAEkATgBEAEUAWAAoAGEAcgByAFQASABpAGcAaAAsACAAaQApACAALQAgAEkATgBEAEUAWAAoAGEAcgByAFMAcABhAG4ALAAgAGkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAGkAZAB4ACwAIABYAE0AQQBUAEMASAAoAFQAUgBVAEUALAAgAHQAZQBtAHAAXwBpAG4AXwByAGEAbgBnAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAEwAbwBvAGsAdQBwACAAdAB5AHAAZQAgAGEAbgBkACAAYwBvAG0AcAB1AHQAZQAgAGYAcgBhAGMAdABpAG8AbgAgAC0ALQAtAFwAbgAgACAAIAAgAGYAdQBsAGwAXwB0AHkAcABlACwAIABJAE4ARABFAFgAKABhAHIAcgBUAHkAcABlAHMALAAgAGkAZAB4ACkALABcAG4AIAAgACAAIABUAF8AaABpAGcAaAAsACAASQBOAEQARQBYACgAYQByAHIAVABIAGkAZwBoACwAIABpAGQAeAApACwAXABuACAAIAAgACAAcwBwAGEAbgAsACAASQBOAEQARQBYACgAYQByAHIAUwBwAGEAbgAsACAAaQBkAHgAKQAsAFwAbgAgACAAIAAgAGYALAAgACgAVABfAGgAaQBnAGgAIAAtACAAdABlAG0AcAApACAALwAgAHMAcABhAG4ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABGAG8AcgBtAGEAdAAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0ACAALQAtAC0AXABuACAAIAAgACAAZABlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAZABlAGMAaQBtAGEAbABzACkALAAgADMALAAgAGQAZQBjAGkAbQBhAGwAcwApACwAXABuACAAIAAgACAAZgBvAHIAbQBhAHQAXwBzAHQAcgBpAG4AZwAsACAAXAAiAC4AXAAiACAAJgAgAFIARQBQAFQAKABcACIAMABcACIALAAgAGQAZQBjACkALABcAG4AIAAgACAAIABzAHUAYgBjAGwAYQBzAHMALAAgAGYAdQBsAGwAXwB0AHkAcABlACAAJgAgAFQARQBYAFQAKABmACwAIABmAG8AcgBtAGEAdABfAHMAdAByAGkAbgBnACkALABcAG4AXABuACAAIAAgACAAcwB1AGIAYwBsAGEAcwBzAFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAEQASQBTAFAATABBAFkAXwBTAFAARQBDAFQAUgBBAEwAIAA9ACAATABBAE0AQgBEAEEAKABbAHQAeQBwAGUAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAEQAZQBmAGkAbgBlACAAcwBwAGUAYwB0AHIAYQBsACAAdAB5AHAAZQBzACAAYQBuAGQAIABiAHUAaQBsAGQAIABoAGUAbABwAGUAcgBzACAALQAtAC0AXABuACAAIAAgACAAVAB5AHAAZQBzACwAIAB7AFwAIgBPAFwAIgA7AFwAIgBCAFwAIgA7AFwAIgBBAFwAIgA7AFwAIgBGAFwAIgA7AFwAIgBHAFwAIgA7AFwAIgBLAFwAIgA7AFwAIgBNAFwAIgB9ACwAXABuACAAIAAgACAASABlAGEAZABlAHIAcwAsACAAVABSAEEATgBTAFAATwBTAEUAKABWAFMAVABBAEMASwAoAFwAIgAgAFwAIgAsACAAVAB5AHAAZQBzACkAKQAsAFwAbgAgACAAIAAgAEYAaQBuAGQAQwBvAGwALAAgAE0AQQBLAEUAQQBSAFIAQQBZACgAQwBPAFUATgBUAEEAKABUAHkAcABlAHMAKQAsACAAMgAsACAATABBAE0AQgBEAEEAKAByACwAIABjACwAIABJAEYAKABjACAAPQAgADEALAAgAEkATgBEAEUAWAAoAFQAeQBwAGUAcwAsACAAcgApACwAIAByACkAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAAUgBhAHcAIABzAHQAYQByACAAcwB1AGIAYwBsAGEAcwBzACAAZABhAHQAYQAgAC0ALQAtAFwAbgAgACAAIAAgAGEAcgByAFQAeQBwAGUAcwAsACAAewBcAG4AIAAgACAAIAAgACAAXAAiAE8AXAAiADsAIABcACIATwBcACIAOwAgAFwAIgBPAFwAIgA7ACAAXAAiAE8AMwBcACIAOwAgAFwAIgBPADQAXAAiADsAIABcACIATwA1AFwAIgA7ACAAXAAiAE8ANgBcACIAOwAgAFwAIgBPADcAXAAiADsAIABcACIATwA4AFwAIgA7ACAAXAAiAE8AOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEIAMABcACIAOwAgAFwAIgBCADEAXAAiADsAIABcACIAQgAyAFwAIgA7ACAAXAAiAEIAMwBcACIAOwAgAFwAIgBCADQAXAAiADsAIABcACIAQgA1AFwAIgA7ACAAXAAiAEIANgBcACIAOwAgAFwAIgBCADcAXAAiADsAIABcACIAQgA4AFwAIgA7ACAAXAAiAEIAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEEAMABcACIAOwAgAFwAIgBBADEAXAAiADsAIABcACIAQQAyAFwAIgA7ACAAXAAiAEEAMwBcACIAOwAgAFwAIgBBADQAXAAiADsAIABcACIAQQA1AFwAIgA7ACAAXAAiAEEANgBcACIAOwAgAFwAIgBBADcAXAAiADsAIABcACIAQQA4AFwAIgA7ACAAXAAiAEEAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEYAMABcACIAOwAgAFwAIgBGADEAXAAiADsAIABcACIARgAyAFwAIgA7ACAAXAAiAEYAMwBcACIAOwAgAFwAIgBGADQAXAAiADsAIABcACIARgA1AFwAIgA7ACAAXAAiAEYANgBcACIAOwAgAFwAIgBGADcAXAAiADsAIABcACIARgA4AFwAIgA7ACAAXAAiAEYAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEcAMABcACIAOwAgAFwAIgBHADEAXAAiADsAIABcACIARwAyAFwAIgA7ACAAXAAiAEcAMwBcACIAOwAgAFwAIgBHADQAXAAiADsAIABcACIARwA1AFwAIgA7ACAAXAAiAEcANgBcACIAOwAgAFwAIgBHADcAXAAiADsAIABcACIARwA4AFwAIgA7ACAAXAAiAEcAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEsAMABcACIAOwAgAFwAIgBLADEAXAAiADsAIABcACIASwAyAFwAIgA7ACAAXAAiAEsAMwBcACIAOwAgAFwAIgBLADQAXAAiADsAIABcACIASwA1AFwAIgA7ACAAXAAiAEsANgBcACIAOwAgAFwAIgBLADcAXAAiADsAIABcACIASwA4AFwAIgA7ACAAXAAiAEsAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAE0AMABcACIAOwAgAFwAIgBNADEAXAAiADsAIABcACIATQAyAFwAIgA7ACAAXAAiAE0AMwBcACIAOwAgAFwAIgBNADQAXAAiADsAIABcACIATQA1AFwAIgA7ACAAXAAiAE0ANgBcACIAOwAgAFwAIgBNADcAXAAiADsAIABcACIATQA4AFwAIgA7ACAAXAAiAE0AOQBcACIAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIABhAHIAcgBUAEgAaQBnAGgALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgADQANAA5ADAAMAA7ACAANAAyADkAMAAwADsAIAA0ADEANAAwADAAOwAgADMAOQA1ADAAMAA7ACAAMwA3ADEAMAAwADsAIAAzADUAMQAwADAAOwAgADMAMwAzADAAMAA7AFwAbgAgACAAIAAgACAAIAAzADEANAAwADAAOwAgADIANgAwADAAMAA7ACAAMgAwADYAMAAwADsAIAAxADcAMAAwADAAOwAgADEANgA0ADAAMAA7ACAAMQA1ADcAMAAwADsAIAAxADQANQAwADAAOwAgADEANAAwADAAMAA7ACAAMQAyADMAMAAwADsAIAAxADAANwAwADAAOwBcAG4AIAAgACAAIAAgACAAOQA3ADAAMAA7ACAAOQAzADAAMAA7ACAAOAA4ADAAMAA7ACAAOAA2ADAAMAA7ACAAOAAyADUAMAA7ACAAOAAxADAAMAA7ACAANwA5ADEAMAA7ACAANwA3ADYAMAA7ACAANwA1ADkAMAA7ACAANwA0ADAAMAA7AFwAbgAgACAAIAAgACAAIAA3ADIAMgAwADsAIAA3ADAAMgAwADsAIAA2ADgAMgAwADsAIAA2ADcANQAwADsAIAA2ADYANwAwADsAIAA2ADUANQAwADsAIAA2ADMANQAwADsAIAA2ADIAOAAwADsAIAA2ADEAOAAwADsAXABuACAAIAAgACAAIAAgADYAMAA1ADAAOwAgADUAOQAzADAAOwAgADUAOAA2ADAAOwAgADUANwA3ADAAOwAgADUANwAyADAAOwAgADUANgA4ADAAOwAgADUANgA2ADAAOwAgADUANgAwADAAOwAgADUANQA1ADAAOwAgADUANAA4ADAAOwBcAG4AIAAgACAAIAAgACAANQAzADgAMAA7ACAANQAyADcAMAA7ACAANQAxADcAMAA7ACAANQAxADAAMAA7ACAANAA4ADMAMAA7ACAANAA2ADAAMAA7ACAANAA0ADQAMAA7ACAANAAzADAAMAA7ACAANAAxADAAMAA7ACAAMwA5ADkAMAA7AFwAbgAgACAAIAAgACAAIAAzADkAMwAwADsAIAAzADgANQAwADsAIAAzADYANgAwADsAIAAzADUANgAwADsAIAAzADQAMwAwADsAIAAzADIAMQAwADsAIAAzADAANgAwADsAIAAyADgAMQAwADsAIAAyADYAOAAwADsAIAAyADUANwAwADsAIAAyADMAOAAwAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAAYQByAHIAUwBwAGEAbgAsACAAewBcAG4AIAAgACAAIAAgACAAXAAiAFwAIgA7ACAAXAAiAFwAIgA7ACAAXAAiAFwAIgA7ACAAMgAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMQA5ADAAMAA7ACAAMgA0ADAAMAA7ACAAMgAwADAAMAA7ACAAMQA4ADAAMAA7ACAAMQA5ADAAMAA7AFwAbgAgACAAIAAgACAAIAA1ADQAMAAwADsAIAA1ADQAMAAwADsAIAAzADYAMAAwADsAIAA2ADAAMAA7ACAANwAwADAAOwAgADEAMgAwADAAOwAgADUAMAAwADsAIAAxADcAMAAwADsAIAAxADYAMAAwADsAIAAxADAAMAAwADsAXABuACAAIAAgACAAIAAgADQAMAAwADsAIAA1ADAAMAA7ACAAMgAwADAAOwAgADMANQAwADsAIAAxADUAMAA7ACAAMQA5ADAAOwAgADEANQAwADsAIAAxADcAMAA7ACAAMQA5ADAAOwAgADEAOAAwADsAXABuACAAIAAgACAAIAAgADIAMAAwADsAIAAyADAAMAA7ACAANwAwADsAIAA4ADAAOwAgADEAMgAwADsAIAAyADAAMAA7ACAANwAwADsAIAAxADAAMAA7ACAAMQAzADAAOwBcAG4AIAAgACAAIAAgACAAMQAyADAAOwAgADcAMAA7ACAAOQAwADsAIAA1ADAAOwAgADQAMAA7ACAAMgAwADsAIAA2ADAAOwAgADUAMAA7ACAANwAwADsAIAAxADAAMAA7AFwAbgAgACAAIAAgACAAIAAxADEAMAA7ACAAMQAwADAAOwAgADcAMAA7ACAAMgA3ADAAOwAgADIAMwAwADsAIAAxADYAMAA7ACAAMQA0ADAAOwAgADIAMAAwADsAIAAxADEAMAA7ACAANgAwADsAXABuACAAIAAgACAAIAAgADgAMAA7ACAAMQA5ADAAOwAgADEAMAAwADsAIAAxADMAMAA7ACAAMgAyADAAOwAgADEANQAwADsAIAAyADUAMAA7ACAAMQAzADAAOwAgADEAMQAwADsAIAAxADkAMAA7ACAAMgA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAEkAZgAgAG4AbwAgAHQAeQBwAGUAIABpAHMAIABzAHAAZQBjAGkAZgBpAGUAZAAsACAAZABpAHMAcABsAGEAeQAgAGYAdQBsAGwAIAB0AGEAYgBsAGUAIAAtAC0ALQBcAG4AIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABCAFkAUgBPAFcAKABIAFMAVABBAEMASwAoAGEAcgByAFQAeQBwAGUAcwAsACAAYQByAHIAVABIAGkAZwBoACwAIABhAHIAcgBTAHAAYQBuACkALABcAG4AIAAgACAAIAAgACAATABBAE0AQgBEAEEAKAByAG8AdwAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiADsAIABcACIALAAgAFQAUgBVAEUALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKAByAG8AdwAsACAAMgApACwAIABcACIAMABcACIAKQAsACAAVABFAFgAVAAoAEkATgBEAEUAWAAoAHIAbwB3ACwAIAAzACkALAAgAFwAIgAwAFwAIgApACkAKQBcAG4AIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAE4AdQBtAGIAZQByAHMALAAgAFMARQBRAFUARQBOAEMARQAoADEAMAAsADEALAAwACwAMQApACwAXABuACAAIAAgACAATwBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAE8AXAAiACkALABcAG4AIAAgACAAIABCAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIAQgBcACIAKQAsAFwAbgAgACAAIAAgAEEAXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBBAFwAIgApACwAXABuACAAIAAgACAARgBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAEYAXAAiACkALABcAG4AIAAgACAAIABHAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIARwBcACIAKQAsAFwAbgAgACAAIAAgAEsAXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBLAFwAIgApACwAXABuACAAIAAgACAATQBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAE0AXAAiACkALABcAG4AXABuACAAIAAgACAAZgB1AGwAbABUAGEAYgBsAGUALAAgAFYAUwBUAEEAQwBLACgASABlAGEAZABlAHIAcwAsACAASABTAFQAQQBDAEsAKABOAHUAbQBiAGUAcgBzACwATwBfAFMAdABhAHIAcwAsACAAQgBfAFMAdABhAHIAcwAsACAAQQBfAFMAdABhAHIAcwAsACAARgBfAFMAdABhAHIAcwAsACAARwBfAFMAdABhAHIAcwAsACAASwBfAFMAdABhAHIAcwAsACAATQBfAFMAdABhAHIAcwApACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAGYAIAB0AHkAcABlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQALAAgAGoAdQBzAHQAIAByAGUAdAB1AHIAbgAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AIABiAHIAZQBhAGsAZABvAHcAbgAgAC0ALQAtAFwAbgAgACAAIAAgAHQAZQBtAHAAcwAsACAARgBJAEwAVABFAFIAKABhAHIAcgBUAEgAaQBnAGgALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAgADEAKQAgAD0AIAB0AHkAcABlACkALABcAG4AIAAgACAAIABzAHAAYQBuAHMALAAgAEYASQBMAFQARQBSACgAYQByAHIAUwBwAGEAbgAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsACAAMQApACAAPQAgAHQAeQBwAGUAKQAsAFwAbgAgACAAIAAgAHQAeQBwAGUASABlAGEAZAAsACAASABTAFQAQQBDAEsAKAB0AHkAcABlACwAIABcACIAcwBwAGEAbgBcACIAKQAsAFwAbgAgACAAIAAgAHMAbABpAG0AVABhAGIAbABlACwAIABWAFMAVABBAEMASwAoAHQAeQBwAGUASABlAGEAZAAsACAASABTAFQAQQBDAEsAKAB0AGUAbQBwAHMALAAgAHMAcABhAG4AcwApACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABGAGkAbgBhAGwAIABvAHUAdABwAHUAdAA6ACAAZgB1AGwAbAAgAHQAYQBiAGwAZQAgAG8AcgAgAGYAaQBsAHQAZQByAGUAZAAgAGMAbwBsAHUAbQBuAHMAXABuACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAEkARgAoAEkAUwBCAEwAQQBOAEsAKAB0AHkAcABlACkALAAgAGYAdQBsAGwAVABhAGIAbABlACwAIABzAGwAaQBtAFQAYQBiAGwAZQApACwAXABuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgAvACoAIABTAFQAQQBSAF8AUwBDAEEATABFAF8AVABFAE0AUABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABzAHQAYQByACAAYQB0AHQAcgBpAGIAdQB0AGUAcwAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIABmAHIAbwBtACAAcwBvAGwAYQByACAAdABlAG0AcABcAG4AKgAvAFwAbgBTAFQAQQBSAF8AUwBDAEEATABFAF8AVABFAE0AUAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQBtAHAALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AF8AdABlAG0AcAAsACAAXAAiAFQALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAxAC4AOAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADcALgA1ADcANwA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAAMgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAALQA1ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABfAHQAZQBtAHAALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIAXwBTAEMAQQBMAEUAXwBLAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABrAGUAbAB2AGkAbgAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwB0AGUAbQBwACwAIABcACIASwAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAawBlAGwAdgBpAG4ALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAALAAgAGsAZQBsAHYAaQBuACAALwAgADUAOAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADEALgA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAANwAuADUANwA3ADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAtADUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAXwB0AGUAbQBwACwAIABzAG8AbABhAHIALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIAXwBNAEEAUwBTACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAXwBtAGEAcwBzACwAIABcACIATQAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAbQBhAHMAcwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABcACIAVAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAFMAUQBSAFQAKABtAGEAcwBzACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAUwBRAFIAVAAoAG0AYQBzAHMAKQAgACoAIAA1ADgAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABzAG8AbABhAHIALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABcACIAUgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAG0AYQBzAHMAIABeACAAMAAuADkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFwAIgBMADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbQBhAHMAcwAgAF4AIAAzAC4ANwA4ADgAOQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAFMAUQBSAFQAKABtAGEAcwBzACkAIABeACAALQA1ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABzAF8AbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAGwAaQBmAGUAdABpAG0AZQApACwAXABuACAAIAAgACAAIAAgACAAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAaQBzAHQALAAgAFwAIgB8AFwAIgApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFMAVABBAFIAXwBSAEEARABTACAAPQAgAEwAQQBNAEIARABBACgAcgBhAGQAaQB1AHMALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAG8AbABhAHIALAAgAFwAIgBSAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABcACIAVAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHIAYQBkAGkAdQBzACAAXgAgACgAMQAgAC8AIAAxAC4AOAApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAoAHIAYQBkAGkAdQBzACAAXgAgACgAMQAgAC8AIAAxAC4AOAApACkAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAgAF4AIAA0AC4AMgAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHIAYQBkAGkAdQBzACAAXgAgADEALgAxADEANAAyADcAMAAwADEANwA3ADcANwA3ADgAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHIAYQBkAGkAdQBzACAAXgAgACgAMQAgAC8AIAAtADAALgAzADYAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAawBlAGwAdgBpAG4ALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAbQBhAHMAcwAsACAAcwBvAGwAYQByACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFQAQQBSAF8ATABVAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAFwAIgBUADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANwAuADYAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAA3AC4ANQA3ADcAOAApACkAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBfAGwAdQBtACwAIABcACIATAAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANAAuADIAMgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADMALgA3ADgAOAA5ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAAtADEALgA1ADIAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAawBlAGwAdgBpAG4ALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAHMAXwBsAHUAbQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFQAQQBSAEwAVQBNAFMAIAA9ACAATABBAE0AQgBEAEEAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABhAGIAZQBsAHMALAAgAFQAUgBBAE4AUwBQAE8AUwBFACgAewBcACIASwA6AFwAIgAsACAAXAAiAFQAOgBcACIALAAgAFwAIgBNADoAXAAiACwAIABcACIAUgA6AFwAIgAsACAAXAAiAEwAfQBcACIALAAgAFwAIgBWADoAXAAiAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVAAsACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANwAuADUANwA3ADgAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAASwAsACAAUgBPAFUATgBEACgAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAA3AC4ANQA3ADcAOAApACkAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAATAAsACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANAAuADIAMgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAAzAC4ANwA4ADgAOQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABWACwAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAAtADEALgA1ADIAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQB0AHQAcgBpAGIAcwAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiACwAXAAiACwAIAAsACAASwAsACAAVAAsACAATQAsACAAUgAsACAATAAsACAAVgApACwAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbAB1AGUAcwAsACAAVABSAEEATgBTAFAATwBTAEUAKABUAEUAWABUAFMAUABMAEkAVAAoAGEAdAB0AHIAaQBiAHMALAAgAFwAIgAsAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEMASABPAE8AUwBFACgAewAxACwAIAAyAH0ALAAgAGwAYQBiAGUAbABzACwAIAB2AGEAbAB1AGUAcwApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFQAQQBSAF8ATABJAEYARQAgAD0AIABMAEEATQBCAEQAQQAoAGwAaQBmAGUAdABpAG0AZQAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFYALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAaQBmAGUAdABpAG0AZQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABcACIAVAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAaQBmAGUAdABpAG0AZQAgAF4AIAAoADEAIAAvACAALQA1ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoACgAbABpAGYAZQB0AGkAbQBlACAAXgAgACgAMQAgAC8AIAAtADUAKQApACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABcACIAUgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAaQBmAGUAdABpAG0AZQAgAF4AIAAoAC0AMAAuADMANgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAaQBmAGUAdABpAG0AZQAgAF4AIAAoADEAIAAvACAALQAyAC4ANQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAaQBmAGUAdABpAG0AZQAgAF4AIAAtADEALgA1ADIALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAZQBsAHYAaQBuACwAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABzAG8AbABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKAB0AGUAbQBwACwAIABbAG0AbwBkAGUAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcAAsACAAaQBmAHMAKAB0AGUAbQBwADwANgAwADAALAA2ADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAPgA1ADUAMAAwADAALAA1ADUAMAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAB0AGUAbQBwACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALAAgAEkARgAoAE8AUgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBvAGQAZQApACwAIABtAG8AZABlACAAPgAgADEAKQAsACAAMAAsACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAAcAByAGUAYwAgADwAIAAwACkALAAgADMALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABoAHIAZQBzAGgAbwBsAGQAcwAsACAAewA1ADUAMAAwADAALAAgADIANQAwADAAMAAsACAAMQAwADAAMAAwACwAIAA3ADUAMAAwACwAIAA2ADAAMAAwACwAIAA1ADAAMAAwACwAIAAzADUAMAAwACwAIAAyADQAMAAwACwAIAAxADMAMAAwACwAIAA2ADAAMAAsACAAMwAwADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiACwAIABcACIATABcACIALAAgAFwAIgBUAFwAIgAsACAAXAAiAFkAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbABzACwAIAB7ADMAMAAwADAALAAgADEANQAwADAALAAgADIANQAwACwAIAAxADUAMAAsACAAMQAwADAALAAgADEANQAwACwAIAAxADEAMAAsACAAMQAxADAALAAgADcAMAAsACAAMwAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGkAbgBkAGUAeAAsACAATQBBAFQAQwBIACgAVABSAFUARQAsACAAdABlAG0AcAAgAD4AIAB0AGgAcgBlAHMAaABvAGwAZABzACwAIAAwACkAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBfAHQAeQBwAGUALAAgAEkATgBEAEUAWAAoAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIABpAG4AZABlAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBfAG0AYQB4ACwAIABJAE4ARABFAFgAKAB0AGgAcgBlAHMAaABvAGwAZABzACwAIABpAG4AZABlAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAHYAYQBsACwAIABJAE4ARABFAFgAKABxAF8AdgBhAGwAcwAsACAAaQBuAGQAZQB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBfAG4AdQBtACwAIAAoAGsAXwBtAGEAeAAgAC0AIAB0AGUAbQBwACkAIAAvACAAcQBfAHYAYQBsACwAXABuACAAIAAgACAAIAAgACAAIABzAF8AYwBsAGEAcwBzACwAIABJAEYAKABjAGwAYQBzAHMAXwBuAHUAbQAgAD0AIAAxADAALAAgADkALgA5ADkAOQAsACAAYwBsAGEAcwBzAF8AbgB1AG0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFMAVwBJAFQAQwBIACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAIABzAF8AdAB5AHAAZQAgACYAIABcACIAIABcACIAIAAmACAARgBJAFgARQBEACgAcwBfAGMAbABhAHMAcwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALAAgAHQAZQBtAHAAIAAmACAAXAAiACAAPQAgAFwAIgAgACYAIABzAF8AdAB5AHAAZQAgACYAIABGAEkAWABFAEQAKABzAF8AYwBsAGEAcwBzACwAIABwAHIAZQBjACkALAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFQARQBNAFAAXwBGAFIATwBNAF8AVABZAFAARQAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgATwBSACgASQBTAE8ATQBJAFQAVABFAEQAKABtAG8AZABlACkALAAgAG0AbwBkAGUAIAA+ACAAMQApACwAIAAwACwAIABtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAbgBwAHUAdAAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAGkAbgAsACAAXAAiACAAXAAiACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwAsACAATABFAEYAVAAoAGkAbgBwAHUAdAAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIABzAHUAYgAsACAAUgBJAEcASABUACgAaQBuAHAAdQB0ACwAIABMAEUATgAoAGkAbgBwAHUAdAApACAALQAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABoAHIAZQBzAGgAbwBsAGQAcwAsACAAewA1ADUAMAAwADAALAAgADIANQAwADAAMAAsACAAMQAwADAAMAAwACwAIAA3ADUAMAAwACwAIAA2ADAAMAAwACwAIAA1ADAAMAAwACwAIAAzADUAMAAwACwAIAAyADQAMAAwACwAIAAxADMAMAAwACwAIAA2ADAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAewBcACIATwBcACIALAAgAFwAIgBCAFwAIgAsACAAXAAiAEEAXAAiACwAIABcACIARgBcACIALAAgAFwAIgBHAFwAIgAsACAAXAAiAEsAXAAiACwAIABcACIATQBcACIALAAgAFwAIgBMAFwAIgAsACAAXAAiAFQAXAAiACwAIABcACIAWQBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAHYAYQBsAHMALAAgAHsAMwAwADAAMAAsACAAMQA1ADAAMAAsACAAMgA1ADAALAAgADEANQAwACwAIAAxADAAMAAsACAAMQA1ADAALAAgADEAMQAwACwAIAAxADEAMAAsACAANwAwACwAIAAzADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHgAXwB0AGUAbQBwACwAIABYAEwATwBPAEsAVQBQACgAYwBsAGEAcwBzACwAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAdABoAHIAZQBzAGgAbwBsAGQAcwApACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AZgBhAGMAdABvAHIALAAgAFgATABPAE8ASwBVAFAAKABjAGwAYQBzAHMALAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIABxAF8AdgBhAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABrAF8AdABlAG0AcAAsACAAbQBhAHgAXwB0AGUAbQBwACAALQAgACgAcwB1AGIAIAAqACAAcQBfAGYAYQBjAHQAbwByACkALABcAG4AIAAgACAAIAAgACAAIAAgAFMAVwBJAFQAQwBIACgAbQBvAGQAZQAsACAAMAAsACAAawBfAHQAZQBtAHAALAAgADEALAAgAGkAbgBwAHUAdAAgACYAIABcACIAIAA9ACAAXAAiACAAJgAgAGsAXwB0AGUAbQBwACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUwBQAEUAQwBUAFIAQQBMAF8AQwBMAEEAUwBTAF8ARABBAFQAQQAgAD0AIABMAEEATQBCAEQAQQAoAFsAbgB1AGwAbABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGgAZQBhAGQAZQByAHMALAAgAHsAXAAiAFQAeQBwAGUAXAAiADsAIABcACIATQBpAG4AXAAiADsAIABcACIATQBhAHgAXAAiADsAIABcACIAUwBwAGEAbgBcACIAOwAgAFwAIgBxAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAB0AHkAcABlAHMALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMQApACwAIAB7AFwAIgBPAFwAIgA7ACAAXAAiAEIAXAAiADsAIABcACIAQQBcACIAOwAgAFwAIgBGAFwAIgA7ACAAXAAiAEcAXAAiADsAIABcACIASwBcACIAOwAgAFwAIgBNAFwAIgA7ACAAXAAiAEwAXAAiADsAIABcACIAVABcACIAOwAgAFwAIgBZAFwAIgB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AaQBuACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADIAKQAsACAAewAyADUAMAAwADAAOwAgADEAMAAwADAAMAA7ACAANwA1ADAAMAA7ACAANgAwADAAMAA7ACAANQAwADAAMAA7ACAAMwA1ADAAMAA7ACAAMgA0ADAAMAA7ACAAMQAzADAAMAA7ACAANgAwADAAOwAgADMAMAAwAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHgALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMwApACwAIAB7ADUANQAwADAAMAA7ACAAMgA1ADAAMAAwADsAIAAxADAAMAAwADAAOwAgADcANQAwADAAOwAgADYAMAAwADAAOwAgADUAMAAwADAAOwAgADMANQAwADAAOwAgADIANAAwADAAOwAgADEAMwAwADAAOwAgADYAMAAwAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAHYAYQBsAHMALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAANQApACwAIAB7ADMAMAAwADAAOwAgADEANQAwADAAOwAgADIANQAwADsAIAAxADUAMAA7ACAAMQAwADAAOwAgADEANQAwADsAIAAxADEAMAA7ACAAMQAxADAAOwAgADcAMAA7ACAAMwAwAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAG4AZwBlAHMALAAgAHsAMwAwADAAMAAwADsAIAAxADUAMAAwADAAOwAgADIANQAwADAAOwAgADEANQAwADAAOwAgADEAMAAwADAAOwAgADEANQAwADAAOwAgADEAMQAwADAAOwAgADEAMQAwADAAOwAgADcAMAAwADsAIAAzADAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABzAHAAYQBuACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADQAKQAsACAAcgBhAG4AZwBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIALAAgADMALAAgADQALAAgADUAfQAsACAAdAB5AHAAZQBzACwAIABtAGkAbgAsACAAbQBhAHgALAAgAHMAcABhAG4ALAAgAHEAXwB2AGEAbABzACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUwBQAEUAQwBfAEwASQBTAFQAIAA9ACAATABBAE0AQgBEAEEAKABbAG4AdQBsAGwAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAewBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE8AOgAgADIANQAwADAAMAAgAC0AIAA1ADUAMAAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBCADoAIAAxADAAMAAwADAAIAAtACAAMgA1ADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAQQA6ACAANwA1ADAAMAAgAC0AIAAxADAAMAAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBGADoAIAA2ADAAMAAwACAALQAgADcANQAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBHADoAIAA1ADAAMAAwACAALQAgADYAMAAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBLADoAIAAzADUAMAAwACAALQAgADUAMAAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNADoAIAAyADQAMAAwACAALQAgADMANQAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBMADoAIAAxADMAMAAwACAALQAgADIANAAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUADoAIAA2ADAAMAAgAC0AIAAxADMAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAWQA6ACAAMwAwADAAIAAtACAANgAwADAAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAXwBUAEEAQgBMAEUAIAA9ACAATABBAE0AQgBEAEEAKABbAG4AdQBsAGwAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkAGUAYwAsACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAewBcACIAWgBvAG4AZQBcACIAOwAgAFwAIgBJAG4AbgBlAHIAXAAiADsAIABcACIATwB1AHQAZQByAFwAIgA7ACAAXAAiAEEAdgBlAHIAYQBnAGUAXAAiADsAIABcACIAUwBwAGEAbgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABhAGIAZQBsAHMALAAgAHsAXAAiAFoAMAAgACgASQBnAG4AaQBvAC0AKQBcACIAOwAgAFwAIgBaADEAIAAoAEMAYQBsAG8AcgBvAC0AKQBcACIAOwAgAFwAIgBaADIAIAAoAEgAZQBsAGkAbwAtACkAXAAiADsAIABcACIAWgAzACAAKABTAG8AbABhAHIAYQAtACkAXAAiADsAIABcACIAWgA0ACAAKABTAHUAcgB5AGEALQApAFwAIgA7ACAAXAAiAFoANQAgACgARgByAGkAbwAtACkAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGkAbgBuAGUAcgAsACAAewAwADsAIAAwAC4ANQA7ACAAMAAuADcANQA7ACAAMAAuADkANQA7ACAAMQAuADMAOAA1ADsAIAAxAC4ANwA3AH0ALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AGUAcgAsACAAewAwAC4ANQA7ACAAMAAuADcANQA7ACAAMAAuADkANQA7ACAAMQAuADMAOAA1ADsAIAAxAC4ANwA3ADsAIAA0AC4AOAA1AH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGEAdgBlAHIAYQBnAGUALAAgAHsAMAAuADIANQA7ACAAMAAuADYAMgA1ADsAIAAwAC4AOAA1ADsAIAAxAC4AMQA2ADcANQA7ACAAMQAuADUANwA3ADUAOwAgADMALgAzADEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBwAGEAbgAsACAAewAwAC4ANQA7ACAAMAAuADIANQA7ACAAMAAuADIAOwAgADAALgA0ADMANQA7ACAAMAAuADMAOAA1ADsAIAAzAC4AMAA4AH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwBsAF8AMQAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAxACkALAAgAGwAYQBiAGUAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwBsAF8AMgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAyACkALAAgAFIATwBVAE4ARAAoAGkAbgBuAGUAcgAsACAAZABlAGMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABfADMALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMwApACwAIABSAE8AVQBOAEQAKABvAHUAdABlAHIALAAgAGQAZQBjACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAXwA0ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADQAKQAsACAAUgBPAFUATgBEACgAYQB2AGUAcgBhAGcAZQAsACAAZABlAGMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABfADUALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAANQApACwAIABSAE8AVQBOAEQAKABzAHAAYQBuACwAIABkAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEMASABPAE8AUwBFACgAewAxACwAIAAyACwAIAAzACwAIAA0ACwAIAA1AH0ALAAgAGMAbwBsAF8AMQAsACAAYwBvAGwAXwAyACwAIABjAG8AbABfADMALAAgAGMAbwBsAF8ANAAsACAAYwBvAGwAXwA1ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ASABBAEIAWgBPAE4ARQBTACAAPQAgAEwAQQBNAEIARABBACgAbAB1AG0ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAAzACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABuAHUAYwBsAGUAYQBsACwAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbAB1AG0AKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAATgAsACAAXAAiAE4ALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAFMAUQBSAFQAKABsAHUAbQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADAALAAgAFwAIgAwADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAMAAuADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAxACwAIABcACIAMQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADAALgA3ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAyACwAIABcACIAMgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADAALgA5ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAzACwAIABcACIAMwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADEALgAzADgANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADQALAAgAFwAIgA0ADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAMQAuADcANwAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADUALAAgAFwAIgA1ADoAIABcACIAIAAmACAAUgBPAFUATgBEACgANAAuADgANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABaAG8AbgBlADAALAAgAFoAbwBuAGUAMQAsACAAWgBvAG4AZQAyACwAIABOACwAIABaAG8AbgBlADMALAAgAFoAbwBuAGUANAAsACAAWgBvAG4AZQA1ACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBIAEEAQgBfAFoATwBOAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGwAdQBtACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbABhAGIAZQBsAHMALAAgAHsAXAAiADAAOgAgAFwAIgAsACAAXAAiADEAOgAgAFwAIgAsACAAXAAiADIAOgAgAFwAIgAsACAAXAAiAE4ALQA+ACAAXAAiACwAIABcACIAMwA6ACAAXAAiACwAIABcACIANAA6ACAAXAAiACwAIABcACIANQA6ACAAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AdQBjAGwAZQBhAGwALAAgAFIATwBVAE4ARAAoAFMAUQBSAFQAKABsAHUAbQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAF8AMAAsACAAUgBPAFUATgBEACgAMAAuADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADEALAAgAFIATwBVAE4ARAAoADAALgA3ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADIALAAgAFIATwBVAE4ARAAoADAALgA5ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfAE4ALAAgAG4AdQBjAGwAZQBhAGwALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwAzACwAIABSAE8AVQBOAEQAKAAxAC4AMwA4ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADQALAAgAFIATwBVAE4ARAAoADEALgA3ADcAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADUALAAgAFIATwBVAE4ARAAoADQALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAwACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAAxACkALAAgAFoAXwAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMQAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAAMgApACwAIABaAF8AMQApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADIALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADMAKQAsACAAWgBfADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQBOACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAA0ACkALAAgAFoAXwBOACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMwAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAANQApACwAIABaAF8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADQALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADYAKQAsACAAWgBfADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQA1ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAA3ACkALAAgAFoAXwA1ACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQAUgBBAE4AUwBQAE8AUwBFACgAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIALAAgADMALAAgADQALAAgADUALAAgADYALAAgADcAfQAsACAAWgBvAG4AZQAwACwAIABaAG8AbgBlADEALAAgAFoAbwBuAGUAMgAsACAAWgBvAG4AZQBOACwAIABaAG8AbgBlADMALAAgAFoAbwBuAGUANAAsACAAWgBvAG4AZQA1ACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFQAQQBSAFMAXwBQAEUAUgBfAEMAVQBCAEkAQwBfAFYATwBMACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIABbAHAAcgBlAGMAXQAsACAAWwBtAG8AZABlAF0ALABcAG4AXABuAEwARQBUACgAXABuACAAIAAgACAAbQBvAGQAZQAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAbQBvAGQAZQApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA8ADAAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlAD4AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACkALABcAG4AIAAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAB2AG8AbAB1AG0AZQAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIABpAG4AcAB1AHQALABcAG4AIAAgACAAIAAgACAAIAAgADEALAAgACgANAAvADMAKQAqAHAAaQAoACkAKgBpAG4AcAB1AHQAXgAzAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAHIAbwB1AG4AZAAoAHAAbwB3AGUAcgAoACgAdgBvAGwAdQBtAGUAKgAzACkALwAoADQAKgBwAGkAKAApACkALAAxAC8AMwApACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgADEALAAgAGkAbgBwAHUAdABcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABzAHQAYQByAHMALAAgAHIAbwB1AG4AZAAoAHYAbwBsAHUAbQBlAC8AMgA1ADAALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAHQAbwBjAG8AbAAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAdABlAHgAdABqAG8AaQBuACgAXAAiADsAIABcACIALAAsACAAcwB0AGEAcgBzACwAIAByAGEAZABpAHUAcwApACwAXAAiADsAIABcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIAB0AG8AYwBvAGwAKAB0AGUAeAB0AHMAcABsAGkAdAAoAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7ACAAXAAiACwALAAgAHIAbwB1AG4AZAAoAHMAdABhAHIAcwAsADAAKQAsACAAcgBvAHUAbgBkACgAdgBvAGwAdQBtAGUALAAwACkAKQAsAFwAIgA7ACAAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AQwBVAEIASQBDAF8AVgBPAEwAVQBNAEUAXwBQAEUAUgBfAFMAVABBAFIAUwAgAD0AIABMAEEATQBCAEQAQQAoAHMAdABhAHIAcwAsACAAWwBwAHIAZQBjAF0ALAAgAFsAbQBvAGQAZQBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAG0AbwBkAGUAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPAAwACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA+ADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAcAByAGUAYwAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAcAByAGUAYwApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAcAByAGUAYwA8ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwApACwAXABuACAAIAAgACAAdgBvAGwAdQBtAGUALAAgAHIAbwB1AG4AZAAoAHMAdABhAHIAcwAqADIANQAwACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABzAGkAZABlACwAIAByAG8AdQBuAGQAKABwAG8AdwBlAHIAKAB2AG8AbAB1AG0AZQAsADEALwAzACkALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHIAYQBkAGkAdQBzACwAIAByAG8AdQBuAGQAKABwAG8AdwBlAHIAKAAoAHYAbwBsAHUAbQBlACoAMwApAC8AKAA0ACoAcABpACgAKQApACwAMQAvADMAKQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAAdgBvAGwAdQBtAGUALABcAG4AIAAgACAAIAAgACAAIAAgADEALAAgAHQAbwBjAG8AbAAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAdABlAHgAdABqAG8AaQBuACgAXAAiADsAIABcACIALAAsACAAdgBvAGwAdQBtAGUALAAgAHMAaQBkAGUAKQAsAFwAIgA7ACAAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAAdABvAGMAbwBsACgAdABlAHgAdABzAHAAbABpAHQAKAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwAgAFwAIgAsACwAIAB2AG8AbAB1AG0AZQAsACAAcwBpAGQAZQAsACAAcgBhAGQAaQB1AHMAKQAsAFwAIgA7ACAAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBQAEwAQQBOAEUAVABfAEEAUwBUAFIATwBNAEUAVABSAEkAQwBTACAAPQAgAEwAQQBNAEIARABBACgAZgBpAHIAcwB0ACwAIABzAGUAYwBvAG4AZAAsACAAWwBtAG8AZABlAF0ALAAgAFsAcAByAGUAYwBdACwAXABuAFwAbgAvACoAIABNAE8ARABFAFMAXABuAFwAbgAgACAAIAAgADAAOgAgAG0ALAAgAGQAXABuACAAIAAgACAAMQA6ACAAbQAsACAAcgBcAG4AIAAgACAAIAAyADoAIABtACwAIABnAFwAbgAgACAAIAAgADMAOgAgAHIALAAgAGQAXABuACAAIAAgACAANAA6ACAAcgAsACAAZwBcAG4AIAAgACAAIAA1ADoAIABkACwAIABnAFwAbgAgACAAIAAgADYAOgAgAGQALAAgAHYAXABuACAAIAAgACAANwA6ACAAZwAsACAAdgBcAG4AIAAgACAAIAA4ADoAIABtACwAIAB2AFwAbgAgACAAIAAgADkAOgAgAHIALAAgAHYAXABuAFwAbgAqAC8AXABuAEwARQBUACgAXABuACAAIAAgACAAcAByAGUAYwAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAcAByAGUAYwApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAcAByAGUAYwA8ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABtAG8AZABlACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABtAG8AZABlACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA8ADAAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlAD4AOQApACkALABcAG4AIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUAXABuACAAIAAgACAAIAAgACAAIAApACwAIABcAG4AIAAgACAAIABsAGEAYgBlAGwAcwAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAIABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAFwAIgBNAD4AOwBSADoAOwBkAD4AOwBnADoAOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABcACIATQA+ADsAUgA+ADsAZAA6ADsAZwA6ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAAXAAiAE0APgA7AFIAOgA7AGQAOgA7AGcAPgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADMALAAgAFwAIgBNADoAOwBSAD4AOwBkAD4AOwBnADoAOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA0ACwAIABcACIATQA6ADsAUgA+ADsAZAA6ADsAZwA+ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsACAAXAAiAE0AOgA7AFIAOgA7AGQAPgA7AGcAPgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAFwAIgBNADoAOwBSADoAOwBkAD4AOwBnADoAOwB2AD4AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABcACIATQA6ADsAUgA6ADsAZAA6ADsAZwA+ADsAdgA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAAXAAiAE0APgA7AFIAOgA7AGQAOgA7AGcAOgA7AHYAPgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAFwAIgBNADoAOwBSAD4AOwBkADoAOwBnADoAOwB2AD4AXAAiAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAcABvAHcAZQByACgAbQBhAHMAcwAvAGQAZQBuAHMAaQB0AHkALAAzAF4ALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcABvAHcAZQByACgAbQBhAHMAcwAqAGQAZQBuAHMAaQB0AHkAXgAyACwAMwBeAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABwAG8AdwBlAHIAKABtAGEAcwBzACoAcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsADMAXgAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAG0AYQBzAHMALwByAGEAZABpAHUAcwBeADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAbQBhAHMAcwAvAHIAYQBkAGkAdQBzAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBxAHIAdAAoAG0AYQBzAHMALwByAGEAZABpAHUAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAcwBxAHIAdAAoAG0AYQBzAHMALwBnAHIAYQB2AGkAdAB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAcwBxAHIAdAAoAGcAcgBhAHYAaQB0AHkAXgAzAC8AbQBhAHMAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABwAG8AdwBlAHIAKABtAGEAcwBzACoAZwByAGEAdgBpAHQAeQAsADQAXgAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAHIAYQBkAGkAdQBzACoAZABlAG4AcwBpAHQAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABkAGUAbgBzAGkAdAB5ACoAcgBhAGQAaQB1AHMAXgAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIAByAGEAZABpAHUAcwAqAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANAAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5AC8AcgBhAGQAaQB1AHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZwByAGEAdgBpAHQAeQAqAHIAYQBkAGkAdQBzAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBxAHIAdAAoAGcAcgBhAHYAaQB0AHkAKgByAGEAZABpAHUAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADUALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZwByAGEAdgBpAHQAeQAvAGQAZQBuAHMAaQB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZwByAGEAdgBpAHQAeQBeADMALwBkAGUAbgBzAGkAdAB5AF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAZwByAGEAdgBpAHQAeQAvAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABlAHMAYwBhAHAAZQBeADMALwBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABlAHMAYwBhAHAAZQAvAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKgBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADcALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZQBzAGMAYQBwAGUAXgA0AC8AZwByAGEAdgBpAHQAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZQBzAGMAYQBwAGUAXgAyAC8AZwByAGEAdgBpAHQAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIAAoAGcAcgBhAHYAaQB0AHkALwBlAHMAYwBhAHAAZQApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA4ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlAF4ANAAvAG0AYQBzAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAG0AYQBzAHMALwBlAHMAYwBhAHAAZQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAZQBzAGMAYQBwAGUAXgA2AC8AbQBhAHMAcwBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAOQAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAXgAyAC8AcgBhAGQAaQB1AHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMAKgBlAHMAYwBhAHAAZQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAKABlAHMAYwBhAHAAZQAvAHIAYQBkAGkAdQBzACkAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAGwAYQBiAGUAbABfAGwAaQBzAHQALAAgAHQAcgBhAG4AcwBwAG8AcwBlACgAdABlAHgAdABzAHAAbABpAHQAKABsAGEAYgBlAGwAcwAsAFwAIgA7AFwAIgApACkALABcAG4AIAAgACAAIAB2AGEAbAB1AGUAXwBsAGkAcwB0ACwAIAB0AHIAYQBuAHMAcABvAHMAZQAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAbwB1AHQAcAB1AHQALAAgAFwAIgA7AFwAIgApACkALABcAG4AIAAgACAAIAAvAC8AdgBhAGwAdQBlAF8AbABpAHMAdABcAG4AIAAgACAAIABjAGgAbwBvAHMAZQAoAHsAMQAsADIAfQAsACAAbABhAGIAZQBsAF8AbABpAHMAdAAsACAAcgBvAHUAbgBkACgAdgBhAGwAdQBlACgAdgBhAGwAdQBlAF8AbABpAHMAdAApACwAcAByAGUAYwApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFMAWQBOAE8ARABJAEMAIAA9ACAATABBAE0AQgBEAEEAKABwACwAIABxACwAXABuAFwAbgAgACAAIAAgACgAcAAgACoAIABxACkAIAAvACAAQQBCAFMAKABwACAALQAgAHEAKQBcAG4AIAAgACAAIABcAG4AKQA7AFwAbgBcAG4AUwBNAEEATABMAEEATgBHAEwARQAgAD0AIABMAEEATQBCAEQAQQAoAGQAaQBhAG0AZQB0AGUAcgAsACAAZABpAHMAdABhAG4AYwBlACwAXABuAFwAbgAgACAAIAAgADAALgA1ADMAMgA5ADAANAAyADkANAAgACoAIAAoAGQAaQBhAG0AZQB0AGUAcgAgAC8AIABkAGkAcwB0AGEAbgBjAGUAKQBcAG4AIAAgACAAIABcAG4AKQA7AFwAbgBcAG4ATwBSAEIAXwBBAFgASQBTACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALAAgAHAAZQByAGkAbwBkACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AYQBzAHMAMgAsACAASQBGACgAKABJAFMATwBNAEkAVABUAEUARAAoAG0AYQBzAHMAMgApACkAKwAoAG0AYQBzAHMAMgAgAD0AIAAxACkALAAgADAALAAgAG0AYQBzAHMAMgAqADMALgAwADAAMwBFAC0ANgApACwAXABuACAAIAAgACAAYQB4AGkAcwAsACAAUABPAFcARQBSACgAKABQAE8AVwBFAFIAKABwAGUAcgBpAG8AZAAsACAAMgApACAAKgAgACgAbQBhAHMAcwAxACAAKwAgAG0AYQBzAHMAMgApACkALAAgADEAIAAvACAAMwApACwAXABuACAAIAAgACAAYQB4AGkAcwBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBPAFIAQgBfAFAARQBSAEkATwBEACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALAAgAGEAeABpAHMALABcAG4AXABuAEwARQBUACgAXABuACAAIAAgACAAbQBhAHMAcwAyACwAIABJAEYAKAAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBhAHMAcwAyACkAKQArACgAbQBhAHMAcwAyACAAPQAgADEAKQAsACAAMAAsACAAKABtAGEAcwBzADIAIAAqACAAMwAuADAAMAAyADcAMwBlAC0ANgApACkALABcAG4AIAAgACAAIABwAGUAcgBpAG8AZAAsACAAUwBRAFIAVAAoAFAATwBXAEUAUgAoAGEAeABpAHMALAAgADMAKQAgAC8AIAAoAG0AYQBzAHMAMQAgACsAIABtAGEAcwBzADIAKQApACwAXABuACAAIAAgACAAcABlAHIAaQBvAGQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AQwBSAE8AUwBTAEkATgBHAF8ATwBSAEIASQBUAF8AUABBAFIAQQBNAEUAVABFAFIAIAA9ACAATABBAE0AQgBEAEEAKABtAGEAcwBzADEALAAgAG0AYQBzAHMAMgAsAFwAbgBcAG4AQQBCAFMAKABtAGEAcwBzADEAIAAtACAAbQBhAHMAcwAyACkALwBBAEIAUwAoAG0AYQBzAHMAMQAgACsAbQBhAHMAcwAyACkAXABuAFwAbgApADsAXABuAFwAbgBcAG4AXABuAFAARQBSAEkATwBEAF8AQQBYAEkAUwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFwAbgBcAG4AIAAgACAAIABQAE8AVwBFAFIAKABQAE8AVwBFAFIAKABpAG4AcAB1AHQALAAgADIAKQAsACAAKAAxACAALwAgADMAKQApAFwAbgBcAG4AKQA7AFwAbgBcAG4ATwBSAEIAXwBTAFUATQBfAE0AQQBTAFMARQBTACAAPQAgAEwAQQBNAEIARABBACgAYQB4AGkAcwAsACAAcABlAHIAaQBvAGQALABcAG4AXABuAFAATwBXAEUAUgAoAGEAeABpAHMALAAgADMAKQAgAC8AIABQAE8AVwBFAFIAKABwAGUAcgBpAG8AZAAsACAAMgApAFwAbgApADsAXABuAFwAbgBTAFAASABFAFIASQBDAEEATABfAFQATwBfAEMAQQBSAFQARQBTAEkAQQBOACAAPQAgAEwAQQBNAEIARABBACgAcABoAGkALAAgAHQAaABlAHQAYQAsACAAcgAsACAAWwBwAHIAZQBjAF0ALABcAG4AXABuAEwARQBUACgAXABuACAAIAAgAHAAcgBlAGMALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAHAAcgBlAGMAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAHAAcgBlAGMAPAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAKQAsACAAIAAgACAAXABuACAAIAAgACAAegBfAG0AbwBkACwAIABzAGkAZwBuACgAdABoAGUAdABhACkALABcAG4AIAAgACAAIAB5AF8AbQBvAGQALAAgAHMAaQBnAG4AKABwAGgAaQApACwAXABuACAAIAAgACAAeABfAG0AbwBkACwAIABpAGYAKABhAGIAcwAoAHAAaABpACkAPAA5ADAALAAgADEALAAgAC0AMQApACwAXABuACAAIAAgACAALwAvAHgAXwBtAG8AZABcAG4AIAAgACAAIAAvAC8AdABlAHgAdABqAG8AaQBuACgAXAAiACwAXAAiACwALAB4AF8AbQBvAGQALAAgAHkAXwBtAG8AZAAsACAAegBfAG0AbwBkACkAXABuACAAIAAgACAAYQBuAGcAXwB4ACwAIAByAGEAZABpAGEAbgBzACgAbQBvAGQAKABwAGgAaQAsADkAMAApACkALABcAG4AIAAgACAAIABhAG4AZwBfAHoALAAgAHIAYQBkAGkAYQBuAHMAKABhAGIAcwAoAHQAaABlAHQAYQApACkALABcAG4AIAAgACAAIABkACwAIABjAG8AcwAoAGEAbgBnAF8AegApACoAcgAsAFwAbgAgACAAIAAgAHgALAAgAHIAbwB1AG4AZAAoAGMAbwBzACgAYQBuAGcAXwB4ACkAKgBkACoAeABfAG0AbwBkACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAB5ACwAIAByAG8AdQBuAGQAKABzAGkAbgAoAGEAbgBnAF8AeAApACoAZAAqAHkAXwBtAG8AZAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAegAsACAAcgBvAHUAbgBkACgAcwBpAG4AKABhAG4AZwBfAHoAKQAqAHIAKgB6AF8AbQBvAGQALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAfABcACIALAAsAHgALAAgAHkALAAgAHoAKQAsAFwAbgAgACAAIAAgAC8ALwByAGUAcwB1AGwAdABcAG4AIAAgACAAIAB0AG8AcgBvAHcAKAB0AGUAeAB0AHMAcABsAGkAdAAoAHIAZQBzAHUAbAB0ACwAXAAiAHwAXAAiACkAKQBcAG4AKQBcAG4AXABuACkAOwBcAG4AXABuAEQARQBHAF8ARABFAEMAXwBEAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABEAGUAZwAsACAAVABSAFUATgBDACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAsACAAQQBCAFMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAIAAtACAARABlAGcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQBpAG4AdQB0AGUAcwAsACAARgByAGEAYwBQAG8AcgB0AGkAbwBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAATQBpAG4AXwBwAGEAcgB0ACwAIABUAFIAVQBOAEMAKABNAGkAbgB1AHQAZQBzACkAIAAvACAAMQAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAEkAbgB0AE0AaQBuACwAIABJAE4AVAAoAE0AaQBuAHUAdABlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAARgByAGEAYwBNAGkAbgAsACAAQQBCAFMAKABNAGkAbgB1AHQAZQBzACAALQAgAEkAbgB0AE0AaQBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFMAZQBjAG8AbgBkAHMALAAgAEYAcgBhAGMATQBpAG4AIAAqACAANgAwACwAXABuACAAIAAgACAAIAAgACAAIABzAGUAYwBfAHAAYQByAHQALAAgAFMAZQBjAG8AbgBkAHMAIAAvACAAMQAwADAAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAARABlAGcAIAArACAATQBpAG4AXwBwAGEAcgB0ACAAKwAgAHMAZQBjAF8AcABhAHIAdAAsAFwAbgAgACAAIAAgACAAIAAgACAARgBJAFgARQBEACgAbwB1AHQAcAB1AHQALAAgADcAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQATQBTACAAPQAgAEwAQQBNAEIARABBACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AXABuAEwARQBUACgAXABuACAAIAAgACAAZABlAGMAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABQAHIAZQBjAGkAcwBpAG8AbgApACwAIAAzACwAIABQAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAARABlAGcALAAgAFQAUgBVAE4AQwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwApACwAXABuACAAIAAgACAARgByAGEAYwBQAG8AcgB0AGkAbwBuACwAIABBAEIAUwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAgAC0AIABEAGUAZwApACwAXABuACAAIAAgACAATQBpAG4AdQB0AGUAcwAsACAARgByAGEAYwBQAG8AcgB0AGkAbwBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgAEkAbgB0AE0AaQBuACwAIABJAE4AVAAoAE0AaQBuAHUAdABlAHMAKQAsAFwAbgAgACAAIAAgAEYAcgBhAGMATQBpAG4ALAAgAEEAQgBTACgATQBpAG4AdQB0AGUAcwAgAC0AIABJAG4AdABNAGkAbgApACwAXABuACAAIAAgACAAUwBlAGMAbwBuAGQAcwAsACAARgByAGEAYwBNAGkAbgAgACoAIAA2ADAALABcAG4AIAAgACAAIABEAGUAZwAgACYAIABcACIAsAAgAFwAIgAgACYAIABJAG4AdABNAGkAbgAgACYAIABDAEgAQQBSACgAMwA5ACkAIAAmACAAQwBIAEEAUgAoADMAMgApACAAJgAgAEYASQBYAEUARAAoAFMAZQBjAG8AbgBkAHMALAAgAGQAZQBjAHAAcgBlAGMAKQAgACYAIABDAEgAQQBSACgAMwA0ACkAXABuACkAXABuACkAOwBcAG4AXABuAEQARQBHAF8ARABNAFMAXwBEAEUAQwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkAGUAZwByAGUAZQBzACwAIABUAFIAVQBOAEMAKABpAG4AcAB1AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBpAG4AdQB0AGUAcwAsACAAVABSAFUATgBDACgAKABpAG4AcAB1AHQAIAAtACAAZABlAGcAcgBlAGUAcwApACAAKgAgADEAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAcgBhAGMAdABpAG8AbgBhAGwAXwBzAGUAYwBvAG4AZABzACwAIAAoACgAaQBuAHAAdQB0ACAAKgAgADEAMAAwACkAIAAtACAAVABSAFUATgBDACgAaQBuAHAAdQB0ACAAKgAgADEAMAAwACkAKQAgAC8AIAAwAC4ANgAsAFwAbgAgACAAIAAgACAAIAAgACAALwAqACAAIAAqAC8AXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdAAsACAAZABlAGcAcgBlAGUAcwAgACsAIAAoACgAbQBpAG4AdQB0AGUAcwAgACsAIABmAHIAYQBjAHQAaQBvAG4AYQBsAF8AcwBlAGMAbwBuAGQAcwApACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBBAFgASQBTAF8AUABFAFIASQBPAEQAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AXABuACAAIAAgACAAUwBRAFIAVAAoAFAATwBXAEUAUgAoAGkAbgBwAHUAdAAsACAAMwApACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuACIAfQAsAHsAIgBwAGEAdABoACIAOgAiAC8AcAByAG8AagBlAGMAdABzAC8ARwBlAG4AZQByAGEAbAAiACwAIgB0AGUAeAB0ACIAOgAiAC8AKgAgAFIARQBDAEkAUAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHIAZQBjAGkAcAByAG8AYwBhAGwAIAAoAG0AdQBsAHQAaQBwAGwAaQBjAGEAdABpAHYAZQAgAGkAbgB2AGUAcgBzAGUAKQAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAcwBpAG4AZwBsAGUAIABkAGUAYwBpAG0AYQBsACAAdgBhAGwAdQBlACAAZQBxAHUAYQBsACAAdABvACAAMQAgAGQAaQB2AGkAZABlAGQAIABiAHkAIAB0AGgAZQAgAGkAbgBwAHUAdAAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQBuAHkAIABuAG8AbgB6AGUAcgBvACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABSAGUAdAB1AHIAbgBzACAAYAAjAEQASQBWAC8AMAAhAGAAIABpAGYAIABpAG4AcAB1AHQAIABpAHMAIAB6AGUAcgBvAC4AXABuACAAIAAgAC0AIABVAHMAZQBmAHUAbAAgAGYAbwByACAAZgBsAGkAcABwAGkAbgBnACAAZgByAGEAYwB0AGkAbwBuAHMALAAgAGMAbwBuAHYAZQByAHQAaQBuAGcAIAByAGEAdABlAHMAIAAoAGUALgBnAC4ALAAgAEgAegAgAJQhIABzAGUAYwBvAG4AZABzACkALAAgAG8AcgAgAGkAbgB2AGUAcgB0AGkAbgBnACAAcgBhAHQAaQBvAHMALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAIAAgAFIARQBDAEkAUAAoADQAKQAgAJIhIAAwAC4AMgA1AFwAbgAgACAAIAAgACAAUgBFAEMASQBQACgAMAAuADIAKQAgAJIhIAA1AFwAbgAqAC8AXABuAFwAbgBcAG4AUgBFAEMASQBQACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIAAxACAALwAgAGkAbgBwAHUAdAApADsAXABuAFwAbgAvACoAIABGAFIAQQBDADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgACgAbgBvAG4ALQBpAG4AdABlAGcAZQByACkAIABwAGEAcgB0ACAAbwBmACAAYQAgAG4AdQBtAGIAZQByAC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAEEAIABzAGMAYQBsAGEAcgAgAGQAZQBjAGkAbQBhAGwAIABiAGUAdAB3AGUAZQBuACAAMAAgAGEAbgBkACAAMQAgACgAbwByACAALQAxACAAYQBuAGQAIAAwACAAaQBmACAAcwBpAGcAbgAgAGkAcwAgAHAAcgBlAHMAZQByAHYAZQBkACkALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAGkAbgBwAHUAdAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAbgB1AG0AYgBlAHIAIAB0AG8AIABlAHgAdAByAGEAYwB0ACAAdABoAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGYAcgBvAG0ALgBcAG4AIAAgACAALQAgAG0AbwBkAGUAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABPAHUAdABwAHUAdAAgAG0AbwBkAGUAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMAApAFwAbgAgACAAIAAgACAAIAAgAC0AIAAwADoAIABBAGwAdwBhAHkAcwAgAHIAZQB0AHUAcgBuACAAcABvAHMAaQB0AGkAdgBlACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAXABuACAAIAAgACAAIAAgACAALQAgADEAOgAgAFAAcgBlAHMAZQByAHYAZQAgAHMAaQBnAG4AIABvAGYAIABpAG4AcAB1AHQAIAAoAGUALgBnAC4ALAAgAC0AMwAuADIANQAgAJIhIAAtADAALgAyADUAKQBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAQwBvAG0AcABsAGUAbQBlAG4AdABzACAARQB4AGMAZQBsABkgcwAgAFQAUgBVAE4AQwAgAGEAbgBkACAAUQBVAE8AVABJAEUATgBUACAAZgB1AG4AYwB0AGkAbwBuAHMALgBcAG4AIAAgACAALQAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIABkAGUAdABlAGMAdABpAG4AZwAgAGQAZQBjAGkAbQBhAGwAIAByAGUAbQBhAGkAbgBkAGUAcgBzACAAYQBuAGQAIABhAG4AYQBsAHkAegBpAG4AZwAgAG8AZgBmAHMAZQB0AHMAIABmAHIAbwBtACAAdwBoAG8AbABlACAAdgBhAGwAdQBlAHMALgBcAG4AIAAgACAALQAgAFMAaQBnAG4ALQBwAHIAZQBzAGUAcgB2AGkAbgBnACAAbQBvAGQAZQAgAGMAYQBuACAAaQBuAGQAaQBjAGEAdABlACAAdwBoAGUAdABoAGUAcgAgAGEAIAB2AGEAbAB1AGUAIABpAHMAIABqAHUAcwB0ACAAYQBiAG8AdgBlACAAbwByACAAagB1AHMAdAAgAGIAZQBsAG8AdwAgAGEAbgAgAGkAbgB0AGUAZwBlAHIALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAcwA6AFwAbgAgACAAIABGAFIAQQBDACgALQAzAC4AMgA1ACkAIAAgACAAIAAgACAAIACSISAAMAAuADIANQAgACAAXABuACAAIAAgAEYAUgBBAEMAKAAtADMALgAyADUALAAgADEAKQAgACAAIAAgAJIhIAAtADAALgAyADUAXABuACoALwBcAG4AXABuAFwAbgBGAFIAQQBDACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABEAGUAZgBhAHUAbAB0ACAAbQBvAGQAZQAgAHQAbwAgADAAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAbwByACAAaQBuAHYAYQBsAGkAZABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALAAgAEkARgAoAE8AUgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBvAGQAZQApACwAIABtAG8AZABlACAAPgAgADEAKQAsACAAMAAsACAAbQBvAGQAZQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0ACAAYgB5ACAAcwB1AGIAdAByAGEAYwB0AGkAbgBnACAAaQBuAHQAZQBnAGUAcgAgAHAAbwByAHQAaQBvAG4AXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAF8AcABhAHIAdAAsACAAaQBuAHAAdQB0ACAALQAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAUgBlAHQAdQByAG4AIABzAGkAZwBuAGUAZAAgAG8AcgAgAGEAYgBzAG8AbAB1AHQAZQAgAHYAYQBsAHUAZQAgAGQAZQBwAGUAbgBkAGkAbgBnACAAbwBuACAAbQBvAGQAZQBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAG0AbwBkAGUAIAA9ACAAMQAsACAAZgByAGEAYwBfAHAAYQByAHQALAAgAEEAQgBTACgAZgByAGEAYwBfAHAAYQByAHQAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAFIATwBPAFQAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB4AC0AdABoACAAcgBvAG8AdAAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAgACgAbwByACAAcwBxAHUAYQByAGUAIAByAG8AbwB0ACAAaQBmACAAbgBvACAAZABlAGcAcgBlAGUAIABpAHMAIABzAHAAZQBjAGkAZgBpAGUAZAApAC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAEEAIAByAGUAYQBsACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIAB0AGgAZQAgAHIAbwBvAHQAIABvAGYAIABgAG4AYAAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAbgB1AG0AYgBlAHIAIAB0AG8AIAB0AGEAawBlACAAdABoAGUAIAByAG8AbwB0ACAAbwBmAC4AXABuACAAIAAgAC0AIAB4ACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAVABoAGUAIAByAG8AbwB0ACAAZABlAGcAcgBlAGUALgAgAEQAZQBmAGEAdQBsAHQAcwAgAHQAbwAgADIAIAAoAHMAcQB1AGEAcgBlACAAcgBvAG8AdAApAC4AXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFIAZQBqAGUAYwB0AHMAIABhAGwAbAAgAG4AZQBnAGEAdABpAHYAZQAgAGkAbgBwAHUAdAAgAHYAYQBsAHUAZQBzACAAZgBvAHIAIABgAG4AYAAsACAAcgBlAGcAYQByAGQAbABlAHMAcwAgAG8AZgAgAHIAbwBvAHQALgBcAG4AIAAgACAALQAgAE0AaQBtAGkAYwBzACAARQB4AGMAZQBsACcAcwAgAGIAZQBoAGEAdgBpAG8AcgAgACgAcgBlAHQAdQByAG4AcwAgACMATgBVAE0AIQAgAGkAZgAgAHIAbwBvAHQAIAB3AG8AdQBsAGQAIABiAGUAIABjAG8AbQBwAGwAZQB4ACkALgBcAG4AIAAgACAALQAgAFUAcwBlACAARQB4AGMAZQBsABkgcwAgAGAASQBNAFAATwBXAEUAUgBgACAAbwByACAAYABJAE0AUwBRAFIAVABgACAAZgBvAHIAIABjAG8AbQBwAGwAZQB4ACAAbgB1AG0AYgBlAHIAIABzAHUAcABwAG8AcgB0AC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAAUgBPAE8AVAAoADEANgApACAAIAAgACAAIAAgACAAkiEgADQAXABuACAAIAAgAFIATwBPAFQAKAAyADcALAAgADMAKQAgACAAIAAgAJIhIAAzAFwAbgAgACAAIABSAE8ATwBUACgAOQAsACAAMAAuADUAKQAgACAAIACSISAAOAAxAFwAbgAgACAAIABSAE8ATwBUACgALQA1ACwAIAAzACkAIAAgACAAIACSISAAIwBOAFUATQAhAFwAbgAqAC8AXABuAFwAbgBSAE8ATwBUACAAPQAgAEwAQQBNAEIARABBACgAbgAsACAAWwB4AF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcgBvAG8AdABfAGQAZQBnAHIAZQBlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHgAKQAsACAAMgAsACAAeAApACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABuACAAPAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBRAFIAVAAoAC0AMQApACwAIAAgAC8ALwAgAFQAcgBpAGcAZwBlAHIAcwAgACMATgBVAE0AIQAgAGUAcgByAG8AcgAgAGYAbwByACAAbgBlAGcAYQB0AGkAdgBlACAAYgBhAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgAgAF4AIAAoADEAIAAvACAAcgBvAG8AdABfAGQAZQBnAHIAZQBlACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUAFwAbgAgACAAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAbwBuAGUALQBsAGkAbgBlACwAIABsAGEAYgBlAGwAZQBkACAAdgBlAHIAcwBpAG8AbgAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQB1AGwAYQAgAGkAbgAgAHQAaABlACAAZwBpAHYAZQBuACAAYwBlAGwAbAAsAFwAbgAgACAAIABvAG0AaQB0AHQAaQBuAGcAIAB0AGgAZQAgAGwAZQBhAGQAaQBuAGcAIABlAHEAdQBhAGwAIABzAGkAZwBuACAAYQBuAGQAIABwAHIAZQBwAGUAbgBkAGkAbgBnACAAdABoAGUAIABjAGUAbABsACAAcgBlAGYAZQByAGUAbgBjAGUALgBcAG4AXABuACAAIAAgAFMAeQBuAHQAYQB4ADoAXABuACAAIAAgACAAIABGAE8AUgBNAFUATABBAF8AVABFAFgAVAAoAGMAZQBsAGwAKQBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAAIAAgAGMAZQBsAGwAIAA6ACAAQQAgAHIAZQBmAGUAcgBlAG4AYwBlACAAdABvACAAYQAgAGMAZQBsAGwAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAYQAgAGYAbwByAG0AdQBsAGEALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIABzAGkAbgBnAGwAZQAtAGwAaQBuAGUAIABzAHQAcgBpAG4AZwAgAGkAbgAgAHQAaABlACAAZgBvAHIAbQBhAHQAIABcACIAQQAxADoAPQAgAEYATwBSAE0AVQBMAEEAKAAuAC4ALgApAFwAIgBcAG4AIAAgACAAIAAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIABhAHUAZABpAHQAaQBuAGcALAAgAGQAbwBjAHUAbQBlAG4AdABhAHQAaQBvAG4ALAAgAGQAYQBzAGgAYgBvAGEAcgBkAHMALAAgAG8AcgAgAHQAZQBhAGMAaABpAG4AZwAgAHQAbwBvAGwAcwAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgACAAIABGAE8AUgBNAFUATABBAF8AVABFAFgAVAAoAEIAMwApACAAIACSISAAXAAiAEIAMwA6AD0AIABSAEUAQwBJAFAAKABSAE8ATwBUACgAUABJACgAKQAsADMAKQApAFwAIgBcAG4AIAAgACAAIAAgAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUACgAQwA1ACkAIAAgAJIhIABcACIAQwA1ADoAPQAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsADMAKQBcACIAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAAIAAgAC0AIABUAGgAZQAgAHIAZQBzAHUAbAB0ACAAaQBzACAAZQBxAHUAaQB2AGEAbABlAG4AdAAgAHQAbwA6ACAAQwBFAEwATAAoAFwAIgBhAGQAZAByAGUAcwBzAFwAIgAsACAAYwBlAGwAbAApACAAJgAgAFwAIgA6AD0AIABcACIAIAAmACAAVABFAFgAVABBAEYAVABFAFIAKABGAE8AUgBNAFUATABBAFQARQBYAFQAKABjAGUAbABsACkALAAgAFwAIgA9AFwAIgApAFwAbgAgACAAIAAgACAALQAgAEkAZgAgAHQAaABlACAAcgBlAGYAZQByAGUAbgBjAGUAZAAgAGMAZQBsAGwAIABkAG8AZQBzACAAbgBvAHQAIABjAG8AbgB0AGEAaQBuACAAYQAgAGYAbwByAG0AdQBsAGEALAAgAGEAbgAgAGUAcgByAG8AcgAgAHcAaQBsAGwAIABvAGMAYwB1AHIALgBcAG4AIAAgACAAIAAgAC0AIABUAGgAaQBzACAAZgB1AG4AYwB0AGkAbwBuACAAZABvAGUAcwAgAG4AbwB0ACAAZQB2AGEAbAB1AGEAdABlACAAbwByACAAYQBsAHQAZQByACAAdABoAGUAIABmAG8AcgBtAHUAbABhABQgbwBuAGwAeQAgAGYAbwByAG0AYQB0AHMAIABpAHQAIABmAG8AcgAgAGQAaQBzAHAAbABhAHkALgBcAG4AKgAvAFwAbgBcAG4ARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAPQBMAEEATQBCAEQAQQAoAFwAbgAgACAAZgBvAHIAbQB1AGwAYQBfAGMAZQBsAGwALAAgACAALwAvACAAQQAgAHIAZQBmAGUAcgBlAG4AYwBlACAAdABvACAAYQAgAGMAZQBsAGwAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAYQAgAGYAbwByAG0AdQBsAGEAXABuAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIAByAGEAdwAsACAARgBPAFIATQBVAEwAQQBUAEUAWABUACgAZgBvAHIAbQB1AGwAYQBfAGMAZQBsAGwAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFwAIgA9AFIARQBDAEkAUAAoAFIATwBPAFQAKABQAEkAKAApACwAMwApACkAXAAiAFwAbgAgACAAIAAgAGMAbABlAGEAbgAsACAAVABFAFgAVABBAEYAVABFAFIAKAByAGEAdwAsACAAXAAiAD0AXAAiACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFwAIgBSAEUAQwBJAFAAKABSAE8ATwBUACgAUABJACgAKQAsADMAKQApAFwAIgBcAG4AIAAgACAAIABsAGEAYgBlAGwALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABDAEUATABMACgAXAAiAGEAZABkAHIAZQBzAHMAXAAiACwAIABmAG8AcgBtAHUAbABhAF8AYwBlAGwAbAApACwAIABcACIAJABcACIALAAgAFwAIgBcACIAKQAgACYAIABcACIAOgA9ACAAXAAiACwAXABuACAAIAAgACAAbABhAGIAZQBsACAAJgAgAGMAbABlAGEAbgBcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoAIABSAE8AVQBOAEQAXwBGAEkAWABcAG4AIAAgACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABSAG8AdQBuAGQAcwAgAG8AcgAgAHQAcgB1AG4AYwBhAHQAZQBzACAAYQAgAG4AdQBtAGIAZQByACAAdABvACAAYQAgAHMAcABlAGMAaQBmAGkAZQBkACAAbgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMALgBcAG4AIAAgACAATwBwAHQAaQBvAG4AYQBsAGwAeQAgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHIAZQBzAHUAbAB0ACAAYQBzACAAYQAgAGYAaQB4AGUAZAAtAHcAaQBkAHQAaAAgAHQAZQB4AHQAIABzAHQAcgBpAG4AZwAsACAAcAByAGUAcwBlAHIAdgBpAG4AZwAgAHQAcgBhAGkAbABpAG4AZwAgAHoAZQByAG8AcwAuAFwAbgBcAG4AIAAgACAAUwB5AG4AdABhAHgAOgBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAbgB1AG0AYgBlAHIALAAgAHAAbABhAGMAZQBzACwAIABbAGEAcwBfAHQAZQB4AHQAXQAsACAAWwB1AHMAZQBfAHIAbwB1AG4AZABdACkAXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgACAAIABuAHUAbQBiAGUAcgAgACAAIAAgACAAIAA6ACAAVABoAGUAIABuAHUAbQBlAHIAaQBjACAAdgBhAGwAdQBlACAAdABvACAAcAByAG8AYwBlAHMAcwAuAFwAbgAgACAAIAAgACAAcABsAGEAYwBlAHMAIAAgACAAIAAgACAAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAdABvACAAcgBlAHQAYQBpAG4ALgBcAG4AIAAgACAAIAAgAGEAcwBfAHQAZQB4AHQAIAAgACAAIAAgADoAIABPAHAAdABpAG8AbgBhAGwAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAARgBBAEwAUwBFACkALgAgAEkAZgAgAFQAUgBVAEUALAAgAHIAZQB0AHUAcgBuAHMAIABvAHUAdABwAHUAdAAgAGEAcwAgAHQAZQB4AHQAIAAoAGUALgBnAC4ALAAgAFwAIgAzAC4AMQA0ADAAXAAiACkALgBcAG4AIAAgACAAIAAgAHUAcwBlAF8AcgBvAHUAbgBkACAAIAAgADoAIABPAHAAdABpAG8AbgBhAGwAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAARgBBAEwAUwBFACkALgAgAEkAZgAgAFQAUgBVAEUALAAgAGEAcABwAGwAaQBlAHMAIAByAG8AdQBuAGQAaQBuAGcALgAgAE8AdABoAGUAcgB3AGkAcwBlACwAIAB0AHIAdQBuAGMAYQB0AGUAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAgACAAQQAgAG4AdQBtAGIAZQByACAAbwByACAAdABlAHgAdAAgAHMAdAByAGkAbgBnACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIAB0AGgAZQAgAHIAbwB1AG4AZABlAGQAIABvAHIAIAB0AHIAdQBuAGMAYQB0AGUAZAAgAHYAYQBsAHUAZQAgAHQAbwAgAGYAaQB4AGUAZAAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAgADIAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAMwAuADEANABcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAAMwAsACAAVABSAFUARQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAJIhIABcACIAMwAuADEANAAxAFwAIgBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAANAAsACAAVABSAFUARQAsACAARgBBAEwAUwBFACkAIAAgACAAIAAgACAAIAAgAJIhIABcACIAMwAuADEANAAxADUAXAAiAFwAbgAgACAAIAAgACAAUgBPAFUATgBEAF8ARgBJAFgAKABQAEkAKAApACwAIAAxADIALAAgAEYAQQBMAFMARQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgADMALgAxADQAMQA1ADkAMgA2ADUANAAgACAAIAAoAGMAYQBwAHAAZQBkACAAdABvACAAOQAgAGQAZQBjAGkAbQBhAGwAcwApAFwAbgAgACAAIAAgACAAUgBPAFUATgBEAF8ARgBJAFgAKABQAEkAKAApACwAIAAxADIALAAgAFQAUgBVAEUAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgAFwAIgAzAC4AMQA0ADEANQA5ADIANgA1ADMANQA5ADAAXAAiAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAARQB4AGMAZQBsACAAbABpAG0AaQB0AHMAIABuAHUAbQBlAHIAaQBjACAAZABpAHMAcABsAGEAeQAgAHAAcgBlAGMAaQBzAGkAbwBuACAAdABvACAAfgA5ACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzAC4AIABXAGgAZQBuACAAYQBzAF8AdABlAHgAdAAgAD0AIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAgAGkAcwAgAGMAYQBwAHAAZQBkACAAYQB0ACAAOQAgAGQAaQBnAGkAdABzACAAZgBvAHIAIABjAG8AbgBzAGkAcwB0AGUAbgBjAHkALgBcAG4AIAAgACAAIAAgAC0AIABUAG8AIABkAGkAcwBwAGwAYQB5ACAAZgB1AGwAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAbwByACAAcAByAGUAcwBlAHIAdgBlACAAdAByAGEAaQBsAGkAbgBnACAAegBlAHIAbwBzACwAIABzAGUAdAAgAGEAcwBfAHQAZQB4AHQAIAA9ACAAVABSAFUARQAuAFwAbgAgACAAIAAgACAALQAgAFMAdQBwAHAAbwByAHQAcwAgAGIAbwB0AGgAIAByAG8AdQBuAGQAaQBuAGcAIABhAG4AZAAgAHQAcgB1AG4AYwBhAHQAaQBvAG4AIABtAG8AZABlAHMALgBcAG4AIAAgACAAIAAgAC0AIABJAGQAZQBhAGwAIABmAG8AcgAgAGYAbwByAG0AYQB0AHQAaQBuAGcAIABjAG8AbgBzAHQAYQBuAHQAcwAsACAAdgBpAHMAdQBhAGwAIABkAGkAcwBwAGwAYQB5ACAAYwBvAG4AdAByAG8AbAAsACAAbwByACAAZQBuAHMAdQByAGkAbgBnACAAYwBsAGUAYQBuACAAbwB1AHQAcAB1AHQAcwAgAGkAbgAgAHIAZQBwAG8AcgB0AHMALgBcAG4AKgAvAFwAbgBcAG4AXABuAFIATwBVAE4ARABfAEYASQBYAD0ATABBAE0AQgBEAEEAKABcAG4AIAAgAG4AdQBtAGIAZQByACwAIAAgACAAIAAgACAAIAAgACAALwAvACAAUgBlAHEAdQBpAHIAZQBkADoAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAdABvACAAcgBvAHUAbgBkACAAbwByACAAdAByAHUAbgBjAGEAdABlAFwAbgAgACAAcABsAGEAYwBlAHMALAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABSAGUAcQB1AGkAcgBlAGQAOgAgAG4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAdABvACAAcgBlAHQAYQBpAG4AXABuACAAIABbAGEAcwBfAHQAZQB4AHQAXQAsACAAIAAgACAAIAAgAC8ALwAgAE8AcAB0AGkAbwBuAGEAbAA6ACAAaQBmACAAVABSAFUARQAsACAAcgBlAHQAdQByAG4AIAByAGUAcwB1AGwAdAAgAGEAcwAgAHQAZQB4AHQAIAB3AGkAdABoACAAZgBpAHgAZQBkACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzAFwAbgAgACAAWwB1AHMAZQBfAHIAbwB1AG4AZABdACwAIAAgACAAIAAvAC8AIABPAHAAdABpAG8AbgBhAGwAOgAgAGkAZgAgAFQAUgBVAEUALAAgAHIAbwB1AG4AZAA7ACAAaQBmACAARgBBAEwAUwBFACAAbwByACAAbwBtAGkAdAB0AGUAZAAsACAAdAByAHUAbgBjAGEAdABlAFwAbgBcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAAbgAsACAATgAoAG4AdQBtAGIAZQByACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABFAG4AcwB1AHIAZQAgAG4AdQBtAGUAcgBpAGMAIABpAG4AcAB1AHQAXABuACAAIAAgACAAcgBhAHcAXwBwACwAIABOACgAcABsAGEAYwBlAHMAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUgBhAHcAIABpAG4AcAB1AHQAIABmAG8AcgAgAHAAbABhAGMAZQBzAFwAbgAgACAAIAAgAHIAbwB1AG4AZABfAGYAbABhAGcALAAgAEkARgAoAEkAUwBCAEwAQQBOAEsAKAB1AHMAZQBfAHIAbwB1AG4AZAApACwAIABGAEEATABTAEUALAAgAHUAcwBlAF8AcgBvAHUAbgBkACkALABcAG4AIAAgACAAIAByAGUAdAB1AHIAbgBfAHQAZQB4AHQALAAgAEkARgAoAEkAUwBCAEwAQQBOAEsAKABhAHMAXwB0AGUAeAB0ACkALAAgAEYAQQBMAFMARQAsACAAYQBzAF8AdABlAHgAdAApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEUAeABjAGUAbAAgAG8AbgBsAHkAIAByAGUAbABpAGEAYgBsAHkAIABkAGkAcwBwAGwAYQB5AHMAIAB1AHAAIAB0AG8AIAA5ACAAZABlAGMAaQBtAGEAbABzACAAYQBzACAAbgB1AG0AZQByAGkAYwBcAG4AIAAgACAAIABtAGEAeABfAHAAbABhAGMAZQBzACwAIABJAEYAKAByAGUAdAB1AHIAbgBfAHQAZQB4AHQALAAgAHIAYQB3AF8AcAAsACAATQBJAE4AKAByAGEAdwBfAHAALAAgADkAKQApACwAXABuAFwAbgAgACAAIAAgAHAAdwByAF8AMQAwACwAIAAxADAAIABeACAAbQBhAHgAXwBwAGwAYQBjAGUAcwAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUABvAHcAZQByACAAbwBmACAAMQAwACAAZgBvAHIAIAByAG8AdQBuAGQAaQBuAGcALwB0AHIAdQBuAGMAYQB0AGkAbwBuAFwAbgBcAG4AIAAgACAAIAAvAC8AIABQAGUAcgBmAG8AcgBtACAAcgBvAHUAbgBkAGkAbgBnACAAbwByACAAdAByAHUAbgBjAGEAdABpAG8AbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsAFwAbgAgACAAIAAgACAAIABJAEYAKAByAG8AdQBuAGQAXwBmAGwAYQBnACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABuACwAIABtAGEAeABfAHAAbABhAGMAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQAUgBVAE4AQwAoAG4AIAAqACAAcAB3AHIAXwAxADAAKQAgAC8AIABwAHcAcgBfADEAMABcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABPAHAAdABpAG8AbgBhAGwAbAB5ACAAZgBvAHIAbQBhAHQAIABhAHMAIABmAGkAeABlAGQALQBsAGUAbgBnAHQAaAAgAHMAdAByAGkAbgBnAFwAbgAgACAAIAAgAGYAaQBuAGEAbAAsAFwAbgAgACAAIAAgACAAIABJAEYAKAByAGUAdAB1AHIAbgBfAHQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgAFQARQBYAFQAKAByAGUAcwB1AGwAdAAsACAAXAAiADAALgBcACIAIAAmACAAUgBFAFAAVAAoAFwAIgAwAFwAIgAsACAAbQBhAHgAXwBwAGwAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAGYAaQBuAGEAbABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACIALAAiAEEAUwBUAFIATwBfAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACIALAAiAFMAVABBAFIAXwBDAEwAQQBTAFMAXwBTAFQAQQBUAFMAIgAsACIAQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAIgAsACIAQQBTAFQAUgBPAF8AVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACIALAAiAEEAUwBUAFIATwBfAEQASQBTAFAATABBAFkAXwBTAFAARQBDAFQAUgBBAEwAIgAsACIAUwBUAEEAUgBfAFMAQwBBAEwARQBfAFQARQBNAFAAIgAsACIAUwBUAEEAUgBfAFMAQwBBAEwARQBfAEsAVABFAE0AUAAiACwAIgBTAFQAQQBSAF8ATQBBAFMAUwAiACwAIgBTAFQAQQBSAF8AUgBBAEQAUwAiACwAIgBTAFQAQQBSAF8ATABVAE0AUwAiACwAIgBTAFQAQQBSAEwAVQBNAFMAIgAsACIAUwBUAEEAUgBfAEwASQBGAEUAIgAsACIAVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACIALAAiAFQARQBNAFAAXwBGAFIATwBNAF8AVABZAFAARQAiACwAIgBTAFAARQBDAFQAUgBBAEwAXwBDAEwAQQBTAFMAXwBEAEEAVABBACIALAAiAFMAUABFAEMAXwBMAEkAUwBUACIALAAiAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTAF8AVABBAEIATABFACIALAAiAEgAQQBCAFoATwBOAEUAUwAiACwAIgBIAEEAQgBfAFoATwBOAEUAUwAiACwAIgBTAFQAQQBSAFMAXwBQAEUAUgBfAEMAVQBCAEkAQwBfAFYATwBMACIALAAiAEMAVQBCAEkAQwBfAFYATwBMAFUATQBFAF8AUABFAFIAXwBTAFQAQQBSAFMAIgAsACIAUABMAEEATgBFAFQAXwBBAFMAVABSAE8ATQBFAFQAUgBJAEMAUwAiACwAIgBTAFkATgBPAEQASQBDACIALAAiAFMATQBBAEwATABBAE4ARwBMAEUAIgAsACIATwBSAEIAXwBBAFgASQBTACIALAAiAE8AUgBCAF8AUABFAFIASQBPAEQAIgAsACIAQwBSAE8AUwBTAEkATgBHAF8ATwBSAEIASQBUAF8AUABBAFIAQQBNAEUAVABFAFIAIgAsACIAUABFAFIASQBPAEQAXwBBAFgASQBTACIALAAiAE8AUgBCAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAiACwAIgBTAFAASABFAFIASQBDAEEATABfAFQATwBfAEMAQQBSAFQARQBTAEkAQQBOACIALAAiAEQARQBHAF8ARABFAEMAXwBEAE0AUwAiACwAIgBEAEUARwBfAEQATQBTACIALAAiAEQARQBHAF8ARABNAFMAXwBEAEUAQwAiACwAIgBBAFgASQBTAF8AUABFAFIASQBPAEQAIgAsACIARwBlAG4AZQByAGEAbAAuAFIARQBDAEkAUAAiACwAIgBHAGUAbgBlAHIAYQBsAC4ARgBSAEEAQwAiACwAIgBHAGUAbgBlAHIAYQBsAC4AUgBPAE8AVAAiACwAIgBHAGUAbgBlAHIAYQBsAC4ARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAIgAsACIARwBlAG4AZQByAGEAbAAuAFIATwBVAE4ARABfAEYASQBYACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIATQBEAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Astronomy Utilities/Astronomy Utlities.xlsx
+++ b/Astronomy Utilities/Astronomy Utlities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/Astronomy Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BD5A33-014B-5749-93FB-BFD953FDE969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D923E62-2CF0-0543-8D39-91CB14BEA582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3280" yWindow="1100" windowWidth="33260" windowHeight="19560" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
   </bookViews>
@@ -20,11 +20,15 @@
     <definedName name="ASTRO_CALC_TEMP">_xlfn.LAMBDA(_xlpm.subclass, _xlfn.LET(_xlpm.arrTypes, {"O3";"O4";"O5";"O6";"O7";"O8";"O9";"B0";"B1";"B2";"B3";"B4";"B5";"B6";"B7";"B8";"B9";"A0";"A1";"A2";"A3";"A4";"A5";"A6";"A7";"A8";"A9";"F0";"F1";"F2";"F3";"F4";"F5";"F6";"F7";"F8";"F9";"G0";"G1";"G2";"G3";"G4";"G5";"G6";"G7";"G8";"G9";"K0";"K1";"K2";"K3";"K4";"K5";"K6";"K7";"K8";"K9";"M0";"M1";"M2";"M3";"M4";"M5";"M6";"M7";"M8";"M9"}, _xlpm.arrTHigh, {44900;42900;41400;39500;37100;35100;33300;31400;26000;20600;17000;16400;15700;14500;14000;12300;10700;9700;9300;8800;8600;8250;8100;7910;7760;7590;7400;7220;7020;6820;6750;6670;6550;6350;6280;6180;6050;5930;5860;5770;5720;5680;5660;5600;5550;5480;5380;5270;5170;5100;4830;4600;4440;4300;4100;3990;3930;3850;3660;3560;3430;3210;3060;2810;2680;2570;2380}, _xlpm.arrSpan, {2000;1500;1900;2400;2000;1800;1900;5400;5400;3600;600;700;1200;500;1700;1600;1000;400;500;200;350;150;190;150;170;190;180;200;200;70;80;120;200;70;100;130;120;70;90;50;40;20;60;50;70;100;110;100;70;270;230;160;140;200;110;60;80;190;100;130;220;150;250;130;110;190;280}, _xlpm.mtxStars, _xlfn.HSTACK(_xlpm.arrTypes, _xlpm.arrTHigh, _xlpm.arrSpan), _xlpm.no_space, SUBSTITUTE(_xlpm.subclass, " ", ""), _xlpm.dot_pos, FIND(".", _xlpm.no_space &amp; ".0"), _xlpm.base, LEFT(_xlpm.no_space, _xlpm.dot_pos - 1), _xlpm.f, VALUE("0." &amp; MID(_xlpm.no_space, _xlpm.dot_pos + 1, LEN(_xlpm.no_space))), _xlpm.T_high, _xlfn.XLOOKUP(_xlpm.base, INDEX(_xlpm.mtxStars, , 1), INDEX(_xlpm.mtxStars, , 2)), _xlpm.span, _xlfn.XLOOKUP(_xlpm.base, INDEX(_xlpm.mtxStars, , 1), INDEX(_xlpm.mtxStars, , 3)), _xlpm.result, _xlpm.T_high - (_xlpm.f * _xlpm.span), _xlpm.result))</definedName>
     <definedName name="ASTRO_DISPLAY_SPECTRAL">_xlfn.LAMBDA(_xlop.type, _xlfn.LET(_xlpm.Types, {"O";"B";"A";"F";"G";"K";"M"}, _xlpm.Headers, TRANSPOSE(_xlfn.VSTACK(" ", _xlpm.Types)), _xlpm.FindCol, _xlfn.MAKEARRAY(COUNTA(_xlpm.Types), 2, _xlfn.LAMBDA(_xlpm.r,_xlpm.c, IF(_xlpm.c = 1, INDEX(_xlpm.Types, _xlpm.r), _xlpm.r))), _xlpm.arrTypes, {"O";"O";"O";"O3";"O4";"O5";"O6";"O7";"O8";"O9";"B0";"B1";"B2";"B3";"B4";"B5";"B6";"B7";"B8";"B9";"A0";"A1";"A2";"A3";"A4";"A5";"A6";"A7";"A8";"A9";"F0";"F1";"F2";"F3";"F4";"F5";"F6";"F7";"F8";"F9";"G0";"G1";"G2";"G3";"G4";"G5";"G6";"G7";"G8";"G9";"K0";"K1";"K2";"K3";"K4";"K5";"K6";"K7";"K8";"K9";"M0";"M1";"M2";"M3";"M4";"M5";"M6";"M7";"M8";"M9"}, _xlpm.arrTHigh, {"";"";"";44900;42900;41400;39500;37100;35100;33300;31400;26000;20600;17000;16400;15700;14500;14000;12300;10700;9700;9300;8800;8600;8250;8100;7910;7760;7590;7400;7220;7020;6820;6750;6670;6550;6350;6280;6180;6050;5930;5860;5770;5720;5680;5660;5600;5550;5480;5380;5270;5170;5100;4830;4600;4440;4300;4100;3990;3930;3850;3660;3560;3430;3210;3060;2810;2680;2570;2380}, _xlpm.arrSpan, {"";"";"";2000;1500;1900;2400;2000;1800;1900;5400;5400;3600;600;700;1200;500;1700;1600;1000;400;500;200;350;150;190;150;170;190;180;200;200;70;80;120;200;70;100;130;120;70;90;50;40;20;60;50;70;100;110;100;70;270;230;160;140;200;110;60;80;190;100;130;220;150;250;130;110;190;280}, _xlpm.formattedData, _xlfn.BYROW(_xlfn.HSTACK(_xlpm.arrTypes, _xlpm.arrTHigh, _xlpm.arrSpan), _xlfn.LAMBDA(_xlpm.row, _xlfn.TEXTJOIN("; ", TRUE, TEXT(INDEX(_xlpm.row, 2), "0"), TEXT(INDEX(_xlpm.row, 3), "0")))), _xlpm.Numbers, _xlfn.SEQUENCE(10, 1, 0, 1), _xlpm.O_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "O"), _xlpm.B_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "B"), _xlpm.A_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "A"), _xlpm.F_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "F"), _xlpm.G_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "G"), _xlpm.K_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "K"), _xlpm.M_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "M"), _xlpm.fullTable, _xlfn.VSTACK(_xlpm.Headers, _xlfn.HSTACK(_xlpm.Numbers, _xlpm.O_Stars, _xlpm.B_Stars, _xlpm.A_Stars, _xlpm.F_Stars, _xlpm.G_Stars, _xlpm.K_Stars, _xlpm.M_Stars)), _xlpm.temps, _xlfn._xlws.FILTER(_xlpm.arrTHigh, LEFT(_xlpm.arrTypes, 1) = _xlpm.type), _xlpm.spans, _xlfn._xlws.FILTER(_xlpm.arrSpan, LEFT(_xlpm.arrTypes, 1) = _xlpm.type), _xlpm.typeHead, _xlfn.HSTACK(_xlpm.type, "span"), _xlpm.slimTable, _xlfn.VSTACK(_xlpm.typeHead, _xlfn.HSTACK(_xlpm.temps, _xlpm.spans)), _xlpm.result, IF(ISBLANK(_xlpm.type), _xlpm.fullTable, _xlpm.slimTable), _xlpm.result))</definedName>
     <definedName name="ASTRO_HAB_INDEX">_xlfn.LAMBDA(_xlpm.orbital_dist,_xlop.nucleal_radius,_xlop.prec, _xlfn.LET(_xlpm.rounding_precision, IF(_xlfn.ISOMITTED(_xlpm.prec), 3, _xlpm.prec), _xlpm.nucleal_radius, IF(_xlfn.ISOMITTED(_xlpm.nucleal_radius), 1, _xlpm.nucleal_radius), _xlpm.is_inner_orbit, IF(_xlpm.orbital_dist &lt; _xlpm.nucleal_radius, TRUE, FALSE), _xlpm.habitability_index, IF(_xlpm.is_inner_orbit, (2 * _xlpm.orbital_dist / _xlpm.nucleal_radius) - 1, (_xlpm.orbital_dist / (-3.85 * _xlpm.nucleal_radius)) + (4.85 / 3.85)), _xlpm.final_result, IF(_xlpm.habitability_index &lt;= 0, "U/I", ROUND(_xlpm.habitability_index, _xlpm.rounding_precision)), _xlpm.final_result))</definedName>
+    <definedName name="ASTRO_HABITABLE_ZONES">_xlfn.LAMBDA(_xlpm.mode,_xlop.lum,_xlop.precision, _xlfn.LET(_xlpm.mode, UPPER(_xlpm.mode), _xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.zone_labels, {"Z0";"Z1";"Z2";"Z3";"Z4";"Z5"}, _xlpm.inner_factors, {0;0.5;0.75;0.95;1.385;1.77}, _xlpm.outer_factors, {0.5;0.75;0.95;1.385;1.77;4.85}, _xlpm.avg_factors, (_xlpm.inner_factors + _xlpm.outer_factors) / 2, _xlpm.span_factors, _xlpm.outer_factors - _xlpm.inner_factors, _xlpm.nucleal, SQRT(IF(_xlfn.ISOMITTED(_xlpm.lum), 1, _xlpm.lum)), _xlpm.inner_scaled, ROUND(_xlpm.nucleal * _xlpm.inner_factors, _xlpm.prec), _xlpm.outer_scaled, ROUND(_xlpm.nucleal * _xlpm.outer_factors, _xlpm.prec), _xlpm.avg_scaled, ROUND(_xlpm.nucleal * _xlpm.avg_factors, _xlpm.prec), _xlpm.span_scaled, ROUND(_xlpm.nucleal * _xlpm.span_factors, _xlpm.prec), _xlpm.vertical_labels, {"0: ","1: ","2: ","N ➔","3: ","4: ","5: "}, _xlpm.vertical_values, _xlfn.VSTACK(ROUND(INDEX(_xlpm.inner_factors, 2) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.inner_factors, 3) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.inner_factors, 4) * _xlpm.nucleal, _xlpm.prec), ROUND(_xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.outer_factors, 4) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.outer_factors, 5) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.outer_factors, 6) * _xlpm.nucleal, _xlpm.prec)), _xlpm.result, _xlfn.SWITCH(_xlpm.mode, "STANDARD", CHOOSE({1,2,3,4,5}, _xlfn.VSTACK("Zone", _xlpm.zone_labels), _xlfn.VSTACK("Inner", _xlpm.inner_factors), _xlfn.VSTACK("Outer", _xlpm.outer_factors), _xlfn.VSTACK("Average", _xlpm.avg_factors), _xlfn.VSTACK("Span", _xlpm.span_factors)), "VERTICAL", _xlfn.LET(_xlpm.labels, {"0:","1:","2:","N ➔","3:","4:","5:"}, _xlpm.scaled_values, ROUND(_xlpm.nucleal * {0.5,0.75,0.95,1,1.385,1.77,4.85}, _xlpm.prec), TRANSPOSE(_xlfn.VSTACK(_xlpm.labels, _xlpm.scaled_values))), "HORIZONTAL", _xlfn.HSTACK(ROUND(INDEX(_xlpm.inner_factors, 2) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.inner_factors, 3) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.inner_factors, 4) * _xlpm.nucleal, _xlpm.prec), ROUND(_xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.outer_factors, 4) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.outer_factors, 5) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.outer_factors, 6) * _xlpm.nucleal, _xlpm.prec)), "Invalid mode"), _xlpm.result))</definedName>
+    <definedName name="ASTRO_PLANET_METRICS">_xlfn.LAMBDA(_xlpm.mode,_xlpm.param_1,_xlpm.param_2,_xlop.prec, _xlfn.LET(_xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec), 5, _xlpm.prec), _xlpm.mode, LOWER(_xlpm.mode), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, "md", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.d, _xlpm.param_2, _xlpm.R, (_xlpm.M / _xlpm.d) ^ (1 / 3), _xlpm.g, (_xlpm.M * _xlpm.d ^ 2) ^ (1 / 3), _xlpm.v, (_xlpm.M * SQRT(_xlpm.d)) ^ (1 / 3), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "mr", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.R, _xlpm.param_2, _xlpm.d, _xlpm.M / _xlpm.R ^ 3, _xlpm.g, _xlpm.M / _xlpm.R ^ 2, _xlpm.v, SQRT(_xlpm.M / _xlpm.R), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "mg", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.g, _xlpm.param_2, _xlpm.R, SQRT(_xlpm.M / _xlpm.g), _xlpm.d, SQRT(_xlpm.g ^ 3 / _xlpm.M), _xlpm.v, (_xlpm.M * _xlpm.g) ^ 0.25, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "rd", _xlfn.LET(_xlpm.R, _xlpm.param_1, _xlpm.d, _xlpm.param_2, _xlpm.M, _xlpm.d * _xlpm.R ^ 3, _xlpm.g, _xlpm.d * _xlpm.R, _xlpm.v, _xlpm.R * SQRT(_xlpm.d), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "rg", _xlfn.LET(_xlpm.R, _xlpm.param_1, _xlpm.g, _xlpm.param_2, _xlpm.M, _xlpm.g * _xlpm.R ^ 2, _xlpm.d, _xlpm.g / _xlpm.R, _xlpm.v, SQRT(_xlpm.g * _xlpm.R), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "dg", _xlfn.LET(_xlpm.d, _xlpm.param_1, _xlpm.g, _xlpm.param_2, _xlpm.R, _xlpm.g / _xlpm.d, _xlpm.M, _xlpm.g ^ 3 / _xlpm.d ^ 2, _xlpm.v, _xlpm.g / SQRT(_xlpm.d), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "dv", _xlfn.LET(_xlpm.d, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.R, _xlpm.v / SQRT(_xlpm.d), _xlpm.M, _xlpm.v ^ 3 / SQRT(_xlpm.d), _xlpm.g, _xlpm.v * SQRT(_xlpm.d), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "gv", _xlfn.LET(_xlpm.g, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.R, _xlpm.v ^ 2 / _xlpm.g, _xlpm.M, _xlpm.v ^ 4 / _xlpm.g, _xlpm.d, (_xlpm.g / _xlpm.v) ^ 2, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "mv", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.R, _xlpm.M / _xlpm.v ^ 2, _xlpm.g, _xlpm.v ^ 4 / _xlpm.M, _xlpm.d, _xlpm.v ^ 6 / _xlpm.M ^ 2, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "rv", _xlfn.LET(_xlpm.R, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.g, _xlpm.v ^ 2 / _xlpm.R, _xlpm.M, _xlpm.R * _xlpm.v ^ 2, _xlpm.d, (_xlpm.v / _xlpm.R) ^ 2, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), NA()), _xlpm.headers, _xlfn.SWITCH(_xlpm.mode, "md", {"M ➔","R","d ➔","g","v"}, "mr", {"M ➔","R ➔","d","g","v"}, "mg", {"M ➔","R","d","g ➔","v"}, "rd", {"M","R ➔","d ➔","g","v"}, "rg", {"M","R ➔","d","g ➔","v"}, "dg", {"M","R","d ➔","g ➔","v"}, "dv", {"M","R","d ➔","g","v ➔"}, "gv", {"M","R","d","g ➔","v ➔"}, "mv", {"M ➔","R","d","g","v ➔"}, "rv", {"M","R ➔","d","g","v ➔"}, {"M","R","d","g","v"}), _xlpm.values, ROUND(_xlpm.output, _xlpm.prec), CHOOSE({1,2}, TRANSPOSE(_xlpm.headers), TRANSPOSE(_xlpm.values))))</definedName>
+    <definedName name="ASTRO_PLANET_METRICS_SAFETY">_xlfn.LAMBDA(_xlpm.mode,_xlpm.param_1,_xlpm.param_2,_xlop.prec, _xlfn.LET(_xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec), 5, _xlpm.prec), _xlpm.mode, LOWER(_xlpm.mode), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, "md", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.d, _xlpm.param_2, _xlpm.R, (_xlpm.M / _xlpm.d) ^ (1 / 3), _xlpm.g, (_xlpm.M * _xlpm.d ^ 2) ^ (1 / 3), _xlpm.v, (_xlpm.M * SQRT(_xlpm.d)) ^ (1 / 3), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "mr", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.R, _xlpm.param_2, _xlpm.d, _xlpm.M / _xlpm.R ^ 3, _xlpm.g, _xlpm.M / _xlpm.R ^ 2, _xlpm.v, SQRT(_xlpm.M / _xlpm.R), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "mg", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.g, _xlpm.param_2, _xlpm.R, SQRT(_xlpm.M / _xlpm.g), _xlpm.d, SQRT(_xlpm.g ^ 3 / _xlpm.M), _xlpm.v, (_xlpm.M * _xlpm.g) ^ 0.25, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "rd", _xlfn.LET(_xlpm.R, _xlpm.param_1, _xlpm.d, _xlpm.param_2, _xlpm.M, _xlpm.d * _xlpm.R ^ 3, _xlpm.g, _xlpm.d * _xlpm.R, _xlpm.v, _xlpm.R * SQRT(_xlpm.d), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "rg", _xlfn.LET(_xlpm.R, _xlpm.param_1, _xlpm.g, _xlpm.param_2, _xlpm.M, _xlpm.g * _xlpm.R ^ 2, _xlpm.d, _xlpm.g / _xlpm.R, _xlpm.v, SQRT(_xlpm.g * _xlpm.R), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "dg", _xlfn.LET(_xlpm.d, _xlpm.param_1, _xlpm.g, _xlpm.param_2, _xlpm.R, _xlpm.g / _xlpm.d, _xlpm.M, _xlpm.g ^ 3 / _xlpm.d ^ 2, _xlpm.v, _xlpm.g / SQRT(_xlpm.d), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "dv", _xlfn.LET(_xlpm.d, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.R, _xlpm.v / SQRT(_xlpm.d), _xlpm.M, _xlpm.v ^ 3 / SQRT(_xlpm.d), _xlpm.g, _xlpm.v * SQRT(_xlpm.d), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "gv", _xlfn.LET(_xlpm.g, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.R, _xlpm.v ^ 2 / _xlpm.g, _xlpm.M, _xlpm.v ^ 4 / _xlpm.g, _xlpm.d, (_xlpm.g / _xlpm.v) ^ 2, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "mv", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.R, _xlpm.M / _xlpm.v ^ 2, _xlpm.g, _xlpm.v ^ 4 / _xlpm.M, _xlpm.d, _xlpm.v ^ 6 / _xlpm.M ^ 2, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "rv", _xlfn.LET(_xlpm.R, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.g, _xlpm.v ^ 2 / _xlpm.R, _xlpm.M, _xlpm.R * _xlpm.v ^ 2, _xlpm.d, (_xlpm.v / _xlpm.R) ^ 2, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), NA()), _xlpm.headers, {"M","R","d","g","v"}, _xlpm.values, ROUND(_xlpm.output, _xlpm.prec), CHOOSE({1,2}, TRANSPOSE(_xlpm.headers), TRANSPOSE(_xlpm.values))))</definedName>
     <definedName name="ASTRO_SPECTRAL_DISTRIBUTION">_xlfn.LAMBDA(_xlop.anchor_class,_xlop.anchor_count,_xlop.decimal_places, _xlfn.LET(_xlpm.anchor_class, IF(_xlfn.ISOMITTED(_xlpm.anchor_class), "$", UPPER(_xlpm.anchor_class)), _xlpm.anchor_count, IF(_xlfn.ISOMITTED(_xlpm.anchor_count), 1, _xlpm.anchor_count), _xlpm.decimal_places, IF(_xlfn.ISOMITTED(_xlpm.decimal_places), 3, _xlpm.decimal_places), _xlpm.arr_classes, {"O";"B";"A";"F";"G";"K";"M"}, _xlpm.arr_base_pct, {0.00003;0.13;0.6;3;7.6;12.1;76.27}, _xlpm.arr_base_frac, _xlfn.BYROW(_xlpm.arr_base_pct, _xlfn.LAMBDA(_xlpm.x, _xlpm.x / 100)), _xlpm.anchor_freq, _xlfn.XLOOKUP(_xlpm.anchor_class, _xlpm.arr_classes, _xlpm.arr_base_frac, 1), _xlpm.scaling_factor, _xlpm.anchor_count / _xlpm.anchor_freq, _xlpm.scaled, IF(_xlpm.anchor_class = "$", _xlpm.arr_base_frac, _xlfn.BYROW(_xlpm.arr_base_frac, _xlfn.LAMBDA(_xlpm.x, _xlpm.x * _xlpm.scaling_factor))), _xlpm.output, _xlfn.HSTACK(_xlpm.arr_classes, ROUND(_xlpm.scaled, _xlpm.decimal_places)), _xlpm.output))</definedName>
+    <definedName name="ASTRO_STAR_ATTRIBUTES">_xlfn.LAMBDA(_xlpm.mode,_xlpm.input,_xlop.precision, _xlfn.LET(_xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.mode, UPPER(_xlpm.mode), _xlpm.Tnorm, _xlfn.SWITCH(_xlpm.mode, "T", _xlpm.input, "K", _xlpm.input / 5770, "M", SQRT(_xlpm.input), "R", _xlpm.input ^ (1 / 1.8), "L", _xlpm.input ^ (1 / 7.6), "V", _xlpm.input ^ (-1 / 5), NA()), _xlpm.K, _xlpm.Tnorm * 5770, _xlpm.M, _xlpm.Tnorm ^ 2, _xlpm.R, _xlpm.Tnorm ^ 1.8, _xlpm.L, _xlpm.Tnorm ^ 7.6, _xlpm.V, _xlpm.Tnorm ^ -5, _xlpm.labels, TRANSPOSE({"K","T","M","R","L","V"}), _xlpm.output_values, _xlfn.VSTACK(ROUND(_xlpm.K, _xlpm.prec), ROUND(_xlpm.Tnorm, _xlpm.prec), ROUND(_xlpm.M, _xlpm.prec), ROUND(_xlpm.R, _xlpm.prec), ROUND(_xlpm.L, _xlpm.prec), ROUND(_xlpm.V, _xlpm.prec)), _xlpm.flagged_labels, _xlfn.BYROW(_xlpm.labels, _xlfn.LAMBDA(_xlpm.row, IF(_xlpm.row = _xlpm.mode, _xlpm.row &amp; " ➔", _xlpm.row))), CHOOSE({1,2}, _xlpm.flagged_labels, _xlpm.output_values)))</definedName>
+    <definedName name="ASTRO_STAR_DENSITY_VOLUME">_xlfn.LAMBDA(_xlpm.input,_xlop.prec,_xlop.mode, _xlfn.LET(_xlpm.mode, IF(_xlfn.ISOMITTED(_xlpm.mode) + (_xlpm.mode &lt; 0) + (_xlpm.mode &gt; 1), 0, _xlpm.mode), _xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.volume, IF(_xlpm.mode = 0, _xlpm.input, (4 / 3) * PI() * _xlpm.input ^ 3), _xlpm.radius, IF(_xlpm.mode = 1, _xlpm.input, ROUND(((3 * _xlpm.volume) / (4 * PI())) ^ (1 / 3), _xlpm.prec)), _xlpm.stars, ROUND(_xlpm.volume / 250, _xlpm.prec), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , "Stars: " &amp; _xlpm.stars, "Radius: " &amp; _xlpm.radius), "; ")), 1, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , "Stars: " &amp; _xlpm.stars, "Volume: " &amp; _xlpm.volume), "; "))), _xlpm.output))</definedName>
     <definedName name="ASTRO_TYPE_FROM_TEMP">_xlfn.LAMBDA(_xlpm.temp,_xlop.decimals, _xlfn.LET(_xlpm.arrTypes, {"O3";"O4";"O5";"O6";"O7";"O8";"O9";"B0";"B1";"B2";"B3";"B4";"B5";"B6";"B7";"B8";"B9";"A0";"A1";"A2";"A3";"A4";"A5";"A6";"A7";"A8";"A9";"F0";"F1";"F2";"F3";"F4";"F5";"F6";"F7";"F8";"F9";"G0";"G1";"G2";"G3";"G4";"G5";"G6";"G7";"G8";"G9";"K0";"K1";"K2";"K3";"K4";"K5";"K6";"K7";"K8";"K9";"M0";"M1";"M2";"M3";"M4";"M5";"M6";"M7";"M8";"M9"}, _xlpm.arrTHigh, {44900;42900;41400;39500;37100;35100;33300;31400;26000;20600;17000;16400;15700;14500;14000;12300;10700;9700;9300;8800;8600;8250;8100;7910;7760;7590;7400;7220;7020;6820;6750;6670;6550;6350;6280;6180;6050;5930;5860;5770;5720;5680;5660;5600;5550;5480;5380;5270;5170;5100;4830;4600;4440;4300;4100;3990;3930;3850;3660;3560;3430;3210;3060;2810;2680;2570;2380}, _xlpm.arrSpan, {2000;1500;1900;2400;2000;1800;1900;5400;5400;3600;600;700;1200;500;1700;1600;1000;400;500;200;350;150;190;150;170;190;180;200;200;70;80;120;200;70;100;130;120;70;90;50;40;20;60;50;70;100;110;100;70;270;230;160;140;200;110;60;80;190;100;130;220;150;250;130;110;190;280}, _xlpm.temp_in_range, _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.arrTHigh)), _xlfn.LAMBDA(_xlpm.i, AND(INDEX(_xlpm.arrTHigh, _xlpm.i) &gt;= _xlpm.temp, _xlpm.temp &gt; INDEX(_xlpm.arrTHigh, _xlpm.i) - INDEX(_xlpm.arrSpan, _xlpm.i)))), _xlpm.idx, _xlfn.XMATCH(TRUE, _xlpm.temp_in_range), _xlpm.full_type, INDEX(_xlpm.arrTypes, _xlpm.idx), _xlpm.T_high, INDEX(_xlpm.arrTHigh, _xlpm.idx), _xlpm.span, INDEX(_xlpm.arrSpan, _xlpm.idx), _xlpm.f, (_xlpm.T_high - _xlpm.temp) / _xlpm.span, _xlpm.dec, IF(_xlfn.ISOMITTED(_xlpm.decimals), 3, _xlpm.decimals), _xlpm.format_string, "." &amp; REPT("0", _xlpm.dec), _xlpm.subclass, _xlpm.full_type &amp; TEXT(_xlpm.f, _xlpm.format_string), _xlpm.subclass))</definedName>
     <definedName name="AXIS_PERIOD">_xlfn.LAMBDA(_xlpm.input, SQRT(POWER(_xlpm.input, 3)))</definedName>
     <definedName name="CROSSING_ORBIT_PARAMETER">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2, ABS(_xlpm.mass1 - _xlpm.mass2) / ABS(_xlpm.mass1 + _xlpm.mass2))</definedName>
-    <definedName name="CUBIC_VOLUME_PER_STARS">_xlfn.LAMBDA(_xlpm.stars,_xlop.prec,_xlop.mode, _xlfn.LET(_xlpm.mode, IF((_xlfn.ISOMITTED(_xlpm.mode)) + (_xlpm.mode &lt; 0) + (_xlpm.mode &gt; 2), 0, _xlpm.mode), _xlpm.prec, IF((_xlfn.ISOMITTED(_xlpm.prec)) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.volume, ROUND(_xlpm.stars * 250, _xlpm.prec), _xlpm.side, ROUND(POWER(_xlpm.volume, 1 / 3), _xlpm.prec), _xlpm.radius, ROUND(POWER((_xlpm.volume * 3) / (4 * PI()), 1 / 3), _xlpm.prec), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlpm.volume, 1, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , _xlpm.volume, _xlpm.side), "; ")), 2, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , _xlpm.volume, _xlpm.side, _xlpm.radius), "; "))), _xlpm.output))</definedName>
     <definedName name="DEG_DEC_DMS">_xlfn.LAMBDA(_xlpm.DecimalDegrees, _xlfn.LET(_xlpm.Deg, TRUNC(_xlpm.DecimalDegrees), _xlpm.FracPortion, ABS(_xlpm.DecimalDegrees - _xlpm.Deg), _xlpm.Minutes, _xlpm.FracPortion * 60, _xlpm.Min_part, TRUNC(_xlpm.Minutes) / 100, _xlpm.IntMin, INT(_xlpm.Minutes), _xlpm.FracMin, ABS(_xlpm.Minutes - _xlpm.IntMin), _xlpm.Seconds, _xlpm.FracMin * 60, _xlpm.sec_part, _xlpm.Seconds / 10000, _xlpm.output, _xlpm.Deg + _xlpm.Min_part + _xlpm.sec_part, FIXED(_xlpm.output, 7)))</definedName>
     <definedName name="DEG_DMS">_xlfn.LAMBDA(_xlpm.DecimalDegrees,_xlop.precision, _xlfn.LET(_xlpm.decprec, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.Deg, TRUNC(_xlpm.DecimalDegrees), _xlpm.FracPortion, ABS(_xlpm.DecimalDegrees - _xlpm.Deg), _xlpm.Minutes, _xlpm.FracPortion * 60, _xlpm.IntMin, INT(_xlpm.Minutes), _xlpm.FracMin, ABS(_xlpm.Minutes - _xlpm.IntMin), _xlpm.Seconds, _xlpm.FracMin * 60, _xlpm.Deg &amp; "° " &amp; _xlpm.IntMin &amp; CHAR(39) &amp; CHAR(32) &amp; FIXED(_xlpm.Seconds, _xlpm.decprec) &amp; CHAR(34)))</definedName>
     <definedName name="DEG_DMS_DEC">_xlfn.LAMBDA(_xlpm.input, _xlfn.LET(_xlpm.degrees, TRUNC(_xlpm.input), _xlpm.minutes, TRUNC((_xlpm.input - _xlpm.degrees) * 100), _xlpm.fractional_seconds, ((_xlpm.input * 100) - TRUNC(_xlpm.input * 100)) / 0.6, _xlpm.result, _xlpm.degrees + ((_xlpm.minutes + _xlpm.fractional_seconds) / 60), _xlpm.result))</definedName>
@@ -33,30 +37,14 @@
     <definedName name="General.RECIP">_xlfn.LAMBDA(_xlpm.input, 1 / _xlpm.input)</definedName>
     <definedName name="General.ROOT">_xlfn.LAMBDA(_xlpm.n,_xlop.x, _xlfn.LET(_xlpm.root_degree, IF(_xlfn.ISOMITTED(_xlpm.x), 2, _xlpm.x), IF(_xlpm.n &lt; 0, SQRT(-1), _xlpm.n ^ (1 / _xlpm.root_degree))))</definedName>
     <definedName name="General.ROUND_FIX">_xlfn.LAMBDA(_xlpm.number,_xlpm.places,_xlop.as_text,_xlop.use_round, _xlfn.LET(_xlpm.n, N(_xlpm.number), _xlpm.raw_p, N(_xlpm.places), _xlpm.round_flag, IF(ISBLANK(_xlpm.use_round), FALSE, _xlpm.use_round), _xlpm.return_text, IF(ISBLANK(_xlpm.as_text), FALSE, _xlpm.as_text), _xlpm.max_places, IF(_xlpm.return_text, _xlpm.raw_p, MIN(_xlpm.raw_p, 9)), _xlpm.pwr_10, 10 ^ _xlpm.max_places, _xlpm.result, IF(_xlpm.round_flag, ROUND(_xlpm.n, _xlpm.max_places), TRUNC(_xlpm.n * _xlpm.pwr_10) / _xlpm.pwr_10), _xlpm.final, IF(_xlpm.return_text, TEXT(_xlpm.result, "0." &amp; REPT("0", _xlpm.max_places)), _xlpm.result), _xlpm.final))</definedName>
-    <definedName name="HAB_ZONES">_xlfn.LAMBDA(_xlpm.lum,_xlop.precision, _xlfn.LET(_xlpm.labels, {"0: ","1: ","2: ","N-&gt; ","3: ","4: ","5: "}, _xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.nucleal, ROUND(SQRT(_xlpm.lum), _xlpm.precision), _xlpm.Z_0, ROUND(0.5 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_1, ROUND(0.75 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_2, ROUND(0.95 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_N, _xlpm.nucleal, _xlpm.Z_3, ROUND(1.385 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_4, ROUND(1.77 * _xlpm.nucleal, _xlpm.precision), _xlpm.Z_5, ROUND(4.85 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone0, _xlfn.VSTACK(INDEX(_xlpm.labels, 1), _xlpm.Z_0), _xlpm.Zone1, _xlfn.VSTACK(INDEX(_xlpm.labels, 2), _xlpm.Z_1), _xlpm.Zone2, _xlfn.VSTACK(INDEX(_xlpm.labels, 3), _xlpm.Z_2), _xlpm.ZoneN, _xlfn.VSTACK(INDEX(_xlpm.labels, 4), _xlpm.Z_N), _xlpm.Zone3, _xlfn.VSTACK(INDEX(_xlpm.labels, 5), _xlpm.Z_3), _xlpm.Zone4, _xlfn.VSTACK(INDEX(_xlpm.labels, 6), _xlpm.Z_4), _xlpm.Zone5, _xlfn.VSTACK(INDEX(_xlpm.labels, 7), _xlpm.Z_5), TRANSPOSE(CHOOSE({1,2,3,4,5,6,7}, _xlpm.Zone0, _xlpm.Zone1, _xlpm.Zone2, _xlpm.ZoneN, _xlpm.Zone3, _xlpm.Zone4, _xlpm.Zone5))))</definedName>
-    <definedName name="HABITABLE_ZONES_TABLE">_xlfn.LAMBDA(_xlop.null, _xlfn.LET(_xlpm.dec, 3, _xlpm.headers, {"Zone";"Inner";"Outer";"Average";"Span"}, _xlpm.labels, {"Z0 (Ignio-)";"Z1 (Caloro-)";"Z2 (Helio-)";"Z3 (Solara-)";"Z4 (Surya-)";"Z5 (Frio-)"}, _xlpm.inner, {0;0.5;0.75;0.95;1.385;1.77}, _xlpm.outer, {0.5;0.75;0.95;1.385;1.77;4.85}, _xlpm.average, {0.25;0.625;0.85;1.1675;1.5775;3.31}, _xlpm.span, {0.5;0.25;0.2;0.435;0.385;3.08}, _xlpm.col_1, _xlfn.VSTACK(INDEX(_xlpm.headers, 1), _xlpm.labels), _xlpm.col_2, _xlfn.VSTACK(INDEX(_xlpm.headers, 2), ROUND(_xlpm.inner, _xlpm.dec)), _xlpm.col_3, _xlfn.VSTACK(INDEX(_xlpm.headers, 3), ROUND(_xlpm.outer, _xlpm.dec)), _xlpm.col_4, _xlfn.VSTACK(INDEX(_xlpm.headers, 4), ROUND(_xlpm.average, _xlpm.dec)), _xlpm.col_5, _xlfn.VSTACK(INDEX(_xlpm.headers, 5), ROUND(_xlpm.span, _xlpm.dec)), CHOOSE({1,2,3,4,5}, _xlpm.col_1, _xlpm.col_2, _xlpm.col_3, _xlpm.col_4, _xlpm.col_5)))</definedName>
-    <definedName name="HABZONES">_xlfn.LAMBDA(_xlpm.lum,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.nucleal, ROUND(SQRT(_xlpm.lum), _xlpm.precision), _xlpm.N, "N-&gt; " &amp; ROUND(SQRT(_xlpm.lum), _xlpm.precision), _xlpm.Zone0, "0: " &amp; ROUND(0.5 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone1, "1: " &amp; ROUND(0.75 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone2, "2: " &amp; ROUND(0.95 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone3, "3: " &amp; ROUND(1.385 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone4, "4: " &amp; ROUND(1.77 * _xlpm.nucleal, _xlpm.precision), _xlpm.Zone5, "5: " &amp; ROUND(4.85 * _xlpm.nucleal, _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , _xlpm.Zone0, _xlpm.Zone1, _xlpm.Zone2, _xlpm.N, _xlpm.Zone3, _xlpm.Zone4, _xlpm.Zone5), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
+    <definedName name="NASTRO_HABITABLE_ZONES">_xlfn.LAMBDA(_xlpm.mode,_xlop.lum,_xlop.prec, _xlfn.LET(_xlpm.dec, IF(_xlfn.ISOMITTED(_xlpm.prec), 3, _xlpm.prec), _xlpm.L, IF(_xlfn.ISOMITTED(_xlpm.lum), 1, _xlpm.lum), _xlpm.nuc, SQRT(_xlpm.L), _xlpm.zone_labels, {"Z0","Z1","Z2","Z3","Z4","Z5"}, _xlpm.inner_factors, {0,0.5,0.75,0.95,1.385,1.77}, _xlpm.outer_factors, {0.5,0.75,0.95,1.385,1.77,4.85}, _xlpm.avg_factors, {0.25,0.625,0.85,1.1675,1.5775,3.31}, _xlpm.span_factors, {0.5,0.25,0.2,0.435,0.385,3.08}, _xlpm.inner_scaled, ROUND(_xlpm.nuc * _xlpm.inner_factors, _xlpm.dec), _xlpm.outer_scaled, ROUND(_xlpm.nuc * _xlpm.outer_factors, _xlpm.dec), _xlpm.avg_scaled, ROUND(_xlpm.nuc * _xlpm.avg_factors, _xlpm.dec), _xlpm.span_scaled, ROUND(_xlpm.nuc * _xlpm.span_factors, _xlpm.dec), _xlpm.row_1, _xlfn.VSTACK("Zone", _xlpm.zone_labels), _xlpm.row_2, _xlfn.VSTACK("Inner", IF(_xlpm.mode = "STANDARD", _xlpm.inner_factors, _xlpm.inner_scaled)), _xlpm.row_3, _xlfn.VSTACK("Outer", IF(_xlpm.mode = "STANDARD", _xlpm.outer_factors, _xlpm.outer_scaled)), _xlpm.row_4, _xlfn.VSTACK("Average", IF(_xlpm.mode = "STANDARD", _xlpm.avg_factors, _xlpm.avg_scaled)), _xlpm.row_5, _xlfn.VSTACK("Span", IF(_xlpm.mode = "STANDARD", _xlpm.span_factors, _xlpm.span_scaled)), _xlpm.vertical_labels, {"0:","1:","2:","N ➔","3:","4:","5:"}, _xlpm.vertical_values, ROUND({0.5,0.75,0.95,1,1.385,1.77,4.85} * _xlpm.nuc, _xlpm.dec), _xlpm.horizontal_values, _xlfn.HSTACK(ROUND(0.5 * _xlpm.nuc, _xlpm.dec), ROUND(0.75 * _xlpm.nuc, _xlpm.dec), ROUND(0.95 * _xlpm.nuc, _xlpm.dec), ROUND(1 * _xlpm.nuc, _xlpm.dec), ROUND(1.385 * _xlpm.nuc, _xlpm.dec), ROUND(1.77 * _xlpm.nuc, _xlpm.dec), ROUND(4.85 * _xlpm.nuc, _xlpm.dec)), _xlfn.SWITCH(UPPER(_xlpm.mode), "STANDARD", _xlfn.HSTACK(_xlpm.row_1, _xlpm.row_2, _xlpm.row_3, _xlpm.row_4, _xlpm.row_5), "TABLE", _xlfn.HSTACK(_xlpm.row_1, _xlpm.row_2, _xlpm.row_3, _xlpm.row_4, _xlpm.row_5), "VERTICAL", _xlfn.HSTACK(_xlpm.vertical_labels, _xlpm.vertical_values), "HORIZONTAL", _xlpm.horizontal_values, "Invalid mode")))</definedName>
     <definedName name="ORB_AXIS">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2,_xlpm.period, _xlfn.LET(_xlpm.mass2, IF((_xlfn.ISOMITTED(_xlpm.mass2)) + (_xlpm.mass2 = 1), 0, _xlpm.mass2 * 0.000003003), _xlpm.axis, POWER((POWER(_xlpm.period, 2) * (_xlpm.mass1 + _xlpm.mass2)), 1 / 3), _xlpm.axis))</definedName>
     <definedName name="ORB_PERIOD">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2,_xlpm.axis, _xlfn.LET(_xlpm.mass2, IF((_xlfn.ISOMITTED(_xlpm.mass2)) + (_xlpm.mass2 = 1), 0, (_xlpm.mass2 * 0.00000300273)), _xlpm.period, SQRT(POWER(_xlpm.axis, 3) / (_xlpm.mass1 + _xlpm.mass2)), _xlpm.period))</definedName>
     <definedName name="ORB_SUM_MASSES">_xlfn.LAMBDA(_xlpm.axis,_xlpm.period, POWER(_xlpm.axis, 3) / POWER(_xlpm.period, 2))</definedName>
     <definedName name="PERIOD_AXIS">_xlfn.LAMBDA(_xlpm.input, POWER(POWER(_xlpm.input, 2), (1 / 3)))</definedName>
-    <definedName name="PLANET_ASTROMETRICS">_xlfn.LAMBDA(_xlpm.first,_xlpm.second,_xlop.mode,_xlop.prec, _xlfn.LET(_xlpm.prec, IF((_xlfn.ISOMITTED(_xlpm.prec)) + (_xlpm.prec &lt; 0), 5, _xlpm.prec), _xlpm.mode, IF((_xlfn.ISOMITTED(_xlpm.mode) + (_xlpm.mode &lt; 0) + (_xlpm.mode &gt; 9)), 0, _xlpm.mode), _xlpm.labels, _xlfn.SWITCH(_xlpm.mode, 0, "M&gt;;R:;d&gt;;g:;v:", 1, "M&gt;;R&gt;;d:;g:;v:", 2, "M&gt;;R:;d:;g&gt;;v:", 3, "M:;R&gt;;d&gt;;g:;v:", 4, "M:;R&gt;;d:;g&gt;;v:", 5, "M:;R:;d&gt;;g&gt;;v:", 6, "M:;R:;d&gt;;g:;v&gt;", 7, "M:;R:;d:;g&gt;;v&gt;", 8, "M&gt;;R:;d:;g:;v&gt;", 9, "M:;R&gt;;d:;g:;v&gt;"), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlfn.LET(_xlpm.mass, _xlpm.first, _xlpm.density, _xlpm.second, _xlpm.radius, POWER(_xlpm.mass / _xlpm.density, 3 ^ -1), _xlpm.gravity, POWER(_xlpm.mass * _xlpm.density ^ 2, 3 ^ -1), _xlpm.escape, POWER(_xlpm.mass * SQRT(_xlpm.density), 3 ^ -1), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 1, _xlfn.LET(_xlpm.mass, _xlpm.first, _xlpm.radius, _xlpm.second, _xlpm.density, _xlpm.mass / _xlpm.radius ^ 3, _xlpm.gravity, _xlpm.mass / _xlpm.radius ^ 2, _xlpm.escape, SQRT(_xlpm.mass / _xlpm.radius), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 2, _xlfn.LET(_xlpm.mass, _xlpm.first, _xlpm.gravity, _xlpm.second, _xlpm.radius, SQRT(_xlpm.mass / _xlpm.gravity), _xlpm.density, SQRT(_xlpm.gravity ^ 3 / _xlpm.mass), _xlpm.escape, POWER(_xlpm.mass * _xlpm.gravity, 4 ^ -1), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 3, _xlfn.LET(_xlpm.radius, _xlpm.first, _xlpm.density, _xlpm.second, _xlpm.gravity, _xlpm.radius * _xlpm.density, _xlpm.mass, _xlpm.density * _xlpm.radius ^ 3, _xlpm.escape, _xlpm.radius * SQRT(_xlpm.density), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 4, _xlfn.LET(_xlpm.radius, _xlpm.first, _xlpm.gravity, _xlpm.second, _xlpm.density, _xlpm.gravity / _xlpm.radius, _xlpm.mass, _xlpm.gravity * _xlpm.radius ^ 2, _xlpm.escape, SQRT(_xlpm.gravity * _xlpm.radius), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 5, _xlfn.LET(_xlpm.density, _xlpm.first, _xlpm.gravity, _xlpm.second, _xlpm.radius, _xlpm.gravity / _xlpm.density, _xlpm.mass, _xlpm.gravity ^ 3 / _xlpm.density ^ 2, _xlpm.escape, _xlpm.gravity / SQRT(_xlpm.density), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 6, _xlfn.LET(_xlpm.density, _xlpm.first, _xlpm.escape, _xlpm.second, _xlpm.mass, _xlpm.escape ^ 3 / SQRT(_xlpm.density), _xlpm.radius, _xlpm.escape / SQRT(_xlpm.density), _xlpm.gravity, _xlpm.escape * SQRT(_xlpm.density), _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 7, _xlfn.LET(_xlpm.gravity, _xlpm.first, _xlpm.escape, _xlpm.second, _xlpm.mass, _xlpm.escape ^ 4 / _xlpm.gravity, _xlpm.radius, _xlpm.escape ^ 2 / _xlpm.gravity, _xlpm.density, (_xlpm.gravity / _xlpm.escape) ^ 2, _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 8, _xlfn.LET(_xlpm.mass, _xlpm.first, _xlpm.escape, _xlpm.second, _xlpm.gravity, _xlpm.escape ^ 4 / _xlpm.mass, _xlpm.radius, _xlpm.mass / _xlpm.escape ^ 2, _xlpm.density, _xlpm.escape ^ 6 / _xlpm.mass ^ 2, _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), 9, _xlfn.LET(_xlpm.radius, _xlpm.first, _xlpm.escape, _xlpm.second, _xlpm.gravity, _xlpm.escape ^ 2 / _xlpm.radius, _xlpm.mass, _xlpm.radius * _xlpm.escape ^ 2, _xlpm.density, (_xlpm.escape / _xlpm.radius) ^ 2, _xlfn.TEXTJOIN(";", , _xlpm.mass, _xlpm.radius, _xlpm.density, _xlpm.gravity, _xlpm.escape)), ), _xlpm.label_list, TRANSPOSE(_xlfn.TEXTSPLIT(_xlpm.labels, ";")), _xlpm.value_list, TRANSPOSE(_xlfn.TEXTSPLIT(_xlpm.output, ";")), CHOOSE({1,2}, _xlpm.label_list, ROUND(VALUE(_xlpm.value_list), _xlpm.prec))))</definedName>
     <definedName name="SMALLANGLE">_xlfn.LAMBDA(_xlpm.diameter,_xlpm.distance, 0.532904294 * (_xlpm.diameter / _xlpm.distance))</definedName>
-    <definedName name="SPEC_LIST">_xlfn.LAMBDA(_xlop.null, _xlfn.LET(_xlpm.classifications, {"O: 25000 - 55000";"B: 10000 - 25000";"A: 7500 - 10000";"F: 6000 - 7500";"G: 5000 - 6000";"K: 3500 - 5000";"M: 2400 - 3500";"L: 1300 - 2400";"T: 600 - 1300";"Y: 300 - 600"}, _xlpm.classifications))</definedName>
-    <definedName name="SPECTRAL_CLASS_DATA">_xlfn.LAMBDA(_xlop.null, _xlfn.LET(_xlpm.headers, {"Type";"Min";"Max";"Span";"q"}, _xlpm.types, _xlfn.VSTACK(INDEX(_xlpm.headers, 1), {"O";"B";"A";"F";"G";"K";"M";"L";"T";"Y"}), _xlpm.min, _xlfn.VSTACK(INDEX(_xlpm.headers, 2), {25000;10000;7500;6000;5000;3500;2400;1300;600;300}), _xlpm.max, _xlfn.VSTACK(INDEX(_xlpm.headers, 3), {55000;25000;10000;7500;6000;5000;3500;2400;1300;600}), _xlpm.q_vals, _xlfn.VSTACK(INDEX(_xlpm.headers, 5), {3000;1500;250;150;100;150;110;110;70;30}), _xlpm.ranges, {30000;15000;2500;1500;1000;1500;1100;1100;700;300}, _xlpm.span, _xlfn.VSTACK(INDEX(_xlpm.headers, 4), _xlpm.ranges), CHOOSE({1,2,3,4,5}, _xlpm.types, _xlpm.min, _xlpm.max, _xlpm.span, _xlpm.q_vals)))</definedName>
     <definedName name="SPHERICAL_TO_CARTESIAN">_xlfn.LAMBDA(_xlpm.phi,_xlpm.theta,_xlpm.r,_xlop.prec, _xlfn.LET(_xlpm.prec, IF((_xlfn.ISOMITTED(_xlpm.prec)) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.z_mod, SIGN(_xlpm.theta), _xlpm.y_mod, SIGN(_xlpm.phi), _xlpm.x_mod, IF(ABS(_xlpm.phi) &lt; 90, 1, -1), _xlpm.ang_x, RADIANS(MOD(_xlpm.phi, 90)), _xlpm.ang_z, RADIANS(ABS(_xlpm.theta)), _xlpm.d, COS(_xlpm.ang_z) * _xlpm.r, _xlpm.x, ROUND(COS(_xlpm.ang_x) * _xlpm.d * _xlpm.x_mod, _xlpm.prec), _xlpm.y, ROUND(SIN(_xlpm.ang_x) * _xlpm.d * _xlpm.y_mod, _xlpm.prec), _xlpm.z, ROUND(SIN(_xlpm.ang_z) * _xlpm.r * _xlpm.z_mod, _xlpm.prec), _xlpm.result, _xlfn.TEXTJOIN("|", , _xlpm.x, _xlpm.y, _xlpm.z), _xlfn.TOROW(_xlfn.TEXTSPLIT(_xlpm.result, "|"))))</definedName>
-    <definedName name="STAR_CLASS_STATS">_xlfn.LAMBDA(_xlpm.in,_xlop.precision, _xlfn.LET(_xlpm.input, SUBSTITUTE(_xlpm.in, " ", ""), _xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.class, LEFT(_xlpm.input, 1), _xlpm.sub, RIGHT(_xlpm.input, LEN(_xlpm.input) - 1), _xlpm.thresholds, {55000,25000,10000,7500,6000,5000,3500,2400,1300,600}, _xlpm.classifications, {"O","B","A","F","G","K","M","L","T","Y"}, _xlpm.q_vals, {3000,1500,250,150,100,150,110,110,70,30}, _xlpm.max_temp, _xlfn.XLOOKUP(_xlpm.class, _xlpm.classifications, _xlpm.thresholds), _xlpm.q_factor, _xlfn.XLOOKUP(_xlpm.class, _xlpm.classifications, _xlpm.q_vals), _xlpm.k_temp, _xlpm.max_temp - (_xlpm.sub * _xlpm.q_factor), _xlpm.temp, _xlpm.k_temp / 5800, _xlpm.kelvin, "K: " &amp; ROUND(_xlpm.k_temp, _xlpm.precision), _xlpm.solar, "T: " &amp; ROUND(_xlpm.temp, _xlpm.precision), _xlpm.radius, "R: " &amp; ROUND(_xlpm.temp ^ 1.8, _xlpm.precision), _xlpm.luminosity, "L: " &amp; ROUND(_xlpm.temp ^ 7.5778, _xlpm.precision), _xlpm.mass, "M: " &amp; ROUND(_xlpm.temp ^ 2, _xlpm.precision), _xlpm.lifetime, "V: " &amp; ROUND(_xlpm.temp ^ -5, _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , "-&gt; " &amp; _xlpm.input, _xlpm.kelvin, _xlpm.solar, _xlpm.mass, _xlpm.radius, _xlpm.luminosity, _xlpm.lifetime), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
-    <definedName name="STAR_LIFE">_xlfn.LAMBDA(_xlpm.lifetime,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.solar, "V-&gt; " &amp; ROUND(_xlpm.lifetime, _xlpm.precision), _xlpm.temperature, "T: " &amp; ROUND(_xlpm.lifetime ^ (1 / -5), _xlpm.precision), _xlpm.kelvin, "K: " &amp; ROUND((_xlpm.lifetime ^ (1 / -5)) * 5800, _xlpm.precision), _xlpm.radius, "R: " &amp; ROUND(_xlpm.lifetime ^ (-0.36), _xlpm.precision), _xlpm.mass, "M: " &amp; ROUND(_xlpm.lifetime ^ (1 / -2.5), _xlpm.precision), _xlpm.luminosity, "L: " &amp; ROUND(_xlpm.lifetime ^ -1.52, _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , _xlpm.kelvin, _xlpm.temperature, _xlpm.mass, _xlpm.radius, _xlpm.luminosity, _xlpm.solar), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
-    <definedName name="STAR_LUMS">_xlfn.LAMBDA(_xlpm.luminosity,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.temperature, "T: " &amp; ROUND(_xlpm.luminosity ^ (1 / 7.6), _xlpm.precision), _xlpm.kelvin, "K: " &amp; ROUND((_xlpm.luminosity ^ (1 / 7.5778)) * 5800, _xlpm.precision), _xlpm.s_lum, "L-&gt; " &amp; ROUND(_xlpm.luminosity, _xlpm.precision), _xlpm.radius, "R: " &amp; ROUND(_xlpm.luminosity ^ (1 / 4.22), _xlpm.precision), _xlpm.mass, "M: " &amp; ROUND(_xlpm.luminosity ^ (1 / 3.7889), _xlpm.precision), _xlpm.lifetime, "V: " &amp; ROUND(_xlpm.luminosity ^ (1 / -1.52), _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , _xlpm.kelvin, _xlpm.temperature, _xlpm.mass, _xlpm.radius, _xlpm.s_lum, _xlpm.lifetime), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
-    <definedName name="STAR_MASS">_xlfn.LAMBDA(_xlpm.mass,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.s_mass, "M-&gt; " &amp; ROUND(_xlpm.mass, _xlpm.precision), _xlpm.temperature, "T: " &amp; ROUND(SQRT(_xlpm.mass), _xlpm.precision), _xlpm.solar, SQRT(_xlpm.mass) * 5800, _xlpm.kelvin, "K: " &amp; ROUND(_xlpm.solar, _xlpm.precision), _xlpm.radius, "R: " &amp; ROUND(_xlpm.mass ^ 0.9, _xlpm.precision), _xlpm.luminosity, "L: " &amp; ROUND(_xlpm.mass ^ 3.7889, _xlpm.precision), _xlpm.lifetime, "V: " &amp; ROUND(SQRT(_xlpm.mass) ^ -5, _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , _xlpm.kelvin, _xlpm.temperature, _xlpm.s_mass, _xlpm.radius, _xlpm.luminosity, _xlpm.lifetime), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
-    <definedName name="STAR_RADS">_xlfn.LAMBDA(_xlpm.radius,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.solar, "R-&gt; " &amp; ROUND(_xlpm.radius, _xlpm.precision), _xlpm.temperature, "T: " &amp; ROUND(_xlpm.radius ^ (1 / 1.8), _xlpm.precision), _xlpm.kelvin, "K: " &amp; ROUND((_xlpm.radius ^ (1 / 1.8)) * 5800, _xlpm.precision), _xlpm.luminosity, "L: " &amp; ROUND(_xlpm.radius ^ 4.22, _xlpm.precision), _xlpm.mass, "M: " &amp; ROUND(_xlpm.radius ^ 1.11427001777778, _xlpm.precision), _xlpm.lifetime, "V: " &amp; ROUND(_xlpm.radius ^ (1 / -0.36), _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , _xlpm.kelvin, _xlpm.temperature, _xlpm.mass, _xlpm.solar, _xlpm.luminosity, _xlpm.lifetime), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
-    <definedName name="STAR_SCALE_KTEMP">_xlfn.LAMBDA(_xlpm.kelvin,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.k_temp, "K-&gt; " &amp; ROUND(_xlpm.kelvin, _xlpm.precision), _xlpm.temp, _xlpm.kelvin / 5800, _xlpm.solar, "T: " &amp; ROUND(_xlpm.temp, _xlpm.precision), _xlpm.radius, "R: " &amp; ROUND(_xlpm.temp ^ 1.8, _xlpm.precision), _xlpm.luminosity, "L: " &amp; ROUND(_xlpm.temp ^ 7.5778, _xlpm.precision), _xlpm.mass, "M: " &amp; ROUND(_xlpm.temp ^ 2, _xlpm.precision), _xlpm.lifetime, "V: " &amp; ROUND(_xlpm.temp ^ -5, _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , _xlpm.k_temp, _xlpm.solar, _xlpm.mass, _xlpm.radius, _xlpm.luminosity, _xlpm.lifetime), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
-    <definedName name="STAR_SCALE_TEMP">_xlfn.LAMBDA(_xlpm.temp,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.t_temp, "T-&gt; " &amp; ROUND(_xlpm.temp, _xlpm.precision), _xlpm.kelvin, "K: " &amp; ROUND(_xlpm.temp * 5800, _xlpm.precision), _xlpm.radius, "R: " &amp; ROUND(_xlpm.temp ^ 1.8, _xlpm.precision), _xlpm.luminosity, "L: " &amp; ROUND(_xlpm.temp ^ 7.5778, _xlpm.precision), _xlpm.mass, "M: " &amp; ROUND(_xlpm.temp ^ 2, _xlpm.precision), _xlpm.lifetime, "V: " &amp; ROUND(_xlpm.temp ^ -5, _xlpm.precision), _xlpm.list, _xlfn.TEXTJOIN("|", , _xlpm.kelvin, _xlpm.t_temp, _xlpm.mass, _xlpm.radius, _xlpm.luminosity, _xlpm.lifetime), _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlpm.list, "|"))))</definedName>
-    <definedName name="STARLUMS">_xlfn.LAMBDA(_xlpm.luminosity,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.labels, TRANSPOSE({"K:","T:","M:","R:","L}","V:"}), _xlpm.T, ROUND(_xlpm.luminosity ^ (1 / 7.5778), _xlpm.precision), _xlpm.K, ROUND((_xlpm.luminosity ^ (1 / 7.5778)) * 5800, _xlpm.precision), _xlpm.L, ROUND(_xlpm.luminosity, _xlpm.precision), _xlpm.R, ROUND(_xlpm.luminosity ^ (1 / 4.22), _xlpm.precision), _xlpm.M, ROUND(_xlpm.luminosity ^ (1 / 3.7889), _xlpm.precision), _xlpm.V, ROUND(_xlpm.luminosity ^ (1 / -1.52), _xlpm.precision), _xlpm.attribs, _xlfn.TEXTJOIN(",", , _xlpm.K, _xlpm.T, _xlpm.M, _xlpm.R, _xlpm.L, _xlpm.V), _xlpm.values, TRANSPOSE(_xlfn.TEXTSPLIT(_xlpm.attribs, ",")), CHOOSE({1,2}, _xlpm.labels, _xlpm.values)))</definedName>
-    <definedName name="STARS_PER_CUBIC_VOL">_xlfn.LAMBDA(_xlpm.input,_xlop.prec,_xlop.mode, _xlfn.LET(_xlpm.mode, IF((_xlfn.ISOMITTED(_xlpm.mode)) + (_xlpm.mode &lt; 0) + (_xlpm.mode &gt; 1), 0, _xlpm.mode), _xlpm.prec, IF((_xlfn.ISOMITTED(_xlpm.prec)) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.volume, _xlfn.SWITCH(_xlpm.mode, 0, _xlpm.input, 1, (4 / 3) * PI() * _xlpm.input ^ 3), _xlpm.radius, _xlfn.SWITCH(_xlpm.mode, 0, ROUND(POWER((_xlpm.volume * 3) / (4 * PI()), 1 / 3), _xlpm.prec), 1, _xlpm.input), _xlpm.stars, ROUND(_xlpm.volume / 250, _xlpm.prec), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , _xlpm.stars, _xlpm.radius), "; ")), 1, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , ROUND(_xlpm.stars, 0), ROUND(_xlpm.volume, 0)), "; "))), _xlpm.output))</definedName>
     <definedName name="SYNODIC">_xlfn.LAMBDA(_xlpm.p,_xlpm.q, (_xlpm.p * _xlpm.q) / ABS(_xlpm.p - _xlpm.q))</definedName>
-    <definedName name="TEMP_FROM_TYPE">_xlfn.LAMBDA(_xlpm.in,_xlop.mode, _xlfn.LET(_xlpm.mode, IF(OR(_xlfn.ISOMITTED(_xlpm.mode), _xlpm.mode &gt; 1), 0, _xlpm.mode), _xlpm.input, SUBSTITUTE(_xlpm.in, " ", ""), _xlpm.class, LEFT(_xlpm.input, 1), _xlpm.sub, RIGHT(_xlpm.input, LEN(_xlpm.input) - 1), _xlpm.thresholds, {55000,25000,10000,7500,6000,5000,3500,2400,1300,600}, _xlpm.classifications, {"O","B","A","F","G","K","M","L","T","Y"}, _xlpm.q_vals, {3000,1500,250,150,100,150,110,110,70,30}, _xlpm.max_temp, _xlfn.XLOOKUP(_xlpm.class, _xlpm.classifications, _xlpm.thresholds), _xlpm.q_factor, _xlfn.XLOOKUP(_xlpm.class, _xlpm.classifications, _xlpm.q_vals), _xlpm.k_temp, _xlpm.max_temp - (_xlpm.sub * _xlpm.q_factor), _xlfn.SWITCH(_xlpm.mode, 0, _xlpm.k_temp, 1, _xlpm.input &amp; " = " &amp; _xlpm.k_temp)))</definedName>
-    <definedName name="TYPE_FROM_TEMP">_xlfn.LAMBDA(_xlpm.temp,_xlop.mode,_xlop.prec, _xlfn.LET(_xlpm.temp, _xlfn.IFS(_xlpm.temp &lt; 600, 600, _xlpm.temp &gt; 55000, 55000, TRUE, _xlpm.temp), _xlpm.mode, IF(OR(_xlfn.ISOMITTED(_xlpm.mode), _xlpm.mode &gt; 1), 0, _xlpm.mode), _xlpm.prec, IF(OR(_xlfn.ISOMITTED(_xlpm.prec), _xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.thresholds, {55000,25000,10000,7500,6000,5000,3500,2400,1300,600,300}, _xlpm.classifications, {"O","B","A","F","G","K","M","L","T","Y"}, _xlpm.q_vals, {3000,1500,250,150,100,150,110,110,70,30}, _xlpm.index, MATCH(TRUE, _xlpm.temp &gt; _xlpm.thresholds, 0) - 1, _xlpm.s_type, INDEX(_xlpm.classifications, _xlpm.index), _xlpm.k_max, INDEX(_xlpm.thresholds, _xlpm.index), _xlpm.q_val, INDEX(_xlpm.q_vals, _xlpm.index), _xlpm.class_num, (_xlpm.k_max - _xlpm.temp) / _xlpm.q_val, _xlpm.s_class, IF(_xlpm.class_num = 10, 9.999, _xlpm.class_num), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlpm.s_type &amp; " " &amp; FIXED(_xlpm.s_class, _xlpm.prec), 1, _xlpm.temp &amp; " = " &amp; _xlpm.s_type &amp; FIXED(_xlpm.s_class, _xlpm.prec), ), _xlpm.output))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -733,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6503EE-3967-F142-A914-D59AF539BB00}">
-  <dimension ref="A4:L104"/>
+  <dimension ref="A4:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="D67" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101:G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16"/>
@@ -744,7 +732,8 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
@@ -1277,13 +1266,13 @@
         <v>2380; 280</v>
       </c>
     </row>
-    <row r="49" spans="3:5">
+    <row r="49" spans="3:10">
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="3:5">
+    <row r="50" spans="3:10">
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="3:5">
+    <row r="51" spans="3:10">
       <c r="C51" t="str" cm="1">
         <f t="array" ref="C51:D61">ASTRO_DISPLAY_SPECTRAL("F")</f>
         <v>F</v>
@@ -1292,8 +1281,15 @@
         <v>span</v>
       </c>
       <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="3:5">
+      <c r="F51" t="str" cm="1">
+        <f t="array" ref="F51:G56">ASTRO_STAR_ATTRIBUTES("K", 5930)</f>
+        <v>K ➔</v>
+      </c>
+      <c r="G51">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
       <c r="C52">
         <v>7220</v>
       </c>
@@ -1301,40 +1297,70 @@
         <v>200</v>
       </c>
       <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="3:5">
+      <c r="F52" t="str">
+        <v>T</v>
+      </c>
+      <c r="G52">
+        <v>1.02773</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
       <c r="C53">
         <v>7020</v>
       </c>
       <c r="D53">
         <v>200</v>
       </c>
-    </row>
-    <row r="54" spans="3:5">
+      <c r="F53" t="str">
+        <v>M</v>
+      </c>
+      <c r="G53">
+        <v>1.0562279999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
       <c r="C54">
         <v>6820</v>
       </c>
       <c r="D54">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="3:5">
+      <c r="F54" t="str">
+        <v>R</v>
+      </c>
+      <c r="G54">
+        <v>1.0504659999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
       <c r="C55">
         <v>6750</v>
       </c>
       <c r="D55">
         <v>80</v>
       </c>
-    </row>
-    <row r="56" spans="3:5">
+      <c r="F55" t="str">
+        <v>L</v>
+      </c>
+      <c r="G55">
+        <v>1.231061</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10">
       <c r="C56">
         <v>6670</v>
       </c>
       <c r="D56">
         <v>120</v>
       </c>
-    </row>
-    <row r="57" spans="3:5">
+      <c r="F56" t="str">
+        <v>V</v>
+      </c>
+      <c r="G56">
+        <v>0.87217900000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10">
       <c r="C57">
         <v>6550</v>
       </c>
@@ -1342,7 +1368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:5">
+    <row r="58" spans="3:10">
       <c r="C58">
         <v>6350</v>
       </c>
@@ -1350,7 +1376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="3:5">
+    <row r="59" spans="3:10">
       <c r="C59">
         <v>6280</v>
       </c>
@@ -1358,7 +1384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:5">
+    <row r="60" spans="3:10">
       <c r="C60">
         <v>6180</v>
       </c>
@@ -1366,7 +1392,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="3:5">
+    <row r="61" spans="3:10">
       <c r="C61">
         <v>6050</v>
       </c>
@@ -1374,93 +1400,351 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="7:8">
-      <c r="G94" t="str" cm="1">
-        <f t="array" ref="G94:H104">ASTRO_DISPLAY_SPECTRAL("F")</f>
-        <v>F</v>
-      </c>
-      <c r="H94" t="str">
-        <v>span</v>
-      </c>
-    </row>
-    <row r="95" spans="7:8">
+    <row r="63" spans="3:10">
+      <c r="F63" t="str" cm="1">
+        <f t="array" aca="1" ref="F63" ca="1">General.FORMULA_TEXT(F64)</f>
+        <v>F64:= ASTRO_HABITABLE_ZONES("STANDARD")</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="F64" t="str" cm="1">
+        <f t="array" ref="F64:J70">ASTRO_HABITABLE_ZONES("STANDARD")</f>
+        <v>Zone</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Inner</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Outer</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Average</v>
+      </c>
+      <c r="J64" t="str">
+        <v>Span</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10">
+      <c r="F65" t="str">
+        <v>Z0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0.5</v>
+      </c>
+      <c r="I65">
+        <v>0.25</v>
+      </c>
+      <c r="J65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10">
+      <c r="F66" t="str">
+        <v>Z1</v>
+      </c>
+      <c r="G66">
+        <v>0.5</v>
+      </c>
+      <c r="H66">
+        <v>0.75</v>
+      </c>
+      <c r="I66">
+        <v>0.625</v>
+      </c>
+      <c r="J66">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10">
+      <c r="F67" t="str">
+        <v>Z2</v>
+      </c>
+      <c r="G67">
+        <v>0.75</v>
+      </c>
+      <c r="H67">
+        <v>0.95</v>
+      </c>
+      <c r="I67">
+        <v>0.85</v>
+      </c>
+      <c r="J67">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10">
+      <c r="F68" t="str">
+        <v>Z3</v>
+      </c>
+      <c r="G68">
+        <v>0.95</v>
+      </c>
+      <c r="H68">
+        <v>1.385</v>
+      </c>
+      <c r="I68">
+        <v>1.1675</v>
+      </c>
+      <c r="J68">
+        <v>0.43500000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10">
+      <c r="F69" t="str">
+        <v>Z4</v>
+      </c>
+      <c r="G69">
+        <v>1.385</v>
+      </c>
+      <c r="H69">
+        <v>1.77</v>
+      </c>
+      <c r="I69">
+        <v>1.5775000000000001</v>
+      </c>
+      <c r="J69">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="6:10">
+      <c r="F70" t="str">
+        <v>Z5</v>
+      </c>
+      <c r="G70">
+        <v>1.77</v>
+      </c>
+      <c r="H70">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I70">
+        <v>3.3099999999999996</v>
+      </c>
+      <c r="J70">
+        <v>3.0799999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="6:10">
+      <c r="F73" t="str" cm="1">
+        <f t="array" aca="1" ref="F73" ca="1">General.FORMULA_TEXT(F74)</f>
+        <v>F74:= ASTRO_HABITABLE_ZONES("vertical",3)</v>
+      </c>
+    </row>
+    <row r="74" spans="6:10">
+      <c r="F74" t="str" cm="1">
+        <f t="array" ref="F74:G80">ASTRO_HABITABLE_ZONES("vertical",3)</f>
+        <v>0:</v>
+      </c>
+      <c r="G74">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="6:10">
+      <c r="F75" t="str">
+        <v>1:</v>
+      </c>
+      <c r="G75">
+        <v>1.2989999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="6:10">
+      <c r="F76" t="str">
+        <v>2:</v>
+      </c>
+      <c r="G76">
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="77" spans="6:10">
+      <c r="F77" t="str">
+        <v>N ➔</v>
+      </c>
+      <c r="G77">
+        <v>1.732</v>
+      </c>
+    </row>
+    <row r="78" spans="6:10">
+      <c r="F78" t="str">
+        <v>3:</v>
+      </c>
+      <c r="G78">
+        <v>2.399</v>
+      </c>
+    </row>
+    <row r="79" spans="6:10">
+      <c r="F79" t="str">
+        <v>4:</v>
+      </c>
+      <c r="G79">
+        <v>3.0659999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="6:10">
+      <c r="F80" t="str">
+        <v>5:</v>
+      </c>
+      <c r="G80">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="82" spans="6:12">
+      <c r="F82" t="str" cm="1">
+        <f t="array" aca="1" ref="F82" ca="1">General.FORMULA_TEXT(F83)</f>
+        <v>F83:= ASTRO_HABITABLE_ZONES("horizontal",3)</v>
+      </c>
+    </row>
+    <row r="83" spans="6:12">
+      <c r="F83" cm="1">
+        <f t="array" ref="F83:L83">ASTRO_HABITABLE_ZONES("horizontal",3)</f>
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="G83">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="H83">
+        <v>1.645</v>
+      </c>
+      <c r="I83">
+        <v>1.732</v>
+      </c>
+      <c r="J83">
+        <v>2.399</v>
+      </c>
+      <c r="K83">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="L83">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="86" spans="6:12">
+      <c r="F86" t="str" cm="1">
+        <f t="array" aca="1" ref="F86" ca="1">General.FORMULA_TEXT(F87)</f>
+        <v>F87:= ASTRO_STAR_DENSITY_VOLUME(1000,,0)</v>
+      </c>
+    </row>
+    <row r="87" spans="6:12">
+      <c r="F87" t="str" cm="1">
+        <f t="array" ref="F87:F88">ASTRO_STAR_DENSITY_VOLUME(1000,,0)</f>
+        <v>Stars: 4</v>
+      </c>
+    </row>
+    <row r="88" spans="6:12">
+      <c r="F88" t="str">
+        <v>Radius: 6.204</v>
+      </c>
+    </row>
+    <row r="90" spans="6:12">
+      <c r="F90" t="str" cm="1">
+        <f t="array" aca="1" ref="F90" ca="1">General.FORMULA_TEXT(F91)</f>
+        <v>F91:= ASTRO_STAR_DENSITY_VOLUME(1000,,1)</v>
+      </c>
+    </row>
+    <row r="91" spans="6:12">
+      <c r="F91" t="str" cm="1">
+        <f t="array" ref="F91:F92">ASTRO_STAR_DENSITY_VOLUME(1000,,1)</f>
+        <v>Stars: 16755160.819</v>
+      </c>
+    </row>
+    <row r="92" spans="6:12">
+      <c r="F92" t="str">
+        <v>Volume: 4188790204.78639</v>
+      </c>
+    </row>
+    <row r="94" spans="6:12">
+      <c r="F94" t="str" cm="1">
+        <f t="array" aca="1" ref="F94" ca="1">General.FORMULA_TEXT(F95)</f>
+        <v>F95:= ASTRO_PLANET_METRICS("dg",1,2)</v>
+      </c>
+    </row>
+    <row r="95" spans="6:12">
+      <c r="F95" t="str" cm="1">
+        <f t="array" ref="F95:G99">ASTRO_PLANET_METRICS("dg",1,2)</f>
+        <v>M</v>
+      </c>
       <c r="G95">
-        <v>7220</v>
-      </c>
-      <c r="H95">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="7:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="6:12">
+      <c r="F96" t="str">
+        <v>R</v>
+      </c>
       <c r="G96">
-        <v>7020</v>
-      </c>
-      <c r="H96">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="7:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7">
+      <c r="F97" t="str">
+        <v>d ➔</v>
+      </c>
       <c r="G97">
-        <v>6820</v>
-      </c>
-      <c r="H97">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="7:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7">
+      <c r="F98" t="str">
+        <v>g ➔</v>
+      </c>
       <c r="G98">
-        <v>6750</v>
-      </c>
-      <c r="H98">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="7:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7">
+      <c r="F99" t="str">
+        <v>v</v>
+      </c>
       <c r="G99">
-        <v>6670</v>
-      </c>
-      <c r="H99">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="7:8">
-      <c r="G100">
-        <v>6550</v>
-      </c>
-      <c r="H100">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="7:8">
-      <c r="G101">
-        <v>6350</v>
-      </c>
-      <c r="H101">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="7:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7">
+      <c r="F101" t="str" cm="1">
+        <f t="array" aca="1" ref="F101" ca="1">General.FORMULA_TEXT(F102)</f>
+        <v>F102:= ASTRO_PLANET_METRICS("md",1,2)</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7">
+      <c r="F102" t="str" cm="1">
+        <f t="array" ref="F102:G106">ASTRO_PLANET_METRICS("md",1,2)</f>
+        <v>M ➔</v>
+      </c>
       <c r="G102">
-        <v>6280</v>
-      </c>
-      <c r="H102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="7:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7">
+      <c r="F103" t="str">
+        <v>R</v>
+      </c>
       <c r="G103">
-        <v>6180</v>
-      </c>
-      <c r="H103">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="7:8">
+        <v>0.79369999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7">
+      <c r="F104" t="str">
+        <v>d ➔</v>
+      </c>
       <c r="G104">
-        <v>6050</v>
-      </c>
-      <c r="H104">
-        <v>120</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7">
+      <c r="F105" t="str">
+        <v>g</v>
+      </c>
+      <c r="G105">
+        <v>1.5873999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7">
+      <c r="F106" t="str">
+        <v>v</v>
+      </c>
+      <c r="G106">
+        <v>1.12246</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +2099,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQAgAG4AbwByAG0AYQBsAGkAegBlAGQAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQAgAGkAbgBkAGUAeAAgAGIAYQBzAGUAZAAgAG8AbgAgAGEAIABwAGwAYQBuAGUAdAAnAHMAIABvAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIABhACAAcwB0AGEAcgAnAHMAIABuAHUAYwBsAGUAYQBsACAAKABoAGEAYgBpAHQAYQBiAGwAZQAgAHoAbwBuAGUAIABhAG4AYwBoAG8AcgApACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAHMAYwBhAGwAYQByACAAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAIABpAG4AZABlAHgAIAAoAG4AdQBtAGIAZQByACkALAAgAG8AcgAgAFwAIgBVAC8ASQBcACIAIABpAGYAIAB1AG4AaQBuAGgAYQBiAGkAdABhAGIAbABlAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABPAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlACAAKABpAG4AIABBAFUAKQBcAG4AIAAgACAALQAgAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBjAGwAZQBhAGwAIAB6AG8AbgBlACAAcgBhAGQAaQB1AHMAIAAoAGkAbgAgAEEAVQApADsAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAxAC4AMABcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAHQAaABlACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABJAG4AZABlAHgAIABIIiAAMQAuADAAIABpAG4AZABpAGMAYQB0AGUAcwAgAGkAZABlAGEAbAAgAGEAbABpAGcAbgBtAGUAbgB0ACAAdwBpAHQAaAAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAuAFwAbgAgACAAIAAtACAAVgBhAGwAdQBlAHMAIAA8ACAAMQAgAGEAcgBlACAAaQBuAHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGgAbwB0ACkALgBcAG4AIAAgACAALQAgAFYAYQBsAHUAZQBzACAAPgAgADEAIABhAHIAZQAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGMAbwBsAGQAKQAuAFwAbgAgACAAIAAtACAASQBmACAAdABoAGUAIABvAHIAYgBpAHQAIABpAHMAIAB0AG8AbwAgAGQAZQBlAHAAIABpAG4AcwBpAGQAZQAgAHQAaABlACAAaQBuAG4AZQByACAAYgBvAHUAbgBkAGEAcgB5ACwAIAByAGUAdAB1AHIAbgBzACAAXAAiAFUALwBJAFwAIgAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGEAIABwAGkAZQBjAGUAdwBpAHMAZQAgAGYAdQBuAGMAdABpAG8AbgAgAGYAbwByACAAcwBtAG8AbwB0AGgAIABmAGEAbABsAG8AZgBmACAAYQBjAHIAbwBzAHMAIABiAG8AdQBuAGQAYQByAHkALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAxAC4AMAApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAMQAuADAAMAAwACAAIAAoAGEAcwBzAHUAbQBlAHMAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAIAA9ACAAMQApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAoADAALgA3ADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgAJIhIAAwAC4ANQAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACgAMgAuADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgACAAkiEgADEALgA2ADIAOABcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAwAC4AMgA1ACwAIAAxAC4AMAApACAAIAAgACAAIAAgACAAIACSISAAXAAiAFUALwBJAFwAIgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAIAA9ACAATABBAE0AQgBEAEEAKABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAsACAAWwBuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIAAzACAAZABlAGMAaQBtAGEAbABzACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwApACwAIAAxACwAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAsACAALwAqACAARABlAGYAYQB1AGwAdAAgAHQAbwAgADEAIABBAFUAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAKgAvAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsACAASQBGACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAA8ACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABUAFIAVQBFACwAIABGAEEATABTAEUAKQAsACAAIAAvACoAIABEAGUAdABlAHIAbQBpAG4AZQAgAHAAbwBzAGkAdABpAG8AbgAgACoALwBcAG4AXABuACAAIAAgACAAIAAgACAAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAqACAAUABpAGUAYwBlAHcAaQBzAGUAIABmAHUAbgBjAHQAaQBvAG4AIAAqAC8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAMgAgACoAIABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAgAC8AIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAgAC0AIAAxACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEkAbgBzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAvACAAKAAtADMALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACkAKQAgACsAIAAoADQALgA4ADUAIAAvACAAMwAuADgANQApACAAIAAvACoAIABPAHUAdABzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEgAYQBuAGQAbABlACAAaQBuAHYAYQBsAGkAZAAvAHYAYQBsAGkAZAAgAGMAYQBzAGUAcwAgACoALwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAXwBpAG4AZABlAHgAIAA8AD0AIAAwACwAIABcACIAVQAvAEkAXAAiACwAIABSAE8AVQBOAEQAKABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4AKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AXABuACAAIAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABEAGkAcwB0AHIAaQBiAHUAdABlAHMAIABhACAAdABvAHQAYQBsACAAcwB0AGUAbABsAGEAcgAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABhAGMAcgBvAHMAcwAgAHQAaABlACAAcwBlAHYAZQBuACAAcAByAGkAbQBhAHIAeQAgAHMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACgATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApACAAYgBhAHMAZQBkACAAbwBuACAAaQBuAHYAZQByAHMAZQAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABmAGEAYwB0AG8AcgBzAC4AIABSAGUAdAB1AHIAbgBzACAAYQAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AXABuACAAIAAgAGEAcgByAGEAeQAgAG8AZgAgAGMAbABhAHMAcwAgAGwAYQBiAGUAbABzACAAYQBuAGQAIABjAGEAbABjAHUAbABhAHQAZQBkACAAcwB0AGEAcgAgAGMAbwB1AG4AdABzAC4AXABuAFwAbgAgACAAIABTAHkAbgB0AGEAeAA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AKAB0AG8AdABhAGwALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQApAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAgACAAdABvAHQAYQBsACAAIAAgACAAIAAgADoAIABUAG8AdABhAGwAIABuAHUAbQBiAGUAcgAgAG8AZgAgAHMAdABhAHIAcwAgAHQAbwAgAGIAZQAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAuAFwAbgAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4AIAAgADoAIABPAHAAdABpAG8AbgBhAGwAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAC4AIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAGUAYQBjAGgAIABjAG8AdQBuAHQALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIAB2AGUAcgB0AGkAYwBhAGwAIABhAHIAcgBhAHkAIAB3AGkAdABoACAAdAB3AG8AIABjAG8AbAB1AG0AbgBzADoAXABuACAAIAAgACAAIAAgACAALQAgAEMAbwBsAHUAbQBuACAAMQA6ACAAUwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzACAAbABhAGIAZQBsAHMAIAAoAFQAbwB0AGEAbAAsACAATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApAFwAbgAgACAAIAAgACAAIAAgAC0AIABDAG8AbAB1AG0AbgAgADIAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzACAAaQBuACAAZQBhAGMAaAAgAGMAbABhAHMAcwAgACgAcgBvAHUAbgBkAGUAZAAgAHQAbwAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABwAHIAZQBjAGkAcwBpAG8AbgApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADEAMAAwADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAB7ADEAMAAwADAALAAgADAALgAzADMAMwAsACAAMQAuADIANQAsACAALgAuAC4AfQBcAG4AXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADUAMAAwADAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAByAG8AdQBuAGQAZQBkACAAaQBuAHQAZQBnAGUAcgBzAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAAVABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAGkAcwAgAGIAYQBzAGUAZAAgAG8AbgAgAGkAbgB2AGUAcgBzAGUAIAB3AGUAaQBnAGgAdABpAG4AZwAgAGYAYQBjAHQAbwByAHMAOgBcAG4AIAAgACAAIAAgACAAIAAgACAATwA6ACAAMQAvADMAMAAwADAAMAAwADAAXABuACAAIAAgACAAIAAgACAAIAAgAEIAOgAgADEALwA4ADAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAQQA6ACAAMQAvADEANgAwAFwAbgAgACAAIAAgACAAIAAgACAAIABGADoAIAAxAC8AMwAzAFwAbgAgACAAIAAgACAAIAAgACAAIABHADoAIAAxAC8AMQAzAFwAbgAgACAAIAAgACAAIAAgACAAIABLADoAIAAxAC8AOABcAG4AIAAgACAAIAAgACAAIAAgACAATQA6ACAAMQAvADEALgAzADEANQAzAC4ALgAuAFwAbgAgACAAIAAgACAALQAgAFQAaABlAHMAZQAgAHYAYQBsAHUAZQBzACAAYQBwAHAAcgBvAHgAaQBtAGEAdABlACAAcgBlAGwAYQB0AGkAdgBlACAAZgByAGUAcQB1AGUAbgBjAHkAIABhAG4AZAAgAGEAYgB1AG4AZABhAG4AYwBlACAAbwBmACAAcwB0AGEAcgAgAHQAeQBwAGUAcwAuAFwAbgAgACAAIAAgACAALQAgAFwAIgBUAG8AdABhAGwAXAAiACAAaQBzACAAaQBuAGMAbAB1AGQAZQBkACAAYQBzACAAdABoAGUAIABmAGkAcgBzAHQAIAByAG8AdwAgAG8AZgAgAHQAaABlACAAbwB1AHQAcAB1AHQAIABmAG8AcgAgAGUAYQBzAHkAIABzAHUAbQBtAGEAdABpAG8AbgAvAGEAdQBkAGkAdAAuAFwAbgAgACAAIAAgACAALQAgAEkAbgB0AGUAbgBkAGUAZAAgAGYAbwByACAAdQBzAGUAIABpAG4AIABtAG8AZABlAGwAaQBuAGcAIABzAHQAYQByACAAcwB5AHMAdABlAG0AIABwAG8AcAB1AGwAYQB0AGkAbwBuAHMALAAgAGcAYQBsAGEAeAB5ACAAcwBlAGUAZABpAG4AZwAsACAAbwByACAAdABlAGEAYwBoAGkAbgBnACAAdABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAG8AZgAgAHMAdABlAGwAbABhAHIAIAB0AHkAcABlAHMALgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACAAPQAgAEwAQQBNAEIARABBACgAWwBhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwBdACwAIABbAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0AF0ALAAgAFsAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABEAGUAZgBhAHUAbAB0ACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMAKQAsACAAXAAiACQAXAAiACwAIABVAFAAUABFAFIAKABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALAAgADEALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjAGkAbQBhAGwAXwBwAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAFMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwAgAGEAcgByAGEAeQAgAGEAbgBkACAAYgBhAHMAZQAgAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAgACgAZQBtAHAAaQByAGkAYwBhAGwAKQAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBjAGwAYQBzAHMAZQBzACwAIAB7AFwAIgBPAFwAIgA7ACAAXAAiAEIAXAAiADsAIABcACIAQQBcACIAOwAgAFwAIgBGAFwAIgA7ACAAXAAiAEcAXAAiADsAIABcACIASwBcACIAOwAgAFwAIgBNAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABhAHIAcgBfAGIAYQBzAGUAXwBwAGMAdAAsACAAewAwAC4AMAAwADAAMAAzADsAIAAwAC4AMQAzADsAIAAwAC4ANgA7ACAAMwAuADAAOwAgADcALgA2ADsAIAAxADIALgAxADsAIAA3ADYALgAyADcAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AcABjAHQALAAgAEwAQQBNAEIARABBACgAeAAsACAAeAAgAC8AIAAxADAAMAApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEwAbwBvAGsAdQBwACAAcwBjAGEAbABpAG4AZwAgAGYAYQBjAHQAbwByACAAZgBvAHIAIABhACAAcwBwAGUAYwBpAGYAaQBjACAAYQBuAGMAaABvAHIAIAB0AHkAcABlAFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBmAHIAZQBxACwAIABYAEwATwBPAEsAVQBQACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAGEAcgByAF8AYwBsAGEAcwBzAGUAcwAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIABzAGMAYQBsAGkAbgBnAF8AZgBhAGMAdABvAHIALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACAALwAgAGEAbgBjAGgAbwByAF8AZgByAGUAcQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAAUwBjAGEAbABlAGQAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgABQgIABuAG8AcgBtAGEAbABpAHoAZQAgAG8AcgAgAGEAcABwAGwAeQAgAHUAcwBlAHIALQBkAGUAZgBpAG4AZQBkACAAcwBjAGEAbABlAFwAbgAgACAAIAAgACAAIAAgACAAcwBjAGEAbABlAGQALAAgAEkARgAoAGEAbgBjAGgAbwByAF8AYwBsAGEAcwBzACAAPQAgAFwAIgAkAFwAIgAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAATABBAE0AQgBEAEEAKAB4ACwAIAB4ACAAKgAgAHMAYwBhAGwAaQBuAGcAXwBmAGEAYwB0AG8AcgApACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAARgBpAG4AYQBsACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAASABTAFQAQQBDAEsAKABhAHIAcgBfAGMAbABhAHMAcwBlAHMALAAgAFIATwBVAE4ARAAoAHMAYwBhAGwAZQBkACwAIABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFQAQQBSAF8AQwBMAEEAUwBTAF8AUwBUAEEAVABTACAAPQAgAEwAQQBNAEIARABBACgAaQBuACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHAAdQB0ACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAaQBuACwAIABcACIAIABcACIALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzACwAIABMAEUARgBUACgAaQBuAHAAdQB0ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdQBiACwAIABSAEkARwBIAFQAKABpAG4AcAB1AHQALAAgAEwARQBOACgAaQBuAHAAdQB0ACkAIAAtACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGgAcgBlAHMAaABvAGwAZABzACwAIAB7ADUANQAwADAAMAAsACAAMgA1ADAAMAAwACwAIAAxADAAMAAwADAALAAgADcANQAwADAALAAgADYAMAAwADAALAAgADUAMAAwADAALAAgADMANQAwADAALAAgADIANAAwADAALAAgADEAMwAwADAALAAgADYAMAAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB7AFwAIgBPAFwAIgAsACAAXAAiAEIAXAAiACwAIABcACIAQQBcACIALAAgAFwAIgBGAFwAIgAsACAAXAAiAEcAXAAiACwAIABcACIASwBcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAEwAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBZAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AdgBhAGwAcwAsACAAewAzADAAMAAwACwAIAAxADUAMAAwACwAIAAyADUAMAAsACAAMQA1ADAALAAgADEAMAAwACwAIAAxADUAMAAsACAAMQAxADAALAAgADEAMQAwACwAIAA3ADAALAAgADMAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAeABfAHQAZQBtAHAALAAgAFgATABPAE8ASwBVAFAAKABjAGwAYQBzAHMALAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIAB0AGgAcgBlAHMAaABvAGwAZABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwBmAGEAYwB0AG8AcgAsACAAWABMAE8ATwBLAFUAUAAoAGMAbABhAHMAcwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHEAXwB2AGEAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwB0AGUAbQBwACwAIABtAGEAeABfAHQAZQBtAHAAIAAtACAAKABzAHUAYgAgACoAIABxAF8AZgBhAGMAdABvAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcAAsACAAawBfAHQAZQBtAHAAIAAvACAANQA4ADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAawBfAHQAZQBtAHAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADEALgA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAANwAuADUANwA3ADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAtADUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAFwAIgAtAD4AIABcACIAIAAmACAAaQBuAHAAdQB0ACwAIABrAGUAbAB2AGkAbgAsACAAcwBvAGwAYQByACwAIABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABzAHUAYgBjAGwAYQBzAHMALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAGEAcgBkAGMAbwBkAGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAgAGEAcgByAGEAeQBzACAALQAtAC0AXABuAFwAbgAgACAAIAAgAGEAcgByAFQAeQBwAGUAcwAsACAAewBcAG4AIAAgACAAIAAgACAAXAAiAE8AMwBcACIAOwAgAFwAIgBPADQAXAAiADsAIABcACIATwA1AFwAIgA7ACAAXAAiAE8ANgBcACIAOwAgAFwAIgBPADcAXAAiADsAIABcACIATwA4AFwAIgA7ACAAXAAiAE8AOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEIAMABcACIAOwAgAFwAIgBCADEAXAAiADsAIABcACIAQgAyAFwAIgA7ACAAXAAiAEIAMwBcACIAOwAgAFwAIgBCADQAXAAiADsAIABcACIAQgA1AFwAIgA7ACAAXAAiAEIANgBcACIAOwAgAFwAIgBCADcAXAAiADsAIABcACIAQgA4AFwAIgA7ACAAXAAiAEIAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEEAMABcACIAOwAgAFwAIgBBADEAXAAiADsAIABcACIAQQAyAFwAIgA7ACAAXAAiAEEAMwBcACIAOwAgAFwAIgBBADQAXAAiADsAIABcACIAQQA1AFwAIgA7ACAAXAAiAEEANgBcACIAOwAgAFwAIgBBADcAXAAiADsAIABcACIAQQA4AFwAIgA7ACAAXAAiAEEAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEYAMABcACIAOwAgAFwAIgBGADEAXAAiADsAIABcACIARgAyAFwAIgA7ACAAXAAiAEYAMwBcACIAOwAgAFwAIgBGADQAXAAiADsAIABcACIARgA1AFwAIgA7ACAAXAAiAEYANgBcACIAOwAgAFwAIgBGADcAXAAiADsAIABcACIARgA4AFwAIgA7ACAAXAAiAEYAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEcAMABcACIAOwAgAFwAIgBHADEAXAAiADsAIABcACIARwAyAFwAIgA7ACAAXAAiAEcAMwBcACIAOwAgAFwAIgBHADQAXAAiADsAIABcACIARwA1AFwAIgA7ACAAXAAiAEcANgBcACIAOwAgAFwAIgBHADcAXAAiADsAIABcACIARwA4AFwAIgA7ACAAXAAiAEcAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEsAMABcACIAOwAgAFwAIgBLADEAXAAiADsAIABcACIASwAyAFwAIgA7ACAAXAAiAEsAMwBcACIAOwAgAFwAIgBLADQAXAAiADsAIABcACIASwA1AFwAIgA7ACAAXAAiAEsANgBcACIAOwAgAFwAIgBLADcAXAAiADsAIABcACIASwA4AFwAIgA7ACAAXAAiAEsAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAE0AMABcACIAOwAgAFwAIgBNADEAXAAiADsAIABcACIATQAyAFwAIgA7ACAAXAAiAE0AMwBcACIAOwAgAFwAIgBNADQAXAAiADsAIABcACIATQA1AFwAIgA7ACAAXAAiAE0ANgBcACIAOwAgAFwAIgBNADcAXAAiADsAIABcACIATQA4AFwAIgA7ACAAXAAiAE0AOQBcACIAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABIAGkAZwBoACAAZQBmAGYAZQBjAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAcwAgACgASwApACAAZgBvAHIAIABlAGEAYwBoACAAcwB1AGIAYwBsAGEAcwBzAFwAbgAgACAAIAAgAGEAcgByAFQASABpAGcAaAAsACAAewBcAG4AIAAgACAAIAAgACAANAA0ADkAMAAwADsAIAA0ADIAOQAwADAAOwAgADQAMQA0ADAAMAA7ACAAMwA5ADUAMAAwADsAIAAzADcAMQAwADAAOwAgADMANQAxADAAMAA7ACAAMwAzADMAMAAwADsAXABuACAAIAAgACAAIAAgADMAMQA0ADAAMAA7ACAAMgA2ADAAMAAwADsAIAAyADAANgAwADAAOwAgADEANwAwADAAMAA7ACAAMQA2ADQAMAAwADsAIAAxADUANwAwADAAOwAgADEANAA1ADAAMAA7ACAAMQA0ADAAMAAwADsAIAAxADIAMwAwADAAOwAgADEAMAA3ADAAMAA7AFwAbgAgACAAIAAgACAAIAA5ADcAMAAwADsAIAA5ADMAMAAwADsAIAA4ADgAMAAwADsAIAA4ADYAMAAwADsAIAA4ADIANQAwADsAIAA4ADEAMAAwADsAIAA3ADkAMQAwADsAIAA3ADcANgAwADsAIAA3ADUAOQAwADsAIAA3ADQAMAAwADsAXABuACAAIAAgACAAIAAgADcAMgAyADAAOwAgADcAMAAyADAAOwAgADYAOAAyADAAOwAgADYANwA1ADAAOwAgADYANgA3ADAAOwAgADYANQA1ADAAOwAgADYAMwA1ADAAOwAgADYAMgA4ADAAOwAgADYAMQA4ADAAOwBcAG4AIAAgACAAIAAgACAANgAwADUAMAA7ACAANQA5ADMAMAA7ACAANQA4ADYAMAA7ACAANQA3ADcAMAA7ACAANQA3ADIAMAA7ACAANQA2ADgAMAA7ACAANQA2ADYAMAA7ACAANQA2ADAAMAA7ACAANQA1ADUAMAA7ACAANQA0ADgAMAA7AFwAbgAgACAAIAAgACAAIAA1ADMAOAAwADsAIAA1ADIANwAwADsAIAA1ADEANwAwADsAIAA1ADEAMAAwADsAIAA0ADgAMwAwADsAIAA0ADYAMAAwADsAIAA0ADQANAAwADsAIAA0ADMAMAAwADsAIAA0ADEAMAAwADsAIAAzADkAOQAwADsAXABuACAAIAAgACAAIAAgADMAOQAzADAAOwAgADMAOAA1ADAAOwAgADMANgA2ADAAOwAgADMANQA2ADAAOwAgADMANAAzADAAOwAgADMAMgAxADAAOwAgADMAMAA2ADAAOwAgADIAOAAxADAAOwAgADIANgA4ADAAOwAgADIANQA3ADAAOwAgADIAMwA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABUAGUAbQBwAGUAcgBhAHQAdQByAGUAIABzAHAAYQBuACAAdABvACAAdABoAGUAIABuAGUAeAB0ACAAcwB1AGIAYwBsAGEAcwBzACAAKABLACkAXABuACAAIAAgACAAYQByAHIAUwBwAGEAbgAsACAAewBcAG4AIAAgACAAIAAgACAAMgAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMQA5ADAAMAA7ACAAMgA0ADAAMAA7ACAAMgAwADAAMAA7ACAAMQA4ADAAMAA7ACAAMQA5ADAAMAA7AFwAbgAgACAAIAAgACAAIAA1ADQAMAAwADsAIAA1ADQAMAAwADsAIAAzADYAMAAwADsAIAA2ADAAMAA7ACAANwAwADAAOwAgADEAMgAwADAAOwAgADUAMAAwADsAIAAxADcAMAAwADsAIAAxADYAMAAwADsAIAAxADAAMAAwADsAXABuACAAIAAgACAAIAAgADQAMAAwADsAIAA1ADAAMAA7ACAAMgAwADAAOwAgADMANQAwADsAIAAxADUAMAA7ACAAMQA5ADAAOwAgADEANQAwADsAIAAxADcAMAA7ACAAMQA5ADAAOwAgADEAOAAwADsAXABuACAAIAAgACAAIAAgADIAMAAwADsAIAAyADAAMAA7ACAANwAwADsAIAA4ADAAOwAgADEAMgAwADsAIAAyADAAMAA7ACAANwAwADsAIAAxADAAMAA7ACAAMQAzADAAOwBcAG4AIAAgACAAIAAgACAAMQAyADAAOwAgADcAMAA7ACAAOQAwADsAIAA1ADAAOwAgADQAMAA7ACAAMgAwADsAIAA2ADAAOwAgADUAMAA7ACAANwAwADsAIAAxADAAMAA7AFwAbgAgACAAIAAgACAAIAAxADEAMAA7ACAAMQAwADAAOwAgADcAMAA7ACAAMgA3ADAAOwAgADIAMwAwADsAIAAxADYAMAA7ACAAMQA0ADAAOwAgADIAMAAwADsAIAAxADEAMAA7ACAANgAwADsAXABuACAAIAAgACAAIAAgADgAMAA7ACAAMQA5ADAAOwAgADEAMAAwADsAIAAxADMAMAA7ACAAMgAyADAAOwAgADEANQAwADsAIAAyADUAMAA7ACAAMQAzADAAOwAgADEAMQAwADsAIAAxADkAMAA7ACAAMgA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABCAHUAbgBkAGwAZQAgAGkAbgB0AG8AIABhACAAcwBpAG4AZwBsAGUAIABtAGEAdAByAGkAeAAgAGYAbwByACAAYwBsAGUAYQBuACAAbABvAG8AawB1AHAAXABuACAAIAAgACAAbQB0AHgAUwB0AGEAcgBzACwAIABIAFMAVABBAEMASwAoAGEAcgByAFQAeQBwAGUAcwAsACAAYQByAHIAVABIAGkAZwBoACwAIABhAHIAcgBTAHAAYQBuACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AcAB1AHQAIABuAG8AcgBtAGEAbABpAHoAYQB0AGkAbwBuACAAYQBuAGQAIABwAGEAcgBzAGkAbgBnACAALQAtAC0AXABuAFwAbgAgACAAIAAgAG4AbwBfAHMAcABhAGMAZQAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAHMAdQBiAGMAbABhAHMAcwAsACAAXAAiACAAXAAiACwAIABcACIAXAAiACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABUAHIAaQBtACAAdwBoAGkAdABlAHMAcABhAGMAZQBcAG4AIAAgACAAIABkAG8AdABfAHAAbwBzACwAIABGAEkATgBEACgAXAAiAC4AXAAiACwAIABuAG8AXwBzAHAAYQBjAGUAIAAmACAAXAAiAC4AMABcACIAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARQBuAHMAdQByAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGkAcwAgAGQAZQB0AGUAYwB0AGUAZAAgAGUAdgBlAG4AIABmAG8AcgAgAHcAaABvAGwAZQAgAHMAdQBiAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACAAYgBhAHMAZQAsACAATABFAEYAVAAoAG4AbwBfAHMAcABhAGMAZQAsACAAZABvAHQAXwBwAG8AcwAgAC0AIAAxACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABFAHgAdAByAGEAYwB0ACAAcgBvAG8AdAAgAHMAdQBiAGMAbABhAHMAcwAsACAAZQAuAGcALgAsACAAXAAiAEcANwBcACIAIABmAHIAbwBtACAAXAAiAEcANwAuADMAXAAiAFwAbgAgACAAIAAgAGYALAAgAFYAQQBMAFUARQAoAFwAIgAwAC4AXAAiACAAJgAgAE0ASQBEACgAbgBvAF8AcwBwAGEAYwBlACwAIABkAG8AdABfAHAAbwBzACAAKwAgADEALAAgAEwARQBOACgAbgBvAF8AcwBwAGEAYwBlACkAKQApACwAIAAvAC8AIABDAG8AbgB2AGUAcgB0ACAAZABlAGMAaQBtAGEAbAAgAHMAdAByAGkAbgBnACAAdABvACAAbgB1AG0AZQByAGkAYwAgACgAZQAuAGcALgAsACAAMAAuADMAKQBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABMAG8AbwBrAHUAcAAgAGgAaQBnAGgAIAB0AGUAbQBwACAAYQBuAGQAIABzAHAAYQBuACAAZgByAG8AbQAgAG0AYQB0AHIAaQB4ACAALQAtAC0AXABuAFwAbgAgACAAIAAgAFQAXwBoAGkAZwBoACwAIABYAEwATwBPAEsAVQBQACgAYgBhAHMAZQAsACAASQBOAEQARQBYACgAbQB0AHgAUwB0AGEAcgBzACwALAAxACkALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMgApACkALAAgAC8ALwAgAGUALgBnAC4AIAA1ADUANQAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AIAAgACAAIABzAHAAYQBuACwAIAAgACAAWABMAE8ATwBLAFUAUAAoAGIAYQBzAGUALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMQApACwAIABJAE4ARABFAFgAKABtAHQAeABTAHQAYQByAHMALAAsADMAKQApACwAIAAvAC8AIABlAC4AZwAuACAANwAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AdABlAHIAcABvAGwAYQB0AGkAbwBuADoAIABUACAAPQAgAFQAXwBoAGkAZwBoACAALQAgAGYAIAAqACAAcwBwAGEAbgAgAC0ALQAtAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAVABfAGgAaQBnAGgAIAAtACAAKABmACAAKgAgAHMAcABhAG4AKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKAB0AGUAbQBwACwAIABbAGQAZQBjAGkAbQBhAGwAcwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAASABhAHIAZABjAG8AZABlAGQAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIABkAGEAdABhACAALQAtAC0AXABuACAAIAAgACAAYQByAHIAVAB5AHAAZQBzACwAIAB7AFwAbgAgACAAIAAgACAAIABcACIATwAzAFwAIgA7ACAAXAAiAE8ANABcACIAOwAgAFwAIgBPADUAXAAiADsAIABcACIATwA2AFwAIgA7ACAAXAAiAE8ANwBcACIAOwAgAFwAIgBPADgAXAAiADsAIABcACIATwA5AFwAIgA7AFwAbgAgACAAIAAgACAAIABcACIAQgAwAFwAIgA7ACAAXAAiAEIAMQBcACIAOwAgAFwAIgBCADIAXAAiADsAIABcACIAQgAzAFwAIgA7ACAAXAAiAEIANABcACIAOwAgAFwAIgBCADUAXAAiADsAIABcACIAQgA2AFwAIgA7ACAAXAAiAEIANwBcACIAOwAgAFwAIgBCADgAXAAiADsAIABcACIAQgA5AFwAIgA7AFwAbgAgACAAIAAgACAAIABcACIAQQAwAFwAIgA7ACAAXAAiAEEAMQBcACIAOwAgAFwAIgBBADIAXAAiADsAIABcACIAQQAzAFwAIgA7ACAAXAAiAEEANABcACIAOwAgAFwAIgBBADUAXAAiADsAIABcACIAQQA2AFwAIgA7ACAAXAAiAEEANwBcACIAOwAgAFwAIgBBADgAXAAiADsAIABcACIAQQA5AFwAIgA7AFwAbgAgACAAIAAgACAAIABcACIARgAwAFwAIgA7ACAAXAAiAEYAMQBcACIAOwAgAFwAIgBGADIAXAAiADsAIABcACIARgAzAFwAIgA7ACAAXAAiAEYANABcACIAOwAgAFwAIgBGADUAXAAiADsAIABcACIARgA2AFwAIgA7ACAAXAAiAEYANwBcACIAOwAgAFwAIgBGADgAXAAiADsAIABcACIARgA5AFwAIgA7AFwAbgAgACAAIAAgACAAIABcACIARwAwAFwAIgA7ACAAXAAiAEcAMQBcACIAOwAgAFwAIgBHADIAXAAiADsAIABcACIARwAzAFwAIgA7ACAAXAAiAEcANABcACIAOwAgAFwAIgBHADUAXAAiADsAIABcACIARwA2AFwAIgA7ACAAXAAiAEcANwBcACIAOwAgAFwAIgBHADgAXAAiADsAIABcACIARwA5AFwAIgA7AFwAbgAgACAAIAAgACAAIABcACIASwAwAFwAIgA7ACAAXAAiAEsAMQBcACIAOwAgAFwAIgBLADIAXAAiADsAIABcACIASwAzAFwAIgA7ACAAXAAiAEsANABcACIAOwAgAFwAIgBLADUAXAAiADsAIABcACIASwA2AFwAIgA7ACAAXAAiAEsANwBcACIAOwAgAFwAIgBLADgAXAAiADsAIABcACIASwA5AFwAIgA7AFwAbgAgACAAIAAgACAAIABcACIATQAwAFwAIgA7ACAAXAAiAE0AMQBcACIAOwAgAFwAIgBNADIAXAAiADsAIABcACIATQAzAFwAIgA7ACAAXAAiAE0ANABcACIAOwAgAFwAIgBNADUAXAAiADsAIABcACIATQA2AFwAIgA7ACAAXAAiAE0ANwBcACIAOwAgAFwAIgBNADgAXAAiADsAIABcACIATQA5AFwAIgBcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAGEAcgByAFQASABpAGcAaAAsACAAewBcAG4AIAAgACAAIAAgACAANAA0ADkAMAAwADsAIAA0ADIAOQAwADAAOwAgADQAMQA0ADAAMAA7ACAAMwA5ADUAMAAwADsAIAAzADcAMQAwADAAOwAgADMANQAxADAAMAA7ACAAMwAzADMAMAAwADsAXABuACAAIAAgACAAIAAgADMAMQA0ADAAMAA7ACAAMgA2ADAAMAAwADsAIAAyADAANgAwADAAOwAgADEANwAwADAAMAA7ACAAMQA2ADQAMAAwADsAIAAxADUANwAwADAAOwAgADEANAA1ADAAMAA7ACAAMQA0ADAAMAAwADsAIAAxADIAMwAwADAAOwAgADEAMAA3ADAAMAA7AFwAbgAgACAAIAAgACAAIAA5ADcAMAAwADsAIAA5ADMAMAAwADsAIAA4ADgAMAAwADsAIAA4ADYAMAAwADsAIAA4ADIANQAwADsAIAA4ADEAMAAwADsAIAA3ADkAMQAwADsAIAA3ADcANgAwADsAIAA3ADUAOQAwADsAIAA3ADQAMAAwADsAXABuACAAIAAgACAAIAAgADcAMgAyADAAOwAgADcAMAAyADAAOwAgADYAOAAyADAAOwAgADYANwA1ADAAOwAgADYANgA3ADAAOwAgADYANQA1ADAAOwAgADYAMwA1ADAAOwAgADYAMgA4ADAAOwAgADYAMQA4ADAAOwBcAG4AIAAgACAAIAAgACAANgAwADUAMAA7ACAANQA5ADMAMAA7ACAANQA4ADYAMAA7ACAANQA3ADcAMAA7ACAANQA3ADIAMAA7ACAANQA2ADgAMAA7ACAANQA2ADYAMAA7ACAANQA2ADAAMAA7ACAANQA1ADUAMAA7ACAANQA0ADgAMAA7AFwAbgAgACAAIAAgACAAIAA1ADMAOAAwADsAIAA1ADIANwAwADsAIAA1ADEANwAwADsAIAA1ADEAMAAwADsAIAA0ADgAMwAwADsAIAA0ADYAMAAwADsAIAA0ADQANAAwADsAIAA0ADMAMAAwADsAIAA0ADEAMAAwADsAIAAzADkAOQAwADsAXABuACAAIAAgACAAIAAgADMAOQAzADAAOwAgADMAOAA1ADAAOwAgADMANgA2ADAAOwAgADMANQA2ADAAOwAgADMANAAzADAAOwAgADMAMgAxADAAOwAgADMAMAA2ADAAOwAgADIAOAAxADAAOwAgADIANgA4ADAAOwAgADIANQA3ADAAOwAgADIAMwA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIABhAHIAcgBTAHAAYQBuACwAIAB7AFwAbgAgACAAIAAgACAAIAAyADAAMAAwADsAIAAxADUAMAAwADsAIAAxADkAMAAwADsAIAAyADQAMAAwADsAIAAyADAAMAAwADsAIAAxADgAMAAwADsAIAAxADkAMAAwADsAXABuACAAIAAgACAAIAAgADUANAAwADAAOwAgADUANAAwADAAOwAgADMANgAwADAAOwAgADYAMAAwADsAIAA3ADAAMAA7ACAAMQAyADAAMAA7ACAANQAwADAAOwAgADEANwAwADAAOwAgADEANgAwADAAOwAgADEAMAAwADAAOwBcAG4AIAAgACAAIAAgACAANAAwADAAOwAgADUAMAAwADsAIAAyADAAMAA7ACAAMwA1ADAAOwAgADEANQAwADsAIAAxADkAMAA7ACAAMQA1ADAAOwAgADEANwAwADsAIAAxADkAMAA7ACAAMQA4ADAAOwBcAG4AIAAgACAAIAAgACAAMgAwADAAOwAgADIAMAAwADsAIAA3ADAAOwAgADgAMAA7ACAAMQAyADAAOwAgADIAMAAwADsAIAA3ADAAOwAgADEAMAAwADsAIAAxADMAMAA7AFwAbgAgACAAIAAgACAAIAAxADIAMAA7ACAANwAwADsAIAA5ADAAOwAgADUAMAA7ACAANAAwADsAIAAyADAAOwAgADYAMAA7ACAANQAwADsAIAA3ADAAOwAgADEAMAAwADsAXABuACAAIAAgACAAIAAgADEAMQAwADsAIAAxADAAMAA7ACAANwAwADsAIAAyADcAMAA7ACAAMgAzADAAOwAgADEANgAwADsAIAAxADQAMAA7ACAAMgAwADAAOwAgADEAMQAwADsAIAA2ADAAOwBcAG4AIAAgACAAIAAgACAAOAAwADsAIAAxADkAMAA7ACAAMQAwADAAOwAgADEAMwAwADsAIAAyADIAMAA7ACAAMQA1ADAAOwAgADIANQAwADsAIAAxADMAMAA7ACAAMQAxADAAOwAgADEAOQAwADsAIAAyADgAMABcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAARABlAHQAZQByAG0AaQBuAGUAIABtAGEAdABjAGgAIABpAG4AZABlAHgAIAAtAC0ALQBcAG4AIAAgACAAIAB0AGUAbQBwAF8AaQBuAF8AcgBhAG4AZwBlACwAXABuACAAIAAgACAAIAAgAE0AQQBQACgAUwBFAFEAVQBFAE4AQwBFACgAUgBPAFcAUwAoAGEAcgByAFQASABpAGcAaAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAaQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgAEEATgBEACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAGEAcgByAFQASABpAGcAaAAsACAAaQApACAAPgA9ACAAdABlAG0AcAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAbQBwACAAPgAgAEkATgBEAEUAWAAoAGEAcgByAFQASABpAGcAaAAsACAAaQApACAALQAgAEkATgBEAEUAWAAoAGEAcgByAFMAcABhAG4ALAAgAGkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAGkAZAB4ACwAIABYAE0AQQBUAEMASAAoAFQAUgBVAEUALAAgAHQAZQBtAHAAXwBpAG4AXwByAGEAbgBnAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAEwAbwBvAGsAdQBwACAAdAB5AHAAZQAgAGEAbgBkACAAYwBvAG0AcAB1AHQAZQAgAGYAcgBhAGMAdABpAG8AbgAgAC0ALQAtAFwAbgAgACAAIAAgAGYAdQBsAGwAXwB0AHkAcABlACwAIABJAE4ARABFAFgAKABhAHIAcgBUAHkAcABlAHMALAAgAGkAZAB4ACkALABcAG4AIAAgACAAIABUAF8AaABpAGcAaAAsACAASQBOAEQARQBYACgAYQByAHIAVABIAGkAZwBoACwAIABpAGQAeAApACwAXABuACAAIAAgACAAcwBwAGEAbgAsACAASQBOAEQARQBYACgAYQByAHIAUwBwAGEAbgAsACAAaQBkAHgAKQAsAFwAbgAgACAAIAAgAGYALAAgACgAVABfAGgAaQBnAGgAIAAtACAAdABlAG0AcAApACAALwAgAHMAcABhAG4ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABGAG8AcgBtAGEAdAAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0ACAALQAtAC0AXABuACAAIAAgACAAZABlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAZABlAGMAaQBtAGEAbABzACkALAAgADMALAAgAGQAZQBjAGkAbQBhAGwAcwApACwAXABuACAAIAAgACAAZgBvAHIAbQBhAHQAXwBzAHQAcgBpAG4AZwAsACAAXAAiAC4AXAAiACAAJgAgAFIARQBQAFQAKABcACIAMABcACIALAAgAGQAZQBjACkALABcAG4AIAAgACAAIABzAHUAYgBjAGwAYQBzAHMALAAgAGYAdQBsAGwAXwB0AHkAcABlACAAJgAgAFQARQBYAFQAKABmACwAIABmAG8AcgBtAGEAdABfAHMAdAByAGkAbgBnACkALABcAG4AXABuACAAIAAgACAAcwB1AGIAYwBsAGEAcwBzAFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAEQASQBTAFAATABBAFkAXwBTAFAARQBDAFQAUgBBAEwAIAA9ACAATABBAE0AQgBEAEEAKABbAHQAeQBwAGUAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAEQAZQBmAGkAbgBlACAAcwBwAGUAYwB0AHIAYQBsACAAdAB5AHAAZQBzACAAYQBuAGQAIABiAHUAaQBsAGQAIABoAGUAbABwAGUAcgBzACAALQAtAC0AXABuACAAIAAgACAAVAB5AHAAZQBzACwAIAB7AFwAIgBPAFwAIgA7AFwAIgBCAFwAIgA7AFwAIgBBAFwAIgA7AFwAIgBGAFwAIgA7AFwAIgBHAFwAIgA7AFwAIgBLAFwAIgA7AFwAIgBNAFwAIgB9ACwAXABuACAAIAAgACAASABlAGEAZABlAHIAcwAsACAAVABSAEEATgBTAFAATwBTAEUAKABWAFMAVABBAEMASwAoAFwAIgAgAFwAIgAsACAAVAB5AHAAZQBzACkAKQAsAFwAbgAgACAAIAAgAEYAaQBuAGQAQwBvAGwALAAgAE0AQQBLAEUAQQBSAFIAQQBZACgAQwBPAFUATgBUAEEAKABUAHkAcABlAHMAKQAsACAAMgAsACAATABBAE0AQgBEAEEAKAByACwAIABjACwAIABJAEYAKABjACAAPQAgADEALAAgAEkATgBEAEUAWAAoAFQAeQBwAGUAcwAsACAAcgApACwAIAByACkAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAAUgBhAHcAIABzAHQAYQByACAAcwB1AGIAYwBsAGEAcwBzACAAZABhAHQAYQAgAC0ALQAtAFwAbgAgACAAIAAgAGEAcgByAFQAeQBwAGUAcwAsACAAewBcAG4AIAAgACAAIAAgACAAXAAiAE8AXAAiADsAIABcACIATwBcACIAOwAgAFwAIgBPAFwAIgA7ACAAXAAiAE8AMwBcACIAOwAgAFwAIgBPADQAXAAiADsAIABcACIATwA1AFwAIgA7ACAAXAAiAE8ANgBcACIAOwAgAFwAIgBPADcAXAAiADsAIABcACIATwA4AFwAIgA7ACAAXAAiAE8AOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEIAMABcACIAOwAgAFwAIgBCADEAXAAiADsAIABcACIAQgAyAFwAIgA7ACAAXAAiAEIAMwBcACIAOwAgAFwAIgBCADQAXAAiADsAIABcACIAQgA1AFwAIgA7ACAAXAAiAEIANgBcACIAOwAgAFwAIgBCADcAXAAiADsAIABcACIAQgA4AFwAIgA7ACAAXAAiAEIAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEEAMABcACIAOwAgAFwAIgBBADEAXAAiADsAIABcACIAQQAyAFwAIgA7ACAAXAAiAEEAMwBcACIAOwAgAFwAIgBBADQAXAAiADsAIABcACIAQQA1AFwAIgA7ACAAXAAiAEEANgBcACIAOwAgAFwAIgBBADcAXAAiADsAIABcACIAQQA4AFwAIgA7ACAAXAAiAEEAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEYAMABcACIAOwAgAFwAIgBGADEAXAAiADsAIABcACIARgAyAFwAIgA7ACAAXAAiAEYAMwBcACIAOwAgAFwAIgBGADQAXAAiADsAIABcACIARgA1AFwAIgA7ACAAXAAiAEYANgBcACIAOwAgAFwAIgBGADcAXAAiADsAIABcACIARgA4AFwAIgA7ACAAXAAiAEYAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEcAMABcACIAOwAgAFwAIgBHADEAXAAiADsAIABcACIARwAyAFwAIgA7ACAAXAAiAEcAMwBcACIAOwAgAFwAIgBHADQAXAAiADsAIABcACIARwA1AFwAIgA7ACAAXAAiAEcANgBcACIAOwAgAFwAIgBHADcAXAAiADsAIABcACIARwA4AFwAIgA7ACAAXAAiAEcAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEsAMABcACIAOwAgAFwAIgBLADEAXAAiADsAIABcACIASwAyAFwAIgA7ACAAXAAiAEsAMwBcACIAOwAgAFwAIgBLADQAXAAiADsAIABcACIASwA1AFwAIgA7ACAAXAAiAEsANgBcACIAOwAgAFwAIgBLADcAXAAiADsAIABcACIASwA4AFwAIgA7ACAAXAAiAEsAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAE0AMABcACIAOwAgAFwAIgBNADEAXAAiADsAIABcACIATQAyAFwAIgA7ACAAXAAiAE0AMwBcACIAOwAgAFwAIgBNADQAXAAiADsAIABcACIATQA1AFwAIgA7ACAAXAAiAE0ANgBcACIAOwAgAFwAIgBNADcAXAAiADsAIABcACIATQA4AFwAIgA7ACAAXAAiAE0AOQBcACIAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIABhAHIAcgBUAEgAaQBnAGgALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgADQANAA5ADAAMAA7ACAANAAyADkAMAAwADsAIAA0ADEANAAwADAAOwAgADMAOQA1ADAAMAA7ACAAMwA3ADEAMAAwADsAIAAzADUAMQAwADAAOwAgADMAMwAzADAAMAA7AFwAbgAgACAAIAAgACAAIAAzADEANAAwADAAOwAgADIANgAwADAAMAA7ACAAMgAwADYAMAAwADsAIAAxADcAMAAwADAAOwAgADEANgA0ADAAMAA7ACAAMQA1ADcAMAAwADsAIAAxADQANQAwADAAOwAgADEANAAwADAAMAA7ACAAMQAyADMAMAAwADsAIAAxADAANwAwADAAOwBcAG4AIAAgACAAIAAgACAAOQA3ADAAMAA7ACAAOQAzADAAMAA7ACAAOAA4ADAAMAA7ACAAOAA2ADAAMAA7ACAAOAAyADUAMAA7ACAAOAAxADAAMAA7ACAANwA5ADEAMAA7ACAANwA3ADYAMAA7ACAANwA1ADkAMAA7ACAANwA0ADAAMAA7AFwAbgAgACAAIAAgACAAIAA3ADIAMgAwADsAIAA3ADAAMgAwADsAIAA2ADgAMgAwADsAIAA2ADcANQAwADsAIAA2ADYANwAwADsAIAA2ADUANQAwADsAIAA2ADMANQAwADsAIAA2ADIAOAAwADsAIAA2ADEAOAAwADsAXABuACAAIAAgACAAIAAgADYAMAA1ADAAOwAgADUAOQAzADAAOwAgADUAOAA2ADAAOwAgADUANwA3ADAAOwAgADUANwAyADAAOwAgADUANgA4ADAAOwAgADUANgA2ADAAOwAgADUANgAwADAAOwAgADUANQA1ADAAOwAgADUANAA4ADAAOwBcAG4AIAAgACAAIAAgACAANQAzADgAMAA7ACAANQAyADcAMAA7ACAANQAxADcAMAA7ACAANQAxADAAMAA7ACAANAA4ADMAMAA7ACAANAA2ADAAMAA7ACAANAA0ADQAMAA7ACAANAAzADAAMAA7ACAANAAxADAAMAA7ACAAMwA5ADkAMAA7AFwAbgAgACAAIAAgACAAIAAzADkAMwAwADsAIAAzADgANQAwADsAIAAzADYANgAwADsAIAAzADUANgAwADsAIAAzADQAMwAwADsAIAAzADIAMQAwADsAIAAzADAANgAwADsAIAAyADgAMQAwADsAIAAyADYAOAAwADsAIAAyADUANwAwADsAIAAyADMAOAAwAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAAYQByAHIAUwBwAGEAbgAsACAAewBcAG4AIAAgACAAIAAgACAAXAAiAFwAIgA7ACAAXAAiAFwAIgA7ACAAXAAiAFwAIgA7ACAAMgAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMQA5ADAAMAA7ACAAMgA0ADAAMAA7ACAAMgAwADAAMAA7ACAAMQA4ADAAMAA7ACAAMQA5ADAAMAA7AFwAbgAgACAAIAAgACAAIAA1ADQAMAAwADsAIAA1ADQAMAAwADsAIAAzADYAMAAwADsAIAA2ADAAMAA7ACAANwAwADAAOwAgADEAMgAwADAAOwAgADUAMAAwADsAIAAxADcAMAAwADsAIAAxADYAMAAwADsAIAAxADAAMAAwADsAXABuACAAIAAgACAAIAAgADQAMAAwADsAIAA1ADAAMAA7ACAAMgAwADAAOwAgADMANQAwADsAIAAxADUAMAA7ACAAMQA5ADAAOwAgADEANQAwADsAIAAxADcAMAA7ACAAMQA5ADAAOwAgADEAOAAwADsAXABuACAAIAAgACAAIAAgADIAMAAwADsAIAAyADAAMAA7ACAANwAwADsAIAA4ADAAOwAgADEAMgAwADsAIAAyADAAMAA7ACAANwAwADsAIAAxADAAMAA7ACAAMQAzADAAOwBcAG4AIAAgACAAIAAgACAAMQAyADAAOwAgADcAMAA7ACAAOQAwADsAIAA1ADAAOwAgADQAMAA7ACAAMgAwADsAIAA2ADAAOwAgADUAMAA7ACAANwAwADsAIAAxADAAMAA7AFwAbgAgACAAIAAgACAAIAAxADEAMAA7ACAAMQAwADAAOwAgADcAMAA7ACAAMgA3ADAAOwAgADIAMwAwADsAIAAxADYAMAA7ACAAMQA0ADAAOwAgADIAMAAwADsAIAAxADEAMAA7ACAANgAwADsAXABuACAAIAAgACAAIAAgADgAMAA7ACAAMQA5ADAAOwAgADEAMAAwADsAIAAxADMAMAA7ACAAMgAyADAAOwAgADEANQAwADsAIAAyADUAMAA7ACAAMQAzADAAOwAgADEAMQAwADsAIAAxADkAMAA7ACAAMgA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAEkAZgAgAG4AbwAgAHQAeQBwAGUAIABpAHMAIABzAHAAZQBjAGkAZgBpAGUAZAAsACAAZABpAHMAcABsAGEAeQAgAGYAdQBsAGwAIAB0AGEAYgBsAGUAIAAtAC0ALQBcAG4AIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABCAFkAUgBPAFcAKABIAFMAVABBAEMASwAoAGEAcgByAFQAeQBwAGUAcwAsACAAYQByAHIAVABIAGkAZwBoACwAIABhAHIAcgBTAHAAYQBuACkALABcAG4AIAAgACAAIAAgACAATABBAE0AQgBEAEEAKAByAG8AdwAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiADsAIABcACIALAAgAFQAUgBVAEUALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKAByAG8AdwAsACAAMgApACwAIABcACIAMABcACIAKQAsACAAVABFAFgAVAAoAEkATgBEAEUAWAAoAHIAbwB3ACwAIAAzACkALAAgAFwAIgAwAFwAIgApACkAKQBcAG4AIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAE4AdQBtAGIAZQByAHMALAAgAFMARQBRAFUARQBOAEMARQAoADEAMAAsADEALAAwACwAMQApACwAXABuACAAIAAgACAATwBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAE8AXAAiACkALABcAG4AIAAgACAAIABCAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIAQgBcACIAKQAsAFwAbgAgACAAIAAgAEEAXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBBAFwAIgApACwAXABuACAAIAAgACAARgBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAEYAXAAiACkALABcAG4AIAAgACAAIABHAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIARwBcACIAKQAsAFwAbgAgACAAIAAgAEsAXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBLAFwAIgApACwAXABuACAAIAAgACAATQBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAE0AXAAiACkALABcAG4AXABuACAAIAAgACAAZgB1AGwAbABUAGEAYgBsAGUALAAgAFYAUwBUAEEAQwBLACgASABlAGEAZABlAHIAcwAsACAASABTAFQAQQBDAEsAKABOAHUAbQBiAGUAcgBzACwATwBfAFMAdABhAHIAcwAsACAAQgBfAFMAdABhAHIAcwAsACAAQQBfAFMAdABhAHIAcwAsACAARgBfAFMAdABhAHIAcwAsACAARwBfAFMAdABhAHIAcwAsACAASwBfAFMAdABhAHIAcwAsACAATQBfAFMAdABhAHIAcwApACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAGYAIAB0AHkAcABlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQALAAgAGoAdQBzAHQAIAByAGUAdAB1AHIAbgAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AIABiAHIAZQBhAGsAZABvAHcAbgAgAC0ALQAtAFwAbgAgACAAIAAgAHQAZQBtAHAAcwAsACAARgBJAEwAVABFAFIAKABhAHIAcgBUAEgAaQBnAGgALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAgADEAKQAgAD0AIAB0AHkAcABlACkALABcAG4AIAAgACAAIABzAHAAYQBuAHMALAAgAEYASQBMAFQARQBSACgAYQByAHIAUwBwAGEAbgAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsACAAMQApACAAPQAgAHQAeQBwAGUAKQAsAFwAbgAgACAAIAAgAHQAeQBwAGUASABlAGEAZAAsACAASABTAFQAQQBDAEsAKAB0AHkAcABlACwAIABcACIAcwBwAGEAbgBcACIAKQAsAFwAbgAgACAAIAAgAHMAbABpAG0AVABhAGIAbABlACwAIABWAFMAVABBAEMASwAoAHQAeQBwAGUASABlAGEAZAAsACAASABTAFQAQQBDAEsAKAB0AGUAbQBwAHMALAAgAHMAcABhAG4AcwApACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABGAGkAbgBhAGwAIABvAHUAdABwAHUAdAA6ACAAZgB1AGwAbAAgAHQAYQBiAGwAZQAgAG8AcgAgAGYAaQBsAHQAZQByAGUAZAAgAGMAbwBsAHUAbQBuAHMAXABuACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAEkARgAoAEkAUwBCAEwAQQBOAEsAKAB0AHkAcABlACkALAAgAGYAdQBsAGwAVABhAGIAbABlACwAIABzAGwAaQBtAFQAYQBiAGwAZQApACwAXABuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgAvACoAIABTAFQAQQBSAF8AUwBDAEEATABFAF8AVABFAE0AUABcAG4AXABuAFIAZQB0AHUAcgBuAHMAIABzAHQAYQByACAAYQB0AHQAcgBpAGIAdQB0AGUAcwAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIABmAHIAbwBtACAAcwBvAGwAYQByACAAdABlAG0AcABcAG4AKgAvAFwAbgBTAFQAQQBSAF8AUwBDAEEATABFAF8AVABFAE0AUAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQBtAHAALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AF8AdABlAG0AcAAsACAAXAAiAFQALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAxAC4AOAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADcALgA1ADcANwA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAAMgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAALQA1ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABfAHQAZQBtAHAALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIAXwBTAEMAQQBMAEUAXwBLAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABrAGUAbAB2AGkAbgAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAXwB0AGUAbQBwACwAIABcACIASwAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAawBlAGwAdgBpAG4ALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAZQBtAHAALAAgAGsAZQBsAHYAaQBuACAALwAgADUAOAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFQAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAXAAiAFIAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAB0AGUAbQBwACAAXgAgADEALgA4ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHQAZQBtAHAAIABeACAANwAuADUANwA3ADgALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAFwAIgBNADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAZgBlAHQAaQBtAGUALAAgAFwAIgBWADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAdABlAG0AcAAgAF4AIAAtADUALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAXwB0AGUAbQBwACwAIABzAG8AbABhAHIALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFMAVABBAFIAXwBNAEEAUwBTACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAXwBtAGEAcwBzACwAIABcACIATQAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAbQBhAHMAcwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABcACIAVAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAFMAUQBSAFQAKABtAGEAcwBzACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAUwBRAFIAVAAoAG0AYQBzAHMAKQAgACoAIAA1ADgAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABzAG8AbABhAHIALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABcACIAUgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAG0AYQBzAHMAIABeACAAMAAuADkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFwAIgBMADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbQBhAHMAcwAgAF4AIAAzAC4ANwA4ADgAOQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAFMAUQBSAFQAKABtAGEAcwBzACkAIABeACAALQA1ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABrAGUAbAB2AGkAbgAsACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABzAF8AbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAGwAaQBmAGUAdABpAG0AZQApACwAXABuACAAIAAgACAAIAAgACAAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAaQBzAHQALAAgAFwAIgB8AFwAIgApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFMAVABBAFIAXwBSAEEARABTACAAPQAgAEwAQQBNAEIARABBACgAcgBhAGQAaQB1AHMALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABzAG8AbABhAHIALAAgAFwAIgBSAC0APgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABcACIAVAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHIAYQBkAGkAdQBzACAAXgAgACgAMQAgAC8AIAAxAC4AOAApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABrAGUAbAB2AGkAbgAsACAAXAAiAEsAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAAoAHIAYQBkAGkAdQBzACAAXgAgACgAMQAgAC8AIAAxAC4AOAApACkAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAXAAiAEwAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKAByAGEAZABpAHUAcwAgAF4AIAA0AC4AMgAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHIAYQBkAGkAdQBzACAAXgAgADEALgAxADEANAAyADcAMAAwADEANwA3ADcANwA3ADgAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAGYAZQB0AGkAbQBlACwAIABcACIAVgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAHIAYQBkAGkAdQBzACAAXgAgACgAMQAgAC8AIAAtADAALgAzADYAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAawBlAGwAdgBpAG4ALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAbQBhAHMAcwAsACAAcwBvAGwAYQByACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABsAGkAZgBlAHQAaQBtAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFQAQQBSAF8ATABVAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAFwAIgBUADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANwAuADYAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBlAGwAdgBpAG4ALAAgAFwAIgBLADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAA3AC4ANQA3ADcAOAApACkAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBfAGwAdQBtACwAIABcACIATAAtAD4AIABcACIAIAAmACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAFwAIgBSADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANAAuADIAMgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABeACAAKAAxACAALwAgADMALgA3ADgAOAA5ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBmAGUAdABpAG0AZQAsACAAXAAiAFYAOgAgAFwAIgAgACYAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAAtADEALgA1ADIAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABpAHMAdAAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAsACAAawBlAGwAdgBpAG4ALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAsACAAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAHMAXwBsAHUAbQAsACAAbABpAGYAZQB0AGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFQAQQBSAEwAVQBNAFMAIAA9ACAATABBAE0AQgBEAEEAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANgAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABhAGIAZQBsAHMALAAgAFQAUgBBAE4AUwBQAE8AUwBFACgAewBcACIASwA6AFwAIgAsACAAXAAiAFQAOgBcACIALAAgAFwAIgBNADoAXAAiACwAIABcACIAUgA6AFwAIgAsACAAXAAiAEwAfQBcACIALAAgAFwAIgBWADoAXAAiAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVAAsACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANwAuADUANwA3ADgAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAASwAsACAAUgBPAFUATgBEACgAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAA3AC4ANQA3ADcAOAApACkAIAAqACAANQA4ADAAMAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAATAAsACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAAUgBPAFUATgBEACgAbAB1AG0AaQBuAG8AcwBpAHQAeQAgAF4AIAAoADEAIAAvACAANAAuADIAMgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAAzAC4ANwA4ADgAOQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABWACwAIABSAE8AVQBOAEQAKABsAHUAbQBpAG4AbwBzAGkAdAB5ACAAXgAgACgAMQAgAC8AIAAtADEALgA1ADIAKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQB0AHQAcgBpAGIAcwAsACAAVABFAFgAVABKAE8ASQBOACgAXAAiACwAXAAiACwAIAAsACAASwAsACAAVAAsACAATQAsACAAUgAsACAATAAsACAAVgApACwAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbAB1AGUAcwAsACAAVABSAEEATgBTAFAATwBTAEUAKABUAEUAWABUAFMAUABMAEkAVAAoAGEAdAB0AHIAaQBiAHMALAAgAFwAIgAsAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEMASABPAE8AUwBFACgAewAxACwAIAAyAH0ALAAgAGwAYQBiAGUAbABzACwAIAB2AGEAbAB1AGUAcwApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBTAFQAQQBSAF8ATABJAEYARQAgAD0AIABMAEEATQBCAEQAQQAoAGwAaQBmAGUAdABpAG0AZQAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADYALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbwBsAGEAcgAsACAAXAAiAFYALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAaQBmAGUAdABpAG0AZQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACwAIABcACIAVAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAaQBmAGUAdABpAG0AZQAgAF4AIAAoADEAIAAvACAALQA1ACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGsAZQBsAHYAaQBuACwAIABcACIASwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoACgAbABpAGYAZQB0AGkAbQBlACAAXgAgACgAMQAgAC8AIAAtADUAKQApACAAKgAgADUAOAAwADAALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABcACIAUgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAaQBmAGUAdABpAG0AZQAgAF4AIAAoAC0AMAAuADMANgApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABcACIATQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAaQBmAGUAdABpAG0AZQAgAF4AIAAoADEAIAAvACAALQAyAC4ANQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABcACIATAA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAGwAaQBmAGUAdABpAG0AZQAgAF4AIAAtADEALgA1ADIALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgB8AFwAIgAsACAALAAgAGsAZQBsAHYAaQBuACwAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABsAHUAbQBpAG4AbwBzAGkAdAB5ACwAIABzAG8AbABhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgAVABFAFgAVABTAFAATABJAFQAKABsAGkAcwB0ACwAIABcACIAfABcACIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKAB0AGUAbQBwACwAIABbAG0AbwBkAGUAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAdABlAG0AcAAsACAAaQBmAHMAKAB0AGUAbQBwADwANgAwADAALAA2ADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAPgA1ADUAMAAwADAALAA1ADUAMAAwADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAVQBFACwAIAB0AGUAbQBwACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALAAgAEkARgAoAE8AUgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBvAGQAZQApACwAIABtAG8AZABlACAAPgAgADEAKQAsACAAMAAsACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAAcAByAGUAYwAgADwAIAAwACkALAAgADMALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABoAHIAZQBzAGgAbwBsAGQAcwAsACAAewA1ADUAMAAwADAALAAgADIANQAwADAAMAAsACAAMQAwADAAMAAwACwAIAA3ADUAMAAwACwAIAA2ADAAMAAwACwAIAA1ADAAMAAwACwAIAAzADUAMAAwACwAIAAyADQAMAAwACwAIAAxADMAMAAwACwAIAA2ADAAMAAsACAAMwAwADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALAAgAHsAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiACwAIABcACIATABcACIALAAgAFwAIgBUAFwAIgAsACAAXAAiAFkAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHEAXwB2AGEAbABzACwAIAB7ADMAMAAwADAALAAgADEANQAwADAALAAgADIANQAwACwAIAAxADUAMAAsACAAMQAwADAALAAgADEANQAwACwAIAAxADEAMAAsACAAMQAxADAALAAgADcAMAAsACAAMwAwAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGkAbgBkAGUAeAAsACAATQBBAFQAQwBIACgAVABSAFUARQAsACAAdABlAG0AcAAgAD4AIAB0AGgAcgBlAHMAaABvAGwAZABzACwAIAAwACkAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBfAHQAeQBwAGUALAAgAEkATgBEAEUAWAAoAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIABpAG4AZABlAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAawBfAG0AYQB4ACwAIABJAE4ARABFAFgAKAB0AGgAcgBlAHMAaABvAGwAZABzACwAIABpAG4AZABlAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAHYAYQBsACwAIABJAE4ARABFAFgAKABxAF8AdgBhAGwAcwAsACAAaQBuAGQAZQB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwBfAG4AdQBtACwAIAAoAGsAXwBtAGEAeAAgAC0AIAB0AGUAbQBwACkAIAAvACAAcQBfAHYAYQBsACwAXABuACAAIAAgACAAIAAgACAAIABzAF8AYwBsAGEAcwBzACwAIABJAEYAKABjAGwAYQBzAHMAXwBuAHUAbQAgAD0AIAAxADAALAAgADkALgA5ADkAOQAsACAAYwBsAGEAcwBzAF8AbgB1AG0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFMAVwBJAFQAQwBIACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAIABzAF8AdAB5AHAAZQAgACYAIABcACIAIABcACIAIAAmACAARgBJAFgARQBEACgAcwBfAGMAbABhAHMAcwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALAAgAHQAZQBtAHAAIAAmACAAXAAiACAAPQAgAFwAIgAgACYAIABzAF8AdAB5AHAAZQAgACYAIABGAEkAWABFAEQAKABzAF8AYwBsAGEAcwBzACwAIABwAHIAZQBjACkALAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFQARQBNAFAAXwBGAFIATwBNAF8AVABZAFAARQAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgATwBSACgASQBTAE8ATQBJAFQAVABFAEQAKABtAG8AZABlACkALAAgAG0AbwBkAGUAIAA+ACAAMQApACwAIAAwACwAIABtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAbgBwAHUAdAAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAGkAbgAsACAAXAAiACAAXAAiACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbABhAHMAcwAsACAATABFAEYAVAAoAGkAbgBwAHUAdAAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIABzAHUAYgAsACAAUgBJAEcASABUACgAaQBuAHAAdQB0ACwAIABMAEUATgAoAGkAbgBwAHUAdAApACAALQAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABoAHIAZQBzAGgAbwBsAGQAcwAsACAAewA1ADUAMAAwADAALAAgADIANQAwADAAMAAsACAAMQAwADAAMAAwACwAIAA3ADUAMAAwACwAIAA2ADAAMAAwACwAIAA1ADAAMAAwACwAIAAzADUAMAAwACwAIAAyADQAMAAwACwAIAAxADMAMAAwACwAIAA2ADAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAewBcACIATwBcACIALAAgAFwAIgBCAFwAIgAsACAAXAAiAEEAXAAiACwAIABcACIARgBcACIALAAgAFwAIgBHAFwAIgAsACAAXAAiAEsAXAAiACwAIABcACIATQBcACIALAAgAFwAIgBMAFwAIgAsACAAXAAiAFQAXAAiACwAIABcACIAWQBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAHYAYQBsAHMALAAgAHsAMwAwADAAMAAsACAAMQA1ADAAMAAsACAAMgA1ADAALAAgADEANQAwACwAIAAxADAAMAAsACAAMQA1ADAALAAgADEAMQAwACwAIAAxADEAMAAsACAANwAwACwAIAAzADAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHgAXwB0AGUAbQBwACwAIABYAEwATwBPAEsAVQBQACgAYwBsAGEAcwBzACwAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAdABoAHIAZQBzAGgAbwBsAGQAcwApACwAXABuACAAIAAgACAAIAAgACAAIABxAF8AZgBhAGMAdABvAHIALAAgAFgATABPAE8ASwBVAFAAKABjAGwAYQBzAHMALAAgAGMAbABhAHMAcwBpAGYAaQBjAGEAdABpAG8AbgBzACwAIABxAF8AdgBhAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABrAF8AdABlAG0AcAAsACAAbQBhAHgAXwB0AGUAbQBwACAALQAgACgAcwB1AGIAIAAqACAAcQBfAGYAYQBjAHQAbwByACkALABcAG4AIAAgACAAIAAgACAAIAAgAFMAVwBJAFQAQwBIACgAbQBvAGQAZQAsACAAMAAsACAAawBfAHQAZQBtAHAALAAgADEALAAgAGkAbgBwAHUAdAAgACYAIABcACIAIAA9ACAAXAAiACAAJgAgAGsAXwB0AGUAbQBwACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUwBQAEUAQwBUAFIAQQBMAF8AQwBMAEEAUwBTAF8ARABBAFQAQQAgAD0AIABMAEEATQBCAEQAQQAoAFsAbgB1AGwAbABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGgAZQBhAGQAZQByAHMALAAgAHsAXAAiAFQAeQBwAGUAXAAiADsAIABcACIATQBpAG4AXAAiADsAIABcACIATQBhAHgAXAAiADsAIABcACIAUwBwAGEAbgBcACIAOwAgAFwAIgBxAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAB0AHkAcABlAHMALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMQApACwAIAB7AFwAIgBPAFwAIgA7ACAAXAAiAEIAXAAiADsAIABcACIAQQBcACIAOwAgAFwAIgBGAFwAIgA7ACAAXAAiAEcAXAAiADsAIABcACIASwBcACIAOwAgAFwAIgBNAFwAIgA7ACAAXAAiAEwAXAAiADsAIABcACIAVABcACIAOwAgAFwAIgBZAFwAIgB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AaQBuACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADIAKQAsACAAewAyADUAMAAwADAAOwAgADEAMAAwADAAMAA7ACAANwA1ADAAMAA7ACAANgAwADAAMAA7ACAANQAwADAAMAA7ACAAMwA1ADAAMAA7ACAAMgA0ADAAMAA7ACAAMQAzADAAMAA7ACAANgAwADAAOwAgADMAMAAwAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBhAHgALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMwApACwAIAB7ADUANQAwADAAMAA7ACAAMgA1ADAAMAAwADsAIAAxADAAMAAwADAAOwAgADcANQAwADAAOwAgADYAMAAwADAAOwAgADUAMAAwADAAOwAgADMANQAwADAAOwAgADIANAAwADAAOwAgADEAMwAwADAAOwAgADYAMAAwAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcQBfAHYAYQBsAHMALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAANQApACwAIAB7ADMAMAAwADAAOwAgADEANQAwADAAOwAgADIANQAwADsAIAAxADUAMAA7ACAAMQAwADAAOwAgADEANQAwADsAIAAxADEAMAA7ACAAMQAxADAAOwAgADcAMAA7ACAAMwAwAH0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAG4AZwBlAHMALAAgAHsAMwAwADAAMAAwADsAIAAxADUAMAAwADAAOwAgADIANQAwADAAOwAgADEANQAwADAAOwAgADEAMAAwADAAOwAgADEANQAwADAAOwAgADEAMQAwADAAOwAgADEAMQAwADAAOwAgADcAMAAwADsAIAAzADAAMAB9ACwAXABuACAAIAAgACAAIAAgACAAIABzAHAAYQBuACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADQAKQAsACAAcgBhAG4AZwBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIALAAgADMALAAgADQALAAgADUAfQAsACAAdAB5AHAAZQBzACwAIABtAGkAbgAsACAAbQBhAHgALAAgAHMAcABhAG4ALAAgAHEAXwB2AGEAbABzACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AUwBQAEUAQwBfAEwASQBTAFQAIAA9ACAATABBAE0AQgBEAEEAKABbAG4AdQBsAGwAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AcwAsACAAewBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE8AOgAgADIANQAwADAAMAAgAC0AIAA1ADUAMAAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBCADoAIAAxADAAMAAwADAAIAAtACAAMgA1ADAAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAQQA6ACAANwA1ADAAMAAgAC0AIAAxADAAMAAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBGADoAIAA2ADAAMAAwACAALQAgADcANQAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBHADoAIAA1ADAAMAAwACAALQAgADYAMAAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBLADoAIAAzADUAMAAwACAALQAgADUAMAAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNADoAIAAyADQAMAAwACAALQAgADMANQAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBMADoAIAAxADMAMAAwACAALQAgADIANAAwADAAXAAiADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUADoAIAA2ADAAMAAgAC0AIAAxADMAMAAwAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAWQA6ACAAMwAwADAAIAAtACAANgAwADAAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAXwBUAEEAQgBMAEUAIAA9ACAATABBAE0AQgBEAEEAKABbAG4AdQBsAGwAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkAGUAYwAsACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAewBcACIAWgBvAG4AZQBcACIAOwAgAFwAIgBJAG4AbgBlAHIAXAAiADsAIABcACIATwB1AHQAZQByAFwAIgA7ACAAXAAiAEEAdgBlAHIAYQBnAGUAXAAiADsAIABcACIAUwBwAGEAbgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAbABhAGIAZQBsAHMALAAgAHsAXAAiAFoAMAAgACgASQBnAG4AaQBvAC0AKQBcACIAOwAgAFwAIgBaADEAIAAoAEMAYQBsAG8AcgBvAC0AKQBcACIAOwAgAFwAIgBaADIAIAAoAEgAZQBsAGkAbwAtACkAXAAiADsAIABcACIAWgAzACAAKABTAG8AbABhAHIAYQAtACkAXAAiADsAIABcACIAWgA0ACAAKABTAHUAcgB5AGEALQApAFwAIgA7ACAAXAAiAFoANQAgACgARgByAGkAbwAtACkAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGkAbgBuAGUAcgAsACAAewAwADsAIAAwAC4ANQA7ACAAMAAuADcANQA7ACAAMAAuADkANQA7ACAAMQAuADMAOAA1ADsAIAAxAC4ANwA3AH0ALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AGUAcgAsACAAewAwAC4ANQA7ACAAMAAuADcANQA7ACAAMAAuADkANQA7ACAAMQAuADMAOAA1ADsAIAAxAC4ANwA3ADsAIAA0AC4AOAA1AH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGEAdgBlAHIAYQBnAGUALAAgAHsAMAAuADIANQA7ACAAMAAuADYAMgA1ADsAIAAwAC4AOAA1ADsAIAAxAC4AMQA2ADcANQA7ACAAMQAuADUANwA3ADUAOwAgADMALgAzADEAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBwAGEAbgAsACAAewAwAC4ANQA7ACAAMAAuADIANQA7ACAAMAAuADIAOwAgADAALgA0ADMANQA7ACAAMAAuADMAOAA1ADsAIAAzAC4AMAA4AH0ALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwBsAF8AMQAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAxACkALAAgAGwAYQBiAGUAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAbwBsAF8AMgAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABoAGUAYQBkAGUAcgBzACwAIAAyACkALAAgAFIATwBVAE4ARAAoAGkAbgBuAGUAcgAsACAAZABlAGMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABfADMALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAAMwApACwAIABSAE8AVQBOAEQAKABvAHUAdABlAHIALAAgAGQAZQBjACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAXwA0ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGgAZQBhAGQAZQByAHMALAAgADQAKQAsACAAUgBPAFUATgBEACgAYQB2AGUAcgBhAGcAZQAsACAAZABlAGMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbABfADUALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAaABlAGEAZABlAHIAcwAsACAANQApACwAIABSAE8AVQBOAEQAKABzAHAAYQBuACwAIABkAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAEMASABPAE8AUwBFACgAewAxACwAIAAyACwAIAAzACwAIAA0ACwAIAA1AH0ALAAgAGMAbwBsAF8AMQAsACAAYwBvAGwAXwAyACwAIABjAG8AbABfADMALAAgAGMAbwBsAF8ANAAsACAAYwBvAGwAXwA1ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ASABBAEIAWgBPAE4ARQBTACAAPQAgAEwAQQBNAEIARABBACgAbAB1AG0ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjAGkAcwBpAG8AbgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAAzACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABuAHUAYwBsAGUAYQBsACwAIABSAE8AVQBOAEQAKABTAFEAUgBUACgAbAB1AG0AKQAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAATgAsACAAXAAiAE4ALQA+ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoAFMAUQBSAFQAKABsAHUAbQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADAALAAgAFwAIgAwADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAMAAuADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAxACwAIABcACIAMQA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADAALgA3ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAyACwAIABcACIAMgA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADAALgA5ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAzACwAIABcACIAMwA6ACAAXAAiACAAJgAgAFIATwBVAE4ARAAoADEALgAzADgANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADQALAAgAFwAIgA0ADoAIABcACIAIAAmACAAUgBPAFUATgBEACgAMQAuADcANwAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADUALAAgAFwAIgA1ADoAIABcACIAIAAmACAAUgBPAFUATgBEACgANAAuADgANQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAfABcACIALAAgACwAIABaAG8AbgBlADAALAAgAFoAbwBuAGUAMQAsACAAWgBvAG4AZQAyACwAIABOACwAIABaAG8AbgBlADMALAAgAFoAbwBuAGUANAAsACAAWgBvAG4AZQA1ACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQATwBDAE8ATAAoAFQARQBYAFQAUwBQAEwASQBUACgAbABpAHMAdAAsACAAXAAiAHwAXAAiACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBIAEEAQgBfAFoATwBOAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGwAdQBtACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbABhAGIAZQBsAHMALAAgAHsAXAAiADAAOgAgAFwAIgAsACAAXAAiADEAOgAgAFwAIgAsACAAXAAiADIAOgAgAFwAIgAsACAAXAAiAE4ALQA+ACAAXAAiACwAIABcACIAMwA6ACAAXAAiACwAIABcACIANAA6ACAAXAAiACwAIABcACIANQA6ACAAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AdQBjAGwAZQBhAGwALAAgAFIATwBVAE4ARAAoAFMAUQBSAFQAKABsAHUAbQApACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABaAF8AMAAsACAAUgBPAFUATgBEACgAMAAuADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADEALAAgAFIATwBVAE4ARAAoADAALgA3ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADIALAAgAFIATwBVAE4ARAAoADAALgA5ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfAE4ALAAgAG4AdQBjAGwAZQBhAGwALABcAG4AIAAgACAAIAAgACAAIAAgAFoAXwAzACwAIABSAE8AVQBOAEQAKAAxAC4AMwA4ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADQALAAgAFIATwBVAE4ARAAoADEALgA3ADcAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBfADUALAAgAFIATwBVAE4ARAAoADQALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQAwACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAAxACkALAAgAFoAXwAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMQAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAAMgApACwAIABaAF8AMQApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADIALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADMAKQAsACAAWgBfADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQBOACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAA0ACkALAAgAFoAXwBOACkALABcAG4AIAAgACAAIAAgACAAIAAgAFoAbwBuAGUAMwAsACAAVgBTAFQAQQBDAEsAKABJAE4ARABFAFgAKABsAGEAYgBlAGwAcwAsACAANQApACwAIABaAF8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABaAG8AbgBlADQALAAgAFYAUwBUAEEAQwBLACgASQBOAEQARQBYACgAbABhAGIAZQBsAHMALAAgADYAKQAsACAAWgBfADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAWgBvAG4AZQA1ACwAIABWAFMAVABBAEMASwAoAEkATgBEAEUAWAAoAGwAYQBiAGUAbABzACwAIAA3ACkALAAgAFoAXwA1ACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQAUgBBAE4AUwBQAE8AUwBFACgAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIALAAgADMALAAgADQALAAgADUALAAgADYALAAgADcAfQAsACAAWgBvAG4AZQAwACwAIABaAG8AbgBlADEALAAgAFoAbwBuAGUAMgAsACAAWgBvAG4AZQBOACwAIABaAG8AbgBlADMALAAgAFoAbwBuAGUANAAsACAAWgBvAG4AZQA1ACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBTAFQAQQBSAFMAXwBQAEUAUgBfAEMAVQBCAEkAQwBfAFYATwBMACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIABbAHAAcgBlAGMAXQAsACAAWwBtAG8AZABlAF0ALABcAG4AXABuAEwARQBUACgAXABuACAAIAAgACAAbQBvAGQAZQAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAbQBvAGQAZQApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA8ADAAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlAD4AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACkALABcAG4AIAAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAB2AG8AbAB1AG0AZQAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAwACwAIABpAG4AcAB1AHQALABcAG4AIAAgACAAIAAgACAAIAAgADEALAAgACgANAAvADMAKQAqAHAAaQAoACkAKgBpAG4AcAB1AHQAXgAzAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAHIAbwB1AG4AZAAoAHAAbwB3AGUAcgAoACgAdgBvAGwAdQBtAGUAKgAzACkALwAoADQAKgBwAGkAKAApACkALAAxAC8AMwApACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgADEALAAgAGkAbgBwAHUAdABcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABzAHQAYQByAHMALAAgAHIAbwB1AG4AZAAoAHYAbwBsAHUAbQBlAC8AMgA1ADAALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAHQAbwBjAG8AbAAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAdABlAHgAdABqAG8AaQBuACgAXAAiADsAIABcACIALAAsACAAcwB0AGEAcgBzACwAIAByAGEAZABpAHUAcwApACwAXAAiADsAIABcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIAB0AG8AYwBvAGwAKAB0AGUAeAB0AHMAcABsAGkAdAAoAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7ACAAXAAiACwALAAgAHIAbwB1AG4AZAAoAHMAdABhAHIAcwAsADAAKQAsACAAcgBvAHUAbgBkACgAdgBvAGwAdQBtAGUALAAwACkAKQAsAFwAIgA7ACAAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AQwBVAEIASQBDAF8AVgBPAEwAVQBNAEUAXwBQAEUAUgBfAFMAVABBAFIAUwAgAD0AIABMAEEATQBCAEQAQQAoAHMAdABhAHIAcwAsACAAWwBwAHIAZQBjAF0ALAAgAFsAbQBvAGQAZQBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAG0AbwBkAGUAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAG0AbwBkAGUAPAAwACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA+ADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAcAByAGUAYwAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAcAByAGUAYwApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAcAByAGUAYwA8ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwApACwAXABuACAAIAAgACAAdgBvAGwAdQBtAGUALAAgAHIAbwB1AG4AZAAoAHMAdABhAHIAcwAqADIANQAwACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABzAGkAZABlACwAIAByAG8AdQBuAGQAKABwAG8AdwBlAHIAKAB2AG8AbAB1AG0AZQAsADEALwAzACkALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHIAYQBkAGkAdQBzACwAIAByAG8AdQBuAGQAKABwAG8AdwBlAHIAKAAoAHYAbwBsAHUAbQBlACoAMwApAC8AKAA0ACoAcABpACgAKQApACwAMQAvADMAKQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAHMAdwBpAHQAYwBoACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAMAAsACAAdgBvAGwAdQBtAGUALABcAG4AIAAgACAAIAAgACAAIAAgADEALAAgAHQAbwBjAG8AbAAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAdABlAHgAdABqAG8AaQBuACgAXAAiADsAIABcACIALAAsACAAdgBvAGwAdQBtAGUALAAgAHMAaQBkAGUAKQAsAFwAIgA7ACAAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAAdABvAGMAbwBsACgAdABlAHgAdABzAHAAbABpAHQAKAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwAgAFwAIgAsACwAIAB2AG8AbAB1AG0AZQAsACAAcwBpAGQAZQAsACAAcgBhAGQAaQB1AHMAKQAsAFwAIgA7ACAAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBQAEwAQQBOAEUAVABfAEEAUwBUAFIATwBNAEUAVABSAEkAQwBTACAAPQAgAEwAQQBNAEIARABBACgAZgBpAHIAcwB0ACwAIABzAGUAYwBvAG4AZAAsACAAWwBtAG8AZABlAF0ALAAgAFsAcAByAGUAYwBdACwAXABuAFwAbgAvACoAIABNAE8ARABFAFMAXABuAFwAbgAgACAAIAAgADAAOgAgAG0ALAAgAGQAXABuACAAIAAgACAAMQA6ACAAbQAsACAAcgBcAG4AIAAgACAAIAAyADoAIABtACwAIABnAFwAbgAgACAAIAAgADMAOgAgAHIALAAgAGQAXABuACAAIAAgACAANAA6ACAAcgAsACAAZwBcAG4AIAAgACAAIAA1ADoAIABkACwAIABnAFwAbgAgACAAIAAgADYAOgAgAGQALAAgAHYAXABuACAAIAAgACAANwA6ACAAZwAsACAAdgBcAG4AIAAgACAAIAA4ADoAIABtACwAIAB2AFwAbgAgACAAIAAgADkAOgAgAHIALAAgAHYAXABuAFwAbgAqAC8AXABuAEwARQBUACgAXABuACAAIAAgACAAcAByAGUAYwAsACAAaQBmACgAXABuACAAIAAgACAAIAAgACAAIAAoAGkAcwBvAG0AaQB0AHQAZQBkACgAcAByAGUAYwApACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAcAByAGUAYwA8ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIABtAG8AZABlACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABtAG8AZABlACkAKwBcAG4AIAAgACAAIAAgACAAIAAgACgAbQBvAGQAZQA8ADAAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABtAG8AZABlAD4AOQApACkALABcAG4AIAAgACAAIAAgACAAIAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUAXABuACAAIAAgACAAIAAgACAAIAApACwAIABcAG4AIAAgACAAIABsAGEAYgBlAGwAcwAsACAAcwB3AGkAdABjAGgAKABtAG8AZABlACwAIABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAFwAIgBNAD4AOwBSADoAOwBkAD4AOwBnADoAOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABcACIATQA+ADsAUgA+ADsAZAA6ADsAZwA6ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAAXAAiAE0APgA7AFIAOgA7AGQAOgA7AGcAPgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADMALAAgAFwAIgBNADoAOwBSAD4AOwBkAD4AOwBnADoAOwB2ADoAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA0ACwAIABcACIATQA6ADsAUgA+ADsAZAA6ADsAZwA+ADsAdgA6AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsACAAXAAiAE0AOgA7AFIAOgA7AGQAPgA7AGcAPgA7AHYAOgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAFwAIgBNADoAOwBSADoAOwBkAD4AOwBnADoAOwB2AD4AXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABcACIATQA6ADsAUgA6ADsAZAA6ADsAZwA+ADsAdgA+AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAAXAAiAE0APgA7AFIAOgA7AGQAOgA7AGcAOgA7AHYAPgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAFwAIgBNADoAOwBSAD4AOwBkADoAOwBnADoAOwB2AD4AXAAiAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABzAHcAaQB0AGMAaAAoAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAcABvAHcAZQByACgAbQBhAHMAcwAvAGQAZQBuAHMAaQB0AHkALAAzAF4ALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAcABvAHcAZQByACgAbQBhAHMAcwAqAGQAZQBuAHMAaQB0AHkAXgAyACwAMwBeAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABwAG8AdwBlAHIAKABtAGEAcwBzACoAcwBxAHIAdAAoAGQAZQBuAHMAaQB0AHkAKQAsADMAXgAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAG0AYQBzAHMALwByAGEAZABpAHUAcwBeADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAbQBhAHMAcwAvAHIAYQBkAGkAdQBzAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBxAHIAdAAoAG0AYQBzAHMALwByAGEAZABpAHUAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQBzAHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAcwBxAHIAdAAoAG0AYQBzAHMALwBnAHIAYQB2AGkAdAB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAcwBxAHIAdAAoAGcAcgBhAHYAaQB0AHkAXgAzAC8AbQBhAHMAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABwAG8AdwBlAHIAKABtAGEAcwBzACoAZwByAGEAdgBpAHQAeQAsADQAXgAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAHIAYQBkAGkAdQBzACoAZABlAG4AcwBpAHQAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABkAGUAbgBzAGkAdAB5ACoAcgBhAGQAaQB1AHMAXgAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIAByAGEAZABpAHUAcwAqAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANAAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5AC8AcgBhAGQAaQB1AHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZwByAGEAdgBpAHQAeQAqAHIAYQBkAGkAdQBzAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBxAHIAdAAoAGcAcgBhAHYAaQB0AHkAKgByAGEAZABpAHUAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADUALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGQAZQBuAHMAaQB0AHkALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABnAHIAYQB2AGkAdAB5ACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZwByAGEAdgBpAHQAeQAvAGQAZQBuAHMAaQB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZwByAGEAdgBpAHQAeQBeADMALwBkAGUAbgBzAGkAdAB5AF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAZwByAGEAdgBpAHQAeQAvAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAZgBpAHIAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGUAcwBjAGEAcABlACwAIABzAGUAYwBvAG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABlAHMAYwBhAHAAZQBeADMALwBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBkAGkAdQBzACwAIABlAHMAYwBhAHAAZQAvAHMAcQByAHQAKABkAGUAbgBzAGkAdAB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKgBzAHEAcgB0ACgAZABlAG4AcwBpAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgADcALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAZQBzAGMAYQBwAGUAXgA0AC8AZwByAGEAdgBpAHQAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAZABpAHUAcwAsACAAZQBzAGMAYQBwAGUAXgAyAC8AZwByAGEAdgBpAHQAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgBzAGkAdAB5ACwAIAAoAGcAcgBhAHYAaQB0AHkALwBlAHMAYwBhAHAAZQApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAOwBcACIALAAsAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABnAHIAYQB2AGkAdAB5ACwAIABlAHMAYwBhAHAAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAA4ACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAcwBzACwAIABmAGkAcgBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQBzAGMAYQBwAGUALAAgAHMAZQBjAG8AbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlAF4ANAAvAG0AYQBzAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAG0AYQBzAHMALwBlAHMAYwBhAHAAZQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAZQBzAGMAYQBwAGUAXgA2AC8AbQBhAHMAcwBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAdABlAHgAdABqAG8AaQBuACgAXAAiADsAXAAiACwALABtAGEAcwBzACwAIAByAGEAZABpAHUAcwAsACAAZABlAG4AcwBpAHQAeQAsACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAOQAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBhAGQAaQB1AHMALAAgAGYAaQByAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABlAHMAYwBhAHAAZQAsACAAcwBlAGMAbwBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZwByAGEAdgBpAHQAeQAsACAAZQBzAGMAYQBwAGUAXgAyAC8AcgBhAGQAaQB1AHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMAKgBlAHMAYwBhAHAAZQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABlAG4AcwBpAHQAeQAsACAAKABlAHMAYwBhAHAAZQAvAHIAYQBkAGkAdQBzACkAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQB4AHQAagBvAGkAbgAoAFwAIgA7AFwAIgAsACwAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAGcAcgBhAHYAaQB0AHkALAAgAGUAcwBjAGEAcABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgAGwAYQBiAGUAbABfAGwAaQBzAHQALAAgAHQAcgBhAG4AcwBwAG8AcwBlACgAdABlAHgAdABzAHAAbABpAHQAKABsAGEAYgBlAGwAcwAsAFwAIgA7AFwAIgApACkALABcAG4AIAAgACAAIAB2AGEAbAB1AGUAXwBsAGkAcwB0ACwAIAB0AHIAYQBuAHMAcABvAHMAZQAoAHQAZQB4AHQAcwBwAGwAaQB0ACgAbwB1AHQAcAB1AHQALAAgAFwAIgA7AFwAIgApACkALABcAG4AIAAgACAAIAAvAC8AdgBhAGwAdQBlAF8AbABpAHMAdABcAG4AIAAgACAAIABjAGgAbwBvAHMAZQAoAHsAMQAsADIAfQAsACAAbABhAGIAZQBsAF8AbABpAHMAdAAsACAAcgBvAHUAbgBkACgAdgBhAGwAdQBlACgAdgBhAGwAdQBlAF8AbABpAHMAdAApACwAcAByAGUAYwApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFMAWQBOAE8ARABJAEMAIAA9ACAATABBAE0AQgBEAEEAKABwACwAIABxACwAXABuAFwAbgAgACAAIAAgACgAcAAgACoAIABxACkAIAAvACAAQQBCAFMAKABwACAALQAgAHEAKQBcAG4AIAAgACAAIABcAG4AKQA7AFwAbgBcAG4AUwBNAEEATABMAEEATgBHAEwARQAgAD0AIABMAEEATQBCAEQAQQAoAGQAaQBhAG0AZQB0AGUAcgAsACAAZABpAHMAdABhAG4AYwBlACwAXABuAFwAbgAgACAAIAAgADAALgA1ADMAMgA5ADAANAAyADkANAAgACoAIAAoAGQAaQBhAG0AZQB0AGUAcgAgAC8AIABkAGkAcwB0AGEAbgBjAGUAKQBcAG4AIAAgACAAIABcAG4AKQA7AFwAbgBcAG4ATwBSAEIAXwBBAFgASQBTACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALAAgAHAAZQByAGkAbwBkACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AYQBzAHMAMgAsACAASQBGACgAKABJAFMATwBNAEkAVABUAEUARAAoAG0AYQBzAHMAMgApACkAKwAoAG0AYQBzAHMAMgAgAD0AIAAxACkALAAgADAALAAgAG0AYQBzAHMAMgAqADMALgAwADAAMwBFAC0ANgApACwAXABuACAAIAAgACAAYQB4AGkAcwAsACAAUABPAFcARQBSACgAKABQAE8AVwBFAFIAKABwAGUAcgBpAG8AZAAsACAAMgApACAAKgAgACgAbQBhAHMAcwAxACAAKwAgAG0AYQBzAHMAMgApACkALAAgADEAIAAvACAAMwApACwAXABuACAAIAAgACAAYQB4AGkAcwBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBPAFIAQgBfAFAARQBSAEkATwBEACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALAAgAGEAeABpAHMALABcAG4AXABuAEwARQBUACgAXABuACAAIAAgACAAbQBhAHMAcwAyACwAIABJAEYAKAAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBhAHMAcwAyACkAKQArACgAbQBhAHMAcwAyACAAPQAgADEAKQAsACAAMAAsACAAKABtAGEAcwBzADIAIAAqACAAMwAuADAAMAAyADcAMwBlAC0ANgApACkALABcAG4AIAAgACAAIABwAGUAcgBpAG8AZAAsACAAUwBRAFIAVAAoAFAATwBXAEUAUgAoAGEAeABpAHMALAAgADMAKQAgAC8AIAAoAG0AYQBzAHMAMQAgACsAIABtAGEAcwBzADIAKQApACwAXABuACAAIAAgACAAcABlAHIAaQBvAGQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AQwBSAE8AUwBTAEkATgBHAF8ATwBSAEIASQBUAF8AUABBAFIAQQBNAEUAVABFAFIAIAA9ACAATABBAE0AQgBEAEEAKABtAGEAcwBzADEALAAgAG0AYQBzAHMAMgAsAFwAbgBcAG4AQQBCAFMAKABtAGEAcwBzADEAIAAtACAAbQBhAHMAcwAyACkALwBBAEIAUwAoAG0AYQBzAHMAMQAgACsAbQBhAHMAcwAyACkAXABuAFwAbgApADsAXABuAFwAbgBcAG4AXABuAFAARQBSAEkATwBEAF8AQQBYAEkAUwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFwAbgBcAG4AIAAgACAAIABQAE8AVwBFAFIAKABQAE8AVwBFAFIAKABpAG4AcAB1AHQALAAgADIAKQAsACAAKAAxACAALwAgADMAKQApAFwAbgBcAG4AKQA7AFwAbgBcAG4ATwBSAEIAXwBTAFUATQBfAE0AQQBTAFMARQBTACAAPQAgAEwAQQBNAEIARABBACgAYQB4AGkAcwAsACAAcABlAHIAaQBvAGQALABcAG4AXABuAFAATwBXAEUAUgAoAGEAeABpAHMALAAgADMAKQAgAC8AIABQAE8AVwBFAFIAKABwAGUAcgBpAG8AZAAsACAAMgApAFwAbgApADsAXABuAFwAbgBTAFAASABFAFIASQBDAEEATABfAFQATwBfAEMAQQBSAFQARQBTAEkAQQBOACAAPQAgAEwAQQBNAEIARABBACgAcABoAGkALAAgAHQAaABlAHQAYQAsACAAcgAsACAAWwBwAHIAZQBjAF0ALABcAG4AXABuAEwARQBUACgAXABuACAAIAAgAHAAcgBlAGMALAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAKABpAHMAbwBtAGkAdAB0AGUAZAAoAHAAcgBlAGMAKQApACsAXABuACAAIAAgACAAIAAgACAAIAAoAHAAcgBlAGMAPAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAKQAsACAAIAAgACAAXABuACAAIAAgACAAegBfAG0AbwBkACwAIABzAGkAZwBuACgAdABoAGUAdABhACkALABcAG4AIAAgACAAIAB5AF8AbQBvAGQALAAgAHMAaQBnAG4AKABwAGgAaQApACwAXABuACAAIAAgACAAeABfAG0AbwBkACwAIABpAGYAKABhAGIAcwAoAHAAaABpACkAPAA5ADAALAAgADEALAAgAC0AMQApACwAXABuACAAIAAgACAALwAvAHgAXwBtAG8AZABcAG4AIAAgACAAIAAvAC8AdABlAHgAdABqAG8AaQBuACgAXAAiACwAXAAiACwALAB4AF8AbQBvAGQALAAgAHkAXwBtAG8AZAAsACAAegBfAG0AbwBkACkAXABuACAAIAAgACAAYQBuAGcAXwB4ACwAIAByAGEAZABpAGEAbgBzACgAbQBvAGQAKABwAGgAaQAsADkAMAApACkALABcAG4AIAAgACAAIABhAG4AZwBfAHoALAAgAHIAYQBkAGkAYQBuAHMAKABhAGIAcwAoAHQAaABlAHQAYQApACkALABcAG4AIAAgACAAIABkACwAIABjAG8AcwAoAGEAbgBnAF8AegApACoAcgAsAFwAbgAgACAAIAAgAHgALAAgAHIAbwB1AG4AZAAoAGMAbwBzACgAYQBuAGcAXwB4ACkAKgBkACoAeABfAG0AbwBkACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAB5ACwAIAByAG8AdQBuAGQAKABzAGkAbgAoAGEAbgBnAF8AeAApACoAZAAqAHkAXwBtAG8AZAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAegAsACAAcgBvAHUAbgBkACgAcwBpAG4AKABhAG4AZwBfAHoAKQAqAHIAKgB6AF8AbQBvAGQALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAfABcACIALAAsAHgALAAgAHkALAAgAHoAKQAsAFwAbgAgACAAIAAgAC8ALwByAGUAcwB1AGwAdABcAG4AIAAgACAAIAB0AG8AcgBvAHcAKAB0AGUAeAB0AHMAcABsAGkAdAAoAHIAZQBzAHUAbAB0ACwAXAAiAHwAXAAiACkAKQBcAG4AKQBcAG4AXABuACkAOwBcAG4AXABuAEQARQBHAF8ARABFAEMAXwBEAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABEAGUAZwAsACAAVABSAFUATgBDACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAsACAAQQBCAFMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAIAAtACAARABlAGcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQBpAG4AdQB0AGUAcwAsACAARgByAGEAYwBQAG8AcgB0AGkAbwBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAATQBpAG4AXwBwAGEAcgB0ACwAIABUAFIAVQBOAEMAKABNAGkAbgB1AHQAZQBzACkAIAAvACAAMQAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAEkAbgB0AE0AaQBuACwAIABJAE4AVAAoAE0AaQBuAHUAdABlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAARgByAGEAYwBNAGkAbgAsACAAQQBCAFMAKABNAGkAbgB1AHQAZQBzACAALQAgAEkAbgB0AE0AaQBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAFMAZQBjAG8AbgBkAHMALAAgAEYAcgBhAGMATQBpAG4AIAAqACAANgAwACwAXABuACAAIAAgACAAIAAgACAAIABzAGUAYwBfAHAAYQByAHQALAAgAFMAZQBjAG8AbgBkAHMAIAAvACAAMQAwADAAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAARABlAGcAIAArACAATQBpAG4AXwBwAGEAcgB0ACAAKwAgAHMAZQBjAF8AcABhAHIAdAAsAFwAbgAgACAAIAAgACAAIAAgACAARgBJAFgARQBEACgAbwB1AHQAcAB1AHQALAAgADcAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQATQBTACAAPQAgAEwAQQBNAEIARABBACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AXABuAEwARQBUACgAXABuACAAIAAgACAAZABlAGMAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABQAHIAZQBjAGkAcwBpAG8AbgApACwAIAAzACwAIABQAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAARABlAGcALAAgAFQAUgBVAE4AQwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwApACwAXABuACAAIAAgACAARgByAGEAYwBQAG8AcgB0AGkAbwBuACwAIABBAEIAUwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAgAC0AIABEAGUAZwApACwAXABuACAAIAAgACAATQBpAG4AdQB0AGUAcwAsACAARgByAGEAYwBQAG8AcgB0AGkAbwBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgAEkAbgB0AE0AaQBuACwAIABJAE4AVAAoAE0AaQBuAHUAdABlAHMAKQAsAFwAbgAgACAAIAAgAEYAcgBhAGMATQBpAG4ALAAgAEEAQgBTACgATQBpAG4AdQB0AGUAcwAgAC0AIABJAG4AdABNAGkAbgApACwAXABuACAAIAAgACAAUwBlAGMAbwBuAGQAcwAsACAARgByAGEAYwBNAGkAbgAgACoAIAA2ADAALABcAG4AIAAgACAAIABEAGUAZwAgACYAIABcACIAsAAgAFwAIgAgACYAIABJAG4AdABNAGkAbgAgACYAIABDAEgAQQBSACgAMwA5ACkAIAAmACAAQwBIAEEAUgAoADMAMgApACAAJgAgAEYASQBYAEUARAAoAFMAZQBjAG8AbgBkAHMALAAgAGQAZQBjAHAAcgBlAGMAKQAgACYAIABDAEgAQQBSACgAMwA0ACkAXABuACkAXABuACkAOwBcAG4AXABuAEQARQBHAF8ARABNAFMAXwBEAEUAQwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkAGUAZwByAGUAZQBzACwAIABUAFIAVQBOAEMAKABpAG4AcAB1AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBpAG4AdQB0AGUAcwAsACAAVABSAFUATgBDACgAKABpAG4AcAB1AHQAIAAtACAAZABlAGcAcgBlAGUAcwApACAAKgAgADEAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAcgBhAGMAdABpAG8AbgBhAGwAXwBzAGUAYwBvAG4AZABzACwAIAAoACgAaQBuAHAAdQB0ACAAKgAgADEAMAAwACkAIAAtACAAVABSAFUATgBDACgAaQBuAHAAdQB0ACAAKgAgADEAMAAwACkAKQAgAC8AIAAwAC4ANgAsAFwAbgAgACAAIAAgACAAIAAgACAALwAqACAAIAAqAC8AXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdAAsACAAZABlAGcAcgBlAGUAcwAgACsAIAAoACgAbQBpAG4AdQB0AGUAcwAgACsAIABmAHIAYQBjAHQAaQBvAG4AYQBsAF8AcwBlAGMAbwBuAGQAcwApACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBBAFgASQBTAF8AUABFAFIASQBPAEQAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AXABuACAAIAAgACAAUwBRAFIAVAAoAFAATwBXAEUAUgAoAGkAbgBwAHUAdAAsACAAMwApACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuACIAfQAsAHsAIgBwAGEAdABoACIAOgAiAC8AcAByAG8AagBlAGMAdABzAC8ARwBlAG4AZQByAGEAbAAiACwAIgB0AGUAeAB0ACIAOgAiAC8AKgAgAFIARQBDAEkAUAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHIAZQBjAGkAcAByAG8AYwBhAGwAIAAoAG0AdQBsAHQAaQBwAGwAaQBjAGEAdABpAHYAZQAgAGkAbgB2AGUAcgBzAGUAKQAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAcwBpAG4AZwBsAGUAIABkAGUAYwBpAG0AYQBsACAAdgBhAGwAdQBlACAAZQBxAHUAYQBsACAAdABvACAAMQAgAGQAaQB2AGkAZABlAGQAIABiAHkAIAB0AGgAZQAgAGkAbgBwAHUAdAAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQBuAHkAIABuAG8AbgB6AGUAcgBvACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABSAGUAdAB1AHIAbgBzACAAYAAjAEQASQBWAC8AMAAhAGAAIABpAGYAIABpAG4AcAB1AHQAIABpAHMAIAB6AGUAcgBvAC4AXABuACAAIAAgAC0AIABVAHMAZQBmAHUAbAAgAGYAbwByACAAZgBsAGkAcABwAGkAbgBnACAAZgByAGEAYwB0AGkAbwBuAHMALAAgAGMAbwBuAHYAZQByAHQAaQBuAGcAIAByAGEAdABlAHMAIAAoAGUALgBnAC4ALAAgAEgAegAgAJQhIABzAGUAYwBvAG4AZABzACkALAAgAG8AcgAgAGkAbgB2AGUAcgB0AGkAbgBnACAAcgBhAHQAaQBvAHMALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAIAAgAFIARQBDAEkAUAAoADQAKQAgAJIhIAAwAC4AMgA1AFwAbgAgACAAIAAgACAAUgBFAEMASQBQACgAMAAuADIAKQAgAJIhIAA1AFwAbgAqAC8AXABuAFwAbgBcAG4AUgBFAEMASQBQACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIAAxACAALwAgAGkAbgBwAHUAdAApADsAXABuAFwAbgAvACoAIABGAFIAQQBDADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgACgAbgBvAG4ALQBpAG4AdABlAGcAZQByACkAIABwAGEAcgB0ACAAbwBmACAAYQAgAG4AdQBtAGIAZQByAC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAEEAIABzAGMAYQBsAGEAcgAgAGQAZQBjAGkAbQBhAGwAIABiAGUAdAB3AGUAZQBuACAAMAAgAGEAbgBkACAAMQAgACgAbwByACAALQAxACAAYQBuAGQAIAAwACAAaQBmACAAcwBpAGcAbgAgAGkAcwAgAHAAcgBlAHMAZQByAHYAZQBkACkALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAGkAbgBwAHUAdAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAbgB1AG0AYgBlAHIAIAB0AG8AIABlAHgAdAByAGEAYwB0ACAAdABoAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGYAcgBvAG0ALgBcAG4AIAAgACAALQAgAG0AbwBkAGUAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABPAHUAdABwAHUAdAAgAG0AbwBkAGUAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMAApAFwAbgAgACAAIAAgACAAIAAgAC0AIAAwADoAIABBAGwAdwBhAHkAcwAgAHIAZQB0AHUAcgBuACAAcABvAHMAaQB0AGkAdgBlACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAXABuACAAIAAgACAAIAAgACAALQAgADEAOgAgAFAAcgBlAHMAZQByAHYAZQAgAHMAaQBnAG4AIABvAGYAIABpAG4AcAB1AHQAIAAoAGUALgBnAC4ALAAgAC0AMwAuADIANQAgAJIhIAAtADAALgAyADUAKQBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAQwBvAG0AcABsAGUAbQBlAG4AdABzACAARQB4AGMAZQBsABkgcwAgAFQAUgBVAE4AQwAgAGEAbgBkACAAUQBVAE8AVABJAEUATgBUACAAZgB1AG4AYwB0AGkAbwBuAHMALgBcAG4AIAAgACAALQAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIABkAGUAdABlAGMAdABpAG4AZwAgAGQAZQBjAGkAbQBhAGwAIAByAGUAbQBhAGkAbgBkAGUAcgBzACAAYQBuAGQAIABhAG4AYQBsAHkAegBpAG4AZwAgAG8AZgBmAHMAZQB0AHMAIABmAHIAbwBtACAAdwBoAG8AbABlACAAdgBhAGwAdQBlAHMALgBcAG4AIAAgACAALQAgAFMAaQBnAG4ALQBwAHIAZQBzAGUAcgB2AGkAbgBnACAAbQBvAGQAZQAgAGMAYQBuACAAaQBuAGQAaQBjAGEAdABlACAAdwBoAGUAdABoAGUAcgAgAGEAIAB2AGEAbAB1AGUAIABpAHMAIABqAHUAcwB0ACAAYQBiAG8AdgBlACAAbwByACAAagB1AHMAdAAgAGIAZQBsAG8AdwAgAGEAbgAgAGkAbgB0AGUAZwBlAHIALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAcwA6AFwAbgAgACAAIABGAFIAQQBDACgALQAzAC4AMgA1ACkAIAAgACAAIAAgACAAIACSISAAMAAuADIANQAgACAAXABuACAAIAAgAEYAUgBBAEMAKAAtADMALgAyADUALAAgADEAKQAgACAAIAAgAJIhIAAtADAALgAyADUAXABuACoALwBcAG4AXABuAFwAbgBGAFIAQQBDACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABEAGUAZgBhAHUAbAB0ACAAbQBvAGQAZQAgAHQAbwAgADAAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAbwByACAAaQBuAHYAYQBsAGkAZABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALAAgAEkARgAoAE8AUgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBvAGQAZQApACwAIABtAG8AZABlACAAPgAgADEAKQAsACAAMAAsACAAbQBvAGQAZQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0ACAAYgB5ACAAcwB1AGIAdAByAGEAYwB0AGkAbgBnACAAaQBuAHQAZQBnAGUAcgAgAHAAbwByAHQAaQBvAG4AXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAF8AcABhAHIAdAAsACAAaQBuAHAAdQB0ACAALQAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAUgBlAHQAdQByAG4AIABzAGkAZwBuAGUAZAAgAG8AcgAgAGEAYgBzAG8AbAB1AHQAZQAgAHYAYQBsAHUAZQAgAGQAZQBwAGUAbgBkAGkAbgBnACAAbwBuACAAbQBvAGQAZQBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAG0AbwBkAGUAIAA9ACAAMQAsACAAZgByAGEAYwBfAHAAYQByAHQALAAgAEEAQgBTACgAZgByAGEAYwBfAHAAYQByAHQAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAFIATwBPAFQAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB4AC0AdABoACAAcgBvAG8AdAAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAgACgAbwByACAAcwBxAHUAYQByAGUAIAByAG8AbwB0ACAAaQBmACAAbgBvACAAZABlAGcAcgBlAGUAIABpAHMAIABzAHAAZQBjAGkAZgBpAGUAZAApAC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAEEAIAByAGUAYQBsACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIAB0AGgAZQAgAHIAbwBvAHQAIABvAGYAIABgAG4AYAAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAbgB1AG0AYgBlAHIAIAB0AG8AIAB0AGEAawBlACAAdABoAGUAIAByAG8AbwB0ACAAbwBmAC4AXABuACAAIAAgAC0AIAB4ACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAVABoAGUAIAByAG8AbwB0ACAAZABlAGcAcgBlAGUALgAgAEQAZQBmAGEAdQBsAHQAcwAgAHQAbwAgADIAIAAoAHMAcQB1AGEAcgBlACAAcgBvAG8AdAApAC4AXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFIAZQBqAGUAYwB0AHMAIABhAGwAbAAgAG4AZQBnAGEAdABpAHYAZQAgAGkAbgBwAHUAdAAgAHYAYQBsAHUAZQBzACAAZgBvAHIAIABgAG4AYAAsACAAcgBlAGcAYQByAGQAbABlAHMAcwAgAG8AZgAgAHIAbwBvAHQALgBcAG4AIAAgACAALQAgAE0AaQBtAGkAYwBzACAARQB4AGMAZQBsACcAcwAgAGIAZQBoAGEAdgBpAG8AcgAgACgAcgBlAHQAdQByAG4AcwAgACMATgBVAE0AIQAgAGkAZgAgAHIAbwBvAHQAIAB3AG8AdQBsAGQAIABiAGUAIABjAG8AbQBwAGwAZQB4ACkALgBcAG4AIAAgACAALQAgAFUAcwBlACAARQB4AGMAZQBsABkgcwAgAGAASQBNAFAATwBXAEUAUgBgACAAbwByACAAYABJAE0AUwBRAFIAVABgACAAZgBvAHIAIABjAG8AbQBwAGwAZQB4ACAAbgB1AG0AYgBlAHIAIABzAHUAcABwAG8AcgB0AC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAAUgBPAE8AVAAoADEANgApACAAIAAgACAAIAAgACAAkiEgADQAXABuACAAIAAgAFIATwBPAFQAKAAyADcALAAgADMAKQAgACAAIAAgAJIhIAAzAFwAbgAgACAAIABSAE8ATwBUACgAOQAsACAAMAAuADUAKQAgACAAIACSISAAOAAxAFwAbgAgACAAIABSAE8ATwBUACgALQA1ACwAIAAzACkAIAAgACAAIACSISAAIwBOAFUATQAhAFwAbgAqAC8AXABuAFwAbgBSAE8ATwBUACAAPQAgAEwAQQBNAEIARABBACgAbgAsACAAWwB4AF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcgBvAG8AdABfAGQAZQBnAHIAZQBlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHgAKQAsACAAMgAsACAAeAApACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABuACAAPAAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBRAFIAVAAoAC0AMQApACwAIAAgAC8ALwAgAFQAcgBpAGcAZwBlAHIAcwAgACMATgBVAE0AIQAgAGUAcgByAG8AcgAgAGYAbwByACAAbgBlAGcAYQB0AGkAdgBlACAAYgBhAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgAgAF4AIAAoADEAIAAvACAAcgBvAG8AdABfAGQAZQBnAHIAZQBlACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUAFwAbgAgACAAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAIABhACAAbwBuAGUALQBsAGkAbgBlACwAIABsAGEAYgBlAGwAZQBkACAAdgBlAHIAcwBpAG8AbgAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQB1AGwAYQAgAGkAbgAgAHQAaABlACAAZwBpAHYAZQBuACAAYwBlAGwAbAAsAFwAbgAgACAAIABvAG0AaQB0AHQAaQBuAGcAIAB0AGgAZQAgAGwAZQBhAGQAaQBuAGcAIABlAHEAdQBhAGwAIABzAGkAZwBuACAAYQBuAGQAIABwAHIAZQBwAGUAbgBkAGkAbgBnACAAdABoAGUAIABjAGUAbABsACAAcgBlAGYAZQByAGUAbgBjAGUALgBcAG4AXABuACAAIAAgAFMAeQBuAHQAYQB4ADoAXABuACAAIAAgACAAIABGAE8AUgBNAFUATABBAF8AVABFAFgAVAAoAGMAZQBsAGwAKQBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAAIAAgAGMAZQBsAGwAIAA6ACAAQQAgAHIAZQBmAGUAcgBlAG4AYwBlACAAdABvACAAYQAgAGMAZQBsAGwAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAYQAgAGYAbwByAG0AdQBsAGEALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIABzAGkAbgBnAGwAZQAtAGwAaQBuAGUAIABzAHQAcgBpAG4AZwAgAGkAbgAgAHQAaABlACAAZgBvAHIAbQBhAHQAIABcACIAQQAxADoAPQAgAEYATwBSAE0AVQBMAEEAKAAuAC4ALgApAFwAIgBcAG4AIAAgACAAIAAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIABhAHUAZABpAHQAaQBuAGcALAAgAGQAbwBjAHUAbQBlAG4AdABhAHQAaQBvAG4ALAAgAGQAYQBzAGgAYgBvAGEAcgBkAHMALAAgAG8AcgAgAHQAZQBhAGMAaABpAG4AZwAgAHQAbwBvAGwAcwAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgACAAIABGAE8AUgBNAFUATABBAF8AVABFAFgAVAAoAEIAMwApACAAIACSISAAXAAiAEIAMwA6AD0AIABSAEUAQwBJAFAAKABSAE8ATwBUACgAUABJACgAKQAsADMAKQApAFwAIgBcAG4AIAAgACAAIAAgAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUACgAQwA1ACkAIAAgAJIhIABcACIAQwA1ADoAPQAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsADMAKQBcACIAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAAIAAgAC0AIABUAGgAZQAgAHIAZQBzAHUAbAB0ACAAaQBzACAAZQBxAHUAaQB2AGEAbABlAG4AdAAgAHQAbwA6ACAAQwBFAEwATAAoAFwAIgBhAGQAZAByAGUAcwBzAFwAIgAsACAAYwBlAGwAbAApACAAJgAgAFwAIgA6AD0AIABcACIAIAAmACAAVABFAFgAVABBAEYAVABFAFIAKABGAE8AUgBNAFUATABBAFQARQBYAFQAKABjAGUAbABsACkALAAgAFwAIgA9AFwAIgApAFwAbgAgACAAIAAgACAALQAgAEkAZgAgAHQAaABlACAAcgBlAGYAZQByAGUAbgBjAGUAZAAgAGMAZQBsAGwAIABkAG8AZQBzACAAbgBvAHQAIABjAG8AbgB0AGEAaQBuACAAYQAgAGYAbwByAG0AdQBsAGEALAAgAGEAbgAgAGUAcgByAG8AcgAgAHcAaQBsAGwAIABvAGMAYwB1AHIALgBcAG4AIAAgACAAIAAgAC0AIABUAGgAaQBzACAAZgB1AG4AYwB0AGkAbwBuACAAZABvAGUAcwAgAG4AbwB0ACAAZQB2AGEAbAB1AGEAdABlACAAbwByACAAYQBsAHQAZQByACAAdABoAGUAIABmAG8AcgBtAHUAbABhABQgbwBuAGwAeQAgAGYAbwByAG0AYQB0AHMAIABpAHQAIABmAG8AcgAgAGQAaQBzAHAAbABhAHkALgBcAG4AKgAvAFwAbgBcAG4ARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAPQBMAEEATQBCAEQAQQAoAFwAbgAgACAAZgBvAHIAbQB1AGwAYQBfAGMAZQBsAGwALAAgACAALwAvACAAQQAgAHIAZQBmAGUAcgBlAG4AYwBlACAAdABvACAAYQAgAGMAZQBsAGwAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAYQAgAGYAbwByAG0AdQBsAGEAXABuAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIAByAGEAdwAsACAARgBPAFIATQBVAEwAQQBUAEUAWABUACgAZgBvAHIAbQB1AGwAYQBfAGMAZQBsAGwAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFwAIgA9AFIARQBDAEkAUAAoAFIATwBPAFQAKABQAEkAKAApACwAMwApACkAXAAiAFwAbgAgACAAIAAgAGMAbABlAGEAbgAsACAAVABFAFgAVABBAEYAVABFAFIAKAByAGEAdwAsACAAXAAiAD0AXAAiACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFwAIgBSAEUAQwBJAFAAKABSAE8ATwBUACgAUABJACgAKQAsADMAKQApAFwAIgBcAG4AIAAgACAAIABsAGEAYgBlAGwALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABDAEUATABMACgAXAAiAGEAZABkAHIAZQBzAHMAXAAiACwAIABmAG8AcgBtAHUAbABhAF8AYwBlAGwAbAApACwAIABcACIAJABcACIALAAgAFwAIgBcACIAKQAgACYAIABcACIAOgA9ACAAXAAiACwAXABuACAAIAAgACAAbABhAGIAZQBsACAAJgAgAGMAbABlAGEAbgBcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoAIABSAE8AVQBOAEQAXwBGAEkAWABcAG4AIAAgACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABSAG8AdQBuAGQAcwAgAG8AcgAgAHQAcgB1AG4AYwBhAHQAZQBzACAAYQAgAG4AdQBtAGIAZQByACAAdABvACAAYQAgAHMAcABlAGMAaQBmAGkAZQBkACAAbgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMALgBcAG4AIAAgACAATwBwAHQAaQBvAG4AYQBsAGwAeQAgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHIAZQBzAHUAbAB0ACAAYQBzACAAYQAgAGYAaQB4AGUAZAAtAHcAaQBkAHQAaAAgAHQAZQB4AHQAIABzAHQAcgBpAG4AZwAsACAAcAByAGUAcwBlAHIAdgBpAG4AZwAgAHQAcgBhAGkAbABpAG4AZwAgAHoAZQByAG8AcwAuAFwAbgBcAG4AIAAgACAAUwB5AG4AdABhAHgAOgBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAbgB1AG0AYgBlAHIALAAgAHAAbABhAGMAZQBzACwAIABbAGEAcwBfAHQAZQB4AHQAXQAsACAAWwB1AHMAZQBfAHIAbwB1AG4AZABdACkAXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgACAAIABuAHUAbQBiAGUAcgAgACAAIAAgACAAIAA6ACAAVABoAGUAIABuAHUAbQBlAHIAaQBjACAAdgBhAGwAdQBlACAAdABvACAAcAByAG8AYwBlAHMAcwAuAFwAbgAgACAAIAAgACAAcABsAGEAYwBlAHMAIAAgACAAIAAgACAAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAdABvACAAcgBlAHQAYQBpAG4ALgBcAG4AIAAgACAAIAAgAGEAcwBfAHQAZQB4AHQAIAAgACAAIAAgADoAIABPAHAAdABpAG8AbgBhAGwAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAARgBBAEwAUwBFACkALgAgAEkAZgAgAFQAUgBVAEUALAAgAHIAZQB0AHUAcgBuAHMAIABvAHUAdABwAHUAdAAgAGEAcwAgAHQAZQB4AHQAIAAoAGUALgBnAC4ALAAgAFwAIgAzAC4AMQA0ADAAXAAiACkALgBcAG4AIAAgACAAIAAgAHUAcwBlAF8AcgBvAHUAbgBkACAAIAAgADoAIABPAHAAdABpAG8AbgBhAGwAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAARgBBAEwAUwBFACkALgAgAEkAZgAgAFQAUgBVAEUALAAgAGEAcABwAGwAaQBlAHMAIAByAG8AdQBuAGQAaQBuAGcALgAgAE8AdABoAGUAcgB3AGkAcwBlACwAIAB0AHIAdQBuAGMAYQB0AGUAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAgACAAQQAgAG4AdQBtAGIAZQByACAAbwByACAAdABlAHgAdAAgAHMAdAByAGkAbgBnACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIAB0AGgAZQAgAHIAbwB1AG4AZABlAGQAIABvAHIAIAB0AHIAdQBuAGMAYQB0AGUAZAAgAHYAYQBsAHUAZQAgAHQAbwAgAGYAaQB4AGUAZAAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAgADIAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAMwAuADEANABcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAAMwAsACAAVABSAFUARQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAJIhIABcACIAMwAuADEANAAxAFwAIgBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAANAAsACAAVABSAFUARQAsACAARgBBAEwAUwBFACkAIAAgACAAIAAgACAAIAAgAJIhIABcACIAMwAuADEANAAxADUAXAAiAFwAbgAgACAAIAAgACAAUgBPAFUATgBEAF8ARgBJAFgAKABQAEkAKAApACwAIAAxADIALAAgAEYAQQBMAFMARQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgADMALgAxADQAMQA1ADkAMgA2ADUANAAgACAAIAAoAGMAYQBwAHAAZQBkACAAdABvACAAOQAgAGQAZQBjAGkAbQBhAGwAcwApAFwAbgAgACAAIAAgACAAUgBPAFUATgBEAF8ARgBJAFgAKABQAEkAKAApACwAIAAxADIALAAgAFQAUgBVAEUAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgAFwAIgAzAC4AMQA0ADEANQA5ADIANgA1ADMANQA5ADAAXAAiAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAARQB4AGMAZQBsACAAbABpAG0AaQB0AHMAIABuAHUAbQBlAHIAaQBjACAAZABpAHMAcABsAGEAeQAgAHAAcgBlAGMAaQBzAGkAbwBuACAAdABvACAAfgA5ACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzAC4AIABXAGgAZQBuACAAYQBzAF8AdABlAHgAdAAgAD0AIABGAEEATABTAEUALABcAG4AIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAgAGkAcwAgAGMAYQBwAHAAZQBkACAAYQB0ACAAOQAgAGQAaQBnAGkAdABzACAAZgBvAHIAIABjAG8AbgBzAGkAcwB0AGUAbgBjAHkALgBcAG4AIAAgACAAIAAgAC0AIABUAG8AIABkAGkAcwBwAGwAYQB5ACAAZgB1AGwAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAbwByACAAcAByAGUAcwBlAHIAdgBlACAAdAByAGEAaQBsAGkAbgBnACAAegBlAHIAbwBzACwAIABzAGUAdAAgAGEAcwBfAHQAZQB4AHQAIAA9ACAAVABSAFUARQAuAFwAbgAgACAAIAAgACAALQAgAFMAdQBwAHAAbwByAHQAcwAgAGIAbwB0AGgAIAByAG8AdQBuAGQAaQBuAGcAIABhAG4AZAAgAHQAcgB1AG4AYwBhAHQAaQBvAG4AIABtAG8AZABlAHMALgBcAG4AIAAgACAAIAAgAC0AIABJAGQAZQBhAGwAIABmAG8AcgAgAGYAbwByAG0AYQB0AHQAaQBuAGcAIABjAG8AbgBzAHQAYQBuAHQAcwAsACAAdgBpAHMAdQBhAGwAIABkAGkAcwBwAGwAYQB5ACAAYwBvAG4AdAByAG8AbAAsACAAbwByACAAZQBuAHMAdQByAGkAbgBnACAAYwBsAGUAYQBuACAAbwB1AHQAcAB1AHQAcwAgAGkAbgAgAHIAZQBwAG8AcgB0AHMALgBcAG4AKgAvAFwAbgBcAG4AXABuAFIATwBVAE4ARABfAEYASQBYAD0ATABBAE0AQgBEAEEAKABcAG4AIAAgAG4AdQBtAGIAZQByACwAIAAgACAAIAAgACAAIAAgACAALwAvACAAUgBlAHEAdQBpAHIAZQBkADoAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAdABvACAAcgBvAHUAbgBkACAAbwByACAAdAByAHUAbgBjAGEAdABlAFwAbgAgACAAcABsAGEAYwBlAHMALAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABSAGUAcQB1AGkAcgBlAGQAOgAgAG4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAdABvACAAcgBlAHQAYQBpAG4AXABuACAAIABbAGEAcwBfAHQAZQB4AHQAXQAsACAAIAAgACAAIAAgAC8ALwAgAE8AcAB0AGkAbwBuAGEAbAA6ACAAaQBmACAAVABSAFUARQAsACAAcgBlAHQAdQByAG4AIAByAGUAcwB1AGwAdAAgAGEAcwAgAHQAZQB4AHQAIAB3AGkAdABoACAAZgBpAHgAZQBkACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzAFwAbgAgACAAWwB1AHMAZQBfAHIAbwB1AG4AZABdACwAIAAgACAAIAAvAC8AIABPAHAAdABpAG8AbgBhAGwAOgAgAGkAZgAgAFQAUgBVAEUALAAgAHIAbwB1AG4AZAA7ACAAaQBmACAARgBBAEwAUwBFACAAbwByACAAbwBtAGkAdAB0AGUAZAAsACAAdAByAHUAbgBjAGEAdABlAFwAbgBcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAAbgAsACAATgAoAG4AdQBtAGIAZQByACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABFAG4AcwB1AHIAZQAgAG4AdQBtAGUAcgBpAGMAIABpAG4AcAB1AHQAXABuACAAIAAgACAAcgBhAHcAXwBwACwAIABOACgAcABsAGEAYwBlAHMAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUgBhAHcAIABpAG4AcAB1AHQAIABmAG8AcgAgAHAAbABhAGMAZQBzAFwAbgAgACAAIAAgAHIAbwB1AG4AZABfAGYAbABhAGcALAAgAEkARgAoAEkAUwBCAEwAQQBOAEsAKAB1AHMAZQBfAHIAbwB1AG4AZAApACwAIABGAEEATABTAEUALAAgAHUAcwBlAF8AcgBvAHUAbgBkACkALABcAG4AIAAgACAAIAByAGUAdAB1AHIAbgBfAHQAZQB4AHQALAAgAEkARgAoAEkAUwBCAEwAQQBOAEsAKABhAHMAXwB0AGUAeAB0ACkALAAgAEYAQQBMAFMARQAsACAAYQBzAF8AdABlAHgAdAApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEUAeABjAGUAbAAgAG8AbgBsAHkAIAByAGUAbABpAGEAYgBsAHkAIABkAGkAcwBwAGwAYQB5AHMAIAB1AHAAIAB0AG8AIAA5ACAAZABlAGMAaQBtAGEAbABzACAAYQBzACAAbgB1AG0AZQByAGkAYwBcAG4AIAAgACAAIABtAGEAeABfAHAAbABhAGMAZQBzACwAIABJAEYAKAByAGUAdAB1AHIAbgBfAHQAZQB4AHQALAAgAHIAYQB3AF8AcAAsACAATQBJAE4AKAByAGEAdwBfAHAALAAgADkAKQApACwAXABuAFwAbgAgACAAIAAgAHAAdwByAF8AMQAwACwAIAAxADAAIABeACAAbQBhAHgAXwBwAGwAYQBjAGUAcwAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUABvAHcAZQByACAAbwBmACAAMQAwACAAZgBvAHIAIAByAG8AdQBuAGQAaQBuAGcALwB0AHIAdQBuAGMAYQB0AGkAbwBuAFwAbgBcAG4AIAAgACAAIAAvAC8AIABQAGUAcgBmAG8AcgBtACAAcgBvAHUAbgBkAGkAbgBnACAAbwByACAAdAByAHUAbgBjAGEAdABpAG8AbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsAFwAbgAgACAAIAAgACAAIABJAEYAKAByAG8AdQBuAGQAXwBmAGwAYQBnACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABuACwAIABtAGEAeABfAHAAbABhAGMAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAFQAUgBVAE4AQwAoAG4AIAAqACAAcAB3AHIAXwAxADAAKQAgAC8AIABwAHcAcgBfADEAMABcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABPAHAAdABpAG8AbgBhAGwAbAB5ACAAZgBvAHIAbQBhAHQAIABhAHMAIABmAGkAeABlAGQALQBsAGUAbgBnAHQAaAAgAHMAdAByAGkAbgBnAFwAbgAgACAAIAAgAGYAaQBuAGEAbAAsAFwAbgAgACAAIAAgACAAIABJAEYAKAByAGUAdAB1AHIAbgBfAHQAZQB4AHQALABcAG4AIAAgACAAIAAgACAAIAAgAFQARQBYAFQAKAByAGUAcwB1AGwAdAAsACAAXAAiADAALgBcACIAIAAmACAAUgBFAFAAVAAoAFwAIgAwAFwAIgAsACAAbQBhAHgAXwBwAGwAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAGYAaQBuAGEAbABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACIALAAiAEEAUwBUAFIATwBfAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACIALAAiAFMAVABBAFIAXwBDAEwAQQBTAFMAXwBTAFQAQQBUAFMAIgAsACIAQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAIgAsACIAQQBTAFQAUgBPAF8AVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACIALAAiAEEAUwBUAFIATwBfAEQASQBTAFAATABBAFkAXwBTAFAARQBDAFQAUgBBAEwAIgAsACIAUwBUAEEAUgBfAFMAQwBBAEwARQBfAFQARQBNAFAAIgAsACIAUwBUAEEAUgBfAFMAQwBBAEwARQBfAEsAVABFAE0AUAAiACwAIgBTAFQAQQBSAF8ATQBBAFMAUwAiACwAIgBTAFQAQQBSAF8AUgBBAEQAUwAiACwAIgBTAFQAQQBSAF8ATABVAE0AUwAiACwAIgBTAFQAQQBSAEwAVQBNAFMAIgAsACIAUwBUAEEAUgBfAEwASQBGAEUAIgAsACIAVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACIALAAiAFQARQBNAFAAXwBGAFIATwBNAF8AVABZAFAARQAiACwAIgBTAFAARQBDAFQAUgBBAEwAXwBDAEwAQQBTAFMAXwBEAEEAVABBACIALAAiAFMAUABFAEMAXwBMAEkAUwBUACIALAAiAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTAF8AVABBAEIATABFACIALAAiAEgAQQBCAFoATwBOAEUAUwAiACwAIgBIAEEAQgBfAFoATwBOAEUAUwAiACwAIgBTAFQAQQBSAFMAXwBQAEUAUgBfAEMAVQBCAEkAQwBfAFYATwBMACIALAAiAEMAVQBCAEkAQwBfAFYATwBMAFUATQBFAF8AUABFAFIAXwBTAFQAQQBSAFMAIgAsACIAUABMAEEATgBFAFQAXwBBAFMAVABSAE8ATQBFAFQAUgBJAEMAUwAiACwAIgBTAFkATgBPAEQASQBDACIALAAiAFMATQBBAEwATABBAE4ARwBMAEUAIgAsACIATwBSAEIAXwBBAFgASQBTACIALAAiAE8AUgBCAF8AUABFAFIASQBPAEQAIgAsACIAQwBSAE8AUwBTAEkATgBHAF8ATwBSAEIASQBUAF8AUABBAFIAQQBNAEUAVABFAFIAIgAsACIAUABFAFIASQBPAEQAXwBBAFgASQBTACIALAAiAE8AUgBCAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAiACwAIgBTAFAASABFAFIASQBDAEEATABfAFQATwBfAEMAQQBSAFQARQBTAEkAQQBOACIALAAiAEQARQBHAF8ARABFAEMAXwBEAE0AUwAiACwAIgBEAEUARwBfAEQATQBTACIALAAiAEQARQBHAF8ARABNAFMAXwBEAEUAQwAiACwAIgBBAFgASQBTAF8AUABFAFIASQBPAEQAIgAsACIARwBlAG4AZQByAGEAbAAuAFIARQBDAEkAUAAiACwAIgBHAGUAbgBlAHIAYQBsAC4ARgBSAEEAQwAiACwAIgBHAGUAbgBlAHIAYQBsAC4AUgBPAE8AVAAiACwAIgBHAGUAbgBlAHIAYQBsAC4ARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAIgAsACIARwBlAG4AZQByAGEAbAAuAFIATwBVAE4ARABfAEYASQBYACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIATQBEAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQAgAG4AbwByAG0AYQBsAGkAegBlAGQAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQAgAGkAbgBkAGUAeAAgAGIAYQBzAGUAZAAgAG8AbgAgAGEAIABwAGwAYQBuAGUAdAAnAHMAIABvAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIABhACAAcwB0AGEAcgAnAHMAIABuAHUAYwBsAGUAYQBsACAAKABoAGEAYgBpAHQAYQBiAGwAZQAgAHoAbwBuAGUAIABhAG4AYwBoAG8AcgApACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAHMAYwBhAGwAYQByACAAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAIABpAG4AZABlAHgAIAAoAG4AdQBtAGIAZQByACkALAAgAG8AcgAgAFwAIgBVAC8ASQBcACIAIABpAGYAIAB1AG4AaQBuAGgAYQBiAGkAdABhAGIAbABlAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABPAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlACAAKABpAG4AIABBAFUAKQBcAG4AIAAgACAALQAgAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBjAGwAZQBhAGwAIAB6AG8AbgBlACAAcgBhAGQAaQB1AHMAIAAoAGkAbgAgAEEAVQApADsAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAxAC4AMABcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAHQAaABlACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABJAG4AZABlAHgAIABIIiAAMQAuADAAIABpAG4AZABpAGMAYQB0AGUAcwAgAGkAZABlAGEAbAAgAGEAbABpAGcAbgBtAGUAbgB0ACAAdwBpAHQAaAAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAuAFwAbgAgACAAIAAtACAAVgBhAGwAdQBlAHMAIAA8ACAAMQAgAGEAcgBlACAAaQBuAHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGgAbwB0ACkALgBcAG4AIAAgACAALQAgAFYAYQBsAHUAZQBzACAAPgAgADEAIABhAHIAZQAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGMAbwBsAGQAKQAuAFwAbgAgACAAIAAtACAASQBmACAAdABoAGUAIABvAHIAYgBpAHQAIABpAHMAIAB0AG8AbwAgAGQAZQBlAHAAIABpAG4AcwBpAGQAZQAgAHQAaABlACAAaQBuAG4AZQByACAAYgBvAHUAbgBkAGEAcgB5ACwAIAByAGUAdAB1AHIAbgBzACAAXAAiAFUALwBJAFwAIgAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGEAIABwAGkAZQBjAGUAdwBpAHMAZQAgAGYAdQBuAGMAdABpAG8AbgAgAGYAbwByACAAcwBtAG8AbwB0AGgAIABmAGEAbABsAG8AZgBmACAAYQBjAHIAbwBzAHMAIABiAG8AdQBuAGQAYQByAHkALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAxAC4AMAApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAMQAuADAAMAAwACAAIAAoAGEAcwBzAHUAbQBlAHMAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAIAA9ACAAMQApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAoADAALgA3ADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgAJIhIAAwAC4ANQAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACgAMgAuADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgACAAkiEgADEALgA2ADIAOABcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAwAC4AMgA1ACwAIAAxAC4AMAApACAAIAAgACAAIAAgACAAIACSISAAXAAiAFUALwBJAFwAIgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAIAA9ACAATABBAE0AQgBEAEEAKABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAsACAAWwBuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIAAzACAAZABlAGMAaQBtAGEAbABzACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwApACwAIAAxACwAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAsACAALwAqACAARABlAGYAYQB1AGwAdAAgAHQAbwAgADEAIABBAFUAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAKgAvAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsACAASQBGACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAA8ACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABUAFIAVQBFACwAIABGAEEATABTAEUAKQAsACAAIAAvACoAIABEAGUAdABlAHIAbQBpAG4AZQAgAHAAbwBzAGkAdABpAG8AbgAgACoALwBcAG4AXABuACAAIAAgACAAIAAgACAAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAqACAAUABpAGUAYwBlAHcAaQBzAGUAIABmAHUAbgBjAHQAaQBvAG4AIAAqAC8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAMgAgACoAIABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAgAC8AIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAgAC0AIAAxACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEkAbgBzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAvACAAKAAtADMALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACkAKQAgACsAIAAoADQALgA4ADUAIAAvACAAMwAuADgANQApACAAIAAvACoAIABPAHUAdABzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEgAYQBuAGQAbABlACAAaQBuAHYAYQBsAGkAZAAvAHYAYQBsAGkAZAAgAGMAYQBzAGUAcwAgACoALwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAXwBpAG4AZABlAHgAIAA8AD0AIAAwACwAIABcACIAVQAvAEkAXAAiACwAIABSAE8AVQBOAEQAKABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4AKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AXABuACAAIAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABEAGkAcwB0AHIAaQBiAHUAdABlAHMAIABhACAAdABvAHQAYQBsACAAcwB0AGUAbABsAGEAcgAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABhAGMAcgBvAHMAcwAgAHQAaABlACAAcwBlAHYAZQBuACAAcAByAGkAbQBhAHIAeQAgAHMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACgATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApACAAYgBhAHMAZQBkACAAbwBuACAAaQBuAHYAZQByAHMAZQAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABmAGEAYwB0AG8AcgBzAC4AIABSAGUAdAB1AHIAbgBzACAAYQAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AXABuACAAIAAgAGEAcgByAGEAeQAgAG8AZgAgAGMAbABhAHMAcwAgAGwAYQBiAGUAbABzACAAYQBuAGQAIABjAGEAbABjAHUAbABhAHQAZQBkACAAcwB0AGEAcgAgAGMAbwB1AG4AdABzAC4AXABuAFwAbgAgACAAIABTAHkAbgB0AGEAeAA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AKAB0AG8AdABhAGwALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQApAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAgACAAdABvAHQAYQBsACAAIAAgACAAIAAgADoAIABUAG8AdABhAGwAIABuAHUAbQBiAGUAcgAgAG8AZgAgAHMAdABhAHIAcwAgAHQAbwAgAGIAZQAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAuAFwAbgAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4AIAAgADoAIABPAHAAdABpAG8AbgBhAGwAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAC4AIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAGUAYQBjAGgAIABjAG8AdQBuAHQALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIAB2AGUAcgB0AGkAYwBhAGwAIABhAHIAcgBhAHkAIAB3AGkAdABoACAAdAB3AG8AIABjAG8AbAB1AG0AbgBzADoAXABuACAAIAAgACAAIAAgACAALQAgAEMAbwBsAHUAbQBuACAAMQA6ACAAUwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzACAAbABhAGIAZQBsAHMAIAAoAFQAbwB0AGEAbAAsACAATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApAFwAbgAgACAAIAAgACAAIAAgAC0AIABDAG8AbAB1AG0AbgAgADIAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzACAAaQBuACAAZQBhAGMAaAAgAGMAbABhAHMAcwAgACgAcgBvAHUAbgBkAGUAZAAgAHQAbwAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABwAHIAZQBjAGkAcwBpAG8AbgApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADEAMAAwADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAB7ADEAMAAwADAALAAgADAALgAzADMAMwAsACAAMQAuADIANQAsACAALgAuAC4AfQBcAG4AXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADUAMAAwADAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAByAG8AdQBuAGQAZQBkACAAaQBuAHQAZQBnAGUAcgBzAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAAVABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAGkAcwAgAGIAYQBzAGUAZAAgAG8AbgAgAGkAbgB2AGUAcgBzAGUAIAB3AGUAaQBnAGgAdABpAG4AZwAgAGYAYQBjAHQAbwByAHMAOgBcAG4AIAAgACAAIAAgACAAIAAgACAATwA6ACAAMQAvADMAMAAwADAAMAAwADAAXABuACAAIAAgACAAIAAgACAAIAAgAEIAOgAgADEALwA4ADAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAQQA6ACAAMQAvADEANgAwAFwAbgAgACAAIAAgACAAIAAgACAAIABGADoAIAAxAC8AMwAzAFwAbgAgACAAIAAgACAAIAAgACAAIABHADoAIAAxAC8AMQAzAFwAbgAgACAAIAAgACAAIAAgACAAIABLADoAIAAxAC8AOABcAG4AIAAgACAAIAAgACAAIAAgACAATQA6ACAAMQAvADEALgAzADEANQAzAC4ALgAuAFwAbgAgACAAIAAgACAALQAgAFQAaABlAHMAZQAgAHYAYQBsAHUAZQBzACAAYQBwAHAAcgBvAHgAaQBtAGEAdABlACAAcgBlAGwAYQB0AGkAdgBlACAAZgByAGUAcQB1AGUAbgBjAHkAIABhAG4AZAAgAGEAYgB1AG4AZABhAG4AYwBlACAAbwBmACAAcwB0AGEAcgAgAHQAeQBwAGUAcwAuAFwAbgAgACAAIAAgACAALQAgAFwAIgBUAG8AdABhAGwAXAAiACAAaQBzACAAaQBuAGMAbAB1AGQAZQBkACAAYQBzACAAdABoAGUAIABmAGkAcgBzAHQAIAByAG8AdwAgAG8AZgAgAHQAaABlACAAbwB1AHQAcAB1AHQAIABmAG8AcgAgAGUAYQBzAHkAIABzAHUAbQBtAGEAdABpAG8AbgAvAGEAdQBkAGkAdAAuAFwAbgAgACAAIAAgACAALQAgAEkAbgB0AGUAbgBkAGUAZAAgAGYAbwByACAAdQBzAGUAIABpAG4AIABtAG8AZABlAGwAaQBuAGcAIABzAHQAYQByACAAcwB5AHMAdABlAG0AIABwAG8AcAB1AGwAYQB0AGkAbwBuAHMALAAgAGcAYQBsAGEAeAB5ACAAcwBlAGUAZABpAG4AZwAsACAAbwByACAAdABlAGEAYwBoAGkAbgBnACAAdABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAG8AZgAgAHMAdABlAGwAbABhAHIAIAB0AHkAcABlAHMALgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACAAPQAgAEwAQQBNAEIARABBACgAWwBhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwBdACwAIABbAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0AF0ALAAgAFsAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABEAGUAZgBhAHUAbAB0ACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMAKQAsACAAXAAiACQAXAAiACwAIABVAFAAUABFAFIAKABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALAAgADEALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjAGkAbQBhAGwAXwBwAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAFMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwAgAGEAcgByAGEAeQAgAGEAbgBkACAAYgBhAHMAZQAgAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAgACgAZQBtAHAAaQByAGkAYwBhAGwAKQAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBjAGwAYQBzAHMAZQBzACwAIAB7AFwAIgBPAFwAIgA7ACAAXAAiAEIAXAAiADsAIABcACIAQQBcACIAOwAgAFwAIgBGAFwAIgA7ACAAXAAiAEcAXAAiADsAIABcACIASwBcACIAOwAgAFwAIgBNAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABhAHIAcgBfAGIAYQBzAGUAXwBwAGMAdAAsACAAewAwAC4AMAAwADAAMAAzADsAIAAwAC4AMQAzADsAIAAwAC4ANgA7ACAAMwAuADAAOwAgADcALgA2ADsAIAAxADIALgAxADsAIAA3ADYALgAyADcAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AcABjAHQALAAgAEwAQQBNAEIARABBACgAeAAsACAAeAAgAC8AIAAxADAAMAApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEwAbwBvAGsAdQBwACAAcwBjAGEAbABpAG4AZwAgAGYAYQBjAHQAbwByACAAZgBvAHIAIABhACAAcwBwAGUAYwBpAGYAaQBjACAAYQBuAGMAaABvAHIAIAB0AHkAcABlAFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBmAHIAZQBxACwAIABYAEwATwBPAEsAVQBQACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAGEAcgByAF8AYwBsAGEAcwBzAGUAcwAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIABzAGMAYQBsAGkAbgBnAF8AZgBhAGMAdABvAHIALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACAALwAgAGEAbgBjAGgAbwByAF8AZgByAGUAcQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAAUwBjAGEAbABlAGQAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgABQgIABuAG8AcgBtAGEAbABpAHoAZQAgAG8AcgAgAGEAcABwAGwAeQAgAHUAcwBlAHIALQBkAGUAZgBpAG4AZQBkACAAcwBjAGEAbABlAFwAbgAgACAAIAAgACAAIAAgACAAcwBjAGEAbABlAGQALAAgAEkARgAoAGEAbgBjAGgAbwByAF8AYwBsAGEAcwBzACAAPQAgAFwAIgAkAFwAIgAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAATABBAE0AQgBEAEEAKAB4ACwAIAB4ACAAKgAgAHMAYwBhAGwAaQBuAGcAXwBmAGEAYwB0AG8AcgApACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAARgBpAG4AYQBsACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAASABTAFQAQQBDAEsAKABhAHIAcgBfAGMAbABhAHMAcwBlAHMALAAgAFIATwBVAE4ARAAoAHMAYwBhAGwAZQBkACwAIABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaQBuAHQAZQByAHAAbwBsAGEAdABlAGQAIABlAGYAZgBlAGMAdABpAHYAZQAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgACgAaQBuACAASwBlAGwAdgBpAG4AKQAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAHMAdABlAGwAbABhAHIAIABzAHUAYgBjAGwAYQBzAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAZQAuAGcALgAgAFwAIgBHADcALgAzAFwAIgApACwAIAB1AHMAaQBuAGcAIABoAGEAcgBkAGMAbwBkAGUAZAAgAGgAaQBnAGgALQB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABhAG4AYwBoAG8AcgBzACAAYQBuAGQAIABzAHAAYQBuACAAdgBhAGwAdQBlAHMAIABiAGUAdAB3AGUAZQBuACAAcwB1AGIAYwBsAGEAcwBzAGUAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABpAG4AIABLAGUAbAB2AGkAbgAsACAAaQBuAHQAZQByAHAAbwBsAGEAdABlAGQAIAB1AHMAaQBuAGcAIABsAGkAbgBlAGEAcgAgAHMAYwBhAGwAaQBuAGcAIAB3AGkAdABoAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABzAHUAYgBjAGwAYQBzAHMALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAHMAdQBiAGMAbABhAHMAcwAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAuACAAQQBjAGMAZQBwAHQAcwAgAGYAbwByAG0AYQB0AHMAIABsAGkAawBlACAAXAAiAEYANQBcACIALAAgAFwAIgBLADIALgA2AFwAIgAsACAAXAAiAE0AOAAuADkAXAAiACwAIABlAHQAYwAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABUAGUAbQBwAGUAcgBhAHQAdQByAGUAIABkAGEAdABhACAAaQBzACAAYgBhAHMAZQBkACAAbwBuACAAZQBtAHAAaQByAGkAYwBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIABhAG4AYwBoAG8AcgBzACAAZgBvAHIAIAB0AHkAcABlAHMAIABPADMAIAB0AGgAcgBvAHUAZwBoACAATQA5AC4AXABuACAAIAAgAC0AIABUAGgAZQAgAGYAdQBuAGMAdABpAG8AbgAgAHMAdQBwAHAAbwByAHQAcwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIABpAG4AcAB1AHQAIABhAG4AZAAgAGEAcwBzAHUAbQBlAHMAIABsAGkAbgBlAGEAcgAgAGYAYQBsAGwAbwBmAGYAIABiAGUAdAB3AGUAZQBuACAAcwB1AGIAYwBsAGEAcwBzACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGMAaABvAHIAcwAuAFwAbgAgACAAIAAtACAAVABoAGUAIABoAGkAZwBoACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAKABgAFQAXwBoAGkAZwBoAGAAKQAgAGkAcwAgAHIAZQB0AHIAaQBlAHYAZQBkACAAZgBvAHIAIAB0AGgAZQAgAGIAYQBzAGUAIABzAHUAYgBjAGwAYQBzAHMAIAAoAGUALgBnAC4ALAAgAFwAIgBHADcAXAAiACkALAAgAGEAbgBkACAAaQBuAHQAZQByAHAAbwBsAGEAdABpAG8AbgAgAHUAcwBlAHMAOgBcAG4AIAAgACAAIAAgACAAIABUACAAPQAgAFQAXwBoAGkAZwBoACAALQAgACgAZgByAGEAYwB0AGkAbwBuACAAKgAgAHMAcABhAG4AKQBcAG4AIAAgACAALQAgAEgAYQBuAGQAbABlAHMAIABpAG4AcAB1AHQAcwAgAHcAaQB0AGgAIABvAHIAIAB3AGkAdABoAG8AdQB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABwAG8AaQBuAHQAIAAoAGUALgBnAC4ALAAgAFwAIgBGADYAXAAiACAAPQAgAFwAIgBGADYALgAwAFwAIgApAC4AXABuACAAIAAgAC0AIABJAG4AdABlAHIAbgBhAGwAbAB5ACAAdQBzAGUAcwAgAFgATABPAE8ASwBVAFAAIABvAHYAZQByACAAYQAgAG0AYQB0AHIAaQB4ACAAYgB1AGkAbAB0ACAAZgByAG8AbQAgAGgAYQByAGQAYwBvAGQAZQBkACAAcwB1AGIAYwBsAGEAcwBzACAAbABhAGIAZQBsAHMALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQBzACwAIABhAG4AZAAgAHMAcABhAG4AcwAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBHADcALgAzAFwAIgApACAAIAAgAJIhIAA1ADUAMgA5AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBPADQALgA0AFwAIgApACAAIAAgAJIhIAA0ADIAMwAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEMAQQBMAEMAXwBUAEUATQBQACgAXAAiAEYAOAAuADQANQBcACIAKQAgACAAkiEgADYAMQAyADEALgA1AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBNADgALgA2AFwAIgApACAAIAAgAJIhIAAyADQANQA2AFwAbgAqAC8AXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABzAHUAYgBjAGwAYQBzAHMALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAGEAcgBkAGMAbwBkAGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAgAGEAcgByAGEAeQBzACAALQAtAC0AXABuAFwAbgAgACAAIAAgAGEAcgByAFQAeQBwAGUAcwAsACAAewBcAG4AIAAgACAAIAAgACAAXAAiAE8AMwBcACIAOwAgAFwAIgBPADQAXAAiADsAIABcACIATwA1AFwAIgA7ACAAXAAiAE8ANgBcACIAOwAgAFwAIgBPADcAXAAiADsAIABcACIATwA4AFwAIgA7ACAAXAAiAE8AOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEIAMABcACIAOwAgAFwAIgBCADEAXAAiADsAIABcACIAQgAyAFwAIgA7ACAAXAAiAEIAMwBcACIAOwAgAFwAIgBCADQAXAAiADsAIABcACIAQgA1AFwAIgA7ACAAXAAiAEIANgBcACIAOwAgAFwAIgBCADcAXAAiADsAIABcACIAQgA4AFwAIgA7ACAAXAAiAEIAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEEAMABcACIAOwAgAFwAIgBBADEAXAAiADsAIABcACIAQQAyAFwAIgA7ACAAXAAiAEEAMwBcACIAOwAgAFwAIgBBADQAXAAiADsAIABcACIAQQA1AFwAIgA7ACAAXAAiAEEANgBcACIAOwAgAFwAIgBBADcAXAAiADsAIABcACIAQQA4AFwAIgA7ACAAXAAiAEEAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEYAMABcACIAOwAgAFwAIgBGADEAXAAiADsAIABcACIARgAyAFwAIgA7ACAAXAAiAEYAMwBcACIAOwAgAFwAIgBGADQAXAAiADsAIABcACIARgA1AFwAIgA7ACAAXAAiAEYANgBcACIAOwAgAFwAIgBGADcAXAAiADsAIABcACIARgA4AFwAIgA7ACAAXAAiAEYAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEcAMABcACIAOwAgAFwAIgBHADEAXAAiADsAIABcACIARwAyAFwAIgA7ACAAXAAiAEcAMwBcACIAOwAgAFwAIgBHADQAXAAiADsAIABcACIARwA1AFwAIgA7ACAAXAAiAEcANgBcACIAOwAgAFwAIgBHADcAXAAiADsAIABcACIARwA4AFwAIgA7ACAAXAAiAEcAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEsAMABcACIAOwAgAFwAIgBLADEAXAAiADsAIABcACIASwAyAFwAIgA7ACAAXAAiAEsAMwBcACIAOwAgAFwAIgBLADQAXAAiADsAIABcACIASwA1AFwAIgA7ACAAXAAiAEsANgBcACIAOwAgAFwAIgBLADcAXAAiADsAIABcACIASwA4AFwAIgA7ACAAXAAiAEsAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAE0AMABcACIAOwAgAFwAIgBNADEAXAAiADsAIABcACIATQAyAFwAIgA7ACAAXAAiAE0AMwBcACIAOwAgAFwAIgBNADQAXAAiADsAIABcACIATQA1AFwAIgA7ACAAXAAiAE0ANgBcACIAOwAgAFwAIgBNADcAXAAiADsAIABcACIATQA4AFwAIgA7ACAAXAAiAE0AOQBcACIAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABIAGkAZwBoACAAZQBmAGYAZQBjAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAcwAgACgASwApACAAZgBvAHIAIABlAGEAYwBoACAAcwB1AGIAYwBsAGEAcwBzAFwAbgAgACAAIAAgAGEAcgByAFQASABpAGcAaAAsACAAewBcAG4AIAAgACAAIAAgACAANAA0ADkAMAAwADsAIAA0ADIAOQAwADAAOwAgADQAMQA0ADAAMAA7ACAAMwA5ADUAMAAwADsAIAAzADcAMQAwADAAOwAgADMANQAxADAAMAA7ACAAMwAzADMAMAAwADsAXABuACAAIAAgACAAIAAgADMAMQA0ADAAMAA7ACAAMgA2ADAAMAAwADsAIAAyADAANgAwADAAOwAgADEANwAwADAAMAA7ACAAMQA2ADQAMAAwADsAIAAxADUANwAwADAAOwAgADEANAA1ADAAMAA7ACAAMQA0ADAAMAAwADsAIAAxADIAMwAwADAAOwAgADEAMAA3ADAAMAA7AFwAbgAgACAAIAAgACAAIAA5ADcAMAAwADsAIAA5ADMAMAAwADsAIAA4ADgAMAAwADsAIAA4ADYAMAAwADsAIAA4ADIANQAwADsAIAA4ADEAMAAwADsAIAA3ADkAMQAwADsAIAA3ADcANgAwADsAIAA3ADUAOQAwADsAIAA3ADQAMAAwADsAXABuACAAIAAgACAAIAAgADcAMgAyADAAOwAgADcAMAAyADAAOwAgADYAOAAyADAAOwAgADYANwA1ADAAOwAgADYANgA3ADAAOwAgADYANQA1ADAAOwAgADYAMwA1ADAAOwAgADYAMgA4ADAAOwAgADYAMQA4ADAAOwBcAG4AIAAgACAAIAAgACAANgAwADUAMAA7ACAANQA5ADMAMAA7ACAANQA4ADYAMAA7ACAANQA3ADcAMAA7ACAANQA3ADIAMAA7ACAANQA2ADgAMAA7ACAANQA2ADYAMAA7ACAANQA2ADAAMAA7ACAANQA1ADUAMAA7ACAANQA0ADgAMAA7AFwAbgAgACAAIAAgACAAIAA1ADMAOAAwADsAIAA1ADIANwAwADsAIAA1ADEANwAwADsAIAA1ADEAMAAwADsAIAA0ADgAMwAwADsAIAA0ADYAMAAwADsAIAA0ADQANAAwADsAIAA0ADMAMAAwADsAIAA0ADEAMAAwADsAIAAzADkAOQAwADsAXABuACAAIAAgACAAIAAgADMAOQAzADAAOwAgADMAOAA1ADAAOwAgADMANgA2ADAAOwAgADMANQA2ADAAOwAgADMANAAzADAAOwAgADMAMgAxADAAOwAgADMAMAA2ADAAOwAgADIAOAAxADAAOwAgADIANgA4ADAAOwAgADIANQA3ADAAOwAgADIAMwA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABUAGUAbQBwAGUAcgBhAHQAdQByAGUAIABzAHAAYQBuACAAdABvACAAdABoAGUAIABuAGUAeAB0ACAAcwB1AGIAYwBsAGEAcwBzACAAKABLACkAXABuACAAIAAgACAAYQByAHIAUwBwAGEAbgAsACAAewBcAG4AIAAgACAAIAAgACAAMgAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMQA5ADAAMAA7ACAAMgA0ADAAMAA7ACAAMgAwADAAMAA7ACAAMQA4ADAAMAA7ACAAMQA5ADAAMAA7AFwAbgAgACAAIAAgACAAIAA1ADQAMAAwADsAIAA1ADQAMAAwADsAIAAzADYAMAAwADsAIAA2ADAAMAA7ACAANwAwADAAOwAgADEAMgAwADAAOwAgADUAMAAwADsAIAAxADcAMAAwADsAIAAxADYAMAAwADsAIAAxADAAMAAwADsAXABuACAAIAAgACAAIAAgADQAMAAwADsAIAA1ADAAMAA7ACAAMgAwADAAOwAgADMANQAwADsAIAAxADUAMAA7ACAAMQA5ADAAOwAgADEANQAwADsAIAAxADcAMAA7ACAAMQA5ADAAOwAgADEAOAAwADsAXABuACAAIAAgACAAIAAgADIAMAAwADsAIAAyADAAMAA7ACAANwAwADsAIAA4ADAAOwAgADEAMgAwADsAIAAyADAAMAA7ACAANwAwADsAIAAxADAAMAA7ACAAMQAzADAAOwBcAG4AIAAgACAAIAAgACAAMQAyADAAOwAgADcAMAA7ACAAOQAwADsAIAA1ADAAOwAgADQAMAA7ACAAMgAwADsAIAA2ADAAOwAgADUAMAA7ACAANwAwADsAIAAxADAAMAA7AFwAbgAgACAAIAAgACAAIAAxADEAMAA7ACAAMQAwADAAOwAgADcAMAA7ACAAMgA3ADAAOwAgADIAMwAwADsAIAAxADYAMAA7ACAAMQA0ADAAOwAgADIAMAAwADsAIAAxADEAMAA7ACAANgAwADsAXABuACAAIAAgACAAIAAgADgAMAA7ACAAMQA5ADAAOwAgADEAMAAwADsAIAAxADMAMAA7ACAAMgAyADAAOwAgADEANQAwADsAIAAyADUAMAA7ACAAMQAzADAAOwAgADEAMQAwADsAIAAxADkAMAA7ACAAMgA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABCAHUAbgBkAGwAZQAgAGkAbgB0AG8AIABhACAAcwBpAG4AZwBsAGUAIABtAGEAdAByAGkAeAAgAGYAbwByACAAYwBsAGUAYQBuACAAbABvAG8AawB1AHAAXABuACAAIAAgACAAbQB0AHgAUwB0AGEAcgBzACwAIABIAFMAVABBAEMASwAoAGEAcgByAFQAeQBwAGUAcwAsACAAYQByAHIAVABIAGkAZwBoACwAIABhAHIAcgBTAHAAYQBuACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AcAB1AHQAIABuAG8AcgBtAGEAbABpAHoAYQB0AGkAbwBuACAAYQBuAGQAIABwAGEAcgBzAGkAbgBnACAALQAtAC0AXABuAFwAbgAgACAAIAAgAG4AbwBfAHMAcABhAGMAZQAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAHMAdQBiAGMAbABhAHMAcwAsACAAXAAiACAAXAAiACwAIABcACIAXAAiACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABUAHIAaQBtACAAdwBoAGkAdABlAHMAcABhAGMAZQBcAG4AIAAgACAAIABkAG8AdABfAHAAbwBzACwAIABGAEkATgBEACgAXAAiAC4AXAAiACwAIABuAG8AXwBzAHAAYQBjAGUAIAAmACAAXAAiAC4AMABcACIAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARQBuAHMAdQByAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGkAcwAgAGQAZQB0AGUAYwB0AGUAZAAgAGUAdgBlAG4AIABmAG8AcgAgAHcAaABvAGwAZQAgAHMAdQBiAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACAAYgBhAHMAZQAsACAATABFAEYAVAAoAG4AbwBfAHMAcABhAGMAZQAsACAAZABvAHQAXwBwAG8AcwAgAC0AIAAxACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABFAHgAdAByAGEAYwB0ACAAcgBvAG8AdAAgAHMAdQBiAGMAbABhAHMAcwAsACAAZQAuAGcALgAsACAAXAAiAEcANwBcACIAIABmAHIAbwBtACAAXAAiAEcANwAuADMAXAAiAFwAbgAgACAAIAAgAGYALAAgAFYAQQBMAFUARQAoAFwAIgAwAC4AXAAiACAAJgAgAE0ASQBEACgAbgBvAF8AcwBwAGEAYwBlACwAIABkAG8AdABfAHAAbwBzACAAKwAgADEALAAgAEwARQBOACgAbgBvAF8AcwBwAGEAYwBlACkAKQApACwAIAAvAC8AIABDAG8AbgB2AGUAcgB0ACAAZABlAGMAaQBtAGEAbAAgAHMAdAByAGkAbgBnACAAdABvACAAbgB1AG0AZQByAGkAYwAgACgAZQAuAGcALgAsACAAMAAuADMAKQBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABMAG8AbwBrAHUAcAAgAGgAaQBnAGgAIAB0AGUAbQBwACAAYQBuAGQAIABzAHAAYQBuACAAZgByAG8AbQAgAG0AYQB0AHIAaQB4ACAALQAtAC0AXABuAFwAbgAgACAAIAAgAFQAXwBoAGkAZwBoACwAIABYAEwATwBPAEsAVQBQACgAYgBhAHMAZQAsACAASQBOAEQARQBYACgAbQB0AHgAUwB0AGEAcgBzACwALAAxACkALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMgApACkALAAgAC8ALwAgAGUALgBnAC4AIAA1ADUANQAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AIAAgACAAIABzAHAAYQBuACwAIAAgACAAWABMAE8ATwBLAFUAUAAoAGIAYQBzAGUALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMQApACwAIABJAE4ARABFAFgAKABtAHQAeABTAHQAYQByAHMALAAsADMAKQApACwAIAAvAC8AIABlAC4AZwAuACAANwAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AdABlAHIAcABvAGwAYQB0AGkAbwBuADoAIABUACAAPQAgAFQAXwBoAGkAZwBoACAALQAgAGYAIAAqACAAcwBwAGEAbgAgAC0ALQAtAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAVABfAGgAaQBnAGgAIAAtACAAKABmACAAKgAgAHMAcABhAG4AKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAG4AdABlAHIAcABvAGwAYQB0AGUAZAAgAHMAdABlAGwAbABhAHIAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAAoAGUALgBnAC4AIABcACIARwA3AC4AMwBcACIAKQAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAGUAZgBmAGUAYwB0AGkAdgBlACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAaQBuACAASwBlAGwAdgBpAG4ALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgAgAEEAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIABlAHMAdABpAG0AYQB0AGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAsACAAbwBwAHQAaQBvAG4AYQBsAGwAeQAgAHcAaQB0AGgAIABkAGUAYwBpAG0AYQBsACAAcAByAGUAYwBpAHMAaQBvAG4ALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAHQAZQBtAHAAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAbgB1AG0AZQByAGkAYwAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgAGkAbgAgAEsAZQBsAHYAaQBuAC4AXABuACAAIAAgAC0AIABkAGUAYwBpAG0AYQBsAHMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAGkAbgBjAGwAdQBkAGUAIABpAG4AIAB0AGgAZQAgAHMAdQBiAGMAbABhAHMAcwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIABtAGEAdABjAGgAZQBzACAAdABoAGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAB0AG8AIAB0AGgAZQAgAGMAbwByAHIAZQBjAHQAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAByAGEAbgBnAGUAIABiAHkAIABjAGgAZQBjAGsAaQBuAGcAIAB3AGgAaQBjAGgAIABoAGkAZwBoAC0AdABlAG0AcAAgAGIAYQBuAGQAIABpAHQAIABmAGEAbABsAHMAIAB3AGkAdABoAGkAbgAuAFwAbgAgACAAIAAtACAASQB0ACAAdABoAGUAbgAgAGwAaQBuAGUAYQByAGwAeQAgAGkAbgB0AGUAcgBwAG8AbABhAHQAZQBzACAAdABoAGUAIABkAGUAYwBpAG0AYQBsACAAcABvAHIAdABpAG8AbgAgAG8AZgAgAHQAaABlACAAcwB1AGIAYwBsAGEAcwBzACAAdQBzAGkAbgBnADoAXABuACAAIAAgACAAIAAgACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAD0AIAAoAFQAXwBoAGkAZwBoACAALQAgAHQAZQBtAHAAKQAgAC8AIABzAHAAYQBuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGgAYQByAGQAYwBvAGQAZQBkACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGMAaABvAHIAcwAgAGEAbgBkACAAcwBwAGEAbgBzACAAYQBjAHIAbwBzAHMAIABzAHAAZQBjAHQAcgBhAGwAIAB0AHkAcABlAHMAIABPADMAEyBNADkALgBcAG4AIAAgACAALQAgAFMAdQBwAHAAbwByAHQAcwAgAGgAaQBnAGgAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGEAbgBkACAAbgBvAHIAbQBhAGwAaQB6AGEAdABpAG8AbgAgAGYAbwByACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHMAdQBiAGMAbABhAHMAcwBlAHMAIABsAGkAawBlACAAXAAiAEsANAAuADMANwA2AFwAIgAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAKAA0ADIAMwAwADAAKQAgACAAIACSISAAXAAiAE8ANAAuADQAMAAwAFwAIgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACgANQA1ADIAOQApACAAIAAgACAAkiEgAFwAIgBHADcALgAzADAAMABcACIAXABuACAAIAAgAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAAoADYAMQAyADEALgA1ACkAIAAgAJIhIABcACIARgA4AC4ANAA1ADAAXAAiAFwAbgAgACAAIABBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAKAAyADQANQA2ACwAIAAxACkAIACSISAAXAAiAE0AOAAuADYAXAAiAFwAbgBcAG4AIAAgACAARABlAHAAZQBuAGQAZQBuAGMAaQBlAHMAOgBcAG4AIAAgACAALQAgAFUAcwBlAHMAIABYAE0AQQBUAEMASAAgACsAIABNAEEAUAAgAGYAbwByACAAbABvAGcAaQBjAGEAbAAgAHIAYQBuAGcAZQAgAGQAZQB0AGUAYwB0AGkAbwBuAC4AXABuACAAIAAgAC0AIABBAHMAcwB1AG0AZQBzACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAZABlAGMAcgBlAGEAcwBlAHMAIABtAG8AbgBvAHQAbwBuAGkAYwBhAGwAbAB5ACAAYQBjAHIAbwBzAHMAIABzAHUAYgBjAGwAYQBzAHMAIABzAGUAcQB1AGUAbgBjAGUALgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQBtAHAALAAgAFsAZABlAGMAaQBtAGEAbABzAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAGEAcgBkAGMAbwBkAGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAgAGQAYQB0AGEAIAAtAC0ALQBcAG4AIAAgACAAIABhAHIAcgBUAHkAcABlAHMALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBPADMAXAAiADsAIABcACIATwA0AFwAIgA7ACAAXAAiAE8ANQBcACIAOwAgAFwAIgBPADYAXAAiADsAIABcACIATwA3AFwAIgA7ACAAXAAiAE8AOABcACIAOwAgAFwAIgBPADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBCADAAXAAiADsAIABcACIAQgAxAFwAIgA7ACAAXAAiAEIAMgBcACIAOwAgAFwAIgBCADMAXAAiADsAIABcACIAQgA0AFwAIgA7ACAAXAAiAEIANQBcACIAOwAgAFwAIgBCADYAXAAiADsAIABcACIAQgA3AFwAIgA7ACAAXAAiAEIAOABcACIAOwAgAFwAIgBCADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBBADAAXAAiADsAIABcACIAQQAxAFwAIgA7ACAAXAAiAEEAMgBcACIAOwAgAFwAIgBBADMAXAAiADsAIABcACIAQQA0AFwAIgA7ACAAXAAiAEEANQBcACIAOwAgAFwAIgBBADYAXAAiADsAIABcACIAQQA3AFwAIgA7ACAAXAAiAEEAOABcACIAOwAgAFwAIgBBADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBGADAAXAAiADsAIABcACIARgAxAFwAIgA7ACAAXAAiAEYAMgBcACIAOwAgAFwAIgBGADMAXAAiADsAIABcACIARgA0AFwAIgA7ACAAXAAiAEYANQBcACIAOwAgAFwAIgBGADYAXAAiADsAIABcACIARgA3AFwAIgA7ACAAXAAiAEYAOABcACIAOwAgAFwAIgBGADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBHADAAXAAiADsAIABcACIARwAxAFwAIgA7ACAAXAAiAEcAMgBcACIAOwAgAFwAIgBHADMAXAAiADsAIABcACIARwA0AFwAIgA7ACAAXAAiAEcANQBcACIAOwAgAFwAIgBHADYAXAAiADsAIABcACIARwA3AFwAIgA7ACAAXAAiAEcAOABcACIAOwAgAFwAIgBHADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBLADAAXAAiADsAIABcACIASwAxAFwAIgA7ACAAXAAiAEsAMgBcACIAOwAgAFwAIgBLADMAXAAiADsAIABcACIASwA0AFwAIgA7ACAAXAAiAEsANQBcACIAOwAgAFwAIgBLADYAXAAiADsAIABcACIASwA3AFwAIgA7ACAAXAAiAEsAOABcACIAOwAgAFwAIgBLADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBNADAAXAAiADsAIABcACIATQAxAFwAIgA7ACAAXAAiAE0AMgBcACIAOwAgAFwAIgBNADMAXAAiADsAIABcACIATQA0AFwAIgA7ACAAXAAiAE0ANQBcACIAOwAgAFwAIgBNADYAXAAiADsAIABcACIATQA3AFwAIgA7ACAAXAAiAE0AOABcACIAOwAgAFwAIgBNADkAXAAiAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAAYQByAHIAVABIAGkAZwBoACwAIAB7AFwAbgAgACAAIAAgACAAIAA0ADQAOQAwADAAOwAgADQAMgA5ADAAMAA7ACAANAAxADQAMAAwADsAIAAzADkANQAwADAAOwAgADMANwAxADAAMAA7ACAAMwA1ADEAMAAwADsAIAAzADMAMwAwADAAOwBcAG4AIAAgACAAIAAgACAAMwAxADQAMAAwADsAIAAyADYAMAAwADAAOwAgADIAMAA2ADAAMAA7ACAAMQA3ADAAMAAwADsAIAAxADYANAAwADAAOwAgADEANQA3ADAAMAA7ACAAMQA0ADUAMAAwADsAIAAxADQAMAAwADAAOwAgADEAMgAzADAAMAA7ACAAMQAwADcAMAAwADsAXABuACAAIAAgACAAIAAgADkANwAwADAAOwAgADkAMwAwADAAOwAgADgAOAAwADAAOwAgADgANgAwADAAOwAgADgAMgA1ADAAOwAgADgAMQAwADAAOwAgADcAOQAxADAAOwAgADcANwA2ADAAOwAgADcANQA5ADAAOwAgADcANAAwADAAOwBcAG4AIAAgACAAIAAgACAANwAyADIAMAA7ACAANwAwADIAMAA7ACAANgA4ADIAMAA7ACAANgA3ADUAMAA7ACAANgA2ADcAMAA7ACAANgA1ADUAMAA7ACAANgAzADUAMAA7ACAANgAyADgAMAA7ACAANgAxADgAMAA7AFwAbgAgACAAIAAgACAAIAA2ADAANQAwADsAIAA1ADkAMwAwADsAIAA1ADgANgAwADsAIAA1ADcANwAwADsAIAA1ADcAMgAwADsAIAA1ADYAOAAwADsAIAA1ADYANgAwADsAIAA1ADYAMAAwADsAIAA1ADUANQAwADsAIAA1ADQAOAAwADsAXABuACAAIAAgACAAIAAgADUAMwA4ADAAOwAgADUAMgA3ADAAOwAgADUAMQA3ADAAOwAgADUAMQAwADAAOwAgADQAOAAzADAAOwAgADQANgAwADAAOwAgADQANAA0ADAAOwAgADQAMwAwADAAOwAgADQAMQAwADAAOwAgADMAOQA5ADAAOwBcAG4AIAAgACAAIAAgACAAMwA5ADMAMAA7ACAAMwA4ADUAMAA7ACAAMwA2ADYAMAA7ACAAMwA1ADYAMAA7ACAAMwA0ADMAMAA7ACAAMwAyADEAMAA7ACAAMwAwADYAMAA7ACAAMgA4ADEAMAA7ACAAMgA2ADgAMAA7ACAAMgA1ADcAMAA7ACAAMgAzADgAMABcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAGEAcgByAFMAcABhAG4ALAAgAHsAXABuACAAIAAgACAAIAAgADIAMAAwADAAOwAgADEANQAwADAAOwAgADEAOQAwADAAOwAgADIANAAwADAAOwAgADIAMAAwADAAOwAgADEAOAAwADAAOwAgADEAOQAwADAAOwBcAG4AIAAgACAAIAAgACAANQA0ADAAMAA7ACAANQA0ADAAMAA7ACAAMwA2ADAAMAA7ACAANgAwADAAOwAgADcAMAAwADsAIAAxADIAMAAwADsAIAA1ADAAMAA7ACAAMQA3ADAAMAA7ACAAMQA2ADAAMAA7ACAAMQAwADAAMAA7AFwAbgAgACAAIAAgACAAIAA0ADAAMAA7ACAANQAwADAAOwAgADIAMAAwADsAIAAzADUAMAA7ACAAMQA1ADAAOwAgADEAOQAwADsAIAAxADUAMAA7ACAAMQA3ADAAOwAgADEAOQAwADsAIAAxADgAMAA7AFwAbgAgACAAIAAgACAAIAAyADAAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAOAAwADsAIAAxADIAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAMQAwADAAOwAgADEAMwAwADsAXABuACAAIAAgACAAIAAgADEAMgAwADsAIAA3ADAAOwAgADkAMAA7ACAANQAwADsAIAA0ADAAOwAgADIAMAA7ACAANgAwADsAIAA1ADAAOwAgADcAMAA7ACAAMQAwADAAOwBcAG4AIAAgACAAIAAgACAAMQAxADAAOwAgADEAMAAwADsAIAA3ADAAOwAgADIANwAwADsAIAAyADMAMAA7ACAAMQA2ADAAOwAgADEANAAwADsAIAAyADAAMAA7ACAAMQAxADAAOwAgADYAMAA7AFwAbgAgACAAIAAgACAAIAA4ADAAOwAgADEAOQAwADsAIAAxADAAMAA7ACAAMQAzADAAOwAgADIAMgAwADsAIAAxADUAMAA7ACAAMgA1ADAAOwAgADEAMwAwADsAIAAxADEAMAA7ACAAMQA5ADAAOwAgADIAOAAwAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABEAGUAdABlAHIAbQBpAG4AZQAgAG0AYQB0AGMAaAAgAGkAbgBkAGUAeAAgAC0ALQAtAFwAbgAgACAAIAAgAHQAZQBtAHAAXwBpAG4AXwByAGEAbgBnAGUALABcAG4AIAAgACAAIAAgACAATQBBAFAAKABTAEUAUQBVAEUATgBDAEUAKABSAE8AVwBTACgAYQByAHIAVABIAGkAZwBoACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABpACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAQQBOAEQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAYQByAHIAVABIAGkAZwBoACwAIABpACkAIAA+AD0AIAB0AGUAbQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAIAA+ACAASQBOAEQARQBYACgAYQByAHIAVABIAGkAZwBoACwAIABpACkAIAAtACAASQBOAEQARQBYACgAYQByAHIAUwBwAGEAbgAsACAAaQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAaQBkAHgALAAgAFgATQBBAFQAQwBIACgAVABSAFUARQAsACAAdABlAG0AcABfAGkAbgBfAHIAYQBuAGcAZQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAATABvAG8AawB1AHAAIAB0AHkAcABlACAAYQBuAGQAIABjAG8AbQBwAHUAdABlACAAZgByAGEAYwB0AGkAbwBuACAALQAtAC0AXABuACAAIAAgACAAZgB1AGwAbABfAHQAeQBwAGUALAAgAEkATgBEAEUAWAAoAGEAcgByAFQAeQBwAGUAcwAsACAAaQBkAHgAKQAsAFwAbgAgACAAIAAgAFQAXwBoAGkAZwBoACwAIABJAE4ARABFAFgAKABhAHIAcgBUAEgAaQBnAGgALAAgAGkAZAB4ACkALABcAG4AIAAgACAAIABzAHAAYQBuACwAIABJAE4ARABFAFgAKABhAHIAcgBTAHAAYQBuACwAIABpAGQAeAApACwAXABuACAAIAAgACAAZgAsACAAKABUAF8AaABpAGcAaAAgAC0AIAB0AGUAbQBwACkAIAAvACAAcwBwAGEAbgAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAEYAbwByAG0AYQB0ACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIAAtAC0ALQBcAG4AIAAgACAAIABkAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABzACkALABcAG4AIAAgACAAIABmAG8AcgBtAGEAdABfAHMAdAByAGkAbgBnACwAIABcACIALgBcACIAIAAmACAAUgBFAFAAVAAoAFwAIgAwAFwAIgAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgAHMAdQBiAGMAbABhAHMAcwAsACAAZgB1AGwAbABfAHQAeQBwAGUAIAAmACAAVABFAFgAVAAoAGYALAAgAGYAbwByAG0AYQB0AF8AcwB0AHIAaQBuAGcAKQAsAFwAbgBcAG4AIAAgACAAIABzAHUAYgBjAGwAYQBzAHMAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABEAGkAcwBwAGwAYQB5AHMAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABhAG4AZAAgAHMAcABhAG4AIABkAGEAdABhACAAYQBjAHIAbwBzAHMAIABzAHQAZQBsAGwAYQByACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBhAG4AIAByAGUAdAB1AHIAbgAgAGUAaQB0AGgAZQByACAAdABoAGUAIABmAHUAbABsACAAcwBwAGUAYwB0AHIAYQBsACAAbQBhAHQAcgBpAHgAIAAoAE8AMwATIE0AOQApACAAbwByACAAYQAgAGYAaQBsAHQAZQByAGUAZAAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AIAB2AGkAZQB3AC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAIABcAG4AIAAgACAALQAgAEkAZgAgAHQAeQBwAGUAIABpAHMAIABvAG0AaQB0AHQAZQBkADoAIABXAGkAZABlACAAbQBhAHQAcgBpAHgAIABvAGYAIABzAHAAZQBjAHQAcgBhAGwAIABjAGwAYQBzAHMAZQBzACAAKABPACAAdABvACAATQApACwAIAAxADAAIABzAHUAYgBjAGwAYQBzAHMAZQBzACAAZQBhAGMAaABcAG4AIAAgACAALQAgAEkAZgAgAHQAeQBwAGUAIABpAHMAIABwAHIAbwB2AGkAZABlAGQAOgAgAFQAdwBvAC0AYwBvAGwAdQBtAG4AIAB0AGEAYgBsAGUAIAB3AGkAdABoACAAVABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGQAIABTAHAAYQBuACAAZgBvAHIAIAB0AGgAZQAgAHIAZQBxAHUAZQBzAHQAZQBkACAAYwBsAGEAcwBzAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAdAB5AHAAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AbgBlACAAbwBmACAAewBcACIATwBcACIALABcACIAQgBcACIALABcACIAQQBcACIALABcACIARgBcACIALABcACIARwBcACIALABcACIASwBcACIALABcACIATQBcACIAfQAgAHQAbwAgAGwAaQBtAGkAdAAgAG8AdQB0AHAAdQB0ACAAdABvACAAdABoAGEAdAAgAHMAcABlAGMAdAByAGEAbAAgAGcAcgBvAHUAcABcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVABlAG0AcABlAHIAYQB0AHUAcgBlAHMAIABhAHIAZQAgAGgAaQBnAGgALQBlAG4AZAAgAHYAYQBsAHUAZQBzACAAZgBvAHIAIABlAGEAYwBoACAAcwB1AGIAYwBsAGEAcwBzACAAKAByAGUAYQBsAC0AdwBvAHIAbABkACAAaQBuAHMAcABpAHIAZQBkACwAIABzAG0AbwBvAHQAaABlAGQAIABkAGEAdABhACkALgBcAG4AIAAgACAALQAgAFMAcABhAG4AIABpAHMAIAB0AGgAZQAgAEsAZQBsAHYAaQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABhACAAcwB1AGIAYwBsAGEAcwBzACAAYQBuAGQAIAB0AGgAZQAgAG4AZQB4AHQAIABjAG8AbwBsAGUAcgAgAG8AbgBlAC4AXABuACAAIAAgAC0AIABJAGYAIABuAG8AIAB0AHkAcABlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQALAAgAG8AdQB0AHAAdQB0ACAAaQBzACAAbwByAGcAYQBuAGkAegBlAGQAIABhAHMAIABhACAAdgBpAHMAdQBhAGwAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAYQBiAGwAZQAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAFYAUwBUAEEAQwBLACAAYQBuAGQAIABIAFMAVABBAEMASwAgAGkAbgB0AGUAcgBuAGEAbABsAHkAIABmAG8AcgAgAGMAbABlAGEAbgAgAHMAdAByAHUAYwB0AHUAcgBlADsAIAByAGUAcABsAGEAYwBlAHMAIABwAHIAZQB2AGkAbwB1AHMAIABzAGUAcABhAHIAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AcwAuAFwAbgAgACAAIAAtACAAVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAHMAdQBwAGUAcgBzAGUAZABlAHMAOgAgAEEAUwBUAFIATwBfAEQASQBTAFAATABBAFkAXwBCAEEAUwBFAF8ARABBAFQAQQAsACAAXwBTAEUAUABBAFIAQQBUAEUARAAsACAAYQBuAGQAIABfAEIAWQBfAFQAWQBQAEUALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAoACkAIAAgACAAIAAgACAAIAAgAJIhIABSAGUAdAB1AHIAbgBzACAAZgB1AGwAbAAgAE8AMwATIE0AOQAgAHMAdQBiAGMAbABhAHMAcwAgAGMAaABhAHIAdABcAG4AIAAgACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAoAFwAIgBHAFwAIgApACAAIAAgACAAIACSISAAUgBlAHQAdQByAG4AcwAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgAGEAbgBkACAAcwBwAGEAbgAgAGYAbwByACAARwAwABMgRwA5AFwAbgAgACAAIABBAFMAVABSAE8AXwBEAEkAUwBQAEwAQQBZAF8AUwBQAEUAQwBUAFIAQQBMACgAXAAiAEYAXAAiACkAIAAgACAAIAAgAJIhIABGADAAEyBGADkAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AIABtAGUAdAByAGkAYwBzAFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBEAEkAUwBQAEwAQQBZAF8AUwBQAEUAQwBUAFIAQQBMACAAPQAgAEwAQQBNAEIARABBACgAWwB0AHkAcABlAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABEAGUAZgBpAG4AZQAgAHMAcABlAGMAdAByAGEAbAAgAHQAeQBwAGUAcwAgAGEAbgBkACAAYgB1AGkAbABkACAAaABlAGwAcABlAHIAcwAgAC0ALQAtAFwAbgAgACAAIAAgAFQAeQBwAGUAcwAsACAAewBcACIATwBcACIAOwBcACIAQgBcACIAOwBcACIAQQBcACIAOwBcACIARgBcACIAOwBcACIARwBcACIAOwBcACIASwBcACIAOwBcACIATQBcACIAfQAsAFwAbgAgACAAIAAgAEgAZQBhAGQAZQByAHMALAAgAFQAUgBBAE4AUwBQAE8AUwBFACgAVgBTAFQAQQBDAEsAKABcACIAIABcACIALAAgAFQAeQBwAGUAcwApACkALABcAG4AIAAgACAAIABGAGkAbgBkAEMAbwBsACwAIABNAEEASwBFAEEAUgBSAEEAWQAoAEMATwBVAE4AVABBACgAVAB5AHAAZQBzACkALAAgADIALAAgAEwAQQBNAEIARABBACgAcgAsACAAYwAsACAASQBGACgAYwAgAD0AIAAxACwAIABJAE4ARABFAFgAKABUAHkAcABlAHMALAAgAHIAKQAsACAAcgApACkAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAFIAYQB3ACAAcwB0AGEAcgAgAHMAdQBiAGMAbABhAHMAcwAgAGQAYQB0AGEAIAAtAC0ALQBcAG4AIAAgACAAIABhAHIAcgBUAHkAcABlAHMALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBPAFwAIgA7ACAAXAAiAE8AXAAiADsAIABcACIATwBcACIAOwAgAFwAIgBPADMAXAAiADsAIABcACIATwA0AFwAIgA7ACAAXAAiAE8ANQBcACIAOwAgAFwAIgBPADYAXAAiADsAIABcACIATwA3AFwAIgA7ACAAXAAiAE8AOABcACIAOwAgAFwAIgBPADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBCADAAXAAiADsAIABcACIAQgAxAFwAIgA7ACAAXAAiAEIAMgBcACIAOwAgAFwAIgBCADMAXAAiADsAIABcACIAQgA0AFwAIgA7ACAAXAAiAEIANQBcACIAOwAgAFwAIgBCADYAXAAiADsAIABcACIAQgA3AFwAIgA7ACAAXAAiAEIAOABcACIAOwAgAFwAIgBCADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBBADAAXAAiADsAIABcACIAQQAxAFwAIgA7ACAAXAAiAEEAMgBcACIAOwAgAFwAIgBBADMAXAAiADsAIABcACIAQQA0AFwAIgA7ACAAXAAiAEEANQBcACIAOwAgAFwAIgBBADYAXAAiADsAIABcACIAQQA3AFwAIgA7ACAAXAAiAEEAOABcACIAOwAgAFwAIgBBADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBGADAAXAAiADsAIABcACIARgAxAFwAIgA7ACAAXAAiAEYAMgBcACIAOwAgAFwAIgBGADMAXAAiADsAIABcACIARgA0AFwAIgA7ACAAXAAiAEYANQBcACIAOwAgAFwAIgBGADYAXAAiADsAIABcACIARgA3AFwAIgA7ACAAXAAiAEYAOABcACIAOwAgAFwAIgBGADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBHADAAXAAiADsAIABcACIARwAxAFwAIgA7ACAAXAAiAEcAMgBcACIAOwAgAFwAIgBHADMAXAAiADsAIABcACIARwA0AFwAIgA7ACAAXAAiAEcANQBcACIAOwAgAFwAIgBHADYAXAAiADsAIABcACIARwA3AFwAIgA7ACAAXAAiAEcAOABcACIAOwAgAFwAIgBHADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBLADAAXAAiADsAIABcACIASwAxAFwAIgA7ACAAXAAiAEsAMgBcACIAOwAgAFwAIgBLADMAXAAiADsAIABcACIASwA0AFwAIgA7ACAAXAAiAEsANQBcACIAOwAgAFwAIgBLADYAXAAiADsAIABcACIASwA3AFwAIgA7ACAAXAAiAEsAOABcACIAOwAgAFwAIgBLADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBNADAAXAAiADsAIABcACIATQAxAFwAIgA7ACAAXAAiAE0AMgBcACIAOwAgAFwAIgBNADMAXAAiADsAIABcACIATQA0AFwAIgA7ACAAXAAiAE0ANQBcACIAOwAgAFwAIgBNADYAXAAiADsAIABcACIATQA3AFwAIgA7ACAAXAAiAE0AOABcACIAOwAgAFwAIgBNADkAXAAiAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAAYQByAHIAVABIAGkAZwBoACwAIAB7AFwAbgAgACAAIAAgACAAIABcACIAXAAiADsAIABcACIAXAAiADsAIABcACIAXAAiADsAIAA0ADQAOQAwADAAOwAgADQAMgA5ADAAMAA7ACAANAAxADQAMAAwADsAIAAzADkANQAwADAAOwAgADMANwAxADAAMAA7ACAAMwA1ADEAMAAwADsAIAAzADMAMwAwADAAOwBcAG4AIAAgACAAIAAgACAAMwAxADQAMAAwADsAIAAyADYAMAAwADAAOwAgADIAMAA2ADAAMAA7ACAAMQA3ADAAMAAwADsAIAAxADYANAAwADAAOwAgADEANQA3ADAAMAA7ACAAMQA0ADUAMAAwADsAIAAxADQAMAAwADAAOwAgADEAMgAzADAAMAA7ACAAMQAwADcAMAAwADsAXABuACAAIAAgACAAIAAgADkANwAwADAAOwAgADkAMwAwADAAOwAgADgAOAAwADAAOwAgADgANgAwADAAOwAgADgAMgA1ADAAOwAgADgAMQAwADAAOwAgADcAOQAxADAAOwAgADcANwA2ADAAOwAgADcANQA5ADAAOwAgADcANAAwADAAOwBcAG4AIAAgACAAIAAgACAANwAyADIAMAA7ACAANwAwADIAMAA7ACAANgA4ADIAMAA7ACAANgA3ADUAMAA7ACAANgA2ADcAMAA7ACAANgA1ADUAMAA7ACAANgAzADUAMAA7ACAANgAyADgAMAA7ACAANgAxADgAMAA7AFwAbgAgACAAIAAgACAAIAA2ADAANQAwADsAIAA1ADkAMwAwADsAIAA1ADgANgAwADsAIAA1ADcANwAwADsAIAA1ADcAMgAwADsAIAA1ADYAOAAwADsAIAA1ADYANgAwADsAIAA1ADYAMAAwADsAIAA1ADUANQAwADsAIAA1ADQAOAAwADsAXABuACAAIAAgACAAIAAgADUAMwA4ADAAOwAgADUAMgA3ADAAOwAgADUAMQA3ADAAOwAgADUAMQAwADAAOwAgADQAOAAzADAAOwAgADQANgAwADAAOwAgADQANAA0ADAAOwAgADQAMwAwADAAOwAgADQAMQAwADAAOwAgADMAOQA5ADAAOwBcAG4AIAAgACAAIAAgACAAMwA5ADMAMAA7ACAAMwA4ADUAMAA7ACAAMwA2ADYAMAA7ACAAMwA1ADYAMAA7ACAAMwA0ADMAMAA7ACAAMwAyADEAMAA7ACAAMwAwADYAMAA7ACAAMgA4ADEAMAA7ACAAMgA2ADgAMAA7ACAAMgA1ADcAMAA7ACAAMgAzADgAMABcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAGEAcgByAFMAcABhAG4ALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgADIAMAAwADAAOwAgADEANQAwADAAOwAgADEAOQAwADAAOwAgADIANAAwADAAOwAgADIAMAAwADAAOwAgADEAOAAwADAAOwAgADEAOQAwADAAOwBcAG4AIAAgACAAIAAgACAANQA0ADAAMAA7ACAANQA0ADAAMAA7ACAAMwA2ADAAMAA7ACAANgAwADAAOwAgADcAMAAwADsAIAAxADIAMAAwADsAIAA1ADAAMAA7ACAAMQA3ADAAMAA7ACAAMQA2ADAAMAA7ACAAMQAwADAAMAA7AFwAbgAgACAAIAAgACAAIAA0ADAAMAA7ACAANQAwADAAOwAgADIAMAAwADsAIAAzADUAMAA7ACAAMQA1ADAAOwAgADEAOQAwADsAIAAxADUAMAA7ACAAMQA3ADAAOwAgADEAOQAwADsAIAAxADgAMAA7AFwAbgAgACAAIAAgACAAIAAyADAAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAOAAwADsAIAAxADIAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAMQAwADAAOwAgADEAMwAwADsAXABuACAAIAAgACAAIAAgADEAMgAwADsAIAA3ADAAOwAgADkAMAA7ACAANQAwADsAIAA0ADAAOwAgADIAMAA7ACAANgAwADsAIAA1ADAAOwAgADcAMAA7ACAAMQAwADAAOwBcAG4AIAAgACAAIAAgACAAMQAxADAAOwAgADEAMAAwADsAIAA3ADAAOwAgADIANwAwADsAIAAyADMAMAA7ACAAMQA2ADAAOwAgADEANAAwADsAIAAyADAAMAA7ACAAMQAxADAAOwAgADYAMAA7AFwAbgAgACAAIAAgACAAIAA4ADAAOwAgADEAOQAwADsAIAAxADAAMAA7ACAAMQAzADAAOwAgADIAMgAwADsAIAAxADUAMAA7ACAAMgA1ADAAOwAgADEAMwAwADsAIAAxADEAMAA7ACAAMQA5ADAAOwAgADIAOAAwAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAGYAIABuAG8AIAB0AHkAcABlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQALAAgAGQAaQBzAHAAbABhAHkAIABmAHUAbABsACAAdABhAGIAbABlACAALQAtAC0AXABuACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAAQgBZAFIATwBXACgASABTAFQAQQBDAEsAKABhAHIAcgBUAHkAcABlAHMALAAgAGEAcgByAFQASABpAGcAaAAsACAAYQByAHIAUwBwAGEAbgApACwAXABuACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAcgBvAHcALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIABUAFIAVQBFACwAIABUAEUAWABUACgASQBOAEQARQBYACgAcgBvAHcALAAgADIAKQAsACAAXAAiADAAXAAiACkALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKAByAG8AdwAsACAAMwApACwAIABcACIAMABcACIAKQApACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABOAHUAbQBiAGUAcgBzACwAIABTAEUAUQBVAEUATgBDAEUAKAAxADAALAAxACwAMAAsADEAKQAsAFwAbgAgACAAIAAgAE8AXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBPAFwAIgApACwAXABuACAAIAAgACAAQgBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAEIAXAAiACkALABcAG4AIAAgACAAIABBAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIAQQBcACIAKQAsAFwAbgAgACAAIAAgAEYAXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBGAFwAIgApACwAXABuACAAIAAgACAARwBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAEcAXAAiACkALABcAG4AIAAgACAAIABLAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIASwBcACIAKQAsAFwAbgAgACAAIAAgAE0AXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBNAFwAIgApACwAXABuAFwAbgAgACAAIAAgAGYAdQBsAGwAVABhAGIAbABlACwAIABWAFMAVABBAEMASwAoAEgAZQBhAGQAZQByAHMALAAgAEgAUwBUAEEAQwBLACgATgB1AG0AYgBlAHIAcwAsAE8AXwBTAHQAYQByAHMALAAgAEIAXwBTAHQAYQByAHMALAAgAEEAXwBTAHQAYQByAHMALAAgAEYAXwBTAHQAYQByAHMALAAgAEcAXwBTAHQAYQByAHMALAAgAEsAXwBTAHQAYQByAHMALAAgAE0AXwBTAHQAYQByAHMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAASQBmACAAdAB5AHAAZQAgAGkAcwAgAHMAcABlAGMAaQBmAGkAZQBkACwAIABqAHUAcwB0ACAAcgBlAHQAdQByAG4AIAB0AHcAbwAtAGMAbwBsAHUAbQBuACAAYgByAGUAYQBrAGQAbwB3AG4AIAAtAC0ALQBcAG4AIAAgACAAIAB0AGUAbQBwAHMALAAgAEYASQBMAFQARQBSACgAYQByAHIAVABIAGkAZwBoACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAIAAxACkAIAA9ACAAdAB5AHAAZQApACwAXABuACAAIAAgACAAcwBwAGEAbgBzACwAIABGAEkATABUAEUAUgAoAGEAcgByAFMAcABhAG4ALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAgADEAKQAgAD0AIAB0AHkAcABlACkALABcAG4AIAAgACAAIAB0AHkAcABlAEgAZQBhAGQALAAgAEgAUwBUAEEAQwBLACgAdAB5AHAAZQAsACAAXAAiAHMAcABhAG4AXAAiACkALABcAG4AIAAgACAAIABzAGwAaQBtAFQAYQBiAGwAZQAsACAAVgBTAFQAQQBDAEsAKAB0AHkAcABlAEgAZQBhAGQALAAgAEgAUwBUAEEAQwBLACgAdABlAG0AcABzACwAIABzAHAAYQBuAHMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAARgBpAG4AYQBsACAAbwB1AHQAcAB1AHQAOgAgAGYAdQBsAGwAIAB0AGEAYgBsAGUAIABvAHIAIABmAGkAbAB0AGUAcgBlAGQAIABjAG8AbAB1AG0AbgBzAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAdAB5AHAAZQApACwAIABmAHUAbABsAFQAYQBiAGwAZQAsACAAcwBsAGkAbQBUAGEAYgBsAGUAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFMAVABBAFIAXwBBAFQAVABSAEkAQgBVAFQARQBTAFwAbgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQBsAGwAIABrAGUAeQAgAHMAdABlAGwAbABhAHIAIABwAGEAcgBhAG0AZQB0AGUAcgBzACAAZgByAG8AbQAgAGEAIABzAGkAbgBnAGwAZQAgAGsAbgBvAHcAbgAgAHYAYQBsAHUAZQAgABQgIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAXABuACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAG8AcgAgAGwAaQBmAGUAdABpAG0AZQAgABQgIAB1AHMAaQBuAGcAIABlAG0AcABpAHIAaQBjAGEAbAAgAHAAbwB3AGUAcgAtAGwAYQB3ACAAcwBjAGEAbABpAG4AZwAgAHIAZQBsAGEAdABpAG8AbgBzAGgAaQBwAHMAIABiAGEAcwBlAGQAIABvAG4AIAB0AGgAZQAgAFMAdQBuAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABtAG8AZABlACAAIAAgACAAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAcwB0AHIAaQBuAGcAIABpAG4AZABpAGMAYQB0AGkAbgBnACAAdABoAGUAIABpAG4AcAB1AHQAIABhAHQAdAByAGkAYgB1AHQAZQAgAHQAeQBwAGUAOgBcAG4AIAAgACAAIAAgACAAIABcACIASwBcACIAIAAUICAARQBmAGYAZQBjAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAEsAZQBsAHYAaQBuACkAXABuACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAFCAgAE4AbwByAG0AYQBsAGkAegBlAGQAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAFQAIAAvACAANQA3ADcAMAAgAEsAKQBcAG4AIAAgACAAIAAgACAAIABcACIATQBcACIAIAAUICAATQBhAHMAcwAgACgAcwBvAGwAYQByACAAdQBuAGkAdABzACkAXABuACAAIAAgACAAIAAgACAAXAAiAFIAXAAiACAAFCAgAFIAYQBkAGkAdQBzACAAKABzAG8AbABhAHIAIAB1AG4AaQB0AHMAKQBcAG4AIAAgACAAIAAgACAAIABcACIATABcACIAIAAUICAATAB1AG0AaQBuAG8AcwBpAHQAeQAgACgAcwBvAGwAYQByACAAdQBuAGkAdABzACkAXABuACAAIAAgACAAIAAgACAAXAAiAFYAXAAiACAAFCAgAE0AYQBpAG4ALQBzAGUAcQB1AGUAbgBjAGUAIABsAGkAZgBlAHQAaQBtAGUAIAAoAHMAbwBsAGEAcgAgAHUAbgBpAHQAcwApAFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAIAAgACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAaQBuAHAAdQB0ACAAYQB0AHQAcgBpAGIAdQB0AGUAIAAoAG0AdQBzAHQAIABtAGEAdABjAGgAIAB0AGgAZQAgAG0AbwBkAGUAKQAuAFwAbgAgACAAIAAtACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAG8AdQB0AHAAdQB0ACAAdgBhAGwAdQBlAHMALgAgAEQAZQBmAGEAdQBsAHQAIAA9ACAANgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAdAB3AG8ALQBjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAgAHcAaQB0AGgAIABsAGEAYgBlAGwAZQBkACAAcwB0AGUAbABsAGEAcgAgAHAAYQByAGEAbQBlAHQAZQByAHMAIAAoAEsALAAgAFQALAAgAE0ALAAgAFIALAAgAEwALAAgAFYAKQAsAFwAbgAgACAAIAB3AGkAdABoACAAdABoAGUAIABpAG4AcAB1AHQAIABhAHQAdAByAGkAYgB1AHQAZQAgAGYAbABhAGcAZwBlAGQAIAB3AGkAdABoACAAYQAgAJQnIABhAHIAcgBvAHcAIABmAG8AcgAgAGMAbABhAHIAaQB0AHkALgBcAG4AXABuACAAIAAgAE0AZQB0AGgAbwBkADoAXABuACAAIAAgAFQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAbgBvAHIAbQBhAGwAaQB6AGUAcwAgAHQAaABlACAAaQBuAHAAdQB0ACAAdgBhAGwAdQBlACAAdABvACAAYQAgAHMAbwBsAGEAcgAtAHIAZQBsAGEAdABpAHYAZQAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgACgAYABUAG4AbwByAG0AYAApAFwAbgAgACAAIABhAG4AZAAgAGQAZQByAGkAdgBlAHMAIAB0AGgAZQAgAHIAZQBtAGEAaQBuAGkAbgBnACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAGYAcgBvAG0AIABlAG0AcABpAHIAaQBjAGEAbAAgAGUAeABwAG8AbgBlAG4AdABzADoAXABuAFwAbgAgACAAIAAtACAASwAgAD0AIABUAG4AbwByAG0AIADXACAANQA3ADcAMABcAG4AIAAgACAALQAgAE0AIAA9ACAAVABuAG8AcgBtALIAXABuACAAIAAgAC0AIABSACAAPQAgAFQAbgBvAHIAbQBeADEALgA4AFwAbgAgACAAIAAtACAATAAgAD0AIABUAG4AbwByAG0AXgA3AC4ANgBcAG4AIAAgACAALQAgAFYAIAA9ACAAVABuAG8AcgBtAF4AKAAtADUAKQBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUwBUAEEAUgBfAEEAVABUAFIASQBCAFUAVABFAFMAKABcACIASwBcACIALAAgADkAMQA3ADAALgA2ADAANQAyACwAIAAzACkAXABuAFwAbgAgACAAIABPAHUAdABwAHUAdAA6AFwAbgAgACAAIAAgACAASwAgAJQnIAAgACAAOQAxADcAMAAuADYAMAA1AFwAbgAgACAAIAAgACAAVAAgACAAIAAgACAAMQAuADUAOAA4AFwAbgAgACAAIAAgACAATQAgACAAIAAgACAAMgAuADUAMgAzAFwAbgAgACAAIAAgACAAUgAgACAAIAAgACAAMgAuADIAOQA2AFwAbgAgACAAIAAgACAATAAgACAAIAAgACAAMwAzAC4AMAAwADYAXABuACAAIAAgACAAIABWACAAIAAgACAAIAAwAC4AMQAwADEAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEIAYQBzAGUAZAAgAG8AbgAgAHMAaQBtAHAAbABpAGYAaQBlAGQAIABzAHQAZQBsAGwAYQByACAAcwBjAGEAbABpAG4AZwAgAGwAYQB3AHMAIAB1AHMAZQBkACAAaQBuACAAYQBzAHQAcgBvAHAAaAB5AHMAaQBjAHMAIABhAG4AZAAgAHcAbwByAGwAZABiAHUAaQBsAGQAaQBuAGcALgBcAG4AIAAgACAALQAgAEUAZgBmAGUAYwB0AGkAdgBlACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAaQBzACAAcwBjAGEAbABlAGQAIAB0AG8AIAA1ADcANwAwACAASwAgAGYAbwByACAAdABoAGUAIABTAHUAbgAgACgAcwB0AGEAbgBkAGEAcgBkACAAcwBvAGwAYQByACAAcgBlAGYAZQByAGUAbgBjAGUAKQAuAFwAbgAgACAAIAAtACAATABpAGYAZQB0AGkAbQBlACAAaQBzACAAYQBwAHAAcgBvAHgAaQBtAGEAdABlAGQAIABhAHMAIABhACAAcABvAHcAZQByACAAaQBuAHYAZQByAHMAZQAgAG8AZgAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQA6ACAAVgAgAB0iIABUAHsgdSAuAFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIABlAGQAdQBjAGEAdABpAG8AbgBhAGwALAAgAHMAcABlAGMAdQBsAGEAdABpAHYAZQAsACAAYQBuAGQAIABtAG8AZABlAGwAaQBuAGcAIABwAHUAcgBwAG8AcwBlAHMALgBcAG4AXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAFMAVABBAFIAXwBBAFQAVABSAEkAQgBVAFQARQBTACAAPQAgAEwAQQBNAEIARABBACgAbQBvAGQAZQAsACAAaQBuAHAAdQB0ACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAAUwBlAHQAIABkAGUAZgBhAHUAbAB0ACAAcgBvAHUAbgBkAGkAbgBnACAAcAByAGUAYwBpAHMAaQBvAG4AXABuACAAIAAgACAAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAHUAcABwAGUAcgAtAGMAYQBzAGUAIABmAG8AcgAgAGMAbwBuAHMAaQBzAHQAZQBuAGMAeQBcAG4AIAAgACAAIABtAG8AZABlACwAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AXABuACAAIAAgACAALwAvACAATgBvAHIAbQBhAGwAaQB6AGUAIABpAG4AcAB1AHQAIAB0AG8AIABzAG8AbABhAHIALQByAGUAbABhAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAFQAbgBvAHIAbQApAFwAbgAgACAAIAAgAFQAbgBvAHIAbQAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcACIAVABcACIALAAgAGkAbgBwAHUAdAAsAFwAbgAgACAAIAAgACAAIABcACIASwBcACIALAAgAGkAbgBwAHUAdAAgAC8AIAA1ADcANwAwACwAXABuACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAAUwBRAFIAVAAoAGkAbgBwAHUAdAApACwAXABuACAAIAAgACAAIAAgAFwAIgBSAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgAMQAgAC8AIAAxAC4AOAApACwAXABuACAAIAAgACAAIAAgAFwAIgBMAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgAMQAgAC8AIAA3AC4ANgApACwAXABuACAAIAAgACAAIAAgAFwAIgBWAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgALQAxACAALwAgADUAKQAsAFwAbgAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAATgBvAHcAIABkAGUAcgBpAHYAZQAgAGEAbABsACAAbwB0AGgAZQByACAAYQB0AHQAcgBpAGIAdQB0AGUAcwAgAGYAcgBvAG0AIABUAG4AbwByAG0AXABuACAAIAAgACAASwAsACAAVABuAG8AcgBtACAAKgAgADUANwA3ADAALABcAG4AIAAgACAAIABNACwAIABUAG4AbwByAG0AIABeACAAMgAsAFwAbgAgACAAIAAgAFIALAAgAFQAbgBvAHIAbQAgAF4AIAAxAC4AOAAsAFwAbgAgACAAIAAgAEwALAAgAFQAbgBvAHIAbQAgAF4AIAA3AC4ANgAsAFwAbgAgACAAIAAgAFYALAAgAFQAbgBvAHIAbQAgAF4AIAAtADUALABcAG4AXABuACAAIAAgACAALwAvACAAUgBvAHUAbgBkACAAZQB2AGUAcgB5AHQAaABpAG4AZwAgAGEAbgBkACAAZgBvAHIAbQBhAHQAIABhAHMAIABzAHQAcgBpAG4AZwBzAFwAbgAgACAAIAAgAGwAYQBiAGUAbABzACwAIABUAFIAQQBOAFMAUABPAFMARQAoAHsAXAAiAEsAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAFIAXAAiACwAIABcACIATABcACIALAAgAFwAIgBWAFwAIgB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AF8AdgBhAGwAdQBlAHMALAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABLACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAFQAbgBvAHIAbQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABNACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAFIALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgATAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABWACwAIABwAHIAZQBjACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAATABhAGIAZQBsAHMAIAB3AGkAdABoACAAYQByAHIAbwB3ACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQAgAC0ALQAtAFwAbgAgACAAIAAgACAAIAAgACAAZgBsAGEAZwBnAGUAZABfAGwAYQBiAGUAbABzACwAIABCAFkAUgBPAFcAKABsAGEAYgBlAGwAcwAsACAATABBAE0AQgBEAEEAKAByAG8AdwAsACAASQBGACgAcgBvAHcAIAA9ACAAbQBvAGQAZQAsACAAcgBvAHcAIAAmACAAXAAiACAAlCdcACIALAAgAHIAbwB3ACkAKQApACwAXABuAFwAbgBcAG4AIAAgACAAIAAvAC8AIABSAGUAdAB1AHIAbgAgAGwAYQBiAGUAbABlAGQAIAB0AGEAYgBsAGUAXABuACAAIAAgACAAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIAfQAsACAAZgBsAGEAZwBnAGUAZABfAGwAYQBiAGUAbABzACwAIABvAHUAdABwAHUAdABfAHYAYQBsAHUAZQBzACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUgBlAHQAdQByAG4AcwAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAgAGQAYQB0AGEAIABiAGEAcwBlAGQAIABvAG4AIABzAHQAZQBsAGwAYQByACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAuAFwAbgBcAG4AIAAgACAATQBvAGQAZQBzADoAXABuACAAIAAgAC0AIABcACIAVABBAEIATABFAFwAIgAgACAAIAAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAGYAdQBsAGwAIAB0AGEAYgBsAGUAIABvAGYAIABpAG4AbgBlAHIALwBvAHUAdABlAHIALwBhAHYAZwAvAHMAcABhAG4AIABkAGkAcwB0AGEAbgBjAGUAcwAgAGYAbwByACAAegBvAG4AZQBzACAAWgAwABMgWgA1AC4AXABuACAAIAAgAC0AIABcACIAVgBFAFIAVABJAEMAQQBMAFwAIgAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAHYAZQByAHQAaQBjAGEAbAAgAGwAaQBzAHQAIABvAGYAIABzAGMAYQBsAGUAZAAgAGQAaQBzAHQAYQBuAGMAZQBzACwAIAB3AGkAdABoACAATgAtAD4AIABtAGEAcgBrAGkAbgBnACAAdABoAGUAIABuAHUAYwBsAGUAYQBsACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAALQAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAGgAbwByAGkAegBvAG4AdABhAGwAIAByAG8AdwAgAG8AZgAgAHQAaABlACAAcwBhAG0AZQAgAHYAYQBsAHUAZQBzACAAZgBvAHIAIAB1AHMAZQAgAGkAbgAgAGkAbgBsAGkAbgBlACAAZABpAHMAcABsAGEAeQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAE8AbgBlACAAbwBmACAAXAAiAFQAQQBCAEwARQBcACIALAAgAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIABvAHIAIABcACIASABPAFIASQBaAE8ATgBUAEEATABcACIALgBcAG4AIAAgACAALQAgAGwAdQBtACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAUwB0AGUAbABsAGEAcgAgAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABpAG4AIABzAG8AbABhAHIAIAB1AG4AaQB0AHMALgAgAFIAZQBxAHUAaQByAGUAZAAgAGYAbwByACAAVgBFAFIAVABJAEMAQQBMACAAYQBuAGQAIABIAE8AUgBJAFoATwBOAFQAQQBMAC4AXABuACAAIAAgAC0AIABwAHIAZQBjAGkAcwBpAG8AbgAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADMAKQBcAG4AXABuACAAIAAgAFoAbwBuAGUAcwAgACgAWgAwABMgWgA1ACkAIAByAGUAcAByAGUAcwBlAG4AdAAgAG4AZQBzAHQAZQBkACAAYwBpAHIAYwB1AG0AcwB0AGUAbABsAGEAcgAgAGgAYQBiAGkAdABhAGIAaQBsAGkAdAB5ACAAYgBhAG4AZABzADoAXABuACAAIAAgAC0AIABaADAAOgAgACgAdABvAG8AIABoAG8AdAApAFwAbgAgACAAIAAtACAAWgAxADoAIAAoAGkAbgBuAGUAcgAgAGUAZABnAGUAKQBcAG4AIAAgACAALQAgAFoAMgA6ACAAKABpAG4AbgBlAHIAIAB0AGUAbQBwAGUAcgBhAHQAZQApAFwAbgAgACAAIAAtACAAWgAzADoAIAAoAG8AdQB0AGUAcgAgAHQAZQBtAHAAZQByAGEAdABlACkAXABuACAAIAAgAC0AIABaADQAOgAgACgAbwB1AHQAZQByACAAZQBkAGcAZQApAFwAbgAgACAAIAAtACAAWgA1ADoAIAAoAHQAbwBvACAAYwBvAGwAZAApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQAgAHUAcwBhAGcAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAoAFwAIgBUAEEAQgBMAEUAXAAiACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgAFIAZQB0AHUAcgBuAHMAIABiAGEAcwBlACAAcgBlAGYAZQByAGUAbgBjAGUAIABjAGgAYQByAHQAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAFYARQBSAFQASQBDAEEATABcACIALAAgADEALgAyADUAKQAgACAAIACSISAAUgBlAHQAdQByAG4AcwAgAHYAZQByAHQAaQBjAGEAbAAgAGQAaQBzAHQAYQBuAGMAZQBzACAAcwBjAGEAbABlAGQAIAB0AG8AIABzAHQAYQByACAAdwBpAHQAaAAgAEwAIAA9ACAAMQAuADIANQBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAKABcACIASABPAFIASQBaAE8ATgBUAEEATABcACIALAAgADEALgAyADUAKQAgAJIhIABSAGUAdAB1AHIAbgBzACAAcwBhAG0AZQAgAGEAcwAgAHIAbwB3AFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABOAHUAYwBsAGUAYQBsACAAcgBhAGQAaQB1AHMAIABpAHMAIABzAHEAcgB0ACgATAApACAAYQBuAGQAIAB1AHMAZQBkACAAYQBzACAAYQBuAGMAaABvAHIAIABiAGUAdAB3AGUAZQBuACAAWgAyABMgWgAzAC4AXABuACAAIAAgAC0AIABJAG4AcAB1AHQAIABpAHMAIABpAGcAbgBvAHIAZQBkACAAZgBvAHIAIABtAG8AZABlACAAXAAiAFQAQQBCAEwARQBcACIALgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAG8AZABlACwAIABbAGwAdQBtAF0ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AXABuACAAIAAgACAALwAvACAAWgBvAG4AZQAgAGMAbwBlAGYAZgBpAGMAaQBlAG4AdABzAFwAbgAgACAAIAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAWgAwAFwAIgA7ACAAXAAiAFoAMQBcACIAOwAgAFwAIgBaADIAXAAiADsAIABcACIAWgAzAFwAIgA7ACAAXAAiAFoANABcACIAOwAgAFwAIgBaADUAXAAiAH0ALABcAG4AIAAgACAAIABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAB7ADAAOwAgADAALgA1ADsAIAAwAC4ANwA1ADsAIAAwAC4AOQA1ADsAIAAxAC4AMwA4ADUAOwAgADEALgA3ADcAfQAsAFwAbgAgACAAIAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAHsAMAAuADUAOwAgADAALgA3ADUAOwAgADAALgA5ADUAOwAgADEALgAzADgANQA7ACAAMQAuADcANwA7ACAANAAuADgANQB9ACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFAAcgBlAGMAbwBtAHAAdQB0AGUAIABhAHYAZQByAGEAZwBlACAAYQBuAGQAIABzAHAAYQBuAFwAbgAgACAAIAAgAGEAdgBnAF8AZgBhAGMAdABvAHIAcwAsACAAKABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACAAKwAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMAKQAgAC8AIAAyACwAXABuACAAIAAgACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMAIAAtACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABOAHUAYwBsAGUAYQBsACAAKABmAG8AcgAgAHMAYwBhAGwAaQBuAGcAKQBcAG4AIAAgACAAIABuAHUAYwBsAGUAYQBsACwAIABTAFEAUgBUACgASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABsAHUAbQApACwAIAAxACwAIABsAHUAbQApACkALABcAG4AXABuACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAHMAYwBhAGwAZQBkACAAZABpAHMAdABhAG4AYwBlAHMAXABuACAAIAAgACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAbwB1AHQAZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAYQB2AGcAXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAgACoAIABhAHYAZwBfAGYAYQBjAHQAbwByAHMALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHMAcABhAG4AXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAgACoAIABzAHAAYQBuAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEYAbwByAG0AYQB0AHQAZQBkACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAdgBlAHIAdABpAGMAYQBsAF8AbABhAGIAZQBsAHMALAAgAHsAXAAiADAAOgAgAFwAIgAsACAAXAAiADEAOgAgAFwAIgAsACAAXAAiADIAOgAgAFwAIgAsACAAXAAiAE4AIACUJ1wAIgAsACAAXAAiADMAOgAgAFwAIgAsACAAXAAiADQAOgAgAFwAIgAsACAAXAAiADUAOgAgAFwAIgB9ACwAXABuACAAIAAgACAAdgBlAHIAdABpAGMAYQBsAF8AdgBhAGwAdQBlAHMALAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMgApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAFIATwBVAE4ARAAoAEkATgBEAEUAWAAoAGkAbgBuAGUAcgBfAGYAYQBjAHQAbwByAHMALAAgADMAKQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA0ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAANAApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAFIATwBVAE4ARAAoAEkATgBEAEUAWAAoAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgADUAKQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA2ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAAUgBlAHQAdQByAG4AIABsAG8AZwBpAGMAXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBTAFQAQQBOAEQAQQBSAEQAXAAiACwAIABDAEgATwBPAFMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgAHsAMQAsACAAMgAsACAAMwAsACAANAAsACAANQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAWgBvAG4AZQBcACIALAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIASQBuAG4AZQByAFwAIgAsACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIATwB1AHQAZQByAFwAIgAsACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAQQB2AGUAcgBhAGcAZQBcACIALAAgAGEAdgBnAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAUwBwAGEAbgBcACIALAAgAHMAcABhAG4AXwBmAGEAYwB0AG8AcgBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAVgBFAFIAVABJAEMAQQBMAFwAIgAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABhAGIAZQBsAHMALAAgAHsAXAAiADAAOgBcACIALAAgAFwAIgAxADoAXAAiACwAIABcACIAMgA6AFwAIgAsACAAXAAiAE4AIACUJ1wAIgAsACAAXAAiADMAOgBcACIALAAgAFwAIgA0ADoAXAAiACwAIABcACIANQA6AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAYwBhAGwAZQBkAF8AdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAewAwAC4ANQAsACAAMAAuADcANQAsACAAMAAuADkANQAsACAAMQAsACAAMQAuADMAOAA1ACwAIAAxAC4ANwA3ACwAIAA0AC4AOAA1AH0ALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAQQBOAFMAUABPAFMARQAoAFYAUwBUAEEAQwBLACgAbABhAGIAZQBsAHMALAAgAHMAYwBhAGwAZQBkAF8AdgBhAGwAdQBlAHMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAEgATwBSAEkAWgBPAE4AVABBAEwAXAAiACwAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMgApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMwApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAANAApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA0ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA1ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA2ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAEkAbgB2AGEAbABpAGQAIABtAG8AZABlAFwAIgBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAE4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUAByAG8AdgBpAGQAZQBzACAAaQBuAGYAbwByAG0AYQB0AGkAbwBuACAAYQBiAG8AdQB0ACAAcwB0AGUAbABsAGEAcgAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQBzACAAYQBjAHIAbwBzAHMAIABtAHUAbAB0AGkAcABsAGUAIABkAGkAcwBwAGwAYQB5ACAAbQBvAGQAZQBzADoAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC0AIABTAFQAQQBOAEQAQQBSAEQAOgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZgBpAHgAZQBkACAAdABhAGIAbABlACAAbwBmACAAaQBuAG4AZQByAC8AbwB1AHQAZQByACAAYgBvAHUAbgBkAHMAIABmAG8AcgAgAFoAMAATIFoANQAgAHoAbwBuAGUAcwAgAGkAbgAgAEEAVQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAgAFQAQQBCAEwARQA6ACAAUwBjAGEAbABlAHMAIAB0AGgAZQAgAFMAVABBAE4ARABBAFIARAAgAHoAbwBuAGUAcwAgAGIAYQBzAGUAZAAgAG8AbgAgAHMAdABlAGwAbABhAHIAIABsAHUAbQBpAG4AbwBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAtACAAVgBFAFIAVABJAEMAQQBMADoAIABSAGUAdAB1AHIAbgBzACAAYQAgAHYAZQByAHQAaQBjAGEAbAAgAGwAaQBzAHQAIABvAGYAIAB6AG8AbgBlACAAbABhAGIAZQBsAHMAIABhAG4AZAAgAGQAaQBzAHQAYQBuAGMAZQBzACAAYgBhAHMAZQBkACAAbwBuACAAbAB1AG0AaQBuAG8AcwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAgAEgATwBSAEkAWgBPAE4AVABBAEwAOgAgAFIAZQB0AHUAcgBuAHMAIABhACAAcwBpAG4AZwBsAGUALQByAG8AdwAgAHMAdQBtAG0AYQByAHkAIABvAGYAIABzAGMAYQBsAGUAZAAgAGQAaQBzAHQAYQBuAGMAZQBzAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFwAIgBTAFQAQQBOAEQAQQBSAEQAXAAiACwAIABcACIAVABBAEIATABFAFwAIgAsACAAXAAiAFYARQBSAFQASQBDAEEATABcACIALAAgAG8AcgAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgBcAG4AIAAgACAALQAgAGwAdQBtACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAUwB0AGUAbABsAGEAcgAgAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABpAG4AIABzAG8AbABhAHIAIAB1AG4AaQB0AHMAIAAoAG8AbgBsAHkAIAByAGUAcQB1AGkAcgBlAGQAIABmAG8AcgAgAFQAQQBCAEwARQAsACAAVgBFAFIAVABJAEMAQQBMACwAIABvAHIAIABIAE8AUgBJAFoATwBOAFQAQQBMACAAbQBvAGQAZQBzACkAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIAByAG8AdQBuAGQAIABkAGkAcwB0AGEAbgBjAGUAcwAgAHQAbwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAFMAVABBAE4ARABBAFIARABcACIAKQBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAKABcACIAVABBAEIATABFAFwAIgAsACAAMwApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAoAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIAAzACkAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAEgATwBSAEkAWgBPAE4AVABBAEwAXAAiACwAIAAzACkAXABuACoALwBcAG4AXABuAE4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAG8AZABlACwAIABbAGwAdQBtAF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAARABlAGYAYQB1AGwAdABzACAALQAtAC0AXABuACAAIAAgACAAZABlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABMACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGwAdQBtACkALAAgADEALAAgAGwAdQBtACkALABcAG4AIAAgACAAIABuAHUAYwAsACAAUwBRAFIAVAAoAEwAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAFoAbwBuAGUAIABiAGEAcwBlACAAZABhAHQAYQAgAC0ALQAtAFwAbgAgACAAIAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAWgAwAFwAIgAsACAAXAAiAFoAMQBcACIALAAgAFwAIgBaADIAXAAiACwAIABcACIAWgAzAFwAIgAsACAAXAAiAFoANABcACIALAAgAFwAIgBaADUAXAAiAH0ALABcAG4AIAAgACAAIABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAB7ADAALAAgADAALgA1ACwAIAAwAC4ANwA1ACwAIAAwAC4AOQA1ACwAIAAxAC4AMwA4ADUALAAgADEALgA3ADcAfQAsAFwAbgAgACAAIAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAHsAMAAuADUALAAgADAALgA3ADUALAAgADAALgA5ADUALAAgADEALgAzADgANQAsACAAMQAuADcANwAsACAANAAuADgANQB9ACwAXABuACAAIAAgACAAYQB2AGcAXwBmAGEAYwB0AG8AcgBzACwAIAAgACAAewAwAC4AMgA1ACwAIAAwAC4ANgAyADUALAAgADAALgA4ADUALAAgADEALgAxADYANwA1ACwAIAAxAC4ANQA3ADcANQAsACAAMwAuADMAMQB9ACwAXABuACAAIAAgACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgACAAewAwAC4ANQAsACAAMAAuADIANQAsACAAMAAuADIALAAgADAALgA0ADMANQAsACAAMAAuADMAOAA1ACwAIAAzAC4AMAA4AH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABTAGMAYQBsAGUAZAAgAHYAYQBsAHUAZQBzACAALQAtAC0AXABuACAAIAAgACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjACAAKgAgAGkAbgBuAGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIABvAHUAdABlAHIAXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAIAAqACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgAGEAdgBnAF8AcwBjAGEAbABlAGQALAAgACAAIABSAE8AVQBOAEQAKABuAHUAYwAgACoAIABhAHYAZwBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIABzAHAAYQBuAF8AcwBjAGEAbABlAGQALAAgACAAUgBPAFUATgBEACgAbgB1AGMAIAAqACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABUAGEAYgBsAGUAOgAgAFMAVABBAE4ARABBAFIARAAgAGEAbgBkACAAVABBAEIATABFACAAbQBvAGQAZQBzACAALQAtAC0AXABuACAAIAAgACAAcgBvAHcAXwAxACwAIABWAFMAVABBAEMASwAoAFwAIgBaAG8AbgBlAFwAIgAsACAAegBvAG4AZQBfAGwAYQBiAGUAbABzACkALABcAG4AIAAgACAAIAByAG8AdwBfADIALAAgAFYAUwBUAEEAQwBLACgAXAAiAEkAbgBuAGUAcgBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQAKQApACwAXABuACAAIAAgACAAcgBvAHcAXwAzACwAIABWAFMAVABBAEMASwAoAFwAIgBPAHUAdABlAHIAXAAiACwAIABJAEYAKABtAG8AZABlAD0AXAAiAFMAVABBAE4ARABBAFIARABcACIALAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAG8AdQB0AGUAcgBfAHMAYwBhAGwAZQBkACkAKQAsAFwAbgAgACAAIAAgAHIAbwB3AF8ANAAsACAAVgBTAFQAQQBDAEsAKABcACIAQQB2AGUAcgBhAGcAZQBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAYQB2AGcAXwBmAGEAYwB0AG8AcgBzACwAIABhAHYAZwBfAHMAYwBhAGwAZQBkACkAKQAsAFwAbgAgACAAIAAgAHIAbwB3AF8ANQAsACAAVgBTAFQAQQBDAEsAKABcACIAUwBwAGEAbgBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAHMAcABhAG4AXwBzAGMAYQBsAGUAZAApACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABWAGUAcgB0AGkAYwBhAGwAIABtAG8AZABlACAAbwB1AHQAcAB1AHQAIAAtAC0ALQBcAG4AIAAgACAAIAB2AGUAcgB0AGkAYwBhAGwAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAMAA6AFwAIgAsACAAXAAiADEAOgBcACIALAAgAFwAIgAyADoAXAAiACwAIABcACIATgAgAJQnXAAiACwAIABcACIAMwA6AFwAIgAsACAAXAAiADQAOgBcACIALAAgAFwAIgA1ADoAXAAiAH0ALABcAG4AIAAgACAAIAB2AGUAcgB0AGkAYwBhAGwAXwB2AGEAbAB1AGUAcwAsACAAUgBPAFUATgBEACgAewAwAC4ANQAsACAAMAAuADcANQAsACAAMAAuADkANQAsACAAMQAsACAAMQAuADMAOAA1ACwAIAAxAC4ANwA3ACwAIAA0AC4AOAA1AH0AIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAG8AcgBpAHoAbwBuAHQAYQBsACAAbQBvAGQAZQAgAG8AdQB0AHAAdQB0ACAALQAtAC0AXABuACAAIAAgACAAaABvAHIAaQB6AG8AbgB0AGEAbABfAHYAYQBsAHUAZQBzACwAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAwAC4ANQAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAwAC4ANwA1ACAAKgAgAG4AdQBjACwAIABkAGUAYwApACwAXABuACAAIAAgACAAIAAgAFIATwBVAE4ARAAoADAALgA5ADUAIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAUgBPAFUATgBEACgAMQAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAxAC4AMwA4ADUAIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAUgBPAFUATgBEACgAMQAuADcANwAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAA0AC4AOAA1ACAAKgAgAG4AdQBjACwAIABkAGUAYwApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABGAGkAbgBhAGwAIABvAHUAdABwAHUAdAAgAGIAYQBzAGUAZAAgAG8AbgAgAG0AbwBkAGUAIAAtAC0ALQBcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAXAAiAFMAVABBAE4ARABBAFIARABcACIALAAgAEgAUwBUAEEAQwBLACgAcgBvAHcAXwAxACwAIAByAG8AdwBfADIALAAgAHIAbwB3AF8AMwAsACAAcgBvAHcAXwA0ACwAIAByAG8AdwBfADUAKQAsAFwAbgAgACAAIAAgACAAIABcACIAVABBAEIATABFAFwAIgAsACAAIAAgACAASABTAFQAQQBDAEsAKAByAG8AdwBfADEALAAgAHIAbwB3AF8AMgAsACAAcgBvAHcAXwAzACwAIAByAG8AdwBfADQALAAgAHIAbwB3AF8ANQApACwAXABuACAAIAAgACAAIAAgAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIABIAFMAVABBAEMASwAoAHYAZQByAHQAaQBjAGEAbABfAGwAYQBiAGUAbABzACwAIAB2AGUAcgB0AGkAYwBhAGwAXwB2AGEAbAB1AGUAcwApACwAXABuACAAIAAgACAAIAAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgAsACAAaABvAHIAaQB6AG8AbgB0AGEAbABfAHYAYQBsAHUAZQBzACwAXABuACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAbQBvAGQAZQBcACIAXABuACAAIAAgACAAKQBcAG4AIAAgACkAXABuACkAXABuADsAXABuAFwAbgAvACoAIABBAFMAVABSAE8AXwBTAFQAQQBSAF8ARABFAE4AUwBJAFQAWQBfAFYATwBMAFUATQBFAFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABHAGkAdgBlAG4AIABhACAAcwBwAGgAZQByAGkAYwBhAGwAIAB2AG8AbAB1AG0AZQAgACgAbwByACAAcgBhAGQAaQB1AHMAKQAsACAAYwBhAGwAYwB1AGwAYQB0AGUAIABoAG8AdwAgAG0AYQBuAHkAIABzAHQAYQByAHMAIABmAGkAdAAgAGEAdAAgADEAIABzAHQAYQByACAAcABlAHIAIAAyADUAMAAgAGMAdQBiAGkAYwAgAGwAaQBnAGgAdAAtAHkAZQBhAHIAcwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAARQBpAHQAaABlAHIAIABhACAAcwBwAGgAZQByAGkAYwBhAGwAIAByAGEAZABpAHUAcwAgAG8AcgAgAGEAIAB2AG8AbAB1AG0AZQAsACAAZABlAHAAZQBuAGQAaQBuAGcAIABvAG4AIABtAG8AZABlAC4AXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAZgBvAHIAIABvAHUAdABwAHUAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADMAKQAuAFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAFwAbgAgACAAIAAgACAAIAAgADAAIAA9ACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAHYAbwBsAHUAbQBlACAAaQBuACAAYwB1AGIAaQBjACAAbABpAGcAaAB0AC0AeQBlAGEAcgBzACAAKABkAGUAZgBhAHUAbAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAxACAAPQAgAGkAbgBwAHUAdAAgAGkAcwAgAGEAIAByAGEAZABpAHUAcwAgAGkAbgAgAGwAaQBnAGgAdAAtAHkAZQBhAHIAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAQQAgAHYAZQByAHQAaQBjAGEAbAAgAGEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABlAGkAdABoAGUAcgA6AFwAbgAgACAAIAAgACAAIAAgACIgIABbAG4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzADsAIAByAGEAZABpAHUAcwBdACAAaQBmACAAbQBvAGQAZQAgAD0AIAAwAFwAbgAgACAAIAAgACAAIAAgACIgIABbAG4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzADsAIAB2AG8AbAB1AG0AZQBdACAAaQBmACAAbQBvAGQAZQAgAD0AIAAxAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBTAFQAQQBSAF8ARABFAE4AUwBJAFQAWQBfAFYATwBMAFUATQBFACgAMQAwADAAMAApACAAIAAgACAAIAAgACAAIAAgACAAkiEgAHsANAAuADAAMAAwADsAIAA2AC4AMgAwADMAfQBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUwBUAEEAUgBfAEQARQBOAFMASQBUAFkAXwBWAE8ATABVAE0ARQAoADUALAAgADIALAAgADEAKQAgACAAIAAgACAAIAAgAJIhIAB7ADIALgA2ADIAOwAgADUAMgAzAC4ANgAwAH0AXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAFMAVABBAFIAXwBEAEUATgBTAEkAVABZAF8AVgBPAEwAVQBNAEUAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALAAgAFsAcAByAGUAYwBdACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAgACsAIAAoAG0AbwBkAGUAIAA8ACAAMAApACAAKwAgACgAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACAAKwAgACgAcAByAGUAYwAgADwAIAAwACkALAAgADMALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAB2AG8AbAB1AG0AZQAsACAASQBGACgAbQBvAGQAZQAgAD0AIAAwACwAIABpAG4AcAB1AHQALAAgACgANAAvADMAKQAgACoAIABQAEkAKAApACAAKgAgAGkAbgBwAHUAdAAgAF4AIAAzACkALABcAG4AIAAgACAAIAByAGEAZABpAHUAcwAsACAASQBGACgAbQBvAGQAZQAgAD0AIAAxACwAIABpAG4AcAB1AHQALAAgAFIATwBVAE4ARAAoACgAKAAzACAAKgAgAHYAbwBsAHUAbQBlACkAIAAvACAAKAA0ACAAKgAgAFAASQAoACkAKQApACAAXgAgACgAMQAvADMAKQAsACAAcAByAGUAYwApACkALABcAG4AIAAgACAAIABzAHQAYQByAHMALAAgAFIATwBVAE4ARAAoAHYAbwBsAHUAbQBlACAALwAgADIANQAwACwAIABwAHIAZQBjACkALABcAG4AXABuACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFMAVwBJAFQAQwBIACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAwACwAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIAAsACAAXAAiAFMAdABhAHIAcwA6ACAAXAAiACYAcwB0AGEAcgBzACwAIABcACIAUgBhAGQAaQB1AHMAOgAgAFwAIgAmAHIAYQBkAGkAdQBzACkALAAgAFwAIgA7ACAAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAxACwAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIAAsACAAXAAiAFMAdABhAHIAcwA6ACAAXAAiACYAcwB0AGEAcgBzACwAIABcACIAVgBvAGwAdQBtAGUAOgAgAFwAIgAmAHYAbwBsAHUAbQBlACkALAAgAFwAIgA7ACAAXAAiACkAKQBcAG4AIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8AUwBBAEYARQBUAFkAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgAgAEMAYQBsAGMAdQBsAGEAdABlAHMAIABwAGwAYQBuAGUAdABhAHIAeQAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABzAHUAcgBmAGEAYwBlACAAZwByAGEAdgBpAHQAeQAsACAAYQBuAGQAIABlAHMAYwBhAHAAZQAgAHYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgByAG8AbQAgAGEAbgB5ACAAdgBhAGwAaQBkACAAcABhAGkAcgAgAG8AZgAgAHQAdwBvACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAcwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIAB0AGgAZQAgAGsAbgBvAHcAbgAgAGkAbgBwAHUAdAAgAHAAYQBpAHIALgAgAEEAYwBjAGUAcAB0AGEAYgBsAGUAIAB2AGEAbAB1AGUAcwA6AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAGQAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARABlAG4AcwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAbQByAFwAIgAgAD0AIABNAGEAcwBzACAAKwAgAFIAYQBkAGkAdQBzAFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAcgBkAFwAIgAgAD0AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAGcAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGQAZwBcACIAIAA9ACAARABlAG4AcwBpAHQAeQAgACsAIABHAHIAYQB2AGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBkAHYAXAAiACAAPQAgAEQAZQBuAHMAaQB0AHkAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGcAdgBcACIAIAA9ACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAbQB2AFwAIgAgAD0AIABNAGEAcwBzACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAHYAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAZgBpAHIAcwB0ACAAbgB1AG0AZQByAGkAYwAgAGkAbgBwAHUAdAAsACAAbQBlAGEAbgBpAG4AZwAgAGQAZQBwAGUAbgBkAHMAIABvAG4AIABtAG8AZABlAFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAcwBlAGMAbwBuAGQAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0ACwAIABtAGUAYQBuAGkAbgBnACAAZABlAHAAZQBuAGQAcwAgAG8AbgAgAG0AbwBkAGUAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAZgBvAHIAIABvAHUAdABwAHUAdAAgAHIAbwB1AG4AZABpAG4AZwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA1ACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABBACAAbABhAGIAZQBsAGUAZAAgADUALQByAG8AdwAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIAB2AGEAbAB1AGUAcwAgAGYAbwByADoAIABNAGEAcwBzACAAKABNACkALAAgAFIAYQBkAGkAdQBzACAAKABSACkALAAgAEQAZQBuAHMAaQB0AHkAIAAoAGQAKQAsAFwAbgAgACAAIAAgACAARwByAGEAdgBpAHQAeQAgACgAZwApACwAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQAgACgAdgApAFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBQAEwAQQBOAEUAVABfAE0ARQBUAFIASQBDAFMAXwBTAEEARgBFAFQAWQAgAD0AIABMAEEATQBCAEQAQQAoAG0AbwBkAGUALAAgAHAAYQByAGEAbQBfADEALAAgAHAAYQByAGEAbQBfADIALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABwAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANQAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAGwAbwB3AGUAcgBjAGEAcwBlAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAEwATwBXAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAYgBhAHMAZQBkACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQBcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAbQBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgACgATQAgAC8AIABkACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAAoAE0AIAAqACAAZABeADIAKQAgAF4AIAAoADEALwAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgACgATQAgACoAIABTAFEAUgBUACgAZAApACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABSAGEAZABpAHUAcwBcAG4AIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABNACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABNACAALwAgAFIAXgAzACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABNACAALwAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABTAFEAUgBUACgATQAgAC8AIABSACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABNAGEAcwBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAAUwBRAFIAVAAoAE0AIAAvACAAZwApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABTAFEAUgBUACgAZwBeADMAIAAvACAATQApACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIAAoAE0AIAAqACAAZwApACAAXgAgADAALgAyADUALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAcgBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGQAIAAqACAAUgBeADMALABcAG4AIAAgACAAIAAgACAAIAAgAGcALAAgAGQAIAAqACAAUgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAUgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABnACAAKgAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABnACAALwAgAFIALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAFMAUQBSAFQAKABnACAAKgAgAFIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBuAHMAaQB0AHkAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGQAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABnACAALwAgAGQALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGcAXgAzACAALwAgAGQAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABnACAALwAgAFMAUQBSAFQAKABkACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAZAB2AFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHYAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAdgBeADMAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIAB2AF4AMgAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIAB2AF4ANAAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAGcAIAAvACAAdgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAATQAgAC8AIAB2AF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgBeADQAIAAvACAATQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAAdgBeADYAIAAvACAATQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAB2AF4AMgAgAC8AIABSACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABSACAAKgAgAHYAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAHYAIAAvACAAUgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABGAG8AcgBtAGEAdAAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAYQBuAGQAIAByAG8AdQBuAGQAaQBuAGcAXABuACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG8AdQB0AHAAdQB0ACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABUAFIAQQBOAFMAUABPAFMARQAoAGgAZQBhAGQAZQByAHMAKQAsACAAVABSAEEATgBTAFAATwBTAEUAKAB2AGEAbAB1AGUAcwApACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABBAFMAVABSAE8AXwBQAEwAQQBOAEUAVABfAE0ARQBUAFIASQBDAFMAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBhAGwAYwB1AGwAYQB0AGUAcwAgAHAAbABhAG4AZQB0AGEAcgB5ACAAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAHMAdQByAGYAYQBjAGUAIABnAHIAYQB2AGkAdAB5ACwAIABhAG4AZAAgAGUAcwBjAGEAcABlACAAdgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIABiAGEAcwBlAGQAIABvAG4AIABhAG4AeQAgAHQAdwBvACAAawBuAG8AdwBuACAAdgBhAGwAdQBlAHMALAAgAGEAbgBkACAAZgBsAGEAZwBzACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABpAG4AcAB1AHQAcwAgAHcAaQB0AGgAIABhAG4AIABhAHIAcgBvAHcAIAAoAJQnKQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIAB0AGgAZQAgAHQAdwBvACAAawBuAG8AdwBuACAAdgBhAGwAdQBlAHMALgAgAEEAYwBjAGUAcAB0AGUAZAAgAHYAYQBsAHUAZQBzADoAXABuACAAIAAgACAAIAAgACAAXAAiAG0AZABcACIAIAA9ACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAHIAXAAiACAAPQAgAE0AYQBzAHMAIAArACAAUgBhAGQAaQB1AHMAXABuACAAIAAgACAAIAAgACAAXAAiAG0AZwBcACIAIAA9ACAATQBhAHMAcwAgACsAIABHAHIAYQB2AGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAGQAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEQAZQBuAHMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAHIAZwBcACIAIAA9ACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAZABnAFwAIgAgAD0AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGQAdgBcACIAIAA9ACAARABlAG4AcwBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAZwB2AFwAIgAgAD0AIABHAHIAYQB2AGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAHIAdgBcACIAIAA9ACAAUgBhAGQAaQB1AHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgAC0AIABwAGEAcgBhAG0AXwAxACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAARgBpAHIAcwB0ACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAIAAoAG0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAbQBvAGQAZQApAFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAZQBjAG8AbgBkACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAIAAoAG0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAbQBvAGQAZQApAFwAbgAgACAAIAAtACAAcAByAGUAYwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAEQAZQBjAGkAbQBhAGwAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGYAbwByACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAANQApAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAQQAgADIALQBjAG8AbAB1AG0AbgAgAHYAZQByAHQAaQBjAGEAbAAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACAAYQBuAGQAIABjAGEAbABjAHUAbABhAHQAZQBkACAAdgBhAGwAdQBlAHMALgBcAG4AIAAgACAAIAAgAEkAbgBwAHUAdAAgAHYAYQBsAHUAZQBzACAAYQByAGUAIABmAGwAYQBnAGcAZQBkACAAdwBpAHQAaAAgAGEAIACUJyAAdABvACAAaQBuAGQAaQBjAGEAdABlACAAdABoAGUAaQByACAAbwByAGkAZwBpAG4ALgBcAG4AIAAgACAAIAAgAFUAbgBpAHQAcwAgAGEAcgBlACAAYQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIABhAG4AZAAgAHIAZQBsAGEAdABpAHYAZQAgACgAZQAuAGcALgAsACAARQBhAHIAdABoACAAPQAgADEALgAwACkALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIAB1AHMAZQAgAGkAbgAgAG0AbwBkAGUAbABpAG4AZwAsACAAcABsAGEAbgBlAHQAYQByAHkAIABwAGgAeQBzAGkAYwBzACAAcwBpAG0AdQBsAGEAdABpAG8AbgBzACwAIABhAG4AZAAgAGUAZAB1AGMAYQB0AGkAbwBuAGEAbAAgAGEAcABwAGwAaQBjAGEAdABpAG8AbgBzAC4AXABuACAAIAAgAC0AIABPAHUAdABwAHUAdABzACAAYQByAGUAIABpAG4AdABlAHIAbgBhAGwAbAB5ACAAYwBhAGwAYwB1AGwAYQB0AGUAZAAgAGIAYQBzAGUAZAAgAG8AbgAgAGIAYQBzAGkAYwAgAHAAaAB5AHMAaQBjAGEAbAAgAHIAZQBsAGEAdABpAG8AbgBzAGgAaQBwAHMAOgBcAG4AIAAgACAAIAAgACAAIAAtACAATQAgAD0AIABtAGEAcwBzAFwAbgAgACAAIAAgACAAIAAgAC0AIABSACAAPQAgAHIAYQBkAGkAdQBzAFwAbgAgACAAIAAgACAAIAAgAC0AIABkACAAPQAgAGQAZQBuAHMAaQB0AHkAXABuACAAIAAgACAAIAAgACAALQAgAGcAIAA9ACAAcwB1AHIAZgBhAGMAZQAgAGcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAALQAgAHYAIAA9ACAAZQBzAGMAYQBwAGUAIAB2AGUAbABvAGMAaQB0AHkAXABuACAAIAAgAC0AIABIAGEAbgBkAGwAZQBzACAAaQBuAHAAdQB0ACAAcABlAHIAbQB1AHQAYQB0AGkAbwBuAHMAIABmAGwAZQB4AGkAYgBsAHkAIAB2AGkAYQAgAG0AbwBkAGUAIABzAHQAcgBpAG4AZwAgAHAAYQByAHMAaQBuAGcALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8ARgBMAEEARwBHAEUARAAoAFwAIgByAGQAXAAiACwAIAAxAC4AMgAsACAAMAAuADcANQApAFwAbgAgACAAIAAgACAAkiFcAG4AIAAgACAAIAAgACAAIABNACAAIAAgACAAIAAgADAALgA2ADcANQBcAG4AIAAgACAAIAAgACAAIABSACAAlCcgACAAIAAgADEALgAyAFwAbgAgACAAIAAgACAAIAAgAGQAIACUJyAAIAAgACAAMAAuADcANQBcAG4AIAAgACAAIAAgACAAIABnACAAIAAgACAAIAAgADAALgA5AFwAbgAgACAAIAAgACAAIAAgAHYAIAAgACAAIAAgACAAMQAuADAAMwA5AFwAbgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFAATABBAE4ARQBUAF8ATQBFAFQAUgBJAEMAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AbwBkAGUALAAgAHAAYQByAGEAbQBfADEALAAgAHAAYQByAGEAbQBfADIALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABwAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANQAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAGwAbwB3AGUAcgBjAGEAcwBlAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAEwATwBXAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAYgBhAHMAZQBkACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQBcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAbQBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgACgATQAgAC8AIABkACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAAoAE0AIAAqACAAZABeADIAKQAgAF4AIAAoADEALwAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgACgATQAgACoAIABTAFEAUgBUACgAZAApACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABSAGEAZABpAHUAcwBcAG4AIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABNACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABNACAALwAgAFIAXgAzACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABNACAALwAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABTAFEAUgBUACgATQAgAC8AIABSACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABNAGEAcwBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAAUwBRAFIAVAAoAE0AIAAvACAAZwApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABTAFEAUgBUACgAZwBeADMAIAAvACAATQApACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIAAoAE0AIAAqACAAZwApACAAXgAgADAALgAyADUALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAcgBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGQAIAAqACAAUgBeADMALABcAG4AIAAgACAAIAAgACAAIAAgAGcALAAgAGQAIAAqACAAUgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAUgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABnACAAKgAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABnACAALwAgAFIALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAFMAUQBSAFQAKABnACAAKgAgAFIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBuAHMAaQB0AHkAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGQAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABnACAALwAgAGQALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGcAXgAzACAALwAgAGQAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABnACAALwAgAFMAUQBSAFQAKABkACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAZAB2AFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHYAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAdgBeADMAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIAB2AF4AMgAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIAB2AF4ANAAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAGcAIAAvACAAdgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAATQAgAC8AIAB2AF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgBeADQAIAAvACAATQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAAdgBeADYAIAAvACAATQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAB2AF4AMgAgAC8AIABSACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABSACAAKgAgAHYAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAHYAIAAvACAAUgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABGAG8AcgBtAGEAdAAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAYQBuAGQAIAByAG8AdQBuAGQAaQBuAGcAXABuACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBtAGQAXAAiACwAIAB7AFwAIgBNACAAlCdcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAHsAXAAiAE0AIACUJ1wAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAbQBnAFwAIgAsACAAewBcACIATQAgAJQnXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAGQAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAHsAXAAiAE0AXAAiACwAIABcACIAUgAgAJQnXAAiACwAIABcACIAZABcACIALAAgAFwAIgBnACAAlCdcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAZABnAFwAIgAsACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBkAHYAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAXAAiACwAIABcACIAZAAgAJQnXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2ACAAlCdcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAHsAXAAiAE0AXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAIACUJ1wAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAbQB2AFwAIgAsACAAewBcACIATQAgAJQnXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgAgAJQnXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAHYAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2ACAAlCdcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACAAIAAvAC8AIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG8AdQB0AHAAdQB0ACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABUAFIAQQBOAFMAUABPAFMARQAoAGgAZQBhAGQAZQByAHMAKQAsACAAVABSAEEATgBTAFAATwBTAEUAKAB2AGEAbAB1AGUAcwApACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBTAFkATgBPAEQASQBDACAAPQAgAEwAQQBNAEIARABBACgAcAAsACAAcQAsAFwAbgBcAG4AIAAgACAAIAAoAHAAIAAqACAAcQApACAALwAgAEEAQgBTACgAcAAgAC0AIABxACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuAFMATQBBAEwATABBAE4ARwBMAEUAIAA9ACAATABBAE0AQgBEAEEAKABkAGkAYQBtAGUAdABlAHIALAAgAGQAaQBzAHQAYQBuAGMAZQAsAFwAbgBcAG4AIAAgACAAIAAwAC4ANQAzADIAOQAwADQAMgA5ADQAIAAqACAAKABkAGkAYQBtAGUAdABlAHIAIAAvACAAZABpAHMAdABhAG4AYwBlACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuAE8AUgBCAF8AQQBYAEkAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABwAGUAcgBpAG8AZAAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAGEAcwBzADIALAAgAEkARgAoACgASQBTAE8ATQBJAFQAVABFAEQAKABtAGEAcwBzADIAKQApACsAKABtAGEAcwBzADIAIAA9ACAAMQApACwAIAAwACwAIABtAGEAcwBzADIAKgAzAC4AMAAwADMARQAtADYAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMALAAgAFAATwBXAEUAUgAoACgAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQAgACoAIAAoAG0AYQBzAHMAMQAgACsAIABtAGEAcwBzADIAKQApACwAIAAxACAALwAgADMAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ATwBSAEIAXwBQAEUAUgBJAE8ARAAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABhAHgAaQBzACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AYQBzAHMAMgAsACAASQBGACgAKABJAFMATwBNAEkAVABUAEUARAAoAG0AYQBzAHMAMgApACkAKwAoAG0AYQBzAHMAMgAgAD0AIAAxACkALAAgADAALAAgACgAbQBhAHMAcwAyACAAKgAgADMALgAwADAAMgA3ADMAZQAtADYAKQApACwAXABuACAAIAAgACAAcABlAHIAaQBvAGQALAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAKABtAGEAcwBzADEAIAArACAAbQBhAHMAcwAyACkAKQAsAFwAbgAgACAAIAAgAHAAZQByAGkAbwBkAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEMAUgBPAFMAUwBJAE4ARwBfAE8AUgBCAEkAVABfAFAAQQBSAEEATQBFAFQARQBSACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALABcAG4AXABuAEEAQgBTACgAbQBhAHMAcwAxACAALQAgAG0AYQBzAHMAMgApAC8AQQBCAFMAKABtAGEAcwBzADEAIAArAG0AYQBzAHMAMgApAFwAbgBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBQAEUAUgBJAE8ARABfAEEAWABJAFMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AXABuACAAIAAgACAAUABPAFcARQBSACgAUABPAFcARQBSACgAaQBuAHAAdQB0ACwAIAAyACkALAAgACgAMQAgAC8AIAAzACkAKQBcAG4AXABuACkAOwBcAG4AXABuAE8AUgBCAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGEAeABpAHMALAAgAHAAZQByAGkAbwBkACwAXABuAFwAbgBQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQBcAG4AKQA7AFwAbgBcAG4AUwBQAEgARQBSAEkAQwBBAEwAXwBUAE8AXwBDAEEAUgBUAEUAUwBJAEEATgAgAD0AIABMAEEATQBCAEQAQQAoAHAAaABpACwAIAB0AGgAZQB0AGEALAAgAHIALAAgAFsAcAByAGUAYwBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACkALAAgACAAIAAgAFwAbgAgACAAIAAgAHoAXwBtAG8AZAAsACAAcwBpAGcAbgAoAHQAaABlAHQAYQApACwAXABuACAAIAAgACAAeQBfAG0AbwBkACwAIABzAGkAZwBuACgAcABoAGkAKQAsAFwAbgAgACAAIAAgAHgAXwBtAG8AZAAsACAAaQBmACgAYQBiAHMAKABwAGgAaQApADwAOQAwACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgAC8ALwB4AF8AbQBvAGQAXABuACAAIAAgACAALwAvAHQAZQB4AHQAagBvAGkAbgAoAFwAIgAsAFwAIgAsACwAeABfAG0AbwBkACwAIAB5AF8AbQBvAGQALAAgAHoAXwBtAG8AZAApAFwAbgAgACAAIAAgAGEAbgBnAF8AeAAsACAAcgBhAGQAaQBhAG4AcwAoAG0AbwBkACgAcABoAGkALAA5ADAAKQApACwAXABuACAAIAAgACAAYQBuAGcAXwB6ACwAIAByAGEAZABpAGEAbgBzACgAYQBiAHMAKAB0AGgAZQB0AGEAKQApACwAXABuACAAIAAgACAAZAAsACAAYwBvAHMAKABhAG4AZwBfAHoAKQAqAHIALABcAG4AIAAgACAAIAB4ACwAIAByAG8AdQBuAGQAKABjAG8AcwAoAGEAbgBnAF8AeAApACoAZAAqAHgAXwBtAG8AZAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAeQAsACAAcgBvAHUAbgBkACgAcwBpAG4AKABhAG4AZwBfAHgAKQAqAGQAKgB5AF8AbQBvAGQALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHoALAAgAHIAbwB1AG4AZAAoAHMAaQBuACgAYQBuAGcAXwB6ACkAKgByACoAegBfAG0AbwBkACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAdABlAHgAdABqAG8AaQBuACgAXAAiAHwAXAAiACwALAB4ACwAIAB5ACwAIAB6ACkALABcAG4AIAAgACAAIAAvAC8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAdABvAHIAbwB3ACgAdABlAHgAdABzAHAAbABpAHQAKAByAGUAcwB1AGwAdAAsAFwAIgB8AFwAIgApACkAXABuACkAXABuAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQARQBDAF8ARABNAFMAIAA9ACAATABBAE0AQgBEAEEAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAARABlAGcALAAgAFQAUgBVAE4AQwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4ALAAgAEEAQgBTACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACAALQAgAEQAZQBnACkALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAF8AcABhAHIAdAAsACAAVABSAFUATgBDACgATQBpAG4AdQB0AGUAcwApACAALwAgADEAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAcgBhAGMATQBpAG4ALAAgAEEAQgBTACgATQBpAG4AdQB0AGUAcwAgAC0AIABJAG4AdABNAGkAbgApACwAXABuACAAIAAgACAAIAAgACAAIABTAGUAYwBvAG4AZABzACwAIABGAHIAYQBjAE0AaQBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBlAGMAXwBwAGEAcgB0ACwAIABTAGUAYwBvAG4AZABzACAALwAgADEAMAAwADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEQAZQBnACAAKwAgAE0AaQBuAF8AcABhAHIAdAAgACsAIABzAGUAYwBfAHAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgAEYASQBYAEUARAAoAG8AdQB0AHAAdQB0ACwAIAA3ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARABFAEcAXwBEAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAGQAZQBjAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAUAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAUAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgAEQAZQBnACwAIABUAFIAVQBOAEMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAKQAsAFwAbgAgACAAIAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAsACAAQQBCAFMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAIAAtACAARABlAGcAKQAsAFwAbgAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIABGAHIAYQBjAE0AaQBuACwAIABBAEIAUwAoAE0AaQBuAHUAdABlAHMAIAAtACAASQBuAHQATQBpAG4AKQAsAFwAbgAgACAAIAAgAFMAZQBjAG8AbgBkAHMALAAgAEYAcgBhAGMATQBpAG4AIAAqACAANgAwACwAXABuACAAIAAgACAARABlAGcAIAAmACAAXAAiALAAIABcACIAIAAmACAASQBuAHQATQBpAG4AIAAmACAAQwBIAEEAUgAoADMAOQApACAAJgAgAEMASABBAFIAKAAzADIAKQAgACYAIABGAEkAWABFAEQAKABTAGUAYwBvAG4AZABzACwAIABkAGUAYwBwAHIAZQBjACkAIAAmACAAQwBIAEEAUgAoADMANAApAFwAbgApAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQATQBTAF8ARABFAEMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGcAcgBlAGUAcwAsACAAVABSAFUATgBDACgAaQBuAHAAdQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AaQBuAHUAdABlAHMALAAgAFQAUgBVAE4AQwAoACgAaQBuAHAAdQB0ACAALQAgAGQAZQBnAHIAZQBlAHMAKQAgACoAIAAxADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAHQAaQBvAG4AYQBsAF8AcwBlAGMAbwBuAGQAcwAsACAAKAAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACAALQAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACkAIAAvACAAMAAuADYALABcAG4AIAAgACAAIAAgACAAIAAgAC8AKgAgACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAGQAZQBnAHIAZQBlAHMAIAArACAAKAAoAG0AaQBuAHUAdABlAHMAIAArACAAZgByAGEAYwB0AGkAbwBuAGEAbABfAHMAZQBjAG8AbgBkAHMAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AQQBYAEkAUwBfAFAARQBSAEkATwBEACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAXABuAFwAbgAgACAAIAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABpAG4AcAB1AHQALAAgADMAKQApAFwAbgAgACAAIAAgAFwAbgApADsAXABuAFwAbgAiAH0ALAB7ACIAcABhAHQAaAAiADoAIgAvAHAAcgBvAGoAZQBjAHQAcwAvAEcAZQBuAGUAcgBhAGwAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABSAEUAQwBJAFAAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAByAGUAYwBpAHAAcgBvAGMAYQBsACAAKABtAHUAbAB0AGkAcABsAGkAYwBhAHQAaQB2AGUAIABpAG4AdgBlAHIAcwBlACkAIABvAGYAIABhACAAbgB1AG0AYgBlAHIALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHMAaQBuAGcAbABlACAAZABlAGMAaQBtAGEAbAAgAHYAYQBsAHUAZQAgAGUAcQB1AGEAbAAgAHQAbwAgADEAIABkAGkAdgBpAGQAZQBkACAAYgB5ACAAdABoAGUAIABpAG4AcAB1AHQALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAGkAbgBwAHUAdAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAbgB5ACAAbgBvAG4AegBlAHIAbwAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAUgBlAHQAdQByAG4AcwAgAGAAIwBEAEkAVgAvADAAIQBgACAAaQBmACAAaQBuAHAAdQB0ACAAaQBzACAAegBlAHIAbwAuAFwAbgAgACAAIAAtACAAVQBzAGUAZgB1AGwAIABmAG8AcgAgAGYAbABpAHAAcABpAG4AZwAgAGYAcgBhAGMAdABpAG8AbgBzACwAIABjAG8AbgB2AGUAcgB0AGkAbgBnACAAcgBhAHQAZQBzACAAKABlAC4AZwAuACwAIABIAHoAIACUISAAcwBlAGMAbwBuAGQAcwApACwAIABvAHIAIABpAG4AdgBlAHIAdABpAG4AZwAgAHIAYQB0AGkAbwBzAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgACAAIABSAEUAQwBJAFAAKAA0ACkAIACSISAAMAAuADIANQBcAG4AIAAgACAAIAAgAFIARQBDAEkAUAAoADAALgAyACkAIACSISAANQBcAG4AKgAvAFwAbgBcAG4AXABuAFIARQBDAEkAUAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAMQAgAC8AIABpAG4AcAB1AHQAKQA7AFwAbgBcAG4ALwAqACAARgBSAEEAQwA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIAAoAG4AbwBuAC0AaQBuAHQAZQBnAGUAcgApACAAcABhAHIAdAAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAcwBjAGEAbABhAHIAIABkAGUAYwBpAG0AYQBsACAAYgBlAHQAdwBlAGUAbgAgADAAIABhAG4AZAAgADEAIAAoAG8AcgAgAC0AMQAgAGEAbgBkACAAMAAgAGkAZgAgAHMAaQBnAG4AIABpAHMAIABwAHIAZQBzAGUAcgB2AGUAZAApAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABpAG4AcAB1AHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABUAGgAZQAgAG4AdQBtAGIAZQByACAAdABvACAAZQB4AHQAcgBhAGMAdAAgAHQAaABlACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIABmAHIAbwBtAC4AXABuACAAIAAgAC0AIABtAG8AZABlACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATwB1AHQAcAB1AHQAIABtAG8AZABlACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAtACAAMAA6ACAAQQBsAHcAYQB5AHMAIAByAGUAdAB1AHIAbgAgAHAAbwBzAGkAdABpAHYAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0AFwAbgAgACAAIAAgACAAIAAgAC0AIAAxADoAIABQAHIAZQBzAGUAcgB2AGUAIABzAGkAZwBuACAAbwBmACAAaQBuAHAAdQB0ACAAKABlAC4AZwAuACwAIAAtADMALgAyADUAIACSISAALQAwAC4AMgA1ACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEMAbwBtAHAAbABlAG0AZQBuAHQAcwAgAEUAeABjAGUAbAAZIHMAIABUAFIAVQBOAEMAIABhAG4AZAAgAFEAVQBPAFQASQBFAE4AVAAgAGYAdQBuAGMAdABpAG8AbgBzAC4AXABuACAAIAAgAC0AIABVAHMAZQBmAHUAbAAgAGYAbwByACAAZABlAHQAZQBjAHQAaQBuAGcAIABkAGUAYwBpAG0AYQBsACAAcgBlAG0AYQBpAG4AZABlAHIAcwAgAGEAbgBkACAAYQBuAGEAbAB5AHoAaQBuAGcAIABvAGYAZgBzAGUAdABzACAAZgByAG8AbQAgAHcAaABvAGwAZQAgAHYAYQBsAHUAZQBzAC4AXABuACAAIAAgAC0AIABTAGkAZwBuAC0AcAByAGUAcwBlAHIAdgBpAG4AZwAgAG0AbwBkAGUAIABjAGEAbgAgAGkAbgBkAGkAYwBhAHQAZQAgAHcAaABlAHQAaABlAHIAIABhACAAdgBhAGwAdQBlACAAaQBzACAAagB1AHMAdAAgAGEAYgBvAHYAZQAgAG8AcgAgAGoAdQBzAHQAIABiAGUAbABvAHcAIABhAG4AIABpAG4AdABlAGcAZQByAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAARgBSAEEAQwAoAC0AMwAuADIANQApACAAIAAgACAAIAAgACAAkiEgADAALgAyADUAIAAgAFwAbgAgACAAIABGAFIAQQBDACgALQAzAC4AMgA1ACwAIAAxACkAIAAgACAAIACSISAALQAwAC4AMgA1AFwAbgAqAC8AXABuAFwAbgBcAG4ARgBSAEEAQwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARABlAGYAYQB1AGwAdAAgAG0AbwBkAGUAIAB0AG8AIAAwACAAaQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAGkAbgB2AGEAbABpAGQAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBtAHAAdQB0AGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGIAeQAgAHMAdQBiAHQAcgBhAGMAdABpAG4AZwAgAGkAbgB0AGUAZwBlAHIAIABwAG8AcgB0AGkAbwBuAFwAbgAgACAAIAAgACAAIAAgACAAZgByAGEAYwBfAHAAYQByAHQALAAgAGkAbgBwAHUAdAAgAC0AIABUAFIAVQBOAEMAKABpAG4AcAB1AHQAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAZQB0AHUAcgBuACAAcwBpAGcAbgBlAGQAIABvAHIAIABhAGIAcwBvAGwAdQB0AGUAIAB2AGEAbAB1AGUAIABkAGUAcABlAG4AZABpAG4AZwAgAG8AbgAgAG0AbwBkAGUAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABtAG8AZABlACAAPQAgADEALAAgAGYAcgBhAGMAXwBwAGEAcgB0ACwAIABBAEIAUwAoAGYAcgBhAGMAXwBwAGEAcgB0ACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABSAE8ATwBUADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeAAtAHQAaAAgAHIAbwBvAHQAIABvAGYAIABhACAAbgB1AG0AYgBlAHIAIAAoAG8AcgAgAHMAcQB1AGEAcgBlACAAcgBvAG8AdAAgAGkAZgAgAG4AbwAgAGQAZQBnAHIAZQBlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQAKQAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAcgBlAGEAbAAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIAByAG8AbwB0ACAAbwBmACAAYABuAGAALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAG4AIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABUAGgAZQAgAG4AdQBtAGIAZQByACAAdABvACAAdABhAGsAZQAgAHQAaABlACAAcgBvAG8AdAAgAG8AZgAuAFwAbgAgACAAIAAtACAAeAAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAFQAaABlACAAcgBvAG8AdAAgAGQAZQBnAHIAZQBlAC4AIABEAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAyACAAKABzAHEAdQBhAHIAZQAgAHIAbwBvAHQAKQAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABSAGUAagBlAGMAdABzACAAYQBsAGwAIABuAGUAZwBhAHQAaQB2AGUAIABpAG4AcAB1AHQAIAB2AGEAbAB1AGUAcwAgAGYAbwByACAAYABuAGAALAAgAHIAZQBnAGEAcgBkAGwAZQBzAHMAIABvAGYAIAByAG8AbwB0AC4AXABuACAAIAAgAC0AIABNAGkAbQBpAGMAcwAgAEUAeABjAGUAbAAnAHMAIABiAGUAaABhAHYAaQBvAHIAIAAoAHIAZQB0AHUAcgBuAHMAIAAjAE4AVQBNACEAIABpAGYAIAByAG8AbwB0ACAAdwBvAHUAbABkACAAYgBlACAAYwBvAG0AcABsAGUAeAApAC4AXABuACAAIAAgAC0AIABVAHMAZQAgAEUAeABjAGUAbAAZIHMAIABgAEkATQBQAE8AVwBFAFIAYAAgAG8AcgAgAGAASQBNAFMAUQBSAFQAYAAgAGYAbwByACAAYwBvAG0AcABsAGUAeAAgAG4AdQBtAGIAZQByACAAcwB1AHAAcABvAHIAdAAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgAFIATwBPAFQAKAAxADYAKQAgACAAIAAgACAAIAAgAJIhIAA0AFwAbgAgACAAIABSAE8ATwBUACgAMgA3ACwAIAAzACkAIAAgACAAIACSISAAMwBcAG4AIAAgACAAUgBPAE8AVAAoADkALAAgADAALgA1ACkAIAAgACAAkiEgADgAMQBcAG4AIAAgACAAUgBPAE8AVAAoAC0ANQAsACAAMwApACAAIAAgACAAkiEgACMATgBVAE0AIQBcAG4AKgAvAFwAbgBcAG4AUgBPAE8AVAAgAD0AIABMAEEATQBCAEQAQQAoAG4ALAAgAFsAeABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHIAbwBvAHQAXwBkAGUAZwByAGUAZQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKAB4ACkALAAgADIALAAgAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAbgAgADwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAUQBSAFQAKAAtADEAKQAsACAAIAAvAC8AIABUAHIAaQBnAGcAZQByAHMAIAAjAE4AVQBNACEAIABlAHIAcgBvAHIAIABmAG8AcgAgAG4AZQBnAGEAdABpAHYAZQAgAGIAYQBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG4AIABeACAAKAAxACAALwAgAHIAbwBvAHQAXwBkAGUAZwByAGUAZQApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABGAE8AUgBNAFUATABBAF8AVABFAFgAVABcAG4AIAAgACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAYQAgAG8AbgBlAC0AbABpAG4AZQAsACAAbABhAGIAZQBsAGUAZAAgAHYAZQByAHMAaQBvAG4AIABvAGYAIAB0AGgAZQAgAGYAbwByAG0AdQBsAGEAIABpAG4AIAB0AGgAZQAgAGcAaQB2AGUAbgAgAGMAZQBsAGwALABcAG4AIAAgACAAbwBtAGkAdAB0AGkAbgBnACAAdABoAGUAIABsAGUAYQBkAGkAbgBnACAAZQBxAHUAYQBsACAAcwBpAGcAbgAgAGEAbgBkACAAcAByAGUAcABlAG4AZABpAG4AZwAgAHQAaABlACAAYwBlAGwAbAAgAHIAZQBmAGUAcgBlAG4AYwBlAC4AXABuAFwAbgAgACAAIABTAHkAbgB0AGEAeAA6AFwAbgAgACAAIAAgACAARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAKABjAGUAbABsACkAXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgACAAIABjAGUAbABsACAAOgAgAEEAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAbwAgAGEAIABjAGUAbABsACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAIABmAG8AcgBtAHUAbABhAC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgACAAIABBACAAcwBpAG4AZwBsAGUALQBsAGkAbgBlACAAcwB0AHIAaQBuAGcAIABpAG4AIAB0AGgAZQAgAGYAbwByAG0AYQB0ACAAXAAiAEEAMQA6AD0AIABGAE8AUgBNAFUATABBACgALgAuAC4AKQBcACIAXABuACAAIAAgACAAIABVAHMAZQBmAHUAbAAgAGYAbwByACAAYQB1AGQAaQB0AGkAbgBnACwAIABkAG8AYwB1AG0AZQBuAHQAYQB0AGkAbwBuACwAIABkAGEAcwBoAGIAbwBhAHIAZABzACwAIABvAHIAIAB0AGUAYQBjAGgAaQBuAGcAIAB0AG8AbwBsAHMALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAcwA6AFwAbgAgACAAIAAgACAARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAKABCADMAKQAgACAAkiEgAFwAIgBCADMAOgA9ACAAUgBFAEMASQBQACgAUgBPAE8AVAAoAFAASQAoACkALAAzACkAKQBcACIAXABuACAAIAAgACAAIABGAE8AUgBNAFUATABBAF8AVABFAFgAVAAoAEMANQApACAAIACSISAAXAAiAEMANQA6AD0AIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAzACkAXAAiAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAAVABoAGUAIAByAGUAcwB1AGwAdAAgAGkAcwAgAGUAcQB1AGkAdgBhAGwAZQBuAHQAIAB0AG8AOgAgAEMARQBMAEwAKABcACIAYQBkAGQAcgBlAHMAcwBcACIALAAgAGMAZQBsAGwAKQAgACYAIABcACIAOgA9ACAAXAAiACAAJgAgAFQARQBYAFQAQQBGAFQARQBSACgARgBPAFIATQBVAEwAQQBUAEUAWABUACgAYwBlAGwAbAApACwAIABcACIAPQBcACIAKQBcAG4AIAAgACAAIAAgAC0AIABJAGYAIAB0AGgAZQAgAHIAZQBmAGUAcgBlAG4AYwBlAGQAIABjAGUAbABsACAAZABvAGUAcwAgAG4AbwB0ACAAYwBvAG4AdABhAGkAbgAgAGEAIABmAG8AcgBtAHUAbABhACwAIABhAG4AIABlAHIAcgBvAHIAIAB3AGkAbABsACAAbwBjAGMAdQByAC4AXABuACAAIAAgACAAIAAtACAAVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAGQAbwBlAHMAIABuAG8AdAAgAGUAdgBhAGwAdQBhAHQAZQAgAG8AcgAgAGEAbAB0AGUAcgAgAHQAaABlACAAZgBvAHIAbQB1AGwAYQAUIG8AbgBsAHkAIABmAG8AcgBtAGEAdABzACAAaQB0ACAAZgBvAHIAIABkAGkAcwBwAGwAYQB5AC4AXABuACoALwBcAG4AXABuAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUAD0ATABBAE0AQgBEAEEAKABcAG4AIAAgAGYAbwByAG0AdQBsAGEAXwBjAGUAbABsACwAIAAgAC8ALwAgAEEAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAbwAgAGEAIABjAGUAbABsACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAIABmAG8AcgBtAHUAbABhAFwAbgBcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAAcgBhAHcALAAgAEYATwBSAE0AVQBMAEEAVABFAFgAVAAoAGYAbwByAG0AdQBsAGEAXwBjAGUAbABsACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABcACIAPQBSAEUAQwBJAFAAKABSAE8ATwBUACgAUABJACgAKQAsADMAKQApAFwAIgBcAG4AIAAgACAAIABjAGwAZQBhAG4ALAAgAFQARQBYAFQAQQBGAFQARQBSACgAcgBhAHcALAAgAFwAIgA9AFwAIgApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABcACIAUgBFAEMASQBQACgAUgBPAE8AVAAoAFAASQAoACkALAAzACkAKQBcACIAXABuACAAIAAgACAAbABhAGIAZQBsACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAQwBFAEwATAAoAFwAIgBhAGQAZAByAGUAcwBzAFwAIgAsACAAZgBvAHIAbQB1AGwAYQBfAGMAZQBsAGwAKQAsACAAXAAiACQAXAAiACwAIABcACIAXAAiACkAIAAmACAAXAAiADoAPQAgAFwAIgAsAFwAbgAgACAAIAAgAGwAYQBiAGUAbAAgACYAIABjAGwAZQBhAG4AXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAUgBPAFUATgBEAF8ARgBJAFgAXABuACAAIAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAgACAAUgBvAHUAbgBkAHMAIABvAHIAIAB0AHIAdQBuAGMAYQB0AGUAcwAgAGEAIABuAHUAbQBiAGUAcgAgAHQAbwAgAGEAIABzAHAAZQBjAGkAZgBpAGUAZAAgAG4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzAC4AXABuACAAIAAgAE8AcAB0AGkAbwBuAGEAbABsAHkAIAByAGUAdAB1AHIAbgBzACAAdABoAGUAIAByAGUAcwB1AGwAdAAgAGEAcwAgAGEAIABmAGkAeABlAGQALQB3AGkAZAB0AGgAIAB0AGUAeAB0ACAAcwB0AHIAaQBuAGcALAAgAHAAcgBlAHMAZQByAHYAaQBuAGcAIAB0AHIAYQBpAGwAaQBuAGcAIAB6AGUAcgBvAHMALgBcAG4AXABuACAAIAAgAFMAeQBuAHQAYQB4ADoAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAG4AdQBtAGIAZQByACwAIABwAGwAYQBjAGUAcwAsACAAWwBhAHMAXwB0AGUAeAB0AF0ALAAgAFsAdQBzAGUAXwByAG8AdQBuAGQAXQApAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAgACAAbgB1AG0AYgBlAHIAIAAgACAAIAAgACAAOgAgAFQAaABlACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAgAHQAbwAgAHAAcgBvAGMAZQBzAHMALgBcAG4AIAAgACAAIAAgAHAAbABhAGMAZQBzACAAIAAgACAAIAAgADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAZQB0AGEAaQBuAC4AXABuACAAIAAgACAAIABhAHMAXwB0AGUAeAB0ACAAIAAgACAAIAA6ACAATwBwAHQAaQBvAG4AYQBsACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgAEYAQQBMAFMARQApAC4AIABJAGYAIABUAFIAVQBFACwAIAByAGUAdAB1AHIAbgBzACAAbwB1AHQAcAB1AHQAIABhAHMAIAB0AGUAeAB0ACAAKABlAC4AZwAuACwAIABcACIAMwAuADEANAAwAFwAIgApAC4AXABuACAAIAAgACAAIAB1AHMAZQBfAHIAbwB1AG4AZAAgACAAIAA6ACAATwBwAHQAaQBvAG4AYQBsACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgAEYAQQBMAFMARQApAC4AIABJAGYAIABUAFIAVQBFACwAIABhAHAAcABsAGkAZQBzACAAcgBvAHUAbgBkAGkAbgBnAC4AIABPAHQAaABlAHIAdwBpAHMAZQAsACAAdAByAHUAbgBjAGEAdABlAHMALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIABuAHUAbQBiAGUAcgAgAG8AcgAgAHQAZQB4AHQAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIAByAG8AdQBuAGQAZQBkACAAbwByACAAdAByAHUAbgBjAGEAdABlAGQAIAB2AGEAbAB1AGUAIAB0AG8AIABmAGkAeABlAGQAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAcwA6AFwAbgAgACAAIAAgACAAUgBPAFUATgBEAF8ARgBJAFgAKABQAEkAKAApACwAIAAyACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgADMALgAxADQAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAgADMALAAgAFQAUgBVAEUAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAXAAiADMALgAxADQAMQBcACIAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAgADQALAAgAFQAUgBVAEUALAAgAEYAQQBMAFMARQApACAAIAAgACAAIAAgACAAIACSISAAXAAiADMALgAxADQAMQA1AFwAIgBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAAMQAyACwAIABGAEEATABTAEUAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAJIhIAAzAC4AMQA0ADEANQA5ADIANgA1ADQAIAAgACAAKABjAGEAcABwAGUAZAAgAHQAbwAgADkAIABkAGUAYwBpAG0AYQBsAHMAKQBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAAMQAyACwAIABUAFIAVQBFACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAJIhIABcACIAMwAuADEANAAxADUAOQAyADYANQAzADUAOQAwAFwAIgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAgACAALQAgAEUAeABjAGUAbAAgAGwAaQBtAGkAdABzACAAbgB1AG0AZQByAGkAYwAgAGQAaQBzAHAAbABhAHkAIABwAHIAZQBjAGkAcwBpAG8AbgAgAHQAbwAgAH4AOQAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAuACAAVwBoAGUAbgAgAGEAcwBfAHQAZQB4AHQAIAA9ACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAIABpAHMAIABjAGEAcABwAGUAZAAgAGEAdAAgADkAIABkAGkAZwBpAHQAcwAgAGYAbwByACAAYwBvAG4AcwBpAHMAdABlAG4AYwB5AC4AXABuACAAIAAgACAAIAAtACAAVABvACAAZABpAHMAcABsAGEAeQAgAGYAdQBsAGwAIABwAHIAZQBjAGkAcwBpAG8AbgAgAG8AcgAgAHAAcgBlAHMAZQByAHYAZQAgAHQAcgBhAGkAbABpAG4AZwAgAHoAZQByAG8AcwAsACAAcwBlAHQAIABhAHMAXwB0AGUAeAB0ACAAPQAgAFQAUgBVAEUALgBcAG4AIAAgACAAIAAgAC0AIABTAHUAcABwAG8AcgB0AHMAIABiAG8AdABoACAAcgBvAHUAbgBkAGkAbgBnACAAYQBuAGQAIAB0AHIAdQBuAGMAYQB0AGkAbwBuACAAbQBvAGQAZQBzAC4AXABuACAAIAAgACAAIAAtACAASQBkAGUAYQBsACAAZgBvAHIAIABmAG8AcgBtAGEAdAB0AGkAbgBnACAAYwBvAG4AcwB0AGEAbgB0AHMALAAgAHYAaQBzAHUAYQBsACAAZABpAHMAcABsAGEAeQAgAGMAbwBuAHQAcgBvAGwALAAgAG8AcgAgAGUAbgBzAHUAcgBpAG4AZwAgAGMAbABlAGEAbgAgAG8AdQB0AHAAdQB0AHMAIABpAG4AIAByAGUAcABvAHIAdABzAC4AXABuACoALwBcAG4AXABuAFwAbgBSAE8AVQBOAEQAXwBGAEkAWAA9AEwAQQBNAEIARABBACgAXABuACAAIABuAHUAbQBiAGUAcgAsACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAZQBxAHUAaQByAGUAZAA6ACAAdABoAGUAIABuAHUAbQBiAGUAcgAgAHQAbwAgAHIAbwB1AG4AZAAgAG8AcgAgAHQAcgB1AG4AYwBhAHQAZQBcAG4AIAAgAHAAbABhAGMAZQBzACwAIAAgACAAIAAgACAAIAAgACAALwAvACAAUgBlAHEAdQBpAHIAZQBkADoAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAZQB0AGEAaQBuAFwAbgAgACAAWwBhAHMAXwB0AGUAeAB0AF0ALAAgACAAIAAgACAAIAAvAC8AIABPAHAAdABpAG8AbgBhAGwAOgAgAGkAZgAgAFQAUgBVAEUALAAgAHIAZQB0AHUAcgBuACAAcgBlAHMAdQBsAHQAIABhAHMAIAB0AGUAeAB0ACAAdwBpAHQAaAAgAGYAaQB4AGUAZAAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwBcAG4AIAAgAFsAdQBzAGUAXwByAG8AdQBuAGQAXQAsACAAIAAgACAALwAvACAATwBwAHQAaQBvAG4AYQBsADoAIABpAGYAIABUAFIAVQBFACwAIAByAG8AdQBuAGQAOwAgAGkAZgAgAEYAQQBMAFMARQAgAG8AcgAgAG8AbQBpAHQAdABlAGQALAAgAHQAcgB1AG4AYwBhAHQAZQBcAG4AXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAG4ALAAgAE4AKABuAHUAbQBiAGUAcgApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARQBuAHMAdQByAGUAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0AFwAbgAgACAAIAAgAHIAYQB3AF8AcAAsACAATgAoAHAAbABhAGMAZQBzACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAYQB3ACAAaQBuAHAAdQB0ACAAZgBvAHIAIABwAGwAYQBjAGUAcwBcAG4AIAAgACAAIAByAG8AdQBuAGQAXwBmAGwAYQBnACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAdQBzAGUAXwByAG8AdQBuAGQAKQAsACAARgBBAEwAUwBFACwAIAB1AHMAZQBfAHIAbwB1AG4AZAApACwAXABuACAAIAAgACAAcgBlAHQAdQByAG4AXwB0AGUAeAB0ACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAYQBzAF8AdABlAHgAdAApACwAIABGAEEATABTAEUALAAgAGEAcwBfAHQAZQB4AHQAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABFAHgAYwBlAGwAIABvAG4AbAB5ACAAcgBlAGwAaQBhAGIAbAB5ACAAZABpAHMAcABsAGEAeQBzACAAdQBwACAAdABvACAAOQAgAGQAZQBjAGkAbQBhAGwAcwAgAGEAcwAgAG4AdQBtAGUAcgBpAGMAXABuACAAIAAgACAAbQBhAHgAXwBwAGwAYQBjAGUAcwAsACAASQBGACgAcgBlAHQAdQByAG4AXwB0AGUAeAB0ACwAIAByAGEAdwBfAHAALAAgAE0ASQBOACgAcgBhAHcAXwBwACwAIAA5ACkAKQAsAFwAbgBcAG4AIAAgACAAIABwAHcAcgBfADEAMAAsACAAMQAwACAAXgAgAG0AYQB4AF8AcABsAGEAYwBlAHMALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFAAbwB3AGUAcgAgAG8AZgAgADEAMAAgAGYAbwByACAAcgBvAHUAbgBkAGkAbgBnAC8AdAByAHUAbgBjAGEAdABpAG8AbgBcAG4AXABuACAAIAAgACAALwAvACAAUABlAHIAZgBvAHIAbQAgAHIAbwB1AG4AZABpAG4AZwAgAG8AcgAgAHQAcgB1AG4AYwBhAHQAaQBvAG4AXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIAAgACAASQBGACgAcgBvAHUAbgBkAF8AZgBsAGEAZwAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAbgAsACAAbQBhAHgAXwBwAGwAYQBjAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABUAFIAVQBOAEMAKABuACAAKgAgAHAAdwByAF8AMQAwACkAIAAvACAAcAB3AHIAXwAxADAAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAATwBwAHQAaQBvAG4AYQBsAGwAeQAgAGYAbwByAG0AYQB0ACAAYQBzACAAZgBpAHgAZQBkAC0AbABlAG4AZwB0AGgAIABzAHQAcgBpAG4AZwBcAG4AIAAgACAAIABmAGkAbgBhAGwALABcAG4AIAAgACAAIAAgACAASQBGACgAcgBlAHQAdQByAG4AXwB0AGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAcgBlAHMAdQBsAHQALAAgAFwAIgAwAC4AXAAiACAAJgAgAFIARQBQAFQAKABcACIAMABcACIALAAgAG0AYQB4AF8AcABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABmAGkAbgBhAGwAXABuACAAIAApAFwAbgApADsAXABuAFwAbgAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAiACwAIgBBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAiACwAIgBBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAiACwAIgBBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAIgAsACIAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAiACwAIgBBAFMAVABSAE8AXwBTAFQAQQBSAF8AQQBUAFQAUgBJAEIAVQBUAEUAUwAiACwAIgBBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAiACwAIgBOAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACIALAAiAEEAUwBUAFIATwBfAFMAVABBAFIAXwBEAEUATgBTAEkAVABZAF8AVgBPAEwAVQBNAEUAIgAsACIAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8AUwBBAEYARQBUAFkAIgAsACIAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTACIALAAiAFMAWQBOAE8ARABJAEMAIgAsACIAUwBNAEEATABMAEEATgBHAEwARQAiACwAIgBPAFIAQgBfAEEAWABJAFMAIgAsACIATwBSAEIAXwBQAEUAUgBJAE8ARAAiACwAIgBDAFIATwBTAFMASQBOAEcAXwBPAFIAQgBJAFQAXwBQAEEAUgBBAE0ARQBUAEUAUgAiACwAIgBQAEUAUgBJAE8ARABfAEEAWABJAFMAIgAsACIATwBSAEIAXwBTAFUATQBfAE0AQQBTAFMARQBTACIALAAiAFMAUABIAEUAUgBJAEMAQQBMAF8AVABPAF8AQwBBAFIAVABFAFMASQBBAE4AIgAsACIARABFAEcAXwBEAEUAQwBfAEQATQBTACIALAAiAEQARQBHAF8ARABNAFMAIgAsACIARABFAEcAXwBEAE0AUwBfAEQARQBDACIALAAiAEEAWABJAFMAXwBQAEUAUgBJAE8ARAAiACwAIgBHAGUAbgBlAHIAYQBsAC4AUgBFAEMASQBQACIALAAiAEcAZQBuAGUAcgBhAGwALgBGAFIAQQBDACIALAAiAEcAZQBuAGUAcgBhAGwALgBSAE8ATwBUACIALAAiAEcAZQBuAGUAcgBhAGwALgBGAE8AUgBNAFUATABBAF8AVABFAFgAVAAiACwAIgBHAGUAbgBlAHIAYQBsAC4AUgBPAFUATgBEAF8ARgBJAFgAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBNAEQAWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Astronomy Utilities/Astronomy Utlities.xlsx
+++ b/Astronomy Utilities/Astronomy Utlities.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10415"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/Astronomy Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D923E62-2CF0-0543-8D39-91CB14BEA582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{649B3404-EA47-9646-87C5-83413B39C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="1100" windowWidth="33260" windowHeight="19560" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
+    <workbookView xWindow="4680" yWindow="1100" windowWidth="33260" windowHeight="19560" activeTab="2" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ASTRO_CALC_TEMP">_xlfn.LAMBDA(_xlpm.subclass, _xlfn.LET(_xlpm.arrTypes, {"O3";"O4";"O5";"O6";"O7";"O8";"O9";"B0";"B1";"B2";"B3";"B4";"B5";"B6";"B7";"B8";"B9";"A0";"A1";"A2";"A3";"A4";"A5";"A6";"A7";"A8";"A9";"F0";"F1";"F2";"F3";"F4";"F5";"F6";"F7";"F8";"F9";"G0";"G1";"G2";"G3";"G4";"G5";"G6";"G7";"G8";"G9";"K0";"K1";"K2";"K3";"K4";"K5";"K6";"K7";"K8";"K9";"M0";"M1";"M2";"M3";"M4";"M5";"M6";"M7";"M8";"M9"}, _xlpm.arrTHigh, {44900;42900;41400;39500;37100;35100;33300;31400;26000;20600;17000;16400;15700;14500;14000;12300;10700;9700;9300;8800;8600;8250;8100;7910;7760;7590;7400;7220;7020;6820;6750;6670;6550;6350;6280;6180;6050;5930;5860;5770;5720;5680;5660;5600;5550;5480;5380;5270;5170;5100;4830;4600;4440;4300;4100;3990;3930;3850;3660;3560;3430;3210;3060;2810;2680;2570;2380}, _xlpm.arrSpan, {2000;1500;1900;2400;2000;1800;1900;5400;5400;3600;600;700;1200;500;1700;1600;1000;400;500;200;350;150;190;150;170;190;180;200;200;70;80;120;200;70;100;130;120;70;90;50;40;20;60;50;70;100;110;100;70;270;230;160;140;200;110;60;80;190;100;130;220;150;250;130;110;190;280}, _xlpm.mtxStars, _xlfn.HSTACK(_xlpm.arrTypes, _xlpm.arrTHigh, _xlpm.arrSpan), _xlpm.no_space, SUBSTITUTE(_xlpm.subclass, " ", ""), _xlpm.dot_pos, FIND(".", _xlpm.no_space &amp; ".0"), _xlpm.base, LEFT(_xlpm.no_space, _xlpm.dot_pos - 1), _xlpm.f, VALUE("0." &amp; MID(_xlpm.no_space, _xlpm.dot_pos + 1, LEN(_xlpm.no_space))), _xlpm.T_high, _xlfn.XLOOKUP(_xlpm.base, INDEX(_xlpm.mtxStars, , 1), INDEX(_xlpm.mtxStars, , 2)), _xlpm.span, _xlfn.XLOOKUP(_xlpm.base, INDEX(_xlpm.mtxStars, , 1), INDEX(_xlpm.mtxStars, , 3)), _xlpm.result, _xlpm.T_high - (_xlpm.f * _xlpm.span), _xlpm.result))</definedName>
@@ -26,6 +27,12 @@
     <definedName name="ASTRO_SPECTRAL_DISTRIBUTION">_xlfn.LAMBDA(_xlop.anchor_class,_xlop.anchor_count,_xlop.decimal_places, _xlfn.LET(_xlpm.anchor_class, IF(_xlfn.ISOMITTED(_xlpm.anchor_class), "$", UPPER(_xlpm.anchor_class)), _xlpm.anchor_count, IF(_xlfn.ISOMITTED(_xlpm.anchor_count), 1, _xlpm.anchor_count), _xlpm.decimal_places, IF(_xlfn.ISOMITTED(_xlpm.decimal_places), 3, _xlpm.decimal_places), _xlpm.arr_classes, {"O";"B";"A";"F";"G";"K";"M"}, _xlpm.arr_base_pct, {0.00003;0.13;0.6;3;7.6;12.1;76.27}, _xlpm.arr_base_frac, _xlfn.BYROW(_xlpm.arr_base_pct, _xlfn.LAMBDA(_xlpm.x, _xlpm.x / 100)), _xlpm.anchor_freq, _xlfn.XLOOKUP(_xlpm.anchor_class, _xlpm.arr_classes, _xlpm.arr_base_frac, 1), _xlpm.scaling_factor, _xlpm.anchor_count / _xlpm.anchor_freq, _xlpm.scaled, IF(_xlpm.anchor_class = "$", _xlpm.arr_base_frac, _xlfn.BYROW(_xlpm.arr_base_frac, _xlfn.LAMBDA(_xlpm.x, _xlpm.x * _xlpm.scaling_factor))), _xlpm.output, _xlfn.HSTACK(_xlpm.arr_classes, ROUND(_xlpm.scaled, _xlpm.decimal_places)), _xlpm.output))</definedName>
     <definedName name="ASTRO_STAR_ATTRIBUTES">_xlfn.LAMBDA(_xlpm.mode,_xlpm.input,_xlop.precision, _xlfn.LET(_xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.mode, UPPER(_xlpm.mode), _xlpm.Tnorm, _xlfn.SWITCH(_xlpm.mode, "T", _xlpm.input, "K", _xlpm.input / 5770, "M", SQRT(_xlpm.input), "R", _xlpm.input ^ (1 / 1.8), "L", _xlpm.input ^ (1 / 7.6), "V", _xlpm.input ^ (-1 / 5), NA()), _xlpm.K, _xlpm.Tnorm * 5770, _xlpm.M, _xlpm.Tnorm ^ 2, _xlpm.R, _xlpm.Tnorm ^ 1.8, _xlpm.L, _xlpm.Tnorm ^ 7.6, _xlpm.V, _xlpm.Tnorm ^ -5, _xlpm.labels, TRANSPOSE({"K","T","M","R","L","V"}), _xlpm.output_values, _xlfn.VSTACK(ROUND(_xlpm.K, _xlpm.prec), ROUND(_xlpm.Tnorm, _xlpm.prec), ROUND(_xlpm.M, _xlpm.prec), ROUND(_xlpm.R, _xlpm.prec), ROUND(_xlpm.L, _xlpm.prec), ROUND(_xlpm.V, _xlpm.prec)), _xlpm.flagged_labels, _xlfn.BYROW(_xlpm.labels, _xlfn.LAMBDA(_xlpm.row, IF(_xlpm.row = _xlpm.mode, _xlpm.row &amp; " ➔", _xlpm.row))), CHOOSE({1,2}, _xlpm.flagged_labels, _xlpm.output_values)))</definedName>
     <definedName name="ASTRO_STAR_DENSITY_VOLUME">_xlfn.LAMBDA(_xlpm.input,_xlop.prec,_xlop.mode, _xlfn.LET(_xlpm.mode, IF(_xlfn.ISOMITTED(_xlpm.mode) + (_xlpm.mode &lt; 0) + (_xlpm.mode &gt; 1), 0, _xlpm.mode), _xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.volume, IF(_xlpm.mode = 0, _xlpm.input, (4 / 3) * PI() * _xlpm.input ^ 3), _xlpm.radius, IF(_xlpm.mode = 1, _xlpm.input, ROUND(((3 * _xlpm.volume) / (4 * PI())) ^ (1 / 3), _xlpm.prec)), _xlpm.stars, ROUND(_xlpm.volume / 250, _xlpm.prec), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , "Stars: " &amp; _xlpm.stars, "Radius: " &amp; _xlpm.radius), "; ")), 1, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , "Stars: " &amp; _xlpm.stars, "Volume: " &amp; _xlpm.volume), "; "))), _xlpm.output))</definedName>
+    <definedName name="ASTRO_SYNODIC">_xlfn.LAMBDA(_xlpm.p,_xlpm.q,_xlpm.prec, _xlfn.LET(_xlpm.result, IF(_xlpm.p = _xlpm.q, NA(), _xlfn.LET(_xlpm.num, _xlpm.p * _xlpm.q, _xlpm.den, ABS(_xlpm.p - _xlpm.q), _xlpm.raw, _xlpm.num / _xlpm.den, ROUND(_xlpm.raw, _xlpm.prec))), _xlpm.result))</definedName>
+    <definedName name="ASTRO_SYNODIC_PQ">_xlfn.LAMBDA(_xlpm.P,_xlpm.Q,_xlop.output,_xlop.prec, _xlfn.LET(_xlpm.mode, IF(_xlfn.ISOMITTED(_xlpm.output) + (_xlpm.output = ""), "bare", LOWER(_xlpm.output)), _xlpm.digits, IF(_xlfn.ISOMITTED(_xlpm.prec), 4, _xlpm.prec), _xlpm.A, MAX(_xlpm.P, _xlpm.Q), _xlpm.B, MIN(_xlpm.P, _xlpm.Q), _xlpm.S, ROUND((_xlpm.A * _xlpm.B) / (_xlpm.A - _xlpm.B), _xlpm.digits), _xlpm.verbose, _xlfn.VSTACK(_xlfn.HSTACK("P =", _xlpm.P), _xlfn.HSTACK("Q =", _xlpm.Q), _xlfn.HSTACK("S ☞", _xlpm.S)), _xlpm.result, IF(_xlpm.mode = "verbose", _xlpm.verbose, _xlpm.S), _xlpm.result))</definedName>
+    <definedName name="ASTRO_SYNODIC_PS">_xlfn.LAMBDA(_xlpm.P,_xlpm.S,_xlop.output,_xlop.prec, _xlfn.LET(_xlpm.mode, IF(_xlfn.ISOMITTED(_xlpm.output) + (_xlpm.output = ""), "bare", LOWER(_xlpm.output)), _xlpm.digits, IF(_xlfn.ISOMITTED(_xlpm.prec), 4, _xlpm.prec), _xlpm.Q, ROUND((_xlpm.P * _xlpm.S) / ABS(_xlpm.P - _xlpm.S), _xlpm.digits), _xlpm.verbose, _xlfn.VSTACK(_xlfn.HSTACK("P =", _xlpm.P), _xlfn.HSTACK("Q ☞", _xlpm.Q), _xlfn.HSTACK("S =", _xlpm.S)), _xlpm.result, IF(_xlpm.mode = "verbose", _xlpm.verbose, _xlpm.Q), _xlpm.result))</definedName>
+    <definedName name="ASTRO_SYNODIC_QS">_xlfn.LAMBDA(_xlpm.Q,_xlpm.S,_xlop.output,_xlop.prec, _xlfn.LET(_xlpm.mode, IF(_xlfn.ISOMITTED(_xlpm.output) + (_xlpm.output = ""), "bare", LOWER(_xlpm.output)), _xlpm.digits, IF(_xlfn.ISOMITTED(_xlpm.prec), 4, _xlpm.prec), _xlpm.P, ROUND((_xlpm.Q * _xlpm.S) / (_xlpm.Q + _xlpm.S), _xlpm.digits), _xlpm.verbose, _xlfn.VSTACK(_xlfn.HSTACK("P ☞", _xlpm.P), _xlfn.HSTACK("Q =", _xlpm.Q), _xlfn.HSTACK("S =", _xlpm.S)), _xlpm.result, IF(_xlpm.mode = "verbose", _xlpm.verbose, _xlpm.P), _xlpm.result))</definedName>
+    <definedName name="ASTRO_SYNODIC_SOLVED">_xlfn.LAMBDA(_xlpm.val_1,_xlpm.val_2,_xlop.mode,_xlop.prec, _xlfn.LET(_xlpm.mode, IF(_xlfn.ISOMITTED(_xlpm.mode), "pq", IF(_xlpm.mode = "", "pq", _xlpm.mode)), _xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec), 4, _xlpm.prec), _xlpm.p, IF(OR(_xlpm.mode = "pq", _xlpm.mode = "ps"), _xlpm.val_1, NA()), _xlpm.q, IF(_xlpm.mode = "pq", _xlpm.val_2, IF(_xlpm.mode = "qs", _xlpm.val_1, NA())), _xlpm.s, IF(OR(_xlpm.mode = "ps", _xlpm.mode = "qs"), _xlpm.val_2, NA()), _xlpm.a, IF(AND(ISNUMBER(_xlpm.p), ISNUMBER(_xlpm.q)), MAX(_xlpm.p, _xlpm.q), _xlpm.p), _xlpm.b, IF(AND(ISNUMBER(_xlpm.p), ISNUMBER(_xlpm.q)), MIN(_xlpm.p, _xlpm.q), _xlpm.q), _xlpm.result, _xlfn.SWITCH(_xlpm.mode, "pq", IF(_xlpm.a = _xlpm.b, NA(), ROUND((_xlpm.a * _xlpm.b) / (_xlpm.a - _xlpm.b), _xlpm.prec)), "ps", IF(OR(NOT(ISNUMBER(_xlpm.a)), NOT(ISNUMBER(_xlpm.s))), NA(), ROUND((_xlpm.a * _xlpm.s) / (_xlpm.a - _xlpm.s), _xlpm.prec)), "qs", IF(OR(NOT(ISNUMBER(_xlpm.b)), NOT(ISNUMBER(_xlpm.s))), NA(), ROUND((_xlpm.b * _xlpm.s) / (_xlpm.b - _xlpm.s), _xlpm.prec)), NA()), _xlpm.result))</definedName>
+    <definedName name="ASTRO_SYNODIC_SOLVER">_xlfn.LAMBDA(_xlpm.val_1,_xlpm.val_2,_xlop.mode,_xlop.format,_xlop.prec, _xlfn.LET(_xlpm.raw_mode, IF(_xlfn.ISOMITTED(_xlpm.mode) + (_xlpm.mode = ""), "PQ", _xlpm.mode), _xlpm.norm_mode, _xlfn.TEXTJOIN("", , _xlfn._xlws.SORT(MID(LOWER(_xlpm.raw_mode), _xlfn.SEQUENCE(LEN(_xlpm.raw_mode)), 1))), _xlpm.mode, _xlpm.norm_mode, _xlpm.format, IF(_xlfn.ISOMITTED(_xlpm.format) + (_xlpm.format = ""), "bare", LOWER(_xlpm.format)), _xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec), 4, _xlpm.prec), _xlpm.P_in, IF(OR(_xlpm.mode = "pq", _xlpm.mode = "ps"), _xlpm.val_1, NA()), _xlpm.Q_in, IF(_xlpm.mode = "pq", _xlpm.val_2, IF(_xlpm.mode = "qs", _xlpm.val_1, NA())), _xlpm.S_in, IF(OR(_xlpm.mode = "ps", _xlpm.mode = "qs"), _xlpm.val_2, NA()), _xlpm.P, IF(AND(ISNUMBER(_xlpm.P_in), ISNUMBER(_xlpm.Q_in)), MAX(_xlpm.P_in, _xlpm.Q_in), _xlpm.P_in), _xlpm.Q, IF(AND(ISNUMBER(_xlpm.P_in), ISNUMBER(_xlpm.Q_in)), MIN(_xlpm.P_in, _xlpm.Q_in), _xlpm.Q_in), _xlpm.S_calc, IF(_xlpm.P = _xlpm.Q, NA(), ROUND((_xlpm.P * _xlpm.Q) / (_xlpm.P - _xlpm.Q), _xlpm.prec)), _xlpm.Q_calc, IF(OR(NOT(ISNUMBER(_xlpm.P)), NOT(ISNUMBER(_xlpm.S_in))), NA(), ROUND((_xlpm.P * _xlpm.S_in) / ABS(_xlpm.P - _xlpm.S_in), _xlpm.prec)), _xlpm.P_calc, IF(OR(NOT(ISNUMBER(_xlpm.Q)), NOT(ISNUMBER(_xlpm.S_in))), NA(), ROUND((_xlpm.Q * _xlpm.S_in) / ABS(_xlpm.Q - _xlpm.S_in), _xlpm.prec)), _xlpm.P_val, IF(_xlpm.mode = "qs", _xlpm.P_calc, _xlpm.P), _xlpm.Q_val, IF(_xlpm.mode = "ps", _xlpm.Q_calc, _xlpm.Q), _xlpm.S_val, IF(_xlpm.mode = "pq", _xlpm.S_calc, _xlpm.S_in), _xlpm.label, _xlfn.SWITCH(_xlpm.mode, "pq", "S", "ps", "Q", "qs", "P", "?"), _xlpm.result, _xlfn.SWITCH(_xlpm.mode, "pq", _xlpm.S_calc, "ps", _xlpm.Q_calc, "qs", _xlpm.P_calc, NA()), _xlpm.verbose_out, "P = " &amp; IF(ISNUMBER(_xlpm.P_val), IF(_xlpm.mode = "qs", "☞ " &amp; _xlpm.P_val, _xlpm.P_val), "—") &amp; ", " &amp; "Q = " &amp; IF(ISNUMBER(_xlpm.Q_val), IF(_xlpm.mode = "ps", "☞ " &amp; _xlpm.Q_val, _xlpm.Q_val), "—") &amp; ", " &amp; "S = " &amp; IF(ISNUMBER(_xlpm.S_val), IF(_xlpm.mode = "pq", "☞ " &amp; _xlpm.S_val, _xlpm.S_val), "—"), _xlpm.row_out, _xlfn.VSTACK(_xlfn.HSTACK(IF(_xlpm.mode = "qs", "P ☞", "P ="), IF(_xlpm.mode = "ps", "Q ☞", "Q ="), IF(_xlpm.mode = "pq", "S ☞", "S =")), _xlfn.HSTACK(_xlpm.P_val, _xlpm.Q_val, _xlpm.S_val)), _xlpm.col_out, _xlfn.VSTACK(_xlfn.HSTACK(IF(_xlpm.mode = "qs", "P ☞", "P ="), _xlpm.P_val), _xlfn.HSTACK(IF(_xlpm.mode = "ps", "Q ☞", "Q ="), _xlpm.Q_val), _xlfn.HSTACK(IF(_xlpm.mode = "pq", "S ☞", "S ="), _xlpm.S_val)), _xlpm.output, _xlfn.SWITCH(_xlpm.format, "bare", _xlpm.result, "labeled", _xlpm.label &amp; " = " &amp; _xlpm.result, "verbose", _xlpm.verbose_out, "row", _xlpm.row_out, "col", _xlpm.col_out, "Invalid format"), _xlpm.output))</definedName>
     <definedName name="ASTRO_TYPE_FROM_TEMP">_xlfn.LAMBDA(_xlpm.temp,_xlop.decimals, _xlfn.LET(_xlpm.arrTypes, {"O3";"O4";"O5";"O6";"O7";"O8";"O9";"B0";"B1";"B2";"B3";"B4";"B5";"B6";"B7";"B8";"B9";"A0";"A1";"A2";"A3";"A4";"A5";"A6";"A7";"A8";"A9";"F0";"F1";"F2";"F3";"F4";"F5";"F6";"F7";"F8";"F9";"G0";"G1";"G2";"G3";"G4";"G5";"G6";"G7";"G8";"G9";"K0";"K1";"K2";"K3";"K4";"K5";"K6";"K7";"K8";"K9";"M0";"M1";"M2";"M3";"M4";"M5";"M6";"M7";"M8";"M9"}, _xlpm.arrTHigh, {44900;42900;41400;39500;37100;35100;33300;31400;26000;20600;17000;16400;15700;14500;14000;12300;10700;9700;9300;8800;8600;8250;8100;7910;7760;7590;7400;7220;7020;6820;6750;6670;6550;6350;6280;6180;6050;5930;5860;5770;5720;5680;5660;5600;5550;5480;5380;5270;5170;5100;4830;4600;4440;4300;4100;3990;3930;3850;3660;3560;3430;3210;3060;2810;2680;2570;2380}, _xlpm.arrSpan, {2000;1500;1900;2400;2000;1800;1900;5400;5400;3600;600;700;1200;500;1700;1600;1000;400;500;200;350;150;190;150;170;190;180;200;200;70;80;120;200;70;100;130;120;70;90;50;40;20;60;50;70;100;110;100;70;270;230;160;140;200;110;60;80;190;100;130;220;150;250;130;110;190;280}, _xlpm.temp_in_range, _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.arrTHigh)), _xlfn.LAMBDA(_xlpm.i, AND(INDEX(_xlpm.arrTHigh, _xlpm.i) &gt;= _xlpm.temp, _xlpm.temp &gt; INDEX(_xlpm.arrTHigh, _xlpm.i) - INDEX(_xlpm.arrSpan, _xlpm.i)))), _xlpm.idx, _xlfn.XMATCH(TRUE, _xlpm.temp_in_range), _xlpm.full_type, INDEX(_xlpm.arrTypes, _xlpm.idx), _xlpm.T_high, INDEX(_xlpm.arrTHigh, _xlpm.idx), _xlpm.span, INDEX(_xlpm.arrSpan, _xlpm.idx), _xlpm.f, (_xlpm.T_high - _xlpm.temp) / _xlpm.span, _xlpm.dec, IF(_xlfn.ISOMITTED(_xlpm.decimals), 3, _xlpm.decimals), _xlpm.format_string, "." &amp; REPT("0", _xlpm.dec), _xlpm.subclass, _xlpm.full_type &amp; TEXT(_xlpm.f, _xlpm.format_string), _xlpm.subclass))</definedName>
     <definedName name="AXIS_PERIOD">_xlfn.LAMBDA(_xlpm.input, SQRT(POWER(_xlpm.input, 3)))</definedName>
     <definedName name="CROSSING_ORBIT_PARAMETER">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2, ABS(_xlpm.mass1 - _xlpm.mass2) / ABS(_xlpm.mass1 + _xlpm.mass2))</definedName>
@@ -44,9 +51,9 @@
     <definedName name="PERIOD_AXIS">_xlfn.LAMBDA(_xlpm.input, POWER(POWER(_xlpm.input, 2), (1 / 3)))</definedName>
     <definedName name="SMALLANGLE">_xlfn.LAMBDA(_xlpm.diameter,_xlpm.distance, 0.532904294 * (_xlpm.diameter / _xlpm.distance))</definedName>
     <definedName name="SPHERICAL_TO_CARTESIAN">_xlfn.LAMBDA(_xlpm.phi,_xlpm.theta,_xlpm.r,_xlop.prec, _xlfn.LET(_xlpm.prec, IF((_xlfn.ISOMITTED(_xlpm.prec)) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.z_mod, SIGN(_xlpm.theta), _xlpm.y_mod, SIGN(_xlpm.phi), _xlpm.x_mod, IF(ABS(_xlpm.phi) &lt; 90, 1, -1), _xlpm.ang_x, RADIANS(MOD(_xlpm.phi, 90)), _xlpm.ang_z, RADIANS(ABS(_xlpm.theta)), _xlpm.d, COS(_xlpm.ang_z) * _xlpm.r, _xlpm.x, ROUND(COS(_xlpm.ang_x) * _xlpm.d * _xlpm.x_mod, _xlpm.prec), _xlpm.y, ROUND(SIN(_xlpm.ang_x) * _xlpm.d * _xlpm.y_mod, _xlpm.prec), _xlpm.z, ROUND(SIN(_xlpm.ang_z) * _xlpm.r * _xlpm.z_mod, _xlpm.prec), _xlpm.result, _xlfn.TEXTJOIN("|", , _xlpm.x, _xlpm.y, _xlpm.z), _xlfn.TOROW(_xlfn.TEXTSPLIT(_xlpm.result, "|"))))</definedName>
-    <definedName name="SYNODIC">_xlfn.LAMBDA(_xlpm.p,_xlpm.q, (_xlpm.p * _xlpm.q) / ABS(_xlpm.p - _xlpm.q))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
   <si>
     <t>Spectral</t>
   </si>
@@ -257,6 +264,54 @@
   </si>
   <si>
     <t>Temperature Interval</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>val_1</t>
+  </si>
+  <si>
+    <t>val_2</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>bare</t>
+  </si>
+  <si>
+    <t>(default)</t>
+  </si>
+  <si>
+    <t>labeled</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>qs</t>
   </si>
 </sst>
 </file>
@@ -346,7 +401,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,6 +408,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -721,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6503EE-3967-F142-A914-D59AF539BB00}">
-  <dimension ref="A4:L106"/>
+  <dimension ref="A4:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D67" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101:G106"/>
+    <sheetView topLeftCell="F107" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120:L150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16"/>
@@ -732,8 +787,11 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
@@ -968,26 +1026,26 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="C38" s="8" t="str" cm="1">
+      <c r="C38" s="7" t="str" cm="1">
         <f t="array" ref="C38:J48">ASTRO_DISPLAY_SPECTRAL()</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D38" s="8" t="str">
+      <c r="D38" s="7" t="str">
         <v>O</v>
       </c>
-      <c r="E38" s="8" t="str">
+      <c r="E38" s="7" t="str">
         <v>B</v>
       </c>
-      <c r="F38" s="8" t="str">
+      <c r="F38" s="7" t="str">
         <v>A</v>
       </c>
-      <c r="G38" s="8" t="str">
+      <c r="G38" s="7" t="str">
         <v>F</v>
       </c>
-      <c r="H38" s="8" t="str">
+      <c r="H38" s="7" t="str">
         <v>G</v>
       </c>
-      <c r="I38" s="8" t="str">
+      <c r="I38" s="7" t="str">
         <v>K</v>
       </c>
       <c r="J38" t="str">
@@ -995,26 +1053,26 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7">
         <v>0</v>
       </c>
-      <c r="D39" s="8" t="str">
+      <c r="D39" s="7" t="str">
         <v/>
       </c>
-      <c r="E39" s="8" t="str">
+      <c r="E39" s="7" t="str">
         <v>31400; 5400</v>
       </c>
-      <c r="F39" s="8" t="str">
+      <c r="F39" s="7" t="str">
         <v>9700; 400</v>
       </c>
-      <c r="G39" s="8" t="str">
+      <c r="G39" s="7" t="str">
         <v>7220; 200</v>
       </c>
-      <c r="H39" s="8" t="str">
+      <c r="H39" s="7" t="str">
         <v>5930; 70</v>
       </c>
-      <c r="I39" s="8" t="str">
+      <c r="I39" s="7" t="str">
         <v>5270; 100</v>
       </c>
       <c r="J39" t="str">
@@ -1022,26 +1080,26 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7">
         <v>1</v>
       </c>
-      <c r="D40" s="8" t="str">
+      <c r="D40" s="7" t="str">
         <v/>
       </c>
-      <c r="E40" s="8" t="str">
+      <c r="E40" s="7" t="str">
         <v>26000; 5400</v>
       </c>
-      <c r="F40" s="8" t="str">
+      <c r="F40" s="7" t="str">
         <v>9300; 500</v>
       </c>
-      <c r="G40" s="8" t="str">
+      <c r="G40" s="7" t="str">
         <v>7020; 200</v>
       </c>
-      <c r="H40" s="8" t="str">
+      <c r="H40" s="7" t="str">
         <v>5860; 90</v>
       </c>
-      <c r="I40" s="8" t="str">
+      <c r="I40" s="7" t="str">
         <v>5170; 70</v>
       </c>
       <c r="J40" t="str">
@@ -1049,26 +1107,26 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7">
         <v>2</v>
       </c>
-      <c r="D41" s="8" t="str">
+      <c r="D41" s="7" t="str">
         <v/>
       </c>
-      <c r="E41" s="8" t="str">
+      <c r="E41" s="7" t="str">
         <v>20600; 3600</v>
       </c>
-      <c r="F41" s="8" t="str">
+      <c r="F41" s="7" t="str">
         <v>8800; 200</v>
       </c>
-      <c r="G41" s="8" t="str">
+      <c r="G41" s="7" t="str">
         <v>6820; 70</v>
       </c>
-      <c r="H41" s="8" t="str">
+      <c r="H41" s="7" t="str">
         <v>5770; 50</v>
       </c>
-      <c r="I41" s="8" t="str">
+      <c r="I41" s="7" t="str">
         <v>5100; 270</v>
       </c>
       <c r="J41" t="str">
@@ -1076,55 +1134,55 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7">
         <v>3</v>
       </c>
-      <c r="D42" s="8" t="str">
+      <c r="D42" s="7" t="str">
         <v>44900; 2000</v>
       </c>
-      <c r="E42" s="8" t="str">
+      <c r="E42" s="7" t="str">
         <v>17000; 600</v>
       </c>
-      <c r="F42" s="9" t="str">
+      <c r="F42" s="8" t="str">
         <v>8600; 350</v>
       </c>
-      <c r="G42" s="9" t="str">
+      <c r="G42" s="8" t="str">
         <v>6750; 80</v>
       </c>
-      <c r="H42" s="9" t="str">
+      <c r="H42" s="8" t="str">
         <v>5720; 40</v>
       </c>
-      <c r="I42" s="9" t="str">
+      <c r="I42" s="8" t="str">
         <v>4830; 230</v>
       </c>
-      <c r="J42" s="7" t="str">
+      <c r="J42" s="6" t="str">
         <v>3430; 220</v>
       </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="8" t="str">
+      <c r="D43" s="7" t="str">
         <v>42900; 1500</v>
       </c>
-      <c r="E43" s="9" t="str">
+      <c r="E43" s="8" t="str">
         <v>16400; 700</v>
       </c>
-      <c r="F43" s="8" t="str">
+      <c r="F43" s="7" t="str">
         <v>8250; 150</v>
       </c>
-      <c r="G43" s="8" t="str">
+      <c r="G43" s="7" t="str">
         <v>6670; 120</v>
       </c>
-      <c r="H43" s="8" t="str">
+      <c r="H43" s="7" t="str">
         <v>5680; 20</v>
       </c>
-      <c r="I43" s="8" t="str">
+      <c r="I43" s="7" t="str">
         <v>4600; 160</v>
       </c>
       <c r="J43" t="str">
@@ -1132,26 +1190,26 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7">
         <v>5</v>
       </c>
-      <c r="D44" s="8" t="str">
+      <c r="D44" s="7" t="str">
         <v>41400; 1900</v>
       </c>
-      <c r="E44" s="9" t="str">
+      <c r="E44" s="8" t="str">
         <v>15700; 1200</v>
       </c>
-      <c r="F44" s="8" t="str">
+      <c r="F44" s="7" t="str">
         <v>8100; 190</v>
       </c>
-      <c r="G44" s="8" t="str">
+      <c r="G44" s="7" t="str">
         <v>6550; 200</v>
       </c>
-      <c r="H44" s="8" t="str">
+      <c r="H44" s="7" t="str">
         <v>5660; 60</v>
       </c>
-      <c r="I44" s="8" t="str">
+      <c r="I44" s="7" t="str">
         <v>4440; 140</v>
       </c>
       <c r="J44" t="str">
@@ -1159,26 +1217,26 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7">
         <v>6</v>
       </c>
-      <c r="D45" s="8" t="str">
+      <c r="D45" s="7" t="str">
         <v>39500; 2400</v>
       </c>
-      <c r="E45" s="9" t="str">
+      <c r="E45" s="8" t="str">
         <v>14500; 500</v>
       </c>
-      <c r="F45" s="8" t="str">
+      <c r="F45" s="7" t="str">
         <v>7910; 150</v>
       </c>
-      <c r="G45" s="8" t="str">
+      <c r="G45" s="7" t="str">
         <v>6350; 70</v>
       </c>
-      <c r="H45" s="8" t="str">
+      <c r="H45" s="7" t="str">
         <v>5600; 50</v>
       </c>
-      <c r="I45" s="8" t="str">
+      <c r="I45" s="7" t="str">
         <v>4300; 200</v>
       </c>
       <c r="J45" t="str">
@@ -1186,26 +1244,26 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7">
         <v>7</v>
       </c>
-      <c r="D46" s="8" t="str">
+      <c r="D46" s="7" t="str">
         <v>37100; 2000</v>
       </c>
-      <c r="E46" s="9" t="str">
+      <c r="E46" s="8" t="str">
         <v>14000; 1700</v>
       </c>
-      <c r="F46" s="8" t="str">
+      <c r="F46" s="7" t="str">
         <v>7760; 170</v>
       </c>
-      <c r="G46" s="8" t="str">
+      <c r="G46" s="7" t="str">
         <v>6280; 100</v>
       </c>
-      <c r="H46" s="8" t="str">
+      <c r="H46" s="7" t="str">
         <v>5550; 70</v>
       </c>
-      <c r="I46" s="8" t="str">
+      <c r="I46" s="7" t="str">
         <v>4100; 110</v>
       </c>
       <c r="J46" t="str">
@@ -1213,26 +1271,26 @@
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7">
         <v>8</v>
       </c>
-      <c r="D47" s="8" t="str">
+      <c r="D47" s="7" t="str">
         <v>35100; 1800</v>
       </c>
-      <c r="E47" s="9" t="str">
+      <c r="E47" s="8" t="str">
         <v>12300; 1600</v>
       </c>
-      <c r="F47" s="8" t="str">
+      <c r="F47" s="7" t="str">
         <v>7590; 190</v>
       </c>
-      <c r="G47" s="8" t="str">
+      <c r="G47" s="7" t="str">
         <v>6180; 130</v>
       </c>
-      <c r="H47" s="8" t="str">
+      <c r="H47" s="7" t="str">
         <v>5480; 100</v>
       </c>
-      <c r="I47" s="8" t="str">
+      <c r="I47" s="7" t="str">
         <v>3990; 60</v>
       </c>
       <c r="J47" t="str">
@@ -1240,26 +1298,26 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7">
         <v>9</v>
       </c>
-      <c r="D48" s="8" t="str">
+      <c r="D48" s="7" t="str">
         <v>33300; 1900</v>
       </c>
-      <c r="E48" s="9" t="str">
+      <c r="E48" s="8" t="str">
         <v>10700; 1000</v>
       </c>
-      <c r="F48" s="8" t="str">
+      <c r="F48" s="7" t="str">
         <v>7400; 180</v>
       </c>
-      <c r="G48" s="8" t="str">
+      <c r="G48" s="7" t="str">
         <v>6050; 120</v>
       </c>
-      <c r="H48" s="8" t="str">
+      <c r="H48" s="7" t="str">
         <v>5380; 110</v>
       </c>
-      <c r="I48" s="8" t="str">
+      <c r="I48" s="7" t="str">
         <v>3930; 80</v>
       </c>
       <c r="J48" t="str">
@@ -1267,10 +1325,10 @@
       </c>
     </row>
     <row r="49" spans="3:10">
-      <c r="E49" s="7"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="3:10">
-      <c r="E50" s="7"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="3:10">
       <c r="C51" t="str" cm="1">
@@ -1280,7 +1338,7 @@
       <c r="D51" t="str">
         <v>span</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="E51" s="6"/>
       <c r="F51" t="str" cm="1">
         <f t="array" ref="F51:G56">ASTRO_STAR_ATTRIBUTES("K", 5930)</f>
         <v>K ➔</v>
@@ -1296,7 +1354,7 @@
       <c r="D52">
         <v>200</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="E52" s="6"/>
       <c r="F52" t="str">
         <v>T</v>
       </c>
@@ -1676,7 +1734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="6:7">
+    <row r="97" spans="6:8">
       <c r="F97" t="str">
         <v>d ➔</v>
       </c>
@@ -1684,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="6:7">
+    <row r="98" spans="6:8">
       <c r="F98" t="str">
         <v>g ➔</v>
       </c>
@@ -1692,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="6:7">
+    <row r="99" spans="6:8">
       <c r="F99" t="str">
         <v>v</v>
       </c>
@@ -1700,13 +1758,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="6:7">
+    <row r="101" spans="6:8">
       <c r="F101" t="str" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">General.FORMULA_TEXT(F102)</f>
         <v>F102:= ASTRO_PLANET_METRICS("md",1,2)</v>
       </c>
     </row>
-    <row r="102" spans="6:7">
+    <row r="102" spans="6:8">
       <c r="F102" t="str" cm="1">
         <f t="array" ref="F102:G106">ASTRO_PLANET_METRICS("md",1,2)</f>
         <v>M ➔</v>
@@ -1715,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="6:7">
+    <row r="103" spans="6:8">
       <c r="F103" t="str">
         <v>R</v>
       </c>
@@ -1723,7 +1781,7 @@
         <v>0.79369999999999996</v>
       </c>
     </row>
-    <row r="104" spans="6:7">
+    <row r="104" spans="6:8">
       <c r="F104" t="str">
         <v>d ➔</v>
       </c>
@@ -1731,7 +1789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7">
+    <row r="105" spans="6:8">
       <c r="F105" t="str">
         <v>g</v>
       </c>
@@ -1739,12 +1797,725 @@
         <v>1.5873999999999999</v>
       </c>
     </row>
-    <row r="106" spans="6:7">
+    <row r="106" spans="6:8">
       <c r="F106" t="str">
         <v>v</v>
       </c>
       <c r="G106">
         <v>1.12246</v>
+      </c>
+    </row>
+    <row r="110" spans="6:8">
+      <c r="F110" t="str" cm="1">
+        <f t="array" aca="1" ref="F110" ca="1">General.FORMULA_TEXT(F111)</f>
+        <v>F111:= ASTRO_SYNODIC_SOLVER(779.88, 365.25,"qs","row", 2)</v>
+      </c>
+    </row>
+    <row r="111" spans="6:8">
+      <c r="F111" t="str" cm="1">
+        <f t="array" ref="F111:H112">ASTRO_SYNODIC_SOLVER(779.88, 365.25,"qs","row", 2)</f>
+        <v>P ☞</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Q =</v>
+      </c>
+      <c r="H111" t="str">
+        <v>S =</v>
+      </c>
+    </row>
+    <row r="112" spans="6:8">
+      <c r="F112">
+        <v>687</v>
+      </c>
+      <c r="G112">
+        <v>779.88</v>
+      </c>
+      <c r="H112">
+        <v>365.25</v>
+      </c>
+    </row>
+    <row r="114" spans="6:12">
+      <c r="F114" t="str" cm="1">
+        <f t="array" aca="1" ref="F114" ca="1">General.FORMULA_TEXT(F115)</f>
+        <v>F115:= ASTRO_SYNODIC_SOLVER(779.88, 365.25,"qs","col", 2)</v>
+      </c>
+    </row>
+    <row r="115" spans="6:12">
+      <c r="F115" t="str" cm="1">
+        <f t="array" ref="F115:G117">ASTRO_SYNODIC_SOLVER(779.88, 365.25,"qs","col", 2)</f>
+        <v>P ☞</v>
+      </c>
+      <c r="G115">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="116" spans="6:12">
+      <c r="F116" t="str">
+        <v>Q =</v>
+      </c>
+      <c r="G116">
+        <v>779.88</v>
+      </c>
+    </row>
+    <row r="117" spans="6:12">
+      <c r="F117" t="str">
+        <v>S =</v>
+      </c>
+      <c r="G117">
+        <v>365.25</v>
+      </c>
+    </row>
+    <row r="120" spans="6:12">
+      <c r="F120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" t="s">
+        <v>25</v>
+      </c>
+      <c r="J120" t="s">
+        <v>26</v>
+      </c>
+      <c r="K120" t="s">
+        <v>27</v>
+      </c>
+      <c r="L120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="6:12">
+      <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121">
+        <v>365.25</v>
+      </c>
+      <c r="J121">
+        <v>687</v>
+      </c>
+      <c r="L121">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 687, "pq", "bare")</f>
+        <v>779.88109999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="6:12">
+      <c r="F122" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <v>365.25</v>
+      </c>
+      <c r="J122">
+        <v>687</v>
+      </c>
+      <c r="L122">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 687, "pq", "bare", 2)</f>
+        <v>779.88</v>
+      </c>
+    </row>
+    <row r="123" spans="6:12">
+      <c r="F123" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" t="s">
+        <v>32</v>
+      </c>
+      <c r="H123" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123">
+        <v>365.25</v>
+      </c>
+      <c r="J123">
+        <v>687</v>
+      </c>
+      <c r="L123" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 687, "pq", "labeled")</f>
+        <v>S = 779.8811</v>
+      </c>
+    </row>
+    <row r="124" spans="6:12">
+      <c r="F124" t="s">
+        <v>29</v>
+      </c>
+      <c r="G124" t="s">
+        <v>32</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>365.25</v>
+      </c>
+      <c r="J124">
+        <v>687</v>
+      </c>
+      <c r="L124" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 687, "pq", "labeled", 2)</f>
+        <v>S = 779.88</v>
+      </c>
+    </row>
+    <row r="125" spans="6:12">
+      <c r="F125" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" t="s">
+        <v>33</v>
+      </c>
+      <c r="H125" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125">
+        <v>365.25</v>
+      </c>
+      <c r="J125">
+        <v>687</v>
+      </c>
+      <c r="L125" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 687, "pq", "verbose")</f>
+        <v>P = 687, Q = 365.25, S = ☞ 779.8811</v>
+      </c>
+    </row>
+    <row r="126" spans="6:12">
+      <c r="F126" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s">
+        <v>33</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
+        <v>365.25</v>
+      </c>
+      <c r="J126">
+        <v>687</v>
+      </c>
+      <c r="L126" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 687, "pq", "verbose", 2)</f>
+        <v>P = 687, Q = 365.25, S = ☞ 779.88</v>
+      </c>
+    </row>
+    <row r="127" spans="6:12">
+      <c r="F127" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" t="s">
+        <v>34</v>
+      </c>
+      <c r="H127" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127">
+        <v>365.25</v>
+      </c>
+      <c r="J127">
+        <v>687</v>
+      </c>
+      <c r="L127" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 687, "pq", "row")</f>
+        <v>P =</v>
+      </c>
+    </row>
+    <row r="128" spans="6:12">
+      <c r="F128" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>365.25</v>
+      </c>
+      <c r="J128">
+        <v>687</v>
+      </c>
+      <c r="L128" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 687, "pq", "row", 2)</f>
+        <v>P =</v>
+      </c>
+    </row>
+    <row r="129" spans="6:12">
+      <c r="F129" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" t="s">
+        <v>35</v>
+      </c>
+      <c r="H129" t="s">
+        <v>31</v>
+      </c>
+      <c r="I129">
+        <v>365.25</v>
+      </c>
+      <c r="J129">
+        <v>687</v>
+      </c>
+      <c r="L129" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 687, "pq", "col")</f>
+        <v>P =</v>
+      </c>
+    </row>
+    <row r="130" spans="6:12">
+      <c r="F130" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" t="s">
+        <v>35</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
+        <v>365.25</v>
+      </c>
+      <c r="J130">
+        <v>687</v>
+      </c>
+      <c r="L130" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 687, "pq", "col", 2)</f>
+        <v>P =</v>
+      </c>
+    </row>
+    <row r="131" spans="6:12">
+      <c r="F131" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" t="s">
+        <v>31</v>
+      </c>
+      <c r="I131">
+        <v>365.25</v>
+      </c>
+      <c r="J131">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L131">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 779.8811, "ps", "bare")</f>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="132" spans="6:12">
+      <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
+        <v>30</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132">
+        <v>365.25</v>
+      </c>
+      <c r="J132">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L132">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 779.8811, "ps", "bare", 2)</f>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="133" spans="6:12">
+      <c r="F133" t="s">
+        <v>36</v>
+      </c>
+      <c r="G133" t="s">
+        <v>32</v>
+      </c>
+      <c r="H133" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133">
+        <v>365.25</v>
+      </c>
+      <c r="J133">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L133" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 779.8811, "ps", "labeled")</f>
+        <v>Q = 687</v>
+      </c>
+    </row>
+    <row r="134" spans="6:12">
+      <c r="F134" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" t="s">
+        <v>32</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>365.25</v>
+      </c>
+      <c r="J134">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L134" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 779.8811, "ps", "labeled", 2)</f>
+        <v>Q = 687</v>
+      </c>
+    </row>
+    <row r="135" spans="6:12">
+      <c r="F135" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" t="s">
+        <v>33</v>
+      </c>
+      <c r="H135" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135">
+        <v>365.25</v>
+      </c>
+      <c r="J135">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L135" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 779.8811, "ps", "verbose")</f>
+        <v>P = 365.25, Q = ☞ 687, S = 779.8811</v>
+      </c>
+    </row>
+    <row r="136" spans="6:12">
+      <c r="F136" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" t="s">
+        <v>33</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>365.25</v>
+      </c>
+      <c r="J136">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L136" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 779.8811, "ps", "verbose", 2)</f>
+        <v>P = 365.25, Q = ☞ 687, S = 779.8811</v>
+      </c>
+    </row>
+    <row r="137" spans="6:12">
+      <c r="F137" t="s">
+        <v>36</v>
+      </c>
+      <c r="G137" t="s">
+        <v>34</v>
+      </c>
+      <c r="H137" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137">
+        <v>365.25</v>
+      </c>
+      <c r="J137">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L137" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 779.8811, "ps", "row")</f>
+        <v>P =</v>
+      </c>
+    </row>
+    <row r="138" spans="6:12">
+      <c r="F138" t="s">
+        <v>36</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>365.25</v>
+      </c>
+      <c r="J138">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L138" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 779.8811, "ps", "row", 2)</f>
+        <v>P =</v>
+      </c>
+    </row>
+    <row r="139" spans="6:12">
+      <c r="F139" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" t="s">
+        <v>35</v>
+      </c>
+      <c r="H139" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139">
+        <v>365.25</v>
+      </c>
+      <c r="J139">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L139" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 779.8811, "ps", "col")</f>
+        <v>P =</v>
+      </c>
+    </row>
+    <row r="140" spans="6:12">
+      <c r="F140" t="s">
+        <v>36</v>
+      </c>
+      <c r="G140" t="s">
+        <v>35</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>365.25</v>
+      </c>
+      <c r="J140">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L140" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(365.25, 779.8811, "ps", "col", 2)</f>
+        <v>P =</v>
+      </c>
+    </row>
+    <row r="141" spans="6:12">
+      <c r="F141" t="s">
+        <v>37</v>
+      </c>
+      <c r="G141" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" t="s">
+        <v>31</v>
+      </c>
+      <c r="I141">
+        <v>687</v>
+      </c>
+      <c r="J141">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L141">
+        <f>ASTRO_SYNODIC_SOLVER(687, 779.8811, "qs", "bare")</f>
+        <v>5768.4321</v>
+      </c>
+    </row>
+    <row r="142" spans="6:12">
+      <c r="F142" t="s">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>687</v>
+      </c>
+      <c r="J142">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L142">
+        <f>ASTRO_SYNODIC_SOLVER(687, 779.8811, "qs", "bare", 2)</f>
+        <v>5768.43</v>
+      </c>
+    </row>
+    <row r="143" spans="6:12">
+      <c r="F143" t="s">
+        <v>37</v>
+      </c>
+      <c r="G143" t="s">
+        <v>32</v>
+      </c>
+      <c r="H143" t="s">
+        <v>31</v>
+      </c>
+      <c r="I143">
+        <v>687</v>
+      </c>
+      <c r="J143">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L143" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(687, 779.8811, "qs", "labeled")</f>
+        <v>P = 5768.4321</v>
+      </c>
+    </row>
+    <row r="144" spans="6:12">
+      <c r="F144" t="s">
+        <v>37</v>
+      </c>
+      <c r="G144" t="s">
+        <v>32</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>687</v>
+      </c>
+      <c r="J144">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L144" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(687, 779.8811, "qs", "labeled", 2)</f>
+        <v>P = 5768.43</v>
+      </c>
+    </row>
+    <row r="145" spans="6:12">
+      <c r="F145" t="s">
+        <v>37</v>
+      </c>
+      <c r="G145" t="s">
+        <v>33</v>
+      </c>
+      <c r="H145" t="s">
+        <v>31</v>
+      </c>
+      <c r="I145">
+        <v>687</v>
+      </c>
+      <c r="J145">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L145" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(687, 779.8811, "qs", "verbose")</f>
+        <v>P = ☞ 5768.4321, Q = 687, S = 779.8811</v>
+      </c>
+    </row>
+    <row r="146" spans="6:12">
+      <c r="F146" t="s">
+        <v>37</v>
+      </c>
+      <c r="G146" t="s">
+        <v>33</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146">
+        <v>687</v>
+      </c>
+      <c r="J146">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L146" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(687, 779.8811, "qs", "verbose", 2)</f>
+        <v>P = ☞ 5768.43, Q = 687, S = 779.8811</v>
+      </c>
+    </row>
+    <row r="147" spans="6:12">
+      <c r="F147" t="s">
+        <v>37</v>
+      </c>
+      <c r="G147" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147">
+        <v>687</v>
+      </c>
+      <c r="J147">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L147" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(687, 779.8811, "qs", "row")</f>
+        <v>P ☞</v>
+      </c>
+    </row>
+    <row r="148" spans="6:12">
+      <c r="F148" t="s">
+        <v>37</v>
+      </c>
+      <c r="G148" t="s">
+        <v>34</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <v>687</v>
+      </c>
+      <c r="J148">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L148" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(687, 779.8811, "qs", "row", 2)</f>
+        <v>P ☞</v>
+      </c>
+    </row>
+    <row r="149" spans="6:12">
+      <c r="F149" t="s">
+        <v>37</v>
+      </c>
+      <c r="G149" t="s">
+        <v>35</v>
+      </c>
+      <c r="H149" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149">
+        <v>687</v>
+      </c>
+      <c r="J149">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L149" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(687, 779.8811, "qs", "col")</f>
+        <v>P ☞</v>
+      </c>
+    </row>
+    <row r="150" spans="6:12">
+      <c r="F150" t="s">
+        <v>37</v>
+      </c>
+      <c r="G150" t="s">
+        <v>35</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>687</v>
+      </c>
+      <c r="J150">
+        <v>779.88109999999995</v>
+      </c>
+      <c r="L150" t="str">
+        <f>ASTRO_SYNODIC_SOLVER(687, 779.8811, "qs", "col", 2)</f>
+        <v>P ☞</v>
       </c>
     </row>
   </sheetData>
@@ -1766,13 +2537,13 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1786,9 +2557,9 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1798,9 +2569,9 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2098,8 +2869,245 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533206DA-792F-454A-BA69-1241CF3D5724}">
+  <dimension ref="B2:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="str" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">General.FORMULA_TEXT(B3)</f>
+        <v>B3:= ASTRO_SYNODIC_SOLVER(365.25,687,"pq","col",2)</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3:C5">ASTRO_SYNODIC_SOLVER(365.25,687,"pq","col",2)</f>
+        <v>P =</v>
+      </c>
+      <c r="C3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="str">
+        <v>Q =</v>
+      </c>
+      <c r="C4">
+        <v>365.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="str">
+        <v>S ☞</v>
+      </c>
+      <c r="C5">
+        <v>779.88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="str" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">General.FORMULA_TEXT(B9)</f>
+        <v>B9:= ASTRO_SYNODIC_SOLVER(365.25,687,"pq","row",2)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="str" cm="1">
+        <f t="array" ref="B9:D10">ASTRO_SYNODIC_SOLVER(365.25,687,"pq","row",2)</f>
+        <v>P =</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Q =</v>
+      </c>
+      <c r="D9" t="str">
+        <v>S ☞</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>687</v>
+      </c>
+      <c r="C10">
+        <v>365.25</v>
+      </c>
+      <c r="D10">
+        <v>779.88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="str" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">General.FORMULA_TEXT(B14)</f>
+        <v>B14:= ASTRO_SYNODIC_SOLVER(365.25,779.88,"ps","row",2)</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="str" cm="1">
+        <f t="array" ref="B14:D15">ASTRO_SYNODIC_SOLVER(365.25,779.88,"ps","row",2)</f>
+        <v>P =</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Q ☞</v>
+      </c>
+      <c r="D14" t="str">
+        <v>S =</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>365.25</v>
+      </c>
+      <c r="C15">
+        <v>687</v>
+      </c>
+      <c r="D15">
+        <v>779.88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="str" cm="1">
+        <f t="array" aca="1" ref="B18" ca="1">General.FORMULA_TEXT(B19)</f>
+        <v>B19:= ASTRO_SYNODIC_PQ(365.25, 687,"verbose",4)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="str" cm="1">
+        <f t="array" ref="B19:C21">ASTRO_SYNODIC_PQ(365.25, 687,"verbose",4)</f>
+        <v>P =</v>
+      </c>
+      <c r="C19">
+        <v>365.25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="str">
+        <v>Q =</v>
+      </c>
+      <c r="C20">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="str">
+        <v>S ☞</v>
+      </c>
+      <c r="C21">
+        <v>779.88109999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="str" cm="1">
+        <f t="array" aca="1" ref="B23" ca="1">General.FORMULA_TEXT(B24)</f>
+        <v>B24:= ASTRO_SYNODIC_PQ(687,365.25,"verbose",4)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="str" cm="1">
+        <f t="array" ref="B24:C26">ASTRO_SYNODIC_PQ(687,365.25,"verbose",4)</f>
+        <v>P =</v>
+      </c>
+      <c r="C24">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="str">
+        <v>Q =</v>
+      </c>
+      <c r="C25">
+        <v>365.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="str">
+        <v>S ☞</v>
+      </c>
+      <c r="C26">
+        <v>779.88109999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="str" cm="1">
+        <f t="array" aca="1" ref="B29" ca="1">General.FORMULA_TEXT(B30)</f>
+        <v>B30:= ASTRO_SYNODIC_PS(365.25,779.8811,"verbose",4)</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="str" cm="1">
+        <f t="array" ref="B30:C32">ASTRO_SYNODIC_PS(365.25,779.8811,"verbose",4)</f>
+        <v>P =</v>
+      </c>
+      <c r="C30">
+        <v>365.25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="str">
+        <v>Q ☞</v>
+      </c>
+      <c r="C31">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="str">
+        <v>S =</v>
+      </c>
+      <c r="C32">
+        <v>779.88109999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="str" cm="1">
+        <f t="array" aca="1" ref="B35" ca="1">General.FORMULA_TEXT(B36)</f>
+        <v>B36:= ASTRO_SYNODIC_QS(687,779.8811,"verbose",4)</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="str" cm="1">
+        <f t="array" ref="B36:C38">ASTRO_SYNODIC_QS(687,779.8811,"verbose",4)</f>
+        <v>P ☞</v>
+      </c>
+      <c r="C36">
+        <v>365.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="str">
+        <v>Q =</v>
+      </c>
+      <c r="C37">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="str">
+        <v>S =</v>
+      </c>
+      <c r="C38">
+        <v>779.88109999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQAgAG4AbwByAG0AYQBsAGkAegBlAGQAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQAgAGkAbgBkAGUAeAAgAGIAYQBzAGUAZAAgAG8AbgAgAGEAIABwAGwAYQBuAGUAdAAnAHMAIABvAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIABhACAAcwB0AGEAcgAnAHMAIABuAHUAYwBsAGUAYQBsACAAKABoAGEAYgBpAHQAYQBiAGwAZQAgAHoAbwBuAGUAIABhAG4AYwBoAG8AcgApACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAHMAYwBhAGwAYQByACAAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAIABpAG4AZABlAHgAIAAoAG4AdQBtAGIAZQByACkALAAgAG8AcgAgAFwAIgBVAC8ASQBcACIAIABpAGYAIAB1AG4AaQBuAGgAYQBiAGkAdABhAGIAbABlAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABPAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlACAAKABpAG4AIABBAFUAKQBcAG4AIAAgACAALQAgAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBjAGwAZQBhAGwAIAB6AG8AbgBlACAAcgBhAGQAaQB1AHMAIAAoAGkAbgAgAEEAVQApADsAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAxAC4AMABcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAHQAaABlACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABJAG4AZABlAHgAIABIIiAAMQAuADAAIABpAG4AZABpAGMAYQB0AGUAcwAgAGkAZABlAGEAbAAgAGEAbABpAGcAbgBtAGUAbgB0ACAAdwBpAHQAaAAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAuAFwAbgAgACAAIAAtACAAVgBhAGwAdQBlAHMAIAA8ACAAMQAgAGEAcgBlACAAaQBuAHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGgAbwB0ACkALgBcAG4AIAAgACAALQAgAFYAYQBsAHUAZQBzACAAPgAgADEAIABhAHIAZQAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGMAbwBsAGQAKQAuAFwAbgAgACAAIAAtACAASQBmACAAdABoAGUAIABvAHIAYgBpAHQAIABpAHMAIAB0AG8AbwAgAGQAZQBlAHAAIABpAG4AcwBpAGQAZQAgAHQAaABlACAAaQBuAG4AZQByACAAYgBvAHUAbgBkAGEAcgB5ACwAIAByAGUAdAB1AHIAbgBzACAAXAAiAFUALwBJAFwAIgAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGEAIABwAGkAZQBjAGUAdwBpAHMAZQAgAGYAdQBuAGMAdABpAG8AbgAgAGYAbwByACAAcwBtAG8AbwB0AGgAIABmAGEAbABsAG8AZgBmACAAYQBjAHIAbwBzAHMAIABiAG8AdQBuAGQAYQByAHkALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAxAC4AMAApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAMQAuADAAMAAwACAAIAAoAGEAcwBzAHUAbQBlAHMAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAIAA9ACAAMQApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAoADAALgA3ADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgAJIhIAAwAC4ANQAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACgAMgAuADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgACAAkiEgADEALgA2ADIAOABcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAwAC4AMgA1ACwAIAAxAC4AMAApACAAIAAgACAAIAAgACAAIACSISAAXAAiAFUALwBJAFwAIgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAIAA9ACAATABBAE0AQgBEAEEAKABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAsACAAWwBuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIAAzACAAZABlAGMAaQBtAGEAbABzACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwApACwAIAAxACwAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAsACAALwAqACAARABlAGYAYQB1AGwAdAAgAHQAbwAgADEAIABBAFUAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAKgAvAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsACAASQBGACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAA8ACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABUAFIAVQBFACwAIABGAEEATABTAEUAKQAsACAAIAAvACoAIABEAGUAdABlAHIAbQBpAG4AZQAgAHAAbwBzAGkAdABpAG8AbgAgACoALwBcAG4AXABuACAAIAAgACAAIAAgACAAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAqACAAUABpAGUAYwBlAHcAaQBzAGUAIABmAHUAbgBjAHQAaQBvAG4AIAAqAC8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAMgAgACoAIABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAgAC8AIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAgAC0AIAAxACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEkAbgBzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAvACAAKAAtADMALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACkAKQAgACsAIAAoADQALgA4ADUAIAAvACAAMwAuADgANQApACAAIAAvACoAIABPAHUAdABzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEgAYQBuAGQAbABlACAAaQBuAHYAYQBsAGkAZAAvAHYAYQBsAGkAZAAgAGMAYQBzAGUAcwAgACoALwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAXwBpAG4AZABlAHgAIAA8AD0AIAAwACwAIABcACIAVQAvAEkAXAAiACwAIABSAE8AVQBOAEQAKABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4AKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AXABuACAAIAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABEAGkAcwB0AHIAaQBiAHUAdABlAHMAIABhACAAdABvAHQAYQBsACAAcwB0AGUAbABsAGEAcgAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABhAGMAcgBvAHMAcwAgAHQAaABlACAAcwBlAHYAZQBuACAAcAByAGkAbQBhAHIAeQAgAHMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACgATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApACAAYgBhAHMAZQBkACAAbwBuACAAaQBuAHYAZQByAHMAZQAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABmAGEAYwB0AG8AcgBzAC4AIABSAGUAdAB1AHIAbgBzACAAYQAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AXABuACAAIAAgAGEAcgByAGEAeQAgAG8AZgAgAGMAbABhAHMAcwAgAGwAYQBiAGUAbABzACAAYQBuAGQAIABjAGEAbABjAHUAbABhAHQAZQBkACAAcwB0AGEAcgAgAGMAbwB1AG4AdABzAC4AXABuAFwAbgAgACAAIABTAHkAbgB0AGEAeAA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AKAB0AG8AdABhAGwALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQApAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAgACAAdABvAHQAYQBsACAAIAAgACAAIAAgADoAIABUAG8AdABhAGwAIABuAHUAbQBiAGUAcgAgAG8AZgAgAHMAdABhAHIAcwAgAHQAbwAgAGIAZQAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAuAFwAbgAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4AIAAgADoAIABPAHAAdABpAG8AbgBhAGwAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAC4AIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAGUAYQBjAGgAIABjAG8AdQBuAHQALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIAB2AGUAcgB0AGkAYwBhAGwAIABhAHIAcgBhAHkAIAB3AGkAdABoACAAdAB3AG8AIABjAG8AbAB1AG0AbgBzADoAXABuACAAIAAgACAAIAAgACAALQAgAEMAbwBsAHUAbQBuACAAMQA6ACAAUwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzACAAbABhAGIAZQBsAHMAIAAoAFQAbwB0AGEAbAAsACAATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApAFwAbgAgACAAIAAgACAAIAAgAC0AIABDAG8AbAB1AG0AbgAgADIAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzACAAaQBuACAAZQBhAGMAaAAgAGMAbABhAHMAcwAgACgAcgBvAHUAbgBkAGUAZAAgAHQAbwAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABwAHIAZQBjAGkAcwBpAG8AbgApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADEAMAAwADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAB7ADEAMAAwADAALAAgADAALgAzADMAMwAsACAAMQAuADIANQAsACAALgAuAC4AfQBcAG4AXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADUAMAAwADAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAByAG8AdQBuAGQAZQBkACAAaQBuAHQAZQBnAGUAcgBzAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAAVABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAGkAcwAgAGIAYQBzAGUAZAAgAG8AbgAgAGkAbgB2AGUAcgBzAGUAIAB3AGUAaQBnAGgAdABpAG4AZwAgAGYAYQBjAHQAbwByAHMAOgBcAG4AIAAgACAAIAAgACAAIAAgACAATwA6ACAAMQAvADMAMAAwADAAMAAwADAAXABuACAAIAAgACAAIAAgACAAIAAgAEIAOgAgADEALwA4ADAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAQQA6ACAAMQAvADEANgAwAFwAbgAgACAAIAAgACAAIAAgACAAIABGADoAIAAxAC8AMwAzAFwAbgAgACAAIAAgACAAIAAgACAAIABHADoAIAAxAC8AMQAzAFwAbgAgACAAIAAgACAAIAAgACAAIABLADoAIAAxAC8AOABcAG4AIAAgACAAIAAgACAAIAAgACAATQA6ACAAMQAvADEALgAzADEANQAzAC4ALgAuAFwAbgAgACAAIAAgACAALQAgAFQAaABlAHMAZQAgAHYAYQBsAHUAZQBzACAAYQBwAHAAcgBvAHgAaQBtAGEAdABlACAAcgBlAGwAYQB0AGkAdgBlACAAZgByAGUAcQB1AGUAbgBjAHkAIABhAG4AZAAgAGEAYgB1AG4AZABhAG4AYwBlACAAbwBmACAAcwB0AGEAcgAgAHQAeQBwAGUAcwAuAFwAbgAgACAAIAAgACAALQAgAFwAIgBUAG8AdABhAGwAXAAiACAAaQBzACAAaQBuAGMAbAB1AGQAZQBkACAAYQBzACAAdABoAGUAIABmAGkAcgBzAHQAIAByAG8AdwAgAG8AZgAgAHQAaABlACAAbwB1AHQAcAB1AHQAIABmAG8AcgAgAGUAYQBzAHkAIABzAHUAbQBtAGEAdABpAG8AbgAvAGEAdQBkAGkAdAAuAFwAbgAgACAAIAAgACAALQAgAEkAbgB0AGUAbgBkAGUAZAAgAGYAbwByACAAdQBzAGUAIABpAG4AIABtAG8AZABlAGwAaQBuAGcAIABzAHQAYQByACAAcwB5AHMAdABlAG0AIABwAG8AcAB1AGwAYQB0AGkAbwBuAHMALAAgAGcAYQBsAGEAeAB5ACAAcwBlAGUAZABpAG4AZwAsACAAbwByACAAdABlAGEAYwBoAGkAbgBnACAAdABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAG8AZgAgAHMAdABlAGwAbABhAHIAIAB0AHkAcABlAHMALgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACAAPQAgAEwAQQBNAEIARABBACgAWwBhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwBdACwAIABbAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0AF0ALAAgAFsAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABEAGUAZgBhAHUAbAB0ACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMAKQAsACAAXAAiACQAXAAiACwAIABVAFAAUABFAFIAKABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALAAgADEALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjAGkAbQBhAGwAXwBwAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAFMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwAgAGEAcgByAGEAeQAgAGEAbgBkACAAYgBhAHMAZQAgAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAgACgAZQBtAHAAaQByAGkAYwBhAGwAKQAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBjAGwAYQBzAHMAZQBzACwAIAB7AFwAIgBPAFwAIgA7ACAAXAAiAEIAXAAiADsAIABcACIAQQBcACIAOwAgAFwAIgBGAFwAIgA7ACAAXAAiAEcAXAAiADsAIABcACIASwBcACIAOwAgAFwAIgBNAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABhAHIAcgBfAGIAYQBzAGUAXwBwAGMAdAAsACAAewAwAC4AMAAwADAAMAAzADsAIAAwAC4AMQAzADsAIAAwAC4ANgA7ACAAMwAuADAAOwAgADcALgA2ADsAIAAxADIALgAxADsAIAA3ADYALgAyADcAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AcABjAHQALAAgAEwAQQBNAEIARABBACgAeAAsACAAeAAgAC8AIAAxADAAMAApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEwAbwBvAGsAdQBwACAAcwBjAGEAbABpAG4AZwAgAGYAYQBjAHQAbwByACAAZgBvAHIAIABhACAAcwBwAGUAYwBpAGYAaQBjACAAYQBuAGMAaABvAHIAIAB0AHkAcABlAFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBmAHIAZQBxACwAIABYAEwATwBPAEsAVQBQACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAGEAcgByAF8AYwBsAGEAcwBzAGUAcwAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIABzAGMAYQBsAGkAbgBnAF8AZgBhAGMAdABvAHIALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACAALwAgAGEAbgBjAGgAbwByAF8AZgByAGUAcQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAAUwBjAGEAbABlAGQAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgABQgIABuAG8AcgBtAGEAbABpAHoAZQAgAG8AcgAgAGEAcABwAGwAeQAgAHUAcwBlAHIALQBkAGUAZgBpAG4AZQBkACAAcwBjAGEAbABlAFwAbgAgACAAIAAgACAAIAAgACAAcwBjAGEAbABlAGQALAAgAEkARgAoAGEAbgBjAGgAbwByAF8AYwBsAGEAcwBzACAAPQAgAFwAIgAkAFwAIgAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAATABBAE0AQgBEAEEAKAB4ACwAIAB4ACAAKgAgAHMAYwBhAGwAaQBuAGcAXwBmAGEAYwB0AG8AcgApACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAARgBpAG4AYQBsACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAASABTAFQAQQBDAEsAKABhAHIAcgBfAGMAbABhAHMAcwBlAHMALAAgAFIATwBVAE4ARAAoAHMAYwBhAGwAZQBkACwAIABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaQBuAHQAZQByAHAAbwBsAGEAdABlAGQAIABlAGYAZgBlAGMAdABpAHYAZQAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgACgAaQBuACAASwBlAGwAdgBpAG4AKQAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAHMAdABlAGwAbABhAHIAIABzAHUAYgBjAGwAYQBzAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAZQAuAGcALgAgAFwAIgBHADcALgAzAFwAIgApACwAIAB1AHMAaQBuAGcAIABoAGEAcgBkAGMAbwBkAGUAZAAgAGgAaQBnAGgALQB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABhAG4AYwBoAG8AcgBzACAAYQBuAGQAIABzAHAAYQBuACAAdgBhAGwAdQBlAHMAIABiAGUAdAB3AGUAZQBuACAAcwB1AGIAYwBsAGEAcwBzAGUAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABpAG4AIABLAGUAbAB2AGkAbgAsACAAaQBuAHQAZQByAHAAbwBsAGEAdABlAGQAIAB1AHMAaQBuAGcAIABsAGkAbgBlAGEAcgAgAHMAYwBhAGwAaQBuAGcAIAB3AGkAdABoAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABzAHUAYgBjAGwAYQBzAHMALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAHMAdQBiAGMAbABhAHMAcwAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAuACAAQQBjAGMAZQBwAHQAcwAgAGYAbwByAG0AYQB0AHMAIABsAGkAawBlACAAXAAiAEYANQBcACIALAAgAFwAIgBLADIALgA2AFwAIgAsACAAXAAiAE0AOAAuADkAXAAiACwAIABlAHQAYwAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABUAGUAbQBwAGUAcgBhAHQAdQByAGUAIABkAGEAdABhACAAaQBzACAAYgBhAHMAZQBkACAAbwBuACAAZQBtAHAAaQByAGkAYwBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIABhAG4AYwBoAG8AcgBzACAAZgBvAHIAIAB0AHkAcABlAHMAIABPADMAIAB0AGgAcgBvAHUAZwBoACAATQA5AC4AXABuACAAIAAgAC0AIABUAGgAZQAgAGYAdQBuAGMAdABpAG8AbgAgAHMAdQBwAHAAbwByAHQAcwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIABpAG4AcAB1AHQAIABhAG4AZAAgAGEAcwBzAHUAbQBlAHMAIABsAGkAbgBlAGEAcgAgAGYAYQBsAGwAbwBmAGYAIABiAGUAdAB3AGUAZQBuACAAcwB1AGIAYwBsAGEAcwBzACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGMAaABvAHIAcwAuAFwAbgAgACAAIAAtACAAVABoAGUAIABoAGkAZwBoACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAKABgAFQAXwBoAGkAZwBoAGAAKQAgAGkAcwAgAHIAZQB0AHIAaQBlAHYAZQBkACAAZgBvAHIAIAB0AGgAZQAgAGIAYQBzAGUAIABzAHUAYgBjAGwAYQBzAHMAIAAoAGUALgBnAC4ALAAgAFwAIgBHADcAXAAiACkALAAgAGEAbgBkACAAaQBuAHQAZQByAHAAbwBsAGEAdABpAG8AbgAgAHUAcwBlAHMAOgBcAG4AIAAgACAAIAAgACAAIABUACAAPQAgAFQAXwBoAGkAZwBoACAALQAgACgAZgByAGEAYwB0AGkAbwBuACAAKgAgAHMAcABhAG4AKQBcAG4AIAAgACAALQAgAEgAYQBuAGQAbABlAHMAIABpAG4AcAB1AHQAcwAgAHcAaQB0AGgAIABvAHIAIAB3AGkAdABoAG8AdQB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABwAG8AaQBuAHQAIAAoAGUALgBnAC4ALAAgAFwAIgBGADYAXAAiACAAPQAgAFwAIgBGADYALgAwAFwAIgApAC4AXABuACAAIAAgAC0AIABJAG4AdABlAHIAbgBhAGwAbAB5ACAAdQBzAGUAcwAgAFgATABPAE8ASwBVAFAAIABvAHYAZQByACAAYQAgAG0AYQB0AHIAaQB4ACAAYgB1AGkAbAB0ACAAZgByAG8AbQAgAGgAYQByAGQAYwBvAGQAZQBkACAAcwB1AGIAYwBsAGEAcwBzACAAbABhAGIAZQBsAHMALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQBzACwAIABhAG4AZAAgAHMAcABhAG4AcwAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBHADcALgAzAFwAIgApACAAIAAgAJIhIAA1ADUAMgA5AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBPADQALgA0AFwAIgApACAAIAAgAJIhIAA0ADIAMwAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEMAQQBMAEMAXwBUAEUATQBQACgAXAAiAEYAOAAuADQANQBcACIAKQAgACAAkiEgADYAMQAyADEALgA1AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBNADgALgA2AFwAIgApACAAIAAgAJIhIAAyADQANQA2AFwAbgAqAC8AXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABzAHUAYgBjAGwAYQBzAHMALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAGEAcgBkAGMAbwBkAGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAgAGEAcgByAGEAeQBzACAALQAtAC0AXABuAFwAbgAgACAAIAAgAGEAcgByAFQAeQBwAGUAcwAsACAAewBcAG4AIAAgACAAIAAgACAAXAAiAE8AMwBcACIAOwAgAFwAIgBPADQAXAAiADsAIABcACIATwA1AFwAIgA7ACAAXAAiAE8ANgBcACIAOwAgAFwAIgBPADcAXAAiADsAIABcACIATwA4AFwAIgA7ACAAXAAiAE8AOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEIAMABcACIAOwAgAFwAIgBCADEAXAAiADsAIABcACIAQgAyAFwAIgA7ACAAXAAiAEIAMwBcACIAOwAgAFwAIgBCADQAXAAiADsAIABcACIAQgA1AFwAIgA7ACAAXAAiAEIANgBcACIAOwAgAFwAIgBCADcAXAAiADsAIABcACIAQgA4AFwAIgA7ACAAXAAiAEIAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEEAMABcACIAOwAgAFwAIgBBADEAXAAiADsAIABcACIAQQAyAFwAIgA7ACAAXAAiAEEAMwBcACIAOwAgAFwAIgBBADQAXAAiADsAIABcACIAQQA1AFwAIgA7ACAAXAAiAEEANgBcACIAOwAgAFwAIgBBADcAXAAiADsAIABcACIAQQA4AFwAIgA7ACAAXAAiAEEAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEYAMABcACIAOwAgAFwAIgBGADEAXAAiADsAIABcACIARgAyAFwAIgA7ACAAXAAiAEYAMwBcACIAOwAgAFwAIgBGADQAXAAiADsAIABcACIARgA1AFwAIgA7ACAAXAAiAEYANgBcACIAOwAgAFwAIgBGADcAXAAiADsAIABcACIARgA4AFwAIgA7ACAAXAAiAEYAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEcAMABcACIAOwAgAFwAIgBHADEAXAAiADsAIABcACIARwAyAFwAIgA7ACAAXAAiAEcAMwBcACIAOwAgAFwAIgBHADQAXAAiADsAIABcACIARwA1AFwAIgA7ACAAXAAiAEcANgBcACIAOwAgAFwAIgBHADcAXAAiADsAIABcACIARwA4AFwAIgA7ACAAXAAiAEcAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEsAMABcACIAOwAgAFwAIgBLADEAXAAiADsAIABcACIASwAyAFwAIgA7ACAAXAAiAEsAMwBcACIAOwAgAFwAIgBLADQAXAAiADsAIABcACIASwA1AFwAIgA7ACAAXAAiAEsANgBcACIAOwAgAFwAIgBLADcAXAAiADsAIABcACIASwA4AFwAIgA7ACAAXAAiAEsAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAE0AMABcACIAOwAgAFwAIgBNADEAXAAiADsAIABcACIATQAyAFwAIgA7ACAAXAAiAE0AMwBcACIAOwAgAFwAIgBNADQAXAAiADsAIABcACIATQA1AFwAIgA7ACAAXAAiAE0ANgBcACIAOwAgAFwAIgBNADcAXAAiADsAIABcACIATQA4AFwAIgA7ACAAXAAiAE0AOQBcACIAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABIAGkAZwBoACAAZQBmAGYAZQBjAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAcwAgACgASwApACAAZgBvAHIAIABlAGEAYwBoACAAcwB1AGIAYwBsAGEAcwBzAFwAbgAgACAAIAAgAGEAcgByAFQASABpAGcAaAAsACAAewBcAG4AIAAgACAAIAAgACAANAA0ADkAMAAwADsAIAA0ADIAOQAwADAAOwAgADQAMQA0ADAAMAA7ACAAMwA5ADUAMAAwADsAIAAzADcAMQAwADAAOwAgADMANQAxADAAMAA7ACAAMwAzADMAMAAwADsAXABuACAAIAAgACAAIAAgADMAMQA0ADAAMAA7ACAAMgA2ADAAMAAwADsAIAAyADAANgAwADAAOwAgADEANwAwADAAMAA7ACAAMQA2ADQAMAAwADsAIAAxADUANwAwADAAOwAgADEANAA1ADAAMAA7ACAAMQA0ADAAMAAwADsAIAAxADIAMwAwADAAOwAgADEAMAA3ADAAMAA7AFwAbgAgACAAIAAgACAAIAA5ADcAMAAwADsAIAA5ADMAMAAwADsAIAA4ADgAMAAwADsAIAA4ADYAMAAwADsAIAA4ADIANQAwADsAIAA4ADEAMAAwADsAIAA3ADkAMQAwADsAIAA3ADcANgAwADsAIAA3ADUAOQAwADsAIAA3ADQAMAAwADsAXABuACAAIAAgACAAIAAgADcAMgAyADAAOwAgADcAMAAyADAAOwAgADYAOAAyADAAOwAgADYANwA1ADAAOwAgADYANgA3ADAAOwAgADYANQA1ADAAOwAgADYAMwA1ADAAOwAgADYAMgA4ADAAOwAgADYAMQA4ADAAOwBcAG4AIAAgACAAIAAgACAANgAwADUAMAA7ACAANQA5ADMAMAA7ACAANQA4ADYAMAA7ACAANQA3ADcAMAA7ACAANQA3ADIAMAA7ACAANQA2ADgAMAA7ACAANQA2ADYAMAA7ACAANQA2ADAAMAA7ACAANQA1ADUAMAA7ACAANQA0ADgAMAA7AFwAbgAgACAAIAAgACAAIAA1ADMAOAAwADsAIAA1ADIANwAwADsAIAA1ADEANwAwADsAIAA1ADEAMAAwADsAIAA0ADgAMwAwADsAIAA0ADYAMAAwADsAIAA0ADQANAAwADsAIAA0ADMAMAAwADsAIAA0ADEAMAAwADsAIAAzADkAOQAwADsAXABuACAAIAAgACAAIAAgADMAOQAzADAAOwAgADMAOAA1ADAAOwAgADMANgA2ADAAOwAgADMANQA2ADAAOwAgADMANAAzADAAOwAgADMAMgAxADAAOwAgADMAMAA2ADAAOwAgADIAOAAxADAAOwAgADIANgA4ADAAOwAgADIANQA3ADAAOwAgADIAMwA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABUAGUAbQBwAGUAcgBhAHQAdQByAGUAIABzAHAAYQBuACAAdABvACAAdABoAGUAIABuAGUAeAB0ACAAcwB1AGIAYwBsAGEAcwBzACAAKABLACkAXABuACAAIAAgACAAYQByAHIAUwBwAGEAbgAsACAAewBcAG4AIAAgACAAIAAgACAAMgAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMQA5ADAAMAA7ACAAMgA0ADAAMAA7ACAAMgAwADAAMAA7ACAAMQA4ADAAMAA7ACAAMQA5ADAAMAA7AFwAbgAgACAAIAAgACAAIAA1ADQAMAAwADsAIAA1ADQAMAAwADsAIAAzADYAMAAwADsAIAA2ADAAMAA7ACAANwAwADAAOwAgADEAMgAwADAAOwAgADUAMAAwADsAIAAxADcAMAAwADsAIAAxADYAMAAwADsAIAAxADAAMAAwADsAXABuACAAIAAgACAAIAAgADQAMAAwADsAIAA1ADAAMAA7ACAAMgAwADAAOwAgADMANQAwADsAIAAxADUAMAA7ACAAMQA5ADAAOwAgADEANQAwADsAIAAxADcAMAA7ACAAMQA5ADAAOwAgADEAOAAwADsAXABuACAAIAAgACAAIAAgADIAMAAwADsAIAAyADAAMAA7ACAANwAwADsAIAA4ADAAOwAgADEAMgAwADsAIAAyADAAMAA7ACAANwAwADsAIAAxADAAMAA7ACAAMQAzADAAOwBcAG4AIAAgACAAIAAgACAAMQAyADAAOwAgADcAMAA7ACAAOQAwADsAIAA1ADAAOwAgADQAMAA7ACAAMgAwADsAIAA2ADAAOwAgADUAMAA7ACAANwAwADsAIAAxADAAMAA7AFwAbgAgACAAIAAgACAAIAAxADEAMAA7ACAAMQAwADAAOwAgADcAMAA7ACAAMgA3ADAAOwAgADIAMwAwADsAIAAxADYAMAA7ACAAMQA0ADAAOwAgADIAMAAwADsAIAAxADEAMAA7ACAANgAwADsAXABuACAAIAAgACAAIAAgADgAMAA7ACAAMQA5ADAAOwAgADEAMAAwADsAIAAxADMAMAA7ACAAMgAyADAAOwAgADEANQAwADsAIAAyADUAMAA7ACAAMQAzADAAOwAgADEAMQAwADsAIAAxADkAMAA7ACAAMgA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABCAHUAbgBkAGwAZQAgAGkAbgB0AG8AIABhACAAcwBpAG4AZwBsAGUAIABtAGEAdAByAGkAeAAgAGYAbwByACAAYwBsAGUAYQBuACAAbABvAG8AawB1AHAAXABuACAAIAAgACAAbQB0AHgAUwB0AGEAcgBzACwAIABIAFMAVABBAEMASwAoAGEAcgByAFQAeQBwAGUAcwAsACAAYQByAHIAVABIAGkAZwBoACwAIABhAHIAcgBTAHAAYQBuACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AcAB1AHQAIABuAG8AcgBtAGEAbABpAHoAYQB0AGkAbwBuACAAYQBuAGQAIABwAGEAcgBzAGkAbgBnACAALQAtAC0AXABuAFwAbgAgACAAIAAgAG4AbwBfAHMAcABhAGMAZQAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAHMAdQBiAGMAbABhAHMAcwAsACAAXAAiACAAXAAiACwAIABcACIAXAAiACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABUAHIAaQBtACAAdwBoAGkAdABlAHMAcABhAGMAZQBcAG4AIAAgACAAIABkAG8AdABfAHAAbwBzACwAIABGAEkATgBEACgAXAAiAC4AXAAiACwAIABuAG8AXwBzAHAAYQBjAGUAIAAmACAAXAAiAC4AMABcACIAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARQBuAHMAdQByAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGkAcwAgAGQAZQB0AGUAYwB0AGUAZAAgAGUAdgBlAG4AIABmAG8AcgAgAHcAaABvAGwAZQAgAHMAdQBiAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACAAYgBhAHMAZQAsACAATABFAEYAVAAoAG4AbwBfAHMAcABhAGMAZQAsACAAZABvAHQAXwBwAG8AcwAgAC0AIAAxACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABFAHgAdAByAGEAYwB0ACAAcgBvAG8AdAAgAHMAdQBiAGMAbABhAHMAcwAsACAAZQAuAGcALgAsACAAXAAiAEcANwBcACIAIABmAHIAbwBtACAAXAAiAEcANwAuADMAXAAiAFwAbgAgACAAIAAgAGYALAAgAFYAQQBMAFUARQAoAFwAIgAwAC4AXAAiACAAJgAgAE0ASQBEACgAbgBvAF8AcwBwAGEAYwBlACwAIABkAG8AdABfAHAAbwBzACAAKwAgADEALAAgAEwARQBOACgAbgBvAF8AcwBwAGEAYwBlACkAKQApACwAIAAvAC8AIABDAG8AbgB2AGUAcgB0ACAAZABlAGMAaQBtAGEAbAAgAHMAdAByAGkAbgBnACAAdABvACAAbgB1AG0AZQByAGkAYwAgACgAZQAuAGcALgAsACAAMAAuADMAKQBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABMAG8AbwBrAHUAcAAgAGgAaQBnAGgAIAB0AGUAbQBwACAAYQBuAGQAIABzAHAAYQBuACAAZgByAG8AbQAgAG0AYQB0AHIAaQB4ACAALQAtAC0AXABuAFwAbgAgACAAIAAgAFQAXwBoAGkAZwBoACwAIABYAEwATwBPAEsAVQBQACgAYgBhAHMAZQAsACAASQBOAEQARQBYACgAbQB0AHgAUwB0AGEAcgBzACwALAAxACkALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMgApACkALAAgAC8ALwAgAGUALgBnAC4AIAA1ADUANQAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AIAAgACAAIABzAHAAYQBuACwAIAAgACAAWABMAE8ATwBLAFUAUAAoAGIAYQBzAGUALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMQApACwAIABJAE4ARABFAFgAKABtAHQAeABTAHQAYQByAHMALAAsADMAKQApACwAIAAvAC8AIABlAC4AZwAuACAANwAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AdABlAHIAcABvAGwAYQB0AGkAbwBuADoAIABUACAAPQAgAFQAXwBoAGkAZwBoACAALQAgAGYAIAAqACAAcwBwAGEAbgAgAC0ALQAtAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAVABfAGgAaQBnAGgAIAAtACAAKABmACAAKgAgAHMAcABhAG4AKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAG4AdABlAHIAcABvAGwAYQB0AGUAZAAgAHMAdABlAGwAbABhAHIAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAAoAGUALgBnAC4AIABcACIARwA3AC4AMwBcACIAKQAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAGUAZgBmAGUAYwB0AGkAdgBlACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAaQBuACAASwBlAGwAdgBpAG4ALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgAgAEEAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIABlAHMAdABpAG0AYQB0AGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAsACAAbwBwAHQAaQBvAG4AYQBsAGwAeQAgAHcAaQB0AGgAIABkAGUAYwBpAG0AYQBsACAAcAByAGUAYwBpAHMAaQBvAG4ALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAHQAZQBtAHAAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAbgB1AG0AZQByAGkAYwAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgAGkAbgAgAEsAZQBsAHYAaQBuAC4AXABuACAAIAAgAC0AIABkAGUAYwBpAG0AYQBsAHMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAGkAbgBjAGwAdQBkAGUAIABpAG4AIAB0AGgAZQAgAHMAdQBiAGMAbABhAHMAcwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIABtAGEAdABjAGgAZQBzACAAdABoAGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAB0AG8AIAB0AGgAZQAgAGMAbwByAHIAZQBjAHQAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAByAGEAbgBnAGUAIABiAHkAIABjAGgAZQBjAGsAaQBuAGcAIAB3AGgAaQBjAGgAIABoAGkAZwBoAC0AdABlAG0AcAAgAGIAYQBuAGQAIABpAHQAIABmAGEAbABsAHMAIAB3AGkAdABoAGkAbgAuAFwAbgAgACAAIAAtACAASQB0ACAAdABoAGUAbgAgAGwAaQBuAGUAYQByAGwAeQAgAGkAbgB0AGUAcgBwAG8AbABhAHQAZQBzACAAdABoAGUAIABkAGUAYwBpAG0AYQBsACAAcABvAHIAdABpAG8AbgAgAG8AZgAgAHQAaABlACAAcwB1AGIAYwBsAGEAcwBzACAAdQBzAGkAbgBnADoAXABuACAAIAAgACAAIAAgACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAD0AIAAoAFQAXwBoAGkAZwBoACAALQAgAHQAZQBtAHAAKQAgAC8AIABzAHAAYQBuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGgAYQByAGQAYwBvAGQAZQBkACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGMAaABvAHIAcwAgAGEAbgBkACAAcwBwAGEAbgBzACAAYQBjAHIAbwBzAHMAIABzAHAAZQBjAHQAcgBhAGwAIAB0AHkAcABlAHMAIABPADMAEyBNADkALgBcAG4AIAAgACAALQAgAFMAdQBwAHAAbwByAHQAcwAgAGgAaQBnAGgAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGEAbgBkACAAbgBvAHIAbQBhAGwAaQB6AGEAdABpAG8AbgAgAGYAbwByACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHMAdQBiAGMAbABhAHMAcwBlAHMAIABsAGkAawBlACAAXAAiAEsANAAuADMANwA2AFwAIgAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAKAA0ADIAMwAwADAAKQAgACAAIACSISAAXAAiAE8ANAAuADQAMAAwAFwAIgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACgANQA1ADIAOQApACAAIAAgACAAkiEgAFwAIgBHADcALgAzADAAMABcACIAXABuACAAIAAgAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAAoADYAMQAyADEALgA1ACkAIAAgAJIhIABcACIARgA4AC4ANAA1ADAAXAAiAFwAbgAgACAAIABBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAKAAyADQANQA2ACwAIAAxACkAIACSISAAXAAiAE0AOAAuADYAXAAiAFwAbgBcAG4AIAAgACAARABlAHAAZQBuAGQAZQBuAGMAaQBlAHMAOgBcAG4AIAAgACAALQAgAFUAcwBlAHMAIABYAE0AQQBUAEMASAAgACsAIABNAEEAUAAgAGYAbwByACAAbABvAGcAaQBjAGEAbAAgAHIAYQBuAGcAZQAgAGQAZQB0AGUAYwB0AGkAbwBuAC4AXABuACAAIAAgAC0AIABBAHMAcwB1AG0AZQBzACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAZABlAGMAcgBlAGEAcwBlAHMAIABtAG8AbgBvAHQAbwBuAGkAYwBhAGwAbAB5ACAAYQBjAHIAbwBzAHMAIABzAHUAYgBjAGwAYQBzAHMAIABzAGUAcQB1AGUAbgBjAGUALgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQBtAHAALAAgAFsAZABlAGMAaQBtAGEAbABzAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAGEAcgBkAGMAbwBkAGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAgAGQAYQB0AGEAIAAtAC0ALQBcAG4AIAAgACAAIABhAHIAcgBUAHkAcABlAHMALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBPADMAXAAiADsAIABcACIATwA0AFwAIgA7ACAAXAAiAE8ANQBcACIAOwAgAFwAIgBPADYAXAAiADsAIABcACIATwA3AFwAIgA7ACAAXAAiAE8AOABcACIAOwAgAFwAIgBPADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBCADAAXAAiADsAIABcACIAQgAxAFwAIgA7ACAAXAAiAEIAMgBcACIAOwAgAFwAIgBCADMAXAAiADsAIABcACIAQgA0AFwAIgA7ACAAXAAiAEIANQBcACIAOwAgAFwAIgBCADYAXAAiADsAIABcACIAQgA3AFwAIgA7ACAAXAAiAEIAOABcACIAOwAgAFwAIgBCADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBBADAAXAAiADsAIABcACIAQQAxAFwAIgA7ACAAXAAiAEEAMgBcACIAOwAgAFwAIgBBADMAXAAiADsAIABcACIAQQA0AFwAIgA7ACAAXAAiAEEANQBcACIAOwAgAFwAIgBBADYAXAAiADsAIABcACIAQQA3AFwAIgA7ACAAXAAiAEEAOABcACIAOwAgAFwAIgBBADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBGADAAXAAiADsAIABcACIARgAxAFwAIgA7ACAAXAAiAEYAMgBcACIAOwAgAFwAIgBGADMAXAAiADsAIABcACIARgA0AFwAIgA7ACAAXAAiAEYANQBcACIAOwAgAFwAIgBGADYAXAAiADsAIABcACIARgA3AFwAIgA7ACAAXAAiAEYAOABcACIAOwAgAFwAIgBGADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBHADAAXAAiADsAIABcACIARwAxAFwAIgA7ACAAXAAiAEcAMgBcACIAOwAgAFwAIgBHADMAXAAiADsAIABcACIARwA0AFwAIgA7ACAAXAAiAEcANQBcACIAOwAgAFwAIgBHADYAXAAiADsAIABcACIARwA3AFwAIgA7ACAAXAAiAEcAOABcACIAOwAgAFwAIgBHADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBLADAAXAAiADsAIABcACIASwAxAFwAIgA7ACAAXAAiAEsAMgBcACIAOwAgAFwAIgBLADMAXAAiADsAIABcACIASwA0AFwAIgA7ACAAXAAiAEsANQBcACIAOwAgAFwAIgBLADYAXAAiADsAIABcACIASwA3AFwAIgA7ACAAXAAiAEsAOABcACIAOwAgAFwAIgBLADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBNADAAXAAiADsAIABcACIATQAxAFwAIgA7ACAAXAAiAE0AMgBcACIAOwAgAFwAIgBNADMAXAAiADsAIABcACIATQA0AFwAIgA7ACAAXAAiAE0ANQBcACIAOwAgAFwAIgBNADYAXAAiADsAIABcACIATQA3AFwAIgA7ACAAXAAiAE0AOABcACIAOwAgAFwAIgBNADkAXAAiAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAAYQByAHIAVABIAGkAZwBoACwAIAB7AFwAbgAgACAAIAAgACAAIAA0ADQAOQAwADAAOwAgADQAMgA5ADAAMAA7ACAANAAxADQAMAAwADsAIAAzADkANQAwADAAOwAgADMANwAxADAAMAA7ACAAMwA1ADEAMAAwADsAIAAzADMAMwAwADAAOwBcAG4AIAAgACAAIAAgACAAMwAxADQAMAAwADsAIAAyADYAMAAwADAAOwAgADIAMAA2ADAAMAA7ACAAMQA3ADAAMAAwADsAIAAxADYANAAwADAAOwAgADEANQA3ADAAMAA7ACAAMQA0ADUAMAAwADsAIAAxADQAMAAwADAAOwAgADEAMgAzADAAMAA7ACAAMQAwADcAMAAwADsAXABuACAAIAAgACAAIAAgADkANwAwADAAOwAgADkAMwAwADAAOwAgADgAOAAwADAAOwAgADgANgAwADAAOwAgADgAMgA1ADAAOwAgADgAMQAwADAAOwAgADcAOQAxADAAOwAgADcANwA2ADAAOwAgADcANQA5ADAAOwAgADcANAAwADAAOwBcAG4AIAAgACAAIAAgACAANwAyADIAMAA7ACAANwAwADIAMAA7ACAANgA4ADIAMAA7ACAANgA3ADUAMAA7ACAANgA2ADcAMAA7ACAANgA1ADUAMAA7ACAANgAzADUAMAA7ACAANgAyADgAMAA7ACAANgAxADgAMAA7AFwAbgAgACAAIAAgACAAIAA2ADAANQAwADsAIAA1ADkAMwAwADsAIAA1ADgANgAwADsAIAA1ADcANwAwADsAIAA1ADcAMgAwADsAIAA1ADYAOAAwADsAIAA1ADYANgAwADsAIAA1ADYAMAAwADsAIAA1ADUANQAwADsAIAA1ADQAOAAwADsAXABuACAAIAAgACAAIAAgADUAMwA4ADAAOwAgADUAMgA3ADAAOwAgADUAMQA3ADAAOwAgADUAMQAwADAAOwAgADQAOAAzADAAOwAgADQANgAwADAAOwAgADQANAA0ADAAOwAgADQAMwAwADAAOwAgADQAMQAwADAAOwAgADMAOQA5ADAAOwBcAG4AIAAgACAAIAAgACAAMwA5ADMAMAA7ACAAMwA4ADUAMAA7ACAAMwA2ADYAMAA7ACAAMwA1ADYAMAA7ACAAMwA0ADMAMAA7ACAAMwAyADEAMAA7ACAAMwAwADYAMAA7ACAAMgA4ADEAMAA7ACAAMgA2ADgAMAA7ACAAMgA1ADcAMAA7ACAAMgAzADgAMABcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAGEAcgByAFMAcABhAG4ALAAgAHsAXABuACAAIAAgACAAIAAgADIAMAAwADAAOwAgADEANQAwADAAOwAgADEAOQAwADAAOwAgADIANAAwADAAOwAgADIAMAAwADAAOwAgADEAOAAwADAAOwAgADEAOQAwADAAOwBcAG4AIAAgACAAIAAgACAANQA0ADAAMAA7ACAANQA0ADAAMAA7ACAAMwA2ADAAMAA7ACAANgAwADAAOwAgADcAMAAwADsAIAAxADIAMAAwADsAIAA1ADAAMAA7ACAAMQA3ADAAMAA7ACAAMQA2ADAAMAA7ACAAMQAwADAAMAA7AFwAbgAgACAAIAAgACAAIAA0ADAAMAA7ACAANQAwADAAOwAgADIAMAAwADsAIAAzADUAMAA7ACAAMQA1ADAAOwAgADEAOQAwADsAIAAxADUAMAA7ACAAMQA3ADAAOwAgADEAOQAwADsAIAAxADgAMAA7AFwAbgAgACAAIAAgACAAIAAyADAAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAOAAwADsAIAAxADIAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAMQAwADAAOwAgADEAMwAwADsAXABuACAAIAAgACAAIAAgADEAMgAwADsAIAA3ADAAOwAgADkAMAA7ACAANQAwADsAIAA0ADAAOwAgADIAMAA7ACAANgAwADsAIAA1ADAAOwAgADcAMAA7ACAAMQAwADAAOwBcAG4AIAAgACAAIAAgACAAMQAxADAAOwAgADEAMAAwADsAIAA3ADAAOwAgADIANwAwADsAIAAyADMAMAA7ACAAMQA2ADAAOwAgADEANAAwADsAIAAyADAAMAA7ACAAMQAxADAAOwAgADYAMAA7AFwAbgAgACAAIAAgACAAIAA4ADAAOwAgADEAOQAwADsAIAAxADAAMAA7ACAAMQAzADAAOwAgADIAMgAwADsAIAAxADUAMAA7ACAAMgA1ADAAOwAgADEAMwAwADsAIAAxADEAMAA7ACAAMQA5ADAAOwAgADIAOAAwAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABEAGUAdABlAHIAbQBpAG4AZQAgAG0AYQB0AGMAaAAgAGkAbgBkAGUAeAAgAC0ALQAtAFwAbgAgACAAIAAgAHQAZQBtAHAAXwBpAG4AXwByAGEAbgBnAGUALABcAG4AIAAgACAAIAAgACAATQBBAFAAKABTAEUAUQBVAEUATgBDAEUAKABSAE8AVwBTACgAYQByAHIAVABIAGkAZwBoACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABpACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAQQBOAEQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAYQByAHIAVABIAGkAZwBoACwAIABpACkAIAA+AD0AIAB0AGUAbQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAIAA+ACAASQBOAEQARQBYACgAYQByAHIAVABIAGkAZwBoACwAIABpACkAIAAtACAASQBOAEQARQBYACgAYQByAHIAUwBwAGEAbgAsACAAaQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAaQBkAHgALAAgAFgATQBBAFQAQwBIACgAVABSAFUARQAsACAAdABlAG0AcABfAGkAbgBfAHIAYQBuAGcAZQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAATABvAG8AawB1AHAAIAB0AHkAcABlACAAYQBuAGQAIABjAG8AbQBwAHUAdABlACAAZgByAGEAYwB0AGkAbwBuACAALQAtAC0AXABuACAAIAAgACAAZgB1AGwAbABfAHQAeQBwAGUALAAgAEkATgBEAEUAWAAoAGEAcgByAFQAeQBwAGUAcwAsACAAaQBkAHgAKQAsAFwAbgAgACAAIAAgAFQAXwBoAGkAZwBoACwAIABJAE4ARABFAFgAKABhAHIAcgBUAEgAaQBnAGgALAAgAGkAZAB4ACkALABcAG4AIAAgACAAIABzAHAAYQBuACwAIABJAE4ARABFAFgAKABhAHIAcgBTAHAAYQBuACwAIABpAGQAeAApACwAXABuACAAIAAgACAAZgAsACAAKABUAF8AaABpAGcAaAAgAC0AIAB0AGUAbQBwACkAIAAvACAAcwBwAGEAbgAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAEYAbwByAG0AYQB0ACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIAAtAC0ALQBcAG4AIAAgACAAIABkAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABzACkALABcAG4AIAAgACAAIABmAG8AcgBtAGEAdABfAHMAdAByAGkAbgBnACwAIABcACIALgBcACIAIAAmACAAUgBFAFAAVAAoAFwAIgAwAFwAIgAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgAHMAdQBiAGMAbABhAHMAcwAsACAAZgB1AGwAbABfAHQAeQBwAGUAIAAmACAAVABFAFgAVAAoAGYALAAgAGYAbwByAG0AYQB0AF8AcwB0AHIAaQBuAGcAKQAsAFwAbgBcAG4AIAAgACAAIABzAHUAYgBjAGwAYQBzAHMAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABEAGkAcwBwAGwAYQB5AHMAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABhAG4AZAAgAHMAcABhAG4AIABkAGEAdABhACAAYQBjAHIAbwBzAHMAIABzAHQAZQBsAGwAYQByACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBhAG4AIAByAGUAdAB1AHIAbgAgAGUAaQB0AGgAZQByACAAdABoAGUAIABmAHUAbABsACAAcwBwAGUAYwB0AHIAYQBsACAAbQBhAHQAcgBpAHgAIAAoAE8AMwATIE0AOQApACAAbwByACAAYQAgAGYAaQBsAHQAZQByAGUAZAAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AIAB2AGkAZQB3AC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAIABcAG4AIAAgACAALQAgAEkAZgAgAHQAeQBwAGUAIABpAHMAIABvAG0AaQB0AHQAZQBkADoAIABXAGkAZABlACAAbQBhAHQAcgBpAHgAIABvAGYAIABzAHAAZQBjAHQAcgBhAGwAIABjAGwAYQBzAHMAZQBzACAAKABPACAAdABvACAATQApACwAIAAxADAAIABzAHUAYgBjAGwAYQBzAHMAZQBzACAAZQBhAGMAaABcAG4AIAAgACAALQAgAEkAZgAgAHQAeQBwAGUAIABpAHMAIABwAHIAbwB2AGkAZABlAGQAOgAgAFQAdwBvAC0AYwBvAGwAdQBtAG4AIAB0AGEAYgBsAGUAIAB3AGkAdABoACAAVABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGQAIABTAHAAYQBuACAAZgBvAHIAIAB0AGgAZQAgAHIAZQBxAHUAZQBzAHQAZQBkACAAYwBsAGEAcwBzAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAdAB5AHAAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AbgBlACAAbwBmACAAewBcACIATwBcACIALABcACIAQgBcACIALABcACIAQQBcACIALABcACIARgBcACIALABcACIARwBcACIALABcACIASwBcACIALABcACIATQBcACIAfQAgAHQAbwAgAGwAaQBtAGkAdAAgAG8AdQB0AHAAdQB0ACAAdABvACAAdABoAGEAdAAgAHMAcABlAGMAdAByAGEAbAAgAGcAcgBvAHUAcABcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVABlAG0AcABlAHIAYQB0AHUAcgBlAHMAIABhAHIAZQAgAGgAaQBnAGgALQBlAG4AZAAgAHYAYQBsAHUAZQBzACAAZgBvAHIAIABlAGEAYwBoACAAcwB1AGIAYwBsAGEAcwBzACAAKAByAGUAYQBsAC0AdwBvAHIAbABkACAAaQBuAHMAcABpAHIAZQBkACwAIABzAG0AbwBvAHQAaABlAGQAIABkAGEAdABhACkALgBcAG4AIAAgACAALQAgAFMAcABhAG4AIABpAHMAIAB0AGgAZQAgAEsAZQBsAHYAaQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABhACAAcwB1AGIAYwBsAGEAcwBzACAAYQBuAGQAIAB0AGgAZQAgAG4AZQB4AHQAIABjAG8AbwBsAGUAcgAgAG8AbgBlAC4AXABuACAAIAAgAC0AIABJAGYAIABuAG8AIAB0AHkAcABlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQALAAgAG8AdQB0AHAAdQB0ACAAaQBzACAAbwByAGcAYQBuAGkAegBlAGQAIABhAHMAIABhACAAdgBpAHMAdQBhAGwAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAYQBiAGwAZQAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAFYAUwBUAEEAQwBLACAAYQBuAGQAIABIAFMAVABBAEMASwAgAGkAbgB0AGUAcgBuAGEAbABsAHkAIABmAG8AcgAgAGMAbABlAGEAbgAgAHMAdAByAHUAYwB0AHUAcgBlADsAIAByAGUAcABsAGEAYwBlAHMAIABwAHIAZQB2AGkAbwB1AHMAIABzAGUAcABhAHIAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AcwAuAFwAbgAgACAAIAAtACAAVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAHMAdQBwAGUAcgBzAGUAZABlAHMAOgAgAEEAUwBUAFIATwBfAEQASQBTAFAATABBAFkAXwBCAEEAUwBFAF8ARABBAFQAQQAsACAAXwBTAEUAUABBAFIAQQBUAEUARAAsACAAYQBuAGQAIABfAEIAWQBfAFQAWQBQAEUALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAoACkAIAAgACAAIAAgACAAIAAgAJIhIABSAGUAdAB1AHIAbgBzACAAZgB1AGwAbAAgAE8AMwATIE0AOQAgAHMAdQBiAGMAbABhAHMAcwAgAGMAaABhAHIAdABcAG4AIAAgACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAoAFwAIgBHAFwAIgApACAAIAAgACAAIACSISAAUgBlAHQAdQByAG4AcwAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgAGEAbgBkACAAcwBwAGEAbgAgAGYAbwByACAARwAwABMgRwA5AFwAbgAgACAAIABBAFMAVABSAE8AXwBEAEkAUwBQAEwAQQBZAF8AUwBQAEUAQwBUAFIAQQBMACgAXAAiAEYAXAAiACkAIAAgACAAIAAgAJIhIABGADAAEyBGADkAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AIABtAGUAdAByAGkAYwBzAFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBEAEkAUwBQAEwAQQBZAF8AUwBQAEUAQwBUAFIAQQBMACAAPQAgAEwAQQBNAEIARABBACgAWwB0AHkAcABlAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABEAGUAZgBpAG4AZQAgAHMAcABlAGMAdAByAGEAbAAgAHQAeQBwAGUAcwAgAGEAbgBkACAAYgB1AGkAbABkACAAaABlAGwAcABlAHIAcwAgAC0ALQAtAFwAbgAgACAAIAAgAFQAeQBwAGUAcwAsACAAewBcACIATwBcACIAOwBcACIAQgBcACIAOwBcACIAQQBcACIAOwBcACIARgBcACIAOwBcACIARwBcACIAOwBcACIASwBcACIAOwBcACIATQBcACIAfQAsAFwAbgAgACAAIAAgAEgAZQBhAGQAZQByAHMALAAgAFQAUgBBAE4AUwBQAE8AUwBFACgAVgBTAFQAQQBDAEsAKABcACIAIABcACIALAAgAFQAeQBwAGUAcwApACkALABcAG4AIAAgACAAIABGAGkAbgBkAEMAbwBsACwAIABNAEEASwBFAEEAUgBSAEEAWQAoAEMATwBVAE4AVABBACgAVAB5AHAAZQBzACkALAAgADIALAAgAEwAQQBNAEIARABBACgAcgAsACAAYwAsACAASQBGACgAYwAgAD0AIAAxACwAIABJAE4ARABFAFgAKABUAHkAcABlAHMALAAgAHIAKQAsACAAcgApACkAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAFIAYQB3ACAAcwB0AGEAcgAgAHMAdQBiAGMAbABhAHMAcwAgAGQAYQB0AGEAIAAtAC0ALQBcAG4AIAAgACAAIABhAHIAcgBUAHkAcABlAHMALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBPAFwAIgA7ACAAXAAiAE8AXAAiADsAIABcACIATwBcACIAOwAgAFwAIgBPADMAXAAiADsAIABcACIATwA0AFwAIgA7ACAAXAAiAE8ANQBcACIAOwAgAFwAIgBPADYAXAAiADsAIABcACIATwA3AFwAIgA7ACAAXAAiAE8AOABcACIAOwAgAFwAIgBPADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBCADAAXAAiADsAIABcACIAQgAxAFwAIgA7ACAAXAAiAEIAMgBcACIAOwAgAFwAIgBCADMAXAAiADsAIABcACIAQgA0AFwAIgA7ACAAXAAiAEIANQBcACIAOwAgAFwAIgBCADYAXAAiADsAIABcACIAQgA3AFwAIgA7ACAAXAAiAEIAOABcACIAOwAgAFwAIgBCADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBBADAAXAAiADsAIABcACIAQQAxAFwAIgA7ACAAXAAiAEEAMgBcACIAOwAgAFwAIgBBADMAXAAiADsAIABcACIAQQA0AFwAIgA7ACAAXAAiAEEANQBcACIAOwAgAFwAIgBBADYAXAAiADsAIABcACIAQQA3AFwAIgA7ACAAXAAiAEEAOABcACIAOwAgAFwAIgBBADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBGADAAXAAiADsAIABcACIARgAxAFwAIgA7ACAAXAAiAEYAMgBcACIAOwAgAFwAIgBGADMAXAAiADsAIABcACIARgA0AFwAIgA7ACAAXAAiAEYANQBcACIAOwAgAFwAIgBGADYAXAAiADsAIABcACIARgA3AFwAIgA7ACAAXAAiAEYAOABcACIAOwAgAFwAIgBGADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBHADAAXAAiADsAIABcACIARwAxAFwAIgA7ACAAXAAiAEcAMgBcACIAOwAgAFwAIgBHADMAXAAiADsAIABcACIARwA0AFwAIgA7ACAAXAAiAEcANQBcACIAOwAgAFwAIgBHADYAXAAiADsAIABcACIARwA3AFwAIgA7ACAAXAAiAEcAOABcACIAOwAgAFwAIgBHADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBLADAAXAAiADsAIABcACIASwAxAFwAIgA7ACAAXAAiAEsAMgBcACIAOwAgAFwAIgBLADMAXAAiADsAIABcACIASwA0AFwAIgA7ACAAXAAiAEsANQBcACIAOwAgAFwAIgBLADYAXAAiADsAIABcACIASwA3AFwAIgA7ACAAXAAiAEsAOABcACIAOwAgAFwAIgBLADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBNADAAXAAiADsAIABcACIATQAxAFwAIgA7ACAAXAAiAE0AMgBcACIAOwAgAFwAIgBNADMAXAAiADsAIABcACIATQA0AFwAIgA7ACAAXAAiAE0ANQBcACIAOwAgAFwAIgBNADYAXAAiADsAIABcACIATQA3AFwAIgA7ACAAXAAiAE0AOABcACIAOwAgAFwAIgBNADkAXAAiAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAAYQByAHIAVABIAGkAZwBoACwAIAB7AFwAbgAgACAAIAAgACAAIABcACIAXAAiADsAIABcACIAXAAiADsAIABcACIAXAAiADsAIAA0ADQAOQAwADAAOwAgADQAMgA5ADAAMAA7ACAANAAxADQAMAAwADsAIAAzADkANQAwADAAOwAgADMANwAxADAAMAA7ACAAMwA1ADEAMAAwADsAIAAzADMAMwAwADAAOwBcAG4AIAAgACAAIAAgACAAMwAxADQAMAAwADsAIAAyADYAMAAwADAAOwAgADIAMAA2ADAAMAA7ACAAMQA3ADAAMAAwADsAIAAxADYANAAwADAAOwAgADEANQA3ADAAMAA7ACAAMQA0ADUAMAAwADsAIAAxADQAMAAwADAAOwAgADEAMgAzADAAMAA7ACAAMQAwADcAMAAwADsAXABuACAAIAAgACAAIAAgADkANwAwADAAOwAgADkAMwAwADAAOwAgADgAOAAwADAAOwAgADgANgAwADAAOwAgADgAMgA1ADAAOwAgADgAMQAwADAAOwAgADcAOQAxADAAOwAgADcANwA2ADAAOwAgADcANQA5ADAAOwAgADcANAAwADAAOwBcAG4AIAAgACAAIAAgACAANwAyADIAMAA7ACAANwAwADIAMAA7ACAANgA4ADIAMAA7ACAANgA3ADUAMAA7ACAANgA2ADcAMAA7ACAANgA1ADUAMAA7ACAANgAzADUAMAA7ACAANgAyADgAMAA7ACAANgAxADgAMAA7AFwAbgAgACAAIAAgACAAIAA2ADAANQAwADsAIAA1ADkAMwAwADsAIAA1ADgANgAwADsAIAA1ADcANwAwADsAIAA1ADcAMgAwADsAIAA1ADYAOAAwADsAIAA1ADYANgAwADsAIAA1ADYAMAAwADsAIAA1ADUANQAwADsAIAA1ADQAOAAwADsAXABuACAAIAAgACAAIAAgADUAMwA4ADAAOwAgADUAMgA3ADAAOwAgADUAMQA3ADAAOwAgADUAMQAwADAAOwAgADQAOAAzADAAOwAgADQANgAwADAAOwAgADQANAA0ADAAOwAgADQAMwAwADAAOwAgADQAMQAwADAAOwAgADMAOQA5ADAAOwBcAG4AIAAgACAAIAAgACAAMwA5ADMAMAA7ACAAMwA4ADUAMAA7ACAAMwA2ADYAMAA7ACAAMwA1ADYAMAA7ACAAMwA0ADMAMAA7ACAAMwAyADEAMAA7ACAAMwAwADYAMAA7ACAAMgA4ADEAMAA7ACAAMgA2ADgAMAA7ACAAMgA1ADcAMAA7ACAAMgAzADgAMABcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAGEAcgByAFMAcABhAG4ALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgADIAMAAwADAAOwAgADEANQAwADAAOwAgADEAOQAwADAAOwAgADIANAAwADAAOwAgADIAMAAwADAAOwAgADEAOAAwADAAOwAgADEAOQAwADAAOwBcAG4AIAAgACAAIAAgACAANQA0ADAAMAA7ACAANQA0ADAAMAA7ACAAMwA2ADAAMAA7ACAANgAwADAAOwAgADcAMAAwADsAIAAxADIAMAAwADsAIAA1ADAAMAA7ACAAMQA3ADAAMAA7ACAAMQA2ADAAMAA7ACAAMQAwADAAMAA7AFwAbgAgACAAIAAgACAAIAA0ADAAMAA7ACAANQAwADAAOwAgADIAMAAwADsAIAAzADUAMAA7ACAAMQA1ADAAOwAgADEAOQAwADsAIAAxADUAMAA7ACAAMQA3ADAAOwAgADEAOQAwADsAIAAxADgAMAA7AFwAbgAgACAAIAAgACAAIAAyADAAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAOAAwADsAIAAxADIAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAMQAwADAAOwAgADEAMwAwADsAXABuACAAIAAgACAAIAAgADEAMgAwADsAIAA3ADAAOwAgADkAMAA7ACAANQAwADsAIAA0ADAAOwAgADIAMAA7ACAANgAwADsAIAA1ADAAOwAgADcAMAA7ACAAMQAwADAAOwBcAG4AIAAgACAAIAAgACAAMQAxADAAOwAgADEAMAAwADsAIAA3ADAAOwAgADIANwAwADsAIAAyADMAMAA7ACAAMQA2ADAAOwAgADEANAAwADsAIAAyADAAMAA7ACAAMQAxADAAOwAgADYAMAA7AFwAbgAgACAAIAAgACAAIAA4ADAAOwAgADEAOQAwADsAIAAxADAAMAA7ACAAMQAzADAAOwAgADIAMgAwADsAIAAxADUAMAA7ACAAMgA1ADAAOwAgADEAMwAwADsAIAAxADEAMAA7ACAAMQA5ADAAOwAgADIAOAAwAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAGYAIABuAG8AIAB0AHkAcABlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQALAAgAGQAaQBzAHAAbABhAHkAIABmAHUAbABsACAAdABhAGIAbABlACAALQAtAC0AXABuACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAAQgBZAFIATwBXACgASABTAFQAQQBDAEsAKABhAHIAcgBUAHkAcABlAHMALAAgAGEAcgByAFQASABpAGcAaAAsACAAYQByAHIAUwBwAGEAbgApACwAXABuACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAcgBvAHcALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIABUAFIAVQBFACwAIABUAEUAWABUACgASQBOAEQARQBYACgAcgBvAHcALAAgADIAKQAsACAAXAAiADAAXAAiACkALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKAByAG8AdwAsACAAMwApACwAIABcACIAMABcACIAKQApACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABOAHUAbQBiAGUAcgBzACwAIABTAEUAUQBVAEUATgBDAEUAKAAxADAALAAxACwAMAAsADEAKQAsAFwAbgAgACAAIAAgAE8AXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBPAFwAIgApACwAXABuACAAIAAgACAAQgBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAEIAXAAiACkALABcAG4AIAAgACAAIABBAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIAQQBcACIAKQAsAFwAbgAgACAAIAAgAEYAXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBGAFwAIgApACwAXABuACAAIAAgACAARwBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAEcAXAAiACkALABcAG4AIAAgACAAIABLAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIASwBcACIAKQAsAFwAbgAgACAAIAAgAE0AXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBNAFwAIgApACwAXABuAFwAbgAgACAAIAAgAGYAdQBsAGwAVABhAGIAbABlACwAIABWAFMAVABBAEMASwAoAEgAZQBhAGQAZQByAHMALAAgAEgAUwBUAEEAQwBLACgATgB1AG0AYgBlAHIAcwAsAE8AXwBTAHQAYQByAHMALAAgAEIAXwBTAHQAYQByAHMALAAgAEEAXwBTAHQAYQByAHMALAAgAEYAXwBTAHQAYQByAHMALAAgAEcAXwBTAHQAYQByAHMALAAgAEsAXwBTAHQAYQByAHMALAAgAE0AXwBTAHQAYQByAHMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAASQBmACAAdAB5AHAAZQAgAGkAcwAgAHMAcABlAGMAaQBmAGkAZQBkACwAIABqAHUAcwB0ACAAcgBlAHQAdQByAG4AIAB0AHcAbwAtAGMAbwBsAHUAbQBuACAAYgByAGUAYQBrAGQAbwB3AG4AIAAtAC0ALQBcAG4AIAAgACAAIAB0AGUAbQBwAHMALAAgAEYASQBMAFQARQBSACgAYQByAHIAVABIAGkAZwBoACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAIAAxACkAIAA9ACAAdAB5AHAAZQApACwAXABuACAAIAAgACAAcwBwAGEAbgBzACwAIABGAEkATABUAEUAUgAoAGEAcgByAFMAcABhAG4ALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAgADEAKQAgAD0AIAB0AHkAcABlACkALABcAG4AIAAgACAAIAB0AHkAcABlAEgAZQBhAGQALAAgAEgAUwBUAEEAQwBLACgAdAB5AHAAZQAsACAAXAAiAHMAcABhAG4AXAAiACkALABcAG4AIAAgACAAIABzAGwAaQBtAFQAYQBiAGwAZQAsACAAVgBTAFQAQQBDAEsAKAB0AHkAcABlAEgAZQBhAGQALAAgAEgAUwBUAEEAQwBLACgAdABlAG0AcABzACwAIABzAHAAYQBuAHMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAARgBpAG4AYQBsACAAbwB1AHQAcAB1AHQAOgAgAGYAdQBsAGwAIAB0AGEAYgBsAGUAIABvAHIAIABmAGkAbAB0AGUAcgBlAGQAIABjAG8AbAB1AG0AbgBzAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAdAB5AHAAZQApACwAIABmAHUAbABsAFQAYQBiAGwAZQAsACAAcwBsAGkAbQBUAGEAYgBsAGUAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFMAVABBAFIAXwBBAFQAVABSAEkAQgBVAFQARQBTAFwAbgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQBsAGwAIABrAGUAeQAgAHMAdABlAGwAbABhAHIAIABwAGEAcgBhAG0AZQB0AGUAcgBzACAAZgByAG8AbQAgAGEAIABzAGkAbgBnAGwAZQAgAGsAbgBvAHcAbgAgAHYAYQBsAHUAZQAgABQgIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAXABuACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAG8AcgAgAGwAaQBmAGUAdABpAG0AZQAgABQgIAB1AHMAaQBuAGcAIABlAG0AcABpAHIAaQBjAGEAbAAgAHAAbwB3AGUAcgAtAGwAYQB3ACAAcwBjAGEAbABpAG4AZwAgAHIAZQBsAGEAdABpAG8AbgBzAGgAaQBwAHMAIABiAGEAcwBlAGQAIABvAG4AIAB0AGgAZQAgAFMAdQBuAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABtAG8AZABlACAAIAAgACAAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAcwB0AHIAaQBuAGcAIABpAG4AZABpAGMAYQB0AGkAbgBnACAAdABoAGUAIABpAG4AcAB1AHQAIABhAHQAdAByAGkAYgB1AHQAZQAgAHQAeQBwAGUAOgBcAG4AIAAgACAAIAAgACAAIABcACIASwBcACIAIAAUICAARQBmAGYAZQBjAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAEsAZQBsAHYAaQBuACkAXABuACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAFCAgAE4AbwByAG0AYQBsAGkAegBlAGQAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAFQAIAAvACAANQA3ADcAMAAgAEsAKQBcAG4AIAAgACAAIAAgACAAIABcACIATQBcACIAIAAUICAATQBhAHMAcwAgACgAcwBvAGwAYQByACAAdQBuAGkAdABzACkAXABuACAAIAAgACAAIAAgACAAXAAiAFIAXAAiACAAFCAgAFIAYQBkAGkAdQBzACAAKABzAG8AbABhAHIAIAB1AG4AaQB0AHMAKQBcAG4AIAAgACAAIAAgACAAIABcACIATABcACIAIAAUICAATAB1AG0AaQBuAG8AcwBpAHQAeQAgACgAcwBvAGwAYQByACAAdQBuAGkAdABzACkAXABuACAAIAAgACAAIAAgACAAXAAiAFYAXAAiACAAFCAgAE0AYQBpAG4ALQBzAGUAcQB1AGUAbgBjAGUAIABsAGkAZgBlAHQAaQBtAGUAIAAoAHMAbwBsAGEAcgAgAHUAbgBpAHQAcwApAFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAIAAgACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAaQBuAHAAdQB0ACAAYQB0AHQAcgBpAGIAdQB0AGUAIAAoAG0AdQBzAHQAIABtAGEAdABjAGgAIAB0AGgAZQAgAG0AbwBkAGUAKQAuAFwAbgAgACAAIAAtACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAG8AdQB0AHAAdQB0ACAAdgBhAGwAdQBlAHMALgAgAEQAZQBmAGEAdQBsAHQAIAA9ACAANgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAdAB3AG8ALQBjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAgAHcAaQB0AGgAIABsAGEAYgBlAGwAZQBkACAAcwB0AGUAbABsAGEAcgAgAHAAYQByAGEAbQBlAHQAZQByAHMAIAAoAEsALAAgAFQALAAgAE0ALAAgAFIALAAgAEwALAAgAFYAKQAsAFwAbgAgACAAIAB3AGkAdABoACAAdABoAGUAIABpAG4AcAB1AHQAIABhAHQAdAByAGkAYgB1AHQAZQAgAGYAbABhAGcAZwBlAGQAIAB3AGkAdABoACAAYQAgAJQnIABhAHIAcgBvAHcAIABmAG8AcgAgAGMAbABhAHIAaQB0AHkALgBcAG4AXABuACAAIAAgAE0AZQB0AGgAbwBkADoAXABuACAAIAAgAFQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAbgBvAHIAbQBhAGwAaQB6AGUAcwAgAHQAaABlACAAaQBuAHAAdQB0ACAAdgBhAGwAdQBlACAAdABvACAAYQAgAHMAbwBsAGEAcgAtAHIAZQBsAGEAdABpAHYAZQAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgACgAYABUAG4AbwByAG0AYAApAFwAbgAgACAAIABhAG4AZAAgAGQAZQByAGkAdgBlAHMAIAB0AGgAZQAgAHIAZQBtAGEAaQBuAGkAbgBnACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAGYAcgBvAG0AIABlAG0AcABpAHIAaQBjAGEAbAAgAGUAeABwAG8AbgBlAG4AdABzADoAXABuAFwAbgAgACAAIAAtACAASwAgAD0AIABUAG4AbwByAG0AIADXACAANQA3ADcAMABcAG4AIAAgACAALQAgAE0AIAA9ACAAVABuAG8AcgBtALIAXABuACAAIAAgAC0AIABSACAAPQAgAFQAbgBvAHIAbQBeADEALgA4AFwAbgAgACAAIAAtACAATAAgAD0AIABUAG4AbwByAG0AXgA3AC4ANgBcAG4AIAAgACAALQAgAFYAIAA9ACAAVABuAG8AcgBtAF4AKAAtADUAKQBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUwBUAEEAUgBfAEEAVABUAFIASQBCAFUAVABFAFMAKABcACIASwBcACIALAAgADkAMQA3ADAALgA2ADAANQAyACwAIAAzACkAXABuAFwAbgAgACAAIABPAHUAdABwAHUAdAA6AFwAbgAgACAAIAAgACAASwAgAJQnIAAgACAAOQAxADcAMAAuADYAMAA1AFwAbgAgACAAIAAgACAAVAAgACAAIAAgACAAMQAuADUAOAA4AFwAbgAgACAAIAAgACAATQAgACAAIAAgACAAMgAuADUAMgAzAFwAbgAgACAAIAAgACAAUgAgACAAIAAgACAAMgAuADIAOQA2AFwAbgAgACAAIAAgACAATAAgACAAIAAgACAAMwAzAC4AMAAwADYAXABuACAAIAAgACAAIABWACAAIAAgACAAIAAwAC4AMQAwADEAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEIAYQBzAGUAZAAgAG8AbgAgAHMAaQBtAHAAbABpAGYAaQBlAGQAIABzAHQAZQBsAGwAYQByACAAcwBjAGEAbABpAG4AZwAgAGwAYQB3AHMAIAB1AHMAZQBkACAAaQBuACAAYQBzAHQAcgBvAHAAaAB5AHMAaQBjAHMAIABhAG4AZAAgAHcAbwByAGwAZABiAHUAaQBsAGQAaQBuAGcALgBcAG4AIAAgACAALQAgAEUAZgBmAGUAYwB0AGkAdgBlACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAaQBzACAAcwBjAGEAbABlAGQAIAB0AG8AIAA1ADcANwAwACAASwAgAGYAbwByACAAdABoAGUAIABTAHUAbgAgACgAcwB0AGEAbgBkAGEAcgBkACAAcwBvAGwAYQByACAAcgBlAGYAZQByAGUAbgBjAGUAKQAuAFwAbgAgACAAIAAtACAATABpAGYAZQB0AGkAbQBlACAAaQBzACAAYQBwAHAAcgBvAHgAaQBtAGEAdABlAGQAIABhAHMAIABhACAAcABvAHcAZQByACAAaQBuAHYAZQByAHMAZQAgAG8AZgAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQA6ACAAVgAgAB0iIABUAHsgdSAuAFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIABlAGQAdQBjAGEAdABpAG8AbgBhAGwALAAgAHMAcABlAGMAdQBsAGEAdABpAHYAZQAsACAAYQBuAGQAIABtAG8AZABlAGwAaQBuAGcAIABwAHUAcgBwAG8AcwBlAHMALgBcAG4AXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAFMAVABBAFIAXwBBAFQAVABSAEkAQgBVAFQARQBTACAAPQAgAEwAQQBNAEIARABBACgAbQBvAGQAZQAsACAAaQBuAHAAdQB0ACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAAUwBlAHQAIABkAGUAZgBhAHUAbAB0ACAAcgBvAHUAbgBkAGkAbgBnACAAcAByAGUAYwBpAHMAaQBvAG4AXABuACAAIAAgACAAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAHUAcABwAGUAcgAtAGMAYQBzAGUAIABmAG8AcgAgAGMAbwBuAHMAaQBzAHQAZQBuAGMAeQBcAG4AIAAgACAAIABtAG8AZABlACwAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AXABuACAAIAAgACAALwAvACAATgBvAHIAbQBhAGwAaQB6AGUAIABpAG4AcAB1AHQAIAB0AG8AIABzAG8AbABhAHIALQByAGUAbABhAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAFQAbgBvAHIAbQApAFwAbgAgACAAIAAgAFQAbgBvAHIAbQAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcACIAVABcACIALAAgAGkAbgBwAHUAdAAsAFwAbgAgACAAIAAgACAAIABcACIASwBcACIALAAgAGkAbgBwAHUAdAAgAC8AIAA1ADcANwAwACwAXABuACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAAUwBRAFIAVAAoAGkAbgBwAHUAdAApACwAXABuACAAIAAgACAAIAAgAFwAIgBSAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgAMQAgAC8AIAAxAC4AOAApACwAXABuACAAIAAgACAAIAAgAFwAIgBMAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgAMQAgAC8AIAA3AC4ANgApACwAXABuACAAIAAgACAAIAAgAFwAIgBWAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgALQAxACAALwAgADUAKQAsAFwAbgAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAATgBvAHcAIABkAGUAcgBpAHYAZQAgAGEAbABsACAAbwB0AGgAZQByACAAYQB0AHQAcgBpAGIAdQB0AGUAcwAgAGYAcgBvAG0AIABUAG4AbwByAG0AXABuACAAIAAgACAASwAsACAAVABuAG8AcgBtACAAKgAgADUANwA3ADAALABcAG4AIAAgACAAIABNACwAIABUAG4AbwByAG0AIABeACAAMgAsAFwAbgAgACAAIAAgAFIALAAgAFQAbgBvAHIAbQAgAF4AIAAxAC4AOAAsAFwAbgAgACAAIAAgAEwALAAgAFQAbgBvAHIAbQAgAF4AIAA3AC4ANgAsAFwAbgAgACAAIAAgAFYALAAgAFQAbgBvAHIAbQAgAF4AIAAtADUALABcAG4AXABuACAAIAAgACAALwAvACAAUgBvAHUAbgBkACAAZQB2AGUAcgB5AHQAaABpAG4AZwAgAGEAbgBkACAAZgBvAHIAbQBhAHQAIABhAHMAIABzAHQAcgBpAG4AZwBzAFwAbgAgACAAIAAgAGwAYQBiAGUAbABzACwAIABUAFIAQQBOAFMAUABPAFMARQAoAHsAXAAiAEsAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAFIAXAAiACwAIABcACIATABcACIALAAgAFwAIgBWAFwAIgB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AF8AdgBhAGwAdQBlAHMALAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABLACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAFQAbgBvAHIAbQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABNACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAFIALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgATAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABWACwAIABwAHIAZQBjACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAATABhAGIAZQBsAHMAIAB3AGkAdABoACAAYQByAHIAbwB3ACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQAgAC0ALQAtAFwAbgAgACAAIAAgACAAIAAgACAAZgBsAGEAZwBnAGUAZABfAGwAYQBiAGUAbABzACwAIABCAFkAUgBPAFcAKABsAGEAYgBlAGwAcwAsACAATABBAE0AQgBEAEEAKAByAG8AdwAsACAASQBGACgAcgBvAHcAIAA9ACAAbQBvAGQAZQAsACAAcgBvAHcAIAAmACAAXAAiACAAlCdcACIALAAgAHIAbwB3ACkAKQApACwAXABuAFwAbgBcAG4AIAAgACAAIAAvAC8AIABSAGUAdAB1AHIAbgAgAGwAYQBiAGUAbABlAGQAIAB0AGEAYgBsAGUAXABuACAAIAAgACAAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIAfQAsACAAZgBsAGEAZwBnAGUAZABfAGwAYQBiAGUAbABzACwAIABvAHUAdABwAHUAdABfAHYAYQBsAHUAZQBzACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUgBlAHQAdQByAG4AcwAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAgAGQAYQB0AGEAIABiAGEAcwBlAGQAIABvAG4AIABzAHQAZQBsAGwAYQByACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAuAFwAbgBcAG4AIAAgACAATQBvAGQAZQBzADoAXABuACAAIAAgAC0AIABcACIAVABBAEIATABFAFwAIgAgACAAIAAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAGYAdQBsAGwAIAB0AGEAYgBsAGUAIABvAGYAIABpAG4AbgBlAHIALwBvAHUAdABlAHIALwBhAHYAZwAvAHMAcABhAG4AIABkAGkAcwB0AGEAbgBjAGUAcwAgAGYAbwByACAAegBvAG4AZQBzACAAWgAwABMgWgA1AC4AXABuACAAIAAgAC0AIABcACIAVgBFAFIAVABJAEMAQQBMAFwAIgAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAHYAZQByAHQAaQBjAGEAbAAgAGwAaQBzAHQAIABvAGYAIABzAGMAYQBsAGUAZAAgAGQAaQBzAHQAYQBuAGMAZQBzACwAIAB3AGkAdABoACAATgAtAD4AIABtAGEAcgBrAGkAbgBnACAAdABoAGUAIABuAHUAYwBsAGUAYQBsACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAALQAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAGgAbwByAGkAegBvAG4AdABhAGwAIAByAG8AdwAgAG8AZgAgAHQAaABlACAAcwBhAG0AZQAgAHYAYQBsAHUAZQBzACAAZgBvAHIAIAB1AHMAZQAgAGkAbgAgAGkAbgBsAGkAbgBlACAAZABpAHMAcABsAGEAeQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAE8AbgBlACAAbwBmACAAXAAiAFQAQQBCAEwARQBcACIALAAgAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIABvAHIAIABcACIASABPAFIASQBaAE8ATgBUAEEATABcACIALgBcAG4AIAAgACAALQAgAGwAdQBtACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAUwB0AGUAbABsAGEAcgAgAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABpAG4AIABzAG8AbABhAHIAIAB1AG4AaQB0AHMALgAgAFIAZQBxAHUAaQByAGUAZAAgAGYAbwByACAAVgBFAFIAVABJAEMAQQBMACAAYQBuAGQAIABIAE8AUgBJAFoATwBOAFQAQQBMAC4AXABuACAAIAAgAC0AIABwAHIAZQBjAGkAcwBpAG8AbgAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADMAKQBcAG4AXABuACAAIAAgAFoAbwBuAGUAcwAgACgAWgAwABMgWgA1ACkAIAByAGUAcAByAGUAcwBlAG4AdAAgAG4AZQBzAHQAZQBkACAAYwBpAHIAYwB1AG0AcwB0AGUAbABsAGEAcgAgAGgAYQBiAGkAdABhAGIAaQBsAGkAdAB5ACAAYgBhAG4AZABzADoAXABuACAAIAAgAC0AIABaADAAOgAgACgAdABvAG8AIABoAG8AdAApAFwAbgAgACAAIAAtACAAWgAxADoAIAAoAGkAbgBuAGUAcgAgAGUAZABnAGUAKQBcAG4AIAAgACAALQAgAFoAMgA6ACAAKABpAG4AbgBlAHIAIAB0AGUAbQBwAGUAcgBhAHQAZQApAFwAbgAgACAAIAAtACAAWgAzADoAIAAoAG8AdQB0AGUAcgAgAHQAZQBtAHAAZQByAGEAdABlACkAXABuACAAIAAgAC0AIABaADQAOgAgACgAbwB1AHQAZQByACAAZQBkAGcAZQApAFwAbgAgACAAIAAtACAAWgA1ADoAIAAoAHQAbwBvACAAYwBvAGwAZAApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQAgAHUAcwBhAGcAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAoAFwAIgBUAEEAQgBMAEUAXAAiACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgAFIAZQB0AHUAcgBuAHMAIABiAGEAcwBlACAAcgBlAGYAZQByAGUAbgBjAGUAIABjAGgAYQByAHQAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAFYARQBSAFQASQBDAEEATABcACIALAAgADEALgAyADUAKQAgACAAIACSISAAUgBlAHQAdQByAG4AcwAgAHYAZQByAHQAaQBjAGEAbAAgAGQAaQBzAHQAYQBuAGMAZQBzACAAcwBjAGEAbABlAGQAIAB0AG8AIABzAHQAYQByACAAdwBpAHQAaAAgAEwAIAA9ACAAMQAuADIANQBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAKABcACIASABPAFIASQBaAE8ATgBUAEEATABcACIALAAgADEALgAyADUAKQAgAJIhIABSAGUAdAB1AHIAbgBzACAAcwBhAG0AZQAgAGEAcwAgAHIAbwB3AFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABOAHUAYwBsAGUAYQBsACAAcgBhAGQAaQB1AHMAIABpAHMAIABzAHEAcgB0ACgATAApACAAYQBuAGQAIAB1AHMAZQBkACAAYQBzACAAYQBuAGMAaABvAHIAIABiAGUAdAB3AGUAZQBuACAAWgAyABMgWgAzAC4AXABuACAAIAAgAC0AIABJAG4AcAB1AHQAIABpAHMAIABpAGcAbgBvAHIAZQBkACAAZgBvAHIAIABtAG8AZABlACAAXAAiAFQAQQBCAEwARQBcACIALgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAG8AZABlACwAIABbAGwAdQBtAF0ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AXABuACAAIAAgACAALwAvACAAWgBvAG4AZQAgAGMAbwBlAGYAZgBpAGMAaQBlAG4AdABzAFwAbgAgACAAIAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAWgAwAFwAIgA7ACAAXAAiAFoAMQBcACIAOwAgAFwAIgBaADIAXAAiADsAIABcACIAWgAzAFwAIgA7ACAAXAAiAFoANABcACIAOwAgAFwAIgBaADUAXAAiAH0ALABcAG4AIAAgACAAIABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAB7ADAAOwAgADAALgA1ADsAIAAwAC4ANwA1ADsAIAAwAC4AOQA1ADsAIAAxAC4AMwA4ADUAOwAgADEALgA3ADcAfQAsAFwAbgAgACAAIAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAHsAMAAuADUAOwAgADAALgA3ADUAOwAgADAALgA5ADUAOwAgADEALgAzADgANQA7ACAAMQAuADcANwA7ACAANAAuADgANQB9ACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFAAcgBlAGMAbwBtAHAAdQB0AGUAIABhAHYAZQByAGEAZwBlACAAYQBuAGQAIABzAHAAYQBuAFwAbgAgACAAIAAgAGEAdgBnAF8AZgBhAGMAdABvAHIAcwAsACAAKABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACAAKwAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMAKQAgAC8AIAAyACwAXABuACAAIAAgACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMAIAAtACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABOAHUAYwBsAGUAYQBsACAAKABmAG8AcgAgAHMAYwBhAGwAaQBuAGcAKQBcAG4AIAAgACAAIABuAHUAYwBsAGUAYQBsACwAIABTAFEAUgBUACgASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABsAHUAbQApACwAIAAxACwAIABsAHUAbQApACkALABcAG4AXABuACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAHMAYwBhAGwAZQBkACAAZABpAHMAdABhAG4AYwBlAHMAXABuACAAIAAgACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAbwB1AHQAZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAYQB2AGcAXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAgACoAIABhAHYAZwBfAGYAYQBjAHQAbwByAHMALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHMAcABhAG4AXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAgACoAIABzAHAAYQBuAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEYAbwByAG0AYQB0AHQAZQBkACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAdgBlAHIAdABpAGMAYQBsAF8AbABhAGIAZQBsAHMALAAgAHsAXAAiADAAOgAgAFwAIgAsACAAXAAiADEAOgAgAFwAIgAsACAAXAAiADIAOgAgAFwAIgAsACAAXAAiAE4AIACUJ1wAIgAsACAAXAAiADMAOgAgAFwAIgAsACAAXAAiADQAOgAgAFwAIgAsACAAXAAiADUAOgAgAFwAIgB9ACwAXABuACAAIAAgACAAdgBlAHIAdABpAGMAYQBsAF8AdgBhAGwAdQBlAHMALAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMgApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAFIATwBVAE4ARAAoAEkATgBEAEUAWAAoAGkAbgBuAGUAcgBfAGYAYQBjAHQAbwByAHMALAAgADMAKQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA0ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAANAApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAFIATwBVAE4ARAAoAEkATgBEAEUAWAAoAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgADUAKQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA2ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAAUgBlAHQAdQByAG4AIABsAG8AZwBpAGMAXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBTAFQAQQBOAEQAQQBSAEQAXAAiACwAIABDAEgATwBPAFMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgAHsAMQAsACAAMgAsACAAMwAsACAANAAsACAANQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAWgBvAG4AZQBcACIALAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIASQBuAG4AZQByAFwAIgAsACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIATwB1AHQAZQByAFwAIgAsACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAQQB2AGUAcgBhAGcAZQBcACIALAAgAGEAdgBnAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAUwBwAGEAbgBcACIALAAgAHMAcABhAG4AXwBmAGEAYwB0AG8AcgBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAVgBFAFIAVABJAEMAQQBMAFwAIgAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABhAGIAZQBsAHMALAAgAHsAXAAiADAAOgBcACIALAAgAFwAIgAxADoAXAAiACwAIABcACIAMgA6AFwAIgAsACAAXAAiAE4AIACUJ1wAIgAsACAAXAAiADMAOgBcACIALAAgAFwAIgA0ADoAXAAiACwAIABcACIANQA6AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAYwBhAGwAZQBkAF8AdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAewAwAC4ANQAsACAAMAAuADcANQAsACAAMAAuADkANQAsACAAMQAsACAAMQAuADMAOAA1ACwAIAAxAC4ANwA3ACwAIAA0AC4AOAA1AH0ALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAQQBOAFMAUABPAFMARQAoAFYAUwBUAEEAQwBLACgAbABhAGIAZQBsAHMALAAgAHMAYwBhAGwAZQBkAF8AdgBhAGwAdQBlAHMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAEgATwBSAEkAWgBPAE4AVABBAEwAXAAiACwAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMgApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMwApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAANAApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA0ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA1ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA2ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAEkAbgB2AGEAbABpAGQAIABtAG8AZABlAFwAIgBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAE4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUAByAG8AdgBpAGQAZQBzACAAaQBuAGYAbwByAG0AYQB0AGkAbwBuACAAYQBiAG8AdQB0ACAAcwB0AGUAbABsAGEAcgAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQBzACAAYQBjAHIAbwBzAHMAIABtAHUAbAB0AGkAcABsAGUAIABkAGkAcwBwAGwAYQB5ACAAbQBvAGQAZQBzADoAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC0AIABTAFQAQQBOAEQAQQBSAEQAOgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZgBpAHgAZQBkACAAdABhAGIAbABlACAAbwBmACAAaQBuAG4AZQByAC8AbwB1AHQAZQByACAAYgBvAHUAbgBkAHMAIABmAG8AcgAgAFoAMAATIFoANQAgAHoAbwBuAGUAcwAgAGkAbgAgAEEAVQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAgAFQAQQBCAEwARQA6ACAAUwBjAGEAbABlAHMAIAB0AGgAZQAgAFMAVABBAE4ARABBAFIARAAgAHoAbwBuAGUAcwAgAGIAYQBzAGUAZAAgAG8AbgAgAHMAdABlAGwAbABhAHIAIABsAHUAbQBpAG4AbwBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAtACAAVgBFAFIAVABJAEMAQQBMADoAIABSAGUAdAB1AHIAbgBzACAAYQAgAHYAZQByAHQAaQBjAGEAbAAgAGwAaQBzAHQAIABvAGYAIAB6AG8AbgBlACAAbABhAGIAZQBsAHMAIABhAG4AZAAgAGQAaQBzAHQAYQBuAGMAZQBzACAAYgBhAHMAZQBkACAAbwBuACAAbAB1AG0AaQBuAG8AcwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAgAEgATwBSAEkAWgBPAE4AVABBAEwAOgAgAFIAZQB0AHUAcgBuAHMAIABhACAAcwBpAG4AZwBsAGUALQByAG8AdwAgAHMAdQBtAG0AYQByAHkAIABvAGYAIABzAGMAYQBsAGUAZAAgAGQAaQBzAHQAYQBuAGMAZQBzAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFwAIgBTAFQAQQBOAEQAQQBSAEQAXAAiACwAIABcACIAVABBAEIATABFAFwAIgAsACAAXAAiAFYARQBSAFQASQBDAEEATABcACIALAAgAG8AcgAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgBcAG4AIAAgACAALQAgAGwAdQBtACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAUwB0AGUAbABsAGEAcgAgAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABpAG4AIABzAG8AbABhAHIAIAB1AG4AaQB0AHMAIAAoAG8AbgBsAHkAIAByAGUAcQB1AGkAcgBlAGQAIABmAG8AcgAgAFQAQQBCAEwARQAsACAAVgBFAFIAVABJAEMAQQBMACwAIABvAHIAIABIAE8AUgBJAFoATwBOAFQAQQBMACAAbQBvAGQAZQBzACkAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIAByAG8AdQBuAGQAIABkAGkAcwB0AGEAbgBjAGUAcwAgAHQAbwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAFMAVABBAE4ARABBAFIARABcACIAKQBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAKABcACIAVABBAEIATABFAFwAIgAsACAAMwApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAoAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIAAzACkAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAEgATwBSAEkAWgBPAE4AVABBAEwAXAAiACwAIAAzACkAXABuACoALwBcAG4AXABuAE4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAG8AZABlACwAIABbAGwAdQBtAF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAARABlAGYAYQB1AGwAdABzACAALQAtAC0AXABuACAAIAAgACAAZABlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABMACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGwAdQBtACkALAAgADEALAAgAGwAdQBtACkALABcAG4AIAAgACAAIABuAHUAYwAsACAAUwBRAFIAVAAoAEwAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAFoAbwBuAGUAIABiAGEAcwBlACAAZABhAHQAYQAgAC0ALQAtAFwAbgAgACAAIAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAWgAwAFwAIgAsACAAXAAiAFoAMQBcACIALAAgAFwAIgBaADIAXAAiACwAIABcACIAWgAzAFwAIgAsACAAXAAiAFoANABcACIALAAgAFwAIgBaADUAXAAiAH0ALABcAG4AIAAgACAAIABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAB7ADAALAAgADAALgA1ACwAIAAwAC4ANwA1ACwAIAAwAC4AOQA1ACwAIAAxAC4AMwA4ADUALAAgADEALgA3ADcAfQAsAFwAbgAgACAAIAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAHsAMAAuADUALAAgADAALgA3ADUALAAgADAALgA5ADUALAAgADEALgAzADgANQAsACAAMQAuADcANwAsACAANAAuADgANQB9ACwAXABuACAAIAAgACAAYQB2AGcAXwBmAGEAYwB0AG8AcgBzACwAIAAgACAAewAwAC4AMgA1ACwAIAAwAC4ANgAyADUALAAgADAALgA4ADUALAAgADEALgAxADYANwA1ACwAIAAxAC4ANQA3ADcANQAsACAAMwAuADMAMQB9ACwAXABuACAAIAAgACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgACAAewAwAC4ANQAsACAAMAAuADIANQAsACAAMAAuADIALAAgADAALgA0ADMANQAsACAAMAAuADMAOAA1ACwAIAAzAC4AMAA4AH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABTAGMAYQBsAGUAZAAgAHYAYQBsAHUAZQBzACAALQAtAC0AXABuACAAIAAgACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjACAAKgAgAGkAbgBuAGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIABvAHUAdABlAHIAXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAIAAqACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgAGEAdgBnAF8AcwBjAGEAbABlAGQALAAgACAAIABSAE8AVQBOAEQAKABuAHUAYwAgACoAIABhAHYAZwBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIABzAHAAYQBuAF8AcwBjAGEAbABlAGQALAAgACAAUgBPAFUATgBEACgAbgB1AGMAIAAqACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABUAGEAYgBsAGUAOgAgAFMAVABBAE4ARABBAFIARAAgAGEAbgBkACAAVABBAEIATABFACAAbQBvAGQAZQBzACAALQAtAC0AXABuACAAIAAgACAAcgBvAHcAXwAxACwAIABWAFMAVABBAEMASwAoAFwAIgBaAG8AbgBlAFwAIgAsACAAegBvAG4AZQBfAGwAYQBiAGUAbABzACkALABcAG4AIAAgACAAIAByAG8AdwBfADIALAAgAFYAUwBUAEEAQwBLACgAXAAiAEkAbgBuAGUAcgBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQAKQApACwAXABuACAAIAAgACAAcgBvAHcAXwAzACwAIABWAFMAVABBAEMASwAoAFwAIgBPAHUAdABlAHIAXAAiACwAIABJAEYAKABtAG8AZABlAD0AXAAiAFMAVABBAE4ARABBAFIARABcACIALAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAG8AdQB0AGUAcgBfAHMAYwBhAGwAZQBkACkAKQAsAFwAbgAgACAAIAAgAHIAbwB3AF8ANAAsACAAVgBTAFQAQQBDAEsAKABcACIAQQB2AGUAcgBhAGcAZQBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAYQB2AGcAXwBmAGEAYwB0AG8AcgBzACwAIABhAHYAZwBfAHMAYwBhAGwAZQBkACkAKQAsAFwAbgAgACAAIAAgAHIAbwB3AF8ANQAsACAAVgBTAFQAQQBDAEsAKABcACIAUwBwAGEAbgBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAHMAcABhAG4AXwBzAGMAYQBsAGUAZAApACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABWAGUAcgB0AGkAYwBhAGwAIABtAG8AZABlACAAbwB1AHQAcAB1AHQAIAAtAC0ALQBcAG4AIAAgACAAIAB2AGUAcgB0AGkAYwBhAGwAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAMAA6AFwAIgAsACAAXAAiADEAOgBcACIALAAgAFwAIgAyADoAXAAiACwAIABcACIATgAgAJQnXAAiACwAIABcACIAMwA6AFwAIgAsACAAXAAiADQAOgBcACIALAAgAFwAIgA1ADoAXAAiAH0ALABcAG4AIAAgACAAIAB2AGUAcgB0AGkAYwBhAGwAXwB2AGEAbAB1AGUAcwAsACAAUgBPAFUATgBEACgAewAwAC4ANQAsACAAMAAuADcANQAsACAAMAAuADkANQAsACAAMQAsACAAMQAuADMAOAA1ACwAIAAxAC4ANwA3ACwAIAA0AC4AOAA1AH0AIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAG8AcgBpAHoAbwBuAHQAYQBsACAAbQBvAGQAZQAgAG8AdQB0AHAAdQB0ACAALQAtAC0AXABuACAAIAAgACAAaABvAHIAaQB6AG8AbgB0AGEAbABfAHYAYQBsAHUAZQBzACwAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAwAC4ANQAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAwAC4ANwA1ACAAKgAgAG4AdQBjACwAIABkAGUAYwApACwAXABuACAAIAAgACAAIAAgAFIATwBVAE4ARAAoADAALgA5ADUAIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAUgBPAFUATgBEACgAMQAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAxAC4AMwA4ADUAIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAUgBPAFUATgBEACgAMQAuADcANwAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAA0AC4AOAA1ACAAKgAgAG4AdQBjACwAIABkAGUAYwApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABGAGkAbgBhAGwAIABvAHUAdABwAHUAdAAgAGIAYQBzAGUAZAAgAG8AbgAgAG0AbwBkAGUAIAAtAC0ALQBcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAXAAiAFMAVABBAE4ARABBAFIARABcACIALAAgAEgAUwBUAEEAQwBLACgAcgBvAHcAXwAxACwAIAByAG8AdwBfADIALAAgAHIAbwB3AF8AMwAsACAAcgBvAHcAXwA0ACwAIAByAG8AdwBfADUAKQAsAFwAbgAgACAAIAAgACAAIABcACIAVABBAEIATABFAFwAIgAsACAAIAAgACAASABTAFQAQQBDAEsAKAByAG8AdwBfADEALAAgAHIAbwB3AF8AMgAsACAAcgBvAHcAXwAzACwAIAByAG8AdwBfADQALAAgAHIAbwB3AF8ANQApACwAXABuACAAIAAgACAAIAAgAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIABIAFMAVABBAEMASwAoAHYAZQByAHQAaQBjAGEAbABfAGwAYQBiAGUAbABzACwAIAB2AGUAcgB0AGkAYwBhAGwAXwB2AGEAbAB1AGUAcwApACwAXABuACAAIAAgACAAIAAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgAsACAAaABvAHIAaQB6AG8AbgB0AGEAbABfAHYAYQBsAHUAZQBzACwAXABuACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAbQBvAGQAZQBcACIAXABuACAAIAAgACAAKQBcAG4AIAAgACkAXABuACkAXABuADsAXABuAFwAbgAvACoAIABBAFMAVABSAE8AXwBTAFQAQQBSAF8ARABFAE4AUwBJAFQAWQBfAFYATwBMAFUATQBFAFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABHAGkAdgBlAG4AIABhACAAcwBwAGgAZQByAGkAYwBhAGwAIAB2AG8AbAB1AG0AZQAgACgAbwByACAAcgBhAGQAaQB1AHMAKQAsACAAYwBhAGwAYwB1AGwAYQB0AGUAIABoAG8AdwAgAG0AYQBuAHkAIABzAHQAYQByAHMAIABmAGkAdAAgAGEAdAAgADEAIABzAHQAYQByACAAcABlAHIAIAAyADUAMAAgAGMAdQBiAGkAYwAgAGwAaQBnAGgAdAAtAHkAZQBhAHIAcwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAARQBpAHQAaABlAHIAIABhACAAcwBwAGgAZQByAGkAYwBhAGwAIAByAGEAZABpAHUAcwAgAG8AcgAgAGEAIAB2AG8AbAB1AG0AZQAsACAAZABlAHAAZQBuAGQAaQBuAGcAIABvAG4AIABtAG8AZABlAC4AXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAZgBvAHIAIABvAHUAdABwAHUAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADMAKQAuAFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAFwAbgAgACAAIAAgACAAIAAgADAAIAA9ACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAHYAbwBsAHUAbQBlACAAaQBuACAAYwB1AGIAaQBjACAAbABpAGcAaAB0AC0AeQBlAGEAcgBzACAAKABkAGUAZgBhAHUAbAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAxACAAPQAgAGkAbgBwAHUAdAAgAGkAcwAgAGEAIAByAGEAZABpAHUAcwAgAGkAbgAgAGwAaQBnAGgAdAAtAHkAZQBhAHIAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAQQAgAHYAZQByAHQAaQBjAGEAbAAgAGEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABlAGkAdABoAGUAcgA6AFwAbgAgACAAIAAgACAAIAAgACIgIABbAG4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzADsAIAByAGEAZABpAHUAcwBdACAAaQBmACAAbQBvAGQAZQAgAD0AIAAwAFwAbgAgACAAIAAgACAAIAAgACIgIABbAG4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzADsAIAB2AG8AbAB1AG0AZQBdACAAaQBmACAAbQBvAGQAZQAgAD0AIAAxAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBTAFQAQQBSAF8ARABFAE4AUwBJAFQAWQBfAFYATwBMAFUATQBFACgAMQAwADAAMAApACAAIAAgACAAIAAgACAAIAAgACAAkiEgAHsANAAuADAAMAAwADsAIAA2AC4AMgAwADMAfQBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUwBUAEEAUgBfAEQARQBOAFMASQBUAFkAXwBWAE8ATABVAE0ARQAoADUALAAgADIALAAgADEAKQAgACAAIAAgACAAIAAgAJIhIAB7ADIALgA2ADIAOwAgADUAMgAzAC4ANgAwAH0AXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAFMAVABBAFIAXwBEAEUATgBTAEkAVABZAF8AVgBPAEwAVQBNAEUAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALAAgAFsAcAByAGUAYwBdACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAgACsAIAAoAG0AbwBkAGUAIAA8ACAAMAApACAAKwAgACgAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACAAKwAgACgAcAByAGUAYwAgADwAIAAwACkALAAgADMALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAB2AG8AbAB1AG0AZQAsACAASQBGACgAbQBvAGQAZQAgAD0AIAAwACwAIABpAG4AcAB1AHQALAAgACgANAAvADMAKQAgACoAIABQAEkAKAApACAAKgAgAGkAbgBwAHUAdAAgAF4AIAAzACkALABcAG4AIAAgACAAIAByAGEAZABpAHUAcwAsACAASQBGACgAbQBvAGQAZQAgAD0AIAAxACwAIABpAG4AcAB1AHQALAAgAFIATwBVAE4ARAAoACgAKAAzACAAKgAgAHYAbwBsAHUAbQBlACkAIAAvACAAKAA0ACAAKgAgAFAASQAoACkAKQApACAAXgAgACgAMQAvADMAKQAsACAAcAByAGUAYwApACkALABcAG4AIAAgACAAIABzAHQAYQByAHMALAAgAFIATwBVAE4ARAAoAHYAbwBsAHUAbQBlACAALwAgADIANQAwACwAIABwAHIAZQBjACkALABcAG4AXABuACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFMAVwBJAFQAQwBIACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAwACwAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIAAsACAAXAAiAFMAdABhAHIAcwA6ACAAXAAiACYAcwB0AGEAcgBzACwAIABcACIAUgBhAGQAaQB1AHMAOgAgAFwAIgAmAHIAYQBkAGkAdQBzACkALAAgAFwAIgA7ACAAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAxACwAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIAAsACAAXAAiAFMAdABhAHIAcwA6ACAAXAAiACYAcwB0AGEAcgBzACwAIABcACIAVgBvAGwAdQBtAGUAOgAgAFwAIgAmAHYAbwBsAHUAbQBlACkALAAgAFwAIgA7ACAAXAAiACkAKQBcAG4AIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8AUwBBAEYARQBUAFkAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgAgAEMAYQBsAGMAdQBsAGEAdABlAHMAIABwAGwAYQBuAGUAdABhAHIAeQAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABzAHUAcgBmAGEAYwBlACAAZwByAGEAdgBpAHQAeQAsACAAYQBuAGQAIABlAHMAYwBhAHAAZQAgAHYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgByAG8AbQAgAGEAbgB5ACAAdgBhAGwAaQBkACAAcABhAGkAcgAgAG8AZgAgAHQAdwBvACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAcwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIAB0AGgAZQAgAGsAbgBvAHcAbgAgAGkAbgBwAHUAdAAgAHAAYQBpAHIALgAgAEEAYwBjAGUAcAB0AGEAYgBsAGUAIAB2AGEAbAB1AGUAcwA6AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAGQAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARABlAG4AcwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAbQByAFwAIgAgAD0AIABNAGEAcwBzACAAKwAgAFIAYQBkAGkAdQBzAFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAcgBkAFwAIgAgAD0AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAGcAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGQAZwBcACIAIAA9ACAARABlAG4AcwBpAHQAeQAgACsAIABHAHIAYQB2AGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBkAHYAXAAiACAAPQAgAEQAZQBuAHMAaQB0AHkAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGcAdgBcACIAIAA9ACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAbQB2AFwAIgAgAD0AIABNAGEAcwBzACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAHYAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAZgBpAHIAcwB0ACAAbgB1AG0AZQByAGkAYwAgAGkAbgBwAHUAdAAsACAAbQBlAGEAbgBpAG4AZwAgAGQAZQBwAGUAbgBkAHMAIABvAG4AIABtAG8AZABlAFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAcwBlAGMAbwBuAGQAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0ACwAIABtAGUAYQBuAGkAbgBnACAAZABlAHAAZQBuAGQAcwAgAG8AbgAgAG0AbwBkAGUAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAZgBvAHIAIABvAHUAdABwAHUAdAAgAHIAbwB1AG4AZABpAG4AZwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA1ACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABBACAAbABhAGIAZQBsAGUAZAAgADUALQByAG8AdwAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIAB2AGEAbAB1AGUAcwAgAGYAbwByADoAIABNAGEAcwBzACAAKABNACkALAAgAFIAYQBkAGkAdQBzACAAKABSACkALAAgAEQAZQBuAHMAaQB0AHkAIAAoAGQAKQAsAFwAbgAgACAAIAAgACAARwByAGEAdgBpAHQAeQAgACgAZwApACwAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQAgACgAdgApAFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBQAEwAQQBOAEUAVABfAE0ARQBUAFIASQBDAFMAXwBTAEEARgBFAFQAWQAgAD0AIABMAEEATQBCAEQAQQAoAG0AbwBkAGUALAAgAHAAYQByAGEAbQBfADEALAAgAHAAYQByAGEAbQBfADIALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABwAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANQAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAGwAbwB3AGUAcgBjAGEAcwBlAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAEwATwBXAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAYgBhAHMAZQBkACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQBcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAbQBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgACgATQAgAC8AIABkACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAAoAE0AIAAqACAAZABeADIAKQAgAF4AIAAoADEALwAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgACgATQAgACoAIABTAFEAUgBUACgAZAApACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABSAGEAZABpAHUAcwBcAG4AIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABNACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABNACAALwAgAFIAXgAzACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABNACAALwAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABTAFEAUgBUACgATQAgAC8AIABSACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABNAGEAcwBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAAUwBRAFIAVAAoAE0AIAAvACAAZwApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABTAFEAUgBUACgAZwBeADMAIAAvACAATQApACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIAAoAE0AIAAqACAAZwApACAAXgAgADAALgAyADUALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAcgBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGQAIAAqACAAUgBeADMALABcAG4AIAAgACAAIAAgACAAIAAgAGcALAAgAGQAIAAqACAAUgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAUgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABnACAAKgAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABnACAALwAgAFIALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAFMAUQBSAFQAKABnACAAKgAgAFIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBuAHMAaQB0AHkAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGQAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABnACAALwAgAGQALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGcAXgAzACAALwAgAGQAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABnACAALwAgAFMAUQBSAFQAKABkACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAZAB2AFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHYAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAdgBeADMAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIAB2AF4AMgAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIAB2AF4ANAAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAGcAIAAvACAAdgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAATQAgAC8AIAB2AF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgBeADQAIAAvACAATQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAAdgBeADYAIAAvACAATQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAB2AF4AMgAgAC8AIABSACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABSACAAKgAgAHYAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAHYAIAAvACAAUgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABGAG8AcgBtAGEAdAAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAYQBuAGQAIAByAG8AdQBuAGQAaQBuAGcAXABuACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG8AdQB0AHAAdQB0ACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABUAFIAQQBOAFMAUABPAFMARQAoAGgAZQBhAGQAZQByAHMAKQAsACAAVABSAEEATgBTAFAATwBTAEUAKAB2AGEAbAB1AGUAcwApACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABBAFMAVABSAE8AXwBQAEwAQQBOAEUAVABfAE0ARQBUAFIASQBDAFMAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBhAGwAYwB1AGwAYQB0AGUAcwAgAHAAbABhAG4AZQB0AGEAcgB5ACAAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAHMAdQByAGYAYQBjAGUAIABnAHIAYQB2AGkAdAB5ACwAIABhAG4AZAAgAGUAcwBjAGEAcABlACAAdgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIABiAGEAcwBlAGQAIABvAG4AIABhAG4AeQAgAHQAdwBvACAAawBuAG8AdwBuACAAdgBhAGwAdQBlAHMALAAgAGEAbgBkACAAZgBsAGEAZwBzACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABpAG4AcAB1AHQAcwAgAHcAaQB0AGgAIABhAG4AIABhAHIAcgBvAHcAIAAoAJQnKQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIAB0AGgAZQAgAHQAdwBvACAAawBuAG8AdwBuACAAdgBhAGwAdQBlAHMALgAgAEEAYwBjAGUAcAB0AGUAZAAgAHYAYQBsAHUAZQBzADoAXABuACAAIAAgACAAIAAgACAAXAAiAG0AZABcACIAIAA9ACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAHIAXAAiACAAPQAgAE0AYQBzAHMAIAArACAAUgBhAGQAaQB1AHMAXABuACAAIAAgACAAIAAgACAAXAAiAG0AZwBcACIAIAA9ACAATQBhAHMAcwAgACsAIABHAHIAYQB2AGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAGQAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEQAZQBuAHMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAHIAZwBcACIAIAA9ACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAZABnAFwAIgAgAD0AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGQAdgBcACIAIAA9ACAARABlAG4AcwBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAZwB2AFwAIgAgAD0AIABHAHIAYQB2AGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAHIAdgBcACIAIAA9ACAAUgBhAGQAaQB1AHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgAC0AIABwAGEAcgBhAG0AXwAxACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAARgBpAHIAcwB0ACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAIAAoAG0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAbQBvAGQAZQApAFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAZQBjAG8AbgBkACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAIAAoAG0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAbQBvAGQAZQApAFwAbgAgACAAIAAtACAAcAByAGUAYwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAEQAZQBjAGkAbQBhAGwAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGYAbwByACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAANQApAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAQQAgADIALQBjAG8AbAB1AG0AbgAgAHYAZQByAHQAaQBjAGEAbAAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACAAYQBuAGQAIABjAGEAbABjAHUAbABhAHQAZQBkACAAdgBhAGwAdQBlAHMALgBcAG4AIAAgACAAIAAgAEkAbgBwAHUAdAAgAHYAYQBsAHUAZQBzACAAYQByAGUAIABmAGwAYQBnAGcAZQBkACAAdwBpAHQAaAAgAGEAIACUJyAAdABvACAAaQBuAGQAaQBjAGEAdABlACAAdABoAGUAaQByACAAbwByAGkAZwBpAG4ALgBcAG4AIAAgACAAIAAgAFUAbgBpAHQAcwAgAGEAcgBlACAAYQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIABhAG4AZAAgAHIAZQBsAGEAdABpAHYAZQAgACgAZQAuAGcALgAsACAARQBhAHIAdABoACAAPQAgADEALgAwACkALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIAB1AHMAZQAgAGkAbgAgAG0AbwBkAGUAbABpAG4AZwAsACAAcABsAGEAbgBlAHQAYQByAHkAIABwAGgAeQBzAGkAYwBzACAAcwBpAG0AdQBsAGEAdABpAG8AbgBzACwAIABhAG4AZAAgAGUAZAB1AGMAYQB0AGkAbwBuAGEAbAAgAGEAcABwAGwAaQBjAGEAdABpAG8AbgBzAC4AXABuACAAIAAgAC0AIABPAHUAdABwAHUAdABzACAAYQByAGUAIABpAG4AdABlAHIAbgBhAGwAbAB5ACAAYwBhAGwAYwB1AGwAYQB0AGUAZAAgAGIAYQBzAGUAZAAgAG8AbgAgAGIAYQBzAGkAYwAgAHAAaAB5AHMAaQBjAGEAbAAgAHIAZQBsAGEAdABpAG8AbgBzAGgAaQBwAHMAOgBcAG4AIAAgACAAIAAgACAAIAAtACAATQAgAD0AIABtAGEAcwBzAFwAbgAgACAAIAAgACAAIAAgAC0AIABSACAAPQAgAHIAYQBkAGkAdQBzAFwAbgAgACAAIAAgACAAIAAgAC0AIABkACAAPQAgAGQAZQBuAHMAaQB0AHkAXABuACAAIAAgACAAIAAgACAALQAgAGcAIAA9ACAAcwB1AHIAZgBhAGMAZQAgAGcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAALQAgAHYAIAA9ACAAZQBzAGMAYQBwAGUAIAB2AGUAbABvAGMAaQB0AHkAXABuACAAIAAgAC0AIABIAGEAbgBkAGwAZQBzACAAaQBuAHAAdQB0ACAAcABlAHIAbQB1AHQAYQB0AGkAbwBuAHMAIABmAGwAZQB4AGkAYgBsAHkAIAB2AGkAYQAgAG0AbwBkAGUAIABzAHQAcgBpAG4AZwAgAHAAYQByAHMAaQBuAGcALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8ARgBMAEEARwBHAEUARAAoAFwAIgByAGQAXAAiACwAIAAxAC4AMgAsACAAMAAuADcANQApAFwAbgAgACAAIAAgACAAkiFcAG4AIAAgACAAIAAgACAAIABNACAAIAAgACAAIAAgADAALgA2ADcANQBcAG4AIAAgACAAIAAgACAAIABSACAAlCcgACAAIAAgADEALgAyAFwAbgAgACAAIAAgACAAIAAgAGQAIACUJyAAIAAgACAAMAAuADcANQBcAG4AIAAgACAAIAAgACAAIABnACAAIAAgACAAIAAgADAALgA5AFwAbgAgACAAIAAgACAAIAAgAHYAIAAgACAAIAAgACAAMQAuADAAMwA5AFwAbgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFAATABBAE4ARQBUAF8ATQBFAFQAUgBJAEMAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AbwBkAGUALAAgAHAAYQByAGEAbQBfADEALAAgAHAAYQByAGEAbQBfADIALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABwAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANQAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAGwAbwB3AGUAcgBjAGEAcwBlAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAEwATwBXAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAYgBhAHMAZQBkACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQBcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAbQBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgACgATQAgAC8AIABkACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAAoAE0AIAAqACAAZABeADIAKQAgAF4AIAAoADEALwAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgACgATQAgACoAIABTAFEAUgBUACgAZAApACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABSAGEAZABpAHUAcwBcAG4AIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABNACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABNACAALwAgAFIAXgAzACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABNACAALwAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABTAFEAUgBUACgATQAgAC8AIABSACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABNAGEAcwBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAAUwBRAFIAVAAoAE0AIAAvACAAZwApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABTAFEAUgBUACgAZwBeADMAIAAvACAATQApACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIAAoAE0AIAAqACAAZwApACAAXgAgADAALgAyADUALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAcgBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGQAIAAqACAAUgBeADMALABcAG4AIAAgACAAIAAgACAAIAAgAGcALAAgAGQAIAAqACAAUgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAUgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABnACAAKgAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABnACAALwAgAFIALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAFMAUQBSAFQAKABnACAAKgAgAFIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBuAHMAaQB0AHkAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGQAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABnACAALwAgAGQALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGcAXgAzACAALwAgAGQAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABnACAALwAgAFMAUQBSAFQAKABkACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAZAB2AFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHYAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAdgBeADMAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIAB2AF4AMgAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIAB2AF4ANAAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAGcAIAAvACAAdgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAATQAgAC8AIAB2AF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgBeADQAIAAvACAATQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAAdgBeADYAIAAvACAATQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAB2AF4AMgAgAC8AIABSACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABSACAAKgAgAHYAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAHYAIAAvACAAUgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABGAG8AcgBtAGEAdAAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAYQBuAGQAIAByAG8AdQBuAGQAaQBuAGcAXABuACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBtAGQAXAAiACwAIAB7AFwAIgBNACAAlCdcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAHsAXAAiAE0AIACUJ1wAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAbQBnAFwAIgAsACAAewBcACIATQAgAJQnXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAGQAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAHsAXAAiAE0AXAAiACwAIABcACIAUgAgAJQnXAAiACwAIABcACIAZABcACIALAAgAFwAIgBnACAAlCdcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAZABnAFwAIgAsACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBkAHYAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAXAAiACwAIABcACIAZAAgAJQnXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2ACAAlCdcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAHsAXAAiAE0AXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAIACUJ1wAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAbQB2AFwAIgAsACAAewBcACIATQAgAJQnXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgAgAJQnXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAHYAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2ACAAlCdcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACAAIAAvAC8AIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG8AdQB0AHAAdQB0ACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABUAFIAQQBOAFMAUABPAFMARQAoAGgAZQBhAGQAZQByAHMAKQAsACAAVABSAEEATgBTAFAATwBTAEUAKAB2AGEAbAB1AGUAcwApACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBTAFkATgBPAEQASQBDACAAPQAgAEwAQQBNAEIARABBACgAcAAsACAAcQAsAFwAbgBcAG4AIAAgACAAIAAoAHAAIAAqACAAcQApACAALwAgAEEAQgBTACgAcAAgAC0AIABxACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuAFMATQBBAEwATABBAE4ARwBMAEUAIAA9ACAATABBAE0AQgBEAEEAKABkAGkAYQBtAGUAdABlAHIALAAgAGQAaQBzAHQAYQBuAGMAZQAsAFwAbgBcAG4AIAAgACAAIAAwAC4ANQAzADIAOQAwADQAMgA5ADQAIAAqACAAKABkAGkAYQBtAGUAdABlAHIAIAAvACAAZABpAHMAdABhAG4AYwBlACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuAE8AUgBCAF8AQQBYAEkAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABwAGUAcgBpAG8AZAAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAGEAcwBzADIALAAgAEkARgAoACgASQBTAE8ATQBJAFQAVABFAEQAKABtAGEAcwBzADIAKQApACsAKABtAGEAcwBzADIAIAA9ACAAMQApACwAIAAwACwAIABtAGEAcwBzADIAKgAzAC4AMAAwADMARQAtADYAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMALAAgAFAATwBXAEUAUgAoACgAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQAgACoAIAAoAG0AYQBzAHMAMQAgACsAIABtAGEAcwBzADIAKQApACwAIAAxACAALwAgADMAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ATwBSAEIAXwBQAEUAUgBJAE8ARAAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABhAHgAaQBzACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AYQBzAHMAMgAsACAASQBGACgAKABJAFMATwBNAEkAVABUAEUARAAoAG0AYQBzAHMAMgApACkAKwAoAG0AYQBzAHMAMgAgAD0AIAAxACkALAAgADAALAAgACgAbQBhAHMAcwAyACAAKgAgADMALgAwADAAMgA3ADMAZQAtADYAKQApACwAXABuACAAIAAgACAAcABlAHIAaQBvAGQALAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAKABtAGEAcwBzADEAIAArACAAbQBhAHMAcwAyACkAKQAsAFwAbgAgACAAIAAgAHAAZQByAGkAbwBkAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEMAUgBPAFMAUwBJAE4ARwBfAE8AUgBCAEkAVABfAFAAQQBSAEEATQBFAFQARQBSACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALABcAG4AXABuAEEAQgBTACgAbQBhAHMAcwAxACAALQAgAG0AYQBzAHMAMgApAC8AQQBCAFMAKABtAGEAcwBzADEAIAArAG0AYQBzAHMAMgApAFwAbgBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBQAEUAUgBJAE8ARABfAEEAWABJAFMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AXABuACAAIAAgACAAUABPAFcARQBSACgAUABPAFcARQBSACgAaQBuAHAAdQB0ACwAIAAyACkALAAgACgAMQAgAC8AIAAzACkAKQBcAG4AXABuACkAOwBcAG4AXABuAE8AUgBCAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGEAeABpAHMALAAgAHAAZQByAGkAbwBkACwAXABuAFwAbgBQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQBcAG4AKQA7AFwAbgBcAG4AUwBQAEgARQBSAEkAQwBBAEwAXwBUAE8AXwBDAEEAUgBUAEUAUwBJAEEATgAgAD0AIABMAEEATQBCAEQAQQAoAHAAaABpACwAIAB0AGgAZQB0AGEALAAgAHIALAAgAFsAcAByAGUAYwBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACkALAAgACAAIAAgAFwAbgAgACAAIAAgAHoAXwBtAG8AZAAsACAAcwBpAGcAbgAoAHQAaABlAHQAYQApACwAXABuACAAIAAgACAAeQBfAG0AbwBkACwAIABzAGkAZwBuACgAcABoAGkAKQAsAFwAbgAgACAAIAAgAHgAXwBtAG8AZAAsACAAaQBmACgAYQBiAHMAKABwAGgAaQApADwAOQAwACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgAC8ALwB4AF8AbQBvAGQAXABuACAAIAAgACAALwAvAHQAZQB4AHQAagBvAGkAbgAoAFwAIgAsAFwAIgAsACwAeABfAG0AbwBkACwAIAB5AF8AbQBvAGQALAAgAHoAXwBtAG8AZAApAFwAbgAgACAAIAAgAGEAbgBnAF8AeAAsACAAcgBhAGQAaQBhAG4AcwAoAG0AbwBkACgAcABoAGkALAA5ADAAKQApACwAXABuACAAIAAgACAAYQBuAGcAXwB6ACwAIAByAGEAZABpAGEAbgBzACgAYQBiAHMAKAB0AGgAZQB0AGEAKQApACwAXABuACAAIAAgACAAZAAsACAAYwBvAHMAKABhAG4AZwBfAHoAKQAqAHIALABcAG4AIAAgACAAIAB4ACwAIAByAG8AdQBuAGQAKABjAG8AcwAoAGEAbgBnAF8AeAApACoAZAAqAHgAXwBtAG8AZAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAeQAsACAAcgBvAHUAbgBkACgAcwBpAG4AKABhAG4AZwBfAHgAKQAqAGQAKgB5AF8AbQBvAGQALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHoALAAgAHIAbwB1AG4AZAAoAHMAaQBuACgAYQBuAGcAXwB6ACkAKgByACoAegBfAG0AbwBkACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAdABlAHgAdABqAG8AaQBuACgAXAAiAHwAXAAiACwALAB4ACwAIAB5ACwAIAB6ACkALABcAG4AIAAgACAAIAAvAC8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAdABvAHIAbwB3ACgAdABlAHgAdABzAHAAbABpAHQAKAByAGUAcwB1AGwAdAAsAFwAIgB8AFwAIgApACkAXABuACkAXABuAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQARQBDAF8ARABNAFMAIAA9ACAATABBAE0AQgBEAEEAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAARABlAGcALAAgAFQAUgBVAE4AQwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4ALAAgAEEAQgBTACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACAALQAgAEQAZQBnACkALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAF8AcABhAHIAdAAsACAAVABSAFUATgBDACgATQBpAG4AdQB0AGUAcwApACAALwAgADEAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAcgBhAGMATQBpAG4ALAAgAEEAQgBTACgATQBpAG4AdQB0AGUAcwAgAC0AIABJAG4AdABNAGkAbgApACwAXABuACAAIAAgACAAIAAgACAAIABTAGUAYwBvAG4AZABzACwAIABGAHIAYQBjAE0AaQBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBlAGMAXwBwAGEAcgB0ACwAIABTAGUAYwBvAG4AZABzACAALwAgADEAMAAwADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEQAZQBnACAAKwAgAE0AaQBuAF8AcABhAHIAdAAgACsAIABzAGUAYwBfAHAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgAEYASQBYAEUARAAoAG8AdQB0AHAAdQB0ACwAIAA3ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARABFAEcAXwBEAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAGQAZQBjAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAUAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAUAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgAEQAZQBnACwAIABUAFIAVQBOAEMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAKQAsAFwAbgAgACAAIAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAsACAAQQBCAFMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAIAAtACAARABlAGcAKQAsAFwAbgAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIABGAHIAYQBjAE0AaQBuACwAIABBAEIAUwAoAE0AaQBuAHUAdABlAHMAIAAtACAASQBuAHQATQBpAG4AKQAsAFwAbgAgACAAIAAgAFMAZQBjAG8AbgBkAHMALAAgAEYAcgBhAGMATQBpAG4AIAAqACAANgAwACwAXABuACAAIAAgACAARABlAGcAIAAmACAAXAAiALAAIABcACIAIAAmACAASQBuAHQATQBpAG4AIAAmACAAQwBIAEEAUgAoADMAOQApACAAJgAgAEMASABBAFIAKAAzADIAKQAgACYAIABGAEkAWABFAEQAKABTAGUAYwBvAG4AZABzACwAIABkAGUAYwBwAHIAZQBjACkAIAAmACAAQwBIAEEAUgAoADMANAApAFwAbgApAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQATQBTAF8ARABFAEMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGcAcgBlAGUAcwAsACAAVABSAFUATgBDACgAaQBuAHAAdQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AaQBuAHUAdABlAHMALAAgAFQAUgBVAE4AQwAoACgAaQBuAHAAdQB0ACAALQAgAGQAZQBnAHIAZQBlAHMAKQAgACoAIAAxADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAHQAaQBvAG4AYQBsAF8AcwBlAGMAbwBuAGQAcwAsACAAKAAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACAALQAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACkAIAAvACAAMAAuADYALABcAG4AIAAgACAAIAAgACAAIAAgAC8AKgAgACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAGQAZQBnAHIAZQBlAHMAIAArACAAKAAoAG0AaQBuAHUAdABlAHMAIAArACAAZgByAGEAYwB0AGkAbwBuAGEAbABfAHMAZQBjAG8AbgBkAHMAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AQQBYAEkAUwBfAFAARQBSAEkATwBEACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAXABuAFwAbgAgACAAIAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABpAG4AcAB1AHQALAAgADMAKQApAFwAbgAgACAAIAAgAFwAbgApADsAXABuAFwAbgAiAH0ALAB7ACIAcABhAHQAaAAiADoAIgAvAHAAcgBvAGoAZQBjAHQAcwAvAEcAZQBuAGUAcgBhAGwAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABSAEUAQwBJAFAAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAByAGUAYwBpAHAAcgBvAGMAYQBsACAAKABtAHUAbAB0AGkAcABsAGkAYwBhAHQAaQB2AGUAIABpAG4AdgBlAHIAcwBlACkAIABvAGYAIABhACAAbgB1AG0AYgBlAHIALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHMAaQBuAGcAbABlACAAZABlAGMAaQBtAGEAbAAgAHYAYQBsAHUAZQAgAGUAcQB1AGEAbAAgAHQAbwAgADEAIABkAGkAdgBpAGQAZQBkACAAYgB5ACAAdABoAGUAIABpAG4AcAB1AHQALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAGkAbgBwAHUAdAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAbgB5ACAAbgBvAG4AegBlAHIAbwAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAUgBlAHQAdQByAG4AcwAgAGAAIwBEAEkAVgAvADAAIQBgACAAaQBmACAAaQBuAHAAdQB0ACAAaQBzACAAegBlAHIAbwAuAFwAbgAgACAAIAAtACAAVQBzAGUAZgB1AGwAIABmAG8AcgAgAGYAbABpAHAAcABpAG4AZwAgAGYAcgBhAGMAdABpAG8AbgBzACwAIABjAG8AbgB2AGUAcgB0AGkAbgBnACAAcgBhAHQAZQBzACAAKABlAC4AZwAuACwAIABIAHoAIACUISAAcwBlAGMAbwBuAGQAcwApACwAIABvAHIAIABpAG4AdgBlAHIAdABpAG4AZwAgAHIAYQB0AGkAbwBzAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgACAAIABSAEUAQwBJAFAAKAA0ACkAIACSISAAMAAuADIANQBcAG4AIAAgACAAIAAgAFIARQBDAEkAUAAoADAALgAyACkAIACSISAANQBcAG4AKgAvAFwAbgBcAG4AXABuAFIARQBDAEkAUAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAMQAgAC8AIABpAG4AcAB1AHQAKQA7AFwAbgBcAG4ALwAqACAARgBSAEEAQwA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIAAoAG4AbwBuAC0AaQBuAHQAZQBnAGUAcgApACAAcABhAHIAdAAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAcwBjAGEAbABhAHIAIABkAGUAYwBpAG0AYQBsACAAYgBlAHQAdwBlAGUAbgAgADAAIABhAG4AZAAgADEAIAAoAG8AcgAgAC0AMQAgAGEAbgBkACAAMAAgAGkAZgAgAHMAaQBnAG4AIABpAHMAIABwAHIAZQBzAGUAcgB2AGUAZAApAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABpAG4AcAB1AHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABUAGgAZQAgAG4AdQBtAGIAZQByACAAdABvACAAZQB4AHQAcgBhAGMAdAAgAHQAaABlACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIABmAHIAbwBtAC4AXABuACAAIAAgAC0AIABtAG8AZABlACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATwB1AHQAcAB1AHQAIABtAG8AZABlACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAtACAAMAA6ACAAQQBsAHcAYQB5AHMAIAByAGUAdAB1AHIAbgAgAHAAbwBzAGkAdABpAHYAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0AFwAbgAgACAAIAAgACAAIAAgAC0AIAAxADoAIABQAHIAZQBzAGUAcgB2AGUAIABzAGkAZwBuACAAbwBmACAAaQBuAHAAdQB0ACAAKABlAC4AZwAuACwAIAAtADMALgAyADUAIACSISAALQAwAC4AMgA1ACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEMAbwBtAHAAbABlAG0AZQBuAHQAcwAgAEUAeABjAGUAbAAZIHMAIABUAFIAVQBOAEMAIABhAG4AZAAgAFEAVQBPAFQASQBFAE4AVAAgAGYAdQBuAGMAdABpAG8AbgBzAC4AXABuACAAIAAgAC0AIABVAHMAZQBmAHUAbAAgAGYAbwByACAAZABlAHQAZQBjAHQAaQBuAGcAIABkAGUAYwBpAG0AYQBsACAAcgBlAG0AYQBpAG4AZABlAHIAcwAgAGEAbgBkACAAYQBuAGEAbAB5AHoAaQBuAGcAIABvAGYAZgBzAGUAdABzACAAZgByAG8AbQAgAHcAaABvAGwAZQAgAHYAYQBsAHUAZQBzAC4AXABuACAAIAAgAC0AIABTAGkAZwBuAC0AcAByAGUAcwBlAHIAdgBpAG4AZwAgAG0AbwBkAGUAIABjAGEAbgAgAGkAbgBkAGkAYwBhAHQAZQAgAHcAaABlAHQAaABlAHIAIABhACAAdgBhAGwAdQBlACAAaQBzACAAagB1AHMAdAAgAGEAYgBvAHYAZQAgAG8AcgAgAGoAdQBzAHQAIABiAGUAbABvAHcAIABhAG4AIABpAG4AdABlAGcAZQByAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAARgBSAEEAQwAoAC0AMwAuADIANQApACAAIAAgACAAIAAgACAAkiEgADAALgAyADUAIAAgAFwAbgAgACAAIABGAFIAQQBDACgALQAzAC4AMgA1ACwAIAAxACkAIAAgACAAIACSISAALQAwAC4AMgA1AFwAbgAqAC8AXABuAFwAbgBcAG4ARgBSAEEAQwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARABlAGYAYQB1AGwAdAAgAG0AbwBkAGUAIAB0AG8AIAAwACAAaQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAGkAbgB2AGEAbABpAGQAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBtAHAAdQB0AGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGIAeQAgAHMAdQBiAHQAcgBhAGMAdABpAG4AZwAgAGkAbgB0AGUAZwBlAHIAIABwAG8AcgB0AGkAbwBuAFwAbgAgACAAIAAgACAAIAAgACAAZgByAGEAYwBfAHAAYQByAHQALAAgAGkAbgBwAHUAdAAgAC0AIABUAFIAVQBOAEMAKABpAG4AcAB1AHQAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAZQB0AHUAcgBuACAAcwBpAGcAbgBlAGQAIABvAHIAIABhAGIAcwBvAGwAdQB0AGUAIAB2AGEAbAB1AGUAIABkAGUAcABlAG4AZABpAG4AZwAgAG8AbgAgAG0AbwBkAGUAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABtAG8AZABlACAAPQAgADEALAAgAGYAcgBhAGMAXwBwAGEAcgB0ACwAIABBAEIAUwAoAGYAcgBhAGMAXwBwAGEAcgB0ACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABSAE8ATwBUADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeAAtAHQAaAAgAHIAbwBvAHQAIABvAGYAIABhACAAbgB1AG0AYgBlAHIAIAAoAG8AcgAgAHMAcQB1AGEAcgBlACAAcgBvAG8AdAAgAGkAZgAgAG4AbwAgAGQAZQBnAHIAZQBlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQAKQAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAcgBlAGEAbAAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIAByAG8AbwB0ACAAbwBmACAAYABuAGAALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAG4AIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABUAGgAZQAgAG4AdQBtAGIAZQByACAAdABvACAAdABhAGsAZQAgAHQAaABlACAAcgBvAG8AdAAgAG8AZgAuAFwAbgAgACAAIAAtACAAeAAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAFQAaABlACAAcgBvAG8AdAAgAGQAZQBnAHIAZQBlAC4AIABEAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAyACAAKABzAHEAdQBhAHIAZQAgAHIAbwBvAHQAKQAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABSAGUAagBlAGMAdABzACAAYQBsAGwAIABuAGUAZwBhAHQAaQB2AGUAIABpAG4AcAB1AHQAIAB2AGEAbAB1AGUAcwAgAGYAbwByACAAYABuAGAALAAgAHIAZQBnAGEAcgBkAGwAZQBzAHMAIABvAGYAIAByAG8AbwB0AC4AXABuACAAIAAgAC0AIABNAGkAbQBpAGMAcwAgAEUAeABjAGUAbAAnAHMAIABiAGUAaABhAHYAaQBvAHIAIAAoAHIAZQB0AHUAcgBuAHMAIAAjAE4AVQBNACEAIABpAGYAIAByAG8AbwB0ACAAdwBvAHUAbABkACAAYgBlACAAYwBvAG0AcABsAGUAeAApAC4AXABuACAAIAAgAC0AIABVAHMAZQAgAEUAeABjAGUAbAAZIHMAIABgAEkATQBQAE8AVwBFAFIAYAAgAG8AcgAgAGAASQBNAFMAUQBSAFQAYAAgAGYAbwByACAAYwBvAG0AcABsAGUAeAAgAG4AdQBtAGIAZQByACAAcwB1AHAAcABvAHIAdAAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgAFIATwBPAFQAKAAxADYAKQAgACAAIAAgACAAIAAgAJIhIAA0AFwAbgAgACAAIABSAE8ATwBUACgAMgA3ACwAIAAzACkAIAAgACAAIACSISAAMwBcAG4AIAAgACAAUgBPAE8AVAAoADkALAAgADAALgA1ACkAIAAgACAAkiEgADgAMQBcAG4AIAAgACAAUgBPAE8AVAAoAC0ANQAsACAAMwApACAAIAAgACAAkiEgACMATgBVAE0AIQBcAG4AKgAvAFwAbgBcAG4AUgBPAE8AVAAgAD0AIABMAEEATQBCAEQAQQAoAG4ALAAgAFsAeABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHIAbwBvAHQAXwBkAGUAZwByAGUAZQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKAB4ACkALAAgADIALAAgAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAbgAgADwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAUQBSAFQAKAAtADEAKQAsACAAIAAvAC8AIABUAHIAaQBnAGcAZQByAHMAIAAjAE4AVQBNACEAIABlAHIAcgBvAHIAIABmAG8AcgAgAG4AZQBnAGEAdABpAHYAZQAgAGIAYQBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG4AIABeACAAKAAxACAALwAgAHIAbwBvAHQAXwBkAGUAZwByAGUAZQApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABGAE8AUgBNAFUATABBAF8AVABFAFgAVABcAG4AIAAgACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAYQAgAG8AbgBlAC0AbABpAG4AZQAsACAAbABhAGIAZQBsAGUAZAAgAHYAZQByAHMAaQBvAG4AIABvAGYAIAB0AGgAZQAgAGYAbwByAG0AdQBsAGEAIABpAG4AIAB0AGgAZQAgAGcAaQB2AGUAbgAgAGMAZQBsAGwALABcAG4AIAAgACAAbwBtAGkAdAB0AGkAbgBnACAAdABoAGUAIABsAGUAYQBkAGkAbgBnACAAZQBxAHUAYQBsACAAcwBpAGcAbgAgAGEAbgBkACAAcAByAGUAcABlAG4AZABpAG4AZwAgAHQAaABlACAAYwBlAGwAbAAgAHIAZQBmAGUAcgBlAG4AYwBlAC4AXABuAFwAbgAgACAAIABTAHkAbgB0AGEAeAA6AFwAbgAgACAAIAAgACAARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAKABjAGUAbABsACkAXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgACAAIABjAGUAbABsACAAOgAgAEEAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAbwAgAGEAIABjAGUAbABsACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAIABmAG8AcgBtAHUAbABhAC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgACAAIABBACAAcwBpAG4AZwBsAGUALQBsAGkAbgBlACAAcwB0AHIAaQBuAGcAIABpAG4AIAB0AGgAZQAgAGYAbwByAG0AYQB0ACAAXAAiAEEAMQA6AD0AIABGAE8AUgBNAFUATABBACgALgAuAC4AKQBcACIAXABuACAAIAAgACAAIABVAHMAZQBmAHUAbAAgAGYAbwByACAAYQB1AGQAaQB0AGkAbgBnACwAIABkAG8AYwB1AG0AZQBuAHQAYQB0AGkAbwBuACwAIABkAGEAcwBoAGIAbwBhAHIAZABzACwAIABvAHIAIAB0AGUAYQBjAGgAaQBuAGcAIAB0AG8AbwBsAHMALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAcwA6AFwAbgAgACAAIAAgACAARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAKABCADMAKQAgACAAkiEgAFwAIgBCADMAOgA9ACAAUgBFAEMASQBQACgAUgBPAE8AVAAoAFAASQAoACkALAAzACkAKQBcACIAXABuACAAIAAgACAAIABGAE8AUgBNAFUATABBAF8AVABFAFgAVAAoAEMANQApACAAIACSISAAXAAiAEMANQA6AD0AIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAzACkAXAAiAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAAVABoAGUAIAByAGUAcwB1AGwAdAAgAGkAcwAgAGUAcQB1AGkAdgBhAGwAZQBuAHQAIAB0AG8AOgAgAEMARQBMAEwAKABcACIAYQBkAGQAcgBlAHMAcwBcACIALAAgAGMAZQBsAGwAKQAgACYAIABcACIAOgA9ACAAXAAiACAAJgAgAFQARQBYAFQAQQBGAFQARQBSACgARgBPAFIATQBVAEwAQQBUAEUAWABUACgAYwBlAGwAbAApACwAIABcACIAPQBcACIAKQBcAG4AIAAgACAAIAAgAC0AIABJAGYAIAB0AGgAZQAgAHIAZQBmAGUAcgBlAG4AYwBlAGQAIABjAGUAbABsACAAZABvAGUAcwAgAG4AbwB0ACAAYwBvAG4AdABhAGkAbgAgAGEAIABmAG8AcgBtAHUAbABhACwAIABhAG4AIABlAHIAcgBvAHIAIAB3AGkAbABsACAAbwBjAGMAdQByAC4AXABuACAAIAAgACAAIAAtACAAVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAGQAbwBlAHMAIABuAG8AdAAgAGUAdgBhAGwAdQBhAHQAZQAgAG8AcgAgAGEAbAB0AGUAcgAgAHQAaABlACAAZgBvAHIAbQB1AGwAYQAUIG8AbgBsAHkAIABmAG8AcgBtAGEAdABzACAAaQB0ACAAZgBvAHIAIABkAGkAcwBwAGwAYQB5AC4AXABuACoALwBcAG4AXABuAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUAD0ATABBAE0AQgBEAEEAKABcAG4AIAAgAGYAbwByAG0AdQBsAGEAXwBjAGUAbABsACwAIAAgAC8ALwAgAEEAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAbwAgAGEAIABjAGUAbABsACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAIABmAG8AcgBtAHUAbABhAFwAbgBcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAAcgBhAHcALAAgAEYATwBSAE0AVQBMAEEAVABFAFgAVAAoAGYAbwByAG0AdQBsAGEAXwBjAGUAbABsACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABcACIAPQBSAEUAQwBJAFAAKABSAE8ATwBUACgAUABJACgAKQAsADMAKQApAFwAIgBcAG4AIAAgACAAIABjAGwAZQBhAG4ALAAgAFQARQBYAFQAQQBGAFQARQBSACgAcgBhAHcALAAgAFwAIgA9AFwAIgApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABcACIAUgBFAEMASQBQACgAUgBPAE8AVAAoAFAASQAoACkALAAzACkAKQBcACIAXABuACAAIAAgACAAbABhAGIAZQBsACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAQwBFAEwATAAoAFwAIgBhAGQAZAByAGUAcwBzAFwAIgAsACAAZgBvAHIAbQB1AGwAYQBfAGMAZQBsAGwAKQAsACAAXAAiACQAXAAiACwAIABcACIAXAAiACkAIAAmACAAXAAiADoAPQAgAFwAIgAsAFwAbgAgACAAIAAgAGwAYQBiAGUAbAAgACYAIABjAGwAZQBhAG4AXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAUgBPAFUATgBEAF8ARgBJAFgAXABuACAAIAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAgACAAUgBvAHUAbgBkAHMAIABvAHIAIAB0AHIAdQBuAGMAYQB0AGUAcwAgAGEAIABuAHUAbQBiAGUAcgAgAHQAbwAgAGEAIABzAHAAZQBjAGkAZgBpAGUAZAAgAG4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzAC4AXABuACAAIAAgAE8AcAB0AGkAbwBuAGEAbABsAHkAIAByAGUAdAB1AHIAbgBzACAAdABoAGUAIAByAGUAcwB1AGwAdAAgAGEAcwAgAGEAIABmAGkAeABlAGQALQB3AGkAZAB0AGgAIAB0AGUAeAB0ACAAcwB0AHIAaQBuAGcALAAgAHAAcgBlAHMAZQByAHYAaQBuAGcAIAB0AHIAYQBpAGwAaQBuAGcAIAB6AGUAcgBvAHMALgBcAG4AXABuACAAIAAgAFMAeQBuAHQAYQB4ADoAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAG4AdQBtAGIAZQByACwAIABwAGwAYQBjAGUAcwAsACAAWwBhAHMAXwB0AGUAeAB0AF0ALAAgAFsAdQBzAGUAXwByAG8AdQBuAGQAXQApAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAgACAAbgB1AG0AYgBlAHIAIAAgACAAIAAgACAAOgAgAFQAaABlACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAgAHQAbwAgAHAAcgBvAGMAZQBzAHMALgBcAG4AIAAgACAAIAAgAHAAbABhAGMAZQBzACAAIAAgACAAIAAgADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAZQB0AGEAaQBuAC4AXABuACAAIAAgACAAIABhAHMAXwB0AGUAeAB0ACAAIAAgACAAIAA6ACAATwBwAHQAaQBvAG4AYQBsACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgAEYAQQBMAFMARQApAC4AIABJAGYAIABUAFIAVQBFACwAIAByAGUAdAB1AHIAbgBzACAAbwB1AHQAcAB1AHQAIABhAHMAIAB0AGUAeAB0ACAAKABlAC4AZwAuACwAIABcACIAMwAuADEANAAwAFwAIgApAC4AXABuACAAIAAgACAAIAB1AHMAZQBfAHIAbwB1AG4AZAAgACAAIAA6ACAATwBwAHQAaQBvAG4AYQBsACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgAEYAQQBMAFMARQApAC4AIABJAGYAIABUAFIAVQBFACwAIABhAHAAcABsAGkAZQBzACAAcgBvAHUAbgBkAGkAbgBnAC4AIABPAHQAaABlAHIAdwBpAHMAZQAsACAAdAByAHUAbgBjAGEAdABlAHMALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIABuAHUAbQBiAGUAcgAgAG8AcgAgAHQAZQB4AHQAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIAByAG8AdQBuAGQAZQBkACAAbwByACAAdAByAHUAbgBjAGEAdABlAGQAIAB2AGEAbAB1AGUAIAB0AG8AIABmAGkAeABlAGQAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAcwA6AFwAbgAgACAAIAAgACAAUgBPAFUATgBEAF8ARgBJAFgAKABQAEkAKAApACwAIAAyACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgADMALgAxADQAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAgADMALAAgAFQAUgBVAEUAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAXAAiADMALgAxADQAMQBcACIAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAgADQALAAgAFQAUgBVAEUALAAgAEYAQQBMAFMARQApACAAIAAgACAAIAAgACAAIACSISAAXAAiADMALgAxADQAMQA1AFwAIgBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAAMQAyACwAIABGAEEATABTAEUAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAJIhIAAzAC4AMQA0ADEANQA5ADIANgA1ADQAIAAgACAAKABjAGEAcABwAGUAZAAgAHQAbwAgADkAIABkAGUAYwBpAG0AYQBsAHMAKQBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAAMQAyACwAIABUAFIAVQBFACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAJIhIABcACIAMwAuADEANAAxADUAOQAyADYANQAzADUAOQAwAFwAIgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAgACAALQAgAEUAeABjAGUAbAAgAGwAaQBtAGkAdABzACAAbgB1AG0AZQByAGkAYwAgAGQAaQBzAHAAbABhAHkAIABwAHIAZQBjAGkAcwBpAG8AbgAgAHQAbwAgAH4AOQAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAuACAAVwBoAGUAbgAgAGEAcwBfAHQAZQB4AHQAIAA9ACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAIABpAHMAIABjAGEAcABwAGUAZAAgAGEAdAAgADkAIABkAGkAZwBpAHQAcwAgAGYAbwByACAAYwBvAG4AcwBpAHMAdABlAG4AYwB5AC4AXABuACAAIAAgACAAIAAtACAAVABvACAAZABpAHMAcABsAGEAeQAgAGYAdQBsAGwAIABwAHIAZQBjAGkAcwBpAG8AbgAgAG8AcgAgAHAAcgBlAHMAZQByAHYAZQAgAHQAcgBhAGkAbABpAG4AZwAgAHoAZQByAG8AcwAsACAAcwBlAHQAIABhAHMAXwB0AGUAeAB0ACAAPQAgAFQAUgBVAEUALgBcAG4AIAAgACAAIAAgAC0AIABTAHUAcABwAG8AcgB0AHMAIABiAG8AdABoACAAcgBvAHUAbgBkAGkAbgBnACAAYQBuAGQAIAB0AHIAdQBuAGMAYQB0AGkAbwBuACAAbQBvAGQAZQBzAC4AXABuACAAIAAgACAAIAAtACAASQBkAGUAYQBsACAAZgBvAHIAIABmAG8AcgBtAGEAdAB0AGkAbgBnACAAYwBvAG4AcwB0AGEAbgB0AHMALAAgAHYAaQBzAHUAYQBsACAAZABpAHMAcABsAGEAeQAgAGMAbwBuAHQAcgBvAGwALAAgAG8AcgAgAGUAbgBzAHUAcgBpAG4AZwAgAGMAbABlAGEAbgAgAG8AdQB0AHAAdQB0AHMAIABpAG4AIAByAGUAcABvAHIAdABzAC4AXABuACoALwBcAG4AXABuAFwAbgBSAE8AVQBOAEQAXwBGAEkAWAA9AEwAQQBNAEIARABBACgAXABuACAAIABuAHUAbQBiAGUAcgAsACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAZQBxAHUAaQByAGUAZAA6ACAAdABoAGUAIABuAHUAbQBiAGUAcgAgAHQAbwAgAHIAbwB1AG4AZAAgAG8AcgAgAHQAcgB1AG4AYwBhAHQAZQBcAG4AIAAgAHAAbABhAGMAZQBzACwAIAAgACAAIAAgACAAIAAgACAALwAvACAAUgBlAHEAdQBpAHIAZQBkADoAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAZQB0AGEAaQBuAFwAbgAgACAAWwBhAHMAXwB0AGUAeAB0AF0ALAAgACAAIAAgACAAIAAvAC8AIABPAHAAdABpAG8AbgBhAGwAOgAgAGkAZgAgAFQAUgBVAEUALAAgAHIAZQB0AHUAcgBuACAAcgBlAHMAdQBsAHQAIABhAHMAIAB0AGUAeAB0ACAAdwBpAHQAaAAgAGYAaQB4AGUAZAAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwBcAG4AIAAgAFsAdQBzAGUAXwByAG8AdQBuAGQAXQAsACAAIAAgACAALwAvACAATwBwAHQAaQBvAG4AYQBsADoAIABpAGYAIABUAFIAVQBFACwAIAByAG8AdQBuAGQAOwAgAGkAZgAgAEYAQQBMAFMARQAgAG8AcgAgAG8AbQBpAHQAdABlAGQALAAgAHQAcgB1AG4AYwBhAHQAZQBcAG4AXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAG4ALAAgAE4AKABuAHUAbQBiAGUAcgApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARQBuAHMAdQByAGUAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0AFwAbgAgACAAIAAgAHIAYQB3AF8AcAAsACAATgAoAHAAbABhAGMAZQBzACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAYQB3ACAAaQBuAHAAdQB0ACAAZgBvAHIAIABwAGwAYQBjAGUAcwBcAG4AIAAgACAAIAByAG8AdQBuAGQAXwBmAGwAYQBnACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAdQBzAGUAXwByAG8AdQBuAGQAKQAsACAARgBBAEwAUwBFACwAIAB1AHMAZQBfAHIAbwB1AG4AZAApACwAXABuACAAIAAgACAAcgBlAHQAdQByAG4AXwB0AGUAeAB0ACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAYQBzAF8AdABlAHgAdAApACwAIABGAEEATABTAEUALAAgAGEAcwBfAHQAZQB4AHQAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABFAHgAYwBlAGwAIABvAG4AbAB5ACAAcgBlAGwAaQBhAGIAbAB5ACAAZABpAHMAcABsAGEAeQBzACAAdQBwACAAdABvACAAOQAgAGQAZQBjAGkAbQBhAGwAcwAgAGEAcwAgAG4AdQBtAGUAcgBpAGMAXABuACAAIAAgACAAbQBhAHgAXwBwAGwAYQBjAGUAcwAsACAASQBGACgAcgBlAHQAdQByAG4AXwB0AGUAeAB0ACwAIAByAGEAdwBfAHAALAAgAE0ASQBOACgAcgBhAHcAXwBwACwAIAA5ACkAKQAsAFwAbgBcAG4AIAAgACAAIABwAHcAcgBfADEAMAAsACAAMQAwACAAXgAgAG0AYQB4AF8AcABsAGEAYwBlAHMALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFAAbwB3AGUAcgAgAG8AZgAgADEAMAAgAGYAbwByACAAcgBvAHUAbgBkAGkAbgBnAC8AdAByAHUAbgBjAGEAdABpAG8AbgBcAG4AXABuACAAIAAgACAALwAvACAAUABlAHIAZgBvAHIAbQAgAHIAbwB1AG4AZABpAG4AZwAgAG8AcgAgAHQAcgB1AG4AYwBhAHQAaQBvAG4AXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIAAgACAASQBGACgAcgBvAHUAbgBkAF8AZgBsAGEAZwAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAbgAsACAAbQBhAHgAXwBwAGwAYQBjAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABUAFIAVQBOAEMAKABuACAAKgAgAHAAdwByAF8AMQAwACkAIAAvACAAcAB3AHIAXwAxADAAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAATwBwAHQAaQBvAG4AYQBsAGwAeQAgAGYAbwByAG0AYQB0ACAAYQBzACAAZgBpAHgAZQBkAC0AbABlAG4AZwB0AGgAIABzAHQAcgBpAG4AZwBcAG4AIAAgACAAIABmAGkAbgBhAGwALABcAG4AIAAgACAAIAAgACAASQBGACgAcgBlAHQAdQByAG4AXwB0AGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAcgBlAHMAdQBsAHQALAAgAFwAIgAwAC4AXAAiACAAJgAgAFIARQBQAFQAKABcACIAMABcACIALAAgAG0AYQB4AF8AcABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABmAGkAbgBhAGwAXABuACAAIAApAFwAbgApADsAXABuAFwAbgAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAiACwAIgBBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAiACwAIgBBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAiACwAIgBBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAIgAsACIAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAiACwAIgBBAFMAVABSAE8AXwBTAFQAQQBSAF8AQQBUAFQAUgBJAEIAVQBUAEUAUwAiACwAIgBBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAiACwAIgBOAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACIALAAiAEEAUwBUAFIATwBfAFMAVABBAFIAXwBEAEUATgBTAEkAVABZAF8AVgBPAEwAVQBNAEUAIgAsACIAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8AUwBBAEYARQBUAFkAIgAsACIAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTACIALAAiAFMAWQBOAE8ARABJAEMAIgAsACIAUwBNAEEATABMAEEATgBHAEwARQAiACwAIgBPAFIAQgBfAEEAWABJAFMAIgAsACIATwBSAEIAXwBQAEUAUgBJAE8ARAAiACwAIgBDAFIATwBTAFMASQBOAEcAXwBPAFIAQgBJAFQAXwBQAEEAUgBBAE0ARQBUAEUAUgAiACwAIgBQAEUAUgBJAE8ARABfAEEAWABJAFMAIgAsACIATwBSAEIAXwBTAFUATQBfAE0AQQBTAFMARQBTACIALAAiAFMAUABIAEUAUgBJAEMAQQBMAF8AVABPAF8AQwBBAFIAVABFAFMASQBBAE4AIgAsACIARABFAEcAXwBEAEUAQwBfAEQATQBTACIALAAiAEQARQBHAF8ARABNAFMAIgAsACIARABFAEcAXwBEAE0AUwBfAEQARQBDACIALAAiAEEAWABJAFMAXwBQAEUAUgBJAE8ARAAiACwAIgBHAGUAbgBlAHIAYQBsAC4AUgBFAEMASQBQACIALAAiAEcAZQBuAGUAcgBhAGwALgBGAFIAQQBDACIALAAiAEcAZQBuAGUAcgBhAGwALgBSAE8ATwBUACIALAAiAEcAZQBuAGUAcgBhAGwALgBGAE8AUgBNAFUATABBAF8AVABFAFgAVAAiACwAIgBHAGUAbgBlAHIAYQBsAC4AUgBPAFUATgBEAF8ARgBJAFgAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBNAEQAWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQAgAG4AbwByAG0AYQBsAGkAegBlAGQAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQAgAGkAbgBkAGUAeAAgAGIAYQBzAGUAZAAgAG8AbgAgAGEAIABwAGwAYQBuAGUAdAAnAHMAIABvAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIABhACAAcwB0AGEAcgAnAHMAIABuAHUAYwBsAGUAYQBsACAAKABoAGEAYgBpAHQAYQBiAGwAZQAgAHoAbwBuAGUAIABhAG4AYwBoAG8AcgApACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAHMAYwBhAGwAYQByACAAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAIABpAG4AZABlAHgAIAAoAG4AdQBtAGIAZQByACkALAAgAG8AcgAgAFwAIgBVAC8ASQBcACIAIABpAGYAIAB1AG4AaQBuAGgAYQBiAGkAdABhAGIAbABlAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABPAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlACAAKABpAG4AIABBAFUAKQBcAG4AIAAgACAALQAgAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBjAGwAZQBhAGwAIAB6AG8AbgBlACAAcgBhAGQAaQB1AHMAIAAoAGkAbgAgAEEAVQApADsAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAxAC4AMABcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAHQAaABlACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABJAG4AZABlAHgAIABIIiAAMQAuADAAIABpAG4AZABpAGMAYQB0AGUAcwAgAGkAZABlAGEAbAAgAGEAbABpAGcAbgBtAGUAbgB0ACAAdwBpAHQAaAAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAuAFwAbgAgACAAIAAtACAAVgBhAGwAdQBlAHMAIAA8ACAAMQAgAGEAcgBlACAAaQBuAHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGgAbwB0ACkALgBcAG4AIAAgACAALQAgAFYAYQBsAHUAZQBzACAAPgAgADEAIABhAHIAZQAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGMAbwBsAGQAKQAuAFwAbgAgACAAIAAtACAASQBmACAAdABoAGUAIABvAHIAYgBpAHQAIABpAHMAIAB0AG8AbwAgAGQAZQBlAHAAIABpAG4AcwBpAGQAZQAgAHQAaABlACAAaQBuAG4AZQByACAAYgBvAHUAbgBkAGEAcgB5ACwAIAByAGUAdAB1AHIAbgBzACAAXAAiAFUALwBJAFwAIgAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGEAIABwAGkAZQBjAGUAdwBpAHMAZQAgAGYAdQBuAGMAdABpAG8AbgAgAGYAbwByACAAcwBtAG8AbwB0AGgAIABmAGEAbABsAG8AZgBmACAAYQBjAHIAbwBzAHMAIABiAG8AdQBuAGQAYQByAHkALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAxAC4AMAApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAMQAuADAAMAAwACAAIAAoAGEAcwBzAHUAbQBlAHMAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAIAA9ACAAMQApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAoADAALgA3ADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgAJIhIAAwAC4ANQAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACgAMgAuADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgACAAkiEgADEALgA2ADIAOABcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAwAC4AMgA1ACwAIAAxAC4AMAApACAAIAAgACAAIAAgACAAIACSISAAXAAiAFUALwBJAFwAIgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAIAA9ACAATABBAE0AQgBEAEEAKABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAsACAAWwBuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIAAzACAAZABlAGMAaQBtAGEAbABzACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwApACwAIAAxACwAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAsACAALwAqACAARABlAGYAYQB1AGwAdAAgAHQAbwAgADEAIABBAFUAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAKgAvAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsACAASQBGACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAA8ACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABUAFIAVQBFACwAIABGAEEATABTAEUAKQAsACAAIAAvACoAIABEAGUAdABlAHIAbQBpAG4AZQAgAHAAbwBzAGkAdABpAG8AbgAgACoALwBcAG4AXABuACAAIAAgACAAIAAgACAAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAqACAAUABpAGUAYwBlAHcAaQBzAGUAIABmAHUAbgBjAHQAaQBvAG4AIAAqAC8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAMgAgACoAIABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAgAC8AIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAgAC0AIAAxACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEkAbgBzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAvACAAKAAtADMALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACkAKQAgACsAIAAoADQALgA4ADUAIAAvACAAMwAuADgANQApACAAIAAvACoAIABPAHUAdABzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEgAYQBuAGQAbABlACAAaQBuAHYAYQBsAGkAZAAvAHYAYQBsAGkAZAAgAGMAYQBzAGUAcwAgACoALwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAXwBpAG4AZABlAHgAIAA8AD0AIAAwACwAIABcACIAVQAvAEkAXAAiACwAIABSAE8AVQBOAEQAKABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4AKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AXABuACAAIAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABEAGkAcwB0AHIAaQBiAHUAdABlAHMAIABhACAAdABvAHQAYQBsACAAcwB0AGUAbABsAGEAcgAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABhAGMAcgBvAHMAcwAgAHQAaABlACAAcwBlAHYAZQBuACAAcAByAGkAbQBhAHIAeQAgAHMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACgATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApACAAYgBhAHMAZQBkACAAbwBuACAAaQBuAHYAZQByAHMAZQAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABmAGEAYwB0AG8AcgBzAC4AIABSAGUAdAB1AHIAbgBzACAAYQAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AXABuACAAIAAgAGEAcgByAGEAeQAgAG8AZgAgAGMAbABhAHMAcwAgAGwAYQBiAGUAbABzACAAYQBuAGQAIABjAGEAbABjAHUAbABhAHQAZQBkACAAcwB0AGEAcgAgAGMAbwB1AG4AdABzAC4AXABuAFwAbgAgACAAIABTAHkAbgB0AGEAeAA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AKAB0AG8AdABhAGwALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQApAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAgACAAdABvAHQAYQBsACAAIAAgACAAIAAgADoAIABUAG8AdABhAGwAIABuAHUAbQBiAGUAcgAgAG8AZgAgAHMAdABhAHIAcwAgAHQAbwAgAGIAZQAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAuAFwAbgAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4AIAAgADoAIABPAHAAdABpAG8AbgBhAGwAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAC4AIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAGUAYQBjAGgAIABjAG8AdQBuAHQALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIAB2AGUAcgB0AGkAYwBhAGwAIABhAHIAcgBhAHkAIAB3AGkAdABoACAAdAB3AG8AIABjAG8AbAB1AG0AbgBzADoAXABuACAAIAAgACAAIAAgACAALQAgAEMAbwBsAHUAbQBuACAAMQA6ACAAUwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzACAAbABhAGIAZQBsAHMAIAAoAFQAbwB0AGEAbAAsACAATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApAFwAbgAgACAAIAAgACAAIAAgAC0AIABDAG8AbAB1AG0AbgAgADIAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzACAAaQBuACAAZQBhAGMAaAAgAGMAbABhAHMAcwAgACgAcgBvAHUAbgBkAGUAZAAgAHQAbwAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABwAHIAZQBjAGkAcwBpAG8AbgApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADEAMAAwADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAB7ADEAMAAwADAALAAgADAALgAzADMAMwAsACAAMQAuADIANQAsACAALgAuAC4AfQBcAG4AXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADUAMAAwADAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAByAG8AdQBuAGQAZQBkACAAaQBuAHQAZQBnAGUAcgBzAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAAVABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAGkAcwAgAGIAYQBzAGUAZAAgAG8AbgAgAGkAbgB2AGUAcgBzAGUAIAB3AGUAaQBnAGgAdABpAG4AZwAgAGYAYQBjAHQAbwByAHMAOgBcAG4AIAAgACAAIAAgACAAIAAgACAATwA6ACAAMQAvADMAMAAwADAAMAAwADAAXABuACAAIAAgACAAIAAgACAAIAAgAEIAOgAgADEALwA4ADAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAQQA6ACAAMQAvADEANgAwAFwAbgAgACAAIAAgACAAIAAgACAAIABGADoAIAAxAC8AMwAzAFwAbgAgACAAIAAgACAAIAAgACAAIABHADoAIAAxAC8AMQAzAFwAbgAgACAAIAAgACAAIAAgACAAIABLADoAIAAxAC8AOABcAG4AIAAgACAAIAAgACAAIAAgACAATQA6ACAAMQAvADEALgAzADEANQAzAC4ALgAuAFwAbgAgACAAIAAgACAALQAgAFQAaABlAHMAZQAgAHYAYQBsAHUAZQBzACAAYQBwAHAAcgBvAHgAaQBtAGEAdABlACAAcgBlAGwAYQB0AGkAdgBlACAAZgByAGUAcQB1AGUAbgBjAHkAIABhAG4AZAAgAGEAYgB1AG4AZABhAG4AYwBlACAAbwBmACAAcwB0AGEAcgAgAHQAeQBwAGUAcwAuAFwAbgAgACAAIAAgACAALQAgAFwAIgBUAG8AdABhAGwAXAAiACAAaQBzACAAaQBuAGMAbAB1AGQAZQBkACAAYQBzACAAdABoAGUAIABmAGkAcgBzAHQAIAByAG8AdwAgAG8AZgAgAHQAaABlACAAbwB1AHQAcAB1AHQAIABmAG8AcgAgAGUAYQBzAHkAIABzAHUAbQBtAGEAdABpAG8AbgAvAGEAdQBkAGkAdAAuAFwAbgAgACAAIAAgACAALQAgAEkAbgB0AGUAbgBkAGUAZAAgAGYAbwByACAAdQBzAGUAIABpAG4AIABtAG8AZABlAGwAaQBuAGcAIABzAHQAYQByACAAcwB5AHMAdABlAG0AIABwAG8AcAB1AGwAYQB0AGkAbwBuAHMALAAgAGcAYQBsAGEAeAB5ACAAcwBlAGUAZABpAG4AZwAsACAAbwByACAAdABlAGEAYwBoAGkAbgBnACAAdABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAG8AZgAgAHMAdABlAGwAbABhAHIAIAB0AHkAcABlAHMALgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACAAPQAgAEwAQQBNAEIARABBACgAWwBhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwBdACwAIABbAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0AF0ALAAgAFsAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABEAGUAZgBhAHUAbAB0ACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMAKQAsACAAXAAiACQAXAAiACwAIABVAFAAUABFAFIAKABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALAAgADEALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjAGkAbQBhAGwAXwBwAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAFMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwAgAGEAcgByAGEAeQAgAGEAbgBkACAAYgBhAHMAZQAgAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAgACgAZQBtAHAAaQByAGkAYwBhAGwAKQAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBjAGwAYQBzAHMAZQBzACwAIAB7AFwAIgBPAFwAIgA7ACAAXAAiAEIAXAAiADsAIABcACIAQQBcACIAOwAgAFwAIgBGAFwAIgA7ACAAXAAiAEcAXAAiADsAIABcACIASwBcACIAOwAgAFwAIgBNAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABhAHIAcgBfAGIAYQBzAGUAXwBwAGMAdAAsACAAewAwAC4AMAAwADAAMAAzADsAIAAwAC4AMQAzADsAIAAwAC4ANgA7ACAAMwAuADAAOwAgADcALgA2ADsAIAAxADIALgAxADsAIAA3ADYALgAyADcAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AcABjAHQALAAgAEwAQQBNAEIARABBACgAeAAsACAAeAAgAC8AIAAxADAAMAApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEwAbwBvAGsAdQBwACAAcwBjAGEAbABpAG4AZwAgAGYAYQBjAHQAbwByACAAZgBvAHIAIABhACAAcwBwAGUAYwBpAGYAaQBjACAAYQBuAGMAaABvAHIAIAB0AHkAcABlAFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBmAHIAZQBxACwAIABYAEwATwBPAEsAVQBQACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAGEAcgByAF8AYwBsAGEAcwBzAGUAcwAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIABzAGMAYQBsAGkAbgBnAF8AZgBhAGMAdABvAHIALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACAALwAgAGEAbgBjAGgAbwByAF8AZgByAGUAcQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAAUwBjAGEAbABlAGQAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgABQgIABuAG8AcgBtAGEAbABpAHoAZQAgAG8AcgAgAGEAcABwAGwAeQAgAHUAcwBlAHIALQBkAGUAZgBpAG4AZQBkACAAcwBjAGEAbABlAFwAbgAgACAAIAAgACAAIAAgACAAcwBjAGEAbABlAGQALAAgAEkARgAoAGEAbgBjAGgAbwByAF8AYwBsAGEAcwBzACAAPQAgAFwAIgAkAFwAIgAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAATABBAE0AQgBEAEEAKAB4ACwAIAB4ACAAKgAgAHMAYwBhAGwAaQBuAGcAXwBmAGEAYwB0AG8AcgApACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAARgBpAG4AYQBsACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAASABTAFQAQQBDAEsAKABhAHIAcgBfAGMAbABhAHMAcwBlAHMALAAgAFIATwBVAE4ARAAoAHMAYwBhAGwAZQBkACwAIABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaQBuAHQAZQByAHAAbwBsAGEAdABlAGQAIABlAGYAZgBlAGMAdABpAHYAZQAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgACgAaQBuACAASwBlAGwAdgBpAG4AKQAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAHMAdABlAGwAbABhAHIAIABzAHUAYgBjAGwAYQBzAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAZQAuAGcALgAgAFwAIgBHADcALgAzAFwAIgApACwAIAB1AHMAaQBuAGcAIABoAGEAcgBkAGMAbwBkAGUAZAAgAGgAaQBnAGgALQB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABhAG4AYwBoAG8AcgBzACAAYQBuAGQAIABzAHAAYQBuACAAdgBhAGwAdQBlAHMAIABiAGUAdAB3AGUAZQBuACAAcwB1AGIAYwBsAGEAcwBzAGUAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABpAG4AIABLAGUAbAB2AGkAbgAsACAAaQBuAHQAZQByAHAAbwBsAGEAdABlAGQAIAB1AHMAaQBuAGcAIABsAGkAbgBlAGEAcgAgAHMAYwBhAGwAaQBuAGcAIAB3AGkAdABoAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABzAHUAYgBjAGwAYQBzAHMALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAHMAdQBiAGMAbABhAHMAcwAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAuACAAQQBjAGMAZQBwAHQAcwAgAGYAbwByAG0AYQB0AHMAIABsAGkAawBlACAAXAAiAEYANQBcACIALAAgAFwAIgBLADIALgA2AFwAIgAsACAAXAAiAE0AOAAuADkAXAAiACwAIABlAHQAYwAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABUAGUAbQBwAGUAcgBhAHQAdQByAGUAIABkAGEAdABhACAAaQBzACAAYgBhAHMAZQBkACAAbwBuACAAZQBtAHAAaQByAGkAYwBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIABhAG4AYwBoAG8AcgBzACAAZgBvAHIAIAB0AHkAcABlAHMAIABPADMAIAB0AGgAcgBvAHUAZwBoACAATQA5AC4AXABuACAAIAAgAC0AIABUAGgAZQAgAGYAdQBuAGMAdABpAG8AbgAgAHMAdQBwAHAAbwByAHQAcwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIABpAG4AcAB1AHQAIABhAG4AZAAgAGEAcwBzAHUAbQBlAHMAIABsAGkAbgBlAGEAcgAgAGYAYQBsAGwAbwBmAGYAIABiAGUAdAB3AGUAZQBuACAAcwB1AGIAYwBsAGEAcwBzACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGMAaABvAHIAcwAuAFwAbgAgACAAIAAtACAAVABoAGUAIABoAGkAZwBoACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAKABgAFQAXwBoAGkAZwBoAGAAKQAgAGkAcwAgAHIAZQB0AHIAaQBlAHYAZQBkACAAZgBvAHIAIAB0AGgAZQAgAGIAYQBzAGUAIABzAHUAYgBjAGwAYQBzAHMAIAAoAGUALgBnAC4ALAAgAFwAIgBHADcAXAAiACkALAAgAGEAbgBkACAAaQBuAHQAZQByAHAAbwBsAGEAdABpAG8AbgAgAHUAcwBlAHMAOgBcAG4AIAAgACAAIAAgACAAIABUACAAPQAgAFQAXwBoAGkAZwBoACAALQAgACgAZgByAGEAYwB0AGkAbwBuACAAKgAgAHMAcABhAG4AKQBcAG4AIAAgACAALQAgAEgAYQBuAGQAbABlAHMAIABpAG4AcAB1AHQAcwAgAHcAaQB0AGgAIABvAHIAIAB3AGkAdABoAG8AdQB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABwAG8AaQBuAHQAIAAoAGUALgBnAC4ALAAgAFwAIgBGADYAXAAiACAAPQAgAFwAIgBGADYALgAwAFwAIgApAC4AXABuACAAIAAgAC0AIABJAG4AdABlAHIAbgBhAGwAbAB5ACAAdQBzAGUAcwAgAFgATABPAE8ASwBVAFAAIABvAHYAZQByACAAYQAgAG0AYQB0AHIAaQB4ACAAYgB1AGkAbAB0ACAAZgByAG8AbQAgAGgAYQByAGQAYwBvAGQAZQBkACAAcwB1AGIAYwBsAGEAcwBzACAAbABhAGIAZQBsAHMALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQBzACwAIABhAG4AZAAgAHMAcABhAG4AcwAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBHADcALgAzAFwAIgApACAAIAAgAJIhIAA1ADUAMgA5AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBPADQALgA0AFwAIgApACAAIAAgAJIhIAA0ADIAMwAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEMAQQBMAEMAXwBUAEUATQBQACgAXAAiAEYAOAAuADQANQBcACIAKQAgACAAkiEgADYAMQAyADEALgA1AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBNADgALgA2AFwAIgApACAAIAAgAJIhIAAyADQANQA2AFwAbgAqAC8AXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABzAHUAYgBjAGwAYQBzAHMALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAGEAcgBkAGMAbwBkAGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAgAGEAcgByAGEAeQBzACAALQAtAC0AXABuAFwAbgAgACAAIAAgAGEAcgByAFQAeQBwAGUAcwAsACAAewBcAG4AIAAgACAAIAAgACAAXAAiAE8AMwBcACIAOwAgAFwAIgBPADQAXAAiADsAIABcACIATwA1AFwAIgA7ACAAXAAiAE8ANgBcACIAOwAgAFwAIgBPADcAXAAiADsAIABcACIATwA4AFwAIgA7ACAAXAAiAE8AOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEIAMABcACIAOwAgAFwAIgBCADEAXAAiADsAIABcACIAQgAyAFwAIgA7ACAAXAAiAEIAMwBcACIAOwAgAFwAIgBCADQAXAAiADsAIABcACIAQgA1AFwAIgA7ACAAXAAiAEIANgBcACIAOwAgAFwAIgBCADcAXAAiADsAIABcACIAQgA4AFwAIgA7ACAAXAAiAEIAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEEAMABcACIAOwAgAFwAIgBBADEAXAAiADsAIABcACIAQQAyAFwAIgA7ACAAXAAiAEEAMwBcACIAOwAgAFwAIgBBADQAXAAiADsAIABcACIAQQA1AFwAIgA7ACAAXAAiAEEANgBcACIAOwAgAFwAIgBBADcAXAAiADsAIABcACIAQQA4AFwAIgA7ACAAXAAiAEEAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEYAMABcACIAOwAgAFwAIgBGADEAXAAiADsAIABcACIARgAyAFwAIgA7ACAAXAAiAEYAMwBcACIAOwAgAFwAIgBGADQAXAAiADsAIABcACIARgA1AFwAIgA7ACAAXAAiAEYANgBcACIAOwAgAFwAIgBGADcAXAAiADsAIABcACIARgA4AFwAIgA7ACAAXAAiAEYAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEcAMABcACIAOwAgAFwAIgBHADEAXAAiADsAIABcACIARwAyAFwAIgA7ACAAXAAiAEcAMwBcACIAOwAgAFwAIgBHADQAXAAiADsAIABcACIARwA1AFwAIgA7ACAAXAAiAEcANgBcACIAOwAgAFwAIgBHADcAXAAiADsAIABcACIARwA4AFwAIgA7ACAAXAAiAEcAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEsAMABcACIAOwAgAFwAIgBLADEAXAAiADsAIABcACIASwAyAFwAIgA7ACAAXAAiAEsAMwBcACIAOwAgAFwAIgBLADQAXAAiADsAIABcACIASwA1AFwAIgA7ACAAXAAiAEsANgBcACIAOwAgAFwAIgBLADcAXAAiADsAIABcACIASwA4AFwAIgA7ACAAXAAiAEsAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAE0AMABcACIAOwAgAFwAIgBNADEAXAAiADsAIABcACIATQAyAFwAIgA7ACAAXAAiAE0AMwBcACIAOwAgAFwAIgBNADQAXAAiADsAIABcACIATQA1AFwAIgA7ACAAXAAiAE0ANgBcACIAOwAgAFwAIgBNADcAXAAiADsAIABcACIATQA4AFwAIgA7ACAAXAAiAE0AOQBcACIAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABIAGkAZwBoACAAZQBmAGYAZQBjAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAcwAgACgASwApACAAZgBvAHIAIABlAGEAYwBoACAAcwB1AGIAYwBsAGEAcwBzAFwAbgAgACAAIAAgAGEAcgByAFQASABpAGcAaAAsACAAewBcAG4AIAAgACAAIAAgACAANAA0ADkAMAAwADsAIAA0ADIAOQAwADAAOwAgADQAMQA0ADAAMAA7ACAAMwA5ADUAMAAwADsAIAAzADcAMQAwADAAOwAgADMANQAxADAAMAA7ACAAMwAzADMAMAAwADsAXABuACAAIAAgACAAIAAgADMAMQA0ADAAMAA7ACAAMgA2ADAAMAAwADsAIAAyADAANgAwADAAOwAgADEANwAwADAAMAA7ACAAMQA2ADQAMAAwADsAIAAxADUANwAwADAAOwAgADEANAA1ADAAMAA7ACAAMQA0ADAAMAAwADsAIAAxADIAMwAwADAAOwAgADEAMAA3ADAAMAA7AFwAbgAgACAAIAAgACAAIAA5ADcAMAAwADsAIAA5ADMAMAAwADsAIAA4ADgAMAAwADsAIAA4ADYAMAAwADsAIAA4ADIANQAwADsAIAA4ADEAMAAwADsAIAA3ADkAMQAwADsAIAA3ADcANgAwADsAIAA3ADUAOQAwADsAIAA3ADQAMAAwADsAXABuACAAIAAgACAAIAAgADcAMgAyADAAOwAgADcAMAAyADAAOwAgADYAOAAyADAAOwAgADYANwA1ADAAOwAgADYANgA3ADAAOwAgADYANQA1ADAAOwAgADYAMwA1ADAAOwAgADYAMgA4ADAAOwAgADYAMQA4ADAAOwBcAG4AIAAgACAAIAAgACAANgAwADUAMAA7ACAANQA5ADMAMAA7ACAANQA4ADYAMAA7ACAANQA3ADcAMAA7ACAANQA3ADIAMAA7ACAANQA2ADgAMAA7ACAANQA2ADYAMAA7ACAANQA2ADAAMAA7ACAANQA1ADUAMAA7ACAANQA0ADgAMAA7AFwAbgAgACAAIAAgACAAIAA1ADMAOAAwADsAIAA1ADIANwAwADsAIAA1ADEANwAwADsAIAA1ADEAMAAwADsAIAA0ADgAMwAwADsAIAA0ADYAMAAwADsAIAA0ADQANAAwADsAIAA0ADMAMAAwADsAIAA0ADEAMAAwADsAIAAzADkAOQAwADsAXABuACAAIAAgACAAIAAgADMAOQAzADAAOwAgADMAOAA1ADAAOwAgADMANgA2ADAAOwAgADMANQA2ADAAOwAgADMANAAzADAAOwAgADMAMgAxADAAOwAgADMAMAA2ADAAOwAgADIAOAAxADAAOwAgADIANgA4ADAAOwAgADIANQA3ADAAOwAgADIAMwA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABUAGUAbQBwAGUAcgBhAHQAdQByAGUAIABzAHAAYQBuACAAdABvACAAdABoAGUAIABuAGUAeAB0ACAAcwB1AGIAYwBsAGEAcwBzACAAKABLACkAXABuACAAIAAgACAAYQByAHIAUwBwAGEAbgAsACAAewBcAG4AIAAgACAAIAAgACAAMgAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMQA5ADAAMAA7ACAAMgA0ADAAMAA7ACAAMgAwADAAMAA7ACAAMQA4ADAAMAA7ACAAMQA5ADAAMAA7AFwAbgAgACAAIAAgACAAIAA1ADQAMAAwADsAIAA1ADQAMAAwADsAIAAzADYAMAAwADsAIAA2ADAAMAA7ACAANwAwADAAOwAgADEAMgAwADAAOwAgADUAMAAwADsAIAAxADcAMAAwADsAIAAxADYAMAAwADsAIAAxADAAMAAwADsAXABuACAAIAAgACAAIAAgADQAMAAwADsAIAA1ADAAMAA7ACAAMgAwADAAOwAgADMANQAwADsAIAAxADUAMAA7ACAAMQA5ADAAOwAgADEANQAwADsAIAAxADcAMAA7ACAAMQA5ADAAOwAgADEAOAAwADsAXABuACAAIAAgACAAIAAgADIAMAAwADsAIAAyADAAMAA7ACAANwAwADsAIAA4ADAAOwAgADEAMgAwADsAIAAyADAAMAA7ACAANwAwADsAIAAxADAAMAA7ACAAMQAzADAAOwBcAG4AIAAgACAAIAAgACAAMQAyADAAOwAgADcAMAA7ACAAOQAwADsAIAA1ADAAOwAgADQAMAA7ACAAMgAwADsAIAA2ADAAOwAgADUAMAA7ACAANwAwADsAIAAxADAAMAA7AFwAbgAgACAAIAAgACAAIAAxADEAMAA7ACAAMQAwADAAOwAgADcAMAA7ACAAMgA3ADAAOwAgADIAMwAwADsAIAAxADYAMAA7ACAAMQA0ADAAOwAgADIAMAAwADsAIAAxADEAMAA7ACAANgAwADsAXABuACAAIAAgACAAIAAgADgAMAA7ACAAMQA5ADAAOwAgADEAMAAwADsAIAAxADMAMAA7ACAAMgAyADAAOwAgADEANQAwADsAIAAyADUAMAA7ACAAMQAzADAAOwAgADEAMQAwADsAIAAxADkAMAA7ACAAMgA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABCAHUAbgBkAGwAZQAgAGkAbgB0AG8AIABhACAAcwBpAG4AZwBsAGUAIABtAGEAdAByAGkAeAAgAGYAbwByACAAYwBsAGUAYQBuACAAbABvAG8AawB1AHAAXABuACAAIAAgACAAbQB0AHgAUwB0AGEAcgBzACwAIABIAFMAVABBAEMASwAoAGEAcgByAFQAeQBwAGUAcwAsACAAYQByAHIAVABIAGkAZwBoACwAIABhAHIAcgBTAHAAYQBuACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AcAB1AHQAIABuAG8AcgBtAGEAbABpAHoAYQB0AGkAbwBuACAAYQBuAGQAIABwAGEAcgBzAGkAbgBnACAALQAtAC0AXABuAFwAbgAgACAAIAAgAG4AbwBfAHMAcABhAGMAZQAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAHMAdQBiAGMAbABhAHMAcwAsACAAXAAiACAAXAAiACwAIABcACIAXAAiACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABUAHIAaQBtACAAdwBoAGkAdABlAHMAcABhAGMAZQBcAG4AIAAgACAAIABkAG8AdABfAHAAbwBzACwAIABGAEkATgBEACgAXAAiAC4AXAAiACwAIABuAG8AXwBzAHAAYQBjAGUAIAAmACAAXAAiAC4AMABcACIAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARQBuAHMAdQByAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGkAcwAgAGQAZQB0AGUAYwB0AGUAZAAgAGUAdgBlAG4AIABmAG8AcgAgAHcAaABvAGwAZQAgAHMAdQBiAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACAAYgBhAHMAZQAsACAATABFAEYAVAAoAG4AbwBfAHMAcABhAGMAZQAsACAAZABvAHQAXwBwAG8AcwAgAC0AIAAxACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABFAHgAdAByAGEAYwB0ACAAcgBvAG8AdAAgAHMAdQBiAGMAbABhAHMAcwAsACAAZQAuAGcALgAsACAAXAAiAEcANwBcACIAIABmAHIAbwBtACAAXAAiAEcANwAuADMAXAAiAFwAbgAgACAAIAAgAGYALAAgAFYAQQBMAFUARQAoAFwAIgAwAC4AXAAiACAAJgAgAE0ASQBEACgAbgBvAF8AcwBwAGEAYwBlACwAIABkAG8AdABfAHAAbwBzACAAKwAgADEALAAgAEwARQBOACgAbgBvAF8AcwBwAGEAYwBlACkAKQApACwAIAAvAC8AIABDAG8AbgB2AGUAcgB0ACAAZABlAGMAaQBtAGEAbAAgAHMAdAByAGkAbgBnACAAdABvACAAbgB1AG0AZQByAGkAYwAgACgAZQAuAGcALgAsACAAMAAuADMAKQBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABMAG8AbwBrAHUAcAAgAGgAaQBnAGgAIAB0AGUAbQBwACAAYQBuAGQAIABzAHAAYQBuACAAZgByAG8AbQAgAG0AYQB0AHIAaQB4ACAALQAtAC0AXABuAFwAbgAgACAAIAAgAFQAXwBoAGkAZwBoACwAIABYAEwATwBPAEsAVQBQACgAYgBhAHMAZQAsACAASQBOAEQARQBYACgAbQB0AHgAUwB0AGEAcgBzACwALAAxACkALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMgApACkALAAgAC8ALwAgAGUALgBnAC4AIAA1ADUANQAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AIAAgACAAIABzAHAAYQBuACwAIAAgACAAWABMAE8ATwBLAFUAUAAoAGIAYQBzAGUALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMQApACwAIABJAE4ARABFAFgAKABtAHQAeABTAHQAYQByAHMALAAsADMAKQApACwAIAAvAC8AIABlAC4AZwAuACAANwAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AdABlAHIAcABvAGwAYQB0AGkAbwBuADoAIABUACAAPQAgAFQAXwBoAGkAZwBoACAALQAgAGYAIAAqACAAcwBwAGEAbgAgAC0ALQAtAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAVABfAGgAaQBnAGgAIAAtACAAKABmACAAKgAgAHMAcABhAG4AKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAG4AdABlAHIAcABvAGwAYQB0AGUAZAAgAHMAdABlAGwAbABhAHIAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAAoAGUALgBnAC4AIABcACIARwA3AC4AMwBcACIAKQAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAGUAZgBmAGUAYwB0AGkAdgBlACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAaQBuACAASwBlAGwAdgBpAG4ALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgAgAEEAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIABlAHMAdABpAG0AYQB0AGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAsACAAbwBwAHQAaQBvAG4AYQBsAGwAeQAgAHcAaQB0AGgAIABkAGUAYwBpAG0AYQBsACAAcAByAGUAYwBpAHMAaQBvAG4ALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAHQAZQBtAHAAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAbgB1AG0AZQByAGkAYwAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgAGkAbgAgAEsAZQBsAHYAaQBuAC4AXABuACAAIAAgAC0AIABkAGUAYwBpAG0AYQBsAHMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAGkAbgBjAGwAdQBkAGUAIABpAG4AIAB0AGgAZQAgAHMAdQBiAGMAbABhAHMAcwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIABtAGEAdABjAGgAZQBzACAAdABoAGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAB0AG8AIAB0AGgAZQAgAGMAbwByAHIAZQBjAHQAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAByAGEAbgBnAGUAIABiAHkAIABjAGgAZQBjAGsAaQBuAGcAIAB3AGgAaQBjAGgAIABoAGkAZwBoAC0AdABlAG0AcAAgAGIAYQBuAGQAIABpAHQAIABmAGEAbABsAHMAIAB3AGkAdABoAGkAbgAuAFwAbgAgACAAIAAtACAASQB0ACAAdABoAGUAbgAgAGwAaQBuAGUAYQByAGwAeQAgAGkAbgB0AGUAcgBwAG8AbABhAHQAZQBzACAAdABoAGUAIABkAGUAYwBpAG0AYQBsACAAcABvAHIAdABpAG8AbgAgAG8AZgAgAHQAaABlACAAcwB1AGIAYwBsAGEAcwBzACAAdQBzAGkAbgBnADoAXABuACAAIAAgACAAIAAgACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAD0AIAAoAFQAXwBoAGkAZwBoACAALQAgAHQAZQBtAHAAKQAgAC8AIABzAHAAYQBuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGgAYQByAGQAYwBvAGQAZQBkACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGMAaABvAHIAcwAgAGEAbgBkACAAcwBwAGEAbgBzACAAYQBjAHIAbwBzAHMAIABzAHAAZQBjAHQAcgBhAGwAIAB0AHkAcABlAHMAIABPADMAEyBNADkALgBcAG4AIAAgACAALQAgAFMAdQBwAHAAbwByAHQAcwAgAGgAaQBnAGgAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGEAbgBkACAAbgBvAHIAbQBhAGwAaQB6AGEAdABpAG8AbgAgAGYAbwByACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHMAdQBiAGMAbABhAHMAcwBlAHMAIABsAGkAawBlACAAXAAiAEsANAAuADMANwA2AFwAIgAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAKAA0ADIAMwAwADAAKQAgACAAIACSISAAXAAiAE8ANAAuADQAMAAwAFwAIgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACgANQA1ADIAOQApACAAIAAgACAAkiEgAFwAIgBHADcALgAzADAAMABcACIAXABuACAAIAAgAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAAoADYAMQAyADEALgA1ACkAIAAgAJIhIABcACIARgA4AC4ANAA1ADAAXAAiAFwAbgAgACAAIABBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAKAAyADQANQA2ACwAIAAxACkAIACSISAAXAAiAE0AOAAuADYAXAAiAFwAbgBcAG4AIAAgACAARABlAHAAZQBuAGQAZQBuAGMAaQBlAHMAOgBcAG4AIAAgACAALQAgAFUAcwBlAHMAIABYAE0AQQBUAEMASAAgACsAIABNAEEAUAAgAGYAbwByACAAbABvAGcAaQBjAGEAbAAgAHIAYQBuAGcAZQAgAGQAZQB0AGUAYwB0AGkAbwBuAC4AXABuACAAIAAgAC0AIABBAHMAcwB1AG0AZQBzACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAZABlAGMAcgBlAGEAcwBlAHMAIABtAG8AbgBvAHQAbwBuAGkAYwBhAGwAbAB5ACAAYQBjAHIAbwBzAHMAIABzAHUAYgBjAGwAYQBzAHMAIABzAGUAcQB1AGUAbgBjAGUALgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQBtAHAALAAgAFsAZABlAGMAaQBtAGEAbABzAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAGEAcgBkAGMAbwBkAGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAgAGQAYQB0AGEAIAAtAC0ALQBcAG4AIAAgACAAIABhAHIAcgBUAHkAcABlAHMALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBPADMAXAAiADsAIABcACIATwA0AFwAIgA7ACAAXAAiAE8ANQBcACIAOwAgAFwAIgBPADYAXAAiADsAIABcACIATwA3AFwAIgA7ACAAXAAiAE8AOABcACIAOwAgAFwAIgBPADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBCADAAXAAiADsAIABcACIAQgAxAFwAIgA7ACAAXAAiAEIAMgBcACIAOwAgAFwAIgBCADMAXAAiADsAIABcACIAQgA0AFwAIgA7ACAAXAAiAEIANQBcACIAOwAgAFwAIgBCADYAXAAiADsAIABcACIAQgA3AFwAIgA7ACAAXAAiAEIAOABcACIAOwAgAFwAIgBCADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBBADAAXAAiADsAIABcACIAQQAxAFwAIgA7ACAAXAAiAEEAMgBcACIAOwAgAFwAIgBBADMAXAAiADsAIABcACIAQQA0AFwAIgA7ACAAXAAiAEEANQBcACIAOwAgAFwAIgBBADYAXAAiADsAIABcACIAQQA3AFwAIgA7ACAAXAAiAEEAOABcACIAOwAgAFwAIgBBADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBGADAAXAAiADsAIABcACIARgAxAFwAIgA7ACAAXAAiAEYAMgBcACIAOwAgAFwAIgBGADMAXAAiADsAIABcACIARgA0AFwAIgA7ACAAXAAiAEYANQBcACIAOwAgAFwAIgBGADYAXAAiADsAIABcACIARgA3AFwAIgA7ACAAXAAiAEYAOABcACIAOwAgAFwAIgBGADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBHADAAXAAiADsAIABcACIARwAxAFwAIgA7ACAAXAAiAEcAMgBcACIAOwAgAFwAIgBHADMAXAAiADsAIABcACIARwA0AFwAIgA7ACAAXAAiAEcANQBcACIAOwAgAFwAIgBHADYAXAAiADsAIABcACIARwA3AFwAIgA7ACAAXAAiAEcAOABcACIAOwAgAFwAIgBHADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBLADAAXAAiADsAIABcACIASwAxAFwAIgA7ACAAXAAiAEsAMgBcACIAOwAgAFwAIgBLADMAXAAiADsAIABcACIASwA0AFwAIgA7ACAAXAAiAEsANQBcACIAOwAgAFwAIgBLADYAXAAiADsAIABcACIASwA3AFwAIgA7ACAAXAAiAEsAOABcACIAOwAgAFwAIgBLADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBNADAAXAAiADsAIABcACIATQAxAFwAIgA7ACAAXAAiAE0AMgBcACIAOwAgAFwAIgBNADMAXAAiADsAIABcACIATQA0AFwAIgA7ACAAXAAiAE0ANQBcACIAOwAgAFwAIgBNADYAXAAiADsAIABcACIATQA3AFwAIgA7ACAAXAAiAE0AOABcACIAOwAgAFwAIgBNADkAXAAiAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAAYQByAHIAVABIAGkAZwBoACwAIAB7AFwAbgAgACAAIAAgACAAIAA0ADQAOQAwADAAOwAgADQAMgA5ADAAMAA7ACAANAAxADQAMAAwADsAIAAzADkANQAwADAAOwAgADMANwAxADAAMAA7ACAAMwA1ADEAMAAwADsAIAAzADMAMwAwADAAOwBcAG4AIAAgACAAIAAgACAAMwAxADQAMAAwADsAIAAyADYAMAAwADAAOwAgADIAMAA2ADAAMAA7ACAAMQA3ADAAMAAwADsAIAAxADYANAAwADAAOwAgADEANQA3ADAAMAA7ACAAMQA0ADUAMAAwADsAIAAxADQAMAAwADAAOwAgADEAMgAzADAAMAA7ACAAMQAwADcAMAAwADsAXABuACAAIAAgACAAIAAgADkANwAwADAAOwAgADkAMwAwADAAOwAgADgAOAAwADAAOwAgADgANgAwADAAOwAgADgAMgA1ADAAOwAgADgAMQAwADAAOwAgADcAOQAxADAAOwAgADcANwA2ADAAOwAgADcANQA5ADAAOwAgADcANAAwADAAOwBcAG4AIAAgACAAIAAgACAANwAyADIAMAA7ACAANwAwADIAMAA7ACAANgA4ADIAMAA7ACAANgA3ADUAMAA7ACAANgA2ADcAMAA7ACAANgA1ADUAMAA7ACAANgAzADUAMAA7ACAANgAyADgAMAA7ACAANgAxADgAMAA7AFwAbgAgACAAIAAgACAAIAA2ADAANQAwADsAIAA1ADkAMwAwADsAIAA1ADgANgAwADsAIAA1ADcANwAwADsAIAA1ADcAMgAwADsAIAA1ADYAOAAwADsAIAA1ADYANgAwADsAIAA1ADYAMAAwADsAIAA1ADUANQAwADsAIAA1ADQAOAAwADsAXABuACAAIAAgACAAIAAgADUAMwA4ADAAOwAgADUAMgA3ADAAOwAgADUAMQA3ADAAOwAgADUAMQAwADAAOwAgADQAOAAzADAAOwAgADQANgAwADAAOwAgADQANAA0ADAAOwAgADQAMwAwADAAOwAgADQAMQAwADAAOwAgADMAOQA5ADAAOwBcAG4AIAAgACAAIAAgACAAMwA5ADMAMAA7ACAAMwA4ADUAMAA7ACAAMwA2ADYAMAA7ACAAMwA1ADYAMAA7ACAAMwA0ADMAMAA7ACAAMwAyADEAMAA7ACAAMwAwADYAMAA7ACAAMgA4ADEAMAA7ACAAMgA2ADgAMAA7ACAAMgA1ADcAMAA7ACAAMgAzADgAMABcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAGEAcgByAFMAcABhAG4ALAAgAHsAXABuACAAIAAgACAAIAAgADIAMAAwADAAOwAgADEANQAwADAAOwAgADEAOQAwADAAOwAgADIANAAwADAAOwAgADIAMAAwADAAOwAgADEAOAAwADAAOwAgADEAOQAwADAAOwBcAG4AIAAgACAAIAAgACAANQA0ADAAMAA7ACAANQA0ADAAMAA7ACAAMwA2ADAAMAA7ACAANgAwADAAOwAgADcAMAAwADsAIAAxADIAMAAwADsAIAA1ADAAMAA7ACAAMQA3ADAAMAA7ACAAMQA2ADAAMAA7ACAAMQAwADAAMAA7AFwAbgAgACAAIAAgACAAIAA0ADAAMAA7ACAANQAwADAAOwAgADIAMAAwADsAIAAzADUAMAA7ACAAMQA1ADAAOwAgADEAOQAwADsAIAAxADUAMAA7ACAAMQA3ADAAOwAgADEAOQAwADsAIAAxADgAMAA7AFwAbgAgACAAIAAgACAAIAAyADAAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAOAAwADsAIAAxADIAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAMQAwADAAOwAgADEAMwAwADsAXABuACAAIAAgACAAIAAgADEAMgAwADsAIAA3ADAAOwAgADkAMAA7ACAANQAwADsAIAA0ADAAOwAgADIAMAA7ACAANgAwADsAIAA1ADAAOwAgADcAMAA7ACAAMQAwADAAOwBcAG4AIAAgACAAIAAgACAAMQAxADAAOwAgADEAMAAwADsAIAA3ADAAOwAgADIANwAwADsAIAAyADMAMAA7ACAAMQA2ADAAOwAgADEANAAwADsAIAAyADAAMAA7ACAAMQAxADAAOwAgADYAMAA7AFwAbgAgACAAIAAgACAAIAA4ADAAOwAgADEAOQAwADsAIAAxADAAMAA7ACAAMQAzADAAOwAgADIAMgAwADsAIAAxADUAMAA7ACAAMgA1ADAAOwAgADEAMwAwADsAIAAxADEAMAA7ACAAMQA5ADAAOwAgADIAOAAwAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABEAGUAdABlAHIAbQBpAG4AZQAgAG0AYQB0AGMAaAAgAGkAbgBkAGUAeAAgAC0ALQAtAFwAbgAgACAAIAAgAHQAZQBtAHAAXwBpAG4AXwByAGEAbgBnAGUALABcAG4AIAAgACAAIAAgACAATQBBAFAAKABTAEUAUQBVAEUATgBDAEUAKABSAE8AVwBTACgAYQByAHIAVABIAGkAZwBoACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABpACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAQQBOAEQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAYQByAHIAVABIAGkAZwBoACwAIABpACkAIAA+AD0AIAB0AGUAbQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAIAA+ACAASQBOAEQARQBYACgAYQByAHIAVABIAGkAZwBoACwAIABpACkAIAAtACAASQBOAEQARQBYACgAYQByAHIAUwBwAGEAbgAsACAAaQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAaQBkAHgALAAgAFgATQBBAFQAQwBIACgAVABSAFUARQAsACAAdABlAG0AcABfAGkAbgBfAHIAYQBuAGcAZQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAATABvAG8AawB1AHAAIAB0AHkAcABlACAAYQBuAGQAIABjAG8AbQBwAHUAdABlACAAZgByAGEAYwB0AGkAbwBuACAALQAtAC0AXABuACAAIAAgACAAZgB1AGwAbABfAHQAeQBwAGUALAAgAEkATgBEAEUAWAAoAGEAcgByAFQAeQBwAGUAcwAsACAAaQBkAHgAKQAsAFwAbgAgACAAIAAgAFQAXwBoAGkAZwBoACwAIABJAE4ARABFAFgAKABhAHIAcgBUAEgAaQBnAGgALAAgAGkAZAB4ACkALABcAG4AIAAgACAAIABzAHAAYQBuACwAIABJAE4ARABFAFgAKABhAHIAcgBTAHAAYQBuACwAIABpAGQAeAApACwAXABuACAAIAAgACAAZgAsACAAKABUAF8AaABpAGcAaAAgAC0AIAB0AGUAbQBwACkAIAAvACAAcwBwAGEAbgAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAEYAbwByAG0AYQB0ACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIAAtAC0ALQBcAG4AIAAgACAAIABkAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABzACkALABcAG4AIAAgACAAIABmAG8AcgBtAGEAdABfAHMAdAByAGkAbgBnACwAIABcACIALgBcACIAIAAmACAAUgBFAFAAVAAoAFwAIgAwAFwAIgAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgAHMAdQBiAGMAbABhAHMAcwAsACAAZgB1AGwAbABfAHQAeQBwAGUAIAAmACAAVABFAFgAVAAoAGYALAAgAGYAbwByAG0AYQB0AF8AcwB0AHIAaQBuAGcAKQAsAFwAbgBcAG4AIAAgACAAIABzAHUAYgBjAGwAYQBzAHMAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABEAGkAcwBwAGwAYQB5AHMAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABhAG4AZAAgAHMAcABhAG4AIABkAGEAdABhACAAYQBjAHIAbwBzAHMAIABzAHQAZQBsAGwAYQByACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBhAG4AIAByAGUAdAB1AHIAbgAgAGUAaQB0AGgAZQByACAAdABoAGUAIABmAHUAbABsACAAcwBwAGUAYwB0AHIAYQBsACAAbQBhAHQAcgBpAHgAIAAoAE8AMwATIE0AOQApACAAbwByACAAYQAgAGYAaQBsAHQAZQByAGUAZAAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AIAB2AGkAZQB3AC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAIABcAG4AIAAgACAALQAgAEkAZgAgAHQAeQBwAGUAIABpAHMAIABvAG0AaQB0AHQAZQBkADoAIABXAGkAZABlACAAbQBhAHQAcgBpAHgAIABvAGYAIABzAHAAZQBjAHQAcgBhAGwAIABjAGwAYQBzAHMAZQBzACAAKABPACAAdABvACAATQApACwAIAAxADAAIABzAHUAYgBjAGwAYQBzAHMAZQBzACAAZQBhAGMAaABcAG4AIAAgACAALQAgAEkAZgAgAHQAeQBwAGUAIABpAHMAIABwAHIAbwB2AGkAZABlAGQAOgAgAFQAdwBvAC0AYwBvAGwAdQBtAG4AIAB0AGEAYgBsAGUAIAB3AGkAdABoACAAVABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGQAIABTAHAAYQBuACAAZgBvAHIAIAB0AGgAZQAgAHIAZQBxAHUAZQBzAHQAZQBkACAAYwBsAGEAcwBzAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAdAB5AHAAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AbgBlACAAbwBmACAAewBcACIATwBcACIALABcACIAQgBcACIALABcACIAQQBcACIALABcACIARgBcACIALABcACIARwBcACIALABcACIASwBcACIALABcACIATQBcACIAfQAgAHQAbwAgAGwAaQBtAGkAdAAgAG8AdQB0AHAAdQB0ACAAdABvACAAdABoAGEAdAAgAHMAcABlAGMAdAByAGEAbAAgAGcAcgBvAHUAcABcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVABlAG0AcABlAHIAYQB0AHUAcgBlAHMAIABhAHIAZQAgAGgAaQBnAGgALQBlAG4AZAAgAHYAYQBsAHUAZQBzACAAZgBvAHIAIABlAGEAYwBoACAAcwB1AGIAYwBsAGEAcwBzACAAKAByAGUAYQBsAC0AdwBvAHIAbABkACAAaQBuAHMAcABpAHIAZQBkACwAIABzAG0AbwBvAHQAaABlAGQAIABkAGEAdABhACkALgBcAG4AIAAgACAALQAgAFMAcABhAG4AIABpAHMAIAB0AGgAZQAgAEsAZQBsAHYAaQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABhACAAcwB1AGIAYwBsAGEAcwBzACAAYQBuAGQAIAB0AGgAZQAgAG4AZQB4AHQAIABjAG8AbwBsAGUAcgAgAG8AbgBlAC4AXABuACAAIAAgAC0AIABJAGYAIABuAG8AIAB0AHkAcABlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQALAAgAG8AdQB0AHAAdQB0ACAAaQBzACAAbwByAGcAYQBuAGkAegBlAGQAIABhAHMAIABhACAAdgBpAHMAdQBhAGwAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAYQBiAGwAZQAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAFYAUwBUAEEAQwBLACAAYQBuAGQAIABIAFMAVABBAEMASwAgAGkAbgB0AGUAcgBuAGEAbABsAHkAIABmAG8AcgAgAGMAbABlAGEAbgAgAHMAdAByAHUAYwB0AHUAcgBlADsAIAByAGUAcABsAGEAYwBlAHMAIABwAHIAZQB2AGkAbwB1AHMAIABzAGUAcABhAHIAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AcwAuAFwAbgAgACAAIAAtACAAVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAHMAdQBwAGUAcgBzAGUAZABlAHMAOgAgAEEAUwBUAFIATwBfAEQASQBTAFAATABBAFkAXwBCAEEAUwBFAF8ARABBAFQAQQAsACAAXwBTAEUAUABBAFIAQQBUAEUARAAsACAAYQBuAGQAIABfAEIAWQBfAFQAWQBQAEUALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAoACkAIAAgACAAIAAgACAAIAAgAJIhIABSAGUAdAB1AHIAbgBzACAAZgB1AGwAbAAgAE8AMwATIE0AOQAgAHMAdQBiAGMAbABhAHMAcwAgAGMAaABhAHIAdABcAG4AIAAgACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAoAFwAIgBHAFwAIgApACAAIAAgACAAIACSISAAUgBlAHQAdQByAG4AcwAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgAGEAbgBkACAAcwBwAGEAbgAgAGYAbwByACAARwAwABMgRwA5AFwAbgAgACAAIABBAFMAVABSAE8AXwBEAEkAUwBQAEwAQQBZAF8AUwBQAEUAQwBUAFIAQQBMACgAXAAiAEYAXAAiACkAIAAgACAAIAAgAJIhIABGADAAEyBGADkAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AIABtAGUAdAByAGkAYwBzAFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBEAEkAUwBQAEwAQQBZAF8AUwBQAEUAQwBUAFIAQQBMACAAPQAgAEwAQQBNAEIARABBACgAWwB0AHkAcABlAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABEAGUAZgBpAG4AZQAgAHMAcABlAGMAdAByAGEAbAAgAHQAeQBwAGUAcwAgAGEAbgBkACAAYgB1AGkAbABkACAAaABlAGwAcABlAHIAcwAgAC0ALQAtAFwAbgAgACAAIAAgAFQAeQBwAGUAcwAsACAAewBcACIATwBcACIAOwBcACIAQgBcACIAOwBcACIAQQBcACIAOwBcACIARgBcACIAOwBcACIARwBcACIAOwBcACIASwBcACIAOwBcACIATQBcACIAfQAsAFwAbgAgACAAIAAgAEgAZQBhAGQAZQByAHMALAAgAFQAUgBBAE4AUwBQAE8AUwBFACgAVgBTAFQAQQBDAEsAKABcACIAIABcACIALAAgAFQAeQBwAGUAcwApACkALABcAG4AIAAgACAAIABGAGkAbgBkAEMAbwBsACwAIABNAEEASwBFAEEAUgBSAEEAWQAoAEMATwBVAE4AVABBACgAVAB5AHAAZQBzACkALAAgADIALAAgAEwAQQBNAEIARABBACgAcgAsACAAYwAsACAASQBGACgAYwAgAD0AIAAxACwAIABJAE4ARABFAFgAKABUAHkAcABlAHMALAAgAHIAKQAsACAAcgApACkAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAFIAYQB3ACAAcwB0AGEAcgAgAHMAdQBiAGMAbABhAHMAcwAgAGQAYQB0AGEAIAAtAC0ALQBcAG4AIAAgACAAIABhAHIAcgBUAHkAcABlAHMALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBPAFwAIgA7ACAAXAAiAE8AXAAiADsAIABcACIATwBcACIAOwAgAFwAIgBPADMAXAAiADsAIABcACIATwA0AFwAIgA7ACAAXAAiAE8ANQBcACIAOwAgAFwAIgBPADYAXAAiADsAIABcACIATwA3AFwAIgA7ACAAXAAiAE8AOABcACIAOwAgAFwAIgBPADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBCADAAXAAiADsAIABcACIAQgAxAFwAIgA7ACAAXAAiAEIAMgBcACIAOwAgAFwAIgBCADMAXAAiADsAIABcACIAQgA0AFwAIgA7ACAAXAAiAEIANQBcACIAOwAgAFwAIgBCADYAXAAiADsAIABcACIAQgA3AFwAIgA7ACAAXAAiAEIAOABcACIAOwAgAFwAIgBCADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBBADAAXAAiADsAIABcACIAQQAxAFwAIgA7ACAAXAAiAEEAMgBcACIAOwAgAFwAIgBBADMAXAAiADsAIABcACIAQQA0AFwAIgA7ACAAXAAiAEEANQBcACIAOwAgAFwAIgBBADYAXAAiADsAIABcACIAQQA3AFwAIgA7ACAAXAAiAEEAOABcACIAOwAgAFwAIgBBADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBGADAAXAAiADsAIABcACIARgAxAFwAIgA7ACAAXAAiAEYAMgBcACIAOwAgAFwAIgBGADMAXAAiADsAIABcACIARgA0AFwAIgA7ACAAXAAiAEYANQBcACIAOwAgAFwAIgBGADYAXAAiADsAIABcACIARgA3AFwAIgA7ACAAXAAiAEYAOABcACIAOwAgAFwAIgBGADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBHADAAXAAiADsAIABcACIARwAxAFwAIgA7ACAAXAAiAEcAMgBcACIAOwAgAFwAIgBHADMAXAAiADsAIABcACIARwA0AFwAIgA7ACAAXAAiAEcANQBcACIAOwAgAFwAIgBHADYAXAAiADsAIABcACIARwA3AFwAIgA7ACAAXAAiAEcAOABcACIAOwAgAFwAIgBHADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBLADAAXAAiADsAIABcACIASwAxAFwAIgA7ACAAXAAiAEsAMgBcACIAOwAgAFwAIgBLADMAXAAiADsAIABcACIASwA0AFwAIgA7ACAAXAAiAEsANQBcACIAOwAgAFwAIgBLADYAXAAiADsAIABcACIASwA3AFwAIgA7ACAAXAAiAEsAOABcACIAOwAgAFwAIgBLADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBNADAAXAAiADsAIABcACIATQAxAFwAIgA7ACAAXAAiAE0AMgBcACIAOwAgAFwAIgBNADMAXAAiADsAIABcACIATQA0AFwAIgA7ACAAXAAiAE0ANQBcACIAOwAgAFwAIgBNADYAXAAiADsAIABcACIATQA3AFwAIgA7ACAAXAAiAE0AOABcACIAOwAgAFwAIgBNADkAXAAiAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAAYQByAHIAVABIAGkAZwBoACwAIAB7AFwAbgAgACAAIAAgACAAIABcACIAXAAiADsAIABcACIAXAAiADsAIABcACIAXAAiADsAIAA0ADQAOQAwADAAOwAgADQAMgA5ADAAMAA7ACAANAAxADQAMAAwADsAIAAzADkANQAwADAAOwAgADMANwAxADAAMAA7ACAAMwA1ADEAMAAwADsAIAAzADMAMwAwADAAOwBcAG4AIAAgACAAIAAgACAAMwAxADQAMAAwADsAIAAyADYAMAAwADAAOwAgADIAMAA2ADAAMAA7ACAAMQA3ADAAMAAwADsAIAAxADYANAAwADAAOwAgADEANQA3ADAAMAA7ACAAMQA0ADUAMAAwADsAIAAxADQAMAAwADAAOwAgADEAMgAzADAAMAA7ACAAMQAwADcAMAAwADsAXABuACAAIAAgACAAIAAgADkANwAwADAAOwAgADkAMwAwADAAOwAgADgAOAAwADAAOwAgADgANgAwADAAOwAgADgAMgA1ADAAOwAgADgAMQAwADAAOwAgADcAOQAxADAAOwAgADcANwA2ADAAOwAgADcANQA5ADAAOwAgADcANAAwADAAOwBcAG4AIAAgACAAIAAgACAANwAyADIAMAA7ACAANwAwADIAMAA7ACAANgA4ADIAMAA7ACAANgA3ADUAMAA7ACAANgA2ADcAMAA7ACAANgA1ADUAMAA7ACAANgAzADUAMAA7ACAANgAyADgAMAA7ACAANgAxADgAMAA7AFwAbgAgACAAIAAgACAAIAA2ADAANQAwADsAIAA1ADkAMwAwADsAIAA1ADgANgAwADsAIAA1ADcANwAwADsAIAA1ADcAMgAwADsAIAA1ADYAOAAwADsAIAA1ADYANgAwADsAIAA1ADYAMAAwADsAIAA1ADUANQAwADsAIAA1ADQAOAAwADsAXABuACAAIAAgACAAIAAgADUAMwA4ADAAOwAgADUAMgA3ADAAOwAgADUAMQA3ADAAOwAgADUAMQAwADAAOwAgADQAOAAzADAAOwAgADQANgAwADAAOwAgADQANAA0ADAAOwAgADQAMwAwADAAOwAgADQAMQAwADAAOwAgADMAOQA5ADAAOwBcAG4AIAAgACAAIAAgACAAMwA5ADMAMAA7ACAAMwA4ADUAMAA7ACAAMwA2ADYAMAA7ACAAMwA1ADYAMAA7ACAAMwA0ADMAMAA7ACAAMwAyADEAMAA7ACAAMwAwADYAMAA7ACAAMgA4ADEAMAA7ACAAMgA2ADgAMAA7ACAAMgA1ADcAMAA7ACAAMgAzADgAMABcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAGEAcgByAFMAcABhAG4ALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgADIAMAAwADAAOwAgADEANQAwADAAOwAgADEAOQAwADAAOwAgADIANAAwADAAOwAgADIAMAAwADAAOwAgADEAOAAwADAAOwAgADEAOQAwADAAOwBcAG4AIAAgACAAIAAgACAANQA0ADAAMAA7ACAANQA0ADAAMAA7ACAAMwA2ADAAMAA7ACAANgAwADAAOwAgADcAMAAwADsAIAAxADIAMAAwADsAIAA1ADAAMAA7ACAAMQA3ADAAMAA7ACAAMQA2ADAAMAA7ACAAMQAwADAAMAA7AFwAbgAgACAAIAAgACAAIAA0ADAAMAA7ACAANQAwADAAOwAgADIAMAAwADsAIAAzADUAMAA7ACAAMQA1ADAAOwAgADEAOQAwADsAIAAxADUAMAA7ACAAMQA3ADAAOwAgADEAOQAwADsAIAAxADgAMAA7AFwAbgAgACAAIAAgACAAIAAyADAAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAOAAwADsAIAAxADIAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAMQAwADAAOwAgADEAMwAwADsAXABuACAAIAAgACAAIAAgADEAMgAwADsAIAA3ADAAOwAgADkAMAA7ACAANQAwADsAIAA0ADAAOwAgADIAMAA7ACAANgAwADsAIAA1ADAAOwAgADcAMAA7ACAAMQAwADAAOwBcAG4AIAAgACAAIAAgACAAMQAxADAAOwAgADEAMAAwADsAIAA3ADAAOwAgADIANwAwADsAIAAyADMAMAA7ACAAMQA2ADAAOwAgADEANAAwADsAIAAyADAAMAA7ACAAMQAxADAAOwAgADYAMAA7AFwAbgAgACAAIAAgACAAIAA4ADAAOwAgADEAOQAwADsAIAAxADAAMAA7ACAAMQAzADAAOwAgADIAMgAwADsAIAAxADUAMAA7ACAAMgA1ADAAOwAgADEAMwAwADsAIAAxADEAMAA7ACAAMQA5ADAAOwAgADIAOAAwAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAGYAIABuAG8AIAB0AHkAcABlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQALAAgAGQAaQBzAHAAbABhAHkAIABmAHUAbABsACAAdABhAGIAbABlACAALQAtAC0AXABuACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAAQgBZAFIATwBXACgASABTAFQAQQBDAEsAKABhAHIAcgBUAHkAcABlAHMALAAgAGEAcgByAFQASABpAGcAaAAsACAAYQByAHIAUwBwAGEAbgApACwAXABuACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAcgBvAHcALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIABUAFIAVQBFACwAIABUAEUAWABUACgASQBOAEQARQBYACgAcgBvAHcALAAgADIAKQAsACAAXAAiADAAXAAiACkALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKAByAG8AdwAsACAAMwApACwAIABcACIAMABcACIAKQApACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABOAHUAbQBiAGUAcgBzACwAIABTAEUAUQBVAEUATgBDAEUAKAAxADAALAAxACwAMAAsADEAKQAsAFwAbgAgACAAIAAgAE8AXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBPAFwAIgApACwAXABuACAAIAAgACAAQgBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAEIAXAAiACkALABcAG4AIAAgACAAIABBAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIAQQBcACIAKQAsAFwAbgAgACAAIAAgAEYAXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBGAFwAIgApACwAXABuACAAIAAgACAARwBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAEcAXAAiACkALABcAG4AIAAgACAAIABLAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIASwBcACIAKQAsAFwAbgAgACAAIAAgAE0AXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBNAFwAIgApACwAXABuAFwAbgAgACAAIAAgAGYAdQBsAGwAVABhAGIAbABlACwAIABWAFMAVABBAEMASwAoAEgAZQBhAGQAZQByAHMALAAgAEgAUwBUAEEAQwBLACgATgB1AG0AYgBlAHIAcwAsAE8AXwBTAHQAYQByAHMALAAgAEIAXwBTAHQAYQByAHMALAAgAEEAXwBTAHQAYQByAHMALAAgAEYAXwBTAHQAYQByAHMALAAgAEcAXwBTAHQAYQByAHMALAAgAEsAXwBTAHQAYQByAHMALAAgAE0AXwBTAHQAYQByAHMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAASQBmACAAdAB5AHAAZQAgAGkAcwAgAHMAcABlAGMAaQBmAGkAZQBkACwAIABqAHUAcwB0ACAAcgBlAHQAdQByAG4AIAB0AHcAbwAtAGMAbwBsAHUAbQBuACAAYgByAGUAYQBrAGQAbwB3AG4AIAAtAC0ALQBcAG4AIAAgACAAIAB0AGUAbQBwAHMALAAgAEYASQBMAFQARQBSACgAYQByAHIAVABIAGkAZwBoACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAIAAxACkAIAA9ACAAdAB5AHAAZQApACwAXABuACAAIAAgACAAcwBwAGEAbgBzACwAIABGAEkATABUAEUAUgAoAGEAcgByAFMAcABhAG4ALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAgADEAKQAgAD0AIAB0AHkAcABlACkALABcAG4AIAAgACAAIAB0AHkAcABlAEgAZQBhAGQALAAgAEgAUwBUAEEAQwBLACgAdAB5AHAAZQAsACAAXAAiAHMAcABhAG4AXAAiACkALABcAG4AIAAgACAAIABzAGwAaQBtAFQAYQBiAGwAZQAsACAAVgBTAFQAQQBDAEsAKAB0AHkAcABlAEgAZQBhAGQALAAgAEgAUwBUAEEAQwBLACgAdABlAG0AcABzACwAIABzAHAAYQBuAHMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAARgBpAG4AYQBsACAAbwB1AHQAcAB1AHQAOgAgAGYAdQBsAGwAIAB0AGEAYgBsAGUAIABvAHIAIABmAGkAbAB0AGUAcgBlAGQAIABjAG8AbAB1AG0AbgBzAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAdAB5AHAAZQApACwAIABmAHUAbABsAFQAYQBiAGwAZQAsACAAcwBsAGkAbQBUAGEAYgBsAGUAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFMAVABBAFIAXwBBAFQAVABSAEkAQgBVAFQARQBTAFwAbgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQBsAGwAIABrAGUAeQAgAHMAdABlAGwAbABhAHIAIABwAGEAcgBhAG0AZQB0AGUAcgBzACAAZgByAG8AbQAgAGEAIABzAGkAbgBnAGwAZQAgAGsAbgBvAHcAbgAgAHYAYQBsAHUAZQAgABQgIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAXABuACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAG8AcgAgAGwAaQBmAGUAdABpAG0AZQAgABQgIAB1AHMAaQBuAGcAIABlAG0AcABpAHIAaQBjAGEAbAAgAHAAbwB3AGUAcgAtAGwAYQB3ACAAcwBjAGEAbABpAG4AZwAgAHIAZQBsAGEAdABpAG8AbgBzAGgAaQBwAHMAIABiAGEAcwBlAGQAIABvAG4AIAB0AGgAZQAgAFMAdQBuAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABtAG8AZABlACAAIAAgACAAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAcwB0AHIAaQBuAGcAIABpAG4AZABpAGMAYQB0AGkAbgBnACAAdABoAGUAIABpAG4AcAB1AHQAIABhAHQAdAByAGkAYgB1AHQAZQAgAHQAeQBwAGUAOgBcAG4AIAAgACAAIAAgACAAIABcACIASwBcACIAIAAUICAARQBmAGYAZQBjAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAEsAZQBsAHYAaQBuACkAXABuACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAFCAgAE4AbwByAG0AYQBsAGkAegBlAGQAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAFQAIAAvACAANQA3ADcAMAAgAEsAKQBcAG4AIAAgACAAIAAgACAAIABcACIATQBcACIAIAAUICAATQBhAHMAcwAgACgAcwBvAGwAYQByACAAdQBuAGkAdABzACkAXABuACAAIAAgACAAIAAgACAAXAAiAFIAXAAiACAAFCAgAFIAYQBkAGkAdQBzACAAKABzAG8AbABhAHIAIAB1AG4AaQB0AHMAKQBcAG4AIAAgACAAIAAgACAAIABcACIATABcACIAIAAUICAATAB1AG0AaQBuAG8AcwBpAHQAeQAgACgAcwBvAGwAYQByACAAdQBuAGkAdABzACkAXABuACAAIAAgACAAIAAgACAAXAAiAFYAXAAiACAAFCAgAE0AYQBpAG4ALQBzAGUAcQB1AGUAbgBjAGUAIABsAGkAZgBlAHQAaQBtAGUAIAAoAHMAbwBsAGEAcgAgAHUAbgBpAHQAcwApAFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAIAAgACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAaQBuAHAAdQB0ACAAYQB0AHQAcgBpAGIAdQB0AGUAIAAoAG0AdQBzAHQAIABtAGEAdABjAGgAIAB0AGgAZQAgAG0AbwBkAGUAKQAuAFwAbgAgACAAIAAtACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAG8AdQB0AHAAdQB0ACAAdgBhAGwAdQBlAHMALgAgAEQAZQBmAGEAdQBsAHQAIAA9ACAANgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAdAB3AG8ALQBjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAgAHcAaQB0AGgAIABsAGEAYgBlAGwAZQBkACAAcwB0AGUAbABsAGEAcgAgAHAAYQByAGEAbQBlAHQAZQByAHMAIAAoAEsALAAgAFQALAAgAE0ALAAgAFIALAAgAEwALAAgAFYAKQAsAFwAbgAgACAAIAB3AGkAdABoACAAdABoAGUAIABpAG4AcAB1AHQAIABhAHQAdAByAGkAYgB1AHQAZQAgAGYAbABhAGcAZwBlAGQAIAB3AGkAdABoACAAYQAgAJQnIABhAHIAcgBvAHcAIABmAG8AcgAgAGMAbABhAHIAaQB0AHkALgBcAG4AXABuACAAIAAgAE0AZQB0AGgAbwBkADoAXABuACAAIAAgAFQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAbgBvAHIAbQBhAGwAaQB6AGUAcwAgAHQAaABlACAAaQBuAHAAdQB0ACAAdgBhAGwAdQBlACAAdABvACAAYQAgAHMAbwBsAGEAcgAtAHIAZQBsAGEAdABpAHYAZQAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgACgAYABUAG4AbwByAG0AYAApAFwAbgAgACAAIABhAG4AZAAgAGQAZQByAGkAdgBlAHMAIAB0AGgAZQAgAHIAZQBtAGEAaQBuAGkAbgBnACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAGYAcgBvAG0AIABlAG0AcABpAHIAaQBjAGEAbAAgAGUAeABwAG8AbgBlAG4AdABzADoAXABuAFwAbgAgACAAIAAtACAASwAgAD0AIABUAG4AbwByAG0AIADXACAANQA3ADcAMABcAG4AIAAgACAALQAgAE0AIAA9ACAAVABuAG8AcgBtALIAXABuACAAIAAgAC0AIABSACAAPQAgAFQAbgBvAHIAbQBeADEALgA4AFwAbgAgACAAIAAtACAATAAgAD0AIABUAG4AbwByAG0AXgA3AC4ANgBcAG4AIAAgACAALQAgAFYAIAA9ACAAVABuAG8AcgBtAF4AKAAtADUAKQBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUwBUAEEAUgBfAEEAVABUAFIASQBCAFUAVABFAFMAKABcACIASwBcACIALAAgADkAMQA3ADAALgA2ADAANQAyACwAIAAzACkAXABuAFwAbgAgACAAIABPAHUAdABwAHUAdAA6AFwAbgAgACAAIAAgACAASwAgAJQnIAAgACAAOQAxADcAMAAuADYAMAA1AFwAbgAgACAAIAAgACAAVAAgACAAIAAgACAAMQAuADUAOAA4AFwAbgAgACAAIAAgACAATQAgACAAIAAgACAAMgAuADUAMgAzAFwAbgAgACAAIAAgACAAUgAgACAAIAAgACAAMgAuADIAOQA2AFwAbgAgACAAIAAgACAATAAgACAAIAAgACAAMwAzAC4AMAAwADYAXABuACAAIAAgACAAIABWACAAIAAgACAAIAAwAC4AMQAwADEAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEIAYQBzAGUAZAAgAG8AbgAgAHMAaQBtAHAAbABpAGYAaQBlAGQAIABzAHQAZQBsAGwAYQByACAAcwBjAGEAbABpAG4AZwAgAGwAYQB3AHMAIAB1AHMAZQBkACAAaQBuACAAYQBzAHQAcgBvAHAAaAB5AHMAaQBjAHMAIABhAG4AZAAgAHcAbwByAGwAZABiAHUAaQBsAGQAaQBuAGcALgBcAG4AIAAgACAALQAgAEUAZgBmAGUAYwB0AGkAdgBlACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAaQBzACAAcwBjAGEAbABlAGQAIAB0AG8AIAA1ADcANwAwACAASwAgAGYAbwByACAAdABoAGUAIABTAHUAbgAgACgAcwB0AGEAbgBkAGEAcgBkACAAcwBvAGwAYQByACAAcgBlAGYAZQByAGUAbgBjAGUAKQAuAFwAbgAgACAAIAAtACAATABpAGYAZQB0AGkAbQBlACAAaQBzACAAYQBwAHAAcgBvAHgAaQBtAGEAdABlAGQAIABhAHMAIABhACAAcABvAHcAZQByACAAaQBuAHYAZQByAHMAZQAgAG8AZgAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQA6ACAAVgAgAB0iIABUAHsgdSAuAFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIABlAGQAdQBjAGEAdABpAG8AbgBhAGwALAAgAHMAcABlAGMAdQBsAGEAdABpAHYAZQAsACAAYQBuAGQAIABtAG8AZABlAGwAaQBuAGcAIABwAHUAcgBwAG8AcwBlAHMALgBcAG4AXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAFMAVABBAFIAXwBBAFQAVABSAEkAQgBVAFQARQBTACAAPQAgAEwAQQBNAEIARABBACgAbQBvAGQAZQAsACAAaQBuAHAAdQB0ACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAAUwBlAHQAIABkAGUAZgBhAHUAbAB0ACAAcgBvAHUAbgBkAGkAbgBnACAAcAByAGUAYwBpAHMAaQBvAG4AXABuACAAIAAgACAAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAHUAcABwAGUAcgAtAGMAYQBzAGUAIABmAG8AcgAgAGMAbwBuAHMAaQBzAHQAZQBuAGMAeQBcAG4AIAAgACAAIABtAG8AZABlACwAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AXABuACAAIAAgACAALwAvACAATgBvAHIAbQBhAGwAaQB6AGUAIABpAG4AcAB1AHQAIAB0AG8AIABzAG8AbABhAHIALQByAGUAbABhAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAFQAbgBvAHIAbQApAFwAbgAgACAAIAAgAFQAbgBvAHIAbQAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcACIAVABcACIALAAgAGkAbgBwAHUAdAAsAFwAbgAgACAAIAAgACAAIABcACIASwBcACIALAAgAGkAbgBwAHUAdAAgAC8AIAA1ADcANwAwACwAXABuACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAAUwBRAFIAVAAoAGkAbgBwAHUAdAApACwAXABuACAAIAAgACAAIAAgAFwAIgBSAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgAMQAgAC8AIAAxAC4AOAApACwAXABuACAAIAAgACAAIAAgAFwAIgBMAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgAMQAgAC8AIAA3AC4ANgApACwAXABuACAAIAAgACAAIAAgAFwAIgBWAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgALQAxACAALwAgADUAKQAsAFwAbgAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAATgBvAHcAIABkAGUAcgBpAHYAZQAgAGEAbABsACAAbwB0AGgAZQByACAAYQB0AHQAcgBpAGIAdQB0AGUAcwAgAGYAcgBvAG0AIABUAG4AbwByAG0AXABuACAAIAAgACAASwAsACAAVABuAG8AcgBtACAAKgAgADUANwA3ADAALABcAG4AIAAgACAAIABNACwAIABUAG4AbwByAG0AIABeACAAMgAsAFwAbgAgACAAIAAgAFIALAAgAFQAbgBvAHIAbQAgAF4AIAAxAC4AOAAsAFwAbgAgACAAIAAgAEwALAAgAFQAbgBvAHIAbQAgAF4AIAA3AC4ANgAsAFwAbgAgACAAIAAgAFYALAAgAFQAbgBvAHIAbQAgAF4AIAAtADUALABcAG4AXABuACAAIAAgACAALwAvACAAUgBvAHUAbgBkACAAZQB2AGUAcgB5AHQAaABpAG4AZwAgAGEAbgBkACAAZgBvAHIAbQBhAHQAIABhAHMAIABzAHQAcgBpAG4AZwBzAFwAbgAgACAAIAAgAGwAYQBiAGUAbABzACwAIABUAFIAQQBOAFMAUABPAFMARQAoAHsAXAAiAEsAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAFIAXAAiACwAIABcACIATABcACIALAAgAFwAIgBWAFwAIgB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AF8AdgBhAGwAdQBlAHMALAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABLACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAFQAbgBvAHIAbQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABNACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAFIALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgATAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABWACwAIABwAHIAZQBjACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAATABhAGIAZQBsAHMAIAB3AGkAdABoACAAYQByAHIAbwB3ACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQAgAC0ALQAtAFwAbgAgACAAIAAgACAAIAAgACAAZgBsAGEAZwBnAGUAZABfAGwAYQBiAGUAbABzACwAIABCAFkAUgBPAFcAKABsAGEAYgBlAGwAcwAsACAATABBAE0AQgBEAEEAKAByAG8AdwAsACAASQBGACgAcgBvAHcAIAA9ACAAbQBvAGQAZQAsACAAcgBvAHcAIAAmACAAXAAiACAAlCdcACIALAAgAHIAbwB3ACkAKQApACwAXABuAFwAbgBcAG4AIAAgACAAIAAvAC8AIABSAGUAdAB1AHIAbgAgAGwAYQBiAGUAbABlAGQAIAB0AGEAYgBsAGUAXABuACAAIAAgACAAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIAfQAsACAAZgBsAGEAZwBnAGUAZABfAGwAYQBiAGUAbABzACwAIABvAHUAdABwAHUAdABfAHYAYQBsAHUAZQBzACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUgBlAHQAdQByAG4AcwAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAgAGQAYQB0AGEAIABiAGEAcwBlAGQAIABvAG4AIABzAHQAZQBsAGwAYQByACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAuAFwAbgBcAG4AIAAgACAATQBvAGQAZQBzADoAXABuACAAIAAgAC0AIABcACIAVABBAEIATABFAFwAIgAgACAAIAAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAGYAdQBsAGwAIAB0AGEAYgBsAGUAIABvAGYAIABpAG4AbgBlAHIALwBvAHUAdABlAHIALwBhAHYAZwAvAHMAcABhAG4AIABkAGkAcwB0AGEAbgBjAGUAcwAgAGYAbwByACAAegBvAG4AZQBzACAAWgAwABMgWgA1AC4AXABuACAAIAAgAC0AIABcACIAVgBFAFIAVABJAEMAQQBMAFwAIgAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAHYAZQByAHQAaQBjAGEAbAAgAGwAaQBzAHQAIABvAGYAIABzAGMAYQBsAGUAZAAgAGQAaQBzAHQAYQBuAGMAZQBzACwAIAB3AGkAdABoACAATgAtAD4AIABtAGEAcgBrAGkAbgBnACAAdABoAGUAIABuAHUAYwBsAGUAYQBsACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAALQAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAGgAbwByAGkAegBvAG4AdABhAGwAIAByAG8AdwAgAG8AZgAgAHQAaABlACAAcwBhAG0AZQAgAHYAYQBsAHUAZQBzACAAZgBvAHIAIAB1AHMAZQAgAGkAbgAgAGkAbgBsAGkAbgBlACAAZABpAHMAcABsAGEAeQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAE8AbgBlACAAbwBmACAAXAAiAFQAQQBCAEwARQBcACIALAAgAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIABvAHIAIABcACIASABPAFIASQBaAE8ATgBUAEEATABcACIALgBcAG4AIAAgACAALQAgAGwAdQBtACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAUwB0AGUAbABsAGEAcgAgAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABpAG4AIABzAG8AbABhAHIAIAB1AG4AaQB0AHMALgAgAFIAZQBxAHUAaQByAGUAZAAgAGYAbwByACAAVgBFAFIAVABJAEMAQQBMACAAYQBuAGQAIABIAE8AUgBJAFoATwBOAFQAQQBMAC4AXABuACAAIAAgAC0AIABwAHIAZQBjAGkAcwBpAG8AbgAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADMAKQBcAG4AXABuACAAIAAgAFoAbwBuAGUAcwAgACgAWgAwABMgWgA1ACkAIAByAGUAcAByAGUAcwBlAG4AdAAgAG4AZQBzAHQAZQBkACAAYwBpAHIAYwB1AG0AcwB0AGUAbABsAGEAcgAgAGgAYQBiAGkAdABhAGIAaQBsAGkAdAB5ACAAYgBhAG4AZABzADoAXABuACAAIAAgAC0AIABaADAAOgAgACgAdABvAG8AIABoAG8AdAApAFwAbgAgACAAIAAtACAAWgAxADoAIAAoAGkAbgBuAGUAcgAgAGUAZABnAGUAKQBcAG4AIAAgACAALQAgAFoAMgA6ACAAKABpAG4AbgBlAHIAIAB0AGUAbQBwAGUAcgBhAHQAZQApAFwAbgAgACAAIAAtACAAWgAzADoAIAAoAG8AdQB0AGUAcgAgAHQAZQBtAHAAZQByAGEAdABlACkAXABuACAAIAAgAC0AIABaADQAOgAgACgAbwB1AHQAZQByACAAZQBkAGcAZQApAFwAbgAgACAAIAAtACAAWgA1ADoAIAAoAHQAbwBvACAAYwBvAGwAZAApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQAgAHUAcwBhAGcAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAoAFwAIgBUAEEAQgBMAEUAXAAiACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgAFIAZQB0AHUAcgBuAHMAIABiAGEAcwBlACAAcgBlAGYAZQByAGUAbgBjAGUAIABjAGgAYQByAHQAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAFYARQBSAFQASQBDAEEATABcACIALAAgADEALgAyADUAKQAgACAAIACSISAAUgBlAHQAdQByAG4AcwAgAHYAZQByAHQAaQBjAGEAbAAgAGQAaQBzAHQAYQBuAGMAZQBzACAAcwBjAGEAbABlAGQAIAB0AG8AIABzAHQAYQByACAAdwBpAHQAaAAgAEwAIAA9ACAAMQAuADIANQBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAKABcACIASABPAFIASQBaAE8ATgBUAEEATABcACIALAAgADEALgAyADUAKQAgAJIhIABSAGUAdAB1AHIAbgBzACAAcwBhAG0AZQAgAGEAcwAgAHIAbwB3AFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABOAHUAYwBsAGUAYQBsACAAcgBhAGQAaQB1AHMAIABpAHMAIABzAHEAcgB0ACgATAApACAAYQBuAGQAIAB1AHMAZQBkACAAYQBzACAAYQBuAGMAaABvAHIAIABiAGUAdAB3AGUAZQBuACAAWgAyABMgWgAzAC4AXABuACAAIAAgAC0AIABJAG4AcAB1AHQAIABpAHMAIABpAGcAbgBvAHIAZQBkACAAZgBvAHIAIABtAG8AZABlACAAXAAiAFQAQQBCAEwARQBcACIALgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAG8AZABlACwAIABbAGwAdQBtAF0ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AXABuACAAIAAgACAALwAvACAAWgBvAG4AZQAgAGMAbwBlAGYAZgBpAGMAaQBlAG4AdABzAFwAbgAgACAAIAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAWgAwAFwAIgA7ACAAXAAiAFoAMQBcACIAOwAgAFwAIgBaADIAXAAiADsAIABcACIAWgAzAFwAIgA7ACAAXAAiAFoANABcACIAOwAgAFwAIgBaADUAXAAiAH0ALABcAG4AIAAgACAAIABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAB7ADAAOwAgADAALgA1ADsAIAAwAC4ANwA1ADsAIAAwAC4AOQA1ADsAIAAxAC4AMwA4ADUAOwAgADEALgA3ADcAfQAsAFwAbgAgACAAIAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAHsAMAAuADUAOwAgADAALgA3ADUAOwAgADAALgA5ADUAOwAgADEALgAzADgANQA7ACAAMQAuADcANwA7ACAANAAuADgANQB9ACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFAAcgBlAGMAbwBtAHAAdQB0AGUAIABhAHYAZQByAGEAZwBlACAAYQBuAGQAIABzAHAAYQBuAFwAbgAgACAAIAAgAGEAdgBnAF8AZgBhAGMAdABvAHIAcwAsACAAKABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACAAKwAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMAKQAgAC8AIAAyACwAXABuACAAIAAgACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMAIAAtACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABOAHUAYwBsAGUAYQBsACAAKABmAG8AcgAgAHMAYwBhAGwAaQBuAGcAKQBcAG4AIAAgACAAIABuAHUAYwBsAGUAYQBsACwAIABTAFEAUgBUACgASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABsAHUAbQApACwAIAAxACwAIABsAHUAbQApACkALABcAG4AXABuACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAHMAYwBhAGwAZQBkACAAZABpAHMAdABhAG4AYwBlAHMAXABuACAAIAAgACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAbwB1AHQAZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAYQB2AGcAXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAgACoAIABhAHYAZwBfAGYAYQBjAHQAbwByAHMALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHMAcABhAG4AXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAgACoAIABzAHAAYQBuAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEYAbwByAG0AYQB0AHQAZQBkACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAdgBlAHIAdABpAGMAYQBsAF8AbABhAGIAZQBsAHMALAAgAHsAXAAiADAAOgAgAFwAIgAsACAAXAAiADEAOgAgAFwAIgAsACAAXAAiADIAOgAgAFwAIgAsACAAXAAiAE4AIACUJ1wAIgAsACAAXAAiADMAOgAgAFwAIgAsACAAXAAiADQAOgAgAFwAIgAsACAAXAAiADUAOgAgAFwAIgB9ACwAXABuACAAIAAgACAAdgBlAHIAdABpAGMAYQBsAF8AdgBhAGwAdQBlAHMALAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMgApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAFIATwBVAE4ARAAoAEkATgBEAEUAWAAoAGkAbgBuAGUAcgBfAGYAYQBjAHQAbwByAHMALAAgADMAKQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA0ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAANAApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAFIATwBVAE4ARAAoAEkATgBEAEUAWAAoAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgADUAKQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA2ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAAUgBlAHQAdQByAG4AIABsAG8AZwBpAGMAXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBTAFQAQQBOAEQAQQBSAEQAXAAiACwAIABDAEgATwBPAFMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgAHsAMQAsACAAMgAsACAAMwAsACAANAAsACAANQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAWgBvAG4AZQBcACIALAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIASQBuAG4AZQByAFwAIgAsACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIATwB1AHQAZQByAFwAIgAsACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAQQB2AGUAcgBhAGcAZQBcACIALAAgAGEAdgBnAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAUwBwAGEAbgBcACIALAAgAHMAcABhAG4AXwBmAGEAYwB0AG8AcgBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAVgBFAFIAVABJAEMAQQBMAFwAIgAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABhAGIAZQBsAHMALAAgAHsAXAAiADAAOgBcACIALAAgAFwAIgAxADoAXAAiACwAIABcACIAMgA6AFwAIgAsACAAXAAiAE4AIACUJ1wAIgAsACAAXAAiADMAOgBcACIALAAgAFwAIgA0ADoAXAAiACwAIABcACIANQA6AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAYwBhAGwAZQBkAF8AdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAewAwAC4ANQAsACAAMAAuADcANQAsACAAMAAuADkANQAsACAAMQAsACAAMQAuADMAOAA1ACwAIAAxAC4ANwA3ACwAIAA0AC4AOAA1AH0ALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAQQBOAFMAUABPAFMARQAoAFYAUwBUAEEAQwBLACgAbABhAGIAZQBsAHMALAAgAHMAYwBhAGwAZQBkAF8AdgBhAGwAdQBlAHMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAEgATwBSAEkAWgBPAE4AVABBAEwAXAAiACwAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMgApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMwApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAANAApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA0ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA1ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA2ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAEkAbgB2AGEAbABpAGQAIABtAG8AZABlAFwAIgBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAE4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUAByAG8AdgBpAGQAZQBzACAAaQBuAGYAbwByAG0AYQB0AGkAbwBuACAAYQBiAG8AdQB0ACAAcwB0AGUAbABsAGEAcgAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQBzACAAYQBjAHIAbwBzAHMAIABtAHUAbAB0AGkAcABsAGUAIABkAGkAcwBwAGwAYQB5ACAAbQBvAGQAZQBzADoAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC0AIABTAFQAQQBOAEQAQQBSAEQAOgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZgBpAHgAZQBkACAAdABhAGIAbABlACAAbwBmACAAaQBuAG4AZQByAC8AbwB1AHQAZQByACAAYgBvAHUAbgBkAHMAIABmAG8AcgAgAFoAMAATIFoANQAgAHoAbwBuAGUAcwAgAGkAbgAgAEEAVQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAgAFQAQQBCAEwARQA6ACAAUwBjAGEAbABlAHMAIAB0AGgAZQAgAFMAVABBAE4ARABBAFIARAAgAHoAbwBuAGUAcwAgAGIAYQBzAGUAZAAgAG8AbgAgAHMAdABlAGwAbABhAHIAIABsAHUAbQBpAG4AbwBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAtACAAVgBFAFIAVABJAEMAQQBMADoAIABSAGUAdAB1AHIAbgBzACAAYQAgAHYAZQByAHQAaQBjAGEAbAAgAGwAaQBzAHQAIABvAGYAIAB6AG8AbgBlACAAbABhAGIAZQBsAHMAIABhAG4AZAAgAGQAaQBzAHQAYQBuAGMAZQBzACAAYgBhAHMAZQBkACAAbwBuACAAbAB1AG0AaQBuAG8AcwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAgAEgATwBSAEkAWgBPAE4AVABBAEwAOgAgAFIAZQB0AHUAcgBuAHMAIABhACAAcwBpAG4AZwBsAGUALQByAG8AdwAgAHMAdQBtAG0AYQByAHkAIABvAGYAIABzAGMAYQBsAGUAZAAgAGQAaQBzAHQAYQBuAGMAZQBzAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFwAIgBTAFQAQQBOAEQAQQBSAEQAXAAiACwAIABcACIAVABBAEIATABFAFwAIgAsACAAXAAiAFYARQBSAFQASQBDAEEATABcACIALAAgAG8AcgAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgBcAG4AIAAgACAALQAgAGwAdQBtACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAUwB0AGUAbABsAGEAcgAgAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABpAG4AIABzAG8AbABhAHIAIAB1AG4AaQB0AHMAIAAoAG8AbgBsAHkAIAByAGUAcQB1AGkAcgBlAGQAIABmAG8AcgAgAFQAQQBCAEwARQAsACAAVgBFAFIAVABJAEMAQQBMACwAIABvAHIAIABIAE8AUgBJAFoATwBOAFQAQQBMACAAbQBvAGQAZQBzACkAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIAByAG8AdQBuAGQAIABkAGkAcwB0AGEAbgBjAGUAcwAgAHQAbwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAFMAVABBAE4ARABBAFIARABcACIAKQBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAKABcACIAVABBAEIATABFAFwAIgAsACAAMwApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAoAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIAAzACkAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAEgATwBSAEkAWgBPAE4AVABBAEwAXAAiACwAIAAzACkAXABuACoALwBcAG4AXABuAE4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAG8AZABlACwAIABbAGwAdQBtAF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAARABlAGYAYQB1AGwAdABzACAALQAtAC0AXABuACAAIAAgACAAZABlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABMACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGwAdQBtACkALAAgADEALAAgAGwAdQBtACkALABcAG4AIAAgACAAIABuAHUAYwAsACAAUwBRAFIAVAAoAEwAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAFoAbwBuAGUAIABiAGEAcwBlACAAZABhAHQAYQAgAC0ALQAtAFwAbgAgACAAIAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAWgAwAFwAIgAsACAAXAAiAFoAMQBcACIALAAgAFwAIgBaADIAXAAiACwAIABcACIAWgAzAFwAIgAsACAAXAAiAFoANABcACIALAAgAFwAIgBaADUAXAAiAH0ALABcAG4AIAAgACAAIABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAB7ADAALAAgADAALgA1ACwAIAAwAC4ANwA1ACwAIAAwAC4AOQA1ACwAIAAxAC4AMwA4ADUALAAgADEALgA3ADcAfQAsAFwAbgAgACAAIAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAHsAMAAuADUALAAgADAALgA3ADUALAAgADAALgA5ADUALAAgADEALgAzADgANQAsACAAMQAuADcANwAsACAANAAuADgANQB9ACwAXABuACAAIAAgACAAYQB2AGcAXwBmAGEAYwB0AG8AcgBzACwAIAAgACAAewAwAC4AMgA1ACwAIAAwAC4ANgAyADUALAAgADAALgA4ADUALAAgADEALgAxADYANwA1ACwAIAAxAC4ANQA3ADcANQAsACAAMwAuADMAMQB9ACwAXABuACAAIAAgACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgACAAewAwAC4ANQAsACAAMAAuADIANQAsACAAMAAuADIALAAgADAALgA0ADMANQAsACAAMAAuADMAOAA1ACwAIAAzAC4AMAA4AH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABTAGMAYQBsAGUAZAAgAHYAYQBsAHUAZQBzACAALQAtAC0AXABuACAAIAAgACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjACAAKgAgAGkAbgBuAGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIABvAHUAdABlAHIAXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAIAAqACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgAGEAdgBnAF8AcwBjAGEAbABlAGQALAAgACAAIABSAE8AVQBOAEQAKABuAHUAYwAgACoAIABhAHYAZwBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIABzAHAAYQBuAF8AcwBjAGEAbABlAGQALAAgACAAUgBPAFUATgBEACgAbgB1AGMAIAAqACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABUAGEAYgBsAGUAOgAgAFMAVABBAE4ARABBAFIARAAgAGEAbgBkACAAVABBAEIATABFACAAbQBvAGQAZQBzACAALQAtAC0AXABuACAAIAAgACAAcgBvAHcAXwAxACwAIABWAFMAVABBAEMASwAoAFwAIgBaAG8AbgBlAFwAIgAsACAAegBvAG4AZQBfAGwAYQBiAGUAbABzACkALABcAG4AIAAgACAAIAByAG8AdwBfADIALAAgAFYAUwBUAEEAQwBLACgAXAAiAEkAbgBuAGUAcgBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQAKQApACwAXABuACAAIAAgACAAcgBvAHcAXwAzACwAIABWAFMAVABBAEMASwAoAFwAIgBPAHUAdABlAHIAXAAiACwAIABJAEYAKABtAG8AZABlAD0AXAAiAFMAVABBAE4ARABBAFIARABcACIALAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAG8AdQB0AGUAcgBfAHMAYwBhAGwAZQBkACkAKQAsAFwAbgAgACAAIAAgAHIAbwB3AF8ANAAsACAAVgBTAFQAQQBDAEsAKABcACIAQQB2AGUAcgBhAGcAZQBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAYQB2AGcAXwBmAGEAYwB0AG8AcgBzACwAIABhAHYAZwBfAHMAYwBhAGwAZQBkACkAKQAsAFwAbgAgACAAIAAgAHIAbwB3AF8ANQAsACAAVgBTAFQAQQBDAEsAKABcACIAUwBwAGEAbgBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAHMAcABhAG4AXwBzAGMAYQBsAGUAZAApACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABWAGUAcgB0AGkAYwBhAGwAIABtAG8AZABlACAAbwB1AHQAcAB1AHQAIAAtAC0ALQBcAG4AIAAgACAAIAB2AGUAcgB0AGkAYwBhAGwAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAMAA6AFwAIgAsACAAXAAiADEAOgBcACIALAAgAFwAIgAyADoAXAAiACwAIABcACIATgAgAJQnXAAiACwAIABcACIAMwA6AFwAIgAsACAAXAAiADQAOgBcACIALAAgAFwAIgA1ADoAXAAiAH0ALABcAG4AIAAgACAAIAB2AGUAcgB0AGkAYwBhAGwAXwB2AGEAbAB1AGUAcwAsACAAUgBPAFUATgBEACgAewAwAC4ANQAsACAAMAAuADcANQAsACAAMAAuADkANQAsACAAMQAsACAAMQAuADMAOAA1ACwAIAAxAC4ANwA3ACwAIAA0AC4AOAA1AH0AIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAG8AcgBpAHoAbwBuAHQAYQBsACAAbQBvAGQAZQAgAG8AdQB0AHAAdQB0ACAALQAtAC0AXABuACAAIAAgACAAaABvAHIAaQB6AG8AbgB0AGEAbABfAHYAYQBsAHUAZQBzACwAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAwAC4ANQAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAwAC4ANwA1ACAAKgAgAG4AdQBjACwAIABkAGUAYwApACwAXABuACAAIAAgACAAIAAgAFIATwBVAE4ARAAoADAALgA5ADUAIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAUgBPAFUATgBEACgAMQAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAxAC4AMwA4ADUAIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAUgBPAFUATgBEACgAMQAuADcANwAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAA0AC4AOAA1ACAAKgAgAG4AdQBjACwAIABkAGUAYwApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABGAGkAbgBhAGwAIABvAHUAdABwAHUAdAAgAGIAYQBzAGUAZAAgAG8AbgAgAG0AbwBkAGUAIAAtAC0ALQBcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAXAAiAFMAVABBAE4ARABBAFIARABcACIALAAgAEgAUwBUAEEAQwBLACgAcgBvAHcAXwAxACwAIAByAG8AdwBfADIALAAgAHIAbwB3AF8AMwAsACAAcgBvAHcAXwA0ACwAIAByAG8AdwBfADUAKQAsAFwAbgAgACAAIAAgACAAIABcACIAVABBAEIATABFAFwAIgAsACAAIAAgACAASABTAFQAQQBDAEsAKAByAG8AdwBfADEALAAgAHIAbwB3AF8AMgAsACAAcgBvAHcAXwAzACwAIAByAG8AdwBfADQALAAgAHIAbwB3AF8ANQApACwAXABuACAAIAAgACAAIAAgAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIABIAFMAVABBAEMASwAoAHYAZQByAHQAaQBjAGEAbABfAGwAYQBiAGUAbABzACwAIAB2AGUAcgB0AGkAYwBhAGwAXwB2AGEAbAB1AGUAcwApACwAXABuACAAIAAgACAAIAAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgAsACAAaABvAHIAaQB6AG8AbgB0AGEAbABfAHYAYQBsAHUAZQBzACwAXABuACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAbQBvAGQAZQBcACIAXABuACAAIAAgACAAKQBcAG4AIAAgACkAXABuACkAXABuADsAXABuAFwAbgAvACoAIABBAFMAVABSAE8AXwBTAFQAQQBSAF8ARABFAE4AUwBJAFQAWQBfAFYATwBMAFUATQBFAFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABHAGkAdgBlAG4AIABhACAAcwBwAGgAZQByAGkAYwBhAGwAIAB2AG8AbAB1AG0AZQAgACgAbwByACAAcgBhAGQAaQB1AHMAKQAsACAAYwBhAGwAYwB1AGwAYQB0AGUAIABoAG8AdwAgAG0AYQBuAHkAIABzAHQAYQByAHMAIABmAGkAdAAgAGEAdAAgADEAIABzAHQAYQByACAAcABlAHIAIAAyADUAMAAgAGMAdQBiAGkAYwAgAGwAaQBnAGgAdAAtAHkAZQBhAHIAcwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAARQBpAHQAaABlAHIAIABhACAAcwBwAGgAZQByAGkAYwBhAGwAIAByAGEAZABpAHUAcwAgAG8AcgAgAGEAIAB2AG8AbAB1AG0AZQAsACAAZABlAHAAZQBuAGQAaQBuAGcAIABvAG4AIABtAG8AZABlAC4AXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAZgBvAHIAIABvAHUAdABwAHUAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADMAKQAuAFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAFwAbgAgACAAIAAgACAAIAAgADAAIAA9ACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAHYAbwBsAHUAbQBlACAAaQBuACAAYwB1AGIAaQBjACAAbABpAGcAaAB0AC0AeQBlAGEAcgBzACAAKABkAGUAZgBhAHUAbAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAxACAAPQAgAGkAbgBwAHUAdAAgAGkAcwAgAGEAIAByAGEAZABpAHUAcwAgAGkAbgAgAGwAaQBnAGgAdAAtAHkAZQBhAHIAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAQQAgAHYAZQByAHQAaQBjAGEAbAAgAGEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABlAGkAdABoAGUAcgA6AFwAbgAgACAAIAAgACAAIAAgACIgIABbAG4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzADsAIAByAGEAZABpAHUAcwBdACAAaQBmACAAbQBvAGQAZQAgAD0AIAAwAFwAbgAgACAAIAAgACAAIAAgACIgIABbAG4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzADsAIAB2AG8AbAB1AG0AZQBdACAAaQBmACAAbQBvAGQAZQAgAD0AIAAxAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBTAFQAQQBSAF8ARABFAE4AUwBJAFQAWQBfAFYATwBMAFUATQBFACgAMQAwADAAMAApACAAIAAgACAAIAAgACAAIAAgACAAkiEgAHsANAAuADAAMAAwADsAIAA2AC4AMgAwADMAfQBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUwBUAEEAUgBfAEQARQBOAFMASQBUAFkAXwBWAE8ATABVAE0ARQAoADUALAAgADIALAAgADEAKQAgACAAIAAgACAAIAAgAJIhIAB7ADIALgA2ADIAOwAgADUAMgAzAC4ANgAwAH0AXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAFMAVABBAFIAXwBEAEUATgBTAEkAVABZAF8AVgBPAEwAVQBNAEUAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALAAgAFsAcAByAGUAYwBdACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAgACsAIAAoAG0AbwBkAGUAIAA8ACAAMAApACAAKwAgACgAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACAAKwAgACgAcAByAGUAYwAgADwAIAAwACkALAAgADMALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAB2AG8AbAB1AG0AZQAsACAASQBGACgAbQBvAGQAZQAgAD0AIAAwACwAIABpAG4AcAB1AHQALAAgACgANAAvADMAKQAgACoAIABQAEkAKAApACAAKgAgAGkAbgBwAHUAdAAgAF4AIAAzACkALABcAG4AIAAgACAAIAByAGEAZABpAHUAcwAsACAASQBGACgAbQBvAGQAZQAgAD0AIAAxACwAIABpAG4AcAB1AHQALAAgAFIATwBVAE4ARAAoACgAKAAzACAAKgAgAHYAbwBsAHUAbQBlACkAIAAvACAAKAA0ACAAKgAgAFAASQAoACkAKQApACAAXgAgACgAMQAvADMAKQAsACAAcAByAGUAYwApACkALABcAG4AIAAgACAAIABzAHQAYQByAHMALAAgAFIATwBVAE4ARAAoAHYAbwBsAHUAbQBlACAALwAgADIANQAwACwAIABwAHIAZQBjACkALABcAG4AXABuACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFMAVwBJAFQAQwBIACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAwACwAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIAAsACAAXAAiAFMAdABhAHIAcwA6ACAAXAAiACYAcwB0AGEAcgBzACwAIABcACIAUgBhAGQAaQB1AHMAOgAgAFwAIgAmAHIAYQBkAGkAdQBzACkALAAgAFwAIgA7ACAAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAxACwAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIAAsACAAXAAiAFMAdABhAHIAcwA6ACAAXAAiACYAcwB0AGEAcgBzACwAIABcACIAVgBvAGwAdQBtAGUAOgAgAFwAIgAmAHYAbwBsAHUAbQBlACkALAAgAFwAIgA7ACAAXAAiACkAKQBcAG4AIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8AUwBBAEYARQBUAFkAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgAgAEMAYQBsAGMAdQBsAGEAdABlAHMAIABwAGwAYQBuAGUAdABhAHIAeQAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABzAHUAcgBmAGEAYwBlACAAZwByAGEAdgBpAHQAeQAsACAAYQBuAGQAIABlAHMAYwBhAHAAZQAgAHYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgByAG8AbQAgAGEAbgB5ACAAdgBhAGwAaQBkACAAcABhAGkAcgAgAG8AZgAgAHQAdwBvACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAcwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIAB0AGgAZQAgAGsAbgBvAHcAbgAgAGkAbgBwAHUAdAAgAHAAYQBpAHIALgAgAEEAYwBjAGUAcAB0AGEAYgBsAGUAIAB2AGEAbAB1AGUAcwA6AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAGQAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARABlAG4AcwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAbQByAFwAIgAgAD0AIABNAGEAcwBzACAAKwAgAFIAYQBkAGkAdQBzAFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAcgBkAFwAIgAgAD0AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAGcAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGQAZwBcACIAIAA9ACAARABlAG4AcwBpAHQAeQAgACsAIABHAHIAYQB2AGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBkAHYAXAAiACAAPQAgAEQAZQBuAHMAaQB0AHkAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGcAdgBcACIAIAA9ACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAbQB2AFwAIgAgAD0AIABNAGEAcwBzACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAHYAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAZgBpAHIAcwB0ACAAbgB1AG0AZQByAGkAYwAgAGkAbgBwAHUAdAAsACAAbQBlAGEAbgBpAG4AZwAgAGQAZQBwAGUAbgBkAHMAIABvAG4AIABtAG8AZABlAFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAcwBlAGMAbwBuAGQAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0ACwAIABtAGUAYQBuAGkAbgBnACAAZABlAHAAZQBuAGQAcwAgAG8AbgAgAG0AbwBkAGUAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAZgBvAHIAIABvAHUAdABwAHUAdAAgAHIAbwB1AG4AZABpAG4AZwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA1ACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABBACAAbABhAGIAZQBsAGUAZAAgADUALQByAG8AdwAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIAB2AGEAbAB1AGUAcwAgAGYAbwByADoAIABNAGEAcwBzACAAKABNACkALAAgAFIAYQBkAGkAdQBzACAAKABSACkALAAgAEQAZQBuAHMAaQB0AHkAIAAoAGQAKQAsAFwAbgAgACAAIAAgACAARwByAGEAdgBpAHQAeQAgACgAZwApACwAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQAgACgAdgApAFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBQAEwAQQBOAEUAVABfAE0ARQBUAFIASQBDAFMAXwBTAEEARgBFAFQAWQAgAD0AIABMAEEATQBCAEQAQQAoAG0AbwBkAGUALAAgAHAAYQByAGEAbQBfADEALAAgAHAAYQByAGEAbQBfADIALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABwAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANQAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAGwAbwB3AGUAcgBjAGEAcwBlAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAEwATwBXAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAYgBhAHMAZQBkACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQBcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAbQBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgACgATQAgAC8AIABkACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAAoAE0AIAAqACAAZABeADIAKQAgAF4AIAAoADEALwAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgACgATQAgACoAIABTAFEAUgBUACgAZAApACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABSAGEAZABpAHUAcwBcAG4AIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABNACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABNACAALwAgAFIAXgAzACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABNACAALwAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABTAFEAUgBUACgATQAgAC8AIABSACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABNAGEAcwBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAAUwBRAFIAVAAoAE0AIAAvACAAZwApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABTAFEAUgBUACgAZwBeADMAIAAvACAATQApACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIAAoAE0AIAAqACAAZwApACAAXgAgADAALgAyADUALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAcgBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGQAIAAqACAAUgBeADMALABcAG4AIAAgACAAIAAgACAAIAAgAGcALAAgAGQAIAAqACAAUgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAUgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABnACAAKgAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABnACAALwAgAFIALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAFMAUQBSAFQAKABnACAAKgAgAFIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBuAHMAaQB0AHkAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGQAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABnACAALwAgAGQALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGcAXgAzACAALwAgAGQAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABnACAALwAgAFMAUQBSAFQAKABkACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAZAB2AFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHYAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAdgBeADMAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIAB2AF4AMgAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIAB2AF4ANAAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAGcAIAAvACAAdgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAATQAgAC8AIAB2AF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgBeADQAIAAvACAATQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAAdgBeADYAIAAvACAATQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAB2AF4AMgAgAC8AIABSACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABSACAAKgAgAHYAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAHYAIAAvACAAUgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABGAG8AcgBtAGEAdAAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAYQBuAGQAIAByAG8AdQBuAGQAaQBuAGcAXABuACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG8AdQB0AHAAdQB0ACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABUAFIAQQBOAFMAUABPAFMARQAoAGgAZQBhAGQAZQByAHMAKQAsACAAVABSAEEATgBTAFAATwBTAEUAKAB2AGEAbAB1AGUAcwApACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABBAFMAVABSAE8AXwBQAEwAQQBOAEUAVABfAE0ARQBUAFIASQBDAFMAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBhAGwAYwB1AGwAYQB0AGUAcwAgAHAAbABhAG4AZQB0AGEAcgB5ACAAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAHMAdQByAGYAYQBjAGUAIABnAHIAYQB2AGkAdAB5ACwAIABhAG4AZAAgAGUAcwBjAGEAcABlACAAdgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIABiAGEAcwBlAGQAIABvAG4AIABhAG4AeQAgAHQAdwBvACAAawBuAG8AdwBuACAAdgBhAGwAdQBlAHMALAAgAGEAbgBkACAAZgBsAGEAZwBzACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABpAG4AcAB1AHQAcwAgAHcAaQB0AGgAIABhAG4AIABhAHIAcgBvAHcAIAAoAJQnKQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIAB0AGgAZQAgAHQAdwBvACAAawBuAG8AdwBuACAAdgBhAGwAdQBlAHMALgAgAEEAYwBjAGUAcAB0AGUAZAAgAHYAYQBsAHUAZQBzADoAXABuACAAIAAgACAAIAAgACAAXAAiAG0AZABcACIAIAA9ACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAHIAXAAiACAAPQAgAE0AYQBzAHMAIAArACAAUgBhAGQAaQB1AHMAXABuACAAIAAgACAAIAAgACAAXAAiAG0AZwBcACIAIAA9ACAATQBhAHMAcwAgACsAIABHAHIAYQB2AGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAGQAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEQAZQBuAHMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAHIAZwBcACIAIAA9ACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAZABnAFwAIgAgAD0AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGQAdgBcACIAIAA9ACAARABlAG4AcwBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAZwB2AFwAIgAgAD0AIABHAHIAYQB2AGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAHIAdgBcACIAIAA9ACAAUgBhAGQAaQB1AHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgAC0AIABwAGEAcgBhAG0AXwAxACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAARgBpAHIAcwB0ACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAIAAoAG0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAbQBvAGQAZQApAFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAZQBjAG8AbgBkACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAIAAoAG0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAbQBvAGQAZQApAFwAbgAgACAAIAAtACAAcAByAGUAYwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAEQAZQBjAGkAbQBhAGwAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGYAbwByACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAANQApAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAQQAgADIALQBjAG8AbAB1AG0AbgAgAHYAZQByAHQAaQBjAGEAbAAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACAAYQBuAGQAIABjAGEAbABjAHUAbABhAHQAZQBkACAAdgBhAGwAdQBlAHMALgBcAG4AIAAgACAAIAAgAEkAbgBwAHUAdAAgAHYAYQBsAHUAZQBzACAAYQByAGUAIABmAGwAYQBnAGcAZQBkACAAdwBpAHQAaAAgAGEAIACUJyAAdABvACAAaQBuAGQAaQBjAGEAdABlACAAdABoAGUAaQByACAAbwByAGkAZwBpAG4ALgBcAG4AIAAgACAAIAAgAFUAbgBpAHQAcwAgAGEAcgBlACAAYQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIABhAG4AZAAgAHIAZQBsAGEAdABpAHYAZQAgACgAZQAuAGcALgAsACAARQBhAHIAdABoACAAPQAgADEALgAwACkALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIAB1AHMAZQAgAGkAbgAgAG0AbwBkAGUAbABpAG4AZwAsACAAcABsAGEAbgBlAHQAYQByAHkAIABwAGgAeQBzAGkAYwBzACAAcwBpAG0AdQBsAGEAdABpAG8AbgBzACwAIABhAG4AZAAgAGUAZAB1AGMAYQB0AGkAbwBuAGEAbAAgAGEAcABwAGwAaQBjAGEAdABpAG8AbgBzAC4AXABuACAAIAAgAC0AIABPAHUAdABwAHUAdABzACAAYQByAGUAIABpAG4AdABlAHIAbgBhAGwAbAB5ACAAYwBhAGwAYwB1AGwAYQB0AGUAZAAgAGIAYQBzAGUAZAAgAG8AbgAgAGIAYQBzAGkAYwAgAHAAaAB5AHMAaQBjAGEAbAAgAHIAZQBsAGEAdABpAG8AbgBzAGgAaQBwAHMAOgBcAG4AIAAgACAAIAAgACAAIAAtACAATQAgAD0AIABtAGEAcwBzAFwAbgAgACAAIAAgACAAIAAgAC0AIABSACAAPQAgAHIAYQBkAGkAdQBzAFwAbgAgACAAIAAgACAAIAAgAC0AIABkACAAPQAgAGQAZQBuAHMAaQB0AHkAXABuACAAIAAgACAAIAAgACAALQAgAGcAIAA9ACAAcwB1AHIAZgBhAGMAZQAgAGcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAALQAgAHYAIAA9ACAAZQBzAGMAYQBwAGUAIAB2AGUAbABvAGMAaQB0AHkAXABuACAAIAAgAC0AIABIAGEAbgBkAGwAZQBzACAAaQBuAHAAdQB0ACAAcABlAHIAbQB1AHQAYQB0AGkAbwBuAHMAIABmAGwAZQB4AGkAYgBsAHkAIAB2AGkAYQAgAG0AbwBkAGUAIABzAHQAcgBpAG4AZwAgAHAAYQByAHMAaQBuAGcALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8ARgBMAEEARwBHAEUARAAoAFwAIgByAGQAXAAiACwAIAAxAC4AMgAsACAAMAAuADcANQApAFwAbgAgACAAIAAgACAAkiFcAG4AIAAgACAAIAAgACAAIABNACAAIAAgACAAIAAgADAALgA2ADcANQBcAG4AIAAgACAAIAAgACAAIABSACAAlCcgACAAIAAgADEALgAyAFwAbgAgACAAIAAgACAAIAAgAGQAIACUJyAAIAAgACAAMAAuADcANQBcAG4AIAAgACAAIAAgACAAIABnACAAIAAgACAAIAAgADAALgA5AFwAbgAgACAAIAAgACAAIAAgAHYAIAAgACAAIAAgACAAMQAuADAAMwA5AFwAbgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFAATABBAE4ARQBUAF8ATQBFAFQAUgBJAEMAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AbwBkAGUALAAgAHAAYQByAGEAbQBfADEALAAgAHAAYQByAGEAbQBfADIALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABwAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANQAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAGwAbwB3AGUAcgBjAGEAcwBlAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAEwATwBXAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAYgBhAHMAZQBkACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQBcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAbQBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgACgATQAgAC8AIABkACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAAoAE0AIAAqACAAZABeADIAKQAgAF4AIAAoADEALwAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgACgATQAgACoAIABTAFEAUgBUACgAZAApACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABSAGEAZABpAHUAcwBcAG4AIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABNACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABNACAALwAgAFIAXgAzACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABNACAALwAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABTAFEAUgBUACgATQAgAC8AIABSACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABNAGEAcwBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAAUwBRAFIAVAAoAE0AIAAvACAAZwApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABTAFEAUgBUACgAZwBeADMAIAAvACAATQApACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIAAoAE0AIAAqACAAZwApACAAXgAgADAALgAyADUALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAcgBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGQAIAAqACAAUgBeADMALABcAG4AIAAgACAAIAAgACAAIAAgAGcALAAgAGQAIAAqACAAUgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAUgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABnACAAKgAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABnACAALwAgAFIALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAFMAUQBSAFQAKABnACAAKgAgAFIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBuAHMAaQB0AHkAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGQAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABnACAALwAgAGQALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGcAXgAzACAALwAgAGQAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABnACAALwAgAFMAUQBSAFQAKABkACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAZAB2AFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHYAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAdgBeADMAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIAB2AF4AMgAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIAB2AF4ANAAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAGcAIAAvACAAdgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAATQAgAC8AIAB2AF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgBeADQAIAAvACAATQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAAdgBeADYAIAAvACAATQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAB2AF4AMgAgAC8AIABSACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABSACAAKgAgAHYAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAHYAIAAvACAAUgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABGAG8AcgBtAGEAdAAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAYQBuAGQAIAByAG8AdQBuAGQAaQBuAGcAXABuACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBtAGQAXAAiACwAIAB7AFwAIgBNACAAlCdcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAHsAXAAiAE0AIACUJ1wAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAbQBnAFwAIgAsACAAewBcACIATQAgAJQnXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAGQAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAHsAXAAiAE0AXAAiACwAIABcACIAUgAgAJQnXAAiACwAIABcACIAZABcACIALAAgAFwAIgBnACAAlCdcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAZABnAFwAIgAsACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBkAHYAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAXAAiACwAIABcACIAZAAgAJQnXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2ACAAlCdcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAHsAXAAiAE0AXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAIACUJ1wAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAbQB2AFwAIgAsACAAewBcACIATQAgAJQnXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgAgAJQnXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAHYAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2ACAAlCdcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACAAIAAvAC8AIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG8AdQB0AHAAdQB0ACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABUAFIAQQBOAFMAUABPAFMARQAoAGgAZQBhAGQAZQByAHMAKQAsACAAVABSAEEATgBTAFAATwBTAEUAKAB2AGEAbAB1AGUAcwApACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDACAAPQAgAFwAbgBMAEEATQBCAEQAQQAoAHAALAAgAHEALAAgAHAAcgBlAGMALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIABJAEYAKABwACAAPQAgAHEALABcAG4AIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAbgB1AG0ALAAgAHAAIAAqACAAcQAsAFwAbgAgACAAIAAgACAAIAAgACAAIABkAGUAbgAsACAAQQBCAFMAKABwACAALQAgAHEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAByAGEAdwAsACAAbgB1AG0AIAAvACAAZABlAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAcgBhAHcALAAgAHAAcgBlAGMAKQBcAG4AIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkALABcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBTAE8ATABWAEUARAAgAD0AXABuAEwAQQBNAEIARABBACgAdgBhAGwAXwAxACwAIAB2AGEAbABfADIALAAgAFsAbQBvAGQAZQBdACwAIABbAHAAcgBlAGMAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAXAAiAHAAcQBcACIALAAgAEkARgAoAG0AbwBkAGUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAHAAcQBcACIALAAgAG0AbwBkAGUAKQApACwAXABuACAAIAAgACAAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjACkALAAgADQALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIABwACwAIABJAEYAKABPAFIAKABtAG8AZABlAD0AXAAiAHAAcQBcACIALAAgAG0AbwBkAGUAPQBcACIAcABzAFwAIgApACwAIAB2AGEAbABfADEALAAgAE4AQQAoACkAKQAsAFwAbgAgACAAIAAgAHEALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAcABxAFwAIgAsACAAdgBhAGwAXwAyACwAIABJAEYAKABtAG8AZABlAD0AXAAiAHEAcwBcACIALAAgAHYAYQBsAF8AMQAsACAATgBBACgAKQApACkALABcAG4AIAAgACAAIABzACwAIABJAEYAKABPAFIAKABtAG8AZABlAD0AXAAiAHAAcwBcACIALAAgAG0AbwBkAGUAPQBcACIAcQBzAFwAIgApACwAIAB2AGEAbABfADIALAAgAE4AQQAoACkAKQAsAFwAbgBcAG4AIAAgACAAIABhACwAIABJAEYAKABBAE4ARAAoAEkAUwBOAFUATQBCAEUAUgAoAHAAKQAsACAASQBTAE4AVQBNAEIARQBSACgAcQApACkALAAgAE0AQQBYACgAcAAsACAAcQApACwAIABwACkALABcAG4AIAAgACAAIABiACwAIABJAEYAKABBAE4ARAAoAEkAUwBOAFUATQBCAEUAUgAoAHAAKQAsACAASQBTAE4AVQBNAEIARQBSACgAcQApACkALAAgAE0ASQBOACgAcAAsACAAcQApACwAIABxACkALABcAG4AXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBwAHEAXAAiACwAIABJAEYAKABhACAAPQAgAGIALAAgAE4AQQAoACkALAAgAFIATwBVAE4ARAAoACgAYQAgACoAIABiACkAIAAvACAAKABhACAALQAgAGIAKQAsACAAcAByAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBwAHMAXAAiACwAIABJAEYAKABPAFIAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAGEAKQApACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAHMAKQApACkALAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoACgAYQAgACoAIABzACkAIAAvACAAKABhACAALQAgAHMAKQAsACAAcAByAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBxAHMAXAAiACwAIABJAEYAKABPAFIAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAGIAKQApACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAHMAKQApACkALAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoACgAYgAgACoAIABzACkAIAAvACAAKABiACAALQAgAHMAKQAsACAAcAByAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBTAE8ATABWAEUAUgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABBACAAYwBvAG0AcAByAGUAaABlAG4AcwBpAHYAZQAgAHMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgAHMAbwBsAHYAZQByACAAdABoAGEAdAAgAGMAYQBsAGMAdQBsAGEAdABlAHMAIAB0AGgAZQAgAHQAaABpAHIAZAAgAHYAYQBsAHUAZQAgACgAUAAsACAAUQAsACAAbwByACAAUwApAFwAbgAgACAAIAB3AGgAZQBuACAAYQBuAHkAIAB0AHcAbwAgAG8AZgAgAHQAaABlACAAdABoAHIAZQBlACAAYQByAGUAIABwAHIAbwB2AGkAZABlAGQALgAgAFMAdQBwAHAAbwByAHQAcwAgAG0AdQBsAHQAaQBwAGwAZQAgAGkAbgBwAHUAdAAvAG8AdQB0AHAAdQB0ACAAbQBvAGQAZQBzACAAZgBvAHIAXABuACAAIAAgAHMAYwBpAGUAbgB0AGkAZgBpAGMAIABtAG8AZABlAGwAaQBuAGcALAAgAHAAZQBkAGEAZwBvAGcAaQBjAGEAbAAgAHUAcwBlACwAIABhAG4AZAAgAGYAbABlAHgAaQBiAGwAZQAgAHAAcgBlAHMAZQBuAHQAYQB0AGkAbwBuAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIAB2AGEAbABfADEAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABGAGkAcgBzAHQAIABpAG4AcAB1AHQAIAB2AGEAbAB1AGUALgAgAE0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAdABoAGUAIABzAGUAbABlAGMAdABlAGQAIABtAG8AZABlAC4AXABuACAAIAAgAC0AIAB2AGEAbABfADIAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABTAGUAYwBvAG4AZAAgAGkAbgBwAHUAdAAgAHYAYQBsAHUAZQAuACAATQBlAGEAbgBpAG4AZwAgAGQAZQBwAGUAbgBkAHMAIABvAG4AIAB0AGgAZQAgAHMAZQBsAGUAYwB0AGUAZAAgAG0AbwBkAGUALgBcAG4AIAAgACAALQAgAG0AbwBkAGUAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIAAyAC0AbABlAHQAdABlAHIAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIABrAG4AbwB3AG4AIABpAG4AcAB1AHQAcwAuACAAQQBjAGMAZQBwAHQAcwAgAGEAbgB5ACAAYwBhAHMAZQAgAG8AcgAgAG8AcgBkAGUAcgAuAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAcABxAFwAIgAgAD0AIABzAG8AbAB2AGUAIABmAG8AcgAgAFMAIAAoAHMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAApAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAcABzAFwAIgAgAD0AIABzAG8AbAB2AGUAIABmAG8AcgAgAFEAIAAoAG8AdQB0AGUAcgAgAHMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdAApAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAcQBzAFwAIgAgAD0AIABzAG8AbAB2AGUAIABmAG8AcgAgAFAAIAAoAGkAbgBuAGUAcgAgAHMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdAApAFwAbgAgACAAIAAgACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAFwAIgBwAHEAXAAiACAAaQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAGkAbgB2AGEAbABpAGQALgBcAG4AIAAgACAALQAgAGYAbwByAG0AYQB0ACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATwB1AHQAcAB1AHQAIABmAG8AcgBtAGEAdAAgACgAZABlAGYAYQB1AGwAdAAgAD0AIABcACIAYgBhAHIAZQBcACIAKQBcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAGIAYQByAGUAXAAiACAAIAAgACAAkiEgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHMAbwBsAHYAZQBkACAAdgBhAGwAdQBlACAAbwBuAGwAeQBcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAGwAYQBiAGUAbABlAGQAXAAiACAAkiEgAHIAZQB0AHUAcgBuAHMAIABcACIAUAAgAD0AIAAzADYANQAuADIANQBcACIALAAgAFwAIgBTACAAPQAgADcANwA5AC4AOAA4AFwAIgAsACAAZQB0AGMALgAsACAAZABlAHAAZQBuAGQAaQBuAGcAIABvAG4AIABtAG8AZABlAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAdgBlAHIAYgBvAHMAZQBcACIAIACSISAAcgBlAHQAdQByAG4AcwAgAGkAbgBsAGkAbgBlACAAdABlAHgAdAAgAG8AZgAgAGEAbABsACAAdABoAHIAZQBlACAAdgBhAGwAdQBlAHMAIAB3AGkAdABoACAAHiYgAG8AbgAgAHMAbwBsAHYAZQBkACAAdgBhAGwAdQBlAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAcgBvAHcAXAAiACAAIAAgACAAIACSISAAcgBlAHQAdQByAG4AcwAgADEAeAAzACAAYQByAHIAYQB5ACAAdwBpAHQAaAAgAFAALAAgAFEALAAgAGEAbgBkACAAUwAgAGwAYQBiAGUAbABzACAAYQBuAGQAIAB2AGEAbAB1AGUAcwBcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAGMAbwBsAFwAIgAgACAAIAAgACAAkiEgAHIAZQB0AHUAcgBuAHMAIAAzAHgAMgAgAHYAZQByAHQAaQBjAGEAbAAgAGEAcgByAGEAeQA6ACAAewBcACIAUAAgAD0AXAAiACwAIAAzADYANQAuADIANQA7ACAAXAAiAFEAIAA9AFwAIgAsACAANgA4ADcAOwAgAFwAIgBTACAAHiZcACIALAAgADcANwA5AC4AOAA4AH0AXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAdABvACAAcgBvAHUAbgBkACAAcgBlAHMAdQBsAHQAcwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA0ACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABBACAAcwBjAGEAbABhAHIAIAB2AGEAbAB1AGUAIABvAHIAIABhACAAbABhAGIAZQBsAGUAZAAvAHMAcABpAGwAbAAgAGEAcgByAGEAeQAgAGQAZQBwAGUAbgBkAGkAbgBnACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAZgBvAHIAbQBhAHQALgBcAG4AIAAgACAALQAgAEkAbgAgAGEAbABsACAAYwBhAHMAZQBzACwAIAB0AGgAZQAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIAAoAHMAbwBsAHYAZQBkACkAIAB2AGEAbAB1AGUAIABpAHMAIABmAGwAYQBnAGcAZQBkACAAdwBpAHQAaAAgAGEAIAByAGkAZwBoAHQAIABhAHIAcgBvAHcAIAAoAB4mKQAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABTAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIABmAG8AcgBtAHUAbABhADoAIABTACAAPQAgACgAUAAgACoAIABRACkAIAAvACAAfABQACAALQAgAFEAfABcAG4AIAAgACAALQAgAEkAbgB2AGUAcgBzAGUAIABzAG8AbAB1AHQAaQBvAG4AcwA6AFwAbgAgACAAIAAgACAAIAAgAC0AIABRACAAPQAgACgAUAAgACoAIABTACkAIAAvACAAfABQACAALQAgAFMAfABcAG4AIAAgACAAIAAgACAAIAAtACAAUAAgAD0AIAAoAFEAIAAqACAAUwApACAALwAgAHwAUQAgAC0AIABTAHwAXABuACAAIAAgAC0AIABJAG4AcAB1AHQAcwAgAGEAcgBlACAAYQB1AHQAbwAtAG8AcgBkAGUAcgBlAGQAIABhAHMAIABuAGUAZQBkAGUAZAAgAGYAbwByACAAcwB0AGEAYgBpAGwAaQB0AHkAIAAoAGUALgBnAC4ALAAgAFAAIAA9ACAAbQBhAHgAKAB2AGEAbAAxACwAIAB2AGEAbAAyACkAIABpAG4AIABcACIAcABxAFwAIgAgAG0AbwBkAGUAKQAuAFwAbgAgACAAIAAtACAATQBvAGQAZQAgAGkAcwAgAGMAYQBzAGUALQBpAG4AcwBlAG4AcwBpAHQAaQB2AGUAIABhAG4AZAAgAGEAdQB0AG8ALQBuAG8AcgBtAGEAbABpAHoAZQBkACAAKABlAC4AZwAuACwAIABcACIAUQBTAFwAIgAsACAAXAAiAHMAcQBcACIALAAgAGEAbgBkACAAXAAiAHMAUQBcACIAIABhAGwAbAAgAJIhIABcACIAcQBzAFwAIgApAC4AXABuACAAIAAgAC0AIABPAHUAdABwAHUAdAAgAGYAbwByAG0AYQB0AHMAIABzAHUAcABwAG8AcgB0ACAAaAB1AG0AYQBuAC0AcgBlAGEAZABhAGIAbABlACAAcgBlAHMAdQBsAHQAcwAgAGEAbgBkACAAcwB0AHIAdQBjAHQAdQByAGUAZAAgAHQAYQBiAGwAZQAgAGkAbgB0AGUAZwByAGEAdABpAG8AbgAuAFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAYQBzACAAYQAgAGcAZQBuAGUAcgBhAGwALQBwAHUAcgBwAG8AcwBlACAAZQBuAGcAaQBuAGUAIABmAG8AcgAgAHUAcwBlACAAaQBuACAAYQBzAHQAcgBvAG4AbwBtAHkAIABtAG8AZABlAGwAcwAgAGEAbgBkACAAZQBkAHUAYwBhAHQAaQBvAG4AYQBsACAAdABvAG8AbABzAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlACAAMQA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFMATwBMAFYARQBSACgAMwA2ADUALgAyADUALAAgADYAOAA3ACwAIABcACIAcABxAFwAIgAsACAAXAAiAGIAYQByAGUAXAAiACwAIAA0ACkAXABuACAAIAAgACAAIAAgACAAkiEgADcANwA5AC4AOAA4ADEAMQBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAIAAyADoAXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUwBPAEwAVgBFAFIAKAAzADYANQAuADIANQAsACAANgA4ADcALAAgAFwAIgBwAHEAXAAiACwAIABcACIAdgBlAHIAYgBvAHMAZQBcACIAKQBcAG4AIAAgACAAIAAgACAAIACSISAAXAAiAFAAIAA9ACAAMwA2ADUALgAyADUALAAgAFEAIAA9ACAANgA4ADcALAAgAFMAIAA9ACAAHiYgADcANwA5AC4AOAA4ADEAMQBcACIAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlACAAMwA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFMATwBMAFYARQBSACgANgA4ADcALAAgADcANwA5AC4AOAA4ADEAMQAsACAAXAAiAHEAcwBcACIALAAgAFwAIgBjAG8AbABcACIAKQBcAG4AIAAgACAAIAAgACAAIACSIVwAbgAgACAAIAAgACAAIAAgACAAIABQACAAHiYgACAAIAAgADMANgA1AC4AMgA1AFwAbgAgACAAIAAgACAAIAAgACAAIABRACAAPQAgACAAIAAgADYAOAA3AFwAbgAgACAAIAAgACAAIAAgACAAIABTACAAPQAgACAAIAAgADcANwA5AC4AOAA4ADEAMQBcAG4AXABuACAAIAAgAFIAZQBjAG8AbQBtAGUAbgBkAGEAdABpAG8AbgA6AFwAbgAgACAAIAAtACAARgBvAHIAIABnAGUAbgBlAHIAYQBsACAAdQBzAGUAcgBzACwAIABjAG8AbgBzAGkAZABlAHIAIAB1AHMAaQBuAGcAIABvAG4AZQAgAG8AZgAgAHQAaABlACAAcwBpAG0AcABsAGUAcgAgAHcAcgBhAHAAcABlAHIAIABmAHUAbgBjAHQAaQBvAG4AcwA6AFwAbgAgACAAIAAgACAAIAAgAC0AIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUABRACgAUAAsACAAUQApAFwAbgAgACAAIAAgACAAIAAgAC0AIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUABTACgAUAAsACAAUwApAFwAbgAgACAAIAAgACAAIAAgAC0AIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUQBTACgAUQAsACAAUwApAFwAbgAgACAAIAAtACAAVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAGkAcwAgAGkAbgB0AGUAbgBkAGUAZAAgAGYAbwByACAAYQBkAHYAYQBuAGMAZQBkACAAdQBzAGUAIABjAGEAcwBlAHMAIABhAG4AZAAgAFUASQAtAGkAbgB0AGUAZwByAGEAdABlAGQAIABvAHUAdABwAHUAdAAuAFwAbgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBTAE8ATABWAEUAUgAgAD0AXABuAEwAQQBNAEIARABBACgAdgBhAGwAXwAxACwAIAB2AGEAbABfADIALAAgAFsAbQBvAGQAZQBdACwAIABbAGYAbwByAG0AYQB0AF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAbwBwAHQAaQBvAG4AYQBsACAAYQByAGcAdQBtAGUAbgB0AHMAXABuACAAIAAgACAAcgBhAHcAXwBtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAgACsAIAAoAG0AbwBkAGUAIAA9ACAAXAAiAFwAIgApACwAIABcACIAUABRAFwAIgAsACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAbgBvAHIAbQBfAG0AbwBkAGUALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgBcACIALAAsAFMATwBSAFQAKABNAEkARAAoAEwATwBXAEUAUgAoAHIAYQB3AF8AbQBvAGQAZQApACwAUwBFAFEAVQBFAE4AQwBFACgATABFAE4AKAByAGEAdwBfAG0AbwBkAGUAKQApACwAMQApACkAKQAsAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAG4AbwByAG0AXwBtAG8AZABlACwAXABuAFwAbgAgACAAIAAgAGYAbwByAG0AYQB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGYAbwByAG0AYQB0ACkAIAArACAAKABmAG8AcgBtAGEAdAAgAD0AIABcACIAXAAiACkALAAgAFwAIgBiAGEAcgBlAFwAIgAsACAATABPAFcARQBSACgAZgBvAHIAbQBhAHQAKQApACwAXABuACAAIAAgACAAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjACkALAAgADQALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABJAG4AcAB1AHQAIAB1AG4AcABhAGMAawBpAG4AZwAgAGIAeQAgAG0AbwBkAGUAXABuACAAIAAgACAAUABfAGkAbgAsACAASQBGACgATwBSACgAbQBvAGQAZQA9AFwAIgBwAHEAXAAiACwAIABtAG8AZABlAD0AXAAiAHAAcwBcACIAKQAsACAAdgBhAGwAXwAxACwAIABOAEEAKAApACkALABcAG4AIAAgACAAIABRAF8AaQBuACwAIABJAEYAKABtAG8AZABlAD0AXAAiAHAAcQBcACIALAAgAHYAYQBsAF8AMgAsACAASQBGACgAbQBvAGQAZQA9AFwAIgBxAHMAXAAiACwAIAB2AGEAbABfADEALAAgAE4AQQAoACkAKQApACwAXABuACAAIAAgACAAUwBfAGkAbgAsACAASQBGACgATwBSACgAbQBvAGQAZQA9AFwAIgBwAHMAXAAiACwAIABtAG8AZABlAD0AXAAiAHEAcwBcACIAKQAsACAAdgBhAGwAXwAyACwAIABOAEEAKAApACkALABcAG4AXABuACAAIAAgACAALwAvACAAUAAgAGEAbgBkACAAUQAgAG8AcgBkAGUAcgBpAG4AZwAgAG8AbgBsAHkAIAB1AHMAZQBkACAAaQBuACAAJwBwAHEAJwAgAG0AbwBkAGUAXABuACAAIAAgACAAUAAsACAASQBGACgAQQBOAEQAKABJAFMATgBVAE0AQgBFAFIAKABQAF8AaQBuACkALAAgAEkAUwBOAFUATQBCAEUAUgAoAFEAXwBpAG4AKQApACwAIABNAEEAWAAoAFAAXwBpAG4ALAAgAFEAXwBpAG4AKQAsACAAUABfAGkAbgApACwAXABuACAAIAAgACAAUQAsACAASQBGACgAQQBOAEQAKABJAFMATgBVAE0AQgBFAFIAKABQAF8AaQBuACkALAAgAEkAUwBOAFUATQBCAEUAUgAoAFEAXwBpAG4AKQApACwAIABNAEkATgAoAFAAXwBpAG4ALAAgAFEAXwBpAG4AKQAsACAAUQBfAGkAbgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBcAG4AIAAgACAAIABTAF8AYwBhAGwAYwAsACAASQBGACgAUAAgAD0AIABRACwAIABOAEEAKAApACwAIABSAE8AVQBOAEQAKAAoAFAAIAAqACAAUQApACAALwAgACgAUAAgAC0AIABRACkALAAgAHAAcgBlAGMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEQAaQByAGUAYwB0AGkAbwBuAC0AYQB3AGEAcgBlACAAaQBuAHYAZQByAHMAZQAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACAAIAAgAFEAXwBjAGEAbABjACwAIABJAEYAKABPAFIAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFAAKQApACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFMAXwBpAG4AKQApACkALAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAoAFAAIAAqACAAUwBfAGkAbgApACAALwAgAEEAQgBTACgAUAAgAC0AIABTAF8AaQBuACkALAAgAHAAcgBlAGMAKQApACwAXABuAFwAbgAgACAAIAAgAFAAXwBjAGEAbABjACwAIABJAEYAKABPAFIAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFEAKQApACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFMAXwBpAG4AKQApACkALAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAoAFEAIAAqACAAUwBfAGkAbgApACAALwAgAEEAQgBTACgAUQAgAC0AIABTAF8AaQBuACkALAAgAHAAcgBlAGMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAZQBsAGUAYwB0AGUAZAAgAHIAZQBzAHUAbAB0ACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAUABfAHYAYQBsACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgBxAHMAXAAiACwAIABQAF8AYwBhAGwAYwAsACAAUAApACwAXABuACAAIAAgACAAUQBfAHYAYQBsACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgBwAHMAXAAiACwAIABRAF8AYwBhAGwAYwAsACAAUQApACwAXABuACAAIAAgACAAUwBfAHYAYQBsACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgBwAHEAXAAiACwAIABTAF8AYwBhAGwAYwAsACAAUwBfAGkAbgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAbwBsAHYAZQBkACAAbABhAGIAZQBsAFwAbgAgACAAIAAgAGwAYQBiAGUAbAAsACAAUwBXAEkAVABDAEgAKABtAG8AZABlACwAIABcACIAcABxAFwAIgAsACAAXAAiAFMAXAAiACwAIABcACIAcABzAFwAIgAsACAAXAAiAFEAXAAiACwAIABcACIAcQBzAFwAIgAsACAAXAAiAFAAXAAiACwAIABcACIAPwBcACIAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABQAHIAaQBtAGEAcgB5ACAAcwBjAGEAbABhAHIAIAByAGUAcwB1AGwAdABcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAUwBXAEkAVABDAEgAKABtAG8AZABlACwAIABcACIAcABxAFwAIgAsACAAUwBfAGMAYQBsAGMALAAgAFwAIgBwAHMAXAAiACwAIABRAF8AYwBhAGwAYwAsACAAXAAiAHEAcwBcACIALAAgAFAAXwBjAGEAbABjACwAIABOAEEAKAApACkALABcAG4AXABuACAAIAAgACAALwAvACAAVgBlAHIAYgBvAHMAZQAgAHQAZQB4AHQAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAB2AGUAcgBiAG8AcwBlAF8AbwB1AHQALABcAG4AIAAgACAAIAAgACAAXAAiAFAAIAA9ACAAXAAiACAAJgAgAEkARgAoAEkAUwBOAFUATQBCAEUAUgAoAFAAXwB2AGEAbAApACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgBxAHMAXAAiACwAIABcACIAHiYgAFwAIgAgACYAIABQAF8AdgBhAGwALAAgAFAAXwB2AGEAbAApACwAIABcACIAFCBcACIAKQAgACYAIABcACIALAAgAFwAIgAgACYAXABuACAAIAAgACAAIAAgAFwAIgBRACAAPQAgAFwAIgAgACYAIABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABRAF8AdgBhAGwAKQAsACAASQBGACgAbQBvAGQAZQAgAD0AIABcACIAcABzAFwAIgAsACAAXAAiAB4mIABcACIAIAAmACAAUQBfAHYAYQBsACwAIABRAF8AdgBhAGwAKQAsACAAXAAiABQgXAAiACkAIAAmACAAXAAiACwAIABcACIAIAAmAFwAbgAgACAAIAAgACAAIABcACIAUwAgAD0AIABcACIAIAAmACAASQBGACgASQBTAE4AVQBNAEIARQBSACgAUwBfAHYAYQBsACkALAAgAEkARgAoAG0AbwBkAGUAIAA9ACAAXAAiAHAAcQBcACIALAAgAFwAIgAeJiAAXAAiACAAJgAgAFMAXwB2AGEAbAAsACAAUwBfAHYAYQBsACkALAAgAFwAIgAUIFwAIgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAcABpAGwAbABhAGIAbABlACAAdABhAGIAdQBsAGEAcgAgAG8AdQB0AHAAdQB0AHMAXABuACAAIAAgACAAcgBvAHcAXwBvAHUAdAAsAFwAbgAgACAAIAAgACAAIABWAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABtAG8AZABlAD0AXAAiAHEAcwBcACIALAAgAFwAIgBQACAAHiZcACIALAAgAFwAIgBQACAAPQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAG0AbwBkAGUAPQBcACIAcABzAFwAIgAsACAAXAAiAFEAIAAeJlwAIgAsACAAXAAiAFEAIAA9AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAbQBvAGQAZQA9AFwAIgBwAHEAXAAiACwAIABcACIAUwAgAB4mXAAiACwAIABcACIAUwAgAD0AXAAiACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFAAXwB2AGEAbAAsACAAUQBfAHYAYQBsACwAIABTAF8AdgBhAGwAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABjAG8AbABfAG8AdQB0ACwAXABuACAAIAAgACAAIAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAEkARgAoAG0AbwBkAGUAPQBcACIAcQBzAFwAIgAsACAAXAAiAFAAIAAeJlwAIgAsACAAXAAiAFAAIAA9AFwAIgApACwAIABQAF8AdgBhAGwAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABJAEYAKABtAG8AZABlAD0AXAAiAHAAcwBcACIALAAgAFwAIgBRACAAHiZcACIALAAgAFwAIgBRACAAPQBcACIAKQAsACAAUQBfAHYAYQBsACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgASQBGACgAbQBvAGQAZQA9AFwAIgBwAHEAXAAiACwAIABcACIAUwAgAB4mXAAiACwAIABcACIAUwAgAD0AXAAiACkALAAgAFMAXwB2AGEAbAApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEYAaQBuAGEAbAAgAHMAdwBpAHQAYwBoACAAZgBvAHIAIAByAGUAdAB1AHIAbgAgAHQAeQBwAGUAXABuACAAIAAgACAAbwB1AHQAcAB1AHQALABcAG4AIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABmAG8AcgBtAGEAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAGIAYQByAGUAXAAiACwAIAByAGUAcwB1AGwAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAGwAYQBiAGUAbABlAGQAXAAiACwAIABsAGEAYgBlAGwAIAAmACAAXAAiACAAPQAgAFwAIgAgACYAIAByAGUAcwB1AGwAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAHYAZQByAGIAbwBzAGUAXAAiACwAIAB2AGUAcgBiAG8AcwBlAF8AbwB1AHQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAG8AdwBcACIALAAgAHIAbwB3AF8AbwB1AHQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBjAG8AbABcACIALAAgAGMAbwBsAF8AbwB1AHQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAZgBvAHIAbQBhAHQAXAAiAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFAAUQBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAGEAbABjAHUAbABhAHQAZQBzACAAdABoAGUAIABzAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIAAoAFMAKQAgAGIAZQB0AHcAZQBlAG4AIAB0AHcAbwAgAHAAbABhAG4AZQB0AGEAcgB5ACAAYgBvAGQAaQBlAHMAXABuACAAIAAgAGIAYQBzAGUAZAAgAG8AbgAgAHQAaABlAGkAcgAgAHMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZABzACAAUAAgAGEAbgBkACAAUQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAUAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZAAgAG8AZgAgAHQAaABlACAAaQBuAG4AZQByACAAKABmAGEAcwB0AGUAcgApACAAYgBvAGQAeQBcAG4AIAAgACAALQAgAFEAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABTAGkAZABlAHIAZQBhAGwAIABvAHIAYgBpAHQAYQBsACAAcABlAHIAaQBvAGQAIABvAGYAIAB0AGgAZQAgAG8AdQB0AGUAcgAgACgAcwBsAG8AdwBlAHIAKQAgAGIAbwBkAHkAXABuACAAIAAgAC0AIABvAHUAdABwAHUAdAAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AdQB0AHAAdQB0ACAAZgBvAHIAbQBhAHQALgAgAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAYgBhAHIAZQBcACIAIAA9ACAAUgBlAHQAdQByAG4AcwAgAHMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgAG8AbgBsAHkAIAAoAGQAZQBmAGEAdQBsAHQAKQBcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAHYAZQByAGIAbwBzAGUAXAAiACAAPQAgAFIAZQB0AHUAcgBuAHMAIABhACAAMgAtAGMAbwBsAHUAbQBuACAAdgBlAHIAdABpAGMAYQBsACAAdABhAGIAbABlADoAIABQACwAIABRACwAIABTACwAIAB3AGkAdABoACAAdABoAGUAIAByAGUAcwB1AGwAdAAgAGYAbABhAGcAZwBlAGQAIAAoAB4mKQBcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABEAGUAYwBpAG0AYQBsACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAANAApAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAUwB5AG4AbwBkAGkAYwAgAHAAZQByAGkAbwBkACAAKABiAGEAcgBlACkALAAgAG8AcgBcAG4AIAAgACAALQAgAFYAZQByAGIAbwBzAGUAIAAyAC0AYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkAIAB3AGkAdABoACAAbABhAGIAZQBsAGUAZAAgAFAALAAgAFEALAAgAGEAbgBkACAAUwAgAHYAYQBsAHUAZQBzAFwAbgAgACAAIAAgACAAKABTACAAaQBzACAAZgBsAGEAZwBnAGUAZAAgAHcAaQB0AGgAIABhACAAHiYgAHQAbwAgAGkAbgBkAGkAYwBhAHQAZQAgAGkAdAAnAHMAIAB0AGgAZQAgAHMAbwBsAHYAZQBkACAAdgBhAGwAdQBlACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFMAIAA9ACAAKABQACAA1wAgAFEAKQAgAC8AIAB8AFAAIAASIiAAUQB8ACwAIABhAHMAcwB1AG0AaQBuAGcAIABQACAAYCIgAFEAXABuACAAIAAgAC0AIABJAG4AcAB1AHQAcwAgAG0AYQB5ACAAYgBlACAAcAByAG8AdgBpAGQAZQBkACAAaQBuACAAYQBuAHkAIABvAHIAZABlAHIAOwAgAHQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAaQBuAHQAZQByAG4AYQBsAGwAeQAgAGEAcwBzAGkAZwBuAHMAIABQAC8AUQAgAGYAbwByACAAYwBvAHIAcgBlAGMAdAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBcAG4AIAAgACAALQAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIABwAHIAZQBkAGkAYwB0AGkAbgBnACAAYwBvAG4AagB1AG4AYwB0AGkAbwBuACAAaQBuAHQAZQByAHYAYQBsAHMAIABvAHIAIABvAHIAYgBpAHQAYQBsACAAcgBlAHMAbwBuAGEAbgBjAGUAIABtAG8AZABlAGwAaQBuAGcAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBQAFEAKAAzADYANQAuADIANQAsACAANgA4ADcALAAgAFwAIgB2AGUAcgBiAG8AcwBlAFwAIgAsACAANAApAFwAbgAgACAAIAAgACAAkiFcAG4AIAAgACAAIAAgACAAIABQACAAPQAgACAAIAAgACAAIAAzADYANQAuADIANQBcAG4AIAAgACAAIAAgACAAIABRACAAPQAgACAAIAAgACAAIAA2ADgANwBcAG4AIAAgACAAIAAgACAAIABTACAAHiYgAD0AIAAgACAAIAA3ADcAOQAuADgAOAAxADEAXABuACoALwBcAG4AXABuAFwAbgBBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUABRACAAPQBcAG4ATABBAE0AQgBEAEEAKABQACwAIABRACwAIABbAG8AdQB0AHAAdQB0AF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAbwBwAHQAaQBvAG4AYQBsACAAYQByAGcAdQBtAGUAbgB0AHMAXABuACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABvAHUAdABwAHUAdAApACAAKwAgACgAbwB1AHQAcAB1AHQAIAA9ACAAXAAiAFwAIgApACwAIABcACIAYgBhAHIAZQBcACIALAAgAEwATwBXAEUAUgAoAG8AdQB0AHAAdQB0ACkAKQAsAFwAbgAgACAAIAAgAGQAaQBnAGkAdABzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANAAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAbwByAHQAIABmAG8AcgAgAHMAdABhAGIAaQBsAGkAdAB5ACAAaQBuACAAcwB5AG4AbwBkAGkAYwAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBcAG4AIAAgACAAIABBACwAIABNAEEAWAAoAFAALAAgAFEAKQAsAFwAbgAgACAAIAAgAEIALAAgAE0ASQBOACgAUAAsACAAUQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEMAYQBsAGMAdQBsAGEAdABlACAAcwB5AG4AbwBkAGkAYwAgAHAAZQByAGkAbwBkAFwAbgAgACAAIAAgAFMALAAgAFIATwBVAE4ARAAoACgAQQAgACoAIABCACkAIAAvACAAKABBACAALQAgAEIAKQAsACAAZABpAGcAaQB0AHMAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABUAHcAbwAtAGMAbwBsAHUAbQBuACAAdgBlAHIAYgBvAHMAZQAgAG8AdQB0AHAAdQB0ACAAKABsAGEAYgBlAGwAcwAgAHAAcgBlAHMAZQByAHYAZQBkACkAXABuACAAIAAgACAAdgBlAHIAYgBvAHMAZQAsAFwAbgAgACAAIAAgACAAIABWAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcACIAUAAgAD0AXAAiACwAIABQACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXAAiAFEAIAA9AFwAIgAsACAAUQApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAIgBTACAAHiZcACIALAAgAFMAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABPAHUAdABwAHUAdAAgAHMAZQBsAGUAYwB0AGkAbwBuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgB2AGUAcgBiAG8AcwBlAFwAIgAsACAAdgBlAHIAYgBvAHMAZQAsACAAUwApACwAXABuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFAAUwBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAGEAbABjAHUAbABhAHQAZQBzACAAdABoAGUAIABzAGkAZABlAHIAZQBhAGwAIABvAHIAYgBpAHQAYQBsACAAcABlAHIAaQBvAGQAIABRACAAbwBmACAAdABoAGUAIABvAHUAdABlAHIAIABiAG8AZAB5AFwAbgAgACAAIABiAGEAcwBlAGQAIABvAG4AIAB0AGgAZQAgAHMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgACgAUwApACAAYQBuAGQAIAB0AGgAZQAgAGsAbgBvAHcAbgAgAGkAbgBuAGUAcgAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZAAgACgAUAApAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABQACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAUwBpAGQAZQByAGUAYQBsACAAbwByAGIAaQB0AGEAbAAgAHAAZQByAGkAbwBkACAAbwBmACAAdABoAGUAIABpAG4AbgBlAHIAIAAoAGYAYQBzAHQAZQByACkAIABiAG8AZAB5AFwAbgAgACAAIAAtACAAUwAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgACgAbwBiAHMAZQByAHYAZQBkACAAaQBuAHQAZQByAHYAYQBsACAAYgBlAHQAdwBlAGUAbgAgAGMAbwBuAGoAdQBuAGMAdABpAG8AbgBzACkAXABuACAAIAAgAC0AIABvAHUAdABwAHUAdAAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AdQB0AHAAdQB0ACAAZgBvAHIAbQBhAHQALgAgAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAYgBhAHIAZQBcACIAIAA9ACAAUgBlAHQAdQByAG4AcwAgAFEAIABvAG4AbAB5ACAAKABkAGUAZgBhAHUAbAB0ACkAXABuACAAIAAgACAAIAAgACAALQAgAFwAIgB2AGUAcgBiAG8AcwBlAFwAIgAgAD0AIABSAGUAdAB1AHIAbgBzACAAYQAgADIALQBjAG8AbAB1AG0AbgAgAHYAZQByAHQAaQBjAGEAbAAgAHQAYQBiAGwAZQA6ACAAUAAsACAAUQAsACAAUwAsACAAdwBpAHQAaAAgAFEAIABmAGwAYQBnAGcAZQBkACAAKAAeJikAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADQAKQBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAALQAgAFMAaQBkAGUAcgBlAGEAbAAgAHAAZQByAGkAbwBkACAAUQAgACgAYgBhAHIAZQApACwAIABvAHIAXABuACAAIAAgAC0AIABWAGUAcgBiAG8AcwBlACAAMgAtAGMAbwBsAHUAbQBuACAAYQByAHIAYQB5ACAAdwBpAHQAaAAgAGwAYQBiAGUAbABlAGQAIABQACwAIABRACwAIABhAG4AZAAgAFMAIAB2AGEAbAB1AGUAcwBcAG4AIAAgACAAIAAgACgAUQAgAGkAcwAgAGYAbABhAGcAZwBlAGQAIAB3AGkAdABoACAAHiYgAHQAbwAgAGkAbgBkAGkAYwBhAHQAZQAgAGkAdAAnAHMAIAB0AGgAZQAgAHMAbwBsAHYAZQBkACAAdgBhAGwAdQBlACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFEAIAA9ACAAKABQACAA1wAgAFMAKQAgAC8AIAAoAFAAIAASIiAAUwApAFwAbgAgACAAIAAtACAAQQBzAHMAdQBtAGUAcwAgAFMAIAA8ACAAUAAgACgAcwB5AG4AbwBkAGkAYwAgAHAAZQByAGkAbwBkACAAbQB1AHMAdAAgAGIAZQAgAHMAaABvAHIAdABlAHIAIAB0AGgAYQBuACAAcwBsAG8AdwBlAHIAIABiAG8AZAB5ACcAcwAgAG8AcgBiAGkAdAApAFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIABzAHkAcwB0AGUAbQBzACAAdwBoAGUAcgBlACAAcwB5AG4AbwBkAGkAYwAgAGkAbgB0AGUAcgB2AGEAbABzACAAYQByAGUAIABtAGUAYQBzAHUAcgBlAGQAIABhAG4AZAAgAGkAbgBuAGUAcgAgAGIAbwBkAHkAIABpAHMAIABrAG4AbwB3AG4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBQAFMAKAAzADYANQAuADIANQAsACAANwA3ADkALgA4ADgAMQAxACwAIABcACIAdgBlAHIAYgBvAHMAZQBcACIALAAgADQAKQBcAG4AIAAgACAAIAAgAJIhXABuACAAIAAgACAAIAAgACAAUAAgAD0AIAAgACAAIAAgACAAMwA2ADUALgAyADUAXABuACAAIAAgACAAIAAgACAAUQAgAB4mIAA9ACAAIAAgACAANgA4ADcAXABuACAAIAAgACAAIAAgACAAUwAgAD0AIAAgACAAIAAgACAANwA3ADkALgA4ADgAMQAxAFwAbgAqAC8AXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFAAUwAgAD0AXABuAEwAQQBNAEIARABBACgAUAAsACAAUwAsACAAWwBvAHUAdABwAHUAdABdACwAIABbAHAAcgBlAGMAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIAAvAC8AIABPAHAAdABpAG8AbgBhAGwAIABhAHIAZwB1AG0AZQBuAHQAIABoAGEAbgBkAGwAaQBuAGcAXABuACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABvAHUAdABwAHUAdAApACAAKwAgACgAbwB1AHQAcAB1AHQAIAA9ACAAXAAiAFwAIgApACwAIABcACIAYgBhAHIAZQBcACIALAAgAEwATwBXAEUAUgAoAG8AdQB0AHAAdQB0ACkAKQAsAFwAbgAgACAAIAAgAGQAaQBnAGkAdABzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANAAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEMAbwBtAHAAdQB0AGUAIABRACAAKABvAHUAdABlAHIAIABvAHIAYgBpAHQAKQBcAG4AIAAgACAAIABRACwAIABSAE8AVQBOAEQAKAAoAFAAIAAqACAAUwApACAALwAgAEEAQgBTACgAUAAgAC0AIABTACkALAAgAGQAaQBnAGkAdABzACkALABcAG4AXABuACAAIAAgACAALwAvACAAVgBlAHIAYgBvAHMAZQAgAHMAcABpAGwAbAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgAHYAZQByAGIAbwBzAGUALABcAG4AIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXAAiAFAAIAA9AFwAIgAsACAAUAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAIgBRACAAHiZcACIALAAgAFEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcACIAUwAgAD0AXAAiACwAIABTACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAATwB1AHQAcAB1AHQAIABjAGgAbwBpAGMAZQBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAASQBGACgAbQBvAGQAZQAgAD0AIABcACIAdgBlAHIAYgBvAHMAZQBcACIALAAgAHYAZQByAGIAbwBzAGUALAAgAFEAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBRAFMAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBhAGwAYwB1AGwAYQB0AGUAcwAgAHQAaABlACAAcwBpAGQAZQByAGUAYQBsACAAbwByAGIAaQB0AGEAbAAgAHAAZQByAGkAbwBkACAAUAAgAG8AZgAgAHQAaABlACAAaQBuAG4AZQByACAAKABmAGEAcwB0AGUAcgApACAAYgBvAGQAeQBcAG4AIAAgACAAYgBhAHMAZQBkACAAbwBuACAAdABoAGUAIABzAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIAAoAFMAKQAgAGEAbgBkACAAdABoAGUAIABrAG4AbwB3AG4AIABvAHUAdABlAHIAIABvAHIAYgBpAHQAYQBsACAAcABlAHIAaQBvAGQAIAAoAFEAKQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAUQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZAAgAG8AZgAgAHQAaABlACAAbwB1AHQAZQByACAAKABzAGwAbwB3AGUAcgApACAAYgBvAGQAeQBcAG4AIAAgACAALQAgAFMAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABTAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIAAoAG8AYgBzAGUAcgB2AGUAZAAgAGkAbgB0AGUAcgB2AGEAbAAgAGIAZQB0AHcAZQBlAG4AIABjAG8AbgBqAHUAbgBjAHQAaQBvAG4AcwApAFwAbgAgACAAIAAtACAAbwB1AHQAcAB1AHQAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABPAHUAdABwAHUAdAAgAGYAbwByAG0AYQB0AC4AIABcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAGIAYQByAGUAXAAiACAAPQAgAFIAZQB0AHUAcgBuAHMAIABQACAAbwBuAGwAeQAgACgAZABlAGYAYQB1AGwAdAApAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAdgBlAHIAYgBvAHMAZQBcACIAIAA9ACAAUgBlAHQAdQByAG4AcwAgAGEAIAAyAC0AYwBvAGwAdQBtAG4AIAB2AGUAcgB0AGkAYwBhAGwAIAB0AGEAYgBsAGUAOgAgAFAALAAgAFEALAAgAFMALAAgAHcAaQB0AGgAIABQACAAZgBsAGEAZwBnAGUAZAAgACgAHiYpAFwAbgAgACAAIAAtACAAcAByAGUAYwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAEQAZQBjAGkAbQBhAGwAIABwAHIAZQBjAGkAcwBpAG8AbgAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA0ACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABTAGkAZABlAHIAZQBhAGwAIABwAGUAcgBpAG8AZAAgAFAAIAAoAGIAYQByAGUAKQAsACAAbwByAFwAbgAgACAAIAAtACAAVgBlAHIAYgBvAHMAZQAgADIALQBjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAgAHcAaQB0AGgAIABsAGEAYgBlAGwAZQBkACAAUAAsACAAUQAsACAAYQBuAGQAIABTACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAIAAoAFAAIABpAHMAIABmAGwAYQBnAGcAZQBkACAAdwBpAHQAaAAgAB4mIAB0AG8AIABpAG4AZABpAGMAYQB0AGUAIABpAHQAJwBzACAAdABoAGUAIABzAG8AbAB2AGUAZAAgAHYAYQBsAHUAZQApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABQACAAPQAgACgAUQAgANcAIABTACkAIAAvACAAKABRACAAKwAgAFMAKQBcAG4AIAAgACAALQAgAFUAcwBlAGQAIAB3AGgAZQBuACAAdABoAGUAIABzAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIABhAG4AZAAgAHMAbABvAHcAZQByACAAbwByAGIAaQB0ACAAYQByAGUAIABrAG4AbwB3AG4AIAAoAGUALgBnAC4ALAAgAG8AYgBzAGUAcgB2AGEAdABpAG8AbgBhAGwAIABhAHMAdAByAG8AbgBvAG0AeQApAFwAbgAgACAAIAAtACAATwB1AHQAcAB1AHQAIABsAGEAeQBvAHUAdAAgAGkAcwAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIABhAGMAcgBvAHMAcwAgAGEAbABsACAAcwB5AG4AbwBkAGkAYwAgAHMAbwBsAHYAZQByACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBRAFMAKAA2ADgANwAsACAANwA3ADkALgA4ADgAMQAxACwAIABcACIAdgBlAHIAYgBvAHMAZQBcACIALAAgADQAKQBcAG4AIAAgACAAIAAgAJIhXABuACAAIAAgACAAIAAgACAAUAAgAB4mIAA9ACAAIAAgACAAMwA2ADUALgAyADUAXABuACAAIAAgACAAIAAgACAAUQAgAD0AIAAgACAAIAAgACAANgA4ADcAXABuACAAIAAgACAAIAAgACAAUwAgAD0AIAAgACAAIAAgACAANwA3ADkALgA4ADgAMQAxAFwAbgAqAC8AXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFEAUwAgAD0AXABuAEwAQQBNAEIARABBACgAUQAsACAAUwAsACAAWwBvAHUAdABwAHUAdABdACwAIABbAHAAcgBlAGMAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG8AdQB0AHAAdQB0ACkAIAArACAAKABvAHUAdABwAHUAdAAgAD0AIABcACIAXAAiACkALAAgAFwAIgBiAGEAcgBlAFwAIgAsACAATABPAFcARQBSACgAbwB1AHQAcAB1AHQAKQApACwAXABuACAAIAAgACAAZABpAGcAaQB0AHMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAA0ACwAIABwAHIAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAAQwBvAHIAcgBlAGMAdAAgAGYAbwByAG0AdQBsAGEAOgAgAFAAIAA9ACAAKABRACAAKgAgAFMAKQAgAC8AIAAoAFEAIAArACAAUwApAFwAbgAgACAAIAAgAFAALAAgAFIATwBVAE4ARAAoACgAUQAgACoAIABTACkAIAAvACAAKABRACAAKwAgAFMAKQAsACAAZABpAGcAaQB0AHMAKQAsAFwAbgBcAG4AIAAgACAAIAB2AGUAcgBiAG8AcwBlACwAXABuACAAIAAgACAAIAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAIgBQACAAHiZcACIALAAgAFAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcACIAUQAgAD0AXAAiACwAIABRACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXAAiAFMAIAA9AFwAIgAsACAAUwApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgB2AGUAcgBiAG8AcwBlAFwAIgAsACAAdgBlAHIAYgBvAHMAZQAsACAAUAApACwAXABuACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAFMATQBBAEwATABBAE4ARwBMAEUAIAA9ACAATABBAE0AQgBEAEEAKABkAGkAYQBtAGUAdABlAHIALAAgAGQAaQBzAHQAYQBuAGMAZQAsAFwAbgBcAG4AIAAgACAAIAAwAC4ANQAzADIAOQAwADQAMgA5ADQAIAAqACAAKABkAGkAYQBtAGUAdABlAHIAIAAvACAAZABpAHMAdABhAG4AYwBlACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuAE8AUgBCAF8AQQBYAEkAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABwAGUAcgBpAG8AZAAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAGEAcwBzADIALAAgAEkARgAoACgASQBTAE8ATQBJAFQAVABFAEQAKABtAGEAcwBzADIAKQApACsAKABtAGEAcwBzADIAIAA9ACAAMQApACwAIAAwACwAIABtAGEAcwBzADIAKgAzAC4AMAAwADMARQAtADYAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMALAAgAFAATwBXAEUAUgAoACgAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQAgACoAIAAoAG0AYQBzAHMAMQAgACsAIABtAGEAcwBzADIAKQApACwAIAAxACAALwAgADMAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ATwBSAEIAXwBQAEUAUgBJAE8ARAAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABhAHgAaQBzACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AYQBzAHMAMgAsACAASQBGACgAKABJAFMATwBNAEkAVABUAEUARAAoAG0AYQBzAHMAMgApACkAKwAoAG0AYQBzAHMAMgAgAD0AIAAxACkALAAgADAALAAgACgAbQBhAHMAcwAyACAAKgAgADMALgAwADAAMgA3ADMAZQAtADYAKQApACwAXABuACAAIAAgACAAcABlAHIAaQBvAGQALAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAKABtAGEAcwBzADEAIAArACAAbQBhAHMAcwAyACkAKQAsAFwAbgAgACAAIAAgAHAAZQByAGkAbwBkAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEMAUgBPAFMAUwBJAE4ARwBfAE8AUgBCAEkAVABfAFAAQQBSAEEATQBFAFQARQBSACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALABcAG4AXABuAEEAQgBTACgAbQBhAHMAcwAxACAALQAgAG0AYQBzAHMAMgApAC8AQQBCAFMAKABtAGEAcwBzADEAIAArAG0AYQBzAHMAMgApAFwAbgBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBQAEUAUgBJAE8ARABfAEEAWABJAFMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AXABuACAAIAAgACAAUABPAFcARQBSACgAUABPAFcARQBSACgAaQBuAHAAdQB0ACwAIAAyACkALAAgACgAMQAgAC8AIAAzACkAKQBcAG4AXABuACkAOwBcAG4AXABuAE8AUgBCAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGEAeABpAHMALAAgAHAAZQByAGkAbwBkACwAXABuAFwAbgBQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQBcAG4AKQA7AFwAbgBcAG4AUwBQAEgARQBSAEkAQwBBAEwAXwBUAE8AXwBDAEEAUgBUAEUAUwBJAEEATgAgAD0AIABMAEEATQBCAEQAQQAoAHAAaABpACwAIAB0AGgAZQB0AGEALAAgAHIALAAgAFsAcAByAGUAYwBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACkALAAgACAAIAAgAFwAbgAgACAAIAAgAHoAXwBtAG8AZAAsACAAcwBpAGcAbgAoAHQAaABlAHQAYQApACwAXABuACAAIAAgACAAeQBfAG0AbwBkACwAIABzAGkAZwBuACgAcABoAGkAKQAsAFwAbgAgACAAIAAgAHgAXwBtAG8AZAAsACAAaQBmACgAYQBiAHMAKABwAGgAaQApADwAOQAwACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgAC8ALwB4AF8AbQBvAGQAXABuACAAIAAgACAALwAvAHQAZQB4AHQAagBvAGkAbgAoAFwAIgAsAFwAIgAsACwAeABfAG0AbwBkACwAIAB5AF8AbQBvAGQALAAgAHoAXwBtAG8AZAApAFwAbgAgACAAIAAgAGEAbgBnAF8AeAAsACAAcgBhAGQAaQBhAG4AcwAoAG0AbwBkACgAcABoAGkALAA5ADAAKQApACwAXABuACAAIAAgACAAYQBuAGcAXwB6ACwAIAByAGEAZABpAGEAbgBzACgAYQBiAHMAKAB0AGgAZQB0AGEAKQApACwAXABuACAAIAAgACAAZAAsACAAYwBvAHMAKABhAG4AZwBfAHoAKQAqAHIALABcAG4AIAAgACAAIAB4ACwAIAByAG8AdQBuAGQAKABjAG8AcwAoAGEAbgBnAF8AeAApACoAZAAqAHgAXwBtAG8AZAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAeQAsACAAcgBvAHUAbgBkACgAcwBpAG4AKABhAG4AZwBfAHgAKQAqAGQAKgB5AF8AbQBvAGQALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHoALAAgAHIAbwB1AG4AZAAoAHMAaQBuACgAYQBuAGcAXwB6ACkAKgByACoAegBfAG0AbwBkACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAdABlAHgAdABqAG8AaQBuACgAXAAiAHwAXAAiACwALAB4ACwAIAB5ACwAIAB6ACkALABcAG4AIAAgACAAIAAvAC8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAdABvAHIAbwB3ACgAdABlAHgAdABzAHAAbABpAHQAKAByAGUAcwB1AGwAdAAsAFwAIgB8AFwAIgApACkAXABuACkAXABuAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQARQBDAF8ARABNAFMAIAA9ACAATABBAE0AQgBEAEEAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAARABlAGcALAAgAFQAUgBVAE4AQwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4ALAAgAEEAQgBTACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACAALQAgAEQAZQBnACkALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAF8AcABhAHIAdAAsACAAVABSAFUATgBDACgATQBpAG4AdQB0AGUAcwApACAALwAgADEAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAcgBhAGMATQBpAG4ALAAgAEEAQgBTACgATQBpAG4AdQB0AGUAcwAgAC0AIABJAG4AdABNAGkAbgApACwAXABuACAAIAAgACAAIAAgACAAIABTAGUAYwBvAG4AZABzACwAIABGAHIAYQBjAE0AaQBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBlAGMAXwBwAGEAcgB0ACwAIABTAGUAYwBvAG4AZABzACAALwAgADEAMAAwADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEQAZQBnACAAKwAgAE0AaQBuAF8AcABhAHIAdAAgACsAIABzAGUAYwBfAHAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgAEYASQBYAEUARAAoAG8AdQB0AHAAdQB0ACwAIAA3ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARABFAEcAXwBEAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAGQAZQBjAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAUAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAUAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgAEQAZQBnACwAIABUAFIAVQBOAEMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAKQAsAFwAbgAgACAAIAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAsACAAQQBCAFMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAIAAtACAARABlAGcAKQAsAFwAbgAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIABGAHIAYQBjAE0AaQBuACwAIABBAEIAUwAoAE0AaQBuAHUAdABlAHMAIAAtACAASQBuAHQATQBpAG4AKQAsAFwAbgAgACAAIAAgAFMAZQBjAG8AbgBkAHMALAAgAEYAcgBhAGMATQBpAG4AIAAqACAANgAwACwAXABuACAAIAAgACAARABlAGcAIAAmACAAXAAiALAAIABcACIAIAAmACAASQBuAHQATQBpAG4AIAAmACAAQwBIAEEAUgAoADMAOQApACAAJgAgAEMASABBAFIAKAAzADIAKQAgACYAIABGAEkAWABFAEQAKABTAGUAYwBvAG4AZABzACwAIABkAGUAYwBwAHIAZQBjACkAIAAmACAAQwBIAEEAUgAoADMANAApAFwAbgApAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQATQBTAF8ARABFAEMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGcAcgBlAGUAcwAsACAAVABSAFUATgBDACgAaQBuAHAAdQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AaQBuAHUAdABlAHMALAAgAFQAUgBVAE4AQwAoACgAaQBuAHAAdQB0ACAALQAgAGQAZQBnAHIAZQBlAHMAKQAgACoAIAAxADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAHQAaQBvAG4AYQBsAF8AcwBlAGMAbwBuAGQAcwAsACAAKAAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACAALQAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACkAIAAvACAAMAAuADYALABcAG4AIAAgACAAIAAgACAAIAAgAC8AKgAgACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAGQAZQBnAHIAZQBlAHMAIAArACAAKAAoAG0AaQBuAHUAdABlAHMAIAArACAAZgByAGEAYwB0AGkAbwBuAGEAbABfAHMAZQBjAG8AbgBkAHMAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AQQBYAEkAUwBfAFAARQBSAEkATwBEACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAXABuAFwAbgAgACAAIAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABpAG4AcAB1AHQALAAgADMAKQApAFwAbgAgACAAIAAgAFwAbgApADsAXABuAFwAbgAiAH0ALAB7ACIAcABhAHQAaAAiADoAIgAvAHAAcgBvAGoAZQBjAHQAcwAvAEcAZQBuAGUAcgBhAGwAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABSAEUAQwBJAFAAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAByAGUAYwBpAHAAcgBvAGMAYQBsACAAKABtAHUAbAB0AGkAcABsAGkAYwBhAHQAaQB2AGUAIABpAG4AdgBlAHIAcwBlACkAIABvAGYAIABhACAAbgB1AG0AYgBlAHIALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHMAaQBuAGcAbABlACAAZABlAGMAaQBtAGEAbAAgAHYAYQBsAHUAZQAgAGUAcQB1AGEAbAAgAHQAbwAgADEAIABkAGkAdgBpAGQAZQBkACAAYgB5ACAAdABoAGUAIABpAG4AcAB1AHQALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAGkAbgBwAHUAdAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAbgB5ACAAbgBvAG4AegBlAHIAbwAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAUgBlAHQAdQByAG4AcwAgAGAAIwBEAEkAVgAvADAAIQBgACAAaQBmACAAaQBuAHAAdQB0ACAAaQBzACAAegBlAHIAbwAuAFwAbgAgACAAIAAtACAAVQBzAGUAZgB1AGwAIABmAG8AcgAgAGYAbABpAHAAcABpAG4AZwAgAGYAcgBhAGMAdABpAG8AbgBzACwAIABjAG8AbgB2AGUAcgB0AGkAbgBnACAAcgBhAHQAZQBzACAAKABlAC4AZwAuACwAIABIAHoAIACUISAAcwBlAGMAbwBuAGQAcwApACwAIABvAHIAIABpAG4AdgBlAHIAdABpAG4AZwAgAHIAYQB0AGkAbwBzAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgACAAIABSAEUAQwBJAFAAKAA0ACkAIACSISAAMAAuADIANQBcAG4AIAAgACAAIAAgAFIARQBDAEkAUAAoADAALgAyACkAIACSISAANQBcAG4AKgAvAFwAbgBcAG4AXABuAFIARQBDAEkAUAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAMQAgAC8AIABpAG4AcAB1AHQAKQA7AFwAbgBcAG4ALwAqACAARgBSAEEAQwA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIAAoAG4AbwBuAC0AaQBuAHQAZQBnAGUAcgApACAAcABhAHIAdAAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAcwBjAGEAbABhAHIAIABkAGUAYwBpAG0AYQBsACAAYgBlAHQAdwBlAGUAbgAgADAAIABhAG4AZAAgADEAIAAoAG8AcgAgAC0AMQAgAGEAbgBkACAAMAAgAGkAZgAgAHMAaQBnAG4AIABpAHMAIABwAHIAZQBzAGUAcgB2AGUAZAApAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABpAG4AcAB1AHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABUAGgAZQAgAG4AdQBtAGIAZQByACAAdABvACAAZQB4AHQAcgBhAGMAdAAgAHQAaABlACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIABmAHIAbwBtAC4AXABuACAAIAAgAC0AIABtAG8AZABlACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATwB1AHQAcAB1AHQAIABtAG8AZABlACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAtACAAMAA6ACAAQQBsAHcAYQB5AHMAIAByAGUAdAB1AHIAbgAgAHAAbwBzAGkAdABpAHYAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0AFwAbgAgACAAIAAgACAAIAAgAC0AIAAxADoAIABQAHIAZQBzAGUAcgB2AGUAIABzAGkAZwBuACAAbwBmACAAaQBuAHAAdQB0ACAAKABlAC4AZwAuACwAIAAtADMALgAyADUAIACSISAALQAwAC4AMgA1ACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEMAbwBtAHAAbABlAG0AZQBuAHQAcwAgAEUAeABjAGUAbAAZIHMAIABUAFIAVQBOAEMAIABhAG4AZAAgAFEAVQBPAFQASQBFAE4AVAAgAGYAdQBuAGMAdABpAG8AbgBzAC4AXABuACAAIAAgAC0AIABVAHMAZQBmAHUAbAAgAGYAbwByACAAZABlAHQAZQBjAHQAaQBuAGcAIABkAGUAYwBpAG0AYQBsACAAcgBlAG0AYQBpAG4AZABlAHIAcwAgAGEAbgBkACAAYQBuAGEAbAB5AHoAaQBuAGcAIABvAGYAZgBzAGUAdABzACAAZgByAG8AbQAgAHcAaABvAGwAZQAgAHYAYQBsAHUAZQBzAC4AXABuACAAIAAgAC0AIABTAGkAZwBuAC0AcAByAGUAcwBlAHIAdgBpAG4AZwAgAG0AbwBkAGUAIABjAGEAbgAgAGkAbgBkAGkAYwBhAHQAZQAgAHcAaABlAHQAaABlAHIAIABhACAAdgBhAGwAdQBlACAAaQBzACAAagB1AHMAdAAgAGEAYgBvAHYAZQAgAG8AcgAgAGoAdQBzAHQAIABiAGUAbABvAHcAIABhAG4AIABpAG4AdABlAGcAZQByAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAARgBSAEEAQwAoAC0AMwAuADIANQApACAAIAAgACAAIAAgACAAkiEgADAALgAyADUAIAAgAFwAbgAgACAAIABGAFIAQQBDACgALQAzAC4AMgA1ACwAIAAxACkAIAAgACAAIACSISAALQAwAC4AMgA1AFwAbgAqAC8AXABuAFwAbgBcAG4ARgBSAEEAQwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARABlAGYAYQB1AGwAdAAgAG0AbwBkAGUAIAB0AG8AIAAwACAAaQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAGkAbgB2AGEAbABpAGQAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBtAHAAdQB0AGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGIAeQAgAHMAdQBiAHQAcgBhAGMAdABpAG4AZwAgAGkAbgB0AGUAZwBlAHIAIABwAG8AcgB0AGkAbwBuAFwAbgAgACAAIAAgACAAIAAgACAAZgByAGEAYwBfAHAAYQByAHQALAAgAGkAbgBwAHUAdAAgAC0AIABUAFIAVQBOAEMAKABpAG4AcAB1AHQAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAZQB0AHUAcgBuACAAcwBpAGcAbgBlAGQAIABvAHIAIABhAGIAcwBvAGwAdQB0AGUAIAB2AGEAbAB1AGUAIABkAGUAcABlAG4AZABpAG4AZwAgAG8AbgAgAG0AbwBkAGUAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABtAG8AZABlACAAPQAgADEALAAgAGYAcgBhAGMAXwBwAGEAcgB0ACwAIABBAEIAUwAoAGYAcgBhAGMAXwBwAGEAcgB0ACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABSAE8ATwBUADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeAAtAHQAaAAgAHIAbwBvAHQAIABvAGYAIABhACAAbgB1AG0AYgBlAHIAIAAoAG8AcgAgAHMAcQB1AGEAcgBlACAAcgBvAG8AdAAgAGkAZgAgAG4AbwAgAGQAZQBnAHIAZQBlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQAKQAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAcgBlAGEAbAAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIAByAG8AbwB0ACAAbwBmACAAYABuAGAALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAG4AIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABUAGgAZQAgAG4AdQBtAGIAZQByACAAdABvACAAdABhAGsAZQAgAHQAaABlACAAcgBvAG8AdAAgAG8AZgAuAFwAbgAgACAAIAAtACAAeAAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAFQAaABlACAAcgBvAG8AdAAgAGQAZQBnAHIAZQBlAC4AIABEAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAyACAAKABzAHEAdQBhAHIAZQAgAHIAbwBvAHQAKQAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABSAGUAagBlAGMAdABzACAAYQBsAGwAIABuAGUAZwBhAHQAaQB2AGUAIABpAG4AcAB1AHQAIAB2AGEAbAB1AGUAcwAgAGYAbwByACAAYABuAGAALAAgAHIAZQBnAGEAcgBkAGwAZQBzAHMAIABvAGYAIAByAG8AbwB0AC4AXABuACAAIAAgAC0AIABNAGkAbQBpAGMAcwAgAEUAeABjAGUAbAAnAHMAIABiAGUAaABhAHYAaQBvAHIAIAAoAHIAZQB0AHUAcgBuAHMAIAAjAE4AVQBNACEAIABpAGYAIAByAG8AbwB0ACAAdwBvAHUAbABkACAAYgBlACAAYwBvAG0AcABsAGUAeAApAC4AXABuACAAIAAgAC0AIABVAHMAZQAgAEUAeABjAGUAbAAZIHMAIABgAEkATQBQAE8AVwBFAFIAYAAgAG8AcgAgAGAASQBNAFMAUQBSAFQAYAAgAGYAbwByACAAYwBvAG0AcABsAGUAeAAgAG4AdQBtAGIAZQByACAAcwB1AHAAcABvAHIAdAAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgAFIATwBPAFQAKAAxADYAKQAgACAAIAAgACAAIAAgAJIhIAA0AFwAbgAgACAAIABSAE8ATwBUACgAMgA3ACwAIAAzACkAIAAgACAAIACSISAAMwBcAG4AIAAgACAAUgBPAE8AVAAoADkALAAgADAALgA1ACkAIAAgACAAkiEgADgAMQBcAG4AIAAgACAAUgBPAE8AVAAoAC0ANQAsACAAMwApACAAIAAgACAAkiEgACMATgBVAE0AIQBcAG4AKgAvAFwAbgBcAG4AUgBPAE8AVAAgAD0AIABMAEEATQBCAEQAQQAoAG4ALAAgAFsAeABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHIAbwBvAHQAXwBkAGUAZwByAGUAZQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKAB4ACkALAAgADIALAAgAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAbgAgADwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAUQBSAFQAKAAtADEAKQAsACAAIAAvAC8AIABUAHIAaQBnAGcAZQByAHMAIAAjAE4AVQBNACEAIABlAHIAcgBvAHIAIABmAG8AcgAgAG4AZQBnAGEAdABpAHYAZQAgAGIAYQBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG4AIABeACAAKAAxACAALwAgAHIAbwBvAHQAXwBkAGUAZwByAGUAZQApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABGAE8AUgBNAFUATABBAF8AVABFAFgAVABcAG4AIAAgACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAYQAgAG8AbgBlAC0AbABpAG4AZQAsACAAbABhAGIAZQBsAGUAZAAgAHYAZQByAHMAaQBvAG4AIABvAGYAIAB0AGgAZQAgAGYAbwByAG0AdQBsAGEAIABpAG4AIAB0AGgAZQAgAGcAaQB2AGUAbgAgAGMAZQBsAGwALABcAG4AIAAgACAAbwBtAGkAdAB0AGkAbgBnACAAdABoAGUAIABsAGUAYQBkAGkAbgBnACAAZQBxAHUAYQBsACAAcwBpAGcAbgAgAGEAbgBkACAAcAByAGUAcABlAG4AZABpAG4AZwAgAHQAaABlACAAYwBlAGwAbAAgAHIAZQBmAGUAcgBlAG4AYwBlAC4AXABuAFwAbgAgACAAIABTAHkAbgB0AGEAeAA6AFwAbgAgACAAIAAgACAARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAKABjAGUAbABsACkAXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgACAAIABjAGUAbABsACAAOgAgAEEAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAbwAgAGEAIABjAGUAbABsACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAIABmAG8AcgBtAHUAbABhAC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgACAAIABBACAAcwBpAG4AZwBsAGUALQBsAGkAbgBlACAAcwB0AHIAaQBuAGcAIABpAG4AIAB0AGgAZQAgAGYAbwByAG0AYQB0ACAAXAAiAEEAMQA6AD0AIABGAE8AUgBNAFUATABBACgALgAuAC4AKQBcACIAXABuACAAIAAgACAAIABVAHMAZQBmAHUAbAAgAGYAbwByACAAYQB1AGQAaQB0AGkAbgBnACwAIABkAG8AYwB1AG0AZQBuAHQAYQB0AGkAbwBuACwAIABkAGEAcwBoAGIAbwBhAHIAZABzACwAIABvAHIAIAB0AGUAYQBjAGgAaQBuAGcAIAB0AG8AbwBsAHMALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAcwA6AFwAbgAgACAAIAAgACAARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAKABCADMAKQAgACAAkiEgAFwAIgBCADMAOgA9ACAAUgBFAEMASQBQACgAUgBPAE8AVAAoAFAASQAoACkALAAzACkAKQBcACIAXABuACAAIAAgACAAIABGAE8AUgBNAFUATABBAF8AVABFAFgAVAAoAEMANQApACAAIACSISAAXAAiAEMANQA6AD0AIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAzACkAXAAiAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAAVABoAGUAIAByAGUAcwB1AGwAdAAgAGkAcwAgAGUAcQB1AGkAdgBhAGwAZQBuAHQAIAB0AG8AOgAgAEMARQBMAEwAKABcACIAYQBkAGQAcgBlAHMAcwBcACIALAAgAGMAZQBsAGwAKQAgACYAIABcACIAOgA9ACAAXAAiACAAJgAgAFQARQBYAFQAQQBGAFQARQBSACgARgBPAFIATQBVAEwAQQBUAEUAWABUACgAYwBlAGwAbAApACwAIABcACIAPQBcACIAKQBcAG4AIAAgACAAIAAgAC0AIABJAGYAIAB0AGgAZQAgAHIAZQBmAGUAcgBlAG4AYwBlAGQAIABjAGUAbABsACAAZABvAGUAcwAgAG4AbwB0ACAAYwBvAG4AdABhAGkAbgAgAGEAIABmAG8AcgBtAHUAbABhACwAIABhAG4AIABlAHIAcgBvAHIAIAB3AGkAbABsACAAbwBjAGMAdQByAC4AXABuACAAIAAgACAAIAAtACAAVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAGQAbwBlAHMAIABuAG8AdAAgAGUAdgBhAGwAdQBhAHQAZQAgAG8AcgAgAGEAbAB0AGUAcgAgAHQAaABlACAAZgBvAHIAbQB1AGwAYQAUIG8AbgBsAHkAIABmAG8AcgBtAGEAdABzACAAaQB0ACAAZgBvAHIAIABkAGkAcwBwAGwAYQB5AC4AXABuACoALwBcAG4AXABuAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUAD0ATABBAE0AQgBEAEEAKABcAG4AIAAgAGYAbwByAG0AdQBsAGEAXwBjAGUAbABsACwAIAAgAC8ALwAgAEEAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAbwAgAGEAIABjAGUAbABsACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAIABmAG8AcgBtAHUAbABhAFwAbgBcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAAcgBhAHcALAAgAEYATwBSAE0AVQBMAEEAVABFAFgAVAAoAGYAbwByAG0AdQBsAGEAXwBjAGUAbABsACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABcACIAPQBSAEUAQwBJAFAAKABSAE8ATwBUACgAUABJACgAKQAsADMAKQApAFwAIgBcAG4AIAAgACAAIABjAGwAZQBhAG4ALAAgAFQARQBYAFQAQQBGAFQARQBSACgAcgBhAHcALAAgAFwAIgA9AFwAIgApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABcACIAUgBFAEMASQBQACgAUgBPAE8AVAAoAFAASQAoACkALAAzACkAKQBcACIAXABuACAAIAAgACAAbABhAGIAZQBsACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAQwBFAEwATAAoAFwAIgBhAGQAZAByAGUAcwBzAFwAIgAsACAAZgBvAHIAbQB1AGwAYQBfAGMAZQBsAGwAKQAsACAAXAAiACQAXAAiACwAIABcACIAXAAiACkAIAAmACAAXAAiADoAPQAgAFwAIgAsAFwAbgAgACAAIAAgAGwAYQBiAGUAbAAgACYAIABjAGwAZQBhAG4AXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAUgBPAFUATgBEAF8ARgBJAFgAXABuACAAIAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAgACAAUgBvAHUAbgBkAHMAIABvAHIAIAB0AHIAdQBuAGMAYQB0AGUAcwAgAGEAIABuAHUAbQBiAGUAcgAgAHQAbwAgAGEAIABzAHAAZQBjAGkAZgBpAGUAZAAgAG4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzAC4AXABuACAAIAAgAE8AcAB0AGkAbwBuAGEAbABsAHkAIAByAGUAdAB1AHIAbgBzACAAdABoAGUAIAByAGUAcwB1AGwAdAAgAGEAcwAgAGEAIABmAGkAeABlAGQALQB3AGkAZAB0AGgAIAB0AGUAeAB0ACAAcwB0AHIAaQBuAGcALAAgAHAAcgBlAHMAZQByAHYAaQBuAGcAIAB0AHIAYQBpAGwAaQBuAGcAIAB6AGUAcgBvAHMALgBcAG4AXABuACAAIAAgAFMAeQBuAHQAYQB4ADoAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAG4AdQBtAGIAZQByACwAIABwAGwAYQBjAGUAcwAsACAAWwBhAHMAXwB0AGUAeAB0AF0ALAAgAFsAdQBzAGUAXwByAG8AdQBuAGQAXQApAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAgACAAbgB1AG0AYgBlAHIAIAAgACAAIAAgACAAOgAgAFQAaABlACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAgAHQAbwAgAHAAcgBvAGMAZQBzAHMALgBcAG4AIAAgACAAIAAgAHAAbABhAGMAZQBzACAAIAAgACAAIAAgADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAZQB0AGEAaQBuAC4AXABuACAAIAAgACAAIABhAHMAXwB0AGUAeAB0ACAAIAAgACAAIAA6ACAATwBwAHQAaQBvAG4AYQBsACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgAEYAQQBMAFMARQApAC4AIABJAGYAIABUAFIAVQBFACwAIAByAGUAdAB1AHIAbgBzACAAbwB1AHQAcAB1AHQAIABhAHMAIAB0AGUAeAB0ACAAKABlAC4AZwAuACwAIABcACIAMwAuADEANAAwAFwAIgApAC4AXABuACAAIAAgACAAIAB1AHMAZQBfAHIAbwB1AG4AZAAgACAAIAA6ACAATwBwAHQAaQBvAG4AYQBsACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgAEYAQQBMAFMARQApAC4AIABJAGYAIABUAFIAVQBFACwAIABhAHAAcABsAGkAZQBzACAAcgBvAHUAbgBkAGkAbgBnAC4AIABPAHQAaABlAHIAdwBpAHMAZQAsACAAdAByAHUAbgBjAGEAdABlAHMALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIABuAHUAbQBiAGUAcgAgAG8AcgAgAHQAZQB4AHQAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIAByAG8AdQBuAGQAZQBkACAAbwByACAAdAByAHUAbgBjAGEAdABlAGQAIAB2AGEAbAB1AGUAIAB0AG8AIABmAGkAeABlAGQAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAcwA6AFwAbgAgACAAIAAgACAAUgBPAFUATgBEAF8ARgBJAFgAKABQAEkAKAApACwAIAAyACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgADMALgAxADQAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAgADMALAAgAFQAUgBVAEUAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAXAAiADMALgAxADQAMQBcACIAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAgADQALAAgAFQAUgBVAEUALAAgAEYAQQBMAFMARQApACAAIAAgACAAIAAgACAAIACSISAAXAAiADMALgAxADQAMQA1AFwAIgBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAAMQAyACwAIABGAEEATABTAEUAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAJIhIAAzAC4AMQA0ADEANQA5ADIANgA1ADQAIAAgACAAKABjAGEAcABwAGUAZAAgAHQAbwAgADkAIABkAGUAYwBpAG0AYQBsAHMAKQBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAAMQAyACwAIABUAFIAVQBFACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAJIhIABcACIAMwAuADEANAAxADUAOQAyADYANQAzADUAOQAwAFwAIgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAgACAALQAgAEUAeABjAGUAbAAgAGwAaQBtAGkAdABzACAAbgB1AG0AZQByAGkAYwAgAGQAaQBzAHAAbABhAHkAIABwAHIAZQBjAGkAcwBpAG8AbgAgAHQAbwAgAH4AOQAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAuACAAVwBoAGUAbgAgAGEAcwBfAHQAZQB4AHQAIAA9ACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAIABpAHMAIABjAGEAcABwAGUAZAAgAGEAdAAgADkAIABkAGkAZwBpAHQAcwAgAGYAbwByACAAYwBvAG4AcwBpAHMAdABlAG4AYwB5AC4AXABuACAAIAAgACAAIAAtACAAVABvACAAZABpAHMAcABsAGEAeQAgAGYAdQBsAGwAIABwAHIAZQBjAGkAcwBpAG8AbgAgAG8AcgAgAHAAcgBlAHMAZQByAHYAZQAgAHQAcgBhAGkAbABpAG4AZwAgAHoAZQByAG8AcwAsACAAcwBlAHQAIABhAHMAXwB0AGUAeAB0ACAAPQAgAFQAUgBVAEUALgBcAG4AIAAgACAAIAAgAC0AIABTAHUAcABwAG8AcgB0AHMAIABiAG8AdABoACAAcgBvAHUAbgBkAGkAbgBnACAAYQBuAGQAIAB0AHIAdQBuAGMAYQB0AGkAbwBuACAAbQBvAGQAZQBzAC4AXABuACAAIAAgACAAIAAtACAASQBkAGUAYQBsACAAZgBvAHIAIABmAG8AcgBtAGEAdAB0AGkAbgBnACAAYwBvAG4AcwB0AGEAbgB0AHMALAAgAHYAaQBzAHUAYQBsACAAZABpAHMAcABsAGEAeQAgAGMAbwBuAHQAcgBvAGwALAAgAG8AcgAgAGUAbgBzAHUAcgBpAG4AZwAgAGMAbABlAGEAbgAgAG8AdQB0AHAAdQB0AHMAIABpAG4AIAByAGUAcABvAHIAdABzAC4AXABuACoALwBcAG4AXABuAFwAbgBSAE8AVQBOAEQAXwBGAEkAWAA9AEwAQQBNAEIARABBACgAXABuACAAIABuAHUAbQBiAGUAcgAsACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAZQBxAHUAaQByAGUAZAA6ACAAdABoAGUAIABuAHUAbQBiAGUAcgAgAHQAbwAgAHIAbwB1AG4AZAAgAG8AcgAgAHQAcgB1AG4AYwBhAHQAZQBcAG4AIAAgAHAAbABhAGMAZQBzACwAIAAgACAAIAAgACAAIAAgACAALwAvACAAUgBlAHEAdQBpAHIAZQBkADoAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAZQB0AGEAaQBuAFwAbgAgACAAWwBhAHMAXwB0AGUAeAB0AF0ALAAgACAAIAAgACAAIAAvAC8AIABPAHAAdABpAG8AbgBhAGwAOgAgAGkAZgAgAFQAUgBVAEUALAAgAHIAZQB0AHUAcgBuACAAcgBlAHMAdQBsAHQAIABhAHMAIAB0AGUAeAB0ACAAdwBpAHQAaAAgAGYAaQB4AGUAZAAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwBcAG4AIAAgAFsAdQBzAGUAXwByAG8AdQBuAGQAXQAsACAAIAAgACAALwAvACAATwBwAHQAaQBvAG4AYQBsADoAIABpAGYAIABUAFIAVQBFACwAIAByAG8AdQBuAGQAOwAgAGkAZgAgAEYAQQBMAFMARQAgAG8AcgAgAG8AbQBpAHQAdABlAGQALAAgAHQAcgB1AG4AYwBhAHQAZQBcAG4AXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAG4ALAAgAE4AKABuAHUAbQBiAGUAcgApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARQBuAHMAdQByAGUAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0AFwAbgAgACAAIAAgAHIAYQB3AF8AcAAsACAATgAoAHAAbABhAGMAZQBzACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAYQB3ACAAaQBuAHAAdQB0ACAAZgBvAHIAIABwAGwAYQBjAGUAcwBcAG4AIAAgACAAIAByAG8AdQBuAGQAXwBmAGwAYQBnACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAdQBzAGUAXwByAG8AdQBuAGQAKQAsACAARgBBAEwAUwBFACwAIAB1AHMAZQBfAHIAbwB1AG4AZAApACwAXABuACAAIAAgACAAcgBlAHQAdQByAG4AXwB0AGUAeAB0ACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAYQBzAF8AdABlAHgAdAApACwAIABGAEEATABTAEUALAAgAGEAcwBfAHQAZQB4AHQAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABFAHgAYwBlAGwAIABvAG4AbAB5ACAAcgBlAGwAaQBhAGIAbAB5ACAAZABpAHMAcABsAGEAeQBzACAAdQBwACAAdABvACAAOQAgAGQAZQBjAGkAbQBhAGwAcwAgAGEAcwAgAG4AdQBtAGUAcgBpAGMAXABuACAAIAAgACAAbQBhAHgAXwBwAGwAYQBjAGUAcwAsACAASQBGACgAcgBlAHQAdQByAG4AXwB0AGUAeAB0ACwAIAByAGEAdwBfAHAALAAgAE0ASQBOACgAcgBhAHcAXwBwACwAIAA5ACkAKQAsAFwAbgBcAG4AIAAgACAAIABwAHcAcgBfADEAMAAsACAAMQAwACAAXgAgAG0AYQB4AF8AcABsAGEAYwBlAHMALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFAAbwB3AGUAcgAgAG8AZgAgADEAMAAgAGYAbwByACAAcgBvAHUAbgBkAGkAbgBnAC8AdAByAHUAbgBjAGEAdABpAG8AbgBcAG4AXABuACAAIAAgACAALwAvACAAUABlAHIAZgBvAHIAbQAgAHIAbwB1AG4AZABpAG4AZwAgAG8AcgAgAHQAcgB1AG4AYwBhAHQAaQBvAG4AXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIAAgACAASQBGACgAcgBvAHUAbgBkAF8AZgBsAGEAZwAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAbgAsACAAbQBhAHgAXwBwAGwAYQBjAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABUAFIAVQBOAEMAKABuACAAKgAgAHAAdwByAF8AMQAwACkAIAAvACAAcAB3AHIAXwAxADAAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAATwBwAHQAaQBvAG4AYQBsAGwAeQAgAGYAbwByAG0AYQB0ACAAYQBzACAAZgBpAHgAZQBkAC0AbABlAG4AZwB0AGgAIABzAHQAcgBpAG4AZwBcAG4AIAAgACAAIABmAGkAbgBhAGwALABcAG4AIAAgACAAIAAgACAASQBGACgAcgBlAHQAdQByAG4AXwB0AGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAcgBlAHMAdQBsAHQALAAgAFwAIgAwAC4AXAAiACAAJgAgAFIARQBQAFQAKABcACIAMABcACIALAAgAG0AYQB4AF8AcABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABmAGkAbgBhAGwAXABuACAAIAApAFwAbgApADsAXABuAFwAbgAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAiACwAIgBBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAiACwAIgBBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAiACwAIgBBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAIgAsACIAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAiACwAIgBBAFMAVABSAE8AXwBTAFQAQQBSAF8AQQBUAFQAUgBJAEIAVQBUAEUAUwAiACwAIgBBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAiACwAIgBOAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACIALAAiAEEAUwBUAFIATwBfAFMAVABBAFIAXwBEAEUATgBTAEkAVABZAF8AVgBPAEwAVQBNAEUAIgAsACIAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8AUwBBAEYARQBUAFkAIgAsACIAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTACIALAAiAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAIgAsACIAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFMATwBMAFYARQBEACIALAAiAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBTAE8ATABWAEUAUgAiACwAIgBBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUABRACIALAAiAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBQAFMAIgAsACIAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFEAUwAiACwAIgBTAE0AQQBMAEwAQQBOAEcATABFACIALAAiAE8AUgBCAF8AQQBYAEkAUwAiACwAIgBPAFIAQgBfAFAARQBSAEkATwBEACIALAAiAEMAUgBPAFMAUwBJAE4ARwBfAE8AUgBCAEkAVABfAFAAQQBSAEEATQBFAFQARQBSACIALAAiAFAARQBSAEkATwBEAF8AQQBYAEkAUwAiACwAIgBPAFIAQgBfAFMAVQBNAF8ATQBBAFMAUwBFAFMAIgAsACIAUwBQAEgARQBSAEkAQwBBAEwAXwBUAE8AXwBDAEEAUgBUAEUAUwBJAEEATgAiACwAIgBEAEUARwBfAEQARQBDAF8ARABNAFMAIgAsACIARABFAEcAXwBEAE0AUwAiACwAIgBEAEUARwBfAEQATQBTAF8ARABFAEMAIgAsACIAQQBYAEkAUwBfAFAARQBSAEkATwBEACIALAAiAEcAZQBuAGUAcgBhAGwALgBSAEUAQwBJAFAAIgAsACIARwBlAG4AZQByAGEAbAAuAEYAUgBBAEMAIgAsACIARwBlAG4AZQByAGEAbAAuAFIATwBPAFQAIgAsACIARwBlAG4AZQByAGEAbAAuAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUACIALAAiAEcAZQBuAGUAcgBhAGwALgBSAE8AVQBOAEQAXwBGAEkAWAAiAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Astronomy Utilities/Astronomy Utlities.xlsx
+++ b/Astronomy Utilities/Astronomy Utlities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/Astronomy Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{649B3404-EA47-9646-87C5-83413B39C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5C87B4-C01D-1740-91AC-403925B346C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1100" windowWidth="33260" windowHeight="19560" activeTab="2" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
   </bookViews>
@@ -18,24 +18,28 @@
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="ASTRO_APPARENT_SOLAR_SIZE">_xlfn.LAMBDA(_xlpm.radius,_xlpm.distance,_xlop.format,_xlop.prec, _xlfn.LET(_xlpm.p, IF(_xlfn.ISOMITTED(_xlpm.prec), 4, _xlpm.prec), _xlpm.raw, _xlpm.radius / _xlpm.distance, _xlpm.result, IF(OR(_xlfn.ISOMITTED(_xlpm.format), _xlpm.format = "formatted"), TEXT(_xlpm.raw, "0." &amp; REPT("0", _xlpm.p)) &amp; "☉", _xlpm.raw), _xlpm.result))</definedName>
     <definedName name="ASTRO_CALC_TEMP">_xlfn.LAMBDA(_xlpm.subclass, _xlfn.LET(_xlpm.arrTypes, {"O3";"O4";"O5";"O6";"O7";"O8";"O9";"B0";"B1";"B2";"B3";"B4";"B5";"B6";"B7";"B8";"B9";"A0";"A1";"A2";"A3";"A4";"A5";"A6";"A7";"A8";"A9";"F0";"F1";"F2";"F3";"F4";"F5";"F6";"F7";"F8";"F9";"G0";"G1";"G2";"G3";"G4";"G5";"G6";"G7";"G8";"G9";"K0";"K1";"K2";"K3";"K4";"K5";"K6";"K7";"K8";"K9";"M0";"M1";"M2";"M3";"M4";"M5";"M6";"M7";"M8";"M9"}, _xlpm.arrTHigh, {44900;42900;41400;39500;37100;35100;33300;31400;26000;20600;17000;16400;15700;14500;14000;12300;10700;9700;9300;8800;8600;8250;8100;7910;7760;7590;7400;7220;7020;6820;6750;6670;6550;6350;6280;6180;6050;5930;5860;5770;5720;5680;5660;5600;5550;5480;5380;5270;5170;5100;4830;4600;4440;4300;4100;3990;3930;3850;3660;3560;3430;3210;3060;2810;2680;2570;2380}, _xlpm.arrSpan, {2000;1500;1900;2400;2000;1800;1900;5400;5400;3600;600;700;1200;500;1700;1600;1000;400;500;200;350;150;190;150;170;190;180;200;200;70;80;120;200;70;100;130;120;70;90;50;40;20;60;50;70;100;110;100;70;270;230;160;140;200;110;60;80;190;100;130;220;150;250;130;110;190;280}, _xlpm.mtxStars, _xlfn.HSTACK(_xlpm.arrTypes, _xlpm.arrTHigh, _xlpm.arrSpan), _xlpm.no_space, SUBSTITUTE(_xlpm.subclass, " ", ""), _xlpm.dot_pos, FIND(".", _xlpm.no_space &amp; ".0"), _xlpm.base, LEFT(_xlpm.no_space, _xlpm.dot_pos - 1), _xlpm.f, VALUE("0." &amp; MID(_xlpm.no_space, _xlpm.dot_pos + 1, LEN(_xlpm.no_space))), _xlpm.T_high, _xlfn.XLOOKUP(_xlpm.base, INDEX(_xlpm.mtxStars, , 1), INDEX(_xlpm.mtxStars, , 2)), _xlpm.span, _xlfn.XLOOKUP(_xlpm.base, INDEX(_xlpm.mtxStars, , 1), INDEX(_xlpm.mtxStars, , 3)), _xlpm.result, _xlpm.T_high - (_xlpm.f * _xlpm.span), _xlpm.result))</definedName>
+    <definedName name="ASTRO_CARTESIAN_TO_SPHERICAL">_xlfn.LAMBDA(_xlpm.x,_xlpm.y,_xlpm.z,_xlpm.prec, _xlfn.LET(_xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.r, SQRT(_xlpm.x ^ 2 + _xlpm.y ^ 2 + _xlpm.z ^ 2), _xlpm.phi, DEGREES(ACOS(_xlpm.z / _xlpm.r)), _xlpm.theta, MOD(DEGREES(ATAN2(_xlpm.y, _xlpm.x)), 360), _xlpm.phi_out, ROUND(_xlpm.phi, _xlpm.prec), _xlpm.theta_out, ROUND(_xlpm.theta, _xlpm.prec), _xlpm.r_out, ROUND(_xlpm.r, _xlpm.prec), _xlfn.HSTACK(_xlpm.phi_out, _xlpm.theta_out, _xlpm.r_out)))</definedName>
     <definedName name="ASTRO_DISPLAY_SPECTRAL">_xlfn.LAMBDA(_xlop.type, _xlfn.LET(_xlpm.Types, {"O";"B";"A";"F";"G";"K";"M"}, _xlpm.Headers, TRANSPOSE(_xlfn.VSTACK(" ", _xlpm.Types)), _xlpm.FindCol, _xlfn.MAKEARRAY(COUNTA(_xlpm.Types), 2, _xlfn.LAMBDA(_xlpm.r,_xlpm.c, IF(_xlpm.c = 1, INDEX(_xlpm.Types, _xlpm.r), _xlpm.r))), _xlpm.arrTypes, {"O";"O";"O";"O3";"O4";"O5";"O6";"O7";"O8";"O9";"B0";"B1";"B2";"B3";"B4";"B5";"B6";"B7";"B8";"B9";"A0";"A1";"A2";"A3";"A4";"A5";"A6";"A7";"A8";"A9";"F0";"F1";"F2";"F3";"F4";"F5";"F6";"F7";"F8";"F9";"G0";"G1";"G2";"G3";"G4";"G5";"G6";"G7";"G8";"G9";"K0";"K1";"K2";"K3";"K4";"K5";"K6";"K7";"K8";"K9";"M0";"M1";"M2";"M3";"M4";"M5";"M6";"M7";"M8";"M9"}, _xlpm.arrTHigh, {"";"";"";44900;42900;41400;39500;37100;35100;33300;31400;26000;20600;17000;16400;15700;14500;14000;12300;10700;9700;9300;8800;8600;8250;8100;7910;7760;7590;7400;7220;7020;6820;6750;6670;6550;6350;6280;6180;6050;5930;5860;5770;5720;5680;5660;5600;5550;5480;5380;5270;5170;5100;4830;4600;4440;4300;4100;3990;3930;3850;3660;3560;3430;3210;3060;2810;2680;2570;2380}, _xlpm.arrSpan, {"";"";"";2000;1500;1900;2400;2000;1800;1900;5400;5400;3600;600;700;1200;500;1700;1600;1000;400;500;200;350;150;190;150;170;190;180;200;200;70;80;120;200;70;100;130;120;70;90;50;40;20;60;50;70;100;110;100;70;270;230;160;140;200;110;60;80;190;100;130;220;150;250;130;110;190;280}, _xlpm.formattedData, _xlfn.BYROW(_xlfn.HSTACK(_xlpm.arrTypes, _xlpm.arrTHigh, _xlpm.arrSpan), _xlfn.LAMBDA(_xlpm.row, _xlfn.TEXTJOIN("; ", TRUE, TEXT(INDEX(_xlpm.row, 2), "0"), TEXT(INDEX(_xlpm.row, 3), "0")))), _xlpm.Numbers, _xlfn.SEQUENCE(10, 1, 0, 1), _xlpm.O_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "O"), _xlpm.B_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "B"), _xlpm.A_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "A"), _xlpm.F_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "F"), _xlpm.G_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "G"), _xlpm.K_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "K"), _xlpm.M_Stars, _xlfn._xlws.FILTER(_xlpm.formattedData, LEFT(_xlpm.arrTypes, 1) = "M"), _xlpm.fullTable, _xlfn.VSTACK(_xlpm.Headers, _xlfn.HSTACK(_xlpm.Numbers, _xlpm.O_Stars, _xlpm.B_Stars, _xlpm.A_Stars, _xlpm.F_Stars, _xlpm.G_Stars, _xlpm.K_Stars, _xlpm.M_Stars)), _xlpm.temps, _xlfn._xlws.FILTER(_xlpm.arrTHigh, LEFT(_xlpm.arrTypes, 1) = _xlpm.type), _xlpm.spans, _xlfn._xlws.FILTER(_xlpm.arrSpan, LEFT(_xlpm.arrTypes, 1) = _xlpm.type), _xlpm.typeHead, _xlfn.HSTACK(_xlpm.type, "span"), _xlpm.slimTable, _xlfn.VSTACK(_xlpm.typeHead, _xlfn.HSTACK(_xlpm.temps, _xlpm.spans)), _xlpm.result, IF(ISBLANK(_xlpm.type), _xlpm.fullTable, _xlpm.slimTable), _xlpm.result))</definedName>
     <definedName name="ASTRO_HAB_INDEX">_xlfn.LAMBDA(_xlpm.orbital_dist,_xlop.nucleal_radius,_xlop.prec, _xlfn.LET(_xlpm.rounding_precision, IF(_xlfn.ISOMITTED(_xlpm.prec), 3, _xlpm.prec), _xlpm.nucleal_radius, IF(_xlfn.ISOMITTED(_xlpm.nucleal_radius), 1, _xlpm.nucleal_radius), _xlpm.is_inner_orbit, IF(_xlpm.orbital_dist &lt; _xlpm.nucleal_radius, TRUE, FALSE), _xlpm.habitability_index, IF(_xlpm.is_inner_orbit, (2 * _xlpm.orbital_dist / _xlpm.nucleal_radius) - 1, (_xlpm.orbital_dist / (-3.85 * _xlpm.nucleal_radius)) + (4.85 / 3.85)), _xlpm.final_result, IF(_xlpm.habitability_index &lt;= 0, "U/I", ROUND(_xlpm.habitability_index, _xlpm.rounding_precision)), _xlpm.final_result))</definedName>
     <definedName name="ASTRO_HABITABLE_ZONES">_xlfn.LAMBDA(_xlpm.mode,_xlop.lum,_xlop.precision, _xlfn.LET(_xlpm.mode, UPPER(_xlpm.mode), _xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.zone_labels, {"Z0";"Z1";"Z2";"Z3";"Z4";"Z5"}, _xlpm.inner_factors, {0;0.5;0.75;0.95;1.385;1.77}, _xlpm.outer_factors, {0.5;0.75;0.95;1.385;1.77;4.85}, _xlpm.avg_factors, (_xlpm.inner_factors + _xlpm.outer_factors) / 2, _xlpm.span_factors, _xlpm.outer_factors - _xlpm.inner_factors, _xlpm.nucleal, SQRT(IF(_xlfn.ISOMITTED(_xlpm.lum), 1, _xlpm.lum)), _xlpm.inner_scaled, ROUND(_xlpm.nucleal * _xlpm.inner_factors, _xlpm.prec), _xlpm.outer_scaled, ROUND(_xlpm.nucleal * _xlpm.outer_factors, _xlpm.prec), _xlpm.avg_scaled, ROUND(_xlpm.nucleal * _xlpm.avg_factors, _xlpm.prec), _xlpm.span_scaled, ROUND(_xlpm.nucleal * _xlpm.span_factors, _xlpm.prec), _xlpm.vertical_labels, {"0: ","1: ","2: ","N ➔","3: ","4: ","5: "}, _xlpm.vertical_values, _xlfn.VSTACK(ROUND(INDEX(_xlpm.inner_factors, 2) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.inner_factors, 3) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.inner_factors, 4) * _xlpm.nucleal, _xlpm.prec), ROUND(_xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.outer_factors, 4) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.outer_factors, 5) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.outer_factors, 6) * _xlpm.nucleal, _xlpm.prec)), _xlpm.result, _xlfn.SWITCH(_xlpm.mode, "STANDARD", CHOOSE({1,2,3,4,5}, _xlfn.VSTACK("Zone", _xlpm.zone_labels), _xlfn.VSTACK("Inner", _xlpm.inner_factors), _xlfn.VSTACK("Outer", _xlpm.outer_factors), _xlfn.VSTACK("Average", _xlpm.avg_factors), _xlfn.VSTACK("Span", _xlpm.span_factors)), "VERTICAL", _xlfn.LET(_xlpm.labels, {"0:","1:","2:","N ➔","3:","4:","5:"}, _xlpm.scaled_values, ROUND(_xlpm.nucleal * {0.5,0.75,0.95,1,1.385,1.77,4.85}, _xlpm.prec), TRANSPOSE(_xlfn.VSTACK(_xlpm.labels, _xlpm.scaled_values))), "HORIZONTAL", _xlfn.HSTACK(ROUND(INDEX(_xlpm.inner_factors, 2) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.inner_factors, 3) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.inner_factors, 4) * _xlpm.nucleal, _xlpm.prec), ROUND(_xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.outer_factors, 4) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.outer_factors, 5) * _xlpm.nucleal, _xlpm.prec), ROUND(INDEX(_xlpm.outer_factors, 6) * _xlpm.nucleal, _xlpm.prec)), "Invalid mode"), _xlpm.result))</definedName>
+    <definedName name="ASTRO_ORBIT_AXIS">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2,_xlpm.period, _xlfn.LET(_xlpm.m_2, IF((_xlfn.ISOMITTED(_xlpm.mass2)) + (_xlpm.mass2 = 1), 0, _xlpm.mass2 * 0.000003003), _xlpm.axis, POWER((POWER(_xlpm.period, 2) * (_xlpm.mass1 + _xlpm.m_2)), 1 / 3), _xlpm.axis))</definedName>
+    <definedName name="ASTRO_ORBIT_CONFIGURATION_INDEX">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2, ABS(_xlpm.mass1 - _xlpm.mass2) / (_xlpm.mass1 + _xlpm.mass2))</definedName>
+    <definedName name="ASTRO_ORBIT_PERIOD">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2,_xlpm.axis, _xlfn.LET(_xlpm.m_2, IF((_xlfn.ISOMITTED(_xlpm.mass2)) + (_xlpm.mass2 = 1), 0, _xlpm.mass2 * 0.00000300273), _xlpm.period, SQRT(POWER(_xlpm.axis, 3) / (_xlpm.mass1 + _xlpm.m_2)), _xlpm.period))</definedName>
+    <definedName name="ASTRO_ORBIT_SOLVER">_xlfn.LAMBDA(_xlpm.mode,_xlpm.val_1,_xlpm.val_2,_xlpm.mass2,_xlpm.precision, _xlfn.LET(_xlpm.m_2, IF(_xlfn.ISOMITTED(_xlpm.mass2) + (_xlpm.mass2 = 1), 0, _xlpm.mass2 * 0.000003003), _xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.precision), 4, _xlpm.precision), _xlpm.result, _xlfn.SWITCH(LOWER(_xlpm.mode), "axis", POWER((POWER(_xlpm.val_2, 2) * (_xlpm.val_1 + _xlpm.m_2)), 1 / 3), "period", SQRT(POWER(_xlpm.val_2, 3) / (_xlpm.val_1 + _xlpm.m_2)), "mass", POWER(_xlpm.val_1, 3) / POWER(_xlpm.val_2, 2), NA()), _xlpm.label, _xlfn.SWITCH(LOWER(_xlpm.mode), "axis", "Axis = ", "period", "Period = ", "mass", "Mass = ", "?"), TEXT(_xlpm.result, "0." &amp; REPT("0", _xlpm.prec)) &amp; " " &amp; _xlpm.label))</definedName>
+    <definedName name="ASTRO_ORBIT_SUM_MASSES">_xlfn.LAMBDA(_xlpm.axis,_xlpm.period, POWER(_xlpm.axis, 3) / POWER(_xlpm.period, 2))</definedName>
     <definedName name="ASTRO_PLANET_METRICS">_xlfn.LAMBDA(_xlpm.mode,_xlpm.param_1,_xlpm.param_2,_xlop.prec, _xlfn.LET(_xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec), 5, _xlpm.prec), _xlpm.mode, LOWER(_xlpm.mode), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, "md", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.d, _xlpm.param_2, _xlpm.R, (_xlpm.M / _xlpm.d) ^ (1 / 3), _xlpm.g, (_xlpm.M * _xlpm.d ^ 2) ^ (1 / 3), _xlpm.v, (_xlpm.M * SQRT(_xlpm.d)) ^ (1 / 3), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "mr", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.R, _xlpm.param_2, _xlpm.d, _xlpm.M / _xlpm.R ^ 3, _xlpm.g, _xlpm.M / _xlpm.R ^ 2, _xlpm.v, SQRT(_xlpm.M / _xlpm.R), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "mg", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.g, _xlpm.param_2, _xlpm.R, SQRT(_xlpm.M / _xlpm.g), _xlpm.d, SQRT(_xlpm.g ^ 3 / _xlpm.M), _xlpm.v, (_xlpm.M * _xlpm.g) ^ 0.25, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "rd", _xlfn.LET(_xlpm.R, _xlpm.param_1, _xlpm.d, _xlpm.param_2, _xlpm.M, _xlpm.d * _xlpm.R ^ 3, _xlpm.g, _xlpm.d * _xlpm.R, _xlpm.v, _xlpm.R * SQRT(_xlpm.d), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "rg", _xlfn.LET(_xlpm.R, _xlpm.param_1, _xlpm.g, _xlpm.param_2, _xlpm.M, _xlpm.g * _xlpm.R ^ 2, _xlpm.d, _xlpm.g / _xlpm.R, _xlpm.v, SQRT(_xlpm.g * _xlpm.R), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "dg", _xlfn.LET(_xlpm.d, _xlpm.param_1, _xlpm.g, _xlpm.param_2, _xlpm.R, _xlpm.g / _xlpm.d, _xlpm.M, _xlpm.g ^ 3 / _xlpm.d ^ 2, _xlpm.v, _xlpm.g / SQRT(_xlpm.d), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "dv", _xlfn.LET(_xlpm.d, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.R, _xlpm.v / SQRT(_xlpm.d), _xlpm.M, _xlpm.v ^ 3 / SQRT(_xlpm.d), _xlpm.g, _xlpm.v * SQRT(_xlpm.d), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "gv", _xlfn.LET(_xlpm.g, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.R, _xlpm.v ^ 2 / _xlpm.g, _xlpm.M, _xlpm.v ^ 4 / _xlpm.g, _xlpm.d, (_xlpm.g / _xlpm.v) ^ 2, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "mv", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.R, _xlpm.M / _xlpm.v ^ 2, _xlpm.g, _xlpm.v ^ 4 / _xlpm.M, _xlpm.d, _xlpm.v ^ 6 / _xlpm.M ^ 2, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "rv", _xlfn.LET(_xlpm.R, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.g, _xlpm.v ^ 2 / _xlpm.R, _xlpm.M, _xlpm.R * _xlpm.v ^ 2, _xlpm.d, (_xlpm.v / _xlpm.R) ^ 2, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), NA()), _xlpm.headers, _xlfn.SWITCH(_xlpm.mode, "md", {"M ➔","R","d ➔","g","v"}, "mr", {"M ➔","R ➔","d","g","v"}, "mg", {"M ➔","R","d","g ➔","v"}, "rd", {"M","R ➔","d ➔","g","v"}, "rg", {"M","R ➔","d","g ➔","v"}, "dg", {"M","R","d ➔","g ➔","v"}, "dv", {"M","R","d ➔","g","v ➔"}, "gv", {"M","R","d","g ➔","v ➔"}, "mv", {"M ➔","R","d","g","v ➔"}, "rv", {"M","R ➔","d","g","v ➔"}, {"M","R","d","g","v"}), _xlpm.values, ROUND(_xlpm.output, _xlpm.prec), CHOOSE({1,2}, TRANSPOSE(_xlpm.headers), TRANSPOSE(_xlpm.values))))</definedName>
     <definedName name="ASTRO_PLANET_METRICS_SAFETY">_xlfn.LAMBDA(_xlpm.mode,_xlpm.param_1,_xlpm.param_2,_xlop.prec, _xlfn.LET(_xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec), 5, _xlpm.prec), _xlpm.mode, LOWER(_xlpm.mode), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, "md", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.d, _xlpm.param_2, _xlpm.R, (_xlpm.M / _xlpm.d) ^ (1 / 3), _xlpm.g, (_xlpm.M * _xlpm.d ^ 2) ^ (1 / 3), _xlpm.v, (_xlpm.M * SQRT(_xlpm.d)) ^ (1 / 3), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "mr", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.R, _xlpm.param_2, _xlpm.d, _xlpm.M / _xlpm.R ^ 3, _xlpm.g, _xlpm.M / _xlpm.R ^ 2, _xlpm.v, SQRT(_xlpm.M / _xlpm.R), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "mg", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.g, _xlpm.param_2, _xlpm.R, SQRT(_xlpm.M / _xlpm.g), _xlpm.d, SQRT(_xlpm.g ^ 3 / _xlpm.M), _xlpm.v, (_xlpm.M * _xlpm.g) ^ 0.25, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "rd", _xlfn.LET(_xlpm.R, _xlpm.param_1, _xlpm.d, _xlpm.param_2, _xlpm.M, _xlpm.d * _xlpm.R ^ 3, _xlpm.g, _xlpm.d * _xlpm.R, _xlpm.v, _xlpm.R * SQRT(_xlpm.d), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "rg", _xlfn.LET(_xlpm.R, _xlpm.param_1, _xlpm.g, _xlpm.param_2, _xlpm.M, _xlpm.g * _xlpm.R ^ 2, _xlpm.d, _xlpm.g / _xlpm.R, _xlpm.v, SQRT(_xlpm.g * _xlpm.R), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "dg", _xlfn.LET(_xlpm.d, _xlpm.param_1, _xlpm.g, _xlpm.param_2, _xlpm.R, _xlpm.g / _xlpm.d, _xlpm.M, _xlpm.g ^ 3 / _xlpm.d ^ 2, _xlpm.v, _xlpm.g / SQRT(_xlpm.d), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "dv", _xlfn.LET(_xlpm.d, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.R, _xlpm.v / SQRT(_xlpm.d), _xlpm.M, _xlpm.v ^ 3 / SQRT(_xlpm.d), _xlpm.g, _xlpm.v * SQRT(_xlpm.d), _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "gv", _xlfn.LET(_xlpm.g, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.R, _xlpm.v ^ 2 / _xlpm.g, _xlpm.M, _xlpm.v ^ 4 / _xlpm.g, _xlpm.d, (_xlpm.g / _xlpm.v) ^ 2, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "mv", _xlfn.LET(_xlpm.M, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.R, _xlpm.M / _xlpm.v ^ 2, _xlpm.g, _xlpm.v ^ 4 / _xlpm.M, _xlpm.d, _xlpm.v ^ 6 / _xlpm.M ^ 2, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), "rv", _xlfn.LET(_xlpm.R, _xlpm.param_1, _xlpm.v, _xlpm.param_2, _xlpm.g, _xlpm.v ^ 2 / _xlpm.R, _xlpm.M, _xlpm.R * _xlpm.v ^ 2, _xlpm.d, (_xlpm.v / _xlpm.R) ^ 2, _xlfn.HSTACK(_xlpm.M, _xlpm.R, _xlpm.d, _xlpm.g, _xlpm.v)), NA()), _xlpm.headers, {"M","R","d","g","v"}, _xlpm.values, ROUND(_xlpm.output, _xlpm.prec), CHOOSE({1,2}, TRANSPOSE(_xlpm.headers), TRANSPOSE(_xlpm.values))))</definedName>
     <definedName name="ASTRO_SPECTRAL_DISTRIBUTION">_xlfn.LAMBDA(_xlop.anchor_class,_xlop.anchor_count,_xlop.decimal_places, _xlfn.LET(_xlpm.anchor_class, IF(_xlfn.ISOMITTED(_xlpm.anchor_class), "$", UPPER(_xlpm.anchor_class)), _xlpm.anchor_count, IF(_xlfn.ISOMITTED(_xlpm.anchor_count), 1, _xlpm.anchor_count), _xlpm.decimal_places, IF(_xlfn.ISOMITTED(_xlpm.decimal_places), 3, _xlpm.decimal_places), _xlpm.arr_classes, {"O";"B";"A";"F";"G";"K";"M"}, _xlpm.arr_base_pct, {0.00003;0.13;0.6;3;7.6;12.1;76.27}, _xlpm.arr_base_frac, _xlfn.BYROW(_xlpm.arr_base_pct, _xlfn.LAMBDA(_xlpm.x, _xlpm.x / 100)), _xlpm.anchor_freq, _xlfn.XLOOKUP(_xlpm.anchor_class, _xlpm.arr_classes, _xlpm.arr_base_frac, 1), _xlpm.scaling_factor, _xlpm.anchor_count / _xlpm.anchor_freq, _xlpm.scaled, IF(_xlpm.anchor_class = "$", _xlpm.arr_base_frac, _xlfn.BYROW(_xlpm.arr_base_frac, _xlfn.LAMBDA(_xlpm.x, _xlpm.x * _xlpm.scaling_factor))), _xlpm.output, _xlfn.HSTACK(_xlpm.arr_classes, ROUND(_xlpm.scaled, _xlpm.decimal_places)), _xlpm.output))</definedName>
+    <definedName name="ASTRO_SPHERICAL_TO_CARTESIAN">_xlfn.LAMBDA(_xlpm.phi,_xlpm.theta,_xlpm.r,_xlpm.prec, _xlfn.LET(_xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.phi_rad, RADIANS(_xlpm.phi), _xlpm.theta_rad, RADIANS(_xlpm.theta), _xlpm.x_raw, _xlpm.r * SIN(_xlpm.phi_rad) * COS(_xlpm.theta_rad), _xlpm.y_raw, _xlpm.r * SIN(_xlpm.phi_rad) * SIN(_xlpm.theta_rad), _xlpm.z_raw, _xlpm.r * COS(_xlpm.phi_rad), _xlpm.x, ROUND(_xlpm.x_raw, _xlpm.prec), _xlpm.y, ROUND(_xlpm.y_raw, _xlpm.prec), _xlpm.z, ROUND(_xlpm.z_raw, _xlpm.prec), _xlfn.HSTACK(_xlpm.x, _xlpm.y, _xlpm.z)))</definedName>
     <definedName name="ASTRO_STAR_ATTRIBUTES">_xlfn.LAMBDA(_xlpm.mode,_xlpm.input,_xlop.precision, _xlfn.LET(_xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.precision), 6, _xlpm.precision), _xlpm.mode, UPPER(_xlpm.mode), _xlpm.Tnorm, _xlfn.SWITCH(_xlpm.mode, "T", _xlpm.input, "K", _xlpm.input / 5770, "M", SQRT(_xlpm.input), "R", _xlpm.input ^ (1 / 1.8), "L", _xlpm.input ^ (1 / 7.6), "V", _xlpm.input ^ (-1 / 5), NA()), _xlpm.K, _xlpm.Tnorm * 5770, _xlpm.M, _xlpm.Tnorm ^ 2, _xlpm.R, _xlpm.Tnorm ^ 1.8, _xlpm.L, _xlpm.Tnorm ^ 7.6, _xlpm.V, _xlpm.Tnorm ^ -5, _xlpm.labels, TRANSPOSE({"K","T","M","R","L","V"}), _xlpm.output_values, _xlfn.VSTACK(ROUND(_xlpm.K, _xlpm.prec), ROUND(_xlpm.Tnorm, _xlpm.prec), ROUND(_xlpm.M, _xlpm.prec), ROUND(_xlpm.R, _xlpm.prec), ROUND(_xlpm.L, _xlpm.prec), ROUND(_xlpm.V, _xlpm.prec)), _xlpm.flagged_labels, _xlfn.BYROW(_xlpm.labels, _xlfn.LAMBDA(_xlpm.row, IF(_xlpm.row = _xlpm.mode, _xlpm.row &amp; " ➔", _xlpm.row))), CHOOSE({1,2}, _xlpm.flagged_labels, _xlpm.output_values)))</definedName>
     <definedName name="ASTRO_STAR_DENSITY_VOLUME">_xlfn.LAMBDA(_xlpm.input,_xlop.prec,_xlop.mode, _xlfn.LET(_xlpm.mode, IF(_xlfn.ISOMITTED(_xlpm.mode) + (_xlpm.mode &lt; 0) + (_xlpm.mode &gt; 1), 0, _xlpm.mode), _xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.volume, IF(_xlpm.mode = 0, _xlpm.input, (4 / 3) * PI() * _xlpm.input ^ 3), _xlpm.radius, IF(_xlpm.mode = 1, _xlpm.input, ROUND(((3 * _xlpm.volume) / (4 * PI())) ^ (1 / 3), _xlpm.prec)), _xlpm.stars, ROUND(_xlpm.volume / 250, _xlpm.prec), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , "Stars: " &amp; _xlpm.stars, "Radius: " &amp; _xlpm.radius), "; ")), 1, _xlfn.TOCOL(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("; ", , "Stars: " &amp; _xlpm.stars, "Volume: " &amp; _xlpm.volume), "; "))), _xlpm.output))</definedName>
-    <definedName name="ASTRO_SYNODIC">_xlfn.LAMBDA(_xlpm.p,_xlpm.q,_xlpm.prec, _xlfn.LET(_xlpm.result, IF(_xlpm.p = _xlpm.q, NA(), _xlfn.LET(_xlpm.num, _xlpm.p * _xlpm.q, _xlpm.den, ABS(_xlpm.p - _xlpm.q), _xlpm.raw, _xlpm.num / _xlpm.den, ROUND(_xlpm.raw, _xlpm.prec))), _xlpm.result))</definedName>
     <definedName name="ASTRO_SYNODIC_PQ">_xlfn.LAMBDA(_xlpm.P,_xlpm.Q,_xlop.output,_xlop.prec, _xlfn.LET(_xlpm.mode, IF(_xlfn.ISOMITTED(_xlpm.output) + (_xlpm.output = ""), "bare", LOWER(_xlpm.output)), _xlpm.digits, IF(_xlfn.ISOMITTED(_xlpm.prec), 4, _xlpm.prec), _xlpm.A, MAX(_xlpm.P, _xlpm.Q), _xlpm.B, MIN(_xlpm.P, _xlpm.Q), _xlpm.S, ROUND((_xlpm.A * _xlpm.B) / (_xlpm.A - _xlpm.B), _xlpm.digits), _xlpm.verbose, _xlfn.VSTACK(_xlfn.HSTACK("P =", _xlpm.P), _xlfn.HSTACK("Q =", _xlpm.Q), _xlfn.HSTACK("S ☞", _xlpm.S)), _xlpm.result, IF(_xlpm.mode = "verbose", _xlpm.verbose, _xlpm.S), _xlpm.result))</definedName>
     <definedName name="ASTRO_SYNODIC_PS">_xlfn.LAMBDA(_xlpm.P,_xlpm.S,_xlop.output,_xlop.prec, _xlfn.LET(_xlpm.mode, IF(_xlfn.ISOMITTED(_xlpm.output) + (_xlpm.output = ""), "bare", LOWER(_xlpm.output)), _xlpm.digits, IF(_xlfn.ISOMITTED(_xlpm.prec), 4, _xlpm.prec), _xlpm.Q, ROUND((_xlpm.P * _xlpm.S) / ABS(_xlpm.P - _xlpm.S), _xlpm.digits), _xlpm.verbose, _xlfn.VSTACK(_xlfn.HSTACK("P =", _xlpm.P), _xlfn.HSTACK("Q ☞", _xlpm.Q), _xlfn.HSTACK("S =", _xlpm.S)), _xlpm.result, IF(_xlpm.mode = "verbose", _xlpm.verbose, _xlpm.Q), _xlpm.result))</definedName>
     <definedName name="ASTRO_SYNODIC_QS">_xlfn.LAMBDA(_xlpm.Q,_xlpm.S,_xlop.output,_xlop.prec, _xlfn.LET(_xlpm.mode, IF(_xlfn.ISOMITTED(_xlpm.output) + (_xlpm.output = ""), "bare", LOWER(_xlpm.output)), _xlpm.digits, IF(_xlfn.ISOMITTED(_xlpm.prec), 4, _xlpm.prec), _xlpm.P, ROUND((_xlpm.Q * _xlpm.S) / (_xlpm.Q + _xlpm.S), _xlpm.digits), _xlpm.verbose, _xlfn.VSTACK(_xlfn.HSTACK("P ☞", _xlpm.P), _xlfn.HSTACK("Q =", _xlpm.Q), _xlfn.HSTACK("S =", _xlpm.S)), _xlpm.result, IF(_xlpm.mode = "verbose", _xlpm.verbose, _xlpm.P), _xlpm.result))</definedName>
-    <definedName name="ASTRO_SYNODIC_SOLVED">_xlfn.LAMBDA(_xlpm.val_1,_xlpm.val_2,_xlop.mode,_xlop.prec, _xlfn.LET(_xlpm.mode, IF(_xlfn.ISOMITTED(_xlpm.mode), "pq", IF(_xlpm.mode = "", "pq", _xlpm.mode)), _xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec), 4, _xlpm.prec), _xlpm.p, IF(OR(_xlpm.mode = "pq", _xlpm.mode = "ps"), _xlpm.val_1, NA()), _xlpm.q, IF(_xlpm.mode = "pq", _xlpm.val_2, IF(_xlpm.mode = "qs", _xlpm.val_1, NA())), _xlpm.s, IF(OR(_xlpm.mode = "ps", _xlpm.mode = "qs"), _xlpm.val_2, NA()), _xlpm.a, IF(AND(ISNUMBER(_xlpm.p), ISNUMBER(_xlpm.q)), MAX(_xlpm.p, _xlpm.q), _xlpm.p), _xlpm.b, IF(AND(ISNUMBER(_xlpm.p), ISNUMBER(_xlpm.q)), MIN(_xlpm.p, _xlpm.q), _xlpm.q), _xlpm.result, _xlfn.SWITCH(_xlpm.mode, "pq", IF(_xlpm.a = _xlpm.b, NA(), ROUND((_xlpm.a * _xlpm.b) / (_xlpm.a - _xlpm.b), _xlpm.prec)), "ps", IF(OR(NOT(ISNUMBER(_xlpm.a)), NOT(ISNUMBER(_xlpm.s))), NA(), ROUND((_xlpm.a * _xlpm.s) / (_xlpm.a - _xlpm.s), _xlpm.prec)), "qs", IF(OR(NOT(ISNUMBER(_xlpm.b)), NOT(ISNUMBER(_xlpm.s))), NA(), ROUND((_xlpm.b * _xlpm.s) / (_xlpm.b - _xlpm.s), _xlpm.prec)), NA()), _xlpm.result))</definedName>
     <definedName name="ASTRO_SYNODIC_SOLVER">_xlfn.LAMBDA(_xlpm.val_1,_xlpm.val_2,_xlop.mode,_xlop.format,_xlop.prec, _xlfn.LET(_xlpm.raw_mode, IF(_xlfn.ISOMITTED(_xlpm.mode) + (_xlpm.mode = ""), "PQ", _xlpm.mode), _xlpm.norm_mode, _xlfn.TEXTJOIN("", , _xlfn._xlws.SORT(MID(LOWER(_xlpm.raw_mode), _xlfn.SEQUENCE(LEN(_xlpm.raw_mode)), 1))), _xlpm.mode, _xlpm.norm_mode, _xlpm.format, IF(_xlfn.ISOMITTED(_xlpm.format) + (_xlpm.format = ""), "bare", LOWER(_xlpm.format)), _xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec), 4, _xlpm.prec), _xlpm.P_in, IF(OR(_xlpm.mode = "pq", _xlpm.mode = "ps"), _xlpm.val_1, NA()), _xlpm.Q_in, IF(_xlpm.mode = "pq", _xlpm.val_2, IF(_xlpm.mode = "qs", _xlpm.val_1, NA())), _xlpm.S_in, IF(OR(_xlpm.mode = "ps", _xlpm.mode = "qs"), _xlpm.val_2, NA()), _xlpm.P, IF(AND(ISNUMBER(_xlpm.P_in), ISNUMBER(_xlpm.Q_in)), MAX(_xlpm.P_in, _xlpm.Q_in), _xlpm.P_in), _xlpm.Q, IF(AND(ISNUMBER(_xlpm.P_in), ISNUMBER(_xlpm.Q_in)), MIN(_xlpm.P_in, _xlpm.Q_in), _xlpm.Q_in), _xlpm.S_calc, IF(_xlpm.P = _xlpm.Q, NA(), ROUND((_xlpm.P * _xlpm.Q) / (_xlpm.P - _xlpm.Q), _xlpm.prec)), _xlpm.Q_calc, IF(OR(NOT(ISNUMBER(_xlpm.P)), NOT(ISNUMBER(_xlpm.S_in))), NA(), ROUND((_xlpm.P * _xlpm.S_in) / ABS(_xlpm.P - _xlpm.S_in), _xlpm.prec)), _xlpm.P_calc, IF(OR(NOT(ISNUMBER(_xlpm.Q)), NOT(ISNUMBER(_xlpm.S_in))), NA(), ROUND((_xlpm.Q * _xlpm.S_in) / ABS(_xlpm.Q - _xlpm.S_in), _xlpm.prec)), _xlpm.P_val, IF(_xlpm.mode = "qs", _xlpm.P_calc, _xlpm.P), _xlpm.Q_val, IF(_xlpm.mode = "ps", _xlpm.Q_calc, _xlpm.Q), _xlpm.S_val, IF(_xlpm.mode = "pq", _xlpm.S_calc, _xlpm.S_in), _xlpm.label, _xlfn.SWITCH(_xlpm.mode, "pq", "S", "ps", "Q", "qs", "P", "?"), _xlpm.result, _xlfn.SWITCH(_xlpm.mode, "pq", _xlpm.S_calc, "ps", _xlpm.Q_calc, "qs", _xlpm.P_calc, NA()), _xlpm.verbose_out, "P = " &amp; IF(ISNUMBER(_xlpm.P_val), IF(_xlpm.mode = "qs", "☞ " &amp; _xlpm.P_val, _xlpm.P_val), "—") &amp; ", " &amp; "Q = " &amp; IF(ISNUMBER(_xlpm.Q_val), IF(_xlpm.mode = "ps", "☞ " &amp; _xlpm.Q_val, _xlpm.Q_val), "—") &amp; ", " &amp; "S = " &amp; IF(ISNUMBER(_xlpm.S_val), IF(_xlpm.mode = "pq", "☞ " &amp; _xlpm.S_val, _xlpm.S_val), "—"), _xlpm.row_out, _xlfn.VSTACK(_xlfn.HSTACK(IF(_xlpm.mode = "qs", "P ☞", "P ="), IF(_xlpm.mode = "ps", "Q ☞", "Q ="), IF(_xlpm.mode = "pq", "S ☞", "S =")), _xlfn.HSTACK(_xlpm.P_val, _xlpm.Q_val, _xlpm.S_val)), _xlpm.col_out, _xlfn.VSTACK(_xlfn.HSTACK(IF(_xlpm.mode = "qs", "P ☞", "P ="), _xlpm.P_val), _xlfn.HSTACK(IF(_xlpm.mode = "ps", "Q ☞", "Q ="), _xlpm.Q_val), _xlfn.HSTACK(IF(_xlpm.mode = "pq", "S ☞", "S ="), _xlpm.S_val)), _xlpm.output, _xlfn.SWITCH(_xlpm.format, "bare", _xlpm.result, "labeled", _xlpm.label &amp; " = " &amp; _xlpm.result, "verbose", _xlpm.verbose_out, "row", _xlpm.row_out, "col", _xlpm.col_out, "Invalid format"), _xlpm.output))</definedName>
     <definedName name="ASTRO_TYPE_FROM_TEMP">_xlfn.LAMBDA(_xlpm.temp,_xlop.decimals, _xlfn.LET(_xlpm.arrTypes, {"O3";"O4";"O5";"O6";"O7";"O8";"O9";"B0";"B1";"B2";"B3";"B4";"B5";"B6";"B7";"B8";"B9";"A0";"A1";"A2";"A3";"A4";"A5";"A6";"A7";"A8";"A9";"F0";"F1";"F2";"F3";"F4";"F5";"F6";"F7";"F8";"F9";"G0";"G1";"G2";"G3";"G4";"G5";"G6";"G7";"G8";"G9";"K0";"K1";"K2";"K3";"K4";"K5";"K6";"K7";"K8";"K9";"M0";"M1";"M2";"M3";"M4";"M5";"M6";"M7";"M8";"M9"}, _xlpm.arrTHigh, {44900;42900;41400;39500;37100;35100;33300;31400;26000;20600;17000;16400;15700;14500;14000;12300;10700;9700;9300;8800;8600;8250;8100;7910;7760;7590;7400;7220;7020;6820;6750;6670;6550;6350;6280;6180;6050;5930;5860;5770;5720;5680;5660;5600;5550;5480;5380;5270;5170;5100;4830;4600;4440;4300;4100;3990;3930;3850;3660;3560;3430;3210;3060;2810;2680;2570;2380}, _xlpm.arrSpan, {2000;1500;1900;2400;2000;1800;1900;5400;5400;3600;600;700;1200;500;1700;1600;1000;400;500;200;350;150;190;150;170;190;180;200;200;70;80;120;200;70;100;130;120;70;90;50;40;20;60;50;70;100;110;100;70;270;230;160;140;200;110;60;80;190;100;130;220;150;250;130;110;190;280}, _xlpm.temp_in_range, _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.arrTHigh)), _xlfn.LAMBDA(_xlpm.i, AND(INDEX(_xlpm.arrTHigh, _xlpm.i) &gt;= _xlpm.temp, _xlpm.temp &gt; INDEX(_xlpm.arrTHigh, _xlpm.i) - INDEX(_xlpm.arrSpan, _xlpm.i)))), _xlpm.idx, _xlfn.XMATCH(TRUE, _xlpm.temp_in_range), _xlpm.full_type, INDEX(_xlpm.arrTypes, _xlpm.idx), _xlpm.T_high, INDEX(_xlpm.arrTHigh, _xlpm.idx), _xlpm.span, INDEX(_xlpm.arrSpan, _xlpm.idx), _xlpm.f, (_xlpm.T_high - _xlpm.temp) / _xlpm.span, _xlpm.dec, IF(_xlfn.ISOMITTED(_xlpm.decimals), 3, _xlpm.decimals), _xlpm.format_string, "." &amp; REPT("0", _xlpm.dec), _xlpm.subclass, _xlpm.full_type &amp; TEXT(_xlpm.f, _xlpm.format_string), _xlpm.subclass))</definedName>
-    <definedName name="AXIS_PERIOD">_xlfn.LAMBDA(_xlpm.input, SQRT(POWER(_xlpm.input, 3)))</definedName>
-    <definedName name="CROSSING_ORBIT_PARAMETER">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2, ABS(_xlpm.mass1 - _xlpm.mass2) / ABS(_xlpm.mass1 + _xlpm.mass2))</definedName>
     <definedName name="DEG_DEC_DMS">_xlfn.LAMBDA(_xlpm.DecimalDegrees, _xlfn.LET(_xlpm.Deg, TRUNC(_xlpm.DecimalDegrees), _xlpm.FracPortion, ABS(_xlpm.DecimalDegrees - _xlpm.Deg), _xlpm.Minutes, _xlpm.FracPortion * 60, _xlpm.Min_part, TRUNC(_xlpm.Minutes) / 100, _xlpm.IntMin, INT(_xlpm.Minutes), _xlpm.FracMin, ABS(_xlpm.Minutes - _xlpm.IntMin), _xlpm.Seconds, _xlpm.FracMin * 60, _xlpm.sec_part, _xlpm.Seconds / 10000, _xlpm.output, _xlpm.Deg + _xlpm.Min_part + _xlpm.sec_part, FIXED(_xlpm.output, 7)))</definedName>
     <definedName name="DEG_DMS">_xlfn.LAMBDA(_xlpm.DecimalDegrees,_xlop.precision, _xlfn.LET(_xlpm.decprec, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.Deg, TRUNC(_xlpm.DecimalDegrees), _xlpm.FracPortion, ABS(_xlpm.DecimalDegrees - _xlpm.Deg), _xlpm.Minutes, _xlpm.FracPortion * 60, _xlpm.IntMin, INT(_xlpm.Minutes), _xlpm.FracMin, ABS(_xlpm.Minutes - _xlpm.IntMin), _xlpm.Seconds, _xlpm.FracMin * 60, _xlpm.Deg &amp; "° " &amp; _xlpm.IntMin &amp; CHAR(39) &amp; CHAR(32) &amp; FIXED(_xlpm.Seconds, _xlpm.decprec) &amp; CHAR(34)))</definedName>
     <definedName name="DEG_DMS_DEC">_xlfn.LAMBDA(_xlpm.input, _xlfn.LET(_xlpm.degrees, TRUNC(_xlpm.input), _xlpm.minutes, TRUNC((_xlpm.input - _xlpm.degrees) * 100), _xlpm.fractional_seconds, ((_xlpm.input * 100) - TRUNC(_xlpm.input * 100)) / 0.6, _xlpm.result, _xlpm.degrees + ((_xlpm.minutes + _xlpm.fractional_seconds) / 60), _xlpm.result))</definedName>
@@ -45,15 +49,8 @@
     <definedName name="General.ROOT">_xlfn.LAMBDA(_xlpm.n,_xlop.x, _xlfn.LET(_xlpm.root_degree, IF(_xlfn.ISOMITTED(_xlpm.x), 2, _xlpm.x), IF(_xlpm.n &lt; 0, SQRT(-1), _xlpm.n ^ (1 / _xlpm.root_degree))))</definedName>
     <definedName name="General.ROUND_FIX">_xlfn.LAMBDA(_xlpm.number,_xlpm.places,_xlop.as_text,_xlop.use_round, _xlfn.LET(_xlpm.n, N(_xlpm.number), _xlpm.raw_p, N(_xlpm.places), _xlpm.round_flag, IF(ISBLANK(_xlpm.use_round), FALSE, _xlpm.use_round), _xlpm.return_text, IF(ISBLANK(_xlpm.as_text), FALSE, _xlpm.as_text), _xlpm.max_places, IF(_xlpm.return_text, _xlpm.raw_p, MIN(_xlpm.raw_p, 9)), _xlpm.pwr_10, 10 ^ _xlpm.max_places, _xlpm.result, IF(_xlpm.round_flag, ROUND(_xlpm.n, _xlpm.max_places), TRUNC(_xlpm.n * _xlpm.pwr_10) / _xlpm.pwr_10), _xlpm.final, IF(_xlpm.return_text, TEXT(_xlpm.result, "0." &amp; REPT("0", _xlpm.max_places)), _xlpm.result), _xlpm.final))</definedName>
     <definedName name="NASTRO_HABITABLE_ZONES">_xlfn.LAMBDA(_xlpm.mode,_xlop.lum,_xlop.prec, _xlfn.LET(_xlpm.dec, IF(_xlfn.ISOMITTED(_xlpm.prec), 3, _xlpm.prec), _xlpm.L, IF(_xlfn.ISOMITTED(_xlpm.lum), 1, _xlpm.lum), _xlpm.nuc, SQRT(_xlpm.L), _xlpm.zone_labels, {"Z0","Z1","Z2","Z3","Z4","Z5"}, _xlpm.inner_factors, {0,0.5,0.75,0.95,1.385,1.77}, _xlpm.outer_factors, {0.5,0.75,0.95,1.385,1.77,4.85}, _xlpm.avg_factors, {0.25,0.625,0.85,1.1675,1.5775,3.31}, _xlpm.span_factors, {0.5,0.25,0.2,0.435,0.385,3.08}, _xlpm.inner_scaled, ROUND(_xlpm.nuc * _xlpm.inner_factors, _xlpm.dec), _xlpm.outer_scaled, ROUND(_xlpm.nuc * _xlpm.outer_factors, _xlpm.dec), _xlpm.avg_scaled, ROUND(_xlpm.nuc * _xlpm.avg_factors, _xlpm.dec), _xlpm.span_scaled, ROUND(_xlpm.nuc * _xlpm.span_factors, _xlpm.dec), _xlpm.row_1, _xlfn.VSTACK("Zone", _xlpm.zone_labels), _xlpm.row_2, _xlfn.VSTACK("Inner", IF(_xlpm.mode = "STANDARD", _xlpm.inner_factors, _xlpm.inner_scaled)), _xlpm.row_3, _xlfn.VSTACK("Outer", IF(_xlpm.mode = "STANDARD", _xlpm.outer_factors, _xlpm.outer_scaled)), _xlpm.row_4, _xlfn.VSTACK("Average", IF(_xlpm.mode = "STANDARD", _xlpm.avg_factors, _xlpm.avg_scaled)), _xlpm.row_5, _xlfn.VSTACK("Span", IF(_xlpm.mode = "STANDARD", _xlpm.span_factors, _xlpm.span_scaled)), _xlpm.vertical_labels, {"0:","1:","2:","N ➔","3:","4:","5:"}, _xlpm.vertical_values, ROUND({0.5,0.75,0.95,1,1.385,1.77,4.85} * _xlpm.nuc, _xlpm.dec), _xlpm.horizontal_values, _xlfn.HSTACK(ROUND(0.5 * _xlpm.nuc, _xlpm.dec), ROUND(0.75 * _xlpm.nuc, _xlpm.dec), ROUND(0.95 * _xlpm.nuc, _xlpm.dec), ROUND(1 * _xlpm.nuc, _xlpm.dec), ROUND(1.385 * _xlpm.nuc, _xlpm.dec), ROUND(1.77 * _xlpm.nuc, _xlpm.dec), ROUND(4.85 * _xlpm.nuc, _xlpm.dec)), _xlfn.SWITCH(UPPER(_xlpm.mode), "STANDARD", _xlfn.HSTACK(_xlpm.row_1, _xlpm.row_2, _xlpm.row_3, _xlpm.row_4, _xlpm.row_5), "TABLE", _xlfn.HSTACK(_xlpm.row_1, _xlpm.row_2, _xlpm.row_3, _xlpm.row_4, _xlpm.row_5), "VERTICAL", _xlfn.HSTACK(_xlpm.vertical_labels, _xlpm.vertical_values), "HORIZONTAL", _xlpm.horizontal_values, "Invalid mode")))</definedName>
-    <definedName name="ORB_AXIS">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2,_xlpm.period, _xlfn.LET(_xlpm.mass2, IF((_xlfn.ISOMITTED(_xlpm.mass2)) + (_xlpm.mass2 = 1), 0, _xlpm.mass2 * 0.000003003), _xlpm.axis, POWER((POWER(_xlpm.period, 2) * (_xlpm.mass1 + _xlpm.mass2)), 1 / 3), _xlpm.axis))</definedName>
-    <definedName name="ORB_PERIOD">_xlfn.LAMBDA(_xlpm.mass1,_xlpm.mass2,_xlpm.axis, _xlfn.LET(_xlpm.mass2, IF((_xlfn.ISOMITTED(_xlpm.mass2)) + (_xlpm.mass2 = 1), 0, (_xlpm.mass2 * 0.00000300273)), _xlpm.period, SQRT(POWER(_xlpm.axis, 3) / (_xlpm.mass1 + _xlpm.mass2)), _xlpm.period))</definedName>
-    <definedName name="ORB_SUM_MASSES">_xlfn.LAMBDA(_xlpm.axis,_xlpm.period, POWER(_xlpm.axis, 3) / POWER(_xlpm.period, 2))</definedName>
-    <definedName name="PERIOD_AXIS">_xlfn.LAMBDA(_xlpm.input, POWER(POWER(_xlpm.input, 2), (1 / 3)))</definedName>
-    <definedName name="SMALLANGLE">_xlfn.LAMBDA(_xlpm.diameter,_xlpm.distance, 0.532904294 * (_xlpm.diameter / _xlpm.distance))</definedName>
-    <definedName name="SPHERICAL_TO_CARTESIAN">_xlfn.LAMBDA(_xlpm.phi,_xlpm.theta,_xlpm.r,_xlop.prec, _xlfn.LET(_xlpm.prec, IF((_xlfn.ISOMITTED(_xlpm.prec)) + (_xlpm.prec &lt; 0), 3, _xlpm.prec), _xlpm.z_mod, SIGN(_xlpm.theta), _xlpm.y_mod, SIGN(_xlpm.phi), _xlpm.x_mod, IF(ABS(_xlpm.phi) &lt; 90, 1, -1), _xlpm.ang_x, RADIANS(MOD(_xlpm.phi, 90)), _xlpm.ang_z, RADIANS(ABS(_xlpm.theta)), _xlpm.d, COS(_xlpm.ang_z) * _xlpm.r, _xlpm.x, ROUND(COS(_xlpm.ang_x) * _xlpm.d * _xlpm.x_mod, _xlpm.prec), _xlpm.y, ROUND(SIN(_xlpm.ang_x) * _xlpm.d * _xlpm.y_mod, _xlpm.prec), _xlpm.z, ROUND(SIN(_xlpm.ang_z) * _xlpm.r * _xlpm.z_mod, _xlpm.prec), _xlpm.result, _xlfn.TEXTJOIN("|", , _xlpm.x, _xlpm.y, _xlpm.z), _xlfn.TOROW(_xlfn.TEXTSPLIT(_xlpm.result, "|"))))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3107,7 +3104,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQAgAG4AbwByAG0AYQBsAGkAegBlAGQAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQAgAGkAbgBkAGUAeAAgAGIAYQBzAGUAZAAgAG8AbgAgAGEAIABwAGwAYQBuAGUAdAAnAHMAIABvAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIABhACAAcwB0AGEAcgAnAHMAIABuAHUAYwBsAGUAYQBsACAAKABoAGEAYgBpAHQAYQBiAGwAZQAgAHoAbwBuAGUAIABhAG4AYwBoAG8AcgApACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAHMAYwBhAGwAYQByACAAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAIABpAG4AZABlAHgAIAAoAG4AdQBtAGIAZQByACkALAAgAG8AcgAgAFwAIgBVAC8ASQBcACIAIABpAGYAIAB1AG4AaQBuAGgAYQBiAGkAdABhAGIAbABlAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABPAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlACAAKABpAG4AIABBAFUAKQBcAG4AIAAgACAALQAgAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBjAGwAZQBhAGwAIAB6AG8AbgBlACAAcgBhAGQAaQB1AHMAIAAoAGkAbgAgAEEAVQApADsAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAxAC4AMABcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAHQAaABlACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABJAG4AZABlAHgAIABIIiAAMQAuADAAIABpAG4AZABpAGMAYQB0AGUAcwAgAGkAZABlAGEAbAAgAGEAbABpAGcAbgBtAGUAbgB0ACAAdwBpAHQAaAAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAuAFwAbgAgACAAIAAtACAAVgBhAGwAdQBlAHMAIAA8ACAAMQAgAGEAcgBlACAAaQBuAHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGgAbwB0ACkALgBcAG4AIAAgACAALQAgAFYAYQBsAHUAZQBzACAAPgAgADEAIABhAHIAZQAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGMAbwBsAGQAKQAuAFwAbgAgACAAIAAtACAASQBmACAAdABoAGUAIABvAHIAYgBpAHQAIABpAHMAIAB0AG8AbwAgAGQAZQBlAHAAIABpAG4AcwBpAGQAZQAgAHQAaABlACAAaQBuAG4AZQByACAAYgBvAHUAbgBkAGEAcgB5ACwAIAByAGUAdAB1AHIAbgBzACAAXAAiAFUALwBJAFwAIgAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGEAIABwAGkAZQBjAGUAdwBpAHMAZQAgAGYAdQBuAGMAdABpAG8AbgAgAGYAbwByACAAcwBtAG8AbwB0AGgAIABmAGEAbABsAG8AZgBmACAAYQBjAHIAbwBzAHMAIABiAG8AdQBuAGQAYQByAHkALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAxAC4AMAApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAMQAuADAAMAAwACAAIAAoAGEAcwBzAHUAbQBlAHMAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAIAA9ACAAMQApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAoADAALgA3ADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgAJIhIAAwAC4ANQAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACgAMgAuADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgACAAkiEgADEALgA2ADIAOABcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAwAC4AMgA1ACwAIAAxAC4AMAApACAAIAAgACAAIAAgACAAIACSISAAXAAiAFUALwBJAFwAIgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAIAA9ACAATABBAE0AQgBEAEEAKABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAsACAAWwBuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIAAzACAAZABlAGMAaQBtAGEAbABzACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwApACwAIAAxACwAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAsACAALwAqACAARABlAGYAYQB1AGwAdAAgAHQAbwAgADEAIABBAFUAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAKgAvAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsACAASQBGACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAA8ACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABUAFIAVQBFACwAIABGAEEATABTAEUAKQAsACAAIAAvACoAIABEAGUAdABlAHIAbQBpAG4AZQAgAHAAbwBzAGkAdABpAG8AbgAgACoALwBcAG4AXABuACAAIAAgACAAIAAgACAAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAqACAAUABpAGUAYwBlAHcAaQBzAGUAIABmAHUAbgBjAHQAaQBvAG4AIAAqAC8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAMgAgACoAIABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAgAC8AIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAgAC0AIAAxACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEkAbgBzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAvACAAKAAtADMALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACkAKQAgACsAIAAoADQALgA4ADUAIAAvACAAMwAuADgANQApACAAIAAvACoAIABPAHUAdABzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEgAYQBuAGQAbABlACAAaQBuAHYAYQBsAGkAZAAvAHYAYQBsAGkAZAAgAGMAYQBzAGUAcwAgACoALwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAXwBpAG4AZABlAHgAIAA8AD0AIAAwACwAIABcACIAVQAvAEkAXAAiACwAIABSAE8AVQBOAEQAKABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4AKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AXABuACAAIAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABEAGkAcwB0AHIAaQBiAHUAdABlAHMAIABhACAAdABvAHQAYQBsACAAcwB0AGUAbABsAGEAcgAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABhAGMAcgBvAHMAcwAgAHQAaABlACAAcwBlAHYAZQBuACAAcAByAGkAbQBhAHIAeQAgAHMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACgATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApACAAYgBhAHMAZQBkACAAbwBuACAAaQBuAHYAZQByAHMAZQAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABmAGEAYwB0AG8AcgBzAC4AIABSAGUAdAB1AHIAbgBzACAAYQAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AXABuACAAIAAgAGEAcgByAGEAeQAgAG8AZgAgAGMAbABhAHMAcwAgAGwAYQBiAGUAbABzACAAYQBuAGQAIABjAGEAbABjAHUAbABhAHQAZQBkACAAcwB0AGEAcgAgAGMAbwB1AG4AdABzAC4AXABuAFwAbgAgACAAIABTAHkAbgB0AGEAeAA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AKAB0AG8AdABhAGwALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQApAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAgACAAdABvAHQAYQBsACAAIAAgACAAIAAgADoAIABUAG8AdABhAGwAIABuAHUAbQBiAGUAcgAgAG8AZgAgAHMAdABhAHIAcwAgAHQAbwAgAGIAZQAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAuAFwAbgAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4AIAAgADoAIABPAHAAdABpAG8AbgBhAGwAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAC4AIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAGUAYQBjAGgAIABjAG8AdQBuAHQALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIAB2AGUAcgB0AGkAYwBhAGwAIABhAHIAcgBhAHkAIAB3AGkAdABoACAAdAB3AG8AIABjAG8AbAB1AG0AbgBzADoAXABuACAAIAAgACAAIAAgACAALQAgAEMAbwBsAHUAbQBuACAAMQA6ACAAUwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzACAAbABhAGIAZQBsAHMAIAAoAFQAbwB0AGEAbAAsACAATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApAFwAbgAgACAAIAAgACAAIAAgAC0AIABDAG8AbAB1AG0AbgAgADIAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzACAAaQBuACAAZQBhAGMAaAAgAGMAbABhAHMAcwAgACgAcgBvAHUAbgBkAGUAZAAgAHQAbwAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABwAHIAZQBjAGkAcwBpAG8AbgApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADEAMAAwADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAB7ADEAMAAwADAALAAgADAALgAzADMAMwAsACAAMQAuADIANQAsACAALgAuAC4AfQBcAG4AXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADUAMAAwADAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAByAG8AdQBuAGQAZQBkACAAaQBuAHQAZQBnAGUAcgBzAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAAVABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAGkAcwAgAGIAYQBzAGUAZAAgAG8AbgAgAGkAbgB2AGUAcgBzAGUAIAB3AGUAaQBnAGgAdABpAG4AZwAgAGYAYQBjAHQAbwByAHMAOgBcAG4AIAAgACAAIAAgACAAIAAgACAATwA6ACAAMQAvADMAMAAwADAAMAAwADAAXABuACAAIAAgACAAIAAgACAAIAAgAEIAOgAgADEALwA4ADAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAQQA6ACAAMQAvADEANgAwAFwAbgAgACAAIAAgACAAIAAgACAAIABGADoAIAAxAC8AMwAzAFwAbgAgACAAIAAgACAAIAAgACAAIABHADoAIAAxAC8AMQAzAFwAbgAgACAAIAAgACAAIAAgACAAIABLADoAIAAxAC8AOABcAG4AIAAgACAAIAAgACAAIAAgACAATQA6ACAAMQAvADEALgAzADEANQAzAC4ALgAuAFwAbgAgACAAIAAgACAALQAgAFQAaABlAHMAZQAgAHYAYQBsAHUAZQBzACAAYQBwAHAAcgBvAHgAaQBtAGEAdABlACAAcgBlAGwAYQB0AGkAdgBlACAAZgByAGUAcQB1AGUAbgBjAHkAIABhAG4AZAAgAGEAYgB1AG4AZABhAG4AYwBlACAAbwBmACAAcwB0AGEAcgAgAHQAeQBwAGUAcwAuAFwAbgAgACAAIAAgACAALQAgAFwAIgBUAG8AdABhAGwAXAAiACAAaQBzACAAaQBuAGMAbAB1AGQAZQBkACAAYQBzACAAdABoAGUAIABmAGkAcgBzAHQAIAByAG8AdwAgAG8AZgAgAHQAaABlACAAbwB1AHQAcAB1AHQAIABmAG8AcgAgAGUAYQBzAHkAIABzAHUAbQBtAGEAdABpAG8AbgAvAGEAdQBkAGkAdAAuAFwAbgAgACAAIAAgACAALQAgAEkAbgB0AGUAbgBkAGUAZAAgAGYAbwByACAAdQBzAGUAIABpAG4AIABtAG8AZABlAGwAaQBuAGcAIABzAHQAYQByACAAcwB5AHMAdABlAG0AIABwAG8AcAB1AGwAYQB0AGkAbwBuAHMALAAgAGcAYQBsAGEAeAB5ACAAcwBlAGUAZABpAG4AZwAsACAAbwByACAAdABlAGEAYwBoAGkAbgBnACAAdABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAG8AZgAgAHMAdABlAGwAbABhAHIAIAB0AHkAcABlAHMALgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACAAPQAgAEwAQQBNAEIARABBACgAWwBhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwBdACwAIABbAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0AF0ALAAgAFsAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABEAGUAZgBhAHUAbAB0ACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMAKQAsACAAXAAiACQAXAAiACwAIABVAFAAUABFAFIAKABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALAAgADEALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjAGkAbQBhAGwAXwBwAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAFMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwAgAGEAcgByAGEAeQAgAGEAbgBkACAAYgBhAHMAZQAgAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAgACgAZQBtAHAAaQByAGkAYwBhAGwAKQAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBjAGwAYQBzAHMAZQBzACwAIAB7AFwAIgBPAFwAIgA7ACAAXAAiAEIAXAAiADsAIABcACIAQQBcACIAOwAgAFwAIgBGAFwAIgA7ACAAXAAiAEcAXAAiADsAIABcACIASwBcACIAOwAgAFwAIgBNAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABhAHIAcgBfAGIAYQBzAGUAXwBwAGMAdAAsACAAewAwAC4AMAAwADAAMAAzADsAIAAwAC4AMQAzADsAIAAwAC4ANgA7ACAAMwAuADAAOwAgADcALgA2ADsAIAAxADIALgAxADsAIAA3ADYALgAyADcAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AcABjAHQALAAgAEwAQQBNAEIARABBACgAeAAsACAAeAAgAC8AIAAxADAAMAApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEwAbwBvAGsAdQBwACAAcwBjAGEAbABpAG4AZwAgAGYAYQBjAHQAbwByACAAZgBvAHIAIABhACAAcwBwAGUAYwBpAGYAaQBjACAAYQBuAGMAaABvAHIAIAB0AHkAcABlAFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBmAHIAZQBxACwAIABYAEwATwBPAEsAVQBQACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAGEAcgByAF8AYwBsAGEAcwBzAGUAcwAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIABzAGMAYQBsAGkAbgBnAF8AZgBhAGMAdABvAHIALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACAALwAgAGEAbgBjAGgAbwByAF8AZgByAGUAcQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAAUwBjAGEAbABlAGQAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgABQgIABuAG8AcgBtAGEAbABpAHoAZQAgAG8AcgAgAGEAcABwAGwAeQAgAHUAcwBlAHIALQBkAGUAZgBpAG4AZQBkACAAcwBjAGEAbABlAFwAbgAgACAAIAAgACAAIAAgACAAcwBjAGEAbABlAGQALAAgAEkARgAoAGEAbgBjAGgAbwByAF8AYwBsAGEAcwBzACAAPQAgAFwAIgAkAFwAIgAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAATABBAE0AQgBEAEEAKAB4ACwAIAB4ACAAKgAgAHMAYwBhAGwAaQBuAGcAXwBmAGEAYwB0AG8AcgApACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAARgBpAG4AYQBsACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAASABTAFQAQQBDAEsAKABhAHIAcgBfAGMAbABhAHMAcwBlAHMALAAgAFIATwBVAE4ARAAoAHMAYwBhAGwAZQBkACwAIABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaQBuAHQAZQByAHAAbwBsAGEAdABlAGQAIABlAGYAZgBlAGMAdABpAHYAZQAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgACgAaQBuACAASwBlAGwAdgBpAG4AKQAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAHMAdABlAGwAbABhAHIAIABzAHUAYgBjAGwAYQBzAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAZQAuAGcALgAgAFwAIgBHADcALgAzAFwAIgApACwAIAB1AHMAaQBuAGcAIABoAGEAcgBkAGMAbwBkAGUAZAAgAGgAaQBnAGgALQB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABhAG4AYwBoAG8AcgBzACAAYQBuAGQAIABzAHAAYQBuACAAdgBhAGwAdQBlAHMAIABiAGUAdAB3AGUAZQBuACAAcwB1AGIAYwBsAGEAcwBzAGUAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABpAG4AIABLAGUAbAB2AGkAbgAsACAAaQBuAHQAZQByAHAAbwBsAGEAdABlAGQAIAB1AHMAaQBuAGcAIABsAGkAbgBlAGEAcgAgAHMAYwBhAGwAaQBuAGcAIAB3AGkAdABoAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABzAHUAYgBjAGwAYQBzAHMALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAHMAdQBiAGMAbABhAHMAcwAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAuACAAQQBjAGMAZQBwAHQAcwAgAGYAbwByAG0AYQB0AHMAIABsAGkAawBlACAAXAAiAEYANQBcACIALAAgAFwAIgBLADIALgA2AFwAIgAsACAAXAAiAE0AOAAuADkAXAAiACwAIABlAHQAYwAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABUAGUAbQBwAGUAcgBhAHQAdQByAGUAIABkAGEAdABhACAAaQBzACAAYgBhAHMAZQBkACAAbwBuACAAZQBtAHAAaQByAGkAYwBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIABhAG4AYwBoAG8AcgBzACAAZgBvAHIAIAB0AHkAcABlAHMAIABPADMAIAB0AGgAcgBvAHUAZwBoACAATQA5AC4AXABuACAAIAAgAC0AIABUAGgAZQAgAGYAdQBuAGMAdABpAG8AbgAgAHMAdQBwAHAAbwByAHQAcwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIABpAG4AcAB1AHQAIABhAG4AZAAgAGEAcwBzAHUAbQBlAHMAIABsAGkAbgBlAGEAcgAgAGYAYQBsAGwAbwBmAGYAIABiAGUAdAB3AGUAZQBuACAAcwB1AGIAYwBsAGEAcwBzACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGMAaABvAHIAcwAuAFwAbgAgACAAIAAtACAAVABoAGUAIABoAGkAZwBoACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAKABgAFQAXwBoAGkAZwBoAGAAKQAgAGkAcwAgAHIAZQB0AHIAaQBlAHYAZQBkACAAZgBvAHIAIAB0AGgAZQAgAGIAYQBzAGUAIABzAHUAYgBjAGwAYQBzAHMAIAAoAGUALgBnAC4ALAAgAFwAIgBHADcAXAAiACkALAAgAGEAbgBkACAAaQBuAHQAZQByAHAAbwBsAGEAdABpAG8AbgAgAHUAcwBlAHMAOgBcAG4AIAAgACAAIAAgACAAIABUACAAPQAgAFQAXwBoAGkAZwBoACAALQAgACgAZgByAGEAYwB0AGkAbwBuACAAKgAgAHMAcABhAG4AKQBcAG4AIAAgACAALQAgAEgAYQBuAGQAbABlAHMAIABpAG4AcAB1AHQAcwAgAHcAaQB0AGgAIABvAHIAIAB3AGkAdABoAG8AdQB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABwAG8AaQBuAHQAIAAoAGUALgBnAC4ALAAgAFwAIgBGADYAXAAiACAAPQAgAFwAIgBGADYALgAwAFwAIgApAC4AXABuACAAIAAgAC0AIABJAG4AdABlAHIAbgBhAGwAbAB5ACAAdQBzAGUAcwAgAFgATABPAE8ASwBVAFAAIABvAHYAZQByACAAYQAgAG0AYQB0AHIAaQB4ACAAYgB1AGkAbAB0ACAAZgByAG8AbQAgAGgAYQByAGQAYwBvAGQAZQBkACAAcwB1AGIAYwBsAGEAcwBzACAAbABhAGIAZQBsAHMALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQBzACwAIABhAG4AZAAgAHMAcABhAG4AcwAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBHADcALgAzAFwAIgApACAAIAAgAJIhIAA1ADUAMgA5AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBPADQALgA0AFwAIgApACAAIAAgAJIhIAA0ADIAMwAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEMAQQBMAEMAXwBUAEUATQBQACgAXAAiAEYAOAAuADQANQBcACIAKQAgACAAkiEgADYAMQAyADEALgA1AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBNADgALgA2AFwAIgApACAAIAAgAJIhIAAyADQANQA2AFwAbgAqAC8AXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABzAHUAYgBjAGwAYQBzAHMALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAGEAcgBkAGMAbwBkAGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAgAGEAcgByAGEAeQBzACAALQAtAC0AXABuAFwAbgAgACAAIAAgAGEAcgByAFQAeQBwAGUAcwAsACAAewBcAG4AIAAgACAAIAAgACAAXAAiAE8AMwBcACIAOwAgAFwAIgBPADQAXAAiADsAIABcACIATwA1AFwAIgA7ACAAXAAiAE8ANgBcACIAOwAgAFwAIgBPADcAXAAiADsAIABcACIATwA4AFwAIgA7ACAAXAAiAE8AOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEIAMABcACIAOwAgAFwAIgBCADEAXAAiADsAIABcACIAQgAyAFwAIgA7ACAAXAAiAEIAMwBcACIAOwAgAFwAIgBCADQAXAAiADsAIABcACIAQgA1AFwAIgA7ACAAXAAiAEIANgBcACIAOwAgAFwAIgBCADcAXAAiADsAIABcACIAQgA4AFwAIgA7ACAAXAAiAEIAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEEAMABcACIAOwAgAFwAIgBBADEAXAAiADsAIABcACIAQQAyAFwAIgA7ACAAXAAiAEEAMwBcACIAOwAgAFwAIgBBADQAXAAiADsAIABcACIAQQA1AFwAIgA7ACAAXAAiAEEANgBcACIAOwAgAFwAIgBBADcAXAAiADsAIABcACIAQQA4AFwAIgA7ACAAXAAiAEEAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEYAMABcACIAOwAgAFwAIgBGADEAXAAiADsAIABcACIARgAyAFwAIgA7ACAAXAAiAEYAMwBcACIAOwAgAFwAIgBGADQAXAAiADsAIABcACIARgA1AFwAIgA7ACAAXAAiAEYANgBcACIAOwAgAFwAIgBGADcAXAAiADsAIABcACIARgA4AFwAIgA7ACAAXAAiAEYAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEcAMABcACIAOwAgAFwAIgBHADEAXAAiADsAIABcACIARwAyAFwAIgA7ACAAXAAiAEcAMwBcACIAOwAgAFwAIgBHADQAXAAiADsAIABcACIARwA1AFwAIgA7ACAAXAAiAEcANgBcACIAOwAgAFwAIgBHADcAXAAiADsAIABcACIARwA4AFwAIgA7ACAAXAAiAEcAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEsAMABcACIAOwAgAFwAIgBLADEAXAAiADsAIABcACIASwAyAFwAIgA7ACAAXAAiAEsAMwBcACIAOwAgAFwAIgBLADQAXAAiADsAIABcACIASwA1AFwAIgA7ACAAXAAiAEsANgBcACIAOwAgAFwAIgBLADcAXAAiADsAIABcACIASwA4AFwAIgA7ACAAXAAiAEsAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAE0AMABcACIAOwAgAFwAIgBNADEAXAAiADsAIABcACIATQAyAFwAIgA7ACAAXAAiAE0AMwBcACIAOwAgAFwAIgBNADQAXAAiADsAIABcACIATQA1AFwAIgA7ACAAXAAiAE0ANgBcACIAOwAgAFwAIgBNADcAXAAiADsAIABcACIATQA4AFwAIgA7ACAAXAAiAE0AOQBcACIAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABIAGkAZwBoACAAZQBmAGYAZQBjAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAcwAgACgASwApACAAZgBvAHIAIABlAGEAYwBoACAAcwB1AGIAYwBsAGEAcwBzAFwAbgAgACAAIAAgAGEAcgByAFQASABpAGcAaAAsACAAewBcAG4AIAAgACAAIAAgACAANAA0ADkAMAAwADsAIAA0ADIAOQAwADAAOwAgADQAMQA0ADAAMAA7ACAAMwA5ADUAMAAwADsAIAAzADcAMQAwADAAOwAgADMANQAxADAAMAA7ACAAMwAzADMAMAAwADsAXABuACAAIAAgACAAIAAgADMAMQA0ADAAMAA7ACAAMgA2ADAAMAAwADsAIAAyADAANgAwADAAOwAgADEANwAwADAAMAA7ACAAMQA2ADQAMAAwADsAIAAxADUANwAwADAAOwAgADEANAA1ADAAMAA7ACAAMQA0ADAAMAAwADsAIAAxADIAMwAwADAAOwAgADEAMAA3ADAAMAA7AFwAbgAgACAAIAAgACAAIAA5ADcAMAAwADsAIAA5ADMAMAAwADsAIAA4ADgAMAAwADsAIAA4ADYAMAAwADsAIAA4ADIANQAwADsAIAA4ADEAMAAwADsAIAA3ADkAMQAwADsAIAA3ADcANgAwADsAIAA3ADUAOQAwADsAIAA3ADQAMAAwADsAXABuACAAIAAgACAAIAAgADcAMgAyADAAOwAgADcAMAAyADAAOwAgADYAOAAyADAAOwAgADYANwA1ADAAOwAgADYANgA3ADAAOwAgADYANQA1ADAAOwAgADYAMwA1ADAAOwAgADYAMgA4ADAAOwAgADYAMQA4ADAAOwBcAG4AIAAgACAAIAAgACAANgAwADUAMAA7ACAANQA5ADMAMAA7ACAANQA4ADYAMAA7ACAANQA3ADcAMAA7ACAANQA3ADIAMAA7ACAANQA2ADgAMAA7ACAANQA2ADYAMAA7ACAANQA2ADAAMAA7ACAANQA1ADUAMAA7ACAANQA0ADgAMAA7AFwAbgAgACAAIAAgACAAIAA1ADMAOAAwADsAIAA1ADIANwAwADsAIAA1ADEANwAwADsAIAA1ADEAMAAwADsAIAA0ADgAMwAwADsAIAA0ADYAMAAwADsAIAA0ADQANAAwADsAIAA0ADMAMAAwADsAIAA0ADEAMAAwADsAIAAzADkAOQAwADsAXABuACAAIAAgACAAIAAgADMAOQAzADAAOwAgADMAOAA1ADAAOwAgADMANgA2ADAAOwAgADMANQA2ADAAOwAgADMANAAzADAAOwAgADMAMgAxADAAOwAgADMAMAA2ADAAOwAgADIAOAAxADAAOwAgADIANgA4ADAAOwAgADIANQA3ADAAOwAgADIAMwA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABUAGUAbQBwAGUAcgBhAHQAdQByAGUAIABzAHAAYQBuACAAdABvACAAdABoAGUAIABuAGUAeAB0ACAAcwB1AGIAYwBsAGEAcwBzACAAKABLACkAXABuACAAIAAgACAAYQByAHIAUwBwAGEAbgAsACAAewBcAG4AIAAgACAAIAAgACAAMgAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMQA5ADAAMAA7ACAAMgA0ADAAMAA7ACAAMgAwADAAMAA7ACAAMQA4ADAAMAA7ACAAMQA5ADAAMAA7AFwAbgAgACAAIAAgACAAIAA1ADQAMAAwADsAIAA1ADQAMAAwADsAIAAzADYAMAAwADsAIAA2ADAAMAA7ACAANwAwADAAOwAgADEAMgAwADAAOwAgADUAMAAwADsAIAAxADcAMAAwADsAIAAxADYAMAAwADsAIAAxADAAMAAwADsAXABuACAAIAAgACAAIAAgADQAMAAwADsAIAA1ADAAMAA7ACAAMgAwADAAOwAgADMANQAwADsAIAAxADUAMAA7ACAAMQA5ADAAOwAgADEANQAwADsAIAAxADcAMAA7ACAAMQA5ADAAOwAgADEAOAAwADsAXABuACAAIAAgACAAIAAgADIAMAAwADsAIAAyADAAMAA7ACAANwAwADsAIAA4ADAAOwAgADEAMgAwADsAIAAyADAAMAA7ACAANwAwADsAIAAxADAAMAA7ACAAMQAzADAAOwBcAG4AIAAgACAAIAAgACAAMQAyADAAOwAgADcAMAA7ACAAOQAwADsAIAA1ADAAOwAgADQAMAA7ACAAMgAwADsAIAA2ADAAOwAgADUAMAA7ACAANwAwADsAIAAxADAAMAA7AFwAbgAgACAAIAAgACAAIAAxADEAMAA7ACAAMQAwADAAOwAgADcAMAA7ACAAMgA3ADAAOwAgADIAMwAwADsAIAAxADYAMAA7ACAAMQA0ADAAOwAgADIAMAAwADsAIAAxADEAMAA7ACAANgAwADsAXABuACAAIAAgACAAIAAgADgAMAA7ACAAMQA5ADAAOwAgADEAMAAwADsAIAAxADMAMAA7ACAAMgAyADAAOwAgADEANQAwADsAIAAyADUAMAA7ACAAMQAzADAAOwAgADEAMQAwADsAIAAxADkAMAA7ACAAMgA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABCAHUAbgBkAGwAZQAgAGkAbgB0AG8AIABhACAAcwBpAG4AZwBsAGUAIABtAGEAdAByAGkAeAAgAGYAbwByACAAYwBsAGUAYQBuACAAbABvAG8AawB1AHAAXABuACAAIAAgACAAbQB0AHgAUwB0AGEAcgBzACwAIABIAFMAVABBAEMASwAoAGEAcgByAFQAeQBwAGUAcwAsACAAYQByAHIAVABIAGkAZwBoACwAIABhAHIAcgBTAHAAYQBuACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AcAB1AHQAIABuAG8AcgBtAGEAbABpAHoAYQB0AGkAbwBuACAAYQBuAGQAIABwAGEAcgBzAGkAbgBnACAALQAtAC0AXABuAFwAbgAgACAAIAAgAG4AbwBfAHMAcABhAGMAZQAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAHMAdQBiAGMAbABhAHMAcwAsACAAXAAiACAAXAAiACwAIABcACIAXAAiACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABUAHIAaQBtACAAdwBoAGkAdABlAHMAcABhAGMAZQBcAG4AIAAgACAAIABkAG8AdABfAHAAbwBzACwAIABGAEkATgBEACgAXAAiAC4AXAAiACwAIABuAG8AXwBzAHAAYQBjAGUAIAAmACAAXAAiAC4AMABcACIAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARQBuAHMAdQByAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGkAcwAgAGQAZQB0AGUAYwB0AGUAZAAgAGUAdgBlAG4AIABmAG8AcgAgAHcAaABvAGwAZQAgAHMAdQBiAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACAAYgBhAHMAZQAsACAATABFAEYAVAAoAG4AbwBfAHMAcABhAGMAZQAsACAAZABvAHQAXwBwAG8AcwAgAC0AIAAxACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABFAHgAdAByAGEAYwB0ACAAcgBvAG8AdAAgAHMAdQBiAGMAbABhAHMAcwAsACAAZQAuAGcALgAsACAAXAAiAEcANwBcACIAIABmAHIAbwBtACAAXAAiAEcANwAuADMAXAAiAFwAbgAgACAAIAAgAGYALAAgAFYAQQBMAFUARQAoAFwAIgAwAC4AXAAiACAAJgAgAE0ASQBEACgAbgBvAF8AcwBwAGEAYwBlACwAIABkAG8AdABfAHAAbwBzACAAKwAgADEALAAgAEwARQBOACgAbgBvAF8AcwBwAGEAYwBlACkAKQApACwAIAAvAC8AIABDAG8AbgB2AGUAcgB0ACAAZABlAGMAaQBtAGEAbAAgAHMAdAByAGkAbgBnACAAdABvACAAbgB1AG0AZQByAGkAYwAgACgAZQAuAGcALgAsACAAMAAuADMAKQBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABMAG8AbwBrAHUAcAAgAGgAaQBnAGgAIAB0AGUAbQBwACAAYQBuAGQAIABzAHAAYQBuACAAZgByAG8AbQAgAG0AYQB0AHIAaQB4ACAALQAtAC0AXABuAFwAbgAgACAAIAAgAFQAXwBoAGkAZwBoACwAIABYAEwATwBPAEsAVQBQACgAYgBhAHMAZQAsACAASQBOAEQARQBYACgAbQB0AHgAUwB0AGEAcgBzACwALAAxACkALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMgApACkALAAgAC8ALwAgAGUALgBnAC4AIAA1ADUANQAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AIAAgACAAIABzAHAAYQBuACwAIAAgACAAWABMAE8ATwBLAFUAUAAoAGIAYQBzAGUALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMQApACwAIABJAE4ARABFAFgAKABtAHQAeABTAHQAYQByAHMALAAsADMAKQApACwAIAAvAC8AIABlAC4AZwAuACAANwAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AdABlAHIAcABvAGwAYQB0AGkAbwBuADoAIABUACAAPQAgAFQAXwBoAGkAZwBoACAALQAgAGYAIAAqACAAcwBwAGEAbgAgAC0ALQAtAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAVABfAGgAaQBnAGgAIAAtACAAKABmACAAKgAgAHMAcABhAG4AKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAG4AdABlAHIAcABvAGwAYQB0AGUAZAAgAHMAdABlAGwAbABhAHIAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAAoAGUALgBnAC4AIABcACIARwA3AC4AMwBcACIAKQAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAGUAZgBmAGUAYwB0AGkAdgBlACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAaQBuACAASwBlAGwAdgBpAG4ALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgAgAEEAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIABlAHMAdABpAG0AYQB0AGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAsACAAbwBwAHQAaQBvAG4AYQBsAGwAeQAgAHcAaQB0AGgAIABkAGUAYwBpAG0AYQBsACAAcAByAGUAYwBpAHMAaQBvAG4ALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAHQAZQBtAHAAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAbgB1AG0AZQByAGkAYwAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgAGkAbgAgAEsAZQBsAHYAaQBuAC4AXABuACAAIAAgAC0AIABkAGUAYwBpAG0AYQBsAHMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAGkAbgBjAGwAdQBkAGUAIABpAG4AIAB0AGgAZQAgAHMAdQBiAGMAbABhAHMAcwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIABtAGEAdABjAGgAZQBzACAAdABoAGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAB0AG8AIAB0AGgAZQAgAGMAbwByAHIAZQBjAHQAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAByAGEAbgBnAGUAIABiAHkAIABjAGgAZQBjAGsAaQBuAGcAIAB3AGgAaQBjAGgAIABoAGkAZwBoAC0AdABlAG0AcAAgAGIAYQBuAGQAIABpAHQAIABmAGEAbABsAHMAIAB3AGkAdABoAGkAbgAuAFwAbgAgACAAIAAtACAASQB0ACAAdABoAGUAbgAgAGwAaQBuAGUAYQByAGwAeQAgAGkAbgB0AGUAcgBwAG8AbABhAHQAZQBzACAAdABoAGUAIABkAGUAYwBpAG0AYQBsACAAcABvAHIAdABpAG8AbgAgAG8AZgAgAHQAaABlACAAcwB1AGIAYwBsAGEAcwBzACAAdQBzAGkAbgBnADoAXABuACAAIAAgACAAIAAgACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAD0AIAAoAFQAXwBoAGkAZwBoACAALQAgAHQAZQBtAHAAKQAgAC8AIABzAHAAYQBuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGgAYQByAGQAYwBvAGQAZQBkACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGMAaABvAHIAcwAgAGEAbgBkACAAcwBwAGEAbgBzACAAYQBjAHIAbwBzAHMAIABzAHAAZQBjAHQAcgBhAGwAIAB0AHkAcABlAHMAIABPADMAEyBNADkALgBcAG4AIAAgACAALQAgAFMAdQBwAHAAbwByAHQAcwAgAGgAaQBnAGgAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGEAbgBkACAAbgBvAHIAbQBhAGwAaQB6AGEAdABpAG8AbgAgAGYAbwByACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHMAdQBiAGMAbABhAHMAcwBlAHMAIABsAGkAawBlACAAXAAiAEsANAAuADMANwA2AFwAIgAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAKAA0ADIAMwAwADAAKQAgACAAIACSISAAXAAiAE8ANAAuADQAMAAwAFwAIgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACgANQA1ADIAOQApACAAIAAgACAAkiEgAFwAIgBHADcALgAzADAAMABcACIAXABuACAAIAAgAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAAoADYAMQAyADEALgA1ACkAIAAgAJIhIABcACIARgA4AC4ANAA1ADAAXAAiAFwAbgAgACAAIABBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAKAAyADQANQA2ACwAIAAxACkAIACSISAAXAAiAE0AOAAuADYAXAAiAFwAbgBcAG4AIAAgACAARABlAHAAZQBuAGQAZQBuAGMAaQBlAHMAOgBcAG4AIAAgACAALQAgAFUAcwBlAHMAIABYAE0AQQBUAEMASAAgACsAIABNAEEAUAAgAGYAbwByACAAbABvAGcAaQBjAGEAbAAgAHIAYQBuAGcAZQAgAGQAZQB0AGUAYwB0AGkAbwBuAC4AXABuACAAIAAgAC0AIABBAHMAcwB1AG0AZQBzACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAZABlAGMAcgBlAGEAcwBlAHMAIABtAG8AbgBvAHQAbwBuAGkAYwBhAGwAbAB5ACAAYQBjAHIAbwBzAHMAIABzAHUAYgBjAGwAYQBzAHMAIABzAGUAcQB1AGUAbgBjAGUALgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQBtAHAALAAgAFsAZABlAGMAaQBtAGEAbABzAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAGEAcgBkAGMAbwBkAGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAgAGQAYQB0AGEAIAAtAC0ALQBcAG4AIAAgACAAIABhAHIAcgBUAHkAcABlAHMALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBPADMAXAAiADsAIABcACIATwA0AFwAIgA7ACAAXAAiAE8ANQBcACIAOwAgAFwAIgBPADYAXAAiADsAIABcACIATwA3AFwAIgA7ACAAXAAiAE8AOABcACIAOwAgAFwAIgBPADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBCADAAXAAiADsAIABcACIAQgAxAFwAIgA7ACAAXAAiAEIAMgBcACIAOwAgAFwAIgBCADMAXAAiADsAIABcACIAQgA0AFwAIgA7ACAAXAAiAEIANQBcACIAOwAgAFwAIgBCADYAXAAiADsAIABcACIAQgA3AFwAIgA7ACAAXAAiAEIAOABcACIAOwAgAFwAIgBCADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBBADAAXAAiADsAIABcACIAQQAxAFwAIgA7ACAAXAAiAEEAMgBcACIAOwAgAFwAIgBBADMAXAAiADsAIABcACIAQQA0AFwAIgA7ACAAXAAiAEEANQBcACIAOwAgAFwAIgBBADYAXAAiADsAIABcACIAQQA3AFwAIgA7ACAAXAAiAEEAOABcACIAOwAgAFwAIgBBADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBGADAAXAAiADsAIABcACIARgAxAFwAIgA7ACAAXAAiAEYAMgBcACIAOwAgAFwAIgBGADMAXAAiADsAIABcACIARgA0AFwAIgA7ACAAXAAiAEYANQBcACIAOwAgAFwAIgBGADYAXAAiADsAIABcACIARgA3AFwAIgA7ACAAXAAiAEYAOABcACIAOwAgAFwAIgBGADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBHADAAXAAiADsAIABcACIARwAxAFwAIgA7ACAAXAAiAEcAMgBcACIAOwAgAFwAIgBHADMAXAAiADsAIABcACIARwA0AFwAIgA7ACAAXAAiAEcANQBcACIAOwAgAFwAIgBHADYAXAAiADsAIABcACIARwA3AFwAIgA7ACAAXAAiAEcAOABcACIAOwAgAFwAIgBHADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBLADAAXAAiADsAIABcACIASwAxAFwAIgA7ACAAXAAiAEsAMgBcACIAOwAgAFwAIgBLADMAXAAiADsAIABcACIASwA0AFwAIgA7ACAAXAAiAEsANQBcACIAOwAgAFwAIgBLADYAXAAiADsAIABcACIASwA3AFwAIgA7ACAAXAAiAEsAOABcACIAOwAgAFwAIgBLADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBNADAAXAAiADsAIABcACIATQAxAFwAIgA7ACAAXAAiAE0AMgBcACIAOwAgAFwAIgBNADMAXAAiADsAIABcACIATQA0AFwAIgA7ACAAXAAiAE0ANQBcACIAOwAgAFwAIgBNADYAXAAiADsAIABcACIATQA3AFwAIgA7ACAAXAAiAE0AOABcACIAOwAgAFwAIgBNADkAXAAiAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAAYQByAHIAVABIAGkAZwBoACwAIAB7AFwAbgAgACAAIAAgACAAIAA0ADQAOQAwADAAOwAgADQAMgA5ADAAMAA7ACAANAAxADQAMAAwADsAIAAzADkANQAwADAAOwAgADMANwAxADAAMAA7ACAAMwA1ADEAMAAwADsAIAAzADMAMwAwADAAOwBcAG4AIAAgACAAIAAgACAAMwAxADQAMAAwADsAIAAyADYAMAAwADAAOwAgADIAMAA2ADAAMAA7ACAAMQA3ADAAMAAwADsAIAAxADYANAAwADAAOwAgADEANQA3ADAAMAA7ACAAMQA0ADUAMAAwADsAIAAxADQAMAAwADAAOwAgADEAMgAzADAAMAA7ACAAMQAwADcAMAAwADsAXABuACAAIAAgACAAIAAgADkANwAwADAAOwAgADkAMwAwADAAOwAgADgAOAAwADAAOwAgADgANgAwADAAOwAgADgAMgA1ADAAOwAgADgAMQAwADAAOwAgADcAOQAxADAAOwAgADcANwA2ADAAOwAgADcANQA5ADAAOwAgADcANAAwADAAOwBcAG4AIAAgACAAIAAgACAANwAyADIAMAA7ACAANwAwADIAMAA7ACAANgA4ADIAMAA7ACAANgA3ADUAMAA7ACAANgA2ADcAMAA7ACAANgA1ADUAMAA7ACAANgAzADUAMAA7ACAANgAyADgAMAA7ACAANgAxADgAMAA7AFwAbgAgACAAIAAgACAAIAA2ADAANQAwADsAIAA1ADkAMwAwADsAIAA1ADgANgAwADsAIAA1ADcANwAwADsAIAA1ADcAMgAwADsAIAA1ADYAOAAwADsAIAA1ADYANgAwADsAIAA1ADYAMAAwADsAIAA1ADUANQAwADsAIAA1ADQAOAAwADsAXABuACAAIAAgACAAIAAgADUAMwA4ADAAOwAgADUAMgA3ADAAOwAgADUAMQA3ADAAOwAgADUAMQAwADAAOwAgADQAOAAzADAAOwAgADQANgAwADAAOwAgADQANAA0ADAAOwAgADQAMwAwADAAOwAgADQAMQAwADAAOwAgADMAOQA5ADAAOwBcAG4AIAAgACAAIAAgACAAMwA5ADMAMAA7ACAAMwA4ADUAMAA7ACAAMwA2ADYAMAA7ACAAMwA1ADYAMAA7ACAAMwA0ADMAMAA7ACAAMwAyADEAMAA7ACAAMwAwADYAMAA7ACAAMgA4ADEAMAA7ACAAMgA2ADgAMAA7ACAAMgA1ADcAMAA7ACAAMgAzADgAMABcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAGEAcgByAFMAcABhAG4ALAAgAHsAXABuACAAIAAgACAAIAAgADIAMAAwADAAOwAgADEANQAwADAAOwAgADEAOQAwADAAOwAgADIANAAwADAAOwAgADIAMAAwADAAOwAgADEAOAAwADAAOwAgADEAOQAwADAAOwBcAG4AIAAgACAAIAAgACAANQA0ADAAMAA7ACAANQA0ADAAMAA7ACAAMwA2ADAAMAA7ACAANgAwADAAOwAgADcAMAAwADsAIAAxADIAMAAwADsAIAA1ADAAMAA7ACAAMQA3ADAAMAA7ACAAMQA2ADAAMAA7ACAAMQAwADAAMAA7AFwAbgAgACAAIAAgACAAIAA0ADAAMAA7ACAANQAwADAAOwAgADIAMAAwADsAIAAzADUAMAA7ACAAMQA1ADAAOwAgADEAOQAwADsAIAAxADUAMAA7ACAAMQA3ADAAOwAgADEAOQAwADsAIAAxADgAMAA7AFwAbgAgACAAIAAgACAAIAAyADAAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAOAAwADsAIAAxADIAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAMQAwADAAOwAgADEAMwAwADsAXABuACAAIAAgACAAIAAgADEAMgAwADsAIAA3ADAAOwAgADkAMAA7ACAANQAwADsAIAA0ADAAOwAgADIAMAA7ACAANgAwADsAIAA1ADAAOwAgADcAMAA7ACAAMQAwADAAOwBcAG4AIAAgACAAIAAgACAAMQAxADAAOwAgADEAMAAwADsAIAA3ADAAOwAgADIANwAwADsAIAAyADMAMAA7ACAAMQA2ADAAOwAgADEANAAwADsAIAAyADAAMAA7ACAAMQAxADAAOwAgADYAMAA7AFwAbgAgACAAIAAgACAAIAA4ADAAOwAgADEAOQAwADsAIAAxADAAMAA7ACAAMQAzADAAOwAgADIAMgAwADsAIAAxADUAMAA7ACAAMgA1ADAAOwAgADEAMwAwADsAIAAxADEAMAA7ACAAMQA5ADAAOwAgADIAOAAwAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABEAGUAdABlAHIAbQBpAG4AZQAgAG0AYQB0AGMAaAAgAGkAbgBkAGUAeAAgAC0ALQAtAFwAbgAgACAAIAAgAHQAZQBtAHAAXwBpAG4AXwByAGEAbgBnAGUALABcAG4AIAAgACAAIAAgACAATQBBAFAAKABTAEUAUQBVAEUATgBDAEUAKABSAE8AVwBTACgAYQByAHIAVABIAGkAZwBoACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABpACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAQQBOAEQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAYQByAHIAVABIAGkAZwBoACwAIABpACkAIAA+AD0AIAB0AGUAbQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAIAA+ACAASQBOAEQARQBYACgAYQByAHIAVABIAGkAZwBoACwAIABpACkAIAAtACAASQBOAEQARQBYACgAYQByAHIAUwBwAGEAbgAsACAAaQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAaQBkAHgALAAgAFgATQBBAFQAQwBIACgAVABSAFUARQAsACAAdABlAG0AcABfAGkAbgBfAHIAYQBuAGcAZQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAATABvAG8AawB1AHAAIAB0AHkAcABlACAAYQBuAGQAIABjAG8AbQBwAHUAdABlACAAZgByAGEAYwB0AGkAbwBuACAALQAtAC0AXABuACAAIAAgACAAZgB1AGwAbABfAHQAeQBwAGUALAAgAEkATgBEAEUAWAAoAGEAcgByAFQAeQBwAGUAcwAsACAAaQBkAHgAKQAsAFwAbgAgACAAIAAgAFQAXwBoAGkAZwBoACwAIABJAE4ARABFAFgAKABhAHIAcgBUAEgAaQBnAGgALAAgAGkAZAB4ACkALABcAG4AIAAgACAAIABzAHAAYQBuACwAIABJAE4ARABFAFgAKABhAHIAcgBTAHAAYQBuACwAIABpAGQAeAApACwAXABuACAAIAAgACAAZgAsACAAKABUAF8AaABpAGcAaAAgAC0AIAB0AGUAbQBwACkAIAAvACAAcwBwAGEAbgAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAEYAbwByAG0AYQB0ACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIAAtAC0ALQBcAG4AIAAgACAAIABkAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABzACkALABcAG4AIAAgACAAIABmAG8AcgBtAGEAdABfAHMAdAByAGkAbgBnACwAIABcACIALgBcACIAIAAmACAAUgBFAFAAVAAoAFwAIgAwAFwAIgAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgAHMAdQBiAGMAbABhAHMAcwAsACAAZgB1AGwAbABfAHQAeQBwAGUAIAAmACAAVABFAFgAVAAoAGYALAAgAGYAbwByAG0AYQB0AF8AcwB0AHIAaQBuAGcAKQAsAFwAbgBcAG4AIAAgACAAIABzAHUAYgBjAGwAYQBzAHMAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABEAGkAcwBwAGwAYQB5AHMAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABhAG4AZAAgAHMAcABhAG4AIABkAGEAdABhACAAYQBjAHIAbwBzAHMAIABzAHQAZQBsAGwAYQByACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBhAG4AIAByAGUAdAB1AHIAbgAgAGUAaQB0AGgAZQByACAAdABoAGUAIABmAHUAbABsACAAcwBwAGUAYwB0AHIAYQBsACAAbQBhAHQAcgBpAHgAIAAoAE8AMwATIE0AOQApACAAbwByACAAYQAgAGYAaQBsAHQAZQByAGUAZAAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AIAB2AGkAZQB3AC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAIABcAG4AIAAgACAALQAgAEkAZgAgAHQAeQBwAGUAIABpAHMAIABvAG0AaQB0AHQAZQBkADoAIABXAGkAZABlACAAbQBhAHQAcgBpAHgAIABvAGYAIABzAHAAZQBjAHQAcgBhAGwAIABjAGwAYQBzAHMAZQBzACAAKABPACAAdABvACAATQApACwAIAAxADAAIABzAHUAYgBjAGwAYQBzAHMAZQBzACAAZQBhAGMAaABcAG4AIAAgACAALQAgAEkAZgAgAHQAeQBwAGUAIABpAHMAIABwAHIAbwB2AGkAZABlAGQAOgAgAFQAdwBvAC0AYwBvAGwAdQBtAG4AIAB0AGEAYgBsAGUAIAB3AGkAdABoACAAVABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGQAIABTAHAAYQBuACAAZgBvAHIAIAB0AGgAZQAgAHIAZQBxAHUAZQBzAHQAZQBkACAAYwBsAGEAcwBzAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAdAB5AHAAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AbgBlACAAbwBmACAAewBcACIATwBcACIALABcACIAQgBcACIALABcACIAQQBcACIALABcACIARgBcACIALABcACIARwBcACIALABcACIASwBcACIALABcACIATQBcACIAfQAgAHQAbwAgAGwAaQBtAGkAdAAgAG8AdQB0AHAAdQB0ACAAdABvACAAdABoAGEAdAAgAHMAcABlAGMAdAByAGEAbAAgAGcAcgBvAHUAcABcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVABlAG0AcABlAHIAYQB0AHUAcgBlAHMAIABhAHIAZQAgAGgAaQBnAGgALQBlAG4AZAAgAHYAYQBsAHUAZQBzACAAZgBvAHIAIABlAGEAYwBoACAAcwB1AGIAYwBsAGEAcwBzACAAKAByAGUAYQBsAC0AdwBvAHIAbABkACAAaQBuAHMAcABpAHIAZQBkACwAIABzAG0AbwBvAHQAaABlAGQAIABkAGEAdABhACkALgBcAG4AIAAgACAALQAgAFMAcABhAG4AIABpAHMAIAB0AGgAZQAgAEsAZQBsAHYAaQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABhACAAcwB1AGIAYwBsAGEAcwBzACAAYQBuAGQAIAB0AGgAZQAgAG4AZQB4AHQAIABjAG8AbwBsAGUAcgAgAG8AbgBlAC4AXABuACAAIAAgAC0AIABJAGYAIABuAG8AIAB0AHkAcABlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQALAAgAG8AdQB0AHAAdQB0ACAAaQBzACAAbwByAGcAYQBuAGkAegBlAGQAIABhAHMAIABhACAAdgBpAHMAdQBhAGwAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAYQBiAGwAZQAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAFYAUwBUAEEAQwBLACAAYQBuAGQAIABIAFMAVABBAEMASwAgAGkAbgB0AGUAcgBuAGEAbABsAHkAIABmAG8AcgAgAGMAbABlAGEAbgAgAHMAdAByAHUAYwB0AHUAcgBlADsAIAByAGUAcABsAGEAYwBlAHMAIABwAHIAZQB2AGkAbwB1AHMAIABzAGUAcABhAHIAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AcwAuAFwAbgAgACAAIAAtACAAVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAHMAdQBwAGUAcgBzAGUAZABlAHMAOgAgAEEAUwBUAFIATwBfAEQASQBTAFAATABBAFkAXwBCAEEAUwBFAF8ARABBAFQAQQAsACAAXwBTAEUAUABBAFIAQQBUAEUARAAsACAAYQBuAGQAIABfAEIAWQBfAFQAWQBQAEUALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAoACkAIAAgACAAIAAgACAAIAAgAJIhIABSAGUAdAB1AHIAbgBzACAAZgB1AGwAbAAgAE8AMwATIE0AOQAgAHMAdQBiAGMAbABhAHMAcwAgAGMAaABhAHIAdABcAG4AIAAgACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAoAFwAIgBHAFwAIgApACAAIAAgACAAIACSISAAUgBlAHQAdQByAG4AcwAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgAGEAbgBkACAAcwBwAGEAbgAgAGYAbwByACAARwAwABMgRwA5AFwAbgAgACAAIABBAFMAVABSAE8AXwBEAEkAUwBQAEwAQQBZAF8AUwBQAEUAQwBUAFIAQQBMACgAXAAiAEYAXAAiACkAIAAgACAAIAAgAJIhIABGADAAEyBGADkAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AIABtAGUAdAByAGkAYwBzAFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBEAEkAUwBQAEwAQQBZAF8AUwBQAEUAQwBUAFIAQQBMACAAPQAgAEwAQQBNAEIARABBACgAWwB0AHkAcABlAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABEAGUAZgBpAG4AZQAgAHMAcABlAGMAdAByAGEAbAAgAHQAeQBwAGUAcwAgAGEAbgBkACAAYgB1AGkAbABkACAAaABlAGwAcABlAHIAcwAgAC0ALQAtAFwAbgAgACAAIAAgAFQAeQBwAGUAcwAsACAAewBcACIATwBcACIAOwBcACIAQgBcACIAOwBcACIAQQBcACIAOwBcACIARgBcACIAOwBcACIARwBcACIAOwBcACIASwBcACIAOwBcACIATQBcACIAfQAsAFwAbgAgACAAIAAgAEgAZQBhAGQAZQByAHMALAAgAFQAUgBBAE4AUwBQAE8AUwBFACgAVgBTAFQAQQBDAEsAKABcACIAIABcACIALAAgAFQAeQBwAGUAcwApACkALABcAG4AIAAgACAAIABGAGkAbgBkAEMAbwBsACwAIABNAEEASwBFAEEAUgBSAEEAWQAoAEMATwBVAE4AVABBACgAVAB5AHAAZQBzACkALAAgADIALAAgAEwAQQBNAEIARABBACgAcgAsACAAYwAsACAASQBGACgAYwAgAD0AIAAxACwAIABJAE4ARABFAFgAKABUAHkAcABlAHMALAAgAHIAKQAsACAAcgApACkAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAFIAYQB3ACAAcwB0AGEAcgAgAHMAdQBiAGMAbABhAHMAcwAgAGQAYQB0AGEAIAAtAC0ALQBcAG4AIAAgACAAIABhAHIAcgBUAHkAcABlAHMALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBPAFwAIgA7ACAAXAAiAE8AXAAiADsAIABcACIATwBcACIAOwAgAFwAIgBPADMAXAAiADsAIABcACIATwA0AFwAIgA7ACAAXAAiAE8ANQBcACIAOwAgAFwAIgBPADYAXAAiADsAIABcACIATwA3AFwAIgA7ACAAXAAiAE8AOABcACIAOwAgAFwAIgBPADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBCADAAXAAiADsAIABcACIAQgAxAFwAIgA7ACAAXAAiAEIAMgBcACIAOwAgAFwAIgBCADMAXAAiADsAIABcACIAQgA0AFwAIgA7ACAAXAAiAEIANQBcACIAOwAgAFwAIgBCADYAXAAiADsAIABcACIAQgA3AFwAIgA7ACAAXAAiAEIAOABcACIAOwAgAFwAIgBCADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBBADAAXAAiADsAIABcACIAQQAxAFwAIgA7ACAAXAAiAEEAMgBcACIAOwAgAFwAIgBBADMAXAAiADsAIABcACIAQQA0AFwAIgA7ACAAXAAiAEEANQBcACIAOwAgAFwAIgBBADYAXAAiADsAIABcACIAQQA3AFwAIgA7ACAAXAAiAEEAOABcACIAOwAgAFwAIgBBADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBGADAAXAAiADsAIABcACIARgAxAFwAIgA7ACAAXAAiAEYAMgBcACIAOwAgAFwAIgBGADMAXAAiADsAIABcACIARgA0AFwAIgA7ACAAXAAiAEYANQBcACIAOwAgAFwAIgBGADYAXAAiADsAIABcACIARgA3AFwAIgA7ACAAXAAiAEYAOABcACIAOwAgAFwAIgBGADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBHADAAXAAiADsAIABcACIARwAxAFwAIgA7ACAAXAAiAEcAMgBcACIAOwAgAFwAIgBHADMAXAAiADsAIABcACIARwA0AFwAIgA7ACAAXAAiAEcANQBcACIAOwAgAFwAIgBHADYAXAAiADsAIABcACIARwA3AFwAIgA7ACAAXAAiAEcAOABcACIAOwAgAFwAIgBHADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBLADAAXAAiADsAIABcACIASwAxAFwAIgA7ACAAXAAiAEsAMgBcACIAOwAgAFwAIgBLADMAXAAiADsAIABcACIASwA0AFwAIgA7ACAAXAAiAEsANQBcACIAOwAgAFwAIgBLADYAXAAiADsAIABcACIASwA3AFwAIgA7ACAAXAAiAEsAOABcACIAOwAgAFwAIgBLADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBNADAAXAAiADsAIABcACIATQAxAFwAIgA7ACAAXAAiAE0AMgBcACIAOwAgAFwAIgBNADMAXAAiADsAIABcACIATQA0AFwAIgA7ACAAXAAiAE0ANQBcACIAOwAgAFwAIgBNADYAXAAiADsAIABcACIATQA3AFwAIgA7ACAAXAAiAE0AOABcACIAOwAgAFwAIgBNADkAXAAiAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAAYQByAHIAVABIAGkAZwBoACwAIAB7AFwAbgAgACAAIAAgACAAIABcACIAXAAiADsAIABcACIAXAAiADsAIABcACIAXAAiADsAIAA0ADQAOQAwADAAOwAgADQAMgA5ADAAMAA7ACAANAAxADQAMAAwADsAIAAzADkANQAwADAAOwAgADMANwAxADAAMAA7ACAAMwA1ADEAMAAwADsAIAAzADMAMwAwADAAOwBcAG4AIAAgACAAIAAgACAAMwAxADQAMAAwADsAIAAyADYAMAAwADAAOwAgADIAMAA2ADAAMAA7ACAAMQA3ADAAMAAwADsAIAAxADYANAAwADAAOwAgADEANQA3ADAAMAA7ACAAMQA0ADUAMAAwADsAIAAxADQAMAAwADAAOwAgADEAMgAzADAAMAA7ACAAMQAwADcAMAAwADsAXABuACAAIAAgACAAIAAgADkANwAwADAAOwAgADkAMwAwADAAOwAgADgAOAAwADAAOwAgADgANgAwADAAOwAgADgAMgA1ADAAOwAgADgAMQAwADAAOwAgADcAOQAxADAAOwAgADcANwA2ADAAOwAgADcANQA5ADAAOwAgADcANAAwADAAOwBcAG4AIAAgACAAIAAgACAANwAyADIAMAA7ACAANwAwADIAMAA7ACAANgA4ADIAMAA7ACAANgA3ADUAMAA7ACAANgA2ADcAMAA7ACAANgA1ADUAMAA7ACAANgAzADUAMAA7ACAANgAyADgAMAA7ACAANgAxADgAMAA7AFwAbgAgACAAIAAgACAAIAA2ADAANQAwADsAIAA1ADkAMwAwADsAIAA1ADgANgAwADsAIAA1ADcANwAwADsAIAA1ADcAMgAwADsAIAA1ADYAOAAwADsAIAA1ADYANgAwADsAIAA1ADYAMAAwADsAIAA1ADUANQAwADsAIAA1ADQAOAAwADsAXABuACAAIAAgACAAIAAgADUAMwA4ADAAOwAgADUAMgA3ADAAOwAgADUAMQA3ADAAOwAgADUAMQAwADAAOwAgADQAOAAzADAAOwAgADQANgAwADAAOwAgADQANAA0ADAAOwAgADQAMwAwADAAOwAgADQAMQAwADAAOwAgADMAOQA5ADAAOwBcAG4AIAAgACAAIAAgACAAMwA5ADMAMAA7ACAAMwA4ADUAMAA7ACAAMwA2ADYAMAA7ACAAMwA1ADYAMAA7ACAAMwA0ADMAMAA7ACAAMwAyADEAMAA7ACAAMwAwADYAMAA7ACAAMgA4ADEAMAA7ACAAMgA2ADgAMAA7ACAAMgA1ADcAMAA7ACAAMgAzADgAMABcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAGEAcgByAFMAcABhAG4ALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgADIAMAAwADAAOwAgADEANQAwADAAOwAgADEAOQAwADAAOwAgADIANAAwADAAOwAgADIAMAAwADAAOwAgADEAOAAwADAAOwAgADEAOQAwADAAOwBcAG4AIAAgACAAIAAgACAANQA0ADAAMAA7ACAANQA0ADAAMAA7ACAAMwA2ADAAMAA7ACAANgAwADAAOwAgADcAMAAwADsAIAAxADIAMAAwADsAIAA1ADAAMAA7ACAAMQA3ADAAMAA7ACAAMQA2ADAAMAA7ACAAMQAwADAAMAA7AFwAbgAgACAAIAAgACAAIAA0ADAAMAA7ACAANQAwADAAOwAgADIAMAAwADsAIAAzADUAMAA7ACAAMQA1ADAAOwAgADEAOQAwADsAIAAxADUAMAA7ACAAMQA3ADAAOwAgADEAOQAwADsAIAAxADgAMAA7AFwAbgAgACAAIAAgACAAIAAyADAAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAOAAwADsAIAAxADIAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAMQAwADAAOwAgADEAMwAwADsAXABuACAAIAAgACAAIAAgADEAMgAwADsAIAA3ADAAOwAgADkAMAA7ACAANQAwADsAIAA0ADAAOwAgADIAMAA7ACAANgAwADsAIAA1ADAAOwAgADcAMAA7ACAAMQAwADAAOwBcAG4AIAAgACAAIAAgACAAMQAxADAAOwAgADEAMAAwADsAIAA3ADAAOwAgADIANwAwADsAIAAyADMAMAA7ACAAMQA2ADAAOwAgADEANAAwADsAIAAyADAAMAA7ACAAMQAxADAAOwAgADYAMAA7AFwAbgAgACAAIAAgACAAIAA4ADAAOwAgADEAOQAwADsAIAAxADAAMAA7ACAAMQAzADAAOwAgADIAMgAwADsAIAAxADUAMAA7ACAAMgA1ADAAOwAgADEAMwAwADsAIAAxADEAMAA7ACAAMQA5ADAAOwAgADIAOAAwAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAGYAIABuAG8AIAB0AHkAcABlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQALAAgAGQAaQBzAHAAbABhAHkAIABmAHUAbABsACAAdABhAGIAbABlACAALQAtAC0AXABuACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAAQgBZAFIATwBXACgASABTAFQAQQBDAEsAKABhAHIAcgBUAHkAcABlAHMALAAgAGEAcgByAFQASABpAGcAaAAsACAAYQByAHIAUwBwAGEAbgApACwAXABuACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAcgBvAHcALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIABUAFIAVQBFACwAIABUAEUAWABUACgASQBOAEQARQBYACgAcgBvAHcALAAgADIAKQAsACAAXAAiADAAXAAiACkALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKAByAG8AdwAsACAAMwApACwAIABcACIAMABcACIAKQApACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABOAHUAbQBiAGUAcgBzACwAIABTAEUAUQBVAEUATgBDAEUAKAAxADAALAAxACwAMAAsADEAKQAsAFwAbgAgACAAIAAgAE8AXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBPAFwAIgApACwAXABuACAAIAAgACAAQgBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAEIAXAAiACkALABcAG4AIAAgACAAIABBAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIAQQBcACIAKQAsAFwAbgAgACAAIAAgAEYAXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBGAFwAIgApACwAXABuACAAIAAgACAARwBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAEcAXAAiACkALABcAG4AIAAgACAAIABLAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIASwBcACIAKQAsAFwAbgAgACAAIAAgAE0AXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBNAFwAIgApACwAXABuAFwAbgAgACAAIAAgAGYAdQBsAGwAVABhAGIAbABlACwAIABWAFMAVABBAEMASwAoAEgAZQBhAGQAZQByAHMALAAgAEgAUwBUAEEAQwBLACgATgB1AG0AYgBlAHIAcwAsAE8AXwBTAHQAYQByAHMALAAgAEIAXwBTAHQAYQByAHMALAAgAEEAXwBTAHQAYQByAHMALAAgAEYAXwBTAHQAYQByAHMALAAgAEcAXwBTAHQAYQByAHMALAAgAEsAXwBTAHQAYQByAHMALAAgAE0AXwBTAHQAYQByAHMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAASQBmACAAdAB5AHAAZQAgAGkAcwAgAHMAcABlAGMAaQBmAGkAZQBkACwAIABqAHUAcwB0ACAAcgBlAHQAdQByAG4AIAB0AHcAbwAtAGMAbwBsAHUAbQBuACAAYgByAGUAYQBrAGQAbwB3AG4AIAAtAC0ALQBcAG4AIAAgACAAIAB0AGUAbQBwAHMALAAgAEYASQBMAFQARQBSACgAYQByAHIAVABIAGkAZwBoACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAIAAxACkAIAA9ACAAdAB5AHAAZQApACwAXABuACAAIAAgACAAcwBwAGEAbgBzACwAIABGAEkATABUAEUAUgAoAGEAcgByAFMAcABhAG4ALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAgADEAKQAgAD0AIAB0AHkAcABlACkALABcAG4AIAAgACAAIAB0AHkAcABlAEgAZQBhAGQALAAgAEgAUwBUAEEAQwBLACgAdAB5AHAAZQAsACAAXAAiAHMAcABhAG4AXAAiACkALABcAG4AIAAgACAAIABzAGwAaQBtAFQAYQBiAGwAZQAsACAAVgBTAFQAQQBDAEsAKAB0AHkAcABlAEgAZQBhAGQALAAgAEgAUwBUAEEAQwBLACgAdABlAG0AcABzACwAIABzAHAAYQBuAHMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAARgBpAG4AYQBsACAAbwB1AHQAcAB1AHQAOgAgAGYAdQBsAGwAIAB0AGEAYgBsAGUAIABvAHIAIABmAGkAbAB0AGUAcgBlAGQAIABjAG8AbAB1AG0AbgBzAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAdAB5AHAAZQApACwAIABmAHUAbABsAFQAYQBiAGwAZQAsACAAcwBsAGkAbQBUAGEAYgBsAGUAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFMAVABBAFIAXwBBAFQAVABSAEkAQgBVAFQARQBTAFwAbgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQBsAGwAIABrAGUAeQAgAHMAdABlAGwAbABhAHIAIABwAGEAcgBhAG0AZQB0AGUAcgBzACAAZgByAG8AbQAgAGEAIABzAGkAbgBnAGwAZQAgAGsAbgBvAHcAbgAgAHYAYQBsAHUAZQAgABQgIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAXABuACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAG8AcgAgAGwAaQBmAGUAdABpAG0AZQAgABQgIAB1AHMAaQBuAGcAIABlAG0AcABpAHIAaQBjAGEAbAAgAHAAbwB3AGUAcgAtAGwAYQB3ACAAcwBjAGEAbABpAG4AZwAgAHIAZQBsAGEAdABpAG8AbgBzAGgAaQBwAHMAIABiAGEAcwBlAGQAIABvAG4AIAB0AGgAZQAgAFMAdQBuAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABtAG8AZABlACAAIAAgACAAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAcwB0AHIAaQBuAGcAIABpAG4AZABpAGMAYQB0AGkAbgBnACAAdABoAGUAIABpAG4AcAB1AHQAIABhAHQAdAByAGkAYgB1AHQAZQAgAHQAeQBwAGUAOgBcAG4AIAAgACAAIAAgACAAIABcACIASwBcACIAIAAUICAARQBmAGYAZQBjAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAEsAZQBsAHYAaQBuACkAXABuACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAFCAgAE4AbwByAG0AYQBsAGkAegBlAGQAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAFQAIAAvACAANQA3ADcAMAAgAEsAKQBcAG4AIAAgACAAIAAgACAAIABcACIATQBcACIAIAAUICAATQBhAHMAcwAgACgAcwBvAGwAYQByACAAdQBuAGkAdABzACkAXABuACAAIAAgACAAIAAgACAAXAAiAFIAXAAiACAAFCAgAFIAYQBkAGkAdQBzACAAKABzAG8AbABhAHIAIAB1AG4AaQB0AHMAKQBcAG4AIAAgACAAIAAgACAAIABcACIATABcACIAIAAUICAATAB1AG0AaQBuAG8AcwBpAHQAeQAgACgAcwBvAGwAYQByACAAdQBuAGkAdABzACkAXABuACAAIAAgACAAIAAgACAAXAAiAFYAXAAiACAAFCAgAE0AYQBpAG4ALQBzAGUAcQB1AGUAbgBjAGUAIABsAGkAZgBlAHQAaQBtAGUAIAAoAHMAbwBsAGEAcgAgAHUAbgBpAHQAcwApAFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAIAAgACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAaQBuAHAAdQB0ACAAYQB0AHQAcgBpAGIAdQB0AGUAIAAoAG0AdQBzAHQAIABtAGEAdABjAGgAIAB0AGgAZQAgAG0AbwBkAGUAKQAuAFwAbgAgACAAIAAtACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAG8AdQB0AHAAdQB0ACAAdgBhAGwAdQBlAHMALgAgAEQAZQBmAGEAdQBsAHQAIAA9ACAANgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAdAB3AG8ALQBjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAgAHcAaQB0AGgAIABsAGEAYgBlAGwAZQBkACAAcwB0AGUAbABsAGEAcgAgAHAAYQByAGEAbQBlAHQAZQByAHMAIAAoAEsALAAgAFQALAAgAE0ALAAgAFIALAAgAEwALAAgAFYAKQAsAFwAbgAgACAAIAB3AGkAdABoACAAdABoAGUAIABpAG4AcAB1AHQAIABhAHQAdAByAGkAYgB1AHQAZQAgAGYAbABhAGcAZwBlAGQAIAB3AGkAdABoACAAYQAgAJQnIABhAHIAcgBvAHcAIABmAG8AcgAgAGMAbABhAHIAaQB0AHkALgBcAG4AXABuACAAIAAgAE0AZQB0AGgAbwBkADoAXABuACAAIAAgAFQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAbgBvAHIAbQBhAGwAaQB6AGUAcwAgAHQAaABlACAAaQBuAHAAdQB0ACAAdgBhAGwAdQBlACAAdABvACAAYQAgAHMAbwBsAGEAcgAtAHIAZQBsAGEAdABpAHYAZQAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgACgAYABUAG4AbwByAG0AYAApAFwAbgAgACAAIABhAG4AZAAgAGQAZQByAGkAdgBlAHMAIAB0AGgAZQAgAHIAZQBtAGEAaQBuAGkAbgBnACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAGYAcgBvAG0AIABlAG0AcABpAHIAaQBjAGEAbAAgAGUAeABwAG8AbgBlAG4AdABzADoAXABuAFwAbgAgACAAIAAtACAASwAgAD0AIABUAG4AbwByAG0AIADXACAANQA3ADcAMABcAG4AIAAgACAALQAgAE0AIAA9ACAAVABuAG8AcgBtALIAXABuACAAIAAgAC0AIABSACAAPQAgAFQAbgBvAHIAbQBeADEALgA4AFwAbgAgACAAIAAtACAATAAgAD0AIABUAG4AbwByAG0AXgA3AC4ANgBcAG4AIAAgACAALQAgAFYAIAA9ACAAVABuAG8AcgBtAF4AKAAtADUAKQBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUwBUAEEAUgBfAEEAVABUAFIASQBCAFUAVABFAFMAKABcACIASwBcACIALAAgADkAMQA3ADAALgA2ADAANQAyACwAIAAzACkAXABuAFwAbgAgACAAIABPAHUAdABwAHUAdAA6AFwAbgAgACAAIAAgACAASwAgAJQnIAAgACAAOQAxADcAMAAuADYAMAA1AFwAbgAgACAAIAAgACAAVAAgACAAIAAgACAAMQAuADUAOAA4AFwAbgAgACAAIAAgACAATQAgACAAIAAgACAAMgAuADUAMgAzAFwAbgAgACAAIAAgACAAUgAgACAAIAAgACAAMgAuADIAOQA2AFwAbgAgACAAIAAgACAATAAgACAAIAAgACAAMwAzAC4AMAAwADYAXABuACAAIAAgACAAIABWACAAIAAgACAAIAAwAC4AMQAwADEAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEIAYQBzAGUAZAAgAG8AbgAgAHMAaQBtAHAAbABpAGYAaQBlAGQAIABzAHQAZQBsAGwAYQByACAAcwBjAGEAbABpAG4AZwAgAGwAYQB3AHMAIAB1AHMAZQBkACAAaQBuACAAYQBzAHQAcgBvAHAAaAB5AHMAaQBjAHMAIABhAG4AZAAgAHcAbwByAGwAZABiAHUAaQBsAGQAaQBuAGcALgBcAG4AIAAgACAALQAgAEUAZgBmAGUAYwB0AGkAdgBlACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAaQBzACAAcwBjAGEAbABlAGQAIAB0AG8AIAA1ADcANwAwACAASwAgAGYAbwByACAAdABoAGUAIABTAHUAbgAgACgAcwB0AGEAbgBkAGEAcgBkACAAcwBvAGwAYQByACAAcgBlAGYAZQByAGUAbgBjAGUAKQAuAFwAbgAgACAAIAAtACAATABpAGYAZQB0AGkAbQBlACAAaQBzACAAYQBwAHAAcgBvAHgAaQBtAGEAdABlAGQAIABhAHMAIABhACAAcABvAHcAZQByACAAaQBuAHYAZQByAHMAZQAgAG8AZgAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQA6ACAAVgAgAB0iIABUAHsgdSAuAFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIABlAGQAdQBjAGEAdABpAG8AbgBhAGwALAAgAHMAcABlAGMAdQBsAGEAdABpAHYAZQAsACAAYQBuAGQAIABtAG8AZABlAGwAaQBuAGcAIABwAHUAcgBwAG8AcwBlAHMALgBcAG4AXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAFMAVABBAFIAXwBBAFQAVABSAEkAQgBVAFQARQBTACAAPQAgAEwAQQBNAEIARABBACgAbQBvAGQAZQAsACAAaQBuAHAAdQB0ACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAAUwBlAHQAIABkAGUAZgBhAHUAbAB0ACAAcgBvAHUAbgBkAGkAbgBnACAAcAByAGUAYwBpAHMAaQBvAG4AXABuACAAIAAgACAAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAHUAcABwAGUAcgAtAGMAYQBzAGUAIABmAG8AcgAgAGMAbwBuAHMAaQBzAHQAZQBuAGMAeQBcAG4AIAAgACAAIABtAG8AZABlACwAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AXABuACAAIAAgACAALwAvACAATgBvAHIAbQBhAGwAaQB6AGUAIABpAG4AcAB1AHQAIAB0AG8AIABzAG8AbABhAHIALQByAGUAbABhAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAFQAbgBvAHIAbQApAFwAbgAgACAAIAAgAFQAbgBvAHIAbQAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcACIAVABcACIALAAgAGkAbgBwAHUAdAAsAFwAbgAgACAAIAAgACAAIABcACIASwBcACIALAAgAGkAbgBwAHUAdAAgAC8AIAA1ADcANwAwACwAXABuACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAAUwBRAFIAVAAoAGkAbgBwAHUAdAApACwAXABuACAAIAAgACAAIAAgAFwAIgBSAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgAMQAgAC8AIAAxAC4AOAApACwAXABuACAAIAAgACAAIAAgAFwAIgBMAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgAMQAgAC8AIAA3AC4ANgApACwAXABuACAAIAAgACAAIAAgAFwAIgBWAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgALQAxACAALwAgADUAKQAsAFwAbgAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAATgBvAHcAIABkAGUAcgBpAHYAZQAgAGEAbABsACAAbwB0AGgAZQByACAAYQB0AHQAcgBpAGIAdQB0AGUAcwAgAGYAcgBvAG0AIABUAG4AbwByAG0AXABuACAAIAAgACAASwAsACAAVABuAG8AcgBtACAAKgAgADUANwA3ADAALABcAG4AIAAgACAAIABNACwAIABUAG4AbwByAG0AIABeACAAMgAsAFwAbgAgACAAIAAgAFIALAAgAFQAbgBvAHIAbQAgAF4AIAAxAC4AOAAsAFwAbgAgACAAIAAgAEwALAAgAFQAbgBvAHIAbQAgAF4AIAA3AC4ANgAsAFwAbgAgACAAIAAgAFYALAAgAFQAbgBvAHIAbQAgAF4AIAAtADUALABcAG4AXABuACAAIAAgACAALwAvACAAUgBvAHUAbgBkACAAZQB2AGUAcgB5AHQAaABpAG4AZwAgAGEAbgBkACAAZgBvAHIAbQBhAHQAIABhAHMAIABzAHQAcgBpAG4AZwBzAFwAbgAgACAAIAAgAGwAYQBiAGUAbABzACwAIABUAFIAQQBOAFMAUABPAFMARQAoAHsAXAAiAEsAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAFIAXAAiACwAIABcACIATABcACIALAAgAFwAIgBWAFwAIgB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AF8AdgBhAGwAdQBlAHMALAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABLACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAFQAbgBvAHIAbQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABNACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAFIALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgATAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABWACwAIABwAHIAZQBjACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAATABhAGIAZQBsAHMAIAB3AGkAdABoACAAYQByAHIAbwB3ACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQAgAC0ALQAtAFwAbgAgACAAIAAgACAAIAAgACAAZgBsAGEAZwBnAGUAZABfAGwAYQBiAGUAbABzACwAIABCAFkAUgBPAFcAKABsAGEAYgBlAGwAcwAsACAATABBAE0AQgBEAEEAKAByAG8AdwAsACAASQBGACgAcgBvAHcAIAA9ACAAbQBvAGQAZQAsACAAcgBvAHcAIAAmACAAXAAiACAAlCdcACIALAAgAHIAbwB3ACkAKQApACwAXABuAFwAbgBcAG4AIAAgACAAIAAvAC8AIABSAGUAdAB1AHIAbgAgAGwAYQBiAGUAbABlAGQAIAB0AGEAYgBsAGUAXABuACAAIAAgACAAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIAfQAsACAAZgBsAGEAZwBnAGUAZABfAGwAYQBiAGUAbABzACwAIABvAHUAdABwAHUAdABfAHYAYQBsAHUAZQBzACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUgBlAHQAdQByAG4AcwAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAgAGQAYQB0AGEAIABiAGEAcwBlAGQAIABvAG4AIABzAHQAZQBsAGwAYQByACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAuAFwAbgBcAG4AIAAgACAATQBvAGQAZQBzADoAXABuACAAIAAgAC0AIABcACIAVABBAEIATABFAFwAIgAgACAAIAAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAGYAdQBsAGwAIAB0AGEAYgBsAGUAIABvAGYAIABpAG4AbgBlAHIALwBvAHUAdABlAHIALwBhAHYAZwAvAHMAcABhAG4AIABkAGkAcwB0AGEAbgBjAGUAcwAgAGYAbwByACAAegBvAG4AZQBzACAAWgAwABMgWgA1AC4AXABuACAAIAAgAC0AIABcACIAVgBFAFIAVABJAEMAQQBMAFwAIgAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAHYAZQByAHQAaQBjAGEAbAAgAGwAaQBzAHQAIABvAGYAIABzAGMAYQBsAGUAZAAgAGQAaQBzAHQAYQBuAGMAZQBzACwAIAB3AGkAdABoACAATgAtAD4AIABtAGEAcgBrAGkAbgBnACAAdABoAGUAIABuAHUAYwBsAGUAYQBsACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAALQAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAGgAbwByAGkAegBvAG4AdABhAGwAIAByAG8AdwAgAG8AZgAgAHQAaABlACAAcwBhAG0AZQAgAHYAYQBsAHUAZQBzACAAZgBvAHIAIAB1AHMAZQAgAGkAbgAgAGkAbgBsAGkAbgBlACAAZABpAHMAcABsAGEAeQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAE8AbgBlACAAbwBmACAAXAAiAFQAQQBCAEwARQBcACIALAAgAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIABvAHIAIABcACIASABPAFIASQBaAE8ATgBUAEEATABcACIALgBcAG4AIAAgACAALQAgAGwAdQBtACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAUwB0AGUAbABsAGEAcgAgAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABpAG4AIABzAG8AbABhAHIAIAB1AG4AaQB0AHMALgAgAFIAZQBxAHUAaQByAGUAZAAgAGYAbwByACAAVgBFAFIAVABJAEMAQQBMACAAYQBuAGQAIABIAE8AUgBJAFoATwBOAFQAQQBMAC4AXABuACAAIAAgAC0AIABwAHIAZQBjAGkAcwBpAG8AbgAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADMAKQBcAG4AXABuACAAIAAgAFoAbwBuAGUAcwAgACgAWgAwABMgWgA1ACkAIAByAGUAcAByAGUAcwBlAG4AdAAgAG4AZQBzAHQAZQBkACAAYwBpAHIAYwB1AG0AcwB0AGUAbABsAGEAcgAgAGgAYQBiAGkAdABhAGIAaQBsAGkAdAB5ACAAYgBhAG4AZABzADoAXABuACAAIAAgAC0AIABaADAAOgAgACgAdABvAG8AIABoAG8AdAApAFwAbgAgACAAIAAtACAAWgAxADoAIAAoAGkAbgBuAGUAcgAgAGUAZABnAGUAKQBcAG4AIAAgACAALQAgAFoAMgA6ACAAKABpAG4AbgBlAHIAIAB0AGUAbQBwAGUAcgBhAHQAZQApAFwAbgAgACAAIAAtACAAWgAzADoAIAAoAG8AdQB0AGUAcgAgAHQAZQBtAHAAZQByAGEAdABlACkAXABuACAAIAAgAC0AIABaADQAOgAgACgAbwB1AHQAZQByACAAZQBkAGcAZQApAFwAbgAgACAAIAAtACAAWgA1ADoAIAAoAHQAbwBvACAAYwBvAGwAZAApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQAgAHUAcwBhAGcAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAoAFwAIgBUAEEAQgBMAEUAXAAiACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgAFIAZQB0AHUAcgBuAHMAIABiAGEAcwBlACAAcgBlAGYAZQByAGUAbgBjAGUAIABjAGgAYQByAHQAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAFYARQBSAFQASQBDAEEATABcACIALAAgADEALgAyADUAKQAgACAAIACSISAAUgBlAHQAdQByAG4AcwAgAHYAZQByAHQAaQBjAGEAbAAgAGQAaQBzAHQAYQBuAGMAZQBzACAAcwBjAGEAbABlAGQAIAB0AG8AIABzAHQAYQByACAAdwBpAHQAaAAgAEwAIAA9ACAAMQAuADIANQBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAKABcACIASABPAFIASQBaAE8ATgBUAEEATABcACIALAAgADEALgAyADUAKQAgAJIhIABSAGUAdAB1AHIAbgBzACAAcwBhAG0AZQAgAGEAcwAgAHIAbwB3AFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABOAHUAYwBsAGUAYQBsACAAcgBhAGQAaQB1AHMAIABpAHMAIABzAHEAcgB0ACgATAApACAAYQBuAGQAIAB1AHMAZQBkACAAYQBzACAAYQBuAGMAaABvAHIAIABiAGUAdAB3AGUAZQBuACAAWgAyABMgWgAzAC4AXABuACAAIAAgAC0AIABJAG4AcAB1AHQAIABpAHMAIABpAGcAbgBvAHIAZQBkACAAZgBvAHIAIABtAG8AZABlACAAXAAiAFQAQQBCAEwARQBcACIALgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAG8AZABlACwAIABbAGwAdQBtAF0ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AXABuACAAIAAgACAALwAvACAAWgBvAG4AZQAgAGMAbwBlAGYAZgBpAGMAaQBlAG4AdABzAFwAbgAgACAAIAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAWgAwAFwAIgA7ACAAXAAiAFoAMQBcACIAOwAgAFwAIgBaADIAXAAiADsAIABcACIAWgAzAFwAIgA7ACAAXAAiAFoANABcACIAOwAgAFwAIgBaADUAXAAiAH0ALABcAG4AIAAgACAAIABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAB7ADAAOwAgADAALgA1ADsAIAAwAC4ANwA1ADsAIAAwAC4AOQA1ADsAIAAxAC4AMwA4ADUAOwAgADEALgA3ADcAfQAsAFwAbgAgACAAIAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAHsAMAAuADUAOwAgADAALgA3ADUAOwAgADAALgA5ADUAOwAgADEALgAzADgANQA7ACAAMQAuADcANwA7ACAANAAuADgANQB9ACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFAAcgBlAGMAbwBtAHAAdQB0AGUAIABhAHYAZQByAGEAZwBlACAAYQBuAGQAIABzAHAAYQBuAFwAbgAgACAAIAAgAGEAdgBnAF8AZgBhAGMAdABvAHIAcwAsACAAKABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACAAKwAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMAKQAgAC8AIAAyACwAXABuACAAIAAgACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMAIAAtACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABOAHUAYwBsAGUAYQBsACAAKABmAG8AcgAgAHMAYwBhAGwAaQBuAGcAKQBcAG4AIAAgACAAIABuAHUAYwBsAGUAYQBsACwAIABTAFEAUgBUACgASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABsAHUAbQApACwAIAAxACwAIABsAHUAbQApACkALABcAG4AXABuACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAHMAYwBhAGwAZQBkACAAZABpAHMAdABhAG4AYwBlAHMAXABuACAAIAAgACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAbwB1AHQAZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAYQB2AGcAXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAgACoAIABhAHYAZwBfAGYAYQBjAHQAbwByAHMALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHMAcABhAG4AXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAgACoAIABzAHAAYQBuAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEYAbwByAG0AYQB0AHQAZQBkACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAdgBlAHIAdABpAGMAYQBsAF8AbABhAGIAZQBsAHMALAAgAHsAXAAiADAAOgAgAFwAIgAsACAAXAAiADEAOgAgAFwAIgAsACAAXAAiADIAOgAgAFwAIgAsACAAXAAiAE4AIACUJ1wAIgAsACAAXAAiADMAOgAgAFwAIgAsACAAXAAiADQAOgAgAFwAIgAsACAAXAAiADUAOgAgAFwAIgB9ACwAXABuACAAIAAgACAAdgBlAHIAdABpAGMAYQBsAF8AdgBhAGwAdQBlAHMALAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMgApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAFIATwBVAE4ARAAoAEkATgBEAEUAWAAoAGkAbgBuAGUAcgBfAGYAYQBjAHQAbwByAHMALAAgADMAKQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA0ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAANAApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAFIATwBVAE4ARAAoAEkATgBEAEUAWAAoAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgADUAKQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA2ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAAUgBlAHQAdQByAG4AIABsAG8AZwBpAGMAXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBTAFQAQQBOAEQAQQBSAEQAXAAiACwAIABDAEgATwBPAFMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgAHsAMQAsACAAMgAsACAAMwAsACAANAAsACAANQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAWgBvAG4AZQBcACIALAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIASQBuAG4AZQByAFwAIgAsACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIATwB1AHQAZQByAFwAIgAsACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAQQB2AGUAcgBhAGcAZQBcACIALAAgAGEAdgBnAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAUwBwAGEAbgBcACIALAAgAHMAcABhAG4AXwBmAGEAYwB0AG8AcgBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAVgBFAFIAVABJAEMAQQBMAFwAIgAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABhAGIAZQBsAHMALAAgAHsAXAAiADAAOgBcACIALAAgAFwAIgAxADoAXAAiACwAIABcACIAMgA6AFwAIgAsACAAXAAiAE4AIACUJ1wAIgAsACAAXAAiADMAOgBcACIALAAgAFwAIgA0ADoAXAAiACwAIABcACIANQA6AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAYwBhAGwAZQBkAF8AdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAewAwAC4ANQAsACAAMAAuADcANQAsACAAMAAuADkANQAsACAAMQAsACAAMQAuADMAOAA1ACwAIAAxAC4ANwA3ACwAIAA0AC4AOAA1AH0ALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAQQBOAFMAUABPAFMARQAoAFYAUwBUAEEAQwBLACgAbABhAGIAZQBsAHMALAAgAHMAYwBhAGwAZQBkAF8AdgBhAGwAdQBlAHMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAEgATwBSAEkAWgBPAE4AVABBAEwAXAAiACwAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMgApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMwApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAANAApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA0ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA1ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA2ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAEkAbgB2AGEAbABpAGQAIABtAG8AZABlAFwAIgBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAE4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUAByAG8AdgBpAGQAZQBzACAAaQBuAGYAbwByAG0AYQB0AGkAbwBuACAAYQBiAG8AdQB0ACAAcwB0AGUAbABsAGEAcgAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQBzACAAYQBjAHIAbwBzAHMAIABtAHUAbAB0AGkAcABsAGUAIABkAGkAcwBwAGwAYQB5ACAAbQBvAGQAZQBzADoAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC0AIABTAFQAQQBOAEQAQQBSAEQAOgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZgBpAHgAZQBkACAAdABhAGIAbABlACAAbwBmACAAaQBuAG4AZQByAC8AbwB1AHQAZQByACAAYgBvAHUAbgBkAHMAIABmAG8AcgAgAFoAMAATIFoANQAgAHoAbwBuAGUAcwAgAGkAbgAgAEEAVQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAgAFQAQQBCAEwARQA6ACAAUwBjAGEAbABlAHMAIAB0AGgAZQAgAFMAVABBAE4ARABBAFIARAAgAHoAbwBuAGUAcwAgAGIAYQBzAGUAZAAgAG8AbgAgAHMAdABlAGwAbABhAHIAIABsAHUAbQBpAG4AbwBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAtACAAVgBFAFIAVABJAEMAQQBMADoAIABSAGUAdAB1AHIAbgBzACAAYQAgAHYAZQByAHQAaQBjAGEAbAAgAGwAaQBzAHQAIABvAGYAIAB6AG8AbgBlACAAbABhAGIAZQBsAHMAIABhAG4AZAAgAGQAaQBzAHQAYQBuAGMAZQBzACAAYgBhAHMAZQBkACAAbwBuACAAbAB1AG0AaQBuAG8AcwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAgAEgATwBSAEkAWgBPAE4AVABBAEwAOgAgAFIAZQB0AHUAcgBuAHMAIABhACAAcwBpAG4AZwBsAGUALQByAG8AdwAgAHMAdQBtAG0AYQByAHkAIABvAGYAIABzAGMAYQBsAGUAZAAgAGQAaQBzAHQAYQBuAGMAZQBzAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFwAIgBTAFQAQQBOAEQAQQBSAEQAXAAiACwAIABcACIAVABBAEIATABFAFwAIgAsACAAXAAiAFYARQBSAFQASQBDAEEATABcACIALAAgAG8AcgAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgBcAG4AIAAgACAALQAgAGwAdQBtACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAUwB0AGUAbABsAGEAcgAgAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABpAG4AIABzAG8AbABhAHIAIAB1AG4AaQB0AHMAIAAoAG8AbgBsAHkAIAByAGUAcQB1AGkAcgBlAGQAIABmAG8AcgAgAFQAQQBCAEwARQAsACAAVgBFAFIAVABJAEMAQQBMACwAIABvAHIAIABIAE8AUgBJAFoATwBOAFQAQQBMACAAbQBvAGQAZQBzACkAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIAByAG8AdQBuAGQAIABkAGkAcwB0AGEAbgBjAGUAcwAgAHQAbwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAFMAVABBAE4ARABBAFIARABcACIAKQBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAKABcACIAVABBAEIATABFAFwAIgAsACAAMwApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAoAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIAAzACkAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAEgATwBSAEkAWgBPAE4AVABBAEwAXAAiACwAIAAzACkAXABuACoALwBcAG4AXABuAE4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAG8AZABlACwAIABbAGwAdQBtAF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAARABlAGYAYQB1AGwAdABzACAALQAtAC0AXABuACAAIAAgACAAZABlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABMACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGwAdQBtACkALAAgADEALAAgAGwAdQBtACkALABcAG4AIAAgACAAIABuAHUAYwAsACAAUwBRAFIAVAAoAEwAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAFoAbwBuAGUAIABiAGEAcwBlACAAZABhAHQAYQAgAC0ALQAtAFwAbgAgACAAIAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAWgAwAFwAIgAsACAAXAAiAFoAMQBcACIALAAgAFwAIgBaADIAXAAiACwAIABcACIAWgAzAFwAIgAsACAAXAAiAFoANABcACIALAAgAFwAIgBaADUAXAAiAH0ALABcAG4AIAAgACAAIABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAB7ADAALAAgADAALgA1ACwAIAAwAC4ANwA1ACwAIAAwAC4AOQA1ACwAIAAxAC4AMwA4ADUALAAgADEALgA3ADcAfQAsAFwAbgAgACAAIAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAHsAMAAuADUALAAgADAALgA3ADUALAAgADAALgA5ADUALAAgADEALgAzADgANQAsACAAMQAuADcANwAsACAANAAuADgANQB9ACwAXABuACAAIAAgACAAYQB2AGcAXwBmAGEAYwB0AG8AcgBzACwAIAAgACAAewAwAC4AMgA1ACwAIAAwAC4ANgAyADUALAAgADAALgA4ADUALAAgADEALgAxADYANwA1ACwAIAAxAC4ANQA3ADcANQAsACAAMwAuADMAMQB9ACwAXABuACAAIAAgACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgACAAewAwAC4ANQAsACAAMAAuADIANQAsACAAMAAuADIALAAgADAALgA0ADMANQAsACAAMAAuADMAOAA1ACwAIAAzAC4AMAA4AH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABTAGMAYQBsAGUAZAAgAHYAYQBsAHUAZQBzACAALQAtAC0AXABuACAAIAAgACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjACAAKgAgAGkAbgBuAGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIABvAHUAdABlAHIAXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAIAAqACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgAGEAdgBnAF8AcwBjAGEAbABlAGQALAAgACAAIABSAE8AVQBOAEQAKABuAHUAYwAgACoAIABhAHYAZwBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIABzAHAAYQBuAF8AcwBjAGEAbABlAGQALAAgACAAUgBPAFUATgBEACgAbgB1AGMAIAAqACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABUAGEAYgBsAGUAOgAgAFMAVABBAE4ARABBAFIARAAgAGEAbgBkACAAVABBAEIATABFACAAbQBvAGQAZQBzACAALQAtAC0AXABuACAAIAAgACAAcgBvAHcAXwAxACwAIABWAFMAVABBAEMASwAoAFwAIgBaAG8AbgBlAFwAIgAsACAAegBvAG4AZQBfAGwAYQBiAGUAbABzACkALABcAG4AIAAgACAAIAByAG8AdwBfADIALAAgAFYAUwBUAEEAQwBLACgAXAAiAEkAbgBuAGUAcgBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQAKQApACwAXABuACAAIAAgACAAcgBvAHcAXwAzACwAIABWAFMAVABBAEMASwAoAFwAIgBPAHUAdABlAHIAXAAiACwAIABJAEYAKABtAG8AZABlAD0AXAAiAFMAVABBAE4ARABBAFIARABcACIALAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAG8AdQB0AGUAcgBfAHMAYwBhAGwAZQBkACkAKQAsAFwAbgAgACAAIAAgAHIAbwB3AF8ANAAsACAAVgBTAFQAQQBDAEsAKABcACIAQQB2AGUAcgBhAGcAZQBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAYQB2AGcAXwBmAGEAYwB0AG8AcgBzACwAIABhAHYAZwBfAHMAYwBhAGwAZQBkACkAKQAsAFwAbgAgACAAIAAgAHIAbwB3AF8ANQAsACAAVgBTAFQAQQBDAEsAKABcACIAUwBwAGEAbgBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAHMAcABhAG4AXwBzAGMAYQBsAGUAZAApACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABWAGUAcgB0AGkAYwBhAGwAIABtAG8AZABlACAAbwB1AHQAcAB1AHQAIAAtAC0ALQBcAG4AIAAgACAAIAB2AGUAcgB0AGkAYwBhAGwAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAMAA6AFwAIgAsACAAXAAiADEAOgBcACIALAAgAFwAIgAyADoAXAAiACwAIABcACIATgAgAJQnXAAiACwAIABcACIAMwA6AFwAIgAsACAAXAAiADQAOgBcACIALAAgAFwAIgA1ADoAXAAiAH0ALABcAG4AIAAgACAAIAB2AGUAcgB0AGkAYwBhAGwAXwB2AGEAbAB1AGUAcwAsACAAUgBPAFUATgBEACgAewAwAC4ANQAsACAAMAAuADcANQAsACAAMAAuADkANQAsACAAMQAsACAAMQAuADMAOAA1ACwAIAAxAC4ANwA3ACwAIAA0AC4AOAA1AH0AIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAG8AcgBpAHoAbwBuAHQAYQBsACAAbQBvAGQAZQAgAG8AdQB0AHAAdQB0ACAALQAtAC0AXABuACAAIAAgACAAaABvAHIAaQB6AG8AbgB0AGEAbABfAHYAYQBsAHUAZQBzACwAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAwAC4ANQAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAwAC4ANwA1ACAAKgAgAG4AdQBjACwAIABkAGUAYwApACwAXABuACAAIAAgACAAIAAgAFIATwBVAE4ARAAoADAALgA5ADUAIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAUgBPAFUATgBEACgAMQAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAxAC4AMwA4ADUAIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAUgBPAFUATgBEACgAMQAuADcANwAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAA0AC4AOAA1ACAAKgAgAG4AdQBjACwAIABkAGUAYwApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABGAGkAbgBhAGwAIABvAHUAdABwAHUAdAAgAGIAYQBzAGUAZAAgAG8AbgAgAG0AbwBkAGUAIAAtAC0ALQBcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAXAAiAFMAVABBAE4ARABBAFIARABcACIALAAgAEgAUwBUAEEAQwBLACgAcgBvAHcAXwAxACwAIAByAG8AdwBfADIALAAgAHIAbwB3AF8AMwAsACAAcgBvAHcAXwA0ACwAIAByAG8AdwBfADUAKQAsAFwAbgAgACAAIAAgACAAIABcACIAVABBAEIATABFAFwAIgAsACAAIAAgACAASABTAFQAQQBDAEsAKAByAG8AdwBfADEALAAgAHIAbwB3AF8AMgAsACAAcgBvAHcAXwAzACwAIAByAG8AdwBfADQALAAgAHIAbwB3AF8ANQApACwAXABuACAAIAAgACAAIAAgAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIABIAFMAVABBAEMASwAoAHYAZQByAHQAaQBjAGEAbABfAGwAYQBiAGUAbABzACwAIAB2AGUAcgB0AGkAYwBhAGwAXwB2AGEAbAB1AGUAcwApACwAXABuACAAIAAgACAAIAAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgAsACAAaABvAHIAaQB6AG8AbgB0AGEAbABfAHYAYQBsAHUAZQBzACwAXABuACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAbQBvAGQAZQBcACIAXABuACAAIAAgACAAKQBcAG4AIAAgACkAXABuACkAXABuADsAXABuAFwAbgAvACoAIABBAFMAVABSAE8AXwBTAFQAQQBSAF8ARABFAE4AUwBJAFQAWQBfAFYATwBMAFUATQBFAFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABHAGkAdgBlAG4AIABhACAAcwBwAGgAZQByAGkAYwBhAGwAIAB2AG8AbAB1AG0AZQAgACgAbwByACAAcgBhAGQAaQB1AHMAKQAsACAAYwBhAGwAYwB1AGwAYQB0AGUAIABoAG8AdwAgAG0AYQBuAHkAIABzAHQAYQByAHMAIABmAGkAdAAgAGEAdAAgADEAIABzAHQAYQByACAAcABlAHIAIAAyADUAMAAgAGMAdQBiAGkAYwAgAGwAaQBnAGgAdAAtAHkAZQBhAHIAcwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAARQBpAHQAaABlAHIAIABhACAAcwBwAGgAZQByAGkAYwBhAGwAIAByAGEAZABpAHUAcwAgAG8AcgAgAGEAIAB2AG8AbAB1AG0AZQAsACAAZABlAHAAZQBuAGQAaQBuAGcAIABvAG4AIABtAG8AZABlAC4AXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAZgBvAHIAIABvAHUAdABwAHUAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADMAKQAuAFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAFwAbgAgACAAIAAgACAAIAAgADAAIAA9ACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAHYAbwBsAHUAbQBlACAAaQBuACAAYwB1AGIAaQBjACAAbABpAGcAaAB0AC0AeQBlAGEAcgBzACAAKABkAGUAZgBhAHUAbAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAxACAAPQAgAGkAbgBwAHUAdAAgAGkAcwAgAGEAIAByAGEAZABpAHUAcwAgAGkAbgAgAGwAaQBnAGgAdAAtAHkAZQBhAHIAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAQQAgAHYAZQByAHQAaQBjAGEAbAAgAGEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABlAGkAdABoAGUAcgA6AFwAbgAgACAAIAAgACAAIAAgACIgIABbAG4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzADsAIAByAGEAZABpAHUAcwBdACAAaQBmACAAbQBvAGQAZQAgAD0AIAAwAFwAbgAgACAAIAAgACAAIAAgACIgIABbAG4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzADsAIAB2AG8AbAB1AG0AZQBdACAAaQBmACAAbQBvAGQAZQAgAD0AIAAxAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBTAFQAQQBSAF8ARABFAE4AUwBJAFQAWQBfAFYATwBMAFUATQBFACgAMQAwADAAMAApACAAIAAgACAAIAAgACAAIAAgACAAkiEgAHsANAAuADAAMAAwADsAIAA2AC4AMgAwADMAfQBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUwBUAEEAUgBfAEQARQBOAFMASQBUAFkAXwBWAE8ATABVAE0ARQAoADUALAAgADIALAAgADEAKQAgACAAIAAgACAAIAAgAJIhIAB7ADIALgA2ADIAOwAgADUAMgAzAC4ANgAwAH0AXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAFMAVABBAFIAXwBEAEUATgBTAEkAVABZAF8AVgBPAEwAVQBNAEUAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALAAgAFsAcAByAGUAYwBdACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAgACsAIAAoAG0AbwBkAGUAIAA8ACAAMAApACAAKwAgACgAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACAAKwAgACgAcAByAGUAYwAgADwAIAAwACkALAAgADMALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAB2AG8AbAB1AG0AZQAsACAASQBGACgAbQBvAGQAZQAgAD0AIAAwACwAIABpAG4AcAB1AHQALAAgACgANAAvADMAKQAgACoAIABQAEkAKAApACAAKgAgAGkAbgBwAHUAdAAgAF4AIAAzACkALABcAG4AIAAgACAAIAByAGEAZABpAHUAcwAsACAASQBGACgAbQBvAGQAZQAgAD0AIAAxACwAIABpAG4AcAB1AHQALAAgAFIATwBVAE4ARAAoACgAKAAzACAAKgAgAHYAbwBsAHUAbQBlACkAIAAvACAAKAA0ACAAKgAgAFAASQAoACkAKQApACAAXgAgACgAMQAvADMAKQAsACAAcAByAGUAYwApACkALABcAG4AIAAgACAAIABzAHQAYQByAHMALAAgAFIATwBVAE4ARAAoAHYAbwBsAHUAbQBlACAALwAgADIANQAwACwAIABwAHIAZQBjACkALABcAG4AXABuACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFMAVwBJAFQAQwBIACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAwACwAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIAAsACAAXAAiAFMAdABhAHIAcwA6ACAAXAAiACYAcwB0AGEAcgBzACwAIABcACIAUgBhAGQAaQB1AHMAOgAgAFwAIgAmAHIAYQBkAGkAdQBzACkALAAgAFwAIgA7ACAAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAxACwAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIAAsACAAXAAiAFMAdABhAHIAcwA6ACAAXAAiACYAcwB0AGEAcgBzACwAIABcACIAVgBvAGwAdQBtAGUAOgAgAFwAIgAmAHYAbwBsAHUAbQBlACkALAAgAFwAIgA7ACAAXAAiACkAKQBcAG4AIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8AUwBBAEYARQBUAFkAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgAgAEMAYQBsAGMAdQBsAGEAdABlAHMAIABwAGwAYQBuAGUAdABhAHIAeQAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABzAHUAcgBmAGEAYwBlACAAZwByAGEAdgBpAHQAeQAsACAAYQBuAGQAIABlAHMAYwBhAHAAZQAgAHYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgByAG8AbQAgAGEAbgB5ACAAdgBhAGwAaQBkACAAcABhAGkAcgAgAG8AZgAgAHQAdwBvACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAcwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIAB0AGgAZQAgAGsAbgBvAHcAbgAgAGkAbgBwAHUAdAAgAHAAYQBpAHIALgAgAEEAYwBjAGUAcAB0AGEAYgBsAGUAIAB2AGEAbAB1AGUAcwA6AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAGQAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARABlAG4AcwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAbQByAFwAIgAgAD0AIABNAGEAcwBzACAAKwAgAFIAYQBkAGkAdQBzAFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAcgBkAFwAIgAgAD0AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAGcAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGQAZwBcACIAIAA9ACAARABlAG4AcwBpAHQAeQAgACsAIABHAHIAYQB2AGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBkAHYAXAAiACAAPQAgAEQAZQBuAHMAaQB0AHkAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGcAdgBcACIAIAA9ACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAbQB2AFwAIgAgAD0AIABNAGEAcwBzACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAHYAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAZgBpAHIAcwB0ACAAbgB1AG0AZQByAGkAYwAgAGkAbgBwAHUAdAAsACAAbQBlAGEAbgBpAG4AZwAgAGQAZQBwAGUAbgBkAHMAIABvAG4AIABtAG8AZABlAFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAcwBlAGMAbwBuAGQAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0ACwAIABtAGUAYQBuAGkAbgBnACAAZABlAHAAZQBuAGQAcwAgAG8AbgAgAG0AbwBkAGUAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAZgBvAHIAIABvAHUAdABwAHUAdAAgAHIAbwB1AG4AZABpAG4AZwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA1ACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABBACAAbABhAGIAZQBsAGUAZAAgADUALQByAG8AdwAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIAB2AGEAbAB1AGUAcwAgAGYAbwByADoAIABNAGEAcwBzACAAKABNACkALAAgAFIAYQBkAGkAdQBzACAAKABSACkALAAgAEQAZQBuAHMAaQB0AHkAIAAoAGQAKQAsAFwAbgAgACAAIAAgACAARwByAGEAdgBpAHQAeQAgACgAZwApACwAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQAgACgAdgApAFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBQAEwAQQBOAEUAVABfAE0ARQBUAFIASQBDAFMAXwBTAEEARgBFAFQAWQAgAD0AIABMAEEATQBCAEQAQQAoAG0AbwBkAGUALAAgAHAAYQByAGEAbQBfADEALAAgAHAAYQByAGEAbQBfADIALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABwAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANQAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAGwAbwB3AGUAcgBjAGEAcwBlAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAEwATwBXAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAYgBhAHMAZQBkACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQBcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAbQBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgACgATQAgAC8AIABkACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAAoAE0AIAAqACAAZABeADIAKQAgAF4AIAAoADEALwAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgACgATQAgACoAIABTAFEAUgBUACgAZAApACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABSAGEAZABpAHUAcwBcAG4AIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABNACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABNACAALwAgAFIAXgAzACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABNACAALwAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABTAFEAUgBUACgATQAgAC8AIABSACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABNAGEAcwBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAAUwBRAFIAVAAoAE0AIAAvACAAZwApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABTAFEAUgBUACgAZwBeADMAIAAvACAATQApACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIAAoAE0AIAAqACAAZwApACAAXgAgADAALgAyADUALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAcgBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGQAIAAqACAAUgBeADMALABcAG4AIAAgACAAIAAgACAAIAAgAGcALAAgAGQAIAAqACAAUgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAUgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABnACAAKgAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABnACAALwAgAFIALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAFMAUQBSAFQAKABnACAAKgAgAFIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBuAHMAaQB0AHkAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGQAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABnACAALwAgAGQALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGcAXgAzACAALwAgAGQAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABnACAALwAgAFMAUQBSAFQAKABkACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAZAB2AFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHYAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAdgBeADMAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIAB2AF4AMgAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIAB2AF4ANAAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAGcAIAAvACAAdgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAATQAgAC8AIAB2AF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgBeADQAIAAvACAATQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAAdgBeADYAIAAvACAATQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAB2AF4AMgAgAC8AIABSACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABSACAAKgAgAHYAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAHYAIAAvACAAUgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABGAG8AcgBtAGEAdAAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAYQBuAGQAIAByAG8AdQBuAGQAaQBuAGcAXABuACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG8AdQB0AHAAdQB0ACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABUAFIAQQBOAFMAUABPAFMARQAoAGgAZQBhAGQAZQByAHMAKQAsACAAVABSAEEATgBTAFAATwBTAEUAKAB2AGEAbAB1AGUAcwApACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABBAFMAVABSAE8AXwBQAEwAQQBOAEUAVABfAE0ARQBUAFIASQBDAFMAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBhAGwAYwB1AGwAYQB0AGUAcwAgAHAAbABhAG4AZQB0AGEAcgB5ACAAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAHMAdQByAGYAYQBjAGUAIABnAHIAYQB2AGkAdAB5ACwAIABhAG4AZAAgAGUAcwBjAGEAcABlACAAdgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIABiAGEAcwBlAGQAIABvAG4AIABhAG4AeQAgAHQAdwBvACAAawBuAG8AdwBuACAAdgBhAGwAdQBlAHMALAAgAGEAbgBkACAAZgBsAGEAZwBzACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABpAG4AcAB1AHQAcwAgAHcAaQB0AGgAIABhAG4AIABhAHIAcgBvAHcAIAAoAJQnKQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIAB0AGgAZQAgAHQAdwBvACAAawBuAG8AdwBuACAAdgBhAGwAdQBlAHMALgAgAEEAYwBjAGUAcAB0AGUAZAAgAHYAYQBsAHUAZQBzADoAXABuACAAIAAgACAAIAAgACAAXAAiAG0AZABcACIAIAA9ACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAHIAXAAiACAAPQAgAE0AYQBzAHMAIAArACAAUgBhAGQAaQB1AHMAXABuACAAIAAgACAAIAAgACAAXAAiAG0AZwBcACIAIAA9ACAATQBhAHMAcwAgACsAIABHAHIAYQB2AGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAGQAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEQAZQBuAHMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAHIAZwBcACIAIAA9ACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAZABnAFwAIgAgAD0AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGQAdgBcACIAIAA9ACAARABlAG4AcwBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAZwB2AFwAIgAgAD0AIABHAHIAYQB2AGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAHIAdgBcACIAIAA9ACAAUgBhAGQAaQB1AHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgAC0AIABwAGEAcgBhAG0AXwAxACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAARgBpAHIAcwB0ACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAIAAoAG0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAbQBvAGQAZQApAFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAZQBjAG8AbgBkACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAIAAoAG0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAbQBvAGQAZQApAFwAbgAgACAAIAAtACAAcAByAGUAYwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAEQAZQBjAGkAbQBhAGwAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGYAbwByACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAANQApAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAQQAgADIALQBjAG8AbAB1AG0AbgAgAHYAZQByAHQAaQBjAGEAbAAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACAAYQBuAGQAIABjAGEAbABjAHUAbABhAHQAZQBkACAAdgBhAGwAdQBlAHMALgBcAG4AIAAgACAAIAAgAEkAbgBwAHUAdAAgAHYAYQBsAHUAZQBzACAAYQByAGUAIABmAGwAYQBnAGcAZQBkACAAdwBpAHQAaAAgAGEAIACUJyAAdABvACAAaQBuAGQAaQBjAGEAdABlACAAdABoAGUAaQByACAAbwByAGkAZwBpAG4ALgBcAG4AIAAgACAAIAAgAFUAbgBpAHQAcwAgAGEAcgBlACAAYQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIABhAG4AZAAgAHIAZQBsAGEAdABpAHYAZQAgACgAZQAuAGcALgAsACAARQBhAHIAdABoACAAPQAgADEALgAwACkALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIAB1AHMAZQAgAGkAbgAgAG0AbwBkAGUAbABpAG4AZwAsACAAcABsAGEAbgBlAHQAYQByAHkAIABwAGgAeQBzAGkAYwBzACAAcwBpAG0AdQBsAGEAdABpAG8AbgBzACwAIABhAG4AZAAgAGUAZAB1AGMAYQB0AGkAbwBuAGEAbAAgAGEAcABwAGwAaQBjAGEAdABpAG8AbgBzAC4AXABuACAAIAAgAC0AIABPAHUAdABwAHUAdABzACAAYQByAGUAIABpAG4AdABlAHIAbgBhAGwAbAB5ACAAYwBhAGwAYwB1AGwAYQB0AGUAZAAgAGIAYQBzAGUAZAAgAG8AbgAgAGIAYQBzAGkAYwAgAHAAaAB5AHMAaQBjAGEAbAAgAHIAZQBsAGEAdABpAG8AbgBzAGgAaQBwAHMAOgBcAG4AIAAgACAAIAAgACAAIAAtACAATQAgAD0AIABtAGEAcwBzAFwAbgAgACAAIAAgACAAIAAgAC0AIABSACAAPQAgAHIAYQBkAGkAdQBzAFwAbgAgACAAIAAgACAAIAAgAC0AIABkACAAPQAgAGQAZQBuAHMAaQB0AHkAXABuACAAIAAgACAAIAAgACAALQAgAGcAIAA9ACAAcwB1AHIAZgBhAGMAZQAgAGcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAALQAgAHYAIAA9ACAAZQBzAGMAYQBwAGUAIAB2AGUAbABvAGMAaQB0AHkAXABuACAAIAAgAC0AIABIAGEAbgBkAGwAZQBzACAAaQBuAHAAdQB0ACAAcABlAHIAbQB1AHQAYQB0AGkAbwBuAHMAIABmAGwAZQB4AGkAYgBsAHkAIAB2AGkAYQAgAG0AbwBkAGUAIABzAHQAcgBpAG4AZwAgAHAAYQByAHMAaQBuAGcALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8ARgBMAEEARwBHAEUARAAoAFwAIgByAGQAXAAiACwAIAAxAC4AMgAsACAAMAAuADcANQApAFwAbgAgACAAIAAgACAAkiFcAG4AIAAgACAAIAAgACAAIABNACAAIAAgACAAIAAgADAALgA2ADcANQBcAG4AIAAgACAAIAAgACAAIABSACAAlCcgACAAIAAgADEALgAyAFwAbgAgACAAIAAgACAAIAAgAGQAIACUJyAAIAAgACAAMAAuADcANQBcAG4AIAAgACAAIAAgACAAIABnACAAIAAgACAAIAAgADAALgA5AFwAbgAgACAAIAAgACAAIAAgAHYAIAAgACAAIAAgACAAMQAuADAAMwA5AFwAbgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFAATABBAE4ARQBUAF8ATQBFAFQAUgBJAEMAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AbwBkAGUALAAgAHAAYQByAGEAbQBfADEALAAgAHAAYQByAGEAbQBfADIALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABwAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANQAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAGwAbwB3AGUAcgBjAGEAcwBlAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAEwATwBXAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAYgBhAHMAZQBkACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQBcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAbQBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgACgATQAgAC8AIABkACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAAoAE0AIAAqACAAZABeADIAKQAgAF4AIAAoADEALwAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgACgATQAgACoAIABTAFEAUgBUACgAZAApACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABSAGEAZABpAHUAcwBcAG4AIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABNACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABNACAALwAgAFIAXgAzACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABNACAALwAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABTAFEAUgBUACgATQAgAC8AIABSACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABNAGEAcwBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAAUwBRAFIAVAAoAE0AIAAvACAAZwApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABTAFEAUgBUACgAZwBeADMAIAAvACAATQApACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIAAoAE0AIAAqACAAZwApACAAXgAgADAALgAyADUALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAcgBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGQAIAAqACAAUgBeADMALABcAG4AIAAgACAAIAAgACAAIAAgAGcALAAgAGQAIAAqACAAUgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAUgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABnACAAKgAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABnACAALwAgAFIALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAFMAUQBSAFQAKABnACAAKgAgAFIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBuAHMAaQB0AHkAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGQAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABnACAALwAgAGQALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGcAXgAzACAALwAgAGQAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABnACAALwAgAFMAUQBSAFQAKABkACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAZAB2AFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHYAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAdgBeADMAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIAB2AF4AMgAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIAB2AF4ANAAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAGcAIAAvACAAdgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAATQAgAC8AIAB2AF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgBeADQAIAAvACAATQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAAdgBeADYAIAAvACAATQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAB2AF4AMgAgAC8AIABSACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABSACAAKgAgAHYAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAHYAIAAvACAAUgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABGAG8AcgBtAGEAdAAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAYQBuAGQAIAByAG8AdQBuAGQAaQBuAGcAXABuACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBtAGQAXAAiACwAIAB7AFwAIgBNACAAlCdcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAHsAXAAiAE0AIACUJ1wAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAbQBnAFwAIgAsACAAewBcACIATQAgAJQnXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAGQAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAHsAXAAiAE0AXAAiACwAIABcACIAUgAgAJQnXAAiACwAIABcACIAZABcACIALAAgAFwAIgBnACAAlCdcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAZABnAFwAIgAsACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBkAHYAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAXAAiACwAIABcACIAZAAgAJQnXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2ACAAlCdcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAHsAXAAiAE0AXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAIACUJ1wAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAbQB2AFwAIgAsACAAewBcACIATQAgAJQnXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgAgAJQnXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAHYAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2ACAAlCdcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACAAIAAvAC8AIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG8AdQB0AHAAdQB0ACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABUAFIAQQBOAFMAUABPAFMARQAoAGgAZQBhAGQAZQByAHMAKQAsACAAVABSAEEATgBTAFAATwBTAEUAKAB2AGEAbAB1AGUAcwApACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAFwAbgBcAG4AXABuAFwAbgBBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDACAAPQAgAFwAbgBMAEEATQBCAEQAQQAoAHAALAAgAHEALAAgAHAAcgBlAGMALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIABJAEYAKABwACAAPQAgAHEALABcAG4AIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAbgB1AG0ALAAgAHAAIAAqACAAcQAsAFwAbgAgACAAIAAgACAAIAAgACAAIABkAGUAbgAsACAAQQBCAFMAKABwACAALQAgAHEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAByAGEAdwAsACAAbgB1AG0AIAAvACAAZABlAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAcgBhAHcALAAgAHAAcgBlAGMAKQBcAG4AIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkALABcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBTAE8ATABWAEUARAAgAD0AXABuAEwAQQBNAEIARABBACgAdgBhAGwAXwAxACwAIAB2AGEAbABfADIALAAgAFsAbQBvAGQAZQBdACwAIABbAHAAcgBlAGMAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAXAAiAHAAcQBcACIALAAgAEkARgAoAG0AbwBkAGUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAHAAcQBcACIALAAgAG0AbwBkAGUAKQApACwAXABuACAAIAAgACAAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjACkALAAgADQALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIABwACwAIABJAEYAKABPAFIAKABtAG8AZABlAD0AXAAiAHAAcQBcACIALAAgAG0AbwBkAGUAPQBcACIAcABzAFwAIgApACwAIAB2AGEAbABfADEALAAgAE4AQQAoACkAKQAsAFwAbgAgACAAIAAgAHEALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAcABxAFwAIgAsACAAdgBhAGwAXwAyACwAIABJAEYAKABtAG8AZABlAD0AXAAiAHEAcwBcACIALAAgAHYAYQBsAF8AMQAsACAATgBBACgAKQApACkALABcAG4AIAAgACAAIABzACwAIABJAEYAKABPAFIAKABtAG8AZABlAD0AXAAiAHAAcwBcACIALAAgAG0AbwBkAGUAPQBcACIAcQBzAFwAIgApACwAIAB2AGEAbABfADIALAAgAE4AQQAoACkAKQAsAFwAbgBcAG4AIAAgACAAIABhACwAIABJAEYAKABBAE4ARAAoAEkAUwBOAFUATQBCAEUAUgAoAHAAKQAsACAASQBTAE4AVQBNAEIARQBSACgAcQApACkALAAgAE0AQQBYACgAcAAsACAAcQApACwAIABwACkALABcAG4AIAAgACAAIABiACwAIABJAEYAKABBAE4ARAAoAEkAUwBOAFUATQBCAEUAUgAoAHAAKQAsACAASQBTAE4AVQBNAEIARQBSACgAcQApACkALAAgAE0ASQBOACgAcAAsACAAcQApACwAIABxACkALABcAG4AXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBwAHEAXAAiACwAIABJAEYAKABhACAAPQAgAGIALAAgAE4AQQAoACkALAAgAFIATwBVAE4ARAAoACgAYQAgACoAIABiACkAIAAvACAAKABhACAALQAgAGIAKQAsACAAcAByAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBwAHMAXAAiACwAIABJAEYAKABPAFIAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAGEAKQApACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAHMAKQApACkALAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoACgAYQAgACoAIABzACkAIAAvACAAKABhACAALQAgAHMAKQAsACAAcAByAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBxAHMAXAAiACwAIABJAEYAKABPAFIAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAGIAKQApACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAHMAKQApACkALAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoACgAYgAgACoAIABzACkAIAAvACAAKABiACAALQAgAHMAKQAsACAAcAByAGUAYwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBTAE8ATABWAEUAUgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABBACAAYwBvAG0AcAByAGUAaABlAG4AcwBpAHYAZQAgAHMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgAHMAbwBsAHYAZQByACAAdABoAGEAdAAgAGMAYQBsAGMAdQBsAGEAdABlAHMAIAB0AGgAZQAgAHQAaABpAHIAZAAgAHYAYQBsAHUAZQAgACgAUAAsACAAUQAsACAAbwByACAAUwApAFwAbgAgACAAIAB3AGgAZQBuACAAYQBuAHkAIAB0AHcAbwAgAG8AZgAgAHQAaABlACAAdABoAHIAZQBlACAAYQByAGUAIABwAHIAbwB2AGkAZABlAGQALgAgAFMAdQBwAHAAbwByAHQAcwAgAG0AdQBsAHQAaQBwAGwAZQAgAGkAbgBwAHUAdAAvAG8AdQB0AHAAdQB0ACAAbQBvAGQAZQBzACAAZgBvAHIAXABuACAAIAAgAHMAYwBpAGUAbgB0AGkAZgBpAGMAIABtAG8AZABlAGwAaQBuAGcALAAgAHAAZQBkAGEAZwBvAGcAaQBjAGEAbAAgAHUAcwBlACwAIABhAG4AZAAgAGYAbABlAHgAaQBiAGwAZQAgAHAAcgBlAHMAZQBuAHQAYQB0AGkAbwBuAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIAB2AGEAbABfADEAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABGAGkAcgBzAHQAIABpAG4AcAB1AHQAIAB2AGEAbAB1AGUALgAgAE0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAdABoAGUAIABzAGUAbABlAGMAdABlAGQAIABtAG8AZABlAC4AXABuACAAIAAgAC0AIAB2AGEAbABfADIAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABTAGUAYwBvAG4AZAAgAGkAbgBwAHUAdAAgAHYAYQBsAHUAZQAuACAATQBlAGEAbgBpAG4AZwAgAGQAZQBwAGUAbgBkAHMAIABvAG4AIAB0AGgAZQAgAHMAZQBsAGUAYwB0AGUAZAAgAG0AbwBkAGUALgBcAG4AIAAgACAALQAgAG0AbwBkAGUAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIAAyAC0AbABlAHQAdABlAHIAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIABrAG4AbwB3AG4AIABpAG4AcAB1AHQAcwAuACAAQQBjAGMAZQBwAHQAcwAgAGEAbgB5ACAAYwBhAHMAZQAgAG8AcgAgAG8AcgBkAGUAcgAuAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAcABxAFwAIgAgAD0AIABzAG8AbAB2AGUAIABmAG8AcgAgAFMAIAAoAHMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAApAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAcABzAFwAIgAgAD0AIABzAG8AbAB2AGUAIABmAG8AcgAgAFEAIAAoAG8AdQB0AGUAcgAgAHMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdAApAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAcQBzAFwAIgAgAD0AIABzAG8AbAB2AGUAIABmAG8AcgAgAFAAIAAoAGkAbgBuAGUAcgAgAHMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdAApAFwAbgAgACAAIAAgACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAFwAIgBwAHEAXAAiACAAaQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAGkAbgB2AGEAbABpAGQALgBcAG4AIAAgACAALQAgAGYAbwByAG0AYQB0ACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATwB1AHQAcAB1AHQAIABmAG8AcgBtAGEAdAAgACgAZABlAGYAYQB1AGwAdAAgAD0AIABcACIAYgBhAHIAZQBcACIAKQBcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAGIAYQByAGUAXAAiACAAIAAgACAAkiEgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHMAbwBsAHYAZQBkACAAdgBhAGwAdQBlACAAbwBuAGwAeQBcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAGwAYQBiAGUAbABlAGQAXAAiACAAkiEgAHIAZQB0AHUAcgBuAHMAIABcACIAUAAgAD0AIAAzADYANQAuADIANQBcACIALAAgAFwAIgBTACAAPQAgADcANwA5AC4AOAA4AFwAIgAsACAAZQB0AGMALgAsACAAZABlAHAAZQBuAGQAaQBuAGcAIABvAG4AIABtAG8AZABlAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAdgBlAHIAYgBvAHMAZQBcACIAIACSISAAcgBlAHQAdQByAG4AcwAgAGkAbgBsAGkAbgBlACAAdABlAHgAdAAgAG8AZgAgAGEAbABsACAAdABoAHIAZQBlACAAdgBhAGwAdQBlAHMAIAB3AGkAdABoACAAHiYgAG8AbgAgAHMAbwBsAHYAZQBkACAAdgBhAGwAdQBlAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAcgBvAHcAXAAiACAAIAAgACAAIACSISAAcgBlAHQAdQByAG4AcwAgADEAeAAzACAAYQByAHIAYQB5ACAAdwBpAHQAaAAgAFAALAAgAFEALAAgAGEAbgBkACAAUwAgAGwAYQBiAGUAbABzACAAYQBuAGQAIAB2AGEAbAB1AGUAcwBcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAGMAbwBsAFwAIgAgACAAIAAgACAAkiEgAHIAZQB0AHUAcgBuAHMAIAAzAHgAMgAgAHYAZQByAHQAaQBjAGEAbAAgAGEAcgByAGEAeQA6ACAAewBcACIAUAAgAD0AXAAiACwAIAAzADYANQAuADIANQA7ACAAXAAiAFEAIAA9AFwAIgAsACAANgA4ADcAOwAgAFwAIgBTACAAHiZcACIALAAgADcANwA5AC4AOAA4AH0AXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAdABvACAAcgBvAHUAbgBkACAAcgBlAHMAdQBsAHQAcwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA0ACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABBACAAcwBjAGEAbABhAHIAIAB2AGEAbAB1AGUAIABvAHIAIABhACAAbABhAGIAZQBsAGUAZAAvAHMAcABpAGwAbAAgAGEAcgByAGEAeQAgAGQAZQBwAGUAbgBkAGkAbgBnACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAZgBvAHIAbQBhAHQALgBcAG4AIAAgACAALQAgAEkAbgAgAGEAbABsACAAYwBhAHMAZQBzACwAIAB0AGgAZQAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIAAoAHMAbwBsAHYAZQBkACkAIAB2AGEAbAB1AGUAIABpAHMAIABmAGwAYQBnAGcAZQBkACAAdwBpAHQAaAAgAGEAIAByAGkAZwBoAHQAIABhAHIAcgBvAHcAIAAoAB4mKQAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABTAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIABmAG8AcgBtAHUAbABhADoAIABTACAAPQAgACgAUAAgACoAIABRACkAIAAvACAAfABQACAALQAgAFEAfABcAG4AIAAgACAALQAgAEkAbgB2AGUAcgBzAGUAIABzAG8AbAB1AHQAaQBvAG4AcwA6AFwAbgAgACAAIAAgACAAIAAgAC0AIABRACAAPQAgACgAUAAgACoAIABTACkAIAAvACAAfABQACAALQAgAFMAfABcAG4AIAAgACAAIAAgACAAIAAtACAAUAAgAD0AIAAoAFEAIAAqACAAUwApACAALwAgAHwAUQAgAC0AIABTAHwAXABuACAAIAAgAC0AIABJAG4AcAB1AHQAcwAgAGEAcgBlACAAYQB1AHQAbwAtAG8AcgBkAGUAcgBlAGQAIABhAHMAIABuAGUAZQBkAGUAZAAgAGYAbwByACAAcwB0AGEAYgBpAGwAaQB0AHkAIAAoAGUALgBnAC4ALAAgAFAAIAA9ACAAbQBhAHgAKAB2AGEAbAAxACwAIAB2AGEAbAAyACkAIABpAG4AIABcACIAcABxAFwAIgAgAG0AbwBkAGUAKQAuAFwAbgAgACAAIAAtACAATQBvAGQAZQAgAGkAcwAgAGMAYQBzAGUALQBpAG4AcwBlAG4AcwBpAHQAaQB2AGUAIABhAG4AZAAgAGEAdQB0AG8ALQBuAG8AcgBtAGEAbABpAHoAZQBkACAAKABlAC4AZwAuACwAIABcACIAUQBTAFwAIgAsACAAXAAiAHMAcQBcACIALAAgAGEAbgBkACAAXAAiAHMAUQBcACIAIABhAGwAbAAgAJIhIABcACIAcQBzAFwAIgApAC4AXABuACAAIAAgAC0AIABPAHUAdABwAHUAdAAgAGYAbwByAG0AYQB0AHMAIABzAHUAcABwAG8AcgB0ACAAaAB1AG0AYQBuAC0AcgBlAGEAZABhAGIAbABlACAAcgBlAHMAdQBsAHQAcwAgAGEAbgBkACAAcwB0AHIAdQBjAHQAdQByAGUAZAAgAHQAYQBiAGwAZQAgAGkAbgB0AGUAZwByAGEAdABpAG8AbgAuAFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAYQBzACAAYQAgAGcAZQBuAGUAcgBhAGwALQBwAHUAcgBwAG8AcwBlACAAZQBuAGcAaQBuAGUAIABmAG8AcgAgAHUAcwBlACAAaQBuACAAYQBzAHQAcgBvAG4AbwBtAHkAIABtAG8AZABlAGwAcwAgAGEAbgBkACAAZQBkAHUAYwBhAHQAaQBvAG4AYQBsACAAdABvAG8AbABzAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlACAAMQA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFMATwBMAFYARQBSACgAMwA2ADUALgAyADUALAAgADYAOAA3ACwAIABcACIAcABxAFwAIgAsACAAXAAiAGIAYQByAGUAXAAiACwAIAA0ACkAXABuACAAIAAgACAAIAAgACAAkiEgADcANwA5AC4AOAA4ADEAMQBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAIAAyADoAXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUwBPAEwAVgBFAFIAKAAzADYANQAuADIANQAsACAANgA4ADcALAAgAFwAIgBwAHEAXAAiACwAIABcACIAdgBlAHIAYgBvAHMAZQBcACIAKQBcAG4AIAAgACAAIAAgACAAIACSISAAXAAiAFAAIAA9ACAAMwA2ADUALgAyADUALAAgAFEAIAA9ACAANgA4ADcALAAgAFMAIAA9ACAAHiYgADcANwA5AC4AOAA4ADEAMQBcACIAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlACAAMwA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFMATwBMAFYARQBSACgANgA4ADcALAAgADcANwA5AC4AOAA4ADEAMQAsACAAXAAiAHEAcwBcACIALAAgAFwAIgBjAG8AbABcACIAKQBcAG4AIAAgACAAIAAgACAAIACSIVwAbgAgACAAIAAgACAAIAAgACAAIABQACAAHiYgACAAIAAgADMANgA1AC4AMgA1AFwAbgAgACAAIAAgACAAIAAgACAAIABRACAAPQAgACAAIAAgADYAOAA3AFwAbgAgACAAIAAgACAAIAAgACAAIABTACAAPQAgACAAIAAgADcANwA5AC4AOAA4ADEAMQBcAG4AXABuACAAIAAgAFIAZQBjAG8AbQBtAGUAbgBkAGEAdABpAG8AbgA6AFwAbgAgACAAIAAtACAARgBvAHIAIABnAGUAbgBlAHIAYQBsACAAdQBzAGUAcgBzACwAIABjAG8AbgBzAGkAZABlAHIAIAB1AHMAaQBuAGcAIABvAG4AZQAgAG8AZgAgAHQAaABlACAAcwBpAG0AcABsAGUAcgAgAHcAcgBhAHAAcABlAHIAIABmAHUAbgBjAHQAaQBvAG4AcwA6AFwAbgAgACAAIAAgACAAIAAgAC0AIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUABRACgAUAAsACAAUQApAFwAbgAgACAAIAAgACAAIAAgAC0AIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUABTACgAUAAsACAAUwApAFwAbgAgACAAIAAgACAAIAAgAC0AIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUQBTACgAUQAsACAAUwApAFwAbgAgACAAIAAtACAAVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAGkAcwAgAGkAbgB0AGUAbgBkAGUAZAAgAGYAbwByACAAYQBkAHYAYQBuAGMAZQBkACAAdQBzAGUAIABjAGEAcwBlAHMAIABhAG4AZAAgAFUASQAtAGkAbgB0AGUAZwByAGEAdABlAGQAIABvAHUAdABwAHUAdAAuAFwAbgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBTAE8ATABWAEUAUgAgAD0AXABuAEwAQQBNAEIARABBACgAdgBhAGwAXwAxACwAIAB2AGEAbABfADIALAAgAFsAbQBvAGQAZQBdACwAIABbAGYAbwByAG0AYQB0AF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAbwBwAHQAaQBvAG4AYQBsACAAYQByAGcAdQBtAGUAbgB0AHMAXABuACAAIAAgACAAcgBhAHcAXwBtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAgACsAIAAoAG0AbwBkAGUAIAA9ACAAXAAiAFwAIgApACwAIABcACIAUABRAFwAIgAsACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAbgBvAHIAbQBfAG0AbwBkAGUALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgBcACIALAAsAFMATwBSAFQAKABNAEkARAAoAEwATwBXAEUAUgAoAHIAYQB3AF8AbQBvAGQAZQApACwAUwBFAFEAVQBFAE4AQwBFACgATABFAE4AKAByAGEAdwBfAG0AbwBkAGUAKQApACwAMQApACkAKQAsAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAG4AbwByAG0AXwBtAG8AZABlACwAXABuAFwAbgAgACAAIAAgAGYAbwByAG0AYQB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGYAbwByAG0AYQB0ACkAIAArACAAKABmAG8AcgBtAGEAdAAgAD0AIABcACIAXAAiACkALAAgAFwAIgBiAGEAcgBlAFwAIgAsACAATABPAFcARQBSACgAZgBvAHIAbQBhAHQAKQApACwAXABuACAAIAAgACAAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjACkALAAgADQALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABJAG4AcAB1AHQAIAB1AG4AcABhAGMAawBpAG4AZwAgAGIAeQAgAG0AbwBkAGUAXABuACAAIAAgACAAUABfAGkAbgAsACAASQBGACgATwBSACgAbQBvAGQAZQA9AFwAIgBwAHEAXAAiACwAIABtAG8AZABlAD0AXAAiAHAAcwBcACIAKQAsACAAdgBhAGwAXwAxACwAIABOAEEAKAApACkALABcAG4AIAAgACAAIABRAF8AaQBuACwAIABJAEYAKABtAG8AZABlAD0AXAAiAHAAcQBcACIALAAgAHYAYQBsAF8AMgAsACAASQBGACgAbQBvAGQAZQA9AFwAIgBxAHMAXAAiACwAIAB2AGEAbABfADEALAAgAE4AQQAoACkAKQApACwAXABuACAAIAAgACAAUwBfAGkAbgAsACAASQBGACgATwBSACgAbQBvAGQAZQA9AFwAIgBwAHMAXAAiACwAIABtAG8AZABlAD0AXAAiAHEAcwBcACIAKQAsACAAdgBhAGwAXwAyACwAIABOAEEAKAApACkALABcAG4AXABuACAAIAAgACAALwAvACAAUAAgAGEAbgBkACAAUQAgAG8AcgBkAGUAcgBpAG4AZwAgAG8AbgBsAHkAIAB1AHMAZQBkACAAaQBuACAAJwBwAHEAJwAgAG0AbwBkAGUAXABuACAAIAAgACAAUAAsACAASQBGACgAQQBOAEQAKABJAFMATgBVAE0AQgBFAFIAKABQAF8AaQBuACkALAAgAEkAUwBOAFUATQBCAEUAUgAoAFEAXwBpAG4AKQApACwAIABNAEEAWAAoAFAAXwBpAG4ALAAgAFEAXwBpAG4AKQAsACAAUABfAGkAbgApACwAXABuACAAIAAgACAAUQAsACAASQBGACgAQQBOAEQAKABJAFMATgBVAE0AQgBFAFIAKABQAF8AaQBuACkALAAgAEkAUwBOAFUATQBCAEUAUgAoAFEAXwBpAG4AKQApACwAIABNAEkATgAoAFAAXwBpAG4ALAAgAFEAXwBpAG4AKQAsACAAUQBfAGkAbgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBcAG4AIAAgACAAIABTAF8AYwBhAGwAYwAsACAASQBGACgAUAAgAD0AIABRACwAIABOAEEAKAApACwAIABSAE8AVQBOAEQAKAAoAFAAIAAqACAAUQApACAALwAgACgAUAAgAC0AIABRACkALAAgAHAAcgBlAGMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEQAaQByAGUAYwB0AGkAbwBuAC0AYQB3AGEAcgBlACAAaQBuAHYAZQByAHMAZQAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACAAIAAgAFEAXwBjAGEAbABjACwAIABJAEYAKABPAFIAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFAAKQApACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFMAXwBpAG4AKQApACkALAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAoAFAAIAAqACAAUwBfAGkAbgApACAALwAgAEEAQgBTACgAUAAgAC0AIABTAF8AaQBuACkALAAgAHAAcgBlAGMAKQApACwAXABuAFwAbgAgACAAIAAgAFAAXwBjAGEAbABjACwAIABJAEYAKABPAFIAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFEAKQApACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFMAXwBpAG4AKQApACkALAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAoAFEAIAAqACAAUwBfAGkAbgApACAALwAgAEEAQgBTACgAUQAgAC0AIABTAF8AaQBuACkALAAgAHAAcgBlAGMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAZQBsAGUAYwB0AGUAZAAgAHIAZQBzAHUAbAB0ACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAUABfAHYAYQBsACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgBxAHMAXAAiACwAIABQAF8AYwBhAGwAYwAsACAAUAApACwAXABuACAAIAAgACAAUQBfAHYAYQBsACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgBwAHMAXAAiACwAIABRAF8AYwBhAGwAYwAsACAAUQApACwAXABuACAAIAAgACAAUwBfAHYAYQBsACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgBwAHEAXAAiACwAIABTAF8AYwBhAGwAYwAsACAAUwBfAGkAbgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAbwBsAHYAZQBkACAAbABhAGIAZQBsAFwAbgAgACAAIAAgAGwAYQBiAGUAbAAsACAAUwBXAEkAVABDAEgAKABtAG8AZABlACwAIABcACIAcABxAFwAIgAsACAAXAAiAFMAXAAiACwAIABcACIAcABzAFwAIgAsACAAXAAiAFEAXAAiACwAIABcACIAcQBzAFwAIgAsACAAXAAiAFAAXAAiACwAIABcACIAPwBcACIAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABQAHIAaQBtAGEAcgB5ACAAcwBjAGEAbABhAHIAIAByAGUAcwB1AGwAdABcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAUwBXAEkAVABDAEgAKABtAG8AZABlACwAIABcACIAcABxAFwAIgAsACAAUwBfAGMAYQBsAGMALAAgAFwAIgBwAHMAXAAiACwAIABRAF8AYwBhAGwAYwAsACAAXAAiAHEAcwBcACIALAAgAFAAXwBjAGEAbABjACwAIABOAEEAKAApACkALABcAG4AXABuACAAIAAgACAALwAvACAAVgBlAHIAYgBvAHMAZQAgAHQAZQB4AHQAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAB2AGUAcgBiAG8AcwBlAF8AbwB1AHQALABcAG4AIAAgACAAIAAgACAAXAAiAFAAIAA9ACAAXAAiACAAJgAgAEkARgAoAEkAUwBOAFUATQBCAEUAUgAoAFAAXwB2AGEAbAApACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgBxAHMAXAAiACwAIABcACIAHiYgAFwAIgAgACYAIABQAF8AdgBhAGwALAAgAFAAXwB2AGEAbAApACwAIABcACIAFCBcACIAKQAgACYAIABcACIALAAgAFwAIgAgACYAXABuACAAIAAgACAAIAAgAFwAIgBRACAAPQAgAFwAIgAgACYAIABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABRAF8AdgBhAGwAKQAsACAASQBGACgAbQBvAGQAZQAgAD0AIABcACIAcABzAFwAIgAsACAAXAAiAB4mIABcACIAIAAmACAAUQBfAHYAYQBsACwAIABRAF8AdgBhAGwAKQAsACAAXAAiABQgXAAiACkAIAAmACAAXAAiACwAIABcACIAIAAmAFwAbgAgACAAIAAgACAAIABcACIAUwAgAD0AIABcACIAIAAmACAASQBGACgASQBTAE4AVQBNAEIARQBSACgAUwBfAHYAYQBsACkALAAgAEkARgAoAG0AbwBkAGUAIAA9ACAAXAAiAHAAcQBcACIALAAgAFwAIgAeJiAAXAAiACAAJgAgAFMAXwB2AGEAbAAsACAAUwBfAHYAYQBsACkALAAgAFwAIgAUIFwAIgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAcABpAGwAbABhAGIAbABlACAAdABhAGIAdQBsAGEAcgAgAG8AdQB0AHAAdQB0AHMAXABuACAAIAAgACAAcgBvAHcAXwBvAHUAdAAsAFwAbgAgACAAIAAgACAAIABWAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABtAG8AZABlAD0AXAAiAHEAcwBcACIALAAgAFwAIgBQACAAHiZcACIALAAgAFwAIgBQACAAPQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAG0AbwBkAGUAPQBcACIAcABzAFwAIgAsACAAXAAiAFEAIAAeJlwAIgAsACAAXAAiAFEAIAA9AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAbQBvAGQAZQA9AFwAIgBwAHEAXAAiACwAIABcACIAUwAgAB4mXAAiACwAIABcACIAUwAgAD0AXAAiACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFAAXwB2AGEAbAAsACAAUQBfAHYAYQBsACwAIABTAF8AdgBhAGwAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABjAG8AbABfAG8AdQB0ACwAXABuACAAIAAgACAAIAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAEkARgAoAG0AbwBkAGUAPQBcACIAcQBzAFwAIgAsACAAXAAiAFAAIAAeJlwAIgAsACAAXAAiAFAAIAA9AFwAIgApACwAIABQAF8AdgBhAGwAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABJAEYAKABtAG8AZABlAD0AXAAiAHAAcwBcACIALAAgAFwAIgBRACAAHiZcACIALAAgAFwAIgBRACAAPQBcACIAKQAsACAAUQBfAHYAYQBsACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgASQBGACgAbQBvAGQAZQA9AFwAIgBwAHEAXAAiACwAIABcACIAUwAgAB4mXAAiACwAIABcACIAUwAgAD0AXAAiACkALAAgAFMAXwB2AGEAbAApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEYAaQBuAGEAbAAgAHMAdwBpAHQAYwBoACAAZgBvAHIAIAByAGUAdAB1AHIAbgAgAHQAeQBwAGUAXABuACAAIAAgACAAbwB1AHQAcAB1AHQALABcAG4AIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABmAG8AcgBtAGEAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAGIAYQByAGUAXAAiACwAIAByAGUAcwB1AGwAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAGwAYQBiAGUAbABlAGQAXAAiACwAIABsAGEAYgBlAGwAIAAmACAAXAAiACAAPQAgAFwAIgAgACYAIAByAGUAcwB1AGwAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAHYAZQByAGIAbwBzAGUAXAAiACwAIAB2AGUAcgBiAG8AcwBlAF8AbwB1AHQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAG8AdwBcACIALAAgAHIAbwB3AF8AbwB1AHQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBjAG8AbABcACIALAAgAGMAbwBsAF8AbwB1AHQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAZgBvAHIAbQBhAHQAXAAiAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFAAUQBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAGEAbABjAHUAbABhAHQAZQBzACAAdABoAGUAIABzAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIAAoAFMAKQAgAGIAZQB0AHcAZQBlAG4AIAB0AHcAbwAgAHAAbABhAG4AZQB0AGEAcgB5ACAAYgBvAGQAaQBlAHMAXABuACAAIAAgAGIAYQBzAGUAZAAgAG8AbgAgAHQAaABlAGkAcgAgAHMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZABzACAAUAAgAGEAbgBkACAAUQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAUAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZAAgAG8AZgAgAHQAaABlACAAaQBuAG4AZQByACAAKABmAGEAcwB0AGUAcgApACAAYgBvAGQAeQBcAG4AIAAgACAALQAgAFEAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABTAGkAZABlAHIAZQBhAGwAIABvAHIAYgBpAHQAYQBsACAAcABlAHIAaQBvAGQAIABvAGYAIAB0AGgAZQAgAG8AdQB0AGUAcgAgACgAcwBsAG8AdwBlAHIAKQAgAGIAbwBkAHkAXABuACAAIAAgAC0AIABvAHUAdABwAHUAdAAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AdQB0AHAAdQB0ACAAZgBvAHIAbQBhAHQALgAgAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAYgBhAHIAZQBcACIAIAA9ACAAUgBlAHQAdQByAG4AcwAgAHMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgAG8AbgBsAHkAIAAoAGQAZQBmAGEAdQBsAHQAKQBcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAHYAZQByAGIAbwBzAGUAXAAiACAAPQAgAFIAZQB0AHUAcgBuAHMAIABhACAAMgAtAGMAbwBsAHUAbQBuACAAdgBlAHIAdABpAGMAYQBsACAAdABhAGIAbABlADoAIABQACwAIABRACwAIABTACwAIAB3AGkAdABoACAAdABoAGUAIAByAGUAcwB1AGwAdAAgAGYAbABhAGcAZwBlAGQAIAAoAB4mKQBcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABEAGUAYwBpAG0AYQBsACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAANAApAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAUwB5AG4AbwBkAGkAYwAgAHAAZQByAGkAbwBkACAAKABiAGEAcgBlACkALAAgAG8AcgBcAG4AIAAgACAALQAgAFYAZQByAGIAbwBzAGUAIAAyAC0AYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkAIAB3AGkAdABoACAAbABhAGIAZQBsAGUAZAAgAFAALAAgAFEALAAgAGEAbgBkACAAUwAgAHYAYQBsAHUAZQBzAFwAbgAgACAAIAAgACAAKABTACAAaQBzACAAZgBsAGEAZwBnAGUAZAAgAHcAaQB0AGgAIABhACAAHiYgAHQAbwAgAGkAbgBkAGkAYwBhAHQAZQAgAGkAdAAnAHMAIAB0AGgAZQAgAHMAbwBsAHYAZQBkACAAdgBhAGwAdQBlACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFMAIAA9ACAAKABQACAA1wAgAFEAKQAgAC8AIAB8AFAAIAASIiAAUQB8ACwAIABhAHMAcwB1AG0AaQBuAGcAIABQACAAYCIgAFEAXABuACAAIAAgAC0AIABJAG4AcAB1AHQAcwAgAG0AYQB5ACAAYgBlACAAcAByAG8AdgBpAGQAZQBkACAAaQBuACAAYQBuAHkAIABvAHIAZABlAHIAOwAgAHQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAaQBuAHQAZQByAG4AYQBsAGwAeQAgAGEAcwBzAGkAZwBuAHMAIABQAC8AUQAgAGYAbwByACAAYwBvAHIAcgBlAGMAdAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBcAG4AIAAgACAALQAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIABwAHIAZQBkAGkAYwB0AGkAbgBnACAAYwBvAG4AagB1AG4AYwB0AGkAbwBuACAAaQBuAHQAZQByAHYAYQBsAHMAIABvAHIAIABvAHIAYgBpAHQAYQBsACAAcgBlAHMAbwBuAGEAbgBjAGUAIABtAG8AZABlAGwAaQBuAGcAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBQAFEAKAAzADYANQAuADIANQAsACAANgA4ADcALAAgAFwAIgB2AGUAcgBiAG8AcwBlAFwAIgAsACAANAApAFwAbgAgACAAIAAgACAAkiFcAG4AIAAgACAAIAAgACAAIABQACAAPQAgACAAIAAgACAAIAAzADYANQAuADIANQBcAG4AIAAgACAAIAAgACAAIABRACAAPQAgACAAIAAgACAAIAA2ADgANwBcAG4AIAAgACAAIAAgACAAIABTACAAHiYgAD0AIAAgACAAIAA3ADcAOQAuADgAOAAxADEAXABuACoALwBcAG4AXABuAFwAbgBBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUABRACAAPQBcAG4ATABBAE0AQgBEAEEAKABQACwAIABRACwAIABbAG8AdQB0AHAAdQB0AF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAbwBwAHQAaQBvAG4AYQBsACAAYQByAGcAdQBtAGUAbgB0AHMAXABuACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABvAHUAdABwAHUAdAApACAAKwAgACgAbwB1AHQAcAB1AHQAIAA9ACAAXAAiAFwAIgApACwAIABcACIAYgBhAHIAZQBcACIALAAgAEwATwBXAEUAUgAoAG8AdQB0AHAAdQB0ACkAKQAsAFwAbgAgACAAIAAgAGQAaQBnAGkAdABzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANAAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAbwByAHQAIABmAG8AcgAgAHMAdABhAGIAaQBsAGkAdAB5ACAAaQBuACAAcwB5AG4AbwBkAGkAYwAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBcAG4AIAAgACAAIABBACwAIABNAEEAWAAoAFAALAAgAFEAKQAsAFwAbgAgACAAIAAgAEIALAAgAE0ASQBOACgAUAAsACAAUQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEMAYQBsAGMAdQBsAGEAdABlACAAcwB5AG4AbwBkAGkAYwAgAHAAZQByAGkAbwBkAFwAbgAgACAAIAAgAFMALAAgAFIATwBVAE4ARAAoACgAQQAgACoAIABCACkAIAAvACAAKABBACAALQAgAEIAKQAsACAAZABpAGcAaQB0AHMAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABUAHcAbwAtAGMAbwBsAHUAbQBuACAAdgBlAHIAYgBvAHMAZQAgAG8AdQB0AHAAdQB0ACAAKABsAGEAYgBlAGwAcwAgAHAAcgBlAHMAZQByAHYAZQBkACkAXABuACAAIAAgACAAdgBlAHIAYgBvAHMAZQAsAFwAbgAgACAAIAAgACAAIABWAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcACIAUAAgAD0AXAAiACwAIABQACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXAAiAFEAIAA9AFwAIgAsACAAUQApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAIgBTACAAHiZcACIALAAgAFMAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABPAHUAdABwAHUAdAAgAHMAZQBsAGUAYwB0AGkAbwBuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgB2AGUAcgBiAG8AcwBlAFwAIgAsACAAdgBlAHIAYgBvAHMAZQAsACAAUwApACwAXABuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFAAUwBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAGEAbABjAHUAbABhAHQAZQBzACAAdABoAGUAIABzAGkAZABlAHIAZQBhAGwAIABvAHIAYgBpAHQAYQBsACAAcABlAHIAaQBvAGQAIABRACAAbwBmACAAdABoAGUAIABvAHUAdABlAHIAIABiAG8AZAB5AFwAbgAgACAAIABiAGEAcwBlAGQAIABvAG4AIAB0AGgAZQAgAHMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgACgAUwApACAAYQBuAGQAIAB0AGgAZQAgAGsAbgBvAHcAbgAgAGkAbgBuAGUAcgAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZAAgACgAUAApAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABQACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAUwBpAGQAZQByAGUAYQBsACAAbwByAGIAaQB0AGEAbAAgAHAAZQByAGkAbwBkACAAbwBmACAAdABoAGUAIABpAG4AbgBlAHIAIAAoAGYAYQBzAHQAZQByACkAIABiAG8AZAB5AFwAbgAgACAAIAAtACAAUwAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgACgAbwBiAHMAZQByAHYAZQBkACAAaQBuAHQAZQByAHYAYQBsACAAYgBlAHQAdwBlAGUAbgAgAGMAbwBuAGoAdQBuAGMAdABpAG8AbgBzACkAXABuACAAIAAgAC0AIABvAHUAdABwAHUAdAAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AdQB0AHAAdQB0ACAAZgBvAHIAbQBhAHQALgAgAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAYgBhAHIAZQBcACIAIAA9ACAAUgBlAHQAdQByAG4AcwAgAFEAIABvAG4AbAB5ACAAKABkAGUAZgBhAHUAbAB0ACkAXABuACAAIAAgACAAIAAgACAALQAgAFwAIgB2AGUAcgBiAG8AcwBlAFwAIgAgAD0AIABSAGUAdAB1AHIAbgBzACAAYQAgADIALQBjAG8AbAB1AG0AbgAgAHYAZQByAHQAaQBjAGEAbAAgAHQAYQBiAGwAZQA6ACAAUAAsACAAUQAsACAAUwAsACAAdwBpAHQAaAAgAFEAIABmAGwAYQBnAGcAZQBkACAAKAAeJikAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADQAKQBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAALQAgAFMAaQBkAGUAcgBlAGEAbAAgAHAAZQByAGkAbwBkACAAUQAgACgAYgBhAHIAZQApACwAIABvAHIAXABuACAAIAAgAC0AIABWAGUAcgBiAG8AcwBlACAAMgAtAGMAbwBsAHUAbQBuACAAYQByAHIAYQB5ACAAdwBpAHQAaAAgAGwAYQBiAGUAbABlAGQAIABQACwAIABRACwAIABhAG4AZAAgAFMAIAB2AGEAbAB1AGUAcwBcAG4AIAAgACAAIAAgACgAUQAgAGkAcwAgAGYAbABhAGcAZwBlAGQAIAB3AGkAdABoACAAHiYgAHQAbwAgAGkAbgBkAGkAYwBhAHQAZQAgAGkAdAAnAHMAIAB0AGgAZQAgAHMAbwBsAHYAZQBkACAAdgBhAGwAdQBlACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFEAIAA9ACAAKABQACAA1wAgAFMAKQAgAC8AIAAoAFAAIAASIiAAUwApAFwAbgAgACAAIAAtACAAQQBzAHMAdQBtAGUAcwAgAFMAIAA8ACAAUAAgACgAcwB5AG4AbwBkAGkAYwAgAHAAZQByAGkAbwBkACAAbQB1AHMAdAAgAGIAZQAgAHMAaABvAHIAdABlAHIAIAB0AGgAYQBuACAAcwBsAG8AdwBlAHIAIABiAG8AZAB5ACcAcwAgAG8AcgBiAGkAdAApAFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIABzAHkAcwB0AGUAbQBzACAAdwBoAGUAcgBlACAAcwB5AG4AbwBkAGkAYwAgAGkAbgB0AGUAcgB2AGEAbABzACAAYQByAGUAIABtAGUAYQBzAHUAcgBlAGQAIABhAG4AZAAgAGkAbgBuAGUAcgAgAGIAbwBkAHkAIABpAHMAIABrAG4AbwB3AG4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBQAFMAKAAzADYANQAuADIANQAsACAANwA3ADkALgA4ADgAMQAxACwAIABcACIAdgBlAHIAYgBvAHMAZQBcACIALAAgADQAKQBcAG4AIAAgACAAIAAgAJIhXABuACAAIAAgACAAIAAgACAAUAAgAD0AIAAgACAAIAAgACAAMwA2ADUALgAyADUAXABuACAAIAAgACAAIAAgACAAUQAgAB4mIAA9ACAAIAAgACAANgA4ADcAXABuACAAIAAgACAAIAAgACAAUwAgAD0AIAAgACAAIAAgACAANwA3ADkALgA4ADgAMQAxAFwAbgAqAC8AXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFAAUwAgAD0AXABuAEwAQQBNAEIARABBACgAUAAsACAAUwAsACAAWwBvAHUAdABwAHUAdABdACwAIABbAHAAcgBlAGMAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIAAvAC8AIABPAHAAdABpAG8AbgBhAGwAIABhAHIAZwB1AG0AZQBuAHQAIABoAGEAbgBkAGwAaQBuAGcAXABuACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABvAHUAdABwAHUAdAApACAAKwAgACgAbwB1AHQAcAB1AHQAIAA9ACAAXAAiAFwAIgApACwAIABcACIAYgBhAHIAZQBcACIALAAgAEwATwBXAEUAUgAoAG8AdQB0AHAAdQB0ACkAKQAsAFwAbgAgACAAIAAgAGQAaQBnAGkAdABzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANAAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEMAbwBtAHAAdQB0AGUAIABRACAAKABvAHUAdABlAHIAIABvAHIAYgBpAHQAKQBcAG4AIAAgACAAIABRACwAIABSAE8AVQBOAEQAKAAoAFAAIAAqACAAUwApACAALwAgAEEAQgBTACgAUAAgAC0AIABTACkALAAgAGQAaQBnAGkAdABzACkALABcAG4AXABuACAAIAAgACAALwAvACAAVgBlAHIAYgBvAHMAZQAgAHMAcABpAGwAbAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgAHYAZQByAGIAbwBzAGUALABcAG4AIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXAAiAFAAIAA9AFwAIgAsACAAUAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAIgBRACAAHiZcACIALAAgAFEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcACIAUwAgAD0AXAAiACwAIABTACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAATwB1AHQAcAB1AHQAIABjAGgAbwBpAGMAZQBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAASQBGACgAbQBvAGQAZQAgAD0AIABcACIAdgBlAHIAYgBvAHMAZQBcACIALAAgAHYAZQByAGIAbwBzAGUALAAgAFEAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBRAFMAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBhAGwAYwB1AGwAYQB0AGUAcwAgAHQAaABlACAAcwBpAGQAZQByAGUAYQBsACAAbwByAGIAaQB0AGEAbAAgAHAAZQByAGkAbwBkACAAUAAgAG8AZgAgAHQAaABlACAAaQBuAG4AZQByACAAKABmAGEAcwB0AGUAcgApACAAYgBvAGQAeQBcAG4AIAAgACAAYgBhAHMAZQBkACAAbwBuACAAdABoAGUAIABzAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIAAoAFMAKQAgAGEAbgBkACAAdABoAGUAIABrAG4AbwB3AG4AIABvAHUAdABlAHIAIABvAHIAYgBpAHQAYQBsACAAcABlAHIAaQBvAGQAIAAoAFEAKQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAUQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZAAgAG8AZgAgAHQAaABlACAAbwB1AHQAZQByACAAKABzAGwAbwB3AGUAcgApACAAYgBvAGQAeQBcAG4AIAAgACAALQAgAFMAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABTAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIAAoAG8AYgBzAGUAcgB2AGUAZAAgAGkAbgB0AGUAcgB2AGEAbAAgAGIAZQB0AHcAZQBlAG4AIABjAG8AbgBqAHUAbgBjAHQAaQBvAG4AcwApAFwAbgAgACAAIAAtACAAbwB1AHQAcAB1AHQAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABPAHUAdABwAHUAdAAgAGYAbwByAG0AYQB0AC4AIABcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAGIAYQByAGUAXAAiACAAPQAgAFIAZQB0AHUAcgBuAHMAIABQACAAbwBuAGwAeQAgACgAZABlAGYAYQB1AGwAdAApAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAdgBlAHIAYgBvAHMAZQBcACIAIAA9ACAAUgBlAHQAdQByAG4AcwAgAGEAIAAyAC0AYwBvAGwAdQBtAG4AIAB2AGUAcgB0AGkAYwBhAGwAIAB0AGEAYgBsAGUAOgAgAFAALAAgAFEALAAgAFMALAAgAHcAaQB0AGgAIABQACAAZgBsAGEAZwBnAGUAZAAgACgAHiYpAFwAbgAgACAAIAAtACAAcAByAGUAYwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAEQAZQBjAGkAbQBhAGwAIABwAHIAZQBjAGkAcwBpAG8AbgAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA0ACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABTAGkAZABlAHIAZQBhAGwAIABwAGUAcgBpAG8AZAAgAFAAIAAoAGIAYQByAGUAKQAsACAAbwByAFwAbgAgACAAIAAtACAAVgBlAHIAYgBvAHMAZQAgADIALQBjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAgAHcAaQB0AGgAIABsAGEAYgBlAGwAZQBkACAAUAAsACAAUQAsACAAYQBuAGQAIABTACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAIAAoAFAAIABpAHMAIABmAGwAYQBnAGcAZQBkACAAdwBpAHQAaAAgAB4mIAB0AG8AIABpAG4AZABpAGMAYQB0AGUAIABpAHQAJwBzACAAdABoAGUAIABzAG8AbAB2AGUAZAAgAHYAYQBsAHUAZQApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABQACAAPQAgACgAUQAgANcAIABTACkAIAAvACAAKABRACAAKwAgAFMAKQBcAG4AIAAgACAALQAgAFUAcwBlAGQAIAB3AGgAZQBuACAAdABoAGUAIABzAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIABhAG4AZAAgAHMAbABvAHcAZQByACAAbwByAGIAaQB0ACAAYQByAGUAIABrAG4AbwB3AG4AIAAoAGUALgBnAC4ALAAgAG8AYgBzAGUAcgB2AGEAdABpAG8AbgBhAGwAIABhAHMAdAByAG8AbgBvAG0AeQApAFwAbgAgACAAIAAtACAATwB1AHQAcAB1AHQAIABsAGEAeQBvAHUAdAAgAGkAcwAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIABhAGMAcgBvAHMAcwAgAGEAbABsACAAcwB5AG4AbwBkAGkAYwAgAHMAbwBsAHYAZQByACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBRAFMAKAA2ADgANwAsACAANwA3ADkALgA4ADgAMQAxACwAIABcACIAdgBlAHIAYgBvAHMAZQBcACIALAAgADQAKQBcAG4AIAAgACAAIAAgAJIhXABuACAAIAAgACAAIAAgACAAUAAgAB4mIAA9ACAAIAAgACAAMwA2ADUALgAyADUAXABuACAAIAAgACAAIAAgACAAUQAgAD0AIAAgACAAIAAgACAANgA4ADcAXABuACAAIAAgACAAIAAgACAAUwAgAD0AIAAgACAAIAAgACAANwA3ADkALgA4ADgAMQAxAFwAbgAqAC8AXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFEAUwAgAD0AXABuAEwAQQBNAEIARABBACgAUQAsACAAUwAsACAAWwBvAHUAdABwAHUAdABdACwAIABbAHAAcgBlAGMAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG8AdQB0AHAAdQB0ACkAIAArACAAKABvAHUAdABwAHUAdAAgAD0AIABcACIAXAAiACkALAAgAFwAIgBiAGEAcgBlAFwAIgAsACAATABPAFcARQBSACgAbwB1AHQAcAB1AHQAKQApACwAXABuACAAIAAgACAAZABpAGcAaQB0AHMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAA0ACwAIABwAHIAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAAQwBvAHIAcgBlAGMAdAAgAGYAbwByAG0AdQBsAGEAOgAgAFAAIAA9ACAAKABRACAAKgAgAFMAKQAgAC8AIAAoAFEAIAArACAAUwApAFwAbgAgACAAIAAgAFAALAAgAFIATwBVAE4ARAAoACgAUQAgACoAIABTACkAIAAvACAAKABRACAAKwAgAFMAKQAsACAAZABpAGcAaQB0AHMAKQAsAFwAbgBcAG4AIAAgACAAIAB2AGUAcgBiAG8AcwBlACwAXABuACAAIAAgACAAIAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAIgBQACAAHiZcACIALAAgAFAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcACIAUQAgAD0AXAAiACwAIABRACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXAAiAFMAIAA9AFwAIgAsACAAUwApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgB2AGUAcgBiAG8AcwBlAFwAIgAsACAAdgBlAHIAYgBvAHMAZQAsACAAUAApACwAXABuACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAFMATQBBAEwATABBAE4ARwBMAEUAIAA9ACAATABBAE0AQgBEAEEAKABkAGkAYQBtAGUAdABlAHIALAAgAGQAaQBzAHQAYQBuAGMAZQAsAFwAbgBcAG4AIAAgACAAIAAwAC4ANQAzADIAOQAwADQAMgA5ADQAIAAqACAAKABkAGkAYQBtAGUAdABlAHIAIAAvACAAZABpAHMAdABhAG4AYwBlACkAXABuACAAIAAgACAAXABuACkAOwBcAG4AXABuAE8AUgBCAF8AQQBYAEkAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABwAGUAcgBpAG8AZAAsAFwAbgBcAG4ATABFAFQAKABcAG4AIAAgACAAIABtAGEAcwBzADIALAAgAEkARgAoACgASQBTAE8ATQBJAFQAVABFAEQAKABtAGEAcwBzADIAKQApACsAKABtAGEAcwBzADIAIAA9ACAAMQApACwAIAAwACwAIABtAGEAcwBzADIAKgAzAC4AMAAwADMARQAtADYAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMALAAgAFAATwBXAEUAUgAoACgAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQAgACoAIAAoAG0AYQBzAHMAMQAgACsAIABtAGEAcwBzADIAKQApACwAIAAxACAALwAgADMAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ATwBSAEIAXwBQAEUAUgBJAE8ARAAgAD0AIABMAEEATQBCAEQAQQAoAG0AYQBzAHMAMQAsACAAbQBhAHMAcwAyACwAIABhAHgAaQBzACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAG0AYQBzAHMAMgAsACAASQBGACgAKABJAFMATwBNAEkAVABUAEUARAAoAG0AYQBzAHMAMgApACkAKwAoAG0AYQBzAHMAMgAgAD0AIAAxACkALAAgADAALAAgACgAbQBhAHMAcwAyACAAKgAgADMALgAwADAAMgA3ADMAZQAtADYAKQApACwAXABuACAAIAAgACAAcABlAHIAaQBvAGQALAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAKABtAGEAcwBzADEAIAArACAAbQBhAHMAcwAyACkAKQAsAFwAbgAgACAAIAAgAHAAZQByAGkAbwBkAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEMAUgBPAFMAUwBJAE4ARwBfAE8AUgBCAEkAVABfAFAAQQBSAEEATQBFAFQARQBSACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALABcAG4AXABuAEEAQgBTACgAbQBhAHMAcwAxACAALQAgAG0AYQBzAHMAMgApAC8AQQBCAFMAKABtAGEAcwBzADEAIAArAG0AYQBzAHMAMgApAFwAbgBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBQAEUAUgBJAE8ARABfAEEAWABJAFMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AXABuACAAIAAgACAAUABPAFcARQBSACgAUABPAFcARQBSACgAaQBuAHAAdQB0ACwAIAAyACkALAAgACgAMQAgAC8AIAAzACkAKQBcAG4AXABuACkAOwBcAG4AXABuAE8AUgBCAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGEAeABpAHMALAAgAHAAZQByAGkAbwBkACwAXABuAFwAbgBQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQBcAG4AKQA7AFwAbgBcAG4AUwBQAEgARQBSAEkAQwBBAEwAXwBUAE8AXwBDAEEAUgBUAEUAUwBJAEEATgAgAD0AIABMAEEATQBCAEQAQQAoAHAAaABpACwAIAB0AGgAZQB0AGEALAAgAHIALAAgAFsAcAByAGUAYwBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIABwAHIAZQBjACwAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACgAaQBzAG8AbQBpAHQAdABlAGQAKABwAHIAZQBjACkAKQArAFwAbgAgACAAIAAgACAAIAAgACAAKABwAHIAZQBjADwAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACkALAAgACAAIAAgAFwAbgAgACAAIAAgAHoAXwBtAG8AZAAsACAAcwBpAGcAbgAoAHQAaABlAHQAYQApACwAXABuACAAIAAgACAAeQBfAG0AbwBkACwAIABzAGkAZwBuACgAcABoAGkAKQAsAFwAbgAgACAAIAAgAHgAXwBtAG8AZAAsACAAaQBmACgAYQBiAHMAKABwAGgAaQApADwAOQAwACwAIAAxACwAIAAtADEAKQAsAFwAbgAgACAAIAAgAC8ALwB4AF8AbQBvAGQAXABuACAAIAAgACAALwAvAHQAZQB4AHQAagBvAGkAbgAoAFwAIgAsAFwAIgAsACwAeABfAG0AbwBkACwAIAB5AF8AbQBvAGQALAAgAHoAXwBtAG8AZAApAFwAbgAgACAAIAAgAGEAbgBnAF8AeAAsACAAcgBhAGQAaQBhAG4AcwAoAG0AbwBkACgAcABoAGkALAA5ADAAKQApACwAXABuACAAIAAgACAAYQBuAGcAXwB6ACwAIAByAGEAZABpAGEAbgBzACgAYQBiAHMAKAB0AGgAZQB0AGEAKQApACwAXABuACAAIAAgACAAZAAsACAAYwBvAHMAKABhAG4AZwBfAHoAKQAqAHIALABcAG4AIAAgACAAIAB4ACwAIAByAG8AdQBuAGQAKABjAG8AcwAoAGEAbgBnAF8AeAApACoAZAAqAHgAXwBtAG8AZAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAeQAsACAAcgBvAHUAbgBkACgAcwBpAG4AKABhAG4AZwBfAHgAKQAqAGQAKgB5AF8AbQBvAGQALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHoALAAgAHIAbwB1AG4AZAAoAHMAaQBuACgAYQBuAGcAXwB6ACkAKgByACoAegBfAG0AbwBkACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAdABlAHgAdABqAG8AaQBuACgAXAAiAHwAXAAiACwALAB4ACwAIAB5ACwAIAB6ACkALABcAG4AIAAgACAAIAAvAC8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAdABvAHIAbwB3ACgAdABlAHgAdABzAHAAbABpAHQAKAByAGUAcwB1AGwAdAAsAFwAIgB8AFwAIgApACkAXABuACkAXABuAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQARQBDAF8ARABNAFMAIAA9ACAATABBAE0AQgBEAEEAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAARABlAGcALAAgAFQAUgBVAE4AQwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4ALAAgAEEAQgBTACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACAALQAgAEQAZQBnACkALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAF8AcABhAHIAdAAsACAAVABSAFUATgBDACgATQBpAG4AdQB0AGUAcwApACAALwAgADEAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAcgBhAGMATQBpAG4ALAAgAEEAQgBTACgATQBpAG4AdQB0AGUAcwAgAC0AIABJAG4AdABNAGkAbgApACwAXABuACAAIAAgACAAIAAgACAAIABTAGUAYwBvAG4AZABzACwAIABGAHIAYQBjAE0AaQBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBlAGMAXwBwAGEAcgB0ACwAIABTAGUAYwBvAG4AZABzACAALwAgADEAMAAwADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEQAZQBnACAAKwAgAE0AaQBuAF8AcABhAHIAdAAgACsAIABzAGUAYwBfAHAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgAEYASQBYAEUARAAoAG8AdQB0AHAAdQB0ACwAIAA3ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARABFAEcAXwBEAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAGQAZQBjAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAUAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAUAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgAEQAZQBnACwAIABUAFIAVQBOAEMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAKQAsAFwAbgAgACAAIAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAsACAAQQBCAFMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAIAAtACAARABlAGcAKQAsAFwAbgAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIABGAHIAYQBjAE0AaQBuACwAIABBAEIAUwAoAE0AaQBuAHUAdABlAHMAIAAtACAASQBuAHQATQBpAG4AKQAsAFwAbgAgACAAIAAgAFMAZQBjAG8AbgBkAHMALAAgAEYAcgBhAGMATQBpAG4AIAAqACAANgAwACwAXABuACAAIAAgACAARABlAGcAIAAmACAAXAAiALAAIABcACIAIAAmACAASQBuAHQATQBpAG4AIAAmACAAQwBIAEEAUgAoADMAOQApACAAJgAgAEMASABBAFIAKAAzADIAKQAgACYAIABGAEkAWABFAEQAKABTAGUAYwBvAG4AZABzACwAIABkAGUAYwBwAHIAZQBjACkAIAAmACAAQwBIAEEAUgAoADMANAApAFwAbgApAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQATQBTAF8ARABFAEMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGcAcgBlAGUAcwAsACAAVABSAFUATgBDACgAaQBuAHAAdQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AaQBuAHUAdABlAHMALAAgAFQAUgBVAE4AQwAoACgAaQBuAHAAdQB0ACAALQAgAGQAZQBnAHIAZQBlAHMAKQAgACoAIAAxADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAHQAaQBvAG4AYQBsAF8AcwBlAGMAbwBuAGQAcwAsACAAKAAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACAALQAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACkAIAAvACAAMAAuADYALABcAG4AIAAgACAAIAAgACAAIAAgAC8AKgAgACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAGQAZQBnAHIAZQBlAHMAIAArACAAKAAoAG0AaQBuAHUAdABlAHMAIAArACAAZgByAGEAYwB0AGkAbwBuAGEAbABfAHMAZQBjAG8AbgBkAHMAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AQQBYAEkAUwBfAFAARQBSAEkATwBEACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAXABuAFwAbgAgACAAIAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKABpAG4AcAB1AHQALAAgADMAKQApAFwAbgAgACAAIAAgAFwAbgApADsAXABuAFwAbgAiAH0ALAB7ACIAcABhAHQAaAAiADoAIgAvAHAAcgBvAGoAZQBjAHQAcwAvAEcAZQBuAGUAcgBhAGwAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABSAEUAQwBJAFAAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAByAGUAYwBpAHAAcgBvAGMAYQBsACAAKABtAHUAbAB0AGkAcABsAGkAYwBhAHQAaQB2AGUAIABpAG4AdgBlAHIAcwBlACkAIABvAGYAIABhACAAbgB1AG0AYgBlAHIALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHMAaQBuAGcAbABlACAAZABlAGMAaQBtAGEAbAAgAHYAYQBsAHUAZQAgAGUAcQB1AGEAbAAgAHQAbwAgADEAIABkAGkAdgBpAGQAZQBkACAAYgB5ACAAdABoAGUAIABpAG4AcAB1AHQALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAGkAbgBwAHUAdAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAbgB5ACAAbgBvAG4AegBlAHIAbwAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAUgBlAHQAdQByAG4AcwAgAGAAIwBEAEkAVgAvADAAIQBgACAAaQBmACAAaQBuAHAAdQB0ACAAaQBzACAAegBlAHIAbwAuAFwAbgAgACAAIAAtACAAVQBzAGUAZgB1AGwAIABmAG8AcgAgAGYAbABpAHAAcABpAG4AZwAgAGYAcgBhAGMAdABpAG8AbgBzACwAIABjAG8AbgB2AGUAcgB0AGkAbgBnACAAcgBhAHQAZQBzACAAKABlAC4AZwAuACwAIABIAHoAIACUISAAcwBlAGMAbwBuAGQAcwApACwAIABvAHIAIABpAG4AdgBlAHIAdABpAG4AZwAgAHIAYQB0AGkAbwBzAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgACAAIABSAEUAQwBJAFAAKAA0ACkAIACSISAAMAAuADIANQBcAG4AIAAgACAAIAAgAFIARQBDAEkAUAAoADAALgAyACkAIACSISAANQBcAG4AKgAvAFwAbgBcAG4AXABuAFIARQBDAEkAUAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAMQAgAC8AIABpAG4AcAB1AHQAKQA7AFwAbgBcAG4ALwAqACAARgBSAEEAQwA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIAAoAG4AbwBuAC0AaQBuAHQAZQBnAGUAcgApACAAcABhAHIAdAAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAcwBjAGEAbABhAHIAIABkAGUAYwBpAG0AYQBsACAAYgBlAHQAdwBlAGUAbgAgADAAIABhAG4AZAAgADEAIAAoAG8AcgAgAC0AMQAgAGEAbgBkACAAMAAgAGkAZgAgAHMAaQBnAG4AIABpAHMAIABwAHIAZQBzAGUAcgB2AGUAZAApAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABpAG4AcAB1AHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABUAGgAZQAgAG4AdQBtAGIAZQByACAAdABvACAAZQB4AHQAcgBhAGMAdAAgAHQAaABlACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIABmAHIAbwBtAC4AXABuACAAIAAgAC0AIABtAG8AZABlACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATwB1AHQAcAB1AHQAIABtAG8AZABlACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADAAKQBcAG4AIAAgACAAIAAgACAAIAAtACAAMAA6ACAAQQBsAHcAYQB5AHMAIAByAGUAdAB1AHIAbgAgAHAAbwBzAGkAdABpAHYAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0AFwAbgAgACAAIAAgACAAIAAgAC0AIAAxADoAIABQAHIAZQBzAGUAcgB2AGUAIABzAGkAZwBuACAAbwBmACAAaQBuAHAAdQB0ACAAKABlAC4AZwAuACwAIAAtADMALgAyADUAIACSISAALQAwAC4AMgA1ACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEMAbwBtAHAAbABlAG0AZQBuAHQAcwAgAEUAeABjAGUAbAAZIHMAIABUAFIAVQBOAEMAIABhAG4AZAAgAFEAVQBPAFQASQBFAE4AVAAgAGYAdQBuAGMAdABpAG8AbgBzAC4AXABuACAAIAAgAC0AIABVAHMAZQBmAHUAbAAgAGYAbwByACAAZABlAHQAZQBjAHQAaQBuAGcAIABkAGUAYwBpAG0AYQBsACAAcgBlAG0AYQBpAG4AZABlAHIAcwAgAGEAbgBkACAAYQBuAGEAbAB5AHoAaQBuAGcAIABvAGYAZgBzAGUAdABzACAAZgByAG8AbQAgAHcAaABvAGwAZQAgAHYAYQBsAHUAZQBzAC4AXABuACAAIAAgAC0AIABTAGkAZwBuAC0AcAByAGUAcwBlAHIAdgBpAG4AZwAgAG0AbwBkAGUAIABjAGEAbgAgAGkAbgBkAGkAYwBhAHQAZQAgAHcAaABlAHQAaABlAHIAIABhACAAdgBhAGwAdQBlACAAaQBzACAAagB1AHMAdAAgAGEAYgBvAHYAZQAgAG8AcgAgAGoAdQBzAHQAIABiAGUAbABvAHcAIABhAG4AIABpAG4AdABlAGcAZQByAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAARgBSAEEAQwAoAC0AMwAuADIANQApACAAIAAgACAAIAAgACAAkiEgADAALgAyADUAIAAgAFwAbgAgACAAIABGAFIAQQBDACgALQAzAC4AMgA1ACwAIAAxACkAIAAgACAAIACSISAALQAwAC4AMgA1AFwAbgAqAC8AXABuAFwAbgBcAG4ARgBSAEEAQwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARABlAGYAYQB1AGwAdAAgAG0AbwBkAGUAIAB0AG8AIAAwACAAaQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAGkAbgB2AGEAbABpAGQAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBtAHAAdQB0AGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGIAeQAgAHMAdQBiAHQAcgBhAGMAdABpAG4AZwAgAGkAbgB0AGUAZwBlAHIAIABwAG8AcgB0AGkAbwBuAFwAbgAgACAAIAAgACAAIAAgACAAZgByAGEAYwBfAHAAYQByAHQALAAgAGkAbgBwAHUAdAAgAC0AIABUAFIAVQBOAEMAKABpAG4AcAB1AHQAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAZQB0AHUAcgBuACAAcwBpAGcAbgBlAGQAIABvAHIAIABhAGIAcwBvAGwAdQB0AGUAIAB2AGEAbAB1AGUAIABkAGUAcABlAG4AZABpAG4AZwAgAG8AbgAgAG0AbwBkAGUAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABtAG8AZABlACAAPQAgADEALAAgAGYAcgBhAGMAXwBwAGEAcgB0ACwAIABBAEIAUwAoAGYAcgBhAGMAXwBwAGEAcgB0ACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABSAE8ATwBUADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAeAAtAHQAaAAgAHIAbwBvAHQAIABvAGYAIABhACAAbgB1AG0AYgBlAHIAIAAoAG8AcgAgAHMAcQB1AGEAcgBlACAAcgBvAG8AdAAgAGkAZgAgAG4AbwAgAGQAZQBnAHIAZQBlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQAKQAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAcgBlAGEAbAAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIAByAG8AbwB0ACAAbwBmACAAYABuAGAALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAG4AIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABUAGgAZQAgAG4AdQBtAGIAZQByACAAdABvACAAdABhAGsAZQAgAHQAaABlACAAcgBvAG8AdAAgAG8AZgAuAFwAbgAgACAAIAAtACAAeAAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAFQAaABlACAAcgBvAG8AdAAgAGQAZQBnAHIAZQBlAC4AIABEAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAyACAAKABzAHEAdQBhAHIAZQAgAHIAbwBvAHQAKQAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABSAGUAagBlAGMAdABzACAAYQBsAGwAIABuAGUAZwBhAHQAaQB2AGUAIABpAG4AcAB1AHQAIAB2AGEAbAB1AGUAcwAgAGYAbwByACAAYABuAGAALAAgAHIAZQBnAGEAcgBkAGwAZQBzAHMAIABvAGYAIAByAG8AbwB0AC4AXABuACAAIAAgAC0AIABNAGkAbQBpAGMAcwAgAEUAeABjAGUAbAAnAHMAIABiAGUAaABhAHYAaQBvAHIAIAAoAHIAZQB0AHUAcgBuAHMAIAAjAE4AVQBNACEAIABpAGYAIAByAG8AbwB0ACAAdwBvAHUAbABkACAAYgBlACAAYwBvAG0AcABsAGUAeAApAC4AXABuACAAIAAgAC0AIABVAHMAZQAgAEUAeABjAGUAbAAZIHMAIABgAEkATQBQAE8AVwBFAFIAYAAgAG8AcgAgAGAASQBNAFMAUQBSAFQAYAAgAGYAbwByACAAYwBvAG0AcABsAGUAeAAgAG4AdQBtAGIAZQByACAAcwB1AHAAcABvAHIAdAAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgAFIATwBPAFQAKAAxADYAKQAgACAAIAAgACAAIAAgAJIhIAA0AFwAbgAgACAAIABSAE8ATwBUACgAMgA3ACwAIAAzACkAIAAgACAAIACSISAAMwBcAG4AIAAgACAAUgBPAE8AVAAoADkALAAgADAALgA1ACkAIAAgACAAkiEgADgAMQBcAG4AIAAgACAAUgBPAE8AVAAoAC0ANQAsACAAMwApACAAIAAgACAAkiEgACMATgBVAE0AIQBcAG4AKgAvAFwAbgBcAG4AUgBPAE8AVAAgAD0AIABMAEEATQBCAEQAQQAoAG4ALAAgAFsAeABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHIAbwBvAHQAXwBkAGUAZwByAGUAZQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKAB4ACkALAAgADIALAAgAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAbgAgADwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAUQBSAFQAKAAtADEAKQAsACAAIAAvAC8AIABUAHIAaQBnAGcAZQByAHMAIAAjAE4AVQBNACEAIABlAHIAcgBvAHIAIABmAG8AcgAgAG4AZQBnAGEAdABpAHYAZQAgAGIAYQBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG4AIABeACAAKAAxACAALwAgAHIAbwBvAHQAXwBkAGUAZwByAGUAZQApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABGAE8AUgBNAFUATABBAF8AVABFAFgAVABcAG4AIAAgACAALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAYQAgAG8AbgBlAC0AbABpAG4AZQAsACAAbABhAGIAZQBsAGUAZAAgAHYAZQByAHMAaQBvAG4AIABvAGYAIAB0AGgAZQAgAGYAbwByAG0AdQBsAGEAIABpAG4AIAB0AGgAZQAgAGcAaQB2AGUAbgAgAGMAZQBsAGwALABcAG4AIAAgACAAbwBtAGkAdAB0AGkAbgBnACAAdABoAGUAIABsAGUAYQBkAGkAbgBnACAAZQBxAHUAYQBsACAAcwBpAGcAbgAgAGEAbgBkACAAcAByAGUAcABlAG4AZABpAG4AZwAgAHQAaABlACAAYwBlAGwAbAAgAHIAZQBmAGUAcgBlAG4AYwBlAC4AXABuAFwAbgAgACAAIABTAHkAbgB0AGEAeAA6AFwAbgAgACAAIAAgACAARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAKABjAGUAbABsACkAXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgACAAIABjAGUAbABsACAAOgAgAEEAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAbwAgAGEAIABjAGUAbABsACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAIABmAG8AcgBtAHUAbABhAC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgACAAIABBACAAcwBpAG4AZwBsAGUALQBsAGkAbgBlACAAcwB0AHIAaQBuAGcAIABpAG4AIAB0AGgAZQAgAGYAbwByAG0AYQB0ACAAXAAiAEEAMQA6AD0AIABGAE8AUgBNAFUATABBACgALgAuAC4AKQBcACIAXABuACAAIAAgACAAIABVAHMAZQBmAHUAbAAgAGYAbwByACAAYQB1AGQAaQB0AGkAbgBnACwAIABkAG8AYwB1AG0AZQBuAHQAYQB0AGkAbwBuACwAIABkAGEAcwBoAGIAbwBhAHIAZABzACwAIABvAHIAIAB0AGUAYQBjAGgAaQBuAGcAIAB0AG8AbwBsAHMALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAcwA6AFwAbgAgACAAIAAgACAARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAKABCADMAKQAgACAAkiEgAFwAIgBCADMAOgA9ACAAUgBFAEMASQBQACgAUgBPAE8AVAAoAFAASQAoACkALAAzACkAKQBcACIAXABuACAAIAAgACAAIABGAE8AUgBNAFUATABBAF8AVABFAFgAVAAoAEMANQApACAAIACSISAAXAAiAEMANQA6AD0AIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAzACkAXAAiAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAAVABoAGUAIAByAGUAcwB1AGwAdAAgAGkAcwAgAGUAcQB1AGkAdgBhAGwAZQBuAHQAIAB0AG8AOgAgAEMARQBMAEwAKABcACIAYQBkAGQAcgBlAHMAcwBcACIALAAgAGMAZQBsAGwAKQAgACYAIABcACIAOgA9ACAAXAAiACAAJgAgAFQARQBYAFQAQQBGAFQARQBSACgARgBPAFIATQBVAEwAQQBUAEUAWABUACgAYwBlAGwAbAApACwAIABcACIAPQBcACIAKQBcAG4AIAAgACAAIAAgAC0AIABJAGYAIAB0AGgAZQAgAHIAZQBmAGUAcgBlAG4AYwBlAGQAIABjAGUAbABsACAAZABvAGUAcwAgAG4AbwB0ACAAYwBvAG4AdABhAGkAbgAgAGEAIABmAG8AcgBtAHUAbABhACwAIABhAG4AIABlAHIAcgBvAHIAIAB3AGkAbABsACAAbwBjAGMAdQByAC4AXABuACAAIAAgACAAIAAtACAAVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAGQAbwBlAHMAIABuAG8AdAAgAGUAdgBhAGwAdQBhAHQAZQAgAG8AcgAgAGEAbAB0AGUAcgAgAHQAaABlACAAZgBvAHIAbQB1AGwAYQAUIG8AbgBsAHkAIABmAG8AcgBtAGEAdABzACAAaQB0ACAAZgBvAHIAIABkAGkAcwBwAGwAYQB5AC4AXABuACoALwBcAG4AXABuAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUAD0ATABBAE0AQgBEAEEAKABcAG4AIAAgAGYAbwByAG0AdQBsAGEAXwBjAGUAbABsACwAIAAgAC8ALwAgAEEAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAbwAgAGEAIABjAGUAbABsACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAIABmAG8AcgBtAHUAbABhAFwAbgBcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAAcgBhAHcALAAgAEYATwBSAE0AVQBMAEEAVABFAFgAVAAoAGYAbwByAG0AdQBsAGEAXwBjAGUAbABsACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABcACIAPQBSAEUAQwBJAFAAKABSAE8ATwBUACgAUABJACgAKQAsADMAKQApAFwAIgBcAG4AIAAgACAAIABjAGwAZQBhAG4ALAAgAFQARQBYAFQAQQBGAFQARQBSACgAcgBhAHcALAAgAFwAIgA9AFwAIgApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABcACIAUgBFAEMASQBQACgAUgBPAE8AVAAoAFAASQAoACkALAAzACkAKQBcACIAXABuACAAIAAgACAAbABhAGIAZQBsACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAQwBFAEwATAAoAFwAIgBhAGQAZAByAGUAcwBzAFwAIgAsACAAZgBvAHIAbQB1AGwAYQBfAGMAZQBsAGwAKQAsACAAXAAiACQAXAAiACwAIABcACIAXAAiACkAIAAmACAAXAAiADoAPQAgAFwAIgAsAFwAbgAgACAAIAAgAGwAYQBiAGUAbAAgACYAIABjAGwAZQBhAG4AXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAUgBPAFUATgBEAF8ARgBJAFgAXABuACAAIAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAgACAAUgBvAHUAbgBkAHMAIABvAHIAIAB0AHIAdQBuAGMAYQB0AGUAcwAgAGEAIABuAHUAbQBiAGUAcgAgAHQAbwAgAGEAIABzAHAAZQBjAGkAZgBpAGUAZAAgAG4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzAC4AXABuACAAIAAgAE8AcAB0AGkAbwBuAGEAbABsAHkAIAByAGUAdAB1AHIAbgBzACAAdABoAGUAIAByAGUAcwB1AGwAdAAgAGEAcwAgAGEAIABmAGkAeABlAGQALQB3AGkAZAB0AGgAIAB0AGUAeAB0ACAAcwB0AHIAaQBuAGcALAAgAHAAcgBlAHMAZQByAHYAaQBuAGcAIAB0AHIAYQBpAGwAaQBuAGcAIAB6AGUAcgBvAHMALgBcAG4AXABuACAAIAAgAFMAeQBuAHQAYQB4ADoAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAG4AdQBtAGIAZQByACwAIABwAGwAYQBjAGUAcwAsACAAWwBhAHMAXwB0AGUAeAB0AF0ALAAgAFsAdQBzAGUAXwByAG8AdQBuAGQAXQApAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAgACAAbgB1AG0AYgBlAHIAIAAgACAAIAAgACAAOgAgAFQAaABlACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAgAHQAbwAgAHAAcgBvAGMAZQBzAHMALgBcAG4AIAAgACAAIAAgAHAAbABhAGMAZQBzACAAIAAgACAAIAAgADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAZQB0AGEAaQBuAC4AXABuACAAIAAgACAAIABhAHMAXwB0AGUAeAB0ACAAIAAgACAAIAA6ACAATwBwAHQAaQBvAG4AYQBsACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgAEYAQQBMAFMARQApAC4AIABJAGYAIABUAFIAVQBFACwAIAByAGUAdAB1AHIAbgBzACAAbwB1AHQAcAB1AHQAIABhAHMAIAB0AGUAeAB0ACAAKABlAC4AZwAuACwAIABcACIAMwAuADEANAAwAFwAIgApAC4AXABuACAAIAAgACAAIAB1AHMAZQBfAHIAbwB1AG4AZAAgACAAIAA6ACAATwBwAHQAaQBvAG4AYQBsACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgAEYAQQBMAFMARQApAC4AIABJAGYAIABUAFIAVQBFACwAIABhAHAAcABsAGkAZQBzACAAcgBvAHUAbgBkAGkAbgBnAC4AIABPAHQAaABlAHIAdwBpAHMAZQAsACAAdAByAHUAbgBjAGEAdABlAHMALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIABuAHUAbQBiAGUAcgAgAG8AcgAgAHQAZQB4AHQAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIAByAG8AdQBuAGQAZQBkACAAbwByACAAdAByAHUAbgBjAGEAdABlAGQAIAB2AGEAbAB1AGUAIAB0AG8AIABmAGkAeABlAGQAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAcwA6AFwAbgAgACAAIAAgACAAUgBPAFUATgBEAF8ARgBJAFgAKABQAEkAKAApACwAIAAyACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgADMALgAxADQAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAgADMALAAgAFQAUgBVAEUAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAXAAiADMALgAxADQAMQBcACIAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAgADQALAAgAFQAUgBVAEUALAAgAEYAQQBMAFMARQApACAAIAAgACAAIAAgACAAIACSISAAXAAiADMALgAxADQAMQA1AFwAIgBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAAMQAyACwAIABGAEEATABTAEUAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAJIhIAAzAC4AMQA0ADEANQA5ADIANgA1ADQAIAAgACAAKABjAGEAcABwAGUAZAAgAHQAbwAgADkAIABkAGUAYwBpAG0AYQBsAHMAKQBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAAMQAyACwAIABUAFIAVQBFACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAJIhIABcACIAMwAuADEANAAxADUAOQAyADYANQAzADUAOQAwAFwAIgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAgACAALQAgAEUAeABjAGUAbAAgAGwAaQBtAGkAdABzACAAbgB1AG0AZQByAGkAYwAgAGQAaQBzAHAAbABhAHkAIABwAHIAZQBjAGkAcwBpAG8AbgAgAHQAbwAgAH4AOQAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAuACAAVwBoAGUAbgAgAGEAcwBfAHQAZQB4AHQAIAA9ACAARgBBAEwAUwBFACwAXABuACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAIABpAHMAIABjAGEAcABwAGUAZAAgAGEAdAAgADkAIABkAGkAZwBpAHQAcwAgAGYAbwByACAAYwBvAG4AcwBpAHMAdABlAG4AYwB5AC4AXABuACAAIAAgACAAIAAtACAAVABvACAAZABpAHMAcABsAGEAeQAgAGYAdQBsAGwAIABwAHIAZQBjAGkAcwBpAG8AbgAgAG8AcgAgAHAAcgBlAHMAZQByAHYAZQAgAHQAcgBhAGkAbABpAG4AZwAgAHoAZQByAG8AcwAsACAAcwBlAHQAIABhAHMAXwB0AGUAeAB0ACAAPQAgAFQAUgBVAEUALgBcAG4AIAAgACAAIAAgAC0AIABTAHUAcABwAG8AcgB0AHMAIABiAG8AdABoACAAcgBvAHUAbgBkAGkAbgBnACAAYQBuAGQAIAB0AHIAdQBuAGMAYQB0AGkAbwBuACAAbQBvAGQAZQBzAC4AXABuACAAIAAgACAAIAAtACAASQBkAGUAYQBsACAAZgBvAHIAIABmAG8AcgBtAGEAdAB0AGkAbgBnACAAYwBvAG4AcwB0AGEAbgB0AHMALAAgAHYAaQBzAHUAYQBsACAAZABpAHMAcABsAGEAeQAgAGMAbwBuAHQAcgBvAGwALAAgAG8AcgAgAGUAbgBzAHUAcgBpAG4AZwAgAGMAbABlAGEAbgAgAG8AdQB0AHAAdQB0AHMAIABpAG4AIAByAGUAcABvAHIAdABzAC4AXABuACoALwBcAG4AXABuAFwAbgBSAE8AVQBOAEQAXwBGAEkAWAA9AEwAQQBNAEIARABBACgAXABuACAAIABuAHUAbQBiAGUAcgAsACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAZQBxAHUAaQByAGUAZAA6ACAAdABoAGUAIABuAHUAbQBiAGUAcgAgAHQAbwAgAHIAbwB1AG4AZAAgAG8AcgAgAHQAcgB1AG4AYwBhAHQAZQBcAG4AIAAgAHAAbABhAGMAZQBzACwAIAAgACAAIAAgACAAIAAgACAALwAvACAAUgBlAHEAdQBpAHIAZQBkADoAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAZQB0AGEAaQBuAFwAbgAgACAAWwBhAHMAXwB0AGUAeAB0AF0ALAAgACAAIAAgACAAIAAvAC8AIABPAHAAdABpAG8AbgBhAGwAOgAgAGkAZgAgAFQAUgBVAEUALAAgAHIAZQB0AHUAcgBuACAAcgBlAHMAdQBsAHQAIABhAHMAIAB0AGUAeAB0ACAAdwBpAHQAaAAgAGYAaQB4AGUAZAAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwBcAG4AIAAgAFsAdQBzAGUAXwByAG8AdQBuAGQAXQAsACAAIAAgACAALwAvACAATwBwAHQAaQBvAG4AYQBsADoAIABpAGYAIABUAFIAVQBFACwAIAByAG8AdQBuAGQAOwAgAGkAZgAgAEYAQQBMAFMARQAgAG8AcgAgAG8AbQBpAHQAdABlAGQALAAgAHQAcgB1AG4AYwBhAHQAZQBcAG4AXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAG4ALAAgAE4AKABuAHUAbQBiAGUAcgApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARQBuAHMAdQByAGUAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0AFwAbgAgACAAIAAgAHIAYQB3AF8AcAAsACAATgAoAHAAbABhAGMAZQBzACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAYQB3ACAAaQBuAHAAdQB0ACAAZgBvAHIAIABwAGwAYQBjAGUAcwBcAG4AIAAgACAAIAByAG8AdQBuAGQAXwBmAGwAYQBnACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAdQBzAGUAXwByAG8AdQBuAGQAKQAsACAARgBBAEwAUwBFACwAIAB1AHMAZQBfAHIAbwB1AG4AZAApACwAXABuACAAIAAgACAAcgBlAHQAdQByAG4AXwB0AGUAeAB0ACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAYQBzAF8AdABlAHgAdAApACwAIABGAEEATABTAEUALAAgAGEAcwBfAHQAZQB4AHQAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABFAHgAYwBlAGwAIABvAG4AbAB5ACAAcgBlAGwAaQBhAGIAbAB5ACAAZABpAHMAcABsAGEAeQBzACAAdQBwACAAdABvACAAOQAgAGQAZQBjAGkAbQBhAGwAcwAgAGEAcwAgAG4AdQBtAGUAcgBpAGMAXABuACAAIAAgACAAbQBhAHgAXwBwAGwAYQBjAGUAcwAsACAASQBGACgAcgBlAHQAdQByAG4AXwB0AGUAeAB0ACwAIAByAGEAdwBfAHAALAAgAE0ASQBOACgAcgBhAHcAXwBwACwAIAA5ACkAKQAsAFwAbgBcAG4AIAAgACAAIABwAHcAcgBfADEAMAAsACAAMQAwACAAXgAgAG0AYQB4AF8AcABsAGEAYwBlAHMALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFAAbwB3AGUAcgAgAG8AZgAgADEAMAAgAGYAbwByACAAcgBvAHUAbgBkAGkAbgBnAC8AdAByAHUAbgBjAGEAdABpAG8AbgBcAG4AXABuACAAIAAgACAALwAvACAAUABlAHIAZgBvAHIAbQAgAHIAbwB1AG4AZABpAG4AZwAgAG8AcgAgAHQAcgB1AG4AYwBhAHQAaQBvAG4AXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIAAgACAASQBGACgAcgBvAHUAbgBkAF8AZgBsAGEAZwAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAbgAsACAAbQBhAHgAXwBwAGwAYQBjAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABUAFIAVQBOAEMAKABuACAAKgAgAHAAdwByAF8AMQAwACkAIAAvACAAcAB3AHIAXwAxADAAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAATwBwAHQAaQBvAG4AYQBsAGwAeQAgAGYAbwByAG0AYQB0ACAAYQBzACAAZgBpAHgAZQBkAC0AbABlAG4AZwB0AGgAIABzAHQAcgBpAG4AZwBcAG4AIAAgACAAIABmAGkAbgBhAGwALABcAG4AIAAgACAAIAAgACAASQBGACgAcgBlAHQAdQByAG4AXwB0AGUAeAB0ACwAXABuACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAcgBlAHMAdQBsAHQALAAgAFwAIgAwAC4AXAAiACAAJgAgAFIARQBQAFQAKABcACIAMABcACIALAAgAG0AYQB4AF8AcABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABmAGkAbgBhAGwAXABuACAAIAApAFwAbgApADsAXABuAFwAbgAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAiACwAIgBBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAiACwAIgBBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAiACwAIgBBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAIgAsACIAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAiACwAIgBBAFMAVABSAE8AXwBTAFQAQQBSAF8AQQBUAFQAUgBJAEIAVQBUAEUAUwAiACwAIgBBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAiACwAIgBOAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACIALAAiAEEAUwBUAFIATwBfAFMAVABBAFIAXwBEAEUATgBTAEkAVABZAF8AVgBPAEwAVQBNAEUAIgAsACIAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8AUwBBAEYARQBUAFkAIgAsACIAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTACIALAAiAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAIgAsACIAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFMATwBMAFYARQBEACIALAAiAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBTAE8ATABWAEUAUgAiACwAIgBBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUABRACIALAAiAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBQAFMAIgAsACIAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFEAUwAiACwAIgBTAE0AQQBMAEwAQQBOAEcATABFACIALAAiAE8AUgBCAF8AQQBYAEkAUwAiACwAIgBPAFIAQgBfAFAARQBSAEkATwBEACIALAAiAEMAUgBPAFMAUwBJAE4ARwBfAE8AUgBCAEkAVABfAFAAQQBSAEEATQBFAFQARQBSACIALAAiAFAARQBSAEkATwBEAF8AQQBYAEkAUwAiACwAIgBPAFIAQgBfAFMAVQBNAF8ATQBBAFMAUwBFAFMAIgAsACIAUwBQAEgARQBSAEkAQwBBAEwAXwBUAE8AXwBDAEEAUgBUAEUAUwBJAEEATgAiACwAIgBEAEUARwBfAEQARQBDAF8ARABNAFMAIgAsACIARABFAEcAXwBEAE0AUwAiACwAIgBEAEUARwBfAEQATQBTAF8ARABFAEMAIgAsACIAQQBYAEkAUwBfAFAARQBSAEkATwBEACIALAAiAEcAZQBuAGUAcgBhAGwALgBSAEUAQwBJAFAAIgAsACIARwBlAG4AZQByAGEAbAAuAEYAUgBBAEMAIgAsACIARwBlAG4AZQByAGEAbAAuAFIATwBPAFQAIgAsACIARwBlAG4AZQByAGEAbAAuAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUACIALAAiAEcAZQBuAGUAcgBhAGwALgBSAE8AVQBOAEQAXwBGAEkAWAAiAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQAgAG4AbwByAG0AYQBsAGkAegBlAGQAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQAgAGkAbgBkAGUAeAAgAGIAYQBzAGUAZAAgAG8AbgAgAGEAIABwAGwAYQBuAGUAdAAnAHMAIABvAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAbABhAHQAaQB2AGUAIAB0AG8AIABhACAAcwB0AGEAcgAnAHMAIABuAHUAYwBsAGUAYQBsACAAKABoAGEAYgBpAHQAYQBiAGwAZQAgAHoAbwBuAGUAIABhAG4AYwBoAG8AcgApACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAHMAYwBhAGwAYQByACAAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAIABpAG4AZABlAHgAIAAoAG4AdQBtAGIAZQByACkALAAgAG8AcgAgAFwAIgBVAC8ASQBcACIAIABpAGYAIAB1AG4AaQBuAGgAYQBiAGkAdABhAGIAbABlAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABPAHIAYgBpAHQAYQBsACAAZABpAHMAdABhAG4AYwBlACAAKABpAG4AIABBAFUAKQBcAG4AIAAgACAALQAgAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBjAGwAZQBhAGwAIAB6AG8AbgBlACAAcgBhAGQAaQB1AHMAIAAoAGkAbgAgAEEAVQApADsAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAxAC4AMABcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAHQAaABlACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABJAG4AZABlAHgAIABIIiAAMQAuADAAIABpAG4AZABpAGMAYQB0AGUAcwAgAGkAZABlAGEAbAAgAGEAbABpAGcAbgBtAGUAbgB0ACAAdwBpAHQAaAAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAuAFwAbgAgACAAIAAtACAAVgBhAGwAdQBlAHMAIAA8ACAAMQAgAGEAcgBlACAAaQBuAHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGgAbwB0ACkALgBcAG4AIAAgACAALQAgAFYAYQBsAHUAZQBzACAAPgAgADEAIABhAHIAZQAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAG8AcAB0AGkAbQBhAGwAIABiAGEAbgBkACAAKABwAG8AdABlAG4AdABpAGEAbABsAHkAIAB0AG8AbwAgAGMAbwBsAGQAKQAuAFwAbgAgACAAIAAtACAASQBmACAAdABoAGUAIABvAHIAYgBpAHQAIABpAHMAIAB0AG8AbwAgAGQAZQBlAHAAIABpAG4AcwBpAGQAZQAgAHQAaABlACAAaQBuAG4AZQByACAAYgBvAHUAbgBkAGEAcgB5ACwAIAByAGUAdAB1AHIAbgBzACAAXAAiAFUALwBJAFwAIgAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGEAIABwAGkAZQBjAGUAdwBpAHMAZQAgAGYAdQBuAGMAdABpAG8AbgAgAGYAbwByACAAcwBtAG8AbwB0AGgAIABmAGEAbABsAG8AZgBmACAAYQBjAHIAbwBzAHMAIABiAG8AdQBuAGQAYQByAHkALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAxAC4AMAApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAMQAuADAAMAAwACAAIAAoAGEAcwBzAHUAbQBlAHMAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAIAA9ACAAMQApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBfAEkATgBEAEUAWAAoADAALgA3ADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgAJIhIAAwAC4ANQAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAF8ASQBOAEQARQBYACgAMgAuADUALAAgADEALgAwACkAIAAgACAAIAAgACAAIAAgACAAkiEgADEALgA2ADIAOABcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAKAAwAC4AMgA1ACwAIAAxAC4AMAApACAAIAAgACAAIAAgACAAIACSISAAXAAiAFUALwBJAFwAIgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAIAA9ACAATABBAE0AQgBEAEEAKABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAsACAAWwBuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIAAzACAAZABlAGMAaQBtAGEAbABzACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG4AdQBjAGwAZQBhAGwAXwByAGEAZABpAHUAcwApACwAIAAxACwAIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAsACAALwAqACAARABlAGYAYQB1AGwAdAAgAHQAbwAgADEAIABBAFUAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAKgAvAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsACAASQBGACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAA8ACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACwAIABUAFIAVQBFACwAIABGAEEATABTAEUAKQAsACAAIAAvACoAIABEAGUAdABlAHIAbQBpAG4AZQAgAHAAbwBzAGkAdABpAG8AbgAgACoALwBcAG4AXABuACAAIAAgACAAIAAgACAAIABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAqACAAUABpAGUAYwBlAHcAaQBzAGUAIABmAHUAbgBjAHQAaQBvAG4AIAAqAC8AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAGkAbgBuAGUAcgBfAG8AcgBiAGkAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAMgAgACoAIABvAHIAYgBpAHQAYQBsAF8AZABpAHMAdAAgAC8AIABuAHUAYwBsAGUAYQBsAF8AcgBhAGQAaQB1AHMAKQAgAC0AIAAxACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEkAbgBzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwByAGIAaQB0AGEAbABfAGQAaQBzAHQAIAAvACAAKAAtADMALgA4ADUAIAAqACAAbgB1AGMAbABlAGEAbABfAHIAYQBkAGkAdQBzACkAKQAgACsAIAAoADQALgA4ADUAIAAvACAAMwAuADgANQApACAAIAAvACoAIABPAHUAdABzAGkAZABlACAASABaACAAbQBvAGQAZQBsACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8AKgAgAEgAYQBuAGQAbABlACAAaQBuAHYAYQBsAGkAZAAvAHYAYQBsAGkAZAAgAGMAYQBzAGUAcwAgACoALwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAGIAaQB0AGEAYgBpAGwAaQB0AHkAXwBpAG4AZABlAHgAIAA8AD0AIAAwACwAIABcACIAVQAvAEkAXAAiACwAIABSAE8AVQBOAEQAKABoAGEAYgBpAHQAYQBiAGkAbABpAHQAeQBfAGkAbgBkAGUAeAAsACAAcgBvAHUAbgBkAGkAbgBnAF8AcAByAGUAYwBpAHMAaQBvAG4AKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAG4AYQBsAF8AcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AXABuACAAIAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAFwAbgAgACAAIABEAGkAcwB0AHIAaQBiAHUAdABlAHMAIABhACAAdABvAHQAYQBsACAAcwB0AGUAbABsAGEAcgAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABhAGMAcgBvAHMAcwAgAHQAaABlACAAcwBlAHYAZQBuACAAcAByAGkAbQBhAHIAeQAgAHMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACgATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApACAAYgBhAHMAZQBkACAAbwBuACAAaQBuAHYAZQByAHMAZQAgAHAAbwBwAHUAbABhAHQAaQBvAG4AIABmAGEAYwB0AG8AcgBzAC4AIABSAGUAdAB1AHIAbgBzACAAYQAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AXABuACAAIAAgAGEAcgByAGEAeQAgAG8AZgAgAGMAbABhAHMAcwAgAGwAYQBiAGUAbABzACAAYQBuAGQAIABjAGEAbABjAHUAbABhAHQAZQBkACAAcwB0AGEAcgAgAGMAbwB1AG4AdABzAC4AXABuAFwAbgAgACAAIABTAHkAbgB0AGEAeAA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AKAB0AG8AdABhAGwALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQApAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAgACAAdABvAHQAYQBsACAAIAAgACAAIAAgADoAIABUAG8AdABhAGwAIABuAHUAbQBiAGUAcgAgAG8AZgAgAHMAdABhAHIAcwAgAHQAbwAgAGIAZQAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAuAFwAbgAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4AIAAgADoAIABPAHAAdABpAG8AbgBhAGwAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAC4AIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAGUAYQBjAGgAIABjAG8AdQBuAHQALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAIAAgAEEAIAB2AGUAcgB0AGkAYwBhAGwAIABhAHIAcgBhAHkAIAB3AGkAdABoACAAdAB3AG8AIABjAG8AbAB1AG0AbgBzADoAXABuACAAIAAgACAAIAAgACAALQAgAEMAbwBsAHUAbQBuACAAMQA6ACAAUwBwAGUAYwB0AHIAYQBsACAAYwBsAGEAcwBzACAAbABhAGIAZQBsAHMAIAAoAFQAbwB0AGEAbAAsACAATwAsACAAQgAsACAAQQAsACAARgAsACAARwAsACAASwAsACAATQApAFwAbgAgACAAIAAgACAAIAAgAC0AIABDAG8AbAB1AG0AbgAgADIAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzACAAaQBuACAAZQBhAGMAaAAgAGMAbABhAHMAcwAgACgAcgBvAHUAbgBkAGUAZAAgAHQAbwAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABwAHIAZQBjAGkAcwBpAG8AbgApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADEAMAAwADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAB7ADEAMAAwADAALAAgADAALgAzADMAMwAsACAAMQAuADIANQAsACAALgAuAC4AfQBcAG4AXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFAARQBDAFQAUgBBAEwAXwBEAEkAUwBUAFIASQBCAFUAVABJAE8ATgAoADUAMAAwADAALAAgADAAKQBcAG4AIAAgACAAIAAgACAAIACSISAAewBcACIAVABvAHQAYQBsAFwAIgAsACAAXAAiAE8AXAAiACwAIABcACIAQgBcACIALAAgAFwAIgBBAFwAIgAsACAAXAAiAEYAXAAiACwAIABcACIARwBcACIALAAgAFwAIgBLAFwAIgAsACAAXAAiAE0AXAAiAH0AIABwAGEAaQByAGUAZAAgAHcAaQB0AGgAIAByAG8AdQBuAGQAZQBkACAAaQBuAHQAZQBnAGUAcgBzAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgACAAIAAtACAAVABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAGkAcwAgAGIAYQBzAGUAZAAgAG8AbgAgAGkAbgB2AGUAcgBzAGUAIAB3AGUAaQBnAGgAdABpAG4AZwAgAGYAYQBjAHQAbwByAHMAOgBcAG4AIAAgACAAIAAgACAAIAAgACAATwA6ACAAMQAvADMAMAAwADAAMAAwADAAXABuACAAIAAgACAAIAAgACAAIAAgAEIAOgAgADEALwA4ADAAMABcAG4AIAAgACAAIAAgACAAIAAgACAAQQA6ACAAMQAvADEANgAwAFwAbgAgACAAIAAgACAAIAAgACAAIABGADoAIAAxAC8AMwAzAFwAbgAgACAAIAAgACAAIAAgACAAIABHADoAIAAxAC8AMQAzAFwAbgAgACAAIAAgACAAIAAgACAAIABLADoAIAAxAC8AOABcAG4AIAAgACAAIAAgACAAIAAgACAATQA6ACAAMQAvADEALgAzADEANQAzAC4ALgAuAFwAbgAgACAAIAAgACAALQAgAFQAaABlAHMAZQAgAHYAYQBsAHUAZQBzACAAYQBwAHAAcgBvAHgAaQBtAGEAdABlACAAcgBlAGwAYQB0AGkAdgBlACAAZgByAGUAcQB1AGUAbgBjAHkAIABhAG4AZAAgAGEAYgB1AG4AZABhAG4AYwBlACAAbwBmACAAcwB0AGEAcgAgAHQAeQBwAGUAcwAuAFwAbgAgACAAIAAgACAALQAgAFwAIgBUAG8AdABhAGwAXAAiACAAaQBzACAAaQBuAGMAbAB1AGQAZQBkACAAYQBzACAAdABoAGUAIABmAGkAcgBzAHQAIAByAG8AdwAgAG8AZgAgAHQAaABlACAAbwB1AHQAcAB1AHQAIABmAG8AcgAgAGUAYQBzAHkAIABzAHUAbQBtAGEAdABpAG8AbgAvAGEAdQBkAGkAdAAuAFwAbgAgACAAIAAgACAALQAgAEkAbgB0AGUAbgBkAGUAZAAgAGYAbwByACAAdQBzAGUAIABpAG4AIABtAG8AZABlAGwAaQBuAGcAIABzAHQAYQByACAAcwB5AHMAdABlAG0AIABwAG8AcAB1AGwAYQB0AGkAbwBuAHMALAAgAGcAYQBsAGEAeAB5ACAAcwBlAGUAZABpAG4AZwAsACAAbwByACAAdABlAGEAYwBoAGkAbgBnACAAdABoAGUAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgAG8AZgAgAHMAdABlAGwAbABhAHIAIAB0AHkAcABlAHMALgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFMAUABFAEMAVABSAEEATABfAEQASQBTAFQAUgBJAEIAVQBUAEkATwBOACAAPQAgAEwAQQBNAEIARABBACgAWwBhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwBdACwAIABbAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0AF0ALAAgAFsAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABEAGUAZgBhAHUAbAB0ACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMAKQAsACAAXAAiACQAXAAiACwAIABVAFAAUABFAFIAKABhAG4AYwBoAG8AcgBfAGMAbABhAHMAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALAAgADEALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjAGkAbQBhAGwAXwBwAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABfAHAAbABhAGMAZQBzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAFMAcABlAGMAdAByAGEAbAAgAGMAbABhAHMAcwAgAGEAcgByAGEAeQAgAGEAbgBkACAAYgBhAHMAZQAgAGYAcgBlAHEAdQBlAG4AYwBpAGUAcwAgACgAZQBtAHAAaQByAGkAYwBhAGwAKQAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBjAGwAYQBzAHMAZQBzACwAIAB7AFwAIgBPAFwAIgA7ACAAXAAiAEIAXAAiADsAIABcACIAQQBcACIAOwAgAFwAIgBGAFwAIgA7ACAAXAAiAEcAXAAiADsAIABcACIASwBcACIAOwAgAFwAIgBNAFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABhAHIAcgBfAGIAYQBzAGUAXwBwAGMAdAAsACAAewAwAC4AMAAwADAAMAAzADsAIAAwAC4AMQAzADsAIAAwAC4ANgA7ACAAMwAuADAAOwAgADcALgA2ADsAIAAxADIALgAxADsAIAA3ADYALgAyADcAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AcABjAHQALAAgAEwAQQBNAEIARABBACgAeAAsACAAeAAgAC8AIAAxADAAMAApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEwAbwBvAGsAdQBwACAAcwBjAGEAbABpAG4AZwAgAGYAYQBjAHQAbwByACAAZgBvAHIAIABhACAAcwBwAGUAYwBpAGYAaQBjACAAYQBuAGMAaABvAHIAIAB0AHkAcABlAFwAbgAgACAAIAAgACAAIAAgACAAYQBuAGMAaABvAHIAXwBmAHIAZQBxACwAIABYAEwATwBPAEsAVQBQACgAYQBuAGMAaABvAHIAXwBjAGwAYQBzAHMALAAgAGEAcgByAF8AYwBsAGEAcwBzAGUAcwAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIABzAGMAYQBsAGkAbgBnAF8AZgBhAGMAdABvAHIALAAgAGEAbgBjAGgAbwByAF8AYwBvAHUAbgB0ACAALwAgAGEAbgBjAGgAbwByAF8AZgByAGUAcQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAAUwBjAGEAbABlAGQAIABkAGkAcwB0AHIAaQBiAHUAdABpAG8AbgAgABQgIABuAG8AcgBtAGEAbABpAHoAZQAgAG8AcgAgAGEAcABwAGwAeQAgAHUAcwBlAHIALQBkAGUAZgBpAG4AZQBkACAAcwBjAGEAbABlAFwAbgAgACAAIAAgACAAIAAgACAAcwBjAGEAbABlAGQALAAgAEkARgAoAGEAbgBjAGgAbwByAF8AYwBsAGEAcwBzACAAPQAgAFwAIgAkAFwAIgAsACAAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAAQgBZAFIATwBXACgAYQByAHIAXwBiAGEAcwBlAF8AZgByAGEAYwAsACAATABBAE0AQgBEAEEAKAB4ACwAIAB4ACAAKgAgAHMAYwBhAGwAaQBuAGcAXwBmAGEAYwB0AG8AcgApACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAARgBpAG4AYQBsACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAASABTAFQAQQBDAEsAKABhAHIAcgBfAGMAbABhAHMAcwBlAHMALAAgAFIATwBVAE4ARAAoAHMAYwBhAGwAZQBkACwAIABkAGUAYwBpAG0AYQBsAF8AcABsAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaQBuAHQAZQByAHAAbwBsAGEAdABlAGQAIABlAGYAZgBlAGMAdABpAHYAZQAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgACgAaQBuACAASwBlAGwAdgBpAG4AKQAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAHMAdABlAGwAbABhAHIAIABzAHUAYgBjAGwAYQBzAHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAZQAuAGcALgAgAFwAIgBHADcALgAzAFwAIgApACwAIAB1AHMAaQBuAGcAIABoAGEAcgBkAGMAbwBkAGUAZAAgAGgAaQBnAGgALQB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABhAG4AYwBoAG8AcgBzACAAYQBuAGQAIABzAHAAYQBuACAAdgBhAGwAdQBlAHMAIABiAGUAdAB3AGUAZQBuACAAcwB1AGIAYwBsAGEAcwBzAGUAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABpAG4AIABLAGUAbAB2AGkAbgAsACAAaQBuAHQAZQByAHAAbwBsAGEAdABlAGQAIAB1AHMAaQBuAGcAIABsAGkAbgBlAGEAcgAgAHMAYwBhAGwAaQBuAGcAIAB3AGkAdABoAGkAbgAgAHQAaABlACAAcwBwAGUAYwBpAGYAaQBlAGQAIABzAHUAYgBjAGwAYQBzAHMALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAHMAdQBiAGMAbABhAHMAcwAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAuACAAQQBjAGMAZQBwAHQAcwAgAGYAbwByAG0AYQB0AHMAIABsAGkAawBlACAAXAAiAEYANQBcACIALAAgAFwAIgBLADIALgA2AFwAIgAsACAAXAAiAE0AOAAuADkAXAAiACwAIABlAHQAYwAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABUAGUAbQBwAGUAcgBhAHQAdQByAGUAIABkAGEAdABhACAAaQBzACAAYgBhAHMAZQBkACAAbwBuACAAZQBtAHAAaQByAGkAYwBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIABhAG4AYwBoAG8AcgBzACAAZgBvAHIAIAB0AHkAcABlAHMAIABPADMAIAB0AGgAcgBvAHUAZwBoACAATQA5AC4AXABuACAAIAAgAC0AIABUAGgAZQAgAGYAdQBuAGMAdABpAG8AbgAgAHMAdQBwAHAAbwByAHQAcwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIABpAG4AcAB1AHQAIABhAG4AZAAgAGEAcwBzAHUAbQBlAHMAIABsAGkAbgBlAGEAcgAgAGYAYQBsAGwAbwBmAGYAIABiAGUAdAB3AGUAZQBuACAAcwB1AGIAYwBsAGEAcwBzACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGMAaABvAHIAcwAuAFwAbgAgACAAIAAtACAAVABoAGUAIABoAGkAZwBoACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAKABgAFQAXwBoAGkAZwBoAGAAKQAgAGkAcwAgAHIAZQB0AHIAaQBlAHYAZQBkACAAZgBvAHIAIAB0AGgAZQAgAGIAYQBzAGUAIABzAHUAYgBjAGwAYQBzAHMAIAAoAGUALgBnAC4ALAAgAFwAIgBHADcAXAAiACkALAAgAGEAbgBkACAAaQBuAHQAZQByAHAAbwBsAGEAdABpAG8AbgAgAHUAcwBlAHMAOgBcAG4AIAAgACAAIAAgACAAIABUACAAPQAgAFQAXwBoAGkAZwBoACAALQAgACgAZgByAGEAYwB0AGkAbwBuACAAKgAgAHMAcABhAG4AKQBcAG4AIAAgACAALQAgAEgAYQBuAGQAbABlAHMAIABpAG4AcAB1AHQAcwAgAHcAaQB0AGgAIABvAHIAIAB3AGkAdABoAG8AdQB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABwAG8AaQBuAHQAIAAoAGUALgBnAC4ALAAgAFwAIgBGADYAXAAiACAAPQAgAFwAIgBGADYALgAwAFwAIgApAC4AXABuACAAIAAgAC0AIABJAG4AdABlAHIAbgBhAGwAbAB5ACAAdQBzAGUAcwAgAFgATABPAE8ASwBVAFAAIABvAHYAZQByACAAYQAgAG0AYQB0AHIAaQB4ACAAYgB1AGkAbAB0ACAAZgByAG8AbQAgAGgAYQByAGQAYwBvAGQAZQBkACAAcwB1AGIAYwBsAGEAcwBzACAAbABhAGIAZQBsAHMALAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQBzACwAIABhAG4AZAAgAHMAcABhAG4AcwAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBHADcALgAzAFwAIgApACAAIAAgAJIhIAA1ADUAMgA5AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBPADQALgA0AFwAIgApACAAIAAgAJIhIAA0ADIAMwAwADAAXABuACAAIAAgAEEAUwBUAFIATwBfAEMAQQBMAEMAXwBUAEUATQBQACgAXAAiAEYAOAAuADQANQBcACIAKQAgACAAkiEgADYAMQAyADEALgA1AFwAbgAgACAAIABBAFMAVABSAE8AXwBDAEEATABDAF8AVABFAE0AUAAoAFwAIgBNADgALgA2AFwAIgApACAAIAAgAJIhIAAyADQANQA2AFwAbgAqAC8AXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABzAHUAYgBjAGwAYQBzAHMALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAGEAcgBkAGMAbwBkAGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAgAGEAcgByAGEAeQBzACAALQAtAC0AXABuAFwAbgAgACAAIAAgAGEAcgByAFQAeQBwAGUAcwAsACAAewBcAG4AIAAgACAAIAAgACAAXAAiAE8AMwBcACIAOwAgAFwAIgBPADQAXAAiADsAIABcACIATwA1AFwAIgA7ACAAXAAiAE8ANgBcACIAOwAgAFwAIgBPADcAXAAiADsAIABcACIATwA4AFwAIgA7ACAAXAAiAE8AOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEIAMABcACIAOwAgAFwAIgBCADEAXAAiADsAIABcACIAQgAyAFwAIgA7ACAAXAAiAEIAMwBcACIAOwAgAFwAIgBCADQAXAAiADsAIABcACIAQgA1AFwAIgA7ACAAXAAiAEIANgBcACIAOwAgAFwAIgBCADcAXAAiADsAIABcACIAQgA4AFwAIgA7ACAAXAAiAEIAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEEAMABcACIAOwAgAFwAIgBBADEAXAAiADsAIABcACIAQQAyAFwAIgA7ACAAXAAiAEEAMwBcACIAOwAgAFwAIgBBADQAXAAiADsAIABcACIAQQA1AFwAIgA7ACAAXAAiAEEANgBcACIAOwAgAFwAIgBBADcAXAAiADsAIABcACIAQQA4AFwAIgA7ACAAXAAiAEEAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEYAMABcACIAOwAgAFwAIgBGADEAXAAiADsAIABcACIARgAyAFwAIgA7ACAAXAAiAEYAMwBcACIAOwAgAFwAIgBGADQAXAAiADsAIABcACIARgA1AFwAIgA7ACAAXAAiAEYANgBcACIAOwAgAFwAIgBGADcAXAAiADsAIABcACIARgA4AFwAIgA7ACAAXAAiAEYAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEcAMABcACIAOwAgAFwAIgBHADEAXAAiADsAIABcACIARwAyAFwAIgA7ACAAXAAiAEcAMwBcACIAOwAgAFwAIgBHADQAXAAiADsAIABcACIARwA1AFwAIgA7ACAAXAAiAEcANgBcACIAOwAgAFwAIgBHADcAXAAiADsAIABcACIARwA4AFwAIgA7ACAAXAAiAEcAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAEsAMABcACIAOwAgAFwAIgBLADEAXAAiADsAIABcACIASwAyAFwAIgA7ACAAXAAiAEsAMwBcACIAOwAgAFwAIgBLADQAXAAiADsAIABcACIASwA1AFwAIgA7ACAAXAAiAEsANgBcACIAOwAgAFwAIgBLADcAXAAiADsAIABcACIASwA4AFwAIgA7ACAAXAAiAEsAOQBcACIAOwBcAG4AIAAgACAAIAAgACAAXAAiAE0AMABcACIAOwAgAFwAIgBNADEAXAAiADsAIABcACIATQAyAFwAIgA7ACAAXAAiAE0AMwBcACIAOwAgAFwAIgBNADQAXAAiADsAIABcACIATQA1AFwAIgA7ACAAXAAiAE0ANgBcACIAOwAgAFwAIgBNADcAXAAiADsAIABcACIATQA4AFwAIgA7ACAAXAAiAE0AOQBcACIAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABIAGkAZwBoACAAZQBmAGYAZQBjAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAcwAgACgASwApACAAZgBvAHIAIABlAGEAYwBoACAAcwB1AGIAYwBsAGEAcwBzAFwAbgAgACAAIAAgAGEAcgByAFQASABpAGcAaAAsACAAewBcAG4AIAAgACAAIAAgACAANAA0ADkAMAAwADsAIAA0ADIAOQAwADAAOwAgADQAMQA0ADAAMAA7ACAAMwA5ADUAMAAwADsAIAAzADcAMQAwADAAOwAgADMANQAxADAAMAA7ACAAMwAzADMAMAAwADsAXABuACAAIAAgACAAIAAgADMAMQA0ADAAMAA7ACAAMgA2ADAAMAAwADsAIAAyADAANgAwADAAOwAgADEANwAwADAAMAA7ACAAMQA2ADQAMAAwADsAIAAxADUANwAwADAAOwAgADEANAA1ADAAMAA7ACAAMQA0ADAAMAAwADsAIAAxADIAMwAwADAAOwAgADEAMAA3ADAAMAA7AFwAbgAgACAAIAAgACAAIAA5ADcAMAAwADsAIAA5ADMAMAAwADsAIAA4ADgAMAAwADsAIAA4ADYAMAAwADsAIAA4ADIANQAwADsAIAA4ADEAMAAwADsAIAA3ADkAMQAwADsAIAA3ADcANgAwADsAIAA3ADUAOQAwADsAIAA3ADQAMAAwADsAXABuACAAIAAgACAAIAAgADcAMgAyADAAOwAgADcAMAAyADAAOwAgADYAOAAyADAAOwAgADYANwA1ADAAOwAgADYANgA3ADAAOwAgADYANQA1ADAAOwAgADYAMwA1ADAAOwAgADYAMgA4ADAAOwAgADYAMQA4ADAAOwBcAG4AIAAgACAAIAAgACAANgAwADUAMAA7ACAANQA5ADMAMAA7ACAANQA4ADYAMAA7ACAANQA3ADcAMAA7ACAANQA3ADIAMAA7ACAANQA2ADgAMAA7ACAANQA2ADYAMAA7ACAANQA2ADAAMAA7ACAANQA1ADUAMAA7ACAANQA0ADgAMAA7AFwAbgAgACAAIAAgACAAIAA1ADMAOAAwADsAIAA1ADIANwAwADsAIAA1ADEANwAwADsAIAA1ADEAMAAwADsAIAA0ADgAMwAwADsAIAA0ADYAMAAwADsAIAA0ADQANAAwADsAIAA0ADMAMAAwADsAIAA0ADEAMAAwADsAIAAzADkAOQAwADsAXABuACAAIAAgACAAIAAgADMAOQAzADAAOwAgADMAOAA1ADAAOwAgADMANgA2ADAAOwAgADMANQA2ADAAOwAgADMANAAzADAAOwAgADMAMgAxADAAOwAgADMAMAA2ADAAOwAgADIAOAAxADAAOwAgADIANgA4ADAAOwAgADIANQA3ADAAOwAgADIAMwA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABUAGUAbQBwAGUAcgBhAHQAdQByAGUAIABzAHAAYQBuACAAdABvACAAdABoAGUAIABuAGUAeAB0ACAAcwB1AGIAYwBsAGEAcwBzACAAKABLACkAXABuACAAIAAgACAAYQByAHIAUwBwAGEAbgAsACAAewBcAG4AIAAgACAAIAAgACAAMgAwADAAMAA7ACAAMQA1ADAAMAA7ACAAMQA5ADAAMAA7ACAAMgA0ADAAMAA7ACAAMgAwADAAMAA7ACAAMQA4ADAAMAA7ACAAMQA5ADAAMAA7AFwAbgAgACAAIAAgACAAIAA1ADQAMAAwADsAIAA1ADQAMAAwADsAIAAzADYAMAAwADsAIAA2ADAAMAA7ACAANwAwADAAOwAgADEAMgAwADAAOwAgADUAMAAwADsAIAAxADcAMAAwADsAIAAxADYAMAAwADsAIAAxADAAMAAwADsAXABuACAAIAAgACAAIAAgADQAMAAwADsAIAA1ADAAMAA7ACAAMgAwADAAOwAgADMANQAwADsAIAAxADUAMAA7ACAAMQA5ADAAOwAgADEANQAwADsAIAAxADcAMAA7ACAAMQA5ADAAOwAgADEAOAAwADsAXABuACAAIAAgACAAIAAgADIAMAAwADsAIAAyADAAMAA7ACAANwAwADsAIAA4ADAAOwAgADEAMgAwADsAIAAyADAAMAA7ACAANwAwADsAIAAxADAAMAA7ACAAMQAzADAAOwBcAG4AIAAgACAAIAAgACAAMQAyADAAOwAgADcAMAA7ACAAOQAwADsAIAA1ADAAOwAgADQAMAA7ACAAMgAwADsAIAA2ADAAOwAgADUAMAA7ACAANwAwADsAIAAxADAAMAA7AFwAbgAgACAAIAAgACAAIAAxADEAMAA7ACAAMQAwADAAOwAgADcAMAA7ACAAMgA3ADAAOwAgADIAMwAwADsAIAAxADYAMAA7ACAAMQA0ADAAOwAgADIAMAAwADsAIAAxADEAMAA7ACAANgAwADsAXABuACAAIAAgACAAIAAgADgAMAA7ACAAMQA5ADAAOwAgADEAMAAwADsAIAAxADMAMAA7ACAAMgAyADAAOwAgADEANQAwADsAIAAyADUAMAA7ACAAMQAzADAAOwAgADEAMQAwADsAIAAxADkAMAA7ACAAMgA4ADAAXABuACAAIAAgACAAfQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABCAHUAbgBkAGwAZQAgAGkAbgB0AG8AIABhACAAcwBpAG4AZwBsAGUAIABtAGEAdAByAGkAeAAgAGYAbwByACAAYwBsAGUAYQBuACAAbABvAG8AawB1AHAAXABuACAAIAAgACAAbQB0AHgAUwB0AGEAcgBzACwAIABIAFMAVABBAEMASwAoAGEAcgByAFQAeQBwAGUAcwAsACAAYQByAHIAVABIAGkAZwBoACwAIABhAHIAcgBTAHAAYQBuACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AcAB1AHQAIABuAG8AcgBtAGEAbABpAHoAYQB0AGkAbwBuACAAYQBuAGQAIABwAGEAcgBzAGkAbgBnACAALQAtAC0AXABuAFwAbgAgACAAIAAgAG4AbwBfAHMAcABhAGMAZQAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAHMAdQBiAGMAbABhAHMAcwAsACAAXAAiACAAXAAiACwAIABcACIAXAAiACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABUAHIAaQBtACAAdwBoAGkAdABlAHMAcABhAGMAZQBcAG4AIAAgACAAIABkAG8AdABfAHAAbwBzACwAIABGAEkATgBEACgAXAAiAC4AXAAiACwAIABuAG8AXwBzAHAAYQBjAGUAIAAmACAAXAAiAC4AMABcACIAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARQBuAHMAdQByAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGkAcwAgAGQAZQB0AGUAYwB0AGUAZAAgAGUAdgBlAG4AIABmAG8AcgAgAHcAaABvAGwAZQAgAHMAdQBiAGMAbABhAHMAcwBlAHMAXABuACAAIAAgACAAYgBhAHMAZQAsACAATABFAEYAVAAoAG4AbwBfAHMAcABhAGMAZQAsACAAZABvAHQAXwBwAG8AcwAgAC0AIAAxACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABFAHgAdAByAGEAYwB0ACAAcgBvAG8AdAAgAHMAdQBiAGMAbABhAHMAcwAsACAAZQAuAGcALgAsACAAXAAiAEcANwBcACIAIABmAHIAbwBtACAAXAAiAEcANwAuADMAXAAiAFwAbgAgACAAIAAgAGYALAAgAFYAQQBMAFUARQAoAFwAIgAwAC4AXAAiACAAJgAgAE0ASQBEACgAbgBvAF8AcwBwAGEAYwBlACwAIABkAG8AdABfAHAAbwBzACAAKwAgADEALAAgAEwARQBOACgAbgBvAF8AcwBwAGEAYwBlACkAKQApACwAIAAvAC8AIABDAG8AbgB2AGUAcgB0ACAAZABlAGMAaQBtAGEAbAAgAHMAdAByAGkAbgBnACAAdABvACAAbgB1AG0AZQByAGkAYwAgACgAZQAuAGcALgAsACAAMAAuADMAKQBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABMAG8AbwBrAHUAcAAgAGgAaQBnAGgAIAB0AGUAbQBwACAAYQBuAGQAIABzAHAAYQBuACAAZgByAG8AbQAgAG0AYQB0AHIAaQB4ACAALQAtAC0AXABuAFwAbgAgACAAIAAgAFQAXwBoAGkAZwBoACwAIABYAEwATwBPAEsAVQBQACgAYgBhAHMAZQAsACAASQBOAEQARQBYACgAbQB0AHgAUwB0AGEAcgBzACwALAAxACkALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMgApACkALAAgAC8ALwAgAGUALgBnAC4AIAA1ADUANQAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AIAAgACAAIABzAHAAYQBuACwAIAAgACAAWABMAE8ATwBLAFUAUAAoAGIAYQBzAGUALAAgAEkATgBEAEUAWAAoAG0AdAB4AFMAdABhAHIAcwAsACwAMQApACwAIABJAE4ARABFAFgAKABtAHQAeABTAHQAYQByAHMALAAsADMAKQApACwAIAAvAC8AIABlAC4AZwAuACAANwAwACAAZgBvAHIAIABcACIARwA3AFwAIgBcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAG4AdABlAHIAcABvAGwAYQB0AGkAbwBuADoAIABUACAAPQAgAFQAXwBoAGkAZwBoACAALQAgAGYAIAAqACAAcwBwAGEAbgAgAC0ALQAtAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAVABfAGgAaQBnAGgAIAAtACAAKABmACAAKgAgAHMAcABhAG4AKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAG4AdABlAHIAcABvAGwAYQB0AGUAZAAgAHMAdABlAGwAbABhAHIAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAAoAGUALgBnAC4AIABcACIARwA3AC4AMwBcACIAKQAgAGYAbwByACAAYQAgAGcAaQB2AGUAbgAgAGUAZgBmAGUAYwB0AGkAdgBlACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAaQBuACAASwBlAGwAdgBpAG4ALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgAgAEEAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIABlAHMAdABpAG0AYQB0AGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAsACAAbwBwAHQAaQBvAG4AYQBsAGwAeQAgAHcAaQB0AGgAIABkAGUAYwBpAG0AYQBsACAAcAByAGUAYwBpAHMAaQBvAG4ALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAHQAZQBtAHAAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAbgB1AG0AZQByAGkAYwAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgAGkAbgAgAEsAZQBsAHYAaQBuAC4AXABuACAAIAAgAC0AIABkAGUAYwBpAG0AYQBsAHMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAGkAbgBjAGwAdQBkAGUAIABpAG4AIAB0AGgAZQAgAHMAdQBiAGMAbABhAHMAcwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIABtAGEAdABjAGgAZQBzACAAdABoAGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAB0AG8AIAB0AGgAZQAgAGMAbwByAHIAZQBjAHQAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAByAGEAbgBnAGUAIABiAHkAIABjAGgAZQBjAGsAaQBuAGcAIAB3AGgAaQBjAGgAIABoAGkAZwBoAC0AdABlAG0AcAAgAGIAYQBuAGQAIABpAHQAIABmAGEAbABsAHMAIAB3AGkAdABoAGkAbgAuAFwAbgAgACAAIAAtACAASQB0ACAAdABoAGUAbgAgAGwAaQBuAGUAYQByAGwAeQAgAGkAbgB0AGUAcgBwAG8AbABhAHQAZQBzACAAdABoAGUAIABkAGUAYwBpAG0AYQBsACAAcABvAHIAdABpAG8AbgAgAG8AZgAgAHQAaABlACAAcwB1AGIAYwBsAGEAcwBzACAAdQBzAGkAbgBnADoAXABuACAAIAAgACAAIAAgACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAD0AIAAoAFQAXwBoAGkAZwBoACAALQAgAHQAZQBtAHAAKQAgAC8AIABzAHAAYQBuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAGgAYQByAGQAYwBvAGQAZQBkACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGMAaABvAHIAcwAgAGEAbgBkACAAcwBwAGEAbgBzACAAYQBjAHIAbwBzAHMAIABzAHAAZQBjAHQAcgBhAGwAIAB0AHkAcABlAHMAIABPADMAEyBNADkALgBcAG4AIAAgACAALQAgAFMAdQBwAHAAbwByAHQAcwAgAGgAaQBnAGgAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGEAbgBkACAAbgBvAHIAbQBhAGwAaQB6AGEAdABpAG8AbgAgAGYAbwByACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHMAdQBiAGMAbABhAHMAcwBlAHMAIABsAGkAawBlACAAXAAiAEsANAAuADMANwA2AFwAIgAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAKAA0ADIAMwAwADAAKQAgACAAIACSISAAXAAiAE8ANAAuADQAMAAwAFwAIgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACgANQA1ADIAOQApACAAIAAgACAAkiEgAFwAIgBHADcALgAzADAAMABcACIAXABuACAAIAAgAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAAoADYAMQAyADEALgA1ACkAIAAgAJIhIABcACIARgA4AC4ANAA1ADAAXAAiAFwAbgAgACAAIABBAFMAVABSAE8AXwBUAFkAUABFAF8ARgBSAE8ATQBfAFQARQBNAFAAKAAyADQANQA2ACwAIAAxACkAIACSISAAXAAiAE0AOAAuADYAXAAiAFwAbgBcAG4AIAAgACAARABlAHAAZQBuAGQAZQBuAGMAaQBlAHMAOgBcAG4AIAAgACAALQAgAFUAcwBlAHMAIABYAE0AQQBUAEMASAAgACsAIABNAEEAUAAgAGYAbwByACAAbABvAGcAaQBjAGEAbAAgAHIAYQBuAGcAZQAgAGQAZQB0AGUAYwB0AGkAbwBuAC4AXABuACAAIAAgAC0AIABBAHMAcwB1AG0AZQBzACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAZABlAGMAcgBlAGEAcwBlAHMAIABtAG8AbgBvAHQAbwBuAGkAYwBhAGwAbAB5ACAAYQBjAHIAbwBzAHMAIABzAHUAYgBjAGwAYQBzAHMAIABzAGUAcQB1AGUAbgBjAGUALgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFQAWQBQAEUAXwBGAFIATwBNAF8AVABFAE0AUAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQBtAHAALAAgAFsAZABlAGMAaQBtAGEAbABzAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAGEAcgBkAGMAbwBkAGUAZAAgAHMAcABlAGMAdAByAGEAbAAgAHMAdQBiAGMAbABhAHMAcwAgAGQAYQB0AGEAIAAtAC0ALQBcAG4AIAAgACAAIABhAHIAcgBUAHkAcABlAHMALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBPADMAXAAiADsAIABcACIATwA0AFwAIgA7ACAAXAAiAE8ANQBcACIAOwAgAFwAIgBPADYAXAAiADsAIABcACIATwA3AFwAIgA7ACAAXAAiAE8AOABcACIAOwAgAFwAIgBPADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBCADAAXAAiADsAIABcACIAQgAxAFwAIgA7ACAAXAAiAEIAMgBcACIAOwAgAFwAIgBCADMAXAAiADsAIABcACIAQgA0AFwAIgA7ACAAXAAiAEIANQBcACIAOwAgAFwAIgBCADYAXAAiADsAIABcACIAQgA3AFwAIgA7ACAAXAAiAEIAOABcACIAOwAgAFwAIgBCADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBBADAAXAAiADsAIABcACIAQQAxAFwAIgA7ACAAXAAiAEEAMgBcACIAOwAgAFwAIgBBADMAXAAiADsAIABcACIAQQA0AFwAIgA7ACAAXAAiAEEANQBcACIAOwAgAFwAIgBBADYAXAAiADsAIABcACIAQQA3AFwAIgA7ACAAXAAiAEEAOABcACIAOwAgAFwAIgBBADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBGADAAXAAiADsAIABcACIARgAxAFwAIgA7ACAAXAAiAEYAMgBcACIAOwAgAFwAIgBGADMAXAAiADsAIABcACIARgA0AFwAIgA7ACAAXAAiAEYANQBcACIAOwAgAFwAIgBGADYAXAAiADsAIABcACIARgA3AFwAIgA7ACAAXAAiAEYAOABcACIAOwAgAFwAIgBGADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBHADAAXAAiADsAIABcACIARwAxAFwAIgA7ACAAXAAiAEcAMgBcACIAOwAgAFwAIgBHADMAXAAiADsAIABcACIARwA0AFwAIgA7ACAAXAAiAEcANQBcACIAOwAgAFwAIgBHADYAXAAiADsAIABcACIARwA3AFwAIgA7ACAAXAAiAEcAOABcACIAOwAgAFwAIgBHADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBLADAAXAAiADsAIABcACIASwAxAFwAIgA7ACAAXAAiAEsAMgBcACIAOwAgAFwAIgBLADMAXAAiADsAIABcACIASwA0AFwAIgA7ACAAXAAiAEsANQBcACIAOwAgAFwAIgBLADYAXAAiADsAIABcACIASwA3AFwAIgA7ACAAXAAiAEsAOABcACIAOwAgAFwAIgBLADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBNADAAXAAiADsAIABcACIATQAxAFwAIgA7ACAAXAAiAE0AMgBcACIAOwAgAFwAIgBNADMAXAAiADsAIABcACIATQA0AFwAIgA7ACAAXAAiAE0ANQBcACIAOwAgAFwAIgBNADYAXAAiADsAIABcACIATQA3AFwAIgA7ACAAXAAiAE0AOABcACIAOwAgAFwAIgBNADkAXAAiAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAAYQByAHIAVABIAGkAZwBoACwAIAB7AFwAbgAgACAAIAAgACAAIAA0ADQAOQAwADAAOwAgADQAMgA5ADAAMAA7ACAANAAxADQAMAAwADsAIAAzADkANQAwADAAOwAgADMANwAxADAAMAA7ACAAMwA1ADEAMAAwADsAIAAzADMAMwAwADAAOwBcAG4AIAAgACAAIAAgACAAMwAxADQAMAAwADsAIAAyADYAMAAwADAAOwAgADIAMAA2ADAAMAA7ACAAMQA3ADAAMAAwADsAIAAxADYANAAwADAAOwAgADEANQA3ADAAMAA7ACAAMQA0ADUAMAAwADsAIAAxADQAMAAwADAAOwAgADEAMgAzADAAMAA7ACAAMQAwADcAMAAwADsAXABuACAAIAAgACAAIAAgADkANwAwADAAOwAgADkAMwAwADAAOwAgADgAOAAwADAAOwAgADgANgAwADAAOwAgADgAMgA1ADAAOwAgADgAMQAwADAAOwAgADcAOQAxADAAOwAgADcANwA2ADAAOwAgADcANQA5ADAAOwAgADcANAAwADAAOwBcAG4AIAAgACAAIAAgACAANwAyADIAMAA7ACAANwAwADIAMAA7ACAANgA4ADIAMAA7ACAANgA3ADUAMAA7ACAANgA2ADcAMAA7ACAANgA1ADUAMAA7ACAANgAzADUAMAA7ACAANgAyADgAMAA7ACAANgAxADgAMAA7AFwAbgAgACAAIAAgACAAIAA2ADAANQAwADsAIAA1ADkAMwAwADsAIAA1ADgANgAwADsAIAA1ADcANwAwADsAIAA1ADcAMgAwADsAIAA1ADYAOAAwADsAIAA1ADYANgAwADsAIAA1ADYAMAAwADsAIAA1ADUANQAwADsAIAA1ADQAOAAwADsAXABuACAAIAAgACAAIAAgADUAMwA4ADAAOwAgADUAMgA3ADAAOwAgADUAMQA3ADAAOwAgADUAMQAwADAAOwAgADQAOAAzADAAOwAgADQANgAwADAAOwAgADQANAA0ADAAOwAgADQAMwAwADAAOwAgADQAMQAwADAAOwAgADMAOQA5ADAAOwBcAG4AIAAgACAAIAAgACAAMwA5ADMAMAA7ACAAMwA4ADUAMAA7ACAAMwA2ADYAMAA7ACAAMwA1ADYAMAA7ACAAMwA0ADMAMAA7ACAAMwAyADEAMAA7ACAAMwAwADYAMAA7ACAAMgA4ADEAMAA7ACAAMgA2ADgAMAA7ACAAMgA1ADcAMAA7ACAAMgAzADgAMABcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAGEAcgByAFMAcABhAG4ALAAgAHsAXABuACAAIAAgACAAIAAgADIAMAAwADAAOwAgADEANQAwADAAOwAgADEAOQAwADAAOwAgADIANAAwADAAOwAgADIAMAAwADAAOwAgADEAOAAwADAAOwAgADEAOQAwADAAOwBcAG4AIAAgACAAIAAgACAANQA0ADAAMAA7ACAANQA0ADAAMAA7ACAAMwA2ADAAMAA7ACAANgAwADAAOwAgADcAMAAwADsAIAAxADIAMAAwADsAIAA1ADAAMAA7ACAAMQA3ADAAMAA7ACAAMQA2ADAAMAA7ACAAMQAwADAAMAA7AFwAbgAgACAAIAAgACAAIAA0ADAAMAA7ACAANQAwADAAOwAgADIAMAAwADsAIAAzADUAMAA7ACAAMQA1ADAAOwAgADEAOQAwADsAIAAxADUAMAA7ACAAMQA3ADAAOwAgADEAOQAwADsAIAAxADgAMAA7AFwAbgAgACAAIAAgACAAIAAyADAAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAOAAwADsAIAAxADIAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAMQAwADAAOwAgADEAMwAwADsAXABuACAAIAAgACAAIAAgADEAMgAwADsAIAA3ADAAOwAgADkAMAA7ACAANQAwADsAIAA0ADAAOwAgADIAMAA7ACAANgAwADsAIAA1ADAAOwAgADcAMAA7ACAAMQAwADAAOwBcAG4AIAAgACAAIAAgACAAMQAxADAAOwAgADEAMAAwADsAIAA3ADAAOwAgADIANwAwADsAIAAyADMAMAA7ACAAMQA2ADAAOwAgADEANAAwADsAIAAyADAAMAA7ACAAMQAxADAAOwAgADYAMAA7AFwAbgAgACAAIAAgACAAIAA4ADAAOwAgADEAOQAwADsAIAAxADAAMAA7ACAAMQAzADAAOwAgADIAMgAwADsAIAAxADUAMAA7ACAAMgA1ADAAOwAgADEAMwAwADsAIAAxADEAMAA7ACAAMQA5ADAAOwAgADIAOAAwAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABEAGUAdABlAHIAbQBpAG4AZQAgAG0AYQB0AGMAaAAgAGkAbgBkAGUAeAAgAC0ALQAtAFwAbgAgACAAIAAgAHQAZQBtAHAAXwBpAG4AXwByAGEAbgBnAGUALABcAG4AIAAgACAAIAAgACAATQBBAFAAKABTAEUAUQBVAEUATgBDAEUAKABSAE8AVwBTACgAYQByAHIAVABIAGkAZwBoACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABpACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAQQBOAEQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAYQByAHIAVABIAGkAZwBoACwAIABpACkAIAA+AD0AIAB0AGUAbQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAZQBtAHAAIAA+ACAASQBOAEQARQBYACgAYQByAHIAVABIAGkAZwBoACwAIABpACkAIAAtACAASQBOAEQARQBYACgAYQByAHIAUwBwAGEAbgAsACAAaQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAaQBkAHgALAAgAFgATQBBAFQAQwBIACgAVABSAFUARQAsACAAdABlAG0AcABfAGkAbgBfAHIAYQBuAGcAZQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAATABvAG8AawB1AHAAIAB0AHkAcABlACAAYQBuAGQAIABjAG8AbQBwAHUAdABlACAAZgByAGEAYwB0AGkAbwBuACAALQAtAC0AXABuACAAIAAgACAAZgB1AGwAbABfAHQAeQBwAGUALAAgAEkATgBEAEUAWAAoAGEAcgByAFQAeQBwAGUAcwAsACAAaQBkAHgAKQAsAFwAbgAgACAAIAAgAFQAXwBoAGkAZwBoACwAIABJAE4ARABFAFgAKABhAHIAcgBUAEgAaQBnAGgALAAgAGkAZAB4ACkALABcAG4AIAAgACAAIABzAHAAYQBuACwAIABJAE4ARABFAFgAKABhAHIAcgBTAHAAYQBuACwAIABpAGQAeAApACwAXABuACAAIAAgACAAZgAsACAAKABUAF8AaABpAGcAaAAgAC0AIAB0AGUAbQBwACkAIAAvACAAcwBwAGEAbgAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAEYAbwByAG0AYQB0ACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIAAtAC0ALQBcAG4AIAAgACAAIABkAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABzACkALABcAG4AIAAgACAAIABmAG8AcgBtAGEAdABfAHMAdAByAGkAbgBnACwAIABcACIALgBcACIAIAAmACAAUgBFAFAAVAAoAFwAIgAwAFwAIgAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgAHMAdQBiAGMAbABhAHMAcwAsACAAZgB1AGwAbABfAHQAeQBwAGUAIAAmACAAVABFAFgAVAAoAGYALAAgAGYAbwByAG0AYQB0AF8AcwB0AHIAaQBuAGcAKQAsAFwAbgBcAG4AIAAgACAAIABzAHUAYgBjAGwAYQBzAHMAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABEAGkAcwBwAGwAYQB5AHMAIABzAHAAZQBjAHQAcgBhAGwAIABzAHUAYgBjAGwAYQBzAHMAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABhAG4AZAAgAHMAcABhAG4AIABkAGEAdABhACAAYQBjAHIAbwBzAHMAIABzAHQAZQBsAGwAYQByACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuAHMALgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQwBhAG4AIAByAGUAdAB1AHIAbgAgAGUAaQB0AGgAZQByACAAdABoAGUAIABmAHUAbABsACAAcwBwAGUAYwB0AHIAYQBsACAAbQBhAHQAcgBpAHgAIAAoAE8AMwATIE0AOQApACAAbwByACAAYQAgAGYAaQBsAHQAZQByAGUAZAAgAHQAdwBvAC0AYwBvAGwAdQBtAG4AIAB2AGkAZQB3AC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAIABcAG4AIAAgACAALQAgAEkAZgAgAHQAeQBwAGUAIABpAHMAIABvAG0AaQB0AHQAZQBkADoAIABXAGkAZABlACAAbQBhAHQAcgBpAHgAIABvAGYAIABzAHAAZQBjAHQAcgBhAGwAIABjAGwAYQBzAHMAZQBzACAAKABPACAAdABvACAATQApACwAIAAxADAAIABzAHUAYgBjAGwAYQBzAHMAZQBzACAAZQBhAGMAaABcAG4AIAAgACAALQAgAEkAZgAgAHQAeQBwAGUAIABpAHMAIABwAHIAbwB2AGkAZABlAGQAOgAgAFQAdwBvAC0AYwBvAGwAdQBtAG4AIAB0AGEAYgBsAGUAIAB3AGkAdABoACAAVABlAG0AcABlAHIAYQB0AHUAcgBlACAAYQBuAGQAIABTAHAAYQBuACAAZgBvAHIAIAB0AGgAZQAgAHIAZQBxAHUAZQBzAHQAZQBkACAAYwBsAGEAcwBzAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAdAB5AHAAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AbgBlACAAbwBmACAAewBcACIATwBcACIALABcACIAQgBcACIALABcACIAQQBcACIALABcACIARgBcACIALABcACIARwBcACIALABcACIASwBcACIALABcACIATQBcACIAfQAgAHQAbwAgAGwAaQBtAGkAdAAgAG8AdQB0AHAAdQB0ACAAdABvACAAdABoAGEAdAAgAHMAcABlAGMAdAByAGEAbAAgAGcAcgBvAHUAcABcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVABlAG0AcABlAHIAYQB0AHUAcgBlAHMAIABhAHIAZQAgAGgAaQBnAGgALQBlAG4AZAAgAHYAYQBsAHUAZQBzACAAZgBvAHIAIABlAGEAYwBoACAAcwB1AGIAYwBsAGEAcwBzACAAKAByAGUAYQBsAC0AdwBvAHIAbABkACAAaQBuAHMAcABpAHIAZQBkACwAIABzAG0AbwBvAHQAaABlAGQAIABkAGEAdABhACkALgBcAG4AIAAgACAALQAgAFMAcABhAG4AIABpAHMAIAB0AGgAZQAgAEsAZQBsAHYAaQBuACAAZABpAGYAZgBlAHIAZQBuAGMAZQAgAGIAZQB0AHcAZQBlAG4AIABhACAAcwB1AGIAYwBsAGEAcwBzACAAYQBuAGQAIAB0AGgAZQAgAG4AZQB4AHQAIABjAG8AbwBsAGUAcgAgAG8AbgBlAC4AXABuACAAIAAgAC0AIABJAGYAIABuAG8AIAB0AHkAcABlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQALAAgAG8AdQB0AHAAdQB0ACAAaQBzACAAbwByAGcAYQBuAGkAegBlAGQAIABhAHMAIABhACAAdgBpAHMAdQBhAGwAIAByAGUAZgBlAHIAZQBuAGMAZQAgAHQAYQBiAGwAZQAuAFwAbgAgACAAIAAtACAAVQBzAGUAcwAgAFYAUwBUAEEAQwBLACAAYQBuAGQAIABIAFMAVABBAEMASwAgAGkAbgB0AGUAcgBuAGEAbABsAHkAIABmAG8AcgAgAGMAbABlAGEAbgAgAHMAdAByAHUAYwB0AHUAcgBlADsAIAByAGUAcABsAGEAYwBlAHMAIABwAHIAZQB2AGkAbwB1AHMAIABzAGUAcABhAHIAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AcwAuAFwAbgAgACAAIAAtACAAVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAHMAdQBwAGUAcgBzAGUAZABlAHMAOgAgAEEAUwBUAFIATwBfAEQASQBTAFAATABBAFkAXwBCAEEAUwBFAF8ARABBAFQAQQAsACAAXwBTAEUAUABBAFIAQQBUAEUARAAsACAAYQBuAGQAIABfAEIAWQBfAFQAWQBQAEUALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAoACkAIAAgACAAIAAgACAAIAAgAJIhIABSAGUAdAB1AHIAbgBzACAAZgB1AGwAbAAgAE8AMwATIE0AOQAgAHMAdQBiAGMAbABhAHMAcwAgAGMAaABhAHIAdABcAG4AIAAgACAAQQBTAFQAUgBPAF8ARABJAFMAUABMAEEAWQBfAFMAUABFAEMAVABSAEEATAAoAFwAIgBHAFwAIgApACAAIAAgACAAIACSISAAUgBlAHQAdQByAG4AcwAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgAGEAbgBkACAAcwBwAGEAbgAgAGYAbwByACAARwAwABMgRwA5AFwAbgAgACAAIABBAFMAVABSAE8AXwBEAEkAUwBQAEwAQQBZAF8AUwBQAEUAQwBUAFIAQQBMACgAXAAiAEYAXAAiACkAIAAgACAAIAAgAJIhIABGADAAEyBGADkAIABjAGwAYQBzAHMAaQBmAGkAYwBhAHQAaQBvAG4AIABtAGUAdAByAGkAYwBzAFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBEAEkAUwBQAEwAQQBZAF8AUwBQAEUAQwBUAFIAQQBMACAAPQAgAEwAQQBNAEIARABBACgAWwB0AHkAcABlAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAALQAtAC0AIABEAGUAZgBpAG4AZQAgAHMAcABlAGMAdAByAGEAbAAgAHQAeQBwAGUAcwAgAGEAbgBkACAAYgB1AGkAbABkACAAaABlAGwAcABlAHIAcwAgAC0ALQAtAFwAbgAgACAAIAAgAFQAeQBwAGUAcwAsACAAewBcACIATwBcACIAOwBcACIAQgBcACIAOwBcACIAQQBcACIAOwBcACIARgBcACIAOwBcACIARwBcACIAOwBcACIASwBcACIAOwBcACIATQBcACIAfQAsAFwAbgAgACAAIAAgAEgAZQBhAGQAZQByAHMALAAgAFQAUgBBAE4AUwBQAE8AUwBFACgAVgBTAFQAQQBDAEsAKABcACIAIABcACIALAAgAFQAeQBwAGUAcwApACkALABcAG4AIAAgACAAIABGAGkAbgBkAEMAbwBsACwAIABNAEEASwBFAEEAUgBSAEEAWQAoAEMATwBVAE4AVABBACgAVAB5AHAAZQBzACkALAAgADIALAAgAEwAQQBNAEIARABBACgAcgAsACAAYwAsACAASQBGACgAYwAgAD0AIAAxACwAIABJAE4ARABFAFgAKABUAHkAcABlAHMALAAgAHIAKQAsACAAcgApACkAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAFIAYQB3ACAAcwB0AGEAcgAgAHMAdQBiAGMAbABhAHMAcwAgAGQAYQB0AGEAIAAtAC0ALQBcAG4AIAAgACAAIABhAHIAcgBUAHkAcABlAHMALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBPAFwAIgA7ACAAXAAiAE8AXAAiADsAIABcACIATwBcACIAOwAgAFwAIgBPADMAXAAiADsAIABcACIATwA0AFwAIgA7ACAAXAAiAE8ANQBcACIAOwAgAFwAIgBPADYAXAAiADsAIABcACIATwA3AFwAIgA7ACAAXAAiAE8AOABcACIAOwAgAFwAIgBPADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBCADAAXAAiADsAIABcACIAQgAxAFwAIgA7ACAAXAAiAEIAMgBcACIAOwAgAFwAIgBCADMAXAAiADsAIABcACIAQgA0AFwAIgA7ACAAXAAiAEIANQBcACIAOwAgAFwAIgBCADYAXAAiADsAIABcACIAQgA3AFwAIgA7ACAAXAAiAEIAOABcACIAOwAgAFwAIgBCADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBBADAAXAAiADsAIABcACIAQQAxAFwAIgA7ACAAXAAiAEEAMgBcACIAOwAgAFwAIgBBADMAXAAiADsAIABcACIAQQA0AFwAIgA7ACAAXAAiAEEANQBcACIAOwAgAFwAIgBBADYAXAAiADsAIABcACIAQQA3AFwAIgA7ACAAXAAiAEEAOABcACIAOwAgAFwAIgBBADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBGADAAXAAiADsAIABcACIARgAxAFwAIgA7ACAAXAAiAEYAMgBcACIAOwAgAFwAIgBGADMAXAAiADsAIABcACIARgA0AFwAIgA7ACAAXAAiAEYANQBcACIAOwAgAFwAIgBGADYAXAAiADsAIABcACIARgA3AFwAIgA7ACAAXAAiAEYAOABcACIAOwAgAFwAIgBGADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBHADAAXAAiADsAIABcACIARwAxAFwAIgA7ACAAXAAiAEcAMgBcACIAOwAgAFwAIgBHADMAXAAiADsAIABcACIARwA0AFwAIgA7ACAAXAAiAEcANQBcACIAOwAgAFwAIgBHADYAXAAiADsAIABcACIARwA3AFwAIgA7ACAAXAAiAEcAOABcACIAOwAgAFwAIgBHADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBLADAAXAAiADsAIABcACIASwAxAFwAIgA7ACAAXAAiAEsAMgBcACIAOwAgAFwAIgBLADMAXAAiADsAIABcACIASwA0AFwAIgA7ACAAXAAiAEsANQBcACIAOwAgAFwAIgBLADYAXAAiADsAIABcACIASwA3AFwAIgA7ACAAXAAiAEsAOABcACIAOwAgAFwAIgBLADkAXAAiADsAXABuACAAIAAgACAAIAAgAFwAIgBNADAAXAAiADsAIABcACIATQAxAFwAIgA7ACAAXAAiAE0AMgBcACIAOwAgAFwAIgBNADMAXAAiADsAIABcACIATQA0AFwAIgA7ACAAXAAiAE0ANQBcACIAOwAgAFwAIgBNADYAXAAiADsAIABcACIATQA3AFwAIgA7ACAAXAAiAE0AOABcACIAOwAgAFwAIgBNADkAXAAiAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAAYQByAHIAVABIAGkAZwBoACwAIAB7AFwAbgAgACAAIAAgACAAIABcACIAXAAiADsAIABcACIAXAAiADsAIABcACIAXAAiADsAIAA0ADQAOQAwADAAOwAgADQAMgA5ADAAMAA7ACAANAAxADQAMAAwADsAIAAzADkANQAwADAAOwAgADMANwAxADAAMAA7ACAAMwA1ADEAMAAwADsAIAAzADMAMwAwADAAOwBcAG4AIAAgACAAIAAgACAAMwAxADQAMAAwADsAIAAyADYAMAAwADAAOwAgADIAMAA2ADAAMAA7ACAAMQA3ADAAMAAwADsAIAAxADYANAAwADAAOwAgADEANQA3ADAAMAA7ACAAMQA0ADUAMAAwADsAIAAxADQAMAAwADAAOwAgADEAMgAzADAAMAA7ACAAMQAwADcAMAAwADsAXABuACAAIAAgACAAIAAgADkANwAwADAAOwAgADkAMwAwADAAOwAgADgAOAAwADAAOwAgADgANgAwADAAOwAgADgAMgA1ADAAOwAgADgAMQAwADAAOwAgADcAOQAxADAAOwAgADcANwA2ADAAOwAgADcANQA5ADAAOwAgADcANAAwADAAOwBcAG4AIAAgACAAIAAgACAANwAyADIAMAA7ACAANwAwADIAMAA7ACAANgA4ADIAMAA7ACAANgA3ADUAMAA7ACAANgA2ADcAMAA7ACAANgA1ADUAMAA7ACAANgAzADUAMAA7ACAANgAyADgAMAA7ACAANgAxADgAMAA7AFwAbgAgACAAIAAgACAAIAA2ADAANQAwADsAIAA1ADkAMwAwADsAIAA1ADgANgAwADsAIAA1ADcANwAwADsAIAA1ADcAMgAwADsAIAA1ADYAOAAwADsAIAA1ADYANgAwADsAIAA1ADYAMAAwADsAIAA1ADUANQAwADsAIAA1ADQAOAAwADsAXABuACAAIAAgACAAIAAgADUAMwA4ADAAOwAgADUAMgA3ADAAOwAgADUAMQA3ADAAOwAgADUAMQAwADAAOwAgADQAOAAzADAAOwAgADQANgAwADAAOwAgADQANAA0ADAAOwAgADQAMwAwADAAOwAgADQAMQAwADAAOwAgADMAOQA5ADAAOwBcAG4AIAAgACAAIAAgACAAMwA5ADMAMAA7ACAAMwA4ADUAMAA7ACAAMwA2ADYAMAA7ACAAMwA1ADYAMAA7ACAAMwA0ADMAMAA7ACAAMwAyADEAMAA7ACAAMwAwADYAMAA7ACAAMgA4ADEAMAA7ACAAMgA2ADgAMAA7ACAAMgA1ADcAMAA7ACAAMgAzADgAMABcAG4AIAAgACAAIAB9ACwAXABuAFwAbgAgACAAIAAgAGEAcgByAFMAcABhAG4ALAAgAHsAXABuACAAIAAgACAAIAAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgAFwAIgBcACIAOwAgADIAMAAwADAAOwAgADEANQAwADAAOwAgADEAOQAwADAAOwAgADIANAAwADAAOwAgADIAMAAwADAAOwAgADEAOAAwADAAOwAgADEAOQAwADAAOwBcAG4AIAAgACAAIAAgACAANQA0ADAAMAA7ACAANQA0ADAAMAA7ACAAMwA2ADAAMAA7ACAANgAwADAAOwAgADcAMAAwADsAIAAxADIAMAAwADsAIAA1ADAAMAA7ACAAMQA3ADAAMAA7ACAAMQA2ADAAMAA7ACAAMQAwADAAMAA7AFwAbgAgACAAIAAgACAAIAA0ADAAMAA7ACAANQAwADAAOwAgADIAMAAwADsAIAAzADUAMAA7ACAAMQA1ADAAOwAgADEAOQAwADsAIAAxADUAMAA7ACAAMQA3ADAAOwAgADEAOQAwADsAIAAxADgAMAA7AFwAbgAgACAAIAAgACAAIAAyADAAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAOAAwADsAIAAxADIAMAA7ACAAMgAwADAAOwAgADcAMAA7ACAAMQAwADAAOwAgADEAMwAwADsAXABuACAAIAAgACAAIAAgADEAMgAwADsAIAA3ADAAOwAgADkAMAA7ACAANQAwADsAIAA0ADAAOwAgADIAMAA7ACAANgAwADsAIAA1ADAAOwAgADcAMAA7ACAAMQAwADAAOwBcAG4AIAAgACAAIAAgACAAMQAxADAAOwAgADEAMAAwADsAIAA3ADAAOwAgADIANwAwADsAIAAyADMAMAA7ACAAMQA2ADAAOwAgADEANAAwADsAIAAyADAAMAA7ACAAMQAxADAAOwAgADYAMAA7AFwAbgAgACAAIAAgACAAIAA4ADAAOwAgADEAOQAwADsAIAAxADAAMAA7ACAAMQAzADAAOwAgADIAMgAwADsAIAAxADUAMAA7ACAAMgA1ADAAOwAgADEAMwAwADsAIAAxADEAMAA7ACAAMQA5ADAAOwAgADIAOAAwAFwAbgAgACAAIAAgAH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABJAGYAIABuAG8AIAB0AHkAcABlACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQALAAgAGQAaQBzAHAAbABhAHkAIABmAHUAbABsACAAdABhAGIAbABlACAALQAtAC0AXABuACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAAQgBZAFIATwBXACgASABTAFQAQQBDAEsAKABhAHIAcgBUAHkAcABlAHMALAAgAGEAcgByAFQASABpAGcAaAAsACAAYQByAHIAUwBwAGEAbgApACwAXABuACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAcgBvAHcALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIABUAFIAVQBFACwAIABUAEUAWABUACgASQBOAEQARQBYACgAcgBvAHcALAAgADIAKQAsACAAXAAiADAAXAAiACkALAAgAFQARQBYAFQAKABJAE4ARABFAFgAKAByAG8AdwAsACAAMwApACwAIABcACIAMABcACIAKQApACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABOAHUAbQBiAGUAcgBzACwAIABTAEUAUQBVAEUATgBDAEUAKAAxADAALAAxACwAMAAsADEAKQAsAFwAbgAgACAAIAAgAE8AXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBPAFwAIgApACwAXABuACAAIAAgACAAQgBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAEIAXAAiACkALABcAG4AIAAgACAAIABBAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIAQQBcACIAKQAsAFwAbgAgACAAIAAgAEYAXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBGAFwAIgApACwAXABuACAAIAAgACAARwBfAFMAdABhAHIAcwAsACAARgBJAEwAVABFAFIAKABmAG8AcgBtAGEAdAB0AGUAZABEAGEAdABhACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAMQApAD0AXAAiAEcAXAAiACkALABcAG4AIAAgACAAIABLAF8AUwB0AGEAcgBzACwAIABGAEkATABUAEUAUgAoAGYAbwByAG0AYQB0AHQAZQBkAEQAYQB0AGEALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAxACkAPQBcACIASwBcACIAKQAsAFwAbgAgACAAIAAgAE0AXwBTAHQAYQByAHMALAAgAEYASQBMAFQARQBSACgAZgBvAHIAbQBhAHQAdABlAGQARABhAHQAYQAsACAATABFAEYAVAAoAGEAcgByAFQAeQBwAGUAcwAsADEAKQA9AFwAIgBNAFwAIgApACwAXABuAFwAbgAgACAAIAAgAGYAdQBsAGwAVABhAGIAbABlACwAIABWAFMAVABBAEMASwAoAEgAZQBhAGQAZQByAHMALAAgAEgAUwBUAEEAQwBLACgATgB1AG0AYgBlAHIAcwAsAE8AXwBTAHQAYQByAHMALAAgAEIAXwBTAHQAYQByAHMALAAgAEEAXwBTAHQAYQByAHMALAAgAEYAXwBTAHQAYQByAHMALAAgAEcAXwBTAHQAYQByAHMALAAgAEsAXwBTAHQAYQByAHMALAAgAE0AXwBTAHQAYQByAHMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAASQBmACAAdAB5AHAAZQAgAGkAcwAgAHMAcABlAGMAaQBmAGkAZQBkACwAIABqAHUAcwB0ACAAcgBlAHQAdQByAG4AIAB0AHcAbwAtAGMAbwBsAHUAbQBuACAAYgByAGUAYQBrAGQAbwB3AG4AIAAtAC0ALQBcAG4AIAAgACAAIAB0AGUAbQBwAHMALAAgAEYASQBMAFQARQBSACgAYQByAHIAVABIAGkAZwBoACwAIABMAEUARgBUACgAYQByAHIAVAB5AHAAZQBzACwAIAAxACkAIAA9ACAAdAB5AHAAZQApACwAXABuACAAIAAgACAAcwBwAGEAbgBzACwAIABGAEkATABUAEUAUgAoAGEAcgByAFMAcABhAG4ALAAgAEwARQBGAFQAKABhAHIAcgBUAHkAcABlAHMALAAgADEAKQAgAD0AIAB0AHkAcABlACkALABcAG4AIAAgACAAIAB0AHkAcABlAEgAZQBhAGQALAAgAEgAUwBUAEEAQwBLACgAdAB5AHAAZQAsACAAXAAiAHMAcABhAG4AXAAiACkALABcAG4AIAAgACAAIABzAGwAaQBtAFQAYQBiAGwAZQAsACAAVgBTAFQAQQBDAEsAKAB0AHkAcABlAEgAZQBhAGQALAAgAEgAUwBUAEEAQwBLACgAdABlAG0AcABzACwAIABzAHAAYQBuAHMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAARgBpAG4AYQBsACAAbwB1AHQAcAB1AHQAOgAgAGYAdQBsAGwAIAB0AGEAYgBsAGUAIABvAHIAIABmAGkAbAB0AGUAcgBlAGQAIABjAG8AbAB1AG0AbgBzAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABJAFMAQgBMAEEATgBLACgAdAB5AHAAZQApACwAIABmAHUAbABsAFQAYQBiAGwAZQAsACAAcwBsAGkAbQBUAGEAYgBsAGUAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFMAVABBAFIAXwBBAFQAVABSAEkAQgBVAFQARQBTAFwAbgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAGEAbABjAHUAbABhAHQAZQBzACAAYQBsAGwAIABrAGUAeQAgAHMAdABlAGwAbABhAHIAIABwAGEAcgBhAG0AZQB0AGUAcgBzACAAZgByAG8AbQAgAGEAIABzAGkAbgBnAGwAZQAgAGsAbgBvAHcAbgAgAHYAYQBsAHUAZQAgABQgIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUALAAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAXABuACAAIAAgAGwAdQBtAGkAbgBvAHMAaQB0AHkALAAgAG8AcgAgAGwAaQBmAGUAdABpAG0AZQAgABQgIAB1AHMAaQBuAGcAIABlAG0AcABpAHIAaQBjAGEAbAAgAHAAbwB3AGUAcgAtAGwAYQB3ACAAcwBjAGEAbABpAG4AZwAgAHIAZQBsAGEAdABpAG8AbgBzAGgAaQBwAHMAIABiAGEAcwBlAGQAIABvAG4AIAB0AGgAZQAgAFMAdQBuAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABtAG8AZABlACAAIAAgACAAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAcwB0AHIAaQBuAGcAIABpAG4AZABpAGMAYQB0AGkAbgBnACAAdABoAGUAIABpAG4AcAB1AHQAIABhAHQAdAByAGkAYgB1AHQAZQAgAHQAeQBwAGUAOgBcAG4AIAAgACAAIAAgACAAIABcACIASwBcACIAIAAUICAARQBmAGYAZQBjAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAEsAZQBsAHYAaQBuACkAXABuACAAIAAgACAAIAAgACAAXAAiAFQAXAAiACAAFCAgAE4AbwByAG0AYQBsAGkAegBlAGQAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAFQAIAAvACAANQA3ADcAMAAgAEsAKQBcAG4AIAAgACAAIAAgACAAIABcACIATQBcACIAIAAUICAATQBhAHMAcwAgACgAcwBvAGwAYQByACAAdQBuAGkAdABzACkAXABuACAAIAAgACAAIAAgACAAXAAiAFIAXAAiACAAFCAgAFIAYQBkAGkAdQBzACAAKABzAG8AbABhAHIAIAB1AG4AaQB0AHMAKQBcAG4AIAAgACAAIAAgACAAIABcACIATABcACIAIAAUICAATAB1AG0AaQBuAG8AcwBpAHQAeQAgACgAcwBvAGwAYQByACAAdQBuAGkAdABzACkAXABuACAAIAAgACAAIAAgACAAXAAiAFYAXAAiACAAFCAgAE0AYQBpAG4ALQBzAGUAcQB1AGUAbgBjAGUAIABsAGkAZgBlAHQAaQBtAGUAIAAoAHMAbwBsAGEAcgAgAHUAbgBpAHQAcwApAFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAIAAgACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAaQBuAHAAdQB0ACAAYQB0AHQAcgBpAGIAdQB0AGUAIAAoAG0AdQBzAHQAIABtAGEAdABjAGgAIAB0AGgAZQAgAG0AbwBkAGUAKQAuAFwAbgAgACAAIAAtACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAHQAbwAgAHIAbwB1AG4AZAAgAG8AdQB0AHAAdQB0ACAAdgBhAGwAdQBlAHMALgAgAEQAZQBmAGEAdQBsAHQAIAA9ACAANgAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAdAB3AG8ALQBjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAgAHcAaQB0AGgAIABsAGEAYgBlAGwAZQBkACAAcwB0AGUAbABsAGEAcgAgAHAAYQByAGEAbQBlAHQAZQByAHMAIAAoAEsALAAgAFQALAAgAE0ALAAgAFIALAAgAEwALAAgAFYAKQAsAFwAbgAgACAAIAB3AGkAdABoACAAdABoAGUAIABpAG4AcAB1AHQAIABhAHQAdAByAGkAYgB1AHQAZQAgAGYAbABhAGcAZwBlAGQAIAB3AGkAdABoACAAYQAgAJQnIABhAHIAcgBvAHcAIABmAG8AcgAgAGMAbABhAHIAaQB0AHkALgBcAG4AXABuACAAIAAgAE0AZQB0AGgAbwBkADoAXABuACAAIAAgAFQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAbgBvAHIAbQBhAGwAaQB6AGUAcwAgAHQAaABlACAAaQBuAHAAdQB0ACAAdgBhAGwAdQBlACAAdABvACAAYQAgAHMAbwBsAGEAcgAtAHIAZQBsAGEAdABpAHYAZQAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQAgACgAYABUAG4AbwByAG0AYAApAFwAbgAgACAAIABhAG4AZAAgAGQAZQByAGkAdgBlAHMAIAB0AGgAZQAgAHIAZQBtAGEAaQBuAGkAbgBnACAAcABhAHIAYQBtAGUAdABlAHIAcwAgAGYAcgBvAG0AIABlAG0AcABpAHIAaQBjAGEAbAAgAGUAeABwAG8AbgBlAG4AdABzADoAXABuAFwAbgAgACAAIAAtACAASwAgAD0AIABUAG4AbwByAG0AIADXACAANQA3ADcAMABcAG4AIAAgACAALQAgAE0AIAA9ACAAVABuAG8AcgBtALIAXABuACAAIAAgAC0AIABSACAAPQAgAFQAbgBvAHIAbQBeADEALgA4AFwAbgAgACAAIAAtACAATAAgAD0AIABUAG4AbwByAG0AXgA3AC4ANgBcAG4AIAAgACAALQAgAFYAIAA9ACAAVABuAG8AcgBtAF4AKAAtADUAKQBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUwBUAEEAUgBfAEEAVABUAFIASQBCAFUAVABFAFMAKABcACIASwBcACIALAAgADkAMQA3ADAALgA2ADAANQAyACwAIAAzACkAXABuAFwAbgAgACAAIABPAHUAdABwAHUAdAA6AFwAbgAgACAAIAAgACAASwAgAJQnIAAgACAAOQAxADcAMAAuADYAMAA1AFwAbgAgACAAIAAgACAAVAAgACAAIAAgACAAMQAuADUAOAA4AFwAbgAgACAAIAAgACAATQAgACAAIAAgACAAMgAuADUAMgAzAFwAbgAgACAAIAAgACAAUgAgACAAIAAgACAAMgAuADIAOQA2AFwAbgAgACAAIAAgACAATAAgACAAIAAgACAAMwAzAC4AMAAwADYAXABuACAAIAAgACAAIABWACAAIAAgACAAIAAwAC4AMQAwADEAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEIAYQBzAGUAZAAgAG8AbgAgAHMAaQBtAHAAbABpAGYAaQBlAGQAIABzAHQAZQBsAGwAYQByACAAcwBjAGEAbABpAG4AZwAgAGwAYQB3AHMAIAB1AHMAZQBkACAAaQBuACAAYQBzAHQAcgBvAHAAaAB5AHMAaQBjAHMAIABhAG4AZAAgAHcAbwByAGwAZABiAHUAaQBsAGQAaQBuAGcALgBcAG4AIAAgACAALQAgAEUAZgBmAGUAYwB0AGkAdgBlACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAaQBzACAAcwBjAGEAbABlAGQAIAB0AG8AIAA1ADcANwAwACAASwAgAGYAbwByACAAdABoAGUAIABTAHUAbgAgACgAcwB0AGEAbgBkAGEAcgBkACAAcwBvAGwAYQByACAAcgBlAGYAZQByAGUAbgBjAGUAKQAuAFwAbgAgACAAIAAtACAATABpAGYAZQB0AGkAbQBlACAAaQBzACAAYQBwAHAAcgBvAHgAaQBtAGEAdABlAGQAIABhAHMAIABhACAAcABvAHcAZQByACAAaQBuAHYAZQByAHMAZQAgAG8AZgAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQA6ACAAVgAgAB0iIABUAHsgdSAuAFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIABlAGQAdQBjAGEAdABpAG8AbgBhAGwALAAgAHMAcABlAGMAdQBsAGEAdABpAHYAZQAsACAAYQBuAGQAIABtAG8AZABlAGwAaQBuAGcAIABwAHUAcgBwAG8AcwBlAHMALgBcAG4AXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAFMAVABBAFIAXwBBAFQAVABSAEkAQgBVAFQARQBTACAAPQAgAEwAQQBNAEIARABBACgAbQBvAGQAZQAsACAAaQBuAHAAdQB0ACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAAUwBlAHQAIABkAGUAZgBhAHUAbAB0ACAAcgBvAHUAbgBkAGkAbgBnACAAcAByAGUAYwBpAHMAaQBvAG4AXABuACAAIAAgACAAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjAGkAcwBpAG8AbgApACwAIAA2ACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAHUAcABwAGUAcgAtAGMAYQBzAGUAIABmAG8AcgAgAGMAbwBuAHMAaQBzAHQAZQBuAGMAeQBcAG4AIAAgACAAIABtAG8AZABlACwAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AXABuACAAIAAgACAALwAvACAATgBvAHIAbQBhAGwAaQB6AGUAIABpAG4AcAB1AHQAIAB0AG8AIABzAG8AbABhAHIALQByAGUAbABhAHQAaQB2AGUAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIAAoAFQAbgBvAHIAbQApAFwAbgAgACAAIAAgAFQAbgBvAHIAbQAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcACIAVABcACIALAAgAGkAbgBwAHUAdAAsAFwAbgAgACAAIAAgACAAIABcACIASwBcACIALAAgAGkAbgBwAHUAdAAgAC8AIAA1ADcANwAwACwAXABuACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAAUwBRAFIAVAAoAGkAbgBwAHUAdAApACwAXABuACAAIAAgACAAIAAgAFwAIgBSAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgAMQAgAC8AIAAxAC4AOAApACwAXABuACAAIAAgACAAIAAgAFwAIgBMAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgAMQAgAC8AIAA3AC4ANgApACwAXABuACAAIAAgACAAIAAgAFwAIgBWAFwAIgAsACAAaQBuAHAAdQB0ACAAXgAgACgALQAxACAALwAgADUAKQAsAFwAbgAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAATgBvAHcAIABkAGUAcgBpAHYAZQAgAGEAbABsACAAbwB0AGgAZQByACAAYQB0AHQAcgBpAGIAdQB0AGUAcwAgAGYAcgBvAG0AIABUAG4AbwByAG0AXABuACAAIAAgACAASwAsACAAVABuAG8AcgBtACAAKgAgADUANwA3ADAALABcAG4AIAAgACAAIABNACwAIABUAG4AbwByAG0AIABeACAAMgAsAFwAbgAgACAAIAAgAFIALAAgAFQAbgBvAHIAbQAgAF4AIAAxAC4AOAAsAFwAbgAgACAAIAAgAEwALAAgAFQAbgBvAHIAbQAgAF4AIAA3AC4ANgAsAFwAbgAgACAAIAAgAFYALAAgAFQAbgBvAHIAbQAgAF4AIAAtADUALABcAG4AXABuACAAIAAgACAALwAvACAAUgBvAHUAbgBkACAAZQB2AGUAcgB5AHQAaABpAG4AZwAgAGEAbgBkACAAZgBvAHIAbQBhAHQAIABhAHMAIABzAHQAcgBpAG4AZwBzAFwAbgAgACAAIAAgAGwAYQBiAGUAbABzACwAIABUAFIAQQBOAFMAUABPAFMARQAoAHsAXAAiAEsAXAAiACwAIABcACIAVABcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAFIAXAAiACwAIABcACIATABcACIALAAgAFwAIgBWAFwAIgB9ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AF8AdgBhAGwAdQBlAHMALAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABLACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAFQAbgBvAHIAbQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABNACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAFIALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgATAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABWACwAIABwAHIAZQBjACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAATABhAGIAZQBsAHMAIAB3AGkAdABoACAAYQByAHIAbwB3ACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQAgAC0ALQAtAFwAbgAgACAAIAAgACAAIAAgACAAZgBsAGEAZwBnAGUAZABfAGwAYQBiAGUAbABzACwAIABCAFkAUgBPAFcAKABsAGEAYgBlAGwAcwAsACAATABBAE0AQgBEAEEAKAByAG8AdwAsACAASQBGACgAcgBvAHcAIAA9ACAAbQBvAGQAZQAsACAAcgBvAHcAIAAmACAAXAAiACAAlCdcACIALAAgAHIAbwB3ACkAKQApACwAXABuAFwAbgBcAG4AIAAgACAAIAAvAC8AIABSAGUAdAB1AHIAbgAgAGwAYQBiAGUAbABlAGQAIAB0AGEAYgBsAGUAXABuACAAIAAgACAAQwBIAE8ATwBTAEUAKAB7ADEALAAgADIAfQAsACAAZgBsAGEAZwBnAGUAZABfAGwAYQBiAGUAbABzACwAIABvAHUAdABwAHUAdABfAHYAYQBsAHUAZQBzACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUgBlAHQAdQByAG4AcwAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQAgAGQAYQB0AGEAIABiAGEAcwBlAGQAIABvAG4AIABzAHQAZQBsAGwAYQByACAAbAB1AG0AaQBuAG8AcwBpAHQAeQAuAFwAbgBcAG4AIAAgACAATQBvAGQAZQBzADoAXABuACAAIAAgAC0AIABcACIAVABBAEIATABFAFwAIgAgACAAIAAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAGYAdQBsAGwAIAB0AGEAYgBsAGUAIABvAGYAIABpAG4AbgBlAHIALwBvAHUAdABlAHIALwBhAHYAZwAvAHMAcABhAG4AIABkAGkAcwB0AGEAbgBjAGUAcwAgAGYAbwByACAAegBvAG4AZQBzACAAWgAwABMgWgA1AC4AXABuACAAIAAgAC0AIABcACIAVgBFAFIAVABJAEMAQQBMAFwAIgAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAHYAZQByAHQAaQBjAGEAbAAgAGwAaQBzAHQAIABvAGYAIABzAGMAYQBsAGUAZAAgAGQAaQBzAHQAYQBuAGMAZQBzACwAIAB3AGkAdABoACAATgAtAD4AIABtAGEAcgBrAGkAbgBnACAAdABoAGUAIABuAHUAYwBsAGUAYQBsACAAcgBhAGQAaQB1AHMALgBcAG4AIAAgACAALQAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgAgAJIhIABSAGUAdAB1AHIAbgBzACAAYQAgAGgAbwByAGkAegBvAG4AdABhAGwAIAByAG8AdwAgAG8AZgAgAHQAaABlACAAcwBhAG0AZQAgAHYAYQBsAHUAZQBzACAAZgBvAHIAIAB1AHMAZQAgAGkAbgAgAGkAbgBsAGkAbgBlACAAZABpAHMAcABsAGEAeQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAE8AbgBlACAAbwBmACAAXAAiAFQAQQBCAEwARQBcACIALAAgAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIABvAHIAIABcACIASABPAFIASQBaAE8ATgBUAEEATABcACIALgBcAG4AIAAgACAALQAgAGwAdQBtACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAUwB0AGUAbABsAGEAcgAgAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABpAG4AIABzAG8AbABhAHIAIAB1AG4AaQB0AHMALgAgAFIAZQBxAHUAaQByAGUAZAAgAGYAbwByACAAVgBFAFIAVABJAEMAQQBMACAAYQBuAGQAIABIAE8AUgBJAFoATwBOAFQAQQBMAC4AXABuACAAIAAgAC0AIABwAHIAZQBjAGkAcwBpAG8AbgAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE4AdQBtAGIAZQByACAAbwBmACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADMAKQBcAG4AXABuACAAIAAgAFoAbwBuAGUAcwAgACgAWgAwABMgWgA1ACkAIAByAGUAcAByAGUAcwBlAG4AdAAgAG4AZQBzAHQAZQBkACAAYwBpAHIAYwB1AG0AcwB0AGUAbABsAGEAcgAgAGgAYQBiAGkAdABhAGIAaQBsAGkAdAB5ACAAYgBhAG4AZABzADoAXABuACAAIAAgAC0AIABaADAAOgAgACgAdABvAG8AIABoAG8AdAApAFwAbgAgACAAIAAtACAAWgAxADoAIAAoAGkAbgBuAGUAcgAgAGUAZABnAGUAKQBcAG4AIAAgACAALQAgAFoAMgA6ACAAKABpAG4AbgBlAHIAIAB0AGUAbQBwAGUAcgBhAHQAZQApAFwAbgAgACAAIAAtACAAWgAzADoAIAAoAG8AdQB0AGUAcgAgAHQAZQBtAHAAZQByAGEAdABlACkAXABuACAAIAAgAC0AIABaADQAOgAgACgAbwB1AHQAZQByACAAZQBkAGcAZQApAFwAbgAgACAAIAAtACAAWgA1ADoAIAAoAHQAbwBvACAAYwBvAGwAZAApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQAgAHUAcwBhAGcAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAoAFwAIgBUAEEAQgBMAEUAXAAiACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgAFIAZQB0AHUAcgBuAHMAIABiAGEAcwBlACAAcgBlAGYAZQByAGUAbgBjAGUAIABjAGgAYQByAHQAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAFYARQBSAFQASQBDAEEATABcACIALAAgADEALgAyADUAKQAgACAAIACSISAAUgBlAHQAdQByAG4AcwAgAHYAZQByAHQAaQBjAGEAbAAgAGQAaQBzAHQAYQBuAGMAZQBzACAAcwBjAGEAbABlAGQAIAB0AG8AIABzAHQAYQByACAAdwBpAHQAaAAgAEwAIAA9ACAAMQAuADIANQBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAKABcACIASABPAFIASQBaAE8ATgBUAEEATABcACIALAAgADEALgAyADUAKQAgAJIhIABSAGUAdAB1AHIAbgBzACAAcwBhAG0AZQAgAGEAcwAgAHIAbwB3AFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABOAHUAYwBsAGUAYQBsACAAcgBhAGQAaQB1AHMAIABpAHMAIABzAHEAcgB0ACgATAApACAAYQBuAGQAIAB1AHMAZQBkACAAYQBzACAAYQBuAGMAaABvAHIAIABiAGUAdAB3AGUAZQBuACAAWgAyABMgWgAzAC4AXABuACAAIAAgAC0AIABJAG4AcAB1AHQAIABpAHMAIABpAGcAbgBvAHIAZQBkACAAZgBvAHIAIABtAG8AZABlACAAXAAiAFQAQQBCAEwARQBcACIALgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAG8AZABlACwAIABbAGwAdQBtAF0ALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgADMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AXABuACAAIAAgACAALwAvACAAWgBvAG4AZQAgAGMAbwBlAGYAZgBpAGMAaQBlAG4AdABzAFwAbgAgACAAIAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAWgAwAFwAIgA7ACAAXAAiAFoAMQBcACIAOwAgAFwAIgBaADIAXAAiADsAIABcACIAWgAzAFwAIgA7ACAAXAAiAFoANABcACIAOwAgAFwAIgBaADUAXAAiAH0ALABcAG4AIAAgACAAIABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAB7ADAAOwAgADAALgA1ADsAIAAwAC4ANwA1ADsAIAAwAC4AOQA1ADsAIAAxAC4AMwA4ADUAOwAgADEALgA3ADcAfQAsAFwAbgAgACAAIAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAHsAMAAuADUAOwAgADAALgA3ADUAOwAgADAALgA5ADUAOwAgADEALgAzADgANQA7ACAAMQAuADcANwA7ACAANAAuADgANQB9ACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFAAcgBlAGMAbwBtAHAAdQB0AGUAIABhAHYAZQByAGEAZwBlACAAYQBuAGQAIABzAHAAYQBuAFwAbgAgACAAIAAgAGEAdgBnAF8AZgBhAGMAdABvAHIAcwAsACAAKABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACAAKwAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMAKQAgAC8AIAAyACwAXABuACAAIAAgACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMAIAAtACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABOAHUAYwBsAGUAYQBsACAAKABmAG8AcgAgAHMAYwBhAGwAaQBuAGcAKQBcAG4AIAAgACAAIABuAHUAYwBsAGUAYQBsACwAIABTAFEAUgBUACgASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABsAHUAbQApACwAIAAxACwAIABsAHUAbQApACkALABcAG4AXABuACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAHMAYwBhAGwAZQBkACAAZABpAHMAdABhAG4AYwBlAHMAXABuACAAIAAgACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAbwB1AHQAZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAYQB2AGcAXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAgACoAIABhAHYAZwBfAGYAYQBjAHQAbwByAHMALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAHMAcABhAG4AXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAgACoAIABzAHAAYQBuAF8AZgBhAGMAdABvAHIAcwAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEYAbwByAG0AYQB0AHQAZQBkACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAdgBlAHIAdABpAGMAYQBsAF8AbABhAGIAZQBsAHMALAAgAHsAXAAiADAAOgAgAFwAIgAsACAAXAAiADEAOgAgAFwAIgAsACAAXAAiADIAOgAgAFwAIgAsACAAXAAiAE4AIACUJ1wAIgAsACAAXAAiADMAOgAgAFwAIgAsACAAXAAiADQAOgAgAFwAIgAsACAAXAAiADUAOgAgAFwAIgB9ACwAXABuACAAIAAgACAAdgBlAHIAdABpAGMAYQBsAF8AdgBhAGwAdQBlAHMALAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMgApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAFIATwBVAE4ARAAoAEkATgBEAEUAWAAoAGkAbgBuAGUAcgBfAGYAYQBjAHQAbwByAHMALAAgADMAKQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA0ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAANAApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgAFIATwBVAE4ARAAoAEkATgBEAEUAWAAoAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgADUAKQAgACoAIABuAHUAYwBsAGUAYQBsACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA2ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAAUgBlAHQAdQByAG4AIABsAG8AZwBpAGMAXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBTAFQAQQBOAEQAQQBSAEQAXAAiACwAIABDAEgATwBPAFMARQAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgAHsAMQAsACAAMgAsACAAMwAsACAANAAsACAANQB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAWgBvAG4AZQBcACIALAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIASQBuAG4AZQByAFwAIgAsACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIATwB1AHQAZQByAFwAIgAsACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAQQB2AGUAcgBhAGcAZQBcACIALAAgAGEAdgBnAF8AZgBhAGMAdABvAHIAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcACIAUwBwAGEAbgBcACIALAAgAHMAcABhAG4AXwBmAGEAYwB0AG8AcgBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAVgBFAFIAVABJAEMAQQBMAFwAIgAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABhAGIAZQBsAHMALAAgAHsAXAAiADAAOgBcACIALAAgAFwAIgAxADoAXAAiACwAIABcACIAMgA6AFwAIgAsACAAXAAiAE4AIACUJ1wAIgAsACAAXAAiADMAOgBcACIALAAgAFwAIgA0ADoAXAAiACwAIABcACIANQA6AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAYwBhAGwAZQBkAF8AdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG4AdQBjAGwAZQBhAGwAIAAqACAAewAwAC4ANQAsACAAMAAuADcANQAsACAAMAAuADkANQAsACAAMQAsACAAMQAuADMAOAA1ACwAIAAxAC4ANwA3ACwAIAA0AC4AOAA1AH0ALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAFIAQQBOAFMAUABPAFMARQAoAFYAUwBUAEEAQwBLACgAbABhAGIAZQBsAHMALAAgAHMAYwBhAGwAZQBkAF8AdgBhAGwAdQBlAHMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAEgATwBSAEkAWgBPAE4AVABBAEwAXAAiACwAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMgApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAMwApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgASQBOAEQARQBYACgAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAANAApACAAKgAgAG4AdQBjAGwAZQBhAGwALAAgAHAAcgBlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA0ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA1ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKABJAE4ARABFAFgAKABvAHUAdABlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAA2ACkAIAAqACAAbgB1AGMAbABlAGEAbAAsACAAcAByAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAEkAbgB2AGEAbABpAGQAIABtAG8AZABlAFwAIgBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAE4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6ACAAUAByAG8AdgBpAGQAZQBzACAAaQBuAGYAbwByAG0AYQB0AGkAbwBuACAAYQBiAG8AdQB0ACAAcwB0AGUAbABsAGEAcgAgAGgAYQBiAGkAdABhAGIAbABlACAAegBvAG4AZQBzACAAYQBjAHIAbwBzAHMAIABtAHUAbAB0AGkAcABsAGUAIABkAGkAcwBwAGwAYQB5ACAAbQBvAGQAZQBzADoAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC0AIABTAFQAQQBOAEQAQQBSAEQAOgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZgBpAHgAZQBkACAAdABhAGIAbABlACAAbwBmACAAaQBuAG4AZQByAC8AbwB1AHQAZQByACAAYgBvAHUAbgBkAHMAIABmAG8AcgAgAFoAMAATIFoANQAgAHoAbwBuAGUAcwAgAGkAbgAgAEEAVQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAgAFQAQQBCAEwARQA6ACAAUwBjAGEAbABlAHMAIAB0AGgAZQAgAFMAVABBAE4ARABBAFIARAAgAHoAbwBuAGUAcwAgAGIAYQBzAGUAZAAgAG8AbgAgAHMAdABlAGwAbABhAHIAIABsAHUAbQBpAG4AbwBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAtACAAVgBFAFIAVABJAEMAQQBMADoAIABSAGUAdAB1AHIAbgBzACAAYQAgAHYAZQByAHQAaQBjAGEAbAAgAGwAaQBzAHQAIABvAGYAIAB6AG8AbgBlACAAbABhAGIAZQBsAHMAIABhAG4AZAAgAGQAaQBzAHQAYQBuAGMAZQBzACAAYgBhAHMAZQBkACAAbwBuACAAbAB1AG0AaQBuAG8AcwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAALQAgAEgATwBSAEkAWgBPAE4AVABBAEwAOgAgAFIAZQB0AHUAcgBuAHMAIABhACAAcwBpAG4AZwBsAGUALQByAG8AdwAgAHMAdQBtAG0AYQByAHkAIABvAGYAIABzAGMAYQBsAGUAZAAgAGQAaQBzAHQAYQBuAGMAZQBzAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFwAIgBTAFQAQQBOAEQAQQBSAEQAXAAiACwAIABcACIAVABBAEIATABFAFwAIgAsACAAXAAiAFYARQBSAFQASQBDAEEATABcACIALAAgAG8AcgAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgBcAG4AIAAgACAALQAgAGwAdQBtACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAUwB0AGUAbABsAGEAcgAgAGwAdQBtAGkAbgBvAHMAaQB0AHkAIABpAG4AIABzAG8AbABhAHIAIAB1AG4AaQB0AHMAIAAoAG8AbgBsAHkAIAByAGUAcQB1AGkAcgBlAGQAIABmAG8AcgAgAFQAQQBCAEwARQAsACAAVgBFAFIAVABJAEMAQQBMACwAIABvAHIAIABIAE8AUgBJAFoATwBOAFQAQQBMACAAbQBvAGQAZQBzACkAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIAByAG8AdQBuAGQAIABkAGkAcwB0AGEAbgBjAGUAcwAgAHQAbwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAFMAVABBAE4ARABBAFIARABcACIAKQBcAG4AIAAgACAAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAKABcACIAVABBAEIATABFAFwAIgAsACAAMwApAFwAbgAgACAAIABBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAoAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIAAzACkAXABuACAAIAAgAEEAUwBUAFIATwBfAEgAQQBCAEkAVABBAEIATABFAF8AWgBPAE4ARQBTACgAXAAiAEgATwBSAEkAWgBPAE4AVABBAEwAXAAiACwAIAAzACkAXABuACoALwBcAG4AXABuAE4AQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAIAA9ACAATABBAE0AQgBEAEEAKABtAG8AZABlACwAIABbAGwAdQBtAF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAC0ALQAtACAARABlAGYAYQB1AGwAdABzACAALQAtAC0AXABuACAAIAAgACAAZABlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAAzACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABMACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGwAdQBtACkALAAgADEALAAgAGwAdQBtACkALABcAG4AIAAgACAAIABuAHUAYwAsACAAUwBRAFIAVAAoAEwAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIAAtAC0ALQAgAFoAbwBuAGUAIABiAGEAcwBlACAAZABhAHQAYQAgAC0ALQAtAFwAbgAgACAAIAAgAHoAbwBuAGUAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAWgAwAFwAIgAsACAAXAAiAFoAMQBcACIALAAgAFwAIgBaADIAXAAiACwAIABcACIAWgAzAFwAIgAsACAAXAAiAFoANABcACIALAAgAFwAIgBaADUAXAAiAH0ALABcAG4AIAAgACAAIABpAG4AbgBlAHIAXwBmAGEAYwB0AG8AcgBzACwAIAB7ADAALAAgADAALgA1ACwAIAAwAC4ANwA1ACwAIAAwAC4AOQA1ACwAIAAxAC4AMwA4ADUALAAgADEALgA3ADcAfQAsAFwAbgAgACAAIAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAHsAMAAuADUALAAgADAALgA3ADUALAAgADAALgA5ADUALAAgADEALgAzADgANQAsACAAMQAuADcANwAsACAANAAuADgANQB9ACwAXABuACAAIAAgACAAYQB2AGcAXwBmAGEAYwB0AG8AcgBzACwAIAAgACAAewAwAC4AMgA1ACwAIAAwAC4ANgAyADUALAAgADAALgA4ADUALAAgADEALgAxADYANwA1ACwAIAAxAC4ANQA3ADcANQAsACAAMwAuADMAMQB9ACwAXABuACAAIAAgACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgACAAewAwAC4ANQAsACAAMAAuADIANQAsACAAMAAuADIALAAgADAALgA0ADMANQAsACAAMAAuADMAOAA1ACwAIAAzAC4AMAA4AH0ALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABTAGMAYQBsAGUAZAAgAHYAYQBsAHUAZQBzACAALQAtAC0AXABuACAAIAAgACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQALAAgAFIATwBVAE4ARAAoAG4AdQBjACAAKgAgAGkAbgBuAGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIABvAHUAdABlAHIAXwBzAGMAYQBsAGUAZAAsACAAUgBPAFUATgBEACgAbgB1AGMAIAAqACAAbwB1AHQAZQByAF8AZgBhAGMAdABvAHIAcwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgAGEAdgBnAF8AcwBjAGEAbABlAGQALAAgACAAIABSAE8AVQBOAEQAKABuAHUAYwAgACoAIABhAHYAZwBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIABzAHAAYQBuAF8AcwBjAGEAbABlAGQALAAgACAAUgBPAFUATgBEACgAbgB1AGMAIAAqACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAGQAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABUAGEAYgBsAGUAOgAgAFMAVABBAE4ARABBAFIARAAgAGEAbgBkACAAVABBAEIATABFACAAbQBvAGQAZQBzACAALQAtAC0AXABuACAAIAAgACAAcgBvAHcAXwAxACwAIABWAFMAVABBAEMASwAoAFwAIgBaAG8AbgBlAFwAIgAsACAAegBvAG4AZQBfAGwAYQBiAGUAbABzACkALABcAG4AIAAgACAAIAByAG8AdwBfADIALAAgAFYAUwBUAEEAQwBLACgAXAAiAEkAbgBuAGUAcgBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAaQBuAG4AZQByAF8AZgBhAGMAdABvAHIAcwAsACAAaQBuAG4AZQByAF8AcwBjAGEAbABlAGQAKQApACwAXABuACAAIAAgACAAcgBvAHcAXwAzACwAIABWAFMAVABBAEMASwAoAFwAIgBPAHUAdABlAHIAXAAiACwAIABJAEYAKABtAG8AZABlAD0AXAAiAFMAVABBAE4ARABBAFIARABcACIALAAgAG8AdQB0AGUAcgBfAGYAYQBjAHQAbwByAHMALAAgAG8AdQB0AGUAcgBfAHMAYwBhAGwAZQBkACkAKQAsAFwAbgAgACAAIAAgAHIAbwB3AF8ANAAsACAAVgBTAFQAQQBDAEsAKABcACIAQQB2AGUAcgBhAGcAZQBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAYQB2AGcAXwBmAGEAYwB0AG8AcgBzACwAIABhAHYAZwBfAHMAYwBhAGwAZQBkACkAKQAsAFwAbgAgACAAIAAgAHIAbwB3AF8ANQAsACAAVgBTAFQAQQBDAEsAKABcACIAUwBwAGEAbgBcACIALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAUwBUAEEATgBEAEEAUgBEAFwAIgAsACAAcwBwAGEAbgBfAGYAYQBjAHQAbwByAHMALAAgAHMAcABhAG4AXwBzAGMAYQBsAGUAZAApACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABWAGUAcgB0AGkAYwBhAGwAIABtAG8AZABlACAAbwB1AHQAcAB1AHQAIAAtAC0ALQBcAG4AIAAgACAAIAB2AGUAcgB0AGkAYwBhAGwAXwBsAGEAYgBlAGwAcwAsACAAewBcACIAMAA6AFwAIgAsACAAXAAiADEAOgBcACIALAAgAFwAIgAyADoAXAAiACwAIABcACIATgAgAJQnXAAiACwAIABcACIAMwA6AFwAIgAsACAAXAAiADQAOgBcACIALAAgAFwAIgA1ADoAXAAiAH0ALABcAG4AIAAgACAAIAB2AGUAcgB0AGkAYwBhAGwAXwB2AGEAbAB1AGUAcwAsACAAUgBPAFUATgBEACgAewAwAC4ANQAsACAAMAAuADcANQAsACAAMAAuADkANQAsACAAMQAsACAAMQAuADMAOAA1ACwAIAAxAC4ANwA3ACwAIAA0AC4AOAA1AH0AIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABIAG8AcgBpAHoAbwBuAHQAYQBsACAAbQBvAGQAZQAgAG8AdQB0AHAAdQB0ACAALQAtAC0AXABuACAAIAAgACAAaABvAHIAaQB6AG8AbgB0AGEAbABfAHYAYQBsAHUAZQBzACwAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAwAC4ANQAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAwAC4ANwA1ACAAKgAgAG4AdQBjACwAIABkAGUAYwApACwAXABuACAAIAAgACAAIAAgAFIATwBVAE4ARAAoADAALgA5ADUAIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAUgBPAFUATgBEACgAMQAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAxAC4AMwA4ADUAIAAqACAAbgB1AGMALAAgAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAUgBPAFUATgBEACgAMQAuADcANwAgACoAIABuAHUAYwAsACAAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIABSAE8AVQBOAEQAKAA0AC4AOAA1ACAAKgAgAG4AdQBjACwAIABkAGUAYwApAFwAbgAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAALQAtAC0AIABGAGkAbgBhAGwAIABvAHUAdABwAHUAdAAgAGIAYQBzAGUAZAAgAG8AbgAgAG0AbwBkAGUAIAAtAC0ALQBcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIABVAFAAUABFAFIAKABtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAXAAiAFMAVABBAE4ARABBAFIARABcACIALAAgAEgAUwBUAEEAQwBLACgAcgBvAHcAXwAxACwAIAByAG8AdwBfADIALAAgAHIAbwB3AF8AMwAsACAAcgBvAHcAXwA0ACwAIAByAG8AdwBfADUAKQAsAFwAbgAgACAAIAAgACAAIABcACIAVABBAEIATABFAFwAIgAsACAAIAAgACAASABTAFQAQQBDAEsAKAByAG8AdwBfADEALAAgAHIAbwB3AF8AMgAsACAAcgBvAHcAXwAzACwAIAByAG8AdwBfADQALAAgAHIAbwB3AF8ANQApACwAXABuACAAIAAgACAAIAAgAFwAIgBWAEUAUgBUAEkAQwBBAEwAXAAiACwAIABIAFMAVABBAEMASwAoAHYAZQByAHQAaQBjAGEAbABfAGwAYQBiAGUAbABzACwAIAB2AGUAcgB0AGkAYwBhAGwAXwB2AGEAbAB1AGUAcwApACwAXABuACAAIAAgACAAIAAgAFwAIgBIAE8AUgBJAFoATwBOAFQAQQBMAFwAIgAsACAAaABvAHIAaQB6AG8AbgB0AGEAbABfAHYAYQBsAHUAZQBzACwAXABuACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAbQBvAGQAZQBcACIAXABuACAAIAAgACAAKQBcAG4AIAAgACkAXABuACkAXABuADsAXABuAFwAbgAvACoAIABBAFMAVABSAE8AXwBTAFQAQQBSAF8ARABFAE4AUwBJAFQAWQBfAFYATwBMAFUATQBFAFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAIABHAGkAdgBlAG4AIABhACAAcwBwAGgAZQByAGkAYwBhAGwAIAB2AG8AbAB1AG0AZQAgACgAbwByACAAcgBhAGQAaQB1AHMAKQAsACAAYwBhAGwAYwB1AGwAYQB0AGUAIABoAG8AdwAgAG0AYQBuAHkAIABzAHQAYQByAHMAIABmAGkAdAAgAGEAdAAgADEAIABzAHQAYQByACAAcABlAHIAIAAyADUAMAAgAGMAdQBiAGkAYwAgAGwAaQBnAGgAdAAtAHkAZQBhAHIAcwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAARQBpAHQAaABlAHIAIABhACAAcwBwAGgAZQByAGkAYwBhAGwAIAByAGEAZABpAHUAcwAgAG8AcgAgAGEAIAB2AG8AbAB1AG0AZQAsACAAZABlAHAAZQBuAGQAaQBuAGcAIABvAG4AIABtAG8AZABlAC4AXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAZgBvAHIAIABvAHUAdABwAHUAdAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADMAKQAuAFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAFwAbgAgACAAIAAgACAAIAAgADAAIAA9ACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAHYAbwBsAHUAbQBlACAAaQBuACAAYwB1AGIAaQBjACAAbABpAGcAaAB0AC0AeQBlAGEAcgBzACAAKABkAGUAZgBhAHUAbAB0ACkALABcAG4AIAAgACAAIAAgACAAIAAxACAAPQAgAGkAbgBwAHUAdAAgAGkAcwAgAGEAIAByAGEAZABpAHUAcwAgAGkAbgAgAGwAaQBnAGgAdAAtAHkAZQBhAHIAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAQQAgAHYAZQByAHQAaQBjAGEAbAAgAGEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABlAGkAdABoAGUAcgA6AFwAbgAgACAAIAAgACAAIAAgACIgIABbAG4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzADsAIAByAGEAZABpAHUAcwBdACAAaQBmACAAbQBvAGQAZQAgAD0AIAAwAFwAbgAgACAAIAAgACAAIAAgACIgIABbAG4AdQBtAGIAZQByACAAbwBmACAAcwB0AGEAcgBzADsAIAB2AG8AbAB1AG0AZQBdACAAaQBmACAAbQBvAGQAZQAgAD0AIAAxAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABBAFMAVABSAE8AXwBTAFQAQQBSAF8ARABFAE4AUwBJAFQAWQBfAFYATwBMAFUATQBFACgAMQAwADAAMAApACAAIAAgACAAIAAgACAAIAAgACAAkiEgAHsANAAuADAAMAAwADsAIAA2AC4AMgAwADMAfQBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUwBUAEEAUgBfAEQARQBOAFMASQBUAFkAXwBWAE8ATABVAE0ARQAoADUALAAgADIALAAgADEAKQAgACAAIAAgACAAIAAgAJIhIAB7ADIALgA2ADIAOwAgADUAMgAzAC4ANgAwAH0AXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAFMAVABBAFIAXwBEAEUATgBTAEkAVABZAF8AVgBPAEwAVQBNAEUAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALAAgAFsAcAByAGUAYwBdACwAIABbAG0AbwBkAGUAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAgACsAIAAoAG0AbwBkAGUAIAA8ACAAMAApACAAKwAgACgAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACAAKwAgACgAcAByAGUAYwAgADwAIAAwACkALAAgADMALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAB2AG8AbAB1AG0AZQAsACAASQBGACgAbQBvAGQAZQAgAD0AIAAwACwAIABpAG4AcAB1AHQALAAgACgANAAvADMAKQAgACoAIABQAEkAKAApACAAKgAgAGkAbgBwAHUAdAAgAF4AIAAzACkALABcAG4AIAAgACAAIAByAGEAZABpAHUAcwAsACAASQBGACgAbQBvAGQAZQAgAD0AIAAxACwAIABpAG4AcAB1AHQALAAgAFIATwBVAE4ARAAoACgAKAAzACAAKgAgAHYAbwBsAHUAbQBlACkAIAAvACAAKAA0ACAAKgAgAFAASQAoACkAKQApACAAXgAgACgAMQAvADMAKQAsACAAcAByAGUAYwApACkALABcAG4AIAAgACAAIABzAHQAYQByAHMALAAgAFIATwBVAE4ARAAoAHYAbwBsAHUAbQBlACAALwAgADIANQAwACwAIABwAHIAZQBjACkALABcAG4AXABuACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFMAVwBJAFQAQwBIACgAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAwACwAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIAAsACAAXAAiAFMAdABhAHIAcwA6ACAAXAAiACYAcwB0AGEAcgBzACwAIABcACIAUgBhAGQAaQB1AHMAOgAgAFwAIgAmAHIAYQBkAGkAdQBzACkALAAgAFwAIgA7ACAAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAxACwAIABUAE8AQwBPAEwAKABUAEUAWABUAFMAUABMAEkAVAAoAFQARQBYAFQASgBPAEkATgAoAFwAIgA7ACAAXAAiACwAIAAsACAAXAAiAFMAdABhAHIAcwA6ACAAXAAiACYAcwB0AGEAcgBzACwAIABcACIAVgBvAGwAdQBtAGUAOgAgAFwAIgAmAHYAbwBsAHUAbQBlACkALAAgAFwAIgA7ACAAXAAiACkAKQBcAG4AIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8AUwBBAEYARQBUAFkAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgAgAEMAYQBsAGMAdQBsAGEAdABlAHMAIABwAGwAYQBuAGUAdABhAHIAeQAgAG0AYQBzAHMALAAgAHIAYQBkAGkAdQBzACwAIABkAGUAbgBzAGkAdAB5ACwAIABzAHUAcgBmAGEAYwBlACAAZwByAGEAdgBpAHQAeQAsACAAYQBuAGQAIABlAHMAYwBhAHAAZQAgAHYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgByAG8AbQAgAGEAbgB5ACAAdgBhAGwAaQBkACAAcABhAGkAcgAgAG8AZgAgAHQAdwBvACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAcwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIAB0AGgAZQAgAGsAbgBvAHcAbgAgAGkAbgBwAHUAdAAgAHAAYQBpAHIALgAgAEEAYwBjAGUAcAB0AGEAYgBsAGUAIAB2AGEAbAB1AGUAcwA6AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAGQAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARABlAG4AcwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAbQByAFwAIgAgAD0AIABNAGEAcwBzACAAKwAgAFIAYQBkAGkAdQBzAFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAcgBkAFwAIgAgAD0AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAGcAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGQAZwBcACIAIAA9ACAARABlAG4AcwBpAHQAeQAgACsAIABHAHIAYQB2AGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBkAHYAXAAiACAAPQAgAEQAZQBuAHMAaQB0AHkAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGcAdgBcACIAIAA9ACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAbQB2AFwAIgAgAD0AIABNAGEAcwBzACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAHYAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAZgBpAHIAcwB0ACAAbgB1AG0AZQByAGkAYwAgAGkAbgBwAHUAdAAsACAAbQBlAGEAbgBpAG4AZwAgAGQAZQBwAGUAbgBkAHMAIABvAG4AIABtAG8AZABlAFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAcwBlAGMAbwBuAGQAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0ACwAIABtAGUAYQBuAGkAbgBnACAAZABlAHAAZQBuAGQAcwAgAG8AbgAgAG0AbwBkAGUAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAZgBvAHIAIABvAHUAdABwAHUAdAAgAHIAbwB1AG4AZABpAG4AZwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA1ACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABBACAAbABhAGIAZQBsAGUAZAAgADUALQByAG8AdwAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIAB2AGEAbAB1AGUAcwAgAGYAbwByADoAIABNAGEAcwBzACAAKABNACkALAAgAFIAYQBkAGkAdQBzACAAKABSACkALAAgAEQAZQBuAHMAaQB0AHkAIAAoAGQAKQAsAFwAbgAgACAAIAAgACAARwByAGEAdgBpAHQAeQAgACgAZwApACwAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQAgACgAdgApAFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBQAEwAQQBOAEUAVABfAE0ARQBUAFIASQBDAFMAXwBTAEEARgBFAFQAWQAgAD0AIABMAEEATQBCAEQAQQAoAG0AbwBkAGUALAAgAHAAYQByAGEAbQBfADEALAAgAHAAYQByAGEAbQBfADIALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABwAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANQAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAGwAbwB3AGUAcgBjAGEAcwBlAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAEwATwBXAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAYgBhAHMAZQBkACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQBcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAbQBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgACgATQAgAC8AIABkACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAAoAE0AIAAqACAAZABeADIAKQAgAF4AIAAoADEALwAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgACgATQAgACoAIABTAFEAUgBUACgAZAApACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABSAGEAZABpAHUAcwBcAG4AIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABNACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABNACAALwAgAFIAXgAzACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABNACAALwAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABTAFEAUgBUACgATQAgAC8AIABSACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABNAGEAcwBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAAUwBRAFIAVAAoAE0AIAAvACAAZwApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABTAFEAUgBUACgAZwBeADMAIAAvACAATQApACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIAAoAE0AIAAqACAAZwApACAAXgAgADAALgAyADUALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAcgBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGQAIAAqACAAUgBeADMALABcAG4AIAAgACAAIAAgACAAIAAgAGcALAAgAGQAIAAqACAAUgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAUgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABnACAAKgAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABnACAALwAgAFIALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAFMAUQBSAFQAKABnACAAKgAgAFIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBuAHMAaQB0AHkAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGQAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABnACAALwAgAGQALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGcAXgAzACAALwAgAGQAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABnACAALwAgAFMAUQBSAFQAKABkACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAZAB2AFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHYAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAdgBeADMAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIAB2AF4AMgAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIAB2AF4ANAAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAGcAIAAvACAAdgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAATQAgAC8AIAB2AF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgBeADQAIAAvACAATQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAAdgBeADYAIAAvACAATQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAB2AF4AMgAgAC8AIABSACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABSACAAKgAgAHYAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAHYAIAAvACAAUgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABGAG8AcgBtAGEAdAAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAYQBuAGQAIAByAG8AdQBuAGQAaQBuAGcAXABuACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG8AdQB0AHAAdQB0ACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABUAFIAQQBOAFMAUABPAFMARQAoAGgAZQBhAGQAZQByAHMAKQAsACAAVABSAEEATgBTAFAATwBTAEUAKAB2AGEAbAB1AGUAcwApACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABBAFMAVABSAE8AXwBQAEwAQQBOAEUAVABfAE0ARQBUAFIASQBDAFMAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBhAGwAYwB1AGwAYQB0AGUAcwAgAHAAbABhAG4AZQB0AGEAcgB5ACAAbQBhAHMAcwAsACAAcgBhAGQAaQB1AHMALAAgAGQAZQBuAHMAaQB0AHkALAAgAHMAdQByAGYAYQBjAGUAIABnAHIAYQB2AGkAdAB5ACwAIABhAG4AZAAgAGUAcwBjAGEAcABlACAAdgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIABiAGEAcwBlAGQAIABvAG4AIABhAG4AeQAgAHQAdwBvACAAawBuAG8AdwBuACAAdgBhAGwAdQBlAHMALAAgAGEAbgBkACAAZgBsAGEAZwBzACAAdABoAGUAIABwAHIAbwB2AGkAZABlAGQAIABpAG4AcAB1AHQAcwAgAHcAaQB0AGgAIABhAG4AIABhAHIAcgBvAHcAIAAoAJQnKQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIAB0AGgAZQAgAHQAdwBvACAAawBuAG8AdwBuACAAdgBhAGwAdQBlAHMALgAgAEEAYwBjAGUAcAB0AGUAZAAgAHYAYQBsAHUAZQBzADoAXABuACAAIAAgACAAIAAgACAAXAAiAG0AZABcACIAIAA9ACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAHIAXAAiACAAPQAgAE0AYQBzAHMAIAArACAAUgBhAGQAaQB1AHMAXABuACAAIAAgACAAIAAgACAAXAAiAG0AZwBcACIAIAA9ACAATQBhAHMAcwAgACsAIABHAHIAYQB2AGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgByAGQAXAAiACAAPQAgAFIAYQBkAGkAdQBzACAAKwAgAEQAZQBuAHMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAHIAZwBcACIAIAA9ACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAZABnAFwAIgAgAD0AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAGQAdgBcACIAIAA9ACAARABlAG4AcwBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAIABcACIAZwB2AFwAIgAgAD0AIABHAHIAYQB2AGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACAAPQAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgACAAXAAiAHIAdgBcACIAIAA9ACAAUgBhAGQAaQB1AHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgAC0AIABwAGEAcgBhAG0AXwAxACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAARgBpAHIAcwB0ACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAIAAoAG0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAbQBvAGQAZQApAFwAbgAgACAAIAAtACAAcABhAHIAYQBtAF8AMgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAZQBjAG8AbgBkACAAawBuAG8AdwBuACAAcABhAHIAYQBtAGUAdABlAHIAIAAoAG0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAbQBvAGQAZQApAFwAbgAgACAAIAAtACAAcAByAGUAYwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAEQAZQBjAGkAbQBhAGwAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGYAbwByACAAbwB1AHQAcAB1AHQAIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAANQApAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAQQAgADIALQBjAG8AbAB1AG0AbgAgAHYAZQByAHQAaQBjAGEAbAAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACAAYQBuAGQAIABjAGEAbABjAHUAbABhAHQAZQBkACAAdgBhAGwAdQBlAHMALgBcAG4AIAAgACAAIAAgAEkAbgBwAHUAdAAgAHYAYQBsAHUAZQBzACAAYQByAGUAIABmAGwAYQBnAGcAZQBkACAAdwBpAHQAaAAgAGEAIACUJyAAdABvACAAaQBuAGQAaQBjAGEAdABlACAAdABoAGUAaQByACAAbwByAGkAZwBpAG4ALgBcAG4AIAAgACAAIAAgAFUAbgBpAHQAcwAgAGEAcgBlACAAYQBzAHMAdQBtAGUAZAAgAHQAbwAgAGIAZQAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIABhAG4AZAAgAHIAZQBsAGEAdABpAHYAZQAgACgAZQAuAGcALgAsACAARQBhAHIAdABoACAAPQAgADEALgAwACkALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIAB1AHMAZQAgAGkAbgAgAG0AbwBkAGUAbABpAG4AZwAsACAAcABsAGEAbgBlAHQAYQByAHkAIABwAGgAeQBzAGkAYwBzACAAcwBpAG0AdQBsAGEAdABpAG8AbgBzACwAIABhAG4AZAAgAGUAZAB1AGMAYQB0AGkAbwBuAGEAbAAgAGEAcABwAGwAaQBjAGEAdABpAG8AbgBzAC4AXABuACAAIAAgAC0AIABPAHUAdABwAHUAdABzACAAYQByAGUAIABpAG4AdABlAHIAbgBhAGwAbAB5ACAAYwBhAGwAYwB1AGwAYQB0AGUAZAAgAGIAYQBzAGUAZAAgAG8AbgAgAGIAYQBzAGkAYwAgAHAAaAB5AHMAaQBjAGEAbAAgAHIAZQBsAGEAdABpAG8AbgBzAGgAaQBwAHMAOgBcAG4AIAAgACAAIAAgACAAIAAtACAATQAgAD0AIABtAGEAcwBzAFwAbgAgACAAIAAgACAAIAAgAC0AIABSACAAPQAgAHIAYQBkAGkAdQBzAFwAbgAgACAAIAAgACAAIAAgAC0AIABkACAAPQAgAGQAZQBuAHMAaQB0AHkAXABuACAAIAAgACAAIAAgACAALQAgAGcAIAA9ACAAcwB1AHIAZgBhAGMAZQAgAGcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgACAALQAgAHYAIAA9ACAAZQBzAGMAYQBwAGUAIAB2AGUAbABvAGMAaQB0AHkAXABuACAAIAAgAC0AIABIAGEAbgBkAGwAZQBzACAAaQBuAHAAdQB0ACAAcABlAHIAbQB1AHQAYQB0AGkAbwBuAHMAIABmAGwAZQB4AGkAYgBsAHkAIAB2AGkAYQAgAG0AbwBkAGUAIABzAHQAcgBpAG4AZwAgAHAAYQByAHMAaQBuAGcALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAQQBTAFQAUgBPAF8AUABMAEEATgBFAFQAXwBNAEUAVABSAEkAQwBTAF8ARgBMAEEARwBHAEUARAAoAFwAIgByAGQAXAAiACwAIAAxAC4AMgAsACAAMAAuADcANQApAFwAbgAgACAAIAAgACAAkiFcAG4AIAAgACAAIAAgACAAIABNACAAIAAgACAAIAAgADAALgA2ADcANQBcAG4AIAAgACAAIAAgACAAIABSACAAlCcgACAAIAAgADEALgAyAFwAbgAgACAAIAAgACAAIAAgAGQAIACUJyAAIAAgACAAMAAuADcANQBcAG4AIAAgACAAIAAgACAAIABnACAAIAAgACAAIAAgADAALgA5AFwAbgAgACAAIAAgACAAIAAgAHYAIAAgACAAIAAgACAAMQAuADAAMwA5AFwAbgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFAATABBAE4ARQBUAF8ATQBFAFQAUgBJAEMAUwAgAD0AIABMAEEATQBCAEQAQQAoAG0AbwBkAGUALAAgAHAAYQByAGEAbQBfADEALAAgAHAAYQByAGEAbQBfADIALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABwAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANQAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE4AbwByAG0AYQBsAGkAegBlACAAaQBuAHAAdQB0ACAAbQBvAGQAZQAgAHQAbwAgAGwAbwB3AGUAcgBjAGEAcwBlAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAEwATwBXAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAYgBhAHMAZQBkACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAbQBvAGQAZQBcAG4AIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAbQBvAGQAZQAsAFwAbgAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAbQBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgACgATQAgAC8AIABkACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAAoAE0AIAAqACAAZABeADIAKQAgAF4AIAAoADEALwAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgACgATQAgACoAIABTAFEAUgBUACgAZAApACkAIABeACAAKAAxAC8AMwApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAATQBhAHMAcwAgACsAIABSAGEAZABpAHUAcwBcAG4AIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABNACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABNACAALwAgAFIAXgAzACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABNACAALwAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABTAFEAUgBUACgATQAgAC8AIABSACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABNAGEAcwBzACAAKwAgAEcAcgBhAHYAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAGcAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAAUwBRAFIAVAAoAE0AIAAvACAAZwApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABTAFEAUgBUACgAZwBeADMAIAAvACAATQApACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIAAoAE0AIAAqACAAZwApACAAXgAgADAALgAyADUALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABEAGUAbgBzAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAcgBkAFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGQAIAAqACAAUgBeADMALABcAG4AIAAgACAAIAAgACAAIAAgAGcALAAgAGQAIAAqACAAUgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAUgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAAUgBhAGQAaQB1AHMAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABnACAAKgAgAFIAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABnACAALwAgAFIALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAFMAUQBSAFQAKABnACAAKgAgAFIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBuAHMAaQB0AHkAIAArACAARwByAGEAdgBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGQAZwBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABkACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIABnACAALwAgAGQALABcAG4AIAAgACAAIAAgACAAIAAgAE0ALAAgAGcAXgAzACAALwAgAGQAXgAyACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABnACAALwAgAFMAUQBSAFQAKABkACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABEAGUAbgBzAGkAdAB5ACAAKwAgAEUAcwBjAGEAcABlACAAVgBlAGwAbwBjAGkAdAB5AFwAbgAgACAAIAAgACAAIABcACIAZAB2AFwAIgAsACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAHAAYQByAGEAbQBfADEALABcAG4AIAAgACAAIAAgACAAIAAgAHYALAAgAHAAYQByAGEAbQBfADIALABcAG4AIAAgACAAIAAgACAAIAAgAFIALAAgAHYAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAdgBeADMAIAAvACAAUwBRAFIAVAAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgAgACoAIABTAFEAUgBUACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAE0ALAAgAFIALAAgAGQALAAgAGcALAAgAHYAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAALwAvACAARwByAGEAdgBpAHQAeQAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABSACwAIAB2AF4AMgAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIAB2AF4ANAAgAC8AIABnACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAGcAIAAvACAAdgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAE0AYQBzAHMAIAArACAARQBzAGMAYQBwAGUAIABWAGUAbABvAGMAaQB0AHkAXABuACAAIAAgACAAIAAgAFwAIgBtAHYAXAAiACwAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAATQAsACAAcABhAHIAYQBtAF8AMQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgAsACAAcABhAHIAYQBtAF8AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAUgAsACAATQAgAC8AIAB2AF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAAZwAsACAAdgBeADQAIAAvACAATQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAAdgBeADYAIAAvACAATQBeADIALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgATQAsACAAUgAsACAAZAAsACAAZwAsACAAdgApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAvAC8AIABSAGEAZABpAHUAcwAgACsAIABFAHMAYwBhAHAAZQAgAFYAZQBsAG8AYwBpAHQAeQBcAG4AIAAgACAAIAAgACAAXAAiAHIAdgBcACIALAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABSACwAIABwAGEAcgBhAG0AXwAxACwAXABuACAAIAAgACAAIAAgACAAIAB2ACwAIABwAGEAcgBhAG0AXwAyACwAXABuACAAIAAgACAAIAAgACAAIABnACwAIAB2AF4AMgAgAC8AIABSACwAXABuACAAIAAgACAAIAAgACAAIABNACwAIABSACAAKgAgAHYAXgAyACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIAAoAHYAIAAvACAAUgApAF4AMgAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABNACwAIABSACwAIABkACwAIABnACwAIAB2ACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABGAG8AcgBtAGEAdAAgAHcAaQB0AGgAIABoAGUAYQBkAGUAcgBzACAAYQBuAGQAIAByAG8AdQBuAGQAaQBuAGcAXABuACAAIAAgACAAaABlAGEAZABlAHIAcwAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBtAGQAXAAiACwAIAB7AFwAIgBNACAAlCdcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAG0AcgBcACIALAAgAHsAXAAiAE0AIACUJ1wAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAbQBnAFwAIgAsACAAewBcACIATQAgAJQnXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAGQAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgBcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAHIAZwBcACIALAAgAHsAXAAiAE0AXAAiACwAIABcACIAUgAgAJQnXAAiACwAIABcACIAZABcACIALAAgAFwAIgBnACAAlCdcACIALAAgAFwAIgB2AFwAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAZABnAFwAIgAsACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAIACUJ1wAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBkAHYAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAXAAiACwAIABcACIAZAAgAJQnXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2ACAAlCdcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAGcAdgBcACIALAAgAHsAXAAiAE0AXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAIACUJ1wAIgAsACAAXAAiAHYAIACUJ1wAIgB9ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAbQB2AFwAIgAsACAAewBcACIATQAgAJQnXAAiACwAIABcACIAUgBcACIALAAgAFwAIgBkAFwAIgAsACAAXAAiAGcAXAAiACwAIABcACIAdgAgAJQnXAAiAH0ALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAHYAXAAiACwAIAB7AFwAIgBNAFwAIgAsACAAXAAiAFIAIACUJ1wAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2ACAAlCdcACIAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAewBcACIATQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAGQAXAAiACwAIABcACIAZwBcACIALAAgAFwAIgB2AFwAIgB9ACAAIAAvAC8AIABmAGEAbABsAGIAYQBjAGsAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAdgBhAGwAdQBlAHMALAAgAFIATwBVAE4ARAAoAG8AdQB0AHAAdQB0ACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIABDAEgATwBPAFMARQAoAHsAMQAsACAAMgB9ACwAIABUAFIAQQBOAFMAUABPAFMARQAoAGgAZQBhAGQAZQByAHMAKQAsACAAVABSAEEATgBTAFAATwBTAEUAKAB2AGEAbAB1AGUAcwApACkAXABuACAAIAApAFwAbgApADsAXABuAFwAbgAvAC8AIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDACAAPQAgAFwAbgAvAC8AIABMAEEATQBCAEQAQQAoAHAALAAgAHEALAAgAHAAcgBlAGMALABcAG4ALwAvACAAIAAgAEwARQBUACgAXABuAC8ALwAgACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4ALwAvACAAIAAgACAAIABJAEYAKABwACAAPQAgAHEALABcAG4ALwAvACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuAC8ALwAgACAAIAAgACAAIAAgACAATABFAFQAKABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgACAAbgB1AG0ALAAgAHAAIAAqACAAcQAsAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAIABkAGUAbgAsACAAQQBCAFMAKABwACAALQAgAHEAKQAsAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAIAByAGEAdwAsACAAbgB1AG0AIAAvACAAZABlAG4ALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAcgBhAHcALAAgAHAAcgBlAGMAKQBcAG4ALwAvACAAIAAgACAAIAAgACAAIAApAFwAbgAvAC8AIAAgACAAIAAgACkALABcAG4ALwAvACAAIAAgACAAIAByAGUAcwB1AGwAdABcAG4ALwAvACAAIAAgACkAXABuAC8ALwAgACkAOwBcAG4AXABuAC8ALwAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBTAE8ATABWAEUARAAgAD0AXABuAC8ALwAgAEwAQQBNAEIARABBACgAdgBhAGwAXwAxACwAIAB2AGEAbABfADIALAAgAFsAbQBvAGQAZQBdACwAIABbAHAAcgBlAGMAXQAsAFwAbgAvAC8AIAAgACAATABFAFQAKABcAG4ALwAvACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAXAAiAHAAcQBcACIALAAgAEkARgAoAG0AbwBkAGUAIAA9ACAAXAAiAFwAIgAsACAAXAAiAHAAcQBcACIALAAgAG0AbwBkAGUAKQApACwAXABuAC8ALwAgACAAIAAgACAAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjACkALAAgADQALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4ALwAvACAAIAAgACAAIABwACwAIABJAEYAKABPAFIAKABtAG8AZABlAD0AXAAiAHAAcQBcACIALAAgAG0AbwBkAGUAPQBcACIAcABzAFwAIgApACwAIAB2AGEAbABfADEALAAgAE4AQQAoACkAKQAsAFwAbgAvAC8AIAAgACAAIAAgAHEALAAgAEkARgAoAG0AbwBkAGUAPQBcACIAcABxAFwAIgAsACAAdgBhAGwAXwAyACwAIABJAEYAKABtAG8AZABlAD0AXAAiAHEAcwBcACIALAAgAHYAYQBsAF8AMQAsACAATgBBACgAKQApACkALABcAG4ALwAvACAAIAAgACAAIABzACwAIABJAEYAKABPAFIAKABtAG8AZABlAD0AXAAiAHAAcwBcACIALAAgAG0AbwBkAGUAPQBcACIAcQBzAFwAIgApACwAIAB2AGEAbABfADIALAAgAE4AQQAoACkAKQAsAFwAbgBcAG4ALwAvACAAIAAgACAAIABhACwAIABJAEYAKABBAE4ARAAoAEkAUwBOAFUATQBCAEUAUgAoAHAAKQAsACAASQBTAE4AVQBNAEIARQBSACgAcQApACkALAAgAE0AQQBYACgAcAAsACAAcQApACwAIABwACkALABcAG4ALwAvACAAIAAgACAAIABiACwAIABJAEYAKABBAE4ARAAoAEkAUwBOAFUATQBCAEUAUgAoAHAAKQAsACAASQBTAE4AVQBNAEIARQBSACgAcQApACkALAAgAE0ASQBOACgAcAAsACAAcQApACwAIABxACkALABcAG4AXABuAC8ALwAgACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4ALwAvACAAIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAG0AbwBkAGUALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAFwAIgBwAHEAXAAiACwAIABJAEYAKABhACAAPQAgAGIALAAgAE4AQQAoACkALAAgAFIATwBVAE4ARAAoACgAYQAgACoAIABiACkAIAAvACAAKABhACAALQAgAGIAKQAsACAAcAByAGUAYwApACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAFwAIgBwAHMAXAAiACwAIABJAEYAKABPAFIAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAGEAKQApACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAHMAKQApACkALAAgAE4AQQAoACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoACgAYQAgACoAIABzACkAIAAvACAAKABhACAALQAgAHMAKQAsACAAcAByAGUAYwApACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAFwAIgBxAHMAXAAiACwAIABJAEYAKABPAFIAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAGIAKQApACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAHMAKQApACkALAAgAE4AQQAoACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoACgAYgAgACoAIABzACkAIAAvACAAKABiACAALQAgAHMAKQAsACAAcAByAGUAYwApACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuAC8ALwAgACAAIAAgACAAIAAgACkALABcAG4ALwAvACAAIAAgACAAIAByAGUAcwB1AGwAdABcAG4ALwAvACAAIAAgACkAXABuAC8ALwAgACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBTAE8ATABWAEUAUgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABBACAAYwBvAG0AcAByAGUAaABlAG4AcwBpAHYAZQAgAHMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgAHMAbwBsAHYAZQByACAAdABoAGEAdAAgAGMAYQBsAGMAdQBsAGEAdABlAHMAIAB0AGgAZQAgAHQAaABpAHIAZAAgAHYAYQBsAHUAZQAgACgAUAAsACAAUQAsACAAbwByACAAUwApAFwAbgAgACAAIAB3AGgAZQBuACAAYQBuAHkAIAB0AHcAbwAgAG8AZgAgAHQAaABlACAAdABoAHIAZQBlACAAYQByAGUAIABwAHIAbwB2AGkAZABlAGQALgAgAFMAdQBwAHAAbwByAHQAcwAgAG0AdQBsAHQAaQBwAGwAZQAgAGkAbgBwAHUAdAAvAG8AdQB0AHAAdQB0ACAAbQBvAGQAZQBzACAAZgBvAHIAXABuACAAIAAgAHMAYwBpAGUAbgB0AGkAZgBpAGMAIABtAG8AZABlAGwAaQBuAGcALAAgAHAAZQBkAGEAZwBvAGcAaQBjAGEAbAAgAHUAcwBlACwAIABhAG4AZAAgAGYAbABlAHgAaQBiAGwAZQAgAHAAcgBlAHMAZQBuAHQAYQB0AGkAbwBuAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIAB2AGEAbABfADEAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABGAGkAcgBzAHQAIABpAG4AcAB1AHQAIAB2AGEAbAB1AGUALgAgAE0AZQBhAG4AaQBuAGcAIABkAGUAcABlAG4AZABzACAAbwBuACAAdABoAGUAIABzAGUAbABlAGMAdABlAGQAIABtAG8AZABlAC4AXABuACAAIAAgAC0AIAB2AGEAbABfADIAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABTAGUAYwBvAG4AZAAgAGkAbgBwAHUAdAAgAHYAYQBsAHUAZQAuACAATQBlAGEAbgBpAG4AZwAgAGQAZQBwAGUAbgBkAHMAIABvAG4AIAB0AGgAZQAgAHMAZQBsAGUAYwB0AGUAZAAgAG0AbwBkAGUALgBcAG4AIAAgACAALQAgAG0AbwBkAGUAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIAAyAC0AbABlAHQAdABlAHIAIABzAHQAcgBpAG4AZwAgAGkAbgBkAGkAYwBhAHQAaQBuAGcAIABrAG4AbwB3AG4AIABpAG4AcAB1AHQAcwAuACAAQQBjAGMAZQBwAHQAcwAgAGEAbgB5ACAAYwBhAHMAZQAgAG8AcgAgAG8AcgBkAGUAcgAuAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAcABxAFwAIgAgAD0AIABzAG8AbAB2AGUAIABmAG8AcgAgAFMAIAAoAHMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAApAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAcABzAFwAIgAgAD0AIABzAG8AbAB2AGUAIABmAG8AcgAgAFEAIAAoAG8AdQB0AGUAcgAgAHMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdAApAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAcQBzAFwAIgAgAD0AIABzAG8AbAB2AGUAIABmAG8AcgAgAFAAIAAoAGkAbgBuAGUAcgAgAHMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdAApAFwAbgAgACAAIAAgACAARABlAGYAYQB1AGwAdAAgAGkAcwAgAFwAIgBwAHEAXAAiACAAaQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAGkAbgB2AGEAbABpAGQALgBcAG4AIAAgACAALQAgAGYAbwByAG0AYQB0ACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATwB1AHQAcAB1AHQAIABmAG8AcgBtAGEAdAAgACgAZABlAGYAYQB1AGwAdAAgAD0AIABcACIAYgBhAHIAZQBcACIAKQBcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAGIAYQByAGUAXAAiACAAIAAgACAAkiEgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHMAbwBsAHYAZQBkACAAdgBhAGwAdQBlACAAbwBuAGwAeQBcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAGwAYQBiAGUAbABlAGQAXAAiACAAkiEgAHIAZQB0AHUAcgBuAHMAIABcACIAUAAgAD0AIAAzADYANQAuADIANQBcACIALAAgAFwAIgBTACAAPQAgADcANwA5AC4AOAA4AFwAIgAsACAAZQB0AGMALgAsACAAZABlAHAAZQBuAGQAaQBuAGcAIABvAG4AIABtAG8AZABlAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAdgBlAHIAYgBvAHMAZQBcACIAIACSISAAcgBlAHQAdQByAG4AcwAgAGkAbgBsAGkAbgBlACAAdABlAHgAdAAgAG8AZgAgAGEAbABsACAAdABoAHIAZQBlACAAdgBhAGwAdQBlAHMAIAB3AGkAdABoACAAHiYgAG8AbgAgAHMAbwBsAHYAZQBkACAAdgBhAGwAdQBlAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAcgBvAHcAXAAiACAAIAAgACAAIACSISAAcgBlAHQAdQByAG4AcwAgADEAeAAzACAAYQByAHIAYQB5ACAAdwBpAHQAaAAgAFAALAAgAFEALAAgAGEAbgBkACAAUwAgAGwAYQBiAGUAbABzACAAYQBuAGQAIAB2AGEAbAB1AGUAcwBcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAGMAbwBsAFwAIgAgACAAIAAgACAAkiEgAHIAZQB0AHUAcgBuAHMAIAAzAHgAMgAgAHYAZQByAHQAaQBjAGEAbAAgAGEAcgByAGEAeQA6ACAAewBcACIAUAAgAD0AXAAiACwAIAAzADYANQAuADIANQA7ACAAXAAiAFEAIAA9AFwAIgAsACAANgA4ADcAOwAgAFwAIgBTACAAHiZcACIALAAgADcANwA5AC4AOAA4AH0AXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAdABvACAAcgBvAHUAbgBkACAAcgBlAHMAdQBsAHQAcwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA0ACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABBACAAcwBjAGEAbABhAHIAIAB2AGEAbAB1AGUAIABvAHIAIABhACAAbABhAGIAZQBsAGUAZAAvAHMAcABpAGwAbAAgAGEAcgByAGEAeQAgAGQAZQBwAGUAbgBkAGkAbgBnACAAbwBuACAAcwBlAGwAZQBjAHQAZQBkACAAZgBvAHIAbQBhAHQALgBcAG4AIAAgACAALQAgAEkAbgAgAGEAbABsACAAYwBhAHMAZQBzACwAIAB0AGgAZQAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIAAoAHMAbwBsAHYAZQBkACkAIAB2AGEAbAB1AGUAIABpAHMAIABmAGwAYQBnAGcAZQBkACAAdwBpAHQAaAAgAGEAIAByAGkAZwBoAHQAIABhAHIAcgBvAHcAIAAoAB4mKQAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABTAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIABmAG8AcgBtAHUAbABhADoAIABTACAAPQAgACgAUAAgACoAIABRACkAIAAvACAAfABQACAALQAgAFEAfABcAG4AIAAgACAALQAgAEkAbgB2AGUAcgBzAGUAIABzAG8AbAB1AHQAaQBvAG4AcwA6AFwAbgAgACAAIAAgACAAIAAgAC0AIABRACAAPQAgACgAUAAgACoAIABTACkAIAAvACAAfABQACAALQAgAFMAfABcAG4AIAAgACAAIAAgACAAIAAtACAAUAAgAD0AIAAoAFEAIAAqACAAUwApACAALwAgAHwAUQAgAC0AIABTAHwAXABuACAAIAAgAC0AIABJAG4AcAB1AHQAcwAgAGEAcgBlACAAYQB1AHQAbwAtAG8AcgBkAGUAcgBlAGQAIABhAHMAIABuAGUAZQBkAGUAZAAgAGYAbwByACAAcwB0AGEAYgBpAGwAaQB0AHkAIAAoAGUALgBnAC4ALAAgAFAAIAA9ACAAbQBhAHgAKAB2AGEAbAAxACwAIAB2AGEAbAAyACkAIABpAG4AIABcACIAcABxAFwAIgAgAG0AbwBkAGUAKQAuAFwAbgAgACAAIAAtACAATQBvAGQAZQAgAGkAcwAgAGMAYQBzAGUALQBpAG4AcwBlAG4AcwBpAHQAaQB2AGUAIABhAG4AZAAgAGEAdQB0AG8ALQBuAG8AcgBtAGEAbABpAHoAZQBkACAAKABlAC4AZwAuACwAIABcACIAUQBTAFwAIgAsACAAXAAiAHMAcQBcACIALAAgAGEAbgBkACAAXAAiAHMAUQBcACIAIABhAGwAbAAgAJIhIABcACIAcQBzAFwAIgApAC4AXABuACAAIAAgAC0AIABPAHUAdABwAHUAdAAgAGYAbwByAG0AYQB0AHMAIABzAHUAcABwAG8AcgB0ACAAaAB1AG0AYQBuAC0AcgBlAGEAZABhAGIAbABlACAAcgBlAHMAdQBsAHQAcwAgAGEAbgBkACAAcwB0AHIAdQBjAHQAdQByAGUAZAAgAHQAYQBiAGwAZQAgAGkAbgB0AGUAZwByAGEAdABpAG8AbgAuAFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAYQBzACAAYQAgAGcAZQBuAGUAcgBhAGwALQBwAHUAcgBwAG8AcwBlACAAZQBuAGcAaQBuAGUAIABmAG8AcgAgAHUAcwBlACAAaQBuACAAYQBzAHQAcgBvAG4AbwBtAHkAIABtAG8AZABlAGwAcwAgAGEAbgBkACAAZQBkAHUAYwBhAHQAaQBvAG4AYQBsACAAdABvAG8AbABzAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlACAAMQA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFMATwBMAFYARQBSACgAMwA2ADUALgAyADUALAAgADYAOAA3ACwAIABcACIAcABxAFwAIgAsACAAXAAiAGIAYQByAGUAXAAiACwAIAA0ACkAXABuACAAIAAgACAAIAAgACAAkiEgADcANwA5AC4AOAA4ADEAMQBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAIAAyADoAXABuACAAIAAgACAAIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUwBPAEwAVgBFAFIAKAAzADYANQAuADIANQAsACAANgA4ADcALAAgAFwAIgBwAHEAXAAiACwAIABcACIAdgBlAHIAYgBvAHMAZQBcACIAKQBcAG4AIAAgACAAIAAgACAAIACSISAAXAAiAFAAIAA9ACAAMwA2ADUALgAyADUALAAgAFEAIAA9ACAANgA4ADcALAAgAFMAIAA9ACAAHiYgADcANwA5AC4AOAA4ADEAMQBcACIAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlACAAMwA6AFwAbgAgACAAIAAgACAAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFMATwBMAFYARQBSACgANgA4ADcALAAgADcANwA5AC4AOAA4ADEAMQAsACAAXAAiAHEAcwBcACIALAAgAFwAIgBjAG8AbABcACIAKQBcAG4AIAAgACAAIAAgACAAIACSIVwAbgAgACAAIAAgACAAIAAgACAAIABQACAAHiYgACAAIAAgADMANgA1AC4AMgA1AFwAbgAgACAAIAAgACAAIAAgACAAIABRACAAPQAgACAAIAAgADYAOAA3AFwAbgAgACAAIAAgACAAIAAgACAAIABTACAAPQAgACAAIAAgADcANwA5AC4AOAA4ADEAMQBcAG4AXABuACAAIAAgAFIAZQBjAG8AbQBtAGUAbgBkAGEAdABpAG8AbgA6AFwAbgAgACAAIAAtACAARgBvAHIAIABnAGUAbgBlAHIAYQBsACAAdQBzAGUAcgBzACwAIABjAG8AbgBzAGkAZABlAHIAIAB1AHMAaQBuAGcAIABvAG4AZQAgAG8AZgAgAHQAaABlACAAcwBpAG0AcABsAGUAcgAgAHcAcgBhAHAAcABlAHIAIABmAHUAbgBjAHQAaQBvAG4AcwA6AFwAbgAgACAAIAAgACAAIAAgAC0AIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUABRACgAUAAsACAAUQApAFwAbgAgACAAIAAgACAAIAAgAC0AIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUABTACgAUAAsACAAUwApAFwAbgAgACAAIAAgACAAIAAgAC0AIABBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUQBTACgAUQAsACAAUwApAFwAbgAgACAAIAAtACAAVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAGkAcwAgAGkAbgB0AGUAbgBkAGUAZAAgAGYAbwByACAAYQBkAHYAYQBuAGMAZQBkACAAdQBzAGUAIABjAGEAcwBlAHMAIABhAG4AZAAgAFUASQAtAGkAbgB0AGUAZwByAGEAdABlAGQAIABvAHUAdABwAHUAdAAuAFwAbgBcAG4AKgAvAFwAbgBcAG4AXABuAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBTAE8ATABWAEUAUgAgAD0AXABuAEwAQQBNAEIARABBACgAdgBhAGwAXwAxACwAIAB2AGEAbABfADIALAAgAFsAbQBvAGQAZQBdACwAIABbAGYAbwByAG0AYQB0AF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAbwBwAHQAaQBvAG4AYQBsACAAYQByAGcAdQBtAGUAbgB0AHMAXABuACAAIAAgACAAcgBhAHcAXwBtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAgACsAIAAoAG0AbwBkAGUAIAA9ACAAXAAiAFwAIgApACwAIABcACIAUABRAFwAIgAsACAAbQBvAGQAZQApACwAXABuACAAIAAgACAAbgBvAHIAbQBfAG0AbwBkAGUALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgBcACIALAAsAFMATwBSAFQAKABNAEkARAAoAEwATwBXAEUAUgAoAHIAYQB3AF8AbQBvAGQAZQApACwAUwBFAFEAVQBFAE4AQwBFACgATABFAE4AKAByAGEAdwBfAG0AbwBkAGUAKQApACwAMQApACkAKQAsAFwAbgAgACAAIAAgAG0AbwBkAGUALAAgAG4AbwByAG0AXwBtAG8AZABlACwAXABuAFwAbgAgACAAIAAgAGYAbwByAG0AYQB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGYAbwByAG0AYQB0ACkAIAArACAAKABmAG8AcgBtAGEAdAAgAD0AIABcACIAXAAiACkALAAgAFwAIgBiAGEAcgBlAFwAIgAsACAATABPAFcARQBSACgAZgBvAHIAbQBhAHQAKQApACwAXABuACAAIAAgACAAcAByAGUAYwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABwAHIAZQBjACkALAAgADQALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABJAG4AcAB1AHQAIAB1AG4AcABhAGMAawBpAG4AZwAgAGIAeQAgAG0AbwBkAGUAXABuACAAIAAgACAAUABfAGkAbgAsACAASQBGACgATwBSACgAbQBvAGQAZQA9AFwAIgBwAHEAXAAiACwAIABtAG8AZABlAD0AXAAiAHAAcwBcACIAKQAsACAAdgBhAGwAXwAxACwAIABOAEEAKAApACkALABcAG4AIAAgACAAIABRAF8AaQBuACwAIABJAEYAKABtAG8AZABlAD0AXAAiAHAAcQBcACIALAAgAHYAYQBsAF8AMgAsACAASQBGACgAbQBvAGQAZQA9AFwAIgBxAHMAXAAiACwAIAB2AGEAbABfADEALAAgAE4AQQAoACkAKQApACwAXABuACAAIAAgACAAUwBfAGkAbgAsACAASQBGACgATwBSACgAbQBvAGQAZQA9AFwAIgBwAHMAXAAiACwAIABtAG8AZABlAD0AXAAiAHEAcwBcACIAKQAsACAAdgBhAGwAXwAyACwAIABOAEEAKAApACkALABcAG4AXABuACAAIAAgACAALwAvACAAUAAgAGEAbgBkACAAUQAgAG8AcgBkAGUAcgBpAG4AZwAgAG8AbgBsAHkAIAB1AHMAZQBkACAAaQBuACAAJwBwAHEAJwAgAG0AbwBkAGUAXABuACAAIAAgACAAUAAsACAASQBGACgAQQBOAEQAKABJAFMATgBVAE0AQgBFAFIAKABQAF8AaQBuACkALAAgAEkAUwBOAFUATQBCAEUAUgAoAFEAXwBpAG4AKQApACwAIABNAEEAWAAoAFAAXwBpAG4ALAAgAFEAXwBpAG4AKQAsACAAUABfAGkAbgApACwAXABuACAAIAAgACAAUQAsACAASQBGACgAQQBOAEQAKABJAFMATgBVAE0AQgBFAFIAKABQAF8AaQBuACkALAAgAEkAUwBOAFUATQBCAEUAUgAoAFEAXwBpAG4AKQApACwAIABNAEkATgAoAFAAXwBpAG4ALAAgAFEAXwBpAG4AKQAsACAAUQBfAGkAbgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBcAG4AIAAgACAAIABTAF8AYwBhAGwAYwAsACAASQBGACgAUAAgAD0AIABRACwAIABOAEEAKAApACwAIABSAE8AVQBOAEQAKAAoAFAAIAAqACAAUQApACAALwAgACgAUAAgAC0AIABRACkALAAgAHAAcgBlAGMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEQAaQByAGUAYwB0AGkAbwBuAC0AYQB3AGEAcgBlACAAaQBuAHYAZQByAHMAZQAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACAAIAAgAFEAXwBjAGEAbABjACwAIABJAEYAKABPAFIAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFAAKQApACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFMAXwBpAG4AKQApACkALAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAoAFAAIAAqACAAUwBfAGkAbgApACAALwAgAEEAQgBTACgAUAAgAC0AIABTAF8AaQBuACkALAAgAHAAcgBlAGMAKQApACwAXABuAFwAbgAgACAAIAAgAFAAXwBjAGEAbABjACwAIABJAEYAKABPAFIAKABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFEAKQApACwAIABOAE8AVAAoAEkAUwBOAFUATQBCAEUAUgAoAFMAXwBpAG4AKQApACkALAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABSAE8AVQBOAEQAKAAoAFEAIAAqACAAUwBfAGkAbgApACAALwAgAEEAQgBTACgAUQAgAC0AIABTAF8AaQBuACkALAAgAHAAcgBlAGMAKQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAZQBsAGUAYwB0AGUAZAAgAHIAZQBzAHUAbAB0ACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAUABfAHYAYQBsACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgBxAHMAXAAiACwAIABQAF8AYwBhAGwAYwAsACAAUAApACwAXABuACAAIAAgACAAUQBfAHYAYQBsACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgBwAHMAXAAiACwAIABRAF8AYwBhAGwAYwAsACAAUQApACwAXABuACAAIAAgACAAUwBfAHYAYQBsACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgBwAHEAXAAiACwAIABTAF8AYwBhAGwAYwAsACAAUwBfAGkAbgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAbwBsAHYAZQBkACAAbABhAGIAZQBsAFwAbgAgACAAIAAgAGwAYQBiAGUAbAAsACAAUwBXAEkAVABDAEgAKABtAG8AZABlACwAIABcACIAcABxAFwAIgAsACAAXAAiAFMAXAAiACwAIABcACIAcABzAFwAIgAsACAAXAAiAFEAXAAiACwAIABcACIAcQBzAFwAIgAsACAAXAAiAFAAXAAiACwAIABcACIAPwBcACIAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABQAHIAaQBtAGEAcgB5ACAAcwBjAGEAbABhAHIAIAByAGUAcwB1AGwAdABcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAAUwBXAEkAVABDAEgAKABtAG8AZABlACwAIABcACIAcABxAFwAIgAsACAAUwBfAGMAYQBsAGMALAAgAFwAIgBwAHMAXAAiACwAIABRAF8AYwBhAGwAYwAsACAAXAAiAHEAcwBcACIALAAgAFAAXwBjAGEAbABjACwAIABOAEEAKAApACkALABcAG4AXABuACAAIAAgACAALwAvACAAVgBlAHIAYgBvAHMAZQAgAHQAZQB4AHQAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAB2AGUAcgBiAG8AcwBlAF8AbwB1AHQALABcAG4AIAAgACAAIAAgACAAXAAiAFAAIAA9ACAAXAAiACAAJgAgAEkARgAoAEkAUwBOAFUATQBCAEUAUgAoAFAAXwB2AGEAbAApACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgBxAHMAXAAiACwAIABcACIAHiYgAFwAIgAgACYAIABQAF8AdgBhAGwALAAgAFAAXwB2AGEAbAApACwAIABcACIAFCBcACIAKQAgACYAIABcACIALAAgAFwAIgAgACYAXABuACAAIAAgACAAIAAgAFwAIgBRACAAPQAgAFwAIgAgACYAIABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABRAF8AdgBhAGwAKQAsACAASQBGACgAbQBvAGQAZQAgAD0AIABcACIAcABzAFwAIgAsACAAXAAiAB4mIABcACIAIAAmACAAUQBfAHYAYQBsACwAIABRAF8AdgBhAGwAKQAsACAAXAAiABQgXAAiACkAIAAmACAAXAAiACwAIABcACIAIAAmAFwAbgAgACAAIAAgACAAIABcACIAUwAgAD0AIABcACIAIAAmACAASQBGACgASQBTAE4AVQBNAEIARQBSACgAUwBfAHYAYQBsACkALAAgAEkARgAoAG0AbwBkAGUAIAA9ACAAXAAiAHAAcQBcACIALAAgAFwAIgAeJiAAXAAiACAAJgAgAFMAXwB2AGEAbAAsACAAUwBfAHYAYQBsACkALAAgAFwAIgAUIFwAIgApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAcABpAGwAbABhAGIAbABlACAAdABhAGIAdQBsAGEAcgAgAG8AdQB0AHAAdQB0AHMAXABuACAAIAAgACAAcgBvAHcAXwBvAHUAdAAsAFwAbgAgACAAIAAgACAAIABWAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABtAG8AZABlAD0AXAAiAHEAcwBcACIALAAgAFwAIgBQACAAHiZcACIALAAgAFwAIgBQACAAPQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAG0AbwBkAGUAPQBcACIAcABzAFwAIgAsACAAXAAiAFEAIAAeJlwAIgAsACAAXAAiAFEAIAA9AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAbQBvAGQAZQA9AFwAIgBwAHEAXAAiACwAIABcACIAUwAgAB4mXAAiACwAIABcACIAUwAgAD0AXAAiACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFAAXwB2AGEAbAAsACAAUQBfAHYAYQBsACwAIABTAF8AdgBhAGwAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABjAG8AbABfAG8AdQB0ACwAXABuACAAIAAgACAAIAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAEkARgAoAG0AbwBkAGUAPQBcACIAcQBzAFwAIgAsACAAXAAiAFAAIAAeJlwAIgAsACAAXAAiAFAAIAA9AFwAIgApACwAIABQAF8AdgBhAGwAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABJAEYAKABtAG8AZABlAD0AXAAiAHAAcwBcACIALAAgAFwAIgBRACAAHiZcACIALAAgAFwAIgBRACAAPQBcACIAKQAsACAAUQBfAHYAYQBsACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgASQBGACgAbQBvAGQAZQA9AFwAIgBwAHEAXAAiACwAIABcACIAUwAgAB4mXAAiACwAIABcACIAUwAgAD0AXAAiACkALAAgAFMAXwB2AGEAbAApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEYAaQBuAGEAbAAgAHMAdwBpAHQAYwBoACAAZgBvAHIAIAByAGUAdAB1AHIAbgAgAHQAeQBwAGUAXABuACAAIAAgACAAbwB1AHQAcAB1AHQALABcAG4AIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABmAG8AcgBtAGEAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAGIAYQByAGUAXAAiACwAIAByAGUAcwB1AGwAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAGwAYQBiAGUAbABlAGQAXAAiACwAIABsAGEAYgBlAGwAIAAmACAAXAAiACAAPQAgAFwAIgAgACYAIAByAGUAcwB1AGwAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAHYAZQByAGIAbwBzAGUAXAAiACwAIAB2AGUAcgBiAG8AcwBlAF8AbwB1AHQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgByAG8AdwBcACIALAAgAHIAbwB3AF8AbwB1AHQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBjAG8AbABcACIALAAgAGMAbwBsAF8AbwB1AHQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAZgBvAHIAbQBhAHQAXAAiAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFAAUQBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAGEAbABjAHUAbABhAHQAZQBzACAAdABoAGUAIABzAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIAAoAFMAKQAgAGIAZQB0AHcAZQBlAG4AIAB0AHcAbwAgAHAAbABhAG4AZQB0AGEAcgB5ACAAYgBvAGQAaQBlAHMAXABuACAAIAAgAGIAYQBzAGUAZAAgAG8AbgAgAHQAaABlAGkAcgAgAHMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZABzACAAUAAgAGEAbgBkACAAUQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAUAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZAAgAG8AZgAgAHQAaABlACAAaQBuAG4AZQByACAAKABmAGEAcwB0AGUAcgApACAAYgBvAGQAeQBcAG4AIAAgACAALQAgAFEAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABTAGkAZABlAHIAZQBhAGwAIABvAHIAYgBpAHQAYQBsACAAcABlAHIAaQBvAGQAIABvAGYAIAB0AGgAZQAgAG8AdQB0AGUAcgAgACgAcwBsAG8AdwBlAHIAKQAgAGIAbwBkAHkAXABuACAAIAAgAC0AIABvAHUAdABwAHUAdAAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AdQB0AHAAdQB0ACAAZgBvAHIAbQBhAHQALgAgAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAYgBhAHIAZQBcACIAIAA9ACAAUgBlAHQAdQByAG4AcwAgAHMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgAG8AbgBsAHkAIAAoAGQAZQBmAGEAdQBsAHQAKQBcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAHYAZQByAGIAbwBzAGUAXAAiACAAPQAgAFIAZQB0AHUAcgBuAHMAIABhACAAMgAtAGMAbwBsAHUAbQBuACAAdgBlAHIAdABpAGMAYQBsACAAdABhAGIAbABlADoAIABQACwAIABRACwAIABTACwAIAB3AGkAdABoACAAdABoAGUAIAByAGUAcwB1AGwAdAAgAGYAbABhAGcAZwBlAGQAIAAoAB4mKQBcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABEAGUAYwBpAG0AYQBsACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAANAApAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAUwB5AG4AbwBkAGkAYwAgAHAAZQByAGkAbwBkACAAKABiAGEAcgBlACkALAAgAG8AcgBcAG4AIAAgACAALQAgAFYAZQByAGIAbwBzAGUAIAAyAC0AYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkAIAB3AGkAdABoACAAbABhAGIAZQBsAGUAZAAgAFAALAAgAFEALAAgAGEAbgBkACAAUwAgAHYAYQBsAHUAZQBzAFwAbgAgACAAIAAgACAAKABTACAAaQBzACAAZgBsAGEAZwBnAGUAZAAgAHcAaQB0AGgAIABhACAAHiYgAHQAbwAgAGkAbgBkAGkAYwBhAHQAZQAgAGkAdAAnAHMAIAB0AGgAZQAgAHMAbwBsAHYAZQBkACAAdgBhAGwAdQBlACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFMAIAA9ACAAKABQACAA1wAgAFEAKQAgAC8AIAB8AFAAIAASIiAAUQB8ACwAIABhAHMAcwB1AG0AaQBuAGcAIABQACAAYCIgAFEAXABuACAAIAAgAC0AIABJAG4AcAB1AHQAcwAgAG0AYQB5ACAAYgBlACAAcAByAG8AdgBpAGQAZQBkACAAaQBuACAAYQBuAHkAIABvAHIAZABlAHIAOwAgAHQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAaQBuAHQAZQByAG4AYQBsAGwAeQAgAGEAcwBzAGkAZwBuAHMAIABQAC8AUQAgAGYAbwByACAAYwBvAHIAcgBlAGMAdAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBcAG4AIAAgACAALQAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIABwAHIAZQBkAGkAYwB0AGkAbgBnACAAYwBvAG4AagB1AG4AYwB0AGkAbwBuACAAaQBuAHQAZQByAHYAYQBsAHMAIABvAHIAIABvAHIAYgBpAHQAYQBsACAAcgBlAHMAbwBuAGEAbgBjAGUAIABtAG8AZABlAGwAaQBuAGcAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBQAFEAKAAzADYANQAuADIANQAsACAANgA4ADcALAAgAFwAIgB2AGUAcgBiAG8AcwBlAFwAIgAsACAANAApAFwAbgAgACAAIAAgACAAkiFcAG4AIAAgACAAIAAgACAAIABQACAAPQAgACAAIAAgACAAIAAzADYANQAuADIANQBcAG4AIAAgACAAIAAgACAAIABRACAAPQAgACAAIAAgACAAIAA2ADgANwBcAG4AIAAgACAAIAAgACAAIABTACAAHiYgAD0AIAAgACAAIAA3ADcAOQAuADgAOAAxADEAXABuACoALwBcAG4AXABuAFwAbgBBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUABRACAAPQBcAG4ATABBAE0AQgBEAEEAKABQACwAIABRACwAIABbAG8AdQB0AHAAdQB0AF0ALAAgAFsAcAByAGUAYwBdACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAbwBwAHQAaQBvAG4AYQBsACAAYQByAGcAdQBtAGUAbgB0AHMAXABuACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABvAHUAdABwAHUAdAApACAAKwAgACgAbwB1AHQAcAB1AHQAIAA9ACAAXAAiAFwAIgApACwAIABcACIAYgBhAHIAZQBcACIALAAgAEwATwBXAEUAUgAoAG8AdQB0AHAAdQB0ACkAKQAsAFwAbgAgACAAIAAgAGQAaQBnAGkAdABzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANAAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFMAbwByAHQAIABmAG8AcgAgAHMAdABhAGIAaQBsAGkAdAB5ACAAaQBuACAAcwB5AG4AbwBkAGkAYwAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBcAG4AIAAgACAAIABBACwAIABNAEEAWAAoAFAALAAgAFEAKQAsAFwAbgAgACAAIAAgAEIALAAgAE0ASQBOACgAUAAsACAAUQApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEMAYQBsAGMAdQBsAGEAdABlACAAcwB5AG4AbwBkAGkAYwAgAHAAZQByAGkAbwBkAFwAbgAgACAAIAAgAFMALAAgAFIATwBVAE4ARAAoACgAQQAgACoAIABCACkAIAAvACAAKABBACAALQAgAEIAKQAsACAAZABpAGcAaQB0AHMAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABUAHcAbwAtAGMAbwBsAHUAbQBuACAAdgBlAHIAYgBvAHMAZQAgAG8AdQB0AHAAdQB0ACAAKABsAGEAYgBlAGwAcwAgAHAAcgBlAHMAZQByAHYAZQBkACkAXABuACAAIAAgACAAdgBlAHIAYgBvAHMAZQAsAFwAbgAgACAAIAAgACAAIABWAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcACIAUAAgAD0AXAAiACwAIABQACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXAAiAFEAIAA9AFwAIgAsACAAUQApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAIgBTACAAHiZcACIALAAgAFMAKQBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABPAHUAdABwAHUAdAAgAHMAZQBsAGUAYwB0AGkAbwBuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgB2AGUAcgBiAG8AcwBlAFwAIgAsACAAdgBlAHIAYgBvAHMAZQAsACAAUwApACwAXABuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFAAUwBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAGEAbABjAHUAbABhAHQAZQBzACAAdABoAGUAIABzAGkAZABlAHIAZQBhAGwAIABvAHIAYgBpAHQAYQBsACAAcABlAHIAaQBvAGQAIABRACAAbwBmACAAdABoAGUAIABvAHUAdABlAHIAIABiAG8AZAB5AFwAbgAgACAAIABiAGEAcwBlAGQAIABvAG4AIAB0AGgAZQAgAHMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgACgAUwApACAAYQBuAGQAIAB0AGgAZQAgAGsAbgBvAHcAbgAgAGkAbgBuAGUAcgAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZAAgACgAUAApAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABQACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAUwBpAGQAZQByAGUAYQBsACAAbwByAGIAaQB0AGEAbAAgAHAAZQByAGkAbwBkACAAbwBmACAAdABoAGUAIABpAG4AbgBlAHIAIAAoAGYAYQBzAHQAZQByACkAIABiAG8AZAB5AFwAbgAgACAAIAAtACAAUwAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAeQBuAG8AZABpAGMAIABwAGUAcgBpAG8AZAAgACgAbwBiAHMAZQByAHYAZQBkACAAaQBuAHQAZQByAHYAYQBsACAAYgBlAHQAdwBlAGUAbgAgAGMAbwBuAGoAdQBuAGMAdABpAG8AbgBzACkAXABuACAAIAAgAC0AIABvAHUAdABwAHUAdAAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AdQB0AHAAdQB0ACAAZgBvAHIAbQBhAHQALgAgAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAYgBhAHIAZQBcACIAIAA9ACAAUgBlAHQAdQByAG4AcwAgAFEAIABvAG4AbAB5ACAAKABkAGUAZgBhAHUAbAB0ACkAXABuACAAIAAgACAAIAAgACAALQAgAFwAIgB2AGUAcgBiAG8AcwBlAFwAIgAgAD0AIABSAGUAdAB1AHIAbgBzACAAYQAgADIALQBjAG8AbAB1AG0AbgAgAHYAZQByAHQAaQBjAGEAbAAgAHQAYQBiAGwAZQA6ACAAUAAsACAAUQAsACAAUwAsACAAdwBpAHQAaAAgAFEAIABmAGwAYQBnAGcAZQBkACAAKAAeJikAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADQAKQBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAALQAgAFMAaQBkAGUAcgBlAGEAbAAgAHAAZQByAGkAbwBkACAAUQAgACgAYgBhAHIAZQApACwAIABvAHIAXABuACAAIAAgAC0AIABWAGUAcgBiAG8AcwBlACAAMgAtAGMAbwBsAHUAbQBuACAAYQByAHIAYQB5ACAAdwBpAHQAaAAgAGwAYQBiAGUAbABlAGQAIABQACwAIABRACwAIABhAG4AZAAgAFMAIAB2AGEAbAB1AGUAcwBcAG4AIAAgACAAIAAgACgAUQAgAGkAcwAgAGYAbABhAGcAZwBlAGQAIAB3AGkAdABoACAAHiYgAHQAbwAgAGkAbgBkAGkAYwBhAHQAZQAgAGkAdAAnAHMAIAB0AGgAZQAgAHMAbwBsAHYAZQBkACAAdgBhAGwAdQBlACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFEAIAA9ACAAKABQACAA1wAgAFMAKQAgAC8AIAAoAFAAIAASIiAAUwApAFwAbgAgACAAIAAtACAAQQBzAHMAdQBtAGUAcwAgAFMAIAA8ACAAUAAgACgAcwB5AG4AbwBkAGkAYwAgAHAAZQByAGkAbwBkACAAbQB1AHMAdAAgAGIAZQAgAHMAaABvAHIAdABlAHIAIAB0AGgAYQBuACAAcwBsAG8AdwBlAHIAIABiAG8AZAB5ACcAcwAgAG8AcgBiAGkAdAApAFwAbgAgACAAIAAtACAARABlAHMAaQBnAG4AZQBkACAAZgBvAHIAIABzAHkAcwB0AGUAbQBzACAAdwBoAGUAcgBlACAAcwB5AG4AbwBkAGkAYwAgAGkAbgB0AGUAcgB2AGEAbABzACAAYQByAGUAIABtAGUAYQBzAHUAcgBlAGQAIABhAG4AZAAgAGkAbgBuAGUAcgAgAGIAbwBkAHkAIABpAHMAIABrAG4AbwB3AG4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBQAFMAKAAzADYANQAuADIANQAsACAANwA3ADkALgA4ADgAMQAxACwAIABcACIAdgBlAHIAYgBvAHMAZQBcACIALAAgADQAKQBcAG4AIAAgACAAIAAgAJIhXABuACAAIAAgACAAIAAgACAAUAAgAD0AIAAgACAAIAAgACAAMwA2ADUALgAyADUAXABuACAAIAAgACAAIAAgACAAUQAgAB4mIAA9ACAAIAAgACAANgA4ADcAXABuACAAIAAgACAAIAAgACAAUwAgAD0AIAAgACAAIAAgACAANwA3ADkALgA4ADgAMQAxAFwAbgAqAC8AXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFAAUwAgAD0AXABuAEwAQQBNAEIARABBACgAUAAsACAAUwAsACAAWwBvAHUAdABwAHUAdABdACwAIABbAHAAcgBlAGMAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIAAvAC8AIABPAHAAdABpAG8AbgBhAGwAIABhAHIAZwB1AG0AZQBuAHQAIABoAGEAbgBkAGwAaQBuAGcAXABuACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABvAHUAdABwAHUAdAApACAAKwAgACgAbwB1AHQAcAB1AHQAIAA9ACAAXAAiAFwAIgApACwAIABcACIAYgBhAHIAZQBcACIALAAgAEwATwBXAEUAUgAoAG8AdQB0AHAAdQB0ACkAKQAsAFwAbgAgACAAIAAgAGQAaQBnAGkAdABzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAANAAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAEMAbwBtAHAAdQB0AGUAIABRACAAKABvAHUAdABlAHIAIABvAHIAYgBpAHQAKQBcAG4AIAAgACAAIABRACwAIABSAE8AVQBOAEQAKAAoAFAAIAAqACAAUwApACAALwAgAEEAQgBTACgAUAAgAC0AIABTACkALAAgAGQAaQBnAGkAdABzACkALABcAG4AXABuACAAIAAgACAALwAvACAAVgBlAHIAYgBvAHMAZQAgAHMAcABpAGwAbAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgAHYAZQByAGIAbwBzAGUALABcAG4AIAAgACAAIAAgACAAVgBTAFQAQQBDAEsAKABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXAAiAFAAIAA9AFwAIgAsACAAUAApACwAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAIgBRACAAHiZcACIALAAgAFEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcACIAUwAgAD0AXAAiACwAIABTACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAALwAvACAATwB1AHQAcAB1AHQAIABjAGgAbwBpAGMAZQBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsACAASQBGACgAbQBvAGQAZQAgAD0AIABcACIAdgBlAHIAYgBvAHMAZQBcACIALAAgAHYAZQByAGIAbwBzAGUALAAgAFEAKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBRAFMAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBhAGwAYwB1AGwAYQB0AGUAcwAgAHQAaABlACAAcwBpAGQAZQByAGUAYQBsACAAbwByAGIAaQB0AGEAbAAgAHAAZQByAGkAbwBkACAAUAAgAG8AZgAgAHQAaABlACAAaQBuAG4AZQByACAAKABmAGEAcwB0AGUAcgApACAAYgBvAGQAeQBcAG4AIAAgACAAYgBhAHMAZQBkACAAbwBuACAAdABoAGUAIABzAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIAAoAFMAKQAgAGEAbgBkACAAdABoAGUAIABrAG4AbwB3AG4AIABvAHUAdABlAHIAIABvAHIAYgBpAHQAYQBsACAAcABlAHIAaQBvAGQAIAAoAFEAKQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAUQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFMAaQBkAGUAcgBlAGEAbAAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZAAgAG8AZgAgAHQAaABlACAAbwB1AHQAZQByACAAKABzAGwAbwB3AGUAcgApACAAYgBvAGQAeQBcAG4AIAAgACAALQAgAFMAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABTAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIAAoAG8AYgBzAGUAcgB2AGUAZAAgAGkAbgB0AGUAcgB2AGEAbAAgAGIAZQB0AHcAZQBlAG4AIABjAG8AbgBqAHUAbgBjAHQAaQBvAG4AcwApAFwAbgAgACAAIAAtACAAbwB1AHQAcAB1AHQAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABPAHUAdABwAHUAdAAgAGYAbwByAG0AYQB0AC4AIABcAG4AIAAgACAAIAAgACAAIAAtACAAXAAiAGIAYQByAGUAXAAiACAAPQAgAFIAZQB0AHUAcgBuAHMAIABQACAAbwBuAGwAeQAgACgAZABlAGYAYQB1AGwAdAApAFwAbgAgACAAIAAgACAAIAAgAC0AIABcACIAdgBlAHIAYgBvAHMAZQBcACIAIAA9ACAAUgBlAHQAdQByAG4AcwAgAGEAIAAyAC0AYwBvAGwAdQBtAG4AIAB2AGUAcgB0AGkAYwBhAGwAIAB0AGEAYgBsAGUAOgAgAFAALAAgAFEALAAgAFMALAAgAHcAaQB0AGgAIABQACAAZgBsAGEAZwBnAGUAZAAgACgAHiYpAFwAbgAgACAAIAAtACAAcAByAGUAYwAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAEQAZQBjAGkAbQBhAGwAIABwAHIAZQBjAGkAcwBpAG8AbgAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA0ACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABTAGkAZABlAHIAZQBhAGwAIABwAGUAcgBpAG8AZAAgAFAAIAAoAGIAYQByAGUAKQAsACAAbwByAFwAbgAgACAAIAAtACAAVgBlAHIAYgBvAHMAZQAgADIALQBjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAgAHcAaQB0AGgAIABsAGEAYgBlAGwAZQBkACAAUAAsACAAUQAsACAAYQBuAGQAIABTACAAdgBhAGwAdQBlAHMAXABuACAAIAAgACAAIAAoAFAAIABpAHMAIABmAGwAYQBnAGcAZQBkACAAdwBpAHQAaAAgAB4mIAB0AG8AIABpAG4AZABpAGMAYQB0AGUAIABpAHQAJwBzACAAdABoAGUAIABzAG8AbAB2AGUAZAAgAHYAYQBsAHUAZQApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABQACAAPQAgACgAUQAgANcAIABTACkAIAAvACAAKABRACAAKwAgAFMAKQBcAG4AIAAgACAALQAgAFUAcwBlAGQAIAB3AGgAZQBuACAAdABoAGUAIABzAHkAbgBvAGQAaQBjACAAcABlAHIAaQBvAGQAIABhAG4AZAAgAHMAbABvAHcAZQByACAAbwByAGIAaQB0ACAAYQByAGUAIABrAG4AbwB3AG4AIAAoAGUALgBnAC4ALAAgAG8AYgBzAGUAcgB2AGEAdABpAG8AbgBhAGwAIABhAHMAdAByAG8AbgBvAG0AeQApAFwAbgAgACAAIAAtACAATwB1AHQAcAB1AHQAIABsAGEAeQBvAHUAdAAgAGkAcwAgAGMAbwBuAHMAaQBzAHQAZQBuAHQAIABhAGMAcgBvAHMAcwAgAGEAbABsACAAcwB5AG4AbwBkAGkAYwAgAHMAbwBsAHYAZQByACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBRAFMAKAA2ADgANwAsACAANwA3ADkALgA4ADgAMQAxACwAIABcACIAdgBlAHIAYgBvAHMAZQBcACIALAAgADQAKQBcAG4AIAAgACAAIAAgAJIhXABuACAAIAAgACAAIAAgACAAUAAgAB4mIAA9ACAAIAAgACAAMwA2ADUALgAyADUAXABuACAAIAAgACAAIAAgACAAUQAgAD0AIAAgACAAIAAgACAANgA4ADcAXABuACAAIAAgACAAIAAgACAAUwAgAD0AIAAgACAAIAAgACAANwA3ADkALgA4ADgAMQAxAFwAbgAqAC8AXABuAFwAbgBcAG4AQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFEAUwAgAD0AXABuAEwAQQBNAEIARABBACgAUQAsACAAUwAsACAAWwBvAHUAdABwAHUAdABdACwAIABbAHAAcgBlAGMAXQAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG8AdQB0AHAAdQB0ACkAIAArACAAKABvAHUAdABwAHUAdAAgAD0AIABcACIAXAAiACkALAAgAFwAIgBiAGEAcgBlAFwAIgAsACAATABPAFcARQBSACgAbwB1AHQAcAB1AHQAKQApACwAXABuACAAIAAgACAAZABpAGcAaQB0AHMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAA0ACwAIABwAHIAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAAQwBvAHIAcgBlAGMAdAAgAGYAbwByAG0AdQBsAGEAOgAgAFAAIAA9ACAAKABRACAAKgAgAFMAKQAgAC8AIAAoAFEAIAArACAAUwApAFwAbgAgACAAIAAgAFAALAAgAFIATwBVAE4ARAAoACgAUQAgACoAIABTACkAIAAvACAAKABRACAAKwAgAFMAKQAsACAAZABpAGcAaQB0AHMAKQAsAFwAbgBcAG4AIAAgACAAIAB2AGUAcgBiAG8AcwBlACwAXABuACAAIAAgACAAIAAgAFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAIgBQACAAHiZcACIALAAgAFAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABcACIAUQAgAD0AXAAiACwAIABRACkALABcAG4AIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAXAAiAFMAIAA9AFwAIgAsACAAUwApAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABJAEYAKABtAG8AZABlACAAPQAgAFwAIgB2AGUAcgBiAG8AcwBlAFwAIgAsACAAdgBlAHIAYgBvAHMAZQAsACAAUAApACwAXABuACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABBAFMAVABSAE8AXwBBAFAAUABBAFIARQBOAFQAXwBTAE8ATABBAFIAXwBTAEkAWgBFAFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAEMAYQBsAGMAdQBsAGEAdABlAHMAIAB0AGgAZQAgAGEAcABwAGEAcgBlAG4AdAAgAGEAbgBnAHUAbABhAHIAIABkAGkAYQBtAGUAdABlAHIAIABvAGYAIABhACAAcwB0AGEAcgAgACgAbwByACAAbwB0AGgAZQByACAAbwBiAGoAZQBjAHQAKQAgAGEAcwAgAHMAZQBlAG4AIABmAHIAbwBtACAAYQAgAHMAcABlAGMAaQBmAGkAZQBkACAAZABpAHMAdABhAG4AYwBlACwAXABuACAAIAAgAGUAeABwAHIAZQBzAHMAZQBkACAAYQBzACAAYQAgAG0AdQBsAHQAaQBwAGwAZQAgAG8AZgAgAHQAaABlACAAUwB1AG4AGSBzACAAYQBwAHAAYQByAGUAbgB0ACAAcwBpAHoAZQAgAGYAcgBvAG0AIABFAGEAcgB0AGgALgBcAG4AXABuACAAIAAgAEkAbgBwAHUAdABzADoAXABuACAAIAAgAC0AIAByAGEAZABpAHUAcwAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFIAYQBkAGkAdQBzACAAbwBmACAAdABoAGUAIABvAGIAagBlAGMAdAAsACAAaQBuACAAcwBvAGwAYQByACAAcgBhAGQAaQBpACAAKABSAAkmKQBcAG4AIAAgACAALQAgAGQAaQBzAHQAYQBuAGMAZQAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEQAaQBzAHQAYQBuAGMAZQAgAHQAbwAgAHQAaABlACAAbwBiAGoAZQBjAHQALAAgAGkAbgAgAGEAcwB0AHIAbwBuAG8AbQBpAGMAYQBsACAAdQBuAGkAdABzACAAKABBAFUAKQBcAG4AIAAgACAALQAgAGYAbwByAG0AYQB0ACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATwB1AHQAcAB1AHQAIABtAG8AZABlAC4AXABuACAAIAAgACAAIAAgACAAXAAiAHIAYQB3AFwAIgAgACAAIAAgACAAIAAgAJIhIAByAGUAdAB1AHIAbgBzACAAbgB1AG0AZQByAGkAYwAgAHMAYwBhAGwAYQByACAAKABlAC4AZwAuACwAIAAxAC4ANQA0ADUAKQBcAG4AIAAgACAAIAAgACAAIABcACIAZgBvAHIAbQBhAHQAdABlAGQAXAAiACAAkiEgAHIAZQB0AHUAcgBuAHMAIABzAHQAcgBpAG4AZwAgAGYAbwByAG0AYQB0AHQAZQBkACAAYQBzACAAKABlAC4AZwAuACwAIABcACIAMQAuADUANAA1AAkmXAAiACkAXABuACAAIAAgACAAIAAgACAARABlAGYAYQB1AGwAdAAgACAAIAAgACAAkiEgAFwAIgBmAG8AcgBtAGEAdAB0AGUAZABcACIAXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIAByAG8AdQBuAGQAIAB0AG8AIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAANAApAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAQQBwAHAAYQByAGUAbgB0ACAAYQBuAGcAdQBsAGEAcgAgAHMAaQB6AGUAIABvAGYAIAB0AGgAZQAgAG8AYgBqAGUAYwB0ACAAYQBzACAAYQAgAG0AdQBsAHQAaQBwAGwAZQAgAG8AZgAgAHQAaABlACAAUwB1AG4AGSBzAC4AXABuACAAIAAgACAAIAAxAC4AMAAgAG0AZQBhAG4AcwAgAHQAaABlACAAbwBiAGoAZQBjAHQAIABhAHAAcABlAGEAcgBzACAAZQB4AGEAYwB0AGwAeQAgAHQAaABlACAAcwBhAG0AZQAgAHMAaQB6AGUAIABhAHMAIAB0AGgAZQAgAFMAdQBuACAAaQBuACAARQBhAHIAdABoACcAcwAgAHMAawB5AC4AXABuACAAIAAgACAAIAA+ADEALgAwACAAbQBlAGEAbgBzACAAbABhAHIAZwBlAHIAOwAgADwAMQAuADAAIABtAGUAYQBuAHMAIABzAG0AYQBsAGwAZQByAC4AXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEEAcwBzAHUAbQBlAHMAIAB0AGgAYQB0ACAAaQBuAHAAdQB0AHMAIABhAHIAZQAgAGkAbgAgAHMAbwBsAGEAcgAgAHIAYQBkAGkAaQAgAGEAbgBkACAAQQBVACwAIAB3AGgAaQBjAGgAIABjAGEAbgBjAGUAbAAgAG4AYQB0AHUAcgBhAGwAbAB5ACAAdABvACAAYQAgAHUAbgBpAHQAbABlAHMAcwAgAHIAYQB0AGkAbwAuAFwAbgAgACAAIAAtACAAVQBzAGUAZgB1AGwAIABmAG8AcgAgAHcAbwByAGwAZABiAHUAaQBsAGQAaQBuAGcALAAgAHYAaQBzAHUAYQBsACAAcwB0AG8AcgB5AHQAZQBsAGwAaQBuAGcALAAgAGEAbgBkACAAYwBvAG0AcABhAHIAYQB0AGkAdgBlACAAYQBzAHQAcgBvAG4AbwBtAHkALgBcAG4AIAAgACAALQAgAE0AYQB5ACAAYgBlACAAZQB4AHAAYQBuAGQAZQBkACAAaQBuACAAZgB1AHQAdQByAGUAIAB0AG8AIABzAHUAcABwAG8AcgB0ACAAdAByAHUAZQAgAGEAbgBnAHUAbABhAHIAIAB1AG4AaQB0AHMAIAAoAGEAcgBjAG0AaQBuACwAIABkAGUAZwByAGUAZQBzACwAIABlAHQAYwAuACkAXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAEEAUABQAEEAUgBFAE4AVABfAFMATwBMAEEAUgBfAFMASQBaAEUAIAA9AFwAbgBMAEEATQBCAEQAQQAoAHIAYQBkAGkAdQBzACwAIABkAGkAcwB0AGEAbgBjAGUALAAgAFsAZgBvAHIAbQBhAHQAXQAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAALwAvACAAUwBlAHQAIABkAGUAZgBhAHUAbAB0ACAAcAByAGUAYwBpAHMAaQBvAG4AIABpAGYAIABvAG0AaQB0AHQAZQBkAFwAbgAgACAAIAAgAHAALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACwAIAA0ACwAIABwAHIAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAAQwBvAHIAZQAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgA6ACAAcgBhAHQAaQBvACAAbwBmACAAcgBhAGQAaQB1AHMAIAB0AG8AIABkAGkAcwB0AGEAbgBjAGUAXABuACAAIAAgACAAcgBhAHcALAAgAHIAYQBkAGkAdQBzACAALwAgAGQAaQBzAHQAYQBuAGMAZQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbgBkAGkAdABpAG8AbgBhAGwAIABvAHUAdABwAHUAdAAgAGYAbwByAG0AYQB0AHQAaQBuAGcAXABuACAAIAAgACAAcgBlAHMAdQBsAHQALABcAG4AIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAGYAbwByAG0AYQB0ACkALAAgAGYAbwByAG0AYQB0ACAAPQAgAFwAIgBmAG8AcgBtAGEAdAB0AGUAZABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABFAFgAVAAoAHIAYQB3ACwAIABcACIAMAAuAFwAIgAgACYAIABSAEUAUABUACgAXAAiADAAXAAiACwAIABwACkAKQAgACYAIABcACIACSZcACIALAAgACAALwAvACAAZQAuAGcALgAsACAAXAAiADEALgA1ADQANQAwAAkmXAAiAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAByAGUAdAB1AHIAbgAgAHMAYwBhAGwAYQByAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAE8AUgBCAEkAVABfAEMATwBOAEYASQBHAFUAUgBBAFQASQBPAE4AXwBJAE4ARABFAFgAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBvAG0AcAB1AHQAZQBzACAAYQAgAGQAaQBtAGUAbgBzAGkAbwBuAGwAZQBzAHMAIABpAG4AZABlAHgAIAB0AGgAYQB0ACAAYwBoAGEAcgBhAGMAdABlAHIAaQB6AGUAcwAgAHQAaABlACAAYwBvAG4AZgBpAGcAdQByAGEAdABpAG8AbgBcAG4AIAAgACAAbwBmACAAYQAgAHQAdwBvAC0AYgBvAGQAeQAgAG8AcgBiAGkAdABhAGwAIABzAHkAcwB0AGUAbQAgAGIAYQBzAGUAZAAgAG8AbgAgAG0AYQBzAHMAIABhAHMAeQBtAG0AZQB0AHIAeQAuACAAVABoAGkAcwAgAGkAbgBkAGUAeABcAG4AIAAgACAAcAByAGUAZABpAGMAdABzACAAdwBoAGUAdABoAGUAcgAgAG8AcgBiAGkAdABzACAAdwBpAGwAbAAgAGIAZQAgAG4AZQBzAHQAZQBkACwAIAB0AGEAbgBnAGUAbgB0AGkAYQBsACwAIABvAHIAIABjAHIAbwBzAHMAaQBuAGcALgBcAG4AXABuACAAIAAgAEkAbgBwAHUAdABzADoAXABuACAAIAAgAC0AIABtAGEAcwBzADEAOgAgAEYAaQByAHMAdAAgAGIAbwBkAHkAIABtAGEAcwBzACAAKABzAG8AbABhAHIAIABtAGEAcwBzAGUAcwApAFwAbgAgACAAIAAtACAAbQBhAHMAcwAyADoAIABTAGUAYwBvAG4AZAAgAGIAbwBkAHkAIABtAGEAcwBzACAAKABzAG8AbABhAHIAIABtAGEAcwBzAGUAcwApAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAQwBvAG4AZgBpAGcAdQByAGEAdABpAG8AbgAgAGkAbgBkAGUAeAAgAKQAcAAgAD0AIAB8AG0AMQAgABIiIABtADIAfAAgAC8AIAAoAG0AMQAgACsAIABtADIAKQAsACAAcgBhAG4AZwBlACAAWwAwACwAIAAxACkAXABuAFwAbgAgACAAIABJAG4AdABlAHIAcAByAGUAdABhAHQAaQBvAG4AOgBcAG4AIAAgACAALQAgADwAIAAwAC4ANAAxADQAMgAgACgAGiIyACAAEiIgADEAKQAgAJIhIABDAHIAbwBzAHMAaQBuAGcAIABvAHIAYgBpAHQAcwBcAG4AIAAgACAALQAgAD0AIAAwAC4ANAAxADQAMgAgACAAIAAgACAAIAAgACAAIAAgAJIhIABUAGEAbgBnAGUAbgB0AGkAYQBsACAAYgBvAHUAbgBkAGEAcgB5ACAAKABzAGkAbAB2AGUAcgAgAHIAYQB0AGkAbwApAFwAbgAgACAAIAAtACAAPgAgADAALgA0ADEANAAyACAAIAAgACAAIAAgACAAIAAgACAAkiEgAE4AZQBzAHQAZQBkACAAbwByAGIAaQB0AHMAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFQAaABpAHMAIABpAG4AZABlAHgAIABpAHMAIABzAGMAYQBsAGUALQBpAG4AdgBhAHIAaQBhAG4AdAAgAGEAbgBkACAAcwB5AG0AbQBlAHQAcgBpAGMALgBcAG4AIAAgACAALQAgAFUAcwBlAGYAdQBsACAAaQBuACAAdwBvAHIAbABkAGIAdQBpAGwAZABpAG4AZwAsACAAYwBsAGEAcwBzAGkAZgBpAGMAYQB0AGkAbwBuACwAIABhAG4AZAAgAGIAaQBuAGEAcgB5ACAAcwB5AHMAdABlAG0AIABtAG8AZABlAGwAaQBuAGcALgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ATwBSAEIASQBUAF8AQwBPAE4ARgBJAEcAVQBSAEEAVABJAE8ATgBfAEkATgBEAEUAWAAgAD0AXABuAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALABcAG4AIAAgAEEAQgBTACgAbQBhAHMAcwAxACAALQAgAG0AYQBzAHMAMgApACAALwAgACgAbQBhAHMAcwAxACAAKwAgAG0AYQBzAHMAMgApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8AUwBQAEgARQBSAEkAQwBBAEwAXwBUAE8AXwBDAEEAUgBUAEUAUwBJAEEATgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAG8AbgB2AGUAcgB0AHMAIABzAHAAaABlAHIAaQBjAGEAbAAgAGMAbwBvAHIAZABpAG4AYQB0AGUAcwAgAHQAbwAgAEMAYQByAHQAZQBzAGkAYQBuACAAKAB4ACwAIAB5ACwAIAB6ACkALABcAG4AIAAgACAAYQBzAHMAdQBtAGkAbgBnACAAcABoAGkAIABpAHMAIABpAG4AYwBsAGkAbgBhAHQAaQBvAG4AIABmAHIAbwBtACAAdABoAGUAIAB2AGUAcgB0AGkAYwBhAGwAIABhAHgAaQBzACAAYQBuAGQAIAB0AGgAZQB0AGEAIABpAHMAIABhAHoAaQBtAHUAdABoAC4AXABuAFwAbgAgACAAIABJAG4AcAB1AHQAcwA6AFwAbgAgACAAIAAtACAAcABoAGkAOgAgACAAIAAgAEkAbgBjAGwAaQBuAGEAdABpAG8AbgAgAGEAbgBnAGwAZQAgACgAZABlAGcAcgBlAGUAcwApACwAIAAwACAAPQAgAG4AbwByAHQAaAAgAHAAbwBsAGUALAAgADkAMAAgAD0AIABlAHEAdQBhAHQAbwByACwAIAAxADgAMAAgAD0AIABzAG8AdQB0AGgAIABwAG8AbABlAFwAbgAgACAAIAAtACAAdABoAGUAdABhADoAIAAgAEEAegBpAG0AdQB0AGgAYQBsACAAYQBuAGcAbABlACAAKABkAGUAZwByAGUAZQBzACkALAAgADAAIAA9ACAAcAByAGkAbQBlACAAbQBlAHIAaQBkAGkAYQBuACwAIAA5ADAAIAA9ACAAZQBhAHMAdABcAG4AIAAgACAALQAgAHIAOgAgACAAIAAgACAAIABSAGEAZABpAGEAbAAgAGQAaQBzAHQAYQBuAGMAZQBcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABEAGUAYwBpAG0AYQBsACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAMQDXADMAIABhAHIAcgBhAHkAOgAgAHsAeAAsACAAeQAsACAAegB9ACwAIAByAG8AdQBuAGQAZQBkACAAdABvACAAWwBwAHIAZQBjAF0AIABkAGkAZwBpAHQAcwBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAQwBvAG0AcABhAHQAaQBiAGwAZQAgAHcAaQB0AGgAIABtAGEAcABwAGkAbgBnACAAYQBuAGQAIABzAGkAbQB1AGwAYQB0AGkAbwBuACAAcwB5AHMAdABlAG0AcwAgAHUAcwBpAG4AZwAgAHMAcABoAGUAcgBpAGMAYQBsACAAZwBlAG8AbQBlAHQAcgB5AC4AXABuACAAIAAgAC0AIABBAHMAcwB1AG0AZQBzACAAcwB0AGEAbgBkAGEAcgBkACAAcgBpAGcAaAB0AC0AaABhAG4AZABlAGQAIABjAG8AbwByAGQAaQBuAGEAdABlACAAcwB5AHMAdABlAG0ALgBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8AUwBQAEgARQBSAEkAQwBBAEwAXwBUAE8AXwBDAEEAUgBUAEUAUwBJAEEATgAgAD0AXABuAEwAQQBNAEIARABBACgAcABoAGkALAAgAHQAaABlAHQAYQAsACAAcgAsACAAcAByAGUAYwAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIAAvAC8AIABIAGEAbgBkAGwAZQAgAGQAZQBmAGEAdQBsAHQAIABwAHIAZQBjAGkAcwBpAG8AbgBcAG4AIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAgACsAIAAoAHAAcgBlAGMAIAA8ACAAMAApACwAIAAzACwAIABwAHIAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAAQwBvAG4AdgBlAHIAdAAgAGQAZQBnAHIAZQBlAHMAIAB0AG8AIAByAGEAZABpAGEAbgBzAFwAbgAgACAAIAAgAHAAaABpAF8AcgBhAGQALAAgAFIAQQBEAEkAQQBOAFMAKABwAGgAaQApACwAXABuACAAIAAgACAAdABoAGUAdABhAF8AcgBhAGQALAAgAFIAQQBEAEkAQQBOAFMAKAB0AGgAZQB0AGEAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABUAHIAaQBnACAAYwBhAGwAYwB1AGwAYQB0AGkAbwBuAHMAXABuACAAIAAgACAAeABfAHIAYQB3ACwAIAByACAAKgAgAFMASQBOACgAcABoAGkAXwByAGEAZAApACAAKgAgAEMATwBTACgAdABoAGUAdABhAF8AcgBhAGQAKQAsAFwAbgAgACAAIAAgAHkAXwByAGEAdwAsACAAcgAgACoAIABTAEkATgAoAHAAaABpAF8AcgBhAGQAKQAgACoAIABTAEkATgAoAHQAaABlAHQAYQBfAHIAYQBkACkALABcAG4AIAAgACAAIAB6AF8AcgBhAHcALAAgAHIAIAAqACAAQwBPAFMAKABwAGgAaQBfAHIAYQBkACkALABcAG4AXABuACAAIAAgACAALwAvACAAUgBvAHUAbgBkACAAYQBuAGQAIAByAGUAdAB1AHIAbgAgAGEAcwAgADEA1wAzACAAYQByAHIAYQB5AFwAbgAgACAAIAAgAHgALAAgAFIATwBVAE4ARAAoAHgAXwByAGEAdwAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAeQAsACAAUgBPAFUATgBEACgAeQBfAHIAYQB3ACwAIABwAHIAZQBjACkALABcAG4AIAAgACAAIAB6ACwAIABSAE8AVQBOAEQAKAB6AF8AcgBhAHcALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIABIAFMAVABBAEMASwAoAHgALAAgAHkALAAgAHoAKQBcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAEMAQQBSAFQARQBTAEkAQQBOAF8AVABPAF8AUwBQAEgARQBSAEkAQwBBAEwAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBvAG4AdgBlAHIAdABzACAAQwBhAHIAdABlAHMAaQBhAG4AIABjAG8AbwByAGQAaQBuAGEAdABlAHMAIAAoAHgALAAgAHkALAAgAHoAKQAgAGkAbgB0AG8AIABzAHAAaABlAHIAaQBjAGEAbAAgAGMAbwBvAHIAZABpAG4AYQB0AGUAcwA6AFwAbgAgACAAIABpAG4AYwBsAGkAbgBhAHQAaQBvAG4AIAAoAHAAaABpACkALAAgAGEAegBpAG0AdQB0AGgAIAAoAHQAaABlAHQAYQApACwAIABhAG4AZAAgAHIAYQBkAGkAdQBzACAAKAByACkALgBcAG4AXABuACAAIAAgAEkAbgBwAHUAdABzADoAXABuACAAIAAgAC0AIAB4ACwAIAB5ACwAIAB6ADoAIABDAGEAcgB0AGUAcwBpAGEAbgAgAGMAbwBvAHIAZABpAG4AYQB0AGUAcwBcAG4AIAAgACAALQAgAHAAcgBlAGMAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABEAGUAYwBpAG0AYQBsACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAGQAZQBmAGEAdQBsAHQAIAA9ACAAMwApAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAAMQDXADMAIABhAHIAcgBhAHkAOgAgAHsAcABoAGkALAAgAHQAaABlAHQAYQAsACAAcgB9ACwAIAByAG8AdQBuAGQAZQBkACAAdABvACAAWwBwAHIAZQBjAF0AIABkAGkAZwBpAHQAcwBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAcABoAGkAIAA9ACAAaQBuAGMAbABpAG4AYQB0AGkAbwBuACAAZgByAG8AbQAgAHYAZQByAHQAaQBjAGEAbAAgACgAMAAgAD0AIABwAG8AbABlACwAIAA5ADAAIAA9ACAAZQBxAHUAYQB0AG8AcgApAFwAbgAgACAAIAAtACAAdABoAGUAdABhACAAPQAgAGEAegBpAG0AdQB0AGgAYQBsACAAZABpAHIAZQBjAHQAaQBvAG4AIABmAHIAbwBtACAAeAAtAGEAeABpAHMALAAgADAAEyAzADYAMACwAFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBDAEEAUgBUAEUAUwBJAEEATgBfAFQATwBfAFMAUABIAEUAUgBJAEMAQQBMACAAPQBcAG4ATABBAE0AQgBEAEEAKAB4ACwAIAB5ACwAIAB6ACwAIABwAHIAZQBjACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAZABlAGYAYQB1AGwAdAAgAHIAbwB1AG4AZABpAG4AZwAgAHAAcgBlAGMAaQBzAGkAbwBuAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwApACAAKwAgACgAcAByAGUAYwAgADwAIAAwACkALAAgADMALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAcgBhAGQAaQBhAGwAIABkAGkAcwB0AGEAbgBjAGUAIABmAHIAbwBtACAAbwByAGkAZwBpAG4AXABuACAAIAAgACAAcgAsACAAUwBRAFIAVAAoAHgAXgAyACAAKwAgAHkAXgAyACAAKwAgAHoAXgAyACkALABcAG4AXABuACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAGkAbgBjAGwAaQBuAGEAdABpAG8AbgAgAGEAbgBnAGwAZQAgAGYAcgBvAG0AIAB2AGUAcgB0AGkAYwBhAGwAIABhAHgAaQBzACAAKAB6ACkAXABuACAAIAAgACAAcABoAGkALAAgAEQARQBHAFIARQBFAFMAKABBAEMATwBTACgAegAgAC8AIAByACkAKQAsAFwAbgBcAG4AIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAYQB6AGkAbQB1AHQAaABhAGwAIABhAG4AZwBsAGUAIABpAG4AIAB4AC0AeQAgAHAAbABhAG4AZQAsACAAbgBvAHIAbQBhAGwAaQB6AGUAZAAgAHQAbwAgAFsAMAAsACAAMwA2ADAAKQBcAG4AIAAgACAAIAB0AGgAZQB0AGEALAAgAE0ATwBEACgARABFAEcAUgBFAEUAUwAoAEEAVABBAE4AMgAoAHkALAAgAHgAKQApACwAIAAzADYAMAApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAFIAbwB1AG4AZAAgAGEAbABsACAAbwB1AHQAcAB1AHQAcwBcAG4AIAAgACAAIABwAGgAaQBfAG8AdQB0ACwAIABSAE8AVQBOAEQAKABwAGgAaQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAdABoAGUAdABhAF8AbwB1AHQALAAgAFIATwBVAE4ARAAoAHQAaABlAHQAYQAsACAAcAByAGUAYwApACwAXABuACAAIAAgACAAcgBfAG8AdQB0ACwAIABSAE8AVQBOAEQAKAByACwAIABwAHIAZQBjACkALABcAG4AXABuACAAIAAgACAALwAvACAAUgBlAHQAdQByAG4AIABhAHMAIAAxANcAMwAgAGEAcgByAGEAeQBcAG4AIAAgACAAIABIAFMAVABBAEMASwAoAHAAaABpAF8AbwB1AHQALAAgAHQAaABlAHQAYQBfAG8AdQB0ACwAIAByAF8AbwB1AHQAKQBcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBEAEUARwBfAEQARQBDAF8ARABNAFMAIAA9ACAATABBAE0AQgBEAEEAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAARABlAGcALAAgAFQAUgBVAE4AQwAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIABGAHIAYQBjAFAAbwByAHQAaQBvAG4ALAAgAEEAQgBTACgARABlAGMAaQBtAGEAbABEAGUAZwByAGUAZQBzACAALQAgAEQAZQBnACkALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIAAgACAAIAAgAE0AaQBuAF8AcABhAHIAdAAsACAAVABSAFUATgBDACgATQBpAG4AdQB0AGUAcwApACAALwAgADEAMAAwACwAXABuACAAIAAgACAAIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAEYAcgBhAGMATQBpAG4ALAAgAEEAQgBTACgATQBpAG4AdQB0AGUAcwAgAC0AIABJAG4AdABNAGkAbgApACwAXABuACAAIAAgACAAIAAgACAAIABTAGUAYwBvAG4AZABzACwAIABGAHIAYQBjAE0AaQBuACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBlAGMAXwBwAGEAcgB0ACwAIABTAGUAYwBvAG4AZABzACAALwAgADEAMAAwADAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEQAZQBnACAAKwAgAE0AaQBuAF8AcABhAHIAdAAgACsAIABzAGUAYwBfAHAAYQByAHQALABcAG4AIAAgACAAIAAgACAAIAAgAEYASQBYAEUARAAoAG8AdQB0AHAAdQB0ACwAIAA3ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARABFAEcAXwBEAE0AUwAgAD0AIABMAEEATQBCAEQAQQAoAEQAZQBjAGkAbQBhAGwARABlAGcAcgBlAGUAcwAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuAFwAbgBMAEUAVAAoAFwAbgAgACAAIAAgAGQAZQBjAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAUAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAUAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgAgACAAIAAgAEQAZQBnACwAIABUAFIAVQBOAEMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAKQAsAFwAbgAgACAAIAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAsACAAQQBCAFMAKABEAGUAYwBpAG0AYQBsAEQAZQBnAHIAZQBlAHMAIAAtACAARABlAGcAKQAsAFwAbgAgACAAIAAgAE0AaQBuAHUAdABlAHMALAAgAEYAcgBhAGMAUABvAHIAdABpAG8AbgAgACoAIAA2ADAALABcAG4AIAAgACAAIABJAG4AdABNAGkAbgAsACAASQBOAFQAKABNAGkAbgB1AHQAZQBzACkALABcAG4AIAAgACAAIABGAHIAYQBjAE0AaQBuACwAIABBAEIAUwAoAE0AaQBuAHUAdABlAHMAIAAtACAASQBuAHQATQBpAG4AKQAsAFwAbgAgACAAIAAgAFMAZQBjAG8AbgBkAHMALAAgAEYAcgBhAGMATQBpAG4AIAAqACAANgAwACwAXABuACAAIAAgACAARABlAGcAIAAmACAAXAAiALAAIABcACIAIAAmACAASQBuAHQATQBpAG4AIAAmACAAQwBIAEEAUgAoADMAOQApACAAJgAgAEMASABBAFIAKAAzADIAKQAgACYAIABGAEkAWABFAEQAKABTAGUAYwBvAG4AZABzACwAIABkAGUAYwBwAHIAZQBjACkAIAAmACAAQwBIAEEAUgAoADMANAApAFwAbgApAFwAbgApADsAXABuAFwAbgBEAEUARwBfAEQATQBTAF8ARABFAEMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGcAcgBlAGUAcwAsACAAVABSAFUATgBDACgAaQBuAHAAdQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AaQBuAHUAdABlAHMALAAgAFQAUgBVAE4AQwAoACgAaQBuAHAAdQB0ACAALQAgAGQAZQBnAHIAZQBlAHMAKQAgACoAIAAxADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAHQAaQBvAG4AYQBsAF8AcwBlAGMAbwBuAGQAcwAsACAAKAAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACAALQAgAFQAUgBVAE4AQwAoAGkAbgBwAHUAdAAgACoAIAAxADAAMAApACkAIAAvACAAMAAuADYALABcAG4AIAAgACAAIAAgACAAIAAgAC8AKgAgACAAKgAvAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAGQAZQBnAHIAZQBlAHMAIAArACAAKAAoAG0AaQBuAHUAdABlAHMAIAArACAAZgByAGEAYwB0AGkAbwBuAGEAbABfAHMAZQBjAG8AbgBkAHMAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAQQBTAFQAUgBPAF8ATwBSAEIASQBUAF8AQQBYAEkAUwBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAG8AbQBwAHUAdABlAHMAIAB0AGgAZQAgAHMAZQBtAGkALQBtAGEAagBvAHIAIABhAHgAaQBzACAAKABpAG4AIABBAFUAKQAgAG8AZgAgAGEAIAB0AHcAbwAtAGIAbwBkAHkAIABzAHkAcwB0AGUAbQBcAG4AIAAgACAAYgBhAHMAZQBkACAAbwBuACAAdABvAHQAYQBsACAAbQBhAHMAcwAgACgAaQBuACAAcwBvAGwAYQByACAAbQBhAHMAcwBlAHMAKQAgAGEAbgBkACAAbwByAGIAaQB0AGEAbAAgAHAAZQByAGkAbwBkACAAKABpAG4AIAB5AGUAYQByAHMAKQAuAFwAbgBcAG4AIAAgACAASQBuAHAAdQB0AHMAOgBcAG4AIAAgACAALQAgAG0AYQBzAHMAMQA6ACAAUAByAGkAbQBhAHIAeQAgAG0AYQBzAHMAIAAoAGkAbgAgAHMAbwBsAGEAcgAgAG0AYQBzAHMAZQBzACkAXABuACAAIAAgAC0AIABtAGEAcwBzADIAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABTAGUAYwBvAG4AZABhAHIAeQAgAG0AYQBzAHMAIAAoAGkAbgAgAHMAbwBsAGEAcgAgAG0AYQBzAHMAZQBzADsAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAwACAAaQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAD0AIAAxACkAXABuACAAIAAgAC0AIABwAGUAcgBpAG8AZAA6ACAATwByAGIAaQB0AGEAbAAgAHAAZQByAGkAbwBkACAAKABpAG4AIAB5AGUAYQByAHMAKQBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAALQAgAE8AcgBiAGkAdABhAGwAIABhAHgAaQBzACAAaQBuACAAYQBzAHQAcgBvAG4AbwBtAGkAYwBhAGwAIAB1AG4AaQB0AHMAIAAoAEEAVQApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABVAHMAZQBzACAATgBlAHcAdABvAG4AaQBhAG4AIABmAG8AcgBtACAAbwBmACAASwBlAHAAbABlAHIAJwBzACAAVABoAGkAcgBkACAATABhAHcALgBcAG4AIAAgACAALQAgAG0AYQBzAHMAMgAgAGkAcwAgAGMAbwBuAHYAZQByAHQAZQBkACAAZgByAG8AbQAgAHMAbwBsAGEAcgAgAG0AYQBzAHMAZQBzACAAaQBmACAAcAByAGUAcwBlAG4AdAAuAFwAbgAqAC8AXABuAFwAbgBBAFMAVABSAE8AXwBPAFIAQgBJAFQAXwBBAFgASQBTACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALAAgAHAAZQByAGkAbwBkACwAXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAG0AXwAyACwAIABJAEYAKAAoAEkAUwBPAE0ASQBUAFQARQBEACgAbQBhAHMAcwAyACkAKQAgACsAIAAoAG0AYQBzAHMAMgAgAD0AIAAxACkALAAgADAALAAgAG0AYQBzAHMAMgAgACoAIAAzAC4AMAAwADMARQAtADYAKQAsAFwAbgAgACAAIAAgAGEAeABpAHMALAAgAFAATwBXAEUAUgAoACgAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQAgACoAIAAoAG0AYQBzAHMAMQAgACsAIABtAF8AMgApACkALAAgADEAIAAvACAAMwApACwAXABuACAAIAAgACAAYQB4AGkAcwBcAG4AIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoAIABBAFMAVABSAE8AXwBPAFIAQgBJAFQAXwBQAEUAUgBJAE8ARABcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAG8AbQBwAHUAdABlAHMAIAB0AGgAZQAgAG8AcgBiAGkAdABhAGwAIABwAGUAcgBpAG8AZAAgACgAaQBuACAAeQBlAGEAcgBzACkAIABvAGYAIABhACAAdAB3AG8ALQBiAG8AZAB5ACAAcwB5AHMAdABlAG0AXABuACAAIAAgAGIAYQBzAGUAZAAgAG8AbgAgAHQAbwB0AGEAbAAgAG0AYQBzAHMAIAAoAGkAbgAgAHMAbwBsAGEAcgAgAG0AYQBzAHMAZQBzACkAIABhAG4AZAAgAHMAZQBtAGkALQBtAGEAagBvAHIAIABhAHgAaQBzACAAKABpAG4AIABBAFUAKQAuAFwAbgBcAG4AIAAgACAASQBuAHAAdQB0AHMAOgBcAG4AIAAgACAALQAgAG0AYQBzAHMAMQA6ACAAUAByAGkAbQBhAHIAeQAgAG0AYQBzAHMAIAAoAGkAbgAgAHMAbwBsAGEAcgAgAG0AYQBzAHMAZQBzACkAXABuACAAIAAgAC0AIABtAGEAcwBzADIAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABTAGUAYwBvAG4AZABhAHIAeQAgAG0AYQBzAHMAIAAoAGkAbgAgAHMAbwBsAGEAcgAgAG0AYQBzAHMAZQBzADsAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAwACAAaQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAD0AIAAxACkAXABuACAAIAAgAC0AIABhAHgAaQBzADoAIABPAHIAYgBpAHQAYQBsACAAYQB4AGkAcwAgACgAaQBuACAAQQBVACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABPAHIAYgBpAHQAYQBsACAAcABlAHIAaQBvAGQAIABpAG4AIAB5AGUAYQByAHMAXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAE8AUgBCAEkAVABfAFAARQBSAEkATwBEACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAcwAxACwAIABtAGEAcwBzADIALAAgAGEAeABpAHMALABcAG4AIAAgAEwARQBUACgAXABuACAAIAAgACAAbQBfADIALAAgAEkARgAoACgASQBTAE8ATQBJAFQAVABFAEQAKABtAGEAcwBzADIAKQApACAAKwAgACgAbQBhAHMAcwAyACAAPQAgADEAKQAsACAAMAAsACAAbQBhAHMAcwAyACAAKgAgADMALgAwADAAMgA3ADMARQAtADYAKQAsAFwAbgAgACAAIAAgAHAAZQByAGkAbwBkACwAIABTAFEAUgBUACgAUABPAFcARQBSACgAYQB4AGkAcwAsACAAMwApACAALwAgACgAbQBhAHMAcwAxACAAKwAgAG0AXwAyACkAKQAsAFwAbgAgACAAIAAgAHAAZQByAGkAbwBkAFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAE8AUgBCAEkAVABfAFMAVQBNAF8ATQBBAFMAUwBFAFMAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBvAG0AcAB1AHQAZQBzACAAdABoAGUAIABjAG8AbQBiAGkAbgBlAGQAIABtAGEAcwBzACAAKABpAG4AIABzAG8AbABhAHIAIABtAGEAcwBzAGUAcwApACAAbwBmACAAYQAgAHQAdwBvAC0AYgBvAGQAeQAgAHMAeQBzAHQAZQBtAFwAbgAgACAAIABmAHIAbwBtACAAbwByAGIAaQB0AGEAbAAgAGEAeABpAHMAIAAoAGkAbgAgAEEAVQApACAAYQBuAGQAIABwAGUAcgBpAG8AZAAgACgAaQBuACAAeQBlAGEAcgBzACkALgBcAG4AXABuACAAIAAgAEkAbgBwAHUAdABzADoAXABuACAAIAAgAC0AIABhAHgAaQBzADoAIABTAGUAbQBpAC0AbQBhAGoAbwByACAAYQB4AGkAcwAgACgAQQBVACkAXABuACAAIAAgAC0AIABwAGUAcgBpAG8AZAA6ACAATwByAGIAaQB0AGEAbAAgAHAAZQByAGkAbwBkACAAKAB5AGUAYQByAHMAKQBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAALQAgAFQAbwB0AGEAbAAgAHMAeQBzAHQAZQBtACAAbQBhAHMAcwAgACgAaQBuACAAcwBvAGwAYQByACAAbQBhAHMAcwBlAHMAKQBcAG4AKgAvAFwAbgBcAG4AQQBTAFQAUgBPAF8ATwBSAEIASQBUAF8AUwBVAE0AXwBNAEEAUwBTAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGEAeABpAHMALAAgAHAAZQByAGkAbwBkACwAXABuACAAIABQAE8AVwBFAFIAKABhAHgAaQBzACwAIAAzACkAIAAvACAAUABPAFcARQBSACgAcABlAHIAaQBvAGQALAAgADIAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAgAEEAUwBUAFIATwBfAE8AUgBCAEkAVABfAFMATwBMAFYARQBSAFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAFUAbgBpAGYAaQBlAGQAIABzAG8AbAB2AGUAcgAgAGYAbwByACAAbwByAGIAaQB0AGEAbAAgAGEAeABpAHMALAAgAHAAZQByAGkAbwBkACwAIABvAHIAIAB0AG8AdABhAGwAIABtAGEAcwBzACAAaQBuACAAYQAgAHQAdwBvAC0AYgBvAGQAeQAgAHMAeQBzAHQAZQBtAC4AXABuACAAIAAgAFMAZQBsAGUAYwB0AHMAIABhAHAAcAByAG8AcAByAGkAYQB0AGUAIABmAG8AcgBtAHUAbABhACAAYgBhAHMAZQBkACAAbwBuACAAbQBvAGQAZQAuAFwAbgBcAG4AIAAgACAASQBuAHAAdQB0AHMAOgBcAG4AIAAgACAALQAgAG0AbwBkAGUAOgAgAE8AbgBlACAAbwBmACAAXAAiAGEAeABpAHMAXAAiACwAIABcACIAcABlAHIAaQBvAGQAXAAiACwAIABvAHIAIABcACIAbQBhAHMAcwBcACIAXABuACAAIAAgAC0AIAB2AGEAbABfADEAOgAgAEYAaQByAHMAdAAgAGsAbgBvAHcAbgAgAHYAYQBsAHUAZQAgACgAZABlAHAAZQBuAGQAcwAgAG8AbgAgAG0AbwBkAGUAKQBcAG4AIAAgACAALQAgAHYAYQBsAF8AMgA6ACAAUwBlAGMAbwBuAGQAIABrAG4AbwB3AG4AIAB2AGEAbAB1AGUAIAAoAGQAZQBwAGUAbgBkAHMAIABvAG4AIABtAG8AZABlACkAXABuACAAIAAgAC0AIABtAGEAcwBzADIAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABTAGUAYwBvAG4AZABhAHIAeQAgAG0AYQBzAHMAIAAoAGkAbgAgAHMAbwBsAGEAcgAgAG0AYQBzAHMAZQBzADsAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAwACAAaQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAD0AIAAxACkAXABuACAAIAAgAC0AIABwAHIAZQBjAGkAcwBpAG8AbgAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAEQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgAGYAbwByACAAZgBvAHIAbQBhAHQAdABlAGQAIABvAHUAdABwAHUAdAAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA0ACkAXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAC0AIABSAGUAcwB1AGwAdAAgAGEAcwAgAGEAIABuAHUAbQBiAGUAcgAgAG8AcgAgAGwAYQBiAGUAbABlAGQAIABzAHQAcgBpAG4AZwAsACAAZABlAHAAZQBuAGQAaQBuAGcAIABvAG4AIABtAG8AZABlACAAYQBuAGQAIABmAG8AcgBtAGEAdABcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAbQBhAHMAcwAyACAAaQBzACAAbwBuAGwAeQAgAHIAZQBsAGUAdgBhAG4AdAAgAGYAbwByACAAXAAiAGEAeABpAHMAXAAiACAAYQBuAGQAIABcACIAcABlAHIAaQBvAGQAXAAiACAAbQBvAGQAZQBzAC4AXABuACoALwBcAG4AXABuAEEAUwBUAFIATwBfAE8AUgBCAEkAVABfAFMATwBMAFYARQBSACAAPQBcAG4ATABBAE0AQgBEAEEAKABtAG8AZABlACwAIAB2AGEAbABfADEALAAgAHYAYQBsAF8AMgAsACAAbQBhAHMAcwAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgAsAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABtAF8AMgAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABtAGEAcwBzADIAKQAgACsAIAAoAG0AYQBzAHMAMgAgAD0AIAAxACkALAAgADAALAAgAG0AYQBzAHMAMgAgACoAIAAzAC4AMAAwADMARQAtADYAKQAsAFwAbgAgACAAIAAgAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAANAAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgBcAG4AIAAgACAAIAByAGUAcwB1AGwAdAAsAFwAbgAgACAAIAAgACAAIABTAFcASQBUAEMASAAoAEwATwBXAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAGEAeABpAHMAXAAiACwAIABQAE8AVwBFAFIAKAAoAFAATwBXAEUAUgAoAHYAYQBsAF8AMgAsACAAMgApACAAKgAgACgAdgBhAGwAXwAxACAAKwAgAG0AXwAyACkAKQAsACAAMQAgAC8AIAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBwAGUAcgBpAG8AZABcACIALAAgAFMAUQBSAFQAKABQAE8AVwBFAFIAKAB2AGEAbABfADIALAAgADMAKQAgAC8AIAAoAHYAYQBsAF8AMQAgACsAIABtAF8AMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgBtAGEAcwBzAFwAIgAsACAAUABPAFcARQBSACgAdgBhAGwAXwAxACwAIAAzACkAIAAvACAAUABPAFcARQBSACgAdgBhAGwAXwAyACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAbABhAGIAZQBsACwAXABuACAAIAAgACAAIAAgAFMAVwBJAFQAQwBIACgATABPAFcARQBSACgAbQBvAGQAZQApACwAXABuACAAIAAgACAAIAAgACAAIABcACIAYQB4AGkAcwBcACIALAAgAFwAIgBBAHgAaQBzACAAPQAgAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAHAAZQByAGkAbwBkAFwAIgAsACAAXAAiAFAAZQByAGkAbwBkACAAPQAgAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiAG0AYQBzAHMAXAAiACwAIABcACIATQBhAHMAcwAgAD0AIABcACIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgA/AFwAIgBcAG4AIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIABUAEUAWABUACgAcgBlAHMAdQBsAHQALAAgAFwAIgAwAC4AXAAiACAAJgAgAFIARQBQAFQAKABcACIAMABcACIALAAgAHAAcgBlAGMAKQApACAAJgAgAFwAIgAgAFwAIgAgACYAIABsAGEAYgBlAGwAXABuACAAIAApAFwAbgApADsAIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBHAGUAbgBlAHIAYQBsACIALAAiAHQAZQB4AHQAIgA6ACIALwAqACAAUgBFAEMASQBQADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAcgBlAGMAaQBwAHIAbwBjAGEAbAAgACgAbQB1AGwAdABpAHAAbABpAGMAYQB0AGkAdgBlACAAaQBuAHYAZQByAHMAZQApACAAbwBmACAAYQAgAG4AdQBtAGIAZQByAC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgAEEAIABzAGkAbgBnAGwAZQAgAGQAZQBjAGkAbQBhAGwAIAB2AGEAbAB1AGUAIABlAHEAdQBhAGwAIAB0AG8AIAAxACAAZABpAHYAaQBkAGUAZAAgAGIAeQAgAHQAaABlACAAaQBuAHAAdQB0AC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABpAG4AcAB1AHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBAG4AeQAgAG4AbwBuAHoAZQByAG8AIABuAHUAbQBlAHIAaQBjACAAdgBhAGwAdQBlAC4AXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFIAZQB0AHUAcgBuAHMAIABgACMARABJAFYALwAwACEAYAAgAGkAZgAgAGkAbgBwAHUAdAAgAGkAcwAgAHoAZQByAG8ALgBcAG4AIAAgACAALQAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIABmAGwAaQBwAHAAaQBuAGcAIABmAHIAYQBjAHQAaQBvAG4AcwAsACAAYwBvAG4AdgBlAHIAdABpAG4AZwAgAHIAYQB0AGUAcwAgACgAZQAuAGcALgAsACAASAB6ACAAlCEgAHMAZQBjAG8AbgBkAHMAKQAsACAAbwByACAAaQBuAHYAZQByAHQAaQBuAGcAIAByAGEAdABpAG8AcwAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIAAgACAAUgBFAEMASQBQACgANAApACAAkiEgADAALgAyADUAXABuACAAIAAgACAAIABSAEUAQwBJAFAAKAAwAC4AMgApACAAkiEgADUAXABuACoALwBcAG4AXABuAFwAbgBSAEUAQwBJAFAAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALAAgADEAIAAvACAAaQBuAHAAdQB0ACkAOwBcAG4AXABuAC8AKgAgAEYAUgBBAEMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAKABuAG8AbgAtAGkAbgB0AGUAZwBlAHIAKQAgAHAAYQByAHQAIABvAGYAIABhACAAbgB1AG0AYgBlAHIALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHMAYwBhAGwAYQByACAAZABlAGMAaQBtAGEAbAAgAGIAZQB0AHcAZQBlAG4AIAAwACAAYQBuAGQAIAAxACAAKABvAHIAIAAtADEAIABhAG4AZAAgADAAIABpAGYAIABzAGkAZwBuACAAaQBzACAAcAByAGUAcwBlAHIAdgBlAGQAKQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAVABoAGUAIABuAHUAbQBiAGUAcgAgAHQAbwAgAGUAeAB0AHIAYQBjAHQAIAB0AGgAZQAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0ACAAZgByAG8AbQAuAFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AdQB0AHAAdQB0ACAAbQBvAGQAZQAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAwACkAXABuACAAIAAgACAAIAAgACAALQAgADAAOgAgAEEAbAB3AGEAeQBzACAAcgBlAHQAdQByAG4AIABwAG8AcwBpAHQAaQB2AGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdABcAG4AIAAgACAAIAAgACAAIAAtACAAMQA6ACAAUAByAGUAcwBlAHIAdgBlACAAcwBpAGcAbgAgAG8AZgAgAGkAbgBwAHUAdAAgACgAZQAuAGcALgAsACAALQAzAC4AMgA1ACAAkiEgAC0AMAAuADIANQApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABDAG8AbQBwAGwAZQBtAGUAbgB0AHMAIABFAHgAYwBlAGwAGSBzACAAVABSAFUATgBDACAAYQBuAGQAIABRAFUATwBUAEkARQBOAFQAIABmAHUAbgBjAHQAaQBvAG4AcwAuAFwAbgAgACAAIAAtACAAVQBzAGUAZgB1AGwAIABmAG8AcgAgAGQAZQB0AGUAYwB0AGkAbgBnACAAZABlAGMAaQBtAGEAbAAgAHIAZQBtAGEAaQBuAGQAZQByAHMAIABhAG4AZAAgAGEAbgBhAGwAeQB6AGkAbgBnACAAbwBmAGYAcwBlAHQAcwAgAGYAcgBvAG0AIAB3AGgAbwBsAGUAIAB2AGEAbAB1AGUAcwAuAFwAbgAgACAAIAAtACAAUwBpAGcAbgAtAHAAcgBlAHMAZQByAHYAaQBuAGcAIABtAG8AZABlACAAYwBhAG4AIABpAG4AZABpAGMAYQB0AGUAIAB3AGgAZQB0AGgAZQByACAAYQAgAHYAYQBsAHUAZQAgAGkAcwAgAGoAdQBzAHQAIABhAGIAbwB2AGUAIABvAHIAIABqAHUAcwB0ACAAYgBlAGwAbwB3ACAAYQBuACAAaQBuAHQAZQBnAGUAcgAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgAEYAUgBBAEMAKAAtADMALgAyADUAKQAgACAAIAAgACAAIAAgAJIhIAAwAC4AMgA1ACAAIABcAG4AIAAgACAARgBSAEEAQwAoAC0AMwAuADIANQAsACAAMQApACAAIAAgACAAkiEgAC0AMAAuADIANQBcAG4AKgAvAFwAbgBcAG4AXABuAEYAUgBBAEMAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALAAgAFsAbQBvAGQAZQBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABtAG8AZABlACAAdABvACAAMAAgAGkAZgAgAG8AbQBpAHQAdABlAGQAIABvAHIAIABpAG4AdgBhAGwAaQBkAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgATwBSACgASQBTAE8ATQBJAFQAVABFAEQAKABtAG8AZABlACkALAAgAG0AbwBkAGUAIAA+ACAAMQApACwAIAAwACwAIABtAG8AZABlACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbQBwAHUAdABlACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIABiAHkAIABzAHUAYgB0AHIAYQBjAHQAaQBuAGcAIABpAG4AdABlAGcAZQByACAAcABvAHIAdABpAG8AbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAcgBhAGMAXwBwAGEAcgB0ACwAIABpAG4AcAB1AHQAIAAtACAAVABSAFUATgBDACgAaQBuAHAAdQB0ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABSAGUAdAB1AHIAbgAgAHMAaQBnAG4AZQBkACAAbwByACAAYQBiAHMAbwBsAHUAdABlACAAdgBhAGwAdQBlACAAZABlAHAAZQBuAGQAaQBuAGcAIABvAG4AIABtAG8AZABlAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAbQBvAGQAZQAgAD0AIAAxACwAIABmAHIAYQBjAF8AcABhAHIAdAAsACAAQQBCAFMAKABmAHIAYQBjAF8AcABhAHIAdAApACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAAUgBPAE8AVAA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHgALQB0AGgAIAByAG8AbwB0ACAAbwBmACAAYQAgAG4AdQBtAGIAZQByACAAKABvAHIAIABzAHEAdQBhAHIAZQAgAHIAbwBvAHQAIABpAGYAIABuAG8AIABkAGUAZwByAGUAZQAgAGkAcwAgAHMAcABlAGMAaQBmAGkAZQBkACkALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHIAZQBhAGwAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAcgBvAG8AdAAgAG8AZgAgAGAAbgBgAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABuACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAVABoAGUAIABuAHUAbQBiAGUAcgAgAHQAbwAgAHQAYQBrAGUAIAB0AGgAZQAgAHIAbwBvAHQAIABvAGYALgBcAG4AIAAgACAALQAgAHgAIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABUAGgAZQAgAHIAbwBvAHQAIABkAGUAZwByAGUAZQAuACAARABlAGYAYQB1AGwAdABzACAAdABvACAAMgAgACgAcwBxAHUAYQByAGUAIAByAG8AbwB0ACkALgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAUgBlAGoAZQBjAHQAcwAgAGEAbABsACAAbgBlAGcAYQB0AGkAdgBlACAAaQBuAHAAdQB0ACAAdgBhAGwAdQBlAHMAIABmAG8AcgAgAGAAbgBgACwAIAByAGUAZwBhAHIAZABsAGUAcwBzACAAbwBmACAAcgBvAG8AdAAuAFwAbgAgACAAIAAtACAATQBpAG0AaQBjAHMAIABFAHgAYwBlAGwAJwBzACAAYgBlAGgAYQB2AGkAbwByACAAKAByAGUAdAB1AHIAbgBzACAAIwBOAFUATQAhACAAaQBmACAAcgBvAG8AdAAgAHcAbwB1AGwAZAAgAGIAZQAgAGMAbwBtAHAAbABlAHgAKQAuAFwAbgAgACAAIAAtACAAVQBzAGUAIABFAHgAYwBlAGwAGSBzACAAYABJAE0AUABPAFcARQBSAGAAIABvAHIAIABgAEkATQBTAFEAUgBUAGAAIABmAG8AcgAgAGMAbwBtAHAAbABlAHgAIABuAHUAbQBiAGUAcgAgAHMAdQBwAHAAbwByAHQALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAcwA6AFwAbgAgACAAIABSAE8ATwBUACgAMQA2ACkAIAAgACAAIAAgACAAIACSISAANABcAG4AIAAgACAAUgBPAE8AVAAoADIANwAsACAAMwApACAAIAAgACAAkiEgADMAXABuACAAIAAgAFIATwBPAFQAKAA5ACwAIAAwAC4ANQApACAAIAAgAJIhIAA4ADEAXABuACAAIAAgAFIATwBPAFQAKAAtADUALAAgADMAKQAgACAAIAAgAJIhIAAjAE4AVQBNACEAXABuACoALwBcAG4AXABuAFIATwBPAFQAIAA9ACAATABBAE0AQgBEAEEAKABuACwAIABbAHgAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAByAG8AbwB0AF8AZABlAGcAcgBlAGUALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAeAApACwAIAAyACwAIAB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAG4AIAA8ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAFEAUgBUACgALQAxACkALAAgACAALwAvACAAVAByAGkAZwBnAGUAcgBzACAAIwBOAFUATQAhACAAZQByAHIAbwByACAAZgBvAHIAIABuAGUAZwBhAHQAaQB2AGUAIABiAGEAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABuACAAXgAgACgAMQAgAC8AIAByAG8AbwB0AF8AZABlAGcAcgBlAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACAARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAXABuACAAIAAgAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwAgAGEAIABvAG4AZQAtAGwAaQBuAGUALAAgAGwAYQBiAGUAbABlAGQAIAB2AGUAcgBzAGkAbwBuACAAbwBmACAAdABoAGUAIABmAG8AcgBtAHUAbABhACAAaQBuACAAdABoAGUAIABnAGkAdgBlAG4AIABjAGUAbABsACwAXABuACAAIAAgAG8AbQBpAHQAdABpAG4AZwAgAHQAaABlACAAbABlAGEAZABpAG4AZwAgAGUAcQB1AGEAbAAgAHMAaQBnAG4AIABhAG4AZAAgAHAAcgBlAHAAZQBuAGQAaQBuAGcAIAB0AGgAZQAgAGMAZQBsAGwAIAByAGUAZgBlAHIAZQBuAGMAZQAuAFwAbgBcAG4AIAAgACAAUwB5AG4AdABhAHgAOgBcAG4AIAAgACAAIAAgAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUACgAYwBlAGwAbAApAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAgACAAYwBlAGwAbAAgADoAIABBACAAcgBlAGYAZQByAGUAbgBjAGUAIAB0AG8AIABhACAAYwBlAGwAbAAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABhACAAZgBvAHIAbQB1AGwAYQAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAgACAAQQAgAHMAaQBuAGcAbABlAC0AbABpAG4AZQAgAHMAdAByAGkAbgBnACAAaQBuACAAdABoAGUAIABmAG8AcgBtAGEAdAAgAFwAIgBBADEAOgA9ACAARgBPAFIATQBVAEwAQQAoAC4ALgAuACkAXAAiAFwAbgAgACAAIAAgACAAVQBzAGUAZgB1AGwAIABmAG8AcgAgAGEAdQBkAGkAdABpAG4AZwAsACAAZABvAGMAdQBtAGUAbgB0AGEAdABpAG8AbgAsACAAZABhAHMAaABiAG8AYQByAGQAcwAsACAAbwByACAAdABlAGEAYwBoAGkAbgBnACAAdABvAG8AbABzAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAAIAAgAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUACgAQgAzACkAIAAgAJIhIABcACIAQgAzADoAPQAgAFIARQBDAEkAUAAoAFIATwBPAFQAKABQAEkAKAApACwAMwApACkAXAAiAFwAbgAgACAAIAAgACAARgBPAFIATQBVAEwAQQBfAFQARQBYAFQAKABDADUAKQAgACAAkiEgAFwAIgBDADUAOgA9ACAAUgBPAFUATgBEAF8ARgBJAFgAKABQAEkAKAApACwAMwApAFwAIgBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAgACAALQAgAFQAaABlACAAcgBlAHMAdQBsAHQAIABpAHMAIABlAHEAdQBpAHYAYQBsAGUAbgB0ACAAdABvADoAIABDAEUATABMACgAXAAiAGEAZABkAHIAZQBzAHMAXAAiACwAIABjAGUAbABsACkAIAAmACAAXAAiADoAPQAgAFwAIgAgACYAIABUAEUAWABUAEEARgBUAEUAUgAoAEYATwBSAE0AVQBMAEEAVABFAFgAVAAoAGMAZQBsAGwAKQAsACAAXAAiAD0AXAAiACkAXABuACAAIAAgACAAIAAtACAASQBmACAAdABoAGUAIAByAGUAZgBlAHIAZQBuAGMAZQBkACAAYwBlAGwAbAAgAGQAbwBlAHMAIABuAG8AdAAgAGMAbwBuAHQAYQBpAG4AIABhACAAZgBvAHIAbQB1AGwAYQAsACAAYQBuACAAZQByAHIAbwByACAAdwBpAGwAbAAgAG8AYwBjAHUAcgAuAFwAbgAgACAAIAAgACAALQAgAFQAaABpAHMAIABmAHUAbgBjAHQAaQBvAG4AIABkAG8AZQBzACAAbgBvAHQAIABlAHYAYQBsAHUAYQB0AGUAIABvAHIAIABhAGwAdABlAHIAIAB0AGgAZQAgAGYAbwByAG0AdQBsAGEAFCBvAG4AbAB5ACAAZgBvAHIAbQBhAHQAcwAgAGkAdAAgAGYAbwByACAAZABpAHMAcABsAGEAeQAuAFwAbgAqAC8AXABuAFwAbgBGAE8AUgBNAFUATABBAF8AVABFAFgAVAA9AEwAQQBNAEIARABBACgAXABuACAAIABmAG8AcgBtAHUAbABhAF8AYwBlAGwAbAAsACAAIAAvAC8AIABBACAAcgBlAGYAZQByAGUAbgBjAGUAIAB0AG8AIABhACAAYwBlAGwAbAAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABhACAAZgBvAHIAbQB1AGwAYQBcAG4AXABuACAAIABMAEUAVAAoAFwAbgAgACAAIAAgAHIAYQB3ACwAIABGAE8AUgBNAFUATABBAFQARQBYAFQAKABmAG8AcgBtAHUAbABhAF8AYwBlAGwAbAApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXAAiAD0AUgBFAEMASQBQACgAUgBPAE8AVAAoAFAASQAoACkALAAzACkAKQBcACIAXABuACAAIAAgACAAYwBsAGUAYQBuACwAIABUAEUAWABUAEEARgBUAEUAUgAoAHIAYQB3ACwAIABcACIAPQBcACIAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAXAAiAFIARQBDAEkAUAAoAFIATwBPAFQAKABQAEkAKAApACwAMwApACkAXAAiAFwAbgAgACAAIAAgAGwAYQBiAGUAbAAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAEMARQBMAEwAKABcACIAYQBkAGQAcgBlAHMAcwBcACIALAAgAGYAbwByAG0AdQBsAGEAXwBjAGUAbABsACkALAAgAFwAIgAkAFwAIgAsACAAXAAiAFwAIgApACAAJgAgAFwAIgA6AD0AIABcACIALABcAG4AIAAgACAAIABsAGEAYgBlAGwAIAAmACAAYwBsAGUAYQBuAFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAgAFIATwBVAE4ARABfAEYASQBYAFwAbgAgACAAIAAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0ALQAtAC0AXABuACAAIAAgAFIAbwB1AG4AZABzACAAbwByACAAdAByAHUAbgBjAGEAdABlAHMAIABhACAAbgB1AG0AYgBlAHIAIAB0AG8AIABhACAAcwBwAGUAYwBpAGYAaQBlAGQAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAuAFwAbgAgACAAIABPAHAAdABpAG8AbgBhAGwAbAB5ACAAcgBlAHQAdQByAG4AcwAgAHQAaABlACAAcgBlAHMAdQBsAHQAIABhAHMAIABhACAAZgBpAHgAZQBkAC0AdwBpAGQAdABoACAAdABlAHgAdAAgAHMAdAByAGkAbgBnACwAIABwAHIAZQBzAGUAcgB2AGkAbgBnACAAdAByAGEAaQBsAGkAbgBnACAAegBlAHIAbwBzAC4AXABuAFwAbgAgACAAIABTAHkAbgB0AGEAeAA6AFwAbgAgACAAIAAgACAAUgBPAFUATgBEAF8ARgBJAFgAKABuAHUAbQBiAGUAcgAsACAAcABsAGEAYwBlAHMALAAgAFsAYQBzAF8AdABlAHgAdABdACwAIABbAHUAcwBlAF8AcgBvAHUAbgBkAF0AKQBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAAIAAgAG4AdQBtAGIAZQByACAAIAAgACAAIAAgADoAIABUAGgAZQAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIAB0AG8AIABwAHIAbwBjAGUAcwBzAC4AXABuACAAIAAgACAAIABwAGwAYQBjAGUAcwAgACAAIAAgACAAIAA6ACAATgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIAByAGUAdABhAGkAbgAuAFwAbgAgACAAIAAgACAAYQBzAF8AdABlAHgAdAAgACAAIAAgACAAOgAgAE8AcAB0AGkAbwBuAGEAbAAgACgAZABlAGYAYQB1AGwAdAAgAD0AIABGAEEATABTAEUAKQAuACAASQBmACAAVABSAFUARQAsACAAcgBlAHQAdQByAG4AcwAgAG8AdQB0AHAAdQB0ACAAYQBzACAAdABlAHgAdAAgACgAZQAuAGcALgAsACAAXAAiADMALgAxADQAMABcACIAKQAuAFwAbgAgACAAIAAgACAAdQBzAGUAXwByAG8AdQBuAGQAIAAgACAAOgAgAE8AcAB0AGkAbwBuAGEAbAAgACgAZABlAGYAYQB1AGwAdAAgAD0AIABGAEEATABTAEUAKQAuACAASQBmACAAVABSAFUARQAsACAAYQBwAHAAbABpAGUAcwAgAHIAbwB1AG4AZABpAG4AZwAuACAATwB0AGgAZQByAHcAaQBzAGUALAAgAHQAcgB1AG4AYwBhAHQAZQBzAC4AXABuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAXABuACAAIAAgACAAIABBACAAbgB1AG0AYgBlAHIAIABvAHIAIAB0AGUAeAB0ACAAcwB0AHIAaQBuAGcAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAcgBvAHUAbgBkAGUAZAAgAG8AcgAgAHQAcgB1AG4AYwBhAHQAZQBkACAAdgBhAGwAdQBlACAAdABvACAAZgBpAHgAZQBkACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAAIAAgAFIATwBVAE4ARABfAEYASQBYACgAUABJACgAKQAsACAAMgApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAJIhIAAzAC4AMQA0AFwAbgAgACAAIAAgACAAUgBPAFUATgBEAF8ARgBJAFgAKABQAEkAKAApACwAIAAzACwAIABUAFIAVQBFACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgAFwAIgAzAC4AMQA0ADEAXAAiAFwAbgAgACAAIAAgACAAUgBPAFUATgBEAF8ARgBJAFgAKABQAEkAKAApACwAIAA0ACwAIABUAFIAVQBFACwAIABGAEEATABTAEUAKQAgACAAIAAgACAAIAAgACAAkiEgAFwAIgAzAC4AMQA0ADEANQBcACIAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAgADEAMgAsACAARgBBAEwAUwBFACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAMwAuADEANAAxADUAOQAyADYANQA0ACAAIAAgACgAYwBhAHAAcABlAGQAIAB0AG8AIAA5ACAAZABlAGMAaQBtAGEAbABzACkAXABuACAAIAAgACAAIABSAE8AVQBOAEQAXwBGAEkAWAAoAFAASQAoACkALAAgADEAMgAsACAAVABSAFUARQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIACSISAAXAAiADMALgAxADQAMQA1ADkAMgA2ADUAMwA1ADkAMABcACIAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAAIAAgAC0AIABFAHgAYwBlAGwAIABsAGkAbQBpAHQAcwAgAG4AdQBtAGUAcgBpAGMAIABkAGkAcwBwAGwAYQB5ACAAcAByAGUAYwBpAHMAaQBvAG4AIAB0AG8AIAB+ADkAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMALgAgAFcAaABlAG4AIABhAHMAXwB0AGUAeAB0ACAAPQAgAEYAQQBMAFMARQAsAFwAbgAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACAAaQBzACAAYwBhAHAAcABlAGQAIABhAHQAIAA5ACAAZABpAGcAaQB0AHMAIABmAG8AcgAgAGMAbwBuAHMAaQBzAHQAZQBuAGMAeQAuAFwAbgAgACAAIAAgACAALQAgAFQAbwAgAGQAaQBzAHAAbABhAHkAIABmAHUAbABsACAAcAByAGUAYwBpAHMAaQBvAG4AIABvAHIAIABwAHIAZQBzAGUAcgB2AGUAIAB0AHIAYQBpAGwAaQBuAGcAIAB6AGUAcgBvAHMALAAgAHMAZQB0ACAAYQBzAF8AdABlAHgAdAAgAD0AIABUAFIAVQBFAC4AXABuACAAIAAgACAAIAAtACAAUwB1AHAAcABvAHIAdABzACAAYgBvAHQAaAAgAHIAbwB1AG4AZABpAG4AZwAgAGEAbgBkACAAdAByAHUAbgBjAGEAdABpAG8AbgAgAG0AbwBkAGUAcwAuAFwAbgAgACAAIAAgACAALQAgAEkAZABlAGEAbAAgAGYAbwByACAAZgBvAHIAbQBhAHQAdABpAG4AZwAgAGMAbwBuAHMAdABhAG4AdABzACwAIAB2AGkAcwB1AGEAbAAgAGQAaQBzAHAAbABhAHkAIABjAG8AbgB0AHIAbwBsACwAIABvAHIAIABlAG4AcwB1AHIAaQBuAGcAIABjAGwAZQBhAG4AIABvAHUAdABwAHUAdABzACAAaQBuACAAcgBlAHAAbwByAHQAcwAuAFwAbgAqAC8AXABuAFwAbgBcAG4AUgBPAFUATgBEAF8ARgBJAFgAPQBMAEEATQBCAEQAQQAoAFwAbgAgACAAbgB1AG0AYgBlAHIALAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABSAGUAcQB1AGkAcgBlAGQAOgAgAHQAaABlACAAbgB1AG0AYgBlAHIAIAB0AG8AIAByAG8AdQBuAGQAIABvAHIAIAB0AHIAdQBuAGMAYQB0AGUAXABuACAAIABwAGwAYQBjAGUAcwAsACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAZQBxAHUAaQByAGUAZAA6ACAAbgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIAByAGUAdABhAGkAbgBcAG4AIAAgAFsAYQBzAF8AdABlAHgAdABdACwAIAAgACAAIAAgACAALwAvACAATwBwAHQAaQBvAG4AYQBsADoAIABpAGYAIABUAFIAVQBFACwAIAByAGUAdAB1AHIAbgAgAHIAZQBzAHUAbAB0ACAAYQBzACAAdABlAHgAdAAgAHcAaQB0AGgAIABmAGkAeABlAGQAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAXABuACAAIABbAHUAcwBlAF8AcgBvAHUAbgBkAF0ALAAgACAAIAAgAC8ALwAgAE8AcAB0AGkAbwBuAGEAbAA6ACAAaQBmACAAVABSAFUARQAsACAAcgBvAHUAbgBkADsAIABpAGYAIABGAEEATABTAEUAIABvAHIAIABvAG0AaQB0AHQAZQBkACwAIAB0AHIAdQBuAGMAYQB0AGUAXABuAFwAbgAgACAATABFAFQAKABcAG4AIAAgACAAIABuACwAIABOACgAbgB1AG0AYgBlAHIAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAEUAbgBzAHUAcgBlACAAbgB1AG0AZQByAGkAYwAgAGkAbgBwAHUAdABcAG4AIAAgACAAIAByAGEAdwBfAHAALAAgAE4AKABwAGwAYQBjAGUAcwApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABSAGEAdwAgAGkAbgBwAHUAdAAgAGYAbwByACAAcABsAGEAYwBlAHMAXABuACAAIAAgACAAcgBvAHUAbgBkAF8AZgBsAGEAZwAsACAASQBGACgASQBTAEIATABBAE4ASwAoAHUAcwBlAF8AcgBvAHUAbgBkACkALAAgAEYAQQBMAFMARQAsACAAdQBzAGUAXwByAG8AdQBuAGQAKQAsAFwAbgAgACAAIAAgAHIAZQB0AHUAcgBuAF8AdABlAHgAdAAsACAASQBGACgASQBTAEIATABBAE4ASwAoAGEAcwBfAHQAZQB4AHQAKQAsACAARgBBAEwAUwBFACwAIABhAHMAXwB0AGUAeAB0ACkALABcAG4AXABuACAAIAAgACAALwAvACAARQB4AGMAZQBsACAAbwBuAGwAeQAgAHIAZQBsAGkAYQBiAGwAeQAgAGQAaQBzAHAAbABhAHkAcwAgAHUAcAAgAHQAbwAgADkAIABkAGUAYwBpAG0AYQBsAHMAIABhAHMAIABuAHUAbQBlAHIAaQBjAFwAbgAgACAAIAAgAG0AYQB4AF8AcABsAGEAYwBlAHMALAAgAEkARgAoAHIAZQB0AHUAcgBuAF8AdABlAHgAdAAsACAAcgBhAHcAXwBwACwAIABNAEkATgAoAHIAYQB3AF8AcAAsACAAOQApACkALABcAG4AXABuACAAIAAgACAAcAB3AHIAXwAxADAALAAgADEAMAAgAF4AIABtAGEAeABfAHAAbABhAGMAZQBzACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABQAG8AdwBlAHIAIABvAGYAIAAxADAAIABmAG8AcgAgAHIAbwB1AG4AZABpAG4AZwAvAHQAcgB1AG4AYwBhAHQAaQBvAG4AXABuAFwAbgAgACAAIAAgAC8ALwAgAFAAZQByAGYAbwByAG0AIAByAG8AdQBuAGQAaQBuAGcAIABvAHIAIAB0AHIAdQBuAGMAYQB0AGkAbwBuAFwAbgAgACAAIAAgAHIAZQBzAHUAbAB0ACwAXABuACAAIAAgACAAIAAgAEkARgAoAHIAbwB1AG4AZABfAGYAbABhAGcALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAG4ALAAgAG0AYQB4AF8AcABsAGEAYwBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAVABSAFUATgBDACgAbgAgACoAIABwAHcAcgBfADEAMAApACAALwAgAHAAdwByAF8AMQAwAFwAbgAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgAC8ALwAgAE8AcAB0AGkAbwBuAGEAbABsAHkAIABmAG8AcgBtAGEAdAAgAGEAcwAgAGYAaQB4AGUAZAAtAGwAZQBuAGcAdABoACAAcwB0AHIAaQBuAGcAXABuACAAIAAgACAAZgBpAG4AYQBsACwAXABuACAAIAAgACAAIAAgAEkARgAoAHIAZQB0AHUAcgBuAF8AdABlAHgAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAVABFAFgAVAAoAHIAZQBzAHUAbAB0ACwAIABcACIAMAAuAFwAIgAgACYAIABSAEUAUABUACgAXAAiADAAXAAiACwAIABtAGEAeABfAHAAbABhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAZgBpAG4AYQBsAFwAbgAgACAAKQBcAG4AKQA7AFwAbgBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIAQQBTAFQAUgBPAF8ASABBAEIAXwBJAE4ARABFAFgAIgAsACIAQQBTAFQAUgBPAF8AUwBQAEUAQwBUAFIAQQBMAF8ARABJAFMAVABSAEkAQgBVAFQASQBPAE4AIgAsACIAQQBTAFQAUgBPAF8AQwBBAEwAQwBfAFQARQBNAFAAIgAsACIAQQBTAFQAUgBPAF8AVABZAFAARQBfAEYAUgBPAE0AXwBUAEUATQBQACIALAAiAEEAUwBUAFIATwBfAEQASQBTAFAATABBAFkAXwBTAFAARQBDAFQAUgBBAEwAIgAsACIAQQBTAFQAUgBPAF8AUwBUAEEAUgBfAEEAVABUAFIASQBCAFUAVABFAFMAIgAsACIAQQBTAFQAUgBPAF8ASABBAEIASQBUAEEAQgBMAEUAXwBaAE8ATgBFAFMAIgAsACIATgBBAFMAVABSAE8AXwBIAEEAQgBJAFQAQQBCAEwARQBfAFoATwBOAEUAUwAiACwAIgBBAFMAVABSAE8AXwBTAFQAQQBSAF8ARABFAE4AUwBJAFQAWQBfAFYATwBMAFUATQBFACIALAAiAEEAUwBUAFIATwBfAFAATABBAE4ARQBUAF8ATQBFAFQAUgBJAEMAUwBfAFMAQQBGAEUAVABZACIALAAiAEEAUwBUAFIATwBfAFAATABBAE4ARQBUAF8ATQBFAFQAUgBJAEMAUwAiACwAIgBBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUwBPAEwAVgBFAFIAIgAsACIAQQBTAFQAUgBPAF8AUwBZAE4ATwBEAEkAQwBfAFAAUQAiACwAIgBBAFMAVABSAE8AXwBTAFkATgBPAEQASQBDAF8AUABTACIALAAiAEEAUwBUAFIATwBfAFMAWQBOAE8ARABJAEMAXwBRAFMAIgAsACIAQQBTAFQAUgBPAF8AQQBQAFAAQQBSAEUATgBUAF8AUwBPAEwAQQBSAF8AUwBJAFoARQAiACwAIgBBAFMAVABSAE8AXwBPAFIAQgBJAFQAXwBDAE8ATgBGAEkARwBVAFIAQQBUAEkATwBOAF8ASQBOAEQARQBYACIALAAiAEEAUwBUAFIATwBfAFMAUABIAEUAUgBJAEMAQQBMAF8AVABPAF8AQwBBAFIAVABFAFMASQBBAE4AIgAsACIAQQBTAFQAUgBPAF8AQwBBAFIAVABFAFMASQBBAE4AXwBUAE8AXwBTAFAASABFAFIASQBDAEEATAAiACwAIgBEAEUARwBfAEQARQBDAF8ARABNAFMAIgAsACIARABFAEcAXwBEAE0AUwAiACwAIgBEAEUARwBfAEQATQBTAF8ARABFAEMAIgAsACIAQQBTAFQAUgBPAF8ATwBSAEIASQBUAF8AQQBYAEkAUwAiACwAIgBBAFMAVABSAE8AXwBPAFIAQgBJAFQAXwBQAEUAUgBJAE8ARAAiACwAIgBBAFMAVABSAE8AXwBPAFIAQgBJAFQAXwBTAFUATQBfAE0AQQBTAFMARQBTACIALAAiAEEAUwBUAFIATwBfAE8AUgBCAEkAVABfAFMATwBMAFYARQBSACIALAAiAEcAZQBuAGUAcgBhAGwALgBSAEUAQwBJAFAAIgAsACIARwBlAG4AZQByAGEAbAAuAEYAUgBBAEMAIgAsACIARwBlAG4AZQByAGEAbAAuAFIATwBPAFQAIgAsACIARwBlAG4AZQByAGEAbAAuAEYATwBSAE0AVQBMAEEAXwBUAEUAWABUACIALAAiAEcAZQBuAGUAcgBhAGwALgBSAE8AVQBOAEQAXwBGAEkAWAAiAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
